--- a/cohere_docs_embeddings.xlsx
+++ b/cohere_docs_embeddings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/de28da29e0687090/PersonalPythonProjects/Hackathon2022/DiscordData/application/coheresemanticsearchtool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0C5D80EF68938A0F6D2C4C827D6B3C957959BFCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67C8121-E328-4A0F-877B-1F7EC6451B66}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_0C5D80EF68938A0F6D2C4C827D6B3C957959BFCA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36816F89-7235-47E6-B2A2-4593712A734C}"/>
   <bookViews>
     <workbookView xWindow="-6525" yWindow="-16395" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="197">
   <si>
     <t>text</t>
   </si>
@@ -611,198 +611,6 @@
   </si>
   <si>
     <t>/reference/text-summarization-example</t>
-  </si>
-  <si>
-    <t>[1.0713798, -0.6110569, 0.45776862, -1.0717573, -1.1236944, -1.4482673, -1.8746009, 1.1103786, 2.1076744, 0.17211021, -0.064946115, 0.36875147, 0.62645626, -0.21184601, -0.5430999, 0.59932065, 1.0759816, -0.833358, -0.022286711, -0.22088383, 0.24771188, 2.0697653, 1.9695204, -0.23774077, 0.10205937, 2.7038517, 1.6316047, -0.48713455, -1.9252659, -0.54332554, 1.0795747, 3.752298, 1.5847231, 0.6026342, 1.8876147, -0.2807756, 0.6698629, 1.0120498, 2.8236969, 0.7266953, -0.13596931, 0.7294585, -0.7003602, 0.48101318, -2.4940243, 1.4865237, -1.9378806, -0.12850188, -1.3220899, -1.2957181, 2.5061078, 0.61226106, -0.6811768, 0.96963143, -1.4527656, -0.22191921, -3.3243244, 0.19451697, -0.45624432, -0.05387876, -1.0710783, 1.5624577, 0.49054128, -1.4365988, 0.074918464, 1.0584979, -1.2815499, -0.9686357, -0.3551493, -0.15356545, -0.2928888, 0.24346271, -1.4094003, -0.35658902, 3.142919, 1.8612475, -1.1510944, -2.6005292, -2.2967322, 2.1784956, -1.3466202, 0.18898681, -1.635454, 0.65877265, -0.42798313, 1.3543158, -0.90840137, -0.8559035, 0.4832287, -0.36199877, 0.27104566, 0.31561404, 0.93464863, 0.029724369, 0.5420675, -0.3605128, 0.077805206, -0.39101186, 1.0068783, 0.060153738, -0.45499554, 0.31150708, 1.7766883, 1.1342251, -0.80288833, 0.42941263, -0.0008172434, 0.16253687, -0.30876604, 0.40688035, 0.025425974, -1.0424309, 2.451399, 0.35179475, 0.6756404, 2.0214896, 0.64361846, -1.6607337, -1.1513579, -2.6973476, -0.583727, -0.17075588, 2.1066422, 1.049769, 0.3275885, 0.15616873, 0.64509815, -1.1497147, -0.7550387, 1.1073822, -1.615303, 0.37137225, 0.16262475, -0.32921985, 3.5834584, -0.570032, -0.49026412, -0.4875604, -0.9100638, -1.4260403, 1.5359095, 1.199367, 0.33077487, 2.1619904, -0.03069895, -0.51950616, -0.05085195, -2.1768913, 0.037272412, 0.3657993, -1.1900887, -2.2398524, -2.103262, 2.326991, -2.3234022, -0.18345197, -0.3730383, -1.4973541, -2.223531, -0.33676276, -0.58049834, 0.14904273, 1.8481822, -1.0033208, 0.58732903, -0.955537, 0.9313261, 1.2236539, -0.23801102, -3.719675, -0.40507984, -2.9737267, 0.27892056, 0.24035496, -0.053190943, 1.4845494, 0.2056087, -2.7625089, -0.120826155, -1.7130624, 1.1037006, -1.2720935, 0.9361686, 0.7021103, -1.5510244, -2.4721131, 0.29111373, -0.7648149, -0.80590063, 0.39512756, 0.99089247, -0.8002024, -1.234708, 1.637879, -0.11810823, -0.21427882, 0.46777472, -0.2960947, 5.555618, 0.0068253656, 1.2554563, -0.95511115, -0.27221447, -1.9464688, -1.6360348, 1.0711863, 0.8825568, -0.6728291, 0.5961214, -0.2491275, -0.5263837, -0.3330154, 1.4008472, 1.0946658, 0.3411995, -0.070242465, 1.6929035, -1.9830786, 0.09346258, 0.17720975, 0.5220975, -2.2132223, -1.2116994, 0.30974343, -2.60281, 1.7564778, -0.9585351, 0.24732238, 0.23410335, -0.881162, -0.067763396, -0.47767386, 0.9468005, 1.4655467, -0.19988146, 3.0663137, -1.8097441, 3.1206841, 0.04065635, -1.1771985, -0.85092354, -0.13231596, -1.316882, -0.36176926, -1.0838826, 0.12590834, 0.36375466, -0.92015576, 0.17552422, -0.045065913, 3.4861934, 1.5572591, -1.9610406, -1.5834386, 0.4488494, 0.07033397, -1.6449594, -1.2387874, -0.7203688, 0.10159422, -4.1379266, -0.6660645, -0.189319, 0.19075608, 0.38279533, 0.35188493, -2.5424745, -0.07035842, 0.18307507, 1.368419, 1.4885957, 2.1731265, 5.3465357, 0.90450436, -1.0560162, -0.46293655, 0.15850781, 1.1623257, -1.3186977, 0.8303979, -0.96047896, -1.3667343, -0.1061645, 0.44976848, 1.4630902, -0.414899, -2.0564451, -0.37100786, -0.26794583, 0.28926337, -0.53800863, -0.87831557, -0.086020134, -0.51237285, -1.822748, -1.4143374, -1.5744711, -1.0038824, -0.33389187, -0.25264722, -1.2797469, 0.11054631, -2.2091534, -1.2793841, 0.80964035, 0.8633011, 2.2275932, 0.22231135, -0.55632544, 0.57510746, -0.7308189, -0.004811784, -2.0770276, -0.49823055, -0.08140289, -0.8928966, 1.3111128, -0.30793235, -1.0553614, -1.4456072, -0.5815271, -1.9641024, 1.7290984, 0.29743463, -0.031053102, -1.5605482, -0.45509496, 5.3060193, -0.23347013, -0.05618439, 1.4124067, 0.69550544, -1.1075923, 1.243953, -0.7310621, -1.4397413, 0.27460897, 0.8057518, 0.308632, -0.27938724, -0.7910976, 0.31665766, -1.8688763, -0.5328648, -1.4419124, -0.4997396, -0.04548102, 1.6221259, 0.9887002, 1.0796182, 0.6197485, -0.6792326, -0.03494663, 1.7387438, 0.09493106, 1.5562812, 2.651453, -2.9295726, -1.3747337, 1.7942466, -0.11869397, -0.2901654, -0.22629689, -1.7089342, -1.9203963, 1.1914076, -0.099891506, -3.5537333, -0.6450029, -1.8950704, 0.174734, 1.9949428, -0.99795437, -0.5436093, 0.33457473, 0.40571547, -2.9888747, 1.0457425, 0.09443584, -1.6281675, 1.308081, 0.57698196, -1.1570921, -0.64789903, -1.0425234, -0.722643, -1.3831521, -0.88604593, 0.77159935, 2.1576297, 0.4157434, -0.9733249, 0.10296507, 1.3186673, 1.117009, -0.16965759, 1.5161866, 2.3790674, 0.85752875, -0.9049893, 0.23331188, -0.8703841, -0.5291179, -1.4726259, -1.1271672, 0.08979519, -1.6241952, -0.016922679, 1.712777, 0.9374518, 0.88031226, -0.41486827, 2.4928563, 0.15541714, 0.34621453, -0.7878547, -1.076277, -1.3704317, -0.358372, 0.15450814, 1.755704, -0.08621732, -0.36132425, 1.5129107, -0.47200608, -0.4862102, -2.3757453, -1.3638316, -1.8048804, 1.0556271, -1.5229638, 0.59565556, 0.41536447, 0.5132986, -0.52994967, -2.3458788, 1.3522999, -1.7842114, 1.3975561, 0.045835007, -1.6694144, -0.65547, 1.1126866, 1.1415355, -0.71088594, 2.3651617, 0.36588585, 1.4775034, 0.9262028, 0.55005544, -2.0446892, 0.24244155, 0.1946326, -1.0444131, 1.4764476, -1.5370803, -0.2647548, -1.510289, 0.65066946, 0.25962865, -0.7904117, 2.249482, 0.043444145, 0.30694324, 1.2564051, 1.1458474, 0.5025009, -0.45438534, 0.48028573, -2.0833156, -0.6329747, 1.2274109, -0.19748235, -0.88133776, -0.64138716, 0.08661327, -1.8644865, -0.5242145, 0.018281145, 0.16223045, -1.532146, -0.81910074, -0.9745301, 0.3341132, 0.47366056, -1.4846419, 1.453429, 3.229364, -0.41518542, -0.8061513, -1.4760681, 0.6676595, -0.6459789, 0.4860921, -0.82736385, -2.064399, 1.3763942, 0.55357116, -0.1739563, 0.59617424, 1.369623, 0.59335816, -1.389478, 0.5374351, -0.5374807, -2.305898, -1.3801128, -0.2426966, -0.67408055, 0.004479766, -1.5773863, -0.99763626, -0.6782332, 0.64167225, -0.64381635, 0.7051257, -0.7157113, -0.21572293, 1.2896664, -1.3761265, 1.9606363, -1.0801904, 0.19505845, -2.036598, -0.3465843, 2.6378102, 0.33830434, 3.189506, 0.22860499, 0.7361973, 2.4423683, 0.5086695, -1.12745, -1.523043, -1.2209991, 0.75919676, 0.78161407, -0.76671255, -0.56069225, -1.2866204, -0.29329482, -1.9919378, -2.5200942, 0.3487121, 0.7705052, -1.9451209, 2.8282652, -0.5979311, -3.5901477, -1.1407822, -2.1736722, 2.139018, -0.36436585, -0.58657247, 1.7293891, 1.5004413, -0.3143408, 0.29162285, -0.6654656, 0.33754176, -0.5666791, -1.3172513, -1.304094, -1.0435727, 0.7271191, 0.103676185, 1.64282, -0.31321228, -0.4866519, -1.3383927, -0.9334378, -1.8089215, 0.16414344, -1.2560834, -0.8695628, -0.61938775, -0.33127373, 1.2791488, -0.49197036, -0.9133727, 2.4119086, 0.038703393, 0.15123339, -0.23882999, 0.49364674, -0.36182153, -1.5074809, -0.7810538, 0.541087, -1.0344248, 0.033258297, 1.3663398, -1.0315202, 1.8630711, 0.69327086, 1.3295337, 2.135462, -0.6426201, -0.3060106, 0.25790018, 0.7200001, 1.0714344, 0.21522036, -0.25806293, 1.0130918, 1.2454607, -0.8684386, -0.35878628, 0.97400546, 0.29834646, -1.1069025, 0.10306699, 0.80057096, 0.996292, -1.6237155, -0.3800599, 0.4181511, -0.96104056, -1.573443, -0.27367172, 0.5396853, 2.835586, -2.2921667, 1.849653, 1.4425507, 0.38607684, 1.1058123, 0.7035948, -0.8830226, 1.5303012, -0.028186845, 3.8084114, 0.37643313, -1.891286, 0.78680015, 2.885799, -0.069864444, 1.91055, -1.5281928, -0.3706945, -0.25776294, -0.118894, -0.57406676, 3.2257247, 1.9060439, -0.7141091, 0.906957, -0.98514014, 2.2285368, -0.78667724, -2.6502504, 1.9231964, 0.6070182, 2.3819773, -1.3410912, -0.7226331, 0.10863663, -0.453681, 0.21836612, 0.40754008, -0.6798276, 0.71783817, -1.1417614, -1.5376577, 1.9590082, -0.07171556, -0.9103241, 0.1092891, 0.7645064, -0.76282215, -0.48466605, -0.48972562, -1.5459223, -2.1368892, 0.62011456, -0.5763919, 1.4896543, -1.6290357, 0.93218774, 0.7422608, -0.41935265, -0.4907329, -0.33945656, 2.7346432, -1.5445975, 0.0628634, 0.5598412, -0.578499, -0.40033662, 4.319847, 1.7121783, 0.29611912, -0.88398594, 0.83697546, -1.4191422, -0.5702484, 0.33437026, 2.412934, -0.7663809, -3.890136, 0.27433345, 0.68529314, 1.4655098, -2.0741475, -0.795576, 1.1518562, 0.21592173, 1.1363739, -0.2799814, 0.30159655, -1.3542408, 2.599336, 0.12676151, 1.1044974, 0.43347746, -0.45944425, 0.1738942, 1.3234761, 0.89022577, -1.5543835, 1.8684772, -0.32843027, 1.1812767, 0.72549343, 1.946108, 1.5372957, -0.22878322, 0.10932033, 0.2848997, -1.122675, -0.8595877, 0.6127639, 0.6494955, 1.3413845, 0.11835237, -2.5735395, 0.0873665, -1.3586549, -3.0874968, -0.46076968, 1.0682764, -0.5982671, 1.5108757, -0.11820767, 0.87940115, -0.16005994, -0.619513, 0.5050169, -0.30335215, -0.027557828, 0.13648531, -1.4171951, 0.48177782, 0.4696618, -0.92796695, -2.2836895, 0.75396836, -0.12369736, -0.5379419, -0.6614149, -0.71848804, -2.5009198, 0.70718455, 1.7711871, 1.4894111, -0.1871703, 0.8328724, 0.013493147, 0.49745023, -0.27979836, 0.18046205, -4.4975157, 0.15126446, 0.91079664, -1.3920813, 2.1784177, 0.40779808, 0.953534, 2.1833506, 2.1074338, 0.10228666, 1.4085573, -0.11663083, 0.62231547, -0.9752754, -0.28551254, -1.8280232, -0.66530734, -1.2581455, 1.1655647, -0.41211334, -0.045029245, 0.14074607, 0.6343514, -1.56458, -0.7579579, 3.190941, -0.59115297, -0.5958551, 1.9012866, -1.4949732, 2.265769, 0.4521876, 0.021459928, -1.026989, -0.120203085, 0.72127664, -0.7920278, 1.0097004, -2.6650827, 0.96322465, -1.0795723, -1.3059323, -0.4256478, 1.1220505, 0.012558541, -0.18491785, -0.22819914, 0.8377869, -0.11586009, 1.1510831, 1.7808245, -0.6705793, 2.05247, -0.70565826, -0.7182267, 0.44548562, 2.6044116, 0.25922978, 0.99326843, -0.37865534, -0.80270135, 0.97352314, -0.7092956, 0.38971055, -2.8587434, -0.04532296, -0.7285764, 0.045597803, -0.03182946, 1.7850915, -0.23007669, 0.9354557, 0.4239517, 0.85703665, -1.7054045, 1.157996, 3.4639213, -0.26411325, 0.46312982, 0.09435424, 0.63911855, 1.6687484, 1.352473, -0.4001303, -1.3227268, -1.2772552, 1.3247857, 0.1782253, 0.48117176, 2.2453125, -0.48535934, -0.94458485, -1.8582121, -0.25533542, 1.3707159, -1.224435, -0.17082377, -0.010065804, 1.2080964, 1.7946945, 1.776831, 0.9262028, 0.36877242, -0.51228696, 0.9935836, 0.6505294, -0.8395081, -0.7975952, 0.85935515, -0.767812, 1.0753387, -0.22566192, 0.89345163, 0.71418566, 1.0365741, -0.2874665, 0.9382384, 0.8658171, 0.14560032, 0.39200065, -2.000436, -0.042145126, 0.3057602, -1.5516118, 0.4131031, 1.8431408, -0.7763546, 0.5717532, -0.37535018, -0.72194016, 1.9135048, -1.3546019, -0.8171535, -1.0881708, -0.38249007, -1.431408, 1.0284474, 0.3448283, 0.37007043, -1.6686282, -1.4365512, 0.5545306, -1.2787762, -1.8714095, -1.7334797, 0.58214754, -0.12454542, 0.43584287, 0.56847435, 0.44840142, -0.7842696, -1.0597777, 2.4580805, 0.7443111, 0.555897, -1.0472556, 0.0685761, 1.6187482, 0.2714956, 0.59969777, -0.4111794, 1.7389446, 0.38365296, -1.0460016, -4.390443, 1.9612142, -0.61128724, -0.8457286, 1.3291148, 0.24678339, -1.2362779, 0.56413615, 1.6211652, -1.2026757, 2.3746643, -0.6668812, 0.112851776, -1.5402399, -0.54455584, -0.28851542, -0.2324384, 0.46536145, -0.8229396, -0.15811591, 1.1309901, 0.65923256, 1.498105, 1.2076471, -0.6434093, -0.37897432, -0.50503427, -1.6944165, 1.1085451, 0.88220596, 2.9497526, 0.36448792, 0.6476083, -0.45782545, 1.7815223, -0.2365183, 0.049611755, 0.22093223, 0.31768262, 0.1700048, 1.3593314, 1.328731, -0.89616126, 0.46847034, 1.4787495, 0.053681865, -1.5807031, -2.425398, -0.19658144, -2.5003767, -1.6981146, 1.0258567, -0.97341347, -1.4449518, 0.69063073, 0.22977696, -0.39103365, 2.1475441, -1.5985429, -0.060572766, 0.21636872, -0.5128707, 0.033980805, -2.2224607, -2.3837137, 0.2451826, 0.3788334, 0.08760122, 1.2888827, -1.0029373, -1.4611423, -0.6825128, 1.959875, -0.6214281, 1.2232803, -0.038589414, 2.8065958, -0.22805262, 0.04242761, -1.9489017, 0.8760175, -0.66827136, -1.5218492, -0.2783051, 0.8199775, -1.6922992, -0.2671646, 0.79161096, -0.73590595, 0.69685966, 0.6533233, -0.28216705, 0.80613714, 0.79363346, 0.13029577, -1.7310158, 2.0766926, 3.1083045, 0.777024, 1.7194636, -1.8780401, 1.9374247, 1.4629289, -0.088961676, -0.34701335, -1.0618914, 1.7736291, -2.3178177, -0.32927996, 0.3268412, 1.0112814, -0.24412097, 0.52095395, 0.4451209, -1.1426468, -0.5091921, 1.3471448, 1.8038471, 1.1755804, 0.5828724, 0.8013214, 0.72622883, 0.08017988, -0.380566, 0.82455707, -2.5444462, 0.65041244, 0.009332763, -2.91055, 1.3987342, -1.553995, 0.076974005, -1.1304188, -0.36349666, -0.665676, 0.4778939, -2.1383178, -1.2860595, 0.5820649, -1.3428408, 0.5788994, -0.42766896, 0.38758498, -1.4746596, -0.9073706, 0.53377765, -0.43616432, -0.22755228, 1.3331307, 3.7882855, 0.007131946, -1.0333842, -1.031554, -0.028162727, -1.8712894, 2.9902925, 1.500382, 0.20847462, -0.72208047, 0.64761555, 1.84798, 1.6688752, 1.4211957, -0.85528505, 0.38799527, -0.80239743, 0.4892588, -0.5031484, 1.5277481, -0.4086141, -0.48298416, 0.20912577, -1.4421364, -0.23804516, -0.1781665, 1.9230577, -1.1449845, 0.62309843, 1.9228859, 0.7383594, -1.2349062, 0.76024795, 0.10078713, 0.9635477, 1.2151927, 0.6361849, 1.9271767, 0.03591642, -0.33495829, -1.4394822, 0.10425961, 0.35075113, -0.61568964, 1.8695344, 0.55030024, 0.86726546, 1.3990136, -0.06073188, -0.95972306, 1.5329345, -1.2179776, 1.1211479, 0.71632874, -0.44241518, 1.513173, -0.5484307, -0.040633723, 0.09560303, -1.6493771, -0.6532754, 2.127105, -1.2080435, -0.8772022, -0.42415982, -0.6731556, 0.31364214, -2.0187554, -1.7340684, 0.024127634, 1.5320799, -0.996884, 1.532002, -0.8798184, -0.3533161, -0.6776683, -0.24441086, -1.8264468, -0.036925692, -1.2127267, -0.054014873, -2.7639942, -0.033049174, 0.5364301, -0.781998, 0.3018034, -1.315575, -1.010803, -2.5324473, 0.030523278, -0.691651, 0.90318555, 1.0373459, 0.7709994, 1.1841874, 0.484077, 0.45249003, 0.33239532, -0.3617827, -2.152431, -1.5256523, 1.4239762, 1.8801154, -2.1356165, -1.0085393, -1.584283, 0.24399592, -1.476741, 1.3338066, -1.1114563, -0.8941639, -0.23639882, 1.0674483, 1.7100111, 1.1492938, 1.2253071, -3.720357, -1.1260995, -1.0661604, 3.283803, 1.618955, 1.0672646, 0.35072154, -1.5788162, 0.50793207, 0.07550619, -0.75602156, 0.4833145, 0.27146834, 0.2724251, -0.4414102, -0.058431208, 2.4871395, 0.9557164, -0.03745824, 0.45090824, 1.2314519, 0.5655612, -0.41048068, 0.60955536, -0.18820435, -0.8981778, -1.0407217, 2.7871437, -1.9564497, 0.45518383, -0.04478725, 0.5080464, -0.43528125, -0.91393566, 0.44333625, -0.066597864, -1.183632, 0.26766005, 0.4367527, 0.9487787, -1.7448859, 0.25807178, -0.779281, -0.26392543, -1.6117232, -0.6707729, 2.702401, 0.4195522, 0.61616683, -0.7321979, -2.1171584, 0.97592026, -0.31452516, -1.8554212, 0.07687886, -0.8581186, 0.8745692, 0.17793854, -1.491799, 0.20387246, 0.613384, -1.18961, 1.5887489, 1.3903844, -1.5711126, 0.63453966, 0.6896573, -0.32091773, -1.8604838, 1.3202379, -0.5569118, -0.29125813, 0.643704, 1.0818384, 0.28967765, 1.2122194, 0.87131375, -0.22081825, -1.3032333, 0.20271535, 1.614386, 1.451148, -0.08688565, -1.1354296, 0.26694316, 0.8135882, 0.019898493, 2.5078337, 2.8359401, -0.59801435, 0.5228693, 1.0588686, -2.4130106, -0.386282, 0.4173867, -1.972577, 0.5208068, -0.430224, -1.2832156, -1.8775768, 0.13466321, -0.23539187, 0.695029, 1.0662477, -0.046628546, -0.621479, -0.5536594, 0.26970634, -0.8802543, -0.60869974, -1.4827971, 0.572259, 1.1196101, 3.9774399, 1.4926202, -0.24649349, -0.0022603655, 2.0619845, 0.32300702, 1.3455392, -1.6755923, -0.01540002, 0.7265103, 0.6913864, -0.48910683, -1.6021599, -0.86459476, 0.31685027, 1.2299144, 1.9067601, -0.7971446, 0.6310576, -2.079724, -1.2639005, -0.8946297, -2.9128137, -0.35793957, -0.96223515, 1.0733556, -1.0964537, 2.960187, 1.1917855, -0.008510894, -0.88184917, -0.18530901, 0.5115453, 1.4228846, 1.1814953, -1.054996, 0.13609105, -1.2940193, 0.98735094, 0.4781793, 0.42482847, -2.4886434, -1.5214837, -0.22799695, 0.46615678, -0.7603798, 0.9140691, 0.22157727, 0.73111695, 0.8667131, -0.17274134, 5.453606, 1.6711825, -0.17551927, 0.50791425, 0.3630553, 0.91847295, 0.006039755, 2.1215906, -0.5800411, -1.336924, 1.9214497, -1.0030922, 0.7357024, 0.39762545, -0.34917924, 0.25934887, 0.08028626, 1.3928437, -2.0394773, -0.8600159, 0.959731, -1.6346864, -0.17459475, -0.71493626, 0.5996044, -0.86546165, 0.5038422, -0.47194928, 0.5427127, -1.2791033, 0.19409443, -1.0788386, -0.2536261, 0.39326686, 0.7786996, 0.8253595, 1.4679756, 0.5115896, 0.7041691, 0.38729888, -0.9673278, 1.7190354, -1.1026844, 1.5829748, -2.0304492, 0.903615, -0.37282458, 0.27434203, -1.6105286, 1.4670889, -2.4508085, -0.822372, -0.6547363, 0.7242777, 0.37807572, 0.12211855, -2.2433028, -0.84714055, -0.88072395, -0.9729542, 0.40090334, -2.4226606, 1.5973748, -0.70170313, -0.3079198, -0.33239993, -0.18788852, -0.1372579, 0.68613493, 1.6296172, 2.8367648, 0.7544094, -0.99121356, -0.1463932, 1.8159966, 0.6627143, 0.4600016, 1.4779091, -1.634044, 1.8206059, -0.087944806, 1.5630273, 1.4097308, -1.321404, -0.45983508, -0.52610093, 0.23214106, -0.9344236, -0.024470225, 0.4330374, 1.5140964, -0.47148213, 1.0906241, -0.6211235, -1.84784, 1.5024884, 1.7289584, -0.46423587, 0.33639985, 2.3880203, 1.190143, 0.32492805, 0.10358699, -0.8473695, 0.4064839, 1.0638195, 1.0825585, -0.62055093, 0.43874085, 0.92958176, 2.0288014, 3.0445623, 0.3249832, 0.7414883, 1.8911761, 1.3684177, -0.70437115, 0.6958741, -1.0125433, 0.84033763, 2.2991822, 1.3674016, 0.36181822, -0.38801312, 0.9154672, 0.3040608, -0.48957232, -0.9697484, -0.8102509, 1.9141576, -0.34512037, -0.9630957, -0.8508463, -0.25730985, -0.58419186, 0.0653286, 0.053584572, -1.5824594, -0.05364503, 0.5140188, -1.6825571, 1.1567456, -1.1524098, -2.2276118, -0.19288035, 1.7501348, 1.0676881, 0.22899465, 0.305578, 0.7276738, -0.22957875, -2.1413333, -1.3905123, 0.04223798, -1.4446769, -0.5801032, 0.3150415, 1.7715716, -0.099645056, 0.14770144, 0.9289921, 1.04625, 0.32629213, 1.3568001, 2.2492309, 1.5126584, -1.6845981, -1.3417863, -2.1210012, 0.72757906, 0.47317758, 1.9221354, -1.2345244, 0.031724405, 1.9735681, -0.82506514, -0.26698348, -1.481357, 0.88825035, 0.28241554, 0.25186062, 0.59460366, 0.90864515, -0.33798248, -0.64191043, 0.131086, 0.3880617, 0.27593043, -1.8349833, -0.13800058, -0.33095127, 1.7530671, -0.7174629, -0.12572004, -0.28322616, -1.7897205, 0.061144177, 0.5562138, 2.3730786, -0.28048488, -0.71766376, 0.6128904, 0.03141122, 1.7987673, -0.4995114, -0.05398002, 0.5683495, -0.397305, -0.19319618, 0.6550719, 2.0155854, -0.22613204, 0.28016475, 0.15720806, -1.1535202, 1.1984483, -2.2791119, 1.8716831, 0.35652542, 0.7203618, -0.32901534, 1.8244097, 0.8265723, 1.2813126, -0.465112, -0.48519298, 0.29406688, -0.6892179, 0.14809458, 0.9913629, -0.94627583, -0.06247357, -1.1163445, 0.7378475, 1.4029622, 0.4553999, 0.27177188, -0.42439273, 1.5946248, -0.15968846, -2.6199627, 4.798218, -0.057079352, -0.88830584, -0.77788985, 2.8783195, 1.3024291, -0.14298514, 0.04217521, 0.8043545, 1.5296127, 0.85606605, 1.528652, -0.22945932, -0.94999576, 0.15680501, -1.049103, -1.252932, -1.253149, -1.6782234, -0.21234635, -3.8803256, -1.1642535, -0.6907117, 0.5247424, 2.6364334, 0.3605881, -1.2523879, -1.7760382, 1.007307, -0.43778148, 0.3030806, -0.11871115, 0.36136118, 0.20725441, 1.0972797, 1.6666967, -0.53149843, 0.8892758, -0.56053877, -2.4442024, 2.0071213, 0.494916, -0.09565159, 0.92772645, 0.40310624, -2.1474411, -0.42508417, 0.71445125, -0.17946616, 1.3812466, 0.7312933, 0.22425324, 1.4374459, -2.8807511, 0.23369676, 0.37680644, -0.45370117, -0.23228694, 0.55568486, -1.2242063, 1.3322877, 2.6895878, -1.6236633, 1.676734, 0.79598564, -1.4000814, 0.42230844, 0.09696446, -0.03926865, -0.31544027, -0.7523273, -0.38855097, -1.5279874, 1.0831479, -1.1100543, -0.08944467, 0.43672627, 0.1927307, -2.5600104, 0.03303629, 0.9575446, -1.2841169, 2.6107996, 0.14881346, 1.2491047, 1.0015025, 0.7722528, -1.3772227, 0.989954, -0.99438643, -1.4683417, -0.46944773, 1.2147936, 2.475095, -0.7833485, -0.08416376, -0.81800157, 1.8576981, 0.5200037, -0.84737444, -0.8348176, 0.98988086, 0.17947078, 1.3403255, 1.6078488, -2.803173, -0.20442796, 0.49558216, 1.0643237, 0.43771836, 2.982607, 1.1010894, -0.13011803, 0.09190193, -0.7944164, 2.366902, 1.9688201, -1.1951777, 2.5346198, -0.815435, 0.80083144, 2.0114214, -0.086581714, -1.1258609, 1.4557322, -0.04947977, 1.0561292, -1.0449562, -0.07621284, 0.76059157, -0.0052522444, -1.0453639, 1.08298, 0.47607455, -0.9237946, -1.7143786, -0.79081476, 0.21082914, -0.7441056, 0.76261044, 2.1155436, -1.1539692, 3.1760535, 0.70918953, 1.1569701, 1.3010799, -1.4520983, -1.4331847, 0.40138635, -2.5055766, -0.799958, -0.53249085, -0.17733578, -1.0424018, -2.3205001, -0.03546547, 1.0983434, -0.4355221, 0.080594815, -0.3079682, 0.39963624, 0.46553555, -1.7323215, 0.7282333, -0.46932617, -0.11238926, 0.41752836, 0.21429963, -2.376266, 0.28732875, 0.9321531, 0.3640824, -0.2997842, -0.5166425, -0.6377138, 0.15550701, 3.0530436, -0.49960423, -2.1597254, 0.20822999, 0.7688976, 0.6578675, -0.44772682, 1.261094, 1.6591427, 0.77283424, 0.08267993, 0.6834378, -0.57846, 1.0723951, 1.2740797, 1.4448738, -0.40498602, -1.1322663, -1.9182013, -0.61417323, -0.01742054, 0.74793386, -0.5750364, 0.091163896, -0.3121987, 0.24202959, -0.28153396, 0.30044875, 0.15102229, -1.7169548, -4.9209237, 0.51311225, -1.1974281, -0.06597892, 1.4897653, -0.87965286, 2.1190324, -0.47184706, -1.6890144, 0.2996871, 0.6911294, -1.8862153, 0.4229794, 1.6021532, -0.31503853, 2.1793518, -0.79115105, -0.23288241, -0.60877836, 0.067770004, -0.07174761, -0.7521771, 1.064806, 1.9986389, 1.622365, -2.200823, -0.61410517, -1.0180287, -0.6112234, -1.8354803, 0.3121185, 3.197477, -1.8949819, -1.1527402, 1.3946462, -0.30486062, 0.3544738, 0.0089653125, 1.8421272, -0.76563555, 0.9661454, 3.3380942, 0.009147179, -1.1389315, -1.0605575, -0.34777915, 0.57877845, -0.26084262, 0.45412552, -0.3580443, 0.45190695, 2.1535754, -1.4260323, -1.4308478, 0.72337675, 1.449491, 0.15521067, 2.5324156, -1.3325404, 0.06648686, -0.22857377, 0.80523854, 2.0642073, 0.994804, 1.657923, 0.6218265, -0.9808328, 0.8167439, 0.47965592, -1.510532, 1.925217, -0.7978661, 0.005708728, -0.48680913, 1.0212802, 0.3891771, -0.4160437, -1.1903623, -0.023214834, -0.16384974, -1.989045, 0.17898977, -2.186041, 0.31683373, -0.583636, -1.1695254, -1.0502917, -1.7225559, 0.7467079, 1.0631284, 0.31910732, 0.86624265, 0.92638385, 0.93335325, 0.6285296, -1.6618279, 1.0043625, -1.202755, 1.4708167, 0.7553057, 2.0626981, 0.20058383, -2.129193, 0.8686804, 0.46185791, 0.1399656, -0.67347366, -0.9850305, 3.3809862, -1.1967391, -0.6707666, 1.9140176, -1.2326492, -1.0969837, 0.277686, 0.82819635, 0.040876873, -4.0068216, 0.8073714, 0.049141973, -0.41767603, -1.5399466, 0.10641954, 1.0449588, 2.2390134, -0.05562838, -1.42148, -2.5036023, 0.75769657, 0.21893385, 1.7249252, 1.3282492, 0.2477991, 0.19164032, -2.7672584, -0.34873357, 0.23157746, 0.20988561, -0.8697934, 0.2400388, -1.4098285, 0.7390008, -2.7178977, 0.15849781, -1.8584803, -1.218939, -1.519518, 1.0153508, -0.28614867, -0.97487897, -0.004559621, -0.43339792, 0.13364254, -0.16782868, 0.86904746, -0.6701923, -0.2798903, -0.6775058, 1.9864682, 1.2317361, -0.98008025, -1.7495362, 1.1451232, 0.13770986, 0.1940026, -0.2769622, 0.6293965, 0.24297476, -0.60193443, -1.4278315, 1.352629, -0.47793806, 1.3169692, 1.4651326, 0.4575889, 1.0041032, -1.7254313, 2.1427896, 0.3376815, -0.9656016, -1.0332758, -1.08848, -0.78460187, -0.9407349, -0.026499087, -0.44997594, -0.4616815, -2.0678148, 1.7404696, -0.551397, -0.2129559, -0.4871668, 0.63819087, -0.29125217, -0.37475684, -0.18098915, -2.0948758, -0.9508326, -0.21307567, -0.5110435, -1.844938, -0.10988046, -0.52725387, 1.1914234, -1.3470193, 0.0029595857, -0.89306813, -2.052499, 0.4492227, 0.9665273, -1.0348259, 0.6268897, -0.44859105, -0.30163005, 0.3523567, -1.5157492, 0.897638, -0.5085756, 0.48556498, 1.389363, -1.1956152, 0.4135411, -0.09246355, -1.6154352, -0.9973055, -0.8145945, -0.22223073, -0.3851974, -0.7388389, -0.49472338, -3.1348686, -1.4093608, 0.9092266, -0.5001019, 3.5020192, -0.67728907, -0.2788375, 0.0900836, 0.014155531, 0.6839816, -1.1289935, -0.73890835, 1.0996834, -0.27597767, -2.668886, 0.085979454, -6.08284, -0.59263664, 0.7917616, 1.9891297, -0.5036248, 0.68027025, -1.0972869, 1.6351793, -1.9809867, 0.5367275, -1.3265568, -0.37885207, 1.0146755, 1.3125753, 0.030099666, 1.4482884, -1.1443211, -0.47652352, -3.3626523, -1.625851, -2.0970035, 3.742782, 1.1039187, 1.7829045, 0.93931, 0.71449226, 1.7691547, -1.5104527, 1.5296193, 0.45463195, 1.2729934, -0.9545614, -0.18113694, 0.113690905, -1.721718, -1.0140136, -0.64528644, 0.55628055, -0.21939091, -1.0758626, -0.39159364, -0.71557784, -2.5606024, 0.08874859, -1.9623013, 1.6036531, 1.3222854, 1.8113437, 1.5453355, -0.003244196, -0.278689, 0.45616966, -0.69261074, -0.8442046, 0.16727829, 0.60624844, 0.13668308, 0.49285617, -1.670321, -0.068278104, 1.3915408, 0.119022354, 0.12636656, 3.294224, 0.008415088, -0.18969099, 0.4343708, 0.7525511, 0.051317103, -2.3594832, -0.13341476, -0.32041028, 0.89077765, -0.05050754, -0.6256151, -1.274539, -2.6690311, 0.84110045, 0.52705204, -0.72577626, 0.5756724, -0.25078893, 0.5529029, 0.24866086, 0.11910957, -0.07609853, 0.19084528, 0.35949856, 1.6300005, -0.42036194, 0.011281345, 1.8796357, 1.3725051, 1.0547615, 0.9593121, -1.0415449, 1.2337776, 2.7672768, -2.0357668, -2.3908548, -0.31193376, -0.14931661, -0.37135392, -0.5855272, -1.3148284, -3.21727, -0.035753552, 1.4891481, 0.121677175, 2.8798578, -0.5315287, 0.46898556, 1.5623639, -1.3619981, -1.5169399, -0.68568563, 0.056181416, 3.837489, -1.1505426, 1.7449652, 0.0830935, 0.91962224, -2.8455868, 1.9272368, -0.44774994, -0.641516, -0.2964277, -1.6936805, -1.1807446, -0.7124278, -0.45055094, 0.3470259, -0.07248862, -2.6822088, -1.2177454, -1.7935199, -0.25397414, -0.52103716, -0.008717704, -1.6635604, -0.8539028, 2.5576317, -0.19710903, -1.003531, 1.0427567, 2.8631783, 0.52576727, -0.91401887, -0.45802367, -0.764515, -2.025557, 0.450786, 0.10046073, 1.943884, -0.84709066, -0.6970119, -1.4434519, -1.7820481, -0.43841213, -0.43857038, 0.30565745, 1.9415212, 1.9776064, -1.3558586, -0.83636105, 1.0360152, -1.6034535, -1.2687516, 0.86528987, -1.1503612, 0.75635624, -1.8975654, 2.057082, -0.6280969, -1.6451589, -0.8297337, 0.342805, -0.35770005, 0.13739187, -0.09384581, 1.0243613, -0.7501176, -1.6898892, -0.3443625, -1.3249693, -1.9892082, 2.9945269, 0.46024108, 0.13904718, 0.18709563, 0.5670432, -0.05846904, -0.83018976, -0.0042392593, -2.2466884, 0.4613779, -0.22256672, 0.34814122, 0.07188504, -1.4749827, -1.9277079, -2.5824885, -0.3003787, -0.104497805, -0.7184831, -0.73843783, -1.0479057, 0.64513546, 0.04530444, -0.6040756, -2.0280983, 1.3318012, -0.14084436, 0.35587808, 0.42055944, -0.006156044, 0.2969097, -0.79399955, 0.22374351, -0.06368833, 1.0570304, -0.45548713, -0.4522672, -1.3828733, 0.16598655, -1.1424011, 1.6322324, 1.0606809, -0.3488264, 1.5775118, 1.1842089, -0.11665891, 2.5587285, -0.42268175, 2.6573489, 0.6685687, 1.696108, 2.3714242, -0.2511794, -2.257342, -0.13338602, 2.321515, 1.5149497, -0.06473559, 2.3353217, 1.0335817, 0.7458678, 0.80707586, 1.8320524, -0.04239127, 1.023226, 2.069776, 0.49169856, 0.65453905, 1.1056789, -0.500524, 1.2726493, 1.4669422, -0.3887571, 1.6647854, -1.2666439, 0.16325179, 0.24884504, 0.2754795, -2.4204848, 0.5959687, 0.6159526, 1.4928377, -2.3143475, -1.1790698, -1.0999953, 0.05599443, -0.2313832, -0.3881261, -4.88323, -0.28546414, 0.42533195, 2.690899, -0.7560087, -0.1265794, -1.3109909, -0.6471385, -1.1239389, 0.21047965, 1.1088517, -1.1226557, -0.24426603, 0.94133276, 0.11984513, -0.72006327, -1.4149545, -1.1556659, 0.1801264, -1.0607729, 0.3365685, -1.2726383, 0.17932938, -1.1350042, -1.6000984, 1.077143, 1.343713, -0.46658048, 0.43038523, -0.9105474, -0.8887736, -0.33369762, 0.37141684, 0.6530181, 0.0065339827, -1.1448898, 2.2383103, 0.28334865, -0.18424854, -0.7339019, 0.8895166, -0.3092946, -0.41863608, 0.5079731, 0.7051462, -0.99866796, 0.27934942, -0.5468624, 1.6997311, -0.33791086, -0.03614074, -0.21760115, -0.6092326, 0.49608886, 1.7154053, -0.3653599, 0.937685, -0.95882314, -1.4926909, 0.87955904, 0.89443743, 0.15148942, -2.3111548, -1.7980537, 0.2378488, 2.4607592, 0.70614225, -1.1429204, 0.7589278, 1.869948, -0.3809433, 2.5886571, 1.456278, 0.054404706, 0.49817207, 1.857998, -0.119186215, -0.4296211, 1.6081249, -0.7784584, -0.18559515, 1.4602219, 0.46922705, -0.5138985, -0.21056287, -0.136208, 0.9420776, -0.40783906, 0.2346654, -0.84766614, -1.1804526, 0.33988628, 0.6791292, 0.40641353, 0.54474944, -0.68523204, 0.8630435, 2.001492, 1.0005683, 0.4055199, 1.296653, 0.58812386, -1.4335475, -1.7314043, 0.06796789, 0.5911388, -1.07144, -1.5475013, -0.91775995, -0.29170674, -0.7465615, 0.35540643, 1.5554076, 0.6182011, 0.9127219, 0.23966086, 1.7080421, -1.0792245, -0.8432138, 1.0540849, 1.4732378, -1.0436434, -0.24540658, 1.0688238, 0.16233172, -1.6385833, 1.0823834, -2.0729594, 0.51572496, -0.15027153, 0.35976812, 0.5422684, -0.48753908, 0.14823136, 0.9354042, 1.0182983, 0.018443685, 0.25632998, 2.4528897, -1.1282574, 0.8122205, 1.0367843, -0.5454408, -0.9729087, 1.2376688, 0.8702874, 0.07868596, 1.5096097, -0.09937944, 0.9984129, -0.2775816, -2.2864606, 0.4891468, -0.096548535, 0.432676, -0.1102987, -0.5621244, -0.85550046, -0.3355338, -0.064823136, -1.0685259, -0.95531666, 0.78156054, 0.032071125, 0.057650223, -0.43210512, -0.17591637, 0.31987906, -0.090796195, 3.8779178, 0.27896634, 0.14963013, -0.84310514, 1.4808962, -1.3260397, 2.157948, -1.6404665, -1.6373637, 1.1996311, -0.3931295, -2.0843306, -0.8161598, -0.09108659, -1.5652823, 0.10153029, -1.6234572, -0.45121548, 1.2112573, -0.30199635, 0.29895103, -1.5966691, -1.8789023, 0.17966934, 0.42814437, 1.0867848, -0.47998905, -1.9805982, 1.1716077, -1.726885, 0.99454767, -0.15450896, -1.392068, -2.415298, -0.3180627, 0.22355089, 0.6651016, -0.18669853, 0.6212034, 1.1773729, 0.8681231, -1.0689223, 1.2432948, -0.5578919, 1.9841609, -0.19899245, 1.7233751, -0.48621514, -0.50396854, 0.69462335, -0.14443478, 0.08162556, 0.29911885, 0.6685938, 0.5574368, -0.49594557, -0.10616318, -1.1659595, -0.9885693, 0.7813795, -0.06632829, -0.4995996, 0.01367138, -1.1162598, 0.03581492, -0.6855066, 0.85545486, -0.6735308, 2.562582, -0.36861378, 0.30348828, 0.38714623, 1.1880338, -1.523314, 1.0449866, 0.4716513, -1.1830064, 1.7547534, -0.30478507, -1.0395659, -0.115184575, -0.9411314, 0.005600533, 0.2731362, 0.7665831, -1.0522217, -1.2407035, 0.81422055, -0.43906957, 0.06604384, 0.57428616, 1.2020903, -1.6408682, 0.41818282, -0.57439584, -1.0379617, 0.31839043, 1.6603624, 1.9650004, -2.3845582, -1.0463953, 0.77501136, -1.5116639, 0.10359657, -0.09445104, 0.45004466, -0.3813655, 0.23446156, 0.02797409, -2.1990561, 0.5365022, 0.66997933, -0.21229135, -1.5305694, 0.14312488, -0.832318, 0.7920444, -2.6617367, -0.45434734, -1.909625, 1.6086271, 1.2835004, -1.8742098, 1.9892935, -1.0837082, 1.2664654, 1.0647683, -0.38463745, 0.6391357, -0.52225345, -0.6895694, 1.4066359, -1.789385, 1.4521854, -1.203385, 1.6053498, 0.6544898, -1.0042475, -1.5811049, -1.0561154, -1.1710429, 1.1898271, 2.7933705, 0.7130558, 1.9961836, -0.074981235, -2.7216704, -0.9538135, -1.0263342, -0.47520536, -1.6470288, -0.4140017, -2.3578658, -1.1424288, -2.849842, 0.99875516, -1.2969114, 0.8836719, 2.0385907, 0.4114698, -1.2196618, 1.1552641, -2.0802407, -1.1161138, -2.4590425, -2.2486534, 1.5716062, 0.040965408, -1.6231605, -0.711365, -0.82430995, -1.5956239, 1.7879828, 2.018022, -1.4547808, -1.097651, -1.5452602, -0.5704876, 0.99158424, 1.1802108, 0.6921595, 1.3467418, 2.3208926, 1.5218042, -0.6023861, -1.404909, 0.022118678, 0.01015013, -1.8062363, -0.7951201, -0.05862348, -2.202451, -1.8548266, 0.9580118, -2.4734914, 0.8265211, -1.5367962, 1.4953604, 0.20411131, -0.8617063, 0.686375, 0.40528864, 0.3187933, -1.1130031, 0.011942077, -1.7419629, 0.3864726, 1.095754, 0.5177443, -1.1201719, 1.1962335, 0.07372188, -1.0282278, 1.0207549, -0.47576168, 1.3617668, 2.4765863, 0.1731697, 0.09227921, -0.019382916, -0.9392285, -2.2768495, 0.74998415, 1.1364651, -0.5545983, -2.3216088, 1.5125407, 0.38749048, 1.5104514, 0.097939044, 0.44594616, 0.55714554, 0.8004284, -0.5223159, 0.3859576, 0.5585419, 0.6508431, -0.9237938, -0.16624093, -1.831101, -3.3611484, 0.34773123, 0.3900462, 1.1215919, 1.0061606, 0.26569438, -0.76183057, -0.2659186, 0.9124556, -0.32510346, 1.3372444, 0.6769983, 0.47409767, -0.8151653, -0.8569158, 0.80122197, -0.80709106, 0.37201017, 1.7516967, -0.53506774, 0.14541464, -1.3846731, -1.3155367, -1.3413595, -0.8358801, -1.5502818, 0.72073156, 1.1318796, 0.101462066, -5.1260834, -0.44303364, 1.7620386</t>
-  </si>
-  <si>
-    <t>[0.012535095, -0.52734375, 0.8647461, -1.0478516, 0.06707764, -0.7607422, -0.47851562, 1.4570312, 1.9189453, 0.38378906, -0.2770996, -1.7802734, -0.81347656, -0.7753906, 0.19836426, 0.46166992, 0.114990234, -0.45214844, -0.28833008, 0.39160156, -1.5498047, 0.78027344, 1.4833984, -2.4414062, -1.078125, 1.6513672, 0.004837036, -0.6142578, -0.8071289, -0.11175537, 1.3691406, 3.3789062, 1.4560547, 1.1386719, 0.3762207, -0.44628906, -1.0585938, -0.8989258, 0.16357422, 2.0585938, -0.90771484, -0.79589844, -0.51904297, -0.2130127, -1.8320312, 0.14111328, -2.6289062, 0.026901245, 1.3369141, -0.19189453, 3.7382812, 0.78027344, 1.2998047, 1.4628906, -1.6054688, -1.5830078, -2.1816406, -1.3447266, 0.67626953, 0.28930664, -2.4863281, 1.4414062, -0.12359619, 0.3701172, -0.93847656, 0.79589844, -1.4960938, 0.7011719, 0.3959961, 1.2070312, 0.8339844, -0.32592773, -0.27905273, -1.265625, 3.3261719, 1.0488281, 0.18896484, -1.9599609, -2.5664062, 2.1464844, -2.5546875, 0.59472656, -0.6425781, 0.76953125, 0.43896484, 0.10229492, -2.4160156, 0.010032654, -0.12524414, 0.32006836, 0.23852539, 2.140625, 0.46875, -1.4238281, -1.0683594, 0.60498047, 0.92871094, -0.3671875, 1.265625, -1.0322266, 0.09869385, -0.26098633, 2.5839844, 0.8852539, -0.23925781, 0.94970703, -1.2939453, 0.7402344, -2.8554688, 0.12438965, -1.5195312, -1.4160156, 2.1835938, -2.4882812, 1.6494141, 1.4169922, 0.11608887, -0.5307617, -0.6147461, -1.7998047, -1.2607422, -1.1591797, 0.3474121, -0.28955078, -0.066589355, -0.4777832, 1.2587891, -1.0283203, -0.9584961, 1.078125, -0.46875, 0.82470703, 1.3105469, -1.4355469, -0.33154297, -0.6542969, -0.33422852, -0.6357422, -0.4333496, -2.6464844, 1.0263672, 0.056640625, 0.9580078, 1.9267578, -0.6098633, 0.047088623, -0.20483398, -0.8461914, -1.578125, 0.9350586, -1.4267578, -1.0546875, -0.6298828, 0.5439453, -3.5566406, 0.94677734, 1.5527344, -0.82421875, 0.38427734, 1.0585938, -1.1386719, -2.4316406, -0.6074219, -1.6123047, 2.8554688, -0.17980957, -0.16467285, 2.3671875, -0.40356445, -3.3359375, 0.32617188, -1.2529297, -0.25097656, 0.890625, 0.03942871, -1.7089844, 0.27734375, 0.69091797, -0.31591797, -0.9951172, -1.625, -2.6972656, 0.8027344, -0.56591797, -0.69433594, -0.81396484, 1.1572266, -0.19067383, 0.91015625, 1.15625, -0.35180664, -1.328125, -0.3166504, 0.91259766, 1.4462891, 1.1640625, 0.6333008, -1.3085938, 6.328125, 0.69628906, 2.8105469, -0.37817383, 0.070495605, -1.1835938, -0.4506836, 1.3701172, 0.30517578, -1.6728516, -2.3945312, 2.0175781, -0.25170898, -0.9824219, 0.13842773, 1.5322266, 1.5322266, 0.5527344, 0.37451172, -1.6064453, -1.2480469, -0.18798828, 0.24145508, -2.2832031, -0.35253906, 0.88183594, -4.1523438, 3.0175781, -0.95166016, 0.1977539, 2.5175781, -1.2773438, 0.9433594, -1.8574219, 1.3779297, 2.1230469, 1.5449219, 0.79003906, -0.53125, 1.6894531, 0.4465332, -1.5361328, 0.42236328, 0.82421875, -1.8203125, -0.38134766, 0.63183594, 1.0566406, 0.19348145, -0.060424805, -0.33276367, -1.0146484, 2.0722656, -0.006149292, 0.25048828, 0.17382812, 2.1523438, -1.1679688, -1.5585938, -0.2770996, -1.2285156, 0.59765625, -3.5898438, -1.6601562, -0.00028443336, 0.8745117, -1.2871094, -0.011268616, -2.7128906, 0.55322266, -0.04171753, 1.8027344, -0.8251953, 0.5888672, 5.0859375, 1.5361328, -2.6953125, 0.09460449, 0.7158203, 0.1385498, -2.1875, -0.515625, -1.3310547, -0.8364258, 0.75097656, 1.8378906, 1.1181641, -1.2148438, -1.9658203, -1.8515625, 0.19714355, -0.89501953, -1.9140625, -0.8745117, 0.59375, -3.4140625, -1.6748047, -0.043273926, -0.8071289, -0.37304688, -0.7182617, 0.4567871, 0.86572266, -0.1887207, -0.46044922, -0.84716797, -0.36450195, 0.4741211, 1.0566406, 1.2792969, -0.49829102, -0.045837402, 0.20251465, 1.2744141, -1.5634766, 1.9140625, 1.5585938, 1.1738281, 0.7988281, -1.3847656, -1.9628906, -0.4453125, -1.1884766, -3.3984375, -1.0585938, -0.42358398, -1.0683594, -1.2900391, -0.48876953, 0.07501221, -0.072509766, 0.8227539, 0.87060547, 1.5117188, -0.8198242, 1.5605469, -0.7734375, 0.06088257, 1.0498047, -1.6367188, 0.47460938, -0.6088867, -2.578125, -1.0761719, 0.44458008, 0.7475586, -0.07727051, 0.13061523, -0.6723633, 0.9394531, 1.0185547, -0.59814453, 0.05947876, 0.8154297, -0.056396484, 0.67871094, -0.12237549, 1.8173828, 3.5273438, -0.64501953, -2.1992188, 0.113586426, -1.1708984, -0.6166992, 0.3466797, -0.29370117, -1.5058594, 1.5859375, 0.8642578, -3.7402344, -1.5087891, -2.4042969, 0.05859375, 0.73779297, -0.9111328, 0.9506836, -0.5800781, 0.22814941, 0.036621094, 0.38232422, 1.1064453, -0.7446289, 2.5859375, -0.43774414, -0.96777344, -0.91748047, -1.6894531, -0.6508789, -0.095581055, 0.38671875, -0.28979492, 0.6201172, 1.4873047, -2.2265625, -0.08355713, 1.0546875, 1.3466797, -0.57373047, 0.41870117, 0.62597656, 0.74121094, -2.5878906, -0.45703125, -1.3779297, -0.049804688, -0.66503906, -2.203125, 1.4316406, -1.1113281, 0.73291016, 2.1679688, -0.5234375, 1.296875, -1.8076172, 0.04373169, 0.5229492, 2.7402344, -0.9013672, -0.22473145, -0.32006836, -0.8696289, 0.21179199, -0.0011281967, 0.7416992, 0.26367188, 1.4833984, -1.7617188, 0.7080078, -0.89160156, 0.67626953, -1.7519531, 0.59277344, 0.9824219, 0.85498047, -0.09857178, 1.6533203, -1.0273438, -2.5644531, 1.8652344, -2.234375, 2.609375, 0.9042969, -0.04031372, 0.36450195, 1.1474609, 0.7792969, 0.19189453, 1.5634766, 0.050720215, 1.2734375, 0.012573242, 1.1992188, -1.7314453, 1.2138672, 0.34838867, -0.54589844, -0.9238281, -1.0898438, 0.97802734, -0.77441406, -0.55078125, 0.7817383, -0.3557129, 1.3876953, -0.17053223, -0.093322754, 2.1855469, 1.1054688, 1.5146484, 0.23986816, -2.4921875, -0.51904297, -0.50390625, 0.52734375, -0.71484375, -0.70751953, 1.0117188, 0.7607422, -2.3535156, -1.6347656, 1.8769531, 1.9707031, 1.5654297, -1.3251953, 1.4316406, 0.19616699, 0.3779297, -1.5810547, 1.7910156, 1.5859375, 1.6630859, -1.2431641, -0.3076172, -0.46435547, -1.7753906, -0.53222656, 0.55371094, -1.5234375, 0.19152832, 0.9555664, -0.97802734, -0.81591797, 0.3623047, 1.3642578, -1.0654297, 0.5253906, -0.1842041, -1.5605469, -0.79833984, 0.47729492, -0.8754883, -0.48535156, -0.075805664, 1.1484375, -0.56396484, -0.13928223, -0.25878906, 0.34960938, -0.58251953, 0.5449219, 0.65283203, -2.1796875, 0.9741211, -2.5527344, -0.8964844, -2.1621094, 0.22070312, 0.5859375, -0.1484375, 1.5263672, 0.4230957, 1.4462891, -0.11279297, 0.13562012, -1.4267578, 0.09020996, -2.6523438, 0.70751953, 0.87597656, -1.8935547, -1.0869141, -2.390625, -0.7631836, -0.7475586, -1.6728516, -0.28076172, 0.084472656, -1.4521484, 2.5351562, 0.70751953, -1.9189453, 0.29077148, -2.4667969, 0.6879883, 0.3798828, 0.84472656, 1.1240234, 0.09631348, 0.67822266, 0.67529297, -1.6923828, -1.2587891, -0.92626953, -0.072387695, -0.9394531, -2.2988281, -0.5292969, 2.0234375, 2.4472656, 0.68408203, -1.1386719, 0.6279297, 0.19885254, -2.3222656, 1.1279297, 0.051086426, 1.0537109, -1.0966797, -0.6308594, 1.328125, -0.049591064, -0.3642578, 2.1171875, -0.94970703, -0.2902832, -1.0898438, 0.42358398, -0.25927734, -0.14001465, -0.8334961, 0.51416016, 0.056121826, -0.14855957, 0.19262695, 0.49316406, 2.0800781, 0.90625, 1.1201172, 2.28125, -0.36694336, -0.12939453, 1.0068359, 1.1660156, 1.4179688, 0.20288086, -1.3994141, 0.74560547, 0.6743164, -1.6816406, 0.19189453, 2.9492188, 0.9248047, -1.3818359, 0.5341797, 3.0546875, -0.46166992, -0.57714844, 0.43920898, -0.5546875, -1.0195312, 0.23217773, -0.64990234, 0.1706543, 4.3203125, -2.9160156, 2.5117188, -0.3334961, 0.49951172, 0.6777344, -1.2998047, -1.0693359, 0.8359375, 0.060821533, -1.6044922, 1.9970703, -0.51904297, 0.7294922, 2.7792969, 2.3066406, 0.25073242, -3.0058594, 1.1943359, 1.1103516, -0.8881836, -0.38964844, 0.5395508, 1.6513672, -1.1806641, 1.0722656, -1.3037109, 3.0429688, 0.9580078, -1.6435547, 0.7495117, 0.6826172, -0.27539062, 0.87841797, -2.7070312, -0.75390625, -0.19189453, -0.8510742, 1.2050781, -0.44384766, 0.94091797, -0.48413086, -1.0361328, 1.8798828, 0.8510742, 1.640625, -0.4543457, 0.43969727, 0.5722656, -1.0009766, 0.7421875, -0.42626953, -1.5449219, 0.78759766, -2.0117188, 2.0800781, -1.5380859, 1.0849609, 0.6381836, -0.036346436, 0.32373047, -1.2470703, 1.59375, 0.7324219, -0.09075928, 1.7910156, 0.7207031, -1.0976562, 4.6875, 1.2636719, -1.5722656, -0.053253174, 1.4765625, 0.41308594, 0.23120117, -2.6933594, 0.8901367, -0.6640625, -1.3212891, 0.056488037, 0.7548828, -0.15710449, -0.3305664, -0.038116455, 1.4511719, 0.8129883, -1.3242188, 1.0205078, 0.38134766, -1.6083984, 2.5136719, 2.3417969, -0.21789551, 1.5732422, -2.9277344, 0.9765625, 2.7578125, 0.33666992, -2.0957031, 2.2753906, -0.23022461, 0.7685547, -1.4150391, 1.1582031, 0.8227539, -0.49194336, 0.4260254, 1.4443359, -0.59814453, -1.0205078, 1.0996094, 0.63134766, 1.1943359, -0.041229248, -3.0566406, 0.7607422, -0.18762207, -4.3828125, -0.25756836, 1.1982422, 1.0449219, 0.3798828, -0.6816406, 1.4892578, 0.45117188, -1.4580078, 0.48046875, 0.4790039, 0.9394531, -0.28320312, 0.5493164, -1.0859375, -0.15490723, -1.1240234, -1.8945312, 0.3256836, 0.11853027, 0.8671875, -1.9648438, -1.09375, -3.25, 2.9863281, 2.2011719, 0.4440918, -1.4091797, -0.72509766, -0.49951172, -0.6694336, 0.7055664, -0.28051758, -2.578125, 0.24816895, 0.057861328, -1.9013672, 0.6069336, 0.7114258, 0.52197266, 4.578125, 2.7714844, -0.030029297, 0.4753418, 0.79345703, 0.19128418, 1.4267578, -0.33984375, -1.1757812, -1.0771484, 0.15478516, 2.96875, -1.25, 0.41992188, 0.84472656, -0.13244629, -1.2949219, -0.5908203, 2.8261719, -0.010986328, 0.734375, 1.6220703, -0.22497559, 2.5820312, 0.60498047, 0.5317383, -0.32714844, -1.4628906, -1.2255859, 0.19567871, -1.5292969, -0.43725586, 0.86572266, 0.6538086, -0.41577148, -0.9423828, 0.060272217, -0.07208252, -1.6455078, -0.11956787, 0.2578125, 0.6791992, 0.16516113, 0.46166992, 1.3554688, 1.1923828, -1.0048828, -1.4033203, 1.4003906, 3.0019531, -0.17907715, 0.7675781, -0.47705078, -0.8720703, 0.24108887, -2.3066406, 1.0683594, -2.4433594, -0.92333984, 2.8730469, -0.51904297, 2.0820312, 0.11407471, -1.6357422, 0.7578125, 2.2089844, -0.5678711, -0.14050293, 0.1784668, 3.2207031, -1.8027344, -1.46875, 0.6542969, -0.5703125, 0.50390625, 1.3730469, -0.018432617, -0.1463623, -0.19750977, 0.43408203, 0.08319092, -0.34472656, 2.046875, 0.027526855, 1.0488281, -2.8632812, 1.0371094, 1.0664062, 0.17602539, 1.2929688, -0.90527344, 2.8144531, 2.3457031, 2.171875, 0.13439941, 0.14575195, 1.875, 0.097717285, 0.5673828, -0.2697754, 0.61865234, 0.6489258, 0.36450195, 0.12561035, 1.0185547, 0.16479492, 0.2763672, 0.15551758, -0.30859375, 1.2841797, 1.484375, 1.6894531, -0.5283203, -0.21081543, 0.9868164, -0.026748657, -3.1542969, -0.8227539, 0.6699219, -1.0927734, 1.3232422, -2.4980469, -1.1572266, 1.3886719, -0.03540039, -0.26245117, -0.05053711, -0.6850586, -2.0605469, 0.9160156, 2.7558594, 0.06311035, -1.1269531, 0.89160156, -0.8852539, -1.9111328, 0.2680664, -0.18774414, 1.6845703, 0.23278809, 2.2929688, 0.2927246, 1.8417969, 0.3166504, -0.30566406, 4.4335938, 0.22961426, 1.3232422, -1.1572266, -2.3515625, 0.5161133, -0.81689453, 1.0380859, -1.0585938, 2.5585938, 1.4833984, -0.046173096, -2.6425781, -0.93847656, -0.44335938, -0.9609375, -0.6381836, 0.52490234, -1.6132812, 0.6777344, 1.328125, 0.13134766, 2.203125, -1.6923828, 1.0732422, -1.6113281, -1.9873047, -0.012992859, 0.29248047, 1.0761719, -1.4589844, -0.4182129, -1.2832031, -0.5419922, 1.8818359, 0.47485352, -1.4794922, -0.6357422, 0.5151367, -1.5214844, 0.75927734, 1.8466797, 1.5292969, 1.0546875, 0.5107422, -1.7490234, 1.4130859, -3.8925781, 1.4179688, -0.45922852, 0.37280273, -1.5634766, 0.21191406, 0.93115234, 0.9375, 1.7197266, -0.05279541, 0.12524414, -0.41235352, -0.3095703, -0.8618164, -2.4121094, -0.9165039, 1.5751953, 2.0039062, -0.94189453, 2.3164062, 0.038848877, -1.3427734, 1.9804688, -0.40966797, -1.6542969, 1.7285156, -0.34301758, 0.79785156, -2.4238281, -2.2558594, 1.0449219, 1.8818359, -0.26635742, -0.11517334, -1.0068359, -2.5, 1.5537109, 1.0498047, 0.14147949, -0.84375, -2.0996094, 1.7382812, -0.8125, -0.9628906, -0.40478516, -1.0195312, -2.5332031, -0.27197266, 0.107421875, -0.39648438, -1.859375, 0.28466797, 1.0068359, -1.8417969, 0.22692871, -1.0869141, 0.9692383, 0.88916016, 1.7246094, 2.7636719, -0.65527344, 0.46850586, 2.9667969, -0.20483398, 1.40625, -1.4970703, 1.6953125, 1.2373047, 0.12054443, 0.9609375, -1.3886719, 3.546875, -1.5322266, 0.7758789, -0.017868042, 1.0566406, 1.6035156, 1.6152344, -0.5527344, -2.1582031, -0.16772461, -0.1776123, 1.2197266, 0.20532227, 0.65185547, -0.19934082, -0.7949219, 0.30810547, -0.38085938, -0.96435547, -0.81396484, -1.8398438, -0.36743164, -0.57177734, 0.09979248, -2.6074219, 0.74902344, -0.8720703, -2.2714844, -0.83984375, 0.35791016, 0.35791016, -2.1191406, 0.48510742, -3.1757812, 1.1181641, 0.09716797, -0.17883301, -1.0664062, -0.6118164, 0.25, -1.0966797, -0.7807617, 1.0673828, 0.81689453, -0.049346924, -2.1328125, -1.0205078, 0.1817627, -1.2460938, 3.0917969, 1.09375, 0.77734375, -1.3339844, 1.171875, 0.5058594, 0.60009766, -0.49389648, 0.43774414, -0.69140625, -0.33203125, 1.6826172, 1.4306641, 2.5507812, -0.4169922, 0.37280273, 2.0800781, -0.25390625, -1.4199219, 0.4567871, 1.6669922, -1.0068359, 2.0136719, 1.2226562, -0.29882812, 0.38623047, 0.39331055, -0.2130127, 0.9321289, 1.4287109, -0.9863281, 2.0234375, -1.6240234, -0.02973938, -3.6699219, -1.4833984, 1.6582031, -0.027130127, 0.8569336, 1.7880859, -0.91845703, 0.67578125, 0.39575195, -0.99121094, 2.0117188, 0.08508301, 1.2480469, -1.5537109, -0.45874023, 1.6816406, -0.003419876, -0.9682617, 0.23498535, 0.08325195, -0.64501953, 1.2929688, -2.7109375, -0.089416504, 0.03427124, -0.18493652, 0.29858398, -1.3984375, -0.82910156, 0.14648438, 1.2197266, 0.4260254, 0.9609375, -1.7480469, 0.49316406, 0.056274414, 0.5366211, -0.40820312, -0.11834717, -2.6542969, 0.36743164, -0.07312012, -0.38378906, -0.7163086, 0.47583008, 1.4316406, 0.34985352, -1.3320312, -0.17358398, -0.10131836, -0.3684082, 2.0507812, 0.60058594, -0.39526367, 1.6669922, 0.16552734, 0.90234375, 0.21704102, -0.47338867, -2.0878906, -0.22290039, 2.40625, 0.1895752, -1.8564453, -0.61816406, -0.5888672, 0.33276367, -1.7431641, 0.23339844, -0.047210693, -2.34375, -0.48901367, 0.31958008, 0.33813477, 0.7817383, 0.8857422, -5.2070312, -1.9384766, -0.6503906, 1.4853516, -1.2558594, 0.97998047, -0.8227539, -2.3417969, 1.3603516, -2.4179688, -2.1367188, 0.36621094, 0.7861328, -1.3789062, -2.2539062, -0.6665039, -0.7138672, 1.7041016, -0.092163086, 1.5478516, 0.3190918, 0.95410156, -0.84375, 0.40283203, 0.83496094, -1.2001953, -1.6894531, 2.2910156, -2.4121094, -0.20996094, 0.9213867, 1.6279297, 1.1240234, -1.4345703, 1.0400391, 0.11993408, -0.30273438, -0.29785156, -0.5205078, 1.5722656, 0.049591064, -0.23742676, -1.7783203, -1.8183594, -1.4589844, -1.7949219, 2.3710938, 0.6557617, -0.8041992, -1.7705078, 0.10015869, 0.6191406, -0.6201172, -0.46923828, 0.8183594, -1.0478516, -1.1914062, 0.23828125, -1.5869141, -2.140625, -0.81640625, -0.75634766, 0.7392578, 1.0429688, -0.82910156, -1.4511719, -0.9941406, -1.9335938, -2.4316406, 0.090270996, -1.9335938, 0.97021484, 0.20153809, 1.6767578, 1.5986328, 1.0683594, 1.640625, -0.48217773, -0.8852539, -0.05935669, 2.28125, 0.63623047, 1.1640625, -0.5595703, 0.66748047, -0.17260742, -0.1665039, 2.4003906, 1.1533203, 0.2614746, -1.1484375, -0.1920166, -0.9111328, -1.7910156, 3.0234375, -1.2255859, 0.31811523, -0.021621704, -0.7036133, -0.85595703, -0.9941406, 0.68847656, 1.9853516, 1.2861328, -0.00491333, -1.3476562, -0.48266602, 0.14550781, -0.40161133, -1.2314453, -1.5263672, 0.09222412, 1.0068359, 1.578125, 0.8076172, -0.8881836, -0.77685547, -0.08465576, 1.5576172, -1.921875, -2.328125, -0.4519043, 0.48413086, 0.8105469, -0.21118164, -1.328125, -1.859375, -0.0019340515, 0.98876953, 2.0625, 0.90283203, 0.44384766, -1.7802734, -1.8964844, -0.8691406, 0.06817627, 0.08721924, -0.4987793, -0.117004395, -0.24902344, 5.5859375, 1.140625, -0.32202148, -2.859375, -0.6616211, 2.515625, 0.73535156, -1.7246094, -1.9580078, 2.2109375, -0.26367188, 2.1132812, -0.3557129, -0.4074707, -2.3847656, -0.99365234, -0.64501953, 0.015945435, -0.71875, 2.2089844, 0.52978516, 1.7685547, -0.5361328, -0.9321289, 3.5917969, 1.2431641, -0.77001953, 0.12524414, 1.7617188, -0.9375, 0.65234375, 0.78027344, -0.09869385, -0.6386719, -0.71875, 0.27612305, 0.33544922, -1.0664062, 0.7084961, -1.1318359, 0.5786133, 0.28295898, -1.9384766, -2.1152344, 1.7753906, -1.1953125, -1.0019531, -1.0068359, 0.08709717, -0.13000488, 0.35327148, -0.74658203, -0.25561523, -2.9296875, 0.4663086, -0.26464844, -0.63134766, 0.06463623, 0.3659668, -0.3383789, 1.0244141, -0.6064453, 1.1806641, -0.8178711, 1.1845703, 1.5244141, -1.6679688, 0.34716797, -1.8789062, 2.3066406, 1.3623047, 1.2539062, 0.055664062, 0.9091797, -1.8896484, -0.57958984, -0.8647461, 2.4316406, -0.08544922, -0.7558594, -0.6870117, -1.9208984, 0.109313965, 1.0732422, 2.0234375, -1.8134766, 0.29223633, -0.8286133, -2.8554688, -0.16296387, 0.74560547, -0.9824219, 1.8125, 0.95654297, -1.0048828, 0.6826172, -1.8007812, 1.1337891, 0.16418457, 0.8432617, -0.45507812, 2.2402344, -1.2617188, 1.6054688, 0.38476562, 2.4609375, 1.0761719, -1.8847656, -0.3791504, -0.9345703, -1.3476562, -0.7451172, 0.44335938, 1.5859375, 1.6201172, -1.1953125, -0.013801575, -0.36035156, -0.9628906, 1.6113281, 2.4628906, 0.19396973, 0.11810303, -0.13830566, 0.4987793, -1.3359375, -0.41357422, -2.5917969, 0.39282227, 0.26000977, 2.0859375, 0.6166992, 0.31469727, 0.578125, 0.79345703, 3.5039062, -0.7026367, -0.35546875, 1.9160156, 0.3959961, -3.5898438, 1.2851562, -0.017105103, 1.7587891, 1.03125, 2.4160156, -0.61279297, -0.82128906, 0.40161133, 3.7226562, -0.27661133, 0.14416504, -1.2333984, 1.9140625, -0.70703125, -0.8359375, 0.35327148, -0.41625977, 0.053344727, 1.8173828, -0.03387451, -2.125, 1.125, 0.89160156, -0.99658203, 3.1777344, -0.013435364, -0.8364258, -1.4599609, 1.6923828, 1.0917969, 1.8984375, 0.76416016, 0.024734497, -2.5488281, -1.8183594, -1.8056641, -1.5722656, 0.3395996, 0.15393066, 1.3349609, 0.6357422, 0.77001953, -0.29174805, -0.75927734, 0.7705078, 0.54345703, 0.29223633, 2.4453125, -0.13708496, -0.34521484, -0.28198242, -2.8710938, 0.3984375, 1.6953125, -2.109375, -1.0869141, -0.27661133, -0.1083374, -2.0664062, 0.6870117, 0.4975586, 1.8544922, 0.75439453, 0.28076172, -0.005580902, -0.39892578, -0.95166016, 0.2541504, 0.73779297, -1.2568359, -0.09686279, -1.3740234, -0.4453125, -2.2949219, 3.2773438, -1.1220703, 0.40600586, 0.82177734, 0.8149414, -1.7714844, 0.46728516, 2.5234375, -0.32714844, 0.31518555, 0.060333252, 0.068603516, 1.1533203, -0.6542969, -0.43359375, 0.15124512, 0.83740234, -0.31420898, 0.010520935, 1.3232422, 1.8271484, -0.5317383, 1.2333984, -2.5117188, 2.4140625, -2.3496094, 2.6855469, 0.72216797, 0.2154541, 1.7714844, 1.8476562, 0.27270508, 1.2988281, 0.0770874, 1.3457031, 1.9833984, 1.90625, 0.6972656, 0.36621094, -0.80566406, -0.14233398, -1.6552734, 2.5253906, 0.030059814, -0.7138672, 0.86572266, 0.5131836, 2.0136719, 0.5131836, -3.453125, 1.2246094, 1.6074219, -0.2932129, -0.28833008, 2.5410156, -0.50146484, 1.0136719, -0.7163086, -0.4248047, 0.7988281, -0.36743164, 2.3710938, 0.20959473, -0.4555664, -1.2568359, 0.058898926, -0.7651367, 0.40551758, -1.3310547, -0.33691406, -3.5859375, -0.43920898, -0.74316406, 0.48999023, 1.4833984, 1.2558594, -1.3388672, -0.8730469, 0.15039062, -0.55566406, -0.107177734, -0.97265625, 1.3984375, 1.0869141, 0.29077148, 3.1328125, -0.0024299622, 1.3427734, -0.36254883, -0.8486328, 0.4050293, 0.6191406, -0.7685547, 0.80322266, -1.0166016, -2.7734375, -0.43408203, 1.7148438, 0.76416016, 2.9296875, 1.3134766, 0.42114258, 1.5546875, -1.5166016, 0.57910156, -0.97021484, -1.1884766, 1.0712891, -0.58691406, -2.2226562, 0.70410156, 0.84716797, -0.27563477, 1.6777344, 1.9033203, -1.3857422, 1.2617188, -1.3847656, -0.25561523, 0.43847656, -1.1757812, 1.375, -0.20373535, 2.9375, -0.4716797, -0.578125, -0.78808594, 0.92333984, -1.3886719, -1.5507812, 1.6845703, -0.16040039, 0.73535156, -0.7158203, 1.0322266, 0.9013672, 1.7587891, -0.4309082, 0.69091797, -0.07128906, -1.5351562, -0.47338867, 1.2138672, 3.0644531, -0.57714844, -0.7138672, 0.33081055, 1.6474609, -0.6069336, -0.29541016, -1.8046875, 2.8164062, 0.19189453, 0.47094727, 1.9404297, 0.043060303, 0.23376465, 0.42993164, 1.3759766, 1.3701172, 3.9765625, 0.07312012, -0.54003906, 0.9458008, -1.0898438, 1.0703125, 1.9316406, -1.8671875, 0.328125, -1.2138672, 3.9863281, 1.4033203, -0.093322754, -1.6132812, 3.8730469, 0.79248047, 0.81152344, -1.9257812, -0.31420898, 0.66748047, -0.54589844, -1.7070312, 0.46557617, 1.2382812, -1.5009766, -1.5595703, -0.70654297, -1.3867188, -0.7373047, 4.6289062, 1.3134766, -0.10437012, 0.8691406, 0.3413086, 0.5805664, 1.2568359, -0.3005371, -0.7446289, 1.3652344, -1.7519531, -0.32128906, 0.45629883, -0.049468994, -2.0234375, -2.5253906, -0.3918457, 0.91748047, -1.4072266, 0.43408203, -0.12939453, -0.8852539, 0.89746094, -1.2216797, -0.021697998, -1.3125, 0.58740234, 2.0136719, 0.48413086, -1.1582031, -0.08111572, 2.2617188, 1.5058594, -0.70166016, 0.6743164, -1.3300781, 0.26367188, 2.3339844, 1.6367188, -1.7763672, 0.3100586, -0.8286133, 1.8203125, -0.81933594, 1.8154297, 1.6953125, 0.04324341, 0.84716797, 1.0712891, -1.5341797, 0.18481445, 4.078125, 1.2216797, 0.037322998, -2.7363281, -1.1240234, 1.0869141, -1.2333984, 2.0429688, -1.4873047, -0.17126465, 0.013198853, -0.0057754517, -0.8691406, -1.7949219, -0.37329102, -0.7036133, -2.4296875, -0.22937012, -0.1817627, 0.07763672, 0.72265625, -1.109375, 2.5449219, -0.69140625, -1.1425781, 0.51953125, 1.1982422, -0.6669922, -0.7841797, -0.38256836, -1.2646484, -0.23986816, 0.9003906, 1.1220703, 0.43798828, -0.55322266, 0.40673828, -1.3613281, 0.3203125, 1.2382812, 1.2802734, -1.4072266, -2.6660156, -1.1279297, 0.5830078, -0.6425781, 0.86572266, 3.7128906, -0.54833984, -1.4355469, 2.140625, -0.74902344, 2.8847656, -0.16149902, 2.4726562, -0.79785156, 0.56103516, 0.46557617, -0.8808594, 0.7001953, -1.4912109, 0.13769531, -0.5102539, -0.45117188, -0.82373047, -0.99365234, 1.2324219, 2.171875, -2.1347656, 0.30664062, 0.4404297, 2.765625, -0.8364258, 0.7363281, -0.9140625, 1.4736328, -0.84228516, 1.125, 1.9111328, 1.9726562, 2.4023438, 0.94677734, -0.5839844, -3.4238281, 1.0019531, -0.81347656, 2.8066406, 1.5664062, 1.171875, 1.9414062, -1.3027344, -1.2050781, 1.9921875, -0.13745117, 1.0576172, -0.27490234, -1.1601562, 0.87402344, -0.58447266, -0.01158905, -1.3623047, -0.8510742, 0.81933594, -2.5722656, -0.99609375, 1.2050781, -0.5107422, -0.9038086, 0.7631836, 0.92871094, 0.4699707, -1.3769531, 1.1845703, -0.82128906, -1.1015625, 1.9082031, 3.7402344, -0.31298828, 0.20690918, -0.9482422, 0.48046875, 1.4746094, 1.7861328, -0.60253906, 1.5595703, -2.2304688, -0.33398438, 1.6259766, -1.4521484, -0.9604492, 0.05532837, 1.0927734, -0.66748047, -1.265625, 1.9648438, -1.3466797, 0.25683594, -0.18395996, 1.6826172, 1.4599609, 2.6015625, -0.7524414, -1.4736328, -3.4238281, 1.6748047, 0.63720703, 2.3730469, 0.24853516, 0.6479492, 0.5024414, -2.3867188, 0.18786621, 1.7880859, 2.4199219, -0.7729492, 1.2744141, -1.9355469, 0.30371094, -2.6933594, -0.23205566, -0.2536621, 0.46679688, -0.43969727, 3.0703125, -0.8129883, -0.8544922, -0.1854248, -1.5927734, 0.21923828, 1.2509766, 1.3027344, -0.65283203, -0.50097656, 0.60058594, 2.1230469, 1.8701172, -1.6455078, -0.77734375, 0.390625, 0.75097656, -1.2353516, 0.8930664, 0.125, 0.43041992, -0.6484375, -0.3635254, 0.3479004, 0.06335449, -0.95458984, -1.3154297, -0.07159424, 0.49316406, 0.45263672, 2.7792969, 1.1425781, -1.625, -1.7900391, 0.5185547, 0.4267578, 0.31591797, -1.2763672, -0.31982422, -0.8696289, -1.1982422, 0.21081543, -0.1459961, -1.5166016, -0.08239746, -1.3398438, -1.4580078, -0.5488281, 0.7011719, -2.0097656, 0.022628784, 0.115112305, 0.20996094, 0.43286133, -1.3857422, -1.4589844, 0.66064453, 0.3330078, -0.32714844, -0.8989258, -2.15625, 0.9506836, -0.84716797, -0.34716797, 0.37939453, -0.02557373, -0.2055664, -0.13244629, -1.5234375, 1.3134766, 1.7236328, 0.41235352, 0.24047852, -0.10760498, 0.9248047, -0.59521484, -0.27954102, -1.0517578, 0.57666016, 0.3713379, -1.3603516, -0.7006836, -1.8173828, -2.8515625, -2.5039062, 0.35131836, 0.75341797, 2.9707031, -1.0009766, 0.6767578, 1.1621094, 0.23266602, 1.2783203, -0.7324219, -0.43164062, 1.3183594, -0.3244629, -0.15539551, 0.43847656, -4.0273438, 1.2050781, 0.46118164, 0.7866211, -0.54589844, 1.7001953, -0.7338867, 2.6054688, -0.9321289, 1.59375, 2.4101562, -0.34594727, -2.0253906, 0.14819336, 0.9448242, 1.9414062, 0.5883789, 0.7573242, -2.0507812, 0.023147583, -1.6953125, 4.0625, 0.4716797, 0.55029297, 0.24621582, -1.5859375, 1.4326172, -0.8828125, -0.671875, 0.5317383, 0.42871094, -1.0068359, -0.17224121, 0.4699707, 0.61035156, 0.95214844, 0.640625, 0.079956055, 0.06088257, -2.5449219, 0.16137695, -1.03125, -1.1123047, -2.6171875, -1.328125, 1.7412109, 0.3828125, 0.5292969, 2.859375, 0.06817627, -0.7866211, -0.36621094, -2.5175781, -0.5761719, -1.203125, 1.8056641, -1.5419922, 0.4951172, -1.3935547, -1.8574219, 0.5541992, -1.1630859, 0.33398438, 0.8286133, -0.3046875, -0.46069336, 0.9067383, 0.8569336, 0.7055664, -3.5117188, -1.3759766, -0.21740723, -0.036499023, 0.39257812, -1.6367188, -0.9213867, -4.1289062, 0.9682617, 0.47485352, -1.1894531, 0.18725586, 1.5175781, 0.9003906, 2.3378906, 0.7265625, -0.5361328, -0.90234375, -0.14245605, 2.6660156, -2.0429688, -0.049346924, 0.3088379, 0.9667969, 0.2993164, -0.14233398, -1.1044922, 0.66064453, 0.6713867, -2.6386719, -2.65625, 0.097351074, 1.2539062, 0.3876953, -2.2558594, -1.875, -2.3886719, -0.6826172, 2.2792969, -0.7807617, 1.6445312, -0.4736328, 1.1259766, 1.8740234, -0.45922852, -0.97753906, -0.7285156, 0.029708862, 1.8271484, -0.58691406, 0.5996094, -1.3632812, 1.7265625, -1.7636719, 3.828125, 0.32495117, 0.7553711, 0.63623047, -2.5039062, 0.047698975, 0.56933594, -1.1220703, 0.98291016, 0.24450684, -2.6269531, -0.62939453, 0.4482422, 0.5307617, -1.7636719, 1.1552734, -0.0770874, 0.34716797, 0.28759766, 0.32885742, -0.38793945, -0.73535156, 1.9970703, -0.5058594, 0.61621094, -0.80566406, -0.5488281, -0.9555664, 0.6269531, 0.46606445, 1.0917969, -2.6855469, -0.87158203, -1.3671875, -2.65625, -1.4580078, 0.19372559, 0.83251953, 1.3789062, 0.9248047, -1.7197266, -0.9223633, -1.7070312, -1.9980469, 0.79833984, -1.4824219, -0.13500977, 1.03125, -2.5976562, 0.8173828, -0.9926758, -0.9604492, -1.0644531, 0.76171875, -0.74072266, -0.19396973, 0.17114258, 1.2099609, 0.2668457, -0.8857422, -0.64746094, -1.1513672, -1.9775391, -1.3837891, 1.3789062, -0.42358398, 1.3935547, 1.2949219, -0.9038086, 0.30493164, -0.7988281, -1.3105469, 1.0449219, -0.58154297, -0.61621094, -0.46435547, -0.8720703, -1.1953125, -2.1660156, 0.3527832, 1.3808594, -0.8383789, -1.1542969, -1.8847656, -0.39794922, -1.4462891, 1.7617188, -0.8691406, 1.2089844, -1.6943359, -1.1386719, 1.2802734, -1.1738281, 0.7392578, -0.94091797, 0.07397461, 1.3417969, 1.0214844, 2.0175781, -0.3881836, -0.4248047, -0.8457031, -1.9736328, 2.2382812, -0.48095703, 0.74072266, 2.3066406, 3.9765625, 0.8364258, 2.2617188, -0.17150879, 2.0449219, 0.18395996, -1.5585938, 0.5263672, 0.94677734, -2.3574219, 0.29174805, 3.1660156, 0.36132812, 0.9394531, 2.515625, -1.1748047, 2.1171875, -0.23022461, 1.7001953, 0.60791016, 0.49829102, 2.2089844, -0.28588867, 0.75097656, 1.3886719, -0.32910156, 2.2050781, 1.0058594, 0.5136719, -0.95214844, -0.93115234, -1.9238281, 1.4482422, -0.85839844, -0.24499512, 1.0546875, 0.14477539, 0.38208008, -1.9306641, -0.26708984, -1.125, 0.22937012, -0.38476562, 0.44506836, -1.4736328, -2.6464844, -0.85009766, 3.7871094, 0.9814453, -0.23620605, -0.8383789, -1.1113281, -0.85498047, 0.19189453, 0.9165039, -0.8754883, 0.9042969, 0.796875, 0.3388672, 0.30493164, -0.85595703, -0.02267456, -0.012809753, -0.6738281, -0.8803711, -1.2333984, -0.8618164, 0.36572266, -1.0966797, 1.5800781, 1.5185547, 0.17773438, -0.4309082, -2.5488281, 0.31201172, 0.43798828, -0.8779297, -0.37719727, -0.08251953, -0.6621094, 1.0078125, 0.15991211, -0.94433594, -2.8339844, 2.2246094, -1.0009766, 0.93359375, 0.60253906, 1.2255859, -1.9130859, -1.1289062, -0.31396484, 0.49804688, -0.05090332, -0.9042969, -0.050628662, -1.1953125, 0.5107422, 1.8818359, 0.5498047, 0.12792969, 0.23730469, -0.48828125, 0.26367188, 0.17321777, -0.07299805, -0.103393555, -1.4824219, -0.0126571655, 0.8881836, -0.4729004, -1.7363281, 0.27075195, 2.4550781, -0.14855957, 0.6455078, 0.030059814, 0.82714844, 0.5541992, 1.0898438, 0.5498047, -2.1523438, 0.57714844, 0.2861328, -2.4980469, 2.4296875, -1.2988281, -0.75634766, -0.68359375, 0.62597656, 2.1660156, -0.62060547, 1.296875, -1.1044922, -1.171875, -0.17773438, -0.15966797, 1.4550781, 1.1972656, -0.17663574, 1.0371094, 2.4296875, 0.34399414, -0.43579102, 0.93066406, -0.9814453, -1.34375, -0.38549805, 0.38061523, 0.17712402, -2.2734375, 0.1508789, -1.2431641, -1.0390625, -0.9111328, -1.9697266, 1.5820312, 0.7583008, -0.17248535, -0.17089844, 1.4375, -0.94921875, 0.9213867, 0.082092285, 1.2734375, -1.8046875, -1.5400391, -0.7373047, 0.76660156, -2.3652344, -0.97314453, -1.4199219, -0.38623047, -0.15014648, -0.71533203, 1.0664062, 0.7817383, -0.36010742, 2.2617188, 2.2773438, 0.15637207, 0.16662598, 1.0917969, 0.06317139, -0.9423828, -0.41333008, 0.77978516, -2.15625, 2.2832031, 0.16296387, -0.63671875, 2.1699219, 1.7509766, 0.33447266, -1.921875, -1.8134766, 0.19189453, -0.6538086, 1.1142578, -0.11254883, 0.3708496, -2.0273438, 0.7109375, -0.94970703, 0.3083496, -0.84228516, 1.4814453, -0.6040039, -2.0175781, 0.8359375, 1.1591797, 0.08239746, 0.8618164, 2.40625, 1.4414062, 0.46484375, -0.8413086, 1.8847656, -0.9272461, -0.78027344, -1.1113281, -2.3105469, 0.1583252, 1.2392578, -1.8671875, -3.1269531, 1.4365234, 0.48339844, 1.2353516, -0.029251099, -1.109375, -0.7324219, 0.12915039, 1.7099609, -1.4101562, -1.3759766, -0.8754883, 1.3369141, 1.0185547, -1.1328125, 0.110961914, 0.14025879, -1.5673828, 0.53515625, -0.86816406, 0.5131836, -2.6933594, 0.54003906, 0.8129883, 0.7246094, 0.2783203, 0.4482422, 1.7617188, 0.62597656, -0.8457031, 0.6381836, 0.4519043, 0.6333008, 1.9335938, -0.13122559, -0.71533203, 0.34375, 2.9433594, -1.0400391, -1.4931641, -0.23925781, -0.8183594, 3.34375, -1.6308594, -0.23059082, -0.43652344, -0.72265625, 2.8808594, -1.7333984, -1.1328125, 0.2998047, -1.328125, -0.89404297, -0.7836914, 1.1660156, 0.008506775, 4.0273438, 0.054107666, 0.3564453, 1.8447266, 1.0009766, -0.32250977, 0.6123047, -1.0097656, -0.99609375, 0.3972168, -1.0126953, -0.64990234, -1.3964844, -0.47583008, 0.28344727, -0.55371094, 0.55810547, -0.12524414, -1.9931641, 0.37670898, -0.064697266, -1.3652344, 1.6386719, 0.45385742, -0.8930664, -0.52978516, 0.57666016, -1.3652344, 0.9272461, 1.4599609, 1.3466797, -2.6445312, -1.6220703, 1.8945312, -2.6191406, 0.45141602, -0.69433594, -1.3564453, -0.33911133, -0.47973633, -0.13195801, -0.74316406, 0.15698242, 0.6582031, 0.3293457, -1.1201172, -0.0072364807, -0.5078125, 0.5761719, -1.5195312, -0.29760742, -1.9658203, 5.421875, -0.11364746, -3.5761719, 2.5234375, -1.6025391, 0.80029297, 0.6894531, -1.7949219, 1.8007812, 1.0185547, 1.8027344, 2.0429688, -0.23522949, -0.8828125, -1.3896484, 0.1940918, -0.00038075447, -3.0742188, -0.4790039, -0.9067383, 0.4711914, -0.4814453, 1.4697266, 1.2998047, 7.4296875, 0.92822266, 0.4465332, -1.5771484, -1.4931641, -0.8828125, -0.3173828, 1.4648438, -0.09124756, -0.1586914, -2.4921875, 1.7509766, 1.0263672, 0.6591797, 2.3417969, -0.6542969, -2.2109375, 0.97314453, -2.6777344, -0.60498047, -1.203125, -0.84716797, 2.875, -0.3762207, -1.859375, -1.1201172, -0.09741211, -1.4980469, 1.0517578, 1.8671875, -0.95703125, -0.86328125, -0.07952881, -1.4404297, 0.26904297, 1.3681641, 0.77001953, -0.9848633, 1.5048828, 0.81396484, -0.10699463, -0.6152344, -0.7885742, 0.71875, -0.2890625, -1.7412109, 1.4189453, 0.1315918, -1.8076172, 1.2480469, -1.3652344, 0.5439453, -1.4501953, 2.8203125, 0.058654785, -0.9399414, 2.8085938, -0.035461426, 1.1992188, -0.9951172, -2.5742188, -1.1123047, 1.0947266, 0.8925781, 0.4296875, -0.52246094, 0.57128906, 0.25878906, -0.6176758, -0.26000977, -1.25, -0.1673584, 0.25219727, -0.09289551, 0.1541748, 0.81347656, -0.80322266, -1.2373047, -0.5283203, 1.5712891, -1.5263672, -1.7929688, 2.1503906, 0.76660156, 0.7128906, 0.115722656, 0.68310547, -1.5498047, 0.2763672, -0.96435547, -0.8051758, -1.8525391, 1.5634766, -0.17895508, 0.8779297, 0.8232422, -4.1796875, -0.8227539, 0.72802734, 0.8696289, 0.50097656, -0.9926758, -1.8154297, -1.328125, 0.13720703, -1.9628906, 0.94189453, 0.65966797, 0.93603516, 1.0458984, -0.45214844, 0.17053223, 0.14880371, 0.42358398, -0.31201172, -0.41235352, 0.16357422, -1.8398438, -1.8837891, -0.27783203, -0.27124023, -1.4316406, 1.4599609, 0.8198242, -0.8486328, -3.7480469, 1, 1.671875, 0.2927246, 0.69482</t>
-  </si>
-  <si>
-    <t>[0.6138531, -0.9127543, -0.16567814, -0.62838405, -0.93437576, -0.3404443, -1.6580256, -0.042154077, 2.2308865, 0.16215116, 0.852654, 0.7142928, 0.3181348, 0.11899962, -1.1580334, 0.21527459, 0.71303684, -0.2101979, -1.1261384, 0.751692, 0.117213614, 1.9142766, 0.9296849, 0.028573591, 1.0304145, 2.4132268, 1.5566047, -0.47887075, -1.5121783, -0.36248747, 1.183834, 3.8142443, 1.8395252, 1.1001343, 1.3647513, -0.6970642, 0.28137273, 0.6102001, 2.196182, 0.22022268, -0.49053204, -0.10075827, -0.4204911, 0.8693286, -1.7456368, 0.31091636, -1.0942644, 0.5311586, -0.45419034, -0.6746219, 2.960551, 1.2201391, -0.996535, 1.357777, -1.4469751, -0.6507327, -0.03449041, 0.06840115, 0.10863083, 0.14375575, -0.43916067, 1.8791673, 0.036743816, -1.2666485, 1.3057946, 0.88421726, -1.9803643, 0.09794348, 0.061100435, 0.36219305, 0.63066614, 0.9080282, -1.1277417, 0.58539474, 2.7896214, 0.83740366, -0.85607064, -2.3858936, -1.964969, 0.7529036, -0.6630233, 0.15028879, -2.4703481, -0.17808427, -0.2126504, 0.57899547, -0.8177849, -0.29916757, 0.6149837, 0.09123548, 0.0078072776, 0.6534744, 0.6585726, -0.044150285, 0.5528617, -0.38480347, 0.2646863, 0.2442281, -0.23155107, -0.97911096, -0.49465764, 0.36835337, 1.8334256, 1.0555962, -2.2263484, -0.54604447, -0.9139215, 0.498229, -1.1441761, 1.0707616, 0.05836397, -1.854325, 1.7063315, 1.0448331, 0.10998601, 0.77304846, 0.27349755, -0.49200603, -0.74968666, -1.9079913, -0.65302265, -1.1959183, 1.6695354, 1.4219546, -0.075947315, -0.64904326, -0.10577686, -0.89631593, -0.53579074, 0.43941134, -1.9337609, -0.117553055, 0.31413978, -0.18924946, 3.3556569, -1.158318, 0.16346586, 0.33961788, -0.971852, -1.3912622, 1.4145429, 0.48000643, 0.9782075, 1.8372267, 1.360785, -0.5362425, -0.30224872, -2.4795392, -0.34617314, 0.47631836, -0.30396846, -1.8553121, -0.38364807, 1.5920215, -1.8843688, 0.16320233, 0.23501211, -0.6694819, -0.5540243, 1.0619777, -0.6023772, 0.81763655, 0.8248885, -1.9275986, 0.98758405, -0.7234918, 1.1682234, 1.2000439, -0.18219027, -2.1776717, -0.604923, -2.103949, 0.14039914, -0.515484, 0.6345208, 1.2397147, 1.0969251, -2.5954602, -0.38473952, -0.842058, 0.13572653, 0.12842058, 1.1004286, 0.9388506, -1.1119105, -1.136395, 0.18628843, -0.6564328, -0.92737925, 0.28147456, 0.92488825, -0.9626713, -0.8382428, 1.9094565, -0.3679643, 0.5087029, 0.06924977, -0.13178371, 4.2442765, -0.8965209, 1.1374446, -0.60244244, -0.03136228, -1.5601395, -1.2521757, 1.8528289, 0.52249485, 0.20418511, 0.43161973, -0.61064696, -0.1384669, -1.2483968, 1.778712, 0.9964489, -0.10649231, -0.34053537, 0.21680471, -1.7485534, 0.16276738, -0.41324458, 0.45234427, -2.0010653, -1.0172217, 0.99526864, -3.1270888, 1.6991247, -0.33184585, -0.16872859, -0.55837965, -1.2640426, -0.36110356, -0.89974827, 1.2599823, 1.083316, 0.11805831, 2.9920309, -0.93969464, 2.6919858, -0.09463778, -1.1320605, -0.57229435, 0.18111056, -0.51417845, 0.4736955, 0.16344105, -0.2579039, 0.22803518, -1.4339594, 0.5686205, -0.6378598, 2.6145241, 0.8186032, -1.1686431, -0.5966061, 0.31516597, 0.3218165, -1.2165645, -1.3532754, -1.0191919, -0.2439128, -1.5569122, -0.87718815, 0.07302416, 0.19525245, 1.0882771, 0.1933163, -1.6354706, 0.24311315, 0.08155602, 1.8112519, 1.3140302, 1.6313033, 4.80709, 0.30091375, 0.44501483, -1.063675, 0.56039023, 1.5061963, -2.7560475, 1.1650443, -1.3059617, -0.5454154, 0.069183186, 0.3666757, 0.6850612, -0.04814401, -1.819665, 0.48063585, 0.4589478, 0.8658323, -0.61173546, -1.0029819, 0.5627866, -0.04356409, -1.6739587, -2.3517427, -1.8319268, -0.66955924, -0.1170465, -0.31187594, -0.39467618, 0.27700952, -2.0477107, -0.7014356, 0.19651362, 1.375282, 1.505865, -0.67021954, -0.39598304, 0.860973, -0.45257404, -0.17094544, -1.5206707, -1.19029, -0.11841995, -1.1961141, 0.5363626, -0.5736998, -0.37553266, -1.2302599, -0.23977351, -2.2070522, 1.8197641, 0.516565, -2.072955, -1.1860847, -0.2518366, 5.078203, 0.07797551, -0.13577989, 1.4517268, 1.0260956, -1.5565257, 0.6469596, -1.2061383, -1.8157927, 0.5244532, -0.18654433, -0.15330139, 0.042073134, -1.0261112, 0.9977283, -1.431108, -0.5218813, -1.4493558, -0.3947062, -0.45998704, 1.0480604, 0.7040715, 0.30918583, -0.4524722, -0.9227946, 0.7630987, 0.3279396, 0.7248966, 0.2684189, 1.5272393, -0.30925176, -2.2044828, 1.2244892, -0.23166694, 0.23973466, -0.3161817, -1.4158798, -0.6288906, 0.5868775, -0.024048503, -2.5949485, -0.4320052, -1.5922459, -0.6561351, 1.566072, -0.52607477, -1.0828277, -0.14326747, 0.25218746, -1.3893207, 0.452467, 0.8051575, -1.2672256, 0.87251943, 1.1551116, -1.0692732, -0.9606607, -0.34091172, -0.48220074, -0.30258292, -0.31688148, 0.091477014, 1.9958601, 0.66753006, -2.0496323, -0.40977764, 0.8636364, 0.321685, -0.21649398, 1.1215925, 1.2283903, -0.45079064, -1.4057277, 0.9084773, -1.0706154, -0.40241554, -0.43072674, -1.149388, 0.8129805, -1.5274326, -0.80857027, 0.88275373, 0.5504235, 0.71460354, -1.2005504, 1.4349163, -0.19065686, -0.35713205, 0.8788279, -0.8664485, -1.7425426, 0.5631946, -0.4097646, 2.2466316, -0.48617145, -0.41541246, 0.69203556, -1.3400004, -0.16915943, -1.9181098, -0.34409353, -1.2885299, 0.55559355, -2.109683, 0.5917133, -0.3495258, 0.6114874, -0.6101035, -1.0492721, 1.533412, -0.9255828, 1.7218416, -0.23192576, -0.9816594, -0.5869532, 0.55244714, 0.49772558, -0.3743621, 2.7810724, 1.1929834, 0.874671, 1.6743921, 0.5597061, -1.8872619, 0.6291099, 0.68332934, -1.0480788, 1.9366487, -0.9958901, 0.91618013, -0.97812915, 0.06961794, -1.4431727, -0.2008951, 1.9159895, -0.4237576, -0.8546658, 1.5108727, 0.71702015, 0.9980593, 0.44682172, -0.038699552, -0.8269892, -0.5192192, 0.25743356, 0.87121123, -0.6556051, -0.95616436, 1.2681004, -1.5641607, 0.01520983, -0.2440884, 0.9332445, -1.1825415, -0.9877173, -1.2583361, -0.18257672, 0.2562654, -1.6417034, 1.1664464, 3.278806, -0.107254766, 0.7351583, -1.2868822, 0.21320918, -0.6189996, 0.886096, -0.5019087, -1.4790195, 1.2758038, 1.09563, 0.24910961, 0.6639163, 0.66964674, 0.15398353, -1.5538415, 0.795042, -0.7149782, -2.0272968, -0.65823317, -0.70282996, -0.16360816, 0.8228453, -1.5547136, -1.09657, -0.22342914, 1.006225, -0.54463726, 0.22135396, -1.4478976, -0.86625046, 1.4384191, -1.515343, 2.0988052, -1.3158109, 0.0006005598, -0.9490516, -1.0171133, 2.9178016, -0.6851761, 1.986229, 0.5308113, 0.7769364, 4.1179657, -0.06950827, 0.31159654, -0.28555837, -1.2352862, 0.9036545, 0.80582595, -1.0069509, -0.5002755, -0.1911608, 0.046232663, -0.7948644, -2.304938, -0.07806233, 0.19323143, -1.1134738, 2.280707, 0.30714327, -2.3862748, -1.5538676, -1.9209559, 2.064153, 0.05106064, -1.4418459, 1.6483644, 1.1569263, -0.42355657, 0.88429433, 0.097762, 0.014610576, -1.0598314, -1.2054685, -1.556685, -0.87608624, -0.41192138, -0.9081953, 2.1434138, 0.2378217, -0.20154527, 0.04287475, -1.2905769, -0.7385711, 0.4824454, -0.7615516, 0.82374877, -0.64942974, -0.4013672, 0.71854633, -0.67695624, -1.1159942, 2.3539333, -0.18657044, 0.1006956, 0.15486088, -0.1911954, 0.12002318, -1.8000396, -0.53888756, 0.17098722, -1.5294954, 0.26370192, 1.176857, -1.0544181, 1.7932298, 0.47486526, 0.25802138, 1.6279453, 0.8258324, -0.10837102, -0.64087826, 0.56713164, 1.5008669, 0.5966901, -1.0487367, 1.1728777, 1.3309946, -0.026500355, -0.24889418, 0.18917635, 0.17407879, -0.07924779, -0.106820665, -0.1645521, 0.38897085, -1.6375804, -0.30105934, 0.5070076, -0.6232662, -0.5400861, -0.5083621, 0.37697205, 1.3987926, -0.78290284, 1.3990642, 1.3971411, 0.7028143, -0.9027511, 0.6515382, -1.2023469, 1.594677, 1.3053508, 3.7936738, 1.3936225, -1.4106785, 1.0154161, 3.192085, 0.15083712, 2.2326202, -0.93936175, -1.3086355, -0.6974445, -0.31465158, -0.20123845, 1.8748537, 0.8995394, 0.06894166, 0.103515625, -1.0288478, 2.31332, 0.12494778, -1.9151031, 2.266941, 0.93361205, 1.3246888, -0.85985416, -0.5433343, -0.25636855, -1.1145607, 0.43783292, 1.248684, -0.7165201, 0.6419932, -0.11018445, -1.8648062, 2.3776844, -0.35734224, -0.329441, -0.057732075, 0.2853338, -0.8649968, -0.56475735, -0.8827655, -0.5912518, -1.6497861, 0.47535095, -0.5102565, 1.6132812, -1.5707303, 0.44490778, 0.8147873, -0.40870577, -0.077555776, -0.7069477, 1.792128, -1.6154302, 0.12360761, 0.5751444, -0.44734395, -0.47348136, 2.6799173, 1.4741198, 0.3543094, -1.2093722, 2.186137, -1.1527302, -0.2930549, -0.4324553, 2.2446003, -1.0492721, -3.3240516, 0.580099, 0.54764265, -0.037615933, -2.224014, -1.4194832, 0.55312866, -0.20798692, 1.1483305, 0.037144624, 0.8509254, -1.5232548, 2.420747, 0.55989933, 0.8146829, 0.8534007, -0.5947213, -0.40143508, 0.988921, 0.46632686, -1.6256267, 1.6327708, -0.59404176, 1.4355103, -0.22073758, 1.834021, 1.470128, -0.64140964, -0.4322673, 0.18066667, -0.70335215, -0.76348484, -0.37454697, 0.7454462, 1.1746323, -0.27105355, -1.9351604, 0.42261133, -0.7719256, -2.3006663, -1.2020283, 0.91091347, -0.51052547, 0.9381358, -0.2818251, 1.065038, 0.005718374, 0.0015875668, 0.4260528, -0.7566349, 0.0074991644, -0.22599328, -1.7961471, 0.880862, 0.5528101, -0.97237426, -1.2794849, 0.22367197, -0.63017005, -0.8974505, -0.14378577, -0.078190275, -1.6882677, 0.14737739, 1.1212883, 0.59506077, -0.15887158, -0.05113114, -0.39305598, 0.13048337, 0.7938082, -0.19433072, -3.84751, -0.4306014, 0.50868726, -1.0965022, 1.273427, -0.07824511, 0.5573874, 2.3958158, 2.446712, 0.10227795, 2.0600872, 0.5621155, 1.1736383, -0.37442556, -0.3283626, -0.7609145, -0.49536785, -1.710585, 2.2684555, -0.974424, 0.6060327, 0.02709504, 0.24381423, -1.3012722, -0.08935808, 1.69543, -0.30249676, -0.06837243, 1.4278114, 0.31921583, 1.137173, 0.5380912, 0.025718322, -1.6000473, -0.14261991, -1.0447966, -0.664697, 1.3370551, -2.1000793, 0.7636849, -0.38085675, -0.55055916, -1.0538728, 0.14075033, 0.2350539, 0.22793204, 0.2550969, 0.43183026, -0.13453585, 0.10859688, 0.5049664, -0.13524085, 0.58150476, -0.80796707, 0.50820416, 0.37615803, 3.0233436, 0.7539036, 0.6249321, -0.27604234, -0.97284555, 0.79796386, -0.39030644, -0.010880577, -2.0348012, 0.06987644, -0.20081742, -1.1820688, 0.6140349, 0.874624, 0.13479957, 1.16048, 0.40771222, 0.8548812, -1.3694749, 0.59350455, 2.7947183, -0.77818453, 1.1136494, 0.3338917, 0.11663166, 0.58981633, 1.3084266, 0.054708388, -1.6280446, -1.8822433, -0.39316303, -0.087799236, 0.2734336, 0.3729111, 0.11868759, -0.617305, -1.122919, -0.43729177, 1.2703251, -1.0824217, 0.5088256, -0.35106638, 1.2768737, 2.021662, 0.86351496, 0.6006251, 1.043209, -0.08536566, 1.2346511, 0.3343682, -0.5549434, -0.51649714, 0.5286911, 0.08641273, 1.5406226, 0.7884097, 1.2949219, 0.8684356, -0.005799319, -0.36586106, 0.49796855, -0.3080193, -0.86169106, 0.23850189, -2.185479, -0.15499143, 0.12209643, -0.2859944, 0.46805543, 2.3990746, -0.94822913, 1.4080204, 0.27631235, -0.42370278, 1.6299481, -0.280733, -0.7403754, 0.24388212, -0.08251398, -0.71745485, 0.2312547, 1.1346925, -0.57476187, -1.6687292, -1.3703521, 0.17924622, -1.307121, -2.5760884, -1.5164096, 0.2948801, -0.08456666, -0.38211793, 0.21616237, 0.54388785, -0.57079554, -2.0239754, 2.0500293, 0.52450806, 0.79735154, -0.8838361, -0.19766252, 1.155246, 0.40851843, 1.5726416, -0.2541119, 0.95867103, 0.09398696, 0.010431463, -3.3744674, 2.3086317, 0.81373245, -1.6955632, 1.1036043, 0.10190195, 0.18527548, 0.85328585, 1.5122619, -0.7384327, 1.0712316, -0.5192675, 0.69395995, -1.1419514, 0.24909002, -0.24948822, -0.8809286, 0.4008776, -0.74465764, -0.21928006, -0.2224108, 0.8505141, 2.1789773, 1.3792719, 0.5671765, 0.22853781, 0.51789147, -0.723074, 0.6329646, 0.68171114, 3.2768946, 0.5603589, 1.1194644, -0.43847135, 1.3991895, -0.067508146, -0.34585458, 0.1896803, -0.37559402, 0.10788437, 0.88803476, -0.21544692, -0.9202417, 1.0460361, 0.97105825, -0.48068285, -0.84728545, -1.8330495, -0.42564857, -2.350898, -1.2731503, 0.5886975, 0.1921948, -1.983247, 1.1121898, 0.3208713, 0.35803026, 0.87953556, -1.4249039, -0.64904326, -0.08089859, 0.5687824, 0.19028999, -2.572224, -1.6026018, 0.57310903, 1.4164125, 0.60455483, 0.99258703, -0.9175536, -1.7138045, -1.1855861, 0.6494976, 0.09077984, -1.0607871, 0.26002935, 2.4814088, 0.422204, -0.6652584, -0.65017915, 1.3737675, -0.8990563, -0.4720792, -1.8302766, 0.73994714, -1.7269464, 0.24935897, 0.08568683, -0.3338003, 0.44415316, 0.7905404, 0.18993162, 1.5993483, 0.91981745, 0.7449031, -0.3418168, 1.4074054, 1.680523, 0.15435432, 2.1895263, -1.4303906, 2.1228118, 1.3487477, -0.2428925, 0.11608821, -1.3009849, 1.088183, -1.990579, 0.4080086, 0.6903618, 0.69748497, -0.6651957, 1.5159593, 0.068035595, 0.44277447, -0.3371791, 0.60659784, 2.2249227, 0.46638432, -0.10850288, 0.19584517, -0.18624143, 0.9051507, -0.16503906, 0.7484281, -1.669303, -0.21153022, 0.4986161, -3.1735618, 0.97934985, -0.85398304, -0.70450336, -0.21412797, -0.39372963, 0.49006465, 0.9223972, -1.6575272, -0.06314495, 0.41617492, -0.1321336, 0.061421603, 0.08478338, 0.793538, -1.1988238, -1.5014622, 0.784352, -1.0429322, -0.7133756, 0.3509959, 3.0262785, -0.051272795, -1.4360639, -0.20335217, -0.762899, -1.3464917, 1.8338956, 1.2098819, 0.44442472, -1.6566782, 0.6761703, 1.7080992, 1.2218416, 0.48538813, -0.08705245, -0.1406746, -0.6495394, 0.12148346, -0.2628102, 1.7679385, -0.3625854, 0.04934937, 0.58658504, -1.1235626, -0.2826822, 0.27553684, 1.5734055, -1.0715841, 1.9933155, 1.3479748, 0.7938069, -1.3360211, 0.71315694, -0.0007990057, 1.1482642, -0.06755776, 2.5170767, 0.9910817, 0.0968468, -0.7405634, -1.4571826, 0.26122525, 0.8662788, -0.7624303, 2.0945177, 1.1237466, -0.10276362, 1.3492255, -0.071156874, -0.52944475, 0.51970977, -0.40858436, 1.5439087, 1.0951183, -0.84740555, 0.8367398, -0.67244685, -0.17571662, 0.0846946, -0.4440696, -0.004850826, 2.3534844, -0.9655644, -1.047968, 0.017502403, -0.8700415, 0.40790546, -2.8545496, -1.3297805, -0.28852984, 1.0793418, 0.32294452, 0.24391085, -1.5070395, -0.75094, -0.9450912, 0.5726573, -1.8481289, -0.49861088, -1.5790702, 0.18272163, -1.9949762, -0.53912777, -0.76995164, -0.64210814, -0.48178738, -1.2290405, -0.9066051, -1.9761499, 0.42181233, -0.9500804, 0.7066056, 0.8566007, 0.25003132, 0.6468995, 0.334692, -0.0745817, -0.2431967, -0.4172533, -1.5481153, -0.9565795, 2.0940216, 2.0626462, -1.744997, -0.46559054, -1.7026027, -0.17556192, -1.1081243, 1.3138396, -0.034362465, -1.9095596, -0.029915713, 0.17022999, 1.3724176, 2.2226875, 0.17514414, -1.3837891, -1.6912078, -0.62749624, 2.6810765, 0.95874935, 0.79792017, 0.04869561, -1.0442325, 0.4502162, 0.23853192, -1.8929907, -0.95833683, 1.4567649, 0.48319477, 0.47923368, 0.121595085, 1.5935776, 0.5719092, 0.77575356, 0.3074501, 1.566448, 0.53670985, 0.11848262, 0.7538227, 0.682672, -0.7242856, -0.95670223, 1.4893414, -0.6695276, 0.5441176, -0.20046426, -0.4333953, -0.5728401, -0.9984542, -0.37771034, 0.1272051, -0.8379585, -0.32055274, 0.8489096, 1.0802244, -0.18412119, 0.23822315, -0.6280224, -0.7210703, -1.0839739, 0.10871177, 1.3404104, 0.42706594, -0.4050045, 0.052891042, -2.0318766, 1.2953606, -0.43284175, -1.2377537, -0.21787788, -0.6163901, 0.49971277, -0.3419813, -0.32057884, -0.56080014, -0.34749958, -1.3343264, 1.9603657, 1.163885, -0.9763288, 0.9649534, 0.07728944, 1.1380309, -2.1926022, 1.0075932, 0.359187, -0.3321644, 0.6485994, 1.3355641, -0.17503446, 0.6077535, 0.782378, 0.39157936, -0.5686675, 0.5633695, 1.2692832, 4.6686788, -0.36431527, -1.1818339, -0.2920444, 1.1105996, 0.13751514, 2.0761876, 2.2923777, 1.0420758, 0.25107577, 0.775999, -1.5640353, -1.4377611, 0.9535376, -2.274114, 0.5673711, 0.155968, -0.7420824, -0.26022258, 0.057155017, -0.4111328, 0.075167894, 0.9512476, 0.11817189, -0.14052838, -0.532942, 0.2991519, -0.06395179, -0.619514, -1.8729372, 1.352667, 0.19095518, 3.2799757, 0.8110482, -0.31551325, 0.18194874, 1.3927453, -1.1105709, 0.5246595, -0.87154025, 0.073201716, 0.99706507, -0.00922251, -0.6671332, -1.4751995, -1.6810766, 1.062876, 0.37576246, 0.45071754, -0.4438764, 0.09639246, -0.89286536, -0.9314683, -0.615331, -2.3840084, -0.22317456, 0.102387615, 1.5077498, -0.76527774, 2.7094543, 0.8069044, -0.031364888, -0.7101202, 0.6003588, 1.1508085, 0.7398427, 0.92727727, -0.21566887, -0.10982934, -0.7161297, 1.7800593, 0.9828501, 1.0618002, -2.3062646, -1.1964953, -0.20674925, 0.8278587, -0.8971006, 1.5000314, 0.1576078, 0.36672926, 0.60847807, -1.1091739, 4.0916977, 1.086256, -0.17094544, 0.24577259, -0.10084313, 1.7198676, -0.18607955, 1.7780957, 0.10612023, -1.6331624, 2.2613533, -0.2835243, 0.039459392, -1.0215157, 0.045104653, -0.19329149, -0.07006966, 0.71923566, -2.1571038, -1.6292719, 1.0260329, -1.2782315, -0.9140964, -0.9595066, -0.115610376, -0.578125, -0.15297009, -0.5179437, 0.2253875, -2.2606637, -0.89884484, -0.9349437, -0.79515165, -0.39061978, 1.350659, 0.73499644, 1.7730929, 0.14880437, 0.7943187, 0.4534723, -0.26647884, 1.6548556, -0.035752892, 1.7626275, -1.1521871, 0.4830903, -0.76878184, 0.43075284, -0.7028678, 1.0710979, -1.1460875, 0.14240319, -0.3437265, 0.3336606, 0.794149, 0.7847071, -0.8519594, -1.762737, -0.65347373, 0.114330925, 0.94079, -0.10239806, 1.5646306, -0.82153976, -1.0673175, 0.009556735, -0.31212398, 0.19062087, 0.103358954, 1.0966614, 1.9782127, 0.3429771, -0.74555063, -0.7517965, 1.5932512, 0.5726116, -0.32681683, 2.0896244, -0.7622123, 1.6250417, 0.41250625, 1.6409696, 0.67609817, -1.179053, -0.39291757, 0.20244871, -0.44757634, -1.3222448, 1.3929646, 0.6641669, 1.4648333, -0.41756794, 0.81333166, -0.48699397, -1.481299, 1.1947602, 0.6076804, 0.07677244, 1.2149534, 1.0000013, 1.5584345, -0.121474326, 0.14025684, -0.9670371, -0.68459773, 0.71420664, 1.3883795, -0.96267915, 0.25551993, 0.4973262, 2.0875773, 3.1940486, 1.5218447, 0.1821759, 0.946135, 0.48526606, -0.049989752, 0.8105155, -0.6922262, 1.8321879, 2.070921, 0.8795904, 0.7021393, 0.17031877, 1.1927171, 1.0941156, 0.18573488, -1.9586293, -0.3943119, 1.5841919, -0.1316166, -0.2534728, -0.5879932, 0.767069, 1.4889915, 0.61619526, -0.10976928, -1.8696733, -1.3824782, 0.07735733, -1.6969706, 0.77819496, -1.1166111, -2.6418574, -0.58542573, 1.2822866, 0.686056, 0.08637617, 0.059706092, -0.12732129, -1.9178435, -1.7836835, -1.2462609, -0.06337081, -0.61837167, -1.3030477, 1.8180773, 2.5063972, 0.24280503, 0.19773301, 0.7353724, 0.7598492, 0.77393883, 1.7736242, 1.7749416, 1.7632228, -0.6295512, -1.4052081, -2.071926, 0.51344603, -0.49365625, 1.6891555, -2.1675718, -0.1616472, 1.8752507, -0.05659428, -0.2619381, -1.1427766, -0.3365211, -0.23530456, 0.011683499, -0.202749, 0.98964167, -0.5279208, -0.83750415, -0.9329253, 1.3175342, 0.43478703, -1.8435307, 0.32522663, -0.543538, 1.2169588, -1.2455924, -0.13832851, -0.89827037, -1.7302442, 0.26714468, 0.24115871, 0.9407931, -0.33343604, -0.018108184, -0.21040744, 0.2920653, 0.6952897, -1.1861161, 0.7979247, 0.99911743, 0.13386609, -0.37316698, 0.09040253, 1.0669233, -0.27887127, 0.13472907, 0.25123897, -0.29787767, 0.7390669, -2.0384045, 1.2127079, 0.5816004, 1.4402992, -1.0224348, 1.5797752, 0.32120746, 2.341191, 0.2370847, -0.57990056, 1.0805482, -0.46513, 0.4268081, 0.39046833, -1.0394281, -1.5623225, -0.2533762, 0.86214805, 0.7691004, 0.17349912, -0.5898829, -0.5552306, 1.8253781, -0.25672105, -2.42211, 2.0382957, -0.2545512, -0.5624582, 0.34896573, 1.9921039, 1.6064512, 0.42432424, 0.24149816, 0.7513317, 1.6142396, 1.2758397, 1.7148751, -0.31636757, -0.94046104, -0.5972385, -0.80059326, 0.035071716, -1.262442, -1.259656, -0.69707763, -3.6085916, -0.847745, 0.009765625, 0.17422894, 2.2917807, -0.50491935, 0.050692473, -1.4209402, 0.8356294, -0.12505876, 0.9496809, 0.26894897, 0.019445082, 0.64618933, 1.5537632, 1.5084809, -0.73652655, 0.77199876, -0.58588135, -3.149858, 1.355098, 0.39863595, 0.32619995, 1.0680944, 0.42106554, -1.2191051, -0.36427087, 0.5418094, -0.4871898, 0.91048, 0.7377068, -0.84287524, 0.91044086, -1.8863062, 0.5446138, 0.18382679, -0.30658317, -0.28084266, 0.520648, -1.4427379, 0.053770993, 1.8956383, -1.7700117, 0.8647828, 1.2038039, -1.0230824, 0.06688931, -0.36476436, -1.0469167, -0.37547523, -0.42165044, 0.629999, -1.0566354, 1.5258319, -1.480286, 0.26183885, -0.37277532, 0.4672721, -2.215514, -0.34479055, 0.21430194, -0.93161714, -0.23248976, -0.24678047, 0.8368775, 0.22158046, 0.24480255, -0.7444814, 0.98523927, -0.9919264, -0.80780745, -2.2637868, 1.3733706, 2.1925447, -0.8120581, -0.94959605, -0.43152574, 1.0608256, -0.25024357, -1.063487, 0.04445187, 0.4738156, 0.09695647, 1.199083, 2.0939903, -2.1969001, -0.12979664, 0.5818563, 1.6939442, 0.23793396, 2.3223283, 0.56989473, -0.45620352, -0.15089914, -1.3481106, 1.2729205, 1.5120844, -0.6397555, 2.359887, -1.2560474, 0.47523832, 1.6055001, -0.20617741, -0.6984041, 0.4964332, -0.30329838, 1.0809163, -1.185573, 1.517693, 0.87247765, 0.5814777, -0.84341055, 0.8944216, -0.41025352, -0.23484631, -1.692281, -0.2457282, 0.11901725, -0.5605312, 1.2339207, 1.1105461, -0.50536066, 3.2075953, 0.633699, 0.6352722, 1.3533171, -0.9822153, -0.06434737, -0.056423903, -1.4762661, -0.4784373, -1.1334234, -0.33382967, 0.025555126, -1.8487598, -0.35537475, 1.7551074, 0.85357827, 0.14874953, -0.9139946, -0.52133685, -0.50927997, -1.3573338, -0.22602199, -0.90846425, -0.6510173, 1.325587, -0.106617644, -2.1317315, -0.048003007, -0.47944388, -0.090937816, -0.9976056, 1.4884536, 0.24745154, 0.103672296, 2.1165137, -1.3685192, -1.3004836, 0.5298827, 0.4034561, 1.3406479, -0.18982391, 0.79711133, 0.7171096, 0.16135214, -0.0750752, 0.86528397, -0.52583975, 0.80989933, 1.1495394, 1.4567441, 0.33773395, -1.1147643, -1.2371794, 0.40818092, 0.99211437, 0.9948613, -0.5741874, -1.0036713, 1.1520617, 0.54758525, -0.78897536, -1.4676533, 0.3311748, -0.9434899, -5.9614806, 0.05258815, -1.021406, -0.3488861, 0.24137087, -0.745379, 1.4138798, -0.04167102, -2.2099662, 0.6709193, 0.14335625, -0.92139846, 0.54924196, 0.91999924, -0.5555909, 2.5829816, -0.63276845, -0.8706818, -0.71795917, -0.2941542, 0.23145445, -0.05174998, 0.23853192, 1.5486193, 1.2166703, -1.742245, -1.5857077, -1.1911347, -0.75450814, -1.9811581, -0.6891398, 2.6791234, -1.6388285, -2.0875564, 0.38049644, -0.22958031, 0.7788008, 0.4447746, 1.3026052, -0.54573655, 0.27017882, 2.4587657, 0.79979944, -1.0420235, -0.3142377, 0.03407002, -0.75644165, 0.17566113, 1.4402364, -0.54120886, -0.6758126, 1.2276722, -0.64798313, 0.24533391, 1.185569, 1.0909561, 0.7248199, 2.3770888, 0.20107265, 0.346822, 0.11094951, -0.3389403, 2.1862988, 0.40334642, 1.0297147, 0.535386, -0.6873303, -1.2677139, 0.83937895, -1.0258449, 2.506152, 0.18765144, -0.6753347, -0.2934642, 1.4096223, -0.90822923, -0.55601394, -0.76673406, -0.16474661, -0.2073968, -0.24395001, 0.19150874, -1.6803298, 0.10900422, -0.87266564, -1.136677, -0.71854633, -1.8807341, -0.63219625, 0.8998632, -0.13707909, 0.445649, 0.6656814, -0.35467887, 2.2490444, -1.1731029, 0.054233164, -0.95977813, 2.019458, 0.32275128, 1.1817242, -0.20848304, -1.5767828, 0.77737767, 0.30063504, 0.778712, -0.2279438, -1.0749604, 2.3394625, -1.2814301, -1.8516147, 0.9275986, -1.4301784, -0.95502067, 0.6249556, 0.9589609, 0.91136783, -2.4112477, -0.14347114, -0.2220113, 0.32698655, -0.53799975, -0.09962504, 1.2006549, 1.2943474, -0.6812072, -1.6414344, -2.9018254, 0.4906626, 0.45090553, 0.5009452, 2.0380285, 0.3399482, -0.09756747, -2.2008169, 0.5330569, -0.010247379, 0.36066228, -0.5199934, 0.56600153, -0.91385686, 1.3011991, -1.5542175, -0.43434185, -0.48482934, -1.1121689, -1.9937438, 2.2500417, 0.503901, 0.31173363, -0.082153976, -0.7324166, 0.58625865, 0.26655456, 0.5408002, 0.28600225, -0.6373141, -0.062348556, 1.0402375, 1.0269704, -1.0147163, -0.93107027, 0.54338914, 0.7812422, 0.19284041, -0.28681955, 1.2264162, 0.6048055, -1.0900161, -1.7117952, 1.3192106, -1.0070014, 0.9159164, 0.75386447, 0.826042, 0.7062897, -2.274482, 2.0268738, -0.10038815, -0.2267257, -1.0851228, -1.3057946, -1.0309784, -0.16169682, -0.53342766, -0.6282169, 0.44813514, -1.4974515, 0.44715074, -0.42455402, -0.55526716, 0.05353338, 0.042767692, 0.3380303, 0.27966765, -0.6183103, -1.1390107, -0.5073477, -0.619078, -0.95233124, -2.3253782, 0.1691098, 0.6905602, 0.62730825, -0.98226523, 0.7511933, -0.21584512, -1.4455161, 0.6191041, 1.0314142, -0.53647226, 1.0187845, -0.6426617, -0.69693923, -0.4275725, -1.3865777, 0.1635442, 0.78278536, 0.8777678, 1.1593363, -0.5155153, 0.4250658, -1.0822192, -1.2149221, -0.9036258, -1.0975257, 0.55694354, -0.07857934, -0.9009807, -0.006342434, -2.0896297, -1.0372765, 0.16856997, -0.5956248, 3.0549695, -0.20113924, -0.1466306, -0.7197918, -0.5142176, 0.4997846, -1.6001891, -0.74269927, 0.93744254, -0.59397197, -1.912454, 0.05014805, -4.8798046, -0.43545026, 0.74418956, 2.1383429, 1.0084705, 0.60081834, 0.16009358, 1.45665, -1.1004006, 0.29811266, -1.4106601, -0.2614785, 1.9944278, 1.2987472, 0.26491478, 1.2866893, -0.958436, -0.33488262, -2.6570125, -1.7390176, -0.7775965, 3.6624331, 0.36874896, 1.4466755, 1.2005452, 0.1348753, 1.5795141, -0.5178301, 0.5632833, 0.25971276, 1.3340784, -1.5820521, -0.24987336, -0.05804019, -1.7824093, -1.3702751, -0.40156823, -0.48669824, 0.2213089, -0.96770555, -0.08028049, -1.5002036, -2.0688972, -1.1109835, -2.3945, 1.8260988, 1.934116, 1.8103797, 0.98419744, 0.42716777, 0.52746123, 0.5842507, -0.42185932, -0.25174162, -0.05729602, 0.9046259, 0.7246981, 0.48900715, -0.55944496, 0.19667551, 1.0535451, -0.026596967, 0.7184053, 2.1404893, -0.12595828, 0.2301763, -0.08253781, 0.09307796, 0.6240548, -1.1638954, -0.66250104, -0.44638762, 0.016585896, -0.6637252, -0.84246665, -1.0596043, -1.2169954, 0.42243117, 0.46566054, 0.2650584, 0.70682317, 0.55385715, -0.17920966, 0.53330755, -0.35454115, 0.9013411, 0.6593853, 0.675199, 2.0816762, -1.2973554, 0.41016147, 1.0697016, 0.5922538, 1.4465554, 1.1614958, -1.02664, -0.1709141, 0.77583253, -3.2250376, -1.6251985, 0.592917, -0.7275848, -0.8224275, -0.048882958, -1.0117031, -2.8696315, -0.38096383, 1.7779809, -0.6220912, 1.4342779, -0.53862125, 0.51602453, 1.6470327, -1.1745749, -0.20278424, -0.3575916, 0.40490985, 2.4306588, -0.4521406, 0.7224043, -0.38096383, 1.4811659, -2.965439, 1.6985816, -0.67152905, -0.76859385, -1.6533047, -1.397111, -1.1013379, 0.24335067, -0.14965428, -0.31117484, -0.18175682, -2.0170662, -0.595395, -1.3820239, -0.012940759, -1.1257755, 0.8080402, -1.1551533, -1.083, 1.1554301, -0.5636411, 0.8539856, 1.3373684, 2.6314652, 0.6256854, -0.24050169, -0.38479924, -0.48034865, -1.3233387, 0.054123495, 0.69170916, 0.7119335, -0.82750356, -0.25008887, 0.2831718, -1.2542379, -0.77610606, -1.1526356, 0.28951684, 1.5998704, 0.9533391, -1.2221993, 0.37144363, 0.73051053, -2.215011, -0.6145738, 0.44743273, -1.3022044, 0.31141898, -1.159843, 1.604372, -0.23910898, -0.3319007, -1.240438, 0.7682466, -0.93118757, -0.3295036, 0.20149043, 0.7956987, -0.78344333, -1.0250407, 0.44846937, -0.6377188, -1.3751514, -0.08167613, 1.3010267, -0.24120572, 0.42052832, 0.60371244, 0.017711293, -0.7402722, 0.7584235, -1.7017698, -0.048295453, -0.06294781, -0.15986969, 0.9441636, -0.7771858, -1.9792311, -2.3371544, -0.95543325, -0.6152143, -0.5924575, -0.18190174, -0.4169922, 0.59598774, -0.3955078, -0.36816406, -0.9943103, 0.6988989, -0.39431062, -0.13175239, 1.1349771, 0.017438103, 1.2325002, -0.5226189, 0.0850941, 0.6168324, -0.559304, -0.8795695, -0.2008964, -0.44191805, -0.33003244, -1.4325597, 1.3907555, -0.21800844, -1.1361443, 1.2358894, 1.3714697, 0.8005019, 1.876666, 0.39610708, 2.869078, 0.3094972, 1.5133115, 1.1759974, 0.115526825, -0.7413284, -0.00075983873, 2.0559826, 2.1965344, -0.21848628, 2.2885873, -0.22234227, 0.38329294, 0.8807236, 2.0752788, -0.18241875, 0.37765813, 2.4047983, 0.056055732, 0.39947152, 0.6803449, -0.7665337, 1.947156, 1.5809398, -0.90400964, 0.19455266, 0.053872827, 0.39008188, 0.19257604, 1.0924653, -3.0296469, 0.16599734, 0.3332218, 0.318424, -1.6368179, -0.8787496, -1.2290065, 0.30517057, -1.0610691, 0.9547857, -3.7575722, -0.14164595, -0.91529495, 1.1003731, -0.11090512, -0.79028976, -0.60619986, -0.08411754, -1.1565424, 0.30082303, 1.8124583, -0.95349056, -0.13678859, 0.66498685, -0.26975843, -0.8676836, -1.1331336, -0.92041796, 0.14259902, -0.95411724, 1.2862765, -1.2818506, -1.5457366, -0.5396892, -1.2410098, 0.9484746, 0.34424612, -0.74260265, -0.47593844, -1.039522, -0.47776362, 0.14633815, 0.6047611, 0.3923562, -0.5290488, -0.71662456, 0.9177834, 0.6517484, -0.16596863, -1.125282, 1.6764549, -0.2799601, 0.5665303, 0.65607244, -0.1372524, -1.7872243, 0.30307513, -1.2407775, 0.75453424, -0.49903584, -0.27196777, -0.37813726, -0.32472464, 0.21383585, 0.8168371, -0.21121167, 1.5710123, -1.3960718, 0.04306536, 0.92136323, 0.8366843, 0.8764257, -2.3122249, -1.9813565, 0.7173739, 1.9197495, 0.6634133, -0.79759043, 0.21566887, 1.9798212, -0.33066824, 1.4060333, 2.6163623, 0.8034655, 0.6875183, 1.4237915, -0.019917697, -0.14496861, 1.712593, -0.08213439, -0.3445268, 0.51666033, 0.18346842, -0.5666413, 0.09599818, -0.8914397, 0.062416445, -0.24475163, -0.28383762, -1.4724395, -0.16344105, -0.41642296, 0.9174524, 0.037284322, -0.17641836, -0.44150677, 1.5426658, 2.0707617, 1.2046969, 0.45204923, 2.056223, 0.055831175, -1.5813628, -2.2453208, 0.3390839, 0.882592, -0.7145957, -1.5100209, -0.74409103, -0.19460227, -0.8681928, 0.14400381, 1.3605865, 0.150232, 1.6994642, 0.05264821, 1.4773092, 0.1742668, -0.41827163, 0.8412433, 1.0440869, -1.0353677, -0.90287644, 0.51716816, -0.070714615, -1.3855046, 1.0749831, -1.6254308, 0.30978572, 1.763651, 0.0066427137, 1.0291036, -0.45423734, -1.1416277, 1.0288165, 0.8032814, -0.045337044, 0.6462885, 0.8139113, -0.86933875, 1.5029558, 1.3482255, -0.7840948, -0.60253906, 2.0665734, 1.2334768, -0.21004449, 0.88721484, 0.89563316, 0.9308978, -0.5842037, -2.6164198, 0.5145179, 0.33245164, 0.995582, 0.5821827, -0.8104268, -0.6220736, -0.1472416, -0.4065111, -0.75402504, -1.103547, 0.91545033, 0.13582836, 0.6179219, -0.8908574, -0.10739315, -0.30099472, -0.49885634, 3.9202144, 1.2183844, 0.27371427, -1.1186929, 2.3855593, 0.41548297, 1.1963125, -0.7826861, -1.8955809, -0.00917551, -0.16966076, -1.0207298, -1.0185703, -0.78902334, -0.13302074, 0.66356117, -2.6001525, 0.15344304, 0.76815224, -0.50885695, -0.5367334, -0.9173108, -1.7935171, 0.17026132, 0.8652605, 0.32610008, -0.19354346, -1.1815779, 1.1493618, -0.9507763, 0.98957896, 0.7644345, -0.4799178, -1.6843725, -0.18089384, 0.1509494, 0.42451486, 0.15567033, 0.3659446, 1.3013974, 0.10566197, -0.76270056, 0.4657002, -0.26876503, 0.8503836, -0.23162417, 2.3531187, 0.005697485, -0.44208384, 1.0950503, -0.51629347, -0.79200786, -0.29111877, 1.0276963, -0.39593604, 0.031793114, -0.16584851, -0.39788395, -1.8884369, 1.2439213, 0.21187522, 0.2726124, -0.2511985, -1.3120561, -0.059716538, -0.18052657, 0.5271401, -0.80252165, 2.2193663, -0.10220745, -0.5186278, 1.041705, 1.5196549, -1.5187427, 0.66178036, -0.38567168, -0.87991935, 0.8884682, -0.5991812, -0.8028, -0.8751227, -0.61825967, 0.08107427, -0.07516137, 0.49428684, -0.3213191, -0.74676484, 1.002457, 0.2445529, 0.07139612, 1.3852702, 1.3040817, -1.533506, -0.31916884, -0.045142516, -0.52070105, 0.32079294, 1.5864342, 1.2135408, -1.5968598, -1.394291, 1.2513578, -1.4638411, -0.3027866, 0.04590366, 0.20761876, -0.35350257, 0.48046613, -0.29654077, -2.2554443, 1.0204347, 2.062688, -0.59256977, -0.41322693, 0.108429775, -1.797627, 0.96216995, -2.5884442, -0.2690508, -1.0070448, 1.9388918, 0.44523418, -2.5565467, 1.4747857, -1.1524795, 1.3760757, 1.2431588, 0.07462739, 1.2656094, -0.0687876, -0.50057703, 1.3793031, -1.4555508, 2.1116729, -0.8510455, 1.4588591, 1.3112885, -0.8215554, -1.0162085, -0.42433795, -0.918833, 1.4091562, 2.3314464, 1.5572829, 2.2718186, 0.057254568, -0.3133512, -0.8223335, -0.09064798, -0.96148586, -1.9116654, -1.0079204, -0.21829045, -2.0177765, -2.8687072, 0.72846603, -0.37480548, 0.59793305, 1.546781, 0.26020822, -1.4804113, 1.4876859, -1.3649211, -1.4019077, -1.5349683, -2.6533778, 1.9429729, 0.32566008, -1.4046223, 0.061100435, -0.55455565, -2.3319268, 1.0247535, 3.0969565, -0.83040714, -1.5542488, -0.90459585, -1.2304218, 1.0990219, 1.3142024, 0.48114014, 1.1362671, 2.0410025, 2.0571053, 0.18185996, -0.6894554, 0.3395774, 0.96552527, -0.76899856, -0.37261245, -1.1167018, -2.1249583, -2.2405086, 0.5624661, -2.1904376, 0.08691276, -0.2536843, 1.4964802, 0.34675542, -0.9415838, -0.3016351, 0.09095968, 0.67505795, -1.30921, 0.03235712, -0.5259964, 0.007308552, 0.34050438, 0.73316866, -0.9100518, 0.88240516, -0.3414287, -1.0615208, 1.007165, -0.20871021, 0.9001661, 2.0870028, 0.84566396, 1.3181505, 0.42845505, -1.9793825, -2.3341594, 0.44196373, 1.0713779, -0.8610879, -1.7896212, 1.159702, -0.32678288, 2.2952247, 0.68237436, 1.2345055, -0.15615077, 0.26004633, -0.37775734, 1.097907, 0.10888933, -0.022460938, -0.5083256, 0.032931566, -2.3896642, -2.0535595, 0.5096077, -0.46088004, 1.4162924, 0.36577228, 0.24555162, -1.0175676, -0.7700796, 0.7704347, 0.0802609, 1.4939735, 0.29611254, 0.41843876, -0.42864174, -0.23876692, 0.20783548, -0.15306441, -0.38600853, 1.7788895, -0.9576475, -0.037151806, -0.71724993, -2.399</t>
-  </si>
-  <si>
-    <t>[0.13928223, -1.1630859, 1.3339844, 0.012496948, -0.61816406, 0.23352051, -1.0888672, 1.2216797, 0.14086914, 0.4736328, 0.7011719, -1.0478516, 1.1455078, -1.4550781, -0.19165039, 1.0742188, 0.84814453, -0.43432617, 1.734375, -0.07891846, 0.72802734, 2.25, 2.2890625, -1.0703125, -0.87158203, 1.078125, -0.2322998, -2.6328125, 1.1523438, 0.89746094, 2.4980469, 1.7949219, 0.93115234, 0.20812988, -0.4169922, -0.84814453, 0.29638672, -0.53808594, 3.3300781, -0.107910156, -0.3125, 0.9160156, -1.0683594, 0.120910645, -2.609375, 1.6054688, -3.2460938, -1.171875, -0.8574219, -1.2089844, 2.1347656, 1.7949219, 1.5615234, 1.0478516, -0.74072266, -0.28564453, 0.20288086, 0.421875, 0.12719727, -1.0810547, -1.7265625, 1.2431641, -0.46533203, -2.015625, 0.26904297, -0.8408203, -1.8066406, 0.78564453, 0.5385742, -0.04458618, 0.18310547, -1.1845703, 0.22253418, -0.5541992, 3.09375, 1.6318359, -1.03125, -0.57177734, -1.9755859, 1.2597656, -2.7304688, 1.0449219, 0.020828247, 1.8818359, 0.9145508, 0.828125, -1.5849609, -0.4975586, -0.44433594, -1.5087891, 0.89404297, 0.38256836, 0.8618164, 0.101257324, -1.7587891, 0.5996094, -0.39941406, -1.2949219, 0.4050293, 2.015625, -0.88671875, -0.5551758, 1.4990234, -0.10235596, 0.91308594, 2.1582031, 0.1381836, 1.4189453, -1.3261719, -1.1376953, -1.6650391, -0.39990234, 3.3242188, -1.1630859, 0.8129883, 0.26098633, 1.0722656, -0.45361328, -0.8105469, -3.0429688, -2.21875, -0.9355469, 0.7348633, 1.4023438, 0.1385498, 0.85595703, 0.68896484, -0.4284668, -0.1685791, 1.9912109, 1.0771484, 0.090026855, -0.23962402, -0.38549805, 2.2519531, 1.4580078, -0.8354492, -0.7998047, -0.92333984, -2.5820312, 1.4208984, -0.70410156, 1.3681641, 2.1054688, -1.1992188, 0.55615234, -0.24047852, 0.15588379, 1.40625, 0.14953613, -0.45385742, -0.8046875, -1.9697266, 0.047821045, -1.8564453, 0.7988281, 0.3935547, -0.7841797, -2.3398438, -0.08270264, 0.7753906, -0.31860352, 0.9848633, -0.13720703, 1.0087891, -0.51220703, 2.8867188, 3.1582031, 0.12365723, -2.5097656, -1.1816406, -1.4580078, 1.0380859, 1.2060547, 0.034332275, -0.42211914, -0.21826172, -1.9794922, -0.17346191, -2.0292969, -0.097473145, -1.59375, 1.6347656, 0.5161133, 0.40942383, -1.9560547, 0.21960449, 0.03918457, 0.10998535, -0.7651367, 1.6826172, -1.0849609, -1.1835938, 0.81152344, 1.2402344, 0.5917969, 0.7211914, -0.90283203, 5.6484375, 0.7319336, 0.70458984, -0.25854492, -0.35986328, -1.15625, -0.15576172, 1.2285156, 0.44482422, -0.7011719, 0.41552734, -1.0078125, -0.0004968643, 0.053100586, 0.37231445, 0.94677734, 1.0439453, 0.7895508, 2.5390625, -2.0195312, 0.18896484, 1.4492188, 0.4880371, -1.8759766, 0.30322266, 1.7050781, -2.6601562, 1.8525391, -4.0429688, 0.054473877, 0.99072266, 0.67089844, 1.6259766, -0.73535156, 0.7001953, 0.9892578, 1.5068359, 0.7246094, -1.9638672, 3.3925781, -0.9560547, 0.42944336, -0.5253906, -1.8945312, -2.125, -0.49047852, -0.9057617, 0.14428711, 0.22363281, -1.1904297, 1.2558594, -0.42358398, 2.2109375, 0.3203125, -2.2148438, -0.6972656, 0.58935547, 0.11291504, -0.55029297, -1.1054688, -0.67626953, 0.5913086, -3.3398438, 0.5102539, -0.080200195, 0.15673828, -0.5151367, -0.42919922, -1.5292969, 0.23095703, -1.4091797, 1.2480469, 0.78564453, 0.2154541, 6.859375, 0.9116211, -2.3652344, -0.24255371, -1.4736328, -0.62402344, -0.4169922, -1.1708984, -1.6708984, -1.2773438, 0.56884766, 1.3642578, 1.2451172, -0.56884766, -0.74365234, -1.0712891, 1.0986328, 0.14489746, -1.7949219, -0.5986328, -0.52441406, -2.5585938, -0.6386719, 2.2929688, -2.9570312, -1.7626953, -0.028869629, 1.2792969, -0.6220703, -0.8618164, -3.2421875, -0.6040039, 3.0195312, 1.0478516, 2.5566406, 1.2089844, 0.4182129, -0.7998047, -0.50927734, -0.035186768, -0.5126953, -2.1054688, 1.5087891, 0.38842773, 0.71435547, -0.68359375, 0.6069336, -1.1494141, -1.0419922, -2.2480469, 0.7109375, -1.4257812, -1.3447266, -3.0234375, 0.1484375, 1.9472656, 2.2070312, 1.4023438, 2.03125, 1.5205078, -1.0703125, 0.2631836, -0.7319336, -0.4934082, 0.5883789, -0.19018555, 0.18652344, -0.7285156, -0.08795166, 0.45581055, -0.011184692, -0.01322937, -0.81152344, -0.13427734, -1.3154297, 0.9921875, 1.1933594, -0.101135254, 1.5410156, 0.19995117, 1.1171875, -0.11468506, 0.7519531, 1.2714844, 3.2695312, -2.0097656, -0.16186523, 1.5615234, -0.35351562, 0.9458008, -0.7480469, -2.2578125, -1.5966797, 1.9619141, 0.008125305, -1.9814453, -1.4746094, -3.1816406, 0.79833984, 1.8505859, -0.77685547, -0.07476807, 1.2783203, -0.11907959, -2.3417969, 0.23388672, 1.5390625, -0.7734375, 3.1074219, 0.4729004, -2.2050781, -0.9116211, -0.06100464, -1.0546875, -0.81347656, -0.7392578, -1.4931641, -0.2109375, 2.0488281, -1.1152344, 0.06335449, -1.9580078, 1.4052734, -0.7734375, 1.9150391, 1.2109375, -0.8989258, -1.4804688, -1.1513672, -0.8310547, 0.01612854, -1.3261719, -0.19702148, 0.1640625, -0.6958008, 0.4765625, 1.0673828, 0.77783203, -0.26489258, -0.80566406, 1.6904297, -0.79833984, 0.60498047, -0.9267578, 1.0751953, -0.91748047, -0.5673828, -0.04345703, 1.4248047, -0.066467285, -0.8754883, 1.4169922, -0.32958984, -0.98095703, -0.70654297, -0.609375, -1.1298828, 1.1845703, 0.109313965, 1.3505859, 0.66015625, 1.5449219, -1.2978516, -0.5361328, 2.3652344, -1.2050781, 0.39208984, -0.9326172, -0.86621094, -0.96484375, 0.78125, 1.0732422, 0.7709961, -0.22644043, 1.5087891, -0.43432617, -0.5283203, 0.3178711, -1.1689453, 0.65478516, -0.7871094, -0.8383789, -0.11987305, -1.8007812, -1.1904297, -0.3137207, 0.75634766, 2.2558594, 0.85546875, 3.6757812, 0.7495117, 0.51953125, -0.17932129, 2.7460938, 1.2392578, 0.7416992, -0.6015625, 0.08508301, -0.30273438, 1.4628906, -1.2226562, 0.34545898, 0.36132812, 0.6269531, -2.2949219, -1.6123047, -0.6669922, -1.2109375, -1.3027344, -1.5673828, 0.59765625, 1.1835938, 0.38330078, -1.0976562, 1.6914062, 1.0693359, -0.78515625, -0.64453125, 0.296875, -0.1854248, 1.2382812, 1.5068359, 0.41088867, -2.0292969, 0.453125, 1.3779297, -0.2668457, 0.6142578, -0.32055664, 0.5229492, -1.3583984, -0.4086914, 1.6181641, 0.26049805, -0.71435547, 0.80322266, -1.6259766, 0.5517578, -1.2568359, 1.7470703, 1.0283203, -2.0917969, -0.95166016, 0.113586426, 1.4492188, -0.3544922, 0.103149414, -1.6347656, -0.54541016, -2.6855469, -1.3916016, -0.59375, 1.109375, 3.4101562, 0.7348633, 3.4414062, -0.20776367, 1.1289062, -0.6875, 1.5800781, 0.13342285, 0.6464844, -0.9824219, 0.7504883, 0.18225098, 0.25805664, -0.108947754, -1.4433594, -0.36816406, -2.8378906, -0.7709961, -0.35888672, 1.6064453, 0.72265625, 1.2119141, -2.2421875, -2.2636719, 0.0061798096, -1.8007812, 0.3503418, 0.4321289, 0.7680664, 2.03125, 0.6064453, 1.3349609, 1.0185547, -0.8955078, 0.9941406, -1.5537109, -1.8945312, -1.8994141, -0.8886719, 0.82958984, -1.1689453, 0.9941406, 1.7949219, -0.6660156, -1.7060547, -0.48876953, 0.6489258, -0.35131836, -0.49487305, -2.0546875, -0.85595703, -0.08673096, 1.4697266, 0.88134766, -0.9736328, 6.140625, -1.4960938, 0.16967773, -1.7324219, 0.15576172, -0.49194336, -0.9589844, -0.07940674, 1.734375, -0.105895996, -1.5712891, 0.45458984, -1.0498047, 2.1210938, 0.028808594, 0.9746094, -0.5654297, 0.17541504, -0.47485352, 0.44726562, 0.049468994, 0.59375, -0.57373047, 0.35302734, 0.21386719, 0.75, -1.3847656, -0.41845703, 1.4072266, 0.47436523, -2.2148438, 0.28808594, -0.35620117, 2.0546875, -1.2412109, -0.18041992, -0.71484375, -1.8847656, -1.7617188, -0.7519531, 1.0722656, 1.375, -2.5644531, 1.5507812, 0.51660156, 0.7392578, 1.3320312, 0.029724121, 0.29492188, 0.11175537, 1.2294922, 0.7128906, 1.7773438, -1.6699219, 2.5898438, 2.9941406, 2.90625, 0.8378906, -2.6933594, 0.7324219, -0.21435547, -0.2553711, 0.46484375, 0.9692383, 1.1132812, -1.0625, 0.8076172, 0.55615234, 0.7944336, -0.25708008, -0.671875, 0.43530273, -0.4177246, 2.6074219, -2.1308594, -1.3369141, 0.20996094, -0.041290283, 0.34716797, -0.7792969, -0.24084473, 0.4465332, -0.3803711, -1.2089844, 2.9042969, 0.78271484, 0.6386719, 0.55029297, 1.6152344, -0.9951172, -0.9614258, 1.0078125, -2.3867188, -1.1181641, 2.6425781, -0.76660156, 0.81152344, -0.51220703, 1.3662109, 0.15637207, 0.16723633, -2.1484375, -0.37304688, 2.3867188, -0.35766602, 0.9863281, 0.64160156, -0.09820557, -0.6767578, 1.7207031, -0.39575195, 0.6796875, 0.55615234, 0.4560547, -0.9165039, -0.17114258, -2.5351562, 1.2109375, -1.4501953, -0.5576172, 1.2626953, 0.88720703, -0.30493164, -2.7695312, -1.8535156, -0.27294922, -0.4794922, 0.1875, 2.2578125, 0.124572754, -0.7104492, 2.1210938, 1.0322266, -0.86865234, 0.062469482, -0.93115234, -0.50634766, 1.0458984, 0.30688477, -1.4794922, 2.4433594, -1.8828125, -0.28833008, 0.8339844, 2.0527344, 2.7753906, 0.25610352, 0.18334961, -1.3154297, -0.20080566, 0.25097656, -0.15710449, 1.6708984, 2.0019531, 2.3945312, -1.5087891, -0.99853516, -1.3681641, -2.9160156, 0.50341797, -0.33813477, 0.1875, 2.1738281, 0.10961914, 0.71875, -0.45166016, -0.32373047, -0.5644531, 1.4423828, -0.47705078, 1.1103516, 0.9399414, -0.8808594, -0.25683594, -0.7558594, -0.9790039, 0.23925781, -1.1835938, 1.2939453, -1.0273438, 0.17858887, -2.3476562, 1.4013672, 3.0410156, 0.99365234, -0.8383789, 0.69091797, -0.61865234, 0.6118164, -0.84277344, 0.037231445, -1.6679688, 0.7182617, 1.1787109, -0.27954102, 0.041015625, 1.7685547, 1.9462891, 1.7021484, 2.5566406, -0.33764648, -0.68115234, -0.05911255, 2.0546875, -0.9165039, 0.13220215, -1.2783203, -0.40600586, -1.109375, 1.3916016, -0.7319336, 0.40527344, 0.12261963, 1.4296875, 0.953125, -0.64941406, 1.5996094, 0.625, 0.8598633, 2.0859375, 0.5493164, 1.7001953, -0.2298584, 0.15283203, -1.6914062, 0.34448242, 1.4375, 0.22143555, -0.29663086, -1.2861328, 0.73828125, -0.56689453, -1.5732422, -0.15100098, -0.6381836, -2.578125, 0.49169922, -0.8798828, 1.1933594, -1.4902344, 1.2353516, 1.8144531, -0.08428955, 1.3115234, -1.2314453, -2.296875, 0.95410156, 1.9355469, -0.26123047, 0.31982422, 0.50439453, -0.7285156, -0.18737793, -1.0097656, 0.7363281, -2.3183594, -0.77197266, 1.1699219, 0.41381836, 1.2431641, 1.7714844, -1.7177734, -0.20776367, 0.6074219, -0.38085938, -1.8183594, 2.0292969, 2.5507812, -0.01889038, -0.3840332, -0.5834961, 0.13830566, 2.78125, -0.21252441, -1.3535156, -1.5976562, -1.1552734, 2.3632812, 1.7060547, -0.3413086, 3.328125, 0.5058594, -0.08532715, -2.3671875, 1.4179688, 0.017364502, 0.28076172, -0.07104492, -1.9150391, 1.8945312, 1.8759766, 1.3212891, 1.5644531, 0.8276367, 0.8540039, 1.1435547, 1.6298828, -1.2910156, 0.19519043, 0.30419922, -1.9853516, 0.015548706, -0.91015625, -0.49487305, 0.92333984, 0.82177734, 0.81933594, 0.5283203, 0.73046875, -1.5478516, -0.40649414, -1.8349609, 1.8203125, 2.9707031, -0.4699707, 0.6152344, 1.0761719, -0.9736328, 2.0644531, -0.14587402, -0.66796875, 1.5126953, -0.27514648, -0.66845703, -0.8959961, 0.6689453, -1.6669922, 1.8652344, 4.734375, 2.0175781, -0.43774414, -0.8222656, 0.58251953, 0.29833984, -0.4663086, -1.7089844, 0.86279297, 0.19885254, 1.9111328, -0.34106445, -0.36914062, 1.3564453, -0.3413086, 3.7128906, -0.2286377, -0.46240234, -1.6210938, 0.15551758, -0.4182129, -1.0478516, 0.42700195, -0.7011719, 2.7695312, 0.453125, -0.0670166, -0.69677734, 1.7050781, -0.16442871, -0.48876953, -1.3242188, 0.07659912, -1.3066406, 0.34106445, 1.8154297, 0.06451416, 1.2128906, 0.19812012, -0.30273438, -0.42797852, -0.28588867, 0.65185547, -0.54248047, -0.79003906, -1.4433594, -1.7207031, 0.8222656, -0.15576172, 1.5566406, 1.5390625, -2.3164062, -0.7055664, -1.8671875, -0.19189453, -1.1992188, 2.2421875, 2.375, -0.83251953, 0.014411926, -2.4433594, 2.5820312, 0.3227539, -0.80566406, -0.27294922, 0.22753906, 0.6401367, 0.2142334, 0.9604492, 1.9199219, -0.5161133, -0.25952148, 0.1427002, -1.0908203, -2.7167969, 0.25732422, -2.125, -2.3515625, 3.5292969, 0.48901367, -0.40722656, 0.4189453, 0.80908203, -0.7319336, 0.22180176, 0.67089844, 0.24108887, 0.43823242, -0.22143555, 0.037017822, -0.4477539, -2.1191406, 2.2089844, 1.0126953, 1.3935547, -0.07299805, 0.115112305, -0.9589844, -0.003419876, 1.7646484, -2.2636719, -1.5996094, -1.3994141, 1.0439453, 0.45947266, -1.5859375, -1.0800781, -0.796875, -0.57373047, -1.9326172, -1.3525391, 0.53564453, -0.12536621, 1.0419922, 1.5556641, -0.77978516, -0.06689453, 1.0332031, -0.4868164, 2.1660156, 0.84277344, -1.0410156, -1.8730469, 2.5957031, 2.8457031, -2.046875, 0.86572266, 1.4257812, -0.26123047, 1.3984375, 0.6035156, -1.0566406, -0.98779297, 1.3359375, -2.3203125, -0.41625977, 0.7836914, 0.61279297, -0.8901367, -0.16088867, 1.0292969, 0.2631836, -0.5004883, -0.70166016, 0.020233154, -0.06329346, 0.32226562, -0.8442383, 1.453125, -0.39770508, -0.0044670105, -1.0605469, -1.5322266, -0.3059082, -0.69628906, -1.6855469, 0.5854492, -2.1308594, -0.21289062, -0.32104492, -0.9248047, -0.7216797, -0.44067383, 0.84375, -0.30615234, 0.86279297, -0.6855469, 0.4567871, -1.0253906, 0.25439453, -0.01322937, -1.4277344, 1.0263672, -1.0224609, 0.20446777, -0.2512207, 2.9570312, -0.8647461, -1.2519531, 0.9472656, 1.1513672, -0.45751953, 1.4472656, 0.40600586, 1.1992188, 0.6635742, 0.50097656, 1.0722656, 1.0224609, -0.20483398, -2.0957031, 0.7807617, -1.2978516, 1.3730469, -0.05871582, 0.5673828, 1.7001953, -0.09075928, 1.7919922, -0.71777344, 0.09967041, -0.22277832, 1.9990234, -1.5654297, 1.1923828, 0.51904297, 1.7685547, 0.01222229, 1.140625, -0.65625, 1.7822266, 1.1064453, -0.16992188, 0.2824707, 0.3527832, 0.6635742, 0.31201172, -0.66015625, -0.17883301, 0.63623047, 1.9003906, 0.9121094, -0.36035156, 1.7138672, 0.5595703, -1.3095703, 1.9677734, -0.022354126, -0.034851074, -0.9482422, -0.7270508, 1.1533203, 0.40600586, 0.75, 0.080200195, -0.20153809, 0.3383789, 2.0566406, -1.1992188, -1.1367188, -0.12145996, 0.50146484, 0.9892578, -0.5683594, -0.80908203, 1.5361328, 1.8203125, 0.5390625, 1.4121094, 0.8442383, -0.38549805, -1.3300781, -0.46899414, -1.8935547, 1.515625, -2.5664062, 1.3222656, -1.9521484, -0.41992188, 1.3242188, 0.80566406, 0.7182617, -2.7871094, -0.26708984, -1.6025391, -0.021972656, -0.34814453, 2.6367188, 0.8027344, -0.4970703, 0.92041016, 0.62841797, 1.8027344, 0.7397461, 0.0178833, -0.34350586, -0.7709961, 2.3105469, -0.7763672, -0.39282227, 0.08441162, -1.2783203, 0.079589844, -0.6064453, -0.34594727, -1.6699219, -0.2932129, -1.109375, 1.2226562, 2.0136719, 1.7314453, -0.44555664, -1.6611328, -1.0478516, -1.3476562, 2.0800781, -0.7885742, 1.0322266, 0.2298584, -1.5419922, 0.77783203, -2.0703125, 0.2121582, -0.6425781, 0.32885742, -0.44628906, -1.0068359, -1.2490234, 0.3383789, 0.59521484, -0.16223145, 1.1845703, 0.88378906, 1.3681641, -1.5712891, 1.5566406, 0.7050781, 0.66845703, -0.6635742, 2.7949219, -1.0693359, -0.13122559, 0.64160156, 0.6855469, 0.3161621, -2.1113281, -1.1367188, 0.03805542, -0.095825195, 0.9584961, -1.7138672, 0.58691406, 0.1505127, -0.3564453, 0.90185547, -0.89990234, -0.8828125, -0.5830078, 2.1074219, -0.058929443, 0.0826416, 1.0517578, 0.106933594, 0.52441406, 2.1425781, -0.4777832, 0.13061523, 1.0136719, -0.15893555, -0.69677734, -3.40625, -1.0439453, 0.61572266, 0.07373047, -0.43847656, 0.30786133, -1.0546875, -0.4182129, -1.6445312, 0.5229492, -0.8129883, 0.4802246, -1.2822266, 0.40356445, -1.1757812, 0.9135742, 2.46875, 0.020965576, 0.828125, -0.6826172, -2.2089844, 0.03326416, 1.4960938, -0.055877686, 1.6259766, -0.875, -0.3310547, -0.91015625, 0.3881836, 0.26220703, 2.75, -0.6176758, -1.5712891, -0.48657227, -1.5625, -1.7431641, 0.038116455, -0.81933594, 1.4775391, -0.29516602, -0.63378906, 0.3918457, 1.9150391, -0.64746094, -0.7216797, 2.71875, 0.4189453, 0.16662598, -1.2851562, 0.1328125, 0.82910156, -0.4729004, -1.3359375, -0.07891846, -0.20007324, 1.8476562, 0.6767578, -0.17102051, 0.46777344, 1.2832031, 0.6767578, 1.0361328, -1.359375, -1.9609375, 0.41992188, -0.8251953, 1.3740234, -2.5175781, -0.5136719, 0.4182129, -0.609375, -1.1679688, 0.9663086, 0.6557617, -2.6855469, -2.2402344, -1.8300781, -2, -0.33081055, -1.0693359, 0.6347656, -0.0021266937, 2.21875, 3.3222656, -0.057434082, -1.7890625, 0.37670898, 0.04119873, 1.9384766, 0.084472656, -1.0537109, 0.5239258, -1.0898438, -0.20471191, 0.07495117, 0.6191406, -3.2519531, -2.546875, -0.7416992, -1.0332031, -0.35961914, 2.4746094, 0.41845703, 0.25390625, 1.5449219, -0.03479004, 4.8984375, 2.3496094, 1.1357422, -0.49902344, 0.07128906, -0.58203125, 1.3486328, 0.46020508, -0.21105957, -0.55908203, 2.2617188, 0.7558594, 0.29541016, 1.0097656, 1.2929688, -1.0263672, 0.59033203, 0.46826172, -1.2070312, -1.2226562, 0.46923828, -1.2060547, -0.43432617, -0.5361328, -0.20593262, -0.36621094, -0.8466797, -0.9970703, -0.49682617, 0.25146484, 2.0117188, 0.13330078, 0.15441895, -0.3647461, 0.3383789, 0.73339844, 0.46557617, 1.0009766, 0.53515625, -1.2128906, -0.7661133, 1.9023438, -2.375, 2.4628906, 0.27685547, 1.5185547, -0.88671875, -0.8041992, -0.6660156, 1.1171875, -1.1005859, 0.06726074, -0.38598633, 3.0722656, 0.028549194, 0.62109375, -0.9526367, -1.6845703, -1.7050781, 0.77246094, 2.5957031, -3.2304688, 0.46533203, 0.8129883, -0.64697266, 1.6787109, -0.9086914, -1.4169922, 0.42333984, 0.47070312, 3.3164062, -0.08984375, -2.0605469, -0.15112305, 0.21142578, 1.2109375, 1.4345703, 2.9570312, -2.328125, -0.015991211, -0.23413086, 2.0605469, 0.49316406, -0.7216797, -1.3544922, 0.46484375, -1.4960938, -0.375, -0.49414062, -0.08782959, 1.484375, -1.5908203, 0.015052795, -0.8486328, -2.0859375, -0.8959961, 1.2460938, 2.0195312, 0.16638184, -0.23999023, 0.9716797, 0.76953125, -1.4912109, -2.7226562, 0.7783203, 0.875, 1.765625, -2.1542969, 0.3034668, 1.0810547, 0.15637207, 4.4921875, 0.33740234, -1.3291016, 2.1210938, -0.10638428, -2.1875, 1.8408203, -0.6069336, -0.12756348, 0.80859375, 4.53125, -1.3330078, -0.3942871, 0.83935547, 0.92041016, -1.5009766, 2.0390625, -0.41552734, 1.3818359, 0.17199707, -1.9970703, -0.56396484, -1.5566406, -0.9057617, -0.7089844, 0.18688965, -0.8339844, 0.9423828, 0.3034668, -1.1289062, 2.671875, 2.0117188, 0.80908203, -0.50341797, 1.1171875, 0.48876953, 0.062316895, -0.113586426, -0.9482422, -0.25805664, -1.6533203, -1.140625, -1.2216797, -0.54785156, 1.0449219, -1.5888672, 0.7319336, 0.2824707, -0.99365234, 1.4433594, -0.4633789, 0.25683594, 0.6982422, 2.515625, 1.9257812, -3.1230469, -0.63427734, -1.5439453, -0.6230469, 0.9746094, 1.3076172, -1.890625, 0.19274902, 1.0625, -1.6816406, 0.05783081, 0.90185547, 1.3789062, 1.2949219, -0.11016846, 0.9135742, 4.1953125, -0.27807617, -2.2167969, -1.1689453, 0.039611816, -0.08648682, -0.84521484, 0.76220703, -1.4287109, 1.5, 0.60302734, -1.0244141, -0.5996094, 0.71972656, -1, -0.48901367, -0.57128906, 0.3083496, 0.6635742, 0.9658203, 0.8730469, -0.6479492, -0.07525635, 1.0751953, 0.80566406, -0.85302734, 0.4255371, 0.81640625, 1.9492188, -0.65234375, 0.82958984, -0.2286377, -1.2363281, 2.2226562, -0.9501953, 1.3144531, -0.60546875, 1.2431641, 1.5205078, 2.2246094, 0.22033691, 2.1074219, 0.58935547, 1.8144531, -0.5566406, -1.3759766, 1.0068359, 1.109375, 1.0009766, 1.0087891, -0.39624023, 2.2421875, -0.09893799, -0.47192383, -0.57714844, 0.22143555, 1.8505859, -1.8505859, -1.7597656, 3.9355469, 1.7460938, -0.64746094, -0.058624268, -0.032104492, 0.73046875, 0.73339844, 0.26513672, 1.3125, -0.1640625, 1.6025391, 1.9707031, 0.8808594, -1.4472656, -0.7495117, 0.33642578, -0.41845703, -2.9785156, -2.0253906, 1.0576172, -3.0234375, -0.42797852, 0.25610352, -0.16992188, 0.87158203, -1.0205078, -3.0703125, -0.33813477, 0.01586914, -1.4814453, 0.9399414, 1.5175781, 0.9868164, 0.8105469, 1.7763672, -1.3007812, -1.6025391, 0.9370117, -0.29760742, -2.8710938, 0.5708008, 1.234375, -0.14477539, 1.1679688, -0.32910156, -3.1132812, 0.5493164, 0.55908203, 0.5385742, 1.2255859, -0.21655273, 0.53271484, 0.07885742, -2.1621094, 0.29833984, 2.53125, -0.0072746277, 0.43969727, 0.97802734, -1.4052734, -0.953125, 1.1035156, -2.3867188, 1.6533203, 1.6787109, -0.11175537, 0.5185547, -1.2431641, -1.2490234, -0.07080078, -0.7548828, 0.035003662, 0.3869629, 0.09313965, 0.046051025, -1.2021484, -0.7158203, 0.3737793, -1.3486328, 1.2871094, 1.046875, 0.84277344, 0.06210327, 1.3789062, 0.29907227, -1.0175781, -0.3779297, -1.2578125, 0.9238281, 0.6069336, -1.6152344, 0.36767578, 0.21765137, 2.1503906, -0.70214844, 0.66796875, -0.61865234, 1.4130859, -0.2052002, -0.75341797, -0.7216797, 1.7265625, 0.055236816, 0.58496094, 0.6357422, -1.7587891, -1.1953125, 1.0058594, 0.93066406, -0.04055786, 4.6835938, 1.6503906, -0.29907227, -0.6201172, -0.25756836, 0.90625, 1.6240234, -2.4492188, 1.3681641, -0.027816772, 3.2714844, 4.1523438, 0.54345703, -0.070373535, 2.8457031, -0.38110352, -0.45141602, -0.72558594, -0.55322266, 0.1907959, -0.5839844, -1.0927734, -0.31982422, -1.3417969, -1.3818359, -2.265625, 0.4013672, 0.07879639, -0.43676758, 1.5966797, 2.0585938, -0.89160156, 1.2363281, -1.7587891, 1.5683594, 0.6479492, -1.3710938, 0.5629883, 1.3242188, -2.8691406, -0.34277344, -0.043182373, -2.3632812, -1.8261719, -0.47485352, 1.6494141, 1.7851562, -1.5332031, 0.5341797, -0.23010254, -0.17651367, -0.44921875, -1.6992188, 0.50927734, 0.59033203, 1.2480469, 0.7084961, -0.82177734, -2.0234375, -1.0556641, -0.19665527, -0.9379883, -1.2802734, -0.5756836, -2.6308594, -1.2714844, 4.7148438, 0.28857422, -2.53125, -0.057373047, -0.0064086914, 0.5488281, -0.8027344, 0.6088867, -0.56640625, 0.17346191, -1.2802734, 1.0976562, 0.30371094, 1.0478516, 0.35424805, 1.4267578, -0.8647461, -1.8359375, -2.609375, 1.0419922, -0.044555664, 1.2773438, 1.2773438, -1.4931641, 0.04736328, -0.31201172, -2.0253906, -0.3330078, 0.5991211, -1.1455078, -4.765625, 0.09436035, -0.40576172, 0.5595703, 1.609375, -1.8320312, 2.3359375, -2.5976562, -1.9179688, -0.08239746, 1.2382812, -1.4638672, 1.4111328, 1.2431641, -0.009208679, -0.7084961, 0.06817627, 1.5126953, -0.4038086, -0.14160156, 1.0644531, -1.9296875, 0.6142578, 1.90625, 1.0498047, -1.5097656, -6.46875, -2.0546875, -3.0019531, -2.8613281, 1.1347656, 3.8398438, -1.4003906, 1.2841797, 0.28881836, -0.8105469, 2.0625, -0.94433594, 0.73779297, -0.06878662, -0.35302734, 5.0117188, -0.12817383, -0.2536621, -0.68896484, 0.51220703, 0.32617188, 0.4807129, 0.55810547, -1.4970703, 1.0253906, 0.5698242, -0.24401855, 1.3408203, 1.9707031, 0.3334961, 1.1123047, 0.22424316, 1.6582031, 0.72753906, -2.1347656, 1.6855469, 2.1542969, 1.0742188, -0.08508301, -0.45898438, -1.0380859, -1.140625, -0.8671875, -1.0126953, 1.6386719, 0.828125, -2.1972656, 1.1962891, 1.6298828, -1.5556641, -0.07696533, -0.9238281, 0.74365234, 1.1328125, 1.3046875, 0.6879883, -1.3710938, 0.7324219, -3.6582031, -0.11706543, 0.09057617, -1.2402344, 0.26782227, -0.55126953, -0.39038086, 1.5976562, 1.2060547, 1.4970703, 2.1835938, -0.1730957, 1.3212891, -1.3564453, 1.8154297, 1.0761719, 1.5419922, -0.010314941, -0.8071289, -0.6201172, 0.9145508, -0.48364258, 1.7822266, 0.4975586, 2.4003906, -0.8466797, -0.7416992, 3.0253906, -0.88378906, -1.7080078, 0.55029297, 1.1455078, 0.13342285, -1.7978516, 0.23376465, -0.5546875, 0.26733398, 0.4699707, 0.2590332, 2.3125, 2.7167969, -0.96777344, -0.74121094, -3.1308594, 0.52001953, -1.5976562, 1.7685547, 0.5473633, 0.6582031, -0.38745117, -2.8242188, -0.49023438, 0.24182129, 1.4882812, -0.21398926, 2.1835938, -1.2402344, 1.6445312, -1.0478516, 0.42138672, -0.5136719, -0.8466797, -0.19628906, -1.1464844, -1.0595703, -2.6738281, -0.78125, 0.2553711, 0.35107422, -0.25097656, 0.46777344, -0.08227539, -0.59228516, -0.48828125, 0.31152344, 1.7949219, -2.2128906, -0.46264648, -0.17993164, 0.8354492, 2.0117188, 0.3125, 1.1640625, -1.2714844, -0.15136719, -1.0800781, 1.0107422, 0.5283203, 1.3867188, 2.1074219, 0.5961914, -0.6191406, 0.5151367, 1.9140625, 1.8847656, -2.5625, 0.024642944, -1.3193359, 1.5322266, -2.3144531, -1.3271484, 0.5209961, 0.32128906, -1.8535156, -0.031204224, -1.3427734, -0.42578125, -0.3955078, -1.2490234, 0.1394043, -0.85839844, 0.66259766, -1.0419922, -1.2597656, 0.5722656, -1.8730469, 0.41333008, -0.50439453, -1.9990234, 0.5136719, 0.33666992, -0.8720703, 0.5703125, -2.0488281, 0.4177246, 1.0253906, -0.54589844, -0.2290039, -1.2685547, 1.0898438, -1.0664062, -1.4462891, 0.49682617, -0.9736328, 0.28222656, 1.7119141, -2.2929688, 0.11340332, -0.71728516, -1.4765625, -1.7119141, 0.9980469, 0.81347656, -1.5761719, -1.3066406, 1.1767578, -2.8476562, -1.4199219, 1.7861328, 0.123168945, 3.9511719, 0.42651367, 0.4560547, -0.8178711, 0.5629883, -0.3955078, 0.18371582, -1.2304688, 0.31567383, 1.0537109, -1.6640625, -1.3505859, -1.6914062, -0.96875, 0.28735352, -0.17773438, -0.111450195, 3.0722656, -0.86279297, 2.4355469, -2.5019531, 0.8544922, 0.29541016, -0.3269043, -1.3916016, 0.68310547, 0.34594727, 0.96777344, -0.5957031, -0.17602539, -3.2480469, -1.4384766, -2.65625, 1.0146484, 2.8867188, 0.32177734, 1.8613281, -0.021957397, 1.1318359, -0.22131348, 0.1920166, -0.083862305, 1.2001953, -0.23388672, -0.14855957, 0.18945312, 0.12200928, 0.51416016, -1.8740234, 0.8886719, 1.5126953, 0.1550293, 0.55029297, -0.66064453, -1.8349609, 0.16699219, -0.5439453, 0.08673096, 1.1181641, -0.016479492, 1.9619141, -1.3847656, -2.1894531, -0.5488281, -1.4375, -0.4477539, -0.16503906, 1.5478516, 0.70703125, -0.77246094, -2.1171875, -0.21691895, 0.9560547, -0.34448242, 0.94873047, 0.94140625, -0.17102051, -0.44580078, 0.29882812, -0.734375, 1.2744141, -2.265625, -2.0136719, -1.3964844, 1.0742188, 0.58251953, -1.5654297, -1.3066406, -3.3691406, 0.053466797, 0.51171875, -0.48828125, 0.25439453, 0.50439453, -0.06933594, 0.16394043, 0.2993164, -1.140625, -0.88671875, -2.2871094, 1.6855469, -1.3925781, 0.013092041, 1.4814453, 1.8613281, 0.3647461, 0.4375, -0.85253906, 1.6494141, 0.36816406, -0.7504883, -2.3339844, -1.2304688, -0.007457733, 0.05709839, -1.1660156, -2.0859375, -2.8339844, -0.9980469, 1.9433594, 0.08856201, 1.2646484, 0.43139648, 1.1962891, 0.27026367, -2.5585938, -0.46826172, -1.6503906, -1.6005859, 2.0371094, -0.7026367, -0.055511475, -1.0185547, 1.0205078, -1.0332031, 4.890625, -0.116882324, -0.61865234, -0.28442383, -2.875, -0.7314453, 0.80908203, -0.52001953, -0.30004883, -0.08251953, -3.1484375, -0.9633789, -2.46875, -0.45385742, 0.50146484, -0.7363281, -0.7133789, -1.2167969, 1.5390625, -1.4814453, -1.1005859, 0.9794922, 1.7646484, 1.2490234, -0.21606445, 0.7319336, -0.022903442, -0.15930176, 0.5385742, 0.37573242, 0.29956055, -2.5449219, -0.13220215, -1.1572266, -0.5053711, -0.49536133, 0.17553711, 0.05935669, 0.9355469, 0.60546875, -0.6777344, -1.1591797, -2, -1.953125, -0.78271484, 1.0498047, 0.085998535, 1.8935547, -1.8642578, 1.0361328, -0.7036133, -1.3466797, -0.6464844, -0.51220703, -1.7490234, -0.7026367, 0.89697266, 1.2197266, 0.15576172, -0.8881836, -0.30664062, -0.48657227, -0.23278809, 4.4804688, 2.2207031, -0.2783203, -0.17687988, 1.1386719, -0.28955078, 1.1210938, -1.6289062, -2.1152344, -0.37670898, -2.3417969, -0.43237305, -1.4726562, 0.30126953, -2.015625, -1.3369141, 0.5727539, 0.1652832, -0.9248047, -1, -1.6318359, 0.56347656, -0.9838867, -0.09686279, -1.7060547, 1.0478516, -1.8027344, 1.0039062, 1.5390625, 0.3725586, -0.19274902, 0.42333984, 0.46826172, 1.2470703, 1.234375, 1.1513672, 0.3696289, -0.8105469, -0.0040359497, -2.4746094, 1.3496094, 0.46777344, 0.38012695, 0.6328125, -0.13476562, -0.57421875, 1.2216797, -1.9433594, 1.2529297, -0.3955078, 0.087524414, 1.1494141, -0.40454102, -2.3886719, 0.8857422, 2.5097656, 1.3554688, -0.49560547, 0.2998047, 0.8881836, 1.1542969, -1.1630859, 1.3603516, -0.11401367, 0.65478516, 2.0664062, 0.27514648, 1.1757812, 0.44628906, -0.86035156, 1.9326172, 0.75341797, 0.122802734, -0.9042969, -0.49536133, -0.6166992, 1.1933594, -2.8125, -2.7578125, 1.8681641, -1.2324219, -0.24108887, -0.28710938, -1.3398438, -2.2871094, 0.27783203, 0.7988281, 0.90771484, -4.1523438, -1.1455078, -0.8144531, 3.0644531, -0.7055664, -0.47558594, -1.2373047, -0.87060547, -0.9794922, -1.1904297, -0.11932373, -0.41674805, 0.63964844, 1.9033203, -0.5913086, 2.125, -0.94433594, -2.8105469, 0.69091797, -1.65625, -0.32885742, -0.72021484, -0.92089844, -1.3759766, -2.171875, -1.0761719, -0.26000977, -0.5786133, -0.29907227, -1.5732422, -1.6650391, -0.34033203, 1.3037109, -0.8984375, 0.6455078, -0.625, 2.4042969, 1.4052734, 0.26782227, -1.3955078, 0.36694336, -0.2841797, -1.0292969, 0.56152344, 1.7910156, -1.0683594, 1.0634766, -0.67089844, 2.4707031, -0.9838867, -0.24816895, 0.29663086, 0.034698486, 1.2626953, 1.4355469, -0.52685547, 1.2861328, -0.1875, -0.061584473, 0.84814453, 0.3725586, 1.5322266, -0.72753906, -1.8212891, -0.020690918, 1.1416016, -0.24108887, -0.58740234, -0.5883789, 1.7822266, -0.22973633, 3.8808594, -0.012680054, 2.7011719, 0.6567383, 2.7265625, 1.0361328, -1.0732422, 0.40234375, -0.79248047, 0.62402344, 1.3779297, 1.1123047, -1.1484375, 0.25854492, -0.6376953, -1.3027344, -1.4189453, 1.2177734, -1.9648438, -2.0097656, 2.1152344, 0.9926758, 1.3007812, -0.6743164, 0.81933594, 0.048828125, 1.703125, 0.66845703, 0.30786133, 2.5546875, -2.3085938, -0.6166992, -4.0625, 0.7182617, 0.17932129, 0.4255371, 0.052093506, 0.19116211, -0.93066406, -1.0654297, 0.40283203, 0.70703125, -1.2285156, 1.9375, -0.99072266, 1.2441406, -3.2246094, -2.6699219, -0.55322266, 0.8955078, 0.6230469, -1.1210938, 0.0053710938, -0.95410156, -0.18481445, 0.009277344, -0.0073432922, 0.33325195, 0.22216797, -0.2401123, 0.47143555, 0.58740234, 2.8105469, 1.203125, 2.5859375, -0.8676758, -0.10473633, 1.0625, -0.74658203, 1.3564453, 0.7294922, -1.4824219, -0.80126953, 0.9951172, -1.8476562, -0.0027637482, 2.2167969, -1.7861328, 0.31298828, -1.2753906, -0.5371094, 0.83935547, -0.28857422, -0.2927246, -0.48217773, -0.39794922, -0.61279297, 0.3852539, -1.8496094, -1.0888672, -0.9423828, 0.9838867, -0.23486328, -1.2890625, 0.6225586, -1.9169922, 0.8046875, -0.099853516, 2.3925781, 0.64160156, 0.058746338, -0.29467773, 0.38842773, -2.1621094, 0.6582031, 0.32617188, -1.2080078, -0.53515625, 0.8276367, -2.7265625, -0.45581055, -1.0097656, -0.51660156, 0.97802734, 1.6816406, -0.44335938, 1.4433594, 0.97314453, 0.9057617, -2.859375, 0.07293701, 0.057617188, 0.5966797, 0.15820312, -0.7988281, 0.36108398, 1.0166016, -2.21875, -0.57470703, 0.8779297, 0.8149414, -2.4042969, -1.2675781, -0.23669434, 1.9755859, 0.9604492, -0.10858154, 0.5883789, 0.92529297, -0.7709961, 1.1777344, -2.0703125, 0.37719727, -0.7319336, -0.48095703, -0.6035156, -0.39501953, 2.0605469, -0.03375244, -1.2539062, -0.18981934, 0.7348633, -1.8642578, 0.2902832, 1.3613281, -0.9135742, -1.4462891, 1.8847656, 0.4189453, -1.1054688, 0.9267578, -0.1439209, -0.7192383, -0.9057617, 0.6953125, -0.52246094, 1.7646484, -0.13671875, 2.171875, 1.8789062, 1.2548828, 1.5234375, 0.09094238, -0.17297363, -0.8769531, 1.3085938, -1.0820312, -0.5336914, 0.5473633, -3.5175781, 0.029373169, 0.25708008, 0.8823242, -1.2529297, -1.6640625, 1.8300781, -0.72753906, -1.9960938, 2.0820312, 0.3491211, -0.10809326, 1.6318359, -1.0859375, -1.5146484, 0.7392578, 2.3398438, 1.3476562, -0.4794922, -0.0042495728, 0.053100586, -0.24804688, 1.3759766, 0.8515625, -0.8598633, 0.43432617, -0.6098633, 0.0340271, 0.24804688, 0.22094727, 0.3725586, 1.1220703, -1.6347656, -0.53808594, 0.10070801, 0.6064453, -1.9521484, -1.109375, -1.703125, 1.8847656, 0.85839844, -6.0625, 2.46875, -1.0097656, 1.0888672, 1.3154297, 0.31420898, 0.9033203, -0.3413086, -0.095947266, 0.60546875, -1.7470703, 1.8886719, -0.056549072, 2.8339844, 0.8364258, -1.0664062, -1.8613281, -0.39111328, -0.008346558, 0.20251465, 0.8613281, 1.1582031, 2.5859375, -0.6069336, -1.2314453, -0.7939453, -1.8759766, -2.8378906, -1.8466797, 0.23486328, -0.13684082, -1.7441406, -5.6640625, 0.83984375, 0.28881836, 0.006214142, 2.4589844, 0.44213867, -0.82666016, -0.03378296, -0.32250977, 0.23132324, -0.45654297, -2.171875, 0.74609375, 0.29956055, -2.359375, -0.013069153, -0.7084961, -1.3398438, -0.3466797, 0.76953125, -0.77783203, -2.2675781, -1.2314453, -0.8691406, 1.0097656, 0.49389648, 2.3125, 1.2402344, 1.0976562, 0.9296875, 0.92041016, 0.27270508, -0.39282227, 0.47729492, -2.5605469, -0.16259766, 1.2626953, -0.29858398, -0.5805664, 1.4169922, -1.4238281, 0.22143555, -1.9033203, 2.3476562, -0.5288086, 0.44555664, 2.7714844, 0.64160156, 0.71728516, -1.8125, 0.5732422, -1.2275391, -0.5366211, -0.05130005, 0.39257812, -0.70751953, 2.5136719, -0.58251953, -1.0224609, 0.15759277, -1.5712891, -1.0722656, 1.3125, -1.9326172, -0.7836914, 0.06732178, -2.0644531, -1.2822266, -0.07269287, 1.1298828, -0.43847656, -1.4726562, 1.0878906, 0.077697754, 1.7822266, 2.0546875, 0.32836914, -0.27026367, 0.4609375, -0.87060547, 0.028305054, -0.6010742, 0.2619629, -1.5126953, 0.08618164, -0.08569336, -1.2988281, 0.42773438, 1.1025391, 1.6435547, 0.021316528, -0.5576172, -0.98095703, -2.3808594, 0.1776123, 0.34301758, 1.1787109, 0.32861328, 0.55566406, 0.066711426, -1.7226562, -0.34179688, 0.38842773, -1.3632812, 1.2138672, -0.63427734, 1.4609375, -1.0292969, -0.46679688, -0.62158203, -1.8994141, -1.7734375, -0.00894165, -0.5307617, -0.4086914, -4.90625, 0.5385742, 1.0244141, 0.2993164, 0.38232422, -1.5068359, -1.0820312, 0.27490234, 0.82763</t>
-  </si>
-  <si>
-    <t>[0.4486516, -0.45486584, 2.30641, -1.005047, -0.8567759, -0.7725216, -3.077555, -0.36876154, 0.78748846, 0.20811851, 2.0390868, 0.4976981, 1.2459588, 0.6843412, -0.16900294, 0.22970448, -0.9228394, -0.5300065, 1.0152732, -0.37143758, 0.7546478, 2.5261366, 2.283467, -0.13197242, 2.2293465, 1.0960003, 1.0811331, 0.44681677, -0.82500654, 0.088864155, 1.7145466, 3.306665, 1.5883274, -0.9270429, 0.7810307, 0.13626383, 1.2299532, 1.7902044, 3.491326, 0.25762674, 0.15101424, 0.49452883, 0.69424194, 2.1297917, -1.9067473, 1.2564174, -1.1420989, 0.46471485, -0.4692565, 0.22580126, -0.88318855, 0.6383474, -2.3129246, 0.52682817, -1.7761064, 0.17362796, -1.3066709, -0.28355494, -0.28899956, 1.2113621, 0.3386746, 1.2650487, 0.5241502, -3.2296438, 0.5059564, -1.965705, -1.4892123, 0.4261452, 0.49778605, -1.1859837, -1.3080236, 0.48425975, -0.16399881, 1.2159963, 1.2663134, 0.1374724, 1.3005143, -1.6280935, -0.011888587, -0.7918011, -0.49900523, 0.085716106, -0.90936774, -1.3860766, 1.1373314, 0.9411682, -0.06926922, -1.1024492, 0.40554032, -1.4069521, 0.20005277, -0.004402113, -0.920122, -0.024875049, 0.24485637, -0.43213648, -0.47484404, 0.6316843, -0.68334204, -1.0541416, 0.26308656, 0.9103503, -0.6382048, -0.5236862, 0.113857485, 1.1788709, 0.7346904, 1.4204314, -0.74956024, -1.1072763, -0.5627093, 0.33419856, 0.05694542, 0.41633254, -1.0902805, 0.8093519, 0.18817934, -2.165882, -1.3502523, -1.0635433, -0.16091482, 0.85938483, -0.49741605, 1.7765613, 1.5705975, -0.7939453, 1.0443032, -1.6248605, -0.56900233, 0.4517663, -0.8330351, -0.6939053, -1.3329623, 0.99281377, 4.1047287, 0.23805834, 1.2468717, 2.7291708, -1.708487, -2.5875387, 0.75325495, 1.255265, 0.09275145, 0.7676115, 0.90082735, 0.17967537, 0.722353, -2.3006842, 2.015546, -0.48657626, -1.891644, -2.4439478, -2.6701524, 0.5183348, -2.1702585, 0.49825916, 0.19880022, -2.328404, -1.1010894, -0.26202053, 0.1054642, -0.14896369, 1.182684, -0.5348105, 0.55792654, 0.072565876, 1.7477678, 0.7061703, 0.32403526, -1.2325613, -1.8643912, -0.63172066, 0.6369515, -1.591345, -0.59560305, 1.1470302, -0.33170977, -3.6684904, -0.053704873, -1.1880702, 1.5390475, -0.61414254, 0.5840268, 0.6504589, -0.05287085, -2.486219, 0.5494165, -1.2621058, 1.93343, -1.3141801, 0.27038503, 0.98039293, -2.6953611, 0.11745287, -0.18753791, 0.82231414, -1.1518342, 0.039383978, 2.976395, -0.6687042, -0.44884267, -0.49734402, 2.6151946, -1.1487702, -2.338837, 0.64564735, 0.49256358, 0.03857725, 0.42842585, -1.5393642, 1.6417896, 0.025392141, 1.4990234, -1.0741885, -0.3386549, 0.079564065, 0.725495, -1.3909041, -0.32851017, 0.68043965, 0.6850631, -0.38211495, 0.42243227, 0.95484763, -0.5808424, 1.7541944, -1.8434346, -1.1014867, -0.2547251, -0.08867916, 0.51829386, -0.043344818, 1.2516893, 2.2411685, -1.5974803, 2.7474768, -0.76712626, 1.4417702, -0.5553123, -0.5441273, -0.9958451, -1.3717003, -0.13192768, 0.0632491, -0.72514313, -0.35838023, 0.7555136, -1.755089, -0.06877184, 0.0964492, 4.2018633, 1.0473906, -2.7177007, -0.038492333, -0.43016744, 0.44454217, -0.6888344, -1.4513963, -0.9905983, -1.3229935, 0.9207589, 0.68305904, 1.2182041, 0.38497943, 1.0823224, -0.17930727, 0.56527805, -0.26265132, -1.2839491, 1.2249264, 3.3480868, 0.011100058, 1.4176897, 0.008340208, 0.0044536707, 0.33548787, 1.2077652, 0.69638, 0.19184601, -0.5357173, -0.62686217, 0.3371385, -0.22286248, -0.63548744, 1.3364273, -1.0264491, -1.0913116, 0.09552116, -0.26922494, 0.9650606, -0.96808887, -0.5166454, 0.5874266, 0.5102979, 0.38158724, 0.2577215, -2.2370136, -0.41819772, 0.036974415, -0.7887896, 0.34587902, -1.7752147, -1.8753488, -1.4677188, 1.6291368, 1.2410169, 1.795721, 0.4810086, -0.42075285, 0.21907148, -2.033088, -2.057502, -1.3170128, -3.2821963, -0.38145685, -2.070276, -0.5772607, 0.017957225, -0.23101465, -1.6165264, 0.18933584, 0.21267226, 2.5590305, 0.68245643, -0.63504463, -1.9243983, 1.5257728, 4.0726767, 1.7877038, 0.25732726, 0.31747076, 1.1209694, -1.2210671, 1.7071587, 0.3939975, -1.4800775, 0.4024014, -0.8736474, 0.35132593, -1.1839819, 0.36530414, 0.616565, -0.73495126, 1.6055294, -1.6264861, -1.3222686, -0.94977677, 0.2656068, 1.28976, 0.49656156, 0.7218222, -1.8562208, 1.4055737, -0.20934224, 0.59523606, -0.029002693, 1.1766971, -1.4418643, -0.5732725, 1.3180137, 0.13653678, -0.111097634, 0.32175764, -1.2724397, -0.099757984, -0.41947302, 1.4054979, -1.5111903, -0.099530526, -0.88790005, 0.107623555, 2.26645, -0.055022623, -0.5700881, 0.10067996, -1.0154612, -0.24721588, -0.7781171, -1.3351369, -0.5621755, 1.8703295, 1.2391304, -0.89337194, 0.8281705, -0.610212, 0.12257148, -0.7368771, 1.3839165, 1.575814, 0.87314546, 0.71579796, 0.48417938, 0.50420344, 0.90548575, -0.17330042, 0.9878673, 0.30329847, 1.8250315, -1.0206352, 0.33257413, 1.3668599, -0.75431263, -0.86041224, -0.4575074, 1.3888538, -0.3291683, -0.38240612, -0.5341281, 0.8611826, -0.5234743, -1.0751771, 1.1586034, 2.3749151, -1.6102302, -0.85379463, 0.034771085, -0.2644968, -0.2821204, 0.68402743, -0.014822066, 1.0475756, 1.0809819, 0.17590863, 1.5221394, -0.4916325, -2.445531, -0.26190525, -1.4830406, 0.23863609, 0.006259705, -1.2658495, 0.18671148, -0.15845485, 0.34009245, 0.23270392, -1.5505447, 1.0800023, 0.6496931, -0.8996264, 0.21005495, -1.2383114, -1.9110054, -0.4063789, -0.10019622, -0.33049664, 2.88166, 1.1058388, 2.0360782, -1.2826087, 0.68711483, 0.571556, 0.86188614, 1.0911441, -0.046012167, 0.5894313, 0.17604207, -0.15059686, -2.4028776, -0.3624624, -0.13484144, -1.4440144, 2.0040882, 1.3691436, -0.94780546, 0.11602461, -0.23547591, 1.2711568, 0.19481209, -0.76727486, -1.8118691, 0.40130046, -0.18062161, -0.010014315, -1.6159259, -2.840984, 1.2806252, -0.9257085, 0.37069038, -1.4433169, -1.2813956, -3.307696, -0.6349112, -3.1872149, 1.1773947, 0.1934276, 0.5106376, 1.8055829, 2.7071798, -0.8075778, 0.59214264, -1.7597656, -0.49983016, 0.68859184, 1.9433472, -0.16164233, -1.3608974, -0.32218373, 0.7056301, 1.6013684, 1.8328804, 0.615107, -1.185286, -0.29547384, -0.8817116, -0.59842354, -0.60884124, -0.4199143, 0.3167156, -1.535781, 1.5186669, -1.0898498, 0.009086277, 0.36581668, 0.36750594, -1.8788819, -0.12992717, 0.36211967, -0.5499472, 1.2323066, -1.6693093, 0.335743, -1.3251619, -1.5654994, 0.5626577, 0.66573966, 3.3808534, -0.042201452, 1.7252766, -0.8014879, 0.37523657, 5.9440265, 2.662067, -0.57045656, 0.48350763, 1.7896388, 1.410696, 0.60219634, 0.28581133, 0.30123997, 1.035094, 0.40508842, -0.9799358, -1.4263852, -0.8293567, 0.51161563, -0.08171736, 1.3721977, -0.6843914, -1.8744783, -1.1667496, -0.13945433, -0.29598033, 1.083851, -2.5936227, 1.4705272, 1.862517, 0.3676667, 1.7290434, 1.1355542, 0.2943214, -0.7400039, -2.0820434, 0.10628154, -1.0025082, -0.86486137, -1.9950262, 0.67304265, 1.2727581, -0.5526677, -0.030223396, -1.4005741, -0.98217624, -0.048264023, -1.9362626, 0.53189296, -0.0035483793, 0.45109302, -0.19374152, 0.17707929, -0.32968387, 1.7586011, -0.18372719, 0.2913189, -1.830721, -0.03988742, -1.2979517, -0.6309686, -1.6053535, 1.2548009, -0.6729365, 0.55638134, -1.0075577, -2.1299677, 0.8890601, 0.31208754, 0.15147485, -0.5932041, 0.06102298, -0.36050016, 1.0337005, 0.030273438, -0.16628858, 0.25524676, -0.9366084, -0.49529007, 0.77621704, 0.7841622, -0.061141305, -1.2394701, -1.0419619, 0.1468756, 0.3076278, 0.097648665, 0.37984642, -1.4522516, -1.3969605, 1.0473542, -1.0885942, -0.4393318, 0.50549734, 1.1053171, 0.8501765, -0.66146034, 1.7591712, 2.5128105, 0.94226754, -2.8330078, 0.8916865, -1.6120985, 1.5895981, 2.0186093, 3.2228503, 0.9889178, -0.2958067, 0.3167535, 2.260906, -1.6812584, 0.10971013, 0.80903256, -0.25061566, 1.1042557, 0.1539663, 1.3695652, -0.6211059, -0.51116073, -0.10278168, 0.38446236, -0.015655328, 0.24204344, -1.5972499, -0.5207868, 1.4359776, 0.7109921, 2.6821136, -0.61779106, -1.828956, 1.2786114, 1.1160805, 1.6226466, 2.115841, -0.30316502, -0.6035672, 0.07130878, -0.7657448, 1.6419766, -0.6018362, 0.25010008, 0.020996094, -2.3492393, -1.8417393, -0.19632545, 0.20332517, -0.58929175, -0.334506, 0.94051534, 0.06970594, 1.4431076, -1.424095, 0.5883728, -0.24228303, -0.32935026, -0.4069718, -0.23285708, 0.3287346, -2.0303159, 0.14046122, -1.5537655, 0.10354899, -0.10285751, 0.5754319, 0.2872064, -1.0874053, -0.82780653, 0.72380567, -1.2642845, -0.9504713, 1.5779976, 1.4977285, -0.30218545, -1.8003505, -0.171251, 0.7880056, -2.2156444, -3.2145162, 0.44849694, -0.67161417, 0.31793326, 1.2002522, -0.6733914, 0.54142505, -1.9343944, 1.5485795, -0.62088734, 0.16813555, -0.39639947, 1.1268682, 0.2982822, 0.82947457, 1.4284016, -0.12896691, 2.9235733, -0.5231706, 0.90513694, -0.036296584, 1.3512744, 2.6258976, -0.44836047, -0.07352727, 0.8928173, -0.35254967, 0.34916657, -1.2101974, -1.0363936, 1.472999, 1.0839359, 0.08401471, -1.2380962, -0.21418108, -1.9648194, -0.17217828, -0.7393336, -2.434716, 0.7506384, -0.6346201, 0.5852794, -0.46340013, 1.6102545, -0.959136, 1.4854062, -0.2842464, 1.3821938, -2.9939284, 1.2190654, 1.2473918, -1.4664875, 0.81504834, 0.455066, -1.0289693, 1.4241476, 0.9164607, 0.88605154, 0.2212278, 1.3392129, 0.69518286, 0.55977046, 1.3331594, 0.35395843, 0.25888914, 0.2086447, 0.57681483, 0.66852224, -0.7769192, -0.19180052, 0.8696037, -0.5948721, 1.4145796, 1.1012168, 0.34825373, 1.6965362, 1.2752693, 0.162468, -0.5197132, 0.44741726, 2.8189962, -1.7336779, 0.5948782, 0.40262884, -0.22447461, -0.62627983, 0.21720327, -0.05711185, -1.5466324, -0.16794449, -0.03384001, -0.00016377136, -0.042550225, 0.6287, -1.6754264, 1.7278494, 0.41219428, -0.34028047, 0.33312306, 0.717546, -1.8710574, -1.9302516, 0.50320566, 0.9474165, -0.8559737, 0.94258904, -1.9807932, -0.24535374, -1.6872938, -1.0783556, 0.72247124, 0.53509253, 1.5159222, 0.46031576, -0.24919252, 0.375646, -0.6456458, 0.9920662, 0.83420277, -3.4436262, 0.768952, 0.00037303474, 0.55533653, 1.4437233, 3.3108017, -0.27429426, 1.772285, -0.8645429, -2.724197, 0.7462712, -0.44631332, 0.8119693, -1.2480954, -0.27401146, 2.2299106, -0.5180391, -1.6358331, 2.2695556, 0.22410442, -0.8391288, -0.07508613, 1.355808, -2.3198106, 1.0373353, 1.9937054, -0.3390249, 1.1061511, 1.1793842, 0.28105438, 1.0388806, 1.237614, -0.04797818, -1.3304542, -0.6122281, -0.76867145, -0.75008494, 0.8301843, 1.9965518, 0.5080369, 0.6542135, 2.095236, -1.6841942, 0.16618243, -0.96437365, -1.2945216, 1.8532912, -0.33371446, 2.0656056, -0.8055352, 0.89249945, -0.53358525, -1.2625351, 1.4960452, 0.42523232, 0.40662, -2.4569948, 1.6686966, -0.22596958, 1.9864495, -0.2278666, 2.5952148, 1.0691267, 1.1632739, 0.9943711, 0.12863179, -2.1266558, -2.0986996, -2.432684, -1.856045, 0.06172967, 0.51811796, -0.38536006, 0.02397734, 1.5461895, -1.8474864, 1.6397333, 1.5175053, -2.6718931, -0.80832684, -1.4940375, -1.4868983, -1.2497089, -0.4093717, -0.19089977, 0.69793284, 0.18853723, -0.57914174, -1.4500315, 0.68020916, -0.14245075, -1.515352, -2.0776882, 0.5485832, -0.58639586, -0.13246676, 0.58199483, 1.0319092, -1.6217124, 0.5804421, -0.47425756, 1.09671, 0.9966624, 0.5806445, -0.81768, 1.1548792, -0.045119006, 0.7875522, 0.9824355, -1.1131372, 0.99711275, -1.618431, -0.7246556, -1.7056786, 1.7487019, -0.47290495, 0.18105833, -0.42301193, -1.4919388, 0.04064562, -2.238269, 1.4353467, -0.55362296, -0.41309807, -0.2727642, -0.19454217, -1.853825, -0.85828316, 0.71399456, 0.39712733, -0.7722213, -0.089892276, -1.2838947, 1.6645538, 1.7533357, 0.6837985, 2.316285, -0.3204035, 0.32329375, -0.68063676, -0.47295573, -0.42852443, 3.1404552, 1.795078, -0.3456, 0.28792217, 0.09602157, -1.0034816, 2.3621774, -0.27066553, -0.47439593, -0.30778703, -0.53742933, 0.7811336, 0.054958936, -0.42857143, 0.45098686, 0.68962294, 0.26189616, -1.284298, -2.048904, 1.3939974, -0.31007376, -0.117693976, 0.9844478, 0.17893745, -1.7399887, 0.14931095, 0.08876331, 1.3372658, 1.5595256, -0.27919224, 0.15198815, -0.97697496, 0.3402168, 1.1408312, -1.360479, -1.1092916, 2.4091856, 0.17401312, 0.5518518, 0.52182406, -0.07161054, -2.8911588, -0.59536344, -1.2767736, -1.1446829, 0.5709858, -1.2004622, 1.1671802, -0.08491848, 0.029727533, -3.3228722, 0.7079684, 0.8089638, -0.0019842112, 1.168363, 0.24705818, -1.3957747, 1.2846165, 1.7778472, -0.9253172, 0.7466776, -0.6692789, 0.13464431, 0.5577309, -0.08752062, 0.028256623, 0.42626953, 0.7593653, 2.1863112, 0.7024684, 0.33106416, 2.4065776, 0.05548816, 0.6928817, -0.33427837, 0.3149306, -0.42880192, 1.3451147, -2.593653, -0.5610503, -0.12549548, 0.3149399, 0.085700944, 1.6480494, 1.0265764, -0.15325359, 1.6004707, 0.1851526, 0.7858174, 0.53205675, -0.8181167, -1.4903982, 1.2787039, -1.1551764, 0.42493814, 1.3516899, -0.48242795, -0.2967567, 0.026191285, -0.9807087, -0.49457905, -0.47188213, -2.128894, -0.5644158, -0.92179614, 0.950099, 0.5522846, -1.2580293, 0.48240218, 1.4996239, 2.6422749, 0.04797534, -0.0771545, -0.5997212, 0.68573797, -1.7404103, -0.73307395, 0.2664378, -0.02925903, -1.6301134, 1.0231706, 0.105828136, -1.3266238, 0.23207007, -2.1075432, -0.17925988, -0.17837429, 0.93655986, -0.17487748, -0.17344902, 0.029322654, 0.83050877, 0.04869468, 0.792156, -0.35253298, -0.09201486, -0.48792943, 0.95985174, -1.4421705, -0.4528945, -2.0229402, 0.1860443, -0.1297903, -1.947202, -2.3618011, -1.0719639, 0.38785908, -1.357055, 0.054904345, 0.2680755, 0.48071897, -1.4660022, 1.5475786, -0.6573668, 0.40832445, -0.6518403, -0.39906833, -1.227169, 0.36459294, 0.4580351, -0.39787945, 0.5975986, 0.089243256, 0.47937694, 1.3652829, 0.008312913, 0.7974679, -0.01834239, -1.6643051, 0.14840111, 0.024485333, -0.18624139, 0.3991775, -0.13532972, -0.14233853, 1.6884948, -0.50151336, 2.4612348, 0.43849173, -2.1720994, 1.2682939, 1.8663504, 0.26967227, -1.0517032, 1.1086471, -0.61441076, 0.5272649, -1.2023668, -1.544655, -1.7559564, 1.4485743, 0.15353867, 1.2069281, 0.5259244, -0.8427856, -1.0806165, 0.1762574, -2.2199752, 0.49391013, -0.10398192, 2.513866, -2.5784223, 0.4694233, -0.53011495, -0.6215699, -0.78774625, -0.7020059, -0.043623835, -1.6471637, -0.8828595, -1.0220394, 0.41857532, -0.56449556, 0.43796402, 0.92331636, 0.94572496, -0.81606656, -0.0063021644, -1.0242078, 0.0038092004, -0.6540209, 2.853358, 0.65943444, -1.2126298, 0.002353455, -1.1962708, -1.3893815, -0.6007967, 1.0700699, -0.44984958, 0.46844673, 0.028678183, 1.049186, 2.155055, 0.7563416, 1.1471558, -0.9525063, -0.29668698, -2.0822823, 1.0663972, 1.0501808, 0.7825465, 0.30555186, 1.5562631, -0.36758783, 0.15646532, -1.8383304, 0.7842282, -0.6673902, 1.0843998, 0.9429469, 0.31434545, 3.5936773, 0.15940715, 2.595218, -1.0205048, -0.124980286, -0.23653132, -1.3356191, 0.68952286, -0.45965007, -0.58041626, -0.34120244, 1.8519659, 1.6872694, 1.2908807, -0.3392857, -3.325893, 0.21435851, -0.82517105, 0.6422567, 1.422797, -0.08513684, 1.6247452, 1.5955333, 0.17510797, -0.43127063, -0.7686427, 1.8206764, -0.73268574, -0.09759256, -0.6377772, 0.73773533, -0.4650151, -0.47361794, 0.32917008, 1.2128663, 1.3089668, 1.5657997, -0.14111935, 0.021243267, 0.2031993, 2.4082396, -1.0287145, -1.9618412, -0.4188786, -0.48763373, -1.6017778, 0.7224303, 2.5076852, 0.48271757, 0.7996106, -1.1079314, 0.44281954, -0.9968307, 0.9857913, 1.5598797, -0.37779018, -0.8481597, 0.3968468, 0.37194294, 0.15627502, 0.7803174, 0.6980238, -2.8124273, 0.5022617, -0.14505555, 2.4912927, -1.0735879, -0.7409107, 0.8902429, -0.31059843, -0.13002232, -1.2953222, 2.3653283, -0.194411, -0.034404114, -0.19756891, 0.08499127, -0.419379, -1.5531347, -1.3239276, 0.39651015, 0.012752935, -0.796646, 0.331176, 0.55351985, 0.15883698, 0.18655376, 1.106139, 0.022128846, -1.401992, 0.2235388, -0.03903672, -1.2255738, -0.39859065, -0.5015111, 0.6980663, 0.242327, 2.0033102, -0.40466687, 0.0037758395, 0.038980614, 0.2673992, -3.1018112, 0.77409106, -0.16079314, -0.17322668, 0.77654916, -0.50304496, 0.31037703, -2.410496, -0.09172409, 1.286606, 0.22977728, -0.94826037, 0.602903, 0.606512, -0.76871544, -0.25460815, -0.6443599, -3.6779284, -0.7731039, -1.14091, 2.2457905, -2.0371184, 2.362699, 0.7384875, 0.037649214, 0.3737156, 0.019197641, 0.08750243, 0.78938246, 1.4359108, -1.5013193, -1.1584064, -1.443699, -1.084506, 1.416974, 0.65204954, -0.18736732, -0.32173792, -1.1757282, 0.10991787, 0.38421062, -0.1602806, 1.2214552, -0.51887614, 1.463661, -0.25160283, 6.155595, 1.900239, 1.1832237, 0.528431, -2.567304, 1.8032546, 2.3068469, 0.6013411, -2.3853843, -0.04050043, 3.2370439, -0.6946665, -0.5764488, -0.68449146, -0.25099325, -0.06808415, 0.17038742, 1.2003537, -0.1402277, 0.059576377, 0.17558715, -0.77339506, -0.30476028, -2.8411903, -1.024311, -1.2046444, 0.52812165, 0.056637593, 1.0004337, -0.3117418, 0.76785105, 0.4344126, -0.5732088, -1.0897346, -0.48721674, -0.024363263, 1.5478637, 1.5029297, 1.5622694, 0.59650075, -0.16589431, 0.7801157, -1.6758176, 0.8338661, -0.93460673, -2.122598, -0.43023908, -0.66834754, -0.84348994, 1.87204, -1.0266948, -0.7608741, 0.0065523703, 0.051779043, 2.5612748, 0.7457783, -0.82639855, -0.49328387, -0.69525486, -0.65323085, 0.23094186, -3.105584, 0.2094029, 1.5010312, 0.69213414, 0.2986431, -1.0017347, -0.9327931, -0.6072399, 0.3966472, 3.556507, 0.49254537, -0.019140018, -0.39667848, 2.257582, 0.52642787, -1.3700869, 1.7886015, 1.2055634, 0.23862396, 0.22910096, -1.3252256, 1.034401, -0.4682113, -0.30338642, 0.722679, 0.79917616, -0.3765058, 0.37302867, 0.106803186, 0.29269657, 0.6642445, 0.76757663, -1.2196546, -0.69417214, 0.05694315, 0.10610564, -0.82946855, -0.7984642, -0.7364919, 0.72100335, -0.34368023, -0.51019627, 0.6985146, -0.21307866, 0.8699049, 0.23552747, -1.8282888, 0.42081654, -0.7610667, -0.62110436, 2.211908, 0.8169461, 0.34230638, 1.5820676, -0.5487311, 1.4431592, -1.0558703, -2.361692, 2.305191, 0.3389809, 0.22535545, 1.1907876, -0.24691261, 0.33348244, 0.8487382, 0.23118354, -1.6242479, 0.617139, 1.9141049, -1.0671098, -2.1919036, -2.8794036, -0.36852193, 0.52252764, -1.2837278, 0.1735491, -1.59042, 0.15718485, -0.13269725, -1.0536108, 0.7949158, -1.0533296, -1.8189781, -0.81825626, 1.0119796, 0.84212947, -1.2758365, 0.17512313, 0.8817601, 0.59432924, 0.47483078, 0.25257105, 0.70849, -0.42400706, -0.69056314, 0.10562039, 3.2906637, 1.0418345, -1.8454545, 2.338285, 0.116207905, 0.99624234, 1.1296463, 0.46944982, 0.9710549, -1.3797009, -0.26296827, -1.9016463, -1.8136343, -1.4794254, 0.26852435, -1.6745439, -2.2811286, 0.8166565, 0.29869467, -0.5609108, 0.5014072, -0.7208669, -1.6004889, -0.78436166, -0.5310036, 0.24125339, -0.3347274, 0.1921508, -0.62682575, 1.1153587, 0.64953005, -2.2743351, 1.5656177, -0.29373717, -0.40877935, -0.5407235, -0.54733145, -1.557684, 0.14876504, 0.020973347, -1.3538902, 0.525888, -0.86744833, -1.2114531, -0.33086666, -0.47209972, 0.42660922, -1.5367727, 1.2029635, 0.85862285, -0.23066133, -1.0419437, -1.2269082, 1.7884741, -1.1591752, 1.1221249, 0.26630282, -0.27385867, 0.35714287, 0.353364, 0.6098701, -0.7774347, 1.8937792, 0.13553596, 0.002135093, -0.025284477, 1.0427564, -0.9151721, -0.0139235975, 0.0052042897, -1.0130229, 0.58721733, -0.66239977, 0.74435294, 0.017681241, -0.46324244, 0.93340117, 0.92164755, 1.8483325, 0.14075883, -0.25793684, 0.95160556, -0.7182693, -1.8491787, 4.2804494, -0.3650706, 0.602577, 0.9439599, 1.8969817, 1.6963558, -0.34219113, -0.99198127, 0.1561393, 1.096423, 0.49491096, 0.5641483, 1.0461593, -1.038647, 0.023294957, -0.032869518, -0.7142554, -1.466342, -0.52624893, 0.12721394, -2.746846, -0.6435304, -1.8590717, 0.68541116, 1.540726, -0.9783367, -1.7238876, -2.1627767, 1.6556677, -0.018375752, -0.2884059, -1.1609236, -0.4632955, -0.29799107, -0.2842631, -0.08108502, -0.7892384, 4.124169, -1.0654798, -1.6423355, -0.19629665, 0.23718792, 1.9403327, 0.5749921, 1.0572472, -0.35904443, 0.32262045, -0.5590305, -2.095042, 0.48071745, -1.657366, 0.32420662, 0.63928145, -1.36775, 1.2260833, 1.0569924, 0.55975837, -0.59219265, -0.35034332, -0.6293248, 0.94426316, 2.422888, 0.8174495, 0.4084103, 0.64139384, 0.6103394, -0.58018124, 1.0734545, 0.63595754, -1.2296377, -1.553523, 1.3024068, -0.23393258, 0.7413186, -1.1051291, 0.656366, -0.02774408, -1.6612238, -1.6886737, 0.8571247, 0.05055872, -0.44156396, 1.4661145, 0.15262884, -0.036605928, 0.69423586, -0.7962472, 0.050972316, 0.7091906, -0.36266294, 1.9647346, -0.89992964, 1.0722156, 3.7126358, 1.0554276, 0.13495214, -0.47511435, 0.8831734, -0.27286732, -0.37056604, -0.12373674, -0.26856607, -0.692166, 1.0829047, 0.21055233, 0.20200893, 0.054554056, -0.4999363, 0.79493403, -1.0937849, 2.621482, 2.031764, -1.1189951, -0.96501356, -0.97651094, -0.1870754, 2.313789, -0.42463484, 1.9124643, -1.8361316, 0.4506995, 3.02812, -0.87944, -1.4590753, 0.6029697, 0.6351053, 1.1105462, -0.99304277, 0.55102843, 0.51178247, 1.2062792, -1.6355057, -0.70475364, -0.9770978, -0.555749, 0.3559722, -0.102921195, 1.6385809, -0.54190254, -1.1389145, 0.3037837, -0.1972406, 2.9141717, 0.29907683, 1.8546044, 1.9806204, -0.94374114, 0.67115927, -0.1615756, -4.63354, -0.6837226, -0.43928328, -0.55711377, 0.4277465, -0.8482537, 1.5815339, 0.055556398, 0.48816296, 0.01053899, -1.2418509, -2.1425416, 0.18830976, -0.29161537, -0.32461908, 0.52401674, -2.0633855, 1.4797772, 1.421317, -1.5309407, -2.332177, -0.3797327, -0.81432426, -1.6349249, 0.31509608, -0.30400208, 1.0473603, 2.5430174, -1.9967246, -2.695822, -1.1863233, -0.08651677, -0.0033103041, -1.4734266, 0.5308527, 0.7316424, 1.3881502, -1.1908482, 0.68872523, 1.8448418, -0.28477716, 0.48790517, -0.08195012, -0.105394445, 0.43506467, -1.6052625, 1.4636731, 1.7699862, 0.8765528, 1.1921098, -0.8087878, -0.35104996, 0.87279516, 0.2406711, -2.4487941, -0.0890158, -1.5092198, -5.2499638, 0.4669106, -0.24280468, 0.002031978, -0.059497524, -2.0158372, 0.25448856, -0.60036457, -0.35269526, -0.022682332, 0.7961153, -1.2382903, 1.5862954, 1.2329677, -0.2936117, 0.3171038, -0.20413493, -0.07000164, -1.0203744, 0.6050381, 0.6626262, 0.37681967, 1.931398, 0.45050997, 0.3644398, 0.73805684, 1.9597123, 0.046638064, -0.28945675, -2.022649, 1.06842, 1.5837418, -1.4328659, -1.7915312, 0.6717211, 1.252214, 1.7588012, -0.20986086, 1.0854826, -0.18440957, 1.1282754, 1.8629636, -1.8110381, -1.0615083, -0.4276707, -0.82123446, 0.14372149, -0.75385773, 0.5148001, 1.3213739, -0.07081291, 0.65398145, -1.1433424, -1.6744809, 1.6333448, 0.10170808, 0.47711447, 2.2460816, 0.21494989, 1.0726447, -0.56309444, -0.69502133, -0.20304614, -1.1861565, 0.72855806, 1.9788378, 0.28624806, 2.5223973, 0.55831474, -0.6491123, 2.0860467, -1.2942061, -1.3923355, 0.5367697, 3.7644362, -1.118807, -1.0305221, -0.02664014, 0.26213425, 1.245742, 0.3987772, 0.5772061, -1.8269452, -0.47887653, -1.9718496, -0.7084612, 0.40116096, -2.3402197, -0.5186487, 1.4820701, -0.29160094, 0.33732653, 1.2505959, -1.0478698, 2.8908434, 0.061411224, 0.79522365, 0.23279794, 2.0940123, 0.21219915, -0.07772467, -1.2724731, -2.3451056, 0.5887368, -0.29393318, 1.551691, 1.0127984, -0.78650886, 1.0864329, 0.3924174, -1.6261525, 0.66084164, -0.54671425, -2.8572278, 0.47595593, 0.17521109, 2.0450249, -2.8486147, -1.4489428, 1.2490749, -1.2062246, -1.5305706, -1.9618716, -0.08547348, 1.9159216, 0.14418551, -1.7158659, -0.60309106, 1.0918454, 0.6406963, 0.5260336, 0.76686996, -0.41423234, 0.584694, -0.76465756, 0.22580184, -0.94094455, 1.4389678, 1.4113512, 1.9148631, 0.084296755, 0.7170031, -2.924756, -0.98782635, 0.7599476, -1.5400451, -2.7446136, 1.2953829, 0.04416519, -0.21749441, -0.85373247, 0.1782257, 0.30638283, -1.3046632, -1.2103916, -1.1122365, -0.082577154, -0.294517, 0.6938992, 1.0169777, 0.11459445, -0.6387022, -0.43298414, 0.004756193, 1.1373131, -0.56247574, 0.34137532, -1.4207559, -3.084979, -0.38335842, 1.1151373, 0.43308425, 1.5539718, 1.7843769, -1.1761042, 0.42555985, 0.06275476, 1.7575638, -0.38044995, -0.21154407, 0.3479277, -1.657815, 0.47918284, -1.1074097, 0.3046026, -1.4262756, 1.7171032, -0.73321646, 0.47725397, 1.6857592, -1.4520878, 0.90445006, -0.72253495, 0.26614532, 0.02036527, -0.8206643, -1.4123095, -0.6927831, -0.28362772, -0.7439344, -0.8160575, 1.0105966, -0.41654333, 1.7881527, -0.20704186, 0.20508723, -0.30333865, -2.8226357, -0.82954437, 1.351981, -1.0542872, 1.9699874, 0.46114978, 0.368619, -0.57016087, -1.2159264, -0.24570554, -1.4025606, 1.3616031, -0.46625096, 0.60165346, -1.576548, -1.8660047, -2.2202966, -0.22520684, -0.82013357, -0.053256016, 0.11792068, 0.6524226, 0.4153014, -0.6351341, 0.116911516, -0.37885773, -0.7811196, 0.9166305, -1.4071386, -1.3134948, 0.15583906, -0.89284503, -2.1227436, -0.39740673, -1.308527, 0.082049444, -1.3935122, -2.2156746, 1.2846346, -5.9988837, -0.55139995, -0.17604813, 0.08337175, 2.1421716, 1.2275088, 0.04821398, 1.4304821, -0.87094057, -0.8494759, -2.8723068, 1.7653824, 1.5934043, 0.5640103, 0.055895314, 1.0831838, -1.1672591, 0.21774918, -1.3173411, -3.2912583, -1.570167, -1.7176582, -1.3474925, 1.7435765, 0.5210507, 2.782463, -0.7975604, 0.35880616, -0.67024636, 1.1638714, 1.2571816, -0.35223928, 1.0630398, -0.18904673, -1.7373972, -0.4434807, -0.41292483, -1.5088437, -0.22177105, -0.7620554, -0.53720033, -1.7178644, -2.68528, -1.2715936, -1.3814205, 0.5429384, 1.0414584, 0.22513708, 1.024922, -1.5114094, -0.495469, 0.19551569, 0.5406183, -1.9833682, 1.4187876, -0.124639094, 1.1758162, 0.06631375, -1.959324, 0.82294196, 1.4867467, 0.6734187, 1.0150245, 0.5673343, -0.9695719, -0.73249465, -0.21889557, -0.19095133, 1.2314059, -1.5142845, -0.39974162, -1.2614518, -1.2298259, 0.6907178, 0.12937179, -1.266553, -4.2423086, 0.1390813, -0.7211307, 0.82250386, 0.8420213, -0.6861686, 1.0952724, -1.4330842, 1.1192029, 0.58594507, 0.34555754, 0.21757782, 0.21651785, -1.2404467, 0.89752465, 1.4605614, 1.0793381, 0.5383619, 1.3403957, -0.75923413, 0.1851526, 0.5165682, -0.43804893, -0.5874873, -0.017640298, -0.6639958, 0.63889027, 0.8141923, 0.100300856, -0.8043539, 0.13019823, -0.47828513, -0.77998835, -0.72937995, 0.4483635, 2.1044133, 0.98646307, -0.9939829, -0.56584823, -0.42354834, 0.040281687, 1.3359982, -0.66792023, 0.47983187, 0.590881, 0.83163095, -0.8256927, 4.0614324, -2.1298282, -0.09592755, -1.9833802, -0.15135393, -0.6086956, 0.42720667, -0.39547595, 0.6893136, 0.18659471, -3.2966688, -0.29125825, -2.5905473, -1.8494456, -0.7639448, 0.24444087, -0.4173531, 0.073211856, 1.5852627, 0.075578965, -2.0040882, 0.04073054, 1.8104954, 1.1743013, -0.83345366, 0.10685778, -0.05676497, 0.39451912, -0.80903655, -1.6065363, 1.8512168, -0.070792064, -0.69622236, 3.3729982, -0.8006842, 0.17724913, -0.22357519, -2.9362261, 0.3001037, 1.2832729, -1.005726, 0.47694767, 2.0148728, -0.49471724, -1.3509802, -0.49888998, -0.28695622, -0.0016513611, -0.807781, 2.3453453, -0.48020187, -0.54669756, -0.013389824, 3.2885895, -1.3086059, 3.44917, -0.23929724, 1.6507607, 0.7125024, -0.6863657, -0.19123338, -0.54020286, -2.605493, 2.6157742, -0.50931674, 0.30997217, -1.0463594, 0.17873824, -0.47677478, -1.589448, 1.162352, -1.399085, 1.7063277, -2.124903, -1.9065048, 0.17018875, 0.95786226, -0.53217804, -1.1444645, -0.21957493, -1.7464403, -0.9454823, -0.32485563, 0.9741605, -0.3207371, -2.3885748, -1.6039311, -2.4702542, 0.7766401, -0.2912522, -0.22149317, 1.9993328, 1.7372591, 0.17960864, 0.47093666, 0.8877389, 0.03857422, 0.069657415, -1.3114446, 0.8273577, -0.50433993, 0.30070847, 0.6925102, 0.4936799, 0.12625255, -0.5573685, 2.3395283, 1.4479692, 0.2709961, 1.3967391, 1.7358428, 3.2151835, 0.19958268, 1.4128373, 0.57066125, -1.661794, -0.20304464, -0.14362557, 1.0613779, 2.4698417, 0.0927325, -0.9544556, -0.19243741, -0.6930735, 0.784624, 0.6178153, 0.6817741, 1.7367709, 1.4191834, 3.1326668, 0.725501, 0.5662, 0.3088121, 1.1518645, 1.0788347, 0.31703708, 0.16953671, -0.14509535, 1.9565945, 0.15404819, 1.5049025, -2.3207493, -0.06241963, 0.2394341, 1.4581716, -0.45912236, 1.2931689, 0.17241143, -0.5201655, -0.3690193, 1.8042933, -3.267014, 1.0821784, -0.5949252, 0.5972605, -2.4058497, -2.716815, -0.10911494, 0.5307253, -0.8171099, -0.94601613, -0.78655136, 0.22788784, -0.16469333, -0.54134315, -0.1801555, 0.30304372, -1.7830151, -2.3355129, -0.4492521, -0.062337745, 0.76295006, -2.0246506, -0.15782098, -1.2505944, 0.59308887, -0.1822032, -0.14437051, -0.80435467, -0.79612285, 0.8482613, -1.4326687, 0.011973506, 0.38162214, 0.6043163, 0.69044787, -0.2658767, 0.18686311, -0.3073685, 0.2208669, -0.12015965, -0.29653078, -0.3670116, -1.0072787, 0.51882005, 0.47642452, 0.87987065, 1.7405498, -0.93174374, 1.7260772, -1.1823139, 0.5287267, 0.37659448, 1.2487019, 0.3294799, 0.8506769, 0.68173766, 0.3211943, -1.2356586, -0.46050382, -0.85448, 1.378876, -1.5945567, -1.2299352, -1.0381527, -1.0162437, 1.9084337, -0.040446974, 0.42836142, 1.6521375, 3.4024408, -0.6952761, 2.2967052, 0.21862338, -1.654497, -0.9225149, 0.59788674, -1.3516293, -0.99958754, 0.94226754, -0.9920237, -1.393033, -0.54354197, 0.24344915, -1.1001143, -0.033280462, 0.07106994, -0.51308656, -0.44519117, -0.28794643, -1.1471577, -0.36815798, 0.29150087, 1.6626006, -0.44063517, 1.0384862, -0.46584913, -0.005950359, 1.2579035, -1.7126874, -1.3532639, 0.8803438, 0.11856742, -1.3870963, -3.745827, 1.4035144, -1.045953, -0.22012462, 0.110638164, -0.5148213, 0.88302785, 0.27395612, -0.0065698093, 1.665221, 1.2383358, 3.380738, -0.12554894, 1.0830518, -0.75370914, -3.9128373, -0.2468929, -0.57370317, -0.8660259, -0.17546281, 1.6769458, -1.4370147, 0.31301633, 1.5884123, -1.939162, 1.138667, 1.318044, 0.021766426, 0.8085892, -1.1595982, -1.0849124, 0.45004368, 0.583716, 0.8769592, 1.0807045, 0.71435547, 1.0054833, 1.2696859, 1.1518676, -1.5344981, 1.0005853, -1.0180467, 0.61173147, -0.18708299, 3.025427, 1.4702482, 2.1340225, -1.0250206, -0.31273827, 0.9242694, 0.8683703, 0.56328964, -1.9192183, -0.08402911, -0.878791, -0.9584081, -0.40493983, 0.059173204, -1.5617114, 0.6276029, -0.3658561, 1.3314004, -0.7141847, -2.2128906, 1.0334942, -1.6598772, 2.266832, -0.23250073, 1.2045625, -1.7233932, 0.6063437, -0.52959406, 0.75772154, -0.012513344, -1.0641043, 1.073406, 0.36483404, 0.7601417, 0.57935023, -1.078489, -1.1995084, -0.90504295, -0.81127477, -0.44290444, 0.33218896, -0.11048804, -0.03738081, -1.7299168, -0.3947803, 0.9471443, -0.40335974, 0.3009147, 0.594998, -0.9636928, 0.06089868, -0.6690818, 0.83641666, 0.6659186, 0.2827391, -0.5676861, 2.5098143, -1.0304735, -0.55038095, -0.1917808, 1.1901749, 0.30887732, -0.6432575, -0.07864361, 0.6577027, -0.49959967, 0.97821844, -0.6333038, 1.9379201, -0.40345258, 1.7486534, 0.47346145, -0.1263041, 0.6298282, -2.001747, 0.5655561, -4.014485, 0.1295856, 0.12507886, 1.1672772, 0.3716518, 2.105208, -0.21023086, -0.48528484, -0.6233077, -0.69016737, 0.20154339, -1.2538153, 1.9396472, -0.7672991, 2.0656056, -0.2764521, 0.2752875, 0.45210597, 1.5058533, 0.6926497, -0.3432405, 2.3753943, -1.2226495, -0.8871752, -0.3200547, 0.010426017, 0.17225714, -0.4361231, 0.27214137, 0.83842534, -0.09689805, -0.6752323, -0.523853, 0.95676434, 0.21808392, -0.7544279, 1.0438665, 1.1071292, -0.5953058, 0.2654218, -0.42625514, 1.2459084, -0.89481634, 1.9884146, 2.8128335, -0.71861506, -1.1270331, -0.9011185, 0.845139, 1.794191, -0.22003591, -0.3124454, -1.5483701, 1.4290566, -0.9872319, 0.2496209, 0.23581861, 2.4370027, -1.2834396, 0.10423592, 0.61465514, -0.2255647, 0.3161409, -2.0178936, -0.99141717, -0.6638502, 1.5400072, 1.4684952, -0.33001748, 2.1903145, -0.6612981, -0.02536333, -0.43567127, 0.42477435, 0.96158046, 0.092958435, -0.94296205, -0.6829781, 0.03911709, 2.8818603, 0.7082929, 0.10430794, 1.1185887, 0.6645538, -1.5500412, -0.1465147, -2.2622647, 0.043463096, 3.6896138, 0.57409745, 0.7913553, -0.052476585, 0.3968847, -0.03336083, -1.0065403, 0.039790373, -1.4361049, -0.53785396, -1.9938798, -1.9871986, -3.088109, 1.8852994, -0.62806123, 1.4879416, 1.8588352, 0.2848029, -0.49940404, -1.1956521, -0.032936238, 1.1318662, -1.3360285, 0.4758589, -0.63647914, 0.18985648, -3.3056216, 1.1225556, 0.39615986, -1.3168672, 2.6702979, 0.6656669, -2.226975, -1.9018342, -0.6825372, 0.5395053, -0.30057198, 0.32066733, 1.1181338, 2.0252383, 0.24725229, 1.9768597, -1.3436286, -0.31497476, -0.040615294, 0.41531506, -1.3612978, -0.4359927, -2.0733514, -0.10491072, 0.5547963, 1.5767845, -1.4732991, -0.30916998, -1.4763077, 1.463297, 0.9833196, 1.1369857, 0.48967028, 0.33756307, 1.6167629, 1.2240816, 0.94069356, 0.5564526, -0.2710234, 0.9182508, 0.1402186, -0.6360038, 0.90853065, -1.2465062, 0.63483405, 0.104679465, -0.24000084, 2.0682137, 4.94968, 1.1019386, -0.2408106, -1.5555973, -0.34325358, -3.627863, 1.4087915, 0.15258941, -1.5160253, -1.1629874, 0.39270115, -0.9639976, 0.931561, -0.5230554, 1.7963655, -0.53717005, -1.7285944, -1.6332189, -0.68516475, -1.0647322, -0.58841795, -0.34949222, 0.6133419, -1.4388041, 0.6610297, 1.9288019, 1.2963716, 0.9335149, -0.3923355, -0.20062749, 0.15192124, -0.3090062, 0.50842094, 1.9401689, 0.7462651, -0.5386622, 0.82685727, -0.54217416, 0.3200335, 0.20381951, -0.28343666, -0.79166466, 1.8163092, -0.41898778, 0.5343753, 0.6114843, 0.22971661, -1.3438046, 0.9043841, -0.4</t>
-  </si>
-  <si>
-    <t>[2.2148438, -0.9584961, 0.076049805, -0.63623047, -0.52685547, -0.7915039, -1.1171875, 0.21313477, 2.1210938, -0.6113281, 0.079956055, -0.33374023, -0.7294922, -1.0273438, -0.6459961, 0.61279297, 2.0234375, -0.5942383, 0.55908203, -1.2060547, 0.41455078, 3.390625, 1.7685547, -0.12561035, 1.8017578, 1.7734375, 1.6806641, 0.16784668, -0.85791016, -0.039031982, 0.2331543, 4.9765625, 1.6152344, 0.058776855, 2.359375, -0.3178711, 1.796875, 1.5722656, 2.5546875, -0.63720703, 0.29370117, 0.70214844, 0.23535156, 0.53564453, -1.9130859, 1.1181641, -0.4934082, 0.60791016, -0.70703125, -0.1083374, 2.625, 1.3242188, -0.32861328, 1.2734375, -1.2578125, -0.4897461, -1.4423828, 0.13354492, 0.2277832, 0.61621094, 0.4777832, 1.3173828, 0.7363281, -0.66845703, 0.53808594, 0.23876953, -1.1650391, -0.9194336, 0.44482422, 0.42993164, -0.0602417, 0.7216797, 0.44604492, 0.41015625, 3.0976562, 1.2578125, -1.4609375, -1.6298828, -1.2207031, 0.14355469, -1.2167969, -0.7363281, -2.3261719, 0.005504608, 0.07684326, 1.4111328, -0.46899414, -1.3232422, 0.46142578, 0.58154297, 0.0647583, -0.30688477, 1.4082031, 0.6425781, 0.15979004, 0.29638672, 0.5756836, -0.030166626, 0.5810547, 1.1777344, -0.16479492, 0.67089844, 0.7817383, -0.3251953, -0.99072266, 0.33251953, -1.0048828, 1.0380859, -0.37548828, 0.28759766, 1.8691406, -0.6279297, 0.77441406, 0.55322266, 0.2836914, 0.53466797, 0.98583984, -1.7851562, -1.5576172, -2.6503906, 0.10095215, 0.48413086, 0.7919922, 2.1464844, 0.82666016, -0.5888672, 0.42626953, -1.9296875, -1.6464844, 0.3774414, -1.2490234, 0.1595459, -1.6914062, -0.15917969, 6.0742188, -0.28027344, -0.061035156, 0.9145508, -0.85839844, -1.0009766, -0.32421875, 1.1630859, 0.8442383, 2.6230469, -0.09875488, -0.9057617, 0.78125, -2.3828125, 1.3994141, -0.72509766, -0.16455078, -1.5664062, -1.8642578, 1.8544922, -1.7099609, 0.25097656, -0.26831055, -1.4951172, -2.5820312, 0.9663086, -0.5629883, -0.37963867, 1.4755859, -0.14941406, 0.78466797, 0.05419922, 1.4169922, 0.5571289, 0.40600586, -4.171875, -0.87109375, -1.3359375, 0.5800781, -0.5180664, 0.27392578, 0.04849243, 0.24926758, -3.1582031, -0.3618164, -1.7294922, 0.8496094, -0.5473633, 1.1474609, 0.8457031, -1.3583984, -1.9501953, -1.1269531, -0.062438965, 0.9790039, 0.27246094, 0.20861816, -0.6665039, -1.5791016, 0.55322266, 0.18969727, 0.30664062, 0.14709473, -0.38549805, 5.8164062, -0.47192383, 0.5683594, -0.92089844, 1.3623047, -2.0683594, -0.97753906, 1.890625, 1.6083984, 0.39672852, 0.006465912, -1.0380859, 0.35546875, 0.16821289, 1.7675781, 0.12548828, -0.31201172, 0.3552246, 2.5996094, -1.8447266, -0.7026367, -0.1817627, -0.14086914, -2.7246094, -1.0146484, 1.2851562, -1.4707031, 1.7988281, -0.7348633, 0.6713867, -0.008674622, -0.08465576, -0.27514648, -0.9682617, 1.9707031, 1.2421875, -0.6772461, 0.73779297, -1.5830078, 1.8476562, -1.1347656, -0.36206055, -0.40161133, -0.059539795, 0.0005059242, 0.33081055, -0.70996094, -0.47070312, -0.59033203, -1.5859375, 0.75634766, -0.2980957, 3.1601562, 1.5361328, -1.6640625, -1.8417969, -0.19812012, -0.8886719, -1.3427734, -1.6611328, -0.8901367, 0.7861328, -3.5605469, -1.2255859, 0.4416504, 0.9628906, 1.8203125, 0.33081055, -1.4130859, -0.90234375, 0.36108398, 1.1962891, 2.2363281, 2.8222656, 2.8398438, 0.2109375, -1.0712891, -0.17480469, -0.54785156, 2.1835938, -1.8652344, 0.072509766, -1.6826172, -0.8227539, -0.6386719, -0.76953125, 1.5888672, -0.09472656, -2.4238281, -0.013534546, 0.39379883, 0.7211914, 0.29785156, -1.5556641, 0.31152344, -0.39208984, -2.1445312, -1.3115234, -0.86816406, -0.94970703, 0.06262207, -1.1855469, -1.4023438, -0.014221191, -2.8515625, -1.5859375, 1.8828125, 0.7919922, 2.6210938, 0.13696289, -0.29052734, -1.1748047, 0.25878906, -0.55810547, -1.9453125, -1.4609375, -0.51953125, -0.7519531, 0.50097656, -0.95703125, -1.0986328, -0.6586914, -0.44702148, -0.9746094, 1.3642578, 0.5786133, 0.22106934, -1.4433594, -0.89208984, 5.8046875, 1.5263672, 0.69677734, 2.1054688, 2.484375, -1.3261719, 0.6538086, -1.2675781, -2.2265625, -0.24414062, 1.3447266, -0.17956543, 0.3466797, 0.3383789, 0.80078125, -1.109375, -0.038146973, -1.3691406, -0.86376953, -0.122802734, 1.2861328, 0.6928711, 0.9633789, 0.2902832, -1.1621094, 1.765625, 0.3491211, 1.2519531, 0.46118164, 2.171875, -2.3203125, -1.2724609, 1.2509766, -0.45507812, -0.045440674, 0.9091797, -1.0595703, -2.125, 0.49804688, 1.1308594, -2.8144531, 0.03475952, -1.4794922, 0.5859375, 1.6035156, -1.6318359, -0.39624023, 0.9082031, -0.15197754, -1.9335938, 0.5439453, 0.13659668, -1.6474609, 1.2177734, 1.8798828, -2.0078125, 0.37182617, -0.5317383, -0.66552734, -1.7919922, -1.7675781, -0.7319336, 2.0976562, -0.2993164, -0.98876953, -0.19116211, 0.9663086, 0.6953125, -0.0073890686, 2.625, 1.0839844, 0.7548828, -0.93847656, 1.6796875, -0.123535156, -1.1298828, -2.0625, -0.9506836, -0.73779297, -1.109375, -1.5117188, 1.0292969, -0.16967773, 0.39526367, -0.14782715, 2.9082031, -0.60009766, -1.1699219, -0.50390625, -0.98828125, -0.41479492, -0.3569336, 0.34521484, 2.3085938, 0.29956055, -1.0058594, 1.5742188, -0.48779297, -1.3339844, -1.4697266, -1.9697266, -0.63916016, 1.5908203, -0.7836914, -0.1517334, 0.64990234, 0.7470703, -0.5957031, -2.109375, -0.4477539, -1.2714844, -0.19299316, -0.055419922, -1.7597656, -0.64208984, -0.33154297, 1.3066406, -0.8930664, 3.9023438, 0.70410156, 1.3652344, 0.36889648, 0.63378906, -1.5927734, 0.60546875, 0.28173828, -0.32226562, 1.2373047, -0.87158203, 1.1201172, -1.4443359, 0.0692749, -1.1464844, -1.4980469, 2.1972656, -0.44458008, -0.61376953, 0.64746094, 0.3154297, 1.6757812, -1.3544922, -0.5991211, -3.0195312, -1.0048828, 0.79785156, -0.8095703, -0.6723633, -2.3554688, 1.3974609, -1.5244141, 0.37329102, -0.6328125, -1.015625, -3.1347656, -0.70751953, -1.3251953, 1.2617188, 0.44750977, -1.6142578, 1.9667969, 4, 0.017120361, 0.1505127, -1.5605469, -0.03591919, -0.011756897, 0.39501953, 0.05731201, -2.4472656, 1.1767578, 0.59716797, 0.12030029, -0.06304932, 1.1894531, 0.26245117, -1.3183594, 0.43066406, -0.6791992, -2.8945312, -1.4199219, 0.4243164, -1.3964844, -0.4116211, -1.7490234, -1.8076172, -0.10437012, -0.38623047, -2.1914062, 1.0097656, -1.1191406, -1.3291016, 0.7348633, -1.1328125, 1.3222656, -2.53125, -1.4042969, -0.78222656, 0.38330078, 3.1699219, 0.5004883, 2.6015625, -0.22912598, 1.4541016, 3.5566406, -0.03012085, -1.1982422, -0.69384766, -0.16357422, 0.24291992, 0.40014648, 0.2524414, 0.24694824, 0.13562012, -0.07977295, -2.6132812, -3.3554688, -0.73876953, 1.1953125, -0.7944336, 2.6464844, -0.67041016, -3.0664062, -1.2480469, -1.7080078, 3.2265625, 0.45507812, -0.51953125, 1.796875, 1.6015625, -0.87158203, 1.4160156, 0.030960083, -0.30541992, -0.7475586, -1.2451172, -1.8076172, -2.6503906, -0.033813477, -0.65625, 1.3583984, -0.20837402, -0.68359375, -0.88964844, -0.28051758, -2.0507812, -0.21875, -2.2851562, -1.2900391, 0.1583252, 0.18896484, 0.11645508, -0.7680664, -1.0693359, 3.6914062, 0.29541016, 0.16503906, -0.12719727, 0.03555298, 0.25927734, -1.7363281, -0.20581055, 1.2060547, -0.54785156, 0.7236328, 0.73828125, -1.4189453, 1.1015625, -0.26049805, -0.28466797, 1.5830078, -0.44604492, -0.1829834, 0.47998047, 1.1806641, 0.90966797, -0.03289795, 0.41577148, 1.0615234, 1.4511719, -0.59521484, -0.203125, 0.8666992, 0.7192383, -0.62597656, -0.11260986, 0.35107422, 0.9863281, -0.41015625, -1.1171875, 0.93652344, -0.58691406, -0.5517578, -0.6074219, 1.078125, 0.8144531, -1.5332031, 2.2480469, 0.92529297, -0.33129883, -2.1679688, 0.75634766, -1.5185547, 1.9023438, 0.37963867, 3.5761719, 0.39770508, -2.5820312, 0.90966797, 3.359375, -1.2011719, 1.2724609, -0.51464844, 2.1230469, -0.28100586, 0.19116211, -1.1835938, 2.0546875, 0.6767578, -0.7651367, -0.72753906, -1.0263672, 1.4589844, -1.5761719, -2.6523438, 1.6376953, 1.9052734, 0.5078125, -1.9072266, -0.12237549, -1.0244141, 1.8515625, 1.0644531, 0.3635254, 0.7368164, 1.2236328, 0.1270752, -1.3857422, 2.3925781, -0.3310547, -0.3022461, 0.37548828, 0.78125, -1.5263672, 0.2590332, 1.4482422, -1.6386719, -1.9375, 1.0449219, -0.5234375, 2.3613281, -1.5292969, 0.86328125, 2.1035156, -0.99072266, -1.1269531, -0.37353516, 2.1914062, -2.3554688, -0.024795532, 0.54052734, -1.7724609, -0.12188721, 4.140625, 1.5449219, -0.072509766, -1.1894531, 2.1738281, -1.5488281, -0.96972656, 0.33422852, 3.7050781, -1.1494141, -2.8964844, 0.6503906, -0.15148926, 0.09881592, -1.6259766, -1.4707031, 0.5317383, 0.31640625, 1.6826172, 0.25097656, 1.1806641, -0.84033203, 1.609375, 0.26757812, 0.6508789, -0.26220703, -0.049041748, 0.2919922, 0.016357422, 0.49804688, -0.5209961, 2.1777344, -1.265625, 2.5722656, 0.39746094, 1.7617188, 1.9882812, -0.7788086, -0.012458801, -0.88720703, -1.2431641, -1.2167969, 0.15563965, -0.18762207, 1.1298828, -0.91748047, -0.5751953, -0.9223633, -0.20324707, -2.4902344, -0.8442383, 0.36547852, -1.2275391, 2.6113281, -0.008071899, 0.78222656, -1.5751953, -1.6386719, -0.02456665, 0.57128906, 0.26635742, -0.6147461, -2.0390625, 0.013671875, 1.0322266, -0.66015625, -0.9394531, 0.54345703, -0.66845703, 0.53808594, -0.03491211, -0.81884766, -2.2207031, 1.6484375, 0.78222656, 0.6357422, 0.3720703, 0.3334961, -0.45288086, 0.31713867, -0.32104492, 0.69970703, -2.8417969, 0.1595459, 1.4833984, -1.1259766, 2.6679688, 0.38793945, 0.28588867, 1.5791016, 3.3105469, 1.4306641, 0.4465332, 0.57177734, 0.12976074, -0.09008789, 0.027908325, -2.0214844, 0.20214844, -1.4482422, -0.081726074, -1.3925781, -0.10571289, 0.6894531, 0.54296875, -1.7998047, -0.16748047, 2.4570312, -0.15686035, 1.1894531, 1.5830078, -0.42016602, 2.2988281, 0.5629883, -1.0957031, -1.3408203, 0.78515625, -0.103271484, -1.1806641, 1.2294922, -3.1269531, 0.26049805, -1.6425781, -1.7714844, -0.5263672, 0.22143555, -0.18688965, 1.3222656, 0.04711914, 0.79248047, -0.63671875, 1.7539062, 2.3691406, -0.2553711, 2.4648438, -0.2064209, -0.42749023, 1.1660156, 2.9121094, -0.012565613, 1.0244141, -0.41577148, -1.9111328, 0.76416016, -0.40625, 0.9746094, -2.5996094, 0.06011963, 1.2744141, -0.26538086, 0.30786133, 0.9296875, 0.84472656, 1.7988281, 0.39892578, 0.6269531, -1.3535156, 1.3623047, 3.2148438, -0.83251953, 0.69140625, 0.24267578, -0.35424805, 2.1191406, 0.453125, -0.022476196, -1.4013672, -0.6816406, 1.1445312, -0.044555664, -0.31982422, 1.2890625, -0.24487305, -0.72753906, -0.13452148, -0.32543945, 0.44628906, -1.5009766, -0.41137695, 0.69628906, 0.9746094, 0.8432617, 1.5644531, 0.8300781, 1.25, -0.57714844, 1.3251953, 2.0722656, -0.4177246, -2.0507812, 0.95947266, -0.32666016, 0.95703125, -0.24780273, 2.2226562, 1.6757812, 0.73339844, -1.0214844, 0.9511719, -0.83447266, -1.9140625, -1.1816406, -1.5273438, -0.5498047, 0.14025879, -0.6933594, 1.1445312, 1.9296875, -1.0205078, 1.609375, -0.6035156, -1.7314453, 1.6875, -2.2753906, -0.4675293, -0.54296875, -1.1630859, -1.8369141, 0.92529297, -1.4101562, 0.19787598, -1.1621094, -0.63183594, 0.64501953, -1.5908203, -1.6201172, -3.3378906, -0.04559326, -0.36645508, 0.6816406, 0.39526367, 0.5996094, -0.6723633, -0.8696289, 1.5380859, 0.48608398, 0.6430664, 0.17687988, 0.47607422, 0.97509766, 0.7363281, 0.34375, -0.21154785, 0.9916992, -0.012397766, -0.1706543, -3.9296875, 2.5195312, -0.4621582, 0.16333008, 1.5517578, -0.3852539, -0.8955078, -0.6538086, 1.7919922, 0.42919922, 1.4980469, 0.1104126, 1.3583984, -1.2460938, -0.31518555, -0.08721924, -0.30810547, 1.765625, -0.8881836, 0.34985352, 1.5390625, 1.4609375, 1.2392578, 0.6386719, -0.49316406, -0.25952148, 0.40014648, -1.3027344, 0.82421875, 1.0458984, 2.7050781, -0.11187744, 0.94384766, 0.4741211, 0.61865234, 0.9326172, -0.64990234, 0.0803833, -0.043792725, -0.8569336, 1.9208984, 0.7548828, -1.4033203, 2.0292969, 1.4072266, 0.5722656, -1.1181641, -2.5410156, -0.83154297, -1.4667969, -0.62109375, 1.7138672, 0.24707031, -1.5224609, 1.3613281, 0.48828125, 0.76123047, 1.8847656, -2.4023438, 0.34692383, -0.03387451, 1.9863281, 0.37182617, -2.0742188, -1.7509766, 0.59765625, 1.1289062, 0.0015544891, 0.33911133, -0.77783203, -1.1416016, -1.4111328, -0.11425781, -0.03463745, 1.6982422, 0.42285156, 2.2988281, -0.61816406, 0.44189453, -2.40625, 0.96972656, -0.29492188, 0.92871094, -1.5419922, 0.016555786, -1.0078125, -0.12298584, 1.0546875, -1.1601562, 0.9819336, 0.7680664, -0.7758789, 0.25439453, 1.4238281, 0.78515625, -0.88183594, 1.9189453, 1.1240234, 1.6074219, 2.0664062, -2.0390625, 2.0351562, 2.2421875, 0.67822266, -0.32080078, -1.8056641, 1.4501953, -2.359375, -0.3251953, 0.35498047, 0.37060547, 0.8925781, 0.15075684, 0.5332031, -0.3972168, 1.6308594, 1.9873047, 1.4316406, 0.23168945, 0.7861328, 1.0527344, 0.8979492, -0.8100586, 1.5839844, 0.72753906, -2.5546875, 0.1270752, 0.06817627, -3.0410156, 1.5458984, -1.2236328, -0.6879883, -0.41015625, 0.5605469, 0.7441406, 0.2697754, -1.3291016, 0.0037994385, 0.8076172, -0.17419434, -0.3527832, -0.86083984, -0.2548828, -0.5292969, -0.8901367, -0.2998047, -0.90625, -0.6699219, 0.45874023, 1.9980469, -0.09265137, -0.94433594, 0.74121094, -1.2207031, -0.5620117, 1.3193359, 1.8525391, 0.20507812, -0.72558594, 0.29882812, 1.8339844, 0.039031982, 0.97558594, -0.15966797, -0.37402344, -1.7177734, 0.38183594, -0.66308594, 1.453125, -0.6694336, 0.05456543, -1.5585938, -1.3115234, -1.03125, -0.82470703, 2.6132812, -0.32250977, 0.5288086, 1.2714844, 0.7158203, -1.0761719, 0.9536133, -0.46972656, 1.0859375, 0.46289062, 1.2626953, 1.1201172, 0.49194336, -0.75927734, -0.7446289, -0.1015625, -0.20373535, 0.066101074, 2.21875, 1.1582031, 0.80322266, 1.8925781, -0.5136719, -1.2568359, 0.5024414, 0.113586426, 1.640625, 0.11431885, -0.6386719, 0.6484375, -1.2324219, 1.1357422, -0.37304688, -2.0878906, -0.3305664, 2.8300781, -0.5336914, -0.82910156, 0.4584961, -0.72509766, 0.9682617, -2.1035156, -1.1240234, -0.5883789, 0.85498047, -0.8798828, 1.8974609, -0.6899414, 1.6269531, -1.5908203, 0.097229004, -2.5429688, 0.5605469, -2.1289062, 1.2402344, -2.5097656, -0.53808594, -0.8540039, -0.35083008, -0.67089844, -1.609375, -1.2792969, -2.3496094, -0.7421875, -0.18579102, 0.35791016, 0.8227539, 0.5751953, 2.1464844, 1.1054688, 0.24084473, -0.1595459, -0.49951172, -1.4101562, -1.1396484, 0.85791016, 1.1962891, -1.5693359, -0.6591797, -1.3710938, -0.7558594, -0.99072266, 1.9638672, -1.4033203, -0.65527344, 0.008468628, 1.7431641, 1.4238281, 1.0185547, 0.6069336, -2.2714844, 0.34692383, -0.6308594, 1.6367188, 1.8398438, 1.8222656, -0.08227539, -1.9277344, -0.9326172, 1.3583984, -1.2177734, 0.73291016, 0.6269531, -1.0634766, -0.16638184, 0.40356445, 2.2421875, 0.92871094, 0.93359375, 0.29003906, 0.53027344, 1.3486328, -0.53125, 0.62402344, 0.04196167, -1.7900391, -0.88916016, 2.2246094, -0.46704102, 1.3710938, 0.050628662, -0.05947876, -0.18322754, -1.0732422, -0.013893127, 0.08746338, -1.0947266, -0.16381836, 0.011184692, 1.109375, 0.14147949, -0.16992188, -0.8979492, -0.8208008, -0.16662598, 0.32788086, 1.2607422, -0.100097656, 0.5649414, -0.89453125, 0.12731934, 0.5263672, -0.43432617, -0.7661133, -0.24633789, -1.0498047, 1.4619141, -0.38378906, 0.041503906, -0.25830078, -0.68847656, -1.0449219, 1.7363281, 2.6445312, -1.9863281, 0.6899414, -0.43554688, 0.9980469, -3.6933594, 0.025466919, -0.8911133, -1.1083984, -0.079589844, 1.6181641, -0.79833984, 1.8583984, 1.7822266, 0.20166016, -1.453125, 0.59375, 1.7373047, 3.8945312, -1.4443359, -0.4284668, 0.16906738, 0.34814453, 0.1505127, 2.5371094, 3.2597656, -0.06768799, 0.1973877, -0.39648438, -2.7089844, -0.3251953, 0.82958984, -2.2988281, 1.5175781, 1.0117188, -0.8388672, -0.6455078, -0.5805664, 0.0803833, -0.34643555, 1.0976562, -0.4645996, -0.3720703, -0.45288086, -1.0664062, 0.11682129, 0.07623291, -1.9453125, 0.6875, 0.7495117, 3.1621094, 0.43920898, 0.35595703, 0.3100586, 1.9863281, -0.011756897, 0.91845703, -1.0410156, 0.65234375, 0.74072266, -0.29223633, 0.49902344, -2.4980469, -0.6191406, 0.7290039, -0.046875, 1.1904297, -0.84716797, 0.67041016, -1.5273438, -0.7661133, -0.31225586, -2.421875, 0.31274414, -1.2392578, 1.2578125, -1.4111328, 0.9272461, 0.78759766, -0.16137695, -0.62109375, 0.9790039, 1.2109375, 1.3613281, 1.1074219, -0.43603516, -0.0859375, -1.6044922, 0.83740234, -0.21435547, -0.35546875, -1.671875, -0.9326172, 0.53808594, 0.49267578, 0.001704216, 0.91503906, 0.8017578, 0.15136719, -0.53222656, -0.56152344, 6.3164062, 1.7197266, -0.94433594, 0.2734375, -0.9238281, 0.7895508, 1.2265625, 2.1601562, -0.81933594, -1.9589844, 2.4199219, -0.5385742, -0.2220459, -0.95751953, -1.2255859, -0.064208984, 0.95166016, -0.5932617, -2.4511719, -0.5800781, 1.0888672, -1.4414062, -0.19274902, -0.66259766, 1.3740234, -0.15771484, 0.5058594, -0.4663086, 0.52490234, -1.1494141, 0.45458984, -1.5205078, -0.29052734, 0.15185547, 0.18920898, 0.5004883, 1.9765625, -0.37109375, 0.36499023, -0.13085938, -0.55859375, 0.8129883, -0.9013672, 0.2980957, -1.8310547, 0.35253906, -1.2333984, -0.21240234, -1.2197266, 1.2275391, -1.9052734, -0.5307617, -0.77734375, 0.4975586, 0.73779297, 1.6376953, -1.7783203, -1.8076172, -1.6757812, -0.7163086, 0.4519043, -1.296875, 0.99609375, -0.21472168, -1.4160156, 0.002937317, -0.07305908, -0.37597656, 1.3300781, 1.2763672, 1.7226562, 1.1347656, 0.05569458, -0.16113281, 2.8164062, 0.6171875, 0.61279297, 1.8398438, -1.1748047, 0.6586914, -0.3623047, 0.30395508, 0.9399414, -2.1503906, -0.1348877, 0.3623047, 0.15771484, -1.1914062, 0.7548828, 0.5390625, 1.4873047, -1.1669922, 1.1357422, -0.52734375, -0.78808594, 0.73095703, 2.3203125, -0.057678223, -0.39208984, 2.1601562, 2.0214844, 0.07305908, -0.12310791, -1.3867188, -0.39941406, 1.6816406, 1.2802734, -1.3046875, 0.5136719, 1.5976562, 1.2070312, 4.9179688, 1.0097656, 0.9199219, 0.9526367, 0.18408203, 0.3491211, -0.77246094, -1.5693359, 2.1601562, 2.125, 1.6308594, 1.8125, 0.26611328, 1.578125, 0.8540039, -1.0898438, -1.4990234, -0.42749023, 2.1347656, -0.3972168, -1.2265625, -2.0996094, 0.28442383, -0.42333984, 0.81152344, -0.97558594, -2.1914062, 0.6225586, -0.52734375, -1.5742188, 2.7167969, -1.0634766, -1.4492188, -0.6274414, 2.2910156, 1.3876953, -0.9458008, 0.009216309, 0.22949219, -0.8930664, -1.5947266, -0.17382812, 1.0488281, -1.1972656, -0.5957031, 1.7373047, 1.2099609, 0.7729492, 1.2001953, 0.17175293, 0.017791748, 1.5234375, 0.85009766, 0.85595703, 1.4814453, -0.44458008, -0.6113281, -2.5566406, 0.5864258, 0.084228516, 2.015625, -1.0742188, -1.2685547, 1.9482422, -1.2919922, 0.02645874, -1.1533203, 0.7011719, 0.17260742, 0.39526367, -0.5473633, 1.4169922, -0.28979492, -0.59472656, -0.37402344, 1.5556641, 0.15393066, -1.6347656, 0.122924805, 0.15393066, 1.6269531, -0.8588867, -0.3154297, -1.5703125, -1.9443359, 0.3305664, 0.38012695, 1.8505859, -1.5449219, -1.1357422, 0.42749023, 0.88671875, 0.8701172, -1.9013672, -0.16320801, 0.83984375, -0.9511719, 0.027954102, 0.018173218, 1.7890625, 0.28735352, 0.56933594, 0.6557617, -0.9321289, 0.74121094, -1.4394531, 1.2617188, -0.18164062, 2.1503906, -0.74121094, 1.0732422, -0.22277832, 2.6503906, 0.28173828, -0.8647461, 0.12927246, -0.9633789, 1.0009766, -0.17016602, -0.47338867, 0.18908691, -1.7080078, 0.3239746, 1.3789062, 0.8754883, 0.03591919, -0.44091797, 0.37109375, 0.2121582, -2.8339844, 2.09375, -0.8178711, -0.8984375, 0.2956543, 2.34375, 2.6699219, 0.12207031, -2.0644531, -0.45825195, 1.7832031, 1.6855469, 1.3193359, -0.6430664, -0.44555664, -0.7368164, -0.045074463, -0.14697266, -0.69677734, -1.2451172, 0.12731934, -3.6777344, -1.6035156, -0.54052734, 1.1494141, 2.21875, 0.5678711, -0.9604492, -1.234375, 1.1484375, -0.5307617, 0.98291016, -0.8955078, 0.4958496, -0.41601562, 0.35180664, 0.92578125, -0.5151367, 2.7167969, -0.6479492, -1.6376953, 0.15686035, -0.23535156, 1.2333984, 1.0546875, 0.48339844, -1.0458984, -0.60302734, -0.29516602, -0.25097656, 2.2578125, 0.35253906, 0.58154297, 0.1673584, -2.0039062, 1.2548828, -0.5053711, 0.22705078, 1.0068359, 1.171875, -1.2900391, 0.9121094, 1.5273438, -0.95654297, 1.796875, 0.037994385, -1.7675781, 0.12695312, 0.70410156, 0.014381409, 0.1998291, -0.8173828, 1.0615234, -0.6303711, 0.8808594, 0.39331055, -0.5048828, 0.31298828, -0.6557617, -3.5117188, -0.20361328, 0.4350586, -1.1660156, 1.2001953, 0.2076416, 0.81884766, 0.3647461, 0.7451172, -1.015625, 1.3798828, -1.1533203, -1.3642578, -1.8798828, 1.9355469, 2.0175781, -0.3779297, -0.17199707, -0.4008789, 2.125, 0.28149414, -1.8310547, -0.37890625, -0.3166504, 0.80029297, 0.16711426, 2.3476562, -0.9892578, -1.1679688, -0.8833008, -0.3071289, 0.13696289, 3.5898438, 1.8310547, 0.020355225, -0.04788208, -1.8994141, 1.5585938, 1.5859375, -0.5991211, 3.0273438, -2.6679688, 0.13415527, 1.9599609, -0.6567383, -2.3222656, 0.96533203, -1.2773438, 1.8789062, -1.7900391, 0.5708008, 0.1328125, 0.21044922, -1.8203125, 0.07434082, -0.44995117, -1.3417969, -0.8100586, -1.8691406, 1.0175781, -0.2644043, 0.4777832, 2.2226562, -0.18530273, 3.0136719, 0.4416504, 1.1914062, 1.5849609, -1.8466797, 0.2310791, -0.9604492, -2.5664062, 0.4074707, -0.31933594, 0.094177246, -0.17382812, -3.03125, 0.002910614, 0.78808594, 0.21374512, -0.066467285, -0.3684082, -0.5654297, 0.6328125, -1.9794922, 1.2011719, -0.6879883, -0.44458008, 1.3974609, 0.39770508, -2.453125, 0.27246094, 0.1496582, 0.062469482, -0.59716797, -0.09033203, -1.4033203, 0.046539307, 2.9277344, -0.07611084, -2.4335938, 0.14440918, 0.50927734, 0.111450195, -0.12194824, 0.48388672, 1.3505859, -0.61035156, 1.5, 1.2197266, 0.73828125, 0.7036133, 0.98583984, 1.671875, 0.5258789, -0.5180664, -1.3652344, 0.4350586, 1.0136719, -0.23571777, -0.78466797, 1.265625, 0.90722656, 0.21069336, -1.5957031, 0.92333984, -0.3239746, -1.4238281, -5.2539062, 0.43652344, -0.41601562, 0.7890625, 0.67871094, -1.1425781, 1.2314453, -1.3330078, -2.296875, 0.61035156, 0.1508789, -2.0351562, 1.3251953, 2.3203125, -0.46020508, 1.4707031, -1.046875, -1.6318359, -0.77490234, 0.14855957, -0.11352539, -1.0068359, 1.609375, 1.1621094, 0.69677734, -1.7197266, 1.5605469, -0.11077881, -1.0117188, -2.1523438, -0.39453125, 2.40625, -0.7036133, -2.0410156, 0.8261719, 0.91308594, 0.6982422, 0.8588867, 2.4472656, -0.39160156, 0.8852539, 4.1054688, 0.63623047, -1.6806641, -1.7998047, -0.9511719, 0.17199707, -0.8569336, 0.60058594, 0.53466797, 0.7836914, 1.5722656, -0.7988281, -1.5908203, 1.5107422, 0.84277344, 1.2441406, 0.8574219, -1.0986328, 0.4189453, -0.43701172, 0.048797607, 1.1513672, 0.14099121, 0.53222656, 1.1113281, -0.5644531, -0.026916504, 0.85253906, -1.2070312, 2.921875, -1.0146484, -0.10119629, 0.21508789, 1.4267578, -0.73828125, -1.8710938, -2.3164062, -0.089782715, -0.14367676, -0.5253906, -0.38085938, -1.4238281, -0.22607422, -1.1074219, -1.9941406, -0.37646484, -2.609375, 0.6308594, 1.5048828, 0.08880615, 0.6010742, 0.26831055, -0.21520996, -0.28442383, -1.3798828, 0.7753906, -0.82958984, 2.4726562, 0.8100586, 0.40014648, -0.69873047, -2.2792969, 0.8261719, 1.7138672, 1.3623047, 1.1376953, -0.5761719, 3.3320312, -0.60839844, -1.2099609, -0.48266602, -1.2617188, -1.4052734, 0.41210938, 0.63720703, -1.3076172, -3.0351562, 0.16772461, 0.12402344, -1.6513672, -0.9038086, -0.52978516, 0.18518066, 0.98583984, -0.024887085, -2.4277344, -2.8964844, 1.4316406, -0.30517578, 0.88671875, 0.9433594, -0.13305664, 0.89990234, -3.1132812, -0.84033203, 0.28173828, 0.9091797, -0.49316406, 1.3447266, -1.4355469, 1.7949219, -1.5498047, 0.04031372, -1.3242188, -2.1445312, -2.0078125, 0.9897461, -0.12902832, -0.73046875, -0.6171875, -0.29638672, 1.1054688, -0.5361328, 0.97509766, -1.7226562, -0.23730469, 0.3071289, -0.061431885, 1.3115234, -1.4082031, -1.2070312, 0.44628906, 0.2866211, 1.0263672, -0.8076172, 0.48779297, 0.15551758, -0.66748047, -1.5058594, 0.8256836, -1.3330078, 1.3056641, 1.9648438, 1.2099609, 0.35595703, -1.8808594, 1.8544922, -0.61376953, -0.54345703, -0.28466797, -1.1777344, -1.0009766, -0.22436523, 0.14453125, -0.44433594, -0.28320312, -1.9726562, 1.6523438, -0.014457703, 0.46264648, -0.7895508, 0.41186523, 0.0041923523, -0.4519043, -0.25463867, -0.9482422, -1.0849609, 0.70214844, -0.54345703, -2.4589844, -0.79833984, -1.0009766, 0.4909668, -0.91259766, -0.42456055, -0.85253906, -2.9394531, 0.57470703, 1.6435547, -0.07849121, 2.2753906, -0.16052246, 0.39892578, 0.89746094, -2.1835938, 0.9013672, -1.4082031, -0.22802734, 1.0927734, 0.67285156, -0.5385742, -0.80908203, -2.1386719, -1.0136719, -0.6738281, -1.5097656, 0.15319824, -0.421875, 0.7167969, -3.7714844, -0.47753906, 1.2988281, -1.0634766, 2.8066406, -0.41601562, -1.4697266, -0.9243164, -0.7832031, -0.64501953, -0.22302246, -1.2705078, 0.7050781, -1.3076172, -1.3671875, -1.2939453, -8.1796875, -1.0380859, 0.32055664, 1.3867188, 1.2636719, 0.38110352, -0.40283203, 1.0136719, -2.359375, -0.06414795, -2.1035156, 0.6567383, 2.7128906, 1.2763672, -0.9165039, 2.078125, -0.98828125, -1.2226562, -1.4599609, -2.4472656, -1.8359375, 2.8984375, 0.22253418, 1.1884766, 1.2265625, 1.4091797, 0.38623047, -0.2849121, 0.9394531, 0.69921875, 1.6611328, 0.11248779, 0.18530273, 0.16577148, -1.5361328, -1.4101562, -0.36499023, 0.81933594, -0.3996582, 0.12371826, -0.23278809, -1.2460938, -2.1386719, 0.23815918, -2.3828125, 1.3505859, -1.2451172, 0.6381836, -0.32861328, 0.08850098, 0.70214844, 0.15368652, -0.42504883, -0.59521484, 1.3193359, 0.46875, 0.5371094, 0.19396973, -0.97753906, -0.4885254, 0.62402344, 0.6040039, 0.91552734, 1.9921875, -0.35473633, -0.5883789, 0.1315918, 0.86279297, -0.04034424, -1.9453125, -0.5722656, -1.0302734, 1.25, -0.026687622, -0.96875, -0.4909668, -2.1113281, 0.0014209747, 0.3125, 0.21850586, 0.58154297, -0.08355713, 0.37939453, -0.8017578, -0.8300781, -0.7963867, 0.39648438, 0.32202148, 1.8076172, -1.0605469, 1.1171875, -0.13293457, 0.7734375, 1.3652344, 2.1621094, -0.6669922, -0.16711426, 2.1542969, 0.35229492, -2.3046875, -0.2788086, 0.11804199, -0.56884766, -1.5605469, -0.07183838, -1.3935547, 0.7470703, 0.22912598, -0.9291992, 1.4658203, -1.125, 0.38305664, 1.8359375, -0.39160156, -1.3886719, -0.3581543, -1, 2.0605469, -1.4091797, 0.9296875, -1.0605469, 1.9541016, -2.6503906, 1.7832031, -0.7583008, -0.34985352, -1.3007812, -1.703125, -1.5517578, -0.9038086, -0.5083008, -1.6923828, -0.24316406, -2.8398438, -1.0322266, -1.5751953, 0.30810547, -0.8046875, -0.78515625, -1.6894531, -0.49414062, 2.1367188, -1.390625, -1.6386719, 1.2792969, 3.3144531, 0.46435547, -0.28466797, -0.19506836, -0.03805542, -1.1064453, 1.1484375, 0.21972656, 1.1777344, -0.72998047, -1.4697266, 0.37158203, -2.65625, -1.1279297, -1.2158203, -0.56884766, 1.0234375, 0.7451172, -2.1582031, -0.9453125, 1.4589844, -2.546875, -1.0996094, 1.4355469, -0.09240723, -0.3581543, -1.3623047, -0.15063477, -2.2695312, -1.2509766, -0.7675781, 2.9648438, -1.2705078, 0.4243164, -0.40649414, 1.9599609, -0.2866211, -1.6425781, 0.24072266, -0.9916992, -1.546875, 2.2558594, 2.1328125, -0.07318115, 1.0322266, 0.77197266, 0.7578125, -1.2216797, 0.08770752, -2.4453125, -0.67089844, -0.50097656, 0.20324707, 0.64501953, -0.73291016, -1.3330078, -3.2382812, -0.49169922, -0.33642578, -0.63183594, 0.14575195, 0.18261719, 0.7758789, 0.8383789, -1.6152344, -1.7216797, 0.97265625, -0.42358398, -0.5620117, -0.28808594, 1.2197266, 0.26513672, -0.5019531, 0.24938965, 0.15368652, 1.4511719, -0.8100586, 0.033843994, -0.8461914, 0.040893555, -0.6513672, 0.7705078, 1.9550781, -1.5224609, 1.0410156, 1.2490234, 0.5800781, 2.2402344, 0.92089844, 3.1230469, 0.5083008, 1.1660156, 1.6982422, -1.5117188, -1.0869141, 0.48046875, 1.6289062, 2.46875, 0.18322754, 0.68115234, -0.30444336, 0.18591309, 0.15222168, 2.3671875, -0.21813965, -0.1303711, 3.0820312, 1.3027344, -0.23278809, 1.1367188, -0.072753906, 2.7363281, 1.7363281, -0.0011529922, 0.83203125, -0.016479492, -0.0869751, 0.09313965, 0.58447266, -3.1738281, 0.9941406, 1.3417969, 0.1439209, -1.7333984, -1.1630859, -1.4248047, -0.17211914, -0.9370117, 0.78759766, -4.1054688, -1.5, 0.24975586, 1.4433594, -0.6645508, -0.22094727, -0.38916016, -0.13183594, -0.45166016, -1.1513672, 1.4755859, -0.030197144, -0.08068848, 1.3613281, 0.19274902, -1.7744141, -1.6210938, -2.7949219, -0.99658203, 0.014457703, 1.0800781, -0.89990234, -0.17175293, -1.1660156, -0.50683594, -0.103759766, 1.2080078, -0.13574219, 0.20617676, -1.3525391, -0.8154297, 0.63427734, -0.083496094, 1.1064453, -0.15283203, -1.6308594, 0.33203125, 0.7348633, 0.23205566, -1.1494141, 1.3730469, 0.09564209, 0.47705078, 0.7578125, 0.80615234, -0.8457031, 0.28271484, -0.16577148, 2.1484375, -1.0644531, 0.23791504, -0.5571289, -1.4277344, 0.82910156, 0.6191406, 0.85595703, 0.53466797, -1.5205078, -0.7524414, 0.26000977, 0.9082031, 0.4729004, -1.5830078, -0.91552734, 0.5600586, 1.6113281, 0.83447266, 0.19250488, 1.4208984, 1.8857422, -0.56591797, 2.9589844, 1.2080078, 1.1943359, 0.4584961, 0.18725586, -0.53808594, -1.0078125, 1.1318359, -0.68115234, -1.0429688, 1.1367188, 0.42016602, -0.34350586, -0.5048828, -1.6542969, -0.42773438, -0.54052734, -0.10900879, -0.95458984, -0.32910156, -0.88378906, 0.96777344, -1.0136719, 1.6386719, -1.4150391, 0.4091797, 1.3886719, 0.5185547, 0.29418945, 0.74609375, 0.2878418, -1.4960938, -1.1630859, 1.6308594, 0.1472168, 0.04623413, -1.8330078, -1.3759766, 0.29785156, -0.44360352, -1.3457031, 1.2441406, 0.5229492, 1.8867188, 0.7338867, 1.9794922, -1.0576172, -2.0839844, 0.69921875, 1.7197266, -1.2001953, -0.113708496, 1.1699219, -0.07739258, -1.1298828, 1.8046875, -2.2871094, 0.9428711, 0.81591797, 0.96240234, 0.94873047, -0.92578125, -1.109375, -0.36791992, 1.3203125, 0.83447266, 0.9067383, 1.3056641, -0.9506836, 0.8388672, 0.33520508, -1.4550781, -0.5854492, 0.7397461, 1.2421875, -0.8725586, 1.5068359, 0.24047852, 1.046875, -0.15551758, -1.9130859, 1.1552734, 0.37475586, 1.0527344, 0.40966797, -0.6767578, -0.8574219, -0.04534912, -0.20825195, -0.7734375, -0.86816406, 1.2041016, 0.072509766, 0.18273926, -0.2602539, -0.18334961, -0.1895752, -1.7900391, 3.6464844, 1.0009766, 0.5180664, -0.21044922, 2.5917969, -1.25, 0.32910156, -2.2714844, -1.5751953, 0.78027344, -1.7167969, -1.2734375, -0.15710449, -0.8955078, -1.1289062, 0.82177734, -1.5273438, -0.46484375, 1.3427734, 0.60791016, 0.5205078, -2.09375, -1.453125, 0.5834961, 0.33813477, 0.42797852, -0.19885254, -0.98291016, 1.1328125, -1.1972656, 1.0117188, 0.22888184, -0.6875, -2.375, -0.031051636, -0.3449707, 0.047302246, -0.26660156, 0.7216797, 1.0019531, 0.44311523, 0.57373047, -0.011627197, -0.8515625, 1.4931641, 0.14404297, 1.6318359, -1.0712891, 0.9042969, 1.1826172, -1.9736328, -1.1220703, -1.8164062, 0.90966797, 1.3632812, 0.05810547, 0.1809082, -1.9960938, -1.0244141, 2.2402344, 0.041534424, -0.52783203, -0.7675781, -1.4882812, 0.31054688, -1.2050781, 0.67333984, -0.50683594, 2.84375, 0.072021484, 0.057495117, -0.0725708, 1.9072266, -2.0722656, 0.85498047, 0.62597656, -1.6982422, 0.10070801, -0.7890625, -1.0058594, -0.087768555, -0.40820312, -0.07244873, 0.9995117, 0.5908203, -0.1005249, -1.8203125, 0.41333008, 0.47045898, -0.28198242, 1.3164062, 1.6074219, -2.1503906, 0.38256836, 0.015686035, 0.47680664, 0.52246094, 1.6601562, 1.6191406, -1.2832031, -1.2324219, 0.36401367, 0.2775879, 0.9736328, -0.9213867, 1.6464844, -0.26831055, 0.38208008, 0.5366211, -1.5683594, 0.27612305, 1.5390625, -0.93066406, -1.6269531, -0.70410156, -1.1298828, 0.81884766, -2.3261719, -1.2001953, -1.4619141, 1.7568359, 1.4072266, -1.1230469, 0.91259766, -0.76416016, 1.5957031, 0.64404297, 0.3803711, 0.7416992, -0.67822266, -2.1894531, 1.2421875, -1.4599609, 2.8066406, -1.2333984, 2.4023438, 1.7080078, -0.8173828, -1.2880859, -0.66796875, -2.0996094, 1.2001953, 3.2929688, 0.7036133, 2.6601562, -0.17089844, -1.2539062, -1.5810547, -1.4169922, -0.17907715, -0.87158203, -0.66748047, -0.9243164, -1.953125, -2.3730469, 0.8540039, -1.0947266, 0.9428711, 1.3222656, 0.20544434, -0.27075195, 0.6586914, -1.0800781, -1.0009766, -2.1386719, -0.7949219, 0.47827148, -0.0859375, -2.1933594, -0.7363281, -0.68408203, -1.9238281, 1.8769531, 3.34375, -0.7036133, -1.9208984, -1.4541016, -0.9379883, 0.18457031, 1.1669922, 0.47045898, 1.609375, 1.5986328, 1.3857422, -0.60498047, -1.1464844, 0.42163086, 1.3583984, -1.4355469, -1.3535156, -0.51171875, -2.5839844, -2.5039062, 1.2294922, -1.1914062, 1.546875, -0.50341797, 1.734375, -0.19262695, 0.32983398, -0.625, -0.31274414, 0.6591797, -1.4257812, 0.8022461, -1.2216797, 0.10870361, 1.7705078, 0.47045898, -1.1582031, 0.83740234, -0.6220703, -0.20019531, 0.77001953, 0.123535156, 1.5390625, 1.4824219, 1.0341797, 1.1035156, 0.7661133, -1.7724609, -2.0957031, 0.45214844, 1.578125, -0.90234375, -1.4277344, 2.0546875, -0.39501953, 2.203125, 0.37402344, 0.7363281, 1.3867188, -0.5019531, -0.5913086, -0.68115234, 0.072509766, -0.6694336, -0.87890625, 0.36938477, -0.6875, -2.1230469, 1.5673828, 1.1357422, 0.73828125, -0.16235352, -0.29248047, -0.6591797, -0.36743164, 1.4111328, 0.7011719, 2.1054688, 1.0751953, 0.4753418, -0.82128906, 0.17321777, 0.27734375, -1.3671875, -0.76416016, 1.6289062, 0.26635742, 0.5625, -1.2490234, -1.1923828, -2.1074219, -0.53808594, -1.139648</t>
-  </si>
-  <si>
-    <t>[2.375, -1.0820312, 0.15368652, -0.92822266, -1.9638672, -0.15136719, -2.2480469, 1.1113281, 1.7705078, 1.0732422, -0.9033203, 0.20300293, 0.45458984, 0.03817749, 0.45922852, -0.54003906, 0.68310547, -0.18652344, 0.93896484, 0.32495117, -1.2070312, 2.9648438, 2.0957031, -1.4111328, -1.0117188, -0.60498047, 1.1074219, 1.7822266, 1.7900391, -0.67041016, -0.3791504, 3.1972656, 1.2998047, 1.2041016, -1.8154297, -1.5244141, 0.45092773, 2.6367188, 3.0722656, -1.3945312, 0.35742188, 1.0517578, 0.18408203, 0.95751953, -1.5947266, 1.2207031, -2.625, 1.3691406, -0.09136963, -0.26367188, 1.2890625, 2.9257812, -1.8232422, -0.16918945, -1.2685547, -1.0419922, -1.2138672, 0.5493164, -0.70654297, -1.3525391, -0.122680664, 1.2119141, 0.19470215, -0.36987305, -0.7626953, 1.3271484, -1.5957031, 0.20751953, 0.7832031, 0.20300293, -1.7773438, 1.6308594, -1.015625, 0.23425293, 2, 0.9038086, 0.119628906, -0.6245117, -1.1748047, 1.4521484, 0.051635742, 0.4321289, -2.1113281, -2.3125, 0.42944336, 1.8359375, 0.74853516, -0.60302734, -2.1777344, 0.079589844, 1.15625, 0.16760254, 0.024856567, 1.0869141, 1.2509766, 0.042755127, -0.5209961, 0.40234375, 0.6191406, 0.15942383, 0.4321289, -0.5605469, 1.046875, -0.7524414, 0.82128906, 0.984375, 0.51123047, 0.2841797, 0.10272217, -1.4628906, 0.21740723, -0.30786133, 1.3847656, 0.4675293, 0.78466797, 0.9223633, -0.11303711, 0.07434082, -1.1972656, -3.6914062, -0.9658203, 1.1884766, 0.88134766, -0.08679199, 1.2060547, 1.2490234, -0.070129395, -2.0585938, -1.6220703, -0.14331055, -1.5400391, -0.19580078, -0.80810547, -2.1953125, 2.8007812, 1.2275391, 0.4658203, 0.33203125, -1.1279297, -0.13952637, 0.70751953, 0.91796875, 0.30395508, 3.6054688, 0.2130127, -0.79345703, 1.3867188, -1.5947266, 0.92626953, 0.014640808, -0.052001953, -1.7988281, 0.55078125, 0.08666992, -4.1601562, 0.8222656, 0.4008789, -1.3427734, -1.7919922, -0.18139648, -0.52001953, -0.36914062, 0.5805664, -0.6010742, 1.7958984, 0.26538086, 1.2431641, 2.5507812, 1.5498047, -2.7792969, -0.20910645, -1.71875, 0.6020508, -0.35351562, -0.30810547, 0.023773193, -0.72753906, -2.9746094, 0.26123047, -1.421875, 2.8007812, -2.3457031, 0.7915039, -0.7260742, -0.7680664, -1.0507812, -0.087768555, -0.5986328, -1.0166016, 0.49487305, 1.1484375, 1.0292969, 0.26245117, -0.7636719, -0.2286377, -0.06628418, 0.40844727, -1.8525391, 4.2929688, -0.5683594, 0.7114258, -2.2773438, 2.3984375, -1.6728516, -2.7304688, 1.84375, 0.74365234, -0.6118164, 0.65771484, -1.3125, -0.09277344, 0.421875, 3.2890625, -1.3066406, 0.022521973, -1.5400391, 0.7993164, -2.3496094, 0.19458008, -0.04788208, 1.2753906, -1.7617188, 0.23413086, -0.2692871, -2.953125, 2.5429688, -1.8613281, 2.6171875, 0.8642578, -1.7949219, 0.70703125, -1.5048828, 1.390625, 0.6430664, 0.11755371, 2.9648438, 0.38208008, 2.1054688, 0.22290039, -0.8461914, 0.4255371, 0.5546875, -0.8154297, 1.0322266, 0.8359375, -0.78515625, 0.72314453, -1.8984375, 0.87158203, -1.7470703, 2.8359375, 2.2753906, 0.05480957, -1.0302734, -1.3310547, -0.52734375, -4.6835938, -1.2714844, -1.6054688, 0.06719971, -2.875, -0.46069336, 0.62353516, -0.17053223, 1.2285156, 0.46899414, -1.9423828, 0.009422302, -2.0390625, 1.2421875, 2.5546875, 2.8261719, 3.34375, -0.42016602, 1.0703125, -0.546875, 1.2548828, 0.71777344, -1.0546875, 1.0302734, -0.14782715, -0.9760742, 0.48706055, -0.53808594, 3.0878906, -0.61572266, -2.3496094, -1.3408203, 1.5087891, -0.9199219, -0.37817383, -0.6269531, 1.0253906, -0.114990234, -0.9707031, -0.6796875, -1.2607422, -2.0761719, -0.3791504, 0.5908203, -1.1865234, 0.24084473, -1.9228516, -0.8066406, -0.50146484, 0.7998047, 2.7773438, -0.87353516, -0.79541016, -0.9194336, -1.2714844, -2.6503906, -0.38549805, 0.47875977, -0.63671875, -1.1484375, 0.9941406, -1.5234375, -1.3857422, -1.4560547, -0.18066406, 0.48242188, 2.4863281, 0.84033203, 0.42749023, -1.7001953, -0.24084473, 0.36914062, 0.68408203, 1.3730469, 1.2314453, 0.75, -0.8725586, 1.1904297, -2.3398438, -1.4833984, 1.1982422, 0.74853516, 2.40625, -0.18151855, -2.1445312, 0.65625, -2.3164062, -0.21960449, -1.0273438, 0.07299805, -0.8828125, 2.7480469, 1.1728516, 1.1738281, -0.20996094, -0.93408203, 1.6542969, 0.8442383, 0.5566406, 0.9614258, 2.6992188, -1.1210938, -0.8491211, 1.2490234, 0.44873047, -0.005126953, -0.06274414, -2.4140625, 0.11853027, -0.3317871, 0.8457031, -2.2207031, -1.1552734, -1.3222656, -0.062805176, 1.4130859, 0.19152832, -0.7006836, 1.3613281, 0.9873047, -0.4230957, -0.05404663, 0.54785156, -2.3046875, 1.8945312, 1.1972656, -0.6142578, -0.15405273, -1.1757812, -0.86621094, 1.1777344, -1.5078125, 1.6240234, 1.7626953, 1.9580078, 0.13916016, -0.77246094, 1.1201172, -0.27075195, -0.1348877, 0.13952637, 2.1582031, -1.1816406, -0.7885742, 0.5830078, -0.5986328, -0.3173828, -0.51464844, 1.2666016, 0.33569336, -1.2880859, -1.5517578, 1.0185547, -0.3010254, -1.8925781, -0.44384766, 1.8896484, 0.6582031, 0.68603516, 1.2460938, -1.4013672, -1.2880859, -2.0136719, -0.95458984, 2.1347656, 1.1855469, 0.13146973, 0.7705078, -0.4716797, 0.22277832, -2.5019531, 0.36669922, -1.6542969, 1.2382812, -2.4140625, 1.4423828, 2.7773438, 0.66748047, -0.9506836, -2.5585938, 1.9716797, 0.94091797, 0.625, -0.7910156, -1.2685547, 0.50341797, -0.101623535, 0.77197266, 0.6821289, 2.0214844, 0.8173828, 2.1289062, 0.115722656, 0.83203125, -2.4453125, 0.7133789, 0.8642578, 0.18273926, 1.7636719, -1.609375, -0.9584961, -1.5859375, -0.47265625, -0.48779297, 1.0996094, 0.83984375, 1.0869141, -0.4416504, 0.5341797, 0.65625, 0.30664062, -0.43408203, 0.70654297, -3.109375, -0.72314453, 0.21618652, -0.7236328, 0.27929688, -2.59375, 1.5498047, -1.7900391, 1.1220703, -0.9194336, -1.1669922, -1.1298828, 0.25585938, -1.5986328, 1.3525391, 1.4472656, -1.3085938, 1.2294922, 1.7001953, 0.09222412, 0.076416016, -1.8642578, 0.45483398, -0.72265625, 0.96240234, -0.22302246, -3.4121094, 0.8803711, 0.2536621, 0.6899414, 1.6142578, 0.87109375, -0.8564453, 0.5263672, 1.1445312, -0.003314972, 1.4042969, 0.16149902, -3.2480469, -0.9916992, 2.0664062, -1.3857422, 0.6015625, 2.1640625, 0.020248413, -0.22839355, 1.4140625, -0.9921875, 0.37597656, 0.41259766, 0.8339844, 1.4511719, -1.6894531, -2.4492188, -1.7578125, 0.03768921, 3.0566406, -1.1855469, 2.3027344, -0.8178711, 0.23608398, 2.7148438, 1.9951172, -0.54248047, -0.29589844, -0.56152344, 1.5458984, -0.24572754, 0.32202148, -1.0341797, -0.15075684, -0.32177734, -0.26000977, -2.2324219, -0.6850586, 1.0302734, -0.70458984, 0.05697632, -1.6523438, -2.0351562, -0.5986328, -0.9082031, 1.5478516, 0.10144043, -0.095458984, 0.32666016, 1.4765625, 0.01687622, 1.5048828, 0.890625, -0.6484375, -1.5742188, -2.3242188, -1.6191406, -0.57958984, -0.40478516, 0.42749023, 2.4433594, 1.6445312, -0.099609375, -0.30371094, -0.6430664, -0.921875, -1.5644531, -2.7265625, 1.9716797, -0.7685547, 1.4960938, -0.6699219, -0.5361328, -0.1149292, 2.9726562, 1.0566406, 1.34375, -0.5126953, -0.62060547, -0.3178711, -2.671875, -0.88964844, 0.7026367, 0.30859375, 2.2675781, 0.18432617, -1.3525391, 2.2636719, 0.45385742, 0.6279297, -0.24389648, -0.005207062, 0.054901123, -0.40795898, 3.2441406, 0.15026855, -0.62353516, -1.3554688, 0.3996582, 1.5117188, -0.6723633, 0.030944824, 0.2265625, -0.1850586, 0.64404297, -0.8486328, 0.015701294, 1.1669922, -2.3652344, 0.61083984, 0.25048828, -1.5009766, -0.59375, -2.7792969, 1.3945312, 1.2900391, -0.7963867, 1.7001953, 1.5478516, -0.8691406, 1.7822266, -1.5029297, -1.3427734, 0.94677734, 1.6513672, 1.6054688, 2.265625, -0.42236328, 1.5449219, 0.33398438, 0.9921875, -0.64501953, 0.34106445, 0.41430664, 0.1105957, -1.1464844, -0.75390625, 2.5449219, 0.6611328, -1.0048828, -0.91552734, 0.36279297, 1.6201172, -1.3027344, -2.5839844, 0.3515625, -0.7680664, -0.73095703, 1.8408203, -0.7036133, 1.6396484, 2.03125, -2.0898438, 0.7949219, -1.6796875, -0.6142578, 2.1308594, -1.9677734, 1.9785156, -0.6254883, 0.05960083, 0.375, 1.0732422, -1.3847656, -0.7558594, 0.49047852, -0.6738281, -0.60791016, 0.34301758, -1.1357422, -0.050964355, -2.2675781, -0.14367676, 0.81396484, -0.5566406, -0.124694824, 0.032684326, 3.1464844, 0.3618164, -1.7167969, -0.68652344, -0.6660156, 0.48339844, 1.4462891, 1.8603516, -0.5957031, -0.7758789, -0.14978027, -0.14233398, -0.8564453, -0.55126953, 2.5058594, -1.5908203, -1.2265625, 0.98583984, 0.5800781, -0.10803223, -0.9760742, -1.3066406, -0.13354492, -0.3696289, 1.609375, -0.96972656, -0.24450684, -2.4355469, 2.5800781, 0.32983398, 0.53125, -0.5307617, -0.79052734, 2.5800781, -0.46704102, -0.4885254, -2.3378906, 2.4941406, -0.8876953, 0.6923828, 0.26708984, 1.8349609, -0.52734375, 1.1972656, 0.06036377, 1.2646484, -0.44091797, -1.9638672, -0.6113281, -1.1318359, 1.4150391, 0.43920898, -1.1503906, -0.95654297, 0.10650635, -2.2167969, -2.3886719, 0.40161133, -0.015365601, 1.0488281, 1.7119141, 0.85009766, -0.27270508, 0.35668945, 0.7314453, 0.5161133, 0.09802246, -0.47143555, -2.171875, 0.4177246, 1.2919922, -0.17126465, -1.7021484, 0.13793945, -0.43774414, -0.81152344, -0.8588867, 0.025344849, -0.35986328, 1.5976562, 1.9179688, 1.6025391, -0.44018555, -0.5864258, -0.4008789, 1.0986328, -0.7036133, 0.4404297, -0.953125, -0.29492188, 0.41918945, -0.08239746, 2.6542969, -0.21154785, 0.06591797, 3.0976562, 4.0625, 0.34204102, 1.6162109, -1.1279297, -0.15454102, -1.109375, 1.5107422, -1.7910156, 1.3613281, -2.3828125, -1.0107422, -1.8642578, -0.30737305, 0.6274414, 0.3930664, 1.0166016, -1.5488281, 1.5400391, -0.5180664, 0.49560547, 1.9462891, -0.85058594, 1.4169922, 0.3984375, -0.16381836, -1.2568359, 0.42504883, -0.38232422, -0.45458984, 0.36035156, -3.3339844, 1.4101562, -1.1669922, -0.27612305, -0.45458984, 0.12512207, -0.84277344, 1.1943359, -0.9326172, 2.2285156, 0.38720703, 1.8203125, 1.4003906, 0.09942627, 1.6386719, 0.67285156, -1.1669922, 0.92871094, 3.0546875, 1.1279297, 0.20446777, -1.7919922, -0.9555664, 2.203125, -1.1162109, 0.8696289, -1.8554688, 0.17175293, 1.3496094, -0.9511719, -1.0830078, -2.2226562, -0.8154297, -0.1315918, -0.07659912, 1.0761719, 0.94189453, 1.3457031, 2.8457031, 0.32055664, 2.1757812, 0.026184082, -0.044067383, 0.018707275, 1.4472656, -0.6044922, -1.5751953, -0.5053711, 2.3398438, -0.29370117, -0.38330078, 1.4560547, 0.6333008, -0.6269531, -1.4375, 0.3461914, 0.58691406, -1.3125, -0.50341797, 0.6298828, 0.9555664, 4.5429688, 0.6254883, 1.0800781, -0.52734375, -1.2158203, 0.36816406, 1.1767578, 0.984375, 0.060821533, 0.4638672, 2.2089844, 0.04510498, 0.09777832, 2.5839844, 0.109802246, 2.5566406, -0.17504883, -0.24450684, -0.5126953, -1.0996094, -0.50927734, -0.22045898, -0.0032253265, 0.47924805, -0.4885254, -0.921875, 2.7324219, -0.42114258, 1.9931641, 1.9384766, -0.48876953, 0.8066406, -0.71972656, 0.6142578, -1.4277344, 0.44580078, 1.2109375, 0.34106445, 0.75683594, 2.7734375, -1.5029297, -0.84765625, 0.50146484, -1.5195312, -0.56152344, -1.0869141, 0.8051758, -1.0810547, 1.9169922, -0.6611328, -0.7626953, -0.6503906, -2.3183594, 0.12176514, -0.21484375, -0.4819336, -1.7822266, 0.121398926, 0.9277344, -0.7597656, 1.1591797, -0.15734863, 1.0302734, -0.8359375, -0.30151367, -2.5761719, 1.75, -1.7246094, -0.5942383, 2.4902344, -1.8251953, -1.3164062, -0.0067710876, -0.020690918, 0.6591797, 1.7958984, 0.4260254, 3.3359375, 1.1728516, -1.8740234, 0.36547852, -1.0771484, -0.2770996, -1.2441406, -0.19555664, 0.6279297, 0.70214844, 1.2587891, 0.7729492, -0.6455078, 0.3647461, 0.04663086, -1.390625, -0.81347656, 1.1904297, 4.0273438, -1.265625, 0.32128906, -0.7944336, 0.75390625, 1.1298828, -0.31298828, -0.3449707, 0.18249512, -0.03378296, 1.7490234, -2.0878906, -0.5986328, -0.5986328, 0.4091797, -1.3271484, -2.3222656, -2.4394531, -0.44604492, -3.9824219, -0.5263672, 1.0585938, -0.3112793, -1.8076172, -0.5107422, 0.6904297, -0.6323242, 2.2558594, -2.4628906, -0.61816406, -0.7949219, 0.9819336, 0.89404297, -2.2675781, -1.7998047, 2.5625, -1.3222656, -2.21875, 2.3105469, -1.109375, -3.3847656, -3.4765625, 0.64990234, -1.3154297, -0.6010742, -0.20397949, 1.0527344, 2.3496094, 1.4345703, -1.0605469, -0.20605469, 0.5888672, 0.96484375, -1.3125, 0.23815918, -1.0039062, -1.0917969, 2.3886719, -0.32885742, 2.2734375, -0.6225586, -1.1679688, 0.70947266, 1.3486328, 0.06921387, -0.9892578, 2.5078125, 1.9384766, -0.94433594, 1.6542969, 0.18884277, 1.2421875, -0.55859375, -1.9824219, 0.78271484, -2.0527344, 0.7841797, 0.9711914, 1.3476562, 0.085876465, 0.79541016, -0.34155273, 0.8588867, 1.9785156, -0.7104492, -0.59472656, -0.25830078, 0.65966797, 1.0234375, -0.36401367, -1.1289062, 0.921875, 2.1328125, 0.21166992, 0.72314453, -0.22338867, 0.21582031, 0.8671875, -2.625, 0.70654297, -2.1035156, -0.54248047, 1.0126953, -1.3242188, 0.79785156, -0.37573242, -2.171875, 0.42822266, -0.07220459, -2.0351562, 0.5698242, 0.8339844, 1.3720703, -2.2558594, 0.68066406, 0.6347656, 0.6796875, 0.7758789, -0.32250977, 1.4345703, 0.57128906, -2.1035156, -0.62939453, -2.2109375, -0.63427734, 3.2207031, 2.6132812, 0.24377441, 0.9194336, 0.097839355, 2.0234375, 0.9941406, 1.4375, 0.48388672, -0.9760742, -0.16821289, -1.3769531, -0.13256836, 0.22167969, -0.76464844, 0.28857422, 0.6171875, -0.8408203, 0.29125977, -0.54296875, 1.4882812, -0.9223633, 0.1817627, 0.578125, -0.86328125, -0.13952637, -0.14172363, -0.20422363, -0.42016602, 0.28100586, 0.5107422, 0.35180664, -1.2333984, -1.0664062, -1.3330078, -0.22705078, -0.20349121, 0.6660156, 0.120910645, 2.3613281, -0.63427734, 1.1757812, -2.2265625, -2.1777344, 0.78125, 0.23620605, 0.27124023, 0.9213867, 0.12792969, 0.8769531, -1.5205078, 0.35668945, 0.80908203, 0.103149414, -1.0039062, 1.7822266, -0.68652344, -1.4589844, 1.34375, -0.8510742, -0.45263672, -1.7382812, -2.1132812, 0.34838867, 0.2644043, -1.5576172, 1.1933594, -0.14172363, -0.39990234, -0.9536133, -0.44677734, -1.4628906, -0.27978516, -1.15625, 1.2939453, -4.0898438, -1.2324219, -0.24987793, -0.7338867, 0.44360352, -1.8427734, 0.90771484, -3.6132812, 0.21362305, 0.14868164, 0.4658203, 0.2692871, -0.056488037, -0.24987793, -0.5161133, 0.21838379, -0.87158203, 1.7216797, -1.6933594, -1.0400391, 1.3896484, 0.04269409, -0.19396973, -0.6298828, -0.4868164, -0.31591797, 0.63183594, -0.13049316, 0.23571777, -3.3671875, -0.8051758, 0.42626953, 1.3691406, 1.3183594, 1.1494141, -0.4814453, -1.0009766, -1.0556641, 1.28125, 0.031982422, 0.4580078, 0.0018777847, -0.9980469, -0.27026367, -0.6020508, -0.57128906, -1.1855469, -1.8193359, -0.7294922, -1.0664062, -0.19787598, 1.2041016, 0.4284668, 0.49829102, -0.27368164, 0.4609375, 1.40625, -0.87890625, 0.63134766, -2.8925781, -0.24438477, -1.2607422, 2.3613281, -0.65234375, 1.5126953, -1.4316406, 0.5854492, 0.8408203, -2.0507812, -1.1845703, -0.10760498, -0.98095703, 1.6542969, 0.9614258, 0.44189453, -3.4355469, 0.35766602, 0.7998047, -0.3173828, -1.2460938, -0.8808594, 2.3222656, -0.70751953, -0.50683594, -0.66259766, -1.9384766, 0.47143555, 0.6635742, -2.4921875, 1.4541016, 1.3720703, 1.4970703, -0.85253906, -1.8183594, -2.0117188, -0.80810547, -1.3515625, 1.2783203, 2.1875, 0.13305664, 1.0439453, 0.38085938, 0.2166748, -0.94189453, 1.0126953, -1.6640625, 0.109191895, 0.09423828, 0.98583984, 0.19091797, 0.7475586, 0.050048828, -1.7587891, -0.34643555, 0.6723633, 0.7392578, 2.9179688, 0.16296387, -1.2871094, 0.60498047, 0.3347168, -0.8286133, 2.2480469, 2.3203125, -2.0625, -0.5097656, 0.76171875, -2.7109375, -1.3808594, -0.57373047, -1.5136719, 0.6513672, -0.27490234, -0.7314453, -1.3515625, -0.81103516, -0.22692871, 0.87158203, 0.3828125, -0.4724121, -0.984375, -0.024414062, 0.25585938, -1.4296875, 0.39135742, -0.5991211, -0.32202148, -0.23156738, 1.9169922, 0.43774414, 0.02619934, -2.5683594, 1.5, -1.4560547, -0.5908203, -1.265625, -0.6582031, 0.77441406, 0.04876709, 0.61035156, -1.1083984, -0.3605957, 0.9838867, 0.42382812, 1.71875, 0.31591797, 1.890625, -0.67626953, -0.007965088, -1.5078125, -3.4433594, 0.01625061, -0.85009766, 1.1708984, -0.92578125, 1.59375, 1.3066406, 0.6582031, 0.35766602, -0.48339844, -0.3527832, 0.10229492, 2.1230469, -0.33496094, -0.5180664, -2.2226562, 0.61816406, 0.9433594, 0.66845703, -2.2714844, -0.26293945, -1.2207031, 0.36547852, 0.23706055, 0.4807129, 1.0498047, -0.07232666, -0.73828125, 0.45581055, 7.8632812, 1.7626953, -1.9863281, 0.046539307, -2.2871094, 1.2080078, -0.14465332, 1.7216797, -0.29370117, -0.40356445, 3.0722656, 0.67626953, 0.26660156, 0.49682617, -0.45410156, -0.5722656, 0.5620117, -1.1728516, -2.5625, -0.88671875, -0.2368164, -0.87353516, 0.52685547, 0.49414062, 1.3330078, -1.1142578, -0.70654297, -1.1816406, -0.328125, -0.12451172, 0.29418945, -2.3964844, 0.16296387, -0.080200195, -1.2558594, 1.2626953, 2.828125, 0.80126953, -0.17126465, 0.9160156, -0.79345703, 1.6953125, -1.8525391, 1.9072266, -2.2050781, 0.85058594, 1.0273438, -0.8930664, -1.4638672, 0.4560547, -1.0341797, -1.1308594, 0.36132812, 1.0957031, 0.6948242, -0.86035156, -0.71533203, -1.4140625, -1.7363281, 0.5180664, -0.36401367, -0.7607422, 0.21569824, 1.5527344, -0.78466797, -0.35107422, -0.8173828, -0.5185547, 2.0957031, 1.3164062, 3.2675781, 0.25512695, -1.7939453, -0.7841797, 2.4785156, 0.73291016, 0.10369873, 1.2753906, -3.3613281, 0.9277344, -0.3083496, 0.3935547, 0.77197266, -0.9423828, -0.42089844, 0.29736328, -0.58496094, -0.94873047, -1.3046875, 0.65966797, -0.5576172, 0.48291016, 1.5341797, -0.15063477, 0.22912598, -0.35107422, 0.19787598, -0.19006348, 1.7089844, -0.38110352, 1.2265625, 0.95751953, -1.2177734, -0.3527832, 1.2480469, 1.7158203, -0.74853516, 1.5419922, -0.97998047, 1.7548828, 0.79541016, 3.78125, 0.42138672, 1.1669922, 0.06719971, 0.16638184, -0.7763672, 1.4619141, -2.4785156, -0.13391113, 2.2910156, 0.22583008, -0.2902832, 0.43579102, -0.08117676, 2.5175781, 0.3544922, -2.1816406, 0.35473633, 2.4882812, -0.6123047, -0.73339844, -0.82373047, 0.68847656, 0.8833008, -0.82373047, -0.6459961, -1.0644531, -1.2314453, -1.8330078, -0.28149414, 0.7236328, -2.3183594, -1.2578125, -0.75341797, 2.6621094, 0.6401367, 0.32348633, 0.6904297, 0.25073242, -1.0419922, -0.5620117, -0.9213867, 1.0830078, -1.0283203, 0.9760742, -0.9658203, 3.453125, 2.0136719, -1.9111328, 0.3635254, 0.58740234, 1.0322266, -0.8339844, 1.5644531, 2.0214844, -1.9277344, -1.5458984, -1.5419922, -0.18103027, -0.71972656, 0.27978516, -1.7548828, -1.3808594, 1.9003906, -0.43066406, -0.921875, -0.6435547, -0.0065612793, 0.3708496, -0.6118164, -0.08892822, 2.2167969, -1.4882812, -1.4873047, 1.0751953, 1.296875, 0.97265625, -0.22839355, -1.015625, -1.4873047, -0.16564941, -0.46948242, -1.6259766, -0.10699463, -1.0068359, 0.8696289, -0.78515625, 1.0478516, -1.3925781, -1.3447266, -0.1239624, 0.39453125, 1.5664062, -2.0136719, 0.84033203, 1.0546875, -0.64404297, 0.6953125, 0.7519531, 1.5605469, -1.1337891, -0.21411133, -1.1445312, 1.1279297, 0.56396484, -1.0488281, 4.1328125, 0.44702148, 0.3449707, -0.23632812, 1.0908203, 1.2666016, 2.1464844, -0.20507812, 0.72265625, 0.8300781, 0.039245605, 1.296875, -0.734375, -0.9296875, -0.032104492, -1.7587891, 2.515625, 0.08782959, -0.7402344, -1.3320312, 0.04788208, 1.9179688, 0.26757812, -0.84472656, 1.7978516, -0.7504883, -0.85498047, 0.5, 2.2207031, 0.8774414, -0.4477539, -1.6201172, 0.13342285, 1.2324219, -0.7578125, 0.48706055, 1.5292969, -0.5878906, -1.0410156, -0.92626953, -1.9130859, -0.5678711, -0.3383789, 1.3398438, -3.8945312, -0.67041016, -0.7973633, 0.7319336, 2.7050781, 0.25341797, -0.9135742, -1.6015625, -0.7314453, -1.140625, 1.2363281, -0.08728027, 1.5771484, -0.9160156, 0.22351074, 1.9550781, -1.3847656, 1.2646484, 1.4130859, -3.7128906, -0.021942139, 0.9736328, 1.1552734, 0.32885742, 0.010307312, -2.6699219, 0.09320068, -1.6835938, -0.30004883, 1.6523438, -1.0605469, 1.2099609, 0.36376953, -1.0097656, 0.67041016, -0.37719727, -0.64990234, -2.0039062, -1.2763672, -1.4677734, 2.0390625, 2.984375, 1.7998047, 3.515625, 1.109375, -0.58154297, -0.5058594, 1.9785156, -1.4472656, 0.16503906, -1.6748047, 0.9165039, -0.53125, 1.3759766, -2.140625, -1.0380859, -1.5996094, -1.6484375, -1.9433594, 0.53808594, 0.7685547, -0.29541016, 2.2597656, -1.5898438, 0.15234375, 2.1035156, 0.5449219, 0.16052246, -0.43041992, -0.19506836, 0.80126953, -1.1123047, 1.1611328, 1.6113281, -0.31323242, -1.0888672, -0.6767578, 0.74560547, -0.7089844, -0.46606445, -0.796875, 0.87158203, -1.0292969, 0.1027832, 0.5205078, -1.8681641, 0.62060547, 0.93896484, 0.9863281, 0.6123047, 3.4277344, 1.5791016, -0.859375, -0.68652344, -0.85009766, 0.23876953, 1.0761719, -1.2792969, 3.1328125, -0.9946289, 3.3515625, 3.2851562, -0.052124023, -0.7832031, 0.8647461, -1.3427734, 0.24145508, -0.71972656, -0.62597656, -0.35009766, -1.2666016, -1.828125, 0.20654297, -0.94189453, -0.1772461, -2.59375, -1.5419922, -0.16894531, 0.17150879, -0.14648438, 2.7460938, -0.012161255, 3.9179688, -0.11425781, 0.38452148, 1.0869141, -0.6479492, 0.34765625, 0.24060059, -3.2636719, 0.23144531, -0.44189453, 0.7709961, 1.3105469, -2.1953125, 0.3466797, 3.0332031, 1.7060547, 0.7705078, 0.34594727, 0.6269531, -0.8540039, -0.81103516, -0.8754883, 0.8276367, -0.23925781, 1.2607422, 0.41381836, -2.6640625, -0.9008789, 0.7104492, 0.08380127, -0.084106445, 2.5878906, -2.2070312, 0.36987305, 3.1445312, 0.8359375, -2.4648438, 2.7851562, 0.49389648, 1.7578125, -0.390625, 1.21875, 2.3925781, -0.040618896, 0.0024280548, 1.2978516, -2.3007812, 2.4570312, -1.5410156, 0.3203125, -0.059265137, -0.046722412, -2.6035156, 1.0566406, 0.94189453, 2.1835938, 0.3178711, 0.93847656, 0.7602539, 0.7973633, 1.6308594, 0.036224365, 0.057891846, -0.105529785, -3.6796875, 0.083984375, 0.3881836, 1.1699219, -0.18432617, -2.2636719, 0.043762207, 0.52734375, -3, 0.80078125, 0.20178223, -0.55810547, 1.8808594, 0.74365234, 0.03427124, 0.4284668, 0.18798828, -0.15686035, -0.4362793, -0.21264648, 0.5996094, 0.045715332, 1.4453125, 2.8300781, 1.2324219, -0.65966797, -2.4863281, 0.9296875, -1.8964844, -1.4755859, -0.7397461, 4.546875, -1.1367188, -3.5507812, 2.3046875, -1.9667969, 1.0068359, 0.25756836, 1.3632812, -0.75683594, 1.0869141, 5.0664062, 0.6635742, -1.3632812, -0.5083008, 0.3100586, 0.6088867, -1.6220703, -0.91845703, 0.14916992, -1.4560547, 1.4707031, -1.2548828, 0.8251953, 0.82177734, 0.9892578, 1.5214844, 1.8857422, -0.6933594, 0.20141602, 0.60009766, 0.8569336, -0.05895996, -1.5986328, 0.4453125, 1.7011719, 0.45483398, 1.1318359, 0.33935547, -1.7978516, 1.9794922, -1.9296875, -0.48950195, -2.4121094, 1.7128906, -1.6474609, -0.33984375, -1.4511719, -1.015625, -0.87646484, 2.1933594, -0.28271484, -1.4658203, -0.4128418, 0.11218262, 0.05908203, 1.1074219, -1.4375, 0.8359375, 0.72314453, -0.33813477, 0.5864258, -0.044281006, 0.6538086, 0.5961914, -0.24316406, -0.29882812, -0.65185547, 3.0722656, 0.66748047, 0.27856445, 0.15759277, -0.03262329, -0.2800293, -0.5834961, 0.11273193, 1.1464844, -0.9736328, -0.12841797, -0.08013916, -0.9379883, 1.2587891, 0.14123535, -1.4130859, 0.48046875, 0.2232666, 0.054840088, -2.1621094, -1.5791016, -0.1977539, 0.3317871, -1.1845703, -0.08843994, 0.73339844, 1.1279297, -1.8144531, -1.4765625, -1.734375, 2.5839844, -0.31274414, 0.36083984, 1.2392578, 0.77490234, 1.46875, -2.8867188, 1.6347656, 1.4580078, 1.9179688, 0.5908203, 0.26464844, -0.93408203, 1.5214844, 0.7133789, -1.8515625, -0.86279297, -1.6054688, -2.7949219, 1.2734375, 0.63134766, -1.4472656, -0.7495117, -0.29736328, 0.5498047, -0.59277344, 1.3964844, -1.2490234, -0.5283203, -0.096069336, 1.2021484, 0.5097656, -1.9091797, -0.6845703, -0.1116333, 0.81396484, 2.6582031, -0.6166992, 1.1337891, 0.1706543, -2.125, 0.90185547, 0.38793945, -0.058898926, -0.66845703, -0.15600586, 0.06286621, 0.79345703, -1.3017578, 3.1289062, -1.8632812, -0.3359375, -0.48779297, -0.09039307, -0.90185547, -0.1784668, -0.6069336, -0.95458984, -0.011688232, -0.72558594, -0.56933594, -0.60009766, -1.8730469, 1.8720703, 0.23986816, 1.9521484, 0.12371826, 0.056762695, -1.5517578, -0.47729492, 0.04498291, -1.0458984, 0.82421875, 2.171875, 1.0048828, 1.2294922, -1.2890625, -0.84375, -1.1015625, -1.6484375, 0.48364258, -1.1113281, -0.5463867, 2.0019531, -0.93066406, -1.5, 0.97509766, -1.2265625, 0.87890625, -0.26464844, 0.087890625, 1.890625, -0.15612793, -0.77490234, -2.0800781, -2.4082031, -1.0136719, -0.6582031, 0.88378906, -0.25805664, 0.48388672, 0.1640625, -4.1367188, -0.37280273, 2.5175781, -1.3007812, 1.84375, -0.5498047, -1.59375, 1.2529297, -1.3652344, 0.82177734, -0.052642822, 0.7192383, 1.0371094, -0.62890625, -2.9609375, 0.8666992, -4.796875, -1.265625, 0.91845703, 6.1835938, 0.7832031, -0.3930664, -0.43115234, 1.6513672, 0.072387695, 0.65625, -2.34375, -0.9511719, -0.66015625, 0.69677734, -0.36914062, 1.0253906, -0.47338867, -0.03225708, -1.6601562, -3.1621094, -0.9511719, 3.0332031, -1.2929688, 0.77490234, 1.7490234, 0.29052734, 0.4326172, 0.5292969, -0.86083984, -0.87939453, 0.32104492, -0.45410156, 0.7788086, 0.31591797, -1.3496094, -0.9873047, -0.34960938, -1.171875, -0.51171875, -0.23071289, -0.14538574, -1.3847656, -1.0058594, 0.6040039, -1.984375, -0.58251953, 1.65625, 0.5449219, 0.81103516, -2.3671875, 0.62109375, -0.48339844, 0.20422363, 1.2802734, -0.05529785, -0.29125977, -0.04498291, -2.6054688, -2.3457031, -1.5722656, 0.15356445, 0.74853516, 1.2558594, 0.72558594, -0.6816406, -1.9072266, 0.29370117, -1.1777344, -0.88378906, 0.18066406, -0.39160156, -1.0585938, -0.25146484, -1.0205078, -1.3701172, 0.91748047, -2.8847656, -0.71533203, 1.3369141, -0.5019531, 0.6015625, 0.28710938, 0.25805664, -0.88378906, 1.2080078, 0.5703125, 0.61572266, 0.75878906, 2.2851562, 0.0927124, 1.4951172, 0.48754883, 0.375, 0.13183594, 1.9707031, -0.4477539, 0.11584473, 0.93310547, -2.1992188, -1.0869141, 1.1230469, 0.640625, -0.9223633, -1.3154297, -0.5415039, -1.0507812, -1.203125, 1.3271484, 0.1953125, 1.0341797, -0.7055664, 2.5039062, 1.7294922, -0.9326172, 0.14562988, -0.5283203, 0.50146484, 1.8847656, -0.5541992, 1.7568359, -1.4833984, -0.51708984, -3.453125, 0.4609375, 0.35986328, -1.265625, -0.93310547, -0.77734375, -0.99658203, 1.4140625, 1.9150391, -0.6279297, -0.59375, -2.2792969, 1.2001953, -1.3046875, -0.101745605, 0.3256836, 0.5629883, -1.9921875, -0.2770996, 1.9414062, 0.9604492, -2.4550781, -1.9824219, 1.2509766, 0.47265625, -1.3310547, -0.08630371, -0.421875, -0.53125, 0.3005371, -1.1025391, 0.9980469, -1.1386719, -1.9003906, -0.19555664, -0.3737793, 0.25976562, 0.6542969, 2.6777344, -0.06530762, 0.9194336, -1.2509766, -0.23352051, 0.35327148, -0.85009766, -1.4638672, -0.2932129, -1.1611328, 0.4736328, -0.24084473, -0.7915039, -0.81396484, -2.296875, -1.1074219, 1.0664062, -0.12719727, 0.41918945, -0.39208984, 1.5, -1.2744141, -1.3496094, -0.12817383, -2.0957031, -1.5722656, 4.6679688, 0.43432617, -0.16760254, 1.0136719, 1.390625, -0.98339844, -0.9536133, 1.1425781, -1.9726562, -1.6435547, -0.26245117, -0.9238281, 0.63134766, -1.0722656, -0.8461914, -3.2539062, 1.6953125, -0.4074707, -1.4511719, -0.33374023, -0.73291016, 0.5053711, -4.2695312, -0.5366211, -1.7578125, -0.30395508, -1.859375, 0.71972656, 0.94189453, 2.0214844, 1.0292969, 0.5307617, 1.1650391, -1.5986328, 0.39453125, -0.35058594, 0.9794922, -0.76464844, -0.30810547, 1.015625, 0.6870117, 1.4589844, -0.6074219, 1.4345703, 2.7441406, -0.018249512, 2.5507812, 1.1777344, 0.18969727, 1.8105469, 2.4648438, 0.44873047, -0.22741699, -2.546875, -0.043914795, 2.8222656, 1.9150391, -0.5673828, -0.22741699, 0.16247559, 1.3369141, -0.3203125, 0.92822266, -1.0576172, 0.5541992, 1.9453125, -0.013450623, 0.3383789, 1.2451172, -0.26879883, 1.2939453, 1.6835938, -0.71972656, 1.4208984, 0.40649414, 0.39038086, -0.6640625, 1.5957031, -4.1796875, 0.6738281, 0.9238281, 0.43359375, -2.3496094, -0.29052734, -1.5068359, -0.68847656, -0.6870117, 0.04046631, -3.0976562, -0.90625, -0.42895508, 1.5869141, 0.9863281, 0.86816406, -1.5742188, -0.19042969, -0.63720703, 0.2121582, 0.2088623, -2.6503906, -1.9335938, 0.25439453, 1.2958984, 0.82714844, -2.6972656, -1.15625, -0.85839844, -0.39453125, 0.41430664, -1.7792969, -0.16052246, -1.2041016, -0.30810547, -0.22241211, -0.2211914, 0.067993164, 1.4267578, -0.22338867, -1.8652344, -0.45043945, 0.7788086, -0.18664551, -0.2409668, -1.8681641, 0.51660156, 1.1132812, 0.06976318, 1.0595703, -0.4489746, 0.38623047, -0.22607422, 0.2163086, 0.13146973, -1.6484375, -0.20507812, 0.35473633, 3.359375, -1.2578125, 0.44067383, -0.7133789, 0.23815918, 1.1796875, 2.25, -0.28515625, 0.04852295, -1.4619141, -1.7978516, 1.1748047, 0.98779297, 0.33496094, -2.3574219, 0.026519775, 0.5058594, 2.953125, 1.1601562, -0.40795898, -0.5180664, 2.0429688, -0.23034668, 2.1875, -0.89941406, -2.6855469, -0.39746094, -0.92871094, 0.2783203, -0.067871094, 1.5400391, -0.51123047, -1.6240234, 2.9179688, 2.2050781, -0.46484375, 0.14074707, -1.0908203, 0.53222656, -1.6611328, -0.2861328, -1.9511719, -0.7290039, 1.2978516, 2.3964844, 0.19628906, 1.5898438, 1.7392578, 1.2333984, 0.026107788, -0.44677734, 0.58984375, 0.26342773, 0.4477539, -1.5996094, -0.22131348, 1.2587891, -0.38183594, -1.6796875, -1.1162109, 0.16308594, -0.54003906, -0.3671875, 0.8071289, 1.4589844, 2.0058594, 0.56933594, -0.88378906, 2.0273438, -2.0800781, -0.8251953, -1.3632812, -1.6611328, -1.421875, -0.08532715, -0.19580078, -0.07220459, 0.10064697, 1.1328125, -1.2060547, 0.2536621, 2.4492188, -0.5620117, 1.8291016, -0.14282227, 0.8203125, 0.55126953, 1.7304688, 0.4326172, 2.3691406, 2.7773438, -0.70751953, 0.9526367, 1.0683594, 0.27539062, -1.0351562, -0.18408203, -0.47851562, 1.265625, 2.5625, 0.109802246, 1.5361328, 0.32202148, -3.8046875, 0.57128906, 0.26171875, -0.15795898, 1.0234375, -0.6621094, -0.6455078, -1.4394531, -0.81103516, 0.105285645, -1.9707031, 0.34814453, 0.89160156, 0.71240234, 0.6489258, 0.15161133, 0.6328125, 0.4423828, 0.17004395, -0.8642578, 0.98291016, -2.8613281, 1.2255859, -0.34594727, 2.4882812, -0.99609375, 0.3088379, 0.5703125, 0.33813477, 0.17932129, -0.7192383, -0.80908203, 1.4970703, -0.57177734, -1.6103516, -1.7158203, 2.6152344, 0.49804688, 1.3447266, -1.6972656, 0.5444336, 1.0429688, 0.44482422, 0.5522461, -0.016052246, -1.8730469, -1.0107422, 1.1132812, 0.7109375, 0.011627197, -1.2353516, -3.0214844, 1.8291016, 0.11260986, 0.20031738, -0.68652344, 1.8183594, 0.16101074, 1.1015625, 1.09375, 0.2097168, -0.45898438, 1.9677734, 0.9814453, 3.4726562, -1.9794922, -1.578125, 2.984375, -2.0625, 0.7006836, -1.2646484, 0.18408203, 2.2226562, -0.7607422, -0.86279297, 0.049957275, 1.0556641, 0.9350586, -1.5683594, -0.6044922, -1.3603516, -0.3269043, 1.5400391, 0.6064453, 0.33203125, -0.17993164, 1.0166016, -2.0625, 0.7841797, 1.5546875, 1.2070312, 0.18920898, 0.3359375, 1.6337891, -2.4609375, -0.34545898, -0.3227539, -0.29345703, -2.1699219, -2.0273438, -1.5566406, -0.4423828, -0.40356445, 1.578125, -1.6396484, 0.8066406, -0.2076416, -1.390625, 0.9472656, 0.7861328, -0.17590332, -0.6303711, 0.6064453, 1.140625, -0.15490723, 0.7685547, 0.7861328, -1.1318359, -1.1484375, 0.5263672, 0.35961914, -0.19726562, -1.3798828, -1.2851562, -1.3574219, -0.8222656, -0.22497559, -2.125, 0.66748047, 1.0527344, -0.124694824, 0.2442627, -0.19689941, -1.5683594, -0.73535156, -2.7519531, -0.83447266, -1.1865234, 0.67871094, -0.2722168, -0.67285156, 2.484375, -0.5263672, -0.36889648, 0.41308594, -1.2763672, 0.5415039, -0.00157547, -2.8300781, 1.2460938, -3.140625, 0.328125, -1.0009766, -0.16711426, -0.54052734, -0.20751953, -0.65478516, 0.022094727, 0.45263672, 0.45117188, 1.9482422, 1.3486328, -0.33740234, -0.9316406, -0.9511719, 0.23913574, 0.61621094, -0.3310547, -0.2770996, -0.65625, -0.1854248, -1.5478516, -3.1445312, -0.8930664, 2.8671875, 1.2060547, 2.0585938, 1.4619141, -1.7246094, -0.56591797, -1.5849609, -1.2197266, -2.8085938, -1.8837891, 0.44750977, -0.58447266, -2.375, -0.80810547, -0.62939453, -0.4099121, 2.2480469, 0.4008789, 0.13024902, -0.48364258, -1.1650391, 0.56689453, -0.7128906, 0.58251953, 0.81933594, 0.021987915, 4.421875, 2.4726562, 0.12164307, 0.13574219, 0.31591797, -0.5541992, -0.83984375, -0.21105957, -0.32739258, -1.1689453, -0.55126953, -0.65234375, -0.9711914, 0.7397461, -1.8183594, 3.3417969, 0.17370605, 0.7050781, -0.22375488, 0.47436523, 0.3491211, -0.67626953, 0.6088867, 0.18200684, -1.3027344, 1.4482422, 0.3322754, -1.0224609, 0.48486328, 2.6171875, -0.40600586, 0.5131836, -0.12249756, 0.43823242, -0.49194336, 0.6748047, 1.1826172, -0.20495605, -2.0253906, -0.9589844, 0.54248047, 0.9160156, -1.1367188, -1.4560547, 0.8364258, -0.03488159, 1.3105469, 1.6806641, 0.23840332, -0.6821289, 0.9399414, -0.9770508, -0.48754883, -0.8652344, -1.3613281, -0.96728516, 0.8154297, -2.9355469, -2.1699219, -0.07287598, 0.097351074, 0.5463867, 0.004005432, 0.62060547, -0.06463623, 0.6098633, -0.31152344, -0.5620117, 1.75, 0.064575195, 1.4072266, -0.61621094, 0.085876465, -0.18359375, -0.14257812, -1.4755859, 0.9038086, -0.50390625, -0.2932129, 0.16784668, -0.5854492, -0.9980469, -1.3496094, -1.5009766, -0.3564453, 1.109375, 0.046081543, -5.390625, 0.91259766, 0.5576172, 1.8115234, -1.8359375, -0.95458984, -2.7207031, -1.5</t>
-  </si>
-  <si>
-    <t>[-0.53125, 0.5, 0.120910645, -0.29492188, -0.9921875, -2.0507812, -0.6791992, 1.0830078, 0.28442383, -0.37768555, -1.3291016, -0.30273438, 0.3095703, -1.0488281, 1.0996094, -0.31835938, -0.50390625, 1.2998047, -0.6977539, 0.57177734, -1.2285156, 1.2519531, -0.33374023, -0.81591797, -0.3046875, 0.62939453, 0.10211182, -1.6826172, 1.4716797, -0.63916016, -0.026565552, 1.3623047, 0.1361084, 2.2246094, 1.2861328, -1.1601562, -1.2763672, 0.53222656, -1.0058594, 0.05706787, 0.22094727, -0.34301758, -1.5175781, 2.0488281, 0.31762695, -0.2322998, -3.0078125, -1.6318359, 1.1552734, -0.05279541, 2.0664062, 1.7910156, -0.70214844, 1.3613281, -1.1748047, 0.5620117, -0.64404297, 1.6982422, 0.2578125, 0.07873535, -0.9458008, 2.2539062, -0.78125, -0.8457031, -0.83984375, 1.1542969, -1.9912109, 0.37402344, 0.2854004, -1.1953125, 0.2442627, 0.85546875, -0.9824219, 0.085510254, 4.4414062, 1.1279297, -0.58935547, -0.6171875, -1.6386719, 1.2539062, 1.2558594, 0.34301758, -2.3535156, 1.4833984, 0.14086914, 1.0234375, -0.8847656, -2.2910156, 0.34301758, 2.1953125, 0.5546875, 0.8544922, 0.34228516, 0.32592773, 0.11755371, 0.29907227, -0.39794922, 1.6025391, 1.9189453, -0.42114258, 0.11126709, -0.113586426, 2.1074219, -1.1865234, 0.19360352, 0.111816406, -0.022766113, -2.7480469, -1.5429688, -1.1054688, -2.9570312, -2.1875, 1.7412109, -0.16931152, 1.1376953, 2.0761719, 1.6171875, -2.0019531, 0.12817383, -1.7089844, -1.4609375, 0.98095703, 1.7695312, 0.004142761, 0.18835449, -0.47387695, 0.43603516, -0.6665039, 0.5283203, 0.96972656, -1.4638672, 0.4013672, 1.1923828, -1.8349609, 3.5605469, -1.4736328, -1.3505859, 1.25, -0.59814453, -1.4306641, 1.7246094, 0.54296875, -0.70458984, 1.6083984, 1.0898438, -1.5644531, 0.8857422, -0.46435547, -0.7104492, -0.6640625, -1.0869141, 0.8666992, 0.8613281, 0.22631836, -3.5742188, 1.2246094, -0.61621094, -0.5205078, 0.22680664, 0.34057617, 0.26538086, 0.05795288, 1.0166016, -2.265625, 3.2128906, -0.0028133392, 1.0947266, 1.6269531, -1.2333984, -1.8125, 0.34057617, -0.77490234, -0.90185547, 0.65478516, -0.578125, 0.3010254, 0.9897461, -2.4746094, -0.8540039, 0.9848633, 1.953125, -1.6425781, 1.2851562, -0.025878906, -1.3359375, -1.5322266, -0.19750977, 0.38793945, -0.51171875, 0.59472656, -0.06933594, -1.4130859, 0.18359375, -0.3642578, -0.6220703, -0.12487793, -0.9501953, -2.5234375, 6.875, -1.7568359, -0.42041016, -0.3852539, -1.4628906, 1.6923828, -1.5263672, 1.578125, -0.013137817, -1.3388672, -0.84765625, -0.3137207, 0.8027344, -0.26831055, 1.2392578, 1.1533203, 1.2226562, -2.7167969, 1.0302734, -1.7402344, -0.17443848, 0.4189453, -0.7573242, -2.1953125, 0.46728516, 1.3554688, -0.84033203, 1.2763672, -2.0976562, -0.07318115, 0.19152832, 0.14685059, 1.2402344, -0.67529297, -0.18225098, -0.609375, 1.2460938, 2.84375, -1.0478516, 1.9267578, 1.0195312, -2.5234375, 1.8066406, 0.5913086, -0.83203125, 0.13427734, 0.67871094, 2.3007812, -1.0126953, -2.6914062, -0.6640625, 0.6044922, 1.9580078, -1.2373047, -0.8466797, -0.64990234, 0.21362305, 1.1298828, -1.7119141, 0.4416504, -0.22827148, 2.5917969, -1.5146484, -1.2783203, -0.125, 0.17810059, 1.140625, 0.21679688, -1.3554688, -0.8261719, 1.1650391, 2.6523438, 3.8476562, 0.15710449, 3.2441406, -0.9008789, -1.5908203, -0.7363281, -1.1669922, -0.42871094, -1.4414062, -0.66503906, 0.27514648, -0.6254883, -1.0185547, 1.0488281, 1.7558594, -1.3027344, -1.8066406, -0.87060547, 2.5039062, -0.6772461, -0.095703125, -2.1875, 1.2431641, -0.6669922, -1.0146484, -0.3737793, -2.0058594, -1.8212891, 2.3847656, -1.0693359, -0.9501953, -0.3828125, -1.0947266, 0.18493652, -2.0234375, 0.114990234, 2.0019531, 0.24951172, 2.453125, 0.107666016, -0.9448242, 0.8383789, 1.1328125, -0.33398438, 0.9169922, -0.16003418, -0.47998047, -0.8696289, 0.039398193, -1.8808594, -2.0019531, -3.0664062, 1.1689453, 0.9897461, 0.6176758, -0.16271973, 1.2880859, 2.9492188, 0.041290283, -0.16894531, -0.54296875, 0.9824219, -1.7441406, 3.2460938, -0.22546387, -0.047576904, -0.79541016, 1.5947266, -0.042663574, -1.0712891, -2.1953125, 1.7763672, -0.53125, -0.9995117, -0.9248047, 0.31420898, -1.9804688, 0.3046875, -1.3408203, 1.1962891, -2.8964844, -0.54785156, -0.45092773, 0.24682617, -0.41674805, 0.29125977, 1.8945312, 1.2607422, 1.0810547, 1.0898438, 2.1582031, 1.3935547, -2.4082031, -1.2392578, 0.5410156, 1.328125, -0.8642578, -0.47607422, -1.0068359, -1.1845703, -1.0136719, 0.8305664, -1.9296875, 0.6479492, 0.3034668, 0.38720703, -3.4746094, 0.66552734, 2.7265625, -1.8837891, 1.9199219, -0.20361328, -0.49731445, -0.59521484, 1.4794922, 0.16516113, -0.70947266, 1.1748047, 1.1269531, 2.9179688, -0.49023438, -1.1533203, -0.3239746, 0.29492188, -0.054473877, -2.1367188, 1.3027344, 1.7480469, 0.7973633, 0.7680664, -0.625, 0.33520508, -0.76416016, -0.2878418, -0.9633789, 1.5322266, -0.79345703, 0.04373169, 1.3359375, -0.042755127, 0.60058594, -0.56689453, 1.5517578, -0.68896484, 1.9941406, 1.6738281, -0.4572754, -0.11480713, -1.4912109, -0.5698242, 0.54345703, -1.4912109, -0.45581055, 1.65625, -0.67578125, 1.2480469, -0.9291992, -0.5439453, 0.06750488, 0.9199219, 0.13916016, 1.7373047, 0.14416504, 0.82666016, -1.8330078, -0.28271484, 3.6210938, -1.6337891, 1.3447266, -1.2666016, -1.7402344, -0.024627686, -0.22167969, -0.24316406, 3.5722656, 1.4619141, -0.94433594, 0.6274414, -1.4609375, 1.5917969, -3.0957031, 1.4619141, 0.9902344, -1.3935547, 0.35473633, -2.3222656, 0.6279297, -1.7998047, 0.2130127, 0.29418945, -0.9663086, 1.5419922, -0.6035156, 1.8027344, -0.049316406, 1.6376953, 0.21936035, -0.6772461, -0.7524414, -0.7470703, -1.4267578, 0.5751953, -1.7695312, -0.7324219, 0.42529297, -0.11645508, -2.8476562, -2.0351562, 0.34277344, 3.9042969, -1.5849609, 0.6567383, 1.1162109, 1.2832031, 1.1201172, -1.2285156, 2.6738281, 0.3786621, 0.14953613, -0.5473633, -1.5810547, 0.32714844, -0.22314453, 0.38208008, -3.1035156, -1.5068359, 0.19641113, -0.74902344, 0.32055664, -0.42504883, 1.7431641, -0.8051758, 0.24816895, 0.35083008, -0.9145508, -0.10168457, -1.1445312, -0.90771484, -0.46020508, 1.0253906, -1.4638672, 1.9667969, -0.26586914, 0.85839844, -0.53222656, 0.44262695, 0.3095703, 0.95947266, 1.4609375, -2.2558594, -0.39672852, -1.15625, 0.061309814, -2.8183594, 0.9838867, 1.46875, -1.5888672, 2.2089844, -0.57421875, 1.4638672, 1.4980469, 1.6875, 0.09313965, -0.39916992, -0.18798828, 0.75878906, 2.03125, -2.2089844, -2.0605469, -2.3027344, 2.4589844, -1.21875, -3.0019531, 1.4003906, 1.3417969, -2.5117188, 2.640625, -2.2636719, 0.29614258, 0.46166992, 1.2167969, 0.9790039, 0.3684082, -0.3786621, -0.099731445, -0.3720703, 0.19140625, 0.5058594, 0.6669922, -0.7475586, -0.3737793, -1.5703125, 0.16235352, -0.00472641, 0.34399414, 1.3193359, 1.9804688, 1.7666016, -0.93603516, -2.0566406, -0.92578125, -1.7226562, -0.6152344, -1.3457031, 1.1337891, -0.46728516, 0.050201416, 2.6367188, -2.2050781, -1.2832031, 3.1875, -0.21472168, 0.41235352, -0.3071289, 1.2197266, -0.18359375, -0.83154297, -0.3310547, -0.122558594, 0.53759766, 1.5458984, 2.0878906, -0.61621094, -0.24865723, -0.03326416, 2.6933594, 0.2692871, -0.014518738, 0.7871094, 0.025924683, 0.50341797, 1.7333984, -0.9584961, 1.3574219, 0.80615234, -0.2109375, -1.1005859, 0.30932617, -0.4375, 1.5429688, -1.0771484, 1.0126953, 0.26367188, -0.36328125, -1.3681641, 2.2070312, -2.6875, -1.1757812, -0.9707031, -1.6337891, -1.3476562, 0.009338379, -1.1435547, 1.4628906, 1.6660156, 0.12426758, 3.375, -1.8847656, -1.0546875, 0.2685547, -0.4428711, 0.5205078, 0.30371094, 0.5722656, 1.5957031, 3.6601562, -0.75634766, 1.2568359, -0.17749023, 0.33740234, -0.7651367, 1.1259766, -1.34375, -1.21875, 2.7832031, -0.12310791, 0.57910156, -0.24108887, 2.328125, -0.0026168823, -1.3212891, 0.3684082, 2.1953125, 0.78759766, -0.20410156, -0.19165039, 2.4296875, 1.3837891, -0.6591797, -1.4394531, -2.6835938, 0.8041992, -0.27172852, -2.7910156, 1.125, 0.027023315, 1.4199219, -2.6269531, 0.52441406, -1.9736328, -0.33276367, -1.4765625, -0.02053833, -0.23474121, 0.21899414, -0.016586304, 1.5019531, -1.2890625, 0.67578125, 2.1289062, 0.2944336, -0.3947754, -0.03475952, 0.8847656, -1.0732422, -1.703125, 0.5136719, 0.28344727, -0.37817383, 3.6894531, 2.4238281, -0.52441406, 1.125, 0.20007324, -1.2128906, -0.29785156, 0.8828125, 0.3071289, -2.3691406, -2.7089844, 1.3818359, 0.6489258, 1.046875, -2.9707031, -1.1494141, 0.3322754, -1.0546875, 0.92529297, 0.48583984, -1.1845703, 1.3662109, 1.8173828, 1.1425781, 1.9462891, 0.14245605, -2.3203125, 2.0625, 0.08319092, -1.6416016, -1.078125, 0.11730957, -0.14123535, -1.0683594, 0.39257812, 2.078125, 2.421875, 0.87402344, -0.5019531, 1.0595703, -2.2441406, -1.9101562, 1.234375, -1.1416016, -0.55566406, 0.94384766, -3.2832031, 0.6328125, 0.78125, -1.3623047, -0.90625, 1.8818359, 1.3232422, 0.79541016, -0.6513672, 2.5390625, 0.41357422, 2.3457031, 0.25830078, 0.64941406, -1.6210938, -0.4543457, 1.7060547, 0.24377441, 0.45654297, -1.2265625, -0.9355469, 0.4267578, 0.7290039, -1.828125, -1.9414062, -0.90478516, -1.1552734, 2.0214844, 0.15966797, 0.7705078, 0.015083313, 0.7026367, 0.31225586, -0.3894043, -1.0527344, -3.7109375, -2.4648438, -0.7553711, 0.22912598, 1.4746094, 1.1748047, 0.26220703, -2, -0.87939453, 2.1308594, 0.25463867, 3.0019531, -1.2246094, 0.51708984, -1.4638672, -0.54296875, 1.3876953, -1.0996094, -1.7548828, -0.4609375, -0.82714844, -1.5039062, 0.59716797, -0.08581543, -2.2460938, -0.2602539, 2.1210938, 0.08215332, -0.78271484, 1.1171875, -0.5361328, 1.9628906, -1.9541016, 1.5146484, -0.6694336, -0.90527344, 1.1025391, -1.2177734, -1.2021484, -3.03125, 0.32348633, 0.21789551, 0.79248047, 0.6816406, -0.20129395, -1.0488281, -0.37182617, 0.14807129, 0.07836914, 0.42114258, 0.71972656, 0.16357422, 0.62402344, 0.097351074, -0.49414062, -1.8466797, -0.20080566, 0.7817383, 1.7226562, 0.58203125, 0.16027832, -0.6088867, 0.86328125, -0.19763184, 1.3974609, 0.4609375, 0.59521484, 1.9902344, -1.3691406, 1.4404297, -0.7529297, -1.0830078, 0.72558594, 1.6904297, 0.051574707, -1.2617188, -0.56884766, 0.7573242, 0.58935547, -0.023849487, 0.49438477, 1.3623047, 0.9370117, 0.7026367, -1.1162109, -1.2441406, -1.1445312, 1.2607422, -0.7207031, 0.090148926, -1.4003906, 1.4697266, 0.3708496, 0.07885742, 1.3408203, 0.55371094, -1.1953125, -0.39892578, 0.10839844, 0.8491211, 0.6279297, 1.8623047, 0.5341797, 1.1445312, 0.515625, 0.9165039, 0.4958496, 0.83984375, -0.79541016, -0.92871094, -0.34521484, -1.0009766, 1.9726562, 1.0195312, 0.21801758, 0.25976562, -1.4589844, -2.3457031, 2.4394531, -0.7285156, -0.11633301, -0.8833008, 1.5234375, -0.32202148, 1.7861328, -1.6386719, 1.7080078, -1.4248047, 0.64453125, 0.0069122314, -0.4423828, 1.3583984, -1.1611328, 0.19616699, 0.46557617, -0.7988281, -2.6699219, 1.328125, 2.0410156, -0.8027344, -2.1679688, -0.7319336, -0.5175781, -0.77734375, -0.5708008, -0.5253906, 1.0019531, -0.76171875, 0.8833008, -0.35229492, -0.83691406, 0.66064453, -1.6640625, 1.8652344, 0.5541992, 0.4987793, -0.82373047, 1.0751953, 0.12915039, -0.91064453, 0.30151367, 0.21984863, 2.9082031, 0.50390625, -1.6103516, -0.22497559, -0.61328125, -0.32421875, -0.46972656, 0.47460938, 0.6777344, -1.1464844, 0.037017822, 1.1494141, -1.4746094, 2.1972656, 1.5810547, -0.17944336, -2.4785156, 0.21728516, -0.7348633, -1.59375, -0.3786621, -1.6328125, 0.7685547, 0.46972656, -0.12548828, 2.9433594, 0.29492188, -1.1103516, -0.2927246, 0.13647461, -1.4326172, 1.3193359, -1.796875, 3.7578125, -0.9609375, -0.72265625, -2.7910156, 1.3847656, -0.18603516, -0.69970703, 0.35009766, 0.12719727, -0.69433594, 0.8144531, -0.41967773, -0.05041504, -0.31567383, 0.13635254, -2.4882812, -1.5576172, -1.8466797, -1.0537109, 0.7026367, -0.27685547, -1.6337891, -2.5175781, -1.171875, -0.15637207, -1.6494141, -1.1191406, 2.9785156, -1.3261719, -0.0019817352, -0.091552734, -0.54052734, 0.67822266, -2.3242188, -2.7695312, -0.13769531, -0.8144531, -2.1152344, 1.4023438, -0.26611328, -2.7460938, 0.11834717, -0.18762207, -0.5463867, -2.2734375, -0.8144531, 0.43164062, 1.90625, 0.6616211, -0.4345703, 1.140625, -1.5263672, -1.3759766, -1.1474609, -2.7578125, 1.3867188, 0.4165039, 0.016693115, 0.33740234, -1.0917969, -1.3925781, 0.59228516, -0.9892578, 1.5761719, 0.49072266, -2.375, 1.4501953, 2.3183594, -0.70410156, 2.6933594, 0.43579102, 2.7265625, -0.95751953, 0.15466309, 0.121276855, -2.6210938, 0.8276367, 0.625, 2.0605469, 0.5058594, 0.8652344, 2.2773438, -1.7197266, -0.4416504, -0.44384766, -1.5654297, 0.7631836, 0.4206543, 0.6894531, 0.76123047, -2.2832031, -0.7578125, 0.44018555, -1.5791016, -0.31689453, -0.43164062, -0.22338867, 0.6123047, -3.9824219, 1.0107422, -1.8847656, 0.71435547, -0.19042969, -1.1269531, -0.640625, 0.16027832, -0.7470703, 0.20019531, 0.3959961, -3.1484375, -0.4506836, 0.82421875, 2.171875, -0.030136108, 1.296875, 1.1035156, -1.5898438, -0.19665527, 2.125, 3.0429688, -1.7119141, 0.3815918, -0.70654297, -0.15466309, -1.9423828, 1.8710938, 0.7558594, 0.47387695, 0.07458496, 1.4267578, 1.8251953, 1.9775391, 1.0029297, -0.61328125, -0.42260742, -2.3457031, -2.0351562, 2.2949219, 1.2666016, 2.0800781, 0.04727173, 2.6308594, 0.3803711, 0.73339844, -0.62060547, 1.5097656, -0.44018555, 1.4238281, 0.96972656, 0.27563477, 1.0068359, -1.1806641, -0.5786133, 1.1621094, 1.7128906, 1.8662109, 2.34375, -0.68603516, -0.92871094, -2.671875, -1.8046875, 0.37597656, -0.6870117, 0.75878906, 0.9707031, 1.0654297, -0.5756836, -1.3984375, -0.87402344, 1.3300781, 0.9838867, 2.6699219, 0.025497437, 0.34692383, 0.85839844, 0.6040039, 0.6176758, -0.25878906, 1.7666016, -1.5839844, 1.2988281, 0.24951172, -1.1992188, -0.33325195, -0.16308594, -0.13305664, -1.3232422, -3.3652344, -1.1337891, 2.7636719, -2.0820312, 0.82421875, -0.6279297, -0.67871094, -1.0410156, -1.96875, -0.86621094, -0.78125, -0.62597656, 0.81640625, -0.16271973, -1.5351562, 0.4326172, -0.6894531, -0.46704102, -1.4638672, -0.82470703, -2.5761719, 0.095214844, 1.3837891, 0.4831543, 0.13452148, 0.43701172, -2.4179688, 0.7158203, 1.5224609, 2.3632812, 0.19433594, -0.35083008, -1.6289062, 2.6171875, 0.45483398, -3.3828125, -1.7431641, 0.0546875, 0.10211182, -1.1972656, 1.2783203, -0.8510742, -2.2089844, -1.1298828, -1.1230469, 0.3388672, 1.7070312, 0.83691406, -1.6123047, -1.2480469, -0.5727539, 4.8867188, -1.5488281, -0.4440918, 0.18896484, -1.1835938, -0.0597229, -0.3239746, -0.18347168, 1.9150391, -0.36206055, -0.6386719, 2.4140625, -1.6064453, 0.23327637, 0.075927734, -2.0800781, -0.60498047, 0.8671875, 0.6069336, -0.05114746, -0.45361328, -1.1591797, -0.71191406, -0.60009766, 0.84277344, -2.1992188, -0.29833984, -2.5605469, -0.65966797, -2.4785156, -1.8310547, 0.6376953, -1.1445312, -2.6074219, -0.4638672, -0.15698242, 1.3261719, -1.9042969, -0.6958008, -1.4375, -0.22802734, -0.7783203, 1.1572266, 2.765625, 1.4189453, 0.31811523, -1.4257812, -0.6972656, 1.8808594, -0.578125, -1.0087891, -0.3190918, 1.6669922, -0.45458984, -0.12487793, -1.3837891, -1.8779297, -1.6484375, 1.0390625, 0.8774414, 1.2998047, 0.4243164, 1.2392578, 0.74365234, 0.2890625, 0.036224365, 0.4453125, 0.074523926, 0.88671875, 1.3183594, 1.4775391, 1.7441406, 2.328125, 0.7573242, -0.059631348, 0.49853516, -0.15039062, -0.35717773, 1.28125, 0.14453125, -0.5410156, -0.3515625, 0.16369629, -0.2421875, 2.0839844, 0.3972168, -3.2128906, -0.7319336, -0.52441406, -0.19067383, -0.79345703, -0.12646484, -1.1425781, 0.12963867, -2.1113281, 0.12646484, -1.3740234, 1.7714844, -1.7431641, 1.8759766, 0.9404297, -0.4362793, 0.17419434, -1.8955078, 0.68603516, -0.9550781, 0.5913086, -1.46875, -0.08947754, -0.14807129, 2.0859375, 1.4111328, -0.5288086, -0.0178833, 0.11340332, 0.33251953, 0.45751953, -1.4785156, 0.13342285, -0.22253418, 1.9882812, -0.08105469, -1.9697266, -0.8881836, 0.60839844, 0.9760742, 2.1054688, -0.0037574768, 2.5019531, -1.4101562, -0.8691406, -1.8876953, 0.085876465, 1.0996094, 1.3203125, -0.110961914, 0.1628418, 3.1582031, 1.2304688, 0.028076172, -0.9819336, -0.2368164, 0.20935059, 2.2207031, 0.2442627, 0.51171875, 0.62402344, -0.91748047, 1.4287109, 0.3173828, 1.5332031, -2.21875, 0.078186035, -0.73095703, 0.8876953, -0.24816895, 1.0351562, 0.84228516, 1.1240234, 0.07946777, 0.65625, 5.578125, 1.0234375, -1.2929688, 0.32763672, -0.095825195, -1.3710938, -0.93310547, -0.05142212, -0.50634766, 0.057006836, 0.35058594, -0.71533203, 0.25561523, -0.5126953, -1.0302734, -1.2226562, 0.43774414, 1.9931641, -0.66748047, -0.8198242, 0.80615234, 1.3193359, -0.25219727, -2.8925781, -1.578125, 0.35668945, -1.6416016, 0.32495117, -1.6494141, -0.35229492, -0.1517334, 0.52197266, -0.7583008, 0.890625, 2.0546875, 0.90771484, 0.9033203, 0.8095703, 0.8383789, -0.4411621, 0.7553711, 2.171875, -2.0117188, 2.4394531, -1.7119141, 2.7011719, 0.18493652, 0.94970703, -1.8212891, 2.1914062, -1.1376953, -0.89990234, 0.2614746, 2.3300781, 1.1669922, -0.67333984, -0.55322266, 0.4255371, -0.8569336, 0.88378906, 0.90527344, 0.012802124, 2.5820312, 0.6699219, 1.1474609, -0.7519531, 0.6357422, -0.048065186, 0.9707031, 2.0175781, 1.34375, 0.9433594, -2.4140625, -0.15917969, 0.8574219, 0.9477539, -0.5019531, -0.69384766, -0.9848633, 1.6542969, 0.49951172, 1.4697266, -0.19006348, -1.9375, 0.63916016, -1.6933594, -1.1425781, -1.0634766, -0.36279297, 1.1787109, 0.18566895, 0.11810303, 0.5205078, -3.0859375, -1.0976562, -0.56347656, 1.2802734, -1.0458984, -0.07128906, 2.0917969, 1.0517578, 1.484375, -0.22888184, -3.0214844, 1.4931641, 0.4350586, 0.1361084, -1.0205078, 0.5126953, 0.9145508, 1.0947266, 2.6210938, 0.42138672, -0.8774414, -0.020309448, 0.34521484, 0.07952881, 1.3505859, -0.1427002, 2.1289062, 1.0927734, 0.9873047, -0.80029297, -0.9526367, 0.9926758, -0.09088135, -1.7714844, 0.45043945, 1.1308594, 2.6796875, -0.97802734, 0.35205078, 1.0195312, -0.15197754, -0.9628906, 0.66796875, 1.0175781, -1.9248047, 0.68652344, -1.0830078, -0.3935547, -0.7426758, 0.10430908, 1.1435547, -1.1347656, 1.5087891, 0.91845703, 1.0732422, -0.8857422, 0.7402344, -1.6816406, -1.8935547, -2.4980469, 1.1533203, -0.8173828, 1.2109375, -0.77441406, 1.8603516, -1.1152344, 0.65185547, 0.14355469, -0.4638672, 0.7631836, -0.48388672, 1.6972656, 1.6054688, -1.0380859, -1.2412109, 0.8432617, 0.44702148, 1.0800781, 0.41455078, -1.4248047, 2.6621094, 2.0742188, -0.9121094, -0.72558594, -1.2304688, 0.78222656, 2.171875, -0.5566406, -0.27441406, 0.6777344, -1.1855469, 0.94091797, -0.17468262, 0.26879883, 0.08935547, -1.9853516, -0.007785797, -0.29467773, 0.34936523, -1.3574219, -0.2055664, 1.7666016, 0.4099121, 1.0302734, -0.8642578, 3.0234375, 0.10217285, -0.16369629, 0.5644531, -0.06524658, 1.2382812, 0.28149414, 0.68603516, -0.06286621, 0.3774414, 0.7451172, 0.31933594, 1.1923828, -0.95410156, -0.0073890686, -0.91845703, 0.39208984, 1.8095703, -0.8041992, 0.4597168, 0.5239258, -0.80322266, 0.45385742, 0.6791992, 1.7626953, -0.79052734, 1.1923828, 0.4284668, 0.10241699, 0.35253906, 2.0019531, 0.24121094, -1.7382812, -1.1035156, -0.88671875, 2.2167969, 0.50634766, -0.09674072, -0.46313477, 0.33935547, 1.2441406, -0.90478516, -0.43164062, 4.828125, -0.23693848, -0.2590332, -0.61035156, 3.9160156, 0.27172852, -0.05819702, -0.7441406, 1.6757812, 0.37402344, -0.07537842, 0.7973633, -0.66796875, -1.6738281, 0.35083008, -0.28759766, -0.5625, 0.6845703, -1.9267578, -0.4724121, -2.6679688, 0.09210205, 0.6088867, 1.4990234, 1, 2.2988281, 1.2646484, -1.9960938, 0.7890625, -1.4306641, 0.83496094, -0.33422852, 0.5708008, -0.6113281, 0.045043945, 1.1884766, -1.1943359, -2.1933594, 0.08050537, -2.015625, 1.5908203, 1.3144531, -0.14868164, 2.0703125, 0.9116211, -1.8066406, -1.4638672, 1.5361328, 1.6162109, -0.35742188, 1.7783203, 2.6699219, 2.1542969, -1.3583984, 0.90722656, 0.93066406, 0.103759766, -0.45385742, 0.06768799, -1.3691406, 0.40844727, 2.8066406, -2.1835938, 3.5351562, 0.7319336, -1.9667969, 1.6757812, 0.5522461, -0.75439453, -0.35083008, 0.40307617, -1.8408203, -0.37719727, 0.81884766, -0.7026367, -1.9521484, -2.8066406, -0.31103516, -0.7368164, 1.4765625, -1.0263672, 0.5185547, 1.8828125, -2.2226562, 1.0234375, 0.6694336, -0.32763672, -1.6611328, -1.1474609, 0.08685303, -1.6806641, -1.5351562, -0.1307373, 2.4492188, -0.31152344, -0.5004883, 1.4101562, 1.2773438, -0.26123047, 0.51220703, -0.2944336, 1.4931641, -1.2753906, 0.4897461, 0.546875, -0.15405273, 2.9765625, -0.51708984, 0.83984375, 0.6064453, 4.0351562, 0.75097656, -0.52441406, -0.9975586, 1.1611328, 0.099853516, 2.2421875, -2.65625, 0.93115234, -0.7729492, 2.6738281, 0.9555664, 2.203125, -0.92529297, 1.5546875, -0.9863281, 0.88623047, -2.0410156, 0.47387695, -0.32592773, -1.7646484, -0.40771484, 1.1738281, 0.94677734, 0.01259613, -2.7832031, -0.1463623, -2.3007812, -0.38012695, 0.70458984, -0.04714966, -0.24206543, 2.1992188, 0.48120117, -0.3161621, -0.099731445, -0.9199219, 1, 1.1787109, 0.20275879, -0.16833496, -0.3701172, -0.20141602, -0.3791504, -0.18469238, 1.3291016, 2.1210938, -0.99560547, -1.1845703, -1.7382812, -0.50341797, -1.1367188, -3.1933594, -0.36914062, -0.80810547, 1.5458984, 0.41870117, 0.56152344, -0.80078125, -0.009735107, 1.9199219, 0.28344727, 1.3408203, 1.0761719, -0.66552734, 0.32299805, 0.096191406, -1.8984375, -2.046875, 1.0332031, -0.22558594, 1.0654297, -2.4375, 0.56347656, 1.1054688, 0.9042969, 0.7451172, 0.5336914, 0.21594238, -0.7001953, 3.140625, 2.4492188, -0.4777832, -0.7709961, -0.18261719, -0.20410156, -2.0234375, 0.24084473, -0.9970703, 0.6225586, -1.5634766, 0.43310547, -1.1904297, -1.5361328, 1.2246094, -1.3408203, -4.1171875, 0.5654297, 0.8730469, -0.34399414, 0.68115234, -0.41748047, 2.2480469, 0.7026367, 0.9736328, 0.71435547, 1.5957031, -0.4477539, -1.484375, 0.69384766, 0.110961914, -1.5322266, 0.15161133, 0.53271484, 0.67089844, 0.23596191, 0.13427734, -0.640625, 1.8037109, 1.4101562, 0.8935547, -0.265625, 0.68310547, -1.4482422, 0.52441406, -0.056884766, 0.19946289, 1.1455078, -2.0410156, 1.0380859, 1.7041016, -1.7558594, -1.015625, 0.27392578, 0.4345703, -1.0205078, 1.6669922, 2.6464844, 1.0830078, -1.1230469, -2.6621094, 0.7241211, 1.2773438, 0.7216797, 0.49438477, -1.75, -2.1816406, 2.0390625, -2.734375, 0.34448242, -1.7060547, 1.2929688, 1.5693359, 3.0996094, -0.9477539, 1.0087891, 0.8769531, 0.80908203, 0.34960938, -0.41918945, 2.2441406, -0.5703125, -0.7758789, 0.69189453, -0.33691406, -0.19299316, 1.8681641, -0.10491943, 1.3154297, -1.4111328, -1.8398438, -1.9394531, 2.09375, -0.84765625, 1.9238281, -0.40405273, -0.62841797, 1.8466797, -0.16137695, 0.78808594, 0.18408203, -1.3085938, -0.15551758, -1.0615234, 0.48950195, 0.8647461, -0.4560547, 1.4570312, 0.4255371, 2.0488281, 0.5629883, -0.18798828, 0.23510742, -1.5146484, -1.3349609, 0.8725586, 0.6401367, -0.08343506, 0.86865234, 0.34545898, 2.5527344, -0.3659668, 0.18078613, -2.8867188, 2.5566406, -2.1171875, 0.5131836, 4.125, 1.7666016, -1.7919922, -0.39868164, -0.26245117, -0.57958984, 0.011543274, -0.8183594, -0.95751953, -0.5288086, 0.6542969, 2.7832031, 0.7314453, 2.1621094, -0.69091797, -0.69628906, -2.4648438, 0.140625, -1.0146484, 0.27490234, -1.2304688, 1.40625, 0.9355469, -2.0625, 0.6855469, 1.0585938, -4.8359375, -1.0869141, -0.5332031, -0.9394531, -0.18017578, -0.6430664, -0.11273193, -2.9433594, -1.3085938, -1.6425781, 0.94091797, 0.48291016, 0.29736328, 1.8027344, -0.5317383, 0.79296875, -0.83984375, -0.39648438, -1.2109375, 0.3803711, 1.1230469, 0.24658203, 0.73583984, -0.8051758, -1.1708984, -0.8618164, -1.2226562, 2.1679688, 0.80566406, 0.5175781, 1.3984375, -3.1660156, 0.69189453, 0.80810547, -0.3984375, 0.033935547, -0.5727539, -0.25048828, 1.1279297, -1.4472656, 0.91748047, -1.3242188, -0.7011719, -1.9267578, -0.9970703, -0.016799927, 0.20031738, -0.29956055, 0.32617188, 0.09051514, -1.4697266, 0.30615234, -2.0410156, -0.026351929, -0.5058594, 0.3334961, 2.2070312, 0.09008789, -0.6484375, -1.3476562, 0.26245117, 0.734375, 0.1270752, 1.2597656, 2.9121094, -0.05505371, 0.8676758, -1.7460938, -0.8745117, 0.87939453, -0.25878906, -0.17993164, 1.0703125, -0.47875977, 1.0996094, 0.2619629, 0.12890625, 0.03918457, -0.1619873, 2.3066406, -0.765625, 0.06628418, 1.0498047, -1.7753906, -1.0810547, -1.3125, -2.3320312, -1.703125, -2.0507812, 0.21813965, -1.9648438, -0.6699219, -0.9248047, -1.9716797, -2.3046875, 1.2929688, -1.2958984, 2.4863281, 0.2861328, -0.009010315, 0.7792969, -0.51904297, 1.6367188, -0.30078125, -1.1474609, 0.77978516, 1.0322266, -1.9248047, -1.2226562, -0.1381836, -0.3400879, 0.9716797, 0.7788086, 0.4909668, 0.82177734, 0.022842407, 0.8041992, -1.0791016, 0.9975586, 0.30615234, -0.98876953, -1.1015625, 0.07409668, 0.27441406, -0.68652344, 1.2832031, -0.15075684, -3.6269531, -0.5683594, -0.7495117, 2.6269531, -2.6503906, 0.4165039, -0.24536133, -0.6381836, 1.2753906, -1.0693359, 0.7480469, -0.8930664, -0.44555664, -1.2441406, 2.3847656, -1.9208984, -2.1074219, 2.03125, 0.6347656, -0.016998291, -1.0761719, -3.2324219, -0.26904297, -0.80126953, -1.4267578, 1.1113281, -1.6591797, 0.45922852, 2.7734375, 1.1035156, 1.4628906, 0.46557617, 0.63916016, -0.1895752, -0.75097656, -0.6591797, -0.085876465, 0.6220703, -1.1201172, 1.6054688, -1.8505859, -0.5131836, 1.0507812, -0.52978516, -1.1044922, 3.5507812, 1.1484375, -0.18359375, 0.3149414, 0.21813965, 0.2154541, -1.8632812, -1.7519531, -0.29907227, 0.8828125, -1.0136719, -0.3408203, 0.1303711, -1.7539062, -0.57128906, 0.6904297, -0.91796875, 1.6757812, 0.39013672, 0.8881836, 1.2119141, 1.3173828, 1.1767578, 0.30151367, 0.16137695, 0.8774414, -0.8779297, 0.43530273, 0.18151855, 0.47509766, -0.33544922, 0.18469238, -0.68310547, 1.2617188, 1.1542969, -3.2265625, -1.6494141, 0.6855469, 0.1550293, 0.15783691, -0.55126953, -1.09375, -5.8789062, -1.0791016, 2.578125, 0.5629883, 0.7988281, 0.8881836, 1.2236328, -0.18774414, 0.5883789, -0.045196533, -0.16687012, -0.3215332, 2.3847656, -0.21936035, 0.7529297, -0.14282227, -2.6835938, -2.0195312, 1.0292969, 1.5683594, 0.92626953, 0.6464844, 0.44702148, -0.33081055, 0.6870117, 1.6044922, 0.38842773, -0.18688965, -2.078125, 0.51660156, -2.1933594, 0.35498047, 0.56689453, 0.72314453, -1.8125, -0.16577148, 2.7792969, -0.6508789, -3.03125, 1.6660156, 0.9926758, 0.81347656, -2.2421875, 1.1826172, -0.9165039, -0.82128906, 0.41088867, -1.03125, 0.9921875, -0.33032227, 0.7792969, -4.4726562, -1.2705078, 0.28027344, 0.53808594, 0.28100586, 0.19567871, 0.42822266, 0.24267578, -0.94873047, 0.5551758, -1.1708984, -0.7519531, -0.9980469, 1.0498047, 0.047973633, -0.11230469, 1.2011719, -1.5419922, -0.16235352, -0.8520508, 0.64941406, 1.9521484, 0.19543457, -0.3161621, 0.71533203, 0.8120117, -2.0683594, -1.4199219, -2.4648438, -0.81347656, 1.1943359, 0.22485352, -2.0195312, 1.6220703, 0.8432617, -0.109680176, 1.1054688, -0.2286377, -1.4570312, 2.2519531, -2.3925781, -0.4177246, -0.07458496, -0.7001953, 0.20532227, -1.6132812, 0.42993164, 1.5058594, -2.0390625, 0.28710938, -1.7568359, -2.5625, 1.6523438, 0.23999023, 0.54541016, 1.0146484, -1.7880859, 0.71972656, 0.8051758, 0.012786865, 0.43237305, -1.0351562, 0.02458191, -1.4042969, 1.0214844, 0.9892578, -0.17297363, 0.3486328, -0.6455078, -1.6757812, 1.7177734, -0.24194336, -1.6416016, 0.47094727, 0.7026367, -0.022094727, 1.1435547, -0.33935547, -0.88134766, -0.38061523, 2.15625, 0.3203125, 0.31835938, -2.015625, -0.5385742, 2.6054688, -0.005168915, 0.97802734, 1.8789062, -0.19702148, 1.7001953, 0.41601562, 1.296875, -0.47558594, 1.078125, 1.0068359, -0.6020508, -0.26049805, 1.2617188, -1.3828125, 1.34375, 1.1982422, -0.9511719, 1.34375, 2.1347656, 0.22155762, -0.7597656, 0.050842285, -1.2441406, -0.3618164, 1.8710938, 0.24291992, -0.04901123, -0.6479492, -0.3071289, -0.47436523, 0.45336914, -1.9189453, -0.9448242, -1.6972656, 2.2675781, 2.9257812, 0.20385742, 1.4628906, -2.6035156, 0.8647461, -0.60595703, -0.31689453, 1.6162109, -1.5097656, 0.37817383, -1.7666016, -0.8779297, 0.68652344, -1.1191406, -0.6489258, -0.12609863, -0.82421875, -0.13415527, 0.10839844, 0.17626953, -0.08013916, -0.63916016, 1.53125, 0.78759766, 1.0849609, -0.14221191, -1.6005859, -0.7998047, -1.2548828, -0.5776367, -0.23144531, -0.39453125, -0.43896484, 0.8066406, -1.2441406, -1.5068359, 1.6152344, 0.7783203, -0.27246094, 1.0732422, -0.15734863, 1.9033203, -1.2705078, -1.2666016, 0.33325195, -0.5209961, -1.5830078, 1.2050781, 0.60058594, -0.9941406, 0.48828125, 2.1425781, -0.5834961, 0.57373047, 2.1308594, -0.37280273, 0.8652344, 0.33496094, 2.21875, -0.6401367, -2.3417969, 0.6923828, 0.90185547, -0.45532227, -3.8789062, -0.5541992, 1.0537109, -1.1845703, 2.359375, 0.93603516, -1.2626953, 0.33325195, 1.9267578, -0.54785156, 0.45654297, 2.5527344, -1.0761719, 0.8881836, -1.0546875, 0.5366211, -0.30395508, 1.1015625, 1.0019531, 1.1972656, 0.87939453, -0.41210938, -0.26342773, -1.8935547, -0.22009277, 0.18835449, 0.053466797, 2.4824219, 0.6616211, 2.0117188, -0.14941406, 1.2724609, -1.0039062, 2.7773438, 0.11230469, 0.81152344, -2.5410156, -1.4667969, 1.8574219, 0.6308594, -1.2353516, -2.0253906, -0.9038086, -0.01474762, 1.8046875, 1.4980469, 0.87841797, -0.32080078, -1.2851562, 2.1425781, -0.3552246, 1.4423828, 1.1503906, -0.0036582947, -0.40820312, -0.4790039, -1.4472656, 0.20629883, -0.9995117, -0.013923645, -1.3984375, 0.45043945, 0.6040039, -0.70458984, 0.067871094, -0.08355713, 1.6328125, 0.52978516, 0.78271484, -0.52685547, 0.33203125, 1.7402344, -1.5117188, 0.79785156, 1.8457031, 0.23291016, -2.4023438, 1.4589844, -0.69433594, 0.6933594, 1.1796875, 0.43115234, -0.875, -0.3605957, 0.010696411, -1.0117188, 0.6088867, 0.1508789, -0.09136963, 0.026031494, -2.2695312, -0.0770874, -1.3095703, -0.31933594, 1.6376953, 0.89990234, 2.4375, -1.1669922, -0.7158203, 2.7519531, 1.9306641, 0.3840332, 3.9277344, 0.37231445, 0.7734375, -2.0507812, 1.2753906, 0.47436523, 1.4130859, -2.328125, -0.95654297, 0.7763672, -0.7446289, -0.95410156, -0.49023438, 0.15405273, 0.4428711, 0.8876953, 0.011924744, -1.7705078, 0.5361328, 1.5166016, -0.089416504, -0.49902344, -2.3125, -1.1923828, 1.1396484, 0.60009766, -0.5341797, -0.37768555, -0.90527344, -1.0458984, 1.7773438, 0.6616211, -1.8544922, -2.5253906, -0.6333008, -0.28979492, -1.7431641, 0.12658691, 0.27685547, -1.2109375, 1.421875, -0.47705078, 0.4584961, -0.12915039, 1.0605469, -1.2910156, 0.48364258, -2.2460938, 0.0015983582, 2.2578125, 0.39453125, 1.5654297, -0.40307617, -0.90478516, 0.07952881, -1.3808594, -0.49194336, -0.18078613, -2.2832031, 2.0214844, -0.6196289, -1.4365234, 0.0052337646, -1.0664062, 0.94970703, 0.38671875, 1.1601562, -1.3662109, 2.2304688, 1.1083984, 1.2802734, 1.5869141, -0.42456055, 1.2851562, 1.1396484, 0.27026367, 0.58691406, 2.0371094, 1.2089844, 0.0793457, -0.49291992, -1.8740234, 0.16674805, -1.6064453, 0.5722656, 1.3408203, 0.48388672, 2.6582031, 0.036865234, -1.4501953, 0.9863281, 0.17858887, -2.6289062, -0.09881592, -1.0439453, -0.84521484, -0.51904297, 2.1542969, -0.57470703, -0.36206055, -2.5195312, 2.6054688, -1.8037109, -0.44848633, -1.1367188, 0.0181427, -1.0400391, -0.09448242, 1.0361328, -1.9033203, 0.49560547, 0.068603516, 0.03125, -0.94384766, 1.1240234, -0.19348145, -0.06365967, -2.0644531, -1.2451172, -0.6826172, 0.05203247, 0.33007812, -2.2519531, 1.234375, -0.24291992, 0.22961426, -0.79052734, -0.5913086, 1.1992188, -0.07684326, -0.4013672, 0.48754883, -1.2695312, -1.1757812, -0.953125, 2.2128906, 0.036621094, 2.2539062, -1.2910156, -0.73046875, 0.79052734, 0.5107422, 0.11627197, 0.1116333, -1.1582031, -0.5830078, -0.39892578, 0.74560547, -0.8198242, -3.3261719, -0.9033203, 0.30566406, -1.4033203, -1.6259766, -2.0214844, -1.9208984, 0.14587402, -1.4619141, 0.8076172, -0.060546875, -1.5869141, -0.08251953, -1.6855469, 0.79248047, 0.19946289, -1.6875, 2.4765625, 1.0644531, 1.6601562, -1.2695312, -1.2646484, -0.1739502, 0.703125, 0.72558594, 1.6972656, -0.22521973, -0.17016602, -0.13684082, 0.34594727, 1.0058594, 1.1025391, 0.37475586, 1.9130859, 2.3066406, 1.8916016, -0.41796875, -2.5449219, -0.84228516, -3.0390625, -0.8618164, 1.6972656, -0.2241211, -2.0703125, -1.0332031, -0.46826172, 0.9433594, -1.2207031, 2.9570312, -1.7939453, -0.36914062, -0.5175781, 0.55371094, 0.35498047, -1.2304688, -2.4375, -1.7480469, -1.6640625, 1.5048828, 0.49829102, 2.1601562, 1.8808594, 1.4091797, -0.33911133, 1.2646484, -1.1894531, 1.0351562, -0.91259766, -0.64697266, 3.1191406, 0.9013672, 0.9433594, -0.54345703, 0.81103516, 1.6484375, -1.5800781, -2.5078125, -0.23278809, 0.034179688, 1.6074219, 0.28271484, 1.8720703, 0.4663086, 2.1425781, -0.3173828, 0.07635498, -1.0839844, -0.1743164, -1.4257812, 0.8173828, -0.16955566, -2.1035156, 0.026321411, 0.48950195, 2.0546875, 1.8095703, -0.08654785, 0.38085938, 1.171875, 0.07470703, -2.8574219, 0.8569336, -0.48242188, 0.16845703, 0.53125, -0.79003906, 0.10583496, 0.7553711, 1.1152344, 0.28344727, -1.1669922, -1.6865234, -0.6484375, -2.0800781, -1.3710938, -0.46313477, -0.3779297, -0.40112305, 1.2734375, -2.4023438, -5.3867188, 1.7216797, 0.6176758, 0.72265625, -0.46777344, 0.23608398, -0.7294922, -0.001537323, 0.5566406, 2.2207031, -</t>
-  </si>
-  <si>
-    <t>[1.7685201, -0.60027593, 0.8012499, -1.0607717, 0.43602583, -1.6985322, -0.8676106, 1.4304565, 2.8883686, 0.5912301, 0.025352042, 0.11875811, -1.1334485, -0.9121932, -0.73638135, 0.5445372, 1.920768, 0.07115868, -0.76724577, -0.07000117, 1.3776716, 0.84858227, -0.033011537, -0.50370604, 0.8057246, 3.1221714, 0.7884638, -0.6471536, -2.98578, 1.6164265, 1.7053602, 2.9248393, 1.0390066, 1.2499521, 2.2263868, -1.421734, 0.47414905, -0.36197075, 2.0230198, 1.9738111, -0.9688937, 0.036821328, -0.6987198, 1.2322649, -1.6858609, 1.124255, 0.41913408, 0.058191948, -0.55241907, -1.4213003, 2.1289594, -0.5373023, -1.1364686, 2.0520637, -0.49216887, 0.13588056, -0.33303842, -0.33730522, 0.016714819, 0.92885464, -0.3562963, 1.762533, 0.6815269, -0.61474544, 1.1855415, 1.6658134, -1.2639472, -0.48276648, -0.17163318, 0.67199343, 2.1384377, -0.8808454, -0.079708256, -1.2039472, 2.5329103, 1.9163616, -0.4140199, -0.059167847, -0.7276003, 1.5060623, -1.3843052, -0.38236812, -1.5496503, 1.012034, -0.15342543, -0.06619005, -1.0648403, -0.20390831, 1.023323, 1.366006, 0.5898078, 0.78270954, -0.30153212, -0.45803973, -0.36611247, -0.1357076, 0.96026295, 0.7511229, -0.3846236, 2.131679, -1.7674397, 0.32938793, 1.1856533, 0.21311946, -2.4554772, -0.78246874, -1.3955477, -0.95133287, -1.1652546, 0.85013425, -1.3264327, -2.2926548, 2.2471554, 0.59539443, 1.2256498, 0.6524608, 1.0332776, -1.6003464, -0.28367013, -1.7198836, -0.72234094, -1.7220548, 1.2833548, 1.8444579, -1.7651486, -1.154225, -0.20462842, -1.1604463, -1.0579286, 2.37781, 0.14444079, -0.13910827, 2.2691624, -1.1773067, 2.8598273, -1.653158, -0.16958693, -1.6882504, -0.45137942, -2.0751686, 0.6120187, 1.1008866, 0.9866501, 0.14928235, 0.81688607, -0.20854798, 0.44880885, -0.9001778, -1.1145692, -0.19270213, -0.49358281, -1.5429502, -2.427, 1.9776615, -0.7447181, 1.7708005, -0.38145676, -0.70047474, -0.99806416, 0.15317263, -0.32721496, 0.12343221, -0.10917676, -1.3944248, 0.45692614, -1.4466403, 1.3160536, 1.3709341, -0.39864773, -1.7801856, 0.727249, -1.2697867, 0.50352705, 0.58076596, 0.40788248, 0.4369595, 1.5008062, -1.744118, 0.9370237, -1.1954482, -1.5493203, 0.25015166, 0.5726169, 0.19991192, -1.1162483, -0.3093102, -0.5403963, 0.07448883, -0.65257525, 1.0622938, 0.7329248, -0.7726552, -1.0213473, 0.8939079, -0.059458554, 1.197561, 0.3231597, -0.99885845, 4.0144863, -1.0342436, 0.86652225, 0.43559742, -0.66560185, -1.6806535, -0.28713733, 2.0902376, 1.4689336, -0.118495345, -0.52278554, 0.33646238, -0.7058684, -0.096381664, 0.57753164, 1.8087641, 0.9466523, 1.2052777, 0.7613515, -0.68847126, 0.9120109, -0.090568855, -0.49589685, -1.2326161, -1.797793, 1.138439, -0.81039256, 0.3140673, -0.5779886, -1.007553, 0.58306104, 0.45164818, 0.08417746, -1.5034193, 0.9856549, 0.8054359, 1.4665042, -0.21963343, -2.8088331, 1.8622435, 0.9933922, -1.2348806, -1.1210378, 0.29350227, -0.15705626, 0.17117983, -0.6114053, 0.5722044, 0.06795491, -0.8867374, 2.022155, 0.69436985, 2.422934, -1.7590871, 0.7815773, -1.5909799, 0.18178697, -0.34736487, -0.17751153, -1.7579243, -0.75678, 0.4361609, -2.1153247, -1.5212874, 0.17715296, 0.2213138, 1.6884686, -0.6853476, -2.0232193, -0.35646927, -0.4247987, -0.636619, 0.042593557, 0.71509653, 2.5055614, 0.7138619, -0.93650746, -0.9442654, -0.13985333, 2.7188563, -2.3738027, 0.5742996, -0.51002043, -1.5159869, 1.2185984, 0.8307421, 0.28063667, 0.12558141, -1.2553778, 0.5314922, 1.7361778, -1.4271117, -0.38299286, -0.96499276, 0.023594495, -1.0926856, -0.6567263, -1.6728222, -0.41956764, 0.1637658, -0.3450053, -0.2599765, -0.79121786, 0.1416295, -1.5625426, -2.1263251, 0.73080134, 0.56185687, -0.057786323, 0.12033671, -0.6193828, -0.07195297, 0.6915845, -0.13964312, -0.56508774, -0.51999557, -0.9897953, -1.0772523, 0.6507352, -1.0491953, -0.8523448, -0.59096265, -1.022288, -2.5022032, 0.11771104, -0.057278086, -0.7691002, -1.0575161, -1.6925212, 2.0360837, -1.0377333, -0.9301518, 1.46259, -1.1415737, -0.4014284, 0.058737442, 0.5401561, -0.2695743, 0.16431063, 1.5632371, -1.1130271, 1.6420087, 1.5456374, 1.5743384, -0.6358739, -1.1059091, -1.255556, -0.15554751, -0.090030015, -0.4222648, 1.3408922, -0.50335276, -0.49104595, -2.1373467, -0.38753232, 1.9248286, -0.53737015, 0.151612, 2.3788903, -1.9305816, -1.859053, 1.3322042, -1.516378, 0.50783646, -0.6859217, 0.20562495, -2.1910205, -0.5726275, -0.6805859, -1.2873662, 0.09693913, -1.6851983, -0.02171521, 1.795909, -0.21773818, -0.021521961, -0.025552277, -0.239481, -0.8547849, 0.6508398, 0.5506136, 0.07822549, 1.1438553, 0.27236047, 1.0375484, -1.5484263, -0.11799443, 0.5500362, -0.5399965, -0.4641752, -2.4709213, 2.5009952, -0.3888555, -1.8631774, 0.228885, -0.4836632, -0.105076924, 0.056069378, 2.2053788, 1.1745472, 0.83652025, -0.24622613, -0.55223143, -0.5203468, -1.1803846, -0.84189534, -1.8966866, -0.03161721, -0.5059844, 0.5711055, 1.4406586, 1.38893, 0.39951184, -0.93504393, 1.5042282, 0.04072292, 1.5745194, -0.86959565, -1.8536487, -1.6904483, 1.0637519, 0.46883184, 1.704663, -0.09024555, -0.7615272, 1.7219591, -0.17763592, -0.33281755, -2.5465503, -1.9592185, -2.0414147, 1.048272, -1.1761538, -0.88404584, -1.4226294, 1.0107136, -0.809871, -0.59575635, -0.56457955, -1.9031473, 1.8445376, -0.24855112, -1.4530957, -1.2938229, 1.1826677, 1.1599993, -0.13822284, 1.9968814, 1.4606647, 0.5053738, 0.42844218, 0.82301736, 0.82569724, -0.6552768, -0.6708425, -0.4528649, 0.12514569, -1.5252602, 0.94780046, -0.44233823, 0.37820053, -0.84443384, -0.029703332, 2.256442, -1.8582494, -0.4639031, 2.087558, 1.0935963, 1.2830275, -0.18489228, 0.1930028, 0.4299283, 0.0934533, 1.0899688, 0.058342293, 0.32335228, -0.6519619, 0.072937176, -2.122158, -1.2748877, 1.5153216, 0.57855344, 0.39487883, -0.06154406, 1.2156873, -0.36108533, 0.6821515, -1.6941417, -0.6100801, 1.069007, -1.1921693, -0.6389925, -1.7028164, -0.3006344, -1.1296154, -1.3380263, 0.15666045, -0.99237907, 0.90976775, 1.3436489, -0.36323935, -0.8370298, 0.48790208, 1.2573549, -1.2532037, -0.07352957, 0.64185035, -2.1831787, -0.47454286, 1.5583676, -0.9899151, -1.2857736, -1.5514305, -1.0010498, -0.26759207, 0.0026609332, 0.69484884, 1.4322261, -0.3093348, -0.987773, 0.5635484, -2.0292277, 1.0560659, -1.6059184, -0.55112183, -1.9874989, -0.774132, 2.1161683, 0.3930398, 1.1830443, 2.062202, 1.0925579, 3.046497, -0.040967062, -0.9061368, -1.4131658, -1.7165494, 1.0030787, 0.6914781, -0.6968678, -0.36996153, -1.3794065, 0.2105949, -0.67484725, -1.5434957, 1.2139097, -0.54170215, -1.047801, 1.6965152, 0.08773762, -1.4900135, -2.2611866, -1.2970506, 1.3327284, -0.27221814, 1.1273164, 1.0193982, 0.8563681, -0.8912796, 0.21005008, 0.10757288, -1.1853606, 0.48317757, -0.58559823, -0.8894462, -0.7443043, -0.30161944, -0.025324102, 0.80127853, -0.6352672, -0.09668102, 0.0055899555, -0.5620929, -1.4895824, 1.6228659, 0.07664485, 0.7751059, -0.12228418, -1.3327869, 1.7306763, -1.1457047, -0.93241364, 1.9376916, -0.08200331, 1.0879785, 1.1005486, 0.49036086, -0.7117996, 0.2232829, 0.5650771, -1.671593, -0.9748083, -1.0015752, 1.8376219, 0.6019696, 1.1487595, 0.24501607, 1.1111072, 0.54197556, -0.18120456, -1.2754385, -1.6122009, 0.2895042, 0.70941013, -0.12973845, 0.3818722, 1.0957245, 0.9721387, -1.5136613, -0.70789874, 0.34034136, 0.9484045, -0.62242156, 1.2165906, 1.9069312, 0.40846124, -0.7789829, -0.92142, -0.5748321, -0.7232195, -1.1957409, 0.30257872, 0.17305113, 0.42717293, -1.5483944, 1.1373188, 1.2579561, 1.4432317, -1.5172428, 0.5211531, 1.2855102, 0.56293106, -0.67490715, 2.1264582, -0.14018595, -1.099274, 1.1134462, 3.9228542, 0.42420173, 3.2388453, -2.1019483, -0.26453802, -0.30018553, 0.6021173, 0.9081938, 2.8852365, 1.5508957, 0.19857481, 0.8115314, -0.44023013, 0.68740153, 0.4555285, -0.5079818, 1.4351571, 1.5818557, 1.2966222, -1.3354056, 0.39404824, -1.0787171, -1.6218594, -0.12323713, 1.1083425, 0.43519032, 0.51148456, 0.35265547, -2.2436404, 1.88426, -0.034946036, -0.8749242, -1.6707654, 1.089575, 1.3402243, 0.12503974, -0.25595516, -1.5227909, -1.2916968, 0.5531925, -1.1306006, 1.965336, -0.064363316, 0.6945887, 1.6375489, 0.5483225, -0.777365, -0.9304113, 2.1856427, -1.5267743, 0.78874385, 0.018369088, -1.2942513, -0.37092945, 1.9348817, 1.4959501, 0.034206297, -0.36794984, 1.8365761, -1.9512198, -0.09369744, -2.0391743, -0.058796313, -0.34547362, -2.674951, 1.6289861, 0.15077598, 0.40082702, -1.5948423, -1.8835576, 0.83107597, -0.03874851, -1.1281486, 0.4815155, 0.88263553, -0.0010284507, 2.1803102, -0.8082638, 1.1059264, 0.81767684, -2.277679, -0.40589777, 1.705142, 0.29045284, -0.7235743, 1.5854479, 1.0337033, 1.5166467, 0.024481252, -0.15657596, 1.579349, -1.7554309, -1.194626, 0.19934314, 0.12816384, -0.17551649, 0.6760846, 1.3257527, -0.6460586, 0.18539122, -2.1361625, 0.04786753, -0.995829, -2.3402004, -1.5425457, 1.1473439, -0.8212671, 2.2493827, -0.67468363, 2.097848, -0.47202992, -0.3332872, 0.87140644, -1.7417111, -0.26216578, -0.43902513, 0.21833423, 0.016044097, -0.075401075, -1.1588603, -0.5056651, 0.52663594, -0.614576, -1.2880673, 0.034196984, -1.3095742, -1.8360811, -1.687814, 2.0692267, 0.95433307, 0.1255884, 0.0023432844, -0.48527372, -0.86984575, 1.5705241, -0.51783675, -5.303974, 0.14728864, 1.0558822, -1.5648177, 0.8588189, 0.1550875, 1.0763688, 2.006067, 2.431151, -1.3139648, 0.37810266, 0.81885964, -0.42981523, 0.98252296, -0.44584402, -1.7749702, 0.4428059, -0.88283116, 4.1852064, 0.09113896, -0.86272514, 0.9055076, 0.2767813, -1.4908011, 0.18241894, 0.61627215, 1.0297998, -1.3480368, 2.0532026, -0.8184312, 2.5437298, -1.5243076, -0.35574815, -1.4510388, 0.06375596, -0.29248446, -0.20837502, 0.34001952, -1.1001954, 1.4644339, -1.0878081, -1.4709746, -1.0188314, -0.241495, 0.15264344, -1.4878236, 0.76320356, -0.76188105, -0.8026579, 0.5853228, 0.9805965, -0.1467957, 1.015963, -0.7235064, 0.4905457, -0.85573316, 0.80725396, 0.024977682, 0.14278169, -0.8903908, 0.41028023, -0.9033815, -0.056830216, 0.016258301, -2.08292, -0.3773002, 2.7524028, 0.44882295, 1.6353683, 2.5170646, -0.08840918, 0.6623768, 0.80791855, -0.14395648, -5.073974, 1.6158677, 1.8005444, -0.9349056, -0.2577247, 0.061228074, -0.035084404, 1.7054865, -0.20575932, -0.11588098, -1.2748877, -0.08195009, -0.5122456, -1.607044, -0.10545615, 0.31445312, 0.92026514, -0.77916646, -0.5192452, 0.80344486, 1.6141727, 0.19147544, 1.1962837, -0.3529114, 0.5123986, 0.12570249, 2.3965082, 0.8397187, 1.5118943, 1.78034, 0.95519656, 0.3334309, -1.2647529, 0.2049045, 0.44229966, -1.3035246, 1.9024528, 0.09516296, -1.8152993, 2.1705232, 0.55267614, -0.13218452, 0.94476634, 0.5008675, -0.7686518, 0.12831485, -1.3418022, -0.0106942905, 0.75770074, -0.91377515, 0.5820266, 0.49131206, -2.2894192, 0.17692412, -3.539749, -1.1588631, 2.7247372, 0.37600183, -0.23066565, -0.5102579, -0.5232805, -1.5053432, 0.89712566, 2.6612844, -0.8187053, -0.9934701, -0.251677, 0.7573389, -0.044553336, -1.7213471, -1.6420486, -0.55205584, 0.40189806, 0.005953838, -1.2469295, 2.2046843, -0.886748, 0.17981389, 0.964257, 0.5353518, 0.27209985, -1.8212012, 0.71751267, 0.6967975, -0.135519, 0.3424202, -1.0227709, 1.5865189, 0.50021553, -1.3662442, -2.92419, 0.3697074, 1.451426, -1.124678, 0.4559183, 0.45499033, -1.3205677, 1.1577747, 3.5400097, -0.04401716, 1.2666521, -1.1805444, 0.06464604, -1.0701689, 0.534012, -0.35335863, 0.66792554, 1.0411433, -0.577803, -0.59380174, 1.1445233, -0.97762424, 0.34077907, 0.5104778, -0.24050745, -0.45275828, -0.0027833362, -0.58060634, -0.20536084, -0.5594878, 1.1226192, 1.2185664, 0.53823197, -0.54903436, 0.6138234, 0.11900225, -0.5772602, 1.6428202, 0.12176697, 0.6759223, 0.25594187, 1.6690624, 0.9407344, 1.1800387, 1.6426792, 0.14493571, -0.23265338, -1.2407266, -1.1257265, -1.4325134, -1.5571222, 1.0772709, -0.2102139, -1.8644947, 1.752504, -0.88023007, 0.22394547, 1.1368278, -0.74237376, 0.47140163, -1.4654744, 0.4323644, 1.0019717, -1.7565593, -1.2666681, -1.1637325, 1.7295002, 0.4235607, -0.41269213, -0.9602909, -1.5794767, 0.4359392, 1.7544092, 0.3546066, 0.112923354, 0.16148072, 1.6443397, 0.086477004, 0.4552807, -0.5743691, -0.44196922, -1.1286482, -1.6379747, -1.4507089, 1.7772865, -1.3163397, 0.4080195, -0.25635698, -0.70785016, 0.53634965, 1.3447325, 1.0519574, 1.2450393, 0.84441525, 0.597007, -1.3633664, -0.82871574, 2.9571881, 0.5287101, 2.2133005, -1.0896416, 2.022602, 0.39693674, 1.0849297, -0.22335126, 0.20393725, 1.4038924, -1.3488111, -0.8452175, 1.2107998, 0.4942444, 0.43809605, -0.036107533, -1.3637257, 0.5545957, 0.36066222, 0.22703615, 1.1579876, -1.1351302, 0.15753789, 1.1040318, -0.67858386, 0.5689421, -1.4520925, -0.32348967, -1.7184786, 0.7039672, 1.2316382, -2.1197846, 0.3416891, -0.29590178, 0.9722797, -1.6383313, 1.226365, -0.5785281, 0.91474104, -0.94425344, -0.3505101, 1.4540443, 0.13711523, 0.654845, 1.0230836, 0.12984823, 0.16459668, -2.188394, -0.011694802, -0.9070614, -0.716137, 0.8758977, 3.7083192, 0.12283533, 0.009673823, 0.82324487, 1.6122727, -0.82547605, 2.1526897, 0.8238888, 1.7302319, -2.3235748, 0.62150604, 0.5907538, 0.9420728, 0.52505666, -0.6894258, -0.46293485, -1.1876144, 1.6643153, 0.14690746, 0.74363637, 0.079082936, -0.7373885, 0.53144556, -0.6361919, 0.8145356, -0.08017924, 1.1615053, -1.7764869, 3.1514497, 1.1285443, 0.33255428, -1.0547847, 0.77763647, 0.5417528, 1.4396793, 1.2687895, 1.5896947, 2.404909, 0.9247182, 0.1611195, -1.6822047, 0.3914592, -0.24452397, -0.7499734, 0.635836, 0.24824245, 0.047330018, 0.17564088, 1.2234039, -0.5295177, 0.32776028, 0.50406325, 1.9148289, 1.5019052, 0.46000883, 0.9151186, 0.22399038, 0.17867635, 0.40077513, -0.820548, 0.13726424, 1.3606921, -0.30361116, 0.26823938, -1.2852813, -0.17183974, 1.5815789, -2.3832967, -0.7613143, 0.6855244, 1.245012, -1.0128789, 2.150058, -0.8817907, -0.9009654, 0.55485445, -0.46582696, -1.4992843, 0.2601408, -1.7856991, -1.004815, -3.1132014, -0.4142155, 1.0802351, -1.4965302, 0.7987633, -0.93495816, -0.9900667, 0.115573645, 0.11329722, -1.5178761, 1.4501314, 1.1750256, -0.17939812, 0.44565475, 0.6274118, 0.9561505, 0.01103356, -1.2957946, -2.282224, -0.5134048, 1.8404504, 2.7009857, -2.048195, -0.31831846, -1.2602539, -0.020039488, -2.350727, 2.015593, -1.1708878, 0.1386446, -0.8929347, 1.2429326, 1.2788125, 1.179283, 1.2960954, -1.101802, -1.3370458, -0.015105452, 3.2723732, -0.51335907, 1.4383901, -1.0130253, -1.2526103, 0.41976288, 0.07495649, -0.7357439, -0.26301196, 0.9819951, -0.48770648, 0.37127337, -0.42171052, 1.1867509, 1.3826795, 0.734846, 0.6962252, 0.5478376, -0.32360008, 0.8350009, 0.97839856, 1.9983609, -0.7349311, -0.9071401, 0.37684402, -1.4845454, 0.08249325, -0.58519644, 3.4407144, 1.0678884, -0.8484512, -0.06103183, -0.21305627, 0.6815312, -0.35131103, -1.0789819, 1.1424743, 0.12026686, 1.679794, -0.026018605, -0.92271584, -0.71665317, 1.0652688, 0.66789556, -0.26414835, 0.58172524, 0.11490176, 0.033690076, 1.3558413, -0.32959118, 0.27827582, -0.38440308, -1.2333719, 0.14879407, 0.48253173, 0.44204754, -1.1531793, 0.6989573, 0.5788709, 0.49772888, -0.1907746, -2.4947634, 0.47118607, -0.48502558, -1.7336859, -1.7951773, 0.8375993, -1.1819041, -1.4482262, 0.7366741, 0.68651414, -0.6383326, -1.5919805, -0.24567133, 0.16504169, -0.08894435, -1.4877636, 2.66824, -1.3667048, -0.012410592, -0.46682614, 0.1089426, 0.20228814, 0.7729599, 2.1768537, 1.2205803, 0.5642642, 1.9666, 1.1247419, -1.7735759, -0.4676444, 2.0851765, -2.2267594, 0.4748648, 0.34865427, -1.1656411, -0.43385893, -0.104023196, -0.032976944, 0.2934823, 1.6124989, -0.62282735, -1.2875937, -0.008320739, 0.12547232, -0.5854785, -0.6646931, -1.6120492, 0.28476807, 0.256192, 2.331845, 1.5561404, -0.60274726, 1.4025034, -0.22976851, 0.87078774, 1.4897754, -1.6532698, 0.70916796, 0.6132493, -1.2741008, 0.16677798, -0.5823987, -0.80157954, -0.54784226, 0.64575, 0.17729266, 0.3896511, -0.4987487, -1.4870173, -1.5386288, 0.3734559, -3.6042874, 0.22925669, 0.42409423, 0.34766024, -0.12229915, 3.1669843, -0.42982322, 0.17742237, -2.0923119, 1.663807, 2.7540445, 1.5593494, 0.6705116, -1.2698798, 1.0897613, 0.5248704, 0.17470889, -0.42510936, 0.9591893, -2.8958192, -1.5780718, 1.0968846, 0.73352885, -1.7078562, 2.615575, -0.664773, 1.043952, 0.40050638, -0.31681138, 2.1934125, 0.531944, -0.8212465, 0.91113013, 1.2629588, -0.9109093, 0.09614484, 0.8510955, 0.1358699, -1.5132514, 0.049255203, -0.09370875, 0.5808671, -1.8070185, 0.3679655, -0.8258552, -0.455911, 1.1799103, -0.80345684, -1.031415, 0.9808253, -2.439432, -0.5093811, -0.52365834, -1.0422188, 0.7404007, 0.32075024, 0.10608875, -0.02297982, -2.2935436, 0.06527496, 0.26162162, -1.6202955, -0.9410756, 1.3766737, 1.158456, 0.101779364, -1.8331143, 0.63963664, -0.076156534, -1.2199159, 1.9444184, -1.3113319, 1.321313, 0.30780944, 0.2333472, -0.29877824, 0.28292507, -0.46514377, 1.3389391, -2.307689, 0.35526335, -0.63323826, 1.2579402, 0.9515923, 1.5138103, -0.95366985, -2.855357, -0.25362718, 1.5169847, 1.961185, -0.717504, 0.45318154, -1.8389283, 0.6756695, 0.30184165, 0.116398536, 0.17096563, 0.07662956, 1.0096911, 0.06093404, -0.73910016, -0.4993261, -0.24725907, 1.0070808, 0.8613128, -0.77087504, 2.095022, -0.24280442, 0.70474553, 0.1821136, 2.2440794, 0.53575194, -0.8334908, -0.43115833, -0.93153554, -1.5367634, -2.4057152, 0.8611618, 0.6119694, 1.2507025, -1.0405552, -0.34478244, 0.0117127625, -1.5208505, 1.0361542, 2.380258, 0.56905687, 0.55289805, 4.6761217, -0.5391477, -0.12128667, -1.1260059, -2.8382845, -1.0565355, 1.1225027, 2.1081457, -0.07830195, 0.75816375, -0.33394614, 2.6933486, 2.7212405, -1.1528919, -1.4815412, 0.10110349, 0.07144473, -0.9057963, -0.24892099, -0.9035013, 1.2841864, 1.4180632, 2.0081105, 1.4493598, 0.78721046, 1.2839987, 1.8133142, -0.14068753, 0.046555024, 0.41520804, 0.53127795, -0.029467508, -1.6992507, -0.46585938, 0.2800905, 1.0752113, 1.4737685, 0.72061795, -1.2916011, -0.009257386, 1.0187649, -1.1993971, 1.6439086, -1.1415191, -0.4641559, -0.08149873, 0.2719191, 0.5000559, -0.49279687, 0.95639265, -0.7112525, -3.2326932, -0.73253894, -3.0686467, -1.5225514, 0.7879529, 0.14710371, 2.421923, 0.10627019, -1.2519186, 2.1962173, 0.4252717, 0.18430322, 0.50975496, 1.6171635, 1.5567071, 1.0890827, -1.6719495, 0.3805374, -1.5120593, -0.191677, 1.2800765, 2.0823772, -1.5336043, 0.73969156, 1.0895275, -0.9191848, 0.26203075, -3.5092547, 0.7283573, 0.52530015, 0.6287253, -0.64626616, 0.29794735, 1.511136, -2.1172779, -0.5961102, 1.2531638, -0.12204769, -2.1334643, 0.9284475, -0.7360514, 1.3498102, -0.011725402, 0.14017244, -0.6410228, 0.26248908, -0.6926213, 2.1204524, 2.487616, 1.2227627, 0.21785094, 0.7428873, 0.6204535, -0.12727177, 0.64590096, -0.046397362, 1.2449336, 1.4637847, 0.5600463, -0.94107366, 1.7305698, -0.5402496, 0.3656495, -0.4067865, -1.7001714, 1.1800734, -1.8901141, 0.2397767, -0.0435875, -0.088195555, 0.8742044, 2.1006072, 1.2450174, 2.4235249, 0.30020782, -1.1832159, 1.8183168, -1.6406276, 0.13760485, 0.25885493, -1.5952986, -1.4677681, -0.7081848, 0.8257648, 1.4148129, -0.7453417, 0.9812085, -1.305382, 0.8551568, -0.31003514, -0.9852744, 3.840642, 2.3895128, -2.0463908, -0.11989699, 2.4107363, 0.79468507, 0.046004876, 1.4423774, -0.08640416, 0.09477845, 1.2683338, -0.81301224, -1.7701433, -0.38283312, 0.6322883, 0.20569946, 0.59401345, -0.96821916, -1.9097784, -0.60552996, -2.4793777, -1.0010085, -1.2253518, -1.072714, 1.3183594, -0.2409515, 0.35410637, -0.7526636, 0.5313937, -0.8234431, -0.59118354, 0.7144872, 0.016627507, 0.9742914, 1.0007744, 1.875761, -0.38991854, -0.85213727, -1.2123477, -2.0820312, 0.90581095, -0.115932204, 0.82066375, 0.20893249, -1.0046021, -0.65036005, -0.6651561, 2.5574656, 0.5555563, 1.556763, 1.0917982, -0.43132797, 1.2857004, -2.2944002, 1.0692748, -0.36400768, 0.22126591, 0.74461293, 1.1941137, -1.0144994, -1.3806492, -0.104646355, -1.5949847, 1.4461215, 0.20754015, -1.5314256, -0.0375471, -0.9702694, -0.8094173, 1.0907006, 0.166768, 0.6248355, -0.89108735, -0.48550057, -0.7799528, 0.025775796, 0.20938484, 1.3419325, -1.5740644, -0.37179026, 0.75784975, -1.1074938, -0.28846645, 1.0404329, 1.6793934, -0.8880146, 1.7551489, -2.1541212, 2.3590105, -1.3771367, -1.1742406, -0.47605294, 1.611118, 3.4719431, -0.45957243, -0.1910323, 0.23772778, 1.3280412, 0.3221489, -1.3746434, -0.5913829, -0.61889315, 0.9012049, 1.5721246, 1.8474034, -1.1005886, -0.6451519, 0.43676424, 1.9096879, 0.72391486, 3.826209, -1.2561628, 0.18312642, 0.85324687, -0.6386692, 0.10623909, 1.1227435, -1.0051169, 1.4024236, 1.5749638, -1.5167266, 2.3111377, -0.901286, -1.3055656, 1.4861737, -0.21691969, -0.036683626, -0.7248249, 1.444948, 0.972611, -0.79216516, -1.6605767, -0.6229577, -0.29141477, -0.7041388, -0.95451933, 0.4254726, 0.7834612, -0.93124944, 2.627927, 0.37260914, -0.89185536, 2.471278, 1.318213, 0.49611503, 1.0098548, -0.65259784, -0.9438676, 1.0273131, 0.19805992, -0.86485195, 1.1639388, -1.719809, -0.8439988, -2.7333717, -1.6197952, -0.2987839, -0.88531375, -0.19283517, -0.2348829, 0.41338596, -0.25496665, -1.1074059, 1.5893701, -0.02119899, -0.6064879, 1.9972566, -1.1555103, -3.1633122, 0.12493614, -1.1033161, 0.0043399823, 0.6710954, -0.66471976, -1.3381515, 0.14738968, 1.8350966, 1.0639821, -0.26382488, -1.268403, 0.449735, -0.15081903, 0.8689783, 1.4498467, 1.3631189, -0.326434, 0.27526024, -0.39554507, 0.18739091, 1.2650529, 3.043735, 0.50765085, 1.0787077, -1.004815, -0.7482225, -0.9062334, -0.6205642, 0.44751576, -1.2909358, 0.24626605, 0.493651, 0.5701688, -2.048232, 0.10269739, 0.35213262, -1.7653164, -3.5804029, 0.120644055, -1.7235104, -0.08111656, 0.11483523, 0.92868966, 2.6483471, -1.0083792, -2.5239325, 0.44916886, -0.11848603, -1.5730081, -1.0145301, 1.8884324, 0.0047300635, 0.8555858, 0.8748377, -1.2212486, -0.7238763, -0.24670975, 0.073741116, 0.252009, 0.021195663, 1.0051076, 1.3338939, -1.7667692, -1.6162295, -1.9330616, 0.056097794, -0.41062126, -0.2307202, 1.1333463, -1.2330259, -1.2291516, 0.3651386, -0.24404383, 1.1842496, 1.3494072, 0.994891, 0.33904546, 0.19205552, 3.127448, -1.9282665, -1.1205828, -0.36980867, 0.14584035, -0.5895158, 0.11285284, 1.2478873, -0.2226496, -1.0233643, 0.8506099, -0.19251786, -0.7340444, 2.2159615, 0.26575273, -0.3303735, 1.9930017, 0.19001026, 0.90608233, 0.1468782, 0.6427737, 0.5135102, 2.4362867, -0.6378224, -1.977084, -1.1920369, -0.93708754, 0.55223215, -0.92696404, 1.4374149, 0.71443665, 0.6381264, 2.05994, 0.88304365, 0.86937344, 0.39467293, -0.952827, 0.0046060756, 1.2915106, -2.2095592, -0.17772107, -0.17959054, 0.22272211, -2.557226, -1.282321, -0.46616024, -0.9747557, 0.57432467, 0.7381775, 0.20750223, -0.25894606, 0.05827078, 0.6266092, -0.63228565, 0.30969405, 0.70987177, -0.6152763, 0.60634655, 1.5073575, 2.7446089, 0.21386003, -2.305297, 0.4657937, 0.30672446, -0.590819, 0.29765597, -2.3227658, 2.295055, -1.732837, -0.97051555, 1.2300576, -0.4368198, -0.79136956, -0.5136546, -0.027494425, 0.37604842, -1.7149634, 1.5051303, -0.49239773, -1.786343, 0.8768254, 0.08778286, 0.40935665, 0.72937644, 0.80362844, -1.6425887, -3.194328, 1.1416641, 0.16638948, 1.6142445, 0.82052404, 1.8262677, -0.12494944, -1.6020468, -1.076269, 0.35293686, -0.3627464, -2.0848093, -1.3112813, -0.982972, -0.058049757, -2.262501, 0.41798404, -1.5564117, -0.6487036, -0.5168065, 1.586821, -1.8876979, -0.52817, 0.031607896, -1.1688548, 0.21455769, 0.2793235, 0.70789605, 0.37420672, -1.1308168, -0.6675049, 1.772288, 1.9673823, -1.1750282, -0.66060996, 1.0253633, -0.02860337, 0.8388406, 0.5786053, 0.8220448, 0.65094745, 0.4901083, -1.2955924, 1.3602564, -1.0387725, 2.0329983, 1.3543857, 1.4081686, 0.6690584, 0.28223985, 0.4494436, 2.0853946, -0.46210432, -0.8999057, -1.1598507, -0.49833342, 0.96328443, -0.49488568, 0.39657018, -1.9839906, -0.648363, 0.8164488, -0.73828256, 2.0130732, -2.1010408, -0.0601474, 2.0217397, 0.200031, -0.20938751, -0.07044372, -1.0240895, -1.0019877, -0.3671529, -0.018771553, 0.882721, 0.033352803, 0.19553469, 1.1414459, 1.3776582, -0.27366236, -1.7101365, -0.7770627, 0.69039375, -0.27461362, -0.13552952, -0.84244746, -0.5800981, -0.33529356, -1.411516, 0.60760814, -0.039725736, 0.6565826, 2.5456083, -0.6443303, 2.177149, -0.94550407, -0.37933466, -0.5732302, 0.03281995, -0.45925048, -0.7422846, -1.3920912, -0.24103124, -1.2213683, -0.22604296, 0.9304565, 0.12029114, 3.8098977, 2.0613718, 0.9084104, -0.7472945, 0.8268331, -0.21779673, -1.9781777, -1.1801984, 1.0680374, -0.6239849, 0.1861529, -0.29142275, -8.138517, -0.09249238, -0.25698096, -1.4746519, 0.69915223, 2.251453, -0.7363694, 0.52824384, -2.191675, 0.68564004, -2.1332383, -0.16323562, 0.0010963045, 1.638145, 1.4447564, 0.9633802, -0.6739266, -0.92499894, -1.2794938, -1.3562151, -0.50152075, 2.2740815, 0.40489691, 1.6844293, 2.6819599, -0.516732, -0.5430805, -1.2401599, -0.96483845, 0.36457446, 1.6777318, -1.3523421, 0.20574069, -0.09824831, 0.24284841, -0.9588859, -1.3291348, 1.6813878, 0.34288853, -0.4366731, 0.38317305, -2.2022974, -2.5419948, -0.8062837, -1.3535476, 0.9042089, 2.5989442, 1.5084804, -0.84181553, 0.8214354, 0.046776544, 0.7126405, -0.89650565, -0.10142978, 0.6916058, 1.5923743, 0.2766366, 1.0797894, -0.13588588, -1.3518552, 0.4034028, -1.6345527, -1.4446685, 2.7471848, 0.69519943, 1.071039, -0.66306335, 0.94157124, -0.55962086, -1.6899587, -0.92939746, -1.1225021, 1.2447952, 0.06810359, -0.38026467, -0.86667395, -1.6953025, -0.62298435, 0.71316737, -0.39490378, 0.99101, 0.50068384, -0.53944033, 0.4485961, -2.0301642, -0.7312936, -0.76267403, 0.30451787, 1.6065863, -0.9278684, 0.38354427, 0.7870814, 1.5898943, 1.6055219, -1.4682564, -0.54296744, -0.121669844, 1.6893334, -0.21013324, -2.5275035, -1.0480645, -0.8184731, -0.3175285, -0.16361447, -0.80440944, -3.0610976, -0.15867545, 0.23504423, 0.007663488, 2.184573, 0.052104857, 0.8481029, 0.76141006, -0.47001994, -0.44493464, -0.6449676, -0.192293, 3.4323537, -0.6844426, 1.6661167, 0.10610072, 1.5665287, -2.5435328, 3.8925462, -0.8718588, -1.3566928, 0.5265528, -1.3499765, 1.4914504, -1.567899, -0.68476987, 0.2899699, -0.2976573, -2.3071754, -1.1309125, -0.5347305, -1.0175436, -0.6425063, 0.5189594, -0.06523693, -0.24042463, -1.1132227, 0.933482, 0.8013527, 1.501272, 3.055076, -0.05391317, -0.93732214, -0.010468943, -0.4425172, 0.08707472, 0.53001, 0.4841834, -0.073610395, -0.45155805, 1.2315621, -1.4390486, -1.6414472, -0.66299945, -0.9127932, 0.3520827, 1.7677537, 0.3773037, -0.4213215, -1.8218985, 0.23616315, -0.61626685, -0.9587249, -0.5323516, -0.42217037, 0.45112398, -2.2531452, 2.4880311, -2.3105628, 0.23897026, -1.2075129, 1.0108113, -0.068909526, -0.17951412, -0.40874994, -0.93662924, -1.0063357, 0.13402788, -0.04343308, -1.1705378, -1.0708075, -1.1487887, -0.011098753, -0.35118133, 2.1089067, -0.8275396, -0.26534095, 0.8638906, 0.19180672, -1.2379832, 0.27317706, -1.0152138, 0.6522586, 0.45862114, -1.2343191, -1.8133249, -1.7319748, -1.2414504, 0.18124148, 0.037653536, -1.3171114, -1.0075251, 1.4284103, 0.75658995, -1.1452258, 0.49814096, 1.7444866, 0.7099024, 0.27409807, -0.21287467, -1.7655185, -0.01775541, -1.1553799, -0.92040616, 1.2660308, -0.6889236, 0.99608845, -0.9592159, -1.5971401, -0.18540718, -3.7418895, 1.1414552, 1.3569297, -0.23018137, 0.021010064, 0.1994609, 0.41441375, 0.87873596, -1.0738901, 4.062532, -1.4523871, 0.21596134, 0.3063426, 1.6454253, 0.15585752, -0.36096558, 0.77803224, 1.1668725, -0.4091371, 1.4552617, 0.6126719, -0.7171864, 1.6925132, 2.2391274, -0.22135505, -0.21902607, 0.61263466, 0.24851386, 0.81691533, 1.1147048, -0.3615789, 1.466568, 1.0113596, 0.8390388, 0.37588477, -1.3764795, -1.342063, 1.5783446, -2.5099838, -1.1918507, 0.2666854, 0.5070169, 0.15799591, -0.6939769, -1.591435, -2.5084193, 0.00073807634, -0.35517606, -0.10547108, -3.40716, -1.4548147, 0.07614094, 1.652039, -0.98984253, -1.3225131, 0.13909097, -1.6928538, -2.2351093, -0.3374416, 0.63137424, -1.0548897, 1.1397603, 2.0850594, -0.2864701, -1.194775, 0.6327733, -0.12325576, 0.6256632, -1.4482502, 0.62366486, 0.5411493, -1.2716707, 1.1900239, -2.0008833, 1.9193844, 1.1261947, 0.025952082, -0.42809892, -1.8172817, 0.5096778, 0.24269041, -0.70433307, 0.20854233, -1.5228773, -1.6614867, 0.84416276, 0.46779206, 0.9783906, -1.8107225, 1.779507, -0.6635561, 1.3359056, -0.58597475, 0.062259186, -1.5389081, -0.057553325, -0.21419847, 1.8435425, -0.53981555, -0.7758137, -0.21218747, -2.3570175, -0.80582905, 0.8067471, 0.14994092, 0.9210089, 0.0030547513, 1.0492512, 0.22453487, -0.24708362, 1.2353142, -1.3068508, -1.9727681, 0.2894949, 0.9934195, 0.34976104, -1.8168001, -0.17365517, 0.8027903, -0.812202, 2.2686584, 3.1385708, 0.40153748, 2.059509, 1.6046518, 0.10751367, -1.3246977, -0.109272555, 0.014399016, 0.93478787, 0.36072743, 0.84057486, 0.5008129, -0.15923025, -0.62865347, -0.13481086, -0.57793474, 0.797326, -0.8219729, -0.8237983, -1.4537104, 0.037585016, 2.6906185, -1.6880156, -0.035773586, 0.76021135, 1.813426, 1.6101067, 0.49302337, 1.9637607, -0.8106972, -1.6543634, -0.49117902, -2.1771543, 1.7961406, -0.25038582, -1.6504226, -1.3240963, 0.04605267, -1.8023858, 0.8565491, 1.0353851, -0.7445378, -0.5898833, 0.5081983, -0.7532277, -0.6810296, -1.7629827, 3.38955, 3.0580404, -1.3330743, -1.0237861, 0.805064, 0.5647272, -2.9040787, -0.3316095, -2.2104638, -0.8862245, 0.8701039, -0.3023286, 0.26291284, -1.6846102, -0.12443256, 0.9183728, 1.4567944, -0.5476676, -0.9132935, -0.035119664, 0.38147122, 1.082916, 0.52308327, -0.25041512, -0.1742898, 1.5573405, 0.20785613, -0.49097145, -0.85164064, 0.6658959, -0.24868284, -0.8439785, -1.0665818, 0.6740197, -0.42708012, 1.364899, -0.3532437, -0.035888005, -0.10457601, 0.105499685, -0.7606251, -0.13289565, -0.16399398, 0.83055973, 1.1226637, -1.267469, -0.8407751, -1.3337536, -1.5341663, 1.1614388, 1.9055421, 1.4294188, -0.48230013, 2.019494, 2.1560397, 0.77207243, -0.92479604, -1.9130354, -2.7453594, 1.5851818, 0.3202779, -2.3592312, -2.6010728, 0.43444857, -1.3048778, -0.16572125, -0.6186829, -0.47500154, 1.0070329, 0.02430962, 0.5010923, -0.42094168, -1.679645, 0.49381733, 2.6968825, 0.97832936, -0.35155985, -0.5053079, 2.1172993, -1.1297364, 0.24218312, 0.30434158, -0.7442564, -0.76575273, -1.5276524, 0.9120216, 1.8796513, 0.56852436, 1.3586433, 1.4706353, -0.41326356, -0.8192827, -0.22626713, -0.17861448, 0.790394, -0.87424827, 1.8143268, -0.771966, -0.2568306, 0.68455434, -0.40698442, -0.7787833, -0.27313015, 1.0805744, -0.32277387, -1.0421252, -2.0659432, -1.9728159, -2.7098413, -0.077268176, 0.708369, 1.5061015, 1.2381003, -0.40890577, -0.50903255, 0.26980567, 0.03572569, -0.1524956, 2.8571346, 0.78199637, 0.32717106, -0.8126011, -0.119748645, -4.334261, 0.074107654, -1.8999702, 0.46722463, 1.9450864, -0.37149155, -0.979729, 2.185052, 0.68131864, -0.46618885, -1.4156032, 1.1312904, -1.3703353, -0.7380245, -0.10599295, -0.9807162, 0.32924858, -0.22124197, 0.8371808, -2.1094575, 0.33881465, -0.033970803, -1.8243066, 0.49347305, 0.7876216, 1.2394081, -1.070419, -2.0118785, 0.7387788, -2.764087, -1.0273384, -0.31257716, 1.1009265, 1.3060699, 0.2636945, 0.27872777, -1.4169203, -0.2030781, -0.4769949, 1.2429272, -0.25228906, 0.22283188, -0.30224943, 0.9213774, -1.5427958, -1.4297886, -0.29641998, 1.8962129, 0.041707467, -2.0033135, -0.22630705, -0.99749076, 1.5576146, 1.9384127, -0.08766519, 0.8263981, -0.32365197, 1.0544493, 1.2530826, -0.74983835, 1.3188989, -1.9162765, 2.237942, 0.24174047, -0.9480825, -0.920478, -0.5284121, -1.1514417, 2.2538264, 1.1111472, 0.644964, 2.611935, -0.65299433, -0.4096347, -0.52112913, -0.5214578, -0.5792922, -1.6611285, -0.18783179, -0.16671012, 0.014568776, -1.6179857, 0.9909458, -0.5431748, 0.76012486, 0.81829685, -0.11389892, 0.024979511, 2.1777582, -0.099359244, -0.33784273, -0.38583016, -2.1029036, 1.642469, 0.42263868, 0.2819445, -2.38674, 0.8945565, -1.6482671, 1.2836102, 2.3838396, -1.6854311, -1.1967307, 0.2829756, -1.8471719, 1.1021186, 1.1306013, 0.24858072, 0.5566553, -0.052697454, 0.3500451, -0.4546526, -0.86838627, -0.27861434, -0.587119, -0.68509275, -0.38120264, -0.33092695, -2.2921119, -2.6576123, 0.15919332, -2.1753502, 1.9008456, -1.283867, 0.9344253, 0.52887845, -1.358896, -0.023915803, 0.20897971, 0.7544544, -1.9841887, 0.6474034, -0.3842002, -0.9747477, 0.5193157, 0.51315266, -2.420023, 0.9845852, -1.1171689, -1.9825017, 0.39716426, -0.4052994, -0.22878703, 1.3888967, -0.6726442, -0.5219194, 0.94355494, -1.075033, -0.81437063, -0.76398057, 0.604101, -1.5096352, -2.5097764, 0.6225799, 0.66101575, 1.1855655, 1.334462, 0.6128462, -1.9381067, 0.92521846, 0.165071, -1.0342249, -0.7133962, 0.9435962, 0.8183341, -0.57650316, -0.48407164, -0.8563841, 0.7020586, 1.0822841, 0.93163663, 1.2715483, -0.6466159, -1.6495924, -0.94314384, 0.105579175, -0.034037992, -0.23331195, 0.87604576, 1.1214304, 0.14515258, -0.34203336, -0.07271466, -1.599008, -0.45773906, 2.039129, -1.9128172, 0.94494265, -1.7836767, -1.0049973, -0.57358545, -1.6115011, -0.7283523, 0.6328205, 0.05554698, -0.2885343, -2.4501</t>
-  </si>
-  <si>
-    <t>[2.1777344, -0.7348633, 0.9350586, -0.8359375, 1.1113281, -1.625, -0.5625, 1.9023438, 2.4335938, 0.921875, -1.8847656, 1.0126953, -1.0058594, -2.0292969, 1.2548828, -1.0380859, 0.63183594, -0.26464844, -0.09020996, -0.83447266, 0.95654297, 2.1757812, 0.33691406, -1.1845703, 0.78808594, 1.3613281, -0.51953125, -1.4677734, -1.4892578, 0.9980469, 0.6635742, 2.0019531, 1.1464844, 1.4238281, 1.4316406, -2.75, 1.2402344, -0.4597168, 0.15246582, 1.671875, -0.83691406, -1.4404297, -1.5908203, 0.8461914, -2.3222656, 0.15991211, -0.93847656, -1.21875, -0.13012695, 0.02633667, 1.1367188, -0.66552734, -0.039367676, 1.7236328, -1.625, -0.064331055, 2.0273438, -0.0993042, 0.32714844, 1.9726562, -0.7841797, 3.4648438, -0.6152344, -0.6791992, 0.61376953, -0.18408203, -2.71875, -0.49194336, -0.10192871, 0.38916016, 0.094177246, -0.77978516, -1.0869141, -0.44433594, 3.7402344, 1.9765625, 0.6254883, 0.92529297, 0.093688965, 1.6914062, 2.125, -0.3840332, -1.1474609, 0.83203125, 1.5322266, 1.3369141, -2.1796875, -0.91796875, 2.0996094, 0.25073242, -1.3759766, 0.3623047, 0.11566162, -1.4199219, 1.4199219, -0.51464844, 1.3457031, -0.16760254, 2.0078125, 0.3642578, -0.8388672, 0.39672852, 1.4833984, 0.8911133, -1.7216797, 0.77734375, -0.57470703, -2.390625, -2.7226562, -0.47192383, -1.4121094, -1.7490234, 1.6015625, -0.06359863, 0.8613281, 0.39868164, 0.13781738, -0.38623047, -0.64453125, -0.34155273, -0.20275879, -1.203125, 1.0908203, 1.8271484, 0.59033203, -0.7607422, 0.44018555, -1.3964844, -0.2927246, 2.1386719, -0.41918945, -0.21228027, 0.49365234, -1.2929688, 2.0410156, -1.7011719, -0.31396484, -0.8652344, -1.7802734, -0.3527832, 0.93310547, 0.88427734, -0.09631348, 0.3293457, -0.66259766, -0.06616211, 1.3544922, -0.63378906, -0.8305664, 0.63964844, -0.91064453, -1.5048828, -0.74365234, 0.34155273, -1.0410156, 1.3271484, -0.24816895, -1.6357422, 2.0488281, 1.1796875, 0.28710938, -0.16296387, -0.5932617, -2.7851562, 1.8378906, -0.35595703, 0.09173584, 2.3886719, -0.24389648, -0.78222656, -0.060180664, -1.7597656, 0.0005078316, 0.54345703, -0.28320312, -0.20080566, 1.2919922, -1.5566406, -1.0253906, -0.21447754, -0.625, -0.97753906, 0.8569336, -0.5830078, -2.7949219, -0.07293701, 0.86279297, 0.99658203, 0.83935547, 0.9667969, 0.09765625, -1.7333984, -0.4855957, -0.1538086, 0.5444336, 0.47436523, 0.8574219, -1.0566406, 6.2460938, -2.5527344, 0.16467285, 0.6464844, 0.80371094, -1.8974609, -0.5385742, 2.8574219, -0.15014648, 0.64404297, -1.6357422, -0.25683594, -0.34765625, -0.61083984, 0.70947266, 1.4941406, 1.3378906, -0.84716797, 0.42260742, -2.3671875, 0.17468262, 1.2099609, -0.008674622, -1.9873047, -1.0439453, 2.2285156, -1.7167969, 2, -1.0566406, -1.0888672, 0.25341797, -0.24914551, 0.47021484, -0.99121094, 0.07702637, -0.9946289, 0.2163086, 1.5546875, -2.2421875, 3.1972656, 0.6928711, -1.4589844, -0.72558594, -0.17346191, -1.2001953, 0.33325195, -0.23291016, 2.2734375, 1.0947266, -0.14294434, 1.7148438, -2.4160156, 1.3339844, -1.0214844, 0.171875, 1.1513672, -0.51953125, -0.097839355, -1.4589844, -1.9912109, -0.37524414, 0.47192383, -0.31811523, -1.5917969, 0.61621094, -0.3684082, 1.1337891, -1.3017578, -1.8720703, -0.90771484, -0.37353516, -0.44750977, 0.6933594, -0.8432617, 0.98535156, -0.77001953, -2.1171875, -0.31689453, 0.91503906, 1.9335938, -1.7148438, 0.6123047, 0.00031208992, -0.61083984, 2.0566406, -0.39233398, 0.98828125, -1.359375, -1.9873047, -0.7011719, -0.67822266, -1.6533203, 0.30273438, -0.57177734, 2.2519531, -1.1025391, -0.11779785, -1.9765625, -2.2382812, -0.18713379, 0.7290039, 0.26416016, -1.5761719, 0.95654297, -3.4160156, -0.7524414, -0.32836914, 0.57714844, 1.5429688, 2.1875, -0.43408203, 0.9946289, 0.7475586, 2.0566406, -2.1523438, -0.4633789, 1.3623047, -0.2076416, 0.35913086, -1.6972656, 0.6616211, -2.0117188, -1.3779297, -3.2050781, 0.5029297, 0.28979492, 0.76953125, -1.3564453, 1.1132812, 2.0859375, 0.8066406, -0.08074951, 2.7148438, 0.38452148, -1.2939453, 1.9941406, 1.2314453, -0.7397461, 0.30200195, 1.2939453, -0.009963989, -0.3840332, -1.46875, 1.6933594, 0.16040039, -0.07299805, -0.23095703, -0.099487305, -0.5048828, -0.77978516, 0.9819336, 0.59814453, -0.9038086, -1.6044922, 0.50390625, 2.0996094, 0.19104004, 1.0195312, 2.7109375, -0.3408203, -1.4267578, 0.7709961, 0.23510742, -0.07019043, 0.21643066, -0.11651611, -1.5234375, 1.8613281, -0.6635742, -1.6757812, -0.4206543, -2.5351562, -0.34375, 1.1806641, 0.8925781, -1.8115234, -0.03527832, 0.46655273, -2.6679688, 1.125, 2.2734375, -0.40527344, 1.9472656, -0.16455078, -1.6181641, -1.6933594, 0.5913086, -0.5864258, -0.96191406, 0.40014648, 0.30786133, 2.546875, -0.3684082, -0.8847656, -0.4716797, 0.3852539, 0.9140625, 0.15515137, 1.7509766, 2.03125, 0.49560547, -0.6245117, -1.0791016, -0.05407715, -0.6347656, -0.46704102, 0.08642578, 0.12249756, 0.49560547, 0.2631836, 1.6474609, 1.0859375, 1.2431641, -0.41748047, 2.0820312, -0.6455078, 1.4365234, 0.1270752, -0.7128906, -0.9448242, 0.84814453, 0.26879883, 0.7416992, -1.6220703, -0.1227417, 1.5390625, -0.02418518, 0.4169922, -1.8154297, -1.8232422, 1.3105469, 1.4345703, 0.328125, 0.32885742, -0.88623047, 0.52441406, -1.8916016, -1.8095703, 2.1386719, -2.6796875, 1.3339844, 0.6826172, -0.009963989, -0.7011719, 1.1542969, 0.06390381, 0.80322266, 4.2851562, -0.76464844, 1.0625, 0.6879883, 0.7783203, -0.91748047, 1.1386719, 0.80566406, -2.3222656, -0.72314453, -1.8144531, 0.94140625, -0.7241211, -0.100097656, 1.0371094, -0.73535156, 2.78125, -0.41601562, 0.4729004, -0.62402344, 0.7314453, 1.7871094, 2.390625, -0.5698242, 2.1484375, -1.1171875, 0.6933594, -0.8105469, -0.36132812, -1.9042969, 1.1425781, -1.6699219, -3.3613281, 2.0605469, 2.0957031, -1.1171875, 0.83203125, 1.1875, 0.6220703, 0.11376953, -2.0332031, 2.171875, 0.42089844, -0.41967773, -0.8881836, -0.9873047, 0.65722656, 0.44140625, -0.15039062, -0.51464844, -2.0117188, 0.44921875, 0.51171875, -0.47875977, 0.6855469, 0.5488281, 1.0136719, -0.73535156, -0.6411133, -0.9370117, -2.9746094, 0.65527344, 0.2746582, -1.6904297, -0.45385742, 0.18225098, 0.78222656, -0.2286377, 0.14953613, -0.25073242, 1.2128906, -0.04321289, 0.27001953, 0.9350586, -2.6855469, 0.5517578, -1.4951172, -0.93310547, 0.20910645, 0.53564453, 2.4238281, -0.7675781, 2.0449219, 0.9550781, 1.0449219, 3.9667969, 1.7792969, -0.0657959, -0.007843018, -1.4941406, -0.090270996, 0.74609375, -2.4121094, -1.5292969, -1.1894531, 1.7460938, -0.19628906, -1.9785156, 1.3378906, 0.93066406, -1.1025391, 1.8105469, -0.42333984, -1.09375, -1.8789062, -1.3261719, 0.76416016, -0.6040039, 0.30029297, 0.8046875, 0.8066406, -0.46484375, 0.82958984, -0.107177734, 0.26000977, 0.76660156, -1.4873047, -0.14086914, -0.8642578, -0.6801758, 1.6289062, 0.6333008, 2.1542969, -0.29052734, -0.9765625, -1.6289062, -1.3779297, 1.1865234, -1.0839844, 0.9873047, -0.7841797, -1.0478516, 1.7412109, -0.71972656, -0.7504883, 2.71875, -0.16223145, 1.5898438, 0.8125, -0.021591187, -1.1357422, -0.33081055, 0.04611206, -1.0537109, 0.7763672, 0.9433594, 1.2539062, 0.30688477, 0.40795898, 0.4099121, 1.0400391, 1.0273438, -0.35742188, -0.5908203, 0.16760254, 1.0742188, 2.2070312, -0.58203125, 2.1914062, 0.9667969, 1.4404297, -2.3828125, 1.2753906, 0.87939453, 1.1240234, -1.359375, 1.7041016, 1.7822266, -1.546875, -1.2949219, 0.19946289, -0.5708008, -0.56103516, -1.5537109, -1.375, -0.40600586, -1.1269531, -1.2011719, 0.6904297, 1.5244141, 1.6962891, -2.3867188, -0.8105469, 0.7128906, 1.0527344, -2.5078125, 0.99658203, 0.7319336, -1.375, 2.1835938, 3.5605469, -0.121154785, -0.10571289, -1.2021484, -0.20129395, 0.14379883, 0.31420898, 1.1298828, 1.1816406, 2.3027344, 0.1899414, 0.7480469, -0.6044922, 0.45996094, 0.04336548, -1.1513672, 1.2128906, 2.7871094, 1.4570312, -0.77685547, -1.8125, 0.0056648254, 0.9980469, -0.38061523, 0.6948242, -1.4208984, -0.2783203, 0.5107422, -2.1542969, 1.7080078, 0.08227539, 0.8305664, -0.91796875, 1.1650391, -1.5820312, -0.39331055, 0.0017137527, -0.39160156, 0.53466797, -0.078125, -1.7451172, 2.796875, -1.0253906, 0.17248535, 1.5996094, 0.7055664, 0.70214844, -0.9946289, 3.1503906, -2.2402344, -1.125, 0.79003906, 0.3635254, -0.29101562, 2.9414062, 2.7128906, -0.8774414, -0.5288086, 2.078125, -2.2871094, -0.7446289, 0.1829834, 2.0605469, -1.2685547, -2.8652344, 1.2939453, 0.65185547, -0.12219238, -0.7675781, -0.6220703, 0.6665039, -0.19274902, -0.52001953, 0.21850586, -0.36669922, -0.68603516, 1.8632812, 0.6269531, 0.37329102, 0.7705078, -1.1435547, -1.5546875, 1.0654297, -0.055511475, 0.78466797, 0.8203125, -1.7158203, 0.96728516, -0.0014820099, 1.4941406, 1.9335938, -0.82714844, 2.484375, 0.32739258, -0.7246094, -0.0256958, 1.5068359, 2.3339844, 0.096191406, 1.2275391, -2.2421875, 0.6274414, -0.59228516, -1.5478516, -0.6542969, -0.009811401, -0.3527832, 1.9462891, -0.8769531, 2.5585938, 0.46972656, 1.6083984, 1.0800781, 1.0332031, -0.45751953, 0.25048828, 0.16784668, 0.65771484, 0.70751953, -0.8623047, -1.2744141, 0.004421234, -0.5131836, -1.3251953, -1.8505859, -1.3789062, -2.1074219, 1.4541016, 0.703125, 1.6777344, 0.84228516, 1.0205078, -0.032714844, -1.1660156, 0.3408203, -2.59375, -5.1289062, -0.85839844, 0.3581543, -0.67626953, 1.7519531, 0.5107422, -1.4267578, 1.5820312, 2.1777344, -0.2565918, 2.0878906, -0.23217773, 0.4873047, 1.5771484, 1.0400391, -1.4892578, -0.49365234, -0.8364258, 0.08319092, 0.38720703, -2.7539062, 1.5166016, 0.30541992, -1.6210938, -0.63720703, 1.6445312, 0.5473633, 0.04925537, 2.1074219, -1.9238281, 1.6884766, 0.41333008, 0.7758789, 0.17443848, 0.8989258, 1.1611328, 1.4121094, 0.41357422, -2.3769531, 0.5385742, -1.296875, -1.0039062, -0.06695557, -1.1767578, 1.8408203, -2.5527344, 1.1259766, -1.0771484, 0.20141602, 0.68847656, 1.0478516, 0.1239624, 0.56689453, -0.9628906, -0.55371094, 1.7363281, 1.078125, -0.62890625, 1.1650391, -0.26416016, -1.3916016, 0.9838867, -0.34350586, 1.3779297, -1.3886719, -1.4257812, 1.9599609, -0.018936157, 2, 1.1650391, -0.42089844, 1.0126953, -0.26831055, 0.46923828, -2.6933594, 1.9912109, 1.5966797, -0.43969727, -0.63916016, 0.8881836, 0.05709839, 2.1132812, 0.25268555, 0.48779297, -1.5341797, 0.6386719, 0.44628906, -0.06958008, -0.15332031, -0.19140625, 1.4736328, 0.41308594, -1.5830078, 2.0585938, 0.14904785, -1.0371094, 0.77490234, -1.9228516, 0.5908203, 0.75390625, 1.9365234, 1.015625, 1.3320312, 1.3349609, 0.28198242, 0.88623047, 0.22058105, 0.77441406, -0.6743164, -1.1972656, 0.115478516, -0.71240234, 0.060913086, 1.4814453, 0.18933105, -1.0361328, -0.44189453, 1.3525391, 0.36547852, -1.0410156, -1.375, -0.421875, -0.8022461, 0.48876953, 0.043792725, 1.6367188, -2.3652344, 1.1308594, -2.53125, -1.7675781, 2.3574219, -0.4091797, -0.19555664, -0.67041016, -1.1806641, -2.8730469, 0.74316406, 2.5527344, -1.2773438, -0.6459961, -0.32885742, -0.2998047, -0.83203125, -2.1191406, -0.55078125, 0.07897949, -0.23132324, -0.35253906, 0.8779297, -0.60546875, 1.1240234, -0.8701172, 1.9335938, 1.3408203, -0.7260742, -0.66259766, 0.88378906, -0.88378906, -0.43945312, -0.90283203, -1.765625, 0.9604492, -0.051727295, -1.7392578, -1.3203125, -0.77734375, -0.6479492, -0.29003906, -0.115112305, 1.1835938, -0.32592773, 1.3583984, 3.2851562, 0.14782715, 0.11846924, 0.37939453, 0.8208008, -1.7324219, -1.7958984, 0.27685547, -0.8388672, 0.34326172, -1.9082031, -0.53759766, 0.12573242, 0.04827881, 1.4335938, 0.8486328, -0.63623047, -0.16931152, -0.11102295, -0.19067383, -0.20410156, -1.3818359, 0.82177734, 0.8149414, 0.39648438, -2.3320312, -0.42407227, -1.1132812, -0.76953125, 0.31152344, 0.20275879, -0.22814941, -0.079956055, 0.9692383, 0.9873047, -0.23132324, 1.7099609, -0.93310547, -1.0390625, -0.63720703, -0.68847656, 0.20056152, 0.16149902, -0.35253906, 0.18835449, -1.8037109, 1.0664062, -0.3491211, -1.0361328, 1.625, -0.8432617, -0.6816406, -0.8852539, 1.0341797, 0.04812622, -2.40625, -1.3583984, 0.60253906, -0.5029297, 0.71533203, 0.017181396, -0.6870117, -2.7070312, 1.3291016, -0.17541504, 0.35913086, -2.4042969, 0.045562744, 1.1757812, -0.24523926, 0.23486328, -0.69970703, 0.80371094, -0.92333984, -1.7958984, -0.82421875, 0.328125, 0.25708008, 1.4462891, 0.70214844, -1.0380859, 0.80566406, -0.82177734, -0.11810303, 1.2480469, 0.8383789, 0.36669922, -2.0429688, -0.07104492, 1.6376953, 0.078125, 2.9160156, 1.9619141, 2.9277344, 0.044189453, 0.1227417, 0.35424805, -2.5039062, 2.5917969, -1.3261719, -0.69921875, 1.1621094, 0.12310791, -0.08569336, 0.6123047, -1.203125, 1.2167969, -0.4963379, 0.5205078, 0.4658203, -0.51171875, 0.28515625, -0.62646484, -0.31396484, -0.25927734, -3.25, -0.75439453, 0.08874512, -0.94384766, 1.3925781, -2.5742188, 0.23693848, -2.1113281, 0.3017578, -0.91259766, -0.90722656, -0.28564453, 1.9277344, -0.36914062, -1.9853516, 1.4638672, -2.4414062, 0.25732422, 1.5742188, 0.36987305, 0.32543945, -0.17016602, -0.3803711, -0.12609863, -1.5634766, 0.40625, 1.7304688, -2.0722656, 0.05859375, 1.0166016, -1.2119141, -1.7412109, 4.4765625, 0.4892578, 0.47021484, -1.671875, 0.40527344, 0.9350586, 1.1542969, -0.52490234, -0.8564453, -1.9277344, -1.8066406, 0.6328125, 1.0498047, 1.2792969, 0.6010742, -0.41479492, 2.0351562, -0.062805176, 0.40429688, 0.12792969, 2.0976562, -1.7226562, 2.90625, 0.50683594, -0.17224121, 0.6567383, -0.01386261, 1.0888672, 2.0097656, 1.8408203, 1.2626953, 1.6542969, 0.5620117, 1.3095703, -2.8710938, -0.16589355, 1.8232422, 0.099365234, 0.6201172, 0.5283203, -0.025390625, 0.0836792, 0.35913086, -1.3828125, 2.1367188, 0.9296875, 1.0175781, -0.7319336, -0.5698242, 0.68603516, -0.2939453, 0.027023315, -0.390625, -0.31884766, 1.1044922, 2.1542969, -0.953125, -0.52978516, -0.5571289, 0.41308594, 1.2617188, -1.0439453, -1.2548828, 0.13928223, 2.0820312, -0.8378906, 1.2480469, 0.6953125, -1.6074219, 0.8671875, -0.7470703, -1.9462891, 1.5556641, -0.9873047, 1.3603516, -1.9257812, -1.1728516, -0.09039307, -1.5009766, 0.49414062, -0.79345703, 0.2800293, -0.83691406, 0.08673096, -0.5283203, -1.1503906, 0.76464844, 0.23913574, -0.625, 0.24230957, 0.6152344, 0.96484375, -0.5317383, -1.1025391, -1.1845703, 1.7421875, 2.1933594, -1.7304688, -1.8867188, -1.1367188, -0.32592773, -1.1962891, 2.7734375, -1.3613281, -1.1894531, -0.4399414, 0.105285645, 0.19958496, 0.074157715, 1.53125, -5.6796875, -0.7763672, -1.3183594, 3.4804688, 0.018127441, 1.2236328, 0.20715332, -0.9873047, -0.49682617, -1.6367188, -1.5556641, 1.3632812, -0.6879883, 0.33764648, 1.5234375, -1.5869141, 0.90527344, -0.078063965, -1.1816406, -0.4494629, 1.0097656, -0.70947266, -0.36889648, 1.5097656, 0.15356445, -1.1865234, -2.0683594, 1.3535156, -0.44018555, 0.09637451, -0.6791992, 0.38134766, -0.54003906, -0.46044922, 0.26904297, 0.12084961, -0.83447266, 0.13891602, -1.3818359, 0.17248535, -0.29833984, -0.8930664, -2.0546875, -0.8339844, -1.8261719, 0.27563477, 1.1152344, 0.6586914, 1.9443359, 0.44384766, -1.9853516, 1.2070312, 0.64990234, 1.0712891, 0.38745117, 0.43774414, -0.37646484, -0.2006836, -0.37890625, -1.671875, -1.0478516, 1.0439453, 0.94140625, 2.5097656, -0.9404297, -0.30786133, -0.22998047, -3.3945312, -2.203125, 0.5942383, -1.0566406, -0.26245117, 0.4050293, 1.7480469, 1.8417969, 1.5498047, -0.26611328, -0.91748047, -0.9458008, -0.14892578, 1.4951172, -0.5488281, -0.72216797, -0.108947754, 0.40185547, 0.68310547, 1.1982422, 0.71777344, 1.6367188, 0.40063477, -0.11413574, 0.9501953, -0.43066406, -1.6318359, 0.7026367, -1.5185547, 0.8300781, -0.55078125, -1.6552734, -1.8056641, 0.84765625, -0.14929199, 0.2861328, 1.0654297, 0.9057617, -0.8183594, -1.2060547, -0.3491211, -1.6699219, -1.5048828, -1.4375, -0.3918457, 0.12487793, 0.6455078, 1.7617188, -1.6367188, 0.5864258, -0.29345703, 2.1328125, 0.55810547, -2.6152344, 1.0771484, -0.51464844, 1.0732422, 1.1855469, -1.0966797, -1.5419922, -0.1953125, 0.44018555, 3.0585938, 0.67333984, 1.3300781, -2.203125, 0.08380127, -0.58251953, -0.8144531, 1.2324219, -0.9277344, 0.41796875, 0.40844727, 3.8632812, 1.9316406, 0.20739746, -0.82714844, 1.5449219, 3.5820312, 1.578125, 0.036590576, 0.35595703, 1.1767578, -0.24414062, -0.119140625, 0.34985352, 0.93408203, -2.2304688, -1.0332031, -0.19885254, 0.96728516, 0.2800293, 1.9873047, 0.89746094, 1.8535156, -1.2919922, 0.44726562, 4.9296875, 1.0410156, 0.7753906, 1.1962891, 2.0742188, -1.1513672, -0.49145508, 0.5131836, -1.5712891, -0.9873047, 1.8027344, -0.8154297, 0.74121094, -0.7705078, 0.3840332, -1.03125, -0.8378906, 0.11151123, -2.0625, -1.7402344, 0.18591309, -2.4316406, -0.77783203, -1.4169922, -0.5180664, 2.1132812, -0.3310547, 0.7036133, -2.0410156, -1.6767578, -0.13916016, 1.3945312, -0.6777344, 0.8144531, 2.1835938, 2.0546875, 1.2753906, 0.29638672, 1.0830078, -0.36669922, -0.27392578, 1.8974609, -1.5742188, 0.53759766, -0.07330322, 1.9912109, 0.7236328, 1.8789062, -0.118652344, 1.9658203, -2.0390625, -0.029190063, 0.24230957, 3.3457031, 0.87109375, 0.8925781, -1.0371094, -1.8193359, 0.43945312, 0.9746094, 1.3984375, -1.546875, 2.1738281, 0.09674072, 0.22106934, -0.8671875, -0.8173828, 0.71777344, 0.8144531, 0.4909668, 0.69384766, 0.44482422, -2.0332031, -1.7539062, 1.0527344, 1.9189453, -0.2980957, 2.71875, -1.6796875, 0.5698242, 0.86572266, 1.5703125, -1.4960938, -1.4394531, 1.1982422, -0.98535156, -0.9614258, -2.1757812, -0.08129883, 1.0957031, 1.25, -1.7792969, -1.0625, -0.3840332, -1.7158203, -0.07849121, 1.6347656, 0.2602539, -0.06744385, 0.5683594, -0.3466797, -0.30200195, 0.047943115, -1.9570312, -0.056884766, 0.7758789, 0.8276367, -1.6210938, 0.9848633, -0.009544373, 0.45458984, 3.4472656, -0.31396484, -2.7558594, 1.1943359, -0.47070312, -0.84375, 0.80078125, -2.6191406, 0.47387695, 0.25048828, 1.7265625, 0.19274902, -2.3925781, 1.5693359, 0.5732422, -2.046875, -1.2919922, 0.57958984, 1.6142578, -0.47875977, -1.6962891, 0.39501953, 0.23242188, -0.5263672, 0.9003906, 1.4492188, -2.9277344, 0.22692871, 0.7636719, -2.6171875, 0.7290039, -0.05984497, -0.22729492, -0.7651367, -0.16760254, -0.3059082, 0.9848633, 0.1282959, 1.6376953, -2.3691406, -1.2666016, -2.75, -0.37060547, -0.48291016, 1.8105469, 0.5625, -0.62060547, 0.0152282715, 2.5273438, 0.3942871, -0.89160156, -0.7055664, -0.2565918, 1.8056641, 1.1904297, -0.62890625, -1.7734375, -0.74316406, -0.48339844, 0.19909668, 0.2076416, -0.87890625, 0.97998047, -0.45361328, -1.21875, -0.6616211, -1.6210938, 0.62597656, 0.38793945, 0.6748047, -0.53564453, 0.8959961, -0.6347656, -1.8662109, -0.1303711, 0.83496094, -1.2451172, -1.8271484, -0.33007812, -0.82666016, 1.2441406, -0.46801758, 0.7988281, 1.7460938, -0.90771484, -2.0351562, 0.14868164, 3.5097656, -0.29492188, -0.54541016, 0.22155762, -0.9790039, 0.3581543, 1.0654297, 0.5732422, 0.1496582, 0.6513672, -0.7294922, -1.9804688, 1.0791016, -0.09283447, 0.7104492, -2.109375, -2.3125, 2.8261719, -1.5371094, 0.48242188, 1.1015625, 0.35327148, 1.0146484, 0.75097656, 0.8354492, 2.6328125, 0.19177246, -1.2392578, 0.7583008, 1.0273438, 1.3984375, 0.5917969, -1.4072266, -1.0566406, -0.38330078, 1.8330078, 0.5551758, 1.4443359, -0.28222656, -1.2353516, 1.7900391, 1.7675781, -1.0166016, 5.359375, -0.3269043, -1.8681641, 1.4970703, 4.578125, -0.5151367, -0.20043945, -2.5019531, -0.15393066, -0.0138549805, 1.0009766, -0.48950195, -1.5917969, -0.89453125, 0.20959473, 0.92578125, 0.25708008, -0.021743774, -2.5039062, -1.1748047, -3.3261719, 1.0087891, -0.72998047, 0.7729492, 1.0771484, -0.42993164, -0.034942627, -2.3085938, 0.56933594, -0.9848633, -0.7319336, 0.8339844, -0.40576172, 1.4941406, -0.8520508, 0.5722656, -0.5161133, -1.0039062, -0.6875, -2.1425781, 2.078125, 0.059692383, 0.94677734, 1.4140625, -1.0341797, -0.9584961, -1.8017578, 1.8447266, 0.74902344, 0.10681152, 0.6660156, -0.10797119, 2.4511719, -1.1318359, -0.6166992, 0.7753906, -1.8740234, 1.3271484, -0.58740234, -0.86328125, -0.18054199, 0.19482422, -2.0332031, 2.734375, 2.4824219, -2.203125, 2.359375, 0.64990234, -0.59228516, 1.03125, -0.045288086, 1.1152344, -0.44311523, 0.03616333, -1.1630859, -1.6621094, -0.9296875, 1.5058594, -1.8613281, 0.6738281, 0.25708008, -0.33544922, 1.4257812, -0.15637207, 0.76171875, -1.5771484, 0.11273193, -2.0332031, 1.3867188, -1.265625, -0.9213867, -2.0058594, 1.765625, 2.8964844, -0.8720703, 0.44018555, 0.83154297, 2.046875, 1.421875, -0.073913574, 0.7636719, 0.45385742, 1.4287109, 1.3408203, 0.6616211, -0.9584961, -0.34521484, 0.3408203, 1.1220703, 1.234375, 6.1640625, 0.69433594, -0.25268555, 1.03125, -0.42700195, 1.0292969, 1.515625, -2.2285156, 0.9785156, -1.0263672, 2.5253906, 2.5878906, 0.16247559, -2.4082031, 2.4394531, -0.265625, 0.07836914, -1.8066406, 1.2519531, 0.6069336, 0.44482422, -0.6254883, -1.2568359, -0.9746094, -1.5771484, -0.7973633, -0.45385742, 0.55029297, -0.23852539, 2.984375, -0.15637207, 0.35888672, 3.0390625, 0.68359375, 0.29467773, 1.6103516, -1.6542969, -0.15710449, 0.4658203, -1.1464844, -1.9550781, 0.15734863, -1.0625, -1.5400391, -0.01889038, -0.9165039, 1.9228516, -0.18945312, -0.44677734, -1.2998047, -1.4199219, -0.7705078, -2.1152344, -0.3881836, 0.07904053, 0.80126953, 1.1357422, 0.24438477, -1.7265625, -2.0625, -0.066589355, -0.578125, 0.9658203, -0.33325195, -1.703125, 0.18457031, 0.5654297, -0.03173828, 0.49902344, -1.2714844, -0.6479492, 0.14196777, -0.08355713, 0.44506836, 1.1240234, 1.3388672, 1.0117188, 1.4462891, 1.0410156, 0.6323242, 2.4492188, -0.08306885, 0.47973633, -3.3964844, 0.14074707, 0.8417969, -0.17797852, 1.8398438, -0.04260254, 0.30273438, -0.21154785, 0.38842773, -1.5, -1.3681641, -0.50683594, -1.1435547, -5.4257812, 0.3310547, 0.15368652, 0.68066406, -0.17919922, 0.17456055, 1.1904297, -0.34838867, -0.5546875, 0.12298584, -0.8051758, -2.5546875, -0.7285156, -0.76464844, 0.5102539, 1.0654297, 1.6542969, -0.8066406, -1.0986328, 0.5751953, 0.32299805, 1.0605469, -0.41430664, 1.1914062, -0.24414062, -0.04284668, 0.1315918, -2.4824219, -0.43310547, -0.63671875, -1.1503906, -1.0283203, -0.8959961, -0.9785156, -0.453125, -0.78222656, -0.26171875, 1.0800781, 0.37426758, 0.46435547, 0.48291016, 1.6826172, -1.3583984, -0.9394531, -0.7050781, 0.6816406, -0.3466797, -0.026107788, 0.31103516, -0.46533203, 0.30859375, 2.4296875, -2.1328125, 1.5195312, -0.02053833, -1.0878906, 0.15991211, 3.3261719, 0.08081055, 1.5771484, -0.58740234, 0.51220703, -0.1262207, 1.3232422, 0.3840332, -0.23217773, -0.58740234, -1.6269531, 0.26660156, -0.7661133, 2.2851562, 1.4960938, 2.0390625, 0.80078125, 0.7416992, -0.29858398, 1.5820312, -0.57714844, 1.0371094, 1.2060547, -1.2753906, 0.2388916, 0.3046875, 0.9682617, -2.46875, -1.2871094, -0.65478516, -1.1621094, 0.63427734, 1.2919922, 0.31054688, -0.38549805, 1.2255859, 0.42382812, -0.65771484, -0.66064453, 1.3320312, -1.7822266, -0.37451172, 1.1259766, 0.59228516, -0.50390625, 1.4492188, 0.5029297, 0.6694336, -0.3388672, -0.78271484, -0.875, 2.8671875, -1.2324219, -1.0419922, 2.2050781, -0.27026367, -3.4160156, 0.8227539, 0.35131836, -0.120910645, -0.66503906, -0.2998047, -0.3540039, -1.2958984, 0.9711914, 1.0917969, 1.4951172, 0.18359375, -0.43896484, -1.6005859, -2.0585938, 0.32885742, 0.37841797, 0.46923828, 0.17956543, 0.88671875, 1.1347656, -2.453125, 0.70214844, 0.13110352, -0.65625, -1.1279297, 0.09576416, -0.77783203, -0.46484375, -0.87646484, 0.07775879, -1.5537109, -0.12841797, -0.26000977, 1.0791016, -1.5654297, 0.44384766, 0.94921875, -0.23754883, 0.054107666, -1.5136719, -0.05883789, -1.7597656, 0.49560547, -0.34301758, 0.16052246, -0.024765015, -2.2011719, -0.96191406, -0.75, 0.17932129, -0.6479492, -0.17016602, 0.041259766, 0.14477539, -1.2460938, -0.62890625, 1.2871094, -0.019134521, -0.24499512, -0.0340271, 0.6879883, 0.54296875, -1.6767578, 1.5556641, 1.7021484, -0.9404297, -0.5991211, -1.1298828, 0.6147461, 0.13171387, -0.74365234, -0.37060547, -0.1739502, -0.46484375, -0.110839844, 0.18066406, -0.74072266, -1.578125, -0.6713867, 2.171875, -0.51416016, 0.7114258, -1.2207031, -0.8671875, 0.6748047, 0.051330566, 1.4394531, 2.53125, -1.2617188, 1.4638672, 0.21508789, -0.34472656, -0.66503906, -0.796875, -1.0771484, -0.1862793, -0.51464844, 1.5996094, 0.27124023, -1.9599609, -1.0927734, -1.1650391, 1.1884766, -0.27539062, 1.9365234, 1.1044922, -1.0390625, 0.3869629, -1.3066406, -1.3154297, -0.76220703, -1.4042969, 0.53515625, -0.5800781, -1.1396484, -0.4584961, -1.7333984, -1.9804688, 1.859375, -0.8149414, 2.6054688, 2.1132812, -0.21655273, 2.5351562, -0.23217773, 1.7685547, -0.6796875, -1.6943359, 0.79589844, 0.16772461, -0.5839844, -0.46166992, -7.1679688, 0.26586914, 1.3945312, 2.1699219, 1.7539062, 0.8071289, -0.20581055, 1.6894531, -2.3945312, 1.2353516, -2.6699219, -0.75, -0.5385742, 0.93310547, 1.7548828, 1.4267578, 0.012184143, -1.6757812, -1.6914062, -1.1845703, -2.7792969, 1.5253906, 0.32080078, 1.1445312, 0.24841309, -1.7890625, 1.0488281, -1.0751953, -0.95947266, 1.140625, 0.890625, -2.3007812, 1.9238281, -0.8432617, -1.6455078, 0.67529297, 0.57666016, 0.068725586, 1.0185547, -1.0507812, 1.0195312, -1.5605469, -1.6503906, 1.3886719, -2.3867188, 0.61572266, 5.234375, 1.3369141, -0.009994507, -0.71777344, -1.1171875, 0.94921875, -0.50146484, -0.4555664, 0.37597656, 0.082214355, -1.1142578, -0.26049805, -0.5942383, -0.76464844, 1.3691406, -0.00058174133, 0.31982422, 3.3613281, -0.07598877, -0.125, 0.33276367, 1.0566406, 0.44604492, 0.18322754, -1.7050781, 0.7080078, 0.037261963, -1.1748047, 0.79296875, -0.09069824, -1.7978516, -0.56152344, 0.6772461, -0.47558594, 0.098083496, 1.0273438, 1.5673828, 1.5029297, -0.14404297, 1.4824219, 0.92285156, 0.07067871, 2.3378906, -0.8125, -0.30517578, 1.3603516, 2.6347656, -0.61279297, 0.7529297, -0.47070312, 0.38842773, 0.7182617, -2.3164062, -2.3222656, -0.71728516, 0.16308594, 0.89453125, -0.2783203, -2.0761719, -5.2421875, 0.06951904, 2.5605469, 1.0683594, 1.4091797, 0.51464844, 2.7792969, 1.7333984, 0.025894165, -0.7709961, -1.2011719, 0.15930176, 0.8017578, -0.9189453, 0.7114258, -0.29248047, 0.99560547, -2.0390625, 4.0390625, -1.9042969, 1.125, 0.39672852, -0.76123047, 0.5258789, -0.20117188, -0.2241211, -0.78271484, 0.44995117, -2.5664062, -0.20458984, -1.1064453, -0.05557251, 0.29614258, 0.90722656, -0.46289062, -1.1123047, 0.38842773, -0.09313965, -1.3359375, 1.1015625, 2.296875, 0.04208374, 0.07434082, 0.76123047, 0.6064453, -1.4560547, -1.0859375, 0.42163086, 1.7929688, 0.12249756, 1.2792969, -0.6538086, -1.7724609, -0.97314453, 0.12231445, 0.6376953, 1.7939453, 0.45996094, -0.3503418, -1.3339844, 1.0341797, -1.6796875, -0.095336914, 0.8461914, -0.8413086, -0.08392334, -1.7587891, 0.3149414, -2.265625, -0.18908691, -0.12524414, 1.5371094, 0.5908203, 1.0507812, 0.4345703, 0.26049805, -0.36206055, -0.8354492, -0.43359375, -2.1347656, -1.2382812, -1.9472656, -0.3227539, -0.20910645, 2.5214844, 0.94677734, -0.47558594, 0.8989258, 0.4633789, -1.1074219, -1.3144531, -1.4833984, 0.53027344, 0.6064453, -0.58935547, 0.14660645, -2.2285156, -0.4958496, 1.3378906, -0.94140625, -1.5068359, 1.0654297, -0.046661377, -1.5322266, -1.3154297, 1.1630859, 2.3339844, -0.7363281, 0.5703125, 0.58496094, -1.4931641, 1.4501953, -1.3085938, -0.43603516, 1.0058594, -1.7646484, -0.2685547, -0.38330078, 1.8720703, 0.5996094, -3.0234375, 1.5048828, -0.039031982, 0.4951172, 0.7055664, -0.09136963, 0.0011367798, 0.1986084, -2.1074219, 3.1679688, -1.9804688, -0.8574219, -0.10070801, 0.94921875, -0.4638672, 0.6010742, 2.4726562, 0.4855957, 0.21276855, -0.23583984, 0.2644043, 1.6376953, 0.6074219, 0.66748047, 0.14355469, 1.6240234, 0.8286133, 0.66015625, 0.09625244, 1.5849609, 0.3232422, 2.1621094, 1.6015625, -1.1835938, 1.2441406, 0.105163574, -1.7460938, 0.2705078, -1.296875, -1.0966797, -0.7597656, -0.07006836, 1.0244141, -0.22839355, -0.89697266, -2.4042969, -0.8618164, 0.2133789, 0.6923828, -3.9277344, -1.1181641, -0.1739502, 2.8554688, -1.3535156, -1.6337891, -0.8823242, 0.9550781, -0.9111328, -0.31982422, 0.70947266, -0.2668457, 0.97558594, 0.6513672, -1.6416016, 1.2109375, -0.64160156, -0.70996094, -0.9433594, -0.4038086, 0.2133789, -1.0751953, 0.69140625, -0.52734375, -1.5683594, 1.34375, -0.19921875, 0.39770508, -0.15258789, -0.19677734, -0.84228516, 0.13378906, 0.14672852, 0.5029297, -0.66748047, -1.5527344, 0.43676758, 0.8803711, 0.6118164, -1.8916016, 1.2539062, -0.29077148, 1.671875, -0.5385742, 0.76708984, 0.07281494, 0.2446289, -1.3515625, 2.3320312, -1.390625, -0.2722168, -0.31103516, -1.5478516, 0.24414062, 2.1738281, 0.9199219, 1.1464844, -0.56591797, 0.07714844, -0.18249512, 0.5751953, 1.7998047, -1.2626953, -2.296875, 0.68603516, 1.1669922, -0.59277344, -1.8037109, 0.9628906, 0.34692383, -0.7211914, 1.6357422, 1.7880859, -1.8056641, 2.2753906, 1.6347656, 0.79003906, -0.6542969, -0.94921875, 0.17907715, -1.6044922, 0.43432617, -0.061187744, -0.3166504, 2.1875, -1.0878906, 0.1809082, -0.072265625, 0.2076416, -0.49194336, -1.3837891, -1.4375, -0.7714844, 1.7607422, 1.7197266, -0.12164307, 0.7661133, 1.2402344, 2.0292969, -1.5244141, 1.8017578, -2.4609375, -1.2480469, -1.8769531, -0.6738281, 1.3984375, -0.7709961, -1.2275391, -1.3613281, -0.9296875, -0.62597656, 1.6279297, 1.9023438, 0.14208984, 1.2919922, -0.074279785, 0.6196289, -0.0715332, -1.3037109, 1.4765625, 1.5302734, -0.7758789, -3.2558594, 0.2133789, -0.36450195, -1.2558594, -0.59033203, -2.3496094, -0.7001953, -0.6166992, 0.5214844, 0.9267578, -0.50634766, 0.53759766, 0.37768555, 2.703125, 0.5571289, -0.6591797, 2.0839844, -0.71484375, 0.7368164, 0.15124512, 0.012886047, -2.2265625, 1.0517578, -0.93066406, -0.6850586, 0.10949707, 1.6367188, -1.7158203, -1.2265625, -0.057373047, 0.057525635, -0.0152282715, 1.1923828, -0.5395508, -0.5498047, -1.0273438, 0.4777832, -1.8720703, -0.10809326, 0.5839844, -0.6879883, 0.89453125, -0.29858398, -0.024871826, 2.5234375, 0.46264648, 0.44262695, 3.1015625, -0.59375, -1.0419922, 0.31689453, 1.7324219, 1.4433594, -0.49731445, -1.8203125, -2.1308594, 1.1015625, 1.2460938, -1.7001953, -2.0585938, 0.72216797, 0.69140625, -0.07159424, -0.61572266, -0.8886719, 0.71435547, 1.4179688, -0.41870117, -1.1611328, -1.9960938, -0.76171875, 1.1123047, 0.5932617, 0.52001953, -0.88623047, 2.0761719, 0.43554688, -0.8022461, -0.26831055, -2.0058594, -0.40405273, -2.3554688, -0.015327454, -0.5595703, -0.37426758, 0.46484375, -0.39453125, 0.3022461, -0.41308594, 0.18127441, 0.34375, 0.15393066, 0.10668945, -0.16638184, -0.1038208, 0.2548828, 1.4892578, -0.028884888, 0.14489746, -0.8066406, 0.22558594, -1.1171875, -1.4726562, -1.0566406, -1.9472656, -2.5253906, 2.4863281, 0.3461914, -1.0068359, 1.0976562, -1.0029297, 0.43481445, 0.70703125, 0.9682617, -0.38671875, 3.2402344, 1.0517578, 0.2602539, 1.6269531, 0.40063477, 0.017288208, 1.0673828, -0.9658203, -0.7182617, 2.2226562, -0.6723633, -1.2041016, 0.8774414, -0.81396484, 0.98095703, -2.9414062, 0.6269531, -0.6308594, 0.5957031, 1.4892578, -1.2851562, -1.0800781, -0.08178711, 0.87841797, -1.9111328, -1.1455078, 0.10913086, -1.9082031, 0.33618164, 2.0527344, 0.9423828, -0.2163086, -2.7011719, 1.1191406, -0.86035156, -1.1308594, -0.38842773, -0.24816895, 1.1962891, 0.31030273, 0.70410156, -2.359375, -1.1914062, 0.51904297, 0.59472656, 0.41748047, 0.19116211, -0.66064453, 0.3557129, -2.5058594, -2.484375, -0.3112793, 2.8183594, 0.78271484, -4.0703125, 1.3798828, -0.030776978, 1.3671875, 0.5678711, -0.26586914, 0.42163086, -0.47753906, 0.23352051, -0.32739258, -1.125, 1.375, 0.38330078, 1.1962891, -0.24169922, 0.8417969, -2.1601562, -0.9667969, 0.50097656, 0.80908203, -0.5385742, -0.39868164, 4.0273438, 1.21875, 0.5336914, -1.8066406, -0.9067383, -1.9257812, -2.6074219, 0.390625, -0.20056152, -1.3935547, -2.8203125, -0.2854004, -1.0761719, 0.028198242, 1.1513672, 0.5805664, -1.9931641, 0.46875, -0.2836914, 1.0488281, 0.61865234, -0.5942383, 2.2988281, -0.26245117, 0.64746094, -1.6875, -0.012466431, -2.0488281, 1.0478516, 1.3789062, 1.6328125, -0.52001953, 0.55371094, -0.7763672, 0.51904297, 2.1347656, 2.6699219, 1.3632812, 0.70166016, 1.484375, 0.91796875, -0.5883789, -0.6743164, 0.41992188, -2.2382812, -1.7001953, 2.1347656, -0.87109375, -1.9384766, -0.021713257, -1.8369141, 0.61035156, -1.6914062, 1.6845703, -1.2275391, -1.1367188, 0.6040039, -0.2298584, -1.3222656, -1.3554688, -1.6933594, -1.8847656, 0.49047852, -0.1850586, -0.63378906, 0.7270508, 2.6074219, -0.86328125, -1.5371094, -0.038635254, -0.5175781, 1.140625, 0.05783081, 0.21459961, 0.046417236, -0.3947754, -0.34033203, -2.7324219, 0.21313477, 1.5107422, -1.7617188, -2.5800781, 0.5151367, 0.43554688, 0.58154297, 0.10900879, 1.6767578, -2.3925781, 0.8017578, -1.0371094, -1.5986328, -1.1455078, 1.6787109, 0.49682617, -0.2548828, -2.1875, -0.84033203, -0.12756348, -0.08520508, 1.0214844, 1.5976562, 0.7236328, 0.6503906, 0.65625, -0.7216797, 0.8852539, 1.1064453, 1.5302734, 0.2253418, 0.23620605, -1.1425781, -0.3137207, -0.796875, 0.7729492, 0.91064453, -1.4658203, 0.34765625, 0.54052734, -2.1230469, -0.8383789, -1.4013672, -0.5629883, -1.1113281, 0.31933594, 0.0029754639, -4.546875, -0.45654297, 0.90185547, 0.88183594, 0.059173584, -0.36889648, -0.715332</t>
-  </si>
-  <si>
-    <t>[2.9550781, -1.4570312, 2.0683594, -0.5986328, -0.7167969, -1.1386719, -1.3007812, -0.6821289, 1.6533203, -1.2177734, 1.9921875, -0.5649414, -1.1464844, -0.83984375, -1.1513672, 0.24133301, 1.8115234, 1.1865234, 1.0351562, -1.9501953, 0.5048828, 3.2480469, 0.073791504, -0.29638672, 2.9101562, 2.0703125, 1.9443359, -0.35668945, -2.6386719, -0.4724121, 0.5986328, 2.6074219, 1.3710938, -0.15063477, -0.12298584, -0.52490234, 0.4033203, -0.76220703, 2.140625, -1.4287109, -0.103149414, -0.63916016, 1.2441406, 0.66845703, -2.1132812, -1.6240234, -1.3330078, 1.9394531, 0.5830078, 0.7470703, -0.34106445, 2.15625, -0.3269043, 0.7495117, -1.4511719, -2.2832031, -1.1953125, -1.0068359, 0.59033203, 0.47631836, -0.7182617, 2.0390625, -0.17321777, -0.7324219, 0.42578125, -1.8623047, -1.4492188, -2.2714844, -0.15783691, -0.13671875, -0.26171875, -1.8076172, -0.62109375, -1.4052734, 3.0488281, 1.3339844, 0.13781738, -2.2988281, -0.76953125, -1.2646484, 0.25048828, 0.61865234, -0.77197266, -0.9404297, -0.034576416, 0.45288086, -0.64697266, -0.93652344, 2.1503906, -0.38354492, 0.9628906, 1.1210938, 1.4365234, -0.4555664, -0.93652344, 2.0234375, -1.3916016, -0.5029297, 0.38720703, 2.6933594, -0.8125, 1.2939453, 0.9785156, -0.6665039, -1.2177734, 1.0537109, -0.90478516, 1.3076172, -2.1210938, -0.8613281, -0.08557129, -1.2988281, -0.46948242, -0.3269043, 1.6347656, 0.5942383, 0.9448242, -1.5351562, -0.5, -0.4794922, -0.23571777, 0.5161133, -0.23156738, -0.20300293, 2.3574219, -1.4013672, 0.5214844, -1.296875, -0.9433594, 0.8823242, -0.13012695, 0.35791016, -1.8916016, -1.3955078, 4.2460938, -1.4453125, 0.30322266, 0.16601562, 0.19189453, -1.7324219, 0.36914062, 0.8769531, 0.49389648, 0.16125488, 1.1601562, 0.24169922, 0.86083984, -0.04437256, 1.5654297, -0.5073242, -0.63378906, -0.51953125, -4.953125, 1.3808594, -0.8779297, 0.828125, 0.004432678, -1.7646484, -0.3774414, 0.47436523, -0.90722656, 0.57958984, -0.4411621, -1.2431641, 1.3251953, 1.9394531, 2.453125, 3.1171875, -1.9755859, -3.2636719, 1.0341797, -0.29858398, 1.7324219, -1.0507812, -0.35668945, 1.5029297, 2.1601562, -2.5449219, -0.38354492, -1.1416016, -0.9189453, -2.2070312, -0.4194336, 0.31176758, -1.5400391, -0.5234375, -1.0058594, -1.0205078, -0.15197754, 0.9814453, 0.54589844, -1.6962891, -0.25341797, 0.5371094, -0.041809082, 0.8955078, -0.68310547, -0.6616211, 2.7871094, -1.390625, 1.2851562, 0.52783203, 0.37646484, -1.6132812, -0.75146484, 1.7294922, 2.0410156, 1.5087891, -2.1972656, -0.0758667, 1.671875, -0.6191406, 0.2939453, 0.064575195, -0.13024902, 2.8574219, 0.061401367, 0.14477539, -0.43603516, -0.81640625, 1.2900391, -1.5058594, -0.91796875, 1.4150391, -0.5390625, -1.0634766, -0.6459961, 0.9921875, 0.13452148, 0.38232422, -0.19177246, -1.3525391, 1.7167969, 2.234375, 0.074279785, -1.4296875, -2.3046875, 2.0039062, -1.0966797, 0.43603516, 1.5175781, -0.9296875, 0.10479736, 0.5649414, -0.42456055, -0.42211914, -1.5488281, -0.54541016, 0.7631836, -1.6826172, 1.8515625, -1.5507812, -2.1972656, -0.86083984, 0.63378906, 0.9428711, -0.024414062, -0.17529297, -1.2539062, 1.2255859, -0.2836914, -0.81347656, -0.055877686, 0.21533203, 0.26586914, 0.83447266, -1.7324219, -0.38476562, -0.06695557, -1.6171875, 1.3671875, -1.2929688, 5.9492188, -0.3269043, -1.8867188, -0.8066406, 0.45629883, 1.4550781, -1.25, -0.23815918, -0.41748047, 0.0947876, -1.2626953, 0.6953125, 0.41723633, 0.4165039, -2.6386719, -0.71533203, 1.1757812, 0.14990234, -1.9316406, -1.5673828, 0.060455322, -2.40625, -1.6923828, 2.8027344, -0.98046875, 0.06524658, 0.048675537, -1.7412109, -1.3398438, 0.013015747, -1.0859375, -1.5546875, 2.2832031, 3.4082031, 1.8867188, 0.26342773, -0.8461914, -1.0263672, 0.03112793, -0.23937988, -0.9038086, -1.2988281, 1.3300781, -0.1763916, -1.7441406, -1.3828125, -0.49291992, -3.0605469, -0.94677734, -2.40625, 0.8720703, 0.54541016, -3.3652344, 0.20336914, 1.28125, 1.2607422, 2.1074219, 1.328125, 0.7192383, 0.98046875, -1.3984375, 1.4794922, -1.7294922, -0.32836914, 0.82373047, -1.5009766, -0.54248047, -0.099365234, -0.40625, -0.9033203, -0.3618164, 0.7260742, 0.5629883, -1.1162109, -1.703125, 1.1738281, 0.85839844, -0.8754883, -0.02368164, -1.0224609, 1.7402344, 0.05496216, 2.5566406, -0.39868164, 3.9042969, -2.3867188, -1.1298828, 2, -0.06173706, -0.66308594, -1.3759766, -0.107421875, -1.2929688, 0.33520508, 1.2626953, -0.13476562, 2.0585938, -1.828125, 1.0322266, 1.8251953, -0.4650879, 0.56396484, -0.73828125, -0.12298584, -1.3232422, -0.5131836, 0.9169922, -1.9941406, 2.8847656, 1.109375, 0.31860352, -1.4833984, -1.5429688, 0.013931274, 1.2851562, 1.9980469, -0.49267578, -0.5864258, 0.50390625, -0.6166992, 1.1582031, -0.65234375, -0.44189453, -0.84228516, 1.0302734, 2.5136719, 0.68115234, 0.15637207, -0.002702713, 1.7958984, -1.1240234, -2.1386719, -0.87841797, 0.2854004, -2.2851562, -1.09375, 0.4165039, -1.3115234, 0.24707031, 0.61328125, 1.7070312, -1.5488281, -1.1181641, -0.81103516, -1.4414062, -0.3178711, -0.90966797, 1.3447266, 0.23547363, 0.9633789, -0.017852783, -0.0073242188, -0.8779297, -0.56591797, -0.5678711, -0.8051758, -0.74609375, 1.3535156, 0.03717041, -0.83740234, -1.1337891, 0.7060547, -0.8071289, -1.8623047, 1.1269531, -1.5146484, 0.8847656, 0.43969727, 0.26757812, -0.76220703, -1.4003906, 0.0826416, 0.54589844, 1.9199219, 0.36010742, 0.17590332, 0.019760132, 1.6054688, 0.1508789, 0.10015869, 0.28125, -1.5556641, -0.9970703, -2.2460938, 1.3925781, -0.6894531, -1.4814453, -0.015045166, -0.78515625, 1.6777344, 0.54833984, -0.7783203, 0.40356445, -0.11279297, 0.39257812, 1.4980469, -0.9194336, -0.35083008, -0.42797852, 1.8173828, -1.2070312, -0.18603516, -1.9814453, 1.0419922, -2.0566406, 1.8154297, -0.72998047, -0.06011963, -1.5722656, 0.6411133, -2.40625, 0.95751953, 0.5239258, -1.21875, 0.1854248, 2.2988281, 1.53125, -0.73046875, -0.4404297, -0.7138672, -0.8676758, -0.46679688, 0.8198242, -1.2626953, 0.38012695, 0.64453125, 0.31640625, 1.1357422, 1.7890625, 0.7817383, -1.1699219, 0.24401855, 1.0634766, -0.6220703, 1.3076172, 0.83691406, -0.3642578, 0.36157227, -1.3408203, 2.4667969, 0.41845703, 0.56884766, -2.9824219, 1.03125, -1.5576172, -0.6479492, 0.5551758, -2.8769531, -0.39697266, -1.6777344, -1.2802734, -0.6538086, 2.2148438, 3.0039062, 1.2880859, 0.3642578, 0.59814453, 1.0126953, -1.3066406, 1.3007812, -0.49609375, -0.6621094, -0.45239258, 1.1269531, 0.39233398, 0.91259766, 0.8852539, 0.6503906, 0.07824707, 0.5908203, -2.1015625, -1.0947266, 0.41210938, -0.5258789, 0.21887207, -0.64208984, -1.8359375, -0.99609375, -0.66552734, 0.8051758, -0.7783203, -1.1738281, 3.4394531, 2.3808594, 0.59033203, 0.3010254, -0.38452148, -1.9462891, -0.1685791, 0.15515137, -1.1386719, -0.8652344, -0.7939453, 1.1142578, 0.890625, -0.30249023, -0.005077362, -0.7451172, -0.92871094, -1.2949219, 0.20275879, -1.3339844, 1.21875, -0.984375, -0.7133789, 1.3798828, -2.1894531, -1.3183594, 3.5488281, -0.24182129, 0.93896484, -0.9375, 0.49145508, 1.2900391, -0.76416016, -0.28955078, 0.5961914, -2.0039062, -0.19104004, 1.0703125, -0.61865234, 0.64453125, 2.0429688, 1.3398438, 0.6191406, -0.24902344, -0.5209961, 0.15332031, -0.6958008, -1.453125, 0.026535034, -0.28735352, -0.4675293, 1.1884766, -0.35253906, -0.9458008, -0.39453125, 0.71728516, 0.5361328, -0.91015625, 1.3623047, 0.052001953, 0.018112183, -0.40356445, 1.0205078, 0.07989502, -0.49536133, 0.9536133, 0.057525635, -1.0097656, -0.9248047, 2.1308594, 1.6591797, 1.8779297, -8.984375, 0.28295898, 0.5786133, 0.84521484, 2.4667969, 0.4814453, 3.0117188, 1.53125, 0.73339844, 3.3925781, 0.2824707, 3.625, -1.8603516, 0.50097656, 0.62939453, -1.4033203, -0.40478516, -1.0615234, 0.8984375, -1.2255859, -0.50341797, -0.3762207, 0.9760742, -0.15600586, -0.20214844, 0.44360352, 1.3232422, 1.8945312, -0.99902344, -1.0605469, -1.2470703, -0.69384766, 0.29418945, 2.1015625, -0.6455078, 0.71240234, -1.9179688, 0.6401367, 0.5776367, -1.265625, 0.86376953, -2.6347656, 0.03010559, -1.3671875, 0.6152344, -0.48168945, -2.3261719, -0.23852539, 0.87939453, 0.060028076, 2.7871094, -1.0810547, 1.7753906, 1.3359375, -0.8359375, -0.29614258, -1.1074219, 0.8613281, -1.0390625, 1.4462891, -0.7583008, -0.6503906, -0.49926758, 0.79589844, 1.4619141, -1.5732422, -0.22583008, 0.99316406, -0.20300293, -0.4260254, -0.9404297, 1.078125, -1.6396484, -2.6972656, -0.5776367, 0.32177734, -0.7602539, -2.1054688, -0.41870117, 0.70654297, 0.2915039, -0.03756714, -0.2770996, 2.0175781, -0.47998047, 2.1367188, 1.6113281, 0.5263672, 1.0439453, 0.4729004, 2.9003906, 0.66308594, -0.5253906, -1.640625, 4.6015625, -0.95410156, -0.032958984, -0.056549072, 1.0361328, -0.20605469, -1.3339844, 1.0253906, -0.5541992, -1.6806641, -0.38745117, -0.7402344, 0.18908691, 1.4130859, -0.74316406, 1.8173828, -0.04864502, -1.8837891, -2.3203125, 0.45581055, 0.9189453, -0.11456299, 1.8232422, 0.15649414, 1.8564453, -0.86083984, -0.016906738, -0.3322754, 1.2382812, 0.057647705, 1.7226562, 0.6298828, -0.6645508, 0.81884766, -2.9003906, 0.21191406, 1.2148438, -2.109375, 0.6611328, -0.39819336, -0.71191406, -2.2246094, -0.16455078, -0.014862061, 0.2775879, 0.65966797, -0.46362305, -0.80859375, -0.68359375, 0.8144531, -0.14111328, -0.48339844, -0.0635376, 1.7509766, -2.0214844, 1.4248047, 2.3691406, 0.76220703, 2.4667969, 4.0351562, 0.48461914, -1.1591797, 0.53564453, 0.2722168, 0.17224121, -0.8955078, -0.7919922, -0.12164307, -0.58496094, 0.8388672, -1.2324219, 0.03213501, -0.07104492, 0.33325195, -1.3525391, -0.73583984, 1.2070312, -1.0068359, -0.1920166, -0.140625, 0.30151367, 1.7890625, 1.4589844, -1.0097656, -1.5849609, -0.8901367, -0.8144531, -0.99853516, 0.78515625, -2.6171875, 0.43188477, -3.0078125, -1.0947266, -0.6435547, -0.4807129, 0.58154297, 0.72314453, -1.2646484, 0.5810547, -0.6557617, 1.8994141, -0.60839844, -1.0654297, 0.4074707, -0.62353516, -2.0566406, 1.5869141, 1.9570312, -0.029891968, 1.1279297, -0.012184143, -1.2705078, 1.5751953, -0.9604492, 0.3166504, -1.5087891, -1.4003906, -0.41845703, -1.5634766, -0.54003906, 2.2890625, 1.2548828, -0.27294922, 0.81347656, 0.1550293, -2.6152344, 0.7939453, 1.25, 0.057281494, -0.7084961, 0.6352539, -0.34936523, 0.15710449, 0.009559631, 0.20446777, -1.1582031, -0.41992188, 0.23156738, -1.7802734, -0.17749023, 2.109375, -1.640625, 0.025054932, -2.5214844, -2.0976562, 1.0039062, 0.014053345, 0.1015625, 2.2285156, 1.9580078, 1.2412109, 0.05429077, 0.64697266, 1.7333984, 0.72998047, 1.9580078, 0.28466797, -0.6176758, -2.125, 1.4716797, 1.0800781, 1.4716797, -1.3398438, 0.75341797, 0.13659668, 0.6298828, -1.7412109, 0.5698242, 1.8193359, -0.89404297, -2.6835938, -1.5683594, -0.22875977, 1.5585938, -1.53125, 1.6738281, 4.0664062, -1.2138672, 1.4082031, 0.2175293, -2.2792969, 0.6845703, -0.7363281, -0.98828125, -0.35253906, -1.1875, -1.0136719, 0.5205078, -0.45361328, -1.3320312, 1.3037109, 0.6821289, -0.43041992, -0.38110352, -0.83496094, -1.5175781, 0.25854492, -0.625, 1.3867188, 1.2382812, 2.6542969, -2.1621094, -0.5126953, 2.5214844, 1.8095703, 2.359375, -1.3154297, -0.9921875, 1.0751953, -1.234375, 0.63183594, -0.32495117, 0.6904297, -1.1503906, -2.578125, -2.5800781, -0.43530273, 0.34399414, -0.41088867, -0.69677734, -1.3154297, -0.5517578, -1.3378906, 3.2011719, 0.90478516, 1.2070312, -1.1503906, 0.3413086, -0.6743164, 1.0048828, -0.80810547, 1.1738281, 0.20495605, -0.7861328, -0.9379883, 0.5473633, -0.61279297, 1.0478516, 1.5283203, -1.7802734, 0.098083496, 1.1318359, -1.2988281, 1.9101562, 1.2402344, -0.06707764, -0.08831787, 1.8945312, -0.49926758, -0.73046875, 1.9365234, 0.22314453, -1.2216797, 0.47485352, 0.5019531, 0.1015625, 0.79785156, 0.33984375, 0.5234375, 0.115722656, -0.6064453, -0.73339844, -1.2480469, -0.49389648, -1.3359375, -0.68408203, 3.1503906, -0.040863037, -0.8198242, 1.3027344, 0.45117188, -0.048339844, 0.9379883, 0.017059326, -0.46118164, -0.46899414, 0.58740234, 1.3525391, -1.4482422, -0.609375, 1.0185547, 1.3876953, 1.9130859, 0.5473633, 0.3701172, -1.7675781, 1.0058594, -0.47021484, -0.5488281, -0.5649414, -1.3222656, 0.65722656, -0.93359375, 0.45483398, -2.8457031, -0.6455078, -0.23803711, 1.3554688, -0.37646484, -0.7451172, -1.6328125, 1.2666016, 0.39794922, -1.1396484, -0.011940002, 1.0292969, -0.3251953, 0.31054688, -0.87841797, 2.1328125, -0.6303711, -0.5722656, 2.9902344, 0.20080566, 1.296875, -0.96435547, 0.46484375, 2.3144531, 0.6435547, -0.14208984, -0.36694336, 2.0917969, -2.7128906, -0.68408203, 0.70166016, 0.734375, 1.453125, -0.5239258, 0.609375, -1.0390625, -0.90234375, -1.4267578, 0.18457031, -0.28100586, 0.11743164, -0.04736328, 0.39086914, -0.54003906, -0.7963867, -0.03817749, -0.051940918, 1.0839844, -0.24804688, -3.3847656, -0.6113281, -2.0664062, -0.5371094, 0.53027344, 1.3867188, 0.46557617, 1.5585938, -1.21875, 1.3427734, 2.0449219, -1.9550781, 1.3574219, -0.9511719, -1.3828125, 0.91503906, -1.1503906, 0.5996094, -0.8027344, -0.39575195, 1.7167969, 1.5292969, -0.6948242, -1.4121094, 0.4013672, -1.0664062, 0.59228516, 1.1396484, 2.4199219, 1.1103516, -1.7851562, 1.4199219, 0.2006836, 0.4272461, 0.11975098, -0.9589844, -0.15026855, -0.50146484, 1.1884766, -0.9760742, 1.4814453, 0.8461914, 0.47485352, 0.53808594, -0.60058594, -1.6884766, 0.62890625, 0.8666992, -0.54248047, 3.3183594, 1.4140625, 0.009986877, -0.31347656, 1.046875, 0.39233398, 1.0136719, 0.6323242, 0.51220703, 1.3730469, -0.27978516, 0.112976074, -1.9013672, -0.39233398, 0.90771484, 1.78125, 2.3222656, 1.3886719, 1.6162109, -0.3203125, 0.7890625, 0.7792969, 0.20300293, 1.5849609, 1.7851562, -1.3916016, -0.51416016, 1.546875, 1.390625, 3.1445312, -0.67529297, 0.73535156, 0.8876953, 0.67529297, -1.3115234, 1.0332031, 0.9824219, 0.5488281, 1.2275391, 0.26708984, -0.16955566, -0.7207031, 2.0234375, 0.56152344, 0.2878418, -0.15209961, 0.6166992, -0.5307617, 1.6396484, -3.296875, 0.7368164, -0.86376953, -0.46289062, -1.828125, -1.6035156, -0.7348633, 0.5703125, 0.3671875, -0.84033203, -2.0898438, 0.3671875, -1.2578125, -2.4140625, -0.12658691, -0.49682617, 0.74072266, 3.0039062, 0.14440918, -0.120666504, -1.6962891, -1.1601562, -1.0175781, -0.24707031, 2.3125, 1.4082031, -1.4794922, -1.3105469, -1.34375, -2.46875, -0.38891602, 1.6376953, -1.5253906, 2.3417969, 0.4892578, 0.8027344, 1.4912109, -0.5756836, -0.20129395, -1.5654297, -1.1748047, -0.74853516, 0.92333984, 0.13574219, 1.0722656, -0.9526367, -0.2133789, -0.056793213, -0.2998047, -0.92089844, 2.5117188, 1.15625, 0.14526367, 0.80322266, -0.24707031, 2.2285156, 0.8017578, 2.1523438, 0.69873047, -0.3076172, -0.19238281, -1.7382812, 0.6279297, 2.1328125, -0.4975586, -0.10467529, 2.1386719, -0.008598328, 0.5151367, 0.27783203, -2.3105469, 0.37451172, -1.3242188, -1.0527344, -0.46435547, 0.609375, -1.6513672, 0.38110352, 1.4775391, 0.39038086, 0.04937744, 0.65478516, -1.4921875, -0.25341797, 0.51416016, 0.4609375, -0.0625, 0.83496094, -0.36450195, 1.3447266, 1.1357422, 0.7480469, 0.8413086, 0.062408447, -0.90722656, 1.3623047, -0.32666016, -0.85595703, -0.34716797, -0.8359375, -0.41723633, 0.2775879, -0.4099121, -1.125, -0.9628906, -0.56689453, 0.8876953, -2.2304688, 0.10644531, 0.75878906, -0.9379883, 0.7504883, 1.5839844, -0.8330078, 0.27661133, -0.49926758, 1.0380859, -0.7714844, 0.23413086, 0.8847656, 2.6152344, 0.2578125, -1.0517578, 0.7392578, -0.46826172, 1.1796875, 0.84228516, 2.765625, 0.7055664, -1.0703125, 0.18432617, -1.6738281, -0.8666992, 3.1855469, -1.5703125, 0.66259766, -0.83203125, 0.53808594, 0.4411621, -0.9511719, 0.38232422, -0.025344849, 0.8442383, 0.3942871, -0.22692871, -0.6274414, 1.1220703, 0.6220703, -0.1652832, -2.0078125, 0.6801758, -0.032989502, 0.3125, 0.09967041, -0.074279785, -0.6411133, 1.1503906, -0.38964844, 0.18908691, -1.4306641, -0.59814453, 0.97216797, -0.92089844, 1.6738281, -0.6254883, -3.0644531, -0.03274536, 0.9711914, -0.8515625, 1.5693359, -1.0957031, -1.4238281, -1.8964844, 0.6464844, -2.34375, -0.47143555, -0.49536133, 1.1289062, -1.046875, 6.4023438, 1.8232422, -0.35668945, -1.0605469, -0.2199707, 0.83447266, 0.15466309, -0.78271484, -2.3730469, 0.24072266, -0.064453125, 0.3725586, 0.9614258, 2.0585938, -0.25976562, -0.4453125, 0.3232422, 1.1435547, -1.2119141, 2.7421875, 1.0683594, -0.65283203, -0.5419922, -1.8330078, 7.2304688, 2.1113281, -0.1616211, 0.7890625, -2.3613281, -0.4790039, 1.3554688, 1.9941406, -0.7729492, -0.66064453, 1.4941406, -1.2558594, 0.25170898, -0.20361328, -1.1230469, -0.09552002, 1.8232422, 0.29248047, -0.074035645, -0.92333984, 0.8144531, -0.19897461, -2.5527344, -0.20373535, -0.6616211, -0.23779297, 2.5332031, 1.2441406, 0.88916016, -1.1064453, 0.34326172, 1.1845703, -0.38500977, -0.9614258, -0.6669922, 0.9033203, 1.5986328, -1.2529297, 0.46484375, 1.3300781, 0.7578125, 1.3984375, -2.4375, 0.5883789, 1.6220703, 1.0585938, -0.0026302338, 0.8330078, -1.2373047, 3.6503906, -0.5756836, -0.4663086, 0.84375, 2.7578125, -0.31274414, 0.55908203, -1.4248047, -0.5253906, 0.3955078, 1.4072266, 4.0429688, -2.4296875, 0.8769531, -0.8745117, -2.078125, 0.43701172, -1.1064453, 0.26489258, -0.78027344, 1.7597656, 0.17919922, -1.28125, -0.43432617, 0.69873047, 1.4052734, 1.1484375, -1.09375, 3.6289062, -1.0507812, 0.41845703, -0.63720703, -0.35668945, -0.25878906, -1.1875, -0.7626953, 0.8071289, -1.0849609, -1.15625, 2.4023438, -0.09832764, 1.3447266, -0.99609375, 0.6298828, -0.005897522, -2.234375, -1.2734375, 1.3359375, -1.1992188, -1.2705078, 0.7373047, 0.7290039, -2.0097656, -0.7285156, -1.7880859, -0.49023438, 0.46899414, 2.5527344, -0.09991455, 1.2294922, 0.80322266, 0.8808594, 3.4082031, -1.1103516, -2.2695312, 0.52197266, -0.04498291, -0.8066406, 0.41918945, -0.62402344, 1.8730469, 1.5761719, 1.7011719, 1.4472656, -0.41748047, -0.62939453, 1.7255859, -1.046875, -3.2441406, 0.17468262, 1.0439453, -1.2333984, -1.6640625, -1.3974609, -0.22290039, -0.077941895, 0.8066406, -0.6464844, -2.25, 1.8310547, 0.8544922, -0.005958557, 2.4140625, -0.43603516, -1.65625, -0.8598633, 1.0986328, 2.2910156, 1.7060547, -0.63134766, -0.8852539, -1.4433594, -1.3261719, -1.7304688, -1.3701172, -1.0253906, -1.2363281, 2.4375, -0.27441406, 1.1269531, 1.1308594, 1.9267578, 0.28881836, 1.1738281, 0.2166748, 1.8095703, 1.0175781, -2.296875, -1.2294922, -1.4580078, -0.53125, 0.097839355, 0.08270264, -1.6328125, -1.0390625, 0.3581543, 0.18603516, 0.057800293, 0.0009975433, 1.2294922, 1.0771484, 0.047973633, -1.8251953, 0.59228516, -0.053588867, -0.25, 0.17468262, 0.9394531, 1.4794922, -2.6621094, 2.4296875, 0.6010742, 1.2373047, -0.5473633, 0.37548828, -1.8007812, -0.7553711, -1.2998047, -0.27783203, 1.2441406, -0.30639648, 0.7807617, -0.30541992, 0.2944336, -0.60839844, 0.28637695, 1.1435547, 1.1289062, 0.28222656, -0.35888672, -1.2441406, 0.6533203, 0.0020580292, -0.0060157776, 0.37524414, -0.24926758, 0.8847656, -2.1191406, 0.32373047, -0.24694824, 2.4414062, 0.09350586, 1.0537109, -0.70703125, 1.3183594, 1.6953125, -0.05355835, 0.48535156, -1.9443359, 0.5854492, 0.33447266, -1.46875, -0.23840332, -1.5947266, 0.61816406, 1.0429688, -0.34814453, 0.6435547, -1.5078125, 0.7705078, 0.98828125, -2.6308594, 2.9140625, 1.5214844, 0.081604004, 1.3154297, 2.4394531, 2.0234375, -0.14465332, -1.9755859, -0.03265381, 0.57958984, -0.12084961, -0.8305664, 1.2509766, -2.2207031, -0.93115234, 0.71972656, 0.8144531, -2.4140625, -1.1289062, 0.7182617, -1.3828125, 0.84228516, 1.0107422, 2.1152344, 1.515625, -1.8564453, -0.5683594, 0.020690918, -1.3105469, -0.07006836, 1.2929688, -1.1757812, -0.92822266, 0.5644531, 1.3525391, 2.8769531, 0.33813477, 4.1210938, -0.2565918, -2.0507812, 1.2265625, -0.12927246, 0.8388672, 0.92089844, -1.6923828, 1.0957031, -0.4033203, 0.69873047, -0.78271484, 2.5039062, 0.95751953, -0.6875, 0.6069336, -1.8886719, 0.62402344, -0.12463379, -0.11077881, 1.0175781, 1.6064453, -1.7666016, -1.1181641, 1.1640625, -1.7138672, 0.4753418, 3.3027344, -0.68652344, -1.1171875, -2.0996094, -1.1210938, -0.25170898, -1.5683594, 1.6347656, 0.60839844, -0.35107422, -0.052825928, -0.9008789, -1.5644531, 0.17810059, -0.8515625, -0.65966797, -0.7602539, -1.640625, 1.3935547, -0.050689697, 0.8652344, -0.21850586, 0.09490967, -1.1259766, 0.73339844, 0.7397461, -1.5507812, -0.16259766, 3.5722656, 2.9785156, 0.056488037, -0.7558594, 0.2614746, 0.23620605, 0.39135742, -1.7597656, 0.36328125, 0.58251953, 1.1962891, -0.054992676, 1.3017578, 0.10247803, -0.36987305, -1.1640625, 0.10223389, -0.9394531, 3.0234375, 1.7324219, -1.8789062, -0.119018555, -1.9423828, -0.04638672, 0.69873047, -4.0234375, 2.2441406, -1.4511719, 0.5161133, 0.8520508, -1.7773438, 1.0703125, 2.2421875, 0.4814453, 1.8339844, -1.0703125, 1.4316406, 0.6459961, 1.0195312, -1.3642578, 0.6298828, -0.7949219, -1.0019531, -0.8779297, -1.3339844, 0.8691406, 0.10876465, 1.4609375, 0.29614258, -0.32348633, 1.5166016, 0.19165039, 2.8183594, 1.4306641, -0.12438965, 2.109375, 0.57958984, -3.2949219, 0.24328613, 0.27026367, -0.24829102, -0.5620117, -0.90234375, -0.5678711, 0.22021484, -0.92626953, -0.113464355, -2.5332031, -0.42773438, -1.3134766, -0.027359009, 1.3125, -0.23999023, -1.3554688, 0.33447266, 0.7441406, -3.71875, 0.5419922, -0.66015625, 1.8544922, -1.2851562, -0.7714844, -0.39111328, 0.27319336, 2.5332031, -1.7910156, -3.0625, -0.9194336, 0.79345703, -0.59375, 2.0566406, 0.9194336, 0.62890625, 0.3708496, 0.2064209, 0.5097656, 1.5742188, 0.5620117, 3.1796875, 1.4951172, -0.7915039, -0.55615234, -3.0761719, -1.1611328, 0.3955078, 1.7089844, -1.3447266, 0.28320312, -0.7167969, 0.10620117, -0.013557434, 0.3400879, 0.5942383, -2.0214844, -3.34375, 0.8623047, -0.43188477, -0.8647461, 0.48413086, 0.36132812, 1.3300781, -1.4667969, -1.3154297, 0.14758301, 1.0390625, -0.8701172, 1.25, 0.640625, -1.953125, -0.44506836, -1.6953125, -0.5180664, -0.09033203, 0.48461914, 1.1435547, -0.421875, 0.19055176, -0.91015625, 0.0022354126, -0.8173828, 0.8666992, -0.57373047, 1.1445312, -0.4128418, 0.20922852, 0.3400879, -3.75, -1.8144531, 1.8144531, 0.43188477, 1.8642578, 1.1767578, 1.8974609, -0.09881592, -0.23876953, 0.60253906, -2.3515625, -0.46044922, -3.8320312, 0.13964844, 0.65771484, 0.39794922, 1.4453125, 0.8676758, -0.6166992, 2.3828125, -0.88916016, -0.15112305, 2.8457031, 1.109375, -0.10974121, 2.3476562, 2.2011719, 1.5576172, -0.33544922, 1.203125, 1.5546875, -0.05987549, -0.7084961, 0.35864258, -1.2246094, -1.8828125, 0.62158203, -1.8378906, 2.3066406, 1.2939453, -1.2070312, 0.8466797, 1.2695312, 1.7861328, -0.35913086, 0.5493164, -0.8144531, 1.1132812, 3.2871094, 1.4794922, -1.0576172, -0.9946289, -2.5410156, -1.4541016, 1.2138672, -1.3671875, -0.9033203, 1.7324219, -0.7919922, 0.6279297, 0.7470703, 0.9194336, 0.044677734, -0.43896484, 2.4375, -0.55908203, 1.7070312, 0.52441406, 3.1679688, -0.46777344, -2.0644531, 1.1748047, -0.5878906, 1.1992188, 0.52978516, -3.3027344, -0.1875, -0.5888672, -1.4384766, 0.4140625, -3.0546875, -1.859375, 0.58496094, 0.15905762, 0.6230469, -2.3554688, -0.030426025, 1.0244141, -0.6723633, 1.5537109, -1.0341797, -0.84375, 1.453125, -0.00409317, -0.43188477, -3.3613281, 1.3056641, 2.8164062, -0.6899414, -0.4248047, 1.5605469, -0.63964844, -2.7773438, 0.014907837, -0.12854004, 1.8525391, -0.12536621, 2.7128906, -1.1660156, -0.121032715, -4.203125, -0.55810547, -0.7519531, -2.0214844, -0.62597656, 2.9160156, -0.038482666, -1.1660156, -1.125, 0.25341797, 1.5351562, 0.56933594, -1.6210938, 1.53125, -1.1103516, -0.91259766, 0.55859375, 1.0185547, -2.9160156, -0.6899414, -0.7519531, -1.3232422, 0.4892578, 0.47875977, 0.4128418, -1.3945312, -2.2929688, -1.859375, 1.1015625, -0.4423828, 0.76416016, 0.3071289, 0.3076172, -0.036956787, 1.1494141, 3.59375, 0.41455078, 0.61083984, -1.6640625, -0.40429688, -0.6894531, 1.203125, -0.23571777, -0.921875, -0.22814941, -2.7519531, 0.041809082, 0.22717285, -1.8642578, 0.13867188, 0.69091797, 2.3457031, 0.16625977, 0.51171875, -1.4013672, 0.41064453, -0.5551758, -0.9111328, 0.9008789, -1.3359375, -1.4121094, -1.0830078, 1, 0.34765625, -1.96875, -1.7783203, 0.48095703, 1.84375, -0.93115234, 0.8515625, 0.8334961, -0.3137207, -0.48339844, -1.5800781, -0.090270996, -2.671875, 0.96972656, 0.90771484, 0.7973633, 0.19189453, -1.2070312, -0.30078125, -0.22485352, 1.3330078, -0.21533203, -0.6928711, -0.24804688, -1.1835938, -0.5722656, -0.8754883, -0.32885742, 0.9868164, 3.2949219, 0.080322266, -1.0263672, -1.1005859, 0.44458008, -2.4921875, -1.53125, -1.6533203, 1.0283203, 0.3269043, -1.46875, -0.5722656, -6.0078125, -0.68310547, -1.1376953, -2.578125, 2.2851562, 1.6660156, 0.8847656, -0.3474121, -2.2011719, -0.2590332, -2.234375, 1.4150391, 1.71875, 0.062408447, 0.31860352, 1.1162109, -0.7055664, 0.025924683, 0.71875, 0.6196289, -2.5839844, 2.2753906, -2.7792969, 2.0039062, 0.36645508, -0.12597656, -1.1298828, -1.9921875, 0.017028809, 0.2590332, 2.5585938, -1.0332031, -0.25805664, -0.5292969, -1.5595703, 0.3791504, -0.1307373, 2.4804688, -0.54589844, -2.2148438, -0.107788086, -1.8232422, -1.3779297, -2.0097656, -2.2832031, 0.8105469, 1.0908203, 0.43432617, -0.3786621, 1.6582031, -0.6464844, 0.11999512, -0.9243164, -1.8974609, 1.8388672, 1.1943359, 0.7026367, 3.0039062, -1.1865234, 1.3642578, -0.31396484, -0.9550781, -1.6855469, 1.1347656, -0.84228516, 0.5859375, -0.5727539, 1.8789062, -0.53222656, -1.0888672, -0.6123047, -0.40893555, 0.33398438, -0.67089844, 0.22619629, -1.3076172, -2.2441406, 1.3134766, 1.4335938, -0.55810547, 0.98046875, -0.47705078, 1.2871094, 0.05166626, -0.63134766, -2, 1.4355469, -1.7939453, 0.51416016, -1.9580078, -1.3398438, -0.7397461, 0.34814453, 0.83496094, 0.30517578, 0.07171631, 0.18908691, 0.65966797, -1.6621094, -0.8691406, 0.0013875961, -1.1347656, -0.90625, -1.0634766, 0.29663086, -3.65625, 0.64208984, 0.3173828, -1.4667969, -0.2932129, 2.0078125, 0.13061523, 0.9189453, -1.7666016, 0.66308594, -0.5986328, 0.55126953, 1.9101562, -0.9868164, 1.1972656, 0.39892578, 2.1015625, -1.6777344, 3.0058594, -1.1181641, 2.2050781, -0.30078125, 0.59033203, 0.32543945, -1.7929688, -0.92822266, -0.73046875, 0.016616821, -2.8027344, 0.95751953, -2.5703125, -2.0625, -0.17871094, 0.13964844, -0.78515625, 1.8144531, -1.3027344, -0.32983398, -0.7783203, 1.1884766, 2.140625, 0.52490234, -0.46679688, -1.0732422, -0.70996094, 1.7333984, -0.17053223, -0.9711914, 0.48657227, -0.6953125, 0.44311523, -0.34106445, -0.42919922, -1.9794922, -1.2001953, 0.4477539, 0.72216797, 1.0146484, -1.2089844, -0.0073280334, 0.57421875, -0.9511719, -0.9760742, -1.5898438, -0.3203125, 1.7783203, -1.5507812, -0.5229492, -2.3847656, -1.5019531, -1.1777344, 1.5224609, 0.46777344, 1.2861328, 0.7919922, -1.3994141, 0.29248047, -0.6801758, 0.006954193, -1.6357422, -0.49853516, -0.3623047, 0.91503906, -0.77490234, -0.62060547, 1.4951172, 1.6162109, -1.4980469, 0.13098145, -1.8916016, -0.87158203, -0.029342651, -1.2587891, 1.0097656, 0.28881836, -0.6113281, -2.2421875, -1.5390625, -0.56152344, -0.07910156, -0.35180664, -0.7001953, -0.8442383, 3.4140625, 0.5498047, -0.117248535, -0.15893555, -2.2636719, -0.96191406, 0.08050537, -1.1943359, 0.7109375, 0.98535156, -0.3503418, 1.3291016, 2.6972656, 0.61865234, 0.18774414, -0.6635742, -0.08850098, -1.2304688, 0.34399414, -2.8691406, -0.15258789, 0.09436035, 1.9677734, 1.2998047, 1.6171875, 2.4140625, 3.9042969, -0.7348633, -1.8515625, 0.34838867, -0.7661133, 0.46289062, -0.70410156, 1.4707031, 2.9394531, 0.4794922, -0.7993164, 1.1162109, 0.5439453, -0.22351074, 2.3515625, 0.013076782, 1.6933594, 2.3242188, 3.359375, 1.6738281, 2.5195312, -0.22180176, 1.4091797, 0.8701172, 0.017807007, 0.46313477, -2.7109375, 1.1728516, 0.5463867, 0.4350586, -2.1210938, 0.8388672, -0.29003906, 0.48828125, 1.5507812, 0.8623047, -2.6074219, -1.1289062, 0.014472961, 2.3574219, -2.5019531, -0.5102539, -0.28564453, 1.6533203, -1.5029297, -3.1601562, 0.64746094, 0.15600586, -1.4785156, 0.7163086, -0.81347656, 0.5649414, 1.2392578, 1.6777344, 0.5097656, -1.1640625, 0.7089844, -1.9609375, -1.7851562, 1.1767578, 0.8574219, -1.7460938, -2.9277344, -0.31567383, -1.1474609, 1.3447266, 0.6279297, 1.0351562, -0.72802734, -0.6166992, -1.1279297, 0.39819336, -0.19458008, 1.3691406, -0.27246094, -1.1367188, 1.2675781, 1.1582031, -0.60058594, -2.0761719, 1.1289062, -1.2714844, 0.71533203, -0.41796875, 0.28881836, -1.5644531, -0.49536133, -1.8857422, 0.8925781, 1.1289062, -0.023086548, 1.1826172, 0.82177734, 0.7402344, 1.2089844, 0.7758789, -0.9243164, -1.8359375, 0.6611328, -0.89697266, 1.3144531, -1.2539062, -0.9116211, -1.7958984, -0.5180664, 2.0703125, -0.32641602, -1.4296875, 0.6513672, 3.0957031, 0.7753906, 0.3894043, -0.14355469, -1.7597656, 0.6772461, 1.9570312, -0.25952148, -1.3261719, 0.47021484, 0.3232422, -2.6601562, -1.7646484, -1.6425781, -0.013397217, -1.21875, 0.16625977, -0.7651367, -0.9165039, 0.23413086, -0.030181885, -1.3935547, -1.4394531, -0.28564453, 0.5229492, 1.4414062, -2.0332031, -0.33520508, 3.2871094, -0.42211914, -0.5854492, 0.39160156, -0.7788086, 0.10180664, -1.9716797, 0.71777344, 1.2119141, -0.1932373, -1.0800781, -1.7519531, -0.36669922, -0.061920166, -3.25, 1.4628906, 0.9511719, 1.1494141, 1.2792969, 0.17004395, -0.390625, -0.45654297, 1.0537109, 1.9443359, -0.9165039, -0.11291504, 0.91503906, -0.18359375, 0.11608887, -1.0800781, -4.0078125, -0.92333984, 0.35498047, -0.7788086, 1.3378906, -0.94140625, 0.8027344, 0.7158203, 0.4326172, 0.8623047, -0.33422852, 1.3300781, -0.7885742, 1.1826172, 1.4931641, -0.15405273, 0.40722656, 0.70996094, -1.4511719, -0.77197266, 2.2871094, 0.8823242, 1.8681641, -1.2509766, -0.31347656, 0.46606445, 1.2724609, 1.8251953, -1.4257812, -2.5195312, 0.45629883, -0.81640625, -2.4121094, -0.6948242, -1.8974609, 1.53125, 0.3696289, -2.1542969, -1.7539062, -3.9101562, 0.0859375, -1.3525391, 1.7480469, -0.92089844, -0.94140625, -0.7006836, 0.5966797, -0.27661133, -1.1601562, -2.4941406, -1.5898438, -1.1845703, -0.2919922, -2.0820312, -2.2246094, 0.6899414, -0.7636719, -0.25, -0.19006348, -0.83447266, -0.29736328, -0.3395996, 0.34106445, -0.13647461, -1.78125, -0.8598633, 1.2441406, 0.22949219, -0.30541992, -2.0507812, -0.18676758, -2.4902344, 0.6401367, 0.5551758, 1.2919922, -1.6484375, 0.39868164, -1.0576172, 1.0087891, 0.4663086, 1.7646484, 1.4677734, -0.13964844, -0.41381836, 0.9765625, 0.066833496, 1.1474609, 0.24169922, 2.6835938, -0.8310547, 2.5117188, 1.2705078, -0.50146484, -0.042663574, -1.4472656, 1.1650391, -4.5546875, -0.0058517456, -0.859375, 0.084228516, -1.1064453, 1.5810547, -0.64404297, -0.8144531, 0.08703613, -1.0761719, 1.1767578, -1.5253906, 0.56884766, -0.88720703, 4.2421875, 0.20861816, 0.6166992, 0.39208984, 0.50878906, -0.55078125, 0.17211914, -0.6796875, 1.34375, 0.37109375, -0.49609375, 0.0014705658, -0.8779297, -0.017105103, -1.4375, -1.3671875, 0.43701172, 0.08850098, -0.18432617, -0.040618896, 0.8833008, -1.0673828, 0.83740234, 0.12756348, -0.20959473, -0.84277344, -1.3613281, -0.7324219, 0.5913086, 0.9003906, 0.09838867, -0.91503906, -0.37646484, 1.84375, 0.09814453, 1.5771484, -0.40625, -0.140625, -1.6054688, 0.02822876, -0.08709717, -2.3203125, -0.14758301, 0.69677734, 0.14343262, -0.9379883, -0.38452148, 0.35131836, 1.2314453, -0.7915039, -0.71728516, -0.23010254, 3.5878906, -0.51171875, -1.0400391, 0.6958008, -0.54003906, 0.21948242, 0.5175781, -1.7939453, 2.1542969, 0.61328125, 0.053466797, 0.9116211, 0.5756836, 1.4072266, -1.1289062, 3.2285156, 0.84521484, -1.9521484, -1.0683594, 0.32373047, -2.046875, 1.1279297, 1.5205078, 1.4404297, 4.3359375, -0.9394531, 2.5019531, -2.1289062, -0.06933594, -2.2949219, 0.31640625, 0.9140625, -3.2421875, -1.5107422, -4.3359375, 1.53125, -1.3417969, -0.6743164, 1.2705078, -0.6435547, -0.77246094, 0.91015625, -1.6142578, 1.4833984, -1.7275391, -2.4667969, 0.6616211, 0.73535156, -1.0097656, -1.1152344, -0.38671875, -0.59228516, 1.6552734, 1.3662109, -3.390625, -2.9433594, -0.5527344, 0.25317383, -0.2915039, 0.38012695, -1.5498047, -0.29638672, -0.8383789, 1.3115234, -1.4228516, -0.23144531, -1.9580078, 0.86279297, -1.4570312, -0.18432617, 0.73046875, -0.36987305, -0.044311523, 2.6347656, 0.48657227, 0.13330078, -1.6289062, 1.2929688, 0.47705078, 0.48535156, 1.0927734, 0.23181152, 0.086364746, -1.6162109, -1.4609375, -0.49487305, 0.5854492, -0.24499512, -1.1591797, -1.4238281, 0.2890625, -2.7832031, 0.35595703, 1.8359375, 1.2373047, 0.21569824, 1.3837891, -0.46948242, 0.6044922, 1.4111328, -1.5605469, -1.6992188, 0.69628906, 1.6425781, -2.0625, -0.9814453, 2.1152344, -0.30737305, 2.2128906, -0.07165527, 2.3105469, -3.0644531, -0.92822266, -0.35229492, -1.2519531, -0.7241211, -0.08239746, -1.125, 1.7070312, 1.0996094, 0.3947754, 0.79785156, 1.3388672, -0.028884888, -0.6254883, 0.44628906, -0.37475586, -0.021835327, -0.80859375, 0.92626953, -0.3395996, 0.5854492, 2.0546875, 0.29052734, 1.3261719, -1.3632812, -0.6977539, -0.26538086, 3.6445312, 1.3798828, 1.6191406, -1.3515625, 0.78125, -2.1542969, 1.0195312, -2.0566406, 0.9892578, -0.1616211, -0.095947266, -1.6328125, -1.4638672, -0.28442383, -0.13098145, -1.4101562, -0.8574219, 0.5078125, 0.42407</t>
-  </si>
-  <si>
-    <t>[0.33251953, 0.984375, 0.17224121, -0.6723633, -1.0126953, 0.39672852, -0.019607544, 1.2597656, 1.1914062, 1.4101562, -0.68847656, 1.1855469, 1.2167969, -1.3574219, -0.10888672, 0.1895752, 1.1699219, 0.22363281, 0.8798828, -0.06939697, 0.26538086, 2.4082031, 0.095581055, -1.71875, -0.22802734, 3.0332031, 0.58203125, -1.1337891, -0.09289551, 1.2158203, -0.14099121, 0.5566406, 2.7207031, 2.2363281, 1.4179688, -0.8154297, 0.56884766, -0.77783203, 0.8339844, 0.44799805, -1.8271484, -0.24499512, -0.25610352, 0.8466797, -1.7509766, -1.6298828, -2.546875, 0.03366089, 0.3388672, 0.14245605, 2.6074219, 0.44091797, 0.3737793, 0.8046875, -1.2636719, -1.2753906, 1.6474609, -0.6225586, 0.47314453, 0.05407715, 0.12158203, 2.9667969, 0.2758789, 1.1552734, 0.1850586, -0.28442383, -3.09375, -0.734375, 0.5908203, 0.3557129, -0.7807617, 0.5942383, -1.0703125, 0.06097412, 3.9941406, 2.3417969, 0.8833008, -1.3427734, 0.6748047, -0.06530762, -0.0181427, -1.1103516, 0.015556335, 0.8120117, 0.09082031, 0.57421875, -2.4335938, -1.3242188, 1.7451172, -0.11395264, -0.95214844, 1.5556641, 0.03869629, -1.3300781, -1.3251953, -0.6303711, 2.140625, 0.8383789, 1.1972656, 2.1796875, -1.9716797, -0.2927246, 1.2089844, 0.03186035, -1.7421875, -0.40673828, -1.6396484, -2.0039062, -3.2558594, 1.4804688, -0.046173096, -2.8457031, -0.97216797, 0.6533203, -0.48535156, 1.3867188, 0.58251953, -1.8349609, -0.08343506, -2.3691406, -1.1015625, -0.8305664, 1.3789062, 1.3193359, 1.4707031, -0.44702148, 0.5566406, -1.8183594, 0.049957275, 0.96484375, 0.4416504, -0.6430664, -0.25854492, -0.97509766, 2.6542969, -1.9111328, 0.53466797, -0.75878906, -1.4501953, -2.5976562, 0.8754883, 0.52441406, 1.3427734, -0.68310547, -1.5957031, -1.3535156, 1.0791016, 0.1940918, -1.4482422, 0.4326172, 0.12902832, -0.83496094, -1.5498047, 2.375, -2.7324219, 1.1875, 0.9194336, 0.34985352, 0.2998047, 3.3066406, -0.94970703, 0.9379883, -0.7084961, -2.0332031, 1.6875, 0.8095703, -0.08532715, 1.2255859, -1.0478516, -1.8867188, -0.9873047, 0.072143555, -1.4355469, -0.47998047, 0.73095703, -0.43847656, 0.42138672, -1.6611328, 0.36279297, -0.19433594, -0.05633545, -1.0693359, 1.6494141, -0.10119629, -1.8154297, 0.6748047, -0.81396484, 0.3779297, 0.85595703, 0.7480469, -0.24243164, -1.6191406, -0.6928711, -0.5229492, -0.3125, 0.28076172, 0.5019531, -2.5996094, 6.9023438, -2.4609375, 0.69677734, -0.11669922, -2.2597656, -0.8598633, 0.61279297, 2.6367188, -0.39501953, 0.7265625, -1.9824219, -0.1104126, -1.2666016, -0.82958984, -0.54345703, 0.47973633, 0.6904297, -0.45874023, -0.9433594, -0.14916992, -1.0546875, 0.3527832, 0.8798828, -2.5644531, -0.38134766, 0.15344238, -1.4970703, 0.27001953, -1.9853516, -1.1035156, 1.6972656, -1.2421875, 0.7734375, 0.21643066, -1.203125, 1.0107422, 1.1005859, 1.5117188, -1.7548828, 3.0625, -0.09350586, 0.11853027, -0.35839844, 0.38671875, -0.4140625, -1.0029297, -0.31323242, 0.0335083, 1.0410156, -1.1269531, 1.0644531, 0.035461426, 3.2011719, 0.7861328, 0.5810547, 0.76464844, 0.044891357, 0.24279785, -0.6142578, -1.4052734, -0.10192871, 1.4912109, -0.097717285, -1.3720703, 0.2800293, 0.34326172, 0.14025879, -1.0341797, -0.7573242, -0.60546875, 0.6166992, 0.1907959, -0.49267578, -1.0136719, 2.8085938, -1.1152344, -1.3505859, -0.105895996, -1.2548828, 0.25268555, -1.390625, 0.23510742, -0.036956787, -2.4121094, -0.79052734, 1.9414062, 0.62109375, -1.2412109, -1.4541016, -1.1591797, -1.2851562, 0.5761719, -0.85595703, -1.3896484, 1.3310547, -0.8901367, -0.52783203, -1.2216797, -1.1826172, 1.1064453, -0.19580078, -1.0078125, -0.27001953, 0.6484375, -1.6152344, -0.29711914, 0.33007812, 0.9057617, 2.0683594, 1.8115234, -0.59033203, 0.16003418, 0.68896484, 1.7167969, -1.4833984, -0.7392578, 1.5068359, -0.10675049, -0.029724121, 0.103515625, 1.1767578, -1.5371094, -2.4316406, -1.6386719, -0.1348877, 0.5205078, -0.32983398, -0.7661133, 0.97998047, 2.2558594, 0.27929688, 0.06976318, -0.15209961, 1.4082031, -1.5087891, 1.1582031, -0.74658203, -0.92529297, 0.39868164, 0.7163086, -1.9648438, 0.35302734, 0.6645508, 0.23986816, -0.7661133, -0.5683594, -0.25048828, -1.71875, 0.00026798248, -0.765625, 1.9042969, 1.28125, 0.7207031, -0.9057617, 0.8222656, 1.1699219, 0.60595703, 1.5068359, 1.7666016, -1.2822266, -1.7197266, 0.10821533, 0.37451172, 0.26489258, -1.6933594, -0.14709473, -0.80810547, 1.6386719, -0.55859375, -0.8613281, -0.35961914, -1.2431641, -0.76416016, -0.26391602, -0.88623047, -1.6787109, -0.19189453, -0.020584106, -0.5629883, 0.066711426, 0.74316406, -0.27368164, 1.2636719, -0.04385376, -1.5693359, -0.11022949, 1.3398438, -0.16308594, -0.21850586, 2.4492188, -0.20373535, 0.9321289, -1.1835938, -2.7070312, 0.8696289, 0.34375, 0.061035156, -1.0644531, 1.8242188, 1.2910156, 0.3857422, -0.44311523, -0.68603516, -0.8305664, 0.07745361, -0.38208008, -0.4140625, -0.0949707, -0.07824707, -1.6005859, 1.2011719, 1.1630859, 2.0332031, -0.20227051, 0.30322266, -0.41259766, 2.0371094, -0.051361084, -0.08239746, -0.9824219, 0.5878906, 0.091796875, 1.1914062, -0.9506836, 0.67529297, 1.0830078, -0.6352539, 1.0283203, -0.3725586, 0.11584473, 1.3417969, 1.2226562, -0.25073242, -0.079711914, -0.40673828, 1.4716797, -0.7348633, 0.81933594, 1.8115234, -1.9863281, 2.0488281, -0.2541504, -1.7861328, 0.34594727, -0.17797852, 0.90625, 0.37353516, 4.75, -0.6152344, -1.0224609, -1.1162109, 1.1308594, -1.4521484, 2.0761719, 0.9042969, 0.16577148, -0.94384766, -2.0390625, 1.3017578, -1.4970703, 1.3066406, -0.06719971, -1.5888672, 1.8554688, -0.2536621, 0.19970703, 0.6015625, -0.8466797, 1.2304688, 3.0761719, -0.9301758, 0.70996094, -1.9794922, 0.7836914, -0.6044922, -0.49438477, 1.5644531, 1.484375, -0.41308594, -2.7441406, 0.70703125, 1.5615234, -1.7539062, 1.4863281, -0.17822266, 0.5205078, -0.09436035, -2.3183594, 1.4833984, 2.2558594, 0.30126953, 1.0830078, 0.13903809, -0.027191162, -0.064086914, -1.2900391, -0.7832031, -0.51904297, 1.3222656, 0.4091797, -0.15649414, 0.3959961, 0.9794922, 0.78759766, -1.4248047, 1.8388672, -1.6523438, -0.9785156, -0.16101074, -0.35668945, -1.9677734, 0.06970215, 1.1171875, 0.92529297, -0.29101562, 1.0693359, 0.3173828, 1.4335938, -2.1210938, -0.40625, 0.88720703, -0.9765625, 0.2322998, -0.15759277, -1.3076172, 0.6948242, 0.57421875, 3.5664062, -0.10662842, 1.4453125, 2.25, 1.1796875, 1.4394531, 1.1318359, 0.33520508, -1.4863281, -0.7548828, 0.24609375, -0.41186523, -1.9306641, -0.88427734, -1.9365234, 2.8496094, -1.1591797, -3.3886719, -0.3647461, 0.6074219, -0.3798828, 1.0253906, -2.0761719, -0.84375, -0.39038086, -0.6982422, 1.4013672, 2.359375, 0.7734375, 2.2304688, 0.68847656, -0.07165527, 0.20581055, 0.3881836, 0.9189453, 0.95654297, -0.36572266, 0.45874023, -1.0253906, -0.46875, 1.3105469, -0.85009766, 1.0429688, -0.53564453, -0.48706055, -0.18188477, -0.024475098, 1.0019531, -0.69677734, 1.3652344, -0.42700195, -0.3815918, 2.3359375, -0.038909912, -0.5004883, 4.28125, -0.05770874, 0.8901367, 0.95654297, 1.6582031, 1.8691406, -0.80078125, -0.25952148, 0.3725586, -0.6845703, 0.99609375, 1.7597656, -0.68603516, -0.002313614, 0.28051758, -0.43725586, 0.44140625, -0.66308594, -0.24682617, 0.3798828, 1.1757812, 0.9194336, -0.3659668, -0.08874512, 0.16503906, 1.71875, -0.16577148, 0.37182617, 2.3144531, 1.9589844, -0.6513672, 0.62597656, 0.40039062, -0.2199707, -0.2932129, -0.5161133, -0.6586914, 0.46191406, -0.98291016, -1.6523438, 0.44848633, 0.83691406, -1.5146484, 0.8544922, 0.7885742, 0.8276367, 0.6694336, -1.3203125, -0.72265625, 1.8212891, -0.5, 1.6279297, 2.453125, 0.65283203, 1.6357422, 2.9042969, 0.36791992, 0.35888672, -1.4501953, -0.48828125, -0.7558594, 0.5727539, -0.14245605, 0.40698242, 2.2832031, 0.90722656, -1.3408203, -0.7758789, 1.5703125, 0.6411133, -1.4052734, 0.6479492, 2.6933594, 2.4101562, -0.33447266, -0.33618164, -1.1103516, -1.3339844, -1.421875, 0.8413086, -2.2675781, 2.5527344, -1.4199219, -2, 1.8603516, 0.27294922, 0.08605957, 0.41333008, 1.3330078, -0.27148438, -1.4355469, -1.1796875, -0.025726318, -1.5263672, 0.46899414, -3.2871094, 1.2089844, -1.0869141, 1.1337891, -0.25732422, 0.66845703, 0.22973633, -0.8540039, 2.2617188, -1.9833984, -0.35424805, -0.83251953, 1.2011719, -1.0488281, 1.3720703, 2.1796875, -2.1289062, -0.5654297, 1.6728516, -0.65478516, 0.14538574, -0.19104004, -0.85791016, -0.5234375, -1.9306641, 1.1367188, 0.73046875, -1.3232422, 0.2849121, 0.024383545, 0.43188477, 0.9926758, 0.1307373, 1.6816406, -0.52978516, -1.0429688, -0.22912598, 0.2993164, -0.35009766, -0.31958008, 0.048706055, -0.42114258, 3.3476562, 0.66552734, -0.36328125, 1.2539062, -0.71484375, 0.25, -0.87597656, 1.8691406, 0.92529297, -1.8632812, 1.2216797, -1.2441406, -0.43041992, -0.43481445, -0.67626953, 1.9765625, 0.6513672, -0.43432617, -1.2880859, -0.1784668, -0.32421875, -2.3671875, -1.2480469, 1.4824219, 0.11883545, 0.89208984, -0.99853516, 1.8408203, -1.2177734, -1.2119141, -0.6455078, 0.9555664, 0.0637207, 0.6816406, 0.5698242, 0.3815918, 0.28955078, -0.86083984, -3.1503906, 0.16491699, -2.4082031, 0.6796875, -1.2626953, -2.7304688, -1.9335938, 0.90283203, -0.5185547, 1.1640625, -1.3691406, -0.12487793, -0.3894043, -0.42651367, 0.50927734, -1.3574219, -3.2890625, -1.703125, -0.16564941, -1.0341797, 0.34375, 1.9716797, -0.7114258, 0.8857422, 1.8085938, -0.4970703, 1.4072266, -0.047332764, -0.14440918, 1.8505859, -1.0126953, -0.87158203, -0.89746094, -1.6943359, -0.34301758, 0.58935547, -0.67041016, -0.09875488, 1.6181641, -2.4882812, -1.0380859, -0.39941406, 1.2392578, 0.45214844, 1.5830078, -0.16687012, 0.6972656, 0.26000977, 1.1640625, -0.96484375, -0.34936523, 0.2836914, 1.3056641, 1.5429688, -1.7607422, -0.5136719, -1.9414062, -1.9951172, -0.59814453, -1.4638672, 0.6196289, -0.6386719, 0.35864258, -0.5253906, -0.4206543, -0.1394043, 1.8847656, 1.1279297, 1.1689453, -0.09136963, -2.1113281, 2.1601562, 1.8955078, 0.35913086, 2.9746094, 0.54248047, -0.4501953, -0.14074707, -0.51416016, -0.8701172, -1.3154297, -0.064575195, 0.8544922, -0.31176758, 1.5429688, -1.0498047, -0.1998291, -0.44921875, 0.78027344, -1.2900391, -2.921875, 0.90722656, 1.4072266, -1.2695312, -0.59521484, -0.6801758, 0.021102905, 1.3574219, 0.55322266, 1.8818359, -1.3935547, -1.2998047, 0.48413086, 0.26293945, -0.22155762, 0.81689453, -0.017120361, 0.38134766, -3.0820312, -0.28686523, -0.14001465, -0.5805664, -0.23986816, -2.1328125, 0.85546875, 0.7211914, 1.7421875, 0.65625, 0.22180176, 1.0605469, -0.2939453, 0.828125, -0.0496521, 0.34375, 0.60839844, 0.10003662, 1.1083984, 0.4963379, 0.69677734, 2.5058594, -0.043304443, 0.8745117, 0.40234375, 1.25, 0.9248047, -1.3037109, -0.7207031, -0.5683594, 0.31713867, 0.8125, -0.64697266, 2.5605469, -2.1269531, 1.0761719, -1.3681641, -0.6323242, 0.32421875, 0.3798828, 0.030258179, 0.6738281, 0.3671875, -0.89746094, -1.0439453, 1.2333984, 0.4416504, -0.5605469, -1.3427734, -1.0185547, -0.0362854, -1.6669922, -0.083496094, 0.8613281, -0.14074707, 1.0917969, 0.7314453, 1.5917969, 2.1269531, -0.8486328, 1.5615234, 1.4199219, -0.18969727, -0.9975586, 0.71875, 0.54003906, -1.9052734, 1.0722656, 0.7402344, 1.8330078, -0.066711426, -0.26171875, -1.8613281, 0.39379883, 1.0556641, -0.5834961, 0.984375, -1.8408203, 1.0009766, 2.2148438, 1.1064453, -0.88183594, 1.0371094, -0.39672852, -0.38012695, -1.4501953, -1.5039062, 1.1630859, 0.115234375, 0.7548828, -0.2668457, -0.39575195, -0.5390625, -0.35595703, 0.6855469, 0.16625977, -0.14123535, -0.4543457, 1.4560547, 0.52490234, 0.98828125, 0.14440918, 1.7880859, 0.08300781, 1.8818359, -1.9355469, 1.0195312, -2.1640625, 0.18920898, 0.92041016, -0.031082153, 0.56689453, 0.6044922, 0.14978027, 0.11993408, -0.83203125, 0.6948242, -1.0175781, -0.8828125, -1.1191406, -0.43139648, 0.13476562, 0.06958008, -0.74902344, 0.44018555, -0.70996094, -0.07208252, -1.7841797, 0.13024902, 0.94970703, -0.6015625, -0.18078613, 0.20080566, 1.3251953, 0.42138672, -2.1855469, -0.15527344, -0.546875, -0.37475586, 0.47827148, -1.2685547, 0.051849365, -0.66015625, -0.03366089, 0.4169922, -0.19482422, -4.0585938, -0.4477539, -0.05029297, -2.3066406, -1.1630859, -0.85253906, 0.5761719, -2.0898438, -2.1171875, -2.7636719, 0.4206543, -1.0966797, 0.34838867, -0.031082153, -1.3144531, 1.5976562, 0.25610352, -0.84814453, -0.19750977, 0.89453125, 1.8867188, -0.75097656, -0.3930664, 0.13659668, 0.29101562, 2.0820312, -1.4980469, 1.6132812, 1.5253906, 0.5732422, 0.6074219, -1.5722656, 1.9501953, -0.48486328, 0.14685059, 0.89746094, 0.26391602, -0.36376953, -0.7817383, -0.20593262, 0.045288086, -0.74560547, -1.3369141, 1.1630859, 1.0673828, 0.7055664, 0.99121094, -2.703125, -0.5810547, -2.140625, -0.5805664, -0.15234375, -0.4892578, 1.6494141, -1.71875, 0.51708984, -1.8378906, -0.3034668, 1.3476562, -1.5429688, -1.0078125, 0.5234375, -0.29125977, 0.7836914, 0.90185547, -0.51708984, 0.86279297, 1.0498047, -0.12854004, -1.2275391, -0.80078125, 0.17736816, -2.40625, -1.6972656, 2.3046875, 0.73535156, -2.3886719, 0.8701172, 1.0810547, 1.8007812, -1.0722656, 2.1660156, -0.39672852, 1.2177734, -1.6464844, 0.12414551, 0.25708008, 0.13635254, 0.5078125, -0.5566406, -1.2607422, -2.7675781, 1.6044922, 1.2949219, 1.40625, 0.9248047, -0.85253906, 1.3330078, 0.23913574, -0.11193848, -0.06060791, 1.2480469, -0.640625, 3.9667969, 0.9946289, 0.6879883, 0.5239258, -1.0615234, 0.2175293, 1.5556641, 2.046875, 2.0351562, 0.82470703, 0.1763916, 0.2536621, -1.8505859, 0.47485352, 1.4814453, -0.4633789, 0.8183594, -0.0011367798, 1.2089844, -1.5205078, 0.0018234253, 0.05923462, 0.29077148, 0.83935547, 0.72265625, -0.021972656, -0.40698242, -0.43359375, 0.24267578, 1.875, -0.5366211, -0.031402588, -0.90722656, 2.7773438, -0.12243652, -0.89697266, 1.4814453, 0.21740723, 0.40527344, -1.2275391, -0.4296875, 0.24890137, 1.5429688, 0.12097168, 0.07714844, -1.2421875, -0.78759766, -0.09234619, -0.35961914, -0.27416992, 1.0458984, -2.2265625, 1.4628906, -1.8271484, -0.38867188, 0.038360596, -0.41455078, -0.58447266, -0.8178711, -0.42407227, -0.8310547, 0.77734375, -2.015625, -1.8417969, 2.4257812, -0.33911133, 1.3056641, 0.65625, 1.0498047, 1.7832031, 0.56152344, -0.9741211, -0.3527832, 2.4707031, 1.5898438, -1.7695312, -0.66845703, -1.6162109, -0.36328125, -2.0175781, 1.7695312, -2.3671875, 1.6435547, 0.53222656, 0.4243164, 0.109680176, 0.67333984, 0.4560547, -2.8398438, -2.1835938, -1.2861328, 3.5625, 1.0859375, 0.78515625, 0.4897461, 0.5131836, -0.017990112, -1.3994141, -1.5283203, -1.3486328, 0.23291016, 0.7451172, 2.0390625, -0.07183838, 0.63427734, 0.7133789, -0.5332031, -0.11810303, -0.008705139, -0.35375977, -0.64453125, 1.7167969, 0.97509766, -0.9638672, -1.2070312, 1.0878906, -1.7480469, -0.34838867, -0.19506836, 0.65234375, 0.42700195, 0.78759766, 0.22302246, 0.58496094, -0.22351074, -1.2753906, -0.034942627, 1.3564453, 0.7241211, -1.5859375, -0.28076172, -0.734375, -0.94677734, 1.3193359, 0.5214844, 0.42504883, 0.7915039, 0.14892578, 1.3603516, 0.3544922, -0.22949219, 0.45751953, -0.9145508, -0.58496094, -1.5810547, -0.52685547, -0.96484375, -1.2519531, -0.78759766, 0.37695312, 1.21875, 2.1347656, -0.91064453, -0.24572754, -1.3525391, -2.0136719, -1.8867188, -0.57177734, -3.9179688, 0.11364746, 1.9501953, 1.2939453, -1.1162109, 1.2451172, -0.6152344, 1.1396484, 1.0136719, -0.001581192, 1.0419922, 2.0859375, -0.17333984, 1.4443359, -0.66552734, 0.20776367, 1.734375, 1.0751953, 2.5800781, 0.5336914, -0.56396484, 0.46728516, 0.017913818, 0.4182129, 0.8334961, -1.9560547, 0.8022461, -1.0673828, -1.6904297, -0.6020508, -0.14172363, -0.45288086, 0.5810547, 1.046875, 1.0839844, 1.2880859, 1.2431641, 0.08477783, -0.6196289, -1.0664062, -1.4853516, 1.1425781, 0.6489258, 1.2998047, 0.7524414, -1.6464844, -0.9277344, -0.69970703, 0.33251953, 1.6279297, -1.4326172, -0.02609253, -0.21276855, 1.5498047, -0.83203125, -2.7304688, -0.79345703, 1.7226562, -0.56103516, 0.6948242, 0.95410156, 0.70996094, -0.45898438, -2.5859375, -0.9824219, -1.6269531, 0.5473633, -0.24243164, -0.097961426, -1.265625, 5.0078125, 0.8017578, 0.23291016, -0.60498047, 1.6826172, 1.8320312, 1.2568359, 0.61035156, -1.6132812, 0.85009766, 0.82373047, 1.3027344, 1.1806641, 0.30419922, -2.2949219, -1.4169922, 0.20947266, -0.22045898, -0.7963867, 2.2324219, -0.33740234, 1.5742188, 0.4724121, -1.3603516, 4.7421875, 0.8154297, 0.72802734, 0.49194336, 0.4951172, -0.67089844, -0.5161133, 0.14880371, -1.7666016, -1.5546875, 0.28344727, -0.22192383, -0.29858398, -0.8754883, -0.8754883, -0.34838867, 0.6582031, 0.6933594, -0.8178711, -0.6645508, -0.0904541, -0.8984375, -0.23730469, -3.0039062, -0.53759766, 1.2060547, -1.4179688, -0.24060059, -0.73876953, -2.7050781, -0.4416504, -0.03286743, 0.7207031, 0.03213501, 2.6210938, 2.2734375, -0.3569336, -0.9975586, -0.3918457, -0.47851562, -0.265625, 1.6582031, -0.42895508, -1.2246094, 0.43847656, 1.625, 0.1940918, -0.5283203, 0.21350098, 2.5664062, -0.65722656, -1.0751953, -1.6699219, 1.9736328, 0.43286133, 0.58251953, 0.09893799, -1.9892578, 0.5263672, 1.2578125, 2.3710938, -0.029312134, 0.83251953, -0.70458984, -2.8945312, 0.10498047, 0.8125, -1.8691406, 0.4326172, 0.93310547, -0.89160156, 0.8769531, -0.41601562, -1.7714844, 1.0341797, 1.1064453, -0.2775879, 2.0566406, -2.1777344, 1.5146484, -0.7294922, 3.4902344, -2.4980469, -1.0410156, 0.18847656, 0.4543457, -1.1816406, -1.6015625, 0.6064453, -0.34301758, 1.0976562, -2.3652344, -1.6474609, -0.2824707, 0.37036133, -0.30639648, 1.6611328, -2.0625, -0.4658203, 0.19177246, -0.030349731, -0.38012695, 0.140625, 0.023880005, -1.0458984, -0.27148438, 1.2285156, -0.10803223, 0.44921875, -0.921875, 0.70214844, 3.6601562, 0.74902344, -0.43432617, 0.48999023, -0.3408203, -2.7617188, 0.7973633, -0.17907715, -0.9091797, 1.7773438, 1.6464844, 0.3725586, -1.1035156, 0.10601807, 0.0004925728, -2.6621094, 0.4814453, -1.1865234, 2.6230469, -0.12878418, -2.140625, 0.39257812, 0.24023438, 0.6484375, 1.4638672, 1.2353516, -2.828125, 0.30322266, 1.3417969, -0.63378906, 2.1367188, 0.44848633, -1.2041016, 0.5390625, 0.5776367, -0.036010742, 2.7421875, 0.48413086, -0.021560669, -1.2167969, -0.9785156, -2.1015625, 0.039642334, -0.47851562, 1.1435547, -0.5205078, -0.05886841, 0.4897461, -0.3852539, 0.75439453, -1.0214844, -0.09118652, 0.69189453, 1.0371094, -0.27416992, -2.6230469, -0.58154297, -0.12670898, -0.7602539, 1.0019531, 0.38671875, -1.1523438, 0.921875, 0.4645996, -1.1904297, -1.1308594, 1.28125, 0.3647461, 0.1071167, 0.4580078, 0.31762695, 0.8149414, -0.0725708, 0.18835449, 1.0332031, 0.4934082, -1.5751953, -1.2089844, -0.64160156, -1.1103516, 0.82958984, -2.4003906, 0.7602539, -1.1894531, -1.4287109, -1.2167969, 1.1865234, 2.203125, -0.06689453, -0.5683594, 0.5180664, -0.6455078, -0.35986328, -0.038635254, 0.74316406, -0.11981201, 0.32592773, -1.3662109, -0.24743652, -0.36254883, 2.5605469, 0.5722656, 0.11846924, -0.01838684, 1.7919922, -1.5527344, 0.15710449, 0.890625, 1.6240234, 0.4790039, 0.8828125, 0.06121826, 0.1932373, 1.8632812, -1.3232422, -0.71533203, -0.11816406, 0.71728516, 1.5136719, -1.0146484, -1.4589844, 0.6635742, 0.7836914, 0.7988281, 0.6699219, 0.5722656, -1.4082031, 0.7626953, 0.47558594, -1.5859375, 3.4277344, 0.53515625, -0.2607422, 1.7246094, 0.89453125, 0.67333984, -0.16760254, -0.5864258, 1.5224609, -0.13366699, 1.0146484, -0.15258789, 0.70751953, -1.1533203, -1.5976562, 0.8730469, 0.9165039, -0.3076172, -0.39086914, -1.0332031, -2.7910156, 0.047424316, -0.68310547, 2.1523438, 1.5322266, -0.08892822, 0.6542969, -1.8173828, 0.61279297, -0.30908203, 0.23400879, 0.18151855, 0.33447266, -0.16870117, 0.5644531, 0.4423828, 1.0117188, -0.66308594, -1.609375, 0.2746582, 1.21875, 0.76464844, -0.24304199, 0.24389648, -0.4741211, -1.8154297, -0.2763672, 2.1523438, 1.6328125, 1.6367188, 3.9355469, 0.04397583, 2.6933594, -2.6269531, 1.0078125, 0.41845703, -0.6767578, 0.29516602, 0.04260254, -0.5410156, -1.1191406, 0.48632812, -1.4746094, 1.0712891, 2.421875, -2.1347656, 1.9082031, -0.8364258, -1.0976562, 1.1298828, -0.017593384, -0.9824219, 0.8984375, 1.0947266, -0.88427734, -1.5292969, -0.27441406, -0.91748047, -0.7734375, -0.1850586, -1.6679688, -2.2929688, 0.7426758, 1.0380859, -0.09777832, -0.01222229, 0.09814453, -3.2011719, -0.83251953, -0.39868164, -2.9765625, -1.6269531, 0.09069824, 1.2666016, -0.48242188, -2.3632812, 0.42578125, 2.0390625, 0.47314453, 0.50390625, 0.8696289, 1.5888672, -1.0273438, 0.14245605, 1.9101562, -0.6088867, 0.25756836, 0.01852417, 0.96240234, 0.31030273, 5.390625, 1.109375, -0.013633728, 0.6484375, -0.49072266, 1.3261719, 0.1640625, -2.9414062, 0.7817383, -1.6533203, 1.2685547, 2.4042969, -0.007820129, -3.2480469, 1.3330078, -2.4511719, 0.9667969, -1.8300781, 1.6972656, 0.8310547, -0.3474121, -0.11199951, 1.2617188, -1.5224609, 0.49560547, -1.7216797, -0.5566406, -0.99853516, -0.24926758, 1.9414062, 0.10241699, -0.8125, 2.40625, -0.34448242, -0.51904297, 0.021652222, -0.8666992, 1.8466797, 0.21740723, 0.49072266, -2.0527344, -2.828125, -0.5004883, -1.4755859, -1.7666016, -0.5961914, 1.9951172, -0.12194824, -0.63134766, -0.27563477, -1.1640625, -0.4362793, -3.171875, -1.1171875, -1.0361328, 2.4042969, 1.6943359, 1.0625, -1.6269531, 0.114746094, 0.8066406, 0.57373047, 0.9433594, -0.41845703, -1.2451172, -0.55810547, 1.4628906, -0.7705078, 0.5234375, -1.6416016, 1.1503906, 0.7163086, -0.6948242, -0.6972656, 3.3359375, 0.98535156, 1.6132812, -1.0986328, 0.06390381, 0.37060547, 2.5683594, 1.4921875, -0.24353027, -2.3203125, -0.84228516, -0.9614258, 0.5600586, 0.36816406, -0.7734375, 0.013847351, 0.31860352, 0.71191406, -1.4326172, -0.859375, 0.4416504, -0.7426758, -3.2617188, 1.609375, -0.86279297, 0.9013672, 2.4570312, -0.85302734, 1.4443359, -0.9946289, -0.46728516, -0.34814453, 0.9580078, -0.80078125, -0.6982422, -0.08984375, 0.4326172, 0.5917969, -0.25097656, 0.72558594, -0.3930664, 0.94189453, 0.85791016, -1.0136719, 0.4038086, 0.04888916, -0.11779785, 0.21850586, -1.0947266, -2.6777344, -0.8334961, -0.4675293, 0.093444824, 2.0605469, -1.8583984, -2.8339844, -0.36767578, -0.72558594, -0.8105469, 1.7226562, 0.5913086, 0.026855469, -0.038635254, 2.1660156, -1.6210938, -0.4638672, -1.9648438, 1.4746094, -0.5205078, -0.35888672, -0.12207031, -2.0097656, -1.1445312, 2.2285156, -2.0097656, 0.87890625, -0.36450195, -0.27807617, -0.37573242, 0.3359375, 1.3378906, 1.0166016, -1.6904297, -1.3505859, -0.17041016, 1.5742188, 2.1289062, 0.33618164, -0.75390625, -0.15698242, -0.31347656, -0.21130371, 1.9365234, -1.5019531, 0.6933594, -0.97998047, 0.8774414, -0.8442383, 0.32202148, -0.23693848, 0.7006836, -0.15600586, -1.4160156, 1.9619141, -1.2255859, 0.8725586, 0.49560547, -1.609375, -0.91064453, -0.9189453, 0.55322266, 0.7919922, 0.23486328, -0.32299805, 0.69677734, 0.68603516, 0.84228516, -0.55322266, 0.4116211, -1.71875, -2.4140625, 1.6162109, -0.7265625, 0.5917969, 1.6621094, 0.47607422, -0.17333984, -0.61376953, -0.5307617, -1.0439453, 2.8613281, -0.37939453, 1.5009766, 1.7695312, -1.7050781, -2.1269531, 1.1367188, 0.65478516, -0.8989258, -0.4963379, -0.06713867, -1.453125, -0.36572266, 0.5473633, 1.2099609, -0.21398926, 1.2519531, -1.2519531, -1.4921875, -2.2675781, 0.34204102, 1.171875, 1.8027344, 1.2226562, 0.6123047, 0.51171875, -2.1621094, -0.6254883, 0.7861328, -0.06341553, -0.49267578, 1.4853516, -2.5585938, 0.22106934, -0.38305664, -1, 0.19555664, -0.083862305, -1.1162109, -0.12231445, -1.4511719, -0.4399414, 0.63720703, -0.8623047, 0.75341797, -0.84716797, 0.37231445, -1.546875, -0.70703125, -1.0419922, -0.39941406, -1.28125, -0.86816406, -0.12060547, 0.43847656, 0.4934082, -0.88720703, 0.42260742, 0.54003906, 0.84228516, 0.5986328, -2.2929688, 0.34472656, -1.4472656, -1.0195312, -0.82958984, 1.2724609, -0.056549072, 0.029541016, 1.4931641, 2.0546875, -1.1191406, -1.7861328, -2.9472656, -0.06878662, -0.6948242, 0.52490234, -2.0917969, -0.8339844, -0.8623047, 1.4882812, -1.1074219, -0.18884277, -1.1162109, -0.40673828, 1.6367188, -1.7548828, 0.69433594, -0.38500977, 1.7246094, -0.8076172, 0.30932617, 1.8232422, -0.26098633, -1.0986328, -0.5864258, -0.80371094, 0.45532227, 0.7265625, -1.8291016, -1.2021484, -0.3034668, -0.03466797, 0.6899414, -0.59033203, -0.39575195, -0.4987793, -0.9003906, 0.6850586, -0.93603516, 0.82177734, 0.83984375, -0.07733154, -0.90722656, -2.4726562, -0.08648682, -0.5444336, -0.01424408, -0.76123047, -0.22180176, -1.3183594, -0.0032215118, -1.4228516, 0.23840332, 0.6816406, -0.76904297, 1.6972656, 0.3605957, -0.0012426376, 1.5722656, 1.3115234, -0.25952148, -1.4677734, 0.19299316, -0.0063476562, 0.94189453, 0.0020542145, -0.85009766, -7.3554688, -0.099365234, 0.43579102, 2.8261719, 0.8544922, 1.1074219, 0.122680664, 2.3652344, -1.8095703, -0.1706543, -2.2207031, 0.78466797, 0.44458008, -0.34838867, 1.4355469, 1.9453125, -0.54296875, -2.3828125, -0.3083496, -1.2080078, -2.3691406, 1.4023438, -1.6875, 0.9404297, -0.33032227, -1.8466797, 2.2011719, -1.7304688, 0.42285156, 0.9013672, 1.7773438, -2.125, 1.2275391, -0.8413086, -1.1669922, 1.2285156, 0.70214844, -0.27368164, 0.34594727, -1.4863281, -0.3857422, -1.4638672, -2.0195312, 1.2402344, -1.0283203, 2.2011719, 2.2773438, 1.5117188, 0.48339844, -1.2578125, 0.5341797, 0.066223145, -0.048614502, -2.2578125, -0.6933594, 0.7128906, -0.23266602, 1.5585938, -0.091674805, 0.3005371, -0.4116211, 0.16235352, -1.2861328, 1.5195312, 0.49414062, -0.9555664, 1.2236328, 1.2353516, -1.296875, 0.37426758, -1.1308594, -1.0107422, 1.4443359, -1.7216797, -1.8173828, -0.68408203, -1.5644531, 0.78466797, 1.1552734, 0.47753906, -0.018936157, 1.0761719, 0.78466797, -0.42114258, -0.9824219, 0.47387695, 1.1181641, -1.3974609, 0.95654297, -1.8779297, -0.8305664, 0.38354492, 0.71972656, 0.19592285, 0.5751953, 0.022521973, -0.0003745556, 1.4853516, -2.4375, -0.7963867, -0.46655273, -1.1357422, 1.2548828, -0.50683594, -0.11035156, -7.1796875, 0.58203125, 3.2734375, 1.7197266, 3.5839844, 0.20007324, 0.94628906, 0.8901367, -0.7270508, -0.32714844, -1.4462891, -0.6870117, 2.5429688, -0.34228516, 1.3896484, -0.6015625, 1.2998047, 0.10961914, 0.1262207, -0.68896484, 0.78759766, 0.6455078, -0.34594727, -0.22424316, 1.3554688, -0.039855957, 0.27978516, -0.1282959, -0.3696289, 0.56396484, 0.10620117, 0.30810547, -1.34375, 0.4807129, -0.515625, 1.7421875, 0.084106445, -1.5048828, -0.60009766, 0.5136719, 3.3476562, 0.025604248, 0.03012085, -0.6923828, -0.48706055, -0.31152344, 0.2578125, 1.3359375, 0.4350586, -0.18237305, 1.5146484, 0.8544922, -1.5830078, -0.62109375, -0.5083008, -0.17919922, 1.7607422, -0.6425781, 0.22387695, 0.037628174, 0.1105957, -1.0273438, -0.5024414, -1.0615234, -0.16101074, -0.19946289, -1.2998047, 2.4316406, 0.13989258, -0.9741211, 0.36279297, -0.15527344, -0.46801758, -0.087646484, 1.1337891, 0.39868164, -0.05102539, -0.82958984, 1.0605469, -0.48535156, 0.6582031, -3.7011719, 0.81640625, -1.4169922, 0.890625, 1.0371094, 0.98876953, -0.43481445, -0.19042969, -1.9853516, -0.8745117, -1.1904297, -0.546875, 0.50927734, -0.9526367, 0.5053711, -1.8525391, -0.58251953, 0.5698242, -1.453125, -0.8486328, 1.4882812, 0.44580078, -1.0761719, -0.0018520355, 0.76123047, 1.6269531, 0.77734375, -0.07714844, -0.26245117, -1.9326172, 2.0917969, -0.9584961, -0.098083496, 1.4169922, -0.016555786, 0.2602539, -0.051483154, 0.6298828, 0.44604492, -2.2597656, 0.921875, -1.1074219, 1.4423828, 0.90478516, 1.5585938, 1.0986328, 1.5224609, -0.2680664, 2.3027344, -1.1367188, -0.4580078, 1.0654297, -0.11376953, -1.3808594, -0.042663574, 2.4199219, 1.9140625, -1.1132812, 0.6665039, 0.9086914, 2.0917969, 0.3305664, 1.9472656, 0.6958008, 0.90625, 1.9101562, 0.7788086, -0.32763672, 0.4645996, 0.51123047, 2.0332031, 1.2119141, -0.72021484, -0.44726562, -1.6875, 0.23815918, 0.8833008, -1.0244141, -1.3369141, 0.25708008, 0.46313477, 0.3647461, 0.33862305, -0.3959961, -2.7792969, 0.5097656, -0.5522461, 0.6738281, -4.7304688, -1.8984375, 0.021347046, 1.2958984, -0.012176514, 0.203125, -0.01234436, 0.10925293, -0.63720703, 0.4152832, 1.6103516, -1.4326172, 0.74560547, 0.4921875, -1.7197266, 0.7348633, -1.2255859, -0.3359375, -1.1074219, -0.60498047, -0.075683594, -0.7944336, -0.19140625, -1.4570312, -1.8183594, 0.4248047, 1.375, 1.2109375, -1.2617188, -2.7285156, 0.8066406, 0.7104492, 0.0002541542, 0.77197266, -0.6269531, -0.4675293, 1.3740234, 0.23693848, 1.0292969, -1.0488281, 2.0527344, 0.6557617, 0.62109375, -0.94384766, 1.4306641, -0.6201172, -1.2607422, -1.390625, 0.025344849, 0.2409668, -0.95410156, -0.76171875, -0.6699219, -0.16674805, 2.0292969, -0.515625, 1.2470703, -1.1855469, 0.50927734, -0.56933594, 1.0419922, 1.9882812, -1.2919922, -2.609375, 1.3730469, -0.45532227, -0.17785645, -1.4013672, -0.008392334, -0.2548828, 0.75878906, 0.16784668, 4.1953125, 1.96875, 1.4003906, 0.5805664, 0.10083008, -1.0166016, 0.5595703, 0.061798096, -2.0039062, 1.9560547, 0.4885254, -0.6567383, 1.1914062, 0.24816895, 0.8198242, 1.0185547, 1.3876953, -0.34228516, -1.65625, -0.40527344, 0.030151367, 0.61083984, -0.42407227, -0.23022461, 1.1191406, 1.0742188, 2.2167969, -0.86865234, 2.7871094, -1.3476562, 0.77001953, -3.3632812, -2.2714844, 2.4941406, -0.53222656, -0.8569336, -1.5234375, -1.0888672, -1.2109375, 1.4150391, 0.7583008, 0.73339844, 1.0078125, -0.4897461, 2.9042969, 0.07672119, 0.8046875, 2.1875, 1.2636719, -0.80810547, -1.8476562, -1.2021484, 0.8334961, -2.5703125, -0.33251953, -2.2070312, -0.3972168, -0.48632812, -0.18701172, 0.6635742, 0.49951172, 0.054626465, 0.5444336, 1.8300781, -0.33618164, -0.21936035, 0.45458984, -1.3173828, 0.3659668, -0.78027344, 0.51953125, -1.7226562, 1.2421875, -0.6801758, -1.3300781, 0.62109375, 2.0488281, 0.8857422, -1.6298828, 0.33129883, 0.57470703, 0.24499512, 0.49072266, 0.108947754, 0.111328125, -0.30566406, 0.10028076, -2.3457031, -0.66552734, -0.81103516, -0.006549835, -0.2602539, -1.2607422, -0.083496094, 0.20837402, 0.32348633, -1.1992188, 3.2792969, 0.30541992, 0.53466797, 1.0615234, 1.5673828, -0.2758789, -1.1982422, -1.1728516, -3.2539062, 0.13464355, 0.6166992, -1.6669922, -0.8515625, -0.2602539, -0.91503906, 0.3701172, 0.0041007996, -0.2055664, -0.11791992, 0.88720703, -0.5883789, -1.9052734, -1.5410156, 0.005542755, 1.1347656, 1.4140625, 0.14526367, -0.9042969, 2.0097656, -0.18127441, 0.50341797, 0.12573242, -0.8354492, -1.5585938, -2.7265625, -2.1230469, 0.20153809, 0.45507812, -0.86376953, -0.12854004, 1.5224609, -1.0302734, -0.3852539, -0.4675293, -0.8149414, 0.1899414, -0.8642578, 0.18041992, 0.27246094, 1.5488281, -0.2854004, -0.15551758, -1.0693359, 0.20019531, -2.2988281, -0.6801758, 0.16918945, -1.1347656, -0.6230469, 0.4753418, 0.86572266, 0.42333984, 0.8701172, -0.54296875, 0.50390625, -0.18933105, 0.21240234, -0.88183594, 0.81933594, 0.20458984, 1.5019531, -0.04269409, -0.26513672, 1.8300781, 1.3007812, -0.7348633, -0.57910156, 1.1005859, 0.9375, -3.0273438, 0.4885254, -0.45751953, 0.5263672, -1.9306641, 1.1025391, 0.40161133, -0.18054199, 1.9560547, 0.16699219, -0.43652344, 1.4326172, -0.06793213, -1.7373047, -0.73291016, -0.17041016, -0.25048828, -0.50341797, 1.4238281, 0.94677734, -1.0195312, -2.0273438, 1.09375, 0.084106445, -0.7055664, 0.3852539, 0.38354492, -0.5488281, 0.08477783, 2.2480469, -2.3457031, -0.4609375, 2.171875, 0.016448975, -1.1435547, -0.48046875, -0.3310547, 0.3857422, -1.5371094, -0.6166992, 0.06188965, 2.5996094, -0.19836426, -1.7314453, -0.039611816, -0.15319824, 0.62890625, -0.62060547, -0.22290039, 0.64941406, 0.11505127, 0.64990234, 0.004299164, 0.2529297, 1.9082031, -0.10455322, 1.0410156, 0.3930664, -0.052459717, -1.3173828, -0.8442383, 0.08996582, 2.4003906, 2.3808594, 0.515625, 2.984375, -0.89697266, 1.5556641, -1.8095703, -0.14685059, -2.4785156, -1.6064453, 0.108947754, -1.3271484, -1.234375, -3.8027344, 0.027511597, -0.4560547, -1.9570312, -0.1899414, -1.3417969, -1.6220703, 0.91064453, -0.28125, 0.25219727, 0.24353027, -1.3525391, 2.1601562, 0.46166992, -0.75390625, 0.29711914, -0.8066406, -1.5371094, 1.3720703, 2.6640625, 1.8994141, -1.6445312, 0.053100586, -1.4892578, 1.9716797, 1.453125, 0.30126953, 2.8378906, 1.0107422, 0.7949219, 1.6162109, -0.85595703, 1.0166016, 0.22644043, -1.4921875, -1.0888672, 1.0537109, -1.765625, -1.4785156, 0.18823242, -3.0800781, 0.5205078, -0.038146973, 0.92089844, -1.8183594, -0.87109375, 1.3896484, -0.19628906, -1.1123047, -0.9033203, -0.7207031, -1.4550781, 0.98828125, 0.24060059, 0.3137207, 1.3369141, 0.5415039, -1.5341797, -1.5253906, 1.1113281, -0.8745117, 1.125, -1.0410156, -0.63916016, 0.34228516, 0.95703125, -0.4819336, -1.9970703, 0.6425781, 0.9941406, -1.6845703, -1.5371094, 2.6777344, 0.81396484, 1.4746094, 1.2158203, 2.078125, -1.6875, 0.9736328, -0.017654419, 0.35375977, 0.2697754, 0.3293457, -1.1376953, 1.2373047, -0.45874023, -0.2836914, 0.34594727, 0.046020508, 0.82373047, 0.06982422, -0.20373535, -0.8105469, 1.234375, 0.98876953, -0.20800781, 0.04248047, 1.4433594, 0.23852539, 0.7890625, 0.20483398, -0.015144348, 1.1689453, 0.15649414, 1.2714844, 0.021697998, 0.89453125, -0.4716797, -2.1386719, 0.10656738, -1.1054688</t>
-  </si>
-  <si>
-    <t>[1.7382812, -0.2265625, 0.6401367, -0.72021484, -1.1572266, -0.26416016, 0.33032227, 1.6347656, 2.5644531, 2.4980469, 0.7402344, 0.086364746, -1.6884766, -0.59375, -0.4724121, 0.09454346, -0.30517578, -1.9414062, 1.6416016, -2.1347656, 2.9453125, 0.35327148, 0.08935547, -1.2666016, 0.31811523, -0.13110352, -0.15551758, -0.6621094, -0.74853516, 1.5273438, 1.8583984, 1.1162109, 1.3271484, 0.64746094, 0.12420654, 0.7421875, 0.35766602, -0.9423828, 3.0917969, -1.0126953, 0.013496399, -0.44750977, -0.7348633, 0.7211914, -1.6103516, -0.48046875, -0.3671875, -0.9301758, 0.66748047, -0.50341797, 0.115234375, 0.84814453, -2.9042969, 1.4042969, -1.5839844, 1.8369141, 1.3349609, 0.35595703, -0.33496094, 1.7626953, 0.3359375, 2.8300781, 0.4116211, -2.1425781, 0.9682617, -0.033966064, -0.84228516, -0.16223145, 1.5849609, 1.1171875, 1.0712891, -1.1757812, -2.5703125, 1.3300781, 1.6220703, 0.84375, 1.2695312, 0.19348145, -0.30249023, 0.20751953, 2.4296875, -0.6484375, -0.3708496, 1.1103516, 1.5566406, -0.7919922, -2.421875, -1.1767578, -0.39916992, -0.35766602, -0.119384766, -0.6464844, 0.57128906, 1.0732422, 0.034179688, -1.1005859, 0.99853516, -0.59375, -0.35742188, 1.3603516, -1.2636719, 0.15405273, -0.7348633, -0.036865234, -3.1894531, -0.7651367, -0.9472656, -0.5878906, -1.8291016, -0.9770508, -1.5996094, -0.39819336, 2.1894531, 0.9458008, 2.0078125, 1.1660156, 0.22546387, -2.2265625, -0.02368164, -0.8720703, -0.2401123, -0.3154297, -1.1972656, 1.3798828, -0.3293457, -2.8359375, -0.012939453, -0.37817383, 0.3515625, 4.6289062, -1.3144531, 1.0068359, 2.7734375, -1.0849609, 2.3710938, 0.3359375, -0.008125305, -0.59033203, -1.5771484, 0.051849365, -1.6191406, 1.3837891, 1.2783203, 0.39746094, 1.1835938, -0.75341797, 2.5234375, -0.7006836, 0.32080078, 0.33691406, 0.5488281, -1.5683594, -0.020568848, 0.4169922, 0.5410156, 2.203125, 0.13720703, -2.5175781, 1.171875, 0.9379883, 0.47827148, 0.055847168, -1.3779297, -1.2099609, -0.3881836, -1.6279297, 2.7675781, -0.8208008, 2.1171875, -2.1953125, 0.38256836, 0.027435303, -1.4960938, 1.7568359, 1.3232422, 1.2197266, -0.33740234, -1.4150391, 1.8154297, -0.24621582, -1.2177734, 1.2070312, 0.37670898, -0.8261719, -0.21020508, 0.75634766, 2, -0.8964844, 1.6660156, 0.092163086, -0.045318604, -1.8837891, -0.85302734, -1.7460938, -1.4853516, -0.99072266, 1.515625, -0.37524414, 5.1054688, -1.6689453, -1.5146484, -1.0322266, -2.1035156, -1.1201172, -2.1035156, 1.71875, 1.2109375, -0.71972656, -1.3398438, 0.33129883, -0.6738281, -0.39868164, 0.42016602, 0.7026367, -0.09088135, 0.2512207, -0.03250122, -2.2304688, 2.2128906, -0.50146484, 0.29858398, -0.7441406, -2.0507812, 1.2978516, 1.0761719, -1.7978516, -2.3125, -2.8789062, 0.6928711, 0.020965576, -1.3115234, -0.4411621, 0.55615234, -1.0361328, 0.12756348, 1.5283203, -1.3896484, 0.84375, -0.41577148, -0.21923828, 0.46118164, -0.3671875, -1.4208984, 0.18640137, -0.9433594, 3.5957031, 0.6376953, -1.2451172, 1.7900391, 0.06402588, 3.0644531, -0.25878906, -0.084350586, -0.3166504, -1.3232422, 1.0039062, -4.3320312, -3.7421875, -0.08093262, 0.10638428, 1.5166016, -0.90283203, 0.93603516, -0.5239258, 2.7246094, -0.26782227, -0.8823242, 1.0673828, 0.54052734, -0.7138672, -1.1455078, 0.29833984, 0.59716797, -1.3154297, -0.5722656, 0.8486328, 2.5039062, 2.0800781, -0.7216797, 0.4885254, -0.76904297, -1.6103516, 1.125, -1.2822266, -0.09741211, 0.67626953, -1.1318359, 0.81591797, 0.107421875, -0.9736328, -0.007434845, -0.60595703, 1.2548828, 0.4296875, 0.3166504, -2.3085938, 0.036834717, -0.06762695, -0.28393555, -0.89990234, -0.074279785, 0.46899414, -1.8525391, -0.8120117, -0.25390625, 1.8447266, -0.50341797, 2.3144531, 0.82666016, -0.7338867, 0.6401367, -0.4873047, -0.33447266, -0.81884766, 0.90625, -1.6445312, -0.04067993, -1.0244141, 1.4902344, -2.0234375, -1.9443359, -2.4199219, 3.0371094, 1.2978516, 0.7207031, -2.1621094, 0.18713379, 3.1054688, 1.6337891, -1.4472656, 2.4941406, -0.8979492, -2.1445312, 0.66064453, 2.9707031, 0.32592773, 0.44506836, 2.3457031, -0.7314453, 0.6088867, 2.4648438, 0.31445312, -1.0742188, 0.8432617, 0.068847656, 0.24267578, -2.8300781, -2.3574219, 1.0146484, -0.41186523, 0.31323242, -2.0644531, -1.0742188, 3.6757812, -0.5239258, 1.7900391, 1.1572266, 2.7109375, -2.3320312, -0.88623047, -0.45874023, 0.048553467, 0.064941406, 1.2294922, -0.8833008, -0.90625, -2.609375, -1.3447266, 2.3886719, -0.1697998, 0.91064453, -0.609375, 3.0683594, 0.41479492, 0.018753052, -0.74560547, -0.28881836, 1.1132812, -0.1274414, 0.003276825, 0.8251953, 0.8129883, -1.765625, -1.1582031, -0.51171875, -0.01272583, -1.9882812, -0.06311035, -0.5361328, 0.19995117, -1.2285156, -0.5029297, -0.10192871, -1.8085938, -0.23815918, -0.18945312, 0.8925781, 2.7363281, -0.5332031, 1.0517578, -0.49243164, 0.7451172, -2.3164062, 0.9916992, 1.1298828, 0.6777344, -1.4833984, 0.35717773, 1.5527344, 0.734375, 0.4165039, 1.0039062, 0.67041016, 0.37646484, 1.6210938, -0.43359375, -1.65625, -1.2119141, 0.140625, 1.3076172, -0.059051514, -0.025817871, -0.6933594, 1.6005859, 2.0625, -0.22570801, -1.640625, -1.8847656, 0.043670654, 1.2666016, -1.8378906, -0.16674805, -1.5244141, 0.4501953, -1.9228516, 0.7207031, 0.093933105, -0.18139648, 1.2578125, -0.72558594, -1.1210938, -0.54541016, -0.47338867, -0.5644531, 0.32373047, 4.6914062, -0.921875, 1.0898438, -1.5839844, 0.70214844, -0.1015625, 0.27246094, -0.04309082, 0.074157715, 0.36621094, -1.265625, 0.47680664, -2.6230469, 0.33789062, 0.039978027, -0.30786133, 1.6630859, -0.47192383, 0.05041504, 0.1352539, 3.1542969, 2.2363281, 0.4951172, 0.6069336, 1.2177734, -0.7050781, 1.8603516, -0.25634766, 0.5263672, -1.9599609, 1.7929688, -1.3271484, -2.3300781, 3.1582031, 0.71240234, -1.3427734, 1.0292969, 1.9052734, -0.9716797, -0.06640625, -1.2832031, -0.1385498, -0.22277832, -1.5693359, -1.3583984, -3.7675781, -1.5693359, 0.2442627, -0.61328125, -0.022521973, -0.12890625, 0.042053223, 0.27905273, -0.40698242, -2.046875, -0.68066406, -0.5410156, -1.6103516, -0.047943115, 0.45288086, 0.12347412, -0.6425781, -1.1064453, -2.4296875, -1.4189453, -1.4042969, 1.8378906, -0.80322266, 0.38134766, 0.41479492, 1.0839844, 0.2775879, -0.25024414, 1.1923828, -2.3789062, 0.24523926, 0.68896484, 1.0849609, -1.4990234, -0.45336914, 3.5371094, -0.6582031, 2.7050781, 1.1464844, 0.2915039, 4.0898438, 0.87646484, -0.081970215, -0.040008545, -0.7949219, 2.4003906, 0.82958984, -1.2294922, -0.50390625, -0.5551758, 1.7158203, 1.1074219, -1.8310547, 1.625, -0.93408203, -0.38305664, -1.1669922, -1.2148438, -0.4033203, -2.03125, -1.8759766, 0.16101074, 1.0585938, 0.22619629, 0.54833984, 0.76220703, 0.41430664, 0.20593262, 1.5380859, 0.9223633, 0.44140625, -0.7270508, 1.6240234, 0.06512451, -0.5253906, -0.62109375, -0.40649414, 1.1503906, -0.3557129, 2.0390625, -0.69189453, -0.21472168, 0.25976562, -0.16479492, 2.7460938, 0.7001953, -0.7626953, -0.49145508, -0.2409668, 0.7167969, -0.39770508, 1.2041016, 3.4238281, 1.9804688, -0.69189453, -1.1601562, -1.578125, 0.8833008, -2.0703125, 0.37182617, -0.8051758, 0.31469727, -0.49072266, 2.4277344, -0.92626953, 0.515625, -0.2939453, 0.10748291, -1.390625, -1.4755859, 0.19177246, 2.0078125, -1.0429688, 0.65771484, 0.8574219, 0.68359375, -0.2878418, 2.1660156, -2.6347656, -2.0292969, -2.5175781, 1.2900391, 1.3691406, -1.1025391, -3.0859375, -2.0859375, 0.2697754, -0.32421875, 0.8955078, 0.15270996, -2.3183594, -0.41796875, -1.4169922, -2.1875, 1.5742188, 2.0664062, -0.7314453, 0.30078125, 0.38745117, 1.3867188, 0.39160156, 3.8183594, 1.4462891, -1.125, 0.84521484, 3.8125, -0.20153809, 0.39672852, -1.0947266, -0.46704102, 0.14160156, 1.171875, -0.19262695, 0.49194336, 2.2363281, 1.2978516, 1.9052734, -0.011619568, -0.5419922, -1.0234375, -1.2294922, 0.9033203, -0.21960449, 1.5751953, -0.4724121, 1.5058594, 1.5498047, 0.0044898987, -1.1748047, 2.5078125, -1.3945312, 0.101135254, 2.6835938, -3.0292969, 0.85009766, 0.6245117, 0.6542969, -2.5078125, -0.21179199, 0.23400879, -3.3457031, 2.3964844, -0.4946289, 1.2929688, 1.1630859, -0.21008301, 0.6826172, 1.7412109, 0.6513672, 1.2314453, -0.1430664, -2.6269531, -1.7617188, 2.4589844, -3.8300781, 1.0429688, -1.9931641, -0.9794922, 0.03894043, 0.13195801, -0.42871094, -0.28857422, 0.88623047, 0.61816406, 0.01928711, -0.63623047, -0.3557129, -0.7705078, 0.48364258, -2.9628906, 1.3535156, 0.77001953, -0.7416992, -1.7744141, 0.016952515, 0.1862793, -1.1494141, -1.9150391, 1.1064453, 1.96875, -0.20935059, 1.6132812, -0.32128906, -0.99072266, 0.35498047, -1.6259766, -0.0035419464, 0.19873047, 0.5395508, 1.7001953, 1.0644531, -0.9765625, -2.6289062, -1.8193359, 0.0814209, 0.9614258, -0.10455322, 0.9511719, 0.027450562, -0.7963867, 0.04699707, -0.18737793, 2.9511719, -0.066467285, 0.61328125, -1.53125, 1.0224609, 0.5419922, -0.35595703, 0.25756836, -2.5058594, -0.23083496, 2.2480469, -1.9648438, 1.9804688, 0.40063477, -0.6791992, -1.0039062, 0.7451172, 0.7573242, -0.11755371, 0.41967773, 0.13647461, 0.72558594, -1.1884766, -0.10076904, -0.13232422, 0.08886719, -2.359375, 0.14929199, -1.6708984, -2.515625, 0.3161621, 1.9033203, 1.1845703, 0.79248047, -1.53125, 0.6098633, -0.7685547, 0.9736328, -1.1494141, -4.9960938, -0.02217102, 1.6347656, 2.0488281, -0.2199707, 1.5966797, -0.91552734, -2.1484375, 3.1171875, -1.3320312, 1.6152344, -0.78271484, -0.90966797, 1.3369141, 0.8745117, -1.7001953, 0.5751953, -2.0625, 0.44677734, -1.1679688, -3.0371094, 1.3271484, 1.0175781, 0.18798828, 0.4501953, 0.32373047, 1.28125, 0.21166992, 2.2792969, 0.17663574, -0.9433594, -0.42016602, -0.7001953, -0.061798096, 0.21130371, 1.5927734, 2.1328125, 0.08081055, -1.3134766, 1.6152344, -0.65234375, -2.9628906, -1.6708984, -1.8623047, -0.28344727, -1.3583984, 0.5800781, -0.39868164, -1.6845703, 0.05606079, 0.8041992, -1.8222656, -0.6738281, -0.8613281, 0.23815918, -0.4243164, 1.2539062, 1.7460938, 0.33325195, -0.46875, -0.1973877, 0.52685547, -0.11383057, 0.14013672, -0.9560547, -0.46850586, 3.9921875, 0.9301758, 1.2685547, 1.0390625, -1.5878906, 0.5444336, 1.3183594, 0.40600586, -1.859375, 1.1132812, 0.9707031, 0.5698242, 1.4433594, 0.5214844, -0.30615234, 2.0351562, 0.5292969, 2.6015625, -1.2958984, 0.7006836, 0.11303711, 0.17053223, 1.1572266, 1.7509766, 3.6621094, 0.8125, 1.0986328, 1.9072266, 0.63720703, -0.92626953, 0.7729492, -2.1386719, 0.52197266, 1.7822266, 0.42211914, 0.20690918, 0.38427734, 0.7104492, 0.43725586, 1.0791016, 0.91552734, -2.0449219, -1.8535156, -2.1855469, 1.4208984, 0.32226562, -0.19580078, 0.66748047, 0.9736328, 0.08428955, 1.4326172, 0.27392578, -1.5283203, -1.4726562, -1.671875, -0.5566406, 1.4287109, 1.5820312, -1.4033203, 0.59814453, -3.125, -2.1210938, 1.8505859, 0.030944824, -0.78564453, 0.99853516, -0.019119263, 0.30737305, 0.14404297, -1.8691406, 0.9614258, 1.0742188, -1.7460938, -1.6416016, -0.20385742, 1.609375, 0.68310547, -2.5136719, 1.5097656, -2.1953125, -1.3505859, -0.11621094, 0.11273193, 0.5800781, -1.78125, -1.4414062, -1.6591797, -0.011642456, -1.7412109, -2.3378906, 0.91552734, -0.6074219, 1.4599609, -0.16931152, -0.2524414, 1.9228516, -0.38208008, -1.5527344, -1.1474609, -1.6914062, 0.08081055, 0.21606445, 0.75927734, 1.4726562, 0.8017578, 1.8945312, 1.9101562, 1.4677734, -1.1181641, -1.1132812, -0.18408203, -1.1191406, -0.4819336, 0.26416016, 1.6289062, 0.27172852, 0.38916016, -1.4023438, -0.8466797, -0.20202637, -0.052246094, -0.4350586, -1.0976562, -0.94384766, -0.65722656, 1.1523438, -2.0800781, -1.421875, 0.79052734, 0.68408203, 0.6254883, -2.5566406, -0.08666992, -3.4296875, -2.4628906, 1.1708984, 0.1237793, 0.70166016, -0.6870117, -0.8964844, 0.5410156, -0.39282227, 0.5566406, -1.6679688, -1.4716797, -0.81884766, -0.55126953, -3.3574219, -1.1123047, -0.6796875, -0.022445679, -2.4824219, 0.9082031, -0.25756836, 0.04724121, -1.0351562, -1.1640625, 0.94189453, 0.20861816, 1.6728516, -0.3647461, -2.3046875, 0.2006836, 0.8779297, -0.78125, -0.05899048, -1.1220703, -0.9277344, -2.1386719, -0.045715332, 0.54052734, 1.2089844, -1.0429688, 1.1650391, -0.14929199, -0.7285156, 1.9785156, -1.5341797, 0.76904297, -1.2197266, -1.4443359, -3.2363281, 1.0830078, -0.42260742, 1.3046875, 3.0859375, -0.3725586, 1.2138672, -0.048858643, -0.24926758, 0.53027344, -0.10760498, -1.9335938, -0.94189453, -3.7324219, -0.022537231, -0.19567871, 1.7001953, 1.2402344, 1.578125, -0.0019083023, 0.50439453, 0.20776367, -0.56152344, 0.26416016, 1.0283203, -1.5634766, -0.9902344, 0.10412598, 0.17297363, 0.49194336, -0.53808594, 0.058013916, 0.43188477, -0.12011719, -0.54296875, -0.67626953, -0.22741699, -1.4316406, -0.014083862, -0.22070312, -2.046875, -0.6328125, 0.020065308, -0.8544922, 1.9091797, -0.81396484, -0.84521484, 0.101501465, 1.7382812, -1.8476562, 1.4179688, 0.68652344, 1.9541016, -0.9926758, -0.8330078, 0.63964844, 0.21240234, 0.099609375, 3.0253906, 0.72265625, 0.08880615, -2.6035156, 1.6318359, 0.10229492, -0.94189453, 0.052947998, 0.34423828, 1.0263672, 0.3215332, 2.5332031, 0.09490967, -0.03729248, 0.15698242, -0.20776367, 0.6723633, -0.8222656, 0.8339844, 0.033294678, 3.5292969, -0.3408203, -0.43530273, -1.3798828, -2.3984375, 1.1865234, 0.72998047, -1.2382812, -0.41503906, -1.5400391, 1.1445312, -0.6176758, -0.63720703, -0.15637207, 0.66308594, -0.64501953, 3.4316406, -0.42797852, -1.6689453, -0.5683594, 0.9375, 1.7587891, 1.0615234, 0.62939453, 1.5039062, 1.1523438, 1.9277344, -0.25732422, 0.05480957, 2.1015625, -0.24597168, 0.6464844, 0.5683594, 0.5551758, -0.7265625, -0.5522461, -0.039733887, 0.578125, 1.2275391, 1.1347656, 2.125, -0.34594727, 0.7817383, 0.17602539, 2.7871094, 1.6152344, -0.1796875, 0.9394531, 1.1181641, 1.7744141, -0.03564453, -1.5097656, -0.9916992, 0.54833984, 1.7841797, -0.5004883, -1.9697266, 1.2958984, -0.5102539, -1.5097656, 0.7314453, 0.33862305, -1.1230469, 1.0400391, -1.5693359, 1.1523438, -0.14648438, -1.1367188, 1.3046875, -2.0214844, -2.1484375, 2.9765625, -1.7773438, 1.3847656, -1.9375, 0.8769531, 0.22314453, 0.54785156, -0.36743164, 0.9707031, 0.92529297, 0.05770874, 0.24536133, -0.12890625, 0.9301758, 1.4111328, -0.28320312, -1.3056641, 0.7841797, 1.4140625, 1.1181641, -1.7021484, -1.0039062, -0.50634766, -0.39990234, 0.53759766, 2.0449219, 0.38354492, -0.09906006, 0.047058105, 0.9589844, 0.27270508, 1.2998047, 0.37329102, 2.1269531, 0.17785645, -1.0341797, 0.9682617, 0.58447266, 1.4179688, 0.36791992, 0.46704102, 1.3886719, -1.15625, -1.296875, -1.6630859, 1.3701172, 0.8173828, 1.9716797, 0.06665039, 1.9599609, 0.30639648, 1.0449219, -0.37670898, 0.56689453, -0.4963379, 2.1386719, 0.21130371, -0.093933105, -0.21203613, 0.095336914, 0.7373047, -0.07409668, 0.3779297, -1.4101562, 2.2714844, 0.09454346, 1.3945312, -0.45141602, 0.6850586, 0.26879883, 1.6572266, -0.23132324, 0.4897461, 0.9135742, 0.1694336, -0.11138916, -0.95654297, -0.25805664, 3.0195312, 2.3320312, 0.8286133, -0.6635742, -0.9453125, -0.8442383, -0.045135498, 0.7636719, 1.0117188, 0.3527832, 3.0800781, 0.5151367, -0.6088867, -0.19934082, -0.68896484, 1.3476562, 0.04650879, -0.54345703, 0.22998047, -1.2070312, 1.3945312, -2.0546875, -1.8710938, -0.60302734, -0.4638672, -2.6386719, -1.3837891, -0.77685547, -0.6621094, -1.2822266, 0.63378906, -2.0566406, -0.8046875, -1.4121094, 0.6894531, 2.6738281, -2.0585938, -2.8691406, 0.72802734, -1.0263672, -1.6552734, 2.5957031, 0.5083008, 0.50878906, -0.15112305, -0.05343628, 0.7495117, 1.8291016, -0.36401367, 1.2441406, -2.2207031, 0.5942383, 0.14733887, -1.4287109, 0.45629883, 0.94384766, -0.7270508, 1.5820312, 0.53466797, -0.62939453, -0.98876953, -1.6376953, -1.0283203, 1.8896484, -0.87646484, -1.7568359, -0.78125, 0.2631836, -0.010734558, -0.49389648, -1.578125, 0.31884766, -0.64453125, -0.9921875, 1.6064453, 0.62939453, 0.092163086, -0.056274414, -0.7949219, 0.4765625, -0.034454346, -0.28125, 0.30297852, 0.6279297, -1.3212891, -0.34472656, 2.9609375, -1.9521484, -1.8876953, 0.7753906, -2.3964844, -1.1259766, 0.51708984, 0.21130371, 0.1508789, 3.5, 0.42407227, 0.35498047, -3.4199219, 2.6972656, 0.8066406, 1.4072266, 1.6464844, -0.8925781, -0.45410156, 0.42041016, -0.17565918, -0.83935547, 0.39916992, -2.1738281, 0.043304443, -0.92041016, 1.0888672, -0.30517578, 1.9814453, 0.8671875, 1.0166016, -0.85302734, 1.6289062, 1.7666016, 0.12963867, -1.5068359, -0.24060059, 1.9472656, -1.828125, 0.1586914, -0.09472656, -0.16809082, 0.20361328, 0.3322754, 1.40625, 0.16564941, -0.38452148, -1.3925781, -0.36499023, -0.031188965, 1.5166016, -1.1523438, -1.5058594, -0.81396484, -1.2509766, -0.69873047, -1.5068359, -2.2753906, 0.7285156, -3.6445312, 0.2939453, -0.77490234, -1.6025391, 0.85791016, 0.81396484, 0.23669434, 0.84814453, 1.5927734, 1.8349609, 0.5644531, 1.1289062, 1.7695312, 1.2109375, -1.9404297, 2.7207031, -0.1451416, 2.5488281, 1.2128906, -0.88134766, 0.46850586, -2.0488281, 0.9033203, 1.7617188, -2.515625, -0.062286377, -0.5214844, 1.8251953, 1.3398438, 0.515625, -0.03302002, -1.1494141, -0.7548828, 1.7001953, -0.32666016, -1.3642578, -0.30859375, -1.1777344, -0.45922852, -0.19958496, -0.7578125, -0.121520996, 0.8876953, -0.0076904297, 0.61621094, 0.16503906, -1.0634766, -1.1240234, -2.5488281, 1.3779297, -1.3476562, 0.84228516, -0.04168701, 1.3759766, 1.1777344, 1.2275391, 0.017074585, -2.1347656, -0.47021484, -0.5854492, 0.6933594, -3.1992188, 0.05731201, 1.0654297, 0.57910156, -0.3461914, -0.50634766, 0.13464355, -1.5058594, -1.6103516, 2.3105469, 1.1914062, 0.81884766, 0.25317383, -1.2431641, 0.98779297, -1.9160156, -2.7421875, -0.921875, -0.57177734, 0.8095703, 0.0715332, 0.4338379, 0.07672119, 1.9804688, 2.4589844, -1.234375, -0.50683594, 1.3789062, -2.3574219, 1.0205078, 0.4560547, -1.4121094, 0.15234375, -0.091796875, 1.5537109, 1.8427734, -0.9345703, 2.0136719, 0.32177734, -0.4099121, -0.6479492, 1.2705078, 1.9462891, -0.15246582, -1.1953125, -0.4560547, 0.3564453, 1.9345703, -0.23095703, -1.2900391, -0.062286377, -0.66552734, 0.7597656, -1.4052734, 0.2800293, 0.35888672, -0.6972656, -0.22961426, 0.8144531, 0.24450684, -0.8154297, 0.20581055, -2.0761719, -2.1699219, 0.22509766, -0.9301758, 0.7685547, -0.22570801, 2.0117188, 3.5136719, 0.51171875, 0.37329102, 1.7333984, 1.7314453, -1.0371094, 0.10455322, -1.4755859, 0.86279297, 2.0234375, -2.1542969, -2.5429688, 0.09509277, 0.2861328, 0.4375, 2.3730469, -0.390625, 1.9775391, -2.140625, -0.10076904, -1.3994141, -1.6162109, -0.8598633, 1.4853516, 1.2626953, 1.1738281, -1.3789062, 0.4020996, -1.8095703, -1.2441406, 1.1005859, -1.0087891, 0.22033691, 1.5068359, -0.41723633, -0.057922363, -0.03665161, -0.24621582, 1.0039062, 0.9453125, -0.1529541, 1.4658203, 3.2792969, 0.040496826, -0.09661865, 2.7421875, -0.67529297, -1.2929688, 1.0126953, 0.5810547, 1.3515625, -0.0925293, -1.9287109, -0.47485352, 0.4506836, -0.24694824, -0.08203125, -1.7880859, -0.16821289, 1.6181641, -1.3388672, -2.078125, 0.15686035, 1.1884766, 0.83935547, 0.9472656, 1.0009766, 3.0390625, 3.0917969, -1.1777344, 0.62402344, 0.17785645, 1.9462891, 1.3330078, -2.2265625, -1.5195312, 1.1884766, 1.3144531, -0.7871094, 0.38842773, -0.9370117, -0.7832031, 1.6318359, -0.0871582, -0.72314453, 4.5703125, 0.40454102, -0.70751953, 2.6777344, 2.7695312, -0.96875, 0.14257812, 2.8730469, 1.3007812, -1.0576172, 2.1347656, -2.7226562, 0.07513428, -0.5908203, -0.7832031, 0.7939453, 0.59228516, -2.0839844, -2.5703125, -0.68408203, -3.125, 1.1279297, -2.2929688, -0.17590332, 1.3955078, -0.7026367, -0.13000488, -1.40625, 1.2568359, -1.6660156, -1.0957031, 0.15942383, -0.55029297, 0.43286133, -0.40795898, -1.4970703, -1.1884766, -2.8691406, -0.22509766, -4.2773438, -0.8652344, 0.5361328, 3.1875, 0.18286133, -0.453125, -1.1679688, 0.14929199, 0.71533203, -0.50390625, -1.8837891, -0.9941406, 0.6611328, 1.9257812, -2.7226562, -0.013549805, -0.4165039, -0.103881836, 0.4165039, -0.021240234, -0.48583984, -0.6538086, 0.009651184, 0.66064453, 1.6748047, 0.6879883, 1.7666016, 0.9604492, 2.3144531, -1.4257812, 3.4199219, 0.07751465, -0.2998047, -0.8510742, -1.7958984, -1.6494141, 0.22253418, -0.21325684, 0.13061523, 0.23388672, 0.15161133, 0.08026123, 0.7363281, 0.5463867, 1.0771484, 0.9296875, -1.2685547, 1.5058594, -2.3671875, 1.9052734, -1.71875, -0.5390625, 0.00036621094, 2.484375, 4.1015625, 0.013336182, 1.4140625, -0.013626099, 0.20361328, 1.7724609, -1.0654297, 0.17687988, 0.17590332, -0.7167969, 1.8251953, -0.17114258, -2.7597656, -1.71875, 1.3466797, 0.9033203, 0.72509766, 4.1875, 0.11468506, 0.44213867, 1.078125, -0.07409668, -0.55810547, -0.4970703, -2.5546875, 0.3046875, 1.4873047, 0.8154297, 4.953125, -0.74365234, -3.7050781, 0.21789551, 0.7885742, -1.9179688, 0.14624023, 1.2724609, 1.9414062, 2.7167969, -0.8901367, -1.0195312, -1.6884766, 0.17492676, -0.76416016, 1.1054688, 0.9501953, -1.6005859, 2.4628906, -1.8378906, 1.6591797, 3.2988281, 0.097717285, -0.7739258, 0.9785156, -0.2878418, -2.0800781, 0.9013672, -0.5839844, -0.64160156, -0.66748047, -2.5390625, 1.2314453, -1.2451172, -1.0927734, 0.5625, 2.1308594, -1.5722656, -0.08557129, -1.0322266, -1.6005859, -1.6621094, -0.359375, 1.3759766, 0.5498047, 1.7197266, -0.16479492, -1.1289062, 0.35083008, -1.4384766, -0.34570312, 0.9067383, 1.5244141, -1.1513672, -0.9453125, 0.042999268, -0.48339844, -1.3789062, -0.7426758, -0.90283203, -0.08087158, 0.042938232, 1.03125, 3.4375, 1.8476562, 0.35913086, -0.6748047, 0.359375, 1.5556641, -2.3203125, -0.5317383, -0.14135742, -0.40795898, -0.73876953, 1.2568359, 1.3291016, 2.2734375, 1.2138672, -0.63720703, 1.21875, 1.9443359, -0.49291992, -2.7851562, 0.49682617, -1.4208984, -3.4511719, -1.2021484, -0.890625, -0.093688965, 0.06695557, -0.11834717, 1.3310547, -0.6166992, -1.8603516, -0.64404297, -0.8515625, -2.1503906, 1.1552734, 0.75927734, -0.5629883, 1.6835938, 1.5068359, -1.1191406, -1.7275391, 0.46850586, -0.5756836, 3.0761719, -1.5947266, 0.39453125, -0.21179199, 1.3525391, -3.5761719, -1.5429688, -0.6254883, 0.23791504, -1.5097656, 1.6875, -1.5664062, -3.0546875, -0.0041770935, -0.24499512, -0.9404297, 0.041503906, -0.65625, 1.0507812, 1.0429688, 2.9707031, 0.5654297, -2.1640625, 0.49780273, 0.030044556, 0.1875, -0.37817383, -0.55566406, 0.85498047, 0.3071289, 0.9472656, -0.98583984, 0.47045898, 0.83935547, -0.7260742, -0.25756836, 1.7939453, 2.9667969, 1.3388672, -0.105041504, 1.2412109, 0.8613281, 1.2373047, -1.5478516, -2.6523438, -1.3984375, 2.2304688, 0.46777344, 0.84521484, -0.37109375, -2.0253906, -1.0664062, 1.75, 1.8085938, -0.09906006, 2.2773438, -0.4584961, -2.1601562, 0.9902344, 0.74560547, 0.11053467, 1.0537109, 1.4511719, -2.078125, 0.0039787292, 0.6064453, -2.4921875, 0.91064453, 1.1416016, 0.5024414, 1.0664062, -0.203125, 0.25952148, 0.7988281, 1.1513672, 1.8007812, -1.4882812, 1.4287109, -0.8955078, 0.8310547, 0.97314453, 0.45922852, -2.1230469, 0.29711914, 0.20666504, 0.16516113, -2.3574219, 1.4482422, 0.31933594, -0.121154785, 0.63378906, 1.0351562, -2.6152344, 0.35229492, 0.3347168, 1.2871094, -1.6552734, -0.96728516, -0.33813477, -1.8251953, 0.84716797, -0.51953125, 0.70751953, 0.23986816, -0.31811523, -0.9433594, -0.9370117, 1.9931641, -0.6357422, 0.18981934, 1.8408203, 0.5083008, 0.20654297, -0.26733398, 0.53027344, -0.10668945, -0.37036133, -0.61816406, -0.9067383, -0.8955078, -0.08831787, -1.1259766, -2.1738281, -1.1474609, -2.4042969, -1.7851562, 0.50341797, -1.7802734, 1.3027344, 0.35327148, -1.2177734, -1.2431641, -3.2832031, -2.1328125, -2.1894531, 0.11114502, -1.0488281, 0.1673584, -0.37426758, -1.8251953, 0.7260742, 0.042510986, 1.7900391, 0.70166016, -0.5161133, 1.5253906, -0.99853516, -0.35253906, 0.21325684, 0.036102295, -0.93603516, -0.9189453, 0.8779297, 0.88720703, 0.65966797, 0.35986328, -0.890625, 1.5009766, 0.203125, -1.3554688, -0.85009766, 0.8833008, 1.6787109, 0.027832031, -2.09375, -0.54541016, 0.92333984, -1.3115234, 1.8222656, 0.10443115, -0.40454102, -0.16394043, 2.3554688, -0.11071777, -0.4633789, 1.7685547, 0.7441406, -0.95166016, -0.4814453, 0.05722046, 5.1484375, -1.6054688, 1.7001953, 0.53466797, 1.2939453, -2.3359375, -1.3789062, -1.21875, 0.27978516, 0.18127441, 0.20690918, -1.3427734, -2.4707031, 0.60498047, -0.52246094, 1.7099609, -0.86376953, 0.41015625, 2.6230469, 1.0380859, 1.6660156, -3.5292969, -1.9628906, 0.29492188, 0.8779297, -0.28833008, -1.4013672, 0.28735352, -0.55908203, 0.07434082, -2.4824219, 2.0078125, -0.36206055, 2.3242188, 1.7460938, 1.6904297, 1.1552734, -0.3251953, -0.7363281, -2.2304688, -2.0332031, -0.08050537, -1.640625, 0.21325684, 0.6894531, -2.7421875, -0.29003906, -0.30981445, 0.8486328, 0.29052734, 2.2089844, 0.40551758, 0.9091797, -1.7841797, 0.23547363, -1.9023438, 0.36547852, -0.2775879, 2.1484375, 1.4619141, 0.70751953, -0.39770508, -0.48461914, -2.5175781, -0.7626953, -1.2724609, -2.8613281, -2.1855469, 1.7060547, 2.3105469, 1.0195312, 0.8359375, -0.40014648, -0.7651367, 0.10180664, 1.0908203, -0.11016846, -0.1706543, -1.6621094, 1.5, 1.3876953, 0.3190918, -0.1274414, -0.44433594, 0.009864807, 0.08959961, -3.7109375, -1.3085938, -2.7265625, -1.7939453, 0.1541748, 4.4296875, -0.36010742, -2.0019531, -1.6494141, -0.15979004, 0.62158203, 0.11907959, 0.68847656, 0.61376953, 0.5083008, 0.3623047, -2.5644531, 0.64941406, 0.20861816, -0.77685547, -1.3515625, -0.9423828, 2.4667969, -1.2041016, 0.453125, -0.41235352, -0.13806152, -0.7270508, 2.0253906, -0.74853516, -1.1289062, -0.38427734, -1.5439453, -1.1210938, -1.3398438, -0.96240234, 0.42089844, -0.26586914, -2.0234375, -0.3671875, -0.16027832, -0.18640137, -1.3505859, -1.0986328, 0.609375, -0.75, 0.7714844, 1.9521484, -1.0869141, 0.8286133, 1.125, 1.2832031, 1.6572266, -2.0546875, -0.43286133, 0.19494629, 0.2565918, -0.7910156, -1.7744141, -0.73291016, -1.3632812, 0.109313965, 0.7426758, -1.0664062, -5.328125, -0.05859375, 0.21765137, 1.3125, -0.48120117, -0.05078125, 1.1328125, 0.9013672, -1.9208984, 0.09588623, -1.7626953, 1.9746094, 5.0117188, -0.19921875, 1.296875, 1.5, 3.8554688, -0.66748047, 0.78466797, -1.5722656, -1.8164062, 1.2412109, -1.1445312, -0.38354492, -0.20617676, 0.0016565323, 0.36694336, -0.5419922, -1.4052734, -1.7753906, -0.8408203, 1.3837891, -1.3632812, 0.7783203, -0.5917969, 0.1940918, -2.0585938, -1.9833984, -0.29907227, 2.3261719, 3.1816406, 1.0644531, -0.20117188, 0.28173828, 0.15527344, 1.0898438, -1.3496094, -0.28100586, 0.6699219, 0.5463867, 1.5751953, 0.7451172, -1.9785156, -0.5102539, -0.26171875, 1.4306641, 0.6010742, 0.34692383, -1.0898438, -1.2353516, 1.2255859, -0.25708008, -0.13183594, -1.0771484, 0.99072266, -0.2277832, 0.32495117, -1.5996094, -2.2832031, 0.10913086, -1.7275391, 0.7763672, -0.45239258, 0.7050781, 0.16174316, -1.5341797, -0.7705078, -0.7832031, 0.29736328, -2.265625, -0.3449707, -1.4716797, -0.28686523, -1.9755859, 1.4511719, -0.025650024, 0.26391602, 0.6743164, 0.6323242, -0.5522461, 1.703125, 0.53515625, -0.9121094, 0.24291992, -0.61083984, -0.23522949, -0.81396484, 0.114868164, -1.046875, -0.07147217, -1.9814453, 0.6503906, 1.1494141, -1.2304688, -0.31347656, 1.2714844, 1.5458984, -0.105407715, 0.49829102, 0.042785645, -0.92529297, -0.5, 0.31103516, -1.2451172, 1.5126953, -2.2597656, -0.18640137, -0.30151367, 0.11682129, 0.18310547, -3.7753906, 2.2695312, 1.0009766, 1.0898438, 2.2324219, 0.86083984, -1.0361328, -1.0175781, -3.1015625, 2.6269531, -1.3095703, 0.29589844, 0.50390625, 0.19104004, -0.62158203, 0.6713867, 2.0332031, 1.265625, 0.86083984, -0.84375, 1.2646484, 0.4921875, 1.2773438, 1.0244141, 0.5102539, 1.6318359, 1.2539062, 2.9238281, -0.55908203, 0.08081055, 1.0224609, 1.625, 0.98779297, -1.8681641, 0.5385742, 0.96875, -0.082092285, -0.9765625, -1.5302734, -2.6113281, -0.3774414, 0.017684937, 0.24230957, -0.4104004, -0.93408203, -0.8066406, -0.35131836, 0.90185547, 0.84521484, -4.3007812, -1.1298828, 0.4350586, 1.0263672, -1.84375, -0.9526367, -0.5463867, -0.3449707, -0.56347656, -1.3857422, -0.24523926, -1.4052734, 1.6152344, -0.49365234, 0.36401367, 2.1367188, 0.02748108, 2.0976562, -0.49047852, -1.8134766, 0.47827148, -1.1396484, -0.8564453, -0.3161621, -0.9379883, 0.005836487, 0.42651367, -0.6665039, 0.98583984, 0.42871094, -1.0537109, -0.08380127, 0.021621704, 0.33935547, -0.62939453, -2.9257812, 1.3583984, 1.6289062, 2.0917969, -2.125, 2.3105469, 1.4833984, 0.04446411, -0.095703125, -0.49536133, -0.021987915, 0.55126953, -1.0039062, 3.5605469, -0.6977539, -0.80029297, 0.17333984, -1.7539062, 0.38500977, 1.4404297, -1.7724609, 1.8789062, 1.0253906, 1.2041016, -0.041381836, 0.8232422, 1.4599609, -0.14892578, -1.0771484, 2.8046875, 0.43579102, -1.5751953, -0.31396484, -0.95654297, -1.8085938, -1.2539062, 2.8964844, 1.8623047, -2.0761719, 0.5371094, 0.23828125, 0.5654297, -2.0546875, -1.9746094, 0.8955078, 0.5654297, 1.5097656, 0.33496094, -0.6870117, 0.78564453, -3.1875, -0.2614746, -0.30493164, 1.6552734, -1.2822266, -1.5, -2.2851562, 1.9375, 2.7226562, 0.44750977, 1.0908203, 0.23046875, 0.6855469, 0.35717773, 0.04989624, 3.1621094, -0.58251953, -1.2519531, -2.2421875, -2.3652344, 1.6728516, 0.049835205, -1.2138672, -0.71533203, -1.3789062, -1.7158203, 1.6337891, 0.3088379, -0.00029611588, -0.24487305, 2.46875, 1.734375, 1.7158203, -2.5351562, 3.1230469, 1.7841797, 1.0039062, -0.29077148, -1.4228516, -0.16796875, -1.3183594, 0.25634766, -0.63183594, -0.42089844, 3.3769531, 0.8588867, 0.05593872, -0.105041504, -0.99560547, 1.9121094, 0.41015625, -1.2089844, -0.8515625, 1.1416016, -1.8154297, 0.012550354, 0.4338379, 0.45947266, 0.7963867, 0.1583252, -1.9335938, 0.017562866, 0.7338867, -0.82470703, -2.0136719, -1.3808594, -2.8671875, -0.43139648, 0.15588379, -0.4321289, 0.6386719, -2.0136719, 1.0849609, 0.1673584, -1.5712891, 0.40161133, -0.019088745, -0.46069336, 1.71875, -1.6103516, -1.1240234, 1.2353516, 2.34375, -0.45532227, 1.65625, -0.6376953, -1.6816406, 3.4980469, 0.51123047, 1.453125, -2.4980469, -1.2695312, -0.6557617, 0.4645996, 0.88427734, -1.734375, -0.28100586, 0.7421875, 0.59472656, 0.4716797, -0.63623047, -0.58154297, 0.2927246, -0.48657227, -2.0117188, -0.359375, -0.8364258, 1.7255859, 2.0507812, 0.49121094, -0.13708496, 1.3837891, 2.0429688, -1.0517578, 0.34838867, 0.14953613, -1.1835938, 0.12646484, -1.2490234, 0.17333984, -0.27392578, 0.25024414, -0.3791504, 0.39624023, -0.95166016, -0.28857422, -0.38598633, -1.6679688, 0.20117188, -0.9707031, -0.035614014, -1.2646484, 0.3864746, -0.67626953, -0.31835938, 0.65527344, -2.9492188, 2.8398438, -2.4394531, 0.10333252, -1.6132812, -2.9882812, -3.375, -0.91552734, -1.2275391, 1.8291016, 0.03591919, 0.44433594, 0.6455078, 1.3974609, 0.37280273, -1.8779297, 1.0947266, 1.8369141, 0.7919922, 0.57177734, 0.46704102, -1.8476562, -2.1992188, -0.6245117, 1.0039062, 2.3417969, -0.6308594, -0.51171875, 1.5302734, 1.8945312, 1.0898438, -0.51953125, 0.9404297, -0.33032227, 0.10296631, 1.2089844, -0.55126953, -2.3886719, 0.43139648, 0.9511719, -1.3085938, -1.0644531, 1.0556641, -1.1660156, 1.8535156, 0.48217773, 1.1083984, -1.0927734, -3.0683594, -0.21008301, -1.8632812, -1.0791016, -1.6835938, 1.5380859, 0.50683594, -0.22497559, 0.037872314, -1.9150391, -2.5175781, 0.058013916, 0.9501953, 1.3505859, 0.21679688, 1.9970703, -0.7480469, -0.81884766, -2.2363281, 1.046875, -0.9628906, 0.46069336, -1.7871094, 1.4306641, -0.032287598, -0.7114258, 2.34375, -0.15478516, 1.4697266, 0.3869629, 1.546875, -1.0507812, 2.1171875, 2.3769531, -0.90185547, 1.2255859, 0.37402344, -0.006137848, -1.4785156, -0.43139648, 0.9902344, 1.765625, -0.9404297, -0.42504883, 3.4550781, -1.1757812, 3.5488281, 0.84228516, -0.8183594, -0.7626953, -1.828125, 0.23950195, 1.1269531, -1.9541016, -1.328125, 2.3652344, 0.9536133, -1.7871094, 1.7802734, 0.7104492, -1.0322266, 0.11236572, 3.0761719, 1.8945312, 0.13244629, 2.6757812, 0.16552734, 2.2246094, 1.6865234, -1.828125, 0.8095703, -1.8505859, 3.2988281, 1.5810547, -0.6254883, -1.1103516, -0.57470703, -0.058624268, 0.51123047, 1.0927734, 1.8037109, 0.5024414, 0.3630371, -0.9370117, 1.3652344, -1.3212891, -1.3134766, -0.30810547, -0.3425293, -0.26049805, 0.21203613, -0.5888672, -3.9941406, -0.2705078, -0.95458984, 1.2880859, -2.2011719, 1.6523438, -0.062408447, -0.7006836, -0.7294922, 0.23632812, 0.007789612, -0.18115234, 0.14404297, -0.4790039, -1.2226562, 0.55810547, 2.5390625, -1.4394531, 1.5253906, 0.22570801, -0.86279297, 0.12585449, -1.515625, 0.14233398, 2.3222656, -0.9082031, -1.0439453, 0.8442383, -0.07525635, -1.4277344, 0.49780273, -0.7294922, -1.2705078, -1.2207031, 0.7089844, 0.21838379, 1.2275391, 0.30639648, 2.3925781, -2.4316406, 0.1899414, 2.1152344, -2.3769531, -1.5839844, 0.87646484, 0.59814453, -0.10455322, -5.1914062, 1.9472656, 0.013282776, -0.1204834, -0.022125244, -0.2854004, 0.39990234, 0.61376953, -2.1308594, 0.033721924, 0.4650879, 0.34570312, 0.7973633, 0.23132324, 1.5439453, -1.5302734, -0.20385742, -0.4650879, -1.8525391, 1.0039062, -1.5742188, 1.3505859, -1.0302734, -1.9755859, -0.59716797, 0.55615234, 0.07696533, -1.4775391, 3.8925781, -0.45385742, -2.6914062, -0.68115234, 0.23449707, -1.5068359, 0.5644531, -0.8222656, -0.25976562, -0.</t>
-  </si>
-  <si>
-    <t>[0.43920898, 0.13244629, 0.65527344, 0.4050293, -1.1318359, -0.4814453, -1.7089844, 0.88134766, 3.78125, 0.10998535, -0.47558594, -0.1282959, 0.21447754, -1.1591797, 0.8388672, 1.9082031, -0.57958984, 0.27441406, -1.1513672, 0.01008606, 0.3918457, -0.29345703, -0.17956543, -0.27416992, 1.3476562, 1.2402344, 1.0625, 0.54296875, -1.4707031, -0.34033203, 2.3164062, 1.5849609, 1.9472656, 0.46044922, 1.2148438, -0.3137207, 0.74072266, 0.30810547, 2.3632812, 0.8496094, 0.6484375, -1.3662109, 0.33740234, 1.2167969, -0.9291992, -0.19580078, -1.2695312, -0.3166504, -0.0044670105, -0.44677734, -0.099243164, 0.2211914, -2.7050781, 2.2441406, 0.10119629, -0.9526367, 1.2041016, 2.2265625, -0.8334961, 0.08099365, -0.0625, 1.4042969, 0.17004395, -1.5634766, 0.2763672, 0.42822266, -0.38745117, -0.9707031, 0.19238281, 1.3818359, -1.8300781, -0.61328125, -0.9355469, -1.4140625, 2.2421875, 0.6123047, 0.61816406, -1.9736328, -0.7109375, 1.5722656, -1.9023438, -0.21435547, -1.2988281, 2.0195312, 1.2207031, 0.29003906, -1.6376953, -1.9853516, 0.43847656, 1.6894531, 0.27001953, 0.49829102, 0.082336426, -1.8730469, -2.4980469, -0.6254883, 2.1425781, 0.6933594, -0.7285156, 3.03125, -0.09313965, 0.50097656, 1.6123047, -0.3076172, -4.2304688, -0.54541016, -0.94921875, -2.2402344, -0.28076172, 0.3466797, -1.6074219, -2.9121094, -0.44750977, 1.5244141, 3.0996094, 1.1474609, 0.8881836, -3.4101562, 0.053741455, -1.8544922, -1.4335938, -0.7519531, 0.42041016, 2.9980469, 0.66015625, -1.6728516, -0.008583069, -1.0585938, -0.30444336, 1.1220703, -0.12915039, -0.16088867, 1.3193359, -1.3496094, 3.9609375, -1.2324219, 0.1854248, 0.92333984, 1.7753906, -1.1689453, -1.4960938, -0.2277832, 1.0341797, -1.2910156, 1.1992188, -1.1699219, 0.10809326, -0.52685547, 0.54541016, 0.49194336, -0.8154297, -2.1601562, -0.39746094, 2.7890625, -1.3623047, 2.5664062, -0.0748291, -0.7573242, 0.2709961, 1.4169922, 1.1376953, 0.38598633, -1.1474609, 0.66796875, -1.6367188, -0.64208984, 1.5205078, 2.8261719, 1.2333984, -2.3164062, 0.65722656, -0.4267578, -1.4833984, -0.28637695, 1.2802734, 0.35253906, 1.6894531, -2.5136719, 1.1337891, -1.2382812, -0.6772461, 0.37280273, -1.6376953, -0.0077819824, -2.1953125, 0.80908203, -0.43066406, -0.03387451, 1.3212891, 0.7324219, 0.11273193, -0.32421875, -0.95214844, -0.044158936, 0.6538086, -0.12390137, -2.0351562, -0.46484375, 3.5292969, -2.1308594, -0.5341797, -0.5517578, 0.22875977, -0.81103516, 0.86083984, 2.890625, 1.2978516, -1.1289062, -1.7216797, 0.7001953, 0.59375, -1.4179688, 1.1152344, -0.009239197, 0.44433594, 0.87109375, -0.07788086, -1.0214844, 0.7182617, -0.11895752, -0.5576172, -1.8369141, -1.6103516, 1.765625, 0.77685547, -0.97314453, 0.7011719, -1.8876953, 0.4790039, -0.49365234, -1.6318359, -1.7236328, 1.3095703, 0.5449219, 2.0214844, -0.6958008, -0.42504883, 0.12310791, -0.3076172, -2.1992188, -0.84521484, -0.84765625, -2.0820312, -0.20458984, 0.5488281, 1.2373047, -0.42236328, -1.8505859, 1.5625, 0.4411621, 2.2832031, -2.0566406, 0.5654297, -0.56347656, 0.67041016, 1.7265625, -1.0751953, -1.7910156, -0.99072266, 2.6953125, -1.4648438, 0.99121094, 0.82714844, 0.11608887, 3.0566406, -1.0498047, -1.1416016, -0.1796875, -0.112976074, 0.85009766, -0.55126953, 0.9370117, 2.3378906, 0.31469727, -1.5527344, 1.1904297, -2.3203125, 1.6503906, -3.140625, 0.43652344, -0.93310547, -2.3339844, -1.0048828, -0.3852539, 0.7138672, 0.88378906, -1.0566406, 0.44580078, 3.0683594, 1.0810547, 0.1472168, -1.3378906, -1.6630859, -2.1699219, 0.78222656, -1.7597656, -1.4130859, -0.16308594, 2.2402344, -1.671875, -1.0273438, 0.030090332, -0.7026367, -2.1347656, -0.4494629, 1.1279297, 0.14782715, 1.1806641, -2.4433594, 0.9458008, -0.40478516, 0.46679688, 0.2553711, -0.6645508, 0.0079422, -1.4414062, -0.0692749, -0.9682617, -0.98828125, -2.1015625, -1.6650391, -1.0761719, 2.7265625, 0.98583984, -2.4746094, -1.0166016, -1.1445312, 1.1201172, -0.8354492, 0.3840332, -0.99365234, 1.6923828, -2.8242188, 0.91015625, 1.2353516, -0.4716797, 0.18725586, 1.7861328, 0.22351074, 0.7270508, 2.2578125, 2.3730469, -0.0178833, -1.5185547, -1.4003906, 0.4814453, -1.4023438, -0.54833984, 1.2373047, 0.70214844, -0.76660156, -1.8125, -0.08691406, 2.8417969, -1.078125, 2.9570312, 0.7192383, 1.2558594, -1.6972656, -0.012794495, -0.9838867, 0.2133789, -1.9707031, 0.28198242, -1.4326172, -0.76660156, -1.7294922, -0.07922363, 1.1679688, -2.6699219, 1.0361328, 1.4316406, -1.3505859, -0.3959961, -0.05545044, 1.3691406, 2.5507812, -0.4116211, -0.092163086, -1.1640625, 0.31713867, 0.3725586, -1.3330078, -0.4411621, 0.6801758, 0.5854492, -0.64404297, 0.99560547, -1.5136719, 2.0253906, -0.6220703, -2.9570312, 1.0097656, 0.39941406, 0.06304932, -0.71435547, 2.2363281, 1.4052734, -1.1689453, 0.67041016, -0.31274414, -0.95703125, -2.5117188, -0.41381836, -1.1025391, 0.69921875, 0.47753906, 0.5292969, -0.4099121, 0.62060547, -0.20983887, 0.98583984, 0.57714844, 0.24902344, 2.3066406, 2.2089844, -1.2910156, -0.17602539, -0.39501953, 1.4492188, 1.8222656, 0.05532837, -0.87060547, 0.28076172, 1.3154297, 0.5058594, -0.8051758, -0.9057617, -1.0869141, 0.27392578, -0.34057617, -0.19787598, -0.57177734, 1.328125, -0.9526367, 0.33666992, 0.17492676, 0.05508423, -0.1862793, -0.015129089, -1.7421875, -1.1738281, 1.2275391, 0.83447266, 0.55859375, 2.7890625, -0.3840332, 0.6171875, 0.053649902, 1.0673828, 0.93603516, -1.4863281, 1.3173828, -0.90625, 0.87109375, -1.8222656, 1.1845703, 0.83447266, -0.17663574, -0.1171875, -0.15222168, 1.6376953, -1.0380859, -0.7685547, 0.5644531, 0.8378906, -0.12207031, 1.1083984, 0.28320312, 1.2636719, 1.4707031, -1.0175781, -0.2927246, -0.6010742, -0.2836914, -0.6538086, -1.9228516, -1.4765625, 0.055114746, 3.0859375, 0.090270996, 1.0400391, 1.0146484, 0.19006348, 0.20617676, -0.28222656, 1.4912109, 1.4375, 0.44873047, -0.27929688, -3.0664062, 0.23535156, -1.7851562, -0.124816895, 1.0683594, -2.0917969, -0.43554688, 1.8398438, -0.49291992, -1.8691406, -0.9760742, 1.8544922, -2.0234375, 1.1210938, 1.046875, -0.34326172, 0.35205078, 2.7460938, 0.3449707, 0.88134766, -1.9130859, 2.0644531, 0.15612793, 0.09069824, -0.25561523, 0.24804688, 0.33325195, -0.05316162, 0.83154297, -1.0683594, 0.8779297, -0.04559326, -1.5, 0.99658203, -2.4765625, 4.390625, 0.18823242, 2.2890625, 0.38623047, 1.1503906, 2.328125, 2.0078125, -0.4243164, -0.375, -0.8378906, 1.3974609, 0.73291016, -0.30151367, 0.8066406, -0.77490234, 2.0820312, -0.8984375, -1.2177734, 1.6523438, 0.40161133, -0.33251953, 0.91259766, -1.0371094, -1.5224609, -0.3942871, -1.4375, 1.5351562, -0.54296875, 1.5576172, 0.60791016, -0.8413086, 0.44677734, 0.52441406, -0.64208984, -1.0917969, -0.12683105, -2.0136719, 1.7705078, -0.85058594, -0.8989258, -1.2851562, 1.5351562, -1.1259766, 0.19702148, 0.8535156, 0.4338379, 0.8691406, 2.7246094, 0.31640625, 1.5087891, 0.46362305, -1.4189453, 1.6044922, -0.5239258, -1.1396484, -0.028884888, 0.7915039, 0.12347412, 0.88720703, -0.07867432, -1.1201172, -0.8330078, 2.3652344, -1.4941406, -0.34375, -0.086120605, 1.1259766, -0.25268555, 2.2265625, -0.19519043, -1.1533203, 0.8925781, -2.2988281, -1.7578125, -1.8955078, 1.2832031, 0.22460938, -0.50683594, 1.2802734, 1.0595703, 1.1474609, -0.16345215, 1.5361328, -2.4726562, -1.4980469, 0.44604492, 1.6796875, 0.9370117, 0.5649414, -0.82177734, 0.5126953, -0.7578125, -0.3684082, 0.13757324, 0.25048828, 0.78466797, 0.06274414, 0.070129395, 0.35717773, 1.6728516, 1.1630859, -1.2363281, -0.39868164, -0.4711914, 2.1113281, 0.56396484, -0.016326904, -1.0830078, -0.1496582, 2.7265625, 2.6894531, 0.8676758, 1.8984375, -1.0878906, 0.17346191, 0.58447266, 1.3046875, 0.9067383, -1.5087891, 0.20812988, 0.5551758, 1.2099609, 0.41503906, 1.1748047, -0.16601562, -0.91796875, 0.42895508, 1.8994141, 2.3945312, -2.9414062, -0.50683594, -0.44091797, -0.39257812, 1.1855469, 0.7709961, -0.89941406, 0.7114258, 0.7265625, -1.0898438, 0.72216797, -0.48120117, -1.8886719, -2.0371094, -0.11035156, 0.40600586, -1.375, -1.9726562, -1.2949219, 0.14099121, 1.0117188, -1.5839844, 2.953125, -0.94433594, 0.63134766, 0.61572266, 0.4658203, 0.96777344, -1.5234375, 2.9707031, -2.0019531, 0.54296875, -0.86621094, -0.07556152, 0.22094727, -1.2626953, 2.0546875, -0.80078125, 0.8432617, 0.56347656, -1.5097656, 0.3959961, -2.5957031, -0.11541748, -0.7138672, -2.2792969, 0.6904297, 0.20922852, -1.7001953, -3.1386719, -2.1152344, 0.6582031, -0.34057617, -1.6796875, -0.54003906, 1.5849609, 1.5791016, 0.9897461, 0.4790039, 1.0722656, 1.7470703, -0.8105469, -0.89697266, 3.3007812, 0.006515503, 1.2744141, 1.2695312, 0.7006836, -0.43603516, -0.64208984, 1.2451172, 0.6503906, -0.3178711, -0.48950195, -0.076049805, 0.15576172, -0.77783203, -0.05038452, 1.2285156, -0.1328125, 1.2421875, -1.6152344, 0.58447266, -0.89941406, -2.2304688, 0.3017578, 1.3193359, -0.5913086, 2.671875, -1.9013672, 0.8925781, 0.0062026978, 0.18493652, -1.4707031, -0.27661133, -0.43164062, 1.2138672, 0.48657227, -0.27319336, -0.3605957, -0.8574219, -2.6230469, -0.29223633, -0.24401855, -1.1875, -0.31689453, -1.2119141, -0.78027344, -1.3447266, 0.7285156, 1.2080078, -0.72509766, -0.54589844, 0.01689148, -1.1728516, 1.9423828, -0.8173828, -3.3554688, -0.62353516, 0.31591797, -1.8632812, 2.8066406, 1.7324219, 0.60253906, -1.2089844, 1.5791016, -1.1953125, -0.34423828, 0.22814941, -1.0371094, 0.3034668, -0.23510742, -0.13964844, 1.3847656, -0.8496094, 2.7832031, -0.6225586, -1.5908203, 1.2675781, 1.2910156, -1.1337891, 0.32641602, -0.22729492, 1.6494141, -1.6240234, 1.0976562, -0.24633789, 1.1240234, -1.8330078, -1.6894531, -0.03060913, -0.72314453, 0.9086914, 0.55908203, 1.1445312, -1.5712891, -0.1854248, -0.9350586, -2.5527344, -0.8066406, -0.14685059, -1.7294922, -0.13232422, 0.81689453, -1.5126953, -1.078125, -0.9243164, 1.3076172, 1.171875, 0.20080566, 0.81640625, 0.51464844, 0.7675781, 1.2236328, 1.7773438, -0.9067383, 0.07086182, -1.2753906, 0.18945312, -1.8710938, -1.2236328, 0.0004582405, 0.7817383, 4.53125, -0.78808594, 1.0634766, 0.028839111, -0.7426758, 1.3876953, 0.4248047, 1.3027344, -3.0039062, 0.75097656, 1.6601562, 0.17529297, -0.27807617, -0.8535156, 0.28125, 2.9980469, 1.3681641, 0.2319336, -1.0751953, -0.8203125, 0.041412354, -3.09375, 0.66503906, -2.1621094, 1.3134766, -0.38598633, 0.47192383, 1.8710938, 1.7929688, 0.56933594, 0.41137695, 0.27392578, -0.46118164, 1.7119141, 2.1328125, 1.8183594, 0.8125, 1.4277344, 1.2324219, -0.3552246, -0.6118164, -0.65771484, 0.10522461, -2.2363281, 0.5888672, 1.8896484, -0.36157227, 1.3417969, 1.9208984, -1.4150391, 0.5698242, 0.30566406, -0.7709961, 0.16577148, -0.0725708, 0.22497559, 0.79785156, 2.578125, -0.6386719, 1.5458984, -2.1914062, -0.75146484, -1.7216797, -1.5908203, 0.95703125, 1.6611328, 1.3134766, 0.1661377, -0.32421875, -1.9257812, 0.3347168, 3.5488281, -0.9902344, -1.0927734, 0.34350586, 0.07470703, 0.22363281, -0.87402344, 1.7080078, 0.017730713, -0.70166016, -1.7041016, -0.8676758, 2.1582031, 0.8613281, -0.33666992, -1.0546875, 0.8125, -0.42211914, -2.5273438, -0.052215576, -0.18896484, 0.59765625, 0.7104492, 0.6582031, 0.41235352, -1.5908203, -2.3417969, -1.5488281, -1.0263672, 0.56689453, -0.5058594, 0.89990234, -1.1464844, -3.0039062, 1.2353516, 2.359375, 0.64160156, 1.2128906, -1.1230469, -1.0537109, -0.62939453, 0.19458008, -0.47387695, 1.7519531, -1.8193359, 0.1262207, -1.0087891, 0.54345703, -0.11828613, -0.95947266, -0.71191406, -1.2314453, -2.1054688, 0.034423828, 0.18823242, -0.60058594, -0.17028809, 3.0976562, 0.32299805, -0.39526367, -0.8222656, 1.3896484, -0.6035156, -0.012580872, 1.3056641, -0.79248047, 2.8632812, 0.4963379, 0.4169922, 0.04550171, 0.57128906, 0.67822266, -2.1679688, -0.22961426, -1.9511719, -0.19543457, -0.28710938, -1.2324219, -1.3740234, -0.7421875, -1.3173828, 0.31274414, -0.72802734, 1.0361328, 0.38330078, -0.39038086, -0.39868164, -2.9140625, 0.7602539, 0.75878906, -2.4433594, 0.24243164, 0.4111328, 1.0039062, 2.9003906, -1.0537109, 1.2421875, -1.390625, -2.5605469, 0.7006836, 0.20239258, -3.6777344, -0.52246094, -0.65283203, -0.41674805, 0.3894043, -0.25048828, 0.18041992, -1.2197266, -2.1484375, -1.7138672, 3.015625, 1.3105469, 3.4414062, -1.3212891, 0.8100586, -0.5761719, 0.9111328, 0.2298584, -0.3942871, 0.9067383, -0.77685547, -0.68603516, -2.5136719, 0.5527344, -0.86376953, 1.1552734, 0.83984375, 1.8457031, -0.3256836, -1.1582031, -1.5410156, 0.71191406, 0.61279297, 0.2154541, -1.5224609, 1.7783203, -0.52783203, 0.056793213, 1.4101562, -1.6435547, 0.54541016, -0.5083008, -0.24047852, 1.4375, -1.7783203, -1.4697266, -1.1435547, -1.1992188, -0.66748047, -1.2011719, -0.65234375, 1.3623047, 0.8925781, 0.4169922, -3.2207031, 0.46020508, -0.15917969, 1.2714844, -1.4443359, 1.1757812, -0.18383789, 0.43164062, -0.3112793, -0.8676758, 2.453125, 0.34936523, -1.2207031, 1.3935547, 1.3789062, 1.2998047, -0.78515625, 1.2412109, -1.5546875, -0.64404297, 0.13391113, 1.6855469, -0.08685303, 0.83447266, 2.4667969, 0.72216797, -1.5039062, 0.5576172, 1.0908203, 1.3583984, -2.4472656, 0.13427734, 0.16833496, -1.0205078, -0.50634766, -2.0820312, -0.82714844, -3.6328125, 1.6269531, -0.37060547, -0.1796875, 0.2524414, 0.30932617, 1.4394531, 0.5336914, 1.0927734, 0.17749023, 0.78125, -1.3818359, 3.4316406, 0.69970703, -0.71777344, -0.19335938, 1.7851562, 0.10760498, 1.9345703, 1.3828125, 1.3183594, 0.66259766, 1.2421875, 1.5566406, -1.6279297, -0.29760742, -0.106933594, -1.6650391, -0.6904297, 0.46801758, 0.11462402, -2.359375, 0.80615234, 0.7661133, 1.8300781, -0.34277344, 2.1074219, 1.4716797, -0.090148926, 0.40112305, 0.6748047, 0.9580078, -0.1182251, 0.20581055, 0.11022949, 0.53466797, -0.20031738, -0.17602539, -0.20117188, 0.4880371, 0.07647705, -0.42871094, -2.0488281, 0.8745117, 1.4658203, -2.5488281, 2.3828125, -0.013999939, -0.09991455, 1.7763672, -0.07299805, -1.6552734, -1.3808594, -0.97265625, -0.11376953, -0.7783203, 0.40063477, 1.6464844, -1.5009766, 2.1699219, -1.1855469, 0.38623047, -1.6894531, 0.6435547, -0.6621094, -0.62646484, -0.3840332, -0.5253906, 1.7138672, 2.0546875, -0.21264648, 0.87353516, -0.16699219, -1.9326172, -0.875, 2.4296875, 0.92285156, -0.90625, -1.0302734, 0.49487305, -0.8730469, 0.033294678, 0.15734863, -1.1757812, 2.0449219, -0.6586914, 0.91748047, 0.22607422, 1.4199219, -0.52441406, 0.5473633, -2.4335938, -0.42138672, 2.8574219, -0.20983887, 1.046875, 0.8144531, -0.99658203, -0.46704102, -0.56347656, -1.4492188, -1.4296875, 0.8540039, 0.4572754, 1.5273438, 0.21679688, 0.28222656, 0.41625977, -0.8051758, -0.011482239, 0.7260742, -0.31323242, -0.98095703, 1.3037109, 3.7363281, -0.88964844, 0.19812012, 2.3183594, -0.9472656, 1.2421875, -1.3242188, 0.28955078, 1.6865234, 0.8310547, -0.93847656, 0.5214844, 2.2890625, 0.6152344, -0.58203125, 1.1572266, 1.2919922, -0.023651123, 0.86376953, -0.4909668, -0.2619629, 0.9316406, -0.47729492, 0.6816406, 1.2128906, 0.05267334, 1.0615234, -0.31445312, 0.39038086, 1.5146484, 0.6904297, 0.4658203, 0.8125, 0.7060547, 0.25854492, -0.4333496, 1.0810547, 1.8896484, 0.17407227, -0.51708984, -2.265625, 0.8911133, -2.5859375, -1.4257812, -0.47045898, -0.089660645, -0.6743164, -2.0605469, 0.004875183, 1.1630859, -0.63720703, 0.4807129, -0.26391602, 0.04675293, -0.41748047, -0.11126709, 1.7548828, -0.83154297, 0.359375, -0.045684814, -0.37426758, -0.6152344, 0.58935547, 0.5708008, 0.9995117, 0.77001953, 0.7578125, 0.9790039, -1.3027344, -0.10290527, -0.62841797, -2.7480469, 0.39648438, -1.3320312, -1.2646484, -0.18652344, -0.068237305, -0.93896484, 1.8378906, 1.8466797, 0.67626953, -0.86816406, 1.1689453, 0.5361328, 0.68847656, 0.3486328, -1.1367188, 1.0224609, -0.63964844, 1.5214844, 1.5664062, -1.0625, -0.056518555, -0.99853516, 0.5463867, 2.8730469, -0.50878906, 1.0625, -0.46850586, -1.4052734, -0.35351562, -3.2128906, 0.3713379, 0.8066406, -0.28857422, -0.9082031, -0.13806152, 1.3154297, 0.5673828, -1.4423828, -0.9814453, -4.2421875, -0.18395996, -0.5463867, 0.23400879, -1.6855469, 5.8789062, -0.0062828064, 0.32641602, -1.7001953, 0.08343506, 2.875, 3.0996094, -0.03894043, -1.2421875, -0.6040039, 0.64404297, -1.6611328, -0.65185547, 1.2109375, -1.8046875, 0.46264648, 0.3095703, 0.16174316, -1.4980469, 0.7138672, -0.2010498, 0.6948242, -1.0019531, -1.0097656, 3.4589844, 0.8076172, -1.1435547, -0.5605469, 2.3730469, -1.4550781, 0.61572266, 0.21923828, -0.8876953, 0.35351562, -1.1962891, -1.1748047, 0.5859375, -0.5004883, -0.37670898, -0.047027588, 0.53515625, 1.4248047, -0.013298035, -1.2460938, -0.4333496, -1.1601562, -1.6328125, -0.9296875, -2.3046875, 2.1601562, -1.7070312, 0.3918457, 0.0993042, -1.1884766, 0.6870117, 1.1103516, -0.12658691, -0.30249023, 1.0820312, 1.2871094, 0.31176758, -1.7050781, 0.53271484, 0.75390625, -2.1523438, 1.8759766, -0.44506836, 1.2177734, 0.99658203, 0.28173828, -0.074401855, 0.58447266, 0.011993408, 1.5341797, -1.6103516, -1.3916016, -0.8642578, 1.5908203, 1.0712891, 1.3369141, -1.2089844, -1.7568359, 0.087768555, 0.7988281, 2.9648438, -0.69677734, -0.110961914, -1.9580078, 1.0253906, -1.0742188, 0.42773438, -0.12695312, -0.042877197, 0.68359375, 1.1582031, -0.94921875, 0.17919922, 0.2142334, -1.4785156, -0.024749756, 0.11303711, 0.7265625, 0.59472656, 1.7294922, 1.2568359, 1.1289062, -0.6274414, 0.32421875, -0.26513672, -0.5761719, -0.9716797, -2.2148438, 1.1328125, -0.7602539, 1.5791016, -0.3725586, -0.94677734, 0.002670288, -1.2226562, 0.28857422, 1.4404297, 0.5683594, -0.9345703, 1.8398438, 0.15820312, 0.22155762, -1.4980469, -1.9238281, -1.6855469, -0.8652344, 1.4707031, -0.056915283, 0.55322266, 0.02935791, 1.4160156, 0.50097656, -0.11199951, -1.4609375, -0.17224121, -1.4628906, 0.46704102, -2.3339844, -0.86035156, 0.93847656, 0.6513672, 2.3046875, 1.2324219, -0.13476562, 0.07849121, 1.5009766, -1.2802734, -0.16027832, -0.53466797, 0.42016602, -1.2285156, -2.0429688, -0.67089844, 1.3789062, 0.94433594, 0.6933594, 0.6020508, -1.7636719, 0.9370117, 0.23803711, -2.4902344, -0.49243164, 0.23657227, -0.2902832, -0.7182617, -0.92089844, 0.13452148, -0.9003906, 0.66796875, -1.4208984, -2.0722656, -0.55078125, -3.4414062, 0.12451172, 2.34375, -0.4091797, 2.5175781, -0.35253906, -0.94189453, 2.9296875, 0.96972656, -0.7158203, 0.09387207, -1.0527344, -0.18310547, 0.9082031, -2.8808594, -0.52490234, -1.6582031, 0.29077148, 0.171875, 2.2871094, -1.1464844, 1.8730469, -0.79003906, -0.78222656, 0.6201172, -0.7915039, -0.22973633, 1.0595703, 1.7363281, 0.21777344, 0.035339355, 1.0585938, -0.49072266, 1.0839844, -0.8774414, -1.0019531, -2.1152344, 1.3886719, 0.21691895, -0.7895508, -0.88623047, 0.18395996, 0.19360352, 2.3808594, -0.8466797, 2.1738281, 0.7265625, 1.0058594, -0.21447754, 1.4853516, 0.4099121, -0.57373047, 0.5698242, -0.15002441, 0.98046875, 1.125, -0.8647461, -1.6210938, 2.7851562, 0.7451172, 0.11981201, -0.3310547, 0.042755127, 1.1640625, -0.43359375, -0.72802734, 0.54785156, 1.2705078, 0.24951172, -0.0690918, -0.26000977, 2.1660156, 0.5004883, -0.84033203, 1.7011719, -1.0039062, 0.5756836, 0.3100586, -1.75, -0.1026001, -0.11352539, 1.2451172, 1.2128906, -1.3164062, -0.5996094, -0.99072266, 0.33325195, -0.5834961, -0.95458984, 7.96875, 1.1113281, -0.7890625, -0.07733154, 2.7441406, 0.7426758, -1.4902344, 2.0957031, 1.8945312, -1.6542969, 2.1503906, -0.7128906, -0.46191406, -2.0039062, 0.15368652, 0.9873047, 1.5029297, 0.23901367, -1.0585938, -0.17883301, -2.7910156, -1.2861328, -0.5317383, -0.034973145, 1.1845703, -1.6464844, 0.52001953, 0.86328125, 1.5664062, -1.3896484, 1.5205078, -0.17993164, 0.2043457, 0.90625, 1.2910156, -3.0800781, 1.3398438, -1.3320312, 0.018051147, -0.59033203, 0.8496094, 1.5507812, 1.0263672, -1.1044922, -0.8701172, -1.1396484, 0.27929688, 1.3544922, 0.16174316, 1.9931641, 0.83203125, 1.3144531, 3.6601562, -3.6523438, -0.11462402, 0.36132812, -0.43359375, 0.2998047, 2.0078125, 0.5708008, -0.94433594, -0.22033691, -0.5253906, 0.07269287, -0.9848633, 1.1533203, 0.21618652, -0.95410156, -0.22167969, 1.0185547, 1.2714844, -0.7841797, -0.55029297, -1.1816406, -2.3320312, -0.24951172, 0.05090332, 0.8413086, -2.5273438, 0.71240234, 0.0035934448, -1.6699219, -0.19958496, 0.85791016, 1.0380859, -0.8300781, 0.41455078, -2.1054688, 1.5527344, 1.0683594, -2.9980469, -0.059539795, 0.8378906, 3.4863281, -0.7426758, -0.95654297, 1.3330078, 0.046325684, -1.0019531, -0.59472656, 0.48266602, 1.4794922, -1.5585938, 1.3564453, 2.7441406, -0.9399414, 0.49121094, 0.7167969, 0.9111328, 1.296875, 2.8808594, -0.23461914, -1.3066406, 0.97265625, -0.19519043, -0.9140625, 1.5292969, -2.5253906, -0.19506836, 2.671875, 2.0703125, 2.2109375, -0.004447937, -0.4716797, 0.058807373, -0.41503906, -0.5185547, -0.0048294067, 0.8066406, 1.7539062, 1.4853516, 0.07165527, -0.35839844, -0.44995117, -0.23620605, -0.43432617, 0.090148926, 1.4208984, -0.031219482, -2.6640625, -0.53125, -1.2236328, 2.953125, -0.5546875, 0.6455078, 2.3085938, -0.51660156, -0.02684021, 0.6430664, 0.22607422, -4.1328125, -0.14807129, -0.44140625, 0.5698242, -1.9658203, -1.7617188, -0.5498047, -0.051361084, -0.21643066, -0.13964844, 0.3857422, -1.1787109, -1.5195312, 0.52490234, 0.051849365, 0.14477539, 1.4160156, -0.22302246, -2.4980469, -0.066589355, -1.5410156, -0.20007324, 0.48901367, -1.9853516, -1.2490234, -0.49780273, 1.7441406, -0.36499023, -0.19567871, -1.3427734, 0.40454102, -0.46142578, 1.0878906, 1.5273438, 3.1484375, 1.5830078, -1.6845703, -0.52685547, -0.27246094, 1.3525391, 2.8769531, -0.32250977, 0.7246094, -0.13708496, -0.67285156, 0.25195312, 0.63183594, -0.025680542, -0.9448242, -0.43701172, -0.7158203, -0.42407227, -1.0839844, -1.9423828, -0.0657959, -2.3339844, -4.4335938, 1.2246094, 0.16345215, -0.5107422, -0.50927734, -0.375, 2.6699219, 0.124938965, -1.7490234, 0.0042266846, -1.8115234, -1.2373047, -1.3457031, 1.8203125, -0.2130127, 1.4228516, 0.83984375, -0.5522461, -0.49780273, 0.25854492, 1.6953125, 1.5478516, -0.34228516, 1.0947266, 0.8745117, 0.27246094, 1.1210938, -1.3271484, 0.46191406, 0.65234375, -1.4501953, -0.5390625, -2.46875, -2.3925781, 0.14123535, -1.2353516, -1.140625, 0.1508789, -1.0859375, 1.1630859, -0.5810547, 2.28125, -2.8769531, -0.89160156, 0.045013428, -0.32226562, -1.2949219, -0.36914062, 0.5097656, -1.3652344, -1.7177734, 0.23730469, -1.0947266, 1.2353516, 0.35424805, -1.5712891, 0.08203125, 2.4042969, 0.35424805, 0.95703125, -0.14025879, -1.9589844, 0.4831543, 0.5415039, -0.7006836, -2.4316406, -1.421875, -0.9550781, 2.4628906, -1.1855469, 0.7626953, 1.1669922, -0.71972656, 2.4394531, 2.2578125, 0.4855957, 1.9072266, -0.77001953, 0.8959961, -0.8671875, 0.3400879, 1.5703125, 0.42504883, -0.026672363, -0.28320312, 0.21032715, -1.1884766, -1.6044922, 0.6845703, 2.2753906, -0.5097656, 0.40112305, 1.4248047, -0.43823242, 0.90527344, 0.5444336, 0.083740234, -2.0078125, 1.3535156, 1.3115234, -0.49243164, 0.9453125, -0.53466797, 0.7832031, 0.73291016, -0.1796875, -0.5371094, -1.8193359, 1.578125, 0.25439453, -0.59814453, 2.0527344, -0.8051758, -2.71875, 1.4697266, 0.23718262, 1.8544922, -0.61083984, -0.5473633, -0.48242188, -1.1972656, 0.5942383, -0.77685547, -0.1616211, -0.9667969, 0.11627197, -1.1923828, -0.64453125, 1.5029297, 2.8886719, -0.0006785393, -0.6069336, 2.359375, 0.2956543, -1.1689453, -2.7890625, 1.0888672, -1.2978516, 0.30737305, 0.6118164, -1.7597656, -1.453125, -2.8984375, -0.5942383, -0.37719727, 1.1699219, -1.2998047, 0.33447266, -1.9423828, 0.27929688, 1.0830078, -1.4521484, 0.35473633, -0.39453125, -0.23510742, -0.18566895, -1.2207031, 1.5888672, 1.1542969, 0.41210938, -0.050048828, -0.72216797, 0.45336914, -0.15612793, 0.7128906, 0.72021484, 1.4550781, -1.0175781, -0.41015625, -0.2836914, 2.1289062, -0.6513672, -0.94677734, 0.5913086, -0.085998535, -0.47973633, 0.2244873, 1.1484375, 2.7675781, 0.57910156, -2.2089844, -2.0234375, -0.30395508, -0.8408203, -0.16174316, -0.7036133, -1.125, 0.68652344, -2.578125, 0.13061523, -0.2232666, -0.52978516, 1.2705078, 1.7919922, 1.6601562, -0.50927734, 0.82177734, -0.23693848, -1.1933594, 0.23339844, 0.1081543, -0.06427002, 0.25195312, -0.3413086, -0.62402344, 0.64501953, -0.68603516, 0.80615234, -0.9501953, 0.90625, 0.85839844, 0.6430664, -1.2675781, 0.2319336, -1.2001953, -1.0136719, 0.3330078, -0.7089844, 0.56640625, 1.0507812, -0.8745117, -0.16296387, -1.6123047, -0.66552734, -1.4316406, -0.32202148, -0.44970703, -0.34399414, -0.89746094, -0.42700195, -0.8745117, -0.7265625, 0.29760742, 0.45117188, 2.6777344, 2.375, 0.5966797, 1.2724609, 0.8930664, -0.9814453, -1.0048828, -1.2197266, -0.24707031, -0.45166016, -0.20263672, -0.6479492, -4.2265625, -0.4970703, -1.6494141, -2.6523438, 0.57128906, 2.3242188, 0.52246094, 2.1894531, -0.9667969, 0.7294922, -1.3984375, -2.5683594, -0.5864258, -0.7260742, 1.1367188, -0.13867188, 0.65966797, 0.2232666, 0.15893555, -0.14367676, -1.2460938, 2.2402344, -4.9765625, 1.0849609, 2.6679688, 1.3515625, -0.61376953, -2.3515625, -0.4152832, 0.98291016, 1.296875, -1.6162109, -0.37719727, -0.39501953, -1.4169922, -0.1977539, -1.0839844, -0.96777344, 1.0097656, -0.35302734, 1.1220703, -3.3027344, -2.7460938, -0.80126953, -1.5546875, 1.1035156, 3.3886719, -0.82177734, 0.09039307, -1.3271484, -0.8925781, 0.12194824, 0.8144531, -0.8588867, -0.4309082, 0.8466797, 0.30419922, 2.4394531, 1.5058594, -0.20239258, 1.2353516, -3.1074219, -2.6484375, 1.8154297, -1.0761719, 0.105163574, 0.056793213, 0.6796875, -0.26000977, 1.0273438, -1.4921875, -1.953125, 0.49121094, -1.3398438, -1.6103516, 0.054473877, 0.32348633, 0.63916016, 0.44140625, -0.51660156, -0.1940918, 1.4677734, -1.7597656, -0.06161499, -1.9697266, 0.875, 0.11199951, 0.3791504, 0.064086914, -1.9082031, 0.7949219, 2.1816406, 1.1582031, 0.7114258, -2.1503906, -1.3681641, -1.5078125, 0.85009766, 0.71191406, 0.8466797, -1.5849609, -1.8769531, -0.5488281, -0.21569824, -0.91845703, -3.4121094, -0.14526367, -0.03237915, 1.0898438, -0.171875, 1.3212891, 1.9052734, 0.6621094, -0.5048828, 1.7714844, 0.81689453, 0.022994995, 3.1660156, 0.95996094, -0.21191406, 0.17443848, 2.3847656, -1.1914062, 3.1386719, -0.5644531, -1.4326172, 1.0712891, -1.4052734, 2.6855469, -1.0576172, -0.96875, 0.61035156, 0.19714355, -0.50878906, 0.45117188, -0.009147644, -0.16235352, 0.0018148422, 0.6899414, 0.30004883, 1.0400391, -0.8183594, 2.6601562, 0.57910156, 0.15698242, 1.4658203, 0.085876465, -0.48901367, -1.0380859, -0.32714844, 0.7739258, 0.57958984, -1.0888672, 1.0869141, 0.12573242, 1.2089844, -0.12683105, -2.1113281, -0.80908203, 0.0037574768, -0.93896484, 1.234375, 0.43286133, -0.22680664, 0.42578125, 0.31396484, 0.13049316, -0.60302734, -1.7548828, 0.55615234, -0.40283203, -0.54833984, 3.4960938, -1.5087891, -0.140625, -0.6542969, -1.0703125, -0.7709961, 0.003829956, 0.09954834, -1.4355469, -2.1914062, -0.7163086, -0.24829102, -0.9736328, 1.1835938, -3.0507812, -0.035339355, -2.3613281, 1.1552734, -0.3190918, -0.9736328, 1.0849609, -0.20581055, -0.8745117, 1.3876953, -0.8623047, -2.0449219, -0.057250977, -0.83740234, -1.4404297, -0.7216797, -0.9013672, 1.7509766, 0.4675293, -2.7246094, 0.7836914, 0.36669922, 0.2788086, 0.70751953, 2.0371094, 1.1943359, 1.7763672, -0.41088867, -0.12054443, -0.28930664, -1.2207031, -0.75146484, -0.94091797, 2.6445312, -0.5444336, 0.09057617, 0.19006348, -0.08215332, 0.6298828, -3.5585938, 1.3388672, 0.5683594, 0.83203125, 0.6591797, 0.35986328, -0.32128906, -0.30664062, -1.8691406, 3.0019531, -1.6191406, 2.1445312, 0.4951172, 0.19238281, -1.0185547, 0.37670898, 2.2734375, 1.1044922, 1.2753906, -0.17553711, 0.3918457, -0.39672852, 1.2705078, 1.3916016, -0.74365234, 1.3984375, 0.67529297, 1.5761719, 1.3095703, 0.46801758, 0.3173828, 1.6699219, 1.1621094, -1.6845703, -1.3164062, -3.0527344, 0.52685547, 0.9707031, -1.9560547, -1.4902344, 1.4189453, 0.07244873, 1.2070312, -0.41308594, -0.55810547, -0.7910156, -0.69189453, 0.25097656, -0.14782715, -2.2304688, -1.0253906, 0.38989258, 1.1191406, -1.4335938, -0.03253174, 0.8125, 2.0136719, 1.0195312, -1.1015625, 1.6748047, -1.1611328, 2.7050781, 2.7539062, -0.58496094, -0.15808105, 0.8774414, 0.3701172, -0.41992188, -2.7734375, 1.2558594, 0.87060547, -2.109375, 0.9921875, -0.59228516, -0.5107422, 1.0830078, 1.0908203, 0.10876465, -2.6542969, 0.12817383, 0.50097656, -0.88916016, 0.98779297, -1.0800781, -1.1660156, 1.5, 0.46044922, 0.22753906, -2.8515625, 4.8007812, -0.88183594, 0.7348633, -0.74121094, -0.72753906, -1.5615234, 1.1503906, -0.8261719, -0.62158203, -0.70166016, -0.17675781, 0.10131836, -0.089660645, 0.25073242, 1.6416016, 0.8173828, 0.16455078, 0.48583984, 0.51220703, 0.0925293, 0.29858398, 0.7026367, -1.0947266, -1.7167969, 0.67529297, 0.4230957, 0.4074707, -0.17797852, -0.73779297, 0.58447266, -1.5283203, 0.67285156, 3.1679688, -2.9121094, 2.0566406, 0.37182617, -0.18701172, -2.6074219, 0.02142334, -0.27905273, 0.28857422, 0.1274414, 1.4677734, -0.30737305, 1.2753906, -0.099487305, 1.2294922, 1.9394531, 1.0771484, 1.2587891, -2.0683594, -0.8720703, 0.5058594, 1.7460938, -0.5595703, -0.12194824, -0.26586914, -0.15161133, 0.09844971, 0.7114258, 3.3398438, 0.1517334, -0.44067383, -2.1230469, 0.08691406, 1.9179688, 1.4912109, -0.13354492, -0.3244629, -1.2460938, -1.6103516, -0.29541016, 0.8857422, -0.7890625, 0.6147461, -0.2861328, 1.4882812, -1.0947266, -2.2617188, 0.8334961, 2.4179688, -0.43041992, -0.38916016, -1.0595703, -0.70654297, -2.3828125, 0.22351074, -1.9130859, 0.18713379, -0.29785156, -0.44189453, 0.066589355, 0.9970703, -1.3652344, 0.5234375, 2.0644531, -0.32373047, 0.81640625, 2.1503906, 0.11663818, 0.037902832, -0.06286621, 0.00042414665, 0.56640625, 0.10217285, -3.828125, 0.024368286, -0.45776367, 0.95214844, -0.7753906, -1.375, -0.36035156, 0.21008301, 0.7910156, 0.31079102, 0.19677734, -0.5576172, -1.3339844, 1.0791016, -0.049346924, 0.50097656, -0.2939453, 0.8486328, 1.7900391, 0.38671875, 0.38916016, -0.9863281, -0.74365234, 0.50878906, 0.8886719, -1.2275391, -0.97314453, 0.8300781, 0.72558594, 1.7304688, -1.3251953, -2.4179688, -1.3330078, 1.4296875, 0.7583008, -1.7919922, -0.93066406, 0.0118637085, -1.7314453, 0.57177734, -2.59375, -0.9511719, -0.5151367, -1.2275391, -1.7519531, -1.8164062, -0.9291992, 0.37841797, 0.7265625, 0.22216797, 0.6230469, -2.3769531, 1.5488281, -0.3239746, 0.6411133, 1.6650391, -0.2626953, -1.1738281, 0.37841797, -1.140625, -0.16235352, -1.1972656, 0.7607422, 1.4746094, 0.0289917, -1.5126953, 0.008857727, -0.23400879, 2.296875, -0.8066406, 0.2364502, -0.25463867, 0.22094727, 1.1464844, 0.79833984, -0.018341064, 0.53466797, 1.7490234, -4.9257812, -0.5996094, -0.12768555, -0.44995117, -1.1113281, 2.7539062, 2.328125, -0.9868164, 0.23181152, -0.44458008, -0.4321289, 0.024719238, -1.0117188, 0.26245117, 2.7265625, 2.7148438, 0.75097656, 1.4306641, -1.0458984, -1.8769531, -0.76464844, -2.1621094, 2.7460938, 1.1835938, -0.32958984, -0.7705078, 4.1015625, -0.9013672, 1.1503906, -0.04119873, 0.38500977, 0.4321289, -0.87841797, -2.3554688, -0.2644043, -1.0253906, 0.94921875, 0.38378906, -3.7734375, 1.1220703, 1.359375, -0.18054199, 1.2041016, 2.1503906, 1.2539062, -0.81884766, -0.67285156, 1.3222656, -2.015625, -1.3037109, 0.3642578, 3.6621094, -1.0849609, 0.4880371, -0.86816406, -1.2041016, -0.65527344, -0.9272461, 0.52734375, 0.60498047, 0.40942383, 0.35961914, -0.4255371, -1.9667969, -1.4492188, 0.8173828, 0.6899414, -1.7363281, -2.7851562, 0.39257812, -0.92285156, 1.9638672, 3.4042969, -1.2841797, 1.4169922, -0.9614258, 0.9765625, -0.33740234, -1.0869141, 2.8320312, -0.7392578, 2.671875, 0.6850586, 0.484375, -0.4489746, 0.5966797, -0.099121094, 0.79589844, 2.6894531, 0.2524414, 0.94189453, -1.1474609, 1.9755859, -0.4128418, 0.14172363, -1.078125, -1.3242188, -0.6147461, -1.8125, -0.55078125, 1.1992188, 2.1484375, 0.44580078, -0.021469116, -0.31201172, -0.99316406, 1.0429688, 1.2373047, -0.20410156, 1.0947266, 0.73876953, -2.3730469, 0.3449707, -0.08355713, 3.1308594, -0.7036133, -0.13513184, -1.7783203, 2.3925781, 1.0605469, -2.3496094, -1.4023438, -0.41674805, -1.0693359, 0.020614624, 0.018814087, 2.78125, 1.8623047, -0.69970703, -0.28271484, 1.5263672, 0.03741455, -0.29833984, 0.14331055, -2.8398438, -0.13916016, 0.6147461, -0.7265625, -1.9541016, -0.6274414, -0.97753906, 1.4160156, -1.7138672, 0.09301758, 0.014823914, -1.9384766, -0.46557617, 0.22338867, 0.13293457, -1.5878906, 0.30517578, -1.7451172, -1.3115234, -0.2614746, 1.3623047, -1.8349609, 0.85302734, 1.0644531, -1.2070312, 1.4355469, 0.40454102, 0.33398438, 2.3417969, -1.0107422, 0.4584961, -0.74658203, -2.484375, -1.2460938, -0.3125, 0.9609375, -1.8740234, -0.53027344, 0.3876953, -0.07647705, 2.5761719, -1.4550781, -0.53808594, -3.4960938, 1.0791016, 2.0234375, -2.5488281, -1.2568359, 0.26513672, -0.049041748, -1.3740234, -6.5234375, 0.6875, 0.0045700073, -0.46313477, 0.92626953, 1.8242188, -0.6767578, -1.3056641, -0.76708984, 0.8666992, 1.5615234, -0.25341797, 0.86035156, 0.5732422, 0.7236328, -0.5698242, -0.13476562, -0.12213135, 0.0020484924, 0.95458984, 1.1416016, 0.72509766, -1.3496094, 0.050323486, -0.44311523, -</t>
-  </si>
-  <si>
-    <t>[1.9043483, -0.0020555195, 0.9644294, -1.0945082, -0.4066162, -1.7007093, -0.9189967, 0.90324324, 2.6615953, 0.35549444, -2.085989, 0.75375205, 0.47532895, -0.34877416, 0.921361, 0.44215152, 0.7403757, 0.5707526, 1.4253187, -0.9271433, -0.2502056, 1.1656559, -0.18362749, 0.08945746, 0.8673931, 2.2407355, 0.40834448, -1.1667609, -1.8780133, 0.5647872, 0.42115542, 0.069567226, 0.61600536, 1.4521484, 1.6439402, -3.0669715, 0.31113794, -0.67806846, 1.2788343, 1.3922955, -1.0126439, -0.15003084, -0.58506376, 1.4323088, -2.4413548, 0.53723145, -0.46335, 0.069605775, 0.17471474, -0.5528243, 1.6520996, -0.7297042, -0.7551398, 1.3781096, -0.9733758, -1.2774979, -0.8004215, -0.14869449, 0.98596835, 1.9567742, 0.34004936, 1.8396125, 1.2877647, -0.05489309, 0.01366545, -0.78669816, -1.9251645, -1.8579873, 0.23473479, 0.38088506, 0.6798931, -0.6161467, -1.837942, -0.6226614, 3.3010895, 2.3885434, 0.3796772, -0.4917249, 1.056101, 0.84225947, 0.8679906, 0.61004317, -0.8177683, -0.08090852, 0.91735196, 1.2939694, -1.4498869, -1.1385177, 1.3346012, 2.2128136, 0.81913036, 0.7678865, 1.3141062, -0.78746915, 1.0575144, -0.8415913, 0.08444696, -0.9088713, 0.014134457, 2.862459, -1.4214381, -0.07728978, 1.4636873, 1.6713096, -3.9141653, -0.73309004, -0.09273489, -2.1656044, -1.5531455, -0.22861843, -0.36842105, -1.2800678, 0.6790707, 0.0012528269, 1.4244963, 0.15139289, 0.31632915, -2.097348, -1.3836863, -0.71931535, 0.813905, -1.9678634, 0.80602384, 0.63944286, -1.1071135, -0.100097656, -0.44893607, -0.8310033, 0.41575864, 1.3965101, -0.16811973, -0.57354736, 2.5571032, -1.1014084, 1.8469881, -1.1961606, -0.6203999, -0.7767784, 0.118331105, -1.2348633, 0.6998869, 0.33100328, 0.5597759, 0.9020675, -0.32053095, -0.5813631, 0.499743, -0.04137541, -0.8601074, -0.49106318, -1.677169, -1.6892475, 1.749486, 0.8463199, -1.4450041, 0.6046207, -1.4109272, -0.09790681, 1.1413445, 1.769634, -0.11658357, 0.23918071, 0.26906866, -1.7068256, 1.634483, -0.9160927, 0.98454845, 1.5757221, -0.47301602, -0.89283514, -0.009971217, -1.3885177, -0.5816715, 0.08959961, 0.24020867, 0.2765728, 0.22877261, -1.8141705, 1.4794408, -0.31684312, -1.0483013, -0.54693925, 1.1992701, -0.5467722, -2.1560445, -0.6224494, 0.1388582, 1.5535053, 1.0962974, 0.30057564, 1.6274414, -0.6578112, -0.23126543, 1.1066123, 0.11734089, 0.8137336, 0.10482627, -0.9900031, 5.9500413, -1.671618, 0.75478, 0.6330245, 0.8231908, -0.811138, 0.7755448, 3.2299547, 0.10701069, 1.3791119, -1.4877158, -0.52431124, -0.56241566, -1.1478721, 0.614926, 0.3982319, 0.3745374, 0.78808594, -0.32933286, -0.42068, 1.4492701, 0.16331723, 0.2810187, -1.4166324, -1.3266859, 0.9970703, -1.4148334, 0.53239363, 0.009251645, -0.41898546, -0.23640522, 1.152999, 0.3234478, 0.22825864, -1.7690172, -0.2055407, 1.4926244, 0.5513466, -2.8444183, 2.775802, -0.05675627, -0.83566767, -1.9850945, -0.8834293, -0.5534154, -0.59817666, -0.88841486, -0.15789473, -0.0950478, 0.2264597, 1.6066766, 0.3945666, 2.5154195, -0.48282662, -0.2434596, -0.16794305, -0.17686062, -0.19298674, -1.8615338, -2.660773, -1.4999743, -0.19592927, 3.2987254, -1.6090683, 1.6961092, -0.012284128, 1.5994552, -0.80461043, -2.17537, -1.4814453, -0.8334704, -0.62753135, 1.3324875, -1.0015934, -0.33389443, -0.3956877, -1.6610031, -0.08727385, 0.34560034, 1.3411287, -1.5525287, 0.14083059, -1.2396176, -0.06745991, 0.5542506, -1.3686266, 0.3916915, 0.1435033, -2.2016087, 0.34339023, -1.170076, -1.4824347, 0.16300884, -1.0717131, 0.5727282, -1.5567988, -0.80538136, -1.5279605, -0.55311984, -0.84065324, -0.19058388, -0.5217414, -0.2318051, 0.022820724, -1.3443668, -0.42152807, 1.3546207, 1.0528371, 1.1452765, 1.4221063, -1.3399979, -0.50115645, 1.1978053, 0.98950195, -2.252769, -0.44618627, 0.8586426, -0.68837374, -0.17884907, -0.50945723, 1.5929791, -1.3403063, -2.1300883, -2.235403, -0.1536544, 0.6174959, 0.5283974, -2.1377468, -1.1500309, 1.3243729, 0.7270765, 0.14283511, 0.9582134, -1.0484684, -0.50301963, 0.3218673, 0.46253085, 0.10758892, 0.40003085, 1.4041941, -0.2819728, 0.5473922, -0.0026212994, 1.3265959, 0.7888376, -0.2748895, -0.80347323, -0.30273438, -0.5961657, -0.73145175, 2.3574734, 0.7684262, -0.39022666, -1.8146588, 1, 0.2763415, 0.2292095, 0.6205412, 2.0124512, -1.8940687, -0.8357833, 0.7922492, -0.45356187, -0.17332058, 0.3311061, -0.9291735, -1.311048, 0.46136153, -1.198088, -2.469778, 0.5096628, -1.1724918, -0.40139288, 1.4576994, 0.12859786, -0.62358654, -0.71407276, 0.2619372, -2.3046296, 0.19308311, 1.0673571, -0.74131376, 1.2706106, -1.0605726, -0.8836092, -1.0553557, 2.4120066, 0.37181973, -0.45096627, 1.1896588, -0.42919922, 2.9068153, -1.5083779, -0.6227385, -1.0351305, 0.9151419, 0.9865594, 0.61173934, 1.1479492, 1.5253906, 1.4711914, 0.95469266, -1.2825992, -0.492316, -1.0891756, -0.9270662, 1.1341232, 0.84025496, 0.2267167, 0.24547698, 1.2504883, 1.2199836, 1.2346659, -0.22958213, 1.4064813, -0.019377057, 0.4945004, -0.44218364, -1.1825144, -1.9645867, 0.6839535, 0.7055407, 1.7737973, -1.4155658, -0.2240697, 1.3580387, 0.09166838, 0.9772484, -2.1039011, -1.6790965, -0.2971834, 2.7344778, -0.8209293, 0.021824887, -0.35657382, 0.5405787, -1.6240748, -2.6567125, 1.0565379, -1.5191586, -0.1487459, -0.5530171, -1.024851, 0.026617752, 1.1727488, 0.5460783, -0.46463814, 2.977025, 0.06853927, 0.9010588, -1.1298314, 0.4923931, -0.9774877, 0.78793174, -0.029630963, -1.4015985, 0.2343236, -1.8413343, 1.6229441, -1.17794, 0.29182515, 0.23814312, -1.204924, 3.329153, -0.7120169, -0.5189659, -0.38078228, 0.6537668, 1.4237254, 3.8753083, 0.1250514, 0.901213, -1.1751131, 0.37466592, 0.5460141, -0.14156301, -2.4071238, 1.0396279, -0.88962275, -2.951069, 3.0160363, 0.7034591, -0.30451402, 1.3399465, 0.7615774, -0.42105904, -0.16923442, -1.863384, 1.3433645, 0.68025285, -0.5906918, -0.15650699, 0.12602153, -0.21535774, -0.43328536, -1.256489, -0.85578996, -1.4995375, 0.5670487, -0.7537007, 0.5367753, 0.5075218, 0.8281379, 1.0146998, -1.1523951, 0.36117393, -0.15326892, -2.0376492, 0.08064993, 1.4436164, -1.2065943, 0.076737255, 0.90789473, -0.7425842, -0.09736714, 0.61114824, -0.011085912, 1.489412, -2.5995066, -0.01434005, -0.0149311265, -0.8804996, 0.1214953, 1.1027961, -1.3270457, -1.2808388, -0.1886436, 0.3696546, 0.6677503, 0.67822266, 1.6897358, 0.90636563, 3.3112664, 0.38977695, -0.93377364, -1.0002635, -0.13584499, 1.1522924, -0.29564145, -1.9930613, -1.0673314, -1.1613898, 1.7219367, -1.7737234, -0.6700247, 2.1699924, 0.24843235, -1.7350817, 1.2120682, 1.6736225, -1.2884328, -3.2170024, -0.7892424, 1.8267373, 1.1431435, 1.4707545, 1.5786133, 1.0833162, -0.7497944, -0.103997484, -0.7969264, 0.2785002, 1.1762053, -0.31363076, 0.5925164, -1.2970806, -0.613641, 1.5302992, -0.05628084, 1.0071186, -0.72533536, 0.66812295, 0.010202508, -2.076413, 0.80612665, -0.406507, 0.603824, -0.469007, -1.9081004, 1.5142373, -0.301912, -1.2132504, 3.392681, 0.052040502, 1.688785, 0.9508121, 1.0616391, -0.86847246, -0.5032381, 0.76660156, -1.6947471, -0.020816201, 0.6591283, 1.4941406, 0.06624242, 0.49079975, 0.89180714, 0.6712582, 1.9321547, -0.13168174, -1.2586863, -0.64243037, 0.96808183, 2.0492907, -0.49966592, 1.0010537, 0.77571505, 0.87325245, -1.3104697, 0.13671875, 0.33115748, 0.5806435, -1.0439196, 1.3012953, 1.7229004, -1.3550062, -1.8648232, -0.80887645, 0.27814043, 0.32360196, -2.0810547, -0.027077124, 0.41992188, -1.6979852, -0.5894583, -0.2805561, 1.6953382, 1.6889777, -1.3272512, 0.7256863, -0.039756373, 2.3615336, -0.60950994, 1.2295436, 0.78502774, -0.599044, 1.1956209, 2.4447472, 0.11017167, 0.9241365, -0.8965872, 0.10366982, -0.025660465, 1.5155479, -0.6433876, 1.7368727, 3.9663856, -0.07438579, -0.08267373, -1.4008147, 0.7907618, -0.87353516, -1.7509252, 1.2915297, 1.9881014, 2.5507298, -0.15430972, -0.4168123, -0.46664268, 0.18503289, -0.5858347, 1.0598273, 0.5001285, 0.33162007, -0.54805714, -3.736431, 1.5669973, 0.7756283, 0.80542314, -0.39003393, 2.906841, -1.1696906, -1.4346217, -0.081285976, -0.43640137, 0.23879524, 0.20780222, -0.9215795, 1.458342, 0.5283974, 1.2504047, 1.8055484, 0.3509457, -0.33571905, -1.7660875, 3.858861, -2.4639187, 0.75728565, -0.12972862, -1.0325735, -0.025146484, 0.1849301, 2.6648848, 0.12158203, -1.2035362, 2.0642476, -0.5045037, -0.6129215, -1.0701584, 0.47361997, -0.4950144, -3.276727, 1.9703947, 0.8812963, 0.07863898, -0.97265625, 0.4138569, 1.7993935, -0.30833676, -0.11087197, -0.21782483, 0.4423828, -0.088661596, 2.3415592, -0.26511103, 0.2944079, 1.5991982, 0.16262336, -0.28767475, 2.4236739, 0.20013428, 0.57128906, 2.673057, 0.5662649, 0.7226049, -0.25971422, 0.58047646, 0.3309005, -1.5545269, 1.802426, -0.56406766, -0.30427632, 0.5539422, -0.6353824, 2.293637, 0.8066406, 0.7554996, -2.347682, 0.2787829, -1.5260588, -1.9885896, -0.9009046, 0.7038767, 0.7807617, 2.008532, -1.7962068, 1.5493935, -0.30139804, -0.7768619, -0.0076069077, 0.31913033, -0.34087172, -1.1709242, 1.3991057, 0.5444079, 0.2965666, -0.38635898, -1.8260691, 0.2711503, -0.7107833, -0.1875771, -0.21312192, -2.003495, -3.2262542, 0.96515214, 1.2317023, 0.8682283, -0.619706, 0.05024157, -0.6724918, 0.08362459, 0.2524896, -1.2710732, -2.8376336, 0.29034746, -0.029258326, -1.815359, 1.401984, 1.6597451, -0.029862253, 0.34832442, 1.3283306, -0.7760588, 1.1600021, -0.6152087, -0.7766756, 1.9461216, 1.0751439, -2.354338, 0.050228722, -0.015727796, 0.4794151, -0.82175165, -1.7639803, 1.0036621, 0.7176706, -1.8278937, -0.15662263, 0.09616571, -0.09685958, 0.3562397, 1.7704821, -1.7780489, 1.269891, 0.14381167, -0.24699321, 0.7113487, 0.59518915, 0.87649053, 1.9897203, 1.6576377, -2.36544, 0.01343416, -1.0958059, -2.1665297, -0.06676604, -0.28780326, -0.3746916, -1.6561086, 0.695441, -1.038767, 0.34684673, 0.8976922, 2.1130211, 0.65021074, 0.26648593, -1.275307, -0.25931588, 1.0894326, 1.5518092, -0.1120734, 0.87155634, -1.0496119, -2.4004934, 0.30579257, -0.18917044, -0.30139804, -1.544485, -0.9365748, 2.2636719, 2.714484, 2.411441, 2.636102, 1.1447883, 1.0956517, 1.1902627, 0.29543585, -2.3838089, 1.5441766, 0.61127675, 0.80625516, -0.1954667, -0.22460938, -0.81088096, 1.8815789, 1.4843236, 0.6649877, -2.7451687, -1.0097142, 0.91002774, -0.63137335, 0.37624, -0.550203, 0.4514417, 0.17351331, -0.8066663, 1.3628957, 0.9294819, -1.5903063, -0.27533922, -0.21409848, 1.0130936, 1.3004215, 2.6982937, 0.9718339, 0.76264393, 1.7432154, 0.29867393, 0.90527344, 0.6857011, 0.444927, 0.5207648, -0.95453846, 1.0976562, -0.110043176, -0.87096524, 1.7927117, 1.21875, 0.19244063, 0.6369243, 0.43148643, 0.90293485, 0.0779708, -1.4853563, -0.58553916, -1.0633866, -0.7832545, 0.24243164, 2.5198395, -2.8359375, 0.16324013, -2.460218, -0.12844367, 1.3622533, -0.28022203, -0.57250977, -1.0246711, 0.47133276, -1.7522358, -0.8929379, 1.6354338, 0.16359992, -0.5369118, -0.86086553, -0.43683183, -0.41685084, -1.947317, -0.27276933, -0.5847297, -0.43932462, 0.121235095, -0.3151984, 1.7456826, -0.63872325, 0.7962518, 1.2948961, 0.8980697, 0.3075915, -1.2078537, 0.8203575, 0.5702161, 0.88348067, -0.93112665, -0.9252673, 0.9529194, -0.005602385, -1.233784, -2.6855469, -0.94413036, -0.13157895, -1.1518041, 0.45456415, 0.9065455, -1.1162109, 1.091103, 2.575555, -1.3333162, 1.838456, -0.44639185, 0.9983296, -1.8315687, -0.47846422, 0.6632915, 0.06728002, 0.81794816, -1.2322035, -1.2522615, 0.48041734, -0.12384354, 0.79790294, -0.14021382, 0.70230263, -0.19511333, -0.39923418, -0.08259663, -1.8305922, -0.41898385, 0.8134252, 0.80168074, 0.7688245, -1.9742496, 0.9859169, -1.536287, -0.99943465, 3.007093, 0.9467003, -0.28635287, 0.29194078, 1.0518574, 1.4866879, -0.537058, 1.1530409, -0.5782278, 0.49425626, -1.5472862, -0.7941252, -1.6871402, 0.29728618, 0.26929995, -0.51734686, -2.456723, 0.30846524, -0.64239824, -0.15561394, -0.4468416, -0.9463919, 0.36394942, -0.8754754, 0.5254521, 1.3716848, -1.5512953, 0.31954154, 0.7639244, 0.62119174, 1.3412315, -0.9503495, -0.21905196, -1.7676809, -0.8489926, 1.1112381, -0.20726255, 1.0410477, 0.6611071, 0.40689248, 0.680391, 0.21961091, -0.84472656, -0.16636257, -1.5185804, -1.3673674, -0.98000616, -0.29995888, -0.27808902, 1.4553351, 0.70241827, -1.8352308, 1.6204256, 0.48756167, 1.0380731, 1.8615338, 0.8938631, -0.3414371, -1.2517604, -1.5939556, 2.026213, 0.50890553, 1.1883994, -0.56900185, 1.1563143, -0.19459292, 0.7008635, -0.08246813, -0.91692793, 1.142697, -0.16889392, -2.0444078, 0.42868525, -0.25747842, 0.87625927, 0.55047286, -1.7469162, 1.9334652, -0.5153038, -0.3874897, 0.85701066, 1.0605469, 0.315404, 0.1278783, -0.5327534, 0.3188348, -1.8604416, -1.654965, -0.27816612, 0.38028115, 1.0565635, -2.2640445, 0.23221628, -0.6063425, 0.8123458, 0.25041118, 0.10888672, -0.14129317, 1.5088918, -1.4342234, -0.45944697, 0.52981085, 0.3615851, 0.27943823, 1.7626439, 1.0084807, -1.0849609, -0.7831003, 0.10130551, -1.2175357, -1.3433131, 2.2596886, 2.0303373, -0.6343287, 0.3934005, 1.8623561, 0.37942022, -1.1012541, 3.0429688, 0.6291761, 1.2753392, -1.9626336, -0.104646385, 0.872096, 2.0712376, 0.27279502, -1.2557052, -1.3712479, -2.6267476, 0.4578793, 1.0759149, 0.90252364, 0.21939248, -0.48243514, 0.30269584, -0.47779605, 1.2560393, 0.041221216, 2.253739, -1.9143195, 3.2299547, -0.18421052, 0.13448294, 1.0070158, -0.124293275, 1.8869244, 2.0200965, 1.0172762, 1.5503187, 1.6352282, -0.05180921, 0.40391138, -0.27652138, -0.68971014, 1.2140213, -0.6120477, 2.3299754, -1.2006065, 0.44869193, -1.4025494, 0.7389237, -0.8859992, 1.7625668, 0.63166887, 1.2167969, 0.81886053, 0.33424136, 0.1613127, 1.1236123, 1.197574, -0.72265625, -0.8702971, -0.45745528, 2.033306, -0.3349545, 0.18770559, 1.2321135, -0.20425576, 0.16989617, -0.8842709, -2.0389597, 0.48488897, 1.2794254, 0.17215769, 1.3834549, 0.40610865, -0.56352794, 1.2860814, -0.11558131, -1.8054457, -0.7183902, -1.6130242, 0.27072626, -2.1967452, -0.16501336, -0.22813335, -1.4540502, 1.9260896, -0.33290502, 0.72710216, -1.6313734, 1.6273129, -0.18901624, -0.14366712, 1.3628957, -0.21815892, 1.823602, 0.23828125, 0.6980109, 1.4040912, 0.37846938, -0.9347759, -0.15766345, 1.8625617, 2.654554, -1.8345498, -0.65600586, -1.3586168, -0.61420643, -1.8109452, 1.8467311, -1.5398014, -0.94114923, -0.22003496, 0.252647, -0.71272355, 0.71669406, 0.76996815, -3.1436703, -1.9538445, 0.27509508, 2.5112562, 1.2029194, 1.3242959, -0.8549548, -0.5298622, 0.18007298, -1.2574527, -0.19032688, 0.7907586, -0.22990337, 0.88288957, 1.5122328, -0.82905656, 1.1971115, 1.0361778, -1.6548879, -1.71884, 2.3204153, 0.19235711, -0.10647101, 0.6736675, 0.4588045, -1.8131168, -1.503932, 1.8153269, -0.08377878, -0.9368575, 0.14946546, 0.92804277, -0.21253084, 0.6585115, -0.21492085, -0.13723274, -0.18726228, -1.0140316, -1.6191406, 0.7007093, 0.40912828, 0.73657227, -2.967054, -1.1851871, -0.57847196, 1.099468, -1.1108141, 0.13841489, 0.8176141, -0.16236636, -1.2795539, 0.8025673, -0.009277344, 1.8471422, 1.2765728, 1.0491879, -1.1610252, 0.57757246, 1.1797389, -1.8346783, -0.60549444, 0.9935753, 1.6241006, 1.1392629, -1.1346629, -0.94538957, -1.1587685, -2.438939, -0.9126747, -0.7080592, -1.54559, -1.253585, 0.34215665, 1.7750822, 1.0963296, -1.739335, 1.1199373, 0.6042866, 0.27596885, 0.55612665, 2.159912, -0.28862563, -1.953125, -0.14604107, 0.6846217, -0.181011, 0.55106395, 1.3088828, 2.8133738, -0.42639804, -0.46833882, 1.2425473, -0.43883634, 0.24537417, 1.2182103, -2.4424343, 1.3073441, 0.0884046, -1.2022512, -0.1277241, 0.40483657, -0.48745888, 0.6897615, 1.527151, 0.19924445, 1.1796875, -0.5989091, -0.53821766, -0.71819746, -0.48211348, -0.69522256, -0.41722348, 0.5528372, 0.64914423, 0.26766807, -1.4276316, 0.62736434, -0.62063116, 0.18904194, 1.2161801, -2.4717824, 1.0618061, 0.06458162, 0.62798107, 0.4014186, -1.1976511, -1.5486225, 0.7853618, 1.4958239, 1.7795539, 0.6016717, 1.8789576, -0.7175164, -0.39837325, -0.70936984, -2.830952, 0.88300526, 0.066072166, 1.0562809, -0.5756924, 3.3042762, 0.5576429, 0.025750412, -1.0126439, 2.5190172, 2.0146291, 1.6998612, 0.79856473, -0.6412546, 1.4922116, 0.30358243, 0.38733554, 0.21328896, 0.2957796, -1.3310289, -1.6637926, 0.13399465, 0.7464535, -1.0203632, 2.419819, 0.4091797, 2.075348, -0.6031237, 0.21594238, 4.360403, 1.4423314, 0.23139392, 1.2467362, 1.3645855, -0.2293123, 1.3026316, 1.5601357, -1.2580181, -1.9871377, -0.23105983, 0.6795333, 1.7085218, -0.7713302, -0.41868833, -0.4557977, -0.09290193, 1.4682875, -1.0488346, -1.6027961, 1.3150699, -1.8758224, -1.0036236, -0.97820723, -0.95975536, 1.8749486, -1.7632607, -0.0017475329, -1.1987305, -1.9074322, -0.22558594, 0.9268092, -0.97881114, 0.24244449, 2.63456, -0.022888184, 0.6297286, -0.9615639, 0.4855186, 0.29019326, -0.36247173, 1.2244037, 0.30588892, 1.7002467, -0.35211825, 0.55664706, 0.27415708, 0.6845446, -0.38453433, 1.4360865, -1.9971731, -0.43559828, -0.74917763, 2.0970395, -0.637721, -0.2890111, -0.8085745, -2.245554, 0.69249845, -0.06706157, 2.318565, -1.4985352, 1.0325478, -0.8806281, -0.26311934, -1.9285568, 1.1383635, 0.35352847, 2.2741828, 0.55647355, -0.63718134, 0.37314966, -2.1001234, 0.23548006, 1.3642578, 1.4026906, -1.845292, 1.3298982, -0.89007246, 0.49578536, 1.839227, 2.9222863, -1.2723068, -1.0901779, 1.3662109, -1.1192049, -1.5938785, -1.5279348, 0.23054585, 0.7680407, 0.5110905, -1.839227, -0.38725844, -0.84797746, -2.9873047, -1.5318668, 3.4188938, 0.91563016, 0.2579153, 2.3204153, -0.32755962, 0.43395352, -0.45733964, -0.96804327, -0.9586503, 0.28588867, -0.42053866, -0.5572253, 1.9323345, -0.29415092, 1.002096, 2.689376, -0.25304854, -1.7467877, -0.12962583, -1.0136205, -0.4603207, 0.71988076, -2.0893297, 1.7185444, 1.3447908, 0.39802632, 1.1737972, -1.1844676, 0.8668277, 0.5660208, -2.4703948, -0.16350354, -1.0131065, 1.9889237, -0.2524414, -0.56841075, -0.058927838, 0.6412675, 1.2017373, -0.0051655015, 0.7463379, -2.0810547, -0.49886924, 1.2944626, -1.8728799, 0.92377675, -0.7991365, -0.33379164, -0.27250913, 0.29072008, -0.1119963, 0.090460524, 0.48581415, -0.47473788, -2.172903, -0.96087, -2.9453125, -0.3570621, -0.2259393, -0.46183696, -0.5406044, -1.3642064, -1.5749383, 1.1343609, 0.07281815, -0.7813014, 0.21700247, 0.81381065, 0.12607937, 0.31136924, -0.7346834, -1.7029194, -1.5608168, -0.9920654, -0.19641756, 1.1756021, -0.84075284, 0.5141216, 0.43387485, -0.0547132, -0.71235096, -1.7731291, -0.37050268, 0.1690738, 0.68557256, -0.0035207649, 0.86836964, 0.61454695, -3.1220188, 0.4556435, 0.32861328, -0.0860917, -1.5405016, 0.9455181, -0.720112, 2.0522718, -0.9088199, 1.4962094, -0.9377056, 0.49419203, -2.2682464, 2.7645457, 3.4977386, -0.19872405, -0.026932565, 0.2082648, -0.56043446, -0.4690584, 0.53289473, 0.6074219, 0.09305613, -1.1300884, -1.5061164, -2.046104, 0.43107525, 0.14564915, 0.29652485, -1.9073807, -1.4550347, 1.4636102, -1.58773, -0.8215461, 0.2928563, 0.69138056, 0.42136103, 1.315314, -0.008342542, 1.630037, 0.09551681, 0.04657946, 1.1442486, -0.82622325, 0.87488437, 0.20137747, -1.2695826, -1.4318463, 0.39021382, 1.0489823, 0.39694697, 1.3801141, -0.67886513, -1.0004112, 1.350406, 0.58564836, -1.3990029, 2.7703536, -0.92552423, -2.054739, 1.4853516, 2.5811062, 1.0633224, -1.1205283, -0.64598644, 0.57635176, 0.34883842, 1.3098338, -1.301912, -1.6828228, 0.16194715, 0.4957725, 0.97846425, 0.4064042, -0.49591386, -2.1417558, -0.08706826, -3.855366, 0.7838199, -1.0774568, 1.0525287, 0.9793123, -0.88116777, 0.30389082, -1.0518092, 1.0879549, -1.5326891, 1.0928762, 0.309853, 0.23023745, 0.595671, -0.67084706, 0.12646484, -1.1755371, -0.24067126, -0.47206518, -1.587094, 2.1212993, 1.4016498, 1.4663343, 0.008660567, -0.2607936, -2.1956208, -0.9802375, 1.0265423, 1.2449694, 0.3936318, 0.97694796, -0.070087634, 2.4275289, -1.6701275, -0.76894015, -0.6144891, -0.8958676, -0.15743215, 0.34986636, -1.2306744, -0.2630551, -0.22229968, -2.5110505, 2.0204563, 1.1856496, -3.0642989, 2.500925, -0.35634252, -0.89406866, 1.553531, 0.06748561, -0.05583432, 0.5395765, 0.38836348, -1.6513158, 0.035085578, -1.2138672, -0.5544819, -2.706466, -0.026675576, 0.22234786, -1.832905, 2.0097141, 0.9862125, -0.11744449, -1.423494, 0.733861, -1.9060187, 1.6537315, -0.78407687, -1.6301141, -1.2017887, 1.5745785, 3.6636512, -1.0611637, 0.4440147, 0.097836144, 0.5153423, 1.3047967, -0.47011206, 0.5957545, 0.29877672, 1.0039062, 1.2389494, 1.0165758, -0.51975614, -0.17103015, -0.8004215, 0.70430714, 0.83232677, 4.688939, 0.3589124, -0.60587996, 1.6140522, -0.7258847, -0.4820107, 0.66216075, -2.6764495, 2.3373125, 0.24437192, 2.5375206, 1.1894531, -1.2771381, -2.602539, 1.9232627, -0.24270149, 0.25408614, -1.9039885, 1.9507093, 0.18334961, 1.2167969, -0.04898232, -0.20885588, -0.78913957, -0.5526573, -1.0598273, -0.6231882, 0.20184004, -1.2891139, 0.6410747, -0.03153269, 0.062088817, 4.7386923, 0.5347322, -0.1485917, 1.9969676, -0.52151006, -2.1890676, 0.22949219, -0.12626567, -2.8630757, -1.0996094, -0.6698833, -1.6739566, -0.5882247, -1.9897718, 1.4222348, 0.110402964, -0.35552016, -1.6344508, -0.5256219, 0.42033306, -2.284848, 0.14642012, -0.22859272, 0.7299034, 1.3955078, -0.38484272, -1.8303865, -0.87371504, -0.26274672, 0.9791838, 1.6575863, -0.9590872, -1.0283717, -0.0056312964, 0.84859425, -0.61112255, -0.3051501, -1.4129832, -0.32923007, -0.36549136, 0.27467105, 0.8623304, 2.3020148, 0.806949, 0.58416426, 0.821363, -0.2498972, 1.5301193, 2.7240696, 1.0891242, 0.4409308, -2.861431, -0.98893017, 0.33020663, 0.12957442, 0.43348452, 0.19280684, 1.2666787, 0.39707544, 1.3502262, -1.0534539, 0.67012745, -0.4873561, -1.6659899, -3.0952406, 0.93603516, -0.9086079, 1.1559674, 0.3028918, -0.1706029, 1.2342979, -0.87618214, -0.33133736, -0.895405, -0.5805407, -0.9464625, -0.0046515213, -0.19909026, -0.09660259, 1.3818359, 1.3684211, -0.13882607, -1.3016037, 0.5127467, 0.3067434, 0.3383275, -1.2606908, 1.3088508, 0.3057797, -1.0405787, -1.7896279, -1.9277858, -0.505551, 0.7619629, -1.5542763, -1.2413137, -3.2153578, -2.452611, 0.05057566, -0.92639804, 0.12980571, 1.5752467, -0.05037649, -0.8261719, 0.5178287, -0.04918791, -1.8760922, -0.78227794, -1.1644737, 0.44311845, -1.3203125, 0.15727153, 0.7740543, 0.104119554, 0.6508532, 2.2458882, -1.5718287, -0.055098683, -0.11693051, -0.57239413, -0.73413086, 2.604338, 0.07735403, 0.23436216, -0.19668418, -0.8516653, 1.0558697, 1.782535, 0.56656045, -0.7197908, -0.69217724, -1.2424598, -0.84827304, 0.026238693, 2.294395, 0.0678454, 2.2839742, 0.3331106, 0.8875411, 0.60422236, 0.08472965, -0.51443803, 0.8856908, 1.7108219, -2.2858245, -0.26879883, 0.13065378, 0.70921564, -1.984118, -0.06943873, -1.072831, -1.1636513, 0.11256168, 0.34267706, -0.10474918, -0.38394326, 0.21053916, 0.6109169, 1.589227, -0.5431551, 0.26120478, -0.69151545, -0.100457445, -1.0282689, 1.7254574, 1.4074322, -0.12135074, -0.42285156, -0.4743524, -0.72512335, -0.043893915, -2.0027242, 2.9901862, -1.5234632, -0.9108501, 0.03447683, -1.5182463, -3.0528371, 0.3880037, -0.2824193, -1.2895637, -3.0573602, -0.6849815, -0.30417353, -1.5389084, 1.2213713, 1.484677, -0.120425574, 0.64514804, -0.20649157, -1.2078793, -1.946469, 0.022846423, 0.3460629, -0.22450657, -0.063168176, 1.4481908, 1.0374563, -2.4719367, -1.2477899, 0.50421464, -1.4550653, -1.1033005, -1.4032176, -0.2577868, 0.50606495, -1.0931975, -0.6613898, -0.48900723, -2.1984992, 0.86356395, 0.4976871, -0.75880194, -0.6121505, 0.24375515, 0.72034335, -0.16511936, -1.910259, 0.3073345, -1.9428453, -0.39038086, 0.17214485, -0.18955593, 0.06943873, -1.3559828, -0.057154607, 0.8433131, -1.1325299, -0.5958573, 0.3187577, 0.38091078, -0.7680793, 0.13497122, -1.9295076, 1.2486893, -1.0516678, 0.44174033, 0.12721011, 0.19847348, 0.32563218, -1.0723684, 1.5677426, 1.8057412, -1.6592568, -2.128598, -0.6196867, -0.7918958, 0.05309416, -1.5368524, -0.22675525, -1.7959242, -1.4560708, 0.5464124, -0.7221423, 0.1667352, 0.33470395, -0.080360815, 3.4348273, 0.0068873353, 0.30311987, -1.2508994, -0.6828999, -0.82085216, 0.78419894, 0.2657278, 2.912315, -2.3252468, 0.7547029, -0.5075555, 1.005037, 0.5444031, -0.6729544, -1.5262644, -0.15871711, -0.70394737, 0.704487, -0.27004522, -1.8197215, -0.9245477, -0.980109, 0.9855957, 0.17038767, 1.3005756, -0.05838816, -1.6924856, 0.46674547, -1.1688939, 0.7021613, -1.0802323, -1.5165502, -0.5416581, -0.29001656, -0.53086454, -0.7406713, -1.320441, -1.5631168, 0.8230623, -0.07380757, 1.2464279, 1.1323113, 0.6282638, 1.3648232, 0.14030376, 0.33625874, -1.0543791, -1.4308568, 1.1162109, 0.6812889, -0.93993556, 0.2741185, -9.749383, -0.43211606, 0.2787829, 1.8398438, 0.41947857, 0.91712713, 0.15625, 1.7910156, -0.09966078, 1.6080129, -0.76708984, -0.7879253, -1.5142373, 1.2665244, 2.3655427, 0.15159848, -0.06975997, -0.52410567, -1.9591385, -1.3501234, -0.7989373, 2.27178, -2.1509047, 0.9936202, 1.0822496, -1.2864926, 1.9447471, -1.535773, -1.1334035, 0.9117753, 0.8691406, -2.1823602, 1.1189848, -0.44210014, -0.43678042, 0.24692897, 1.1188836, 0.39648438, -0.07509252, -0.48960474, 0.5477295, -1.738641, -1.4562346, 0.179196, -2.153423, 0.41891962, 4.6821547, 2.0515523, 0.76737255, 0.08429276, -0.7749489, 0.9387336, 0.9435136, 0.09231085, 0.15491365, 0.53133994, 0.5703125, -0.3723273, 0.46674547, -0.8979492, 0.43629214, -1.2299033, -0.37413266, 1.7790399, -1.1386719, 0.45883018, 0.56946445, 1.250848, -1.0315584, -0.8320826, -1.3877724, 1.108861, -1.0041119, -0.906507, -0.28040195, -1.015882, -1.4539474, -0.40001798, 0.2798494, -0.05057566, -0.18609941, 0.6467414, 1.2254574, 0.47990337, -1.0943314, 0.9811626, 0.6232847, -0.6010485, 2.626182, -0.20112048, -0.37879062, 1.9935752, 2.2140472, 1.0468236, -0.7532734, -0.6609529, -0.55386513, 1.1882195, -2.4684417, -3.044382, -0.9347502, 0.10785554, 0.25691304, -0.2847836, -0.07825349, -4.1835938, 0.46216464, 0.6048263, 1.4673109, 2.442807, -0.18950452, 1.0120656, 2.0028782, -0.61086553, -0.8221371, -0.8457288, 0.06982422, 2.1177015, -0.48871812, 0.80008096, -1.0412213, 1.6441201, -1.562757, 0.64196134, -0.022152549, 0.6864849, 2.0562809, -1.0335115, 2.2290297, -0.16201621, -0.9681075, 0.853567, -0.43469882, -3.108347, -0.049599096, -1.0986071, 0.29610404, 0.021458676, 0.16970344, -0.7404914, -0.18200041, 0.36015883, 0.7987253, -1.3076686, 1.6406957, 2.045693, -0.62705594, -0.8575247, -0.05470035, -0.2290553, 0.20924136, 0.045448706, 0.86631376, 0.8360917, 0.8875411, 0.6184789, 0.5205592, -0.8237048, -0.54397744, -1.7648122, 1.4487047, 1.8384047, 0.9799034, 0.03877981, -2.182206, 2.3242188, -1.5404373, 0.49074835, 0.10197368, 0.06458162, -0.34201533, -2.4439762, 0.18025288, -0.91963756, 0.56215304, 0.30348608, 0.7528783, -1.4738898, -0.17348118, 0.7177991, 0.27148438, -1.4020867, -0.58526933, 0.23215203, -0.94892645, -2.4382195, -3.2657278, -0.4971731, 0.20597759, 2.4295847, 0.728567, -0.21385835, 1.445698, -0.11243318, -1.101132, 1.427169, -1.042352, 1.0248766, 1.0704442, -0.28024775, 0.13456003, -1.5051912, -1.0204307, 0.722425, 0.23948911, -2.0711348, 1.3194901, -0.102744654, -1.4408408, -0.9603464, 0.94704074, 2.0310187, -0.026110196, -0.0052586608, 0.8466283, -1.184853, 0.12844367, -0.93675154, -1.0379832, 0.60621405, -1.8733039, 0.8417455, -0.74827814, -0.18603516, 0.34322318, -4.3197985, 1.9964279, 1.1208881, 0.12345806, 0.039120324, 0.7257915, -0.5200452, -0.35253906, -1.7674754, 3.7410567, -0.9029862, -0.8182052, 0.076891445, 1.6026162, -0.33268657, 0.2785002, 1.8363487, 0.36019737, 0.15902549, -0.16313733, 0.6513286, 0.9972245, 1.8147101, 1.9471115, 0.47507197, 1.989412, 1.9716797, -0.02315481, 0.019955283, 1.338138, -0.5995837, 0.5193899, 1.1524979, -0.9678248, 1.1103258, -0.5573602, 0.12814812, 1.0642724, -2.16617, -1.3997738, -0.16660671, -0.3200748, -0.10364412, -1.5603236, -0.26563784, -0.5102796, -0.1138916, 0.36931127, -0.26771948, -3.17095, -1.626028, 1.960218, 2.4033718, -0.63885176, -0.7423674, 1.0328481, -0.6012027, -1.1163651, 0.08880294, 0.14100406, -0.6017681, 2.197677, 0.5995323, -0.44433594, 0.4010074, 0.050627057, 1.4374486, -0.021306088, -0.47291324, 0.95518094, -0.5307617, 1.0189787, 0.23583984, -2.6103258, 0.32923007, 0.86695623, -0.39342618, -0.31991416, -0.52183133, 0.13378906, 1.2040758, -0.9404297, 0.40069902, -1.0546554, -2.2753649, 0.37282842, 0.44120064, -0.3258378, -2.164114, 1.9560033, 0.2885999, 1.3791761, -0.85253906, -1.2694285, -1.2194182, 0.88399464, -1.302214, 3.3878496, 0.6204256, -0.97419816, 0.49578536, -1.9218621, -0.56902754, 2.200555, -0.2030993, 2.22132, -0.7013068, -0.3801912, 0.39005962, 0.117650084, 1.0604441, -1.0061164, -0.57432157, 1.2171566, 1.1629574, -0.14941406, 0.62323964, 1.1380295, -1.5494192, 0.35289884, 2.0565379, 2.1210423, -1.7544717, 1.9606805, 1.998715, 0.693732, -1.2548828, -1.0132029, 0.23357832, 0.3696546, 0.5295796, 0.7422421, 0.24222605, 0.45975533, -0.033614308, 0.761012, -0.07925576, 0.5479929, 0.25724712, -1.5622944, -1.4398643, -0.07475843, 1.1072934, 1.3089279, -0.2671541, 1.4570312, 0.8175884, 2.2538035, -0.4477507, 2.583316, -0.9713456, -1.3198885, 0.4595883, -1.8662238, 0.9577508, -1.8695518, -1.3302066, -2.186729, -1.2614617, -0.95471835, 1.1912521, 1.4710886, -0.0885845, 1.1380295, 1.3021305, -0.10022615, -1.0614688, -1.1255397, 2.1461246, 1.5904862, -2.7623355, -1.5396279, -0.4163754, -0.5886616, -1.6185945, -0.5939042, -1.6789422, -1.4996402, 0.14517373, 2.1879113, -0.28248355, -1.6073925, 0.96756786, 1.015882, 2.1788137, -0.72723067, -0.25167045, 1.3747944, -0.3328022, -0.13856907, -0.98869246, 0.7036133, -2.025699, 1.1661184, 0.578896, -0.65434825, 0.21061626, 0.016357422, -0.2655495, -1.2829461, -0.060958058, 0.49676192, 0.27400288, 0.63990545, 0.5503958, -0.22288755, 0.1642199, -0.1638312, -0.45278448, 0.003572163, -0.5124126, 0.9566024, 0.8207301, -1.1858553, 0.5914371, 2.3794203, 0.390882, 0.15169264, 2.0634766, 1.0280955, -0.04764597, -0.13049959, 2.0564382, 1.3603002, -1.3857422, -1.5659035, -2.2833831, 0.66218644, 0.28991055, -2.5695415, -2.223864, 1.8774672, -0.13219573, -0.7635177, -1.2331928, -0.43814248, 0.4479338, 0.7107833, -1.5299137, -1.6244603, -2.7653167, 0.9957918, 1.8485172, 1.9958094, -0.19716282, -0.66169816, 2.5195827, -1.2688631, -0.38867188, 1.1021471, -0.3332391, -0.41180098, -1.94104, 0.6632915, -0.008429277, 0.25151625, 1.2618215, 0.18251438, 1.0840358, -0.03334447, -0.2721911, 0.1591283, 0.19886538, -1.1507504, -0.83295643, 0.16698577, 0.43531558, 0.64455694, -2.3219829, 0.29628393, -0.39771792, 0.6073705, -2.4547698, -0.5915656, -0.68927324, -1.770662, -2.7882402, 0.43110093, 0.7681435, -0.50330234, 0.7643914, -1.1475605, 0.45721114, -0.60053456, -0.38189697, -1.5545847, 2.139263, 0.5514623, 0.4685444, 0.94680303, -0.27513364, -1.2107834, 1.3181537, -0.36865234, -0.12432861, 0.9152703, -0.2811472, -1.3288445, 0.6248715, -0.71875, -0.5662906, -2.5181434, 2.8744347, -0.9787469, -0.5864001, -0.11754729, -0.4610146, -0.94130343, 0.40774053, 1.5522718, -2.5832648, 0.6963919, 0.9789991, -1.7747642, 0.3881579, 1.2077508, 1.0450375, -0.2368935, -2.609041, 0.3041707, -1.217722, -1.4119552, -0.93086964, 1.5957031, 0.09887695, 0.6146433, 1.2233871, -1.8852025, -0.56640625, -0.7402087, 1.4654348, -0.5060007, -0.27654707, -0.07082648, 0.71438116, -2.5042145, -0.8469367, -0.1330438, 1.2237549, -0.46294203, 0.2760331, -0.2902832, -1.0374691, 0.5185033, 1.110403, 0.16091076, 0.777575, -0.70521945, 0.63918585, 0.86375666, -0.21582031, 1.7328844, 0.13395771, 0.71772206, 0.83711964, -0.8959704, -2.7420847, -0.8322625, -0.034282483, 0.56383634, 0.865183, -0.036543995, 3.4856086, 0.0912829, 1.1660156, -1.4721422, -0.5377872, -1.0042531, -1.5043688, 0.9668997, 0.4089227, -1.8757709, -2.915296, -0.39795566, -0.29800576, 0.59272206, 1.250681, -0.67537004, -0.7294986, 1.5941226, -0.5952791, -0.1770405, -0.2864155, -2.5889442, 1.8914474, 0.1251028, 1.3635383, -1.5932617, -0.3510999, -2.2902446, 0.19335938, 1.680407, -0.963758, -1.7593545, 0.5696455, -0.6546695, 0.14671567, 2.03603, 0.8771073, 1.4189196, -0.25287828, 0.61600536, 0.35611123, 0.32020327, -1.4417146, 0.12695312, -1.4449013, -1.0457699, 1.2549503, -1.2039891, -2.2689145, 0.8020212, -2.432052, 0.38349995, -1.4693668, 1.2158203, -2.1671464, -0.31928453, 0.100932874, -0.16997327, -1.5283717, -0.6066252, -0.3085809, -0.41200015, 0.8149157, 0.8518709, 0.6901727, -0.18870786, 1.2540604, -1.8283178, -1.4477025, 0.002158717, -0.50118214, 1.8633584, 1.1012541, -0.97938937, -1.1613384, 0.32365337, -1.0982217, -2.6882195, -0.15054482, 0.9903757, -0.70703125, -1.220626, 0.17499743, 1.029451, 1.2403629, 0.090266176, 0.98108554, -1.7186986, 0.83434415, -0.27266812, -0.8005757, -0.45983243, 1.5470035, 0.9479852, -0.62983143, -2.2220395, -1.0433029, 0.3255808, 0.63163036, 0.28266343, 1.807977, 0.3384046, -2.2251747, 0.24527138, -1.4210526, -0.10950349, 0.9422286, 0.1757941, 0.27662417, 0.9589073, -0.75022966, -0.5738333, -1.104852, 0.80119246, 1.225194, 0.4446186, 1.2156662, -0.31743422, -1.8134252, -0.6833625, 0.06067537, -0.6305931, -1.2053351, 0.19874331, 0.20379317, -5.15625, 0.29363692, 1.1696392, -0.9540502, -0.6989875, -1.0180922, 0.43202</t>
-  </si>
-  <si>
-    <t>[0.41283673, -0.4534565, -0.4779369, -0.6859096, -0.7611834, -0.79558647, -0.5628434, -0.17905985, 2.4658222, -0.5177955, -0.23420793, -0.19029562, 0.7891991, 0.16860564, -1.4218187, 0.6783043, 1.1616331, -0.07224301, -0.54247034, -0.98083705, 0.3490371, 1.8122065, 1.8756055, -0.45061436, -0.24479228, 2.8375916, 0.3840586, -0.48637795, -1.9838248, 0.15842097, 0.86028326, 4.2794924, 0.9205311, 0.6682586, 1.3104756, -1.5834934, 0.74681556, -0.2506812, 2.9483843, 0.40733826, -0.2826087, 0.83394283, -0.2705115, -0.57516026, -1.0142487, 0.484585, -0.7279249, 1.6102186, -0.9551261, -0.11205455, 2.865838, 0.0092671905, -0.02967347, 1.9320579, -2.7977066, -0.68975955, -1.4455968, 0.87671685, 0.2845803, -0.3267617, -0.2612517, 0.5670118, 0.05166551, 0.08496832, 0.39339453, 1.0940472, -1.339733, 0.42136133, 0.20579717, 1.1218783, 0.33796817, -0.24895051, -0.74891084, -0.44248348, 3.2266953, 0.98025274, -1.4261892, -2.6157808, -1.7212274, 1.5994967, -1.0484109, -0.9942998, -1.7421967, 1.765649, 0.21937212, -0.43940422, -1.4912018, -0.62824535, 0.35410082, -0.010226215, -0.8369233, -0.40958726, 1.1681976, -1.2844073, -0.51460785, 0.34516615, -0.12669098, -0.5500064, 0.8410011, -0.4279079, -0.7025366, -0.030522656, 1.8695394, 1.2018342, -0.7236416, -0.3299766, -1.2606655, -0.6582862, -0.36740902, 0.44294816, 2.1251247, -1.4362631, 1.3907875, 0.73652565, 0.7245226, 3.0357156, -1.2079422, -1.2453811, -1.0183046, -2.1056275, -0.12872857, -1.5679089, 1.7249538, 0.85144806, 0.44688165, -0.35392085, -0.5368651, -1.4733725, -1.6373981, 0.25952563, -2.700149, -0.10152327, 1.0027487, -0.5605967, 4.6361575, -0.8017846, -0.5425626, -1.9873453, 0.99113524, -0.72504133, 0.5505468, 0.52373654, 0.44314525, 2.4180546, 0.29203373, -0.82323664, 0.69884586, -2.6537025, -0.5030054, 0.299753, -0.66625375, -1.7882465, -0.71810573, 3.4977071, -0.24666695, 0.63320386, 0.61232626, -0.9644339, -1.2592236, 0.6213194, -1.1665463, 0.6354054, 0.4253899, -1.081086, 1.780471, -1.385553, 1.1248505, 1.0982918, -1.0888672, -3.5720625, -0.27906057, -0.91373485, 0.03445844, -0.29173744, 0.7988858, 1.5604287, 0.03987661, -1.3521827, 0.014203538, -1.1668371, -0.46696302, -1.1809539, 1.2474986, 0.25127378, -1.7852263, -0.37988362, 0.6091701, -0.9592982, -0.23508711, 0.58781034, 0.15615354, -1.9414136, -1.9994056, 1.6924087, -0.21973787, -0.19532911, 1.5901899, -0.28946126, 4.750576, -0.0029204572, 1.6191978, 0.82268655, -1.1678247, -1.3438834, -0.26235196, -0.18971527, 1.0103666, -1.1192551, 0.50607353, -1.4130822, -0.26027697, -1.3314978, 1.4463463, 1.8715433, 0.024917113, -0.086473085, 0.78330463, -0.38380936, -0.604926, -1.3703313, 0.7500406, -3.209339, -1.0613592, 0.6833321, -3.9233665, 2.2788584, -0.28346664, -1.4042268, -0.16718602, -0.62539506, -0.06140898, 0.36730933, 2.438903, 1.6234198, -0.47013086, 3.1659825, -1.8965877, 1.019966, -0.16049223, -0.12529907, 0.02329443, 1.262628, -1.6648452, -0.46498868, 0.29196543, -0.415969, -0.46313432, -1.2213492, 0.48805234, 1.0094149, 1.8214109, 0.016069898, -0.8397219, -0.15683982, 0.7681002, -0.11415259, 0.12076146, -0.9759607, 0.37013748, 1.1688936, -2.0399034, 0.29368547, -0.0054740114, -0.15466309, 0.6137132, 0.6560654, -1.4384433, -0.22765721, 0.50743866, 1.7114359, -0.47227228, 2.7664926, 4.565605, 1.1776947, -1.0987657, 0.66429317, -0.5663804, 0.18114772, -2.048003, 1.2005285, -2.3023062, -1.8277465, -0.3373248, 0.44074768, 0.6958849, -0.29468858, -1.6850964, -0.19817758, -0.18905807, 0.5252245, -1.3981652, -0.592635, -0.18423249, 0.0050526494, -2.1118574, -1.3029023, -2.3714936, -1.504928, -0.53961885, -1.1897633, -0.8472335, 0.52128637, -2.0944524, -1.2677019, -0.1582345, 1.2010851, 2.0596285, 0.0318412, -0.670532, 0.7422207, 1.2797953, -0.9394933, -2.0434477, -1.2081279, 1.0197204, 0.49273622, -0.03781826, -0.64821, -0.51966417, -1.4675574, 0.04113008, -2.3193526, 0.7996016, 0.9814564, -1.3744323, -0.2318496, -0.88907707, 3.5495334, 0.90985256, -0.4300973, 2.208568, 0.41152897, -2.379498, -0.4384424, 0.08911456, -1.0941727, -1.001583, 0.5451766, -0.49250364, -1.1996839, -1.3123745, 0.7027715, -2.0085583, -0.121922515, -0.80057263, -1.164445, 1.1267575, 0.2891451, 0.65241575, 1.0064759, 0.045296624, -0.7262062, -0.45061806, 2.1461096, 0.90261143, 1.3454498, 2.6399908, -2.7576132, -1.9041566, -0.50956625, -0.4868404, -0.6200886, -0.30448812, -1.0052105, -1.139546, 1.2807719, 0.8106821, -2.6519525, -0.2200367, -2.032353, -0.04023659, 1.0186719, -0.65187484, -1.5318297, 0.025630265, 0.4595862, -0.38974997, 0.9564405, 0.57709306, -1.4515023, 2.004844, 0.5729856, -1.7160879, 0.23421635, -0.24164476, 0.38720518, -1.4785894, -0.41270012, -0.23626351, 1.3303608, 0.71548015, -2.067882, -0.035568845, 0.052804526, 1.24266, -0.0677391, 0.9167356, 1.345345, -1.1738005, -1.1352384, -0.13912542, -1.2119907, -0.72466755, -1.3727976, -1.1794916, -0.0692344, -0.58019257, -0.06732928, 1.262939, 0.3962887, 1.1017674, -0.6957126, 1.4238982, 0.4554399, 0.037722263, -0.37311703, -1.5864729, -0.6048134, 0.14214246, -0.08251492, 1.003944, -0.37427357, -0.06870136, 1.4004372, -0.17230882, -0.3019932, -1.0504774, 0.16880086, -2.244218, 1.1353084, -1.1817348, 0.034718275, 0.5270484, 1.1410053, 1.0772444, -1.4615245, 1.200223, -0.7420897, 2.4502635, -0.057253513, -1.5556031, -0.3135707, 0.70892805, 1.0872334, -1.5803623, 3.4459991, 0.10550936, 0.88586587, 0.906154, 1.6761827, -1.5619314, 0.528025, 0.1216771, -1.5188556, 1.1558752, -1.0110209, 0.0789653, -1.0453502, 0.7899523, -1.2980767, -0.58308905, 2.525374, -1.25741, -0.3708953, 1.3936876, -0.090237886, 1.8319247, -0.75603753, -1.2341821, -1.9612808, -1.5365925, 0.6190483, -0.74667805, -0.79278046, -1.1891781, -0.4099571, -1.4308579, -0.1242542, -0.18689449, 1.8360541, -1.4786394, -1.3851163, 0.15232344, -0.47758153, 0.35523662, -1.8274567, 0.6521958, 2.3129911, 0.4523718, -0.6319532, -0.85584533, 1.0092261, -1.7466476, -0.35038796, 0.018008256, -2.0410376, 2.6026065, 0.98925227, -1.2689694, 0.66852164, 1.3173274, 1.258359, -2.290591, 0.025158022, -0.7252534, -2.5840259, -0.61255944, -0.9929001, -1.0465391, -0.21656796, -0.9008346, -1.441408, -0.38975182, 0.79379576, -1.5833789, 1.0561035, -2.291394, -0.26122123, 1.1988459, -1.3676269, 2.272759, -1.1304404, 0.18596327, -1.760936, -0.45319793, 3.2838492, 0.05600835, 2.9907806, 1.7104595, 0.6745481, 3.4470737, -0.50468296, 0.37395513, -1.1246321, -2.6980004, 1.3123947, 1.8215623, -0.66658974, -0.18802151, -1.1291038, 0.35977006, -0.42682981, -1.1551166, 0.018101482, 0.746522, -0.5763537, 0.9714739, 0.49402732, -3.0087264, -1.608727, -1.9310555, 2.084912, 0.8649875, -1.2482268, 2.4589105, -0.58002967, 0.074954405, 0.866171, -0.23133212, 0.746522, 0.552463, -0.005333711, -2.0054312, -1.5256099, 0.4907365, -0.64405495, 1.0695574, -1.5823777, 1.2485223, 0.2559037, -1.0526273, -1.7408214, 0.6669308, 0.2203773, -1.4107506, -0.66865, 0.52623427, -0.15267281, -1.5510693, -0.59983146, 0.6555134, 0.85088456, -0.13946198, -0.47669864, 1.1974945, 0.29537174, -0.6550317, -1.1744927, 0.61218214, -0.71794695, -0.02298337, -0.22766459, -0.96508557, 1.3193914, -0.20792474, 0.3115234, 1.5294989, -0.020806873, -0.43597332, -0.72682697, 0.723295, 1.1012579, -0.112024084, -0.30715752, 1.9090971, 1.4319397, -0.6674574, 0.61590356, -0.08197402, 0.8462696, -0.9508622, 0.34368768, -0.37434927, -0.7188072, 0.51218396, -1.1790118, 0.6062967, -0.5755101, -0.91307116, 0.48339358, 1.178866, 2.6264584, -2.5747762, 1.277713, 0.9268621, -0.71297646, 0.08462311, 0.16128235, -1.2449796, 1.6981702, 0.83318317, 2.8511295, 0.6054503, -0.13939922, 1.9830754, 3.1964424, -0.33047134, 2.7270315, -1.041839, -0.085628286, -0.63971215, -0.108921796, -0.66949403, 1.4022473, 1.4727172, -1.1398395, 0.8202825, -0.9332333, 2.4685433, 0.45705616, -2.4305367, 0.9257628, 0.42603508, 0.4714988, -2.0015507, -1.1215118, -1.2401757, -0.5965154, 0.7778551, 0.67797434, 0.036585096, 1.3437002, -2.0898068, -1.0351545, 2.1144073, 0.13272758, -0.08608103, -0.2731052, 0.3255839, -0.073527865, -0.46548617, 0.74447846, -0.09974229, -2.1169863, 0.6097516, -0.89418095, 3.0910106, -1.1769161, 0.05340634, 0.20806135, -0.7709389, -1.6575515, -0.31993988, 2.168637, -1.0018442, 0.3550437, 0.5153069, -0.6064859, -0.5159536, 5.6239257, 1.3828532, 0.8831263, -1.2356949, 1.9689242, -0.9733338, -0.52118534, -1.3163971, 1.9377824, -1.127806, -2.916575, 0.5309399, 0.21689472, 0.3060462, -0.8414055, -0.75017077, 0.8637631, 0.74442863, 1.813316, 0.726053, 1.3828162, -1.9901137, 2.3902917, 2.4584227, -0.51217103, 1.2283347, -1.032917, -0.40557805, 0.8468697, 0.910471, -2.1587975, 1.9267449, -0.67050266, 0.76002777, -1.021621, 1.5246965, 1.7663994, -1.1767952, 0.436259, -0.42521083, -0.91944516, -1.0110514, 0.5938552, 1.0736705, 1.2336153, 0.022117572, -2.1135802, -0.2185894, 0.5941432, -1.9322332, -0.10753541, 0.8528566, 0.731473, 0.84978384, -0.6527314, 0.5035463, -0.75593346, -0.87661713, 0.1626078, -0.88789284, 0.49192905, 0.41957667, -1.3339363, 0.4766788, 1.0034212, -1.0527492, -2.7000883, 0.26575053, 0.62182385, -1.2698128, 0.30086157, -0.6512435, -1.6223048, 1.3818488, 0.15120289, 0.4014207, 0.112496674, -0.11422551, -0.9010857, 1.0243125, -0.5195557, -1.0217613, -4.6276197, 0.6942399, 0.71303093, -0.748957, 1.0422635, 0.0020694265, 1.0095311, 2.0461845, 2.245529, 1.087519, 1.0543324, 0.07473149, -0.6937009, 1.0849664, 0.31722036, -1.4707133, -1.1004143, -0.52391934, 0.47500813, -0.35552412, 0.24046144, -0.010315749, 0.53289485, -1.0687083, 0.14496876, 2.038228, -0.22301161, -0.25754622, 1.8047558, -0.6449522, 1.9710022, 0.99049836, -0.33688453, -0.3450367, 0.6700421, -0.2677272, -1.8676435, -0.11519007, -2.0526752, 0.372278, -1.8217155, -0.6487984, -0.23418301, 0.8044032, -1.818603, 1.0751575, -1.3456273, 0.35430944, 0.80420196, 1.1690506, 1.6491926, 0.38644922, 1.1214491, -0.13437241, 0.37820292, 0.70236075, 2.780593, 0.46202806, 1.5118701, 0.013611647, -1.1954343, 1.3700913, -0.8565838, 0.018604532, -2.0061297, -0.19953811, 0.9733688, -1.5262804, 0.53550607, 1.4672289, -0.022210335, 1.3147688, 1.1486259, 0.421539, -0.6663811, 0.7706093, 3.8819578, -1.2750651, 0.012481171, 0.573329, 0.82589036, 0.60786945, 1.1523899, 0.34497207, 0.66387975, -0.50456434, 1.1789306, 0.69256926, -0.22631697, 0.30502626, -0.83116543, -0.09336602, -2.8087673, -1.2100302, 0.85631335, -1.4369195, -1.4186997, 0.10646193, 1.8253024, 1.7594204, 1.1966301, 1.1434883, 0.5387302, 1.2171836, 0.7708002, 0.78839606, -0.7159523, -1.1998575, 1.350813, -0.45655406, 1.8378242, 0.9553864, 1.2557689, -0.9642419, -1.2617654, -0.16480877, 1.3651698, 1.9947184, 0.70483077, 1.7545892, -1.1077745, -0.76755893, -0.978667, -1.039609, -0.23954014, 2.5769951, -0.4441181, 1.3465633, -0.6528773, -0.568544, 0.8532203, -0.9806367, -0.04105664, 0.59259343, -0.4445704, -0.44765064, -0.4807092, 1.0935386, 0.47343528, -1.7575854, -0.89766264, -0.35600412, -0.63254577, -3.5520625, -2.8939571, -0.22263594, 0.28868106, 0.6940318, 0.49390063, 0.15900432, 0.0992284, -0.3932741, 2.3564332, 0.6545959, 0.620461, -1.2857212, -0.7739498, 1.4723701, 0.849338, 0.86608773, 0.14023687, 0.14765339, 0.5375275, 0.56110066, -3.6452124, 1.010613, -0.04762265, -0.7541144, 1.5094444, 0.71032643, 0.30816916, 0.80542594, 0.8711824, 0.15376706, 2.9163766, 0.24223919, 0.32009652, -1.1892284, -0.70824206, -0.46805865, 0.54000217, 1.5184144, -0.96602523, 0.6032166, -0.26328698, 0.46751314, 1.7282928, -0.19291079, 0.5471925, -0.3589061, -0.67792267, -2.0715752, 1.2727345, 1.1871326, 2.2782483, 0.2706352, 0.8542436, -0.49619344, 1.1363643, -2.1335938, -0.033605564, -0.19129272, 0.64864427, 0.73687315, 1.0436001, 0.3668349, -0.61467505, 0.8018187, 0.71776634, -0.87952834, 0.30092248, -1.3999236, -0.7534069, -2.3140137, -0.43742985, 0.46920043, 0.27263492, -0.823628, 1.572849, -0.23286124, 0.81062764, 1.7479472, -0.29816908, 0.28248316, 1.6335989, 0.67859924, -0.44003788, -2.6486259, -1.6122936, -0.7662305, 0.9976089, 0.90709364, 0.45327154, -2.0481565, -1.9187773, 0.017098151, 1.7771864, 0.051907342, 1.1899266, -0.39489332, 2.324791, -0.072564915, 0.22074375, 0.0081004845, 0.89209443, -1.2837846, -1.2411574, -1.9861989, 1.2519494, -2.679418, 0.40811452, 1.509671, 0.65398026, 1.1949303, 0.7821352, -0.1612768, 1.6789075, 1.804742, 0.9014687, -1.3323193, 1.4287183, 1.0597531, 0.03523563, 1.9948938, -4.5170097, 2.5790918, 2.5322764, -1.2869568, 0.6190289, -1.5713325, 1.4081546, -2.5652635, 0.27533156, 0.09345925, 1.0327703, 0.3201482, 1.7162181, 0.7534558, 0.1056552, -0.7666034, 1.104669, 2.5541475, -0.22938788, 0.986509, 0.046090428, -0.4716536, 0.38779092, -0.10108806, -0.96206635, -1.8794296, -1.0276594, 0.14795476, -2.7182148, 0.58007723, -1.6703243, -0.14911132, 0.06989714, 0.27740744, 0.71401674, -0.067913555, -1.3242395, -0.5867147, 0.70918006, -0.062669836, 0.4103668, -0.43940696, 0.88672614, -2.6623323, -2.5194616, 0.106135175, -0.04219341, -0.6402309, 0.43642744, 2.9158125, -0.4342657, -1.5406299, 0.6999018, 0.76339126, -2.363763, 1.6095817, 0.1703354, 0.03235486, 0.5058072, 1.025482, 2.4250207, 0.24063128, 0.6368803, -0.52885383, -0.060473032, 0.3789501, 1.53059, 1.1836547, 1.6842436, 1.7321745, -0.60875654, 0.19808988, -1.7491544, -0.21438085, 0.6459195, 1.4566888, -1.4996259, 1.608068, 0.59768414, 1.3240725, -1.2206993, 0.6939114, 1.000743, 0.18742616, 1.121474, 1.733865, 2.681744, 0.16487384, -1.7585952, -1.5483869, -0.40186748, 0.90026504, 0.6919199, 1.8928883, 0.9411884, 0.053296037, 0.54669315, 1.6954445, -1.0587913, 1.5403049, -0.27199295, 2.1503353, 0.6879256, -0.76886666, 1.8330734, -0.9537612, -0.046334106, -0.14855473, -1.236869, -1.1692148, 2.538361, -1.6997625, -0.02569707, 0.15892562, -0.89035547, 0.26777196, -2.0575082, -0.5948945, 0.2444803, 0.034923647, -1.2220886, 1.4251297, -1.0747375, 0.792187, -2.3383152, 1.2270457, 0.30424538, -0.55351156, -1.7700962, -0.21677841, -0.37250045, 0.12020211, -1.219385, 0.5498804, 0.53538334, 0.27273968, -1.2569486, -3.2194479, -0.8917843, -0.18285532, 0.9001396, 0.19107673, -0.07105277, 0.8328823, 0.7072611, 0.1354025, -1.327312, -0.13661352, -2.7002125, -0.56443095, 1.3073864, 1.0684664, -2.3162806, -0.49362004, -0.17735408, 0.13409366, -2.6066418, 0.659152, -0.7260433, -0.26268238, 0.17781745, 0.3892663, 2.283277, 2.046214, -0.24416295, -2.4971902, -1.7625015, -0.3134625, 2.4843123, 1.4470769, 1.0339859, -1.3473766, -1.2172198, 0.64569056, -0.027000384, -1.943856, -0.60757697, 2.1836934, -1.3711584, -0.36076692, 0.6713316, 0.9205763, 1.6045161, 0.19845887, 1.4671661, 0.47519088, 0.2345333, -1.0234782, 0.2133429, 0.103726074, 0.21934962, 0.0060033672, 2.4357057, 0.2627507, -0.31447527, 0.18685296, 0.88335246, 0.2800833, -0.87976, -0.11159834, 0.7275529, -0.4832369, -0.061113615, -0.08622456, 0.6210753, 0.15895262, -0.3329866, -1.5600845, -1.1179739, -0.20618945, -1.215728, 2.558985, 0.4334126, 0.5858646, -0.6704923, 0.1699814, 1.618609, -0.71720576, -2.158072, 0.3477541, -1.4768947, 0.23127824, 0.3631871, -0.93136185, -1.233607, 0.94543433, -1.6418877, 1.4508747, 0.8599219, -1.5520539, 0.9147958, -0.09397891, 1.705691, -2.1174402, 0.86482453, -0.7809749, -0.4263406, 2.0626016, 1.4213803, -0.54559016, 2.0589998, -0.7751691, 0.15824558, -0.87955606, 0.8116739, 3.5698178, 2.4983847, 0.5490706, -0.558027, 0.6420056, -0.27140313, 0.8902313, 1.838804, 1.5849775, -0.2336075, -0.42201346, 0.539632, -1.5107661, -1.6971586, 1.8880738, -2.8924599, 0.742865, 0.69515926, -1.5733567, -1.7023921, -1.688927, -0.4298269, -0.17237528, 0.27283844, -0.3727843, -0.7472992, -0.69843423, 0.86305237, 0.2836757, 0.39538777, -1.2896107, 1.4096781, 1.1521726, 2.8470037, 0.60852677, -0.9964963, -0.03361664, 1.3889737, 1.1511632, 1.0067565, -1.6076508, -0.70388186, 0.6775705, 0.49141955, -1.2392015, -1.658085, -1.0104376, 0.25827032, -0.94951963, 1.9670821, -0.017581817, -0.547774, -0.8385192, -2.1655645, -1.2676704, -2.5435991, 0.71742636, -0.76100755, 1.3605288, -1.246331, 2.9629903, 0.14658868, -0.16249152, -2.6297832, 0.94958794, 0.5718973, 0.64111906, 1.3600544, 0.25088796, -0.5297012, -1.8358756, 1.1810037, 0.47060898, 0.5045099, -1.6930455, -2.2575328, -0.47129202, 0.18062529, -0.41990343, 1.8025184, 0.5949596, 1.2524128, -0.026125355, -0.74204165, 2.9097133, 0.37407696, -0.70765847, -0.4516411, -0.7861014, 0.63985336, -1.3383318, 1.9610218, -0.5566425, -2.3182898, 2.170672, -1.0056586, 0.3156607, -0.112548254, -0.6010668, 0.19831602, 0.7884275, 0.2929946, -1.3020513, -1.1917132, 2.2228186, -0.12235553, -1.0449699, -0.37311888, 0.8724093, -1.1127653, 0.7808411, -0.65454423, 0.27177197, -2.2647038, -0.6436673, -0.6793515, -0.90869695, -0.6254209, 0.38297126, -0.129161, 2.1728275, -0.4520432, -0.043561794, 0.43297845, -0.48912212, 1.7883389, 0.4288531, 0.7821232, -1.7493095, 0.90602016, -1.0095875, 0.95702666, -0.6843405, 0.11935915, -1.43184, 0.71154857, -0.65063614, 0.26601452, 0.44497374, 1.6848307, -1.2128721, -1.3583565, -0.5815785, -0.97816455, 0.32166934, -3.1271415, 2.0857432, -0.892604, -1.6549208, 0.08174696, 0.069399625, -0.35517523, 0.18246478, 0.8997334, 0.7992444, 1.0045006, -0.70028806, 0.07964984, 0.17731717, 0.8378694, 0.1072225, 2.1354043, -1.4598721, 1.3565294, -0.16521074, 2.584159, 0.37302104, -0.79492927, 0.38823068, -0.0086912215, -0.8508813, -0.89122313, 1.6177431, 0.91672915, 2.0853236, -0.8319168, 1.4653606, -0.1943507, -0.9612855, 0.81837416, 2.4792874, -0.56812215, 1.2255425, 1.8602717, 1.6224543, -0.64197445, 1.0347704, -0.56358546, -0.6240163, 1.3829787, 1.094075, 1.0787194, 0.63141686, 0.91095006, 1.0887398, 3.9434, 2.4598253, 0.1848786, 0.11837636, 1.9201729, -1.8208889, 0.55332327, 0.23665673, 2.148585, 0.83349335, 1.5906745, -0.39142433, 0.40637738, 1.3550569, 0.7451707, -1.102347, -1.3000705, -1.1565657, 1.4402802, -0.40416026, 0.020136755, -0.62733155, -0.3538486, 0.47830424, 1.8994735, -1.2511228, -1.2400193, -0.7823332, -0.03038974, -1.0268195, 0.8650387, -0.049377326, -1.8161404, 0.58471864, 1.4646481, 1.5223926, 0.36319265, -0.30518594, 0.4626077, -2.0391715, -2.2348466, -1.4459771, -0.88603157, -0.9053648, -1.2533349, 2.9585524, 1.3054285, -1.3646575, 2.1599865, -0.17632952, 1.6949911, -0.11434556, 1.368392, 2.831938, 1.3943485, -0.5135205, 0.19603938, -2.256017, 1.2938621, -0.21131964, 2.0811949, -1.674207, -0.04718329, 0.21110827, -0.49983016, 0.06946767, -0.3916979, 0.91339654, 0.111860715, 0.515697, 0.77466327, 0.9607391, -0.58721036, -0.4950332, -0.12726326, 0.153636, -0.3020218, -0.8858857, 0.031044165, -1.3474126, 1.6542101, -1.3161718, 0.24252717, -0.58353025, -2.7365348, -0.10208309, 0.016261889, 1.9279227, -0.164851, 1.1211606, 0.88148516, 1.1900179, 1.004077, -0.71711427, 1.0600882, 0.56111544, -0.30678093, -0.053122047, 0.24901052, 0.38807374, 0.8666309, 0.7107529, 1.755085, -0.432958, 1.4257379, -1.6719179, -0.3356366, 0.31780556, 0.9607289, 0.072560996, 1.4643915, 0.004522832, 3.1478984, 0.50106335, -0.18082282, 0.16478777, -0.14737555, -0.1002555, 0.65719885, -1.1327903, -0.8326908, -1.4447172, -0.14492077, 1.324839, 0.7166215, -0.18521275, -0.7905393, 1.5034263, 0.5017727, -3.4442234, 2.4934871, 0.47442663, -0.22771375, -0.34099936, 3.389307, 1.6833888, 0.85932195, -0.42126212, 0.4476173, 0.893041, 0.445084, 2.029476, -0.15781222, -0.6963629, -0.5553569, -0.32283422, -0.038270082, -0.56210124, -0.6424932, -1.3484353, -2.4595122, -0.3159181, -0.27806416, 0.7325031, 1.5907086, 0.9493561, -0.87789786, -1.4062703, -0.36275512, 0.27068228, 1.6233983, 0.9541388, 0.66210663, -0.4246106, -0.014879194, 2.3477228, 0.38337046, 1.2180891, -0.7168356, -2.665329, 0.43694064, 0.30113015, -1.0713001, -0.94217604, -0.016594179, -1.479794, 0.30709937, 1.4952275, 0.64555764, 1.543637, 0.6461046, -0.60977364, 1.3526, -1.689789, 0.6828184, 0.7533811, 0.057113215, 0.12890995, -0.3064177, -1.1845334, 0.4013842, 0.83589643, -1.1448525, 1.3936526, 1.0884519, -0.90684074, 0.46612862, -1.3187064, 0.1982662, 0.651755, 0.36981258, -0.13325971, -0.89073575, 1.1681981, -0.11654692, 1.0185565, 0.3187092, 0.07499225, -2.2864907, -1.836063, -1.1405512, -0.6722645, -1.2110039, -0.07461196, 1.8282745, 0.34241807, 1.0579264, -0.055433307, 0.6664167, -1.6405641, -1.2984922, -2.2324145, 1.2131971, -0.32542238, -1.3147964, -0.5388013, -0.32164165, 1.3982245, 1.1265701, -0.30706292, -0.9126115, 1.7919258, 0.15238437, -0.3321051, 2.8758936, -3.7648644, 0.08645809, -0.31873873, 0.5260054, 1.2372807, 3.6186128, 0.27266678, 0.19891138, 1.0229825, -1.0981694, 0.8246064, 0.077569336, -0.33311304, 2.2765684, -0.6675806, -0.42344046, 1.5459722, -0.22019823, -0.9380317, 1.34526, -0.4778123, 1.36217, -0.72693056, 0.23665765, 1.5576684, 1.4752961, -2.0985293, 0.60760397, -0.610418, -1.7661391, -0.9206289, -0.6963133, 0.0953496, -0.504497, 1.3403306, 1.980345, -0.7869984, 1.0950459, 0.028432922, 1.2231511, 1.0775509, -0.16061777, -0.9220797, 0.9287331, -2.274475, -0.3762498, -0.46643505, -0.2540207, -1.2345772, -2.0117815, -1.1877382, 1.1021403, 0.24664664, -0.07414491, 0.30419275, -0.11824068, -0.06806839, -1.3405951, 0.45257533, -0.79317415, -0.39788553, 1.0032601, -0.20708063, -2.4207065, 1.1175623, -1.1829042, 0.24909912, 0.44667488, -2.157173, 0.04590767, 1.5220013, 1.593127, -0.6168054, -1.7208767, -0.07153459, 1.3843365, 1.7278589, -0.09262022, 0.75152296, 1.4758, 0.8399282, 1.0924684, 0.8261017, -0.105489634, 0.70518893, 2.264473, 1.6016437, -0.2914439, -0.7005922, -0.8809944, -0.0048096627, 0.32128838, -0.0868513, -1.2861042, 0.027584083, 0.06399069, -0.62116295, -1.0525334, -1.3454392, 0.070966005, -1.811865, -4.319707, -0.45757398, -0.3142676, -0.016388228, 1.2318293, -1.7647574, 1.8202701, -0.29107746, -3.3520129, 0.6520816, -0.2829945, -1.2987213, 0.893431, 0.86135215, -1.0941012, 1.862634, -0.4840934, 0.4320172, -0.6779764, -0.062148325, 0.36713028, -0.23561925, -0.25227803, 1.3484306, 0.89160895, -2.522975, 0.0910843, -1.5332751, -0.73541063, -1.5644568, -0.28982493, 2.7390563, -2.1648378, -3.1917164, 0.41401634, 0.7075814, 1.3175633, 0.790243, 1.6303664, -0.60664606, 0.23148224, 2.950666, -0.1625582, -1.6611522, -0.9695659, 0.96658087, 4.661286e-05, -0.43330762, 0.26375678, -0.5210866, 0.28372326, 0.7546631, -1.2820339, -1.7349442, 1.3719928, 0.26551056, -0.021545757, 1.5177517, -0.7047975, -0.3220358, -0.775902, 0.36974198, 3.3806314, 1.2436533, 0.7529426, 1.2831007, -1.1860583, -0.955296, 1.0149918, -1.6413653, 0.884917, -0.938172, 0.5061141, -0.22917098, 0.5470061, -2.0089219, -1.49169, -1.3970535, -0.049797013, -1.3665359, -3.3787513, -0.3552343, 0.008467849, 0.0848594, -0.8530303, -1.0620246, -0.41338637, -1.0348682, -0.87502956, 0.49234256, 0.48593676, 0.27688283, 0.36532113, 1.5015156, 1.0450068, -2.178522, 0.8595808, -1.7387927, 0.93533736, 0.5772998, 1.9110867, 0.36189532, -1.5078241, -0.014882887, 0.14210784, 0.4090523, -0.24116895, -0.42279804, 3.2773383, -1.5743304, -1.0891994, -1.0279744, -0.64981836, -1.6030707, 0.31005305, 0.2567861, -0.4361173, -3.1461263, 1.5208457, -0.6609122, -0.8065585, 0.5154621, 0.06950577, 0.47390488, 0.54287183, -0.7995684, -1.8389392, -2.0380914, 1.7900151, -0.21736546, 1.8988316, 2.583054, 0.3522197, 1.0438161, -2.8810716, -0.73241633, -0.23206374, 0.785801, 0.4367016, 0.8501327, -1.1630601, 2.2190824, -2.9949915, 0.50532585, -0.66656345, -0.5342443, -0.8683025, 1.5979627, 0.31978083, -0.7902218, -0.382063, 0.015399781, 0.24746998, -0.90848005, 0.53769827, -0.1337023, -0.61133957, 0.10545398, 1.1882551, 1.0933143, -1.426749, -0.65500945, 0.7347691, -0.22359589, -0.22006069, -1.2074342, 1.7957101, 0.15226252, -0.5298599, -1.5965929, 0.19507252, -0.1601424, 0.8673933, 1.763515, 0.09849066, 0.47482675, -1.3642615, 1.9968284, -0.944735, -0.06930086, -1.3808742, -0.59192795, 0.26104286, -0.29401731, 0.058415376, -1.4815727, -1.5046446, -1.2742498, 0.530135, 0.14303595, 0.1948076, -0.7538716, 0.54435974, -0.72941464, -0.042184178, -0.11956614, -2.047894, 0.038613908, -0.14737278, -1.5445241, -2.8207757, 0.036164194, 0.6107688, 0.87884533, -1.5093853, 0.4101581, -1.6134105, -3.2336016, 0.6513303, 0.59341216, -0.06496448, 0.6296022, -1.4903377, -0.39038315, -0.53662753, -0.24402247, 0.5711626, -0.0756319, 0.8181415, 1.1659344, -0.099620454, 0.7665964, -0.56260335, -0.9658388, 0.2053255, 0.42021447, 0.78349805, -0.3746797, -1.1414135, 0.053434953, -3.3854024, -0.9795162, 0.6123301, -1.0529393, 3.9075496, -0.84302545, -0.25370872, -0.09713566, 0.344086, -0.052036453, -1.7020541, -0.7322516, 0.9993742, -0.09344177, -2.3702705, -1.4061263, -6.3252892, -0.71831065, 0.28337204, 0.5011944, 0.33031073, 1.1222032, -1.627199, 1.8271115, -1.4663742, -0.40276465, -2.150879, -0.013188208, 1.2965354, 0.98962516, 0.03727921, 3.3088448, -1.1614374, -1.1637653, -2.5818117, -0.73531693, -2.029151, 3.8399158, 0.530351, 2.0645187, 0.4893501, 0.49291855, 1.4246755, -0.51455796, 1.9674938, 0.93991834, 2.0235777, -0.81903136, -1.1908442, -0.9960439, -1.2726917, -1.7220267, -1.8068547, -0.19068168, -0.18255073, -0.4446479, 0.14816429, -1.3762848, -0.99714786, -1.9238269, -3.1564014, 2.7177956, -0.2887265, 1.616006, 1.645912, 0.18000686, 0.794243, 0.748213, -2.2027526, -0.46648398, 0.17279987, 1.4323901, 0.8302835, -0.31967676, 0.2569744, -0.56571585, -0.4487983, 1.0017381, -0.74689865, 1.3637575, 0.70407015, 0.006755634, 1.4089822, 0.7844178, 0.87540984, -2.5159223, 0.08920132, 0.4114042, 2.0121226, -0.7263899, -1.8992096, -1.2182239, -2.467288, 0.27680746, -0.35274398, -0.06329472, 0.03742205, -1.6067559, 1.0491697, 0.8287905, 0.15388712, 0.28108293, 0.37108082, 0.65862495, 1.3741581, -1.3630117, -0.008672761, 1.4057775, 0.83552307, 2.055713, 1.4189638, -1.8203582, 0.004552369, 1.6032627, -1.0467583, -1.934321, 0.63576806, -0.6703972, -0.21709225, -0.97967774, -2.0004616, -1.5981436, -0.59323955, 1.7151409, -1.0507563, 1.4804392, -0.6487052, -1.1613644, 0.98199177, -1.2517112, -1.734027, -0.21558402, -0.47810373, 3.6196759, -1.6805146, 0.86760193, -0.6669986, 2.8353171, -3.105959, 0.8530968, -0.08196018, -0.6183099, -0.85766363, -1.4893376, -0.5582836, -0.80723876, -0.49112418, 1.0565132, -0.22151908, -3.2550378, -0.7381418, -1.1211686, 0.96022815, -1.6400048, -0.7517925, -2.259162, -0.41809058, 1.6974461, -0.8798865, 0.8577962, 0.793829, 3.6169457, -0.55473363, -0.98275137, -1.2737194, 0.43612283, -3.3315282, 1.4367468, 1.0407932, 1.9780264, -1.5202417, -0.4738262, -0.77468175, -1.8613725, -1.2653142, -1.6715171, -0.22917582, 0.30832237, 0.7979538, -1.0057107, -0.099773675, -0.38121012, -1.6702874, -0.033020366, 0.81534755, -0.7210797, 0.6872914, -0.45198414, 2.1133504, -1.9934613, -0.78873575, -1.1940438, 1.0659595, -2.6988916, -0.19221851, -0.20555072, 1.6763692, -1.9902972, -1.5818993, -0.68972266, -0.639606, -2.1201246, -0.54307026, 2.7088976, -0.1128262, 1.1036887, 1.1158472, 0.66828626, -0.39582488, -0.6232855, -1.6032017, 0.40189886, -0.45513028, -0.2957286, 1.0713685, 0.063962996, -0.22129017, -1.947897, -0.07237177, -0.8124169, 0.34860194, -0.15186839, 0.65582955, 1.6128954, 0.4808278, 0.6277566, -1.2024971, 0.98721886, 0.6983114, -0.09906294, 1.9437729, -0.3771885, 0.9096301, -0.37346408, -0.21770883, 0.69890493, -0.023125978, -0.079224326, 0.1271862, -0.50113535, -0.40052354, -1.7348512, 0.82320803, 0.25844294, -1.5282751, 2.2725363, -0.2040868, 0.8421421, 2.5247548, -0.063010894, 2.3039713, 0.3291574, 2.093449, 3.2951138, -0.50981915, -1.4898652, -0.6405604, 2.355816, 1.4041013, -0.37119436, 3.9220264, 0.6330045, 0.751979, 1.965021, 2.3090258, 0.19294631, 0.01114832, 3.3335745, 0.9911283, 0.7222815, 1.1980548, -0.73579645, 1.2549733, 1.6924548, -1.0654647, 1.202872, -1.7934856, 0.4211015, -0.1665076, 0.50011814, -3.1450038, -0.4686743, 0.24721707, 0.71293306, -2.4761121, -1.0880411, -0.58925855, 0.24559347, -0.7426166, 0.31485835, -4.8541765, -1.4544911, -0.38239992, 2.4643192, -0.08976991, 0.6142154, -0.6111481, -0.4265087, -2.2217286, -0.49978495, 1.9144557, -0.21509482, -0.73186624, 1.7185285, -0.037580118, -0.23947658, -1.4227085, -0.21941088, -0.0323724, -0.43850288, 0.92078215, -1.1008527, -1.2601256, -0.44259328, -2.2351134, 1.2922479, 0.7166336, 0.06617734, -1.24019, -2.2702734, -0.67025787, -0.07886342, -0.2870413, 1.2527413, 0.014485985, -0.7348199, 2.0805655, 1.5695773, -0.56570476, -1.4665971, 1.4326892, -0.029804539, -0.34532285, 1.3760227, -0.64885104, -1.3071935, -0.4271787, -0.39172155, 0.9018204, 0.13550036, -0.27730682, 0.48169452, -1.3012893, 0.07244469, 2.8284795, -0.048233695, 1.565319, 0.2073737, -0.14515153, 0.43720463, 0.21784544, 0.9349857, -1.7561464, -2.099026, 0.24060497, 1.9375143, 0.32772994, 0.086807914, 1.2955606, 0.60200715, -1.2788631, 0.6447528, 1.4274454, 0.38907617, -0.7087591, 0.3077321, -1.1259332, -0.9603357, 1.2309911, -0.32755458, -0.6755062, 0.53052264, -1.748106, -0.36171025, -0.96717024, -0.959756, 0.10088131, 0.22711447, 0.8633883, -0.8401059, -0.31887627, 0.6743155, 0.9483474, -0.2497224, 0.7876724, -1.652185, 0.8001037, 1.6767781, 1.4020585, 1.1037639, 1.4708769, 0.6176453, -1.9917952, -0.48040968, 0.34008652, 0.7794621, -2.4579902, -1.137232, -0.048676748, -0.034329217, -0.644279, -1.2165071, 0.8533864, -0.31450388, 1.4894785, 1.9171989, 1.5197564, -0.7993709, -0.006913472, 1.005215, 2.9387608, -0.36859512, 0.099487536, 0.18800028, 0.041365452, -0.83811677, 1.8015122, -2.2117054, 0.0793877, -0.9692553, 0.3627265, -0.37615055, 0.6918387, -0.4596508, 0.5967332, 0.9848439, -0.9495566, -1.0386083, 1.6138304, 0.10820091, 0.32564253, -0.39162925, 0.49375665, -0.32469502, 1.558735, 1.7898711, 0.078427754, 1.2948831, 0.29957578, 0.743081, -0.40844682, -3.5967276, 0.4496775, -0.08261368, 1.378033, 0.15965055, -0.6990332, -0.5279654, -0.025375856, -0.938999, 0.018042408, -0.028504917, 0.44842333, -0.57036024, 1.1060964, 0.18772152, 0.5885478, -1.1293458, -0.7418515, 3.2977242, 1.9009112, 1.319383, -0.5050058, 1.7456193, -0.48028785, 2.004575, -0.15476947, -1.7098687, -0.34020466, -0.40482762, -1.8661224, 0.06635987, -0.59620893, -1.7798821, 0.5414476, -2.2528725, 0.12697159, -0.11913693, -0.5823469, 0.04871413, -1.5945364, -1.7091597, -0.17202638, 0.80261254, 0.57905173, -1.1160845, -1.6674186, 2.511453, -2.145469, 2.4145093, -1.4336466, -1.2531859, -2.6766968, -0.881188, 0.1295593, -0.12724918, 0.7374426, -0.7853944, 1.1361271, -0.28614667, 0.769738, 0.85288644, -0.9056948, 1.6828036, 1.3870473, 0.51158583, -2.060396, 0.13968006, 1.6132221, 0.39583457, -1.2052431, -0.9218744, 1.2357355, -0.620593, -0.94861877, 0.74753875, -0.4195582, -1.6584855, 0.5254303, -0.35685146, -0.20948742, 0.19475915, -0.5984307, 0.46934283, -1.5782099, 0.9167965, -0.6145366, 2.4104507, 0.14558558, 0.80107474, 0.84539896, 2.1952016, 0.13744102, -0.24304038, -0.2609434, -0.22420971, 0.050266203, -0.22065628, -1.4161448, -1.1765931, 0.107641555, 0.8864995, 0.4398445, 0.64398664, -1.4935749, -0.7661124, 0.45259702, -0.322321, 0.40853587, 1.4069146, 1.6130828, -1.1908228, -0.70733124, 0.33555305, 0.21012524, 1.2531272, 2.7646577, 1.1425153, -2.2452297, -0.8594655, 1.3238902, -1.6984942, -0.016631098, 0.021761052, 1.5025144, 0.5336397, 0.19143394, 0.12436496, -2.0103304, 0.5235132, 1.4795272, 0.9233814, -1.2497482, -1.0717857, -1.968366, 1.2684366, -1.3079402, -0.21177377, -0.3251473, 3.6978357, 0.6018196, 0.27197358, 2.1273575, -0.06357994, 0.27144375, 1.245599, 0.28186658, 1.0682671, 0.11423012, -0.23732592, 1.4627522, -0.009976075, 2.4604576, -0.43513706, 0.6955765, 0.8654153, -1.5347704, -0.10336425, -0.63669103, -1.2297008, 0.1746164, 2.1954308, 1.1372929, 3.2810764, 0.5106591, -2.9644063, -0.06775018, -1.5437847, -0.90983135, -1.5300907, -0.4166179, -1.3388155, -1.9482015, -3.541299, 1.5839676, -0.0260094, 0.6297277, 1.263827, 0.25346136, -0.7164018, 0.71810204, -1.2059846, -0.8322029, -2.3578525, -0.8295705, 1.3624501, 0.69240797, -0.64957285, -0.42073944, 0.070879236, -1.6023277, 2.1870422, 3.7983167, -1.4941332, -1.0282298, -0.5132842, -1.3327466, 1.5305632, 0.49230865, 0.7499446, 0.744868, 1.6146247, 0.46298662, -0.7645081, -2.1998575, 0.0020694265, 0.476005, -0.108934715, -1.3698264, 0.7286624, -2.4626524, -1.2871525, 1.2002535, -0.68106186, 1.2495025, 0.041310072, 0.8480015, -0.35300982, -0.5016634, -0.16264842, 0.19630568, -0.15578434, -1.0971919, 1.0524824, 0.4588293, 0.852444, 0.38461784, 0.28029236, -0.5611725, 0.8998073, -0.97845286, -0.99580115, 1.1785817, -0.6161076, 1.3935676, 2.873572, 0.44262096, 1.2012641, 1.0185455, -1.8281583, -1.0095127, -1.195403, 1.327775, 0.09536345, -2.1152086, 1.9601843, 0.33122823, 1.6539793, -0.6931637, 1.0521044, 0.41224968, 0.30073142, 0.4819585, 1.2411518, 0.43814057, 0.063736856, -1.1783731, 0.20748907, -0.8006816, -1.5458496, -1.0129242, 0.5532504, 0.80803996, -0.9835378, 0.706411, -0.5896407, -0.795472, 0.6286838, 0.1585871, 1.6519829, 0.7905818, 0.55465287, -0.8895561, -0.8883747, 0.19172561, 0.0015063799, 0.22643512, 2.3330576, -1.2531198, 0.23451023, -0.2740061, -2.0911543, -0.095249, 0.39728004, -1.2261035, 0.72136676, 0.75686914, 0.07431844, -2.835657, -0.64</t>
-  </si>
-  <si>
-    <t>[0.28564453, 1.0957031, 0.109375, -1.7197266, -1.1240234, 0.28637695, -0.9345703, 0.10748291, 1.90625, 1.2753906, -1.0673828, 0.40478516, 0.7392578, -0.54248047, -0.41137695, 0.68310547, 1.4814453, 0.44140625, -0.32128906, -0.6166992, 1.0644531, 0.9008789, -1.7832031, -1.0585938, -0.51464844, 1.0625, 2.3710938, 0.2142334, -0.75683594, 0.83935547, -0.6245117, -0.37719727, 2.1542969, 2.0957031, 0.31152344, 0.52001953, -0.7416992, -0.85253906, 0.8095703, -0.41479492, -1.0390625, -0.59521484, 0.20300293, 0.44921875, -2.3984375, -2.0351562, -1.2597656, -0.609375, 0.38354492, -0.045318604, 0.24243164, 0.7397461, -1.9404297, 0.13098145, -1.4208984, -0.19689941, -0.6875, -1.2685547, 0.70703125, 0.3413086, 0.11645508, 3.8574219, -0.037475586, 0.34545898, -0.09277344, -0.15795898, -2.0488281, -0.3798828, 0.6616211, 1.3740234, -0.9472656, 0.06317139, -3.5390625, 1.0693359, 2.65625, 0.44091797, 0.19018555, -1.6660156, 1.2041016, 1.9902344, 2.6386719, 0.2479248, 0.60791016, -0.15673828, 0.54589844, -0.6665039, -3.1269531, -2.1855469, 0.41455078, -0.4050293, -1.0888672, 1.34375, -0.17810059, -1.2021484, -0.16003418, -0.074401855, 2.1367188, -0.013687134, 0.6088867, 1.2617188, -2.4902344, -0.48779297, 1.5615234, 1.0986328, -1.4013672, -0.5673828, -1.1435547, -2.7519531, -1.1347656, 1.0556641, 1.4619141, -2.1835938, 0.13952637, 1.8632812, -0.37841797, 1.6054688, -0.64208984, -0.8618164, 0.50878906, -0.8144531, -1.75, -0.2770996, -0.48242188, 1.6689453, 0.43017578, -0.8803711, -0.9477539, -2.2148438, -0.53515625, 2.125, -2.296875, -0.9692383, 3.6015625, -1.5263672, 4.3945312, 0.75341797, 0.31103516, -1.5839844, -0.9091797, -3.453125, 0.23266602, 1.0585938, 2.2089844, 1.1201172, 0.8852539, -1.4853516, 3.4511719, 0.31958008, 0.2548828, 2.1542969, -0.3798828, -1.1513672, 3.2832031, 2.7714844, -1.5556641, 1.4638672, 0.9370117, -0.23571777, 2.2871094, 3.5117188, -0.8027344, 0.76416016, -2.4316406, -3.390625, 1.484375, 0.8569336, 1.3886719, 0.11621094, 0.6533203, -1.6982422, 0.1887207, -0.8984375, -1.2900391, 1.2421875, 0.7001953, 1.2207031, 0.78466797, -1.2041016, 0.64697266, -2, -0.6508789, -0.4489746, 0.33129883, -1.0498047, -0.29223633, -0.24060059, -0.4074707, -0.7524414, -0.46728516, 0.34472656, 0.7675781, -1.0664062, -1.1582031, 0.5019531, -0.20996094, -1.4638672, 1.8144531, -1.8837891, 4.125, -0.69189453, -0.42211914, -0.01953125, -3.2265625, -1.4833984, 0.0647583, 2.0019531, -0.60546875, -1.6601562, -1.8759766, -0.6191406, -1.2636719, -0.23864746, 0.048706055, 0.6357422, 0.48095703, 0.45043945, -1.7197266, -1.4394531, -0.47851562, 0.17199707, 1.5410156, -1.4345703, -1.5058594, 0.26733398, 0.057922363, -1.9609375, -0.00554657, -0.92578125, 0.03161621, -2.5625, 0.0925293, -0.014060974, 1.6757812, 2.2578125, 1.5605469, -0.5595703, -0.33325195, 3.0800781, 0.52685547, 0.14074707, -0.31347656, -0.5698242, -0.28515625, -0.20507812, -0.1619873, 1.3916016, 2.4785156, 0.5161133, 2.4160156, -1.7685547, 1.3408203, 0.8300781, 0.23132324, 1.3583984, -1.3183594, 0.7597656, -2.4765625, -1.4941406, 0.7270508, 1.2041016, 4.7460938, -0.18054199, 0.51904297, 0.12438965, -0.64501953, 0.025466919, -0.24938965, 1.6035156, 0.39038086, -0.59277344, 0.6904297, -0.9970703, 1.6386719, -0.5205078, -0.04510498, 0.57421875, 0.83447266, -1.1103516, -1.0605469, 0.6743164, 1.9980469, -3.1484375, 1.0439453, 0.097595215, -0.21936035, -0.51416016, -1.3730469, 0.2932129, -1.4912109, -1.2558594, 0.93408203, -1.4169922, 1.8945312, 0.16137695, -0.8354492, -1.3193359, -0.2980957, 0.4375, -0.25512695, -0.89453125, 0.3713379, 0.5361328, -1.5996094, -0.92041016, 0.019638062, 1.0634766, 0.5917969, 2.4570312, 2.9824219, -0.7426758, 2.1835938, -0.38623047, -1.9287109, -0.22436523, 1.5693359, -0.76904297, -1.1787109, 0.62841797, 1.4794922, -1.8994141, -0.91015625, -0.5805664, 0.6591797, 0.6904297, -0.51660156, -1.4814453, 1.8154297, 1.2519531, 2.2226562, -0.13293457, -0.4104004, -0.71533203, -1.2802734, 0.12286377, 0.21228027, -0.39746094, -0.7402344, 2.0097656, -0.81347656, 0.7597656, 1.0439453, -0.24133301, -1.5830078, 0.5991211, -0.16992188, 0.07312012, -0.5214844, -1.1884766, 2.3359375, 0.66845703, 1.3466797, -2.3085938, 3.0566406, 2.6835938, -0.16662598, 0.72998047, 1.9257812, 1.8232422, -0.85595703, -0.83203125, -0.08532715, -0.51416016, -1.2666016, -0.33276367, 0.49780273, 1.3369141, -0.9082031, -3.6582031, 0.56152344, -1.1230469, 0.13635254, -1.375, 0.73291016, -2.8925781, -1.1337891, 0.19238281, -0.2980957, 1.1025391, -0.05987549, 0.50146484, 0.26098633, 0.48413086, -2.8203125, 0.3190918, -2.4355469, 0.36035156, -1.1181641, 3.5117188, -1.3945312, 0.3395996, 0.15710449, -1.1582031, 0.24255371, -0.5229492, 0.089782715, -0.5703125, 0.81591797, 2.421875, -0.07537842, 0.74902344, -0.7441406, 1.2353516, -1.1669922, -0.26342773, 0.73535156, -0.27539062, 1.6669922, -1.5136719, 0.21484375, -0.71728516, 3.2109375, 0.6333008, -0.7504883, 1.6699219, 1.7158203, -0.12731934, 0.45288086, -1.7353516, -0.42163086, 0.8334961, 0.55371094, -0.60058594, 0.35498047, 1.1035156, 0.46118164, 0.9506836, -0.5180664, 0.28295898, 0.6196289, 0.8955078, -1.6630859, -0.39916992, -0.40649414, 1.0791016, -1.1367188, -0.16259766, 2.8886719, -0.6347656, 2.2792969, 0.6879883, -0.5004883, 1.4599609, 0.015090942, 0.61328125, 1.4150391, 3.2695312, -0.099487305, -0.9667969, -1.046875, 0.7504883, -0.43164062, 2.2207031, 1.640625, 1.1054688, -0.32202148, -2.1894531, 1.6669922, -1.9404297, 1.6484375, -1.1289062, -0.5996094, 2.4414062, 0.6035156, -0.122924805, 0.8198242, 0.765625, 1.3544922, 1.8066406, -0.84472656, -1.1816406, -1.3632812, 0.7392578, 0.040283203, -0.5332031, -0.3388672, 0.83691406, -0.5932617, -3.1796875, 2.8613281, 2.3925781, -0.43286133, 2.2265625, 0.765625, 0.25561523, -1.3505859, -1.3935547, -0.080200195, 2.5507812, -0.5991211, -0.62597656, -1.4697266, 0.31884766, 0.23583984, -0.35961914, 0.17480469, -2.015625, 1.4638672, 1.1699219, -1.0537109, -0.10748291, 1.5917969, 1.2548828, -1.2119141, 0.14770508, -0.22241211, -1.7617188, 0.61083984, -1.3369141, -2.2226562, -0.46875, 1.0605469, 0.3701172, -0.3647461, 1.1230469, 0.6098633, 0.83447266, -2.7890625, 0.6665039, 2.0917969, -0.21264648, 0.7529297, 0.64208984, -1.2949219, 1.0976562, 0.6669922, 1.9169922, -0.8876953, 2.1953125, 2.6972656, -0.7841797, 4.0976562, 0.97314453, -0.37231445, -1.2832031, -0.8623047, 0.92529297, 0.22302246, -2.5839844, -0.9067383, -1.1347656, 2.3359375, 1.7851562, -2.1894531, -0.46606445, 0.81347656, 2.1523438, 0.29833984, 0.21789551, -1.6503906, -0.39648438, -0.53808594, 1.2910156, 2.3671875, -1.2617188, 0.8730469, 2.1484375, 0.0082473755, -0.30517578, 0.9716797, 0.43139648, 2.2089844, -0.2199707, 1.03125, 1.7490234, 1.2412109, 1.3105469, 0.14208984, 2.265625, 0.07354736, -0.0713501, -0.3635254, -1.3183594, -0.1282959, -1.6337891, 2.7988281, -0.7128906, 1.1660156, 0.20251465, 1.2001953, -0.28833008, 1.875, -0.14587402, 0.9067383, 1.71875, 1.4501953, 0.7392578, -1.5615234, -0.29785156, -0.3461914, -0.84033203, 0.88720703, 0.6044922, -0.89697266, -0.15332031, -0.3684082, 0.71777344, -0.06201172, 0.37524414, -0.95947266, -2.2773438, 0.82910156, 0.4873047, -0.9765625, -0.006587982, 0.63964844, 1.5146484, -0.21936035, 1.5546875, -0.43408203, 0.41748047, -1.4091797, 0.2614746, 1.609375, -2.21875, 0.16503906, -2.0625, -0.9082031, -0.22058105, 1.0820312, -0.95214844, 0.46240234, 0.9091797, -1.1943359, -1.2011719, 0.5600586, 0.37329102, 1.8007812, 0.11273193, -1.0625, 1.9707031, 0.35839844, 2.21875, 0.8496094, 0.43139648, -0.24072266, 3.7539062, -0.02029419, -1.7802734, -1.6748047, -1.3144531, -0.3996582, 1.65625, -0.9794922, -0.91259766, 2.5898438, 1.7705078, -0.4387207, 0.31835938, 0.8046875, 0.020568848, -0.8334961, -2.0273438, -0.7729492, 1.8232422, -3.0761719, -0.101257324, 0.19262695, -0.41967773, -1.7148438, 0.765625, -1.3564453, 3.3378906, -1.1679688, -0.6323242, 1.328125, 0.11175537, 1.0302734, -1.5791016, 0.94433594, 2.0117188, -1.2539062, 0.9746094, 0.65966797, 0.8491211, -0.0032482147, -2.2109375, 1.7207031, 0.034423828, 0.5058594, -0.08105469, -1.0107422, -0.71972656, -0.67285156, 1.5263672, -2.2070312, 1.2539062, -0.55322266, -0.21386719, -0.5576172, 1.0888672, 2.9101562, -2.5722656, -0.31884766, 0.97021484, -0.39013672, 1.2050781, 1.4912109, -1.015625, 0.15612793, -2.5761719, 1.9345703, 0.7651367, -1.0244141, 0.41503906, 0.30639648, -0.35986328, 0.73583984, 0.0836792, 3.3085938, -0.3413086, -0.7319336, -0.54345703, 1.046875, -1.2939453, -2.4042969, -0.3239746, -1.2119141, 0.4260254, 2.0332031, -0.77685547, 0.69433594, -1.09375, -1.1357422, -1.3417969, 1.1289062, 0.42236328, -1.3515625, 2.46875, -0.76660156, -1.6894531, -0.7680664, -1.5214844, 2.9511719, 0.3203125, 0.4645996, -1.4833984, 1.2138672, 0.16149902, -1.21875, -0.6357422, 0.62841797, 1.4833984, 0.17248535, -3.5039062, 1.0605469, 0.45043945, -1.9335938, -0.85546875, 0.6508789, 0.5205078, 0.34155273, 0.49267578, -0.085632324, 0.56689453, -1.265625, -2.5, 0.12030029, 0.7607422, -1.6943359, -0.05496216, -1.8867188, -0.81591797, -0.52734375, 1.0009766, 1.3232422, 0.10961914, -0.35864258, -0.8666992, -0.8027344, 0.15197754, -2.1132812, -3.0820312, -1.5390625, 0.5600586, -1.3154297, -0.44995117, 2.9296875, -0.11035156, -0.86083984, 2.2128906, -0.99316406, 1.3886719, -0.7919922, 0.001742363, 3.2871094, -0.6455078, 0.31054688, 0.33740234, -1.9140625, 0.22265625, -0.40576172, -0.5234375, 0.010665894, 1.6005859, -0.049468994, -0.64746094, -0.47998047, 1.8466797, 0.19946289, 1.4550781, -0.11975098, -1.3505859, -0.8208008, 1.3066406, -0.2614746, -0.030227661, -0.25732422, 2.8730469, 2.1738281, -2.203125, 0.8125, -3.2734375, -1.3662109, -0.5288086, -1.6738281, -0.55322266, 0.09069824, 0.116882324, 0.4189453, -1.3242188, 0.03451538, 0.61816406, -0.78027344, -0.20935059, 0.43774414, -1.4316406, 1.1142578, 2.2460938, -0.020614624, 3.4160156, 0.32543945, 0.4350586, -0.06915283, 0.16760254, -0.115112305, -2.5761719, -0.16516113, 3.3085938, -0.095825195, 1.2451172, -1.0410156, 0.9223633, 0.53515625, 0.51464844, -1.9833984, -0.093811035, -0.8540039, 0.011787415, -2.0019531, -0.43286133, 1.8603516, -0.7558594, 1.2832031, 0.45141602, 1.7861328, 0.04937744, -0.38354492, 0.9526367, 0.8354492, -0.5258789, -0.07507324, 1.2802734, 0.43041992, -2.8300781, 1.078125, -0.2824707, -1.2304688, -0.5966797, -2.8867188, 2.203125, 2.5527344, -1.0068359, 0.94921875, 0.38720703, 0.9580078, 0.39892578, 1.7597656, 1.3759766, -1.2109375, -1.1640625, -0.77490234, 0.42138672, 0.57177734, 1.5039062, -0.66259766, 0.66259766, 0.07312012, 1.140625, 0.002664566, 0.8378906, -0.30151367, -1.4267578, -1.1474609, -0.6245117, 2.0664062, 0.0925293, 1.8896484, -0.7558594, -1.3369141, -0.1895752, 0.31420898, -1.0214844, 0.9980469, 0.75, -0.35375977, 0.61816406, -0.1274414, -1.6601562, 2.046875, 1.3017578, 0.1862793, -1.2109375, -0.8691406, 0.8652344, -2.4746094, 1.4111328, -0.5336914, 1.1884766, -1.0644531, 1.2197266, 1.2597656, 0.35498047, -0.33984375, -0.53808594, 1.6650391, -1.5068359, -1.1894531, 1.5019531, 0.5205078, -0.42773438, 1.1894531, 0.1505127, 0.44995117, 1.0693359, 0.22009277, -1.3095703, -0.60058594, 1.8466797, 0.6064453, 2.0917969, -0.4423828, 1.0908203, 1.25, 0.20227051, -1.4814453, -0.27905273, -1.2460938, 0.69189453, -0.77783203, -1.7744141, 1.2900391, -0.076049805, 1.4101562, -1.5917969, -1.0458984, -1.8349609, -0.19519043, 0.6904297, -1.1132812, 1.0205078, -0.38720703, 1.0976562, -0.6401367, -0.1583252, -1.3955078, 3.1230469, 1.4257812, 3.1835938, -1.0957031, 0.5473633, -1.3466797, -1.0888672, 1.6884766, 0.9399414, 0.5805664, 0.43579102, -1.4882812, -0.03564453, -0.21569824, 0.68310547, -1.7832031, -1.8261719, -1.6435547, -0.5288086, -1.4648438, 0.29785156, -1.3935547, 0.6381836, -0.3635254, 2.0195312, -2.6132812, -0.5620117, 1.9160156, 0.23571777, 0.5444336, 2.0332031, 1.4550781, 0.27539062, -2.9296875, 0.073913574, 1.421875, -1.2236328, 1.0693359, -0.69677734, -0.73583984, -2.7617188, -0.16699219, -0.29516602, 0.11755371, -3.59375, 0.1673584, -2.390625, -1.2412109, 0.42529297, 0.6508789, -0.5834961, -2.2265625, -2.4453125, -3.328125, -0.6425781, -1.1005859, 1.1494141, 2.1601562, -0.82421875, 2.9082031, -0.49023438, -1.0683594, 0.8125, 1.3134766, -0.21887207, 0.14819336, -1.1367188, -0.13757324, -0.25463867, 2.1875, -0.68847656, 2.6308594, 1.4580078, 0.8330078, 1.8154297, -0.9394531, 0.9291992, 0.91503906, 0.5229492, -1.2255859, 0.20605469, -0.7416992, -0.17541504, 0.546875, -0.066833496, -0.23022461, -0.51171875, 0.90771484, 0.3828125, 1.6582031, 0.9399414, -1.453125, -0.29467773, -1.8583984, 1.1269531, 1.3388672, -0.8051758, 1.5537109, -3.3164062, -2.3535156, -2.1367188, 1.0644531, 0.8823242, -0.29589844, 0.24377441, 1.6582031, 0.42749023, -0.5180664, -0.19946289, 0.94189453, 0.47094727, 0.5522461, -0.39331055, -1.2041016, -1.3544922, 0.36865234, -1.0478516, -0.036499023, 1.5917969, 0.53759766, -0.37768555, -0.5644531, 1.9296875, 0.18225098, -0.11853027, 0.13964844, 0.6328125, 0.19482422, 0.10949707, 0.6616211, -0.22766113, 2.0761719, 0.22229004, -0.22741699, -0.40673828, -0.67822266, -0.44628906, 1.2617188, 1.0507812, 0.70703125, 0.058166504, 0.47216797, 0.2685547, -0.38476562, 1.0683594, 0.7783203, -0.984375, 3.6679688, 0.15893555, -0.6074219, -1.0625, -0.45263672, 1.28125, 1.1113281, 1.8310547, 3.0175781, 2.0410156, 0.38891602, -1.1054688, -1.9785156, 0.54345703, 2.0429688, 1.5966797, 0.1574707, -0.56591797, 1.1162109, -0.8359375, 0.3947754, -0.89990234, -0.4416504, 1.0449219, 0.9633789, 0.15319824, 0.9116211, 0.6142578, 1.6552734, 2.8984375, -0.44482422, -0.7553711, -0.796875, 2.6914062, 0.4165039, -1.5634766, 0.40893555, 1.7792969, 0.36645508, -1.4306641, -1.0576172, 2.2226562, -0.42456055, 0.42089844, -0.018341064, 0.08001709, -1.2363281, -0.3486328, 0.5644531, 0.4958496, -0.9848633, -1.5966797, 2.75, 0.009292603, -2.1777344, 0.32299805, -1.1787109, 1.0957031, -0.44091797, -0.33007812, -2.6464844, -0.012252808, -0.75, -2.1777344, 1.3046875, 0.22314453, -0.9897461, -0.039093018, 0.43237305, 0.90283203, -0.09442139, -0.6274414, 0.7182617, 2.0527344, 1.9013672, -2.5761719, 0.0181427, -0.8540039, 0.32128906, -0.76953125, 1.5009766, -0.92089844, 1.1835938, 0.07519531, -0.18164062, -0.76904297, 1.4462891, 0.45532227, 0.46850586, -0.9868164, -1.0117188, 4.1640625, 0.4008789, 1.1005859, -1.0283203, 2.7265625, 0.81689453, -0.54345703, -0.8076172, -3.9726562, 0.56933594, 0.1595459, 2.0214844, -0.68408203, 0.8125, 0.23425293, -1.3251953, 0.15771484, 0.30395508, -2.2402344, 0.27539062, 1.0107422, -2.8808594, 1.4980469, -1.0957031, 0.921875, 0.60839844, -0.53027344, -0.8574219, -0.4404297, -1.3535156, 0.6899414, 0.3635254, -0.058013916, -0.7265625, 0.2565918, -0.9824219, 0.16638184, 0.15759277, -0.39794922, -1.3857422, -1.2519531, -0.6694336, 2.7617188, 2.0058594, 1.2607422, -0.09112549, 0.07849121, -1.3808594, 1.0097656, -1.3007812, -1.1494141, -1.8164062, 2.46875, -0.25830078, -0.33496094, 1.1728516, -1.8955078, -0.2512207, 0.45629883, 1.5146484, 1.7158203, 0.4621582, -0.45776367, -2.1191406, -1.6816406, -1.6162109, -0.6484375, -4.5546875, 1.0605469, 2.5917969, 0.3010254, -1.5146484, -0.2064209, -2.7128906, -0.036987305, 0.7294922, 1.0732422, 1.3398438, 1.0722656, -0.11395264, 0.78759766, -0.9902344, 1.0869141, 3.2285156, -0.6669922, 1.5693359, -0.65185547, -0.47045898, 1.0205078, 1.5791016, -0.33203125, 2.3945312, -2.9726562, 0.67578125, -1.6191406, -1.3554688, -1.21875, 0.43164062, -0.44848633, 0.92822266, 0.82910156, 0.9042969, 0.17041016, -0.4248047, -0.033111572, 0.33544922, -0.12463379, -1.3544922, 0.8330078, 1.0068359, 0.40844727, 0.09844971, -1.6367188, 0.0625, 0.0010595322, -1.1201172, 1.4609375, -0.5048828, -0.45263672, -0.099487305, 0.36523438, 0.6508789, -3.0800781, -0.9404297, 1.2832031, 0.22192383, -0.07147217, -0.52490234, 1.2333984, 0.05822754, -2.1679688, -0.57128906, -0.05810547, 0.79345703, 1.5791016, 0.25048828, -1.1904297, 5.1367188, -0.2479248, -0.05343628, -3.0683594, 3.0195312, 2.6035156, 1.5449219, 0.70996094, -2.3964844, -0.81591797, 0.14526367, 0.9868164, 2.0839844, 0.009277344, -1.4404297, -2.0683594, -1.9169922, 1.1992188, -0.6171875, 0.80029297, -0.18334961, 1.2285156, -0.4711914, -1.5087891, 5.4960938, 0.38671875, -1.0917969, -0.16760254, 0.010986328, -0.6430664, 0.33911133, 0.4790039, -0.70751953, -0.12438965, -1.1630859, 1.2167969, 1.3349609, -1.8857422, -0.124572754, 0.020629883, 0.9350586, -0.19104004, -0.89697266, -1.5419922, -0.20178223, 1.140625, -0.8745117, -2.1015625, -1.3232422, 0.39404297, -2.5898438, -1.2832031, -0.6791992, -1.2705078, -1.4189453, 1.1240234, 0.59814453, 0.9423828, 1.7851562, 1.9160156, 0.06915283, 0.16772461, -0.54248047, -0.041381836, -0.7807617, 2.2890625, 0.42041016, 0.21850586, 0.07006836, 0.92822266, 0.8569336, -2.3320312, 0.6743164, 1.3818359, -2.1425781, 0.16052246, -1.0507812, 1.4433594, 0.7675781, 0.13134766, 0.48535156, -1.3007812, 0.4020996, 2.03125, 2.5664062, -0.89208984, 0.46411133, 0.75341797, -3.6308594, 0.08996582, 0.43920898, -0.84228516, 0.19067383, 1.2001953, -0.10131836, 0.9794922, -1.2607422, -1.9082031, -2.0058594, 1.1064453, 1.3085938, 2.4765625, -2.34375, 1.421875, 0.30395508, 2.6835938, -1.4501953, -1.03125, -0.14648438, -1.7138672, -0.5605469, -1.7480469, 1.6318359, 0.2322998, 1.46875, -1.2763672, 0.11773682, -0.0072898865, -0.79003906, -0.6152344, 2.3222656, -0.29638672, -0.00046372414, -0.93652344, 1.0488281, 0.6245117, 0.22546387, 1.6865234, -0.5336914, -1.0927734, 1.6416016, -0.07104492, 1.484375, -0.9116211, 0.70654297, 2.796875, 1.0664062, -1.2109375, 0.38793945, -0.6748047, -0.42285156, 1.7958984, -1.0859375, -0.66845703, 1.5898438, 1.0478516, 0.3334961, -1.5537109, 0.47143555, -0.28051758, -2.1640625, 0.50146484, -0.45825195, 2.671875, 0.24853516, -0.2932129, 0.7055664, 0.90185547, 0.80078125, 1.7851562, 0.37036133, -0.4951172, -1.7246094, 1.4833984, 0.30981445, 3.0234375, 0.6640625, -0.5756836, 1.6308594, -0.0579834, 0.037322998, 2.640625, -0.09136963, 0.29711914, -0.7373047, -0.5996094, -0.7182617, 0.61376953, -1.0117188, 2.3261719, -1.1757812, 0.45703125, 0.57714844, -0.4814453, -0.9555664, -2.2578125, -1.0371094, 0.7866211, 1.1591797, 0.7084961, -3.4199219, -0.18615723, -1.0957031, -0.8354492, 0.54541016, 1.3701172, -0.45410156, 1.5244141, -1.0361328, -1.3037109, 0.27416992, 1.3310547, -1.3652344, -1.2001953, 0.34106445, 1.09375, 1.0712891, 0.37719727, -0.90966797, -0.62109375, 0.765625, -0.14978027, 0.8769531, -1.1513672, -1.5556641, 0.95703125, -0.39086914, 1.2001953, -0.14257812, 0.08129883, -0.06378174, 1.3212891, 2.1660156, 0.004688263, -0.57714844, -0.23608398, -0.36132812, -0.3623047, 1.0205078, 1.5253906, 0.1706543, 0.021102905, -0.21252441, -0.5566406, -1.1982422, 2.8222656, -0.84716797, -0.6796875, 0.8569336, 1.4638672, 0.6401367, -2.2089844, 0.4260254, 1.4882812, 1.5556641, -0.24194336, 1.6787109, 0.43237305, 3.4921875, 0.30786133, -0.13366699, -0.05731201, -0.32617188, 1.9794922, -2.1054688, -2.8515625, 1.9160156, 0.39624023, 0.01058197, 0.6430664, -0.53027344, -1.2939453, 0.12805176, 0.78466797, -0.8100586, 0.29174805, 0.029541016, -2.3886719, 1.5585938, 1.2353516, 0.07196045, 0.043914795, -0.062561035, 1.4853516, 0.52246094, 0.36035156, -1.2089844, 1.9599609, 0.34375, -0.9790039, 1.3066406, 1.0722656, -2.2871094, 1.1630859, -1.9990234, -1.7841797, 0.45922852, -0.9633789, 2.328125, 1.7158203, 0.43725586, 1.6904297, -2.1601562, -0.7553711, 0.4741211, 0.45703125, 1.0712891, -0.16503906, 1.0576172, -0.37280273, 1.0839844, 0.6665039, -0.85253906, 0.63964844, -2.6660156, 0.0064201355, 2.2851562, 0.91015625, -0.7451172, -0.0049209595, -1.4638672, -0.56689453, 0.953125, 0.36328125, 0.21081543, 1.7734375, -0.060668945, 1.3105469, -2.4960938, 0.97509766, 0.5209961, -0.42089844, 0.48046875, 0.08709717, -0.77783203, 0.97509766, 0.41577148, -1.5751953, 1.5585938, 3.2480469, 0.2475586, 1.8837891, -1.015625, -1.5654297, 2.6679688, 0.38500977, -1.46875, -0.4753418, 0.4338379, -1.265625, 0.14477539, 0.08868408, -0.33374023, 1.7919922, 0.031158447, -1.53125, -1.328125, -0.34423828, 1.4609375, 1.6298828, 1.6640625, 0.5541992, -2.3378906, -0.32226562, -2.4101562, -3.7128906, -1.6445312, 1.3681641, 1.0341797, -0.6044922, -0.7729492, -0.9326172, 0.14953613, 1.7666016, -0.6821289, 0.20996094, 2.3144531, -1.5517578, 0.30200195, 1.8515625, -1.5859375, 0.4321289, 1.6152344, 1.1337891, 0.82470703, 4.515625, 0.69677734, 1.3310547, 0.41577148, -0.52197266, 0.64208984, -0.66552734, -1.7988281, -0.09033203, -1.5644531, -0.8334961, 1.9667969, -0.7792969, -1.2246094, 0.5263672, -1.8857422, -0.32299805, -2.9707031, 0.84277344, 0.75927734, 0.6850586, 0.9921875, -0.42041016, -1.7265625, 1.1708984, -0.9345703, -0.63427734, -0.19873047, -0.5385742, 5.1445312, -0.65283203, 1.6289062, 2.3457031, 0.08105469, 0.41235352, -0.10510254, 0.45629883, -0.33154297, 0.49267578, 0.3334961, -3.4199219, -3.203125, -2.4414062, -0.8876953, -1.8291016, -0.29638672, 1.6357422, 0.7626953, 1.1728516, -0.8027344, -1.2128906, -0.3371582, -2.3535156, -2.0742188, -0.69189453, 2.2832031, 0.9296875, 0.8330078, -0.19396973, 1.1484375, -0.21020508, -0.7128906, 1.4736328, 2.8378906, -2.265625, -1.0107422, -0.36889648, -0.94091797, -0.8232422, -1.9140625, 1.3496094, 0.46240234, -0.34643555, -0.92333984, 4.3671875, 2.2871094, 0.49853516, 0.29589844, 1.0634766, 0.9248047, 0.6381836, 1.2490234, -1.0322266, -1.9492188, -0.04550171, 1.4257812, -0.5546875, 1.3349609, -0.5341797, 0.43969727, 1.5439453, 1.0683594, -0.18981934, -1.2988281, 0.46704102, -0.27685547, -2.7636719, -0.9506836, 0.4099121, 0.35498047, 1.9980469, -1.0097656, 1.4384766, 0.21362305, -2.1875, 0.95947266, -1.7412109, -0.11968994, 0.4248047, -0.21252441, -1.0839844, 0.08959961, 0.021591187, 0.11090088, -0.6875, 0.95214844, -0.49121094, 1.4150391, -0.50097656, 0.38208008, 0.046203613, 1.8652344, -1.6005859, -1.6347656, -1.7255859, -0.5703125, -1.1582031, 3.8710938, -2.6386719, -2.3925781, -0.3125, -0.03250122, -1.046875, 1.6904297, 0.6816406, 0.3466797, -0.16320801, 2.4472656, -1.9248047, -1.2958984, -0.93310547, 1.0791016, 0.4165039, -1.2636719, -1.1328125, -1.7509766, -1.8945312, 2.6503906, 0.010986328, 0.55810547, -0.71191406, -1.1132812, -0.8305664, 1.3085938, 2.7265625, 1.0996094, -1.2011719, -0.5102539, -0.34472656, -0.20983887, 1.4589844, 1.2255859, -0.9404297, -0.51660156, -0.32495117, -1.1494141, 0.69091797, -2.0410156, 1.3515625, -1.390625, 1.7617188, -1.3916016, 0.2878418, -0.3713379, -1.75, 1.0039062, 0.11968994, 0.90234375, 0.13061523, 1.3046875, 0.1887207, -0.78027344, 0.17053223, 0.2043457, 0.31884766, 0.546875, -0.113342285, 0.15942383, -0.43359375, 1.2890625, 0.9897461, 1.5791016, 0.70751953, -2.2109375, -0.047790527, -0.5078125, -0.97216797, 0.6879883, 2.4921875, -1.9794922, 0.06567383, -1.3457031, -1.7392578, -1.5087891, 1.8554688, -0.33764648, 0.49023438, -0.7949219, 1.2441406, -1.8339844, 0.7504883, -0.0025501251, -1.1269531, -2.0058594, 0.73779297, -1.6708984, -1.6064453, -0.4909668, -0.8574219, 0.3996582, 0.48291016, -3.1894531, -0.08154297, -1.53125, 1.7587891, 0.61328125, 0.1439209, 2.3710938, 0.48461914, 1.5761719, -1.6865234, -0.38354492, -1.5839844, -0.13049316, 0.39892578, 1.6884766, -2.7070312, 0.6230469, -1.2890625, -1.0966797, 0.81933594, -2.1464844, -1.3447266, 0.9716797, 0.3166504, -0.27954102, -0.5883789, -1.2900391, 0.6542969, -3.1582031, -0.66748047, -0.69189453, 0.9194336, -0.37475586, 0.31982422, -0.104003906, -0.87841797, 0.39770508, -0.2841797, 1.4912109, -1.5185547, -0.6010742, 1.2861328, -1.109375, 0.037597656, -1.0693359, -0.37231445, -1.3134766, -0.107788086, 1.7988281, 2.0195312, -1.2783203, 0.43579102, 0.6870117, 1.8759766, 0.5341797, -3.1816406, -1.0869141, 1.4638672, 0.5415039, 0.70703125, -2.8085938, -1.0136719, -0.94433594, -0.39770508, 1.0654297, -0.9970703, -0.82177734, -0.04385376, 2.2285156, -0.7626953, 0.18432617, -0.51123047, 1.2568359, 0.00793457, 0.42504883, 1.5957031, 3.4472656, 0.17211914, 0.20825195, -0.71728516, -0.33154297, 0.75, -3.0800781, 0.24829102, -0.22253418, 0.67285156, 0.8676758, -1.9130859, -2.46875, -0.8041992, 1.3457031, 0.7705078, -1.0947266, 0.5986328, 0.66552734, -0.5878906, 0.9277344, -2.2480469, -0.29467773, -0.3112793, 0.68066406, -0.25585938, -1.9980469, -1.2832031, 0.037902832, -1.1142578, -1.4150391, -0.02279663, -0.35717773, 1.6738281, 0.07885742, 0.45629883, 1.1865234, -1.1826172, -0.51464844, -1.3681641, 0.6669922, -0.9165039, -0.6196289, -0.46826172, -0.34985352, -6.09375, -1.1269531, 0.6191406, 3.8164062, 0.50097656, 1.1503906, -0.12194824, 1.2900391, 0.4897461, 0.09338379, -2.1464844, 0.6972656, 0.3203125, 1.1894531, 1.0566406, 1.2861328, 0.82958984, -2.3964844, -1.5712891, -1.078125, -2.0195312, -0.24414062, -0.009841919, 0.80078125, -0.3034668, -1.8886719, 1.0605469, 0.29589844, 0.8149414, 0.5703125, -0.3034668, -2.0058594, -0.35742188, -1.7460938, -1.1552734, 1.0087891, 0.76953125, 0.31420898, 0.2836914, -0.82421875, -0.85595703, -2.0742188, -1.3798828, 0.72802734, -1.6748047, 1.21875, 3.5429688, 2.2460938, 0.2709961, -1.3193359, 2.6972656, -0.9975586, 0.16516113, -0.9169922, -1.3544922, 0.3227539, 1.2246094, -0.53515625, -0.3100586, -0.013175964, -1.7998047, 0.5102539, -1.2568359, 0.7402344, -0.97314453, -1.0810547, 1.6855469, -0.042510986, -1.6962891, -0.8496094, -0.26782227, -0.22253418, 1.6445312, -0.95458984, -0.8408203, -0.33862305, -0.7734375, 0.10168457, 1.7568359, -0.77734375, 0.21020508, -1.53125, 0.19580078, -1.8359375, -1.0136719, 1.1132812, 1.8642578, 1.0927734, 1.4648438, -1.5068359, -0.86083984, 0.95166016, 1.2285156, 1.7607422, 1.0507812, 0.37524414, 0.88427734, 0.9423828, 0.39038086, -0.42651367, -0.019607544, -0.5185547, 0.30981445, -0.5239258, -1.5390625, -4.6757812, -2.6386719, 1.4199219, 0.90966797, 2.5996094, -1.4453125, 1.0742188, 0.25878906, -1.9619141, 0.3383789, 0.6977539, -1.1455078, 1.7666016, -1.0908203, 1.0888672, 1.0400391, 2.2265625, 1.4541016, -2.390625, -0.99902344, -1.1572266, 0.04800415, 0.061065674, -0.72802734, 1.4960938, -0.42773438, 0.98535156, -0.44580078, -0.96777344, 1.0771484, 0.40844727, 1.8964844, -0.9584961, 1.2568359, -0.08666992, 2.71875, -0.7373047, -1.3183594, -0.29418945, 1.5058594, 3.921875, 0.57177734, 0.25610352, -1.0234375, 1.1142578, -0.26342773, -0.23730469, 0.98583984, 0.43115234, -0.3161621, 2.3027344, -0.107543945, -1.2587891, -1.0742188, -0.8745117, 0.18798828, -0.62841797, -2.3769531, 0.3959961, -0.22546387, 0.17810059, -2.0722656, 0.5620117, -2.9472656, -0.46923828, 0.35131836, -0.9926758, 0.4453125, -1.0419922, 0.33666992, -0.058166504, -0.39770508, -1.2705078, 1.3388672, 0.089416504, 0.41870117, -0.30419922, -0.90527344, 0.8095703, 0.30517578, 0.101501465, -2.9785156, 0.97265625, -1.2607422, 0.6308594, 1.7695312, -1.1308594, 0.12609863, -0.07788086, -1.5390625, -0.14501953, -1.6503906, -0.7573242, 0.5996094, -0.93652344, 0.7973633, -1.7402344, 1.2861328, -0.14208984, -0.8901367, -1.0908203, 1.1533203, 0.8833008, -2.3945312, 0.52197266, -0.050964355, 2.1230469, -0.15368652, 0.64453125, 0.78271484, -1.8369141, 1.0107422, 0.16137695, 0.9121094, 0.69677734, -1.4394531, 1.0185547, -0.5336914, -0.79296875, -0.36035156, -2.3613281, 1.4960938, 0.43969727, -0.6640625, 1.5546875, 0.71728516, -0.84033203, 0.5854492, -1.7841797, -1.4404297, -0.6230469, -0.32128906, 1.5849609, -1.4003906, -0.99902344, -0.6298828, 3.7714844, 2.2109375, -2.2382812, 0.80029297, 0.21118164, 2.453125, -0.45874023, 1.6503906, 0.76220703, 0.83935547, 2.9277344, 1.7167969, -0.8701172, 0.018951416, 1.5585938, 1.9042969, 0.9433594, -0.79589844, 0.6230469, 1.3730469, 0.22009277, 0.21704102, -2.2265625, -3.1894531, -1.84375, 0.81689453, -0.22692871, -0.118774414, -0.27294922, -1.5439453, 0.6328125, -0.5678711, 2.0898438, -5.4804688, -3.0683594, -0.83496094, 2.4042969, 0.91503906, 0.40283203, -2.0566406, -0.04824829, 0.17297363, -0.4650879, 0.35131836, -1.9648438, 0.2286377, 0.5883789, -2.7480469, 1.9882812, -0.35620117, 0.6303711, -2.9921875, -0.47583008, -0.0345459, -0.33032227, -1.4453125, -1.9287109, -1.0039062, -0.031951904, 1.2480469, 1.9492188, -0.13647461, -1.140625, -0.67578125, 0.053253174, 0.42871094, 0.94433594, -0.22021484, -0.39672852, 1.3115234, 1.7597656, 1.8339844, -0.70751953, 0.26245117, 1.7119141, 0.38891602, -1.3232422, -0.65771484, 1.7666016, -0.27734375, -1.9638672, 1.3310547, 1.3662109, -1.2412109, 0.35839844, -0.9501953, -0.4777832, 2.0820312, -1.5283203, 2.0390625, -0.2626953, 0.88720703, -0.109069824, 1.34375, 2.5664062, -0.18322754, -2.7695312, 2.1230469, 0.45288086, -1.2167969, -0.85791016, 0.0078086853, -2.078125, 0.59716797, -0.45581055, 3.5917969, 0.5258789, 0.6791992, -0.6020508, -0.11621094, -0.35888672, -0.5878906, 0.92529297, -2.2597656, 1.9433594, -0.8745117, -0.22143555, 0.97753906, -1.0869141, -0.41503906, 0.82958984, 3.2070312, -2.046875, -1.4433594, -0.12927246, 0.9448242, 0.70410156, -0.111328125, 1.234375, -0.17480469, 0.081604004, 1.6191406, 0.5332031, 2.6660156, -2.6015625, -0.5258789, -1.7949219, -2.2167969, 1.7158203, -1.6796875, 0.10882568, -1.4257812, -1.3505859, -1.4667969, 0.97509766, 0.7919922, 1.890625, 1.921875, 0.7421875, 1.9140625, 2.2480469, 1.4443359, 2.4335938, 2.1464844, -0.010940552, -1.7431641, -0.9458008, 0.79833984, -1.9082031, -0.43041992, -0.8725586, -0.96484375, -2.0546875, 1.5644531, 0.9873047, 1.2939453, 0.4326172, 0.19482422, 1.0507812, -0.72314453, -0.7607422, 2.8398438, -1.2109375, -0.39404297, -0.2536621, 2.3457031, -0.09063721, 1.8515625, -2.2382812, 0.30932617, 1.9541016, 1.9101562, -0.39501953, -1.8837891, -2.6738281, 0.08911133, 0.7705078, 0.3684082, 1.1376953, -0.6015625, -0.0859375, -0.64697266, -2.2714844, -0.64697266, -0.23071289, -1.4785156, 1.1425781, -0.037963867, -1.7099609, 3.9296875, 0.90185547, -0.43408203, 3.1738281, -0.2980957, 0.76953125, 0.6894531, 1.2802734, 1.2109375, -1.0332031, -0.67529297, -1.9111328, 0.13330078, 0.85839844, -0.40014648, -0.6640625, 0.20385742, 1.4462891, 0.04550171, -0.08258057, -0.75097656, 1.3535156, -0.5546875, -0.7216797, 0.09136963, 0.09246826, 1.7431641, 0.2232666, 0.6303711, -0.5205078, -0.05230713, 1.2763672, 0.25854492, 0.6333008, 0.2927246, -1.6396484, -0.8222656, -2.4980469, -1.4003906, 0.31396484, 0.90185547, 0.32470703, 0.43408203, -0.73291016, -0.021270752, 0.5761719, 0.70166016, -0.97509766, 0.37524414, -0.061584473, -0.4675293, -0.2824707, 1.6298828, 0.19787598, 0.50341797, -2.8164062, 0.58740234, -3.3417969, 0.05609131, 0.25683594, -1.7587891, -1.4863281, -1.9892578, -1.4267578, 0.85058594, 1.2802734, 0.37963867, -1.3486328, -0.23950195, 1.1464844, -1.0693359, 0.36621094, -1.0693359, 1.9638672, -0.08026123, -1.0966797, 1.4863281, -0.68847656, -0.9194336, 1.1230469, 1.0605469, 0.9296875, -3.0683594, 1.3486328, -0.5449219, -0.35229492, -1.3632812, 2.46875, 0.103515625, 0.47705078, 1.2998047, -0.44140625, -0.7133789, 1.8203125, -0.1673584, -0.48388672, -0.7421875, -1.2167969, 0.9555664, -1.1484375, 1.8710938, 1.0214844, -0.24707031, -1.078125, 1.0830078, -1.2509766, -0.65527344, -0.7832031, 1.3945312, 0.43237305, -0.01108551, 1.640625, -1.640625, -0.6274414, 1.9443359, 1.4990234, -0.7368164, -1.7197266, -0.28833008, -0.60595703, -0.9824219, -1.1640625, 1.2714844, 0.86572266, 0.77001953, 0.7324219, 1.4853516, 0.2487793, -1.1269531, 0.9868164, 0.5029297, 0.92285156, 0.65966797, -0.7832031, 0.09741211, 2.4160156, -0.19226074, 0.03591919, 1.1669922, 1.6201172, 1.7753906, -2.0488281, -0.4724121, 0.50878906, 2.4765625, 0.1739502, -0.16748047, 5.1445312, -0.2006836, 2.7128906, -0.101867676, -0.3239746, -1.4785156, -0.92822266, -0.8100586, 0.20019531, -0.60595703, -4.5273438, 0.30419922, 1.1210938, -2.5800781, 2.1621094, 2.9980469, 0.55859375, 1.3242188, 2.0214844, 0.97265625, -0.85791016, 0.13378906, 0.03387451, 1.1669922, 1.0322266, 0.10119629, 0.9580078, -1.3037109, 3.3515625, 3.0605469, 0.91064453, -1.8164062, 0.06488037, -0.47729492, 0.74902344, 1.2519531, 0.7192383, 0.46923828, 0.8173828, 1.2441406, 1.6738281, -0.5517578, 0.69433594, -0.4465332, -0.63427734, -1.3808594, 0.2692871, -2.3320312, -1.6992188, -0.8779297, -1.2900391, 0.3178711, -2.90625, 0.65283203, -1.8242188, -0.84033203, -1.2666016, 0.72314453, -0.35546875, -0.6933594, 0.60791016, -0.28686523, 0.77490234, -1.484375, 1.0810547, 1.2236328, 0.8417969, -0.86279297, -1.4169922, 0.4399414, -2.6621094, 1.3769531, 0.34716797, -2.1113281, -1.0634766, 1.7216797, -1.1328125, -0.9448242, 0.6269531, 0.74560547, -0.20861816, -0.94189453, 1.8037109, 0.33642578, 0.9267578, 0.95996094, 1.5390625, -2.578125, 0.5058594, 0.37036133, -0.4116211, 0.7529297, 0.26245117, -0.5708008, 0.34985352, 0.20056152, 2.4335938, 0.03137207, -1.4355469, 0.46850586, -0.7055664, 0.17797852, 2.0429688, -0.7192383, 1.2714844, 0.6357422, 0.39257812, 0.47338867, 0.78808594, 1.5888672, -1.3310547, -0.15429688, 0.8701172, -0.16064453, 2.546875, -0.9145508, -0.6591797, -0.24475098, -1.8544922, 0.06262207, 0.42529297, 1.3291016, 0.5083008, 2.4121094, -0.59033203, -3.1191406, 0.515625, 0.3059082, -1.9580078, -0.16271973, -4.1835938, 0.7128906, -1.87</t>
-  </si>
-  <si>
-    <t>[0.94677734, -1.7236328, 1.1113281, -1.2724609, 0.49072266, -1.1845703, 0.9355469, -0.48535156, 2.2871094, 0.42773438, 0.90234375, 1.9257812, -1.0634766, -0.2998047, -1.1875, 0.30273438, 0.97998047, -0.6777344, -0.11480713, -0.3461914, 1.1757812, -0.12927246, -0.21533203, 0.1661377, 1.1240234, 2.6679688, 0.77783203, -0.5083008, -0.4189453, 1.625, 1.7138672, 2.2890625, -0.11431885, -0.8251953, 0.7714844, -1.1953125, 1.2675781, -0.009223938, 3.2285156, -0.2902832, -0.1418457, 0.6254883, -0.3984375, 0.5727539, -0.75634766, -0.17028809, 0.3876953, 1.3935547, 0.5830078, -0.21582031, -0.4831543, -0.88916016, -1.9091797, 0.8574219, -3.3730469, -0.3815918, -2.7792969, 0.41357422, 0.23388672, 0.5864258, -0.31835938, 2.3105469, -1.0839844, -0.9301758, 0.73095703, -0.26489258, 0.11138916, 0.34692383, 0.1796875, 2.1425781, 1.265625, 0.8935547, -0.5986328, 1.2802734, 2.3359375, 0.5151367, -0.13220215, -0.38891602, -0.050079346, 1.1757812, 1.5976562, 1.3789062, -1.2958984, 0.09338379, 0.7163086, -1.6367188, -1.4746094, 0.47583008, -1.4667969, 1.1787109, 2.0976562, -1.7832031, -0.32592773, -0.6689453, -0.68408203, 0.08618164, -0.034698486, -0.6538086, -1.5439453, 0.37597656, -1.7949219, 0.086242676, -0.64697266, 1.0039062, -1.8427734, -1.0087891, -1.7636719, -2.0703125, -0.5498047, -0.47631836, -0.73535156, -0.50390625, 1.2529297, 2.2929688, 1.4023438, 2.4804688, -0.38378906, -1.3291016, -1.1279297, -2.2578125, -0.45703125, -2.09375, -1.2148438, 3.8007812, -1.0761719, -1.8857422, 0.06713867, -2.2246094, -0.028656006, 2.9199219, -3.2285156, -0.47509766, 2.0546875, 0.32714844, 3.8730469, 1.9404297, 0.51708984, -1.6679688, -0.7631836, -0.1817627, -1.1074219, 2.3652344, 1.3164062, 1.6757812, 0.8588867, 0.046447754, 1.1816406, -1.1025391, -1.0458984, 2.3886719, -0.74072266, -0.1697998, 0.6064453, 2.0488281, 1.0703125, 1.7949219, 0.9116211, -2.4277344, 1.9130859, 0.49853516, -1.3066406, -0.07043457, -2.0332031, -2.0996094, 2.2441406, 0.23217773, 1.7998047, 1.0859375, -1.6376953, -0.48291016, 1.3037109, 0.98876953, 0.32763672, 0.9682617, 1.09375, 1.0292969, 1.5400391, -0.65625, 1.6064453, 0.13745117, -2.0175781, -0.019485474, -0.5292969, 0.21740723, -0.87841797, -0.029296875, -0.3857422, -2.1992188, -0.3503418, -0.8510742, 1.1103516, -1.8447266, -1.4667969, 1.0859375, -1.4785156, -1.0546875, 1.3730469, -1.0449219, 3.5097656, -0.70458984, -0.3059082, -0.44726562, -1.5947266, -1.3798828, -1.5625, 1.0966797, 1.4648438, -1.2265625, -1.7509766, -1.6738281, -0.37573242, -0.27416992, 0.25268555, 1.1826172, 0.93652344, 1.2099609, 0.71191406, -2.1582031, 1.1425781, -0.1439209, -0.80908203, -1.671875, -0.91064453, 1.1425781, -2.3730469, -0.69189453, 0.73291016, -1.7724609, -0.8144531, -1.0498047, -0.70947266, -1.2333984, 1.7822266, 1.6083984, 1.2548828, -2.9121094, -0.36669922, 0.5708008, -0.45629883, -0.008636475, 0.31567383, 0.31811523, -1.9345703, 2.0097656, -2.2578125, 2.4121094, 0.6171875, -0.47338867, 2.9316406, -1.3916016, 1.1533203, -2.078125, -1.046875, 1.0029297, -0.58447266, 0.66259766, -0.6621094, -1.3671875, -0.19836426, 1.2246094, -0.89746094, 0.10546875, 0.18054199, -0.75634766, 1.4951172, 0.8339844, -0.46923828, 1.6181641, -0.17102051, 0.18469238, 1.3847656, 0.14379883, 2.4902344, 0.35351562, 0.18554688, -0.33935547, 2.046875, 0.91064453, -1.0820312, 0.81884766, -1.2763672, -2.3496094, 1.40625, -0.99365234, 1.3896484, 0.4465332, -1.3320312, -0.6538086, 0.22290039, -1.8798828, -0.9121094, -0.6665039, 0.14208984, -0.25708008, 1.6894531, -1.3642578, -0.9394531, -0.99365234, -0.064941406, -1.3457031, 0.50390625, 0.7626953, -1.4482422, -1.4882812, -0.9916992, 0.51220703, -0.21154785, -0.068725586, 0.61279297, -1.0947266, 2.4472656, -2.203125, -0.0053253174, -0.75146484, 0.19494629, 0.81689453, -1.0703125, -1.0644531, -0.8457031, -3.0019531, 0.46923828, -2.2539062, 2.8046875, 1.4833984, -1.6054688, 0.27954102, 0.10675049, 0.4411621, 1.8632812, 1.4492188, 1.0283203, 0.21850586, -1.7998047, -0.026184082, 1.2089844, 0.30273438, 0.18005371, 4.0898438, -0.1862793, 0.055664062, 1.3330078, 1.5175781, -2.2753906, 1.6650391, -0.6542969, 1.7216797, -0.3149414, -2.34375, 0.06021118, 0.9267578, -0.52490234, -2.3867188, -0.17163086, 2.9882812, 0.77197266, 1.2744141, 1.5283203, -0.6923828, -2.8886719, -1.0498047, 0.2232666, 0.49145508, -1.6464844, 1.2236328, -0.9501953, -0.5239258, 0.4411621, -3.0175781, 1.0039062, -2.8554688, 0.23083496, -0.51123047, 2.3378906, -2.3398438, -0.21203613, 0.031280518, 0.9145508, 0.63964844, 0.08630371, -0.27807617, 2.1679688, 1.1376953, -2.8144531, -0.5605469, -2.3808594, -0.20996094, -1.0761719, 1.6630859, -0.030136108, 0.8154297, 0.9868164, -0.055145264, -0.86279297, -2.2949219, -0.9970703, -0.79296875, 0.6220703, 1.4355469, -2.7695312, -0.14697266, -0.29492188, -0.5239258, -0.41992188, -0.24938965, 0.7001953, 1.1357422, -0.018600464, 1.1757812, -0.08123779, 1.3857422, -0.8833008, -0.036499023, 0.8310547, 0.33251953, 0.5488281, 0.46166992, -1.6308594, -1.0126953, -0.76416016, 0.6191406, 0.18310547, -0.27807617, 0.37280273, 1.3583984, 2.6347656, -0.2866211, -1.6953125, -0.1003418, -1.9345703, 1.5947266, -1.7490234, -0.059173584, 0.8720703, 1.5595703, -0.6308594, -0.0047073364, 0.34960938, 1.5, 2.9296875, -0.030670166, 0.69628906, 0.48046875, 0.27905273, 0.3383789, -0.14489746, 2.1933594, 2.3808594, 2.2890625, -2.3828125, 1.8984375, -0.14782715, -1.0576172, 1.2724609, 0.13549805, -0.31225586, -2.0390625, -0.8823242, -1.3974609, 1.2998047, -0.609375, 1.1123047, 2.8105469, 0.6040039, -2.0761719, 0.53564453, 1.2568359, 2.5234375, 0.29296875, -0.35717773, 0.3762207, -0.36645508, 0.61279297, -0.74560547, -0.008331299, -1.8759766, 1.0214844, -2.3515625, -1.2158203, 0.79296875, 1.9833984, -0.45385742, 1.1142578, 0.08325195, 0.8701172, 1.5302734, -1.6875, -0.98535156, -0.32836914, -0.3864746, -2.125, -1.3984375, -0.9404297, -0.7607422, 0.2980957, 0.390625, -0.6425781, 1.5097656, 1.1279297, -0.7421875, 0.4506836, -0.09375, -0.16357422, -2.2929688, -0.09906006, 0.703125, -1.8710938, 0.8720703, -1.3349609, -0.80615234, -0.43188477, -1.7177734, 1.7138672, -0.72998047, -1.7578125, -1.7314453, 1.1494141, 0.3540039, 0.12225342, 0.47143555, -2.1113281, 1.4921875, 0.03439331, 0.07556152, 0.22021484, 0.7480469, 2.6347656, -1.8476562, 1.4238281, 2.7792969, 1.4013672, 2.6894531, -1.1113281, -0.6879883, -0.9345703, -1.7597656, 1.7480469, 2.9160156, -0.39013672, 0.9189453, -1.2294922, -0.65625, 2.640625, 0.85498047, -0.28076172, -0.050750732, 2.2832031, -1.7177734, 1.8125, -2.1328125, 0.47314453, -1.6230469, 0.29077148, 1.0585938, 0.36645508, 0.30151367, 1.3105469, 0.4921875, 0.49609375, 1.0800781, -0.8198242, 0.9003906, -2.1679688, -2.0019531, 0.8979492, 0.99365234, 0.3544922, 1.0117188, -0.010261536, 1.3876953, -1.4472656, -3.3691406, -1.1953125, 1.5009766, -0.47460938, 1.6552734, 1.2792969, -0.47827148, -1.0292969, -2.1015625, -0.42651367, -0.20825195, 1.7480469, 2.3984375, 0.8251953, 1.2060547, -1.3105469, -2.1171875, 0.49536133, -1.0332031, 0.22473145, -0.3881836, -0.25976562, 0.23706055, 2.8359375, -0.36621094, 0.9223633, 0.34716797, 0.91015625, -1.4648438, -1.7207031, 1.1103516, 1.8320312, -0.80615234, -0.41308594, 1.4287109, 1.8388672, -1.5, 1.7333984, -1.3408203, -2.2539062, -0.7866211, 0.8930664, 1.5390625, -0.49047852, -0.64160156, -3.2617188, -1.1572266, -0.50878906, 0.24645996, 0.5727539, 0.7348633, 1.8945312, -1.1191406, -0.57421875, 0.35791016, 1.2626953, -3.0449219, 1.3925781, 0.5776367, 0.47143555, 0.8828125, 1.8964844, -0.5957031, 0.10211182, -0.1459961, 4.671875, -0.91748047, 1.3369141, -1.1308594, -0.51660156, -0.10650635, 1.4013672, 1.3945312, -0.1986084, 0.31152344, 0.4345703, 1.2851562, 0.22155762, 1.5507812, -0.3696289, -1.7265625, 1.8681641, 0.42651367, -0.52685547, -1.3349609, -1.8759766, 2.2558594, -1.5136719, -2.0585938, 1.8818359, -1.3925781, 0.18444824, -1.2871094, -0.6020508, 0.09436035, -1.1865234, 0.22497559, -1.1337891, 0.9824219, 2.28125, -1.7919922, 2.2636719, -1.359375, 0.7783203, -0.61328125, 1.1894531, 1.6152344, 0.43798828, -0.31982422, 0.8808594, 0.6713867, -2.7636719, 0.4206543, 0.63964844, -1.3466797, -0.57910156, -0.26000977, -1.4267578, -0.84472656, -0.10229492, -0.24047852, -0.2854004, 0.3293457, 0.37280273, -0.35595703, 1.1992188, -1.9824219, -0.5546875, -0.15771484, -3.3085938, 0.59375, -0.42822266, -0.43945312, -0.53564453, -0.8569336, 0.26464844, -1.1376953, -1.1025391, 0.33666992, 2.1386719, -0.54541016, 1.3759766, 0.71533203, -1.4902344, -0.32885742, -1.7226562, 0.026123047, -1.5761719, 2.0703125, -1.109375, 0.32910156, -1.6367188, -0.7792969, -1.2744141, 0.08917236, 2.4414062, 0.45288086, 1.4033203, -1.0048828, -0.9707031, 0.41430664, -0.98876953, 2.1542969, -2.0058594, 3.2890625, -0.6166992, 1.4570312, -0.14489746, 1.375, -0.9638672, -0.47875977, 1.578125, 1.1806641, -1.6064453, -0.86572266, -1.3720703, -0.29663086, -0.5229492, -2.0625, 0.9042969, 0.80615234, -1.0292969, -0.22290039, -0.3959961, -3.3242188, -0.3564453, -0.7397461, 1.8642578, -2.8789062, -0.34326172, -1.6035156, -0.7988281, 1.6230469, 0.6904297, 0.81152344, 0.98339844, -1.6953125, -0.27978516, -0.68310547, -1.2167969, -2.6152344, -5.46875, 1.2636719, 1.765625, 0.16723633, -0.0075149536, -0.31811523, 1.6015625, -0.4736328, 2.7070312, -0.8461914, 0.87353516, -0.7036133, -0.4111328, 1.8378906, 0.008453369, -0.4584961, 0.9067383, -1.8115234, 0.48510742, -0.09686279, -1.28125, 0.83154297, -0.5371094, 1.9667969, -0.83984375, -1.1523438, 0.9140625, -1.6835938, 1.2529297, 0.7285156, -0.56640625, -0.23754883, -0.1842041, 2.1015625, 1.6455078, 0.7416992, -0.6738281, -2.3574219, -2.3984375, 1.3691406, -1.578125, -0.54833984, 0.58251953, -1.1123047, -0.26904297, -1.6884766, -1.3710938, 0.15478516, -0.54833984, 0.90625, 0.89697266, -0.2993164, -0.48168945, 1.4453125, -1.0009766, 0.088134766, 2.2460938, 1.3789062, -0.24560547, -1.2958984, 0.84033203, 0.23327637, 0.23278809, -0.6855469, -0.41748047, -0.14562988, 2.9335938, -0.1821289, 0.35473633, 3.1386719, -0.030654907, -0.6196289, 0.5180664, 0.28271484, -1.9345703, -0.012962341, 1.3007812, 0.95703125, 1.5683594, 0.6767578, 0.56396484, 0.24108887, -0.08850098, 0.56689453, -0.21777344, 1.9921875, 0.29296875, -0.6323242, -1.5205078, -0.11456299, 0.9003906, 0.037322998, -0.94628906, 1.2539062, -0.4248047, -0.61376953, -0.29589844, -0.53271484, 1.3759766, 2.9042969, -0.95996094, 1.1289062, 0.96875, 1.6025391, 0.74560547, 0.19970703, -0.1694336, -1.9199219, 2.2011719, -1.6191406, 2.5957031, 0.21118164, -0.058502197, 0.7006836, -0.58935547, -0.09991455, 2.7832031, 1.2744141, -1.3457031, -0.171875, -1.3769531, -1.4775391, -0.034820557, 0.49804688, -0.4753418, -0.1295166, -1.8349609, -1.3974609, -0.44018555, -0.45336914, -0.51953125, 1.5996094, 1.2626953, -1.6621094, 0.25390625, 0.40795898, 0.7583008, 2.8027344, -0.6166992, -2.1445312, 2.2089844, 0.2290039, 1.5498047, -3.1777344, -1.1064453, -0.93652344, 0.8779297, 0.8071289, -0.46166992, 0.24633789, -0.5239258, -0.24133301, 0.28125, -1.0615234, -0.01235199, -1.0117188, 1.2246094, -0.73779297, 1.1533203, -0.26904297, -0.3166504, 0.9916992, 0.17480469, -0.6801758, -1.2548828, 0.2109375, -0.043701172, 0.17663574, 0.41333008, 1.5849609, 0.15856934, 3.0195312, 2.6171875, 3.3105469, -0.0015745163, -0.20690918, 2.5820312, 0.13049316, 0.08117676, -1.4052734, 1.7636719, -0.39331055, -1.0839844, -2.2363281, -1.4814453, -0.73535156, 0.0025100708, -0.6040039, 0.18603516, -0.43701172, -0.5209961, -1.9140625, -0.46435547, 0.14074707, 2.75, 1.0742188, 1.2011719, -2.6484375, 0.15991211, -0.78466797, -0.84228516, 0.17858887, 0.9067383, 0.8383789, -0.7949219, -0.26904297, -0.103149414, 0.98046875, 0.95751953, -1.8330078, -0.29736328, -1.2939453, -0.7675781, -3.8222656, -0.9526367, 1.2050781, -0.16711426, -0.31396484, 2.4589844, -1.3730469, -0.5205078, 0.2052002, 0.58447266, 0.31054688, -0.03616333, 0.7036133, -0.8544922, -1.7773438, -0.9707031, 0.95458984, 0.0927124, 2.3652344, 1.6787109, -0.16064453, -1.3691406, -0.50927734, 1.7705078, 1.2529297, 0.36547852, -0.3083496, -0.9267578, -0.64208984, 1.1767578, 0.0032196045, -0.7216797, 0.21508789, -1.0205078, 0.55078125, 2.5839844, -0.97802734, 1.2548828, 0.8925781, -1.1679688, 1.8378906, -0.7714844, 0.14660645, 1.2792969, 1.8007812, 0.35180664, -0.6665039, -0.43066406, 2.7597656, -0.28979492, 3.5019531, -1.2509766, 1.6933594, 0.6689453, -0.15563965, -0.73535156, -0.9145508, -0.5654297, 0.093444824, -1.5039062, -1.5869141, 1.3388672, 0.27685547, 1.859375, 0.5644531, -0.70458984, 0.6010742, -0.85009766, 1.6533203, -2.2753906, 0.14233398, -2.2285156, 0.7011719, 1.1123047, -2.1328125, 0.37304688, -0.76220703, -0.6821289, 0.38598633, 0.06378174, -0.93408203, -0.8232422, 1.1337891, -3.3105469, 1.4003906, 1.4755859, 0.53271484, -0.28051758, -0.30737305, 0.85009766, 1.7607422, 0.67529297, 0.8466797, -0.5419922, 0.49487305, -2.8613281, 1.2041016, 0.78808594, -0.23571777, 0.7114258, 1.3193359, 0.4868164, -1.0332031, 2.2636719, 0.7607422, -1.9912109, 1.3964844, -0.32666016, -1.1181641, 0.75683594, 0.4440918, 1.2021484, 3.2832031, 0.0051612854, -0.9951172, 0.1496582, 1.5205078, 1.8085938, 1.4130859, -0.73876953, 2.1835938, -0.49072266, -0.023590088, -1.0996094, -0.14331055, -0.30419922, 1.4609375, -1.7822266, 3.15625, -1.2119141, -0.80810547, -2.0273438, 1.0234375, 1.5244141, 0.076293945, 2.7578125, 1.6914062, 2.7011719, 1.0625, -0.5126953, -1.4003906, -0.55322266, 0.6044922, 0.27319336, 0.265625, 0.55908203, -1.0029297, -0.7871094, -0.10638428, 0.23864746, 2.6230469, 1.3164062, 1.4287109, 0.012809753, 1.1357422, 0.48999023, 1.9619141, 0.9291992, -0.640625, -0.49365234, 2.7714844, 0.6948242, -0.5932617, -2.6757812, -1.2792969, 0.36035156, 0.21057129, -1.6494141, -0.81347656, 0.70166016, 0.54248047, -1.1210938, 0.75878906, 0.5419922, -0.1694336, 1.2275391, -0.27319336, 0.23071289, 0.47143555, -1.1533203, 1.1757812, -0.7314453, -1.4130859, -0.60058594, -1.7763672, 1.8066406, -0.74072266, -0.4189453, -0.57958984, -0.2220459, 0.3864746, 3.3574219, -0.16174316, -0.24511719, 0.34326172, 0.8510742, 1.9199219, 0.013877869, -0.86376953, -2.0703125, -1.0673828, 1.2353516, 0.74560547, -1.4140625, -1.2529297, -1.5712891, -0.111694336, -1.1484375, 1.3330078, 0.57128906, -0.5253906, 1.3603516, 1.7148438, 0.31054688, 1.4394531, -0.25708008, 2.1152344, 0.56689453, -1.6357422, 1.0839844, 0.37939453, 0.29296875, -1.5390625, -0.8095703, -0.032470703, -0.35546875, -0.8833008, -0.9277344, 1.3847656, 0.40771484, -0.17822266, 1.3798828, 0.94921875, 0.578125, -0.0025348663, 1.3173828, 0.78027344, -0.73779297, 0.61572266, 0.8198242, 1.5078125, 3.0839844, -1.0087891, 0.65966797, 0.27807617, 0.61279297, -1.8623047, -0.9785156, -0.7207031, -1.28125, -0.46191406, -0.34814453, 0.9272461, 2.0058594, -0.83154297, 0.64697266, -0.28979492, 0.61035156, -0.40820312, -1.0517578, -0.04537964, 0.033569336, 2.7597656, -0.51123047, 1.6591797, -0.30151367, -1.2285156, 2.2070312, 0.08807373, -0.97265625, 1.5429688, 1.859375, -0.005092621, -0.64941406, -0.51416016, -2.1582031, 2.46875, -0.25317383, 0.9086914, -0.7470703, -1.7978516, 0.7739258, -2.2871094, -0.13928223, -1.3857422, -0.5029297, -3.375, -0.76123047, 0.5131836, -0.3737793, 0.5708008, -0.3503418, -3.9804688, 0.66748047, -2.6308594, 1.4521484, 2.6933594, -1.6230469, -0.6513672, -0.70458984, -1.5996094, 0.22229004, 0.45507812, -0.5756836, 1.6542969, 0.24157715, -1.7509766, 1.8261719, -2.0371094, -0.6821289, 2.0839844, -2.7890625, 1.0410156, 1.4960938, -1.8242188, -0.7709961, -2.6933594, 0.8696289, -0.90771484, 0.16882324, 0.24511719, -1.9394531, -1.3388672, 1.0615234, 1.21875, -0.44848633, -0.89160156, 0.9267578, -0.27294922, -0.1116333, 1.3916016, -1.0908203, -0.1361084, 0.9506836, 0.9589844, 0.890625, 0.24255371, -1.2578125, 0.3330078, -1.6054688, 1.2070312, -2.0917969, 0.053649902, -1.7978516, 1.9160156, -1.1738281, 0.68408203, 1.6611328, -1.7392578, -1.7607422, 0.44970703, -3.703125, 0.113220215, 0.03756714, 0.72998047, -0.35083008, 3.0253906, -1.1425781, 0.24609375, -2.4453125, 2.8964844, 0.21850586, 0.0076675415, -0.06585693, -0.2232666, -0.75683594, -1.6806641, 2.9160156, -0.5161133, 0.5253906, -1.7441406, -1.5986328, -0.53125, 1.3330078, -0.0357666, 2.0136719, -0.9785156, 1.2626953, -0.34204102, 2.4335938, -0.32006836, -0.84033203, 0.30273438, 0.95458984, 0.0022239685, -1.625, -0.064575195, -1.046875, 0.44677734, 0.52978516, -0.70947266, 0.35668945, 0.75146484, -2.5625, -1.28125, -0.57421875, 1.3105469, 0.55908203, -1.8730469, -2.0976562, 0.83984375, -0.10308838, -1.0556641, -1.2207031, -1.5214844, -1.2597656, -2.0195312, -0.7246094, -0.36108398, -1.5625, 0.3955078, 1.2509766, 0.9707031, -1.0341797, 0.6074219, 1.1230469, 3.5703125, 0.41137695, -0.7890625, -0.15063477, -1.8027344, 1.9667969, -1.4794922, 0.21325684, 0.12145996, -1.3964844, -0.30908203, 0.2388916, -0.36328125, 0.8496094, -1.8300781, 0.6118164, 0.0881958, 1.78125, 0.6801758, 1.2080078, 0.58935547, -0.8720703, -1.7001953, 1.3164062, 1.671875, 0.025222778, 0.4260254, -0.5629883, -0.1697998, 0.9277344, -0.21618652, 0.6894531, -0.45336914, 0.25439453, 0.6582031, 0.4580078, -0.5961914, -0.8227539, -1.1650391, 0.734375, 0.7504883, 3.4121094, 0.38989258, 0.64160156, 0.5292969, 2.5703125, 0.41748047, -1.5419922, -0.021575928, -0.61328125, -0.6875, -1.0371094, 0.1862793, 0.18371582, 2.0742188, -0.7011719, 1.1845703, -0.2548828, -1.1083984, 0.04650879, 1.5566406, 1.4414062, 3.2675781, 0.38891602, 0.38208008, 0.51220703, -1.671875, -1.3154297, -0.050323486, 0.4658203, 1.9755859, 0.7558594, 0.8227539, 0.3996582, 0.9941406, 1.9140625, 0.59521484, -0.32910156, 0.5175781, -0.1928711, -0.38232422, 1.5595703, -1.2851562, 2.1777344, 0.96777344, 1.0830078, -0.9316406, 1.2949219, 0.31518555, 0.24511719, 0.08062744, -1.1357422, -0.092163086, 1.9091797, 0.65771484, 0.6567383, 0.21789551, -0.10821533, 1.1357422, 1.3291016, -0.05871582, 0.057678223, -1.5097656, 0.40039062, -2.2480469, 0.9633789, -1.2041016, -1.0351562, 0.8852539, 1.5166016, 0.33374023, -1.3251953, 0.67871094, 0.106933594, -1.4189453, -0.32763672, -2.0703125, -0.19641113, 1.0771484, 0.8725586, 4.3046875, 1.7900391, -0.7241211, 1.5429688, -0.06976318, 0.62597656, -1.125, -1.8847656, 1.3388672, 2.328125, -2.7851562, -0.74316406, -1.0087891, -1.3212891, 0.09375, 2.1972656, -0.7163086, 1.8417969, -0.48706055, -0.111816406, -0.5996094, 0.7866211, -0.93359375, 0.91259766, -0.8955078, -0.03125, 1.8603516, -1.1933594, -0.59472656, -1.2304688, 1.9238281, 0.47973633, 0.9526367, 0.2565918, -2.0917969, 0.045928955, -0.64404297, -0.81152344, 0.8652344, 2.1113281, 0.57177734, -0.35546875, 3.1289062, 0.2446289, 1.640625, 0.35888672, 0.5498047, -0.33251953, 0.23449707, 0.7963867, 1.875, 0.36035156, -0.67871094, -1.0712891, -1.1425781, 0.18334961, 0.097839355, -1.1855469, 0.6459961, 1.0253906, -0.46118164, -0.33984375, 1.2441406, 1.1611328, 0.14379883, -0.0003066063, 0.53466797, 2.9570312, 2.0117188, 0.18688965, 1.4189453, -0.53466797, -0.09301758, 1.1425781, -1.8251953, -1.7421875, 0.5522461, 0.6020508, 0.7529297, 0.35083008, -0.5908203, -0.4333496, 0.19824219, -0.45483398, -0.18151855, 0.41967773, 2.03125, 0.37719727, 0.49902344, 0.8745117, 0.78466797, -1.2490234, 0.32983398, 1.7597656, -0.7207031, -0.03491211, -1.2460938, -0.30688477, -0.60058594, 1.1904297, 1.7773438, 0.47045898, -2.8691406, -0.6801758, -0.9980469, -3.6777344, -0.9482422, -1.1787109, 0.04498291, 0.40356445, 0.21032715, -2.0664062, -1.3007812, -0.2692871, 0.16174316, 0.62597656, 1.6992188, 0.08325195, -0.10437012, 0.5307617, 0.6308594, 1.0820312, 0.16149902, 1.3007812, -6.5703125, 0.024414062, 0.9970703, 0.73535156, -0.77783203, -0.9375, -0.84375, -0.47216797, 1.2685547, 0.3059082, 1.3378906, -0.6586914, -0.46923828, 0.25708008, -1.3076172, 0.18591309, 0.5185547, -1.2119141, 2.375, -0.10284424, -1.0380859, 0.32788086, -0.054351807, 0.2084961, -0.5678711, 0.95947266, 0.6225586, 0.12890625, -0.8413086, -0.9580078, 2.4785156, -0.6166992, 0.2590332, -1.7792969, -1.7939453, -1.4628906, 0.28808594, 0.15942383, 2.1835938, -0.30859375, -0.7089844, -0.4741211, -0.00089740753, -1.4345703, 0.48291016, 1.5546875, -0.70751953, 0.21508789, 0.09399414, 2.0644531, -2.2890625, -1.8691406, -1.0527344, 1.78125, 1.8115234, -0.010383606, 1.7060547, 0.045440674, -0.12536621, 1.765625, 0.27441406, -0.60009766, 1.7080078, -0.7578125, -1.5966797, -0.9399414, -3.9921875, -1.1757812, 1.1757812, 1.6308594, 1.3203125, 2.2714844, -1.078125, -0.18103027, 0.58447266, -1.3193359, 0.16467285, -1.5292969, -0.38793945, -0.17150879, 0.3803711, -1.5712891, 3.609375, -0.83154297, -1.4189453, -0.54003906, 0.33935547, -1.2294922, -0.22753906, 0.30273438, 1.9091797, 3.8027344, -1.9833984, -2.9257812, -1.0634766, -0.85839844, 0.018951416, 0.7583008, 1.6455078, -0.4765625, 3.109375, 0.24853516, 0.9238281, 1.8857422, -0.69433594, -0.39770508, 0.9663086, 1.1113281, -1.7041016, 0.37353516, -2.34375, -0.9267578, 0.69921875, -2.0625, 0.31469727, -1.3476562, -1.9306641, 0.58935547, 2.1191406, 0.5410156, 0.1743164, 1.4326172, -2.5410156, -1.5058594, 0.3762207, 0.61035156, 0.4099121, 2.1308594, -1.6621094, -1.0126953, 0.8232422, -1.9560547, -1.4345703, 0.74121094, -1.0458984, -0.9194336, 0.78564453, -0.17541504, -0.5317383, -2.7773438, -2.640625, -0.6220703, -0.23034668, 0.65625, 0.85839844, 2.2460938, 2.2128906, 1.3857422, 1.8457031, 0.38671875, -0.66259766, 1.0615234, 0.23327637, -0.93408203, -1.8408203, 0.24414062, 2.0214844, -0.7602539, 0.7602539, 0.022857666, -1.6708984, -0.62353516, -1.1201172, 0.00724411, -3.8183594, 0.5571289, -1.5283203, -2.5644531, -1.9619141, -0.14086914, -1.1474609, 0.04232788, -0.8208008, 2.5566406, -0.94189453, -3.3339844, 0.3803711, -2.2988281, -2.3847656, 0.26098633, 1.5058594, -2.0214844, 1.765625, 1.9023438, -0.76904297, -1.3916016, -0.026550293, -0.8774414, 1.7392578, -1.3964844, 0.92089844, 0.32104492, 0.08569336, -4.015625, -0.6386719, 0.7441406, -1.6542969, -0.6557617, 1.2666016, -3.2226562, 0.15112305, 0.058532715, 1.2939453, 2.1308594, 0.58154297, -0.0027656555, -1.3925781, 1.5439453, 4.9335938, -0.46899414, -1.8837891, -1.7998047, 1.0654297, 0.19592285, -0.49365234, -0.35253906, 0.9448242, -0.66308594, 0.87646484, 1.0986328, 1.0712891, 2.2949219, 0.56884766, 0.6538086, 2.8378906, 1.7529297, 0.90527344, 1.0458984, 0.63623047, 1.2783203, -0.17456055, -0.12286377, -1.2919922, -0.9746094, -2.265625, -0.28564453, -1.3574219, 1.1083984, 0.98583984, -1.9345703, 1.4326172, 0.6899414, -0.75146484, 0.2849121, -0.86035156, -2.203125, 1.2119141, 3.4882812, 0.41430664, -0.79541016, -0.89697266, -1.9833984, -0.60546875, 0.15026855, -1.7011719, 0.20568848, -0.021575928, 1.1142578, 0.26367188, 1.3076172, -0.7055664, 0.5180664, 2.5292969, 0.22045898, -1.6113281, 1.4189453, -1.0566406, 2.3339844, 0.35327148, -0.5761719, -0.99365234, -0.16345215, -1.1396484, -0.09423828, -0.9941406, 1.8837891, -0.37890625, -1.5527344, 1.0556641, 0.93603516, -2.4433594, -0.43920898, -0.13171387, 0.38989258, -2.6992188, -0.8588867, 1.3496094, -1.25, 0.76660156, -0.7260742, -0.23828125, -1.1689453, -1.8076172, -0.43041992, 0.578125, 3.1894531, -0.82958984, -1.4775391, 0.5864258, 0.22155762, 0.11608887, -0.8305664, 0.16247559, 0.78125, -0.091308594, 0.79345703, 1.53125, -1.0771484, 1.1054688, -0.4272461, -0.88916016, -1.6308594, -2.5292969, -1.5517578, 1.2128906, -1, -0.19433594, -1.8769531, -0.7998047, -0.10467529, -1.6503906, -0.23950195, 0.07513428, -0.77978516, 0.7133789, 1.8554688, 0.039245605, -1.3007812, 0.6767578, -0.4453125, 0.54541016, 1.4023438, -0.6845703, 1.4013672, -1.4658203, -2.3613281, -0.9169922, 4.3710938, -1.4609375, -1.6455078, 0.48510742, 1.1894531, -0.6948242, -0.3857422, -0.36645508, 1.8330078, 2.2714844, 0.46166992, 0.6801758, 1.2666016, 0.7133789, 0.36132812, -0.6074219, -1.2314453, -0.8676758, -1.671875, 1.1992188, -0.8232422, 0.9448242, -0.6166992, 0.96191406, 1.3974609, -0.22363281, 0.95703125, 0.9580078, 1.2275391, -1.3808594, -2.0097656, 3.0761719, 1.1650391, 1.6591797, -0.32788086, 0.7397461, -3.4160156, -2.3867188, -0.07354736, 1.5351562, 0.1005249, -1.6367188, -1.6074219, -2.015625, -1.5419922, 2.1738281, 1.9375, -0.058929443, -0.06677246, 2.3828125, -0.8725586, 1.46875, -1.2060547, -2, -0.88720703, 0.63183594, 1.2851562, -1.1025391, -1.4492188, 0.17260742, 0.8852539, -1.4101562, 1.4394531, -0.33764648, 4.0039062, 0.59033203, 0.7885742, -0.5732422, -0.4477539, -0.4892578, -2.1777344, -0.074035645, 1.2207031, -0.9086914, -1.8974609, -1.6464844, -7.0820312, 0.60009766, 0.8925781, 1.2216797, 0.77734375, 1.6757812, -0.9921875, 0.010604858, 0.35717773, 0.7285156, -4.5273438, -0.31274414, 0.35668945, 1.2617188, 0.8886719, 3.3730469, -0.2824707, 0.98046875, -1.2900391, -1.3476562, -2.578125, 0.5253906, -1.1445312, 3.0058594, 1.8203125, 0.63916016, -0.61083984, 0.03475952, -0.0049209595, 0.12573242, 1.2089844, -0.11376953, -0.52685547, -0.9814453, 1.2402344, -1.1298828, -1.5654297, 1.4130859, -0.9272461, -0.4765625, -1.3076172, -2.1953125, -1.7421875, -0.95166016, -2.4375, 0.58984375, 3.6484375, 1.1953125, -0.41235352, -0.6923828, 0.33422852, -1.0849609, -0.5317383, 0.14880371, 1.6113281, 1.5253906, 1.2958984, -1.1396484, -0.21936035, -1.234375, -0.51171875, 0.04296875, -1.7167969, 0.59814453, -0.52441406, 0.24694824, -0.40893555, -1.0761719, -1.1318359, -1.4628906, 0.5058594, -2.0917969, 1.4277344, -0.33154297, -1.2060547, 0.609375, -2.7890625, 0.5517578, -0.54589844, -1.0390625, 0.85302734, -1.1484375, 1.2060547, -0.6665039, 0.49780273, -0.11279297, 1.4833984, 3.1308594, 2.8359375, 0.29736328, -0.9267578, 1.2138672, 1.0761719, 2.6816406, -0.73583984, 1.0615234, 0.25878906, 0.87158203, 0.5058594, -0.6201172, 2.1210938, -1.8925781, -0.56347656, 1.3037109, -2.0117188, -2.0527344, -3.421875, 0.1038208, -0.3293457, 0.029891968, -1.2666016, -0.24938965, -0.89160156, -1.6806641, 0.89746094, -0.890625, -0.6816406, 3.8867188, -0.49072266, 0.23461914, 0.59716797, 2.7929688, -1.3496094, 1.0927734, -0.40307617, -2.0839844, 1.7167969, -1.5302734, 1.8447266, -1.6865234, 1.8242188, -0.26611328, 1.0742188, -2.4492188, 0.6713867, -2.0175781, 0.89941406, 0.89990234, 0.94873047, 0.87109375, -0.22375488, -0.2775879, 0.69628906, 0.75390625, -0.1262207, 1.3046875, -1.0292969, -0.26391602, -0.57714844, 0.82714844, 0.28271484, 0.24304199, 0.7792969, 0.19592285, 0.7055664, 0.6845703, -1.4443359, -2.5761719, 0.5126953, -1.1328125, 2.5800781, -0.92333984, -1.0185547, -1.1230469, -0.1005249, 0.50146484, -0.09350586, -1.3173828, -0.7993164, -0.80078125, 0.7739258, -0.6923828, -0.9892578, -3.5390625, 0.87841797, -0.7792969, -1.9921875, -2.6152344, 0.8208008, -0.107055664, -0.28295898, -1.7978516, -1.109375, -0.76708984, -2.3574219, 1.2617188, -0.29541016, -0.13024902, 0.25195312, 0.39233398, 1.1738281, -1.1445312, 1.8417969, -0.15368652, -0.9482422, 0.35791016, -0.9013672, -0.21203613, -0.3083496, -0.4975586, 0.5830078, -0.6333008, 1.4257812, -0.77197266, 0.48706055, -2.0195312, -1.2705078, 1.9814453, -4.6875, 1.1474609, 0.953125, 0.6010742, 0.48632812, -0.46435547, 2.5742188, -2.2089844, 1.4228516, -1.1552734, -2.0605469, 0.23352051, -1.484375, 1.1796875, 0.6074219, -0.44458008, 0.022628784, -3.6328125, 1.5908203, -0.5678711, -2.15625, 2.5878906, -0.7548828, 0.24902344, 0.6166992, -1.140625, 1.7871094, -1.4101562, 2.1367188, 1.5419922, 0.48999023, 0.68847656, -1.6503906, 1.5253906, 1.7783203, 0.9628906, 2.3613281, 0.1784668, 1.9960938, 0.2619629, 0.8466797, 0.3708496, 0.58496094, 1.8134766, 1.5263672, 0.9458008, -0.8881836, -0.39331055, 0.5546875, 0.97216797, -0.5576172, 0.7963867, 0.82421875, 0.4633789, 0.1217041, -1.0625, -2.734375, -1.0839844, 0.3984375, -0.29174805, -1.8232422, -1.3046875, -2.1425781, -0.9868164, -0.75439453, 2.1230469, -2.1230469, -1.2050781, -0.32714844, 1.7988281, -1.4814453, 1.2236328, -0.11529541, 1.9707031, -1.9287109, -0.98291016, -0.47583008, -0.58251953, 1.5126953, 0.25512695, -0.54052734, 1.6708984, 0.46704102, -0.7602539, -1.5566406, -1.2109375, 1.3935547, -1.2548828, -2.1699219, -0.16552734, -1.7177734, -0.82128906, 0.20727539, 0.29638672, 0.109680176, -0.033172607, -0.6689453, 0.24938965, -1.1914062, 1.7695312, -0.6948242, -0.53125, 1.5546875, 2.6464844, 1.8515625, -1.1806641, 1.5908203, 0.4399414, 0.1361084, 0.24523926, -0.77001953, 0.15795898, -0.22631836, -1.546875, 3.0996094, 0.91015625, -1.2265625, 0.41015625, -1.3710938, 1.1123047, 2.4589844, 0.53808594, 1.1865234, -1.4111328, 1.5302734, -0.63183594, 1.1357422, 1.2109375, 0.14489746, -0.625, 0.57666016, 0.75927734, -1.1933594, -0.91748047, -0.27954102, 0.78027344, -2.8300781, 0.7216797, 0.76123047, -2.640625, 0.7290039, -0.7133789, -0.83691406, -0.4453125, -0.35717773, 0.37597656, 0.3269043, 0.19604492, 0.96191406, 0.7885742, -1.4667969, -1.0234375, 0.2626953, 0.0435791, 2.1660156, -2.3574219, -0.75390625, 0.8808594, 0.234375, 2.0546875, -1.1230469, 0.8544922, 0.59033203, 0.7548828, -0.90771484, 0.45117188, 1.3007812, -2.0546875, -1.4941406, -0.57910156, -1.7167969, 0.8774414, -0.9550781, -0.46899414, -0.08569336, -0.5625, -0.8251953, 0.21569824, -0.08709717, -0.3696289, -0.5551758, 2.3886719, 0.51953125, 0.029190063, -0.107421875, 2.296875, 2.515625, 0.91308594, -1.2724609, 0.04031372, -1.2265625, -0.24108887, 0.31347656, -0.37158203, 0.9213867, 1.5136719, -0.859375, 0.38012695, -0.56396484, -1.2207031, 0.8754883, 1.2910156, -1.1425781, -1.359375, 2.5683594, -1.1044922, -0.03543091, -0.20471191, 0.12561035, 0.5644531, -0.42333984, 0.6040039, 1.6552734, 1.7998047, -1.0566406, 0.09857178, -1.8408203, -1.9833984, -0.016403198, -0.6489258, 0.9658203, -0.78027344, -0.58691406, 0.16601562, -0.7397461, -2.0878906, 1.7724609, 0.06762695, -0.8354492, 0.76123047, 0.07989502, -2.7519531, 0.57421875, -0.2849121, -1.5712891, 0.359375, 0.43359375, 1.4716797, 1.2412109, 1.9794922, 3.1894531, -0.5102539, -0.59716797, -0.62158203, 0.52978516, 1.9658203, -1.7949219, -0.72998047, -0.46069336, -1.6933594, -0.56152344, -0.7866211, -0.8925781, -1.7441406, 0.55078125, 0.49389648, -0.42285156, -0.53808594, 0.35473633, 1.671875, -0.45751953, -1.3886719, 1.3242188, 2.4414062, 0.043151855, 0.9267578, -1.7226562, -1.90625, -1.8388672, -0.29736328, -1.2236328, 0.34057617, 1.1533203, -1.6191406, 0.40039062, -2.5273438, 2.0957031, -0.75, 0.20385742, 0.22387695, -0.56591797, 1.5419922, -0.61572266, -1.4228516, 0.46118164, 0.38110352, -0.17895508, -1.0957031, 2.234375, -0.5292969, -0.7216797, -1.2021484, -1.2285156, -3.2421875, -0.8457031, -0.6972656, 0.085998535, 1.7958984, -0.43481445, -0.91748047, -0.23925781, 0.48950195, -0.33422852, 1.7861328, 0.31274414, 0.42211914, 1.8544922, 1.2958984, 1.2539062, -1.5947266, -1.2871094, 0.49609375, 0.9057617, -1.5078125, -1.1464844, 0.89501953, 0.42944336, 0.9785156, -1.6523438, -0.77197266, -1.4033203, 0.9003906, -0.061584473, -0.77490234, -1.6103516, -0.20922852, 0.9736328, -2.1777344, -0.32666016, -0.09899902, -0.9658203, 1.2685547, 1.9902344, 0.45385742, -1.5869141, 0.018218994, 0.97998047, -1.9628906, -1.2900391, -0.234375, 2.2890625, 1.3154297, 0.5698242, -0.8647461, -0.08355713, -0.15771484, -0.39501953, 1.5341797, 0.7944336, -0.5859375, 0.79052734, -2.03125, -1.4140625, -1.8642578, 0.51220703, 2.7460938, 0.6191406, -1.6103516, 1.09375, -0.5493164, -0.119140625, 1.8730469, 0.5698242, -0.6738281, 0.4362793, 0.96972656, -0.07891846, 1.6962891, 1.9824219, 0.6621094, 0.86279297, -0.17932129, -0.37036133, -0.8754883, 0.9770508, 0.06921387, 0.9277344, -0.23400879, -1.4609375, 4.234375, 0.21740723, -0.5786133, 1.2900391, -1.7509766, -0.77001953, -1.1572266, -0.90234375, 1.2939453, -0.8457031, -1.5722656, 1.8554688, 2.125, 1.0087891, 1.8212891, 2.0097656, -0.67285156, 1.3632812, 1.96875, 1.5800781, -1.71875, 1.1640625, 1.328125, 1.953125, 0.44848633, -0.50634766, 2.4980469, -1.8261719, 1.3212891, 2.6738281, 0.079956055, -1.0742188, 0.8803711, 1.3847656, 1.6787109, 1.4130859, 1.7099609, -0.85253906, 1.2919922, -0.5751953, -0.69384766, -1.7421875, 1.4941406, 0.18041992, -0.22644043, -0.46875, 1.1826172, -0.9116211, -2.3066406, 1.2216797, -0.9975586, -0.27148438, -0.8251953, 1.2802734, 0.72216797, -1.0195312, -0.41064453, 2.9570312, 1.2880859, 0.24536133, -0.120788574, 0.5527344, -1.2021484, -0.44995117, 0.7714844, -0.27026367, 1.6152344, -0.10449219, -2.1425781, 0.4230957, -0.63671875, 0.3876953, 3.0351562, 0.29125977, -0.6791992, 0.7944336, -2.6601562, -1.4414062, -1.3164062, 1.6162109, 0.28027344, -3.3359375, 0.54052734, -1.2011719, 1.4472656, -0.5317383, -1.0078125, -3.4121094, 0.45166016, -0.2253418, -0.5888672, -1.4189453, 1.6318359, -0.7753906, 1.5224609, -1.4873047, 2.2539062, -0.67285156, 0.71191406, 0.85498047, -1.515625, -0.26489258, 1.7578125, -1.8115234, -0.37524414, 1.6494141, -0.21276855, 0.8959961, 0.4946289, 1.1210938, -1.5214844, -0.38427734, -0.13098145, 0.23596191, 1.6962891, -0.20239258, 0.01965332, -0.5463867, -0.9892578, 0.9238281, 2.484375, 0.0947876, 1.0244141, 1.7441406, -0.47583008, -0.12561035, -2.4121094, 2.0078125, -0.7519531, -0.35009766, -2.0507812, -0.5439453, -0.7392578, 2.484375</t>
-  </si>
-  <si>
-    <t>[-0.25681847, -0.35620633, 1.4377302, -0.17029028, -0.98589534, -1.8339113, -0.2640098, -0.50800467, 1.5900058, -0.923112, 0.47564152, 0.8698504, -0.29752764, -0.7670946, -0.54724103, 0.6137354, 1.3647159, -0.015786173, -0.46522644, -0.23335636, 0.39502826, 1.8538964, 0.39522517, -0.43608516, -0.32629254, 3.973104, 0.6312611, -0.6541349, -0.40760845, -0.08157473, 0.5994372, 1.9030598, 0.5906615, 0.6997078, 0.9171898, -2.0201316, 0.61299783, -0.38624477, 1.1454523, 0.029977294, 0.0010686611, 1.5625868, 0.26853722, 1.0280329, -0.7457301, -0.29179966, -0.89850855, 0.2990155, -0.4273255, -0.3274263, 1.9438698, 0.9074949, -0.49760702, 1.2495824, -2.3275406, 0.062319774, -0.43325028, 0.7246848, 0.50129175, -0.5398374, -0.4720457, 0.6268864, -0.085659616, -0.73965794, 0.21090098, -0.32283726, -1.9374647, 0.44500366, -0.5777598, 1.2105438, 0.80018973, 0.34454554, -0.59090924, -0.37415364, 2.711668, 1.0352992, -0.32808015, -0.8559737, -1.3964264, 1.7729075, -0.49168018, 0.025737781, -1.7797451, 1.153506, -0.64188975, -0.47575742, -1.6974292, -0.93844205, 0.103833206, 1.0635687, 2.6289318, -0.13156758, 0.95176256, -0.23477198, -0.54625887, 0.537656, 0.5030401, 0.52206475, 0.040097814, 0.93276167, -0.88236153, 0.019582063, 1.8585998, 1.3598704, -1.6543127, 0.55779344, -2.264188, -1.121532, -1.0958627, 0.12398374, -0.16560356, -2.559513, 1.8681037, 1.2531028, 0.789677, 2.6064882, 0.5311682, -1.3825902, -1.6910394, -2.449152, -0.5323734, -1.3320256, 0.68452424, 1.4890656, -0.7326378, -1.3715955, -0.057611633, -2.25403, 0.023254097, 0.925343, -2.7305894, -0.19481172, 2.477563, -1.1002898, 4.1022296, 0.34251302, -0.6115445, -1.9141732, -0.05145373, -1.773582, 0.36842528, 0.6410839, 0.14384924, 1.0074869, 0.42835048, -0.8297891, 1.5732954, -1.6351124, -0.8732612, 0.118803985, -0.1762862, -1.0262529, -2.2140021, 1.9958985, -0.14535697, 1.6206682, 0.3674892, -0.7720195, -1.0886433, 0.75307894, -0.58619475, 0.025497016, 0.26092163, -1.601264, 2.784302, -0.27065706, 1.958689, 1.4887366, -1.4873412, -2.9361439, 0.1205483, -0.7496324, 0.18097211, 0.21759634, 1.0105374, 1.3689643, 1.256963, -1.3399692, 0.2786649, -0.4105417, -0.426761, -1.3442867, 0.059465114, 0.57630247, -1.8116989, -1.266566, -0.73495775, -0.99871695, -0.2441557, 0.8293326, 0.7775303, -2.5130415, -1.0880764, 0.05939644, -0.4762092, 0.061556783, 0.69236135, -1.2768086, 3.4470973, -0.5888406, 0.58406776, 0.12587613, -0.9065025, -0.73390555, -0.7030202, 1.4729341, 1.2100149, -0.44809294, -0.8469877, -0.55541474, -0.40062642, -0.30140856, 0.046983052, 1.1213161, 0.016257782, -0.3680021, 0.71032, -0.593831, -0.09282266, 0.10410891, -0.79927593, -2.2326915, -0.8697031, 0.93859905, -2.5127604, 1.6339225, -0.9302361, -1.2597593, -0.74660504, -0.3307395, 0.062394008, -0.5818129, 0.73393357, 1.326248, 0.99850893, 0.81965035, -1.0414141, 1.7276875, -0.74265116, 0.04783886, 0.48664623, 0.93380517, -0.949214, 1.5158719, -0.78421223, 1.4254414, -0.60210496, -1.964242, 1.4056339, 0.79517317, 0.56974244, -2.2486343, -0.6898993, 0.24145508, 0.14620729, 0.23264576, -1.0457429, -0.4069328, 1.1147459, 1.6005319, -1.7937227, 0.117335774, 0.35248417, 0.16550273, 0.985847, 0.29157537, -1.3382319, -0.060583398, 0.5152307, 0.82359374, 0.92355657, 0.20601737, 4.462627, 0.35308054, -1.8878561, -0.20341241, 0.94543, -0.073940866, -1.4278821, 0.41850823, -1.4846466, -1.208238, 0.45290428, 1.0549693, 0.81565994, 0.07727353, -1.9431403, -0.8547256, -1.1007003, -0.98767626, -1.6782964, -1.0440596, 0.34232566, -1.7803671, -0.8890784, -1.2472243, -1.2755891, -1.9454936, 0.049368013, -1.6674368, -0.24065636, 0.49574777, -1.862107, -1.0309706, -0.27714923, 0.93705857, 1.5661875, 0.6756971, 0.6806387, -0.27378067, 1.1032838, -0.13689025, -1.0622325, -0.20436834, 0.13270845, -0.13274105, -0.46869126, -0.9223291, -1.1744927, -2.4286997, -0.30607295, -3.0997984, 0.7115949, 0.32206833, -1.2321043, -0.764893, -0.3014982, 1.2809197, 1.0703728, 1.4353818, 0.7251429, 0.84106326, -2.275705, 0.70281774, -0.47306752, -0.37685388, 0.34026256, 1.2201283, -0.39760226, -0.23739043, 1.1284934, 1.425173, -1.719004, -0.4771675, -1.8862582, -0.45866203, 0.48897675, -0.5060071, 0.38914508, 1.5919541, -1.2736813, -1.8014704, 0.73644406, 0.7128557, 0.9352769, -0.16558293, 1.6343877, -0.50154823, -1.4181243, 0.13697997, 0.58754086, 0.9154948, -1.8448933, -0.6226904, -0.5170922, 0.3230842, 0.36113122, -1.0620236, 0.68826693, -2.0284266, -0.5677647, 1.2180557, -0.18645357, -1.2108423, 1.2117807, 0.2591535, -0.9230405, 0.723975, 1.5590638, -0.4585231, 2.3921716, 1.755094, -1.4764926, -0.254882, -0.69952047, -0.08383248, -0.785163, 0.5080221, -0.72772187, 1.3282179, -0.22570662, -1.0026613, 0.299555, -0.27887926, -0.0047351373, -1.7331587, 1.3160207, 1.9432625, -0.93693155, -0.90169626, -0.05011433, -0.0013378112, 0.0029963795, -1.703468, -0.8999349, 1.0849245, -1.1460549, -0.9263307, 1.2522767, 0.81040394, 0.32494444, -0.11237456, 1.2107941, -0.1649033, 0.88781995, -0.30760172, -1.4219512, -0.17932148, -0.844436, 0.16780043, 1.0236963, -0.48499268, 1.0910617, 1.8512799, -0.027666096, 0.041994173, -1.4796621, 0.3235018, -2.2375221, 0.96591717, -0.66560274, 0.3053568, 0.15491298, 1.0068232, -1.0891887, -1.4734453, 1.2284315, -0.6207508, 1.9501246, -0.08764628, -0.21029282, -0.55548584, 0.98953056, 1.2128545, 0.8562377, 3.5939596, 1.140571, 0.43398756, -1.7872777, 1.7818693, -1.2590169, 0.11480326, 0.16674607, -0.040035885, -0.63553613, -0.98925143, -1.0114424, -1.2446599, 0.85096544, -0.64958715, 0.58839715, 2.6520326, -0.9209659, -0.86922956, 1.253295, 0.26049447, 2.4132082, -0.05590225, -1.5698997, -0.53552663, -0.76793164, 1.1595854, -1.0340812, -0.20053631, -0.54370993, 0.2970084, -2.2563136, -0.8982926, 0.15434292, 0.84833825, -0.8774803, -0.25887284, 0.25677973, 0.81597674, 1.3336112, -2.3348677, 0.15353131, 0.9064386, 0.23730865, -0.055141244, 0.5418497, 0.5827942, -1.1169088, 0.09346378, -1.0125539, -1.2963177, 1.27379, 0.6552528, 0.02811706, 0.57443035, 1.9317657, 0.18963414, -1.6196821, 0.30633774, 0.6149954, -1.8131781, -0.8002509, -0.92029977, -0.837027, 0.042825837, -1.2361153, -0.042787727, 0.26219392, 0.043101735, -1.8829951, 0.26790443, -0.22686261, 0.22830443, 0.90007937, -1.5149597, 1.1277149, -0.37750968, 0.23918179, -0.89881146, 0.92922664, 3.3736725, -0.20213732, 1.8475816, 0.8549527, 0.3347426, 2.6773818, -1.1600562, 0.15131588, -1.3741497, -0.60972434, 0.66360515, 2.4869506, -1.28997, -0.35507008, -1.9584548, -0.097088575, -0.10898279, -1.5503138, -0.37294048, 0.30993393, 0.028051956, 0.6654964, 1.1168429, -2.2484374, -0.010715193, -0.8748029, 0.2222688, 0.41396245, -0.24858914, 1.3877556, 0.4294132, -0.23260449, 0.6433308, 0.6994863, 0.26924384, 0.32549465, -1.5906997, -1.6175647, -0.38800338, 0.1583762, 0.24455984, 2.2714827, -0.44456577, 0.96910095, -1.8428576, -2.3151486, -0.81551874, 0.38188517, -0.18311024, 0.74724025, -0.2640363, 0.2720572, 0.74055356, -1.7297224, -0.60867155, 1.6788273, 0.4526685, 1.8791889, 0.32444423, 1.4483327, -0.26625183, -0.72435373, -0.45508367, -0.5140554, -0.47473323, 0.23101181, 0.017397104, 0.29820725, 0.9364282, -0.63453895, 1.1067479, 1.801237, 0.22613615, 0.13386051, -0.9429084, -0.31081048, 0.38829792, -0.20095989, 0.2707595, 2.0937579, 1.2604183, -1.8755002, -0.2548189, -0.4214717, 1.0225054, -0.7351928, 0.33699346, 1.1408203, -0.5609375, -0.26676947, -0.4186071, -0.9162157, -1.3278872, -0.6663332, 0.7035589, 0.38774374, 1.1201085, -1.770669, 1.2719616, 0.76107407, 0.49805045, -0.96381795, 1.270962, 0.5936579, 0.6441744, 0.62821233, 2.1638355, 0.001953919, 0.9893563, 1.3486836, 4.09986, -0.6883416, 1.9526391, -1.2602468, 0.24945982, -0.81093216, 0.66455317, 0.4554735, 0.2890752, 2.0655096, -0.44954744, 0.4067359, -0.624967, 1.5110875, 0.6320265, -1.7394468, 0.38211542, 1.5363518, 1.202917, -2.4298797, -1.9927337, 0.101959474, 0.124036536, -0.11063024, 0.49537283, -1.3075664, 1.851264, -2.736741, -1.0906506, 1.2104023, -0.71317166, 0.619879, -0.2527701, 0.8272739, 0.2027042, -0.80404913, 1.0667841, -1.1175015, -1.0791031, 0.30234614, -0.8338438, 1.8866457, -0.17976849, 1.0779257, 0.72646356, 0.46466908, -1.0448472, 0.27134603, 1.2750778, -0.9112805, -0.076325506, 1.2282166, -1.0839701, -0.25600863, 3.8533895, 1.1104294, -0.79042494, 0.6746102, 0.43982193, -0.9612376, 0.10425519, -1.0473737, -0.36699855, -1.446949, -2.665174, 1.0408696, 0.15018737, 0.5115441, -1.3184919, -1.1770631, -0.21318994, 0.024808943, 0.4254986, 0.7273176, 0.6909648, 0.43946663, 1.0879046, 1.6822115, 0.21502954, 1.118082, -1.8389164, 1.0916508, 0.24525216, 0.58473384, -1.6349181, 1.1769294, -0.5186627, 0.1679227, -0.20292015, 1.219039, 1.965698, -0.71858764, 0.83775723, -0.47477135, -0.9563306, -0.59131855, -0.30042714, 1.1440914, -0.43591407, 1.3414761, -2.9380298, 0.5460929, 0.6397929, -2.1584563, -0.28943625, 0.86432093, 1.7738312, 0.9414523, -0.8925956, 0.79336095, -1.2350229, 0.38430116, 0.82346964, -0.3097037, -1.4689457, -0.112272926, -0.4977531, 0.18259436, 0.312723, -2.4546177, -1.7119331, 0.5501651, -0.16490251, -0.7924622, -0.039468408, -1.1706904, -1.7958444, 1.7240536, -0.42134145, 1.4432006, 0.7620141, -0.3247507, -0.9349625, -0.054251224, -0.44784582, -2.3537824, -4.0033283, 0.76384497, -0.45117822, -0.4000516, 0.8262624, -0.1738194, -0.17389482, 0.2752364, 2.786706, -0.40410554, 0.52101713, -0.72651803, 0.7629629, 0.4787923, -0.30761084, -0.7111892, -1.3546009, -1.9902947, -0.06155361, -0.41173697, -0.87341726, 1.1422065, -0.4389585, -1.0481422, 0.85629606, 0.15749809, 0.45219845, -1.4304608, 1.2502699, 0.23984851, 1.3985724, -0.7498174, -0.16380645, 0.046705093, 0.6151296, -0.04263688, -1.2206888, -1.1274295, -1.8495998, 0.69262856, -1.3675337, -0.53141993, 0.6853341, 0.29501238, -0.8798542, -0.034852166, -1.4676003, -0.12829967, 0.40260416, 0.7550948, 0.34897342, -0.048542302, 0.5243732, -0.17566057, -1.332803, 0.19194812, 1.4549352, 0.44469917, 0.3994438, -0.17657362, -0.6052022, 0.94888014, 0.06136822, 0.030091623, -0.46060562, -0.5264148, 0.5389164, -1.4165078, 1.1204042, 1.5508194, -0.46391007, -0.42411235, 0.8738726, -0.055977672, -2.0115187, -0.38987154, 1.6719393, 0.27501428, 0.42698807, 0.35755843, 0.6103468, 0.7477448, 0.8112228, -0.34106007, -0.75836194, -0.7549003, 0.335019, -0.43440834, 0.27007708, -0.28618124, -0.081027694, 0.0022460937, -1.2658823, -0.33812642, 0.27953362, 0.15474229, -0.7527725, 0.35368434, 1.8151534, 1.6540333, 1.067313, 0.9345767, 0.97290397, 0.87908846, 0.39700362, 0.623314, -0.026229039, -0.57631797, 1.1142356, -0.28508738, 1.4310975, 0.38688627, 1.0499793, 0.40502453, -0.85478693, -1.1373317, -0.40067327, 3.0816724, -0.26553607, 0.47852117, -1.4288062, -0.4047395, 0.2057641, -0.6724677, 0.13486795, 1.4180418, -1.1272167, 0.023888465, -1.0235816, -0.60164666, 1.4587668, 0.744486, 0.5409156, -0.5345735, -1.7492061, -0.2774835, 0.8497801, 1.3116933, 0.37961525, -0.986506, -0.12662284, -0.21435468, -0.6262989, -2.5421748, -2.1032996, 0.03846862, 0.7052377, 1.3029146, -0.70681936, 1.1719353, -0.65246266, -0.69297194, 1.7708468, 0.73443496, -0.0046104863, -1.3706063, 0.32868156, -0.9419723, 0.51220626, 0.13812882, -0.44154757, 1.0882267, 0.67120767, -1.0308638, -3.2169461, 0.25186816, 0.3567486, -1.1686102, -0.04918461, -0.28349033, -1.3653669, 1.255329, 1.7747205, -0.4522294, 1.229699, 0.70142, 0.7506193, -0.5171748, -0.36510774, -1.4389466, 0.12916349, -0.42266935, -1.5507749, -1.4908283, 0.08339367, -1.3688929, 1.9458909, -0.24568248, 0.06444561, -0.7624823, -0.4700489, -2.1687102, 0.72813094, 0.28043938, 2.5324695, 0.09111447, 0.5010131, -1.3109518, 0.81464076, -1.3961319, -0.18248856, -0.021122333, -0.07840209, -0.5928997, 0.28512686, -0.008322218, 0.9010159, 0.3219278, 0.78813577, -1.674576, -0.5550789, -1.6342908, -0.8751804, -0.4886814, 0.34642562, 0.8415047, -0.03594703, 0.04282683, 1.5737725, -0.8825632, 0.10737582, 2.122584, -1.1140815, 0.20648898, 1.0769372, 0.71107006, -0.45231357, -2.7684515, -1.9834985, -0.18721418, -0.36091647, 0.7710715, 1.894463, -1.1534823, -2.5874777, -0.5124442, 1.0987854, 1.6620172, 0.66632605, -0.8813413, 1.4290936, 0.019439945, 0.5783219, -1.1741385, -0.51754636, -1.1673701, -1.7984097, -0.51387185, 1.4403106, -1.8178068, 1.0153025, 0.24712509, -0.65593165, 0.7303719, -0.29402947, -0.11521175, 1.332892, 2.6260924, 1.347842, -2.2257452, 0.36749396, 2.42789, -1.072688, 2.1569932, -1.4027673, 2.9054513, 1.1146536, -1.1928469, -0.17193097, -0.72685784, 0.77754104, -1.3232218, -0.16139482, 1.2121006, 1.7281933, 0.40199402, 0.041154567, -0.030375857, -0.44066787, 0.62939376, -1.0542048, 1.0260416, -0.07588923, -0.19566184, -1.2141768, -0.95741713, 0.075820945, -1.542332, 0.5950775, -1.0824234, -0.97994, 0.7685928, -3.2729738, 0.09726245, -1.5082587, 0.4587335, -1.3214114, 0.26685882, -0.17948742, -1.1206777, -0.95878035, 0.4957983, 1.125054, -0.18452188, 0.45535123, -0.47733423, 0.4426073, -0.428518, -1.6694264, 0.64912826, -0.21185213, 0.65345013, 1.6844631, 3.6589456, -1.1488067, -1.3197964, 0.17779154, 0.68513006, -1.8620276, 1.4024216, 0.2684219, -0.53675365, -0.25626588, 1.0410807, 1.4276296, 1.3750381, 0.5634222, -0.5546883, 1.0361376, -0.9259766, 0.5340955, 0.9499349, 1.6578172, 1.6244078, -0.52135575, 1.6354135, -0.9867394, -0.016145833, 0.21698424, 0.6188862, -1.468137, 2.1420653, -0.12693249, 0.5226245, -0.6476658, 0.813787, 0.40289316, 1.0034529, 1.4220021, 1.880618, 1.8488916, 0.22311595, -1.1546531, -2.8054862, -1.0975571, -0.030145612, 0.6982684, 1.3440529, 0.32943186, -0.0027423145, -0.6739393, 0.55129176, -0.1990679, 0.520376, 1.0737567, 1.1431811, -1.418318, -0.7206428, 0.7185063, 0.64553165, 0.023655044, -0.49697822, -0.05023104, -0.5886139, 0.89915127, 0.16658251, -1.3977007, 0.33329365, 0.15410236, -0.3240925, -2.219636, -0.62303495, 0.10531562, 1.5225848, -0.9759575, 1.3720745, 0.094354995, 0.7856088, 0.07700235, 0.48259336, -0.39258465, -0.016013242, -1.9438953, 0.53190583, -0.273528, -0.06375206, 0.3867624, -0.18085937, 0.2079951, -0.6881288, -0.97142243, -2.0727365, -0.37152407, 0.14697702, 2.1949186, -0.08879414, 0.12084127, 0.863105, 0.29301164, 1.2360121, -0.4401502, -0.5734145, -1.2537824, -1.2355707, 1.4155028, 1.2751014, -2.2544684, -1.3206666, -0.64779043, -0.3416365, -1.4301242, 0.81942207, -0.97091115, -1.1455662, 0.99484724, 0.92997175, 1.0928171, 2.432949, -0.26404503, -1.4545302, -0.749006, -1.2149835, 3.7730649, 0.4145222, -0.40411666, -1.6368489, -1.0809221, -0.09127604, 0.63618916, -1.0109454, 0.3584953, 1.546578, -0.9676115, 0.6298002, -0.20957349, 1.2566978, 0.11458175, -0.8597966, 1.2552576, 1.1124172, 0.070595145, 0.16552338, 0.3624739, 0.40490982, -0.2471775, -0.5780001, 0.81969005, -0.43120077, 0.10391657, 0.33149612, -0.5441787, -0.62592417, -0.37749618, -0.41052464, -0.26892388, -0.27882686, -0.59459794, 0.04607013, 1.9676973, -0.46485248, 0.30810627, -0.54941726, -0.44016293, -0.43643808, 0.022378366, 3.1505208, 1.1086199, 0.48719552, -0.83152866, -0.008131669, 2.3120284, -0.5052291, -1.3648072, 1.3193392, 0.95504797, 0.008575489, -0.3604008, -0.94153804, -1.7240599, 1.0709413, -0.25201663, 0.5569813, 0.63070613, -0.4438933, 0.42886814, -0.6888656, 0.6200632, -0.8543525, -0.26374573, -0.4606231, -0.32976234, 0.9181529, 1.4316117, 0.3699179, 1.3953837, -0.26875636, 0.5890466, -0.9910998, 0.49401677, 1.637843, 1.0326346, 0.15176158, -0.47977802, -0.121979006, 1.2043104, 0.80125576, 0.6658473, 1.0551068, -1.1557486, -0.6261179, 0.7236058, -2.1796463, -0.42572805, 1.9600475, -3.0744982, 0.30910107, 0.7637084, -0.47464907, -1.3135909, -1.2216241, -0.36196566, -0.080471925, 0.30937898, 0.07941835, -1.3376778, -0.9344151, 1.1553751, 0.04435658, -1.1119229, -0.668885, 1.1683316, 0.7883098, 1.6283442, 2.4287522, -1.0733851, 0.16997865, 1.1939553, 0.60444933, 0.95688933, -0.7006939, 0.08036236, -0.4787935, -0.030706141, -0.32311752, -1.987119, -0.38536665, -0.48672032, 0.43522453, 0.16705252, 0.39032093, 0.17085001, -1.1577784, -1.5192915, -0.27802974, -1.9379097, 0.028174225, -0.9443534, 0.06838558, -0.5993005, 4.425235, 1.140864, 0.6535978, -2.2629383, 0.79511243, 0.86472625, 1.1249713, 0.90822375, 0.44842163, 0.22075234, -0.99608105, 1.7660981, -0.414576, 0.5658441, -1.1231513, -1.5169319, 0.18286808, 0.17539777, -0.33517492, 1.1588812, 0.5363448, 1.493723, -0.11433433, -0.76948917, 2.7926066, 0.4644033, -0.17953506, 1.3351928, 0.3033759, -0.694681, -1.7342964, 0.31455794, -0.29695567, -0.9904138, -1.3883415, -1.1900734, 0.25998318, -0.43294588, -0.7301734, -0.30490267, 1.3361026, 1.4401546, -1.26055, -0.8383892, 2.4543033, 0.146008, -0.414099, -1.1596695, -1.5222021, -0.6142642, -1.0346354, -0.04020897, -0.35246125, -2.5358088, -0.98531026, -0.39805323, -0.06508868, 0.03724276, 0.5378061, 0.92350656, 2.2177656, -1.0296732, -0.20670573, -0.913556, -0.06253811, 1.1797439, -0.5930164, 0.64000887, -1.1139038, 0.45134178, -0.45248666, 1.7183149, -1.0516578, 1.6484327, -2.0290604, -0.5606946, -0.016256193, 1.5335048, 0.14393578, 0.9032298, -0.52581936, -1.1548114, -1.0527511, -0.23603277, 0.8772072, -0.036123283, 1.5741727, -0.7329264, -0.106729545, 0.5927516, 0.41284895, -0.03892048, -0.6021262, 0.73543173, 0.28499112, 0.85606897, -1.666983, -1.1517352, -0.64653045, 0.905776, 1.5274359, 1.2955284, -0.3289769, 0.38767627, 0.27183515, 2.1472197, 0.15425558, -1.6716353, -0.13119283, 0.009706078, -0.6390609, -1.2450918, 0.6483835, 0.69970864, 1.8309768, -0.8879462, 0.592097, -1.1704335, -0.80976045, -0.23897913, 1.9275184, 0.053627174, 0.97957, 0.7719909, 1.7427354, 0.25260773, -0.7014188, -0.47848505, -0.073960714, 0.4716535, 1.2148914, 0.3590447, 0.7109264, 0.736489, 0.9432776, 2.8840892, 0.8183088, -0.84225893, 0.3480421, 1.0345521, -0.73443377, -0.15418573, 0.15586731, 1.7212113, 1.3037142, 2.0296435, -0.7697472, -0.13135956, -0.22272135, 1.6001225, -1.2185268, -1.0954348, -0.68152314, 1.82564, -0.46600452, 0.5744077, -0.64400405, -0.61001426, 0.17190358, 1.5362972, -0.097112395, -3.2674828, -0.24473926, -0.1416107, -0.6133472, 1.0555593, -0.6109828, -0.9058768, 0.35988155, 0.9976729, 0.76553446, -0.28165492, 0.6150708, 0.16460675, -1.9329126, -1.6050638, -1.6735169, -0.14584206, -0.68339807, 0.6339526, 1.5465701, 1.3696424, -1.7676686, 1.3813818, 0.3621594, 0.66668415, 1.0540515, 0.67197263, 1.6922017, 1.2441072, -1.8460969, -0.65878075, -1.1867219, 0.9044176, -0.027539063, 1.76969, -1.5269674, 1.5451319, 0.5833619, -1.468253, -0.25852785, -0.85851437, -0.4542302, 0.29405013, -0.9264398, 0.84607035, 1.9065199, -0.30489394, -0.5584048, -0.1447204, 0.26354167, 0.29177228, -1.9203131, -0.04915563, -1.5987884, 0.9785577, -1.210126, -0.24242172, -0.10647469, -0.60722655, -0.4100705, -0.6915992, 2.6242394, 0.37196788, 1.1597577, -0.8845703, 0.9994367, 0.9310007, 0.017640451, 0.84214383, 0.8423511, -0.3438691, -0.70290744, 0.07101882, 0.20460017, -1.4266621, 0.35607648, -0.24877572, 0.5164713, 0.9478397, -0.41798145, 0.38726518, 0.2829824, 0.75729007, 1.0177083, 0.55191976, 0.054682937, 1.135789, 0.9170414, 0.50938773, -0.38619632, -1.3915079, 0.40272325, 1.4431713, -1.4778486, -1.38555, -0.6601753, -0.09408902, 0.82719964, 0.46463096, 0.00016673018, 0.028347308, 0.72090477, -0.61703503, -1.7341455, 1.8733962, 0.9870331, -0.9354627, 0.038943406, 3.375644, 1.9438882, 0.43651804, -0.15666921, 1.6415714, 0.18533091, -0.11764482, 0.77747434, -0.592466, -1.2873881, 0.6817138, 0.43372715, -1.0055863, -1.7101626, -1.6658126, -0.5053052, -2.5688548, -0.71241874, 0.23458698, 0.402077, 1.594139, 0.6191361, 0.29468846, 0.25566405, -0.41400692, -0.23079546, 0.82289284, 1.2046629, 0.7805877, -0.46117568, 0.8131987, 1.7490238, -0.10196106, 0.39729738, -0.13316819, -3.6724148, 0.68017775, 0.7200497, -1.1063834, 0.33899322, 4.8828126e-05, -0.8054211, -1.0572853, 2.4376009, 0.4777558, 2.3540301, 0.33055767, -0.42664826, 1.1209747, -1.4242378, 0.68657106, 1.4928925, -0.98502284, 0.8485645, 0.42745808, -2.6335056, 1.216665, 1.6630796, -1.3868617, 2.7759993, 1.4216622, -1.1116997, 0.6210382, -1.5070688, -1.6564739, 0.943488, 0.49643117, 0.44351935, -1.288556, -0.5537808, -0.39693058, 0.32815814, -0.7723331, 0.5755026, -1.7647294, -0.5091098, -0.60905105, -0.31520817, 0.76589656, -0.039932672, 0.54823226, 0.04008511, 0.70531106, -1.3158679, 0.33818915, -2.1568947, -1.5227642, -0.73703635, 1.1779408, 0.43362552, -0.09371864, 0.522291, 0.2994144, 0.2349514, 0.98153263, -0.18520188, 0.5659751, 0.6617839, -0.33636466, 0.07080634, -0.18603754, -2.565228, 1.3814533, 0.633797, 0.6206634, 0.7288602, 4.8208714, 0.15562278, -0.21968845, 0.31555435, -0.6790174, 0.32009813, 0.66461194, -0.8083262, 1.5881995, -0.42188293, -0.52665144, 1.371748, 0.017765498, -0.20370935, 0.6268432, -0.39944384, 1.687846, -0.65066135, 0.39789522, 1.1907837, -0.20892085, -1.3994633, -1.0845529, 0.018467352, -0.77098775, -0.9464895, -0.665993, -0.9729183, -0.19942121, 1.838775, 1.598114, -0.03258146, 1.4991378, 0.031551704, 0.008481207, 0.6500802, 0.083371446, 0.17014538, -0.1954636, -1.6830825, -0.5617259, -1.2658945, -0.32265624, -0.7679148, -1.5992428, -1.1368617, 0.9388362, 0.85904235, -0.039966017, 0.04883924, 0.38889816, -0.8737233, -1.7933276, 0.4815239, -1.0215344, 0.690317, 0.80197537, -0.69605404, -2.6293802, 0.8604714, -0.9538046, 0.17316438, 0.04416762, -2.2716558, -1.0917063, 0.8823655, 1.5174963, -0.06281123, -2.3409522, -1.0946392, 0.12649421, 0.9149295, 0.4473363, 0.3960226, 1.0131352, 0.41212526, 1.2019246, 0.84043527, 0.15069178, 1.0848033, 3.505861, 1.8405416, -0.1842178, -1.5857835, -1.3573774, 0.37772802, -1.5478405, -0.30244637, -1.4384726, -0.8921089, -1.5786339, -0.9943661, -0.744825, -1.270395, 1.5631065, -1.2998778, -3.8174193, -1.0475372, -1.0760083, 0.005353627, 1.1251069, -1.2405806, 1.6826664, -1.2791365, -1.8731993, 0.52086353, -0.23848371, -1.4819884, 0.15521786, 0.5679418, -0.9792683, 1.8448298, 0.6169414, 0.22321679, -0.18287443, 0.12751941, 0.18241096, -0.52987486, 0.39816278, 1.1924815, -0.0075092097, -1.4389267, -0.11622126, -1.8359597, 0.37305957, -0.8870284, -0.03998825, 2.0113058, -1.9579332, -1.4789248, 1.1246816, 0.41700011, 0.7085461, 0.99675906, 0.44422677, -0.9672177, 1.024441, 4.675489, -0.97444105, -1.1964828, -2.4282932, 0.6879351, 0.29532698, 0.45351622, 0.73844004, -0.21011218, -1.389754, 1.7858367, -1.5173376, -1.3456507, 1.3467098, 0.4971215, 0.83363503, 2.1773279, -0.18867347, -0.3499079, -0.2511282, 0.75326395, 2.6096437, 0.9460676, 0.43864727, -0.43932292, -0.6391485, -0.68986917, -0.034847006, -1.236055, 1.9151725, -0.2133932, 0.18084826, 0.38632813, -0.12798606, -0.8447901, -0.004023755, -1.1242696, -0.4771159, 0.5055751, -0.89465195, 0.8450695, 0.3592428, 0.109629065, -0.7014196, -1.0629454, 0.40756637, -1.0181562, 0.8069661, -0.018210907, 0.9169225, 0.72650695, 1.045692, 1.0234176, 0.41048655, -0.1530345, 0.53980327, -1.0833651, 1.6879891, 0.5786051, 2.3490632, 0.7190048, -0.7047796, -1.1146055, 0.21374184, -1.170318, -0.1746983, -1.8769833, 1.444879, -1.5840805, -0.8670914, 1.3668475, 0.18030916, -2.0456524, 0.286764, 0.30843893, 0.117042206, -1.4997395, 0.14605087, 0.12659347, -0.28497604, 0.019668603, 0.36951497, -0.029285362, 0.45090035, -0.7558991, -1.4002438, -1.6666857, 2.1376684, -1.2677814, 0.0084047895, 0.67577964, 0.82394165, 0.3394936, -1.8743521, -0.41093433, 0.9695805, -0.6729484, -0.11056196, 0.9739234, -1.2706451, 1.2653042, -1.0238789, 0.7224185, -1.7430577, -1.270195, -1.7992823, 1.4143293, 0.44610527, -0.88619477, -0.04585239, -0.18289517, 0.82345974, 0.42960018, 0.056447297, 0.30570257, -0.77088654, 0.70807767, 1.9127271, 1.9544096, -0.538097, -1.5581523, -1.2082651, -0.80168635, 1.7034085, -0.7094115, 1.6984422, -0.17725483, -1.6203411, -0.2274168, 1.8645802, -0.7128811, 0.80012065, 0.04419779, 0.41117033, 0.7330555, -1.1788013, 1.5395173, 0.1568129, 0.03161522, -1.0760832, -0.22143655, 0.020885734, -0.4759702, 0.38106978, 0.11650311, -0.94629264, -1.1366053, -0.09751334, -1.212074, 0.68271565, -0.27034822, 0.72510165, 1.2262545, 0.3165587, -0.015688516, -1.5647675, -0.19507262, 0.31567183, -1.7643389, -0.49524105, 1.5818692, 0.1220203, 0.9719782, -0.858165, 0.9671589, -1.5560341, -2.6357725, 0.9938683, 1.3463812, -0.7470791, 0.345168, -0.92525566, 0.55670494, -1.9847084, 0.7966019, 1.941041, -0.13984296, 0.25539392, 1.1489377, -1.0873889, 0.29754996, -1.0364361, -1.7739917, -0.2478325, -0.5100306, 0.9707492, -0.34432656, -1.2829316, 0.30493253, -1.8609073, -1.653595, 0.83164775, -1.4302686, 3.9745998, 0.6394563, -0.6681863, -0.29999205, -0.3241084, 0.15987678, -2.4276423, 0.16416572, 1.2004303, 0.13933244, -1.9321773, -1.3657092, -6.2892914, -0.9158213, 0.57107264, 2.564477, 0.61022294, 2.4062786, -1.1863708, 0.8197853, -0.9436144, -0.005152757, -2.2533917, 0.11002822, 0.95094085, 0.4878926, 0.40344894, 2.0191216, -1.3145802, -0.7013513, -2.6451426, -0.63869095, -2.0909266, 3.2457, 0.0936579, 2.1365345, 0.4720314, 0.07611888, 0.5815406, -0.7050611, 0.80591017, -0.07804486, 0.87961525, -0.8173471, 0.072729, -1.2227293, -0.4136687, -1.2850405, -1.9203601, 1.8816152, 0.06976785, -1.6498635, 0.14772691, -1.8229834, -1.1861169, -0.26907074, -1.845665, 1.4707968, 0.91728276, 1.7187357, -0.3802544, 0.4060634, 0.06627763, -0.4047542, -1.9277836, -0.5771659, 0.91324157, 0.997923, 0.44225103, 1.4688706, -1.1409799, -0.9584127, -0.048643928, -1.2186674, -1.4393436, 1.946914, 1.573786, -0.25347117, -0.03893934, -0.64064246, -0.4018372, -1.2121221, 0.5037133, -0.7921462, 2.1424353, -0.51665354, -0.89979357, -0.37262687, -3.2934134, -0.5279551, -0.15913364, -0.055285346, 1.1646771, -0.91959316, 1.5171471, 0.25122982, -0.09343083, 0.4930021, 1.0529337, 0.84912664, 1.2452649, -0.60594356, 0.050535917, 0.54164445, 1.0055624, 2.0497522, 0.3700398, -0.3052115, 0.43407568, 1.5356354, 0.23572154, -2.097387, 0.63742375, -1.2079713, -0.13235757, -0.40619838, -1.5423137, -3.4630249, -2.1397166, 1.5374079, -0.61448807, 2.3992474, -0.20268753, -0.23083317, -0.09722434, -1.8680133, 0.1567613, -0.6588244, -0.5407167, 2.3455682, -1.8032397, 0.7407409, -0.16922161, 0.99324346, -1.953422, 1.9861312, 0.43736503, -0.034068532, 0.0019922273, -1.1577791, 0.3988186, -1.418203, 0.5510433, 1.3918794, 0.040221673, -2.324854, 0.11669842, -1.4432752, -0.11458651, -0.057260703, 0.8725832, -1.4169817, 0.43268389, 1.1400514, -0.02549384, 0.29455665, 1.5525825, 1.9380605, -0.17636739, -0.87339544, -0.17221163, 0.030391736, -1.6035538, 0.82081985, 0.39287308, 1.789603, -0.3299915, 0.20331873, -2.5639637, -2.0516133, -0.9433637, -2.4589908, 1.8029281, 0.30116075, 0.92654663, -0.4425051, -0.94302434, 0.66671115, -1.971405, -1.3087701, -0.54592544, 0.29692423, 0.6310241, -0.5693459, 0.9651058, -3.914685, -0.76674724, -0.2627382, -0.46699536, -1.0274804, 0.32644102, 0.1837569, -0.026393685, -0.74585396, -1.8414031, -1.074588, -1.1849371, -0.46939707, -2.281081, 1.9206727, -0.6853071, 0.7434479, 1.1925718, 0.68560165, 1.5978389, 0.2978191, -1.7166142, -1.2672721, -0.19892976, -0.20452553, 0.5519535, -0.5328774, 0.085342035, -2.1633701, -0.046803545, -0.024513306, -0.5818129, -0.81705093, -0.29756734, -0.38514513, 0.024723705, 0.7300003, -0.17328507, 0.49364406, -0.070921466, 0.57573444, 0.20415714, -1.3071108, 1.0016395, -1.0105826, -0.7210711, 0.598403, 0.008909743, 0.6955189, -0.38797638, -0.3686146, -0.018197408, -1.2444391, 0.6713494, -0.18136115, -2.5804894, 2.291495, 0.12920795, -0.023739202, 2.0052671, 0.49997726, 0.64830726, -0.78552145, 2.0687723, 1.8109423, -0.002125016, -0.52108663, -0.9871205, 2.4093146, 1.8090701, 1.4240726, 2.997852, 0.21935579, 1.5367506, 0.40499952, 2.0941582, 0.60724247, 1.3966154, 2.5974324, -0.5062659, 0.67751527, 1.5011297, -0.5002134, 0.88784695, 1.138236, -0.5105139, 1.2452692, 0.2369077, 0.10444296, -0.10646992, -1.0810881, -1.7563834, -0.008187246, 0.88414, 0.28429085, -2.1866298, -0.6822728, -1.2007078, -0.46437213, 0.27815795, 1.0452998, -3.532895, -1.2130414, 0.66278267, 3.4552624, 0.19106326, 0.25354737, -1.3927147, 0.7152931, -2.5221004, 0.13657108, 0.71207124, 0.03142308, 0.43037984, 0.059118155, -0.6448167, -0.75536394, -0.54071474, -1.6925876, -0.3044509, -1.6785545, 0.82510954, -0.27921113, -2.8020737, 0.3289666, -1.6576244, 0.8779376, 0.69156724, 0.053999938, 0.5606227, -1.0306196, -0.7949975, -0.17474116, -1.190644, 1.0333166, -0.32362884, -0.5703907, 2.602215, 0.86970276, -0.718827, -0.8890548, 1.3603294, 0.4189469, 0.035742186, -0.05135766, 1.0040238, -1.1843417, -0.4665984, -1.2674161, 1.4860169, 0.09034394, 0.08317117, 0.29121888, -0.41593465, 0.26657614, 2.1596322, 1.8141137, 0.7083422, -0.47038236, 0.6227317, -0.4394706, 1.2682228, 1.1660823, -1.1624575, -2.382529, 0.9604349, 0.9805259, -0.5426575, -1.1816859, 0.13059975, 0.9000111, -1.9857501, 1.505965, 1.67668, -0.27951443, 0.30958462, 2.2009304, -0.4377775, -0.18677115, 1.3272564, 0.24779758, 0.94073296, -1.2149581, -0.099435896, -0.21905825, -1.2865806, 0.38637894, 0.6202942, -0.21097362, 0.9818915, -1.5782456, -1.1309054, -0.25453824, 0.43819153, 0.41881987, -0.0010904948, -1.0254875, 0.72438234, 1.3560424, 0.8681387, -0.10913086, 0.60747904, -0.46074378, -1.1556181, -1.5578474, -1.6095529, 2.022345, -1.2389529, -1.2143668, -1.3226606, 0.3165698, -0.7045414, -1.0754652, 0.71374494, -0.26424393, 0.41927084, 0.5165857, 1.2472187, 0.873979, 0.20659617, 1.9079189, 2.080132, -0.5786645, -0.438367, 0.39829698, -0.43831778, -0.4325429, 0.015941191, -1.5985003, 0.06892229, 0.008765244, -1.037265, 0.293931, 0.13582475, -0.436714, 0.8961731, 0.88460845, -0.35710907, -0.5308451, 1.9577347, -0.12570186, 0.80279034, 0.37127396, -0.64206046, -0.22646365, -0.087396786, 0.9949235, 0.97687376, 1.5818883, -0.52533823, -0.10052877, -1.0396421, -0.665382, 0.62773955, -0.61090654, 0.958504, -1.1134496, 0.11609264, -0.59179133, -0.49045113, -2.3161047, -0.56924224, -1.2164396, 0.09181593, 0.5256699, 0.6110391, -1.6491679, 0.18549766, -0.2699372, -0.48770326, 1.7493045, 1.065712, 0.75403965, -0.32059357, 1.8657235, 0.95003176, -0.01418199, -0.786976, -1.1548145, -0.22048399, -0.157668, -2.1460176, -1.0200115, -0.722634, -0.96989924, -0.12003541, 0.11856064, -1.0790317, -0.94993013, 0.02820519, 0.7355421, -0.40252417, -1.92683, -0.28501454, 1.1124793, 1.3657441, -1.7939, -0.92452997, 2.1508002, -1.6638495, 1.303248, -0.114684366, -1.3339527, -2.8822632, -1.282263, -0.77257687, 1.1542782, 0.37801385, -1.4731128, 1.0173713, -0.9344798, -0.6535474, 0.6879893, 0.00042873475, 0.73559767, 0.031278584, 2.43478, -1.0973188, 0.5120264, 1.141442, 0.74304974, 0.6069669, -0.5844814, 0.44836763, -2.6813009, -0.65299004, -0.96889925, -0.592523, -2.789574, 0.2531512, 0.009000254, -0.17340495, 0.38653296, -1.3650385, -0.037470624, -0.9723482, 0.36081284, -1.0988821, 2.0916317, 1.2908696, 1.0999813, 0.21761623, 1.2979596, -1.2434801, 0.25668508, -0.5010093, -0.1077077, 1.2563103, -0.14193662, -0.39488456, 0.66400534, -1.1000143, -0.14967726, -1.3231565, 0.14173108, -1.4160681, 0.39139593, 1.440548, -0.42389402, 0.8156107, 0.9380923, 1.5213999, -2.3165452, 0.27837747, -0.35131478, -0.96073765, 0.60617936, 2.7109883, 0.43293238, -2.2488782, -1.1985168, 1.4496411, -2.105834, 0.17631479, -0.03841781, 1.1613091, 0.77210206, 0.6517943, -0.13519277, -0.5575165, 0.58372235, 0.15600705, 1.8501176, -0.83972305, -0.06134698, -0.7644015, -0.11967099, -1.6565533, -0.67976373, -0.6103724, 2.988883, 0.48297328, -2.969236, 1.0424035, -0.5526605, 0.3044382, 0.76695406, 0.73717767, 1.0114695, -0.14610288, 0.12696742, 0.9050575, 0.28661394, 0.084530614, 0.13797915, 0.29064485, 0.60331875, -0.18246822, -0.3887874, 0.39157695, -1.0809467, 1.1349492, 0.9382003, 0.40392926, 2.2856898, -0.5227134, -1.1628287, 0.12384559, -1.0982533, -2.7567828, -2.268434, -0.12121364, -0.70787287, -1.3776646, -2.4781504, 0.18461001, 0.966646, 0.5689779, 2.0579777, -0.13708149, -0.90712297, 1.1213256, -0.56207126, 0.50850004, -0.5346481, 0.13968813, 0.9487535, -0.35914633, 0.637105, -1.0148176, 0.3469536, -1.8170192, 1.203487, 3.0223958, 0.51811326, -1.3479484, -0.47161618, -0.349368, 1.4877477, 1.4899136, 1.1914856, 0.87524694, 1.1832881, 1.6452124, -0.15314247, -1.6430672, -0.35560215, -0.60291636, -1.4317466, -0.87842435, 0.26454285, -1.2503874, -1.7263838, 0.5653622, -1.0381292, 0.3271667, -0.33651868, 1.3413078, -0.27030933, -0.60304004, -0.08263962, 1.7308499, 0.75615156, -0.494066, -0.951369, 0.71658885, -0.8917099, 0.3268658, 0.32144865, 0.32228628, 1.0412903, -0.30458438, -1.4978849, 1.0219976, -1.1849927, 0.88247174, 2.987646, 0.75635403, 0.57525647, 0.8342837, -1.8824615, -1.0055101, -1.0735213, 1.3408235, -0.34594795, -2.647877, 0.7191017, -0.7555609, 1.6069154, -1.0866711, 0.103943564, -1.0065898, 0.5435902, 0.07738583, -0.07335334, -0.61132973, 0.19423749, -1.274954, 1.0760782, -0.8241298, -0.29788172, -0.1602428, 1.8134353, 1.7930989, -0.43215033, -0.27024105, 0.99190485, 0.39130622, 0.22244267, 1.0838954, 0.78637695, 0.17604803, 0.32301491, 0.7617823, -0.90962666, 0.0266149, -0.</t>
-  </si>
-  <si>
-    <t>[0.76510924, -0.6605492, 0.53723747, 0.2102754, -2.2545717, -2.4418695, -0.7396367, 0.28918412, 1.9747474, -0.026322452, 0.11831815, -0.30706167, 0.34813386, 0.000105185136, -0.96047086, 0.7964779, 1.4243422, 1.2844768, 0.36743838, -0.7574944, -1.1446453, 2.1296525, -0.007714844, -0.85728854, -0.04216528, 2.883781, 0.3274677, -0.6659861, -0.6812067, -0.30381504, 0.44920588, 2.5851948, 0.53203595, -0.4025145, 0.6775484, -2.6334465, 1.57898, -0.93452, 1.5068746, -0.5407069, 0.30792946, 0.9845651, 0.2665273, 0.23720996, -0.61729217, 0.57832867, -1.4101562, 0.14652999, -0.337062, -0.56361926, 1.268706, -0.72657055, -1.2507157, 1.7609913, -2.1303353, -0.81559575, 0.2658975, -0.7846364, -0.7903309, 0.13780174, 1.0641327, 1.0562886, -0.07791565, 0.21657817, 0.30957264, -0.21487825, -1.1371837, 0.2913998, -0.5499623, 1.3377725, -0.67629117, 0.4648151, 0.0701973, -1.0902928, 2.5427442, 0.93568546, -0.13435571, -1.5001473, 0.39346352, 1.1336932, -0.43066114, 0.8041653, -0.98675793, 1.0355492, 0.16507006, -0.18976627, -1.6003134, -0.6146215, 0.16190295, 0.70636284, 1.5999205, -0.31134802, 1.2512782, 0.5128841, -0.67473334, 0.29757088, 0.7907431, 0.28855374, -0.98032725, 2.898033, -0.8047711, -0.7576393, 1.8205101, 1.5732814, -0.95075905, 0.19354299, -2.3671315, -0.64602005, 0.85860515, 1.4439312, 1.2538104, -1.3039858, -0.8254772, 1.2989392, 0.30639502, 1.6946365, -1.1191535, -0.31224152, -1.5254818, -2.8397105, -0.8196346, -0.88789177, -0.02279484, 1.5738106, -0.03152126, -0.37240186, -0.68515086, -3.056063, -0.8966756, 1.0101762, -0.740356, 0.15331767, 1.4696659, -1.3057798, 3.6685371, 0.20264462, -0.7720165, -1.4817456, 1.256057, -0.57997435, -0.13131082, 1.0001824, 0.3376234, -0.21801949, -0.68331045, -1.6731265, 1.2861165, -1.086693, -0.8568114, -0.065565355, -0.5458892, -1.3102053, -4.476813, 2.4287565, -1.213866, 1.2134514, 0.75024325, -1.3958633, -0.5860919, 0.64340734, -0.091251284, -0.031611092, -0.1508175, -1.5557669, 1.7139022, -0.091605075, 1.982354, 1.1577605, -0.23788595, -1.8054793, 0.123369664, -0.6917969, 0.41948652, -0.6165723, -0.1838914, -0.4380637, 1.0615106, -3.0328336, 1.1483264, -1.0736363, -0.47852147, -0.92083293, -0.14525804, 0.36466774, -2.341247, -0.36062524, -1.0054226, -1.4076838, -0.25034618, 0.25944662, 0.34039518, -2.6444986, -2.131491, 0.0532978, -0.8949682, 0.36965522, 0.4488369, -0.9843013, 5.098538, -0.64782, 0.4750237, 0.9771005, -0.59152323, -0.8214563, -0.018232772, 1.1229138, 1.0213159, -0.7163735, 0.0543536, 0.12956382, -0.1962937, -0.25907317, 0.69221175, 0.6798571, -0.9151101, 0.74406284, 0.7325827, -0.10875222, 0.23771629, -0.19341102, -0.52797586, -1.9917272, -1.8240714, 0.9519268, -2.3586311, 0.54555535, -0.03713335, -0.859596, -1.4746222, -0.40439746, 0.45911887, -0.17075677, 0.23814215, 1.0698894, 0.013164882, -0.17935418, -1.9804828, 0.61719453, -0.48958176, -0.15105829, 0.078032605, 0.24847843, -1.6228142, 0.5493038, -0.37862265, 0.08203944, -0.22843084, -2.2009404, 1.1796535, -0.8752988, 1.9260339, -1.202497, 0.15649912, 0.8159098, 0.7624613, 0.17432123, 0.10260251, -1.423296, 0.09543589, 1.5135924, -1.5838639, -0.36662635, 1.4152589, -0.15075406, 1.4926553, 0.20257269, -1.3752912, -0.44734165, -0.29908338, -0.53410774, 0.26151875, 0.9603992, 3.133672, 1.1393981, -1.0602568, 0.21516712, 2.2591608, -0.2530443, -1.4531741, 1.8667741, -1.494564, -1.6427138, -0.7514871, 1.5132257, 0.5619199, -0.5937833, -1.3962762, -0.9695932, 0.7434576, -0.398898, -1.1484872, -0.7338148, 0.7101656, -0.94887024, -0.28412613, -1.6920106, -1.6232598, -1.5497988, -0.38401127, -1.781526, -0.5107954, -0.38329044, -1.3353767, -0.9244117, 0.36002702, 0.35768035, 1.2092651, -0.3830113, -0.43555447, -0.25205955, 1.5804384, -1.3996725, -1.5128754, -0.24082266, -0.124845624, -0.25420272, -0.26937336, 0.26660207, -1.3263367, -1.6473404, 0.17858784, -2.190528, 0.4254155, -0.39718026, -1.9132321, -0.65958786, -0.97243226, -0.51249295, 1.80516, 0.20338522, 0.8613129, 1.4114883, -1.5004959, -0.20111515, -0.7706458, -1.086765, 0.23182541, 0.533442, -0.03929765, -0.23724738, 1.5082241, 0.79461926, -0.8124053, 0.06582616, -1.9032362, -2.172897, 0.47080123, -0.8574403, 0.80943817, 1.2276723, -0.6419922, -1.4191208, 1.1380649, 1.4951757, 0.3762286, -0.05632748, 2.012852, -1.5974165, -1.4644883, -1.2627503, 0.22091685, 0.14515813, -2.1457968, -0.50660557, -0.7478153, -0.43008047, -0.46816027, -0.5664945, 2.0575528, -2.0707393, -0.92660284, 0.509656, 0.18837774, -0.049258076, -0.24356273, 0.029473767, 0.20265251, 1.5069911, 0.39317945, -0.50872475, 2.6072347, 1.4363725, -0.71672785, -0.68294114, -0.65753794, 1.1816517, -0.8705955, 1.1695594, 0.4460326, 1.9097493, 0.3676869, -0.77417165, 0.91172284, 0.54878867, 0.49546745, -0.30211774, 1.8097645, 1.34831, -1.0824956, -0.89017296, -0.32857907, 0.6423249, -0.71857923, -1.5063692, -0.96732694, 1.0719092, -1.9891666, -0.86790794, 0.04780054, -0.27370358, 0.43543285, -0.9310234, 1.2100819, -0.22101831, 1.2551314, 0.06279311, -1.3373842, -0.9032531, -0.98753977, 0.4296935, -0.18832295, -0.2964376, 0.3656988, 2.0772946, 0.5888099, -0.87238026, -0.65603364, 0.28471732, -3.231381, 0.8060769, -0.9588013, 0.24553354, 0.29945877, -0.48116666, -0.78445977, -0.95345604, 0.81617117, -0.48414576, 2.5187337, 0.14852639, -1.4003673, -0.3841424, 0.9686592, 0.97942495, 0.14235474, 3.5297718, 0.63852215, -0.55493486, -1.6917804, 1.137355, -0.99053174, -0.04987837, 0.13535741, -0.84247845, -0.16991018, 0.023476094, 0.20265514, -1.5448132, 0.76158077, -1.1427261, 0.54528135, 2.429685, -0.62137794, -1.3145186, 1.2448587, -0.10087832, 1.7466593, 0.48693278, -1.7027297, -1.1126971, -0.56125915, 0.35544184, 0.41627467, -0.02731802, -1.4739474, 0.45465586, -2.2563717, -0.311642, -0.20210984, 0.7242474, -1.6802279, 0.6755339, -1.1344978, 0.52710706, 0.9556103, -2.6290443, -0.13277215, 1.9290209, 0.0033824807, -0.06840806, -0.46727258, 0.9457101, -0.64819425, -0.37861708, 0.054475814, -2.5002573, 1.2352417, 1.8784198, 0.05385976, -0.024912285, 1.1265824, 0.6764853, -1.987762, 1.3767812, 0.23407999, -1.8483766, 0.08879936, -0.9194675, -0.44843486, 0.34249422, -0.3096703, 0.5571131, 0.25597268, -0.13021101, -2.0255823, 0.8861073, -1.177414, -0.16480224, 1.4223206, -1.2757028, 1.176259, -0.352173, 0.22049728, -0.2168343, 0.52984715, 3.7557495, 0.92264515, 1.9789449, 1.1809763, -0.24299067, 4.302545, -1.6173314, 1.1902846, -1.7783483, -1.3330113, 0.39564714, 1.0094101, -0.17019409, -0.716991, -1.1279525, -0.24629812, 0.49032325, -0.6682044, 0.20282677, -0.036908653, 1.2361878, 0.542072, 1.2140821, -1.526463, -0.117333695, -0.8196438, 0.45785695, 0.86778045, 0.71454203, 1.4425875, 0.22119842, -0.5013795, 1.1166437, -0.20329575, -0.96209884, 0.4924974, -0.5119914, -1.3058828, -0.4098282, -0.514482, 0.30543658, 0.8237343, -0.3232454, 0.36471158, 0.0048904144, -1.1852673, -0.09498444, 0.985658, -1.3404882, 0.41779873, 0.1844557, 0.07919133, 0.47117007, -1.3171068, -0.88319784, 1.1437813, 0.4679278, 2.1167793, 0.8444014, 1.1525075, 0.37785602, -0.4370962, -0.20910202, 0.3083239, -1.8718972, 0.13385075, 0.17306061, 0.06581505, 1.3946985, 0.9629671, 0.22296642, 2.2601774, 0.100969546, -0.9825938, -0.65417784, 0.7668431, 0.14845914, -0.10782566, 0.7622839, 0.9705464, 1.796744, -1.465715, -0.28431273, 0.19749837, 0.73681873, 0.319878, 0.25105405, 1.1579342, -0.96011066, -0.4565636, -0.690604, 0.24212697, 0.1484629, -1.1620439, 1.2139455, 0.90544534, 0.37079784, -1.2307321, 0.42535728, 1.0307553, 0.64783984, -2.1662238, 0.71913594, -0.1768812, 1.3008105, -0.13360018, 2.3104534, -0.8598054, 1.3305249, 1.3028727, 3.8730283, -0.59323275, 2.4408555, -0.18557377, 0.73035765, -0.4052702, 0.023342054, 0.258603, 1.3511608, 1.7460388, -0.4864053, 0.299822, -0.7319722, 1.3579377, 0.70681494, -1.6615925, 0.695057, 1.3807704, -0.045877907, -2.49891, -1.163314, 0.12308079, 0.8017543, 0.08195406, 1.3846767, -0.28272775, 1.135117, -1.9448681, -0.50446206, 1.3214861, -0.5812184, 0.5140871, -0.53323734, 1.398006, 0.77337086, -0.82058734, 1.762845, -0.51263255, -0.52105165, 1.4264205, -0.9255637, 1.7656461, -0.21024221, 0.6133184, 0.9703482, -0.16260818, 0.10471674, -0.52688587, 1.1657981, -0.6684991, -1.2185558, 0.30589783, -0.54460025, 0.07818005, 2.5246398, 1.5719873, -0.15247123, -0.7666881, 0.21897595, -0.00022329057, -0.7883222, -1.0920343, -0.15848966, -0.46986046, -1.4812078, 0.6005937, 0.49649295, -0.38558897, 0.04382836, -0.81712466, 0.445116, 0.7484669, 0.32511646, 0.5202391, 1.6974294, -0.046538614, 1.2706096, 1.9374813, 0.13389023, 2.0956225, -1.431222, 1.3810915, 0.14192085, 0.71151525, -1.6594323, 1.9869714, -0.088441186, -0.14450932, -1.180029, 1.5023999, 0.096819736, -1.1475908, 1.2284659, -1.308837, -0.13336013, -0.276309, -0.26901197, 0.66672176, -1.3496141, -0.5289694, -1.2813746, -0.40058768, 0.26478177, -2.4376614, -0.41382742, 0.21137023, 0.9482188, 2.0262537, -0.9529782, 1.342739, -1.080229, -0.5995553, -1.1402999, -0.09268104, 0.61001825, 0.44174045, -0.36494258, 0.047144577, 1.111596, -1.7250292, -1.7483615, -0.47251356, 0.04535636, -0.14566511, 0.16089833, -1.2169805, -1.5912893, 2.0515227, -0.30567282, 1.1339054, 0.73948, 0.4060667, -1.518578, 0.959982, -0.29704604, -2.519098, -3.2147386, -0.16000904, 0.7882649, -0.24729018, 1.3312857, -0.013351129, 0.4912251, 0.7540833, 3.463431, -0.3963164, 1.3223639, 0.25816804, -1.766853, 2.9136205, 0.6078191, -1.3292747, -1.280181, -1.0740117, 0.48869294, 0.24841367, -1.4543214, 0.5921828, 0.1674214, -1.1949177, 0.1581892, 0.3994271, 1.866922, -1.908423, 1.0390147, 0.72227204, 1.3083897, 0.07432284, -0.25235778, -1.3334826, 1.6511345, -1.9450669, -0.3457768, 0.07409653, -1.7552536, 0.24689606, -2.1913502, -0.520392, -0.058647547, -0.53913385, -0.71857107, 1.1720434, -0.8243977, -0.42089638, 1.1221598, 0.8065681, 1.6691593, 0.17402555, 1.1062424, 0.096565805, -0.7770768, 1.7016642, 2.1386626, -0.0206926, 0.3348741, 0.72430557, -1.5339224, 0.69747514, -0.38626674, -0.1202359, -0.7840443, -1.2088733, 1.0470153, -1.5411326, 0.39604637, 1.8798746, 0.5292887, 0.427875, 1.9984726, -0.76634204, -1.6515666, 1.0378406, 1.7965568, -0.83136463, -0.24470873, -0.96942306, -0.2253649, 0.5107715, 1.7264467, -0.18192834, -1.3007239, -1.1856195, 0.2521562, -0.7219475, -0.44962928, 1.5661033, -1.2547565, 0.13053834, -2.2342932, -0.40287355, 0.80910486, -0.8565804, -1.3648227, 1.449704, 0.9118568, 2.5886743, 0.98000664, 1.3360416, 0.66914415, 0.24066125, 0.7095925, 0.24791238, 0.28825727, -0.89559317, 2.5444798, -0.12786068, 1.7231475, -0.32881767, 0.6226539, 0.7682418, 0.26351896, 0.005161747, 1.0690453, 2.0752783, -1.9351796, -0.40279812, -1.6122813, -0.9559611, 1.0565494, -0.13448493, -0.43190902, 1.2910601, -0.55896217, 1.2870287, -1.500034, -1.4936564, 1.2014579, 0.045292106, 0.70452374, -0.9321108, -1.3021613, 1.1426975, -0.7676632, -0.36012906, 1.4438599, -0.25781426, -0.61201316, -0.24849832, -0.345416, -1.1196997, -1.7459651, -0.5162571, 0.43166175, 0.18014362, -0.83960533, 1.6448225, 0.5438643, -1.142867, 0.998924, 0.49028787, -0.5332797, -1.7487533, 1.2327248, 0.27438834, 0.6417197, 0.2542843, 0.8231058, 0.64866626, -0.1906038, -1.2202698, -2.3143597, -1.6776619, 0.6507466, -0.27280012, 1.1580721, -1.0490234, -0.4150983, 0.23730849, 1.8366603, -1.148424, 1.1171227, 0.16823636, 0.036870934, -0.30398637, -0.46781555, -0.6787659, 0.51837283, 0.041896287, -1.3511332, -1.7947441, 0.7202364, -0.9005099, 0.7837204, -0.13946979, -0.13987197, -1.4495369, 0.6494486, -2.2400367, 1.479494, 0.31670564, 2.4809554, -0.38132134, 1.0637702, -0.11390929, -0.19241731, -1.882202, -0.5511827, 0.56670624, 0.5113094, -1.0824769, 0.3565915, -0.2486252, 0.85994047, 0.74125814, 1.3226563, -0.59446925, -0.090544306, -0.54258543, -0.58704096, -0.86882484, -0.050637178, 0.35870954, 1.168388, -0.40531862, 0.35621366, -0.900183, 1.1076809, 2.441645, -0.46018958, -0.1024724, -0.32071072, 1.5469499, -0.41304955, -1.6718341, -1.4347955, -0.7326513, -0.01194447, 1.8510736, 0.048302125, -1.1316828, -1.8783157, -2.019061, 1.7811506, 0.6376766, -0.69782525, -1.6530443, -0.23223767, -0.333361, 0.050328054, -1.4730682, 0.007307699, -1.1123573, -0.19532654, -0.029770536, 1.5894905, -1.216922, 0.55216014, 0.7658928, 0.018896192, 0.4769689, 0.5420166, -0.87830746, 0.725738, 1.8144531, 1.3171875, -2.6600392, -0.45024282, 4.203233, -0.7836259, 2.0461533, -2.42311, 1.8002257, 1.5095656, -1.3713393, 0.62033474, -1.289087, 0.5916098, -0.11177839, -1.1931161, 0.1751877, 0.97156626, -1.092895, -0.50858617, 0.39586452, -0.9774361, 1.6097679, -0.09202377, 1.0263408, -1.138776, -0.6705879, -0.44189513, -1.4207599, -0.5463335, -0.7255633, -1.1490492, -0.93055356, -0.7528045, 1.1273776, -2.8778138, 0.395227, -1.3530911, -0.058085002, -0.972096, 0.59116066, 0.52785134, -0.7411899, -0.696575, 0.2674983, 1.2140145, 0.8971893, 0.63136226, -0.49375644, 0.68037784, 0.13982387, -1.5158267, 0.24001282, -1.0880333, 0.26059073, 0.44698888, 2.384029, -0.87611574, -1.2345809, 0.3638742, 2.1549916, -1.8870708, 1.1139511, 0.23940225, -1.1618415, -1.0220656, -0.47570318, 1.5649935, 0.34221908, -0.23425424, -0.052094713, -0.06263567, -0.5062503, 1.134606, 0.8432541, 1.2030227, 0.6812547, 0.114369504, 0.13995603, 0.23413612, -0.38326687, -0.65849435, 0.5328511, -1.4517514, 3.4247496, -0.098429315, 0.058298443, -1.0195909, 0.73668194, 0.48944962, 0.56958824, 2.4508257, 2.0183313, 1.1632134, 1.0225621, -1.1277817, -2.1450155, -0.83736783, 0.4387058, 0.42671278, 1.0483779, 0.7881725, 0.9694166, -0.4012356, 1.0507333, -0.6316921, 1.5202751, 1.239218, 1.7071271, -0.55969954, -1.0337224, 0.023120264, 0.36984935, 0.96545076, 0.46482912, -0.7738698, 1.3675302, 1.2759262, -0.24614228, -0.82420415, 0.49421942, -0.22551562, 0.24523307, -0.32603973, -0.54071623, 0.42455822, -0.08316044, -1.7465651, 2.0027344, 0.41433442, 1.2928565, 0.06086616, 0.5079353, -0.8383564, -0.39431885, -2.329166, -0.440513, -1.0819495, -0.15761778, 0.29043204, -1.54682, 1.4848639, -0.67612904, -1.1725756, -1.886693, -0.86516887, 0.024678232, 0.84105015, -0.4529718, 0.80833995, 0.44713873, 0.8076176, 1.0264795, -1.0809734, -0.6029578, -1.949476, -0.92584443, 1.1915582, 2.795647, -2.7759075, -0.62152296, -0.44788685, -0.3198283, -1.4886333, 0.85298055, -1.6497456, -0.25966388, 1.1138684, 0.5894917, -0.021398414, 1.798931, -0.2285934, -1.4290843, -1.3044512, -0.2716832, 2.653505, 0.5573482, 0.13942096, -0.8488854, -0.3089955, 0.11091088, 0.901956, -0.9552056, 0.18945956, 0.28842276, -0.5696488, 0.05927793, 0.72888404, 2.1603305, 1.3318757, -0.5213778, 1.2610544, 0.9008622, -1.1805202, 0.04302021, 0.9132526, 0.27828377, 0.07147326, -1.8647654, 1.3571821, -0.5205172, -0.06637294, 0.27626544, 0.5335722, -0.6251149, -0.2578593, -0.15645409, -0.10346095, 0.33849877, -0.71767694, -0.75631374, 0.9677968, -0.01945757, -0.09399414, 0.29932168, -1.3461955, -0.44168934, -0.76517475, 2.6540453, 0.30975336, 0.63393176, -0.5376064, 0.061448004, 1.2410232, -0.45951405, -1.4546196, 1.9790723, 0.36012232, 0.074324556, 0.2701967, -0.12930594, -1.0190295, 0.24798957, 0.41528818, 0.7656519, -0.38584685, -1.439501, 1.1525332, -0.7842674, 1.4249667, -2.2766445, -0.35353434, -1.2509263, -1.102428, 0.12480001, 0.85596347, -1.5555202, 1.5865363, 0.1410219, 1.1641046, -1.2919161, 0.8293489, 2.6067154, -0.46364504, 0.47376817, -0.043490946, -0.14690425, 1.0874106, 1.0647969, 0.10978726, 1.5018771, -0.46798542, -0.6011976, 1.5116229, -3.2145023, -0.79174894, 2.4380603, -3.4139316, -0.5832774, 0.13623646, -0.9091984, -1.1676542, -1.6834534, 0.20114674, -0.6788273, 0.12121831, 0.035659444, -1.3778116, -0.85481733, 0.4021958, 0.5505017, -1.086872, -0.68238854, 0.35460797, 1.0674893, 2.121374, 1.9142812, -0.37884542, -0.06618903, 0.32300887, 0.2787507, 2.3741627, -0.65519154, 0.21690916, -0.7867038, -1.1766924, 0.33031437, -1.7664367, -0.8688842, -1.0139911, 1.0492117, -0.47487897, 0.79759574, 0.3181816, -1.4162513, -1.4134004, -0.22140485, -2.9652085, -0.32786477, -0.9962926, 1.0194242, -2.018729, 3.3273811, -0.32157093, 0.41395256, -1.9828897, 0.9636648, 1.158416, 0.7276698, 0.915156, -0.28640005, -0.61386484, -1.5378158, 2.08861, -0.27497807, 1.1516198, -1.5057763, -2.0348802, 0.843442, 0.20482405, -0.5092285, 1.5198646, -0.332662, 0.98466915, -0.34657326, -0.634523, 3.4979417, 0.18424752, 0.6220013, 0.282333, -0.8617492, -1.0498713, -0.6062664, 0.3052559, -0.22146742, -2.0881197, -0.7094101, -1.2030642, -0.015025613, 0.49318042, -0.9439851, -0.20450234, 1.4484539, -0.009211777, 0.7277683, -0.80405885, 1.8573762, -0.1915805, -1.0974627, -1.7723955, -0.1562383, 0.84762543, -1.3494328, -0.9216241, 0.41631648, -2.4903173, -0.9708101, 0.6895584, -0.5645537, -0.92676485, 1.0718104, 1.0290393, 1.4992503, -0.86431104, 0.32640606, 0.7489515, -0.88126874, 1.9228258, -1.0983194, 0.35096544, -1.0572722, -0.541301, -0.32756653, 1.7853247, -1.2394649, 0.61646354, -1.0425665, -0.08229674, 0.20053609, 0.8462423, 0.16526537, 1.5982047, -0.47950155, -1.9337493, -1.277001, 0.047303636, 0.77116275, 0.69108814, 1.0230082, -0.5442821, -1.2446868, 0.3315953, -0.6195821, -0.7619813, -0.0991094, -0.15612486, -0.6610673, 0.2805939, 0.17290777, -1.7507765, 1.0838072, 0.6582084, 1.5210283, 2.4267755, -0.8724972, 0.64963394, 0.29983276, 1.672979, -1.0660133, -0.40485883, 0.5680553, -0.38740197, -0.9172939, -1.8348019, 1.4089563, 1.0158609, 1.6668378, -1.2494714, 0.07580873, -0.24508046, -0.06212648, -1.6546524, 2.8423746, -0.28047168, 0.9533554, 0.13716902, 0.1317798, -0.7080897, -0.64432776, -0.45471117, -0.50993407, 1.0497872, 2.9126053, 0.8102223, 1.0269555, 1.0334183, 1.0244173, 2.1245604, 1.8625585, -0.67961264, -0.6993696, 0.91367626, -1.2577722, -0.021762725, 0.13257626, 0.9300501, 0.59967256, 1.5736018, 0.24970293, 0.4958078, -1.158244, 0.71029687, -1.5879234, -1.3729895, -1.9045986, 1.8783835, -0.8385064, 1.4487019, -1.0798559, -0.49367544, 0.42485088, 1.7616076, -0.62725955, -3.4500935, -0.06728589, 0.13288926, -0.19260854, 0.8812769, -1.6264262, -0.18617082, 0.30327952, 0.6631596, -0.48738128, -1.1212761, 0.7775607, -0.025167098, -2.9784384, -1.8500491, -2.987238, -1.295799, 0.0069754045, 0.7195907, 2.4738305, 1.3287519, -0.97563154, 1.830277, -0.29618052, 1.1471639, 1.4314325, 2.6613047, 1.1217504, 0.9372895, -2.0867, 0.9236632, -0.8604514, 0.71014106, 0.25224376, 1.5558758, -0.7316114, 0.04375205, -0.41353154, -1.1701189, -0.2799296, 0.40035787, -0.53397036, -0.61689454, 0.416101, -0.26789683, 0.96937335, -0.64248896, -1.1189488, 1.8329084, 0.668481, -0.20603189, -1.1858568, -0.34861878, -1.3581569, 1.2804465, -1.6644672, -0.18582201, 0.266846, -0.072760336, -0.08474866, 0.8821605, 2.1628823, -1.068267, 1.3544934, -0.28609422, 0.60009825, -0.49691242, 0.074007064, 0.17253228, 1.0336347, -0.22732212, -0.40315422, -1.4811271, -0.62287843, -0.7500957, -0.10920213, 0.6599603, 0.08551881, 0.29360673, -1.1974663, -0.13398613, 0.20630263, -0.021508351, 1.9069681, -0.54089165, -0.5661735, 1.7951137, 0.6120275, 0.82817966, 0.7064827, -1.6743766, 0.7785932, 0.92859167, -0.53176695, -0.7484638, -1.2444715, -0.8855998, 1.9137608, 1.0582803, 0.15115988, -1.4322944, -0.0021817693, -0.6833008, -2.112624, 2.3075085, 2.1792946, -1.3196061, 0.84580487, 3.5155244, 1.6984984, 0.45083445, -0.5070845, -0.09406665, 0.07128504, 1.2448251, 0.5032382, -0.3007568, -0.9322669, 0.9581606, 0.71790206, 0.30273554, -0.7299249, -1.0712727, -0.8600264, -1.1985638, -0.89957315, -0.15840998, 0.8148964, 0.9850241, 0.87911326, 0.24295208, -0.43936482, 0.019480668, -0.11751614, 1.0185267, 1.3514023, 0.98562056, 0.8613913, 0.9048887, 1.943781, 0.050243996, 1.3349457, -0.20109765, -3.2793412, 0.47541365, 0.762931, -1.3685068, -0.014951347, 0.07757123, -1.041715, -0.17406993, 1.2286255, -0.15150782, 2.92133, 0.26171815, -1.7684062, 0.21955317, -0.9402543, 0.6479293, 0.6777876, -2.107706, 0.33943734, 1.1135497, -1.7243755, 1.4809834, 0.73154354, -0.27018735, 1.7905058, 2.0784068, -1.3160518, 0.26175502, -1.4337575, -2.0084968, 1.1013998, 0.71619225, 0.28036934, -0.78553253, 0.19497684, -1.3463289, -0.21623725, 0.026600875, 0.07313759, -1.5766304, -1.4059728, -0.95156485, -1.1200101, -1.6983416, 0.71560746, 0.4190804, -0.7062956, 0.59400254, -2.041949, 1.000735, -1.3960694, -1.0424442, -1.6077166, 1.6411805, 0.82476026, -0.7582684, 0.6368591, 0.3318254, 0.44999796, 0.2533355, -0.28500333, 1.135782, 0.32840326, -0.38117105, 0.50360245, 0.96874416, -2.712397, 0.5486176, -1.2762008, 0.43360487, 0.60095024, 5.8605494, 0.6390508, -1.3139608, -0.02129842, -1.0733813, -0.2556015, 1.1483948, -0.73143363, 2.552773, 0.1513973, -2.2710025, 1.6595224, -0.3863375, -1.4392374, 0.2185465, -1.2151104, 2.2290792, -0.7331996, 0.07100589, 1.907802, 1.4424295, -1.1553143, -1.096261, -0.05268584, -0.34476092, -1.1374556, -1.4226002, -0.6331026, -0.2941377, 4.009974, 0.85432965, -0.44547945, 1.7349405, 0.47375122, 0.4534127, 0.9300653, -0.63631505, -0.15283553, 0.36856288, -1.5847598, -0.9126199, -1.701062, -0.034737557, 0.2466563, -0.89713025, -1.6125164, 0.881507, 0.26501334, -0.028313186, 0.030500839, 1.0001158, -0.20907296, -1.6611644, 0.51920116, -0.0033536442, 0.3320377, 1.0321178, -0.8029636, -3.1191359, 0.37971556, -1.6401011, 0.47352055, 0.27485022, -2.7050571, -0.571067, 1.1386783, 1.2754667, 0.1671448, -2.074883, -1.4469428, 0.051853713, 0.2683813, 0.17264338, 0.2937576, 1.4173969, 0.32402402, 1.683968, -0.7411609, 0.1239059, 1.9571763, 3.8191197, 1.1527543, 0.6906576, -1.0256801, -1.4033215, 0.33959347, 0.44002095, 0.48648134, -0.6974681, -0.055743005, -0.30147186, -0.33796197, -1.206954, -0.73336685, 1.1784056, -1.6591517, -3.8143198, -1.0241221, -1.0422287, -0.37347287, 1.908727, -0.2359562, 0.81326956, -1.4056243, -2.281512, 1.1862322, -0.56959206, -0.725062, -0.8143514, 1.8420331, -1.2146987, 1.3592288, -0.5719113, -0.014709254, -0.3083499, -0.36867252, 0.55721486, 1.5067295, 0.22365561, 1.007009, -0.29861528, -0.86950743, 0.9749813, -0.8130652, 1.2963533, -1.5261251, -0.34833252, 1.6803354, -1.4206166, -1.5552088, 0.31710854, 1.047827, 0.9649163, 0.80094326, 1.164715, -0.89354825, 1.4225136, 5.058271, -0.26180694, -1.6715288, -1.5854661, 0.1488293, -0.61614454, 0.9269794, 0.45987555, -0.6939494, -1.5976013, 1.7777157, -0.49898484, -0.074620046, 1.8451943, 0.42539415, -0.559144, 1.4478732, 0.96312803, -0.52605814, -0.18493696, -0.3290601, 3.6900823, 1.8197441, 0.93530476, -1.1231033, -0.57221884, -1.5270561, 0.34623486, -1.7095516, 1.2910249, -1.9757988, 0.43637154, 0.26449698, 0.99328333, -0.56285906, -0.14841644, -1.2701721, -1.2187079, 0.4626158, -2.7890158, -0.44243047, 0.34969652, -0.24371725, -0.68229175, -0.7677429, 0.6143537, -0.56028605, -0.65154964, -0.05369281, -0.41453966, -0.6600229, 0.5335065, 1.0151722, 1.4758888, -0.29057646, -0.23053424, -0.45123884, 1.7703756, 0.9280545, 1.9277133, 0.28768507, 0.2004029, -0.99552304, -0.65785575, -0.9065343, 0.72120136, -1.5674998, 0.39006633, -0.23050734, -0.28275636, -0.6907653, -1.1225568, -1.394226, 0.4123421, 0.39992785, 0.42934054, -0.83505213, 1.174717, 0.30479452, -0.859023, 0.26627454, -0.058878534, 0.16425225, -0.35118708, -1.8533273, -2.247827, -1.2430545, 1.1393455, 0.74493355, 1.6189547, -1.176469, 0.8959844, -0.17526987, -2.2353218, -1.6161957, 0.7121152, -0.19612649, -0.18579277, 0.6398683, -0.6329011, 0.7096124, -1.0406133, -0.22734725, -0.40875214, -0.83260024, -0.38980412, 1.8250011, 0.35919598, 0.094901405, -1.1780151, 0.7751924, 1.4322056, -0.6946669, 0.4456233, 1.1616445, -0.68987775, -0.36717457, 1.4439746, 1.627386, -1.0866814, -0.015731428, -0.84572065, -0.88764095, 1.2485076, -1.236879, 1.4920355, -1.4355819, -0.56308943, -1.0931278, 0.9584716, -0.5750807, -0.861258, -1.2067436, 1.5689149, 0.19134426, -1.3712121, 1.2368392, 0.08306804, 0.74410087, -1.1652081, 0.030859228, 0.120256364, -0.3768222, -0.16567002, -0.34501484, -0.5045489, -0.32184708, -0.021051647, -0.4437807, 0.92194796, -0.22203171, 0.29058707, 0.71656036, 0.27958474, -0.14703347, -0.6910017, -1.5320652, -0.3030642, -1.6098428, -0.9161966, 0.98127806, -0.09664869, -0.19233604, -0.11385549, 0.9293249, -0.51648927, -2.807312, -0.15563132, 1.4731498, -1.7792536, 1.2512642, -1.3898004, 0.70122683, -1.8557109, -0.010509084, 0.7981393, -0.2354498, 0.9837458, 1.0693704, -0.7323138, 0.024972808, -0.96419346, -0.506417, 0.9816605, 0.22426787, 0.8676319, 0.5514081, -0.47882086, 0.3016461, -0.5179223, -1.0924313, 0.22969685, -1.1466764, 3.7933664, -1.0061027, -0.119575694, -0.36683488, -0.3997038, -0.36635888, -1.6027647, 0.6108547, 0.6418495, 0.064560756, -1.9658852, -0.7069938, -6.608921, -1.5480516, 0.09013394, 1.337576, -0.68514663, 1.6251415, -2.3170917, 1.0764186, -0.018343002, -0.21738602, -2.3344827, 1.177787, 2.018198, 1.7470973, 1.6343867, 3.0470457, -0.24755333, -1.1018461, -2.0141613, -0.73178095, -2.1335704, 1.9526846, -1.1739907, 1.85774, 0.30649853, 1.5697137, 0.16862778, -0.98328584, 0.39986315, 1.1039735, 2.0725346, -0.46001709, 0.70611495, -2.0447698, -0.090443134, -1.3998339, -1.1311951, 1.0016874, -0.54913336, -1.4773881, -0.08054419, -1.98374, -1.0096803, -1.5481404, -2.855284, 1.8235381, 2.1015882, 1.2855122, 0.51602674, -0.5168495, 0.4474855, -0.09672471, -0.33937755, -1.3493286, 0.77131945, 1.7497766, 0.1963335, 0.64953893, -0.69124323, -0.49435464, 0.05513134, -0.11862131, -0.4949441, 1.252256, 0.37050095, -1.2594218, 0.92861736, -0.41511273, -1.0081695, -2.5408788, -0.4123895, -2.0370872, 1.5573552, -0.34672236, -1.557202, -1.5131725, -2.4692109, -0.79017997, 0.2832195, -0.6462054, 0.6081405, -0.83293647, 0.30254433, -0.26950553, 0.3538276, -0.6407078, 0.69615924, -0.43864906, 2.0777228, -0.61824477, -0.4962066, 1.0790372, 1.5819973, 2.0412998, 1.2220434, 0.22520584, -0.7381064, 1.2207024, 1.4276344, -1.9952096, 1.4449441, -1.5677863, 0.56839156, 0.014801647, -2.2155232, -3.8282232, -0.6515483, 0.34825915, 0.25954166, 1.5151772, 0.09351816, -0.92845005, -0.20577925, -2.180885, -0.958085, -0.54966027, 0.118835084, 2.8525612, -1.8683032, -0.50462055, -1.5817376, 2.5247824, -2.2992737, 1.552166, -0.06983065, 0.19425875, -0.40699852, 0.029909419, 1.3080902, -0.6260327, -0.13234001, 1.1781794, 0.4802249, -2.2821448, 0.99447745, -0.23595643, -0.20177354, 0.25953406, 1.4634356, -0.39858672, -0.5900186, 1.1046784, -0.2876848, 0.88032126, 0.8941091, 1.897986, -0.739211, -0.8637005, -0.9459429, 0.0030470798, -0.65495414, 0.9997942, 0.82046247, 0.60469043, -0.34192494, -0.76053226, -0.96475255, -1.8818909, -0.85087717, -1.9551284, 0.75991064, 0.96850735, 0.8349668, -0.89041567, 0.06782577, 2.0414565, -1.8883619, -0.8867398, 0.107733116, -1.0447148, 1.4007151, -1.107852, 1.4532987, -2.41944, -0.61003417, 0.8645619, 0.6277724, -1.760844, -0.8159548, -0.0592022, -0.13398321, -1.3850311, -0.29931027, -0.07681877, -1.1087674, -1.1307038, -3.168736, 2.1193838, -0.43142843, 0.33214587, 1.2798524, -0.039097402, 0.4889134, -0.42149872, -1.5750906, -0.5014187, -0.32469475, -0.103056, 1.7080827, 0.11224037, -0.9277882, -1.7318559, -1.1964779, -0.5019777, 0.5245345, -0.90663946, 1.0023917, -0.15455289, -0.4300668, -0.37198144, -0.02728469, 0.09219247, 1.5423682, 0.18787315, 0.6482773, -1.1544834, 0.04436664, 0.026909579, -1.1727984, 0.56165177, 1.062914, 0.7242942, 0.08915255, -0.6446365, -0.2803132, -1.4962949, 0.46389583, 0.30293494, -0.73270667, 1.508147, 1.3053466, -0.06333037, 2.2537436, 0.93364227, 2.6134028, -0.4612299, 2.376022, 1.8366019, 0.024117, -0.3754678, -0.1268929, 1.5289835, 2.188342, 0.3085882, 2.2061634, 0.5947499, 0.64115596, -0.15883175, 1.6521075, -0.29729137, 0.2553028, 1.5558488, 0.2697605, 0.54837847, 1.6651818, -1.1686255, 1.0807167, 1.2985655, 0.10614913, 0.90324867, -0.5841098, 0.39238632, 0.49181354, -0.8879175, -2.3776548, 0.7650204, -0.13671291, -0.089818604, -0.8383772, -0.9253409, -3.2445266, -0.8282841, 0.12666395, 1.4167899, -3.233082, -0.99805975, -0.4330885, 0.69872814, 0.048016466, -0.37585932, -0.1125842, 0.29790652, -2.6120346, -0.50216717, 2.2294745, -1.02256, 1.0552793, -0.10397408, -1.0791472, -0.8530851, -0.7644011, -1.1904625, 0.03620503, -1.6345575, 0.8434028, 0.038333587, -1.1766818, -1.0716451, -2.6707382, 0.17586604, 0.7131263, 0.41634545, -0.6184377, -0.42118263, -0.6060482, 0.13096464, -0.6229568, 1.4053904, -1.539066, -0.9322029, 2.312694, 1.7222773, -0.10924109, -0.5124123, 1.7007707, 0.6554867, 0.052762445, -0.39052033, -0.28962007, -0.7096586, -0.09039197, -1.0713189, 0.68560815, 0.78441125, -0.30048785, 1.4552325, -0.22914681, -1.3284858, 2.1324196, 0.904015, 1.4053693, -0.78840876, 0.09864626, 0.02198172, 1.636375, 1.2432481, -1.5372123, -1.869861, 0.84289217, 0.5057676, -0.46060944, -1.1411008, 0.59928423, 1.3524642, -1.7765929, 1.0517159, 1.8827283, 1.2270526, 0.54122627, 1.1557319, -0.6862299, -0.6551237, 0.90018594, 1.1987836, 0.9423223, -0.5849694, 0.0140724415, -0.042627245, -1.2906718, -0.29356667, 1.04999, -0.24315602, 0.9629035, -0.9933576, -1.5003643, -1.9411746, 1.103891, -0.5943564, -1.8362732, -0.8858241, -0.39154074, 1.711934, 0.81593287, 0.39430085, -0.73468494, 0.46800032, -1.2909138, -1.5841703, -0.6056038, 1.8575248, -1.7554687, -1.1988825, -0.29356435, -0.061459843, -0.84535694, -1.513728, 0.163383, 0.23247217, 0.6308506, 0.8337984, 1.3255093, 1.3051307, 0.39309666, 2.4624007, 2.108437, -1.5950798, -0.12225568, -0.58926016, 0.40381503, -0.11912542, 0.42141303, -3.2703943, -0.47029263, 0.8003275, -0.46184915, 0.17904557, -0.6292729, -0.5161393, 0.53252536, 1.022023, -0.83718014, -1.2358276, 0.49513355, 1.4716042, 0.08239848, 0.44250152, 0.1792805, -0.34856498, 0.35434133, 1.6020174, -0.23453581, 1.2615199, 0.51015973, 0.1136058, -1.281243, -0.44696388, 0.1792631, 0.11905141, 2.2154765, -1.2166214, 0.05666588, -0.23443465, -0.7244205, -2.201993, 0.3868148, -1.1489902, 0.27300638, 0.13203534, 1.3131889, -1.2167256, -2.5075738, -0.8996778, -0.02114053, 1.518353, 0.41906387, 0.40026316, 0.7126532, 1.810389, 2.0139549, -0.4651373, -0.31326574, -2.150482, 0.27641982, 0.034656275, -0.869026, -1.2634774, 0.00076677697, -1.4551238, -1.1458119, -0.990063, -0.13049068, -2.7622194, -0.18780729, 1.0224311, -0.84491366, -1.5066348, 0.7223773, 1.9238936, 1.331707, -0.87112063, -1.6340101, 1.3209908, -1.2494252, 1.1685851, -1.103954, -1.4213783, -1.2040933, -0.8733495, -0.5414255, 0.8260786, 0.35226655, -1.1152362, 0.5577276, 0.2700543, 0.3221206, -0.6287244, 0.23040774, 1.963714, -0.35837448, 1.743212, -0.74337924, -0.2711327, 1.2621223, -0.35719264, 0.0970516, -0.91208714, 0.22601165, -2.364032, -1.2211078, -1.2446394, 0.34017998, -2.114493, -0.22043705, 1.3062342, 1.076781, 1.2441287, -0.7904437, 0.33345544, -0.44125772, -0.35234317, -1.4917477, 0.82059026, 0.8745626, 0.9302908, -0.26551566, 1.9642917, -1.9687313, 0.607995, -0.62739986, -0.41425663, 0.034055132, -0.5500596, -1.3805927, 0.41888702, -0.59951055, -1.2701511, -1.9570991, 0.8508655, -1.520475, 0.30842617, 0.37394816, -0.43777347, 0.98888415, 0.8300714, 1.2066147, -1.5627117, 1.282802, 0.24728756, -0.38010108, 0.20386298, 1.9636052, -0.0709795, -2.2420156, -2.0706832, 1.180846, 0.018070793, -0.81429523, -0.4082078, 1.9050056, 0.06692554, 0.17632772, -0.093096666, -0.8961271, -0.50263315, 0.8005197, 2.3133, -0.8270502, -0.8689921, -1.2956736, 0.8054553, -0.4918539, -0.33774424, -0.041874357, 0.8043413, 0.5240272, -0.50236714, 1.4931395, -0.6019835, 0.80041635, 1.3951838, 0.60172915, 1.0004603, 0.06280437, 1.2035174, 0.07940564, 0.28177908, 1.7138286, 0.904765, -0.45446646, 1.2587692, -1.850717, -0.57029635, 0.8965873, -1.1524162, 0.04563529, 1.2837154, 1.4623556, 2.0648062, -0.610513, -0.34547508, -0.40019503, -1.4166261, -1.3526993, -1.3516083, -0.18638924, -0.23784268, -0.42573565, -2.095096, 1.0184096, 0.396174, 1.1049998, 1.7448354, -0.36699805, -0.6590341, 1.6664647, 0.19991522, -0.096880846, -0.8102837, -1.1820196, 0.83132154, -0.16933359, -0.5981849, 0.22294044, 0.9050816, -1.9723779, 1.0633876, 2.678635, -1.0879093, -0.8637467, -0.7659741, -1.0152402, 0.9218247, 1.2948788, 1.1266683, 1.1515023, 1.4590669, 0.79833573, -0.055688478, -1.0388409, 0.8972492, 0.22781128, 0.31743136, -0.88177776, 0.14717118, -1.1852007, -1.5926822, 0.4630684, -1.3395298, 0.62060237, -0.06701031, 0.76606536, -0.8789998, -0.35872692, -0.89589846, 0.22593519, 0.31685886, -1.6571839, 0.45359224, 0.9328394, 0.447175, 0.33605212, -0.19276495, -0.10537051, 1.5721533, 0.9301131, -0.35175782, 1.8099393, -0.3280788, 0.37302554, 2.9374533, 1.0972399, 1.033595, -0.88600534, -2.5502198, -2.2544606, -2.0490563, 1.2481685, -0.84514934, -2.5180974, 1.5312804, -0.25839493, 1.5863386, 0.71409523, 0.11392099, -2.566039, 0.171856, 0.014593469, 0.54169804, -0.5475861, 1.0241117, -1.2340206, 0.5990732, -0.9556006, 0.03905782, 0.34010866, 1.5439465, 0.68527085, -0.32203582, 0.28401712, 0.42717767, -0.55255425, -0.27733505, 0.041289296, 0.7375129, 0.36720037, 0.5570372, 1.1216621, -0.2365781, -0.6160969, 0.8861527, 1.1659513, 1.7303752, 0.04927065, 0.77720225, -1.4892321, -</t>
-  </si>
-  <si>
-    <t>[0.53291625, -1.7459619, -0.47616005, 0.800137, -0.7563168, -2.8809683, -0.03259584, 0.04058315, 1.3535244, -1.7858056, 0.9933133, -0.37691846, 1.3769498, -0.63121915, 0.031052152, 1.1467651, 0.56733334, 0.8740699, 0.080366656, -0.50276184, -0.13865243, 0.67375416, -1.4551635, -1.2186849, 0.24606436, 1.7710338, 0.5481323, -0.6157605, -0.6157359, 0.25608808, -0.41039807, 2.3851452, 1.2445778, -0.6752021, 1.8278105, -1.0248597, 0.7285769, -1.0448551, 1.310978, -0.3722876, -0.9745172, -1.0358449, 0.5916058, 1.3834022, 0.5027682, -0.13865073, -2.0005977, -1.050717, 1.2002199, -0.31584588, 0.05657679, 0.5831152, -1.9708062, 2.427167, -2.7015693, -1.1084288, 1.3511431, 0.10123402, -0.14603372, 0.95632595, 0.30727348, -0.7781212, -1.7150471, 0.91193247, -0.91121143, -1.0163374, -2.706901, -0.97952265, -1.0969541, 1.3728482, -0.77596515, 1.0506661, -1.4766625, 0.24041362, 2.4540796, 0.2727353, 0.12048921, -2.6046083, 0.114072226, 1.9111066, -2.4743962, 0.9926593, -2.0694542, 1.213385, 0.4418417, -0.28220373, -2.5344284, -2.2451248, 1.1621127, 1.2239001, 0.29663318, 0.50671375, 1.2632996, 0.14323382, -0.5294046, 1.1436206, 0.60396546, 1.6108217, -0.8577905, 3.3253822, -0.25710142, -0.2433171, 1.8982329, 0.7682359, 0.36565226, 0.94673336, -2.358762, -1.9618515, 1.3306378, 2.352462, 1.7430769, -0.68465316, -1.219127, 1.3771248, 1.139554, 2.1525943, -1.4673806, -0.64050514, -0.57071245, -1.4692919, -1.4794017, -1.8571969, 0.55187577, 2.4696445, 0.4721815, -0.9141817, -0.039233293, -1.3805507, 0.22415619, 1.1099559, -1.0328523, 0.058895595, -0.40528104, -2.2887175, 6.324682, -1.267814, -1.257684, 0.26730248, 0.7489123, -0.46202737, -0.9397541, 0.6756333, 0.81271666, -1.6502503, 1.1192911, -2.9685318, 1.0998157, -0.43484002, -0.7420647, 1.1306092, 0.044705424, -0.8902844, -2.6139493, 2.1807258, 0.33710748, 1.6372464, 0.6429413, -0.880068, 2.720901, 1.7516825, -0.4831968, -0.13705917, -0.60825807, -1.6081642, 1.2701122, 0.40186012, 1.72905, 0.70452857, 0.3877657, -2.502489, 0.13554645, 0.541692, -1.0892243, 0.07677129, 0.6360123, 0.3268969, 2.1425662, -2.4397593, 1.1917926, -2.16412, 0.18582547, 0.35814944, -1.058707, 0.36065257, -1.9236937, 0.6702102, -0.9002114, -2.0040414, 1.6417199, -0.7399397, -0.6374188, -2.5108554, -1.9770538, 0.5238165, -1.9349432, -0.53134763, -1.3456947, 0.3290931, 2.801439, -1.989169, -0.13992238, 1.3549564, -2.3675222, -0.22525312, -0.66289145, 1.1161188, 0.2202457, -0.68413407, -1.3365182, 0.6305871, -0.7406903, -0.8432106, 0.2606458, 0.7636799, -0.23865962, 0.12558721, -0.5755986, 0.20126066, -0.8640287, -0.8745857, 0.20186688, -1.0424792, -1.3665398, 0.87209314, -2.7659597, 0.53514105, 1.9993244, -0.8356771, -0.88871163, -0.688841, 0.6311232, -0.5395715, -0.16846253, 0.684322, 0.26567826, -1.2969341, -2.064311, -0.17268436, -0.29604134, 0.5784074, 0.7408148, 0.38325596, -0.711634, 1.4931116, -0.6669412, 0.4525806, -0.24055229, -3.6187847, 0.07305787, -0.47468123, 0.303467, -2.022642, -0.3974284, 0.5760366, -0.26896688, 0.22340135, 0.36796537, -1.4146805, -0.15954596, 2.3547516, -1.4977603, -1.090242, 1.4009199, -0.18558238, 0.9602628, -0.1003716, -1.8489333, 0.732692, -0.9752088, -1.2011355, 1.0620738, 0.1777868, 2.3542209, 0.37292787, 0.25893873, 0.8864575, -0.43442827, -1.810743, -2.8102078, 0.76189125, -1.5530218, -2.012325, -1.2712612, -0.2722559, -0.48529893, 0.71871996, 0.31062043, 0.12952854, 0.7469384, 1.9086124, -0.6321498, -0.50206935, 1.0490361, 0.9211597, -0.6985187, -0.6388452, -1.6839683, -0.6335768, 1.3793688, -3.3888512, -1.0508777, -0.5383563, -0.15592258, -0.593274, 0.74732864, 0.069550276, 0.4148945, 1.3848307, -0.0955557, 1.0180104, 1.3314997, 0.09972859, 0.08278544, 0.9411661, -0.22921549, -1.4967808, -1.044534, 0.8776295, -1.4355603, -1.2489586, -0.9188388, -1.3748009, 0.51041114, 1.0188379, -1.5581367, -0.42268267, -1.8248883, 1.7605519, 2.0760882, 0.80441654, -0.8197811, -1.154663, -2.801396, -0.47132277, -1.2114047, -1.043629, -0.14885433, 2.5546722, 0.15343107, -0.11711563, 1.0219526, 0.72179085, -0.5403257, -0.8028604, 0.060223363, -0.470879, 0.10004629, 0.096580766, 1.6908042, 1.5477002, 0.47331452, -1.27321, 0.73865664, 1.1897432, -0.08338956, -0.059917815, -0.7547636, -0.47795674, -0.9943275, -1.9031875, 0.46895587, 0.52573097, -2.9522035, -0.5610197, 0.8012285, 0.453653, -2.0454648, -0.8592562, 1.5749205, -1.5225438, -0.83962137, -0.6092877, -0.63741004, 0.4313132, -0.88164186, 0.20687145, 1.8626539, 1.565942, 0.029104734, -1.2293476, 1.6461716, 0.9720477, -1.3637234, 0.33899814, 0.17507863, 0.91828495, -1.3128508, 0.2748513, 1.2474025, 1.2472411, 1.261572, -0.98782384, 1.5769109, 1.0704377, -0.45133886, -2.0487723, 0.65690273, 1.7257779, -0.6185352, 1.9898437, -0.6728021, 0.9582391, 0.12091585, -1.1893804, -2.6989346, 0.6896163, -0.66139954, -0.75200087, -0.47893903, -0.15445668, 1.1883582, -0.13360263, 0.9187866, 0.022969088, 1.7632128, -0.056057647, -1.617387, 0.60651, -1.8381054, 1.4316972, 0.15301974, 1.3215541, -0.39071462, 1.6560386, 0.4523597, -1.5006555, -0.5683581, 0.31281453, -3.0713491, 0.21412845, -0.82630545, -0.2262319, 0.6320794, -1.5530988, -2.0522017, -0.70104337, 1.9099348, 0.85768884, 2.2042782, -0.48244613, -1.781715, -0.1252693, 1.158521, 1.476981, 0.84630764, 0.7943647, -0.6117112, -0.73190445, -0.34527615, 1.2021468, -1.6402133, -0.09093425, 0.73448724, -0.27139983, 0.75541973, -0.37613255, 0.7953049, 0.06721054, 0.24301483, -0.5627782, 0.3768584, 1.8851156, -0.31549078, -0.3379088, 2.0618794, -1.765625, 1.1811607, 0.96713257, -1.7856021, -1.216936, -1.3625245, -0.2763266, 0.734249, -0.6570486, -0.67006093, -0.8922983, -1.6500473, -0.88484424, 0.64863956, 3.9945905, -1.48212, 2.0261161, -0.12967566, -0.50824285, 0.2828277, -1.9526465, -0.4506147, 2.2224839, 0.8653358, -1.2094833, -0.5712307, 1.5476004, -0.3870853, -0.38344303, 0.40832785, 0.2289278, 2.1777935, 1.3780607, -0.7072452, -0.23946242, 1.5717237, 0.657813, -1.9603089, 2.5921757, -0.2708365, -1.8886178, -0.57700723, -1.0312111, 0.47257826, -1.1058302, 0.29881376, 1.0243008, -0.18128425, 0.58923584, -1.3482611, 0.20950943, -1.632812, -0.20393668, -0.3500503, -0.656897, 1.7369192, -0.06782332, 0.8273294, 2.3114889, 0.7824921, 1.3971266, 0.4837823, 2.5802743, 0.07339438, 0.60977364, 6.20946, -1.381574, 0.0888135, -0.9883559, -1.0407662, -0.35053098, 0.86064535, -0.48056006, 0.5229625, -1.2348572, -0.08979852, 0.13524894, -2.141315, 0.14393559, 0.8874087, 0.9100421, 1.4231483, 1.0120045, -0.40310866, -0.13866343, -1.1549509, 0.23903503, 1.5796937, 0.32692268, -0.15309964, 0.04951806, 0.8502486, -0.00039400705, -1.142086, -1.3106797, 1.4911797, -1.1100801, -0.9985466, -0.04312221, -0.9720069, -0.9164756, 0.110562414, -0.55201316, -0.32416168, 0.22263639, -0.7422281, -0.30131182, 0.99858, -1.2823154, 1.8478457, -0.45775247, 0.34877273, 0.5273244, 0.019134706, -0.5683078, 1.9580628, -0.051051814, 1.554214, 1.3089607, 1.3887213, -0.018372903, -1.470397, 0.46807614, -0.13287298, -2.610464, -0.23016733, -1.3283355, -0.5658998, 3.4435709, 0.89238536, 0.5812187, 1.7884583, -0.84214187, -0.5757846, -0.82472605, 1.8361691, -1.4282637, 0.5406635, 1.1277744, 0.647094, 0.15581414, -1.1525829, 0.28751606, -0.79558265, 0.45706275, 0.19892916, 0.44370264, 1.0633218, -1.4878036, -0.10649435, 0.20731027, 0.17647901, 0.32561383, 0.77020764, 0.41156286, -0.1269174, 0.9159666, -0.11246259, 0.45162508, -0.8189377, -0.02597318, -1.1425177, 0.02807427, -1.1849476, 1.3470247, -1.7900509, 1.3651553, -1.7768533, 0.6092541, -0.48365188, 3.7782187, -0.61830455, 1.0063752, -0.8101588, -0.75493103, -0.27606913, 1.5181946, -0.6384038, -2.6877806, 1.2995114, 1.3348163, 0.44824302, -0.87495434, -0.49188438, 0.52370405, -2.5733664, 0.23046875, 1.1477822, 0.2590641, -3.5520105, -0.5741807, 0.104335345, 1.9323492, -0.017205678, 2.4261465, 1.8269793, 2.6578362, -0.9754327, 0.13127309, 1.3825555, -0.5169787, 0.8031842, -0.76808035, -0.06948813, -0.6497227, -0.4669475, 0.49992898, -0.5768183, 0.68841267, 0.6282125, -0.30135956, 1.6717169, -1.2356315, 0.6830613, 0.3903762, -1.6597639, -0.9837379, -0.7218141, -0.5837345, -0.74927455, -0.95720595, -0.8909374, -0.47158667, -1.5822291, 2.2595112, 1.8608953, -0.2309904, 1.3239714, 0.23611294, -1.1196201, 0.17785835, -1.283335, -1.2424543, 0.7744944, -1.1140976, 0.40142807, 0.54673296, -0.8653164, 1.0329274, -0.71175766, -1.0062153, 0.109719545, 1.388017, 3.7494943, 2.6310015, 0.42453054, 0.936868, 1.802102, -0.6518747, 2.0560675, -0.42155644, 0.058887564, 0.4007842, 1.0427303, -1.3045845, 1.6384954, 0.5958722, 0.27718818, -0.5265236, -0.17946386, 0.6203594, 0.17300798, 1.174344, -0.9276164, -0.11990835, -0.38297483, -1.9091307, 1.3206401, 0.3782734, 0.61781657, -0.43052793, 0.5845052, -0.30341586, -2.2002468, 0.38377637, -2.3649063, 0.3233651, 0.115010105, -0.79160917, 0.48139796, -1.4943689, -0.11385524, -0.56552947, 1.1134034, 1.1208299, 0.56697166, 0.5588237, 0.57548577, 0.43808785, -0.9744589, -1.2681599, -0.8558898, 2.4981093, 0.7180736, -1.2663492, -0.6791007, -1.9026726, 0.35623267, -1.1838734, 1.2264425, 1.1510205, -0.32157126, -0.49324968, 1.0304172, -0.33801618, -1.8618963, -2.6291413, -0.40639797, 1.674204, 0.17799564, 2.3975868, 1.1188468, 0.8052899, -1.7758015, 2.2971387, -1.0400213, 0.47493404, 0.3333756, 0.4319797, 2.6647289, -0.36034098, 0.5225108, -1.0798883, -1.661147, -1.088365, 0.20736514, -1.3195084, 0.58674604, 0.5596485, -0.62099355, 0.3965981, 1.5211631, 2.247504, -1.4112712, 0.1279225, 0.665647, 0.83594596, 1.50075, -1.1996584, 1.3439726, 1.4510273, 0.49702212, -1.1241046, -0.09356148, -1.5573509, 0.7776845, -2.1042259, -1.9769362, -0.14630681, -0.5982904, -1.7264644, 1.0292827, -1.4492387, 0.67919374, 0.6355773, 0.20201875, 1.8861058, 0.58229697, 0.8106133, 0.0619538, -1.9979826, 0.52052134, 3.7191596, 1.2326958, 2.481891, 2.6368353, -2.3353753, -0.080524765, 0.023040533, 0.03194617, 0.8126839, -0.16354209, 2.6105514, -2.2707353, -0.15657298, 2.3588374, 2.021049, 0.44490835, -0.15541632, -1.1009326, -1.057628, -1.0143077, -0.39731085, -1.0611979, 0.10772457, -2.2122447, -0.072437264, 0.0055968445, 2.0050874, -0.46222627, -1.5653862, -0.64482546, 0.4232067, -1.5953937, -0.6435428, -0.39647254, -0.54301906, 0.33379117, -0.94405335, -0.7265904, 1.1285588, 0.89831406, -0.30632094, 1.6338191, 1.2776489, 3.2261136, -0.36892503, 1.6161306, 0.16232286, 0.49246052, 0.73752785, -0.22984275, 0.7911065, -2.1059575, 0.8197485, -0.26805922, 0.41370824, 0.94101095, 0.646432, -1.2735786, 0.55976814, 0.24845102, -0.2837525, 0.42406726, -1.8112867, 1.2659632, -0.20079647, 0.43770927, 0.82587045, 1.6913546, 0.16979124, 1.3678324, 0.09202432, -0.7196775, 1.0878655, -0.497176, -0.24971549, -0.25445497, -0.09785537, 0.7282212, -0.10959568, 0.5633582, -0.7191914, -0.61503565, 1.3935877, -0.8590777, -2.157246, -0.54393685, 0.99350816, -0.042708967, -1.0820401, 1.0076003, 0.40919998, -0.68947005, -0.067830935, 1.7353363, -1.3253965, 0.27746677, 2.0738332, -0.02154039, -0.42976782, -2.6557343, 1.0554188, 0.615034, -0.43917876, 0.56138015, 1.5395579, 0.13990758, -0.41371393, -0.3523708, -2.3455489, -3.6245012, 1.7011033, 0.8152762, 2.7384791, -0.5378682, -2.0947528, -0.34819168, 0.52349275, -1.6363628, 1.0994776, 0.47307476, -0.8259622, 0.24756494, -0.7027014, -1.7460405, 2.3225663, 1.0827186, -1.6282973, -1.2116172, -0.80440944, 0.8957302, 0.28387257, 0.95610964, 0.012548722, -1.2196014, 0.85050225, -2.338754, 1.3305101, 0.40915826, 2.2713745, 0.22275105, 1.4660201, -0.16131164, 0.5288242, -3.6469011, -1.1732892, 0.6912786, 1.2537752, -0.28991055, -0.63525283, -1.123051, 0.90696824, 1.7060919, 1.26864, -1.5648476, 0.07026008, -1.740789, -0.40318757, -0.1559564, -0.032675527, -0.36023235, 0.29931387, -0.29098773, 0.7304247, -1.5390168, 0.16853683, 3.0102036, -0.783406, -0.094356656, 0.039623916, 0.37546587, -1.3765633, -3.3856246, 0.16758658, -0.43688276, 0.05801965, 0.9403139, 1.0636625, 0.9362436, 0.052791446, -2.5606163, 0.951442, 0.2576751, -0.76800597, -1.1460967, -0.3037426, -1.2383523, -0.40799683, -0.6611421, 0.40263292, -2.402604, 0.295556, -2.0183492, 1.1837704, -0.5069892, 2.1447663, 1.2301246, 0.70867914, 0.7989402, 0.77671385, -0.55434847, -0.22860356, 2.3159716, 1.7105561, -1.6972986, -0.7389608, 6.0511365, 0.63129103, 0.9753619, -2.0137784, 2.3888593, 1.1725798, -0.22704951, -0.3077254, -1.9973054, 1.1189462, -0.7114708, -0.4996115, -0.30024096, 1.0954655, -0.037105992, -0.28279024, 0.08096823, -0.8435589, 1.5022525, 0.41689795, -1.1088326, 0.5022406, 1.2206414, -1.6681192, -1.9273268, -1.5638587, -0.14698154, -0.41568905, -1.0231822, 1.0812846, 1.1421182, -3.5012717, -0.017140575, -2.111348, -0.1338787, -0.90703464, 0.9058864, 0.049427167, -1.3379126, 0.8470392, 1.1209961, 1.1596887, 1.3625956, 0.034118388, -0.19776775, 0.9325525, 0.3716095, -2.156321, 0.46183205, -0.59802026, -0.16668288, 1.1127055, 2.4078887, -0.72228, 0.1308374, 1.2308264, 1.1192945, -1.9077623, -0.5501311, -1.2145829, -0.73522264, 0.7844505, -0.045926973, 1.1006228, 1.5556564, 1.1168348, -1.0859295, 0.52175575, -1.5686976, 1.3661311, 1.9272778, 0.41732574, 1.8452854, 0.8434904, 0.4394413, 0.02925629, -0.52729905, -1.3006946, 0.4284632, -1.4934989, 3.9371786, 0.23389708, 0.051437363, -1.3355613, -0.0295277, 0.33611444, -0.48501462, 2.0251217, 1.5740429, 1.4607701, -0.31242347, -0.42060843, -1.3777851, -1.5027107, 1.0842955, 0.037318002, 0.500249, 1.7828852, 1.1403223, -0.9448215, 2.0750396, -0.44623834, 0.5570978, 0.89804393, 1.9087933, -0.6694133, -1.1792732, -0.23404779, 0.031868912, 1.0372827, -0.40517884, -1.360722, -1.9786999, 1.1099656, 0.88944465, -0.13058881, 2.0329072, 0.15048955, 0.57400143, 1.0121889, -0.27380317, 0.41062465, -1.6216958, -0.95335495, 0.47944188, -0.0068892045, -0.15977134, 0.21370322, 1.4622117, 0.7436367, -0.7963461, -0.14424282, -1.2613822, -1.298128, -1.0614917, 0.2655231, -1.5812229, 0.8522922, 0.052616004, -1.7054899, -2.343236, -0.018038081, 0.1636761, 0.5784818, 0.3463197, 1.2175782, 0.06525213, 0.35557276, 1.2800317, -0.19416937, -0.62932944, -0.75915176, 0.32935184, 1.8175443, 2.0746424, -2.2578185, -0.13942142, -1.2549022, -0.40983093, -0.2635328, 0.82574445, 0.6118334, 0.16084175, 0.51634705, 0.008325876, 0.9252304, 0.58745056, 0.18690476, -1.1968987, -2.5349922, 0.8370003, 2.6656926, 1.1744052, 1.282514, -0.80191296, 0.48678046, 1.2180119, 1.0233216, -1.1768795, -2.9230368, 1.5700074, -1.1964184, 1.5605545, 0.7545319, 1.5150255, 1.1532974, -1.2858884, 0.70905095, 1.7250473, 0.39561054, -0.71379447, 1.205276, -0.30840817, -0.21948475, -0.08231064, 2.128076, -0.6529667, 0.029404255, -0.25916052, -2.5237098, -1.2243236, 2.5116918, 0.8359865, 0.6962781, 0.6876911, -0.9812851, -0.9832471, 0.41531977, 0.9759863, -0.8204469, 0.058359545, -0.9952125, 0.70638525, -0.69106257, 1.5588415, 0.052961156, 0.44613096, -0.32169828, -1.5787667, 0.60912305, -0.16420624, -0.12936446, 0.18803504, 1.3968513, 0.517714, -0.60715765, 2.0129862, -1.3728397, -0.7670729, -0.33235845, 0.63628286, 0.36489365, -1.1361121, 0.8721219, 0.5940079, 1.4618018, -0.8993542, -0.7953683, -0.5606957, -0.6561282, 0.010859713, -0.30365258, -0.4842169, 1.8274355, -0.26917276, 1.2318791, -0.33014408, 1.45498, 1.351691, -1.987872, 2.3224363, 1.9190984, 0.33426172, 0.65857124, 1.5647262, 1.8830712, 1.5476106, 0.17953467, 0.06262651, 0.26237386, -0.2468826, -0.39413387, -0.07443562, -3.669954, 0.31101105, -0.51404727, 0.8675325, -0.66501707, -0.49295798, 0.24158607, 1.1147871, 0.87622994, -1.4925569, -0.781117, -1.0468851, 0.38266802, 1.3245053, 0.7906926, -1.0609088, 0.62329924, 0.6391893, 1.1304518, 0.27393296, 0.02527014, -0.90885735, 1.1821284, -2.2313552, 1.9189842, -0.61868066, -0.52549696, 0.56170905, 0.844656, 0.52389914, -2.4506207, -0.9079165, 0.42912185, 1.6236218, -0.74667406, -1.1996292, 0.9560204, -0.1751746, 0.040546156, -1.745192, -0.46067095, 0.14114954, -0.095635064, 0.45762014, -1.9413445, 2.745243, -0.051573493, 1.1077313, -2.1632407, 0.07244603, 0.7789234, 1.7034209, 0.23465434, -0.48153874, -0.33475357, -0.28275922, 0.5033019, 0.15081887, 0.98262227, -0.7137759, 1.3461225, -0.1504572, 0.16037989, 0.4178151, 0.26913005, -0.7263118, 1.7584331, -0.30475262, -1.7188743, 3.2731636, -0.016392723, -0.39947662, 0.9273903, -3.3796418, -1.2935787, 0.035726547, 1.2502359, -0.88481003, 0.24747357, -3.0210812, -0.66719216, 1.2480274, -1.3400259, -0.9628919, -1.0262378, 0.8557495, -0.84677184, 0.5382694, -0.19055483, 1.6247405, 1.3933704, -1.8078378, -3.18252, -2.8794153, 0.4992475, -1.1541159, 0.9205146, 0.7533212, -1.0739152, -0.1951637, 0.16664258, -0.5980547, -1.4563338, 0.52548957, 0.78426254, 0.7084627, 0.50232303, -0.68118256, 0.8671913, -0.9321049, 0.43206042, 1.0110588, -0.65070677, -0.021341061, -0.11410562, 0.5371736, 1.1611197, -2.5364888, 0.12575716, -1.0054197, -0.8854822, -0.30720034, -0.051590826, 0.16433941, 0.3849656, 0.5598307, -0.4367828, -1.4833299, 0.6256227, 1.0014851, 0.20333046, 1.3550494, -1.2641268, -1.3100421, -0.10247649, -0.013232211, -0.6992107, -0.8774938, -0.3735863, 0.32824126, 0.017671343, 1.6540085, -1.7796181, -2.2214835, -0.042823322, 0.15547045, 2.404549, 0.1671784, 1.021913, 1.7351867, 2.0257213, 0.59663826, -0.4319078, -0.4392705, -1.1801593, -1.141249, -1.9352167, 1.7257278, -1.0320139, 2.1556728, -0.3320583, -0.15415145, -1.7326163, -1.115841, 0.45276925, 3.1102695, -1.5025657, 0.2711394, -0.88484627, 0.7102417, -0.17403781, 0.11560516, -0.5288149, 0.19238725, 0.80846184, 2.6677582, 0.62873125, 0.71568376, 0.38261485, 1.4814563, 1.0391748, 1.82211, -1.2215452, -1.1258202, 0.7113049, -0.45316753, -0.5012359, 0.17014678, 1.1799289, 1.2075301, -0.38706276, 0.40961957, -1.1687222, -1.0658213, -0.52266383, -0.9349567, 0.3043349, -1.4698313, 1.2208773, -1.7422923, 0.8936234, -0.5207898, -0.4782865, 1.6465284, 1.2067683, 1.0361218, -2.1654913, -0.6157734, -0.28747633, 0.33154678, -1.5586884, 0.7114135, -1.1214856, 0.47840106, 0.6221418, -0.00960408, -0.3298236, -0.7236049, -0.32377318, -1.4681844, -1.26655, -2.0112758, -0.5816694, -0.05377435, 1.2067302, 2.9425113, 0.6692815, -0.60985017, 0.3258861, 0.93962306, -0.04884165, 0.32370362, 2.359106, 0.4461149, 0.4105139, -3.2586951, -0.4428635, -0.63045025, -1.0893356, 0.1196957, 1.3581939, -1.1700064, 1.2276561, -0.011325179, -0.48126522, 0.5894349, 0.73548305, 0.6806201, -0.14736159, -0.7200073, 0.5872641, 1.1609637, 1.3542377, 0.22761896, 0.6829723, -0.34557185, 1.769259, -0.562507, -1.5133033, -0.69236255, 1.3536222, -2.0996213, 0.9071845, -0.023975454, -0.54140073, -0.80669063, 1.7318199, 0.78886, -1.321024, 1.024119, 0.9523725, 0.08684008, -1.0291582, 1.310832, -0.52523506, 0.61082083, 1.1546181, -0.062373385, 0.6122235, -1.4855266, 1.8545272, 0.7016969, 1.0324702, -0.58605653, 0.17839196, 0.7162638, 0.27897432, -0.4565345, 0.8299302, 1.0116875, -0.08506092, 0.05964979, -0.13011575, 2.0939496, 0.17084137, -0.03216315, -1.0333726, -0.34650466, 1.3024359, 0.49490666, -2.2755935, -0.7142037, -0.22773078, 1.1923953, 0.5887253, -1.3478203, -1.3643453, -0.9021721, -0.364785, -2.3403342, 1.936772, 0.9050836, -2.4674666, 0.5017185, 4.8259335, 1.1024604, -1.8923955, -0.040152784, 0.380638, 0.9560357, 1.909797, -0.3214943, -0.4266369, -0.84725, -0.77762616, 1.0435344, 0.5465081, -1.5926162, 0.6360178, -2.048769, 1.3847082, -0.74670404, -0.5289792, 1.4225886, 0.8755961, 0.06097301, -0.375747, 0.1114465, 0.3412122, -1.2304709, 0.8966281, 0.6311177, 0.622023, 2.233575, 0.8296545, 1.2890452, -0.4079423, 0.4635983, 0.07422065, -0.98695636, 1.0442878, -0.06560133, -0.787191, -0.37376282, 0.92073274, -1.5596777, -0.65324676, 0.9121897, -0.1230566, 0.42990056, 0.7453307, 0.108549364, 0.52391773, -2.3999138, 1.0452888, 0.89325625, -0.4883472, 1.0595733, 1.1565299, -0.88434076, 0.1149264, 0.5191028, -0.8261638, 0.7109267, 2.5210009, 0.090929754, 0.16638385, -1.0090537, -1.1792698, -0.37756497, -0.3903037, -1.2052007, -1.6470019, -0.52061266, -0.28363118, -0.76762426, -0.63179874, 0.60864913, -0.964115, -1.8362267, -2.8456314, 0.2432262, -2.2480857, -0.9571048, 2.4520867, -0.71085507, 0.46902013, -1.5616096, 0.32745242, -2.5100708, -2.4745636, -0.27772582, 0.47574192, 0.570537, -0.8742644, 0.046094835, 0.49642307, 0.88098025, 0.05748106, 0.16559593, -0.38153622, 0.9611235, -0.9782941, 0.5911642, 0.85920674, -1.0115145, 2.5998952, 0.21845323, 0.24597982, 1.113056, 5.5838037, 0.56363934, -1.3042334, -0.15516986, 0.09356906, -1.0437949, 0.6565503, -0.32034644, 1.0700791, 0.7764737, -0.53852814, 0.5515219, 0.40707013, 0.8174386, -1.6800929, -0.8197832, 0.95869017, -0.7645783, 0.67518276, 1.8264171, 0.27467448, 0.15224482, 0.8623991, -0.15638867, -0.47986484, -0.5645208, -1.8891429, -2.350493, 0.621541, 0.94518524, 0.16837755, -0.3023744, 0.73538136, -0.18059441, 0.11988298, 0.93345255, 0.8646873, 0.96079904, 0.8215425, -1.4183103, -2.6309998, -2.1866436, 1.7543145, -0.78954846, -1.8631223, -0.3482984, -0.074661374, 0.62660307, 0.3148429, -1.4948965, -0.13018402, 0.23488991, -0.23510975, -0.7786492, 0.117193416, 0.60684526, 0.39212295, -0.007026177, -1.5534602, 0.53452003, -0.22207928, 0.56805074, 1.3859967, -1.393465, -0.67063886, -0.07473071, 1.3332276, -1.1686443, -1.226461, -3.6242661, 0.67424834, 0.50320786, 0.58935845, -0.7974884, 1.7782332, 1.3281385, 1.5267832, -1.2696631, 1.3440012, 0.79362655, -1.3643543, 2.0274165, -0.60984254, -0.70546323, -0.5040855, 1.2783905, -0.84345996, 0.5211783, -1.9500338, 0.0139200315, -1.9270157, -1.6496886, -0.3538847, -0.34423068, 0.10187323, -1.1456418, -4.819741, 0.84935147, 0.047302194, -1.7120469, 1.9192785, -1.7241274, 1.5440874, 0.43393025, -3.3538487, 1.7648581, -1.8921787, -0.57908505, -0.5207682, 1.2948525, -2.383237, 0.78364974, -0.7846058, -0.5986882, 0.26988044, -0.15282917, -0.7277962, 1.125222, 0.5127913, -0.5519491, -2.2878923, 0.27785233, 2.4013326, -0.21331137, 1.528946, -1.6801466, -1.1031203, -0.029756831, 0.47782823, -3.3390489, 0.3116321, 0.41484374, -0.2663754, 0.07397545, 0.75208926, -0.585327, -1.3812027, 3.110579, -2.0153484, -1.5141504, -0.060183305, 0.30174777, 0.04336376, -1.014394, 0.21804057, -1.2153654, -1.2567506, 2.008549, -0.34601703, -1.9183053, 0.4329315, 0.1418347, -2.626948, 0.903738, 0.49922636, -0.1952563, -0.16000025, -0.1835295, 3.6665552, -0.76437706, -0.111647725, 0.40293244, -0.7901908, 1.8201096, -0.027008506, -0.69566256, -0.74684626, -3.9682477, -0.2689857, -0.40781757, 0.31416312, -0.37292534, -0.6729319, -1.5135332, -0.18365505, -0.2857701, 0.3403498, -0.3163513, 1.7358183, -0.37450433, 0.37416887, -1.1035697, -0.41522253, 0.84573865, -0.6930757, -0.34787163, -0.35580736, -0.39057764, 0.57206905, 0.106766604, 4.358986, -0.24927835, -1.062962, -0.19925511, 1.2922686, 0.79384595, 0.28519577, 0.4211483, 0.41561824, -0.7701954, 0.4292064, 0.7202776, -0.10293307, -1.3907214, -0.081973806, 0.059191525, 0.29147303, 0.08984079, -0.92843866, -0.6186481, 2.3072808, 0.8001501, -0.22842178, -0.9605181, 1.1848992, 0.5097764, 0.24812995, 1.3215114, -1.574803, 0.75259954, 0.14832504, -1.2445346, -0.4746633, 1.2281677, 1.9091357, 0.22386363, 1.5465242, -2.0663285, 1.6824925, 0.95308775, 0.44738844, -4.474371, 1.0157062, -1.1083367, -1.2734053, 1.2310377, -1.4356941, 0.9901308, -0.4295653, -0.43465528, 0.0007284057, -1.7615851, -2.1330597, 2.529023, 1.5326366, 0.3825839, 0.14049226, 1.133127, 1.3891454, -0.41871196, 0.27812478, 1.3206203, 0.560579, 0.8295721, 0.27730992, -0.0005785393, -1.4703784, -0.15135027, 0.33043578, -1.479285, -0.66863394, -0.41577613, 2.501363, -1.1475903, -0.34061316, -0.8000086, 0.76658547, -1.3773124, -0.99334246, 0.7410785, 0.8923858, -0.6759918, -0.5891969, 1.7125034, 1.060513, 2.5750592, -1.2554553, -0.66976464, 0.70639455, -0.04342596, 0.8992411, -0.90207845, -0.08857211, -0.16616914, 0.07138545, -0.024063388, -0.31996858, 1.2141597, -0.4167715, 0.5711462, -0.020573338, -1.7153747, 0.9373791, -0.032792207, -0.087337665, -2.0390263, 1.3010442, 0.10652902, 0.63275206, -0.9827905, 0.52812207, 0.15810674, -0.71930885, -0.7217376, 0.19589674, 1.9770521, -1.1938791, 1.2488247, 0.786363, -0.47130048, -1.8984028, 0.07455759, 1.679866, 1.2976115, 0.4432021, -0.10949349, 0.15099241, -0.8416937, 0.5190986, -1.5274118, -1.3920844, 0.12041587, 0.3623886, 0.28180507, -1.0445985, 1.8674885, -0.531896, -1.3457116, 0.045993347, -0.0686961, 1.8383049, 0.1360248, 0.90644825, -0.21431415, -0.35134986, 0.46442777, -1.1335083, -0.0515439, 1.2148725, -0.3715013, -1.3808315, -0.122366875, -3.325607, -0.80903596, -2.6336968, -0.783833, -0.5104268, 0.51463366, -0.8787042, 1.1134351, 0.36800763, -0.3959534, 1.0197697, 0.0004931429, 2.00274, -0.39009064, 0.47599515, 1.1887336, -0.796038, -1.3462535, -0.98923117, -1.4645622, -0.52174175, 1.4376075, -2.521339, 0.8420442, 0.7236142, 0.8271184, -0.5671786, -0.1498049, 1.6024705, 0.39786163, 1.8249323, -2.8228388, 0.74044746, -1.1475979, -1.2018026, -1.9313962, -1.2467529, 0.27520508, -0.5726224, -1.0766233, 0.0813261, -0.7138784, -0.3928081, -0.77028584, -1.600596, 0.9934093, 0.5237005, -0.22812986, 1.5073568, 0.08082915, 1.3487504, -1.3314131, 0.14765751, -0.4839848, -0.42747566, 0.31996754, -1.2460616, 1.3634789, 0.43392044, 0.016510671, 0.6947671, -0.19383709, 0.57462204, 0.7890498, -0.30997488, -0.49223316, 0.97668934, 0.7938327, 1.1766424, -7.062625, 0.267858, -2.7436688, 0.16978997, -0.0008708739, -0.6493088, -1.5999738, -1.0005559, 0.16539037, 1.0460379, -0.7953548, 0.25157306, 0.32462078, -0.54375887, -1.5768923, 0.4611307, 0.7629947, 1.1339614, 0.8440857, 1.6090182, -1.0020318, -0.61911273, 1.0719033, 0.7011871, 1.1436466, 0.50612485, -0.10952656, 0.0113957655, 2.2874205, 2.3303375, 0.033928573, 0.32048646, 0.75049084, 0.35526964, 0.43240222, -0.7182153, -4.8381796, -0.68864906, -0.09228473, 0.24757339, -1.506223, -0.41820508, -0.92530185, 0.2888714, -3.1561165, 0.34990022, 0.44705266, 1.6786712, 4.189918, -0.32986015, -0.9516477, 0.12593514, 1.305386, -1.9321226, 1.2950107, 0.44381258, -0.20593716, -1.3838128, -0.28210947, 2.2851732, 0.4271662, 0.9636448, 1.0597259, 1.1742073, -1.3121102, 1.2361168, -0.6252, 0.6700674, 1.4211639, 0.7246855, -0.44449404, 0.23772407, 1.2286004, -1.2258658, 0.79065883, -0.081843175, 2.0628028, -0.522767, -1.0275785, -0.60163224, 0.19835421, -0.21100514, -0.36323854, 1.0520147, -0.07368396, 0.05220054, -0.8565421, -2.3139458, -0.4502955, 0.107486136, -2.1561882, -0.8608859, -0.003954312, -0.56887174, -0.16838981, 0.38508582, 1.1700572, -0.987507, -0.6374333, 0.18162546, -0.3246026, 0.7089413, -0.63874245, 2.3667004, -2.659591, -0.0067915483, -0.010169567, -0.11318507, -1.4911858, -1.19433, -0.09443909, -0.023000373, -1.0428284, 2.0988731, -0.33592862, -1.6165204, -0.3546148, -4.131145, 0.7480549, -1.7597766, -0.047650754, 0.93068266, 0.9739541, 0.7256065, -0.111857414, -1.1139079, -0.3143897, -0.93285817, -0.5248478, 1.2193913, -0.29660442, -0.60588664, -0.7654872, -0.34622598, -0.47997963, 0.3231456, -0.7576679, 0.55276984, -0.6440959, 2.6047764, 0.3489329, 2.2134774, 0.10176288, 1.357038, 0.052141674, -0.14096658, -0.46700528, -0.37889865, -0.13973042, 0.042036578, -0.37422973, 0.9626241, 0.90925324, 0.9174718, 0.07306843, -0.31087717, -1.2298634, -0.6401272, -1.8251894, 1.5886955, 0.18507487, 0.12501648, -0.16324447, 1.6615276, -0.8454602, 2.624322, -0.32452312, 3.9079747, 2.052458, -0.48929077, -0.5105287, -0.84943056, 1.6124061, 0.68528944, 0.20522693, 1.8553343, -0.9058839, 1.5704393, -0.60908836, -0.12914383, 0.4102628, 0.4959815, 1.0717338, 0.8152496, 0.4706561, 0.19759579, -2.0142417, 1.0532434, 1.0677549, -1.0191592, -0.1194634, 0.8080196, 0.98083454, 0.20890997, -0.820419, -1.8207581, 0.40649262, 1.233767, -0.573511, 1.8785038, -0.29627553, -0.65616626, -1.0088508, -0.92609745, 1.1106551, -3.4256485, -1.0549426, 0.75208503, 0.118847236, 2.1697087, -1.4584788, -0.11001505, 0.3643075, -2.7558043, -0.8939347, 1.6962942, -2.4258776, 1.1112021, -0.27789313, -1.4221448, 0.2991359, -1.006994, -0.16638564, -0.5930442, -1.3942065, 0.77109545, 1.1327381, -2.1409295, -1.0955087, -2.0727527, 0.6288366, 1.5057393, 0.45722753, -1.5890135, -1.5931641, 0.5635651, 0.3691643, 0.051294472, 2.1183643, -0.95793724, -0.8772017, 1.6065984, 0.4253082, -1.9127021, -0.34816864, 1.9256536, 0.20361201, 1.5829368, 0.3580543, -1.0867711, -1.0604868, -1.7473308, -0.4403333, -0.7059397, 1.2568715, -2.5305736, 0.74893975, 0.28339252, -1.5525856, 2.1995587, -1.087051, 2.6951873, -0.029292647, -1.3912152, 0.18745264, 0.99604726, 1.2936265, -0.6915502, -1.2758358, 0.9096591, -0.93455255, 0.07966964, -2.5234833, 0.9843323, -1.650865, -2.1034818, 0.5086597, 1.7681416, 1.0386761, 0.6351332, 1.7186054, -0.078218855, -0.8858297, 1.1680056, 1.3080128, 0.42453498, -1.9597238, 1.251757, -0.5076311, 0.5417356, -1.3832674, 1.9533101, 0.16192886, 0.16813743, -0.089474685, -0.54404086, -3.0332048, 1.6573986, -0.66223854, -1.0352509, -0.37914047, -1.2651337, 1.2113518, 0.99153644, 1.352479, 0.3863349, 0.82971436, -1.4343598, -1.9503416, 0.57238525, 1.4668822, -0.8148319, -0.6348595, 0.16629422, -0.26288387, -0.9750837, -1.5403452, -1.389169, -0.24998055, 0.6080784, 1.4702656, 1.653448, 3.1777394, 0.56076163, 0.6334204, 1.0219243, 0.07297078, 1.2739522, -0.8886423, 0.08614856, -0.61909413, -0.10364562, -1.4464349, -0.5161974, -0.07717253, 0.003997142, 0.26457658, -0.32325655, 0.22044863, -0.790231, -0.6671966, -2.6381612, -1.5659683, 1.8968091, 1.0385374, 0.8029639, 0.0042045033, 1.333664, 0.325925, 1.9007939, -0.6228972, 0.57712626, 2.2670739, 1.0433272, 0.21924843, -1.4009343, -0.596834, -0.1411116, 1.1459056, 1.1764145, -0.80086327, -0.041203327, -0.50969756, -0.00083620806, 0.084144175, -0.086632505, -0.8368219, 0.02558142, -0.3088102, 1.9110508, -0.9636013, -0.25639626, 1.8688142, 0.31553972, 3.3846743, 0.914273, 0.15610267, 0.8536661, 0.12003686, 2.7010467, -3.1445582, -1.0977784, -1.4103727, 1.4640135, 0.2939751, -0.7839465, 0.5394891, -0.5113564, -0.5099335, -1.0839045, 0.14821513, 1.0704296, -1.8350793, -1.7354716, -0.9388027, 0.114792176, -0.4760438, 0.59075004, 0.4504033, 0.5645973, -1.5549293, -1.9333181, 0.7345851, -2.9103541, 1.9545623, -1.6786737, -0.4493181, 0.6121144, -0.83466583, -1.2707057, -0.70342094, -0.335733, -0.6589083, 1.5306463, 0.6367568, -0.4759825, -0.44007626, 1.6177862, 0.4072103, -0.31564528, 0.9556184, 0.13020167, -0.2248867, 1.3272029, -0.9899229, 0.8458502, -0.9058797, -1.5802591, -3.1243947, -1.2192945, -0.88129413, 0.2930835, -2.5122979, -0.59521574, 1.4176103, 0.44253606, -0.7024393, -0.34841996, -0.78623426, -1.0061413, 0.022409784, -0.42437685, 1.260579, 0.3686868, 0.6662811, -0.37301135, 1.3428005, -1.0677956, 0.069954425, -1.6548237, 0.60095376, -0.32711378, 1.4608082, -2.0351021, 1.3891071, -0.49469656, -0.8682435, -1.0143487, 0.7628741, -0.95797527, -0.12912989, 0.50217783, 0.84075946, -0.27881917, 0.5009401, -0.071340986, -0.88287634, 1.770145, -1.3881384, 1.1992792, -0.07894091, 1.4730917, 0.15181415, -1.4606475, 0.956507, 1.0129503, -1.2438895, 0.43316847, -0.71589136, 1.3344562, -0.31510141, 0.54772514, -0.01141479, 0.6678605, 0.14714535, -0.42127818, -0.48861057, 0.33548763, -1.319913, 0.1745912, -0.25388765, -0.5783321, -0.46882862, 1.686915, -1.4058238, 2.241528, 1.0417273, 0.6245925, 0.92457217, 0.7673672, 0.99009824, 0.7823731, 1.7239803, 0.7962144, 0.119947664, 0.042507946, 0.48336083, 1.3049724, -0.009838339, -0.5273264, 1.033116, -1.3049893, -0.85077024, 0.37756103, -0.27444556, -0.0021478033, 3.5557663, 0.7909746, -0.38367745, -0.85783386, 2.9453447, 0.12239837, -1.0081815, -0.5717604, 0.46473363, -1.0832217, -1.8113197, -0.8525873, 0.87101936, 1.2684861, -0.3309955, 0.3986903, 0.7035545, 0.08454917, -0.93734485, -0.20324929, 0.52424115, 0.6567945, -0.59682155, 0.6454334, 0.30742863, -0.25692937, -0.22326502, 1.1061901, 1.2561443, -2.613278, 0.7152014, 0.8666037, 0.7233105, -1.1919951, -1.7433273, 0.43004557, -0.24374492, 0.79163706, 1.073971, 1.6289126, 0.5555867, 0.21745807, -0.257391, 0.4172949, -1.2613357, 0.1571547, -0.008230472, -1.159534, 0.90927356, -1.0429412, -2.6892595, 0.7334221, 0.18000415, 0.6913513, 0.16403967, -0.5624239, 0.29611912, 0.05959145, -1.4130124, -0.18448152, 0.42699963, -1.0369538, -2.2216113, 0.6763304, 0.07186443, 1.5113027, 1.0697427, 0.76111245, 2.3921976, 0.61105675, -0.38034278, 1.0819044, -0.69534296, 0.6327975, 2.4543264, 1.2158364, -0.21142663, -0.7309312, -0.8432951, -1.349844, -0.20611176, 0.5469849, 0.14839226, -1.9261922, 0.16230892, -0.14052439, 0.7813354, 0.10474246, -1.0168033, -1.5525078, 0.6245282, 0.6080146, -0.5831072, 1.4907806, -0.49210972, -0.75359213, 0.19694898, -3.6739652, 0.9459893, -0.32438868, 0.7624163, -0.12887159, -0.32040045, 0.4138712, 1.5780165, -0.6421385, -0.23853701, 1.533311, 0.4179717, 0.7320405, -0.5131726, 1.3280928, -1.6421591, -0.8381345, 1.292989, -1.3883725, 0.00016804485, 1.1036247, -0.42069614, -1.9698119, -1.5852594, -0.87060165, 1.6130749, -1.3797715, 0.5025222, 1.2808205, -0.5352712, -1.7902204, -</t>
-  </si>
-  <si>
-    <t>[0.76953125, -0.6743164, -0.14794922, -0.13879395, 0.328125, -1.2441406, -1.59375, 1.1123047, 2.3300781, 0.8808594, -0.38452148, -0.6381836, -0.70751953, 0.5410156, 0.5004883, -0.012512207, 0.3088379, -0.17333984, 0.32788086, -1.3554688, -0.54248047, 2.7402344, 0.80078125, -0.39916992, -0.73779297, 0.1932373, 0.18933105, -0.82421875, -0.4765625, -0.4597168, -0.07611084, 2.3808594, 1.0761719, 1.5283203, 1.1962891, -0.8618164, 0.04977417, -0.421875, 1.4755859, 0.39233398, 0.1661377, 0.7597656, -0.24267578, -0.12402344, -2.7246094, -0.22595215, -1.984375, -0.07885742, -1.1357422, 0.7421875, 2.359375, 2.3105469, -0.9375, 0.98046875, -3.3828125, -1.1660156, -0.65185547, -0.16296387, 0.19189453, 0.9140625, -0.7636719, 1.8671875, 0.39086914, -0.7055664, 0.43554688, 0.734375, -0.57470703, -0.234375, 0.067993164, 1.0107422, -0.9628906, 0.12200928, -1.6689453, 0.11102295, 1.4658203, 0.72802734, 0.12298584, -1.1171875, -2.4101562, 1.3125, -1.6884766, 0.5576172, -0.84228516, 0.046020508, 0.46655273, -0.26831055, -0.86376953, -0.96533203, 1.1044922, -1.5361328, 0.42797852, -0.8432617, 1.0576172, -0.20007324, -0.0058898926, -0.34692383, -0.76904297, -0.41967773, 2.4609375, 1.6767578, -0.7133789, 0.48632812, 0.012550354, 0.6274414, -1.1357422, 0.58740234, -0.16223145, -0.59277344, -1.4794922, -0.45117188, 0.609375, -2.4589844, 2.5996094, -0.3876953, -0.32763672, 1.5791016, -0.625, -0.54833984, -0.28759766, -3.3671875, -0.4326172, 1.0888672, 1.4736328, -0.22888184, 1.5078125, 0.94384766, 0.72802734, -2.3300781, -0.88720703, 0.9350586, -1.5615234, -6.121397e-05, 1.4482422, -1.1376953, 2.5683594, 0.31762695, -0.5493164, -1.8476562, -0.9868164, -1.421875, 0.4794922, -0.20471191, 0.63427734, 3.2988281, -0.049468994, -0.33374023, 1.1064453, -1.484375, -0.025756836, -0.10473633, -2.1542969, -2.3535156, 1.5498047, 0.83447266, -4.3164062, 1.6962891, 0.7714844, -1.2861328, -1.5927734, 2.046875, -1.1630859, -0.71875, 1.3564453, -1.7568359, 0.5576172, -0.22619629, 1.8984375, 0.45996094, 0.2878418, -2.2988281, 0.3894043, -1.0068359, -0.15393066, 1.2939453, 0.8881836, 0.66015625, -0.46972656, -1.5654297, -0.46191406, -2.2441406, -0.27294922, -2.6425781, 1.6132812, 0.095703125, 0.08477783, -1.3662109, 1.1425781, -1.4208984, 0.008918762, 0.5019531, 0.6870117, -0.87890625, -1.7294922, -0.7211914, 0.4729004, 1.7021484, 0.8066406, -1.8291016, 6.0429688, -0.58935547, 2.1386719, -1.1884766, 1.0830078, -1.28125, -1.1357422, 2.1835938, 0.3395996, 0.21240234, 0.19445801, -0.48168945, -1.0498047, -0.46020508, 1.6767578, 0.359375, 1.3857422, 0.6958008, 1.4912109, -1.2958984, -0.25390625, 0.3503418, -1.0820312, -1.40625, -0.2939453, 0.22753906, -4.3867188, -0.5439453, -1.6210938, 0.69091797, -1.7373047, -0.59228516, 1.0527344, -0.98291016, 1.0498047, 0.4560547, 0.64208984, 3.6347656, -1.7578125, 2.4140625, -0.60595703, -1.0390625, 0.2541504, -0.12609863, -0.057739258, 0.3918457, -0.6411133, 0.67529297, -0.19152832, -0.6958008, 0.5029297, 0.6152344, 3.8457031, 2.2714844, 0.24951172, 0.97021484, -0.48242188, -1.8701172, -3.3105469, -0.8364258, -0.7446289, -0.6484375, -3.0546875, -1.5351562, -0.31030273, -0.31420898, 0.48168945, 0.16699219, -2.921875, 0.105895996, -0.4074707, 2.1757812, 1.3818359, 1.4296875, 5.671875, 1.0693359, -1.1962891, -0.60791016, 1.4208984, 0.37963867, -2.9199219, 1.484375, -1.0429688, -0.9614258, -0.6401367, 0.50341797, 1.7861328, -0.6166992, -1.8095703, -0.8178711, -1.0029297, -0.8442383, -0.38891602, -0.9995117, 0.14672852, -2.1308594, -2.7167969, -1.8974609, -1.2011719, -1.6640625, 0.43920898, -0.69921875, -0.7104492, -0.12988281, 0.071899414, 0.54833984, -1.3779297, 0.74365234, 2.7949219, -0.18310547, -1.4404297, -0.33422852, 0.6503906, -0.20544434, -0.7363281, 0.14562988, 0.33129883, -0.5878906, 0.17248535, -1.5185547, 0.13623047, -0.85498047, -1.4570312, -2.1933594, 1.2451172, 0.14709473, -0.22497559, -2.1328125, 0.1529541, 1.2724609, 0.10321045, 0.20227051, 0.13098145, 1.5517578, -1.1298828, 1.703125, -0.3322754, -1.1523438, 0.3503418, 0.9458008, 0.22497559, -0.07739258, -0.5996094, 0.9980469, -1.984375, 0.44067383, -0.8613281, 0.6699219, -0.115722656, 0.79345703, -0.030349731, 1.9384766, -0.4128418, 0.42871094, 0.7758789, 1.9453125, 0.61083984, 0.859375, 4.6367188, -0.19628906, -1.1533203, 0.6230469, 0.6870117, -0.2902832, -0.25512695, -1.1943359, -1.5400391, 1.2568359, 0.6401367, -3.6269531, -0.2265625, -1.4287109, -0.8828125, 1.2939453, 0.1854248, -1.7773438, -0.20361328, 0.057769775, -2.5195312, 0.1829834, 1.359375, -2.5371094, 2.7207031, 0.89453125, -1.6806641, 0.14953613, -1.7773438, -0.44458008, -1.5732422, 1.0185547, 0.5678711, 2.3066406, 0.79296875, -0.89404297, -0.16540527, 1.4404297, 2.1113281, -0.640625, 0.71728516, 0.14465332, -0.18591309, -0.9067383, 0.09667969, -0.7089844, 0.12683105, 0.020431519, -0.13439941, 0.8691406, -1.3994141, -0.14343262, 1.5830078, 0.32470703, -0.40234375, -1.3330078, 0.23254395, 0.8198242, 0.25463867, -0.049316406, -0.6894531, -1.8310547, -0.038909912, -1.0810547, 1.4287109, 0.82958984, -0.35913086, 1.9619141, 0.15783691, -0.33569336, -1.8388672, 1.2148438, -1.8857422, 1.3105469, -0.4333496, 0.87158203, 0.4411621, 1.5625, -1.2646484, -2.265625, 2.5175781, 0.4543457, 0.7475586, 0.05130005, -0.085876465, 1.5126953, 0.21105957, 0.5932617, 0.4169922, 3.7324219, 0.56591797, 1.7919922, -0.52197266, 0.70166016, -1.1201172, 1.2041016, 1.1806641, -0.7246094, 0.5083008, -1.8544922, -0.15393066, -1.9501953, 0.35620117, 0.32543945, -0.30029297, 2.71875, 1.5166016, 0.35131836, 0.026901245, 1.0302734, 0.58447266, -0.05456543, -0.77783203, -0.9296875, -0.020889282, 1.5146484, -0.828125, -0.48510742, -0.5366211, 1.0332031, -1.9296875, -0.87158203, -1.078125, 0.3408203, -0.45898438, -2.1464844, 0.30517578, 0.2446289, 0.4025879, -1.3330078, 0.4729004, 3.1074219, 0.6044922, -0.5673828, -0.66552734, -0.078186035, 0.10272217, -0.82373047, -0.33081055, -2.0683594, 0.77001953, 0.7504883, 0.71435547, -0.15136719, 0.5649414, 0.12731934, -0.5683594, 0.82958984, -0.40454102, -1.1611328, -0.31713867, -0.87109375, -1.4521484, 0.6479492, -0.8769531, -0.41015625, 0.86328125, 0.65771484, -0.8066406, 0.6347656, 0.5839844, 0.54833984, 1.625, -0.97021484, 0.41015625, -0.53759766, -1.2519531, -1.3476562, -0.89501953, 2.0058594, -0.15222168, 2.6113281, 0.83203125, 0.71533203, 2.7324219, 0.91015625, -1.2333984, -1.609375, -1.5859375, 0.12878418, 0.40795898, -1.0771484, -2.1191406, -2.8300781, -0.0047035217, -0.31323242, -2.5957031, 0.64453125, 0.7597656, -0.22741699, 0.98779297, 0.22009277, -1.4091797, 0.42114258, -2.3164062, 1.6953125, -0.19787598, -0.31713867, 0.4645996, 1.6708984, 1.1611328, 1.9033203, 0.21191406, -0.6254883, -0.89453125, -1.0732422, -0.5161133, -1.796875, -0.78759766, 1.0380859, 3.1425781, 0.41577148, -0.82421875, -0.16442871, -0.7363281, -1.3935547, 0.3815918, -0.81591797, 2.3378906, -1.4912109, 0.91015625, 1.6279297, -0.1373291, -0.34277344, 1.8945312, -0.9291992, 0.13256836, -0.26123047, 0.6225586, -0.5307617, -1.8779297, -1.0253906, 0.10394287, -0.101989746, 0.035247803, 0.5073242, -0.9824219, 1.9287109, -1.1171875, 0.88427734, 0.39453125, -0.43432617, -0.04067993, -0.024902344, -0.11743164, 2.1230469, -0.2836914, -0.3088379, 1.0654297, 1.0488281, -1.1425781, 1.2080078, 1.2539062, 0.44458008, -1.0712891, -0.55126953, 1.2646484, -1.3017578, -1.796875, 0.79345703, -0.19348145, -0.2529297, -0.8930664, -1.1015625, -0.17370605, 3.515625, -1.9130859, 2.9921875, 0.5004883, -0.119628906, 1.9541016, -1.3662109, -0.46264648, 1.1162109, 0.39916992, 1.5205078, 0.81103516, -0.43554688, 0.9477539, 2.5214844, -0.8305664, 0.4699707, -1.1445312, 2.0410156, -1.2041016, -0.2529297, -0.2939453, 2.171875, 2.3652344, -0.6176758, -0.13537598, -1.0234375, 2.5097656, -0.015975952, -2.0566406, 0.20227051, 1.3066406, 0.18615723, 0.5151367, -0.8334961, 0.44506836, 1.1923828, -1.515625, 0.52197266, -1.2861328, 0.6201172, -0.5366211, -2.28125, 1.0205078, -0.08905029, 1.0625, -0.23571777, 1.9677734, -1.7695312, -0.15209961, 1.5556641, -0.63183594, -1.6982422, 1.5849609, -0.828125, 0.83203125, -0.40112305, 0.39257812, 1.5859375, -1.1396484, -0.038482666, -0.8881836, 3.34375, -0.7324219, 0.66064453, 0.81640625, -0.13049316, -0.33862305, 2.6152344, 1.0722656, -0.19885254, -0.61083984, 1.7861328, 0.25561523, -0.5566406, -2.5371094, 2.2402344, -0.74560547, -1.8701172, -0.33764648, 0.42944336, -0.10107422, -1.2470703, -0.8305664, 1.0429688, 1.1396484, 0.8300781, -1.5732422, 1.1611328, -1.1611328, 2.6699219, 1.5224609, 0.04196167, 1.0371094, -1.6708984, 1.6494141, 0.4189453, 0.56396484, -1.71875, 1.1894531, 0.6953125, 0.16259766, -0.8510742, 1.1171875, 0.8286133, 0.29760742, 0.5332031, 0.62158203, -0.9194336, -1.0888672, 0.30371094, 1.4140625, 1.0664062, -0.68310547, -2.4746094, 0.3857422, -0.80078125, -3.1582031, -0.49975586, 0.15649414, 0.76708984, 1.1308594, -0.95751953, 1.1669922, 0.9008789, -2.3671875, 0.19787598, 0.42944336, 0.099609375, -0.73046875, -0.039398193, 0.24035645, -0.3388672, -1.8603516, -1.2431641, 0.4501953, 0.8515625, -0.84228516, -1.2744141, -1.0761719, -1.5859375, 5.296875, 0.08380127, 0.37597656, -0.99072266, -0.62939453, -0.4013672, 1.4179688, -0.20227051, 0.3786621, -2.1035156, -0.87109375, -0.026855469, -0.50146484, 1.2607422, 1.2236328, 0.13952637, 3.8359375, 3.5644531, -0.116760254, 2.8886719, -1.0576172, 0.37426758, 0.7915039, 0.90185547, -1.4140625, -1.0976562, -2.5253906, -0.23571777, -1.1357422, 0.2927246, 0.76953125, -1.3583984, -0.47729492, -1.0107422, 4.1132812, 0.26635742, 0.14282227, 2.0429688, -0.28466797, 2.5722656, -0.44750977, -0.6816406, -0.46850586, 1.3837891, -0.0154800415, 0.70458984, 0.5463867, -2.8125, 1.5820312, -1.5791016, 0.5288086, -0.41333008, 0.7055664, -0.48632812, 0.57177734, -1.5976562, 3.125, -0.13269043, 0.8984375, 0.2770996, -0.3876953, 2.1347656, -0.084228516, -0.15136719, 1.3105469, 3.0078125, 1.0996094, 0.8515625, -0.03942871, -0.4724121, 1.4921875, -0.045928955, 1.1767578, -1.6572266, -1.7705078, 0.8613281, 0.57666016, -0.23718262, 0.65771484, -0.7963867, 0.20666504, 0.33569336, 0.4963379, 0.20605469, 1.1455078, 2.5605469, -0.80859375, -0.06512451, 1.328125, -0.4675293, 0.40698242, 0.24658203, 0.5722656, 0.18713379, -0.61865234, 1.0390625, 1.5673828, 0.7290039, 2.7636719, 1.796875, -0.2902832, -2.4511719, 0.7651367, 1.2470703, -1.2597656, -0.7368164, -0.5996094, 1.9414062, 2.0644531, 1.9443359, 1.4052734, 0.14172363, 0.57421875, -0.3322754, 0.7050781, -0.03729248, -0.8491211, -0.090148926, 0.11871338, 0.9316406, 0.61572266, 2.5527344, -0.5493164, 1.4960938, -0.33691406, 0.52246094, 1.8525391, -0.15332031, 0.28881836, -1.3671875, -0.14465332, -0.12890625, 0.47924805, -0.87109375, 1.5, -1.1474609, 0.6567383, -0.03189087, -1.3642578, 1.3857422, -0.74365234, 0.31469727, -1.5009766, -0.8520508, -1.1494141, 0.70654297, 1.7802734, 1.2753906, -2.5722656, -1.1142578, 0.16564941, -1.7158203, -1.6787109, -1.2392578, 0.59033203, -0.6040039, 2.140625, 0.76220703, 1.0029297, -0.46679688, -1.0048828, 1.3134766, 1.875, -0.45776367, -0.3972168, 0.69384766, 1.4609375, -0.6933594, 1.25, 1.0410156, 2.0214844, 1.4033203, 0.7285156, -3.6464844, -1.0058594, -0.05078125, 0.5283203, -0.011512756, -0.31958008, -1.0585938, 0.19641113, 0.98095703, -0.67041016, 2.8417969, 0.08709717, 0.61621094, -1.4257812, -2.4375, 1.2539062, -0.81103516, 1.9072266, -0.32055664, -0.7553711, -0.27856445, -0.09857178, 1.6533203, 0.84033203, -0.83984375, 0.081970215, -0.23156738, -1.125, 1.2753906, 1.8076172, 3.5136719, -0.22766113, 0.8984375, -1.7109375, 0.49804688, -3.9453125, 0.5678711, -0.23986816, 0.6430664, -1.5507812, 1.6171875, -0.18908691, 0.4050293, 0.71533203, 1.3701172, -0.8886719, -1.9736328, -3.5136719, -0.6948242, -2.5078125, -0.51171875, 0.6821289, -0.30688477, -1.859375, -0.07421875, 0.7324219, -1.4990234, 1.7529297, -1.5546875, -0.30981445, 0.1685791, -0.9614258, 0.5488281, -2.0605469, -2.6699219, 0.78515625, -1.0556641, -0.9848633, 0.69189453, -1.5517578, -2.578125, -1.2333984, 2.0976562, -0.45507812, -0.76416016, -1.5078125, 0.5288086, 0.34594727, -0.49902344, -0.7011719, 0.9916992, -2.0273438, -1.5068359, -1.6054688, 1.5859375, -2.1972656, -1.8974609, 1.5595703, -0.95458984, 2.2070312, 0.1920166, 1.2353516, 0.3359375, 2.0488281, 0.8105469, -1.7705078, 0.796875, 1.9726562, 0.27319336, 1.9248047, -0.010719299, 1.3632812, 0.46118164, -0.7578125, 0.30737305, -1.2109375, 1.3583984, -1.5898438, 0.06161499, 0.32592773, 1.1474609, -0.101745605, 1.484375, -0.27270508, -1.0791016, -0.60595703, 0.8881836, 2.4941406, 0.7558594, 0.33276367, -0.71435547, 0.9355469, 1.2646484, 0.4050293, 1.3066406, -0.3623047, -1.7109375, 0.9682617, -2.2382812, 1.6552734, -2.609375, 0.2368164, 0.03161621, -0.57470703, -0.82373047, -0.8676758, -1.8154297, -2.4257812, 0.67333984, -1.7958984, 1.0576172, 0.43579102, 0.41186523, -1.6835938, -0.20178223, -0.46606445, 0.0070648193, 0.29345703, 0.5727539, 0.7729492, -0.38208008, -1.1191406, -0.6616211, 0.3942871, -2.9785156, 1.5478516, 2.3847656, -0.8417969, -0.5966797, 1.2880859, 2.3652344, 0.98876953, 0.29589844, 0.8769531, -0.19873047, -1.9423828, 0.13098145, 0.85009766, 2.3300781, 0.28198242, -0.19543457, 0.32104492, -0.40356445, 0.038757324, -0.6020508, 2.6621094, -0.22180176, 1.4150391, -0.029800415, 0.3581543, 0.21789551, 0.5229492, -0.7949219, 0.15209961, 0.34472656, 1.1210938, 0.6894531, -0.15710449, -1.7431641, -2.9707031, 0.44995117, 1.359375, 0.9375, 0.7089844, 1.3066406, 0.8120117, 0.66503906, -0.15258789, -1.7607422, 1.6455078, 0.14489746, 2.4160156, -0.86376953, 0.62597656, 1.5009766, 0.023361206, -0.25561523, -0.46801758, 0.38964844, -0.66259766, 1.6171875, -1.8681641, -1.1181641, 0.7807617, 0.921875, -1.0673828, -2.625, -3.4160156, -0.64501953, 0.77783203, -1.7236328, 0.8901367, -1.1064453, 1.5273438, -1.2773438, 0.4025879, -0.41479492, -0.084472656, -2.0878906, 2.5117188, -3.4277344, -0.13586426, 0.03274536, -0.10424805, 0.33813477, 0.22644043, -0.79052734, -2.6503906, -0.20837402, 0.41796875, 0.06347656, -0.21984863, 0.07348633, -0.0079422, 0.3659668, 0.95458984, -0.10961914, 0.085998535, -2.265625, -0.082092285, 2.6269531, 0.7734375, -2.6035156, -1.1201172, 0.140625, -0.30810547, -1.6279297, 1.1835938, -0.16711426, -1.7841797, -0.6464844, 0.10284424, 0.3166504, 1.2802734, 0.13549805, -2.2910156, -0.3503418, -1.6630859, 2.3847656, 1.6679688, 1.1484375, -0.72265625, -0.62646484, 1.7646484, -0.9375, -1.4726562, 1.7509766, 1.1689453, -0.037200928, 0.44628906, -0.3161621, -0.9633789, 1.2080078, -0.42651367, -0.012382507, 1.6220703, 0.94970703, -0.4020996, -0.13183594, 0.041656494, 0.7109375, -1.4179688, 1.5673828, -0.5161133, 0.6508789, -0.3071289, 1.4326172, -0.009635925, -0.984375, -0.7519531, -1.4140625, -0.6401367, 0.87646484, 0.05822754, 0.8129883, -0.49243164, 0.48999023, -0.87060547, -1.6328125, -1.7998047, -0.17102051, 1.7607422, -0.47753906, -0.8774414, -1.2919922, -0.8491211, 0.98583984, -0.49487305, -2.3203125, 0.36791992, 0.85009766, -0.14282227, 0.055664062, -0.28564453, -1.9267578, 1.2783203, -0.7319336, 2.984375, 1.9023438, -1.4443359, -0.11175537, 0.81103516, -1.3603516, -1.8681641, -0.93896484, -3.3203125, 0.1439209, 1.8916016, 1.0771484, 1.1474609, 1.3154297, 0.27978516, 0.625, -1.4492188, 0.8417969, 1.0927734, 5.3867188, 0.7910156, -2.4414062, -0.5551758, -0.8774414, 0.30200195, 2.1640625, 1.3466797, 1.2529297, -0.5600586, 0.4675293, -1.8447266, -2.1269531, 1.9814453, -1.0322266, -0.3154297, -1.5742188, -0.5180664, -0.8803711, -0.56347656, 0.8100586, 1.7392578, -0.24414062, -0.36206055, -0.7036133, -1.8564453, -0.38012695, -0.32104492, -0.30151367, -1.0576172, 0.5004883, 0.9116211, 2.8828125, 1.0615234, -0.5385742, -0.91015625, 1.6552734, 1.2050781, 0.19519043, -1.6845703, -0.77734375, -0.5810547, 1.0830078, -0.064086914, -0.97314453, -1.2841797, 0.7558594, 0.40527344, 3.4941406, 0.93408203, 0.9116211, 0.2626953, -1.2001953, -2.0605469, -1.9951172, -0.51904297, -0.9790039, 0.3762207, -1.0351562, 5.3789062, 1.4335938, -0.15893555, -2.3183594, 0.18713379, 1.1318359, 0.37036133, 1.3466797, 0.08642578, -0.23339844, -1.8408203, 1.9873047, 0.3955078, 0.08123779, -1.1982422, -0.61865234, -1.3359375, -0.8676758, -1.1669922, 1.0791016, 0.32739258, 1.7119141, -0.84228516, -0.5361328, 5.921875, -0.3347168, -2.0898438, 0.13269043, -0.56591797, -0.30151367, -1.5087891, 1.9072266, -0.38745117, -0.6274414, 0.8881836, -0.18640137, 0.84814453, -0.3984375, 0.22961426, -0.50146484, 0.92333984, -0.44067383, -1.0400391, -2.4238281, 1.3173828, -1.7626953, -0.6699219, -1.3349609, 1.1894531, 0.2088623, -0.11968994, -1.53125, -0.9682617, -3.171875, -1.2255859, -1.9101562, -0.44360352, 0.5805664, 1.1660156, 0.14953613, 2.4257812, -0.19616699, 0.06738281, 0.04019165, -1.0341797, 2.8183594, -1.2363281, 1.7617188, -1.1142578, 1.0039062, 0.09057617, -0.27319336, -1.1425781, 1.0742188, -1.3408203, -0.115722656, -0.83203125, 2.4140625, 0.2524414, -0.54833984, -0.49780273, -1.9375, -0.95166016, 0.37402344, 0.36694336, -1.2724609, 0.1282959, -0.34155273, -1.2646484, -0.26660156, 0.48828125, 0.24951172, 1.3857422, 0.84375, -0.33618164, -0.70654297, -1.6552734, 1.3955078, 0.16369629, -0.13891602, 0.039398193, -0.10638428, -4.078125, 1.890625, -0.07757568, 2.9707031, 1.1904297, -2.0683594, 1.2412109, -0.7285156, -1.0634766, -0.6611328, 0.44750977, 2.5488281, 0.34985352, -1.1484375, 0.29516602, 0.5883789, 0.21533203, 0.87158203, 1.5087891, 0.14941406, 1.7265625, 2.0839844, 1.7744141, 0.60302734, 0.095458984, -0.124694824, -0.2626953, 0.37695312, 0.39453125, -0.09423828, 0.056030273, 0.81640625, 0.5649414, 4.0117188, 0.8339844, 0.234375, 2.34375, 0.49145508, -2.4824219, 2.0722656, -1.5615234, 0.79052734, 1.6298828, 1.7148438, 0.35131836, -1.1923828, 0.6713867, 2.0878906, -0.35620117, -0.5732422, -1.3476562, 3.703125, -0.6899414, 0.7026367, -0.1743164, -0.84765625, 1.5234375, 0.84521484, 1.0029297, -1.5712891, -0.9511719, 0.46362305, 1.1113281, 2.9765625, -0.86572266, -2.3164062, -0.37182617, 1.2373047, 1.4052734, 0.875, 1.2890625, 1.3251953, -1.6015625, -1.8515625, -0.90625, 0.34448242, -0.10845947, -0.23181152, 0.34179688, 1.7958984, 2.4667969, -1.0419922, -0.8125, -0.33862305, 1.0751953, 0.4309082, 1.2431641, 0.890625, -1.7041016, -2.3828125, -2.4042969, 0.29760742, 1.3554688, 0.67822266, -1.6640625, -0.98583984, 1.3193359, -2.7109375, -0.59033203, -1.3632812, 0.08685303, 1.7041016, -0.5180664, -0.11053467, 0.64501953, -1.3837891, -0.84521484, -0.3388672, -0.089904785, -0.69140625, -2.0097656, -0.14001465, -2.2636719, 1.4697266, -1.4755859, -0.36791992, -0.70947266, 0.8911133, -0.06262207, 0.63671875, 2.578125, -0.9057617, -0.33032227, -0.5083008, 0.1270752, 0.5078125, -1.9072266, 0.8613281, 0.31860352, 0.15161133, -0.87646484, -0.15136719, 0.8852539, -1.0742188, 0.1661377, 0.101501465, -0.14978027, 0.70703125, -0.7973633, 1.7421875, 0.47070312, 0.6147461, 0.84375, 0.63916016, 1.5771484, 1.6914062, 0.60791016, 0.9399414, -1.0585938, 1.2255859, 1.8125, 0.52978516, -1.9814453, -0.28295898, 0.1595459, 2.5644531, 1.25, -0.18017578, 0.21936035, -0.5991211, 2.3515625, 0.63720703, -2.1425781, 3.6035156, -1.2841797, -0.1529541, 0.6699219, 4.5039062, 0.46264648, -0.86572266, -0.48339844, 0.51904297, 2.4160156, -0.9765625, 3.0332031, 0.8198242, -0.12109375, -0.14245605, -0.25756836, -0.8129883, 0.48999023, -1.4814453, -0.52978516, -3.390625, -0.453125, -0.86083984, 1.5419922, 1.3681641, 1.8662109, 0.38745117, -1.5556641, 0.73291016, -0.36157227, 1.7255859, 0.1694336, 1.7460938, 0.19494629, -0.1159668, 2.2890625, -1.6445312, -0.046539307, -0.4802246, -2.1367188, 0.8461914, 1.5302734, -0.34765625, 1.1132812, -0.119140625, -3.609375, -0.60498047, 0.59716797, 1.3183594, 1.6240234, 0.95703125, 0.64697266, 1.4882812, -1.1357422, 1.6015625, 0.15576172, -0.09106445, 0.3166504, 0.1973877, -0.7128906, 0.46069336, 3.3496094, -0.91845703, 1.8623047, 0.50927734, -0.75439453, 0.49536133, 0.7324219, -1.2998047, 0.37817383, -0.86865234, -0.043914795, -0.6508789, 1.0566406, -1.0615234, -0.26489258, -1.0419922, -0.734375, -1.9960938, -1.0595703, -0.4050293, -0.82373047, 0.3227539, -0.4104004, 0.52783203, 0.8286133, 0.69970703, -0.8256836, 0.24645996, 0.097961426, 0.3972168, 0.13439941, 1.0751953, 1.6757812, -0.98779297, 0.07208252, 0.47583008, 1.1455078, -0.2775879, 0.004386902, -0.94384766, 0.9589844, 0.030075073, 0.21679688, 1.1894531, -3.0097656, 0.056640625, -0.13500977, 1.0068359, 0.40063477, 5.71875, 1.9257812, -0.2454834, 0.25878906, -1.8193359, 1.2373047, 1.3544922, -1.390625, 2.390625, -1.1943359, 2.6582031, 1.6875, 0.40307617, -2.8730469, 2.6308594, 0.28759766, 0.8730469, -0.82470703, -0.19177246, 1.6328125, -0.38671875, -1.8554688, 0.11138916, 0.17138672, -0.25952148, -1.4414062, -1.5556641, -0.64697266, -1.0703125, 2.4121094, 1.5224609, 0.59765625, 1.6025391, 0.002023697, 0.078063965, 0.83203125, -0.2310791, -0.36987305, 0.50927734, -2.0703125, 0.75439453, -1.0693359, -1.1533203, -0.7319336, -2.4882812, 0.79833984, 2.9121094, 0.9765625, 0.796875, -0.57373047, -0.6489258, -0.7084961, -1.8388672, -0.328125, -0.6772461, -0.24804688, 2.7910156, 0.46118164, -2.2324219, -0.7519531, 1.5195312, 0.5161133, 0.8022461, 0.9086914, -3.0332031, -1.2001953, 1.6142578, -0.25219727, -1.3427734, 1.4208984, 0.4675293, 2.5703125, -1.4501953, 1.1865234, 1.2773438, 1.4101562, 0.49804688, 0.27075195, -0.49609375, 1.375, 2.9863281, 0.6269531, -1.1416016, -2.1640625, -1.3945312, 0.29223633, -0.70458984, 1.5107422, -0.3605957, 2.2011719, -0.046539307, 0.55859375, -0.2286377, -1.1865234, 0.5180664, -0.52490234, -4.6210938, -0.88916016, -0.5571289, 1.5888672, 0.28637695, -0.7636719, 1.7626953, -0.79541016, -1.7958984, 0.44018555, 0.80322266, -1.4169922, 1.1513672, 0.17492676, 0.2401123, 0.7109375, 1.1455078, 0.15039062, -0.19543457, 0.07397461, 0.124816895, -0.12585449, -0.36328125, 1.1533203, 0.6088867, -1.7304688, -1.0439453, -1.5087891, 0.17541504, -0.5019531, -0.51220703, 5.4335938, -3.203125, -1.9775391, 1.3359375, -0.8881836, 0.9916992, 0.6723633, 1.6953125, -0.41137695, 1.3554688, 2.4902344, 2.3632812, -1.0683594, -1.4326172, 0.21911621, 0.27319336, 0.18945312, 0.08856201, -0.8359375, -0.2467041, 1.7851562, -1.1054688, 1.2158203, -0.3503418, 0.20837402, 0.027908325, 1.5078125, -0.55126953, -0.90771484, 0.06427002, 1.2226562, 0.5541992, 0.20275879, 1.8974609, 1.3037109, 0.32617188, -1.5439453, 0.38061523, -2.4335938, 1.8427734, -0.6616211, 0.87109375, -0.46484375, 0.3269043, -2.4121094, 0.090026855, -1.2119141, -0.4189453, -0.8022461, -2.2324219, 0.56689453, -1.7822266, -0.30004883, -0.13684082, -0.4020996, -0.13586426, -0.9633789, -0.5307617, 0.85595703, -0.13928223, 0.3815918, -0.56640625, 1.3203125, 1.4960938, -2.1992188, 0.54833984, -0.8227539, 0.1484375, 1.1044922, 2.7089844, 0.25170898, 1.6416016, -1.0859375, 0.4423828, 0.15942383, 0.56591797, 0.070251465, 2.71875, -0.8022461, -0.22131348, -0.32666016, 0.21838379, -0.89208984, -0.27856445, -0.43945312, -1.3076172, -2.9921875, -0.09649658, -0.7714844, -1.21875, -1.1962891, 0.4333496, 0.27197266, 0.27783203, -0.75439453, -1.7099609, -3.0683594, 1.9775391, -0.4020996, 1.4111328, 0.5673828, 0.62939453, 0.46289062, -2.6660156, -0.12927246, 1.5693359, 0.47631836, -0.3828125, 1.4599609, -1.5185547, 1.140625, 0.016616821, -0.10430908, -0.5527344, 0.21765137, -1.6845703, 2.2050781, 0.01979065, -0.9477539, 0.17529297, -0.32177734, 0.43676758, -0.66845703, 0.63623047, -1.1582031, -0.921875, -0.22155762, 0.42285156, 1.2060547, -2.2480469, -1.6533203, 0.3203125, 1.0087891, -0.26635742, -1.0263672, 0.020233154, 0.5073242, -1.5625, 0.035614014, 0.17468262, 0.15100098, -1.6474609, -1.1591797, 0.53271484, 1.5576172, -1.5107422, 2.203125, -1.1806641, -0.5083008, -1.8056641, -0.80029297, -0.15722656, -0.038604736, -1.7587891, -0.64990234, -0.018630981, -2.0390625, -1.0712891, -0.7036133, -0.38598633, 0.043060303, 0.5449219, -0.19433594, -0.41381836, -1.0390625, -0.7182617, -0.07684326, 0.13977051, -0.93310547, -0.2800293, -0.22607422, -0.2927246, 1.0400391, -1.8134766, 0.5078125, -1.9990234, -2.4628906, 0.9765625, -0.013404846, -0.24206543, 0.5546875, -0.9316406, -2.0820312, 0.8300781, -0.23132324, 1.5966797, 0.8852539, -1.3173828, 1.6103516, -0.42504883, -0.5600586, -2.9628906, -1.7880859, -0.8676758, -0.1463623, 0.42358398, -0.12756348, -1.7548828, -0.70458984, -4.3125, -1.8310547, 2.1113281, 0.57666016, 3.7636719, -1.40625, 0.09399414, 0.5083008, -0.8984375, 0.40234375, -2.1777344, -0.3864746, 0.20690918, 0.8515625, -1.7265625, -0.13720703, -6.3242188, -0.3173828, 0.11199951, 3.3027344, 1.3935547, 0.86279297, -1.2119141, 1.0048828, -1.2666016, 0.011108398, -1.1318359, -0.7182617, -2.1152344, -0.092285156, -0.44067383, 0.6245117, -0.009506226, -0.8510742, -2.4023438, -1.8271484, -0.7910156, 2.0214844, 1.3867188, 0.5546875, 0.27416992, 0.80078125, 1.8896484, -0.93896484, 0.5678711, 0.27685547, 1.2626953, -0.9082031, -0.7270508, 0.5234375, -0.03125, 0.0859375, -0.4855957, -0.5776367, -0.05831909, -0.7631836, 0.09765625, -0.4699707, -1.5966797, 0.33862305, -1.5751953, 1.453125, 1.6943359, -0.15673828, 0.12805176, 0.05041504, 0.37182617, -0.28198242, -1.7705078, -0.23547363, -0.012763977, 0.9760742, -0.06677246, -1.46875, -1.7744141, -0.8520508, 0.42114258, -1.4423828, 0.2626953, 1.0849609, -0.024230957, -0.98046875, 1.1982422, -0.3684082, -0.45385742, -2.078125, -0.40429688, 0.60498047, 1.0224609, -0.42944336, -1.2539062, -0.37817383, -3.8828125, -0.33569336, 0.77490234, -0.10839844, 1.2001953, 0.52783203, 2.9980469, 0.84228516, 1.8251953, 1.4296875, -0.4958496, -0.77783203, 1.5820312, -1.6689453, -0.40356445, 1.3447266, 1.6142578, 1.3427734, 1.9882812, -0.4501953, 0.91796875, 1.6445312, -2.8105469, -1.2197266, 0.8730469, 1.0869141, 0.087890625, -2.671875, -1.765625, -3.6542969, -0.6948242, 3.5996094, 1.0478516, 1.1396484, -1.0185547, 0.8120117, 1.2148438, -2.0878906, -0.7480469, -1.1611328, 0.68310547, 0.14733887, 0.22399902, 1.7666016, -0.8959961, 0.2154541, -2.7109375, 0.80078125, -0.95751953, -0.97802734, -0.07098389, -2.0996094, -1.5361328, 0.8925781, 0.7011719, 0.22497559, -0.70751953, -2.0878906, -0.6616211, -0.5991211, 1.8056641, -1.4033203, 0.010169983, -1.8603516, -0.7006836, 2.4511719, -1.1503906, -1.1777344, -0.13183594, 2.7890625, 0.10455322, -0.8149414, -1.2773438, -1.3632812, -1.1376953, -0.3684082, 0.16784668, 1.1455078, -0.9926758, -1.0166016, -0.87841797, -2.7675781, -0.52685547, 0.15795898, 2.9433594, 1.9619141, 1.4541016, -3.3261719, -0.47192383, -0.7426758, -1.2373047, 0.062347412, 0.99853516, -1.7265625, 0.6508789, -1.4023438, 0.23620605, -0.8261719, -1.9960938, -1.5634766, 1.9648438, 0.048950195, 0.28125, -0.54541016, 0.7885742, -0.83740234, -2.1503906, -1.0029297, -0.97314453, -1.5361328, 0.60839844, 0.47094727, -0.41479492, 0.9350586, 1.3789062, 0.58984375, 0.03591919, -0.3486328, -2.8574219, -0.41918945, -0.15234375, -1.1630859, 0.4777832, -1.3203125, -0.7631836, -3.3027344, 0.49389648, 0.8413086, -1.2900391, 0.3486328, -0.3864746, -0.36523438, -1.3291016, 0.8071289, 0.50683594, 0.69091797, -0.40454102, 0.80615234, 0.49145508, 1.2783203, 1.6982422, -1.7119141, -0.453125, -0.61572266, 0.8823242, 1.5341797, 0.8203125, -0.40307617, 0.36401367, -1.0341797, 1.4189453, 0.36938477, 0.89990234, 1.0283203, 2.1972656, -0.41479492, 2.3261719, -0.5834961, 2.0136719, 1.171875, 1.640625, 1.9892578, 0.038085938, -0.90185547, -0.30297852, 2.8730469, 0.5805664, 0.55859375, 3.4042969, 0.17785645, 1.8447266, 0.22302246, 1.6708984, 0.9980469, 1.4287109, 3.4003906, 0.4482422, -0.36499023, 3.2167969, -1.1748047, 1.6845703, 1.5224609, -0.11639404, 1.1416016, -0.81689453, 0.52441406, -0.97265625, 1.484375, -2.5214844, -0.41625977, 0.50439453, 1.2431641, -2.0527344, -0.0836792, -1.3984375, -0.9765625, -0.99560547, 0.828125, -3.5, -1.9931641, 0.7211914, 2.2675781, 1.8554688, 2.0761719, -2.2070312, -0.17785645, -1.1591797, 0.2163086, 0.73876953, -2.1074219, -0.33496094, 2.25, 1.4384766, 0.30541992, -1.2929688, -0.14416504, 0.14489746, -1.3525391, 0.9291992, -1.0419922, -1.4541016, -1.2568359, -2.3847656, 0.65185547, -0.03967285, -0.10345459, 0.047332764, -1.5478516, -0.5283203, -0.77734375, 0.35620117, -0.36914062, 1.1367188, -0.9550781, 0.36206055, 0.36010742, -0.9667969, -0.3713379, 1.2294922, 0.40795898, -0.578125, -0.51708984, -0.58251953, -0.56591797, -1.0898438, -0.27172852, 1.7070312, -1.78125, 0.25708008, 0.035003662, -1.8388672, -0.25, 2.6308594, -0.859375, 0.6040039, -0.33618164, -0.91552734, -0.18640137, -0.33496094, 0.62402344, -2.2851562, -1.2802734, 1.5302734, 2.1464844, -0.44702148, -0.63427734, 1.0517578, 1.8486328, -0.8046875, 1.2783203, 1.3603516, -1.640625, -0.7241211, 0.8847656, 0.04284668, -1.0009766, 0.85498047, -0.2836914, -1.0849609, 3.7949219, 0.039489746, -1.1162109, -0.38500977, 0.40795898, 1.8896484, -0.20458984, 2.1113281, -0.7036133, -1.3115234, -0.65185547, 1.9423828, 0.32592773, 1.4658203, 0.43530273, 1.3632812, 1.1777344, 0.23632812, 0.50683594, -0.16333008, 1.1787109, -1.8154297, 0.0579834, -0.13623047, 0.44921875, -2.953125, -0.88623047, -0.8457031, -0.5209961, -0.453125, -0.2286377, 2.6152344, 2.0644531, 1.1201172, -1.1826172, 0.6870117, -1.0986328, 2.1308594, 1.8398438, 0.06854248, -1.375, -0.7885742, -0.7739258, 1.0048828, -1.4248047, -0.3474121, -1.4521484, 1.0019531, 2.1972656, -0.17736816, 1.6669922, 0.8046875, 0.35375977, 0.6591797, 1.0498047, -0.07104492, 0.4182129, 3.265625, -0.68359375, -0.5332031, 0.9975586, -0.8203125, -1.5947266, 0.5786133, 0.890625, 0.3322754, 2.1425781, 0.46313477, 1.1210938, -0.5229492, -1.9521484, 1.0029297, 0.6484375, 0.3828125, 0.4699707, -1.0234375, -1.1884766, -0.4255371, -1.0556641, -0.41235352, -0.7036133, 0.52441406, -0.15759277, -1.2958984, -0.94091797, 2.0625, 1.0644531, 0.11425781, 3.1816406, 0.25317383, 0.25610352, -0.28833008, 1.8476562, -0.30541992, 0.75, -0.121398926, -1.2900391, -0.052642822, 1.1435547, -2.4980469, -1.390625, -1.3759766, 0.90966797, -0.1694336, -1.796875, -0.79345703, 1.6845703, -0.8745117, 0.14050293, -0.5209961, -1.5234375, -0.9375, 2.0898438, 0.49414062, -0.21875, 0.30810547, 0.55078125, -0.45507812, 0.05496216, -0.08959961, -1.1396484, -2.6621094, 1.7226562, -0.8671875, 0.010360718, 0.9526367, 2.0078125, 1.0302734, 0.87890625, -0.27148438, 0.93408203, -0.51220703, 0.77197266, 0.40649414, 0.52246094, -2.0371094, -0.10821533, 3.5332031, -0.5551758, -1.3701172, -1.5654297, -0.6538086, 0.2878418, 0.24890137, -0.39648438, -1.5712891, -1.4423828, 1.0419922, -0.703125, -0.625, -0.11401367, -1.3544922, 0.87109375, -0.6538086, 0.5395508, -0.34057617, 2.5429688, -1.0908203, 1.2861328, 0.6816406, 1.2060547, 0.039276123, 0.71875, -0.48242188, -2.2773438, 0.54296875, -0.4597168, -0.21057129, -1.1933594, -1.7802734, -0.46777344, -1.0488281, 1.1669922, 0.16064453, -1.9492188, 0.6152344, 0.5961914, 0.20800781, 1.0810547, 1.9130859, -0.8432617, -0.4345703, 0.1517334, 0.4814453, -0.23278809, 2.3789062, 1.1396484, -1.4443359, -0.54541016, 1.2324219, -1.4248047, -0.2541504, -0.25048828, -1.0214844, 0.117492676, -0.5629883, 1.703125, -2.3808594, -0.15148926, 2.25, 0.46289062, -0.9741211, -0.26879883, -1.1621094, -0.12060547, -2.4609375, -0.73291016, -2.1210938, 1.5976562, -0.39648438, -2.7910156, 2.5253906, -0.33813477, 0.97021484, 0.4951172, -0.0046653748, 1.828125, 0.52490234, -1.2998047, 2.2402344, -0.41674805, -0.25463867, -0.7792969, 1.3857422, 0.1352539, -0.29711914, -0.9277344, -0.4580078, 0.7915039, 0.16540527, 0.34765625, 0.40039062, 3.8574219, -0.6352539, -0.6035156, -1.0039062, -0.66064453, -2.1269531, -0.85546875, 1.1435547, 0.39257812, -1.2207031, -2.78125, 0.3010254, 0.36157227, -0.24267578, 4.4375, -0.76904297, -1.4257812, 1.9833984, -0.28466797, -1.2705078, -3.0957031, -0.30249023, 0.24621582, 0.4230957, -1.2275391, -1.3193359, -0.8183594, 0.5395508, 1.359375, 1.3144531, -2.2363281, -2.2675781, -1.2353516, 0.5449219, -0.11010742, 0.5991211, 1.4873047, 0.68896484, 2.9296875, 2.3144531, 2.1855469, 0.046020508, 0.5756836, 1.8583984, -0.42651367, -1.5849609, -0.4699707, -2.2597656, -2.9609375, -0.75, -2.5546875, 1.5966797, -1.0078125, 1.8789062, 0.18127441, -0.6479492, -0.40820312, -0.51220703, 0.53759766, -0.08709717, -0.5932617, -1.78125, 1.1640625, 2.8203125, 0.6386719, 0.18371582, 1.3525391, -0.12158203, -1.4140625, 0.08526611, -1.6650391, 1.0126953, 1.4931641, 0.6352539, 0.8574219, 1.3828125, -1.1835938, -1.9677734, 0.11602783, 1.4541016, -0.61865234, -1.8916016, 1.1865234, 0.074523926, 0.5444336, 0.41479492, 1.0888672, 0.2824707, 1.5625, -1.0507812, 1.2724609, -1.0439453, 0.14892578, -0.62060547, 0.30639648, 0.5053711, -2.7519531, -0.8598633, 0.69384766, 0.77978516, 0.9511719, 0.21289062, 0.015411377, 0.4338379, -1.0498047, -2.5820312, 1.8710938, -0.0062713623, 0.15222168, 2.1757812, -0.25927734, 0.4482422, -1.3007812, 0.59814453, 1.2705078, -1.2978516, 0.26538086, -0.6928711, -2.6386719, -0.66796875, -0.28125, -0.51171875, -0.8129883, 1.65625, -1.0693359, -3.453125, 0.5996094, 1.2597656, 0.40405273, -0.768066</t>
-  </si>
-  <si>
-    <t>[-0.09918213, -0.40893555, 0.80078125, 1.6132812, 0.6118164, -1.2509766, -0.6269531, -0.7006836, 1.6083984, -0.16394043, -0.75, -1.4814453, 0.64746094, -0.48168945, 0.54052734, -0.14794922, 1.8642578, -0.9975586, 0.33447266, -0.9848633, -0.39135742, 1.5966797, 1.6621094, -1.3251953, -0.17651367, -3.2753906, -0.31713867, -1.3486328, -1.1386719, -0.4724121, 1.3554688, 1.4082031, 0.8769531, 0.890625, 1.3144531, 2.1464844, 1.1699219, 0.56640625, 0.77490234, -0.92333984, -0.06149292, -1.6474609, -0.8261719, 0.08557129, -0.61035156, -0.38989258, -1.4189453, -0.89746094, -1.9228516, -0.43188477, 1.4941406, 0.38134766, -0.20214844, 2.2617188, -0.6064453, -1.2451172, 1.3164062, 1.5117188, 0.20043945, -0.036071777, -0.020889282, 2.4453125, -0.58740234, -0.36108398, -1.0068359, -0.41918945, -0.39135742, 0.25683594, -0.34643555, 0.82714844, -0.29760742, 0.087402344, -0.58203125, -0.48876953, 1.1298828, -0.072143555, 0.6269531, -2.4824219, -1.5869141, 1.75, -0.26708984, -0.62402344, -0.83447266, 1.9560547, -0.7504883, 1.4560547, -1.5751953, -0.7138672, -0.11584473, -1.6484375, 0.27954102, 0.5102539, 0.066223145, -1.5810547, 1.2021484, -0.6904297, 1.3095703, -2.4375, 2.7363281, 1.7158203, 0.17590332, 0.6777344, 2.1367188, 1.5039062, -0.4987793, 2.1542969, -1.0830078, 0.53271484, -0.8618164, 0.3293457, 1.6767578, -1.2802734, 2.8378906, -1.3232422, 0.22058105, 1.9013672, -1.3632812, -0.031402588, -1.65625, -2.4023438, -0.048309326, -0.1809082, 1.0820312, -0.2322998, 2.1933594, -0.38427734, 0.09210205, -2.8984375, -0.92089844, 1.8564453, -2.390625, -1.2597656, 1.2216797, -0.70166016, 2.4101562, 1.7177734, -1.1542969, -1.828125, -0.30639648, -2.0683594, 0.062316895, -0.19836426, 0.3852539, 1.9677734, -0.5415039, 1.5166016, 1.1464844, -0.6513672, -0.03552246, -0.4741211, -1.5605469, 0.021697998, 1.1992188, 1.6621094, -5.1835938, 2.2285156, 0.53222656, -0.5566406, -0.10864258, 2.3808594, 0.83935547, -1.3232422, 0.9946289, -1.5322266, 2.3554688, 0.04675293, 2.5820312, 0.30322266, -1.3642578, -2.7871094, 0.43847656, -1.0087891, -0.5415039, 1.0839844, 0.46191406, 1.6083984, 1.6621094, -1.6982422, -0.44921875, -0.13671875, -1.0273438, -1.3144531, 0.88427734, -0.67285156, -0.24157715, 0.39501953, -0.025756836, -1.0214844, -0.2956543, -0.02859497, 2.1621094, -2.234375, -1.5371094, -0.92089844, 0.04321289, 1.0097656, 1.0927734, 0.13061523, 4.2382812, -0.6879883, 2.15625, -0.51953125, 0.79833984, -0.13830566, -0.23474121, 0.022827148, 0.24572754, 1.0302734, -0.15185547, -0.8515625, -1.984375, 1.1787109, 0.3684082, 0.64697266, -0.24914551, 0.45458984, 1.3925781, -2.2324219, -0.24084473, 0.9746094, -0.04269409, -0.87158203, -0.13842773, 1.5058594, -1.765625, 0.26123047, -1.0957031, 0.10266113, -0.5654297, -0.859375, -0.044830322, -0.86035156, 0.07598877, 0.34985352, 0.5800781, 2.0332031, -0.8808594, 1.7958984, -0.3869629, -0.97998047, 0.7558594, -0.83447266, -0.18701172, 1.6328125, 1.9023438, -0.3828125, 0.28076172, -0.48095703, 0.1538086, 1.1113281, 1.6425781, 1.2363281, -1.3554688, 1.2851562, 0.7397461, -1.8046875, -2.4960938, -1.8144531, -1.1582031, 0.7861328, -1.2167969, -1.0820312, 0.19445801, 0.43652344, -0.4453125, 0.14770508, -1.5214844, -0.48046875, 0.0635376, 1.4726562, -0.8183594, 1.2773438, 3.53125, 1.4179688, -1.4375, -1.4726562, 3.53125, -0.15344238, 0.24121094, 0.9536133, -1.9560547, -2.8164062, -0.06719971, -1.0527344, 2.234375, -1.6767578, -0.90771484, -2.7714844, -2.0429688, -0.21875, -0.95654297, -0.04244995, -1.4101562, -1.9472656, -0.15808105, -1.6162109, -0.7705078, -1.4501953, 0.8051758, -0.265625, -0.60839844, 0.69970703, -1.1367188, 1.3310547, -0.79052734, 1.421875, 3.3671875, 1.3935547, 1.4941406, -0.117004395, 1.6386719, 0.5258789, -0.5097656, -1.1708984, -0.7578125, 0.2709961, 0.41918945, -0.7441406, -0.4765625, -0.45458984, -2.3164062, -2.140625, 0.47094727, 0.1739502, 0.43969727, -1.6103516, -0.2890625, -1.1982422, 0.67626953, -0.5917969, 0.121520996, 2.3496094, -0.6689453, 1.3886719, -0.18200684, -0.5908203, 0.8828125, 1.09375, 0.20727539, -0.28393555, -0.7836914, 1.4892578, -0.18310547, 0.080444336, -1.2695312, 0.10101318, -1.0332031, 0.3894043, -0.041625977, 1.8964844, 0.049560547, -0.01033783, 0.8881836, 1.6074219, -0.4868164, 1.6025391, 4.3164062, 1.8779297, -1.0771484, -0.625, -0.8745117, -1.2490234, -0.1595459, -0.2467041, -2.0507812, 1.6328125, 0.49365234, -1.1777344, 0.9916992, -1.7841797, -0.30322266, -0.5810547, -0.6557617, -1.8945312, -0.7504883, 0.59375, -0.44726562, 1.6367188, 1.9550781, -0.62158203, 1.734375, 0.49536133, -0.10913086, -0.35107422, -2.5332031, -0.66015625, -0.97021484, 1.0263672, 0.10992432, 0.7290039, 2.9765625, -1.0185547, -1.6601562, 0.008407593, 3.0078125, -0.5209961, 0.2529297, 2.9355469, -2.2910156, -0.5107422, -0.9135742, -0.14953613, -0.34936523, -1.3369141, -1.1962891, -1.1767578, -1.8271484, -0.8769531, 1.2998047, -0.3317871, 0.31420898, -1.1855469, 0.5161133, 1.8378906, 1.4101562, -2.0683594, 0.023452759, -0.62841797, -0.45458984, -1.0771484, 0.45385742, 0.28271484, 1.2353516, 1.5361328, 1.3222656, 0.8544922, -1.1435547, 1.59375, -0.5966797, 1.2939453, 0.0010662079, 1.3779297, -0.76464844, 1.3828125, -1.7714844, -1.2089844, 1.3828125, 0.34838867, 0.2668457, -0.65283203, -0.29223633, 1.0107422, -0.04272461, 0.1328125, 1.1367188, 0.7319336, 2.1132812, 1.3398438, -1.4101562, 1.5820312, -2.4707031, 0.84521484, 0.16687012, -0.13952637, -1.4433594, -1.1855469, -0.31420898, -1.6064453, 0.43359375, 0.60839844, -0.43066406, 3.7480469, 0.6425781, -0.5341797, -0.4489746, 1.0771484, 0.6430664, 0.15026855, -1.8417969, -0.9316406, 0.8598633, 1.6035156, -0.33813477, -0.8105469, 0.9614258, 0.21618652, -1.8417969, -0.49121094, -0.5961914, -0.95751953, -1.2011719, -1.7558594, 0.1899414, 0.7241211, 0.5083008, -2.1464844, 0.45996094, 3.234375, 1.9072266, 0.515625, 0.3840332, 0.7192383, -2.1289062, -1.1621094, 0.4013672, -1.0458984, 0.20983887, -0.23706055, -0.21130371, 0.09637451, 0.2524414, -0.5234375, -0.044311523, 0.27856445, 0.83203125, -2.4160156, 0.43139648, 0.9291992, -0.48095703, 1.1054688, 0.1048584, -0.0028305054, 0.6303711, 0.068725586, -1.9072266, 0.7910156, 1.7998047, -0.44604492, 0.6904297, -2.0742188, 1.0576172, -0.4909668, -2.6347656, -0.91259766, -0.16113281, 1.0292969, -0.23413086, 2.7539062, 1.1435547, 0.66503906, 1.2949219, -0.053833008, -1.9433594, -0.5908203, -1.1230469, -1.2109375, 0.061401367, -0.8486328, 0.12609863, -3.4257812, -0.47607422, 0.14880371, -0.95458984, -0.2775879, 0.8461914, -0.8232422, 1.1728516, 1.34375, -3.0722656, 1.0263672, -2.2871094, 0.77783203, 1.0009766, -0.6611328, -0.32739258, 1.2412109, 0.44750977, 1.5703125, 0.5986328, -0.6503906, -0.5913086, 0.06463623, -0.46289062, -1.3369141, -0.11566162, 1.9931641, 2.2050781, 0.77490234, 0.2705078, -0.6269531, -0.96191406, -0.359375, 0.41723633, -0.7529297, 2.765625, 0.58935547, -0.72216797, 2.2167969, 0.8208008, -0.20227051, 1.4482422, -1.296875, -0.79589844, 0.6303711, 0.73046875, -1.4404297, -0.5024414, -0.42456055, 0.94140625, -0.11987305, -0.18664551, -0.37451172, -1.1621094, 1.3681641, -1.5849609, 0.6640625, -0.5102539, -0.5258789, 0.0637207, -0.38989258, -0.98046875, 1.65625, 0.0022335052, 0.52246094, 0.71728516, 0.3720703, 0.49389648, 1.5517578, 1.5478516, 0.36450195, -1.8466797, -0.59521484, 1.328125, -1.7490234, -0.22241211, 1.2519531, -1.9746094, -0.34057617, -0.4416504, 0.4375, 0.3605957, 4.8710938, -0.81152344, 3.2988281, -0.4794922, 0.12030029, 0.15441895, -0.1829834, 0.48095703, 1.203125, -1.4755859, -1.2539062, -0.9692383, -1.1132812, 0.3071289, 2.6328125, 1.078125, 0.4333496, -1.203125, 1.1083984, -0.9760742, -0.3803711, -0.008323669, 3.2050781, 1.2871094, -0.90722656, 1.2236328, -0.36865234, 1.7177734, -0.8979492, -2.9511719, -0.38549805, 0.7348633, 1.4384766, -0.113586426, 0.38745117, -0.05593872, -0.14038086, -1.2451172, -1.1337891, -1.9248047, 0.77197266, -0.14648438, -1.9453125, 0.53125, -0.090026855, 1.3125, 0.28466797, 2.0136719, -0.56933594, 0.5083008, 1.46875, -0.7441406, -2.0585938, 0.8652344, -0.13049316, 0.60009766, 0.103759766, 0.13952637, 2.4707031, 0.5439453, -0.22460938, -0.047302246, 2.6445312, -0.96728516, 0.89697266, 1.6425781, -0.2763672, -0.2010498, 3.7441406, 0.09692383, 0.38671875, 0.90527344, 0.8198242, 1.0214844, -1.4990234, -2.9375, 2.7382812, -1.4248047, -1.6787109, 0.2854004, 0.4399414, 0.8286133, -1.3828125, 0.17089844, 1.1464844, -0.1381836, -1.8017578, 1.9609375, 1.0214844, 0.5136719, 1.5507812, 4.078125, -0.94873047, -0.16174316, -0.92822266, 1.4853516, 1.4677734, 0.25317383, -1.0732422, 1.9355469, -1.7617188, 1.0263672, -0.1538086, 1.9316406, -0.109313965, -0.8486328, 0.58740234, -1.2050781, -0.50439453, -0.6982422, 1.1699219, 2.6347656, 1.6103516, -0.8979492, -3.1835938, 0.54052734, -0.53222656, -3.421875, -0.44482422, -1.6513672, 0.080322266, 0.89501953, -2.2890625, 1.0019531, 0.06829834, -0.8618164, -0.45629883, -0.10107422, -1.3007812, -0.6484375, -0.42651367, -1.3076172, 0.12384033, -1.0058594, -2.7832031, -0.13696289, 1.3056641, 0.63427734, -0.23876953, 0.007232666, -1.3564453, 3.1660156, 1.1162109, 0.2253418, 0.49365234, -1.4326172, 0.095458984, 0.9355469, 0.04373169, 1.1679688, -0.8666992, 0.25732422, 0.15075684, -0.43139648, 0.1381836, 1.2519531, 0.65625, 2.5820312, 2.078125, 0.51123047, 1.7392578, -0.7558594, 0.10797119, -0.22631836, -0.054901123, -1.5390625, -0.9394531, -1.3515625, 0.23010254, -1.6445312, 0.69921875, 0.6074219, -0.82910156, 0.1862793, 0.18603516, 1.1425781, -0.023529053, -0.83984375, 1.1298828, 0.6870117, 2.2128906, -0.4182129, -0.39892578, -0.0007972717, 2.671875, -0.46411133, 0.74560547, 0.55566406, -2.0214844, 0.6879883, -1.0654297, -0.120910645, 0.12817383, -0.421875, -1.6289062, 1.1494141, -2.1503906, 1.5810547, 0.25878906, 0.4091797, -1.3457031, 1.3945312, 1.4345703, -2.0742188, -1.1005859, 0.33496094, 2.0292969, -0.4230957, 0.08282471, 0.9951172, -0.28808594, 0.48120117, 0.22753906, 1.0947266, -2.8164062, -1.7890625, 3.6230469, -2.9921875, 0.45776367, 1.5458984, -1.6074219, 0.1427002, 1.2236328, 0.13623047, 0.19714355, 0.1541748, 2.2871094, -0.67285156, -0.49023438, 0.04144287, 0.6743164, 1.1083984, 0.19128418, -0.06463623, 2.3691406, -0.68847656, 0.3479004, 1.0478516, 0.5629883, 0.5517578, -0.45898438, 0.46801758, -3.0507812, -0.06402588, 0.58691406, -1.8535156, -0.13256836, -0.8652344, 0.2836914, 1.6035156, 2.7167969, 0.94384766, -1.0830078, -0.9277344, -1.9599609, -0.30249023, -0.28173828, -1.40625, 1.6367188, -1.0068359, 0.22912598, 0.16430664, 0.37036133, -0.14978027, 0.5551758, 0.19384766, 1.9140625, -1.1767578, 0.6401367, -0.25073242, -1.6083984, 0.18762207, -0.2783203, 0.53027344, -1.6396484, 2.4550781, -1.4150391, 0.39282227, 1.0947266, -1.2011719, 0.16149902, 1.1181641, -0.4387207, -1.953125, -1.4335938, -2.1816406, 0.5136719, 0.9003906, 0.23706055, -1.6113281, -1.3740234, 0.8569336, 0.33374023, -1.6953125, -1.0166016, 0.84375, 2.0507812, 1.5214844, -0.35058594, 1.9228516, 1.7558594, -1.8398438, 2.2949219, 1.7841797, -0.5703125, 0.4033203, 0.028671265, 1.3046875, 1.1132812, 0.93603516, -0.19262695, 1.8515625, 0.81640625, 1.0380859, -3.5, 0.73779297, -0.95458984, -0.17907715, -0.23791504, 0.72509766, -0.30786133, 0.9008789, 0.8071289, 0.2097168, 0.82666016, -1.2207031, -0.21313477, -0.46801758, -1.4316406, 0.013458252, -1.3642578, 1.1523438, 0.50097656, -1.109375, 0.89453125, -1.0429688, 1.6005859, 1.3027344, -0.15808105, -0.62402344, -1.2236328, -2.4316406, 3.2558594, 2.3789062, 4.359375, 0.93603516, 0.4169922, -1.2451172, 1.8154297, -4.5859375, 0.7109375, 0.2536621, -0.39941406, -0.80810547, 0.09442139, 0.46264648, 0.6816406, 0.09057617, 1.2890625, -0.13098145, -1.46875, -2.1542969, -0.0036373138, -2.15625, 0.46264648, 0.5161133, 0.114868164, -0.027999878, -0.34326172, 0.4013672, -1.4140625, 1.5830078, -1.2861328, -0.1743164, 1.2285156, 0.28588867, 0.34716797, -3.0585938, -1.8408203, 1.0898438, -0.7763672, 0.93652344, -0.066223145, -1.2109375, -1.6396484, -2.03125, 2.3242188, -0.15197754, -0.9584961, -1.7636719, 0.5541992, -0.92333984, 0.6386719, -0.87402344, 0.6230469, -2.1152344, 0.703125, -1.7539062, 2.0761719, -0.96484375, -1.3632812, 1.6640625, -0.5996094, 1.5068359, 1.2285156, 1.1103516, 0.66503906, 2.0742188, 1.4404297, -2.8027344, 0.91552734, 2.390625, -1.8808594, 1.2128906, 1.5615234, 1.734375, 1.1464844, -1.2314453, -1.1953125, -1.4277344, 0.7480469, -1.6982422, -1.7480469, 2.3417969, 0.5439453, 0.14331055, 1.5068359, -0.79833984, -1.0947266, 0.50390625, 0.022705078, 1.2558594, 0.14355469, -0.41210938, -0.1809082, 0.7885742, 0.890625, -0.27172852, 1.5224609, -0.5678711, -0.6376953, -0.80810547, -0.9868164, 0.9345703, -0.7636719, 0.8041992, 0.92578125, -0.91503906, -1.1435547, -0.74658203, -1.1816406, -2.765625, 0.39648438, -0.70410156, 0.93896484, -0.4489746, -0.8154297, -1.0664062, 0.17260742, -0.5151367, -0.37524414, 0.7709961, 1.5869141, 0.046539307, -0.41845703, -1.8730469, -0.92626953, 0.77783203, -1.3876953, 2.2597656, -0.62841797, -0.15759277, -0.5854492, 0.6401367, 1.3603516, 0.56396484, 0.19702148, 1.0800781, -0.23669434, -0.97265625, 0.67333984, 1.0810547, 2.3515625, 1.5048828, -1.3769531, 0.5449219, -0.9448242, 1.2539062, 0.49389648, 1.4912109, -0.3154297, 1.0078125, -0.38598633, 0.12939453, 0.06707764, 0.61376953, -0.68896484, -1.0146484, 0.6225586, 0.7441406, 0.6376953, 0.14208984, -2.5878906, -2.9589844, 0.76708984, 1.3261719, 1.0800781, 1.4804688, 1.1972656, 0.6201172, 0.21362305, -0.07489014, -0.93115234, 0.7006836, 0.4333496, 2.8691406, -2.3320312, -0.9506836, -1.4833984, 0.26953125, -1.4296875, -0.15673828, 0.45751953, -0.8720703, 1.5166016, -2.0664062, -0.21350098, -0.7519531, 0.14587402, -0.6152344, -0.25854492, -2.4414062, 1.3203125, -1.2363281, -1.109375, 1.7128906, -0.5786133, 1.71875, 0.62597656, 0.8857422, 1.0800781, -0.19458008, -2.0332031, 2.8671875, -1.9189453, -0.045928955, 0.92529297, -2.2890625, 1.4121094, 0.085754395, 0.14196777, -1.0097656, -0.4128418, -0.8808594, 1.4863281, 0.30639648, 0.22338867, -0.89990234, 1.3017578, 0.6616211, 0.7841797, -0.68115234, -0.94189453, -0.3701172, 3.2441406, -0.9301758, -1.0693359, -0.4375, -0.30737305, -0.31469727, -1.2207031, -0.546875, 1.8828125, -0.9760742, 0.41577148, -0.3774414, 0.8300781, 1.4785156, 0.3149414, -2.9199219, -0.2692871, -1.6191406, 2.5078125, -0.26635742, 1.4589844, -0.6279297, -0.33569336, -0.009780884, -0.78808594, -1.9150391, 0.4963379, 1.4990234, 0.39624023, -0.36865234, -1.5722656, -1.2871094, 0.81152344, -0.93310547, -0.35473633, 0.7993164, 2.0253906, -0.21105957, 0.81103516, -0.9692383, -0.62939453, -1.3300781, 0.53027344, -2.2539062, 1.0546875, -0.12512207, -0.53466797, -0.58740234, -0.95703125, 0.26708984, 0.35205078, -0.68115234, 0.43652344, -0.37768555, -1.0224609, 0.3503418, -0.10839844, -0.9736328, 0.072753906, -0.54052734, 0.41845703, 2.3789062, 0.46289062, -2.2011719, -1.4042969, -0.20275879, 1.1572266, 1.046875, -0.7963867, 0.8989258, 0.9951172, -0.36889648, 0.47436523, -1.5576172, -1.2333984, 1.0791016, 0.33325195, 2.2714844, 3.3457031, -1.1171875, -0.40600586, -1.1367188, -0.38354492, -2.2988281, -1.4013672, -2.4570312, -0.4501953, 1.2382812, 0.50390625, 0.5722656, 2.8476562, 1.4863281, 0.35668945, -1.9443359, 0.65283203, 2.0878906, 0.9140625, 0.052001953, -0.9008789, 1.0683594, -0.7084961, 1.3945312, 1.6123047, 0.3852539, 0.22058105, -1.7724609, -0.18811035, -2.2050781, -0.5834961, 1.6171875, -0.96875, 0.12011719, -0.45288086, -0.76220703, -0.49609375, -1.2177734, -1.6210938, 0.70166016, 0.42333984, -0.5263672, -0.057556152, -0.79589844, -0.1083374, 1.8066406, 0.38598633, -0.73291016, 0.42773438, 1.5927734, 1.6796875, -0.421875, -1.1523438, 0.46826172, 1.0292969, 2.2285156, 1.5986328, -1.1621094, 0.8466797, 0.14038086, 0.8461914, -0.022399902, 0.33007812, -3.5078125, -0.019561768, 0.93847656, 1.5712891, -2.0664062, 0.72998047, -1.1640625, -1.7226562, -0.2758789, -2.5742188, 0.26513672, -1.9833984, 0.022491455, -0.84472656, 4.1679688, -0.52441406, 0.5698242, -2.3144531, 0.22338867, 1.0146484, -0.39770508, 0.54296875, 0.41723633, 1.5820312, -2.3808594, 0.86376953, 0.4194336, -0.28466797, -0.42871094, 0.24414062, -1.4140625, -1.0566406, 0.08154297, 0.7138672, -1.2441406, 2.6523438, -0.5488281, 0.9814453, 5.1914062, 0.4716797, -0.35205078, 0.4248047, 1.4599609, -1.2714844, -0.73876953, -0.17407227, -1.3066406, -0.72021484, -2.4472656, -0.66015625, 0.21569824, -1.0664062, 0.17211914, 1.0185547, 0.36743164, 0.92041016, -0.8540039, -1.0449219, 2.7480469, 0.3618164, -0.08673096, -1.75, 0.30273438, 1.6035156, -1.0507812, -1.7460938, -0.3503418, -1.3076172, -1.9814453, -1.0205078, 0.7270508, 0.10675049, 0.6040039, -0.78808594, 1.1347656, -1.6933594, -0.058166504, 0.66064453, -0.6616211, 1.8769531, -1.1914062, 0.47460938, -0.049621582, 0.2902832, -0.5366211, 0.890625, -1.5810547, 0.4338379, -1.0761719, 0.7861328, -0.2758789, 2.3242188, -0.55908203, 0.33276367, -1.6767578, -1.4179688, -1.7773438, 0.5786133, 1.5253906, 0.15759277, 0.07159424, 0.6323242, -1.5087891, 0.5058594, 1.4248047, -0.10900879, 0.9848633, -0.43579102, -2.6015625, 0.67871094, -2.0664062, 0.56152344, 0.23962402, 0.24560547, -0.105651855, 0.8066406, -2.1796875, 0.5107422, 1.2509766, 0.8520508, 2.375, -0.95947266, -0.053466797, -0.7675781, -0.6904297, -0.9404297, 1.1855469, 0.98046875, 1.1494141, 0.7392578, -1.3154297, 0.27856445, -1.6396484, -0.013397217, 2.46875, 0.8935547, 1.4072266, 0.7260742, 0.12188721, 0.16516113, 0.08483887, 0.11608887, -1.2890625, 0.8720703, 1.203125, -1.1982422, 0.10876465, 0.77734375, 0.32421875, 4.6171875, -0.29541016, -0.1850586, 2.2832031, 0.4753418, -1.6474609, -1.2714844, 0.20703125, -0.15563965, 1.96875, 2.4570312, 0.75097656, -0.9394531, 0.38183594, 2.5546875, -0.8823242, -1.4091797, -0.43725586, 3.0507812, -0.5541992, 1.6699219, 0.24719238, 0.17370605, -0.41064453, 1.5068359, -0.019958496, -1.9746094, -0.703125, 0.78564453, 0.2010498, 2.8671875, 0.9550781, -2.2441406, 0.64453125, -0.9589844, 2.6191406, -0.6503906, -1.2724609, -0.375, -1.3613281, -2.6015625, -0.2644043, -0.20788574, 0.22875977, 0.22436523, -0.3581543, 1.2714844, 1.3925781, 0.92041016, -0.62939453, 0.4465332, -0.124694824, -0.39648438, 1.3867188, -0.13098145, -0.90527344, -1.3730469, -1.0947266, 1.2363281, 0.3095703, 1.1728516, 0.15893555, -0.82666016, 0.99072266, -2.4707031, 0.8803711, -1.3330078, 0.69970703, 1.3925781, 0.60498047, 1.4755859, 1.1044922, -1.6992188, -1.0214844, -0.8901367, -0.56884766, -0.26953125, -0.51220703, 0.14074707, -1.4140625, 1.0224609, -3.109375, -0.3671875, -0.072509766, 0.8408203, -0.4362793, 2.2519531, 3.2324219, -1.7861328, 0.40478516, -0.31762695, -1.1787109, 1.3144531, 0.022857666, -0.72216797, 1.0283203, -0.51464844, -1.4726562, 0.30639648, 0.4128418, -0.5966797, 0.06945801, 1.2958984, 0.8544922, 0.60253906, -0.5288086, 1.4960938, -0.9160156, -0.34814453, 1.1269531, -0.48608398, 0.48876953, 1.5722656, 2.1210938, 0.60253906, 0.52734375, 0.027999878, 0.93359375, 1.5107422, -0.56152344, -0.3251953, -0.92041016, 0.64990234, 1.5361328, -1.5, 0.45703125, -0.25341797, 0.9082031, 0.1083374, -1.0683594, 4.5859375, -0.039245605, -0.6665039, -0.16064453, 3.5488281, -0.009559631, -0.58154297, -0.29516602, 0.83203125, -0.17138672, 0.54345703, 1.9375, 0.39160156, 0.024291992, -0.5786133, -0.71728516, 1.0322266, 0.20544434, -2.234375, -0.16882324, -1.6269531, -0.23254395, 0.4453125, 1.8017578, 1.0126953, 0.91308594, 0.33154297, 0.49389648, 0.58691406, -1.1259766, 2.0371094, 1.9375, 1.578125, 0.93115234, 0.5546875, 1.5761719, -0.032226562, 0.9980469, 0.83984375, -0.8017578, 0.15014648, 0.8515625, -0.45288086, 0.2590332, -1.1875, -3.0585938, 0.5932617, 0.2130127, 1.0087891, 0.83935547, 1.5341797, -0.37524414, 0.047790527, -1.8925781, -1.4355469, 0.23913574, -1.2177734, 1.7431641, -0.09753418, -0.8388672, 0.3864746, 1.5976562, -2.4726562, 3.4765625, -0.22851562, -2.1035156, 1.8974609, -1.3027344, -1.1923828, 0.22729492, -1.0556641, -0.7084961, -1.2363281, 1.2617188, -1.3271484, 1.4316406, -0.84765625, -0.53808594, -2.4472656, -1.4453125, -1.4238281, -0.07525635, 0.7504883, -1.078125, 0.83251953, 0.28515625, -0.2956543, -1.4384766, 1.6259766, -0.15649414, 0.9013672, 0.09844971, -0.38232422, -0.33129883, -0.83496094, 0.65527344, -0.7763672, 0.4362793, 0.16723633, 0.7573242, -0.21289062, -1.046875, -0.49951172, 0.35473633, 0.42114258, -2.1660156, -0.0077934265, 0.7988281, 1.3769531, -0.27392578, 8.21875, 1.3144531, 0.16174316, -0.1430664, -0.46557617, 0.69140625, 1.1132812, 0.29858398, 0.76708984, -2.5234375, 1.0439453, 1.2080078, 0.8222656, -0.5078125, 2.6972656, -0.4638672, -0.10614014, -1.6123047, 0.0960083, 2.9765625, 0.4025879, -0.7597656, 0.7583008, -0.25927734, -0.78222656, -0.82470703, -2.3632812, -1.5322266, -0.36865234, 1.6601562, 1.9833984, -1.0556641, 0.27294922, 0.1887207, 0.40698242, 0.47143555, 0.40307617, -0.42089844, 0.0018529892, -1.53125, -0.6357422, -2.2285156, -2.0019531, -1.2685547, -2.0839844, 0.12408447, 2.4980469, 1.2695312, 0.20837402, 0.5336914, 1.2041016, 0.625, -0.9711914, -0.7446289, -0.21801758, 1.3935547, 2.2070312, -0.083496094, -0.9868164, -0.20019531, 0.42871094, -0.5859375, 1.0058594, 0.5390625, -2.1816406, -0.27124023, 1.3818359, -0.7949219, -2.1210938, 0.36401367, -1.03125, 2.0097656, -1.6328125, 0.65234375, -0.77001953, 2.2382812, 1.2998047, -1.1015625, -0.78027344, 0.99658203, 0.9716797, 2.4003906, -1.1269531, -0.8183594, -2.0175781, 1.1777344, -0.8095703, 0.04397583, 0.8779297, 1.9960938, -1.5185547, -0.11627197, -1.3076172, -1.8330078, 0.30029297, -0.77978516, -5.2695312, -2.265625, -1.5751953, 0.86376953, 1.2851562, 1.3535156, 2.8769531, -1.8671875, -2.2832031, -0.7783203, -0.8105469, -1.5546875, 0.44384766, 0.796875, 0.13378906, 1.15625, -0.22399902, -0.9819336, -0.037261963, -0.1472168, 1.1748047, 0.7885742, 1.2431641, 1.0751953, 0.39916992, -0.24572754, -0.0647583, -1.4091797, 0.7763672, -0.1998291, 0.055633545, 4.1289062, -1.703125, -1.6738281, 1.1308594, -1.9033203, 1.0478516, 0.94091797, 1.2138672, -1.1621094, 1.7363281, 4.4179688, 2.9375, -0.625, -1.71875, 0.27197266, -0.0395813, 0.9736328, -1.5820312, -1.8398438, 0.87158203, 1.6777344, -1.7285156, 2.3789062, -0.1348877, 0.10144043, 0.72216797, 0.35424805, 0.81689453, -0.23413086, -0.28466797, 0.9946289, 1.0390625, 1.5253906, 1.7480469, -1.0214844, 0.1237793, -0.19946289, 0.5180664, -2.2265625, 1.7910156, -1.0185547, -0.49243164, -1.3740234, 0.55566406, 0.06750488, 1.2353516, -0.95166016, 0.62841797, 0.42773438, -2.8632812, 0.34204102, -1.5751953, -0.82958984, -0.85546875, -1.2919922, 0.34106445, -0.14367676, 0.29248047, -0.10168457, 0.3815918, 1.2441406, 0.5395508, 1.7294922, 0.79785156, -2.9082031, 0.6118164, 0.4567871, -0.90478516, 2.1503906, 1.6396484, 0.8798828, 1.6904297, -3.3300781, -0.90234375, -1.0419922, 1.0800781, 0.75, 2.1191406, -0.32348633, -0.7680664, 0.16442871, -0.5991211, 0.026489258, -0.044189453, 0.47094727, -1.5195312, -3.0742188, -0.12670898, -1.1357422, 0.66748047, 0.53027344, 1.2265625, -0.050567627, 1.5800781, -0.18615723, -1.2841797, -1.3759766, 2.5234375, -0.88720703, 1.6240234, -0.49194336, -0.3071289, 0.45825195, -3.7285156, 0.6508789, 0.75683594, 0.80859375, 0.32763672, 1.2998047, -0.953125, 0.65234375, 0.14465332, 0.32495117, -0.9848633, -0.84716797, -0.20727539, 1.828125, -0.8417969, -0.27514648, -0.41186523, 0.16210938, 1.2148438, 1.0185547, 0.29956055, -0.054504395, -1.0732422, 0.8847656, 1.0166016, 1.4472656, -0.6928711, -1.3046875, -0.7265625, -0.5395508, -0.9868164, -1.7080078, 0.6220703, 0.39746094, 0.39501953, -0.3894043, 0.7519531, 0.41235352, -1.5302734, -2.3359375, 0.059936523, 1.0878906, -1.8330078, 1.1748047, 0.8769531, -0.6220703, -0.28564453, 0.062286377, 0.41186523, 0.84716797, -2.3085938, -0.7836914, 0.022506714, -1.1308594, -0.48950195, 0.61035156, -0.8408203, 1.2607422, 0.103393555, 0.74316406, -1.4501953, -0.6503906, -0.3623047, -0.17468262, -0.16516113, -2.4277344, -0.8959961, -0.81884766, -2.9785156, 0.09765625, -0.28271484, -1.3125, 0.19812012, -3.2519531, -0.14099121, 0.48828125, 0.58447266, 0.46313477, -2.6113281, 0.67285156, 0.09698486, 0.15002441, 2.4453125, 0.47460938, -0.32373047, 0.37329102, -1.6767578, -0.3918457, -1.0068359, -0.43066406, -0.2902832, 0.94189453, -0.054870605, 1.2060547, -1.4814453, 0.17834473, -2.7109375, -1.7431641, 1.8027344, 0.04724121, 4.9453125, -3.3632812, 0.28027344, 0.28857422, -0.9433594, 0.35498047, -2.078125, -1.1494141, -0.80859375, 0.8774414, -0.9458008, -1.8779297, -6.3515625, -0.9013672, 0.3881836, 4.875, -0.28686523, 1.5986328, -1.3505859, 1.3671875, -1.3417969, 1.0166016, -1.46875, -1.3789062, -1.9130859, -0.87402344, -0.99316406, 0.7319336, 0.6660156, -0.25854492, -1.2714844, -0.5644531, -1.4755859, 0.49951172, 1.9560547, 0.076293945, 0.26611328, 1.8984375, 2.1191406, -1.3681641, 0.33007812, 0.69189453, 1.5722656, -2.8339844, 0.85253906, -1.2001953, 0.083984375, -0.0030994415, 0.7661133, 0.25732422, -1.2695312, 0.16003418, 0.94921875, -1.1103516, -1.7402344, -0.1430664, -1.15625, 1.4277344, 0.78515625, -0.37646484, -1.1464844, -1.2158203, -0.52246094, -1.6162109, -0.8828125, -0.515625, -1.1113281, 0.5371094, -0.09631348, -0.39135742, -1.7255859, -1.3583984, 0.7729492, -0.95410156, -0.1204834, 0.20983887, 1.1894531, -0.3791504, 1.2998047, -1.8330078, -1.7861328, -3.1035156, 0.78222656, -0.5732422, 1.7314453, -1.6494141, -2.2890625, 0.24572754, -4.8476562, -0.8833008, 0.090026855, -0.33251953, -0.30688477, 0.48828125, 3.7441406, 1.3828125, 1.8554688, 0.0713501, 0.765625, -0.51123047, 2.6914062, -1.7392578, -2.4257812, 1.671875, 2.6640625, 1.9794922, 2.4492188, -1.3974609, 0.44555664, 1.53125, -3.1152344, -1.3046875, 1.5292969, -0.9770508, 0.4411621, -2.2792969, -2.0410156, -5.546875, -0.8222656, 3.4960938, 1.5322266, 2.0175781, -1.0625, -0.8120117, 0.6196289, -1.0742188, -0.4741211, -0.6015625, -0.031677246, 0.9013672, -0.32641602, 0.2866211, -0.6328125, 2.0214844, -2.2460938, 0.8642578, -0.79003906, -0.012550354, -1.2509766, -2.2636719, -0.47753906, -0.3618164, 0.12145996, 2.2636719, -0.72021484, -2.6367188, 1.5253906, -0.42382812, 1.34375, 0.56591797, -0.49365234, 0.022399902, 0.3671875, 2.421875, -1.6738281, -2.6835938, 0.7607422, 4.390625, -0.20544434, 0.5986328, -0.21289062, -0.53271484, -2.8378906, 0.26220703, 0.9135742, 0.9277344, -1.8476562, 0.045074463, -2.3457031, -3.9316406, 0.2590332, -0.47875977, 2.0878906, 1.8300781, 2.5175781, -3.5957031, 0.35839844, -0.93847656, -0.64453125, -0.6489258, 2.171875, -0.07470703, 0.74658203, -0.6591797, 2.9980469, -1.3105469, -0.4206543, -0.87597656, 2.0761719, -0.9404297, 0.7832031, -0.6269531, 0.19433594, -2.3261719, -1.4550781, -1.1064453, -0.73876953, -1.6884766, -2.4121094, 0.3083496, 0.80371094, 0.5234375, 1.0771484, 0.22631836, -0.8442383, -1.2548828, -1.9599609, 0.94433594, -0.18811035, -1.1386719, 0.7607422, -0.85791016, -1.9238281, -1.3857422, 0.25170898, 0.4111328, 0.71484375, 0.14550781, 0.2939453, 0.18041992, -0.87158203, 0.59375, 0.7402344, 0.26879883, 0.57470703, 1.2236328, 0.30566406, -0.64746094, 1.2148438, -1.1513672, -2.140625, -0.25341797, 1.2724609, 2.7050781, -0.25878906, 0.14367676, 1.1650391, -4.7265625, 1.5732422, -0.056884766, -0.13720703, 1.1396484, 1.6953125, -0.094177246, 2.4355469, -0.7758789, 0.9614258, -0.5439453, 0.28271484, 2.3769531, 0.875, -1.4541016, -0.44995117, 3.2832031, 1.2949219, 1, 3.5488281, -0.5234375, 0.5283203, -2.7753906, 1.8642578, -0.2680664, -0.52246094, 2.0859375, 0.37280273, 0.061523438, 1.3828125, -0.9692383, 0.91259766, 1.1904297, 0.26416016, 0.9345703, -0.52001953, -0.90478516, -1.3984375, -0.10998535, -1.5712891, 0.7495117, -1.0136719, -0.1953125, -1.296875, 0.5859375, -0.2861328, -2.3457031, 0.33325195, -0.055603027, -2.0058594, -2.6523438, 0.6904297, 2.7363281, 1.6269531, 0.34692383, -2.8964844, 0.16796875, -1.6445312, -0.12731934, 0.6196289, -2.2675781, 0.87841797, 0.89501953, -0.17871094, -0.58447266, -1.1357422, -1.3984375, -0.03955078, -1.4736328, 0.3581543, -1.3554688, -2.1289062, -1.3837891, -2.3203125, 0.095336914, 0.8388672, 0.3137207, -0.4519043, -0.6171875, -0.8779297, -0.1026001, 0.37158203, 0.11834717, -0.6040039, 0.7680664, 1.3876953, -0.49658203, -1.4892578, -1.0224609, 0.4338379, 0.796875, -2.0136719, 0.2915039, -0.17297363, -0.35595703, 0.4091797, -0.42211914, -0.54785156, 0.69970703, 0.28295898, -0.20214844, -0.7939453, -0.73779297, 1.7666016, -0.3647461, 0.5307617, -0.4855957, -0.11376953, -0.36254883, -0.3203125, 0.5053711, -0.68066406, -0.8574219, 1.2304688, 0.71875, 0.09991455, -1.2402344, 0.16247559, 0.8569336, -1.4882812, 2.3203125, -0.22619629, -0.30322266, -0.5966797, 0.82128906, 1.1943359, -0.4543457, 1.8105469, -0.2548828, -0.26367188, 3.5195312, 1.1357422, -1.6025391, -0.6123047, -0.08459473, 2.3046875, -0.32226562, 1.9677734, -0.61816406, -1.8916016, 0.44482422, 2.0976562, -1.3408203, 2.0175781, 0.07458496, -0.21899414, 2.1542969, -0.18762207, 0.73291016, -0.34570312, 0.9038086, -1.0478516, -0.68359375, -0.54296875, 0.3479004, -1.1904297, -0.25854492, -1.7519531, -1.2158203, -0.0009908676, -0.32104492, 2.1367188, 1.4775391, 0.29174805, -1.0498047, 0.98291016, -2.2617188, 2.4472656, 2.2382812, 0.38061523, -0.10418701, -0.29418945, 0.053588867, 0.80322266, -1.25, -1.5664062, -1.0634766, -0.79345703, 1.5625, 0.3955078, 1.3349609, 0.02973938, 1.3486328, -0.39794922, -0.31225586, -0.37963867, 0.4885254, 3.0410156, -0.20983887, 0.2680664, 1.4550781, -1.5351562, -2.8164062, -0.6333008, -1.0712891, 2.40625, 1.265625, 0.06072998, 0.05102539, -0.031829834, -1.2138672, 0.6152344, 1.0898438, 0.12866211, -0.6928711, -0.11767578, 0.39038086, -0.8574219, -0.38256836, -1.0146484, -1.2714844, 0.3581543, -1.1640625, -0.10595703, 0.5263672, 2.234375, 0.71972656, -0.82421875, 2.5429688, 1.3916016, 0.53125, -1.0791016, 2.328125, -1.2871094, -0.3479004, -0.48999023, -1.8603516, -1.3740234, 1.1220703, -2.3613281, -1.3203125, -1.7275391, -0.38745117, 0.88623047, 0.46044922, -0.77783203, -0.05026245, -1.1845703, 0.49365234, -0.6201172, -0.75341797, -0.44433594, 1.5898438, 2.2851562, -1.2636719, 0.47851562, -0.37548828, -1.7822266, -0.5644531, -0.4333496, -0.70214844, -1.1445312, 0.41967773, -0.7402344, 0.11187744, 0.7451172, 2.859375, 0.6699219, 1.0683594, -0.29833984, 0.21105957, -0.2208252, 2.6757812, -0.36376953, -0.71728516, -1.7246094, 0.2722168, 1.671875, -1.5898438, -1.5107422, -1.9648438, -0.9370117, -0.19506836, 0.42504883, 0.5439453, -0.7524414, -1.3681641, 2.5332031, -1.5058594, -1.25, 0.6972656, -1.0107422, 0.99316406, -1.171875, 0.36572266, 0.12145996, 1.4482422, -0.35180664, 1.5224609, 0.2980957, 1.1337891, 1.8681641, 0.8413086, -1.1660156, -0.5961914, 0.6777344, -2.1738281, 0.5629883, -0.3256836, -0.123413086, -0.86376953, -1.6621094, 2.2402344, -1.0527344, -1.3515625, -0.22497559, -0.8930664, 1.0117188, 0.6508789, 1.9736328, -0.45581055, 1.8828125, -0.17358398, 0.84765625, -0.81640625, 1.8662109, 1.1064453, -0.38598633, -1.4042969, 0.421875, -1.8027344, -0.5058594, -0.2409668, -1.5732422, 0.5541992, -0.062561035, 1.3017578, -2.2324219, -0.0647583, 1.7128906, 1.5117188, -1.0927734, -0.8198242, -0.109680176, -0.09320068, -0.0022830963, -0.55859375, -2.265625, 0.4423828, -0.5708008, -4.4296875, 0.9658203, -0.7290039, 1.3251953, 0.7758789, 0.49023438, 2.0195312, -1.296875, -0.68652344, 2.4511719, -1.2207031, 2.6210938, -0.54296875, 0.8051758, 0.33032227, 0.5517578, 0.11682129, 0.7607422, -0.05831909, -0.8823242, -1.21875, -0.042938232, 5.3828125, -0.55566406, -1.4091797, -1.8378906, -0.8955078, -2.3183594, 0.2932129, 1.4238281, 1.3505859, -0.5541992, -0.60546875, 1.7109375, -1.296875, -0.5756836, 3.2558594, -0.93359375, -0.24365234, 1.3554688, 0.23046875, -1.4384766, 0.059143066, 0.20214844, 0.16174316, -0.110961914, -2.3691406, 0.8676758, -0.9863281, -1.5009766, 1.8310547, 1.7753906, -3.1972656, -2.0585938, -1.0546875, 1.4082031, -0.15808105, 2.5371094, 1.3994141, -0.6933594, 0.82958984, 1.34375, 1.6826172, 0.6743164, -1.6367188, 0.67285156, -0.85546875, -2.3242188, 0.6533203, -1.0576172, -2.3183594, 0.7036133, -2.3105469, 2.078125, 0.7441406, 1.2402344, 0.4489746, -1.2333984, -0.82373047, -0.3010254, -0.1060791, -1.0566406, -1.2558594, -0.5463867, 1.6582031, 1.3398438, 2.0175781, 1.1826172, 3.0644531, -0.059631348, -2.234375, 0.17138672, -2.6601562, 2.7675781, 1.3740234, -0.09362793, 1.4707031, 0.06689453, -0.65234375, -2.3027344, -2.2929688, 1.6982422, -1.6816406, -0.69628906, 2.265625, -0.20874023, -0.39526367, -0.25952148, 0.3557129, -2.5839844, 0.23706055, -0.42871094, 2.1875, -1.7109375, -0.06536865, -0.17089844, 0.54052734, 4.3125, -2.9863281, -0.6425781, -0.41870117, 1.3662109, 0.4416504, 0.7211914, 0.46411133, -0.1850586, 1.3740234, -1.6035156, 2.1484375, -0.8339844, 1.1005859, 1.2060547, -0.8774414, 0.35595703, -0.68359375, 0.61572266, 1.0009766, -0.26953125, 2.3964844, -0.9995117, -3.3535156, -1.5039062, -0.54052734, 0.42211914, -1.3505859, 0.3684082, -1.4980469, -1.1542969, 0.099609375, -0.36523438, -0.82666016, -3.197265</t>
-  </si>
-  <si>
-    <t>[1.1152344, -0.7675781, -0.4580078, 0.875, 1.8066406, -1.8828125, 0.07537842, 2.0507812, 1.6708984, 0.026489258, -1.0585938, -0.45654297, -0.9301758, -0.53564453, 0.82373047, -1.3271484, -0.13879395, 1.2841797, -0.23425293, -0.80566406, -1.3886719, 1.0791016, -0.45483398, -1.8330078, -2.0585938, -0.32177734, -0.39697266, -1.4550781, -0.43066406, -0.079589844, 0.27246094, 2.8007812, 0.10424805, 2.1601562, -0.18457031, -0.6586914, -1.4052734, 0.18127441, -0.45532227, -0.48046875, -0.9819336, -0.6645508, 0.71728516, -0.89404297, -1.3330078, 1.0488281, -2.8320312, -1.3984375, -0.6694336, 0.21044922, 1.1816406, 0.9633789, -0.65234375, 0.80029297, -2.140625, -1.6240234, -1.2539062, -0.9082031, -0.107055664, 1.2070312, -1.2460938, 1.6630859, -0.22338867, -0.41430664, -1.59375, 0.4519043, 0.21252441, -0.6308594, -0.43310547, 1.2685547, -1.7568359, 1.5771484, -0.39331055, -0.24707031, 2.28125, -1.2255859, 1.2617188, -1.7197266, -2.4746094, 2.6582031, 0.0871582, 0.28320312, -0.020248413, -0.6948242, -0.4711914, -0.375, -1.8417969, -0.2631836, -0.29833984, -0.9814453, -0.39892578, 0.37060547, -0.1303711, -0.49145508, -0.3852539, 0.29174805, 0.43188477, -1.078125, 1.1523438, 2.3320312, 0.6191406, 0.25463867, 2.0371094, 0.83740234, 0.29858398, 0.043060303, -1.6367188, 0.80078125, -2.4414062, 0.8808594, 0.24914551, -1.7490234, 0.9091797, -1.6171875, 0.578125, -0.9453125, 0.17248535, -0.74853516, -0.8540039, -2.7285156, -1.6894531, 0.66796875, -0.20532227, 0.4140625, 0.63183594, 0.8935547, 0.053863525, -2.4003906, -2.6367188, 1.9423828, 0.8129883, 0.64208984, -0.16906738, -1.7773438, -0.69140625, 1.0449219, -1.2988281, -0.5839844, 1.8203125, -1.9970703, 2.2109375, -0.053619385, 0.7285156, 2.765625, -1.6044922, -0.0368042, 1.5009766, -0.40356445, 0.16430664, 0.5180664, -2.671875, 0.2454834, 4.53125, -0.43652344, -4.1992188, 1.1787109, 0.61279297, -0.5385742, -0.6660156, 1.5244141, 0.5083008, -1.3603516, -0.5727539, -1.4072266, 2, -0.33544922, -0.15527344, 2.9335938, 1.1552734, -1.7373047, 0.49072266, -0.03933716, -0.87939453, 0.99560547, -0.09875488, -0.7163086, 0.3581543, -0.20471191, 0.07965088, 0.35742188, -1.3857422, -2.9179688, 2.0703125, -0.7626953, -0.50683594, -1.0810547, 0.51708984, -0.4267578, 0.36938477, 0.38916016, 0.019165039, 0.061309814, -0.024642944, -0.75683594, -0.44335938, 2.1152344, 0.5854492, 0.13000488, 7.3710938, 0.09710693, 3.0351562, -2.4257812, 1.1679688, 0.06970215, -1.3320312, 1.9082031, -1.0292969, 0.42138672, -1.234375, 0.012969971, -0.9560547, 0.5805664, 0.6689453, -0.8383789, 1.2597656, -0.029006958, 0.6953125, -2.9179688, 0.59033203, 0.097595215, 0.25634766, 0.5810547, -0.095825195, 1.3076172, -1.4951172, 0.90478516, 0.18688965, 0.19030762, 0.055511475, -1.4404297, 0.41455078, -0.8544922, 1.8544922, 0.7163086, 1.2841797, -0.7290039, 0.65722656, 2.046875, -0.12792969, -0.65722656, 1.2197266, 0.52246094, -1.2949219, 1.3945312, 0.19226074, -0.009841919, -0.7792969, -0.16381836, 0.94873047, -1.5869141, 3.015625, 1.0957031, 1.2314453, 1.3251953, 1.6708984, -0.22351074, -2.6582031, -1.3496094, -1.9521484, 0.4074707, -2.4570312, -0.16455078, -0.24829102, -0.7910156, -0.40625, -0.66552734, -2.2226562, -0.5078125, -0.88183594, 1.5761719, 0.105773926, -0.11218262, 2.7128906, -0.4140625, -0.75878906, 0.5732422, 1.6464844, -0.16174316, -1.4404297, 1.1289062, -0.10998535, 0.072387695, -0.1463623, 1.1503906, 0.95947266, -0.6767578, -0.38476562, -1.1113281, -0.072631836, -1.0429688, -0.32983398, -0.12054443, 0.12805176, -2.6425781, -1.4775391, -0.8017578, -0.5917969, -1.4160156, 1.3779297, 0.3544922, -1.2539062, 0.26367188, -0.5727539, 1.4521484, -0.91503906, -0.14123535, 1.4541016, 0.25927734, 1.4667969, -0.028015137, 0.11151123, 0.7714844, -1.1240234, 1.4169922, 0.27734375, 1.2304688, -1.1865234, 0.089416504, 0.0022697449, 1.9365234, -2.6523438, -2.5644531, -0.018997192, -0.65722656, 1.0820312, -0.84814453, 0.43847656, -4.9296875, 0.8413086, -0.5673828, 0.25390625, 0.2866211, -0.17321777, 1.0996094, -0.4255371, -1.015625, 1.4277344, -2.0195312, 1.7294922, 0.8808594, -3.7714844, 1.0830078, 0.38867188, 0.6801758, -1.2089844, 0.7807617, -1.6455078, 1.2177734, -0.1394043, -0.24829102, 0.1928711, 1.1962891, 1.6376953, 1.6240234, -0.041412354, 1.1523438, 2.5410156, 2.7324219, 0.4970703, -0.8979492, -0.8339844, -1.7255859, -0.75146484, -1.4365234, 0.044189453, 1.7001953, -0.4716797, -2.3242188, -1.03125, -1.7773438, -0.031311035, 0.1138916, -1.1474609, 0.2993164, -1.3642578, 0.99560547, -1.0917969, 1.7138672, 0.6118164, -2.484375, 2.0976562, -0.9145508, -0.5175781, 0.028549194, -0.8925781, -0.46777344, -0.6098633, 1.7060547, 0.87939453, 0.65966797, 0.81103516, -0.9785156, 0.42163086, 0.2548828, 0.42529297, -0.5751953, 0.79589844, 1.7167969, 0.45263672, -0.6743164, -0.9399414, -0.52734375, -1.0498047, 0.8203125, -2.1445312, -0.3569336, -0.8574219, 0.6123047, 1.1630859, 0.39160156, 0.31152344, -0.7866211, 0.6875, 2.0273438, 0.40454102, -0.9038086, 0.27001953, -1.1611328, -0.18798828, -0.058929443, 0.42944336, 1.2255859, 0.66259766, 0.6010742, -0.074279785, 1.6044922, 0.09814453, 1.6171875, -0.5366211, 1.2597656, -0.17150879, 2.2109375, 1.2548828, 0.9267578, -2.3476562, -2.5292969, 3.0449219, -0.20581055, -0.2758789, 0.12133789, 1.1220703, 1.7763672, 1.3105469, 0.28515625, 0.80078125, 0.27197266, 0.0062217712, 1.0859375, -1.6767578, -0.02519226, -1.1630859, 1.0556641, 2.3320312, -0.51123047, -0.82714844, -0.5810547, -0.6142578, -2.3808594, -0.13256836, 0.012435913, 0.7089844, 1.4726562, 0.3869629, 0.57910156, -0.37597656, 0.6713867, 2.5625, 0.31933594, -1.4296875, -1.8720703, 1.1445312, 1.1835938, -1.4384766, 0.06463623, 1.4814453, 0.77490234, -1.4863281, -1.7734375, 0.88964844, 0.4086914, 2.9746094, -1.2275391, 1.21875, 1.8330078, 0.73828125, -0.95947266, 0.51171875, 1.7197266, 2.6679688, 0.28320312, -2.0253906, 0.31469727, -0.38793945, -1.3056641, -0.46191406, -1.0048828, -0.2956543, 0.25952148, 0.9560547, -1.6914062, -0.7319336, -0.04333496, 0.06329346, 0.32128906, 0.26538086, -0.2529297, -0.3100586, -1.6835938, 0.94921875, 2.234375, 0.12060547, 1.75, 0.31884766, -1.0009766, 0.37158203, 1.671875, 2.6445312, 0.3215332, 0.18969727, -1.5419922, 1.0322266, -2.3496094, -1.6640625, -0.37402344, -1.109375, 0.25830078, 0.94091797, 0.49267578, 1.9638672, 1.2070312, 5.828125, 1.3623047, -1.8417969, -0.44091797, -1.15625, 0.35791016, -0.49780273, -1.6611328, -0.7963867, -2.6132812, -1.1337891, 0.08294678, -0.5703125, -0.6850586, 0.06402588, 0.13122559, 1.5644531, 0.94384766, -1.3408203, 2.6855469, -1.5380859, 0.18322754, -3.5839844, 0.54248047, -0.75390625, 0.3076172, 0.40844727, -0.14001465, -1.0605469, -2.7519531, 0.17016602, -1.0371094, -1.0664062, -1.2871094, -0.30004883, 1.8935547, 1.4160156, 1.8681641, -1.1445312, 1.0263672, 0.16845703, -1.5097656, 1.1269531, -0.7001953, 4.953125, -1.890625, -0.030319214, 2.4082031, 0.91015625, -1.265625, 2.5917969, -1.2001953, -0.53808594, 0.21862793, -0.10040283, -1.3974609, -0.7441406, -1.3486328, -1.1347656, 1.0712891, 1.2304688, -0.24804688, -0.25561523, 1.0859375, 0.31323242, -0.11413574, 0.23999023, -0.67285156, 0.22705078, -0.22094727, -0.48364258, 1.8105469, 0.124694824, 0.066345215, 0.7392578, 0.24267578, -1.6865234, 0.12878418, 1.9980469, -0.3798828, -0.37597656, -0.71191406, 0.8901367, -0.26342773, -1.1484375, 2.0390625, -0.29248047, -1.1523438, 0.94970703, -1.6748047, -0.20007324, 2.1679688, -0.41870117, 2.5390625, -0.3540039, 1.7714844, 0.5761719, -0.19714355, -0.013198853, 1.5263672, -0.88183594, -1.2128906, -0.40112305, -1.0205078, -0.7661133, 2.5957031, 1.5839844, -0.19641113, -0.14770508, 1.9072266, 0.2607422, -0.06304932, -0.609375, 0.7036133, 1.7060547, -0.15808105, -0.84277344, -0.34887695, 3.1914062, 0.4892578, -1.1660156, 0.48364258, 0.7944336, 0.46484375, 1.5292969, -0.4868164, 0.93408203, 0.38256836, -1.4609375, 0.9111328, 0.8100586, 0.47485352, 1.4697266, -2.6816406, 0.07501221, 0.42138672, 1.0537109, 0.039276123, 1.5273438, -1.0048828, -0.8652344, -0.23327637, -0.22045898, 0.625, 0.6796875, -1.2207031, 0.5473633, -1.3369141, 0.95214844, -0.91064453, -0.02078247, 0.70214844, -1.0771484, 2.5703125, 0.5991211, -1.1855469, 2.4160156, -1.3144531, 0.31420898, 0.6713867, 2.1230469, -1.4326172, -0.84277344, 1.3896484, 0.921875, -0.39526367, -3.828125, 0.44360352, -0.34887695, -1.2451172, 0.5366211, 0.39331055, 0.013587952, -2.6523438, -0.69628906, 0.23388672, 0.06323242, -0.69384766, 0.2956543, -0.68896484, -0.024017334, 0.04800415, 1.5722656, 0.4934082, 1.2841797, -0.6875, 1.5439453, 1.2138672, -0.9091797, -0.38549805, 0.9707031, -0.70703125, 0.3034668, -1.140625, 2.0878906, -0.49731445, 1.8896484, 1.671875, 1.3740234, -1.2158203, -0.53027344, 0.6308594, 0.9868164, 1.4667969, 1.5546875, -1.0664062, 1.6289062, -1.8476562, -3.4335938, -1.40625, -1.2763672, 1.1386719, 1.5810547, -1.3974609, 2.671875, -0.26831055, -0.32617188, -0.23376465, 0.71972656, -0.59228516, 0.26293945, -1.0214844, -1.1503906, 0.037750244, -0.30004883, -2.3574219, 0.11584473, -1.2070312, 1.5, -0.5991211, -1.3457031, -0.9370117, 2.7109375, 1.0351562, -0.24584961, -0.86816406, -0.6928711, 0.62402344, 0.14038086, 0.2956543, -1.3388672, -1.9765625, -1.5810547, 0.2475586, -1.9658203, 0.14648438, 0.23999023, -0.5439453, 3.8222656, 1.6816406, -0.052490234, 2.765625, -1.8300781, 0.9692383, 0.20751953, 0.27172852, -1.640625, 0.57373047, 2.1171875, -0.4736328, -1.0703125, 0.16638184, 1.2431641, -0.81396484, 0.6123047, -0.95410156, 0.40698242, 0.8203125, 0.13098145, 0.43017578, 0.13269043, 2.2929688, -0.035736084, -0.8911133, -0.8276367, 1.8056641, 0.23095703, 1.1279297, -0.60546875, -1.0224609, 0.13830566, 0.0748291, 0.92822266, -0.77441406, -0.63623047, -0.35327148, -1.1513672, 0.42285156, 1.9765625, 1.0068359, 1.4892578, -0.31982422, 0.48950195, 1.4003906, -1.1621094, -0.14257812, 1.7158203, -0.73876953, 1.6240234, 0.125, -0.796875, -0.17834473, 0.625, 1.5097656, 0.8227539, -1.3837891, -1.5263672, 2.1640625, -1.9726562, 1.3183594, -1.171875, -0.015235901, 1.3427734, -1.0654297, -0.047210693, 1.5380859, 0.12133789, -0.58740234, -0.03289795, -0.42626953, -0.22253418, -0.8540039, 1.21875, 0.7392578, -1.0390625, 1.3671875, -1.0361328, 0.53808594, 1.1689453, -0.80908203, -0.12359619, -0.43554688, 1.1044922, -2.890625, 1.3701172, 0.38989258, -0.4482422, -0.56640625, -0.7324219, 0.9394531, 0.28515625, 2.453125, 0.39746094, -0.54589844, 0.47558594, -0.04156494, 0.12890625, 0.12731934, -0.2619629, 0.0637207, -0.1550293, 0.5800781, -0.4423828, 1.7958984, 0.10858154, 1.6982422, -0.099121094, 0.73779297, 1.5644531, 1.0771484, -1.3212891, -1.0830078, 0.8955078, -0.9375, 0.9902344, -0.9692383, 1.3222656, -1.6494141, 2.3417969, 1.1162109, -0.5961914, -0.16333008, 0.29516602, 0.73339844, -1.6210938, -0.51171875, -0.8417969, 1.3427734, 1.9189453, 2.25, -1.9443359, -0.875, -0.6611328, -1.0917969, 0.02166748, -0.013687134, 0.7973633, 1.1884766, 1.2392578, 0.3972168, 1.2480469, 3.2070312, -0.85791016, 1.1933594, 0.42285156, 0.5888672, 0.7578125, -0.31567383, 1.53125, -1.4677734, 2.0390625, 0.16723633, 2.3457031, -0.095825195, 1.875, -2.859375, -0.5698242, -1.6826172, 0.82177734, 0.24157715, -1.0664062, -1.4433594, 0.69677734, 1.265625, 0.18811035, 0.16601562, -0.8701172, 0.24804688, -1.3964844, -1.6064453, 0.59033203, -0.11248779, 0.0680542, -0.41992188, -1.4023438, -1.0927734, -0.55908203, 2.4335938, 1.5654297, -0.5800781, -0.27368164, 0.2680664, 0.29785156, 2.1621094, 2.5839844, 2.8105469, -0.12072754, 1.5458984, -0.6723633, 1.2294922, -5.7890625, 0.7739258, 0.9580078, -0.6328125, -0.7861328, 0.19445801, -0.4309082, 1.4541016, 0.21862793, 0.107177734, -0.6323242, -0.94677734, -1.5371094, -0.44360352, -2.0273438, -0.27148438, 0.8017578, 0.43066406, -0.15100098, 0.2775879, 0.72509766, -1.9707031, 0.8066406, -0.85253906, -1.421875, -0.20349121, 0.23400879, 0.8623047, -2.9277344, -1.0322266, 1.0888672, -0.70214844, -0.49365234, 0.41088867, -0.8745117, -3.3476562, -2.6445312, 1.5917969, 0.9658203, -3.3652344, -1.1025391, -0.7084961, -0.8334961, 0.43798828, -0.75390625, -0.6098633, -1.7060547, 0.07171631, -1.4667969, 0.17590332, 0.4177246, -1.2509766, 0.0050201416, -0.40673828, 1.5927734, -0.2758789, 2.3496094, 0.06903076, 0.0748291, 1.6923828, -1.1025391, -1.9394531, 3.9863281, -1.0332031, 0.42089844, 1.0107422, 1.8710938, -0.3959961, -0.51416016, -0.28857422, -0.5761719, 1.734375, -0.21826172, -1.1826172, 0.42089844, 0.40283203, -0.31591797, 2.4765625, -0.1307373, -1.9814453, 1.1494141, -1.71875, 0.95458984, 0.29003906, 0.22387695, -0.5175781, -0.48950195, -0.35327148, -0.093566895, 0.73095703, 0.6352539, -0.48828125, 0.90527344, -0.3803711, -0.039215088, -1.7763672, 0.36132812, -0.009498596, -0.33496094, -1.1865234, -0.7006836, 0.30371094, -1.7587891, 0.37109375, -3.2226562, -0.2866211, 1.9433594, 1.2978516, -1.6582031, 1.3974609, 1.2578125, -0.97753906, 1.2402344, 0.048706055, 0.7397461, -0.9082031, -0.093811035, -0.41601562, 0.093566895, -1.8974609, 3.2441406, 2.0488281, 0.43554688, -0.09265137, 0.5410156, -0.60791016, 0.93359375, 0.47802734, 0.27319336, -0.85253906, -1.171875, -0.09265137, 0.008239746, 1.8378906, 0.13024902, -0.62353516, 0.6538086, 1.5732422, -0.60595703, -0.5917969, 2.5839844, -0.10229492, 1.7207031, -0.93310547, -0.5205078, -0.03970337, 0.9760742, -1.1162109, -0.34155273, -0.04977417, 0.9013672, -1.8076172, -1.7324219, -0.8305664, -2.8046875, 0.13500977, 0.18835449, 1.7207031, -0.12451172, 0.42382812, 0.7910156, -0.00308609, -0.4404297, -0.36914062, 1.1103516, -0.9057617, 2.1953125, -1.1621094, 0.34985352, 2.0117188, 0.21435547, -0.6660156, -0.6425781, 1.7402344, -1.7353516, 0.8222656, -2.3671875, -0.53466797, 0.890625, -0.9902344, -0.76171875, 1.3964844, -1.6396484, 2.40625, -0.030380249, -1.4248047, -0.6357422, -0.23181152, 0.53808594, 1.2021484, 0.33032227, -1.2744141, 0.34106445, -1.0761719, 2.7050781, -2.6640625, -1.0527344, 0.72314453, -1.2050781, 1.8476562, 0.008964539, -0.14440918, -0.9848633, 0.69384766, 1.4121094, -0.75, 0.48388672, -1.6337891, -0.19335938, 1.6025391, -0.3293457, 1.1318359, -0.09863281, -1.9638672, 0.9921875, 0.66064453, -0.04473877, -0.9819336, -1.40625, -0.24401855, -0.81933594, -0.7368164, -0.66064453, -0.115478516, -1.5048828, 0.3642578, 0.1706543, -0.32373047, 0.9760742, 0.22692871, -2.078125, -1.4570312, 0.028121948, 2.3710938, 0.4892578, 0.6542969, 0.9711914, 0.8388672, 0.9448242, -1.4824219, -2.03125, 1.5273438, 0.25390625, -1.3896484, 0.15332031, -0.7915039, -1.0351562, 0.7597656, -0.7573242, -0.7836914, 1.3681641, 1.6669922, -1.2519531, 0.22460938, -2.0488281, -0.7265625, -1.7851562, 1.7412109, -1.6894531, -0.11291504, 0.0847168, 1.1162109, 0.49975586, -1.5488281, 1.4423828, 0.2644043, 1.8701172, -0.22790527, -1.0136719, -0.3244629, -1.4121094, 0.36108398, 0.00818634, -0.80810547, -1.3056641, -0.044830322, 1.6025391, -0.64697266, -0.88623047, -1.9560547, -1.4052734, 1.4765625, 1.0732422, 0.71240234, 1.2646484, 1.5947266, -0.64990234, 0.09454346, -1.2353516, -2.0253906, -0.058746338, 0.24902344, 1.4306641, 1.171875, -0.53125, -0.7963867, 0.46704102, -2.4472656, -2.4746094, -1.2402344, -2.9609375, 0.4050293, -0.117248535, 1.2246094, 0.46923828, 2.8457031, 2.8183594, -0.5776367, -2.4101562, 0.19360352, 0.84716797, 3.1582031, 1.6982422, 0.27734375, 1.9472656, 0.34716797, 0.69873047, 1.2431641, 0.59765625, 1.0869141, -0.36865234, -0.1303711, -3.0585938, -0.7348633, 1.6210938, -0.26733398, -0.15136719, -1.5908203, -1.9697266, -0.7988281, 0.25927734, -0.72509766, 3.0097656, -0.6738281, -1.2119141, 0.9038086, -0.24560547, -0.5292969, -0.5932617, 1.3330078, -1.1640625, -1.5185547, -0.55566406, 1.8876953, 0.042266846, -0.79589844, -1.7431641, 0.14819336, 2.3867188, -0.86572266, -2.5742188, 1.7519531, 0.46020508, 0.37426758, 0.81689453, -0.9223633, -3.3222656, 0.90478516, 1.0996094, 3.265625, 1.125, 1.2412109, -1.0478516, -0.34033203, -1.6425781, 0.058013916, 0.32910156, -0.7084961, -0.30151367, -0.27148438, 5.5859375, 1.0273438, 1.3945312, -2.3164062, 0.25805664, 3.0371094, 0.051727295, -0.2019043, -0.6777344, 0.87158203, -0.84765625, 0.49829102, 0.45483398, 0.5913086, -1.0576172, 0.5292969, -2.0136719, 0.03213501, -1.0029297, 1.4824219, -0.6386719, 1.3740234, -1.2460938, 1.5712891, 6.1679688, -0.73779297, 0.062805176, 0.23999023, -0.42504883, -1.2109375, -0.09613037, 1.2861328, -0.7441406, 1.2294922, 2.9863281, -0.2310791, 0.22460938, -1.3867188, -0.29638672, -0.5629883, 0.122558594, -1.2597656, -1.3447266, -2.9082031, 1.0019531, -0.28808594, 0.37963867, -0.9921875, 0.5097656, 3.0429688, -1.0039062, -0.40112305, -1.2148438, -0.9741211, 0.33276367, 0.7519531, -1.0615234, -0.15734863, 1.5253906, 0.82714844, -0.16894531, -0.42089844, 0.43530273, 1.0087891, 0.77734375, 1.5341797, -1.0771484, 2.1660156, -1.2529297, 2.0507812, 1.7773438, 0.69873047, -0.35668945, 0.5029297, -0.58984375, 0.23461914, 0.23352051, 3.5449219, 0.3408203, -0.84277344, 0.9067383, -1.5019531, -0.6225586, 0.8417969, 2.6152344, 0.30664062, -0.2849121, 0.68652344, -1.2597656, -0.96484375, -0.70458984, -1.1679688, 0.3466797, -0.5854492, -0.67529297, -0.062408447, -1.0419922, 0.2758789, -0.33569336, 1.0507812, -2.1894531, 1.265625, -1.2607422, 1.2685547, 0.82470703, 3.1679688, 0.50097656, 0.7055664, 1.5898438, -0.76904297, -0.6953125, -0.35864258, 0.32958984, 3.6425781, 1.0244141, -0.69189453, -2.2675781, 0.7133789, -0.5546875, 0.09472656, 1.9082031, 1.2685547, 0.88378906, 2.75, -0.09820557, 0.19934082, -0.9370117, -0.52734375, 1.2001953, -0.52490234, -0.32177734, 0.8105469, 0.09643555, -0.12536621, 0.88183594, 2.4296875, -0.6123047, -0.004333496, 0.9140625, -0.014953613, -1.7050781, 0.13220215, -1.2460938, -0.7578125, 0.8261719, 2.5703125, 0.75341797, -1.0898438, -0.38916016, 3.03125, -0.20593262, 2.0097656, -0.75146484, 2.6992188, -0.77197266, -1.8955078, 0.06982422, -0.52197266, 0.6040039, -0.35595703, 1.3447266, -1.515625, -0.037841797, -0.2244873, 0.3449707, 1.2431641, -0.3125, -1.7919922, -1.1142578, 0.91015625, -0.18481445, 2.4003906, 0.5961914, 0.27734375, -2.6367188, -0.5629883, -0.6513672, -1.0048828, -0.7446289, 2.0820312, -0.93310547, -0.17236328, 0.88623047, -1.828125, -1.6386719, 0.01423645, -1.2021484, -1.375, 1.3095703, 0.37548828, -2.2734375, -1.8779297, -0.6616211, -0.6303711, 1.1113281, -1.0048828, -0.7597656, -1.8066406, 1.2353516, -1.2744141, -0.47924805, 0.120666504, 0.08917236, 1.1474609, -0.28295898, -0.74316406, 0.27197266, -0.9033203, -0.22814941, 0.08001709, 0.59814453, -0.3371582, -0.86328125, -1.3964844, -2.4375, 1.234375, -1.7431641, -0.9511719, 1.8232422, 1.4726562, -0.77685547, 1.7890625, 2.3339844, -0.26635742, -0.11212158, -0.2565918, -0.59033203, 0.64208984, -0.52783203, -0.5800781, -0.059295654, -0.89160156, -1.0673828, 0.9760742, -0.0007972717, -0.91503906, -0.117004395, 0.18981934, 0.46362305, 1.0625, -1.2949219, 0.63720703, -0.41479492, -0.65283203, -0.047088623, 0.63671875, 1.3730469, -0.96972656, -1.7041016, 1.5800781, -0.35229492, 1.7988281, 0.46704102, 0.40722656, -0.058807373, 0.6435547, -0.42163086, 2.03125, 0.38183594, -2.1171875, -0.37451172, 0.31811523, 2.09375, 1.2597656, 0.63427734, 4.6054688, -0.31347656, -0.41992188, 1.1494141, 2.5136719, 0.6040039, -0.24316406, -1.0498047, -1.3046875, -1.0078125, -1.4326172, 3.4824219, -0.43920898, -1.0556641, -0.77734375, 0.19372559, -0.3881836, 0.16711426, -1.3369141, 0.42138672, -1.4980469, -0.09820557, 0.62109375, 1.2412109, -0.045715332, 1.4951172, 0.24084473, -1.7412109, 0.18017578, -0.91064453, 0.042022705, -0.3022461, 1.21875, 1.0800781, -0.17932129, 1.6767578, -0.62939453, -2.5058594, 1.4658203, 0.1899414, 1.3027344, 1.3632812, 1.2001953, 1.1367188, -2.171875, -2.7480469, -1.1074219, -1.0214844, 1.1552734, 1.3876953, 1.6621094, 0.80810547, 2.1289062, -1.3964844, -0.22290039, -0.14880371, -0.9355469, 0.5761719, -0.3059082, -0.058746338, 0.92285156, 0.79296875, -0.6479492, 2.9804688, 0.63427734, -1.8828125, 2.1113281, -1.2949219, -0.87353516, 0.62646484, -2.0429688, -0.46826172, -1.4189453, 1.2314453, -1.2460938, -0.64208984, -1.3955078, -0.5288086, -0.7104492, -1.1728516, 0.34887695, 0.015319824, 1.4960938, -0.66503906, -0.20300293, 1.8046875, -0.3557129, -1.7832031, 1.2431641, 0.53222656, -2.2011719, 1.1767578, 0.14379883, 2.3691406, -0.5991211, 0.60302734, -0.3449707, 0.28759766, -1.0214844, 1.6142578, -1.7714844, 1.0810547, -0.41015625, -0.036834717, 1.4677734, -0.3828125, -0.88623047, 1.1816406, 1.546875, 1.0800781, 5.1679688, 2.2109375, -0.97314453, -1.1640625, -1.2255859, -0.6069336, 0.48217773, -2.34375, 1.0800781, -0.36914062, 1.6943359, 0.64160156, -0.0049552917, 0.8286133, 3.3535156, 0.3269043, 1.2207031, -1.6933594, -0.46801758, 0.9863281, 1.0429688, -0.8730469, 0.04168701, 0.9086914, -1.140625, -1.2050781, -2.0722656, -1.6113281, -0.44580078, 4.2617188, 0.8515625, -0.28735352, 0.8652344, -0.43017578, -1.0673828, 0.5522461, 0.7734375, 0.9482422, 0.026855469, -1.0996094, -1.9667969, -0.7841797, -1.2753906, -1.4970703, -3.3183594, 1.3232422, 1.0654297, 0.46704102, 1.0800781, 1.1162109, -0.42163086, -0.23901367, -0.9370117, -0.81591797, -1.4267578, 1.6025391, 3.25, 0.40454102, -0.18200684, -1.0175781, 1.1230469, 2.25, 0.44628906, 0.75878906, -3.5195312, -0.5205078, 2.4609375, -0.32543945, -1.7490234, -0.07946777, 0.0076179504, 3.0195312, -0.8364258, 2.7402344, -0.06933594, 0.37231445, -0.39941406, 0.72753906, -0.9033203, 0.4794922, 1.4960938, 1.3300781, -0.27319336, -2.2070312, -1.3564453, 1.0917969, -1.1582031, 3.6640625, -0.38671875, 1.3300781, 0.6352539, 0.7866211, 0.48901367, -0.51220703, -0.95703125, -0.8017578, 0.4428711, -0.7963867, -0.04345703, 0.8935547, -0.37231445, 1.0722656, 0.20397949, -1.1748047, -2.0878906, -0.26391602, 0.5175781, 0.20349121, 0.20092773, 0.054656982, 0.56884766, -0.31689453, 1.6689453, 0.94384766, -1.0087891, -0.3190918, 1.5517578, 0.0826416, 1.1025391, 1.1689453, 0.06738281, -1.2919922, -1.2646484, -0.28515625, -0.35961914, 0.24060059, 0.12536621, 4.4960938, -2.4863281, -1.4023438, 1.3867188, -2.6621094, 1.8476562, 0.19519043, -0.31982422, -0.5307617, 0.8300781, 1.7226562, 2.8339844, 0.026535034, 2.0117188, 1.1542969, -1.4541016, 1.4482422, -1.2011719, -0.21960449, -0.11694336, 1.9345703, -0.77197266, 3.2949219, 1.1064453, 0.80322266, -0.33154297, 0.86865234, 1.3203125, 0.4975586, 1.2822266, 0.63671875, -1.3251953, -1.3378906, 2.5742188, -0.9868164, 0.54003906, -1.3193359, 0.8022461, -0.08660889, 0.34155273, -0.51464844, -1.3632812, -0.26538086, 0.8232422, 0.59033203, 2.7246094, -0.069885254, 2.2089844, 0.3046875, -1.9423828, 2.7011719, -0.62890625, 0.02861023, 0.20275879, -0.21887207, -0.3774414, -0.6694336, -1.5683594, 0.8486328, -0.7866211, -0.75341797, 1.0029297, 1.3369141, -0.049987793, -0.21264648, -0.9946289, 0.7910156, -2.3203125, 1.4365234, 1.7177734, -1.3759766, 1.7705078, -2.6445312, -1.4160156, -0.4633789, 0.50878906, -0.9873047, 1.0800781, -1.0097656, -1.4873047, 1.3544922, 0.048797607, -0.6269531, -0.34545898, -0.7783203, -2.5527344, -2.4511719, -0.80126953, -2.1777344, -0.18273926, 0.42407227, 0.64697266, -0.78759766, 1.1386719, 1.1044922, -0.6015625, -3.1308594, 2.1015625, 0.65527344, 0.06585693, -1.2919922, 1.4316406, -0.10040283, -1.4960938, 0.2163086, 0.4724121, 2.3496094, -0.71191406, 1.4541016, -1.9892578, -0.017333984, -1.5117188, -0.21508789, -0.3461914, -0.8901367, 0.1973877, 2.3847656, -0.23596191, -1.0351562, 0.9707031, -0.96972656, 0.5185547, 1.0498047, 1.8779297, 0.025970459, -0.76904297, 1.890625, 0.34985352, 0.07397461, -3.2402344, -0.8457031, -0.18591309, 0.96435547, 0.05328369, 0.90527344, 0.7451172, 0.018707275, -0.5986328, 0.30615234, 0.50927734, 0.46606445, -2.0664062, -4.4023438, 1.0527344, 0.32104492, -0.8261719, 2.8769531, 1.7792969, -0.31835938, -2.3886719, 0.3869629, 0.44360352, -0.17041016, -1.3554688, -0.89990234, 0.45385742, -1.0273438, -1.4951172, 0.061157227, -1.2597656, 1.0019531, -0.15966797, -0.16882324, -0.41210938, -0.44335938, -1.2714844, -0.18933105, 1.0527344, -0.7675781, 2.3222656, 0.44702148, -2.4921875, 0.8227539, -0.88427734, -0.27441406, -1.8261719, -1.0878906, 0.40722656, 1.2255859, -1.4130859, -0.27856445, -0.8183594, -2.3691406, -0.14208984, -0.21691895, 1.5830078, 1.046875, 0.22290039, 0.8696289, -2.140625, -0.54296875, -1.2373047, -1.0712891, -0.42993164, -0.61035156, 1.5253906, -0.7788086, 0.3864746, -0.92529297, -2.71875, -0.76953125, 1.4345703, 1.5683594, 2.6679688, -0.86816406, 0.81591797, 1.875, 0.6098633, 0.42236328, -1.2167969, -0.90771484, 1.4326172, 1.7685547, -1.8876953, -0.8144531, -1.9853516, -0.022842407, -0.35180664, 4.3671875, 0.6459961, -0.66015625, -0.62158203, 2.4082031, -1.3164062, 0.6665039, 0.88720703, -1.140625, -3.6582031, -0.19262695, 0.49194336, 0.33251953, 0.57373047, -0.032440186, -2.5371094, -0.85009766, -0.99121094, 2.0917969, -0.038970947, -1.0429688, 0.33691406, 0.30639648, 0.84033203, -0.84814453, -1.4267578, 0.8574219, -1.0673828, -1.5615234, 0.80566406, 0.012252808, 1.4970703, -0.047790527, 0.40844727, 0.07141113, 0.049468994, -1.1767578, -0.31298828, -0.47924805, -0.41259766, -0.85546875, -0.8955078, -0.6826172, 2.7578125, -0.75097656, 1.3417969, -0.8256836, -0.6923828, -2.3339844, -1.1660156, -0.086242676, -0.98095703, 0.49145508, -1.4335938, 0.064453125, -2.5996094, -1.6660156, 1.7412109, -1.6152344, 0.040100098, 0.49414062, -0.03338623, -2.578125, 0.28759766, -1.4482422, -2.1191406, -3.609375, -1.1669922, 0.13391113, 0.9550781, -1.1630859, -1.7910156, -0.6635742, -3.8320312, -0.5678711, -0.22814941, -1.1738281, -0.066345215, -0.81152344, 2.3203125, 0.55859375, 2.03125, 0.3581543, -1.1621094, -2.1035156, 2.9921875, -0.72216797, 0.10797119, -0.7158203, -0.34643555, -0.49194336, 0.8857422, -0.4465332, -0.14880371, 0.65234375, -1.8134766, -0.4165039, -0.43188477, 0.44873047, -0.6777344, -2.5410156, -1.5537109, -1.0771484, -0.28759766, 1.5751953, 0.6538086, 0.8955078, -0.6323242, -0.29077148, 1.3730469, -2.4570312, 0.012184143, -0.0077781677, 1.7197266, 0.8027344, 0.3815918, 0.9272461, -0.74853516, -1.5107422, -2.4824219, 2.65625, -0.1496582, -0.48461914, 1.2363281, -1.9169922, -0.82128906, 0.51904297, 0.4387207, 1.1142578, 0.19946289, -2.0546875, 0.78759766, -0.83154297, 0.9091797, -0.3071289, -0.06390381, -1.0371094, 2.5058594, 0.7817383, 3.2402344, -1.140625, -0.84472656, 0.9667969, -0.96728516, -0.049072266, 0.24389648, -1.6953125, -1.0615234, -1.2392578, -1.4707031, 0.22875977, -1.4775391, -2.6328125, -1.7822266, -2.7734375, -0.13549805, -0.63134766, 3.1914062, 1.4648438, -0.33398438, -3.0527344, 1.1240234, -1.3476562, -1.8642578, 1.2363281, -3.3554688, -0.859375, 0.80371094, -1.3535156, -0.72314453, -0.012329102, -1.0361328, -1.3291016, 2.2988281, 1.3388672, -0.14916992, 0.019592285, 0.12805176, 0.44433594, -1.3261719, -1.90625, -0.39111328, 0.875, -0.79589844, -0.23132324, -1.2626953, 1.6230469, -0.65185547, 0.7446289, -1.3173828, 0.5834961, -1.6923828, -0.9902344, -1.0244141, -0.87402344, 0.40551758, -1.4619141, -1.375, -3.5703125, 0.8022461, 1.7236328, 0.1652832, -0.0793457, -2.6777344, -1.8886719, -0.16540527, 2.1992188, 1.5185547, 1.4384766, -1.4775391, 0.34570312, 0.62060547, 1.5107422, 1.8496094, -0.0579834, -0.08300781, 0.95996094, 0.6269531, 1.9111328, 1.1855469, 0.73535156, -0.15002441, -1.8603516, 1.5830078, 0.85253906, 0.32836914, -0.5361328, 3.0449219, -1.0283203, 1.6494141, -1.2070312, 0.21008301, 1.0957031, -0.9169922, 0.5292969, 1.6386719, -1.1240234, 0.82958984, 1.9628906, 0.93359375, -0.17626953, 0.24145508, -1.578125, 1.2724609, -1.8183594, 0.8569336, 0.3869629, 1.1103516, 0.81884766, -1.4414062, 0.79003906, 1.4042969, 0.35180664, 1.0927734, 1.2314453, -0.26831055, 0.45336914, -1.6279297, -1.8496094, -0.65527344, -1.9580078, -1.5810547, -0.5683594, -1.0800781, 0.76904297, -0.89941406, 0.90185547, -1.6669922, -0.19018555, 0.05621338, -1.3525391, -2.453125, -0.19714355, 1.5419922, 2.9375, 1.9980469, 0.5776367, -1.7236328, -2.2089844, -0.7758789, -0.25561523, 0.8432617, -1.2617188, -0.9921875, 0.75634766, -0.5102539, 1.2314453, -1.2265625, 0.38989258, 0.21716309, -2.2246094, 0.42578125, -1.4892578, -1.7949219, -0.6738281, -0.1550293, 0.5800781, -0.2524414, 0.018188477, 0.55908203, -1.3017578, -0.55810547, -1.0976562, 0.00541687, -2.3125, 0.28344727, -1.6630859, 2.6503906, -1.1025391, 0.037902832, -0.95996094, 0.87890625, -0.32763672, -0.77246094, -0.6425781, 0.07104492, -0.93359375, -1.2246094, -0.74365234, -0.22998047, 0.2919922, -0.1920166, -0.20605469, -0.040863037, -1.0947266, 3.296875, -0.4946289, -0.7602539, 0.62597656, 0.7963867, -1.5234375, -0.29101562, 1.3017578, 0.13659668, -0.3671875, 1.0859375, 0.36523438, -0.7265625, -1.015625, -1.5292969, 0.9604492, -1.4736328, 0.8227539, 0.38134766, 0.68359375, 2.2753906, 1.7939453, 1.7958984, -0.31640625, -0.3762207, -0.21447754, -0.7944336, 4.5625, 0.8564453, -0.9296875, 1.3359375, -0.55615234, 2.46875, -1.0234375, 2.125, -0.9682617, -3.5605469, -1.4335938, 0.4411621, 0.60058594, 1.1289062, 1.3369141, -0.1262207, 1.6914062, -0.8803711, 0.9033203, 0.047821045, -1.5664062, -0.86572266, -1.0898438, -1.2724609, -0.57714844, -2.4023438, 0.014976501, -1.390625, -1.4423828, 0.9013672, -1.0839844, 2.40625, 2.1972656, 0.1217041, -2.3496094, -0.17749023, -0.9658203, 2.3535156, 1.2392578, 0.027801514, -1.4921875, -0.18457031, -0.6933594, 0.9638672, -1.2402344, -0.5078125, -0.3076172, -0.3088379, -0.14916992, -0.28955078, 1.5195312, 0.41601562, 2.0410156, 1.09375, 0.47387695, 0.49780273, 0.4362793, 1.2548828, 0.35327148, -1.0498047, 0.5292969, 0.90283203, -3.1152344, -0.5522461, -0.97216797, -0.65478516, 2.3457031, 0.056762695, -0.08831787, -0.88427734, 0.2915039, -0.1616211, -0.32055664, -0.1763916, -1.1708984, -0.3569336, -0.58984375, -0.8774414, -1.8085938, -0.21435547, -0.49414062, 1.1123047, 0.46801758, 0.48168945, 1.2949219, 2.2558594, 1.5107422, 1.5722656, 1.9980469, 0.79296875, -0.3190918, -1.9160156, 0.79589844, -0.35229492, -0.9848633, -2.28125, -0.9243164, 0.17150879, 2.2792969, -0.84521484, -2.5195312, -0.49145508, 2.3476562, 0.22399902, -0.06274414, -0.67871094, 0.17236328, -0.9926758, 0.3552246, 0.3330078, 0.19372559, 0.6689453, 1.9423828, 1.0498047, -0.23901367, -0.5644531, -0.101867676, -0.11816406, -0.2475586, 0.11602783, 0.41967773, -0.8623047, 0.11071777, 0.015777588, -0.9736328, -0.27685547, 2.0625, 0.6640625, 1.9667969, -0.70214844, 0.88964844, 0.6748047, 1.7988281, 1.703125, -1.9169922, 0.24914551, -1.0380859, 2.7285156, -2.0351562, -0.6826172, -0.15063477, -1.6005859, 1.8505859, -0.37304688, -0.011062622, -1.6728516, 0.36547852, 2.7246094, -1.2294922, -1.9648438, 1.6630859, 0.39282227, -0.8364258, -0.022094727, 0.77246094, 0.110839844, 2.1972656, -1.4521484, 0.15759277, 0.47924805, 0.07116699, 1.2138672, 0.6694336, -0.99609375, 0.1194458, -0.36816406, -1.6279297, -1.2070312, -1.9365234, -3.1152344, 0.03387451, -2.8808594, 0.37426758, 0.61865234, -1.9726562, 0.6660156, -0.3095703, -1.2470703, 0.87646484, 1.7705078, 0.19714355, 0.7285156, 0.8803711, 0.18200684, -1.0546875, -0.39257812, 1.6748047, 0.15844727, -1.2861328, 1.0996094, -2.4804688, -0.953125, -0.15539551, -1.375, -0.93652344, -0.5102539, 0.96533203, -0.3684082, -0.49902344, 0.95654297, 0.04107666, 0.10845947, 1.4140625, -1.0595703, -1.7041016, -2.5078125, -0.375, -1.7021484, 0.18005371, -1.4316406, -2.9921875, 1.3066406, -1.0097656, 1.2988281, -0.16357422, -0.4892578, 2.4082031, -0.28930664, 0.89208984, 1.2998047, 0.103881836, -0.061431885, -0.56396484, 0.77441406, -1.1132812, -0.91552734, 0.34643555, 1.0742188, 2.1464844, -0.7553711, 1.6601562, -0.14978027, 3.4863281, -1.2011719, 0.96972656, -2.0878906, -0.13256836, -2.0371094, 0.21325684, 0.43530273, 1.5351562, 0.79052734, -2.2207031, -0.0005259514, 2.8945312, -1.0820312, 2.5976562, 0.38549805, -1.6552734, 1.5244141, -0.7011719, -0.85546875, -2.5371094, -1.7929688, 1.0556641, -0.35986328, -0.67578125, -0.9633789, 0.28466797, -0.64208984, 2.3945312, 0.22387695, -3.7519531, -1.09375, -0.74853516, 1.3876953, -1.1337891, 2.0292969, 2.9121094, -0.8535156, 1.1503906, 1.28125, 1.7304688, 1.3642578, 0.31030273, 0.41015625, -0.3803711, -1.7128906, 0.2565918, 1.3867188, -0.3461914, -0.86035156, -1.9199219, 1.0898438, 0.31518555, 2.4707031, 0.16357422, 0.27392578, 0.90722656, -0.22094727, -0.91503906, -0.28735352, -1.5976562, -1.0859375, 1.8183594, 4.0195312, 2.5742188, 0.028869629, 1.2675781, 2.4394531, -2.0390625, -0.13452148, -0.9272461, 0.11578369, 1.1738281, -0.14074707, 1.0615234, 0.17248535, -0.8652344, -1.2480469, -0.11352539, 0.24401855, -2.9648438, -0.32006836, 1.0693359, 0.7680664, 0.5410156, -0.43725586, -0.77685547, -2.6621094, 0.15759277, 0.059020996, -1.0576172, -0.6323242, 0.07476807, 0.34814453, 1.3134766, -1.203125, -4.265625, -1.0097656, -0.007904053, 1.4482422, 1.7041016, -0.4489746, 0.19470215, 0.39135742, -0.48266602, -1.8212891, 1.1914062, -0.2800293, 0.8613281, 1.8457031, 1.6621094, 0.04547119, -1.3671875, -0.7104492, -0.5024414, 1.5380859, 2.2148438, -0.95214844, -3.2441406, -0.99853516, -0.5712890</t>
-  </si>
-  <si>
-    <t>[0.31079102, 0.8046875, 1.90625, 0.30078125, 0.26245117, -1.6025391, -1.5097656, -0.63378906, 0.88134766, 0.30786133, 2.015625, -1.7607422, -2.1347656, -1.6474609, 0.2401123, -0.6777344, -0.609375, -0.29614258, -0.7504883, -0.8857422, 0.4609375, 1.6064453, 2.3769531, -1.4980469, -2.2421875, 1.9277344, 0.3828125, -3.2949219, -0.6254883, -2.0078125, 0.0107803345, 1.2226562, 1.1435547, 1.0712891, 0.58203125, 1.4150391, -1.4111328, -0.29785156, 0.68896484, 0.3161621, -0.7792969, -0.37646484, -0.12902832, -0.50878906, -2.8671875, -0.82177734, -3.0175781, -0.7270508, -1.1328125, -0.23937988, 0.9199219, 0.86083984, 1.2929688, 0.86035156, -0.7729492, -1.1835938, 0.9086914, 2.1621094, -1.3261719, 0.78564453, 0.024139404, 0.60839844, -0.14379883, -0.36938477, -2.3261719, -0.60253906, -0.75683594, -0.022033691, -0.58447266, 2.2265625, 0.5288086, 0.3161621, -0.56640625, 0.56640625, 1.4580078, 1.0400391, 1.0302734, -2.2519531, 0.69189453, 2.6757812, -0.43408203, -0.48095703, -1.4960938, 0.9003906, -1.2216797, -1.1132812, -0.63427734, 0.2956543, 0.9321289, -0.3149414, 0.7607422, 0.0024280548, -0.5292969, -0.42993164, -0.31225586, 0.82958984, 0.40014648, -1.0449219, 1.3408203, 1.9697266, -0.7324219, -0.5107422, 0.99121094, 0.9355469, -0.77978516, 2.5800781, -1.0644531, 0.671875, -1.7910156, 0.81933594, 0.7519531, -1.7216797, 2.6484375, 0.3696289, 0.7001953, 0.05984497, -0.20092773, 0.5517578, 0.70458984, -1.5654297, -0.58691406, 0.16906738, 0.49682617, -0.7890625, 0.94873047, 0.7104492, -0.0925293, -1.0400391, 0.47705078, 0.9013672, -1.4248047, 0.31958008, 1.3193359, -1.5439453, 2.1152344, 0.85009766, -1.5605469, -1.3144531, 1.9345703, -2.40625, 1.2265625, 0.21679688, 1.2392578, 4.546875, 0.2368164, 0.22973633, 1.8857422, 0.6225586, 1.1044922, -1.3154297, -1.4033203, -1.9873047, 1.4814453, 0.34887695, -4.046875, 0.9453125, -0.3269043, -0.26171875, 1.5869141, 0.44482422, 0.8666992, 0.25683594, -0.06982422, -0.052886963, 0.93847656, -0.7104492, 0.60595703, 2.7089844, -1.5839844, -1.4042969, 0.5908203, -0.22290039, -0.47631836, 1.8857422, 0.11291504, -0.43408203, -1.3164062, -0.5336914, -1.8554688, -1.3681641, -2.6074219, -2.3710938, -1.0751953, -0.26464844, -0.55566406, -2.2441406, 0.7861328, 0.20996094, 1.0498047, -0.27685547, 1.4345703, -0.22375488, 0.1394043, 0.8857422, 1.2841797, 1.0332031, 1.2841797, 0.23742676, 4.3164062, -1.125, 2.7382812, -0.44262695, -0.41186523, -0.9321289, -0.15185547, 1.65625, 0.060791016, 0.019012451, 0.5288086, 0.44018555, -2.3730469, -0.33984375, -1.25, 0.01676941, 0.22937012, -1.1503906, -0.4638672, -0.60498047, 1.4345703, 0.59716797, 0.7314453, -1.2490234, -0.5517578, -0.05682373, -0.81689453, -1.8417969, -0.48632812, 0.5600586, -1.0136719, -0.59472656, 0.1887207, -0.27246094, -0.6870117, 1.2949219, 0.6484375, 1.3417969, -0.8930664, 1.6230469, -0.4868164, -0.7373047, 2.203125, -0.5024414, -0.1685791, 1.8095703, -0.67041016, 0.52978516, -0.7910156, -0.18103027, 1.3544922, 0.46606445, 2.8359375, 0.14904785, -1.4199219, 1.7275391, -0.4243164, -0.62060547, -1.5292969, -0.52001953, -0.45288086, -0.8310547, -1.4287109, -1.9951172, 0.0067863464, -0.068481445, -0.41235352, 0.41845703, -3.0703125, 0.7685547, -0.49291992, 1.2578125, -0.22949219, -0.05456543, 4.5546875, 0.15795898, -1.2519531, 0.61865234, 0.9892578, -0.29077148, -0.31396484, 0.44750977, 0.37060547, -0.5024414, -0.11291504, -0.3486328, 1.3837891, 0.40478516, -1.4111328, -0.4177246, -0.5493164, -0.421875, -0.9057617, 0.19946289, -1.0966797, -3.4863281, -3.8242188, -2.3964844, -2.4648438, -3.0664062, 0.25976562, -0.8676758, 0.5810547, -1.0380859, -0.40625, 2.8125, -0.062805176, -0.12841797, 1.0068359, 0.80566406, 0.27197266, 1.1015625, 0.9848633, 3.2519531, -1.2998047, -0.66845703, 0.20239258, -0.15014648, -0.87939453, -0.05505371, 0.23876953, -0.8623047, -1.6347656, -2.7871094, 2.7480469, -1.0097656, 0.6850586, -1.3154297, 0.17333984, -3.4921875, 0.7036133, -0.011802673, 0.47851562, 0.13476562, -1.3037109, 1.6210938, -1.0478516, -0.91308594, 0.42749023, 0.0021038055, 0.88183594, -1.1943359, -1.140625, 1.28125, -0.97265625, -0.5371094, -1.5664062, -0.34521484, -0.8339844, -0.23706055, -0.68896484, 1.6816406, -0.7705078, 1.0224609, 1.9169922, 1.9873047, 0.55371094, 0.63183594, 4.0507812, -1.9541016, -0.4572754, -0.39624023, 0.13671875, -0.22937012, 0.0368042, -1.6904297, -0.067993164, 0.7998047, 0.5722656, -1.5380859, -0.40966797, -2.2832031, 0.015914917, 2.3828125, 0.68310547, 0.42138672, 0.6748047, 1.0771484, -1.7685547, 0.8598633, 1.5576172, -1.5458984, 2.0800781, -0.32250977, -1.6132812, -1.5947266, -2.453125, 0.5488281, 0.16577148, 0.95410156, 0.4284668, 0.19494629, 0.45507812, -0.70458984, 0.9658203, 2.3417969, 4.109375, -0.3894043, 0.5703125, 1.453125, -0.31030273, 0.23547363, -0.009719849, -0.6411133, -2.8046875, 0.18554688, -0.30078125, 0.22839355, -0.30493164, 1.2207031, 1.8271484, -0.36743164, 1.046875, -0.9067383, 0.9057617, 0.62939453, 1.5869141, -0.91748047, -0.44873047, -0.02796936, -1.3505859, 0.22338867, 0.5966797, 1.5263672, 0.74560547, 0.6152344, -0.09503174, -0.16003418, 0.56933594, 3.078125, -2.2285156, 0.19555664, -0.14001465, 1.3251953, -1.2734375, 1.5644531, -1.1025391, -3.6484375, 1.8046875, -0.16577148, 1.1025391, -1.4306641, 0.7709961, 1.1210938, 1.2988281, 0.58691406, -0.26538086, 2.6796875, 0.75341797, 1.3925781, 0.7475586, 0.39575195, -1.6503906, -0.85546875, 0.060791016, -0.3322754, 0.5126953, -0.734375, -0.14367676, -1.9521484, 0.3388672, -0.6738281, -0.73535156, 2.5703125, 0.9868164, 1.2597656, 0.2368164, 1.3056641, 0.03479004, 1.5693359, -1.2197266, -1.0117188, 1.8642578, -1.2304688, -1.3232422, 0.16662598, -0.2644043, 1.3007812, -1.7304688, -1.4589844, -0.42993164, 0.33081055, -0.2770996, -3.3574219, 1.4863281, 0.01828003, -1.4052734, -1.3212891, 0.064086914, 1.9189453, 1.0820312, -1.0419922, -1.7021484, -1.1445312, -1.8925781, -0.71191406, -0.68115234, -0.88720703, 1.6982422, 0.7416992, 0.8364258, -0.61083984, 1.6113281, 0.2890625, -0.01777649, 0.9663086, 0.8129883, -0.31298828, -0.8618164, 1.6044922, 0.08062744, 1.6992188, -0.51464844, 0.020568848, 1.0810547, 1.4140625, -2.6875, -0.19604492, 1.1601562, 1.5, 1.1533203, -2.9609375, 0.94628906, 1.1025391, -1.5800781, -0.17578125, -1.1630859, -1.0771484, 2.8671875, 1.5371094, 2.4707031, 0.5336914, 5.9023438, 2.3125, -2.1875, -3.0390625, -0.43896484, 0.20959473, -0.703125, -1.6123047, -0.8989258, -2.2597656, -0.74365234, -0.6191406, -1.5380859, -0.87841797, 0.6220703, -0.105285645, 2.0039062, 2.1777344, -1.0332031, 0.93408203, -2.921875, 1.375, -0.31445312, 0.43310547, 2.0019531, 0.32006836, 0.6982422, 2.0253906, -0.8227539, -2.0566406, -2.0175781, 0.61376953, -0.25561523, -1.1113281, 0.38500977, 0.8100586, 2, 1.2587891, -0.12573242, 0.99121094, -1.3457031, 0.50927734, 0.8276367, -0.30639648, 2.4257812, -0.17150879, -1.1679688, 1.4902344, -0.02810669, -0.34179688, 1.4804688, -0.6196289, 0.21374512, 1.171875, 0.89990234, 0.4387207, -0.4934082, -0.70458984, 0.42529297, -1.4628906, 0.3095703, 1.0771484, -1.1328125, 0.29663086, 1.015625, 0.6274414, 1.2324219, -0.38623047, -0.059906006, -0.984375, -2.8476562, 1.3847656, 0.10925293, -0.44189453, 1.9609375, -1.3359375, -1.7607422, -0.05078125, 1.5078125, -0.0059394836, -0.47631836, -0.026657104, 1.9257812, -0.7758789, -1.0097656, 2.28125, -0.42504883, -1.8271484, -0.7973633, -0.6044922, -1.0273438, 2.5976562, -2.2949219, 3.6191406, 0.6274414, 0.55908203, 2.2382812, -0.17041016, -0.41357422, -0.66064453, 0.73876953, 0.4074707, 0.8647461, -2.5429688, 0.3684082, 1.3886719, -1.3662109, 0.89746094, -0.9165039, -0.02720642, -1.3105469, -0.82958984, -0.7397461, -1.0458984, 0.77001953, -0.27661133, -0.7519531, -1.5673828, 2.6113281, 0.98339844, -3.6972656, 0.8100586, 1.4101562, 1.1660156, -0.15209961, -1.4814453, 0.41064453, -0.14953613, 0.4609375, 0.20800781, -1.1640625, 0.6152344, -1.1826172, -2.3847656, 1.2402344, -0.34643555, 1.1767578, 0.7060547, 0.48095703, -1.0615234, -0.05380249, 2.3339844, 1.0576172, -2.1601562, 0.5878906, 1.3095703, 0.042022705, -0.19580078, 0.57714844, 0.60839844, -0.2553711, -0.10211182, -1.2958984, 0.7529297, -0.55029297, 0.7998047, -0.6879883, -0.3630371, 1.3359375, 2.8378906, 0.26513672, -0.7348633, 0.16003418, 0.79785156, -0.66845703, -0.4567871, -0.53222656, 1.8310547, -2.7832031, -2.1464844, 2.4726562, 1.0205078, 1.3613281, -1.9511719, -1.5283203, 0.43920898, 0.3671875, -0.37182617, -0.5708008, 0.53515625, -1.0751953, 2.4140625, 1.5917969, -0.81591797, -0.33740234, -1.5205078, 0.44091797, 1.4726562, 0.09466553, -0.49780273, 1.8769531, 0.24121094, -0.7939453, -1.3886719, 2.4863281, -1.1875, -0.5786133, 1.6787109, 4.296875, 0.14660645, -0.0690918, 1.5859375, 1.25, 1.3769531, -2.1523438, -2.8671875, 1.5488281, -1.5537109, -2.7207031, -0.11413574, 0.47192383, 0.86035156, 2.0722656, -0.7753906, 1.5, 1.2744141, -1.8076172, 0.35083008, -0.84716797, -0.9824219, -1.3173828, -1.2792969, -0.41674805, -0.46704102, 0.86621094, -1.0458984, 0.004131317, -1.1708984, 0.18469238, -0.3095703, -0.47802734, -1.4482422, 2.8847656, 1.3808594, -1.1992188, -0.7480469, -0.9057617, 0.60058594, 1.4814453, 0.06640625, 0.16601562, -2.5058594, -1.0898438, -2.7949219, -3.0371094, -0.64160156, 1.4248047, 0.88134766, 2.4257812, 2.1796875, -0.77783203, 1.3574219, -0.96484375, -0.6982422, 0.15637207, -0.16931152, 0.3232422, 0.103149414, -1.3808594, 3.9023438, 0.04699707, -0.07928467, 0.9526367, -0.4951172, -0.21166992, 0.8144531, 0.4074707, -0.070617676, 1.1279297, 2.5449219, -1.890625, 3.1464844, -1.5019531, -0.06976318, -0.5786133, 1.1376953, -0.65527344, 1.5507812, 0.20666504, -0.8383789, 2.2519531, 0.033111572, -0.9692383, -0.085998535, 1.7275391, -2.2539062, 1.1650391, -2.1289062, 2.4042969, 0.36401367, 0.80566406, -0.43847656, 0.90478516, 1.40625, -0.123046875, -1.2236328, 0.76171875, 2.3261719, 0.67529297, 0.38256836, 0.44970703, 1.2041016, 1.5039062, -0.14904785, 1.3476562, -1.2363281, -1.8398438, 0.9375, -2.3808594, 1.7958984, -0.4033203, 0.15808105, -0.14929199, 0.27856445, -0.13842773, -0.06945801, 0.26171875, 0.44580078, 1.0585938, -1.3769531, -0.28076172, 0.39868164, 2.0429688, 0.99658203, -0.97802734, 1.84375, -0.03237915, -0.5649414, -0.2130127, -0.21813965, 1.3710938, -0.3779297, -0.51708984, -1.0849609, -0.10107422, 1.0517578, -1.0029297, -0.57910156, -0.24890137, 1.5527344, 0.60498047, 0.31860352, 1.0869141, -0.13439941, 0.37768555, -0.03262329, -0.09234619, -0.2631836, -0.3112793, -0.12756348, -0.7338867, -0.9189453, 0.8979492, 1.3974609, -1.6210938, 0.38330078, -0.07128906, 1.1474609, 1.7597656, 1.5527344, -0.49072266, -0.2998047, 0.2800293, -1.3798828, -0.69873047, -0.78515625, 1.6826172, -0.25, -0.13891602, 0.89990234, -1.0605469, 1.2792969, 0.6855469, 0.53808594, 0.24645996, -0.0791626, -0.9711914, -0.017333984, 3.7226562, 1.1855469, -1.6318359, -0.76708984, -1.3603516, -0.23828125, -0.34326172, -0.50097656, 0.9091797, -0.42651367, 1.2597656, -0.9658203, 2.0722656, -1.6669922, -0.122558594, 1.3173828, 1.7158203, 0.7758789, -0.50683594, -0.20117188, 0.5605469, -0.5131836, 0.98876953, -0.4543457, 2.4199219, 1.0205078, 1.5029297, -3.0097656, 0.10821533, 0.10675049, -0.1159668, -2.1054688, -1.0546875, -0.99316406, 0.6826172, 0.16931152, -1.9423828, 0.45776367, 0.08984375, -2.5019531, -1.1054688, -1.2558594, 0.6254883, 0.26757812, 0.30664062, -0.19812012, -0.53222656, 0.48583984, -1.4091797, 3.3125, -0.6567383, -0.9658203, -0.15429688, -1.3740234, -0.38208008, 2.0566406, 3.2988281, 2.3691406, 0.08081055, -0.13452148, -2.6777344, 2.5878906, -4.65625, 0.6875, 1.7109375, 0.6098633, -1.6699219, -0.8647461, -0.10498047, 1.0273438, 0.62841797, 1.3447266, 0.51904297, -1.3583984, -3.6621094, 0.76123047, -0.6669922, -1.40625, 0.5385742, -0.78125, -0.76953125, -0.6616211, -0.2705078, -1.75, 2.3183594, -0.9628906, 0.24279785, 1.0800781, -1.7128906, 1.0126953, -1.6757812, -1.1298828, 1.2548828, -0.10668945, 0.32788086, 0.8833008, -1.0576172, -2.7890625, -2.4296875, 0.68066406, 0.40234375, -1.8173828, -0.81152344, 0.44970703, -0.090026855, -1.1455078, -2.3203125, -0.12817383, -1.4785156, -2.4785156, -0.53808594, 1.7548828, -0.15893555, -0.28515625, 0.34716797, -0.23242188, 1.5957031, 1.7900391, 1.375, 0.62402344, 0.45654297, 1.3056641, -1.7275391, -1.3349609, 0.17041016, 1.1357422, 2.0820312, 0.5175781, 2.2265625, -0.9033203, -1.1669922, -0.7207031, 0.58740234, 2.015625, -0.8466797, -1.0117188, 1.9121094, -0.40600586, 0.44750977, 0.9428711, -1.4707031, -0.65966797, 1.1425781, -1.7451172, 1.1308594, 0.30541992, 0.13635254, -1.8271484, 1.2392578, 1.1298828, 0.48779297, -0.045928955, -0.3486328, -1.3095703, 0.20166016, -0.44140625, -0.62841797, -1.1503906, 0.6899414, -0.15112305, 1.1240234, -0.59765625, -2.1347656, -0.022415161, -1.0146484, -0.28588867, -2.1914062, -0.55078125, 0.039733887, -0.51123047, -2.3847656, -0.66308594, 0.041870117, -1.3603516, 1.2080078, 2.8847656, 0.082458496, 0.5654297, -1.0878906, -1.09375, -0.3371582, -2.109375, 1.3007812, 0.19140625, 0.095703125, -1.7509766, 0.9790039, 1.7890625, 0.4272461, 0.1694336, 0.76416016, -1.4453125, -0.25048828, 0.07611084, 0.76123047, 1.5097656, -2.234375, 0.1928711, 0.9716797, 0.65966797, -0.1776123, 1.0458984, 2.6699219, -1.7099609, 1.890625, -0.64697266, 1.2841797, -1.3173828, 0.5859375, -1.0576172, -0.49902344, 0.099121094, -0.038116455, 0.51171875, -1.0839844, 0.6611328, -0.72314453, 0.9614258, 0.3359375, 2.4296875, -0.08074951, 0.60595703, 0.66748047, 0.8925781, 0.23168945, -1.9892578, 2.6484375, -0.9350586, 0.16418457, -1.4150391, 0.5336914, 2.734375, 0.66308594, 0.21032715, -1.71875, 0.9243164, 1.3710938, 0.4086914, -0.8046875, -0.43041992, 0.47753906, 0.37695312, -3.28125, -1.4150391, -2.3242188, -0.99658203, 1.5009766, -0.18408203, 0.39160156, -0.089782715, 1.2441406, 0.22094727, 1.1054688, -0.22888184, -0.9086914, -0.953125, 1.7226562, -4.59375, -0.2854004, 0.41479492, -0.43188477, -0.5698242, -0.39038086, -1.0996094, -0.45947266, 1.1201172, 0.040863037, 0.53125, -0.050476074, -1.2714844, 0.5517578, 0.9243164, 1.3837891, 1.171875, 0.46655273, -0.85839844, 1.2978516, 0.39013672, 1.0107422, -0.9790039, -2.2226562, 0.68066406, -0.5410156, -1.1230469, -0.5878906, 0.124572754, -2.9804688, -0.20617676, 0.42529297, 0.79345703, 2.0234375, -2.171875, -2.9453125, -0.7504883, 0.12902832, 1.7958984, 0.52197266, -0.06530762, -2.0117188, -0.058532715, 1.5, -0.30810547, -0.9658203, 2.8574219, 1.9228516, 0.7504883, 0.42211914, -0.46118164, -0.25561523, 0.5058594, -1.5498047, -0.53564453, 1.8359375, 2.0585938, 0.15905762, 0.045684814, 0.38842773, -0.33374023, -0.93652344, 1.0185547, 0.6196289, 0.3557129, 1.3300781, -1.0097656, -1.6142578, -1.7871094, 0.8613281, -0.98583984, 0.5805664, -0.6088867, -1.1162109, 1.8271484, 0.4296875, -0.09814453, 0.2824707, 0.41503906, -1.4150391, -1.5625, 1.1894531, -0.33154297, -0.90771484, -0.7163086, 1.6142578, 2.4882812, 0.16882324, 0.33129883, 1.0136719, 0.09240723, 0.7368164, -0.056030273, 0.5551758, -1.9667969, 0.36499023, 0.8457031, 1.6152344, 1.5341797, 0.9482422, -1.5224609, -0.047027588, 0.37695312, -1.6503906, -0.328125, -0.18835449, 0.05291748, -0.19006348, 0.45385742, 1.4951172, 1.1152344, 0.6088867, 0.96728516, -2.2519531, 0.6176758, 1.0693359, 1.7705078, 1.1474609, -1.9140625, 1.3232422, 0.3515625, 0.13549805, 1.2089844, 1.3623047, 0.98046875, -0.8461914, -0.45507812, 0.04864502, -0.33081055, 0.5, -1.1201172, -1.2294922, -2.6191406, -0.11102295, 0.4699707, 0.04348755, 1.5292969, 3.3339844, 0.1862793, -0.89501953, 1.1533203, -0.5102539, 0.11621094, 1.3769531, 0.54345703, -0.6455078, -0.4543457, 0.75634766, 0.09729004, -0.027862549, -0.15563965, -2.2753906, -0.69970703, 0.6899414, -0.10180664, -1.7255859, 0.5024414, 0.26293945, 0.27124023, -0.45117188, -0.22192383, -3.3144531, 0.6098633, 1.8574219, 4.0273438, 1.8789062, 1.4316406, 0.27368164, -0.80566406, -0.7685547, -0.3762207, -0.62646484, -1.84375, 0.67822266, -0.23986816, 6.0234375, 1.0849609, 1.5458984, -1.0986328, -0.8388672, -0.26220703, 0.08154297, 0.11816406, -0.44335938, 0.6191406, -1.0917969, -0.099853516, 0.06384277, 1.1591797, -0.054992676, 0.50634766, -0.90234375, -1.2880859, -2.1523438, 1.0273438, 0.75683594, 1.5029297, -1.4179688, -1.2548828, 4.328125, 0.0435791, -0.40893555, 1.3886719, -0.3474121, -1.6601562, -2.4765625, 1.0234375, -1.3574219, 0.17102051, 0.036712646, -1.265625, 0.95703125, 0.07952881, -0.94873047, 0.57910156, 0.0848999, 0.22314453, -0.86328125, -0.53027344, 1.3066406, 0.0050735474, -0.6020508, -4.4492188, -0.54296875, 1.0087891, -0.5551758, 0.35546875, 0.105773926, -1.8398438, -0.5541992, -1.5976562, -0.03488159, 1.1298828, 2.0683594, 0.021560669, 0.09893799, -0.4921875, 1.453125, -0.27612305, -0.34545898, 1.6591797, 0.31982422, 1.078125, 0.17272949, 0.54833984, -1.5673828, 1.1269531, -2.125, 1.6757812, -3.4199219, 0.7890625, 0.36987305, 2.078125, -0.011680603, 0.4572754, -1.09375, -0.5288086, -0.7895508, 0.2565918, 1.1455078, -2.2324219, 1.2011719, 0.21826172, 1.7353516, -0.21594238, -0.81152344, 0.99560547, 1.8115234, -0.20263672, -0.7895508, 0.24072266, -1.3408203, -0.76220703, -0.4885254, -1.1738281, -0.03970337, 1.6884766, -1.7490234, 1.5722656, 2.28125, -0.013313293, 1.6484375, -1.7050781, -0.10546875, -1.9013672, 0.44921875, -0.80371094, -0.20141602, 2.859375, -0.20739746, -0.94433594, -1.6171875, 0.7368164, -1.9169922, 0.18920898, 0.7109375, 1.2392578, 0.20178223, 3.1933594, 0.79052734, -0.77001953, -0.6352539, 0.8413086, -0.7788086, -0.37548828, 0.89404297, 0.6269531, -1.0117188, 0.5756836, -0.12322998, 3.1347656, -0.765625, -3.0039062, 1.46875, -0.02671814, -1.8203125, 3.1582031, -0.5058594, 0.3203125, 0.984375, 1.7294922, -0.7207031, -1.3896484, 0.5751953, 2.6152344, -0.6982422, 1.7607422, -0.25195312, 1.2548828, -0.5620117, 0.3569336, -0.6357422, -0.61328125, -0.16101074, -0.07684326, 0.5151367, -1.1914062, -1.0332031, -0.15441895, -0.10864258, 1.9648438, 1.0107422, -1.5, -0.23303223, 0.26245117, 2.2480469, 0.07092285, 0.5864258, 2.3359375, -1.9082031, -0.20361328, -0.7661133, 0.22644043, -0.84472656, 0.5136719, -0.11639404, -0.8901367, 0.8461914, -0.4333496, -0.79785156, 0.16467285, 1.7060547, 0.99316406, 1.7939453, -1.1591797, -2.1484375, -1.3193359, -2.3378906, -0.13452148, 1.0371094, 0.020614624, -1.5292969, 0.81152344, 1.2373047, -2.1425781, 0.3010254, -0.9111328, -0.15698242, 0.023849487, -0.06591797, 1.3652344, 1.0166016, -0.040283203, -0.55566406, -0.057495117, 0.38745117, -0.30419922, -3.234375, -1.1699219, -1.5830078, 2.5683594, -0.86816406, 0.10437012, 2.0976562, 2.5625, -1.0712891, -0.04586792, 0.8779297, 0.33520508, 0.1829834, -0.8955078, 0.7675781, 0.5288086, -0.10131836, 0.6245117, 0.25830078, -0.33251953, -2.4804688, 0.65234375, 1.1689453, -0.7006836, 0.82910156, 1.4208984, -0.43530273, -0.046875, -0.05291748, 0.028503418, -0.67089844, -1.3027344, -0.7348633, 0.009033203, 1.2050781, 0.49658203, 0.5878906, 1.4179688, -0.96191406, 0.058532715, 0.23706055, 0.02659607, -0.33032227, 0.22167969, 0.20532227, 1.7666016, -2.0429688, -0.113098145, 0.9526367, -0.119384766, 1.5488281, -0.00819397, -1.6865234, 2.9707031, -1.2119141, -1.0556641, 0.7680664, 1.6210938, 0.46972656, -0.92626953, 0.81396484, 0.06390381, 0.8823242, 0.41455078, 1.6298828, 1.0673828, -1.1171875, 0.14453125, 0.60546875, -0.52001953, -1.0136719, -1.1914062, -0.11743164, -3.0605469, -0.1138916, -0.31323242, -0.49902344, 1.5810547, -0.12658691, -0.8378906, 0.28955078, 0.041992188, -1.2226562, 1.5576172, -0.22473145, 2.6855469, 0.6538086, 0.5361328, 1.6787109, -2.1699219, 0.22668457, 0.85546875, -1.2548828, 0.99316406, 0.18139648, -0.12414551, 1.5390625, -1.1748047, -0.79052734, 1.0576172, 0.20251465, 1.2070312, 1.7509766, 0.52197266, -0.32739258, 0.39233398, -0.79003906, -0.40234375, 1.6777344, -0.5083008, -0.6274414, -0.43115234, -0.52001953, -0.0826416, 2.3222656, -1.4140625, 0.9848633, 0.9663086, 0.64501953, -0.017456055, -0.9892578, -0.93066406, 0.5180664, -1.5341797, -1.5654297, 0.47705078, 1.015625, -1.8730469, -0.1303711, -3.9648438, -1.0751953, -1.4746094, 0.020965576, 1.5849609, -0.9526367, 0.12939453, 0.7373047, -0.15905762, 1.5517578, 0.9008789, -0.96728516, 1.0419922, -0.15563965, 0.5229492, -0.5263672, -0.95166016, 1.6357422, -1.28125, 0.9394531, 0.35620117, 0.34936523, -0.14453125, 1.7480469, -1.4599609, 1.5185547, 0.75683594, 1.2636719, 1.5585938, -0.4230957, -0.99560547, 0.20336914, -0.40161133, -0.41381836, 5.6679688, 1.390625, -0.25854492, 0.5151367, -0.6074219, -1.6953125, -0.24890137, -1.4443359, 2.4902344, -0.46826172, 5.5039062, -2.0722656, 0.057434082, -0.057159424, 1.4775391, 1.1894531, 0.51416016, -0.78466797, -1.3818359, 1.5224609, 0.38061523, -1.7304688, -0.67626953, 1.6699219, -0.7841797, -0.49560547, -1.9599609, -0.79052734, -0.74121094, 0.78808594, 1.2988281, -0.72558594, 2.1152344, 1.1318359, -0.0413208, 1.015625, -0.36450195, -0.78027344, 1.0947266, -1.3125, 1.2470703, -1.9667969, -1.5439453, -2.7929688, -1.7988281, 0.54248047, 2.9628906, 1.7333984, 0.24157715, 1.4228516, 0.6879883, -0.09338379, -1.0546875, -0.44873047, -1.1923828, 1.4033203, 1.1123047, -0.10479736, -2.1386719, -0.66308594, 0.30517578, 2.0234375, -1.3476562, -0.25317383, -1.3564453, -1.1777344, 1.5058594, -0.6586914, -1.234375, 0.107299805, 0.99316406, 1.0371094, -0.8330078, 0.24047852, -2.1835938, 1.46875, -1.1689453, 0.8510742, 0.031921387, 0.54296875, 3.6972656, 1.6015625, -0.6538086, -1.6933594, -1.8378906, 1.3867188, -1.3789062, 3.9160156, 0.42382812, -0.7324219, 0.34448242, -1.7978516, -0.6586914, 0.62890625, -0.2199707, -0.48461914, -1.7792969, -0.9223633, -0.43701172, 0.7133789, 1.1425781, 0.6015625, 1.15625, -1.1708984, -0.8574219, -2.9160156, 1.8330078, -0.8486328, -0.13452148, -0.7988281, -1.0595703, -1.3984375, 1.5849609, -1.0458984, -1.2148438, -0.41503906, 1.1953125, 0.038116455, -0.12695312, 0.28125, -0.31152344, -2.0566406, -1.1425781, -1.234375, -1.4208984, -0.36132812, 0.38354492, 4.3398438, -2.4160156, -1.8994141, 0.20324707, -0.8100586, 0.25390625, 0.12963867, -0.12005615, 0.6225586, -1.4208984, 2.6914062, -1.4765625, -0.90771484, -0.62939453, 0.9145508, 0.11401367, 1.2363281, 0.051086426, -0.5756836, -1.3945312, 1.3886719, -1.6308594, 0.5336914, -0.58691406, 0.03274536, 2.0957031, -0.06793213, 0.8310547, 1.1816406, 0.6333008, 0.58154297, 2.96875, 0.2841797, 3.5, -0.80908203, -0.3232422, 0.27075195, 0.6777344, -1.1660156, 0.09552002, 0.24255371, 0.35009766, -1.7148438, -1.4238281, -1.1298828, 0.85058594, -1.2558594, 0.90234375, 0.765625, 0.4609375, 0.5097656, -2.46875, 1.1318359, -1.3837891, -1.4042969, 0.625, 0.35986328, 0.8574219, 0.5083008, -0.50439453, -0.6459961, -0.94970703, 3.1074219, -0.5083008, -0.70654297, -0.5786133, -0.57666016, -1.2138672, 1.1591797, 1.6972656, -0.33691406, 0.46777344, -2.3808594, -1.53125, -0.44458008, -0.82714844, 0.56152344, 0.39379883, -0.45947266, -1.3125, 0.27514648, -0.4074707, -1.1181641, 0.65771484, 0.10809326, -0.6845703, -1.5449219, -3.1894531, -0.9472656, 0.13989258, -0.113586426, 0.8798828, 1.5644531, 1.3173828, 1.265625, -1.4609375, -1.9873047, 2.9277344, -0.022033691, -0.9482422, -1.8173828, 2.0605469, 0.8774414, -3.421875, -1.5664062, 1.6074219, 1.7080078, -1.7148438, 0.9267578, 0.2524414, 0.63183594, -2.984375, -0.43969727, -1.328125, -0.68310547, -0.7709961, 1.0683594, -0.33325195, -0.83251953, 1.2744141, -0.019821167, 1.1669922, 0.9321289, 0.52783203, 0.001616478, -1.2617188, -0.07116699, 1.6611328, 1.7548828, -1.2988281, -0.9135742, -1.03125, -0.13110352, 0.028060913, -1.0195312, 0.81396484, 0.72558594, -0.2619629, -0.7167969, 0.4423828, 0.45458984, -1.3066406, -1.9521484, 1.5859375, 0.1451416, -1.7363281, 1.7617188, 1.5332031, -1.0332031, -1.1621094, -0.17358398, 0.07733154, -0.76220703, -0.8251953, 1.109375, -0.9394531, -0.73779297, -3.7714844, -0.47436523, -1.1660156, -0.43896484, -0.47094727, -0.20117188, 0.16992188, 0.33813477, -0.027908325, 0.083984375, 0.1743164, 1.2177734, 2.8535156, -0.97802734, 1.2451172, 1.1386719, -1.4492188, 1.546875, -1.1181641, -1.546875, -0.5390625, 1.6816406, -2.4472656, 0.3046875, -1.1933594, -2.4082031, 0.2319336, -0.2512207, 1.5957031, 0.8120117, -1.7744141, 1.1875, -1.90625, -0.8100586, -2.0625, -0.61035156, -0.578125, -1.0322266, 1.0195312, -1.1279297, -0.6040039, 0.18249512, -1.5976562, -1.6416016, 1.0488281, 1.2070312, 3.9609375, -1.3544922, 0.6850586, 1.2236328, -0.11090088, 0.25683594, -1.8271484, -2.1484375, 0.20922852, 1.2314453, -0.55126953, 0.56103516, -3.4667969, -1.4833984, -1.0458984, 3.9609375, 0.6850586, 0.23352051, -1.6416016, 1.3740234, -0.81347656, -0.6879883, -0.89697266, -1.6435547, -1.6816406, -1.5732422, -0.4074707, -0.27929688, 0.6220703, 0.28125, -0.95410156, 0.11029053, -1.4667969, 1.59375, 0.74658203, 0.71240234, -0.19238281, 0.7910156, 1.9169922, -0.62890625, 0.9506836, 1.3046875, 0.70214844, -1.9453125, -0.30297852, 1.6357422, 1.6640625, -0.8798828, 0.14221191, 0.27026367, -0.4609375, 0.42700195, 1.6650391, -1.4375, -0.4873047, -0.6850586, -1.1933594, 0.578125, 1.2734375, 0.5649414, 0.20568848, -0.64160156, -0.084350586, -0.6821289, -0.11126709, -1.2587891, -0.29296875, 1.4638672, -0.21191406, -0.1616211, -2.2226562, -0.73828125, 0.5180664, -3.078125, -0.5390625, 0.28027344, 0.48242188, -0.9350586, -0.49560547, -0.83740234, 0.41430664, -4.0234375, 1.0175781, -0.9472656, 0.32080078, -1.0488281, -1.6181641, -0.40161133, -3.1015625, -0.031982422, -0.8120117, 0.46923828, 0.13085938, 0.055664062, 2.2871094, 1.4130859, 0.7817383, 2.3789062, 0.3251953, -0.9658203, 0.06604004, -0.08758545, -1.9667969, 0.7368164, 2.0292969, 1.75, 0.85498047, -1.9326172, 0.07446289, 0.024276733, -0.72021484, -1.1445312, 0.88720703, 1.2402344, -1.6972656, -1.8525391, 0.5488281, -3.8632812, 0.04763794, 3.2734375, 0.17102051, 1.1083984, -1.4355469, -1.2392578, 1.1328125, -1.6689453, -0.7133789, 1.46875, -0.4555664, -1.4902344, 1.046875, 0.49291992, -1.2763672, 0.051483154, -0.8339844, 3.1796875, -0.7675781, 0.09710693, 0.45166016, -1.4853516, -0.62109375, -0.9692383, 0.36523438, 0.9892578, -0.04714966, -2.5449219, 2.1542969, -1.1552734, -0.6977539, -1.1513672, -1.5673828, -2.1230469, 0.7368164, 1.6015625, -0.95751953, -1.2822266, -0.80566406, 2.4824219, -0.6254883, 0.67626953, -0.16418457, -2.0800781, -0.32226562, -0.49609375, 0.41577148, 0.8730469, -2.1601562, -1.5664062, -1.5703125, -1.0224609, -1.4228516, -1.2158203, 3.9960938, 1.703125, 1.6542969, -2.2832031, -0.024505615, -1.5478516, -2.8984375, 0.43725586, -0.5209961, 0.24365234, 0.024520874, 0.67089844, 0.43896484, -1.6826172, -2.2890625, -0.7470703, 2.0039062, -1.1152344, 0.43115234, 0.8911133, 1.2138672, -0.97802734, -3.1699219, -1.0048828, 0.28588867, -1.1337891, -0.080200195, -1.1982422, -0.85498047, 1.1064453, 2.5507812, -1.4150391, -0.97265625, -1.2041016, -0.6899414, -0.45996094, -1.4482422, -1.5351562, 0.24291992, -1.25, -1.1914062, -1.9121094, -0.05984497, 0.50683594, -0.054351807, -0.4309082, 1.2265625, -1.4365234, 0.11608887, 0.059631348, 2.4746094, 0.625, -1.2646484, 0.23059082, 0.35302734, 0.95703125, 2.0273438, -2.0917969, -2.3320312, 0.9848633, -0.31054688, 0.8120117, 0.6069336, -0.14770508, 0.49609375, -2.0351562, 0.8911133, -0.89941406, 0.1586914, -0.40112305, 1.9960938, -0.5263672, 1.09375, -1.2363281, 1.71875, 0.8515625, 1.7246094, 0.7548828, -0.7241211, -1.5136719, -0.4128418, 1.7832031, 0.11584473, 1.125, 3.0722656, -0.89941406, 0.10827637, -0.061065674, 1.4472656, -0.3671875, 0.48242188, 2.1699219, -0.73828125, 0.41259766, 1.1640625, -1.1386719, -0.9350586, 1.2900391, 1.0556641, 0.13208008, 1.7373047, -0.119262695, -2.1035156, -0.34228516, -0.93310547, -1.265625, -1.1796875, -0.35717773, -3.2148438, -0.56884766, 0.57373047, -0.6977539, -0.11004639, -0.06982422, -4.2460938, -2.3359375, 0.20715332, 2.6875, 0.4272461, -0.4165039, -2.4082031, -0.49682617, -0.11804199, 0.3857422, 0.50439453, -3.4804688, -0.03378296, 1.3007812, 0.38598633, 0.003408432, -0.44702148, 0.4243164, 0.47973633, -1.4169922, 1.1503906, -0.19726562, -3.1621094, 0.14379883, 0.06100464, 0.79589844, 0.6479492, -0.6933594, 0.81347656, -0.008155823, -0.33032227, -0.82177734, -0.92871094, -2.3105469, 0.68359375, -0.2692871, 3.6875, -1.1523438, -2.0429688, -2.6660156, 0.30029297, 0.043121338, -2.328125, 0.5214844, 2.1035156, -1.5039062, 0.7246094, -0.0043754578, 1.1787109, 0.62353516, -0.49609375, -0.66796875, -0.94384766, -0.034179688, 1.3447266, -1.03125, -0.5126953, -0.51123047, 0.095825195, -1.5830078, 0.35546875, 1.5263672, -1.1357422, -1.8417969, 0.6958008, 1.0244141, 1.0341797, -0.66015625, -0.87158203, 0.36206055, -0.3737793, 1.3769531, 1.5048828, -0.23791504, 1.375, 1.28125, 0.4416504, 1.1318359, 1.0322266, 1.5429688, 0.15222168, 3.1523438, 0.41601562, -0.7709961, -0.6020508, -0.5961914, 0.9716797, -0.79589844, 0.83740234, 0.68066406, -1.9169922, -0.27392578, 0.52685547, -0.93847656, 1.9082031, 1.6679688, -0.12536621, 2.8125, 1.3779297, 1.2382812, -0.8354492, 0.17993164, 0.78027344, -0.67529297, -0.039215088, -0.24621582, -1.4628906, 0.14782715, -3.0800781, -2.0273438, -1.2597656, -0.76904297, 1.3144531, -0.5473633, -0.7480469, -0.69873047, 2.8261719, -0.09112549, 1.0351562, -0.3491211, 0.21691895, -1.2783203, 1.0146484, -0.43481445, 1.6484375, -0.515625, 0.31201172, -0.8183594, 0.8149414, 1.03125, 0.4736328, 0.36547852, -0.58691406, 1.0283203, 0.21838379, 0.3786621, 0.2626953, 0.63916016, 1.7900391, 0.24560547, -0.52783203, 0.62060547, 1.3798828, -1.6523438, 0.34814453, -1.9667969, -0.44458008, 1.0693359, 0.026290894, -0.49682617, 0.5239258, 0.30029297, -1.3027344, -0.16015625, 0.671875, 0.13098145, -1.5302734, -1.0869141, 0.21484375, -1.5439453, -0.8989258, -0.66796875, 0.05682373, -0.33911133, 0.6230469, 0.82714844, -1.671875, 0.38012695, 1.4619141, 1.0800781, 0.41845703, 0.013290405, -1.5898438, 1.5341797, -0.41625977, 0.55078125, -0.7685547, -0.640625, -0.7519531, 1.5087891, 0.2409668, -1.15625, 0.36987305, 1.6787109, 1.4990234, 0.93115234, -0.4387207, 1.3261719, -0.19482422, -0.19958496, -1.1025391, -0.86328125, -2.1230469, 0.9658203, 1.7138672, -0.114746094, -0.2980957, -0.67089844, -1.1181641, -0.7451172, 0.9091797, -0.077697754, -0.9506836, 1.2861328, 0.9223633, -0.116882324, 0.18103027, 0.93408203, 0.74121094, 1.0576172, -1.8017578, 0.8535156, -0.24865723, 1.0302734, 1.8134766, -1.6601562, -1.0439453, 0.78564453, 1.8203125, -0.35424805, 0.8642578, 0.07196045, -1.4423828, 2.8339844, -0.06390381, 0.3388672, -2.9042969, -2.1171875, 0.9135742, -0.5361328, -1.4707031, 0.93310547, -1.6474609, 0.094177246, -0.91552734, 0.24145508, 0.43676758, 1.9101562, -0.4560547, -0.33691406, -1.3613281, -0.83203125, 0.45507812, 0.08453369, -1.046875, -1.6650391, 0.6069336, -0.11968994, 1.1240234, -0.054901123, -1.8837891, -1.2597656, -0.62841797, -0.13696289, 1.9208984, -1.6132812, -0.51660156, -0.57958984, -0.40649414, -1.7451172, 2.5625, -1.8818359, 0.59716797, -0.15209961, 0.72021484, -0.703125, 2.9726562, 0.070129395, 0.010986328, 1.1181641, 1.1591797, -3.0429688, 0.2409668, 1.1035156, -1.2080078, 2.0273438, -0.9526367, 1.2363281, -1.3652344, -0.46606445, 1.0117188, -0.21057129, -1.1650391, -0.47851562, -0.33862305, 1.4189453, -1.9580078, -0.61328125, -1.7910156, 0.9399414, 0.18823242, -6.5195312, 1.7539062, -2.1855469, 1.3369141, 1.3857422, 1.15625, 1.2617188, -0.5625, -0.60498047, 1.8818359, 0.2866211, -1.0634766, -0.9682617, 2.8847656, -0.40673828, -1.4814453, 0.18786621, -1.5292969, 1.2216797, -0.92089844, 0.79541016, -0.4296875, 5.21875, -1.2578125, -1.6914062, -0.7758789, -2.5546875, -0.75634766, -1.6572266, 1.8066406, 0.47973633, 0.57177734, -2.5039062, 1.5009766, 1.7998047, -0.33422852, 3.0703125, -0.46972656, -0.75878906, 1.6933594, -0.89990234, -1.0683594, -0.1607666, -0.6225586, -0.3918457, -0.40722656, -0.56152344, -3.2675781, 0.029373169, -1.5253906, 1.1875, 0.36914062, -1.4306641, 0.3474121, -0.5292969, 1.3173828, -0.43115234, 0.9550781, 0.7890625, -0.3173828, 2.7070312, 2.3554688, 2.5390625, 0.6542969, 0.26098633, 1.3779297, -0.08178711, -0.93310547, -1.1425781, -0.039245605, -0.81396484, 1.0009766, -2.9199219, 1.1572266, -1.6923828, 1.4736328, 0.23522949, 0.20422363, 0.4802246, -0.15563965, 0.52001953, -0.65283203, -1.9599609, -0.7363281, 1.0849609, 1.9404297, 1.5859375, 0.101501465, 1.8183594, 0.37768555, -1.4501953, 0.5727539, -0.82910156, 1.6943359, 3.2167969, -0.50683594, -0.8774414, 0.50683594, -1.4042969, -0.48095703, -2.2285156, 0.984375, -1.7636719, -0.42163086, 0.7163086, -0.48291016, 0.012763977, 0.116760254, 0.4543457, -0.40673828, 0.010787964, -0.4362793, 0.9223633, 0.66503906, 0.4260254, -0.23901367, -0.08929443, 2.4902344, -2.6621094, -0.30908203, -0.5161133, 1.5039062, 0.99121094, -1.0859375, 0.7783203, 0.71191406, -0.24450684, -3.7851562, 1.9912109, -2.2382812, 0.6113281, 1.2724609, 0.35180664, 0.16125488, -1.7587891, -0.19226074, 0.50683594, 0.2783203, 1.09375, 1.3164062, -2.1855469, -0.79248047, -1.5732422, -0.92333984, 0.89501953, 1.0771484, -0.9003906, -3.3945312, 0.984375, 0.828125, 1.2197266, -1.136</t>
-  </si>
-  <si>
-    <t>[1.0585938, 0.7451172, -0.8598633, 0.6147461, 0.26464844, -1.2705078, 0.32055664, -0.22509766, 1.3681641, -0.53759766, 0.79589844, -1.3945312, 0.39526367, -1.4365234, 0.60009766, -1.1220703, 1.8125, -0.13146973, 0.265625, -0.59472656, -0.62060547, 2.5019531, 1.8691406, -1.4160156, -1.7783203, 1.5410156, 0.23547363, -3.6679688, 0.14001465, -0.032714844, 0.1665039, 3.109375, -0.63671875, 0.8105469, -0.62158203, -0.24536133, -0.7426758, -0.8041992, 0.40966797, 0.5292969, 0.60009766, 1.4160156, -0.24536133, 0.3581543, -1.3544922, -0.6533203, -2.1484375, -0.0027866364, -0.45703125, -2.0683594, 1.7421875, 0.5839844, 0.6435547, 1.7119141, -0.73828125, 0.21472168, 2.2402344, 0.42041016, -0.072387695, 0.74902344, 0.87158203, 0.8232422, -1.2138672, -1.4443359, -1.734375, 0.6928711, -1.8027344, 1.7128906, -1.4267578, 0.68115234, 0.5966797, 1.0761719, -0.26342773, 0.54589844, 2.515625, 0.43920898, 1.1113281, -0.62890625, -1.6386719, 1.3994141, 1.6845703, -0.43164062, -2.7167969, 2.9003906, 0.31591797, -1.2519531, -1.1503906, -1.9775391, -1.1181641, 0.8457031, 1.1660156, 0.033599854, 0.61328125, -2.1484375, -0.53564453, -0.51416016, 1.2138672, -1.7216797, 1.9365234, 1.5380859, -0.29370117, 0.20129395, 1.6621094, 0.9277344, 0.5371094, 2.6699219, -0.72314453, 0.0024986267, -1.3945312, -1.390625, -0.13098145, -3.3320312, -0.7441406, -0.89404297, 0.030532837, 1.7353516, -1.0322266, -0.7104492, -1.2255859, -3.9492188, 0.008224487, -0.22253418, 0.71533203, 0.7133789, 0.5209961, -0.36132812, -0.56591797, -3.0722656, -0.77246094, 0.87890625, -0.70996094, 0.4104004, 2.6113281, -1.1943359, 3.515625, 2.0390625, 1.2480469, -0.085632324, 1.2949219, -1.2841797, 1.578125, 1.3300781, -0.17211914, 3.2675781, 0.11517334, -1.1591797, 1.4589844, -0.29663086, -1.0136719, -0.76416016, -0.6538086, 0.015731812, -2.2011719, 0.9291992, -1.5332031, 1.4765625, 0.14416504, -2.0644531, 0.5097656, 2.0195312, 0.97509766, -0.5444336, 1.8183594, -1.1074219, 2.9296875, 0.1965332, -0.06512451, 1.8583984, -1.7275391, -1.9599609, 1.2216797, -0.63427734, -0.60253906, 0.7578125, 0.5229492, -1.3105469, 0.19116211, -1.0263672, -0.8823242, 0.2019043, -0.2939453, -2.0078125, 0.3095703, -0.7128906, -1.8388672, -0.47143555, 0.80859375, -0.48120117, 1.4794922, 0.46899414, 0.19396973, -1.4941406, -1.3554688, -0.23547363, -0.4621582, 1.1757812, 0.6513672, -1.3408203, 4.7265625, -0.91552734, 0.77441406, -0.093811035, -0.18237305, -0.16442871, 0.4597168, 1.8916016, -0.31420898, -0.8232422, -1.0615234, -0.3334961, -0.82421875, -1.5810547, 0.30566406, 0.5800781, 0.5527344, 0.9536133, -0.5, -0.5551758, 0.034698486, -1.8535156, -0.60058594, -3.0136719, 1.4853516, 2.1210938, -0.75878906, 1.4453125, -1.5332031, 0.8144531, -1.2978516, 0.3173828, 1.2958984, -1.4931641, 0.32299805, 1.3837891, 0.07989502, 1.9589844, -0.05340576, 1.9892578, -0.08770752, -1.1318359, 1.3847656, -0.08880615, -1.4052734, 0.8120117, 1.6894531, 1.1279297, -2.2734375, 0.49365234, 1.1650391, 0.19714355, 0.064819336, 0.08154297, 0.44262695, 1.1445312, -0.25634766, -0.01737976, -0.84375, -0.55566406, 0.001909256, 1.2285156, -2.2246094, -0.1081543, -0.9472656, 0.35205078, 1.4189453, 1.4482422, -0.89501953, 1.5136719, 1.1738281, -0.73779297, -0.18652344, 0.8598633, 4.1445312, 0.43188477, -2.3691406, -0.37573242, 2.8925781, -1.0019531, -2.4257812, 0.7060547, -0.7392578, -0.22387695, 0.31030273, 1.5253906, 1.2216797, -1.609375, -1.7197266, -1.0498047, -1.5625, 0.5629883, -0.58447266, 0.075805664, -0.7114258, -3.2929688, -0.4399414, -0.5463867, -2, -2.4726562, 0.06311035, -0.6772461, -1.3310547, 0.6303711, -0.3540039, 0.38427734, -1.1923828, 0.36083984, 1.7197266, 0.8178711, -0.51171875, -0.72558594, 0.09442139, 1.5029297, -1.1982422, -0.39038086, -1.2304688, -2.0507812, -0.77246094, 0.9404297, 0.43359375, -1.7646484, -2.5039062, -2.8398438, 0.23425293, 0.26708984, -1.6181641, -0.9189453, 1.4853516, -1.6591797, 1.2197266, 0.10083008, 1.3720703, 1.2285156, -2.1210938, 1.8994141, -1.0771484, -0.5571289, 0.47485352, 3.203125, 0.36816406, -1.0439453, -2.8945312, 2.5078125, -1.2792969, -0.6796875, -0.8510742, -0.6176758, -0.62353516, 0.49926758, -1.0283203, 0.5649414, -0.1817627, -0.057617188, 0.7163086, 0.80078125, 0.33447266, -0.18945312, 3.7792969, 0.40966797, -0.87890625, -0.18566895, 1.5898438, 1.2177734, -0.3684082, -0.08081055, -1.7607422, 1.8203125, 0.5878906, -0.72314453, 0.7832031, -2.3535156, 0.0051345825, 1.53125, -0.72314453, -0.24938965, -0.40893555, 0.91259766, -0.57666016, 1.3037109, 2.9101562, -1.4316406, 2.59375, 0.5073242, -2.2578125, 0.5073242, -3.5917969, -0.69433594, -0.72753906, 0.1418457, 1.0478516, 0.17224121, 1.5546875, -2.0722656, -0.56347656, 0.6611328, 1.2158203, -0.93408203, 0.61572266, 2.7109375, -1.6103516, -2.3085938, -0.046661377, 0.2578125, -1.0019531, -0.62402344, -0.49438477, 1.1171875, -1.0878906, -0.69970703, 0.98095703, -0.082458496, -0.05618286, -1.609375, -1.0322266, -0.32202148, -1.3105469, -1.0234375, -1.8554688, 0.42871094, -0.87109375, -0.42871094, 0.05166626, 0.9165039, -0.5708008, 2.3457031, -1.234375, -0.23583984, 0.37817383, 0.25219727, -2.5234375, 1.2568359, 0.4482422, 2.6367188, -1.0693359, 2.0253906, -0.32177734, -1.6660156, 0.6176758, -0.3605957, 0.11376953, -0.65966797, 1.2109375, 0.875, 1.0019531, 1.0751953, 0.4951172, 2.890625, 0.45263672, 0.40625, -2.5898438, 0.37817383, -1.7871094, -0.35839844, 0.10107422, -1.2734375, 1.2412109, -1.3955078, 0.24584961, -2.2402344, -0.88623047, -0.06854248, 0.83496094, 2.3925781, -0.94677734, 0.98876953, -1.6845703, 1.2109375, 0.5996094, -2.1738281, -2.0742188, -1.0263672, -2.0449219, -0.29174805, -0.71240234, 0.6508789, -0.59521484, 0.7451172, -2.8925781, -0.45336914, -0.42822266, 1.8486328, -1.0693359, -0.88916016, -0.30786133, -0.15539551, 0.32910156, -0.85498047, 0.8286133, 2.8496094, 0.85595703, 0.38085938, -0.53564453, -0.55078125, -0.34960938, 1.0664062, 0.17480469, -0.70996094, 0.5097656, -0.27416992, 0.72265625, -0.5463867, 0.67578125, 1.9550781, -2.0332031, 0.66796875, 1.1396484, 0.08068848, 0.8046875, 0.27978516, 1.5058594, 2.0527344, 0.37939453, 0.7246094, 1.1533203, 0.44335938, -1.6738281, 0.6616211, 0.62841797, 0.50927734, 0.28076172, -2.359375, 1.0615234, -0.22375488, 0.1427002, -1.2001953, 0.8803711, 1.9121094, -0.8911133, 2.1171875, 0.06817627, 0.7832031, -2.5820312, 1.1396484, -0.36157227, -0.84716797, -1.6992188, 0.7753906, 0.484375, -0.9277344, -0.3017578, -3.3242188, 0.8334961, 0.7685547, -1.5712891, -0.6166992, 0.12121582, 1.0283203, 0.8432617, -0.58251953, -1.0712891, 0.7973633, -1.2177734, 0.24060059, -0.09246826, 0.19787598, 1.4345703, -0.6152344, 0.8535156, 1.9033203, -0.42919922, -1.0126953, -1.4628906, 0.37670898, -1.0947266, -1.2158203, -1.7148438, -0.76708984, 2.5644531, 1.0595703, 0.20422363, 0.9277344, -1.3955078, 0.0748291, 1.9619141, -1.7734375, 3.4042969, -0.29882812, 2.1757812, 0.7944336, -0.9584961, -0.9277344, 2.9257812, -0.09362793, 0.12536621, -0.6513672, 2.7578125, 0.5419922, -0.14367676, -0.11804199, 0.2548828, -0.6855469, -0.23522949, 0.3503418, -0.86865234, 0.68847656, 0.92333984, 1.5771484, -0.10601807, 0.07989502, 2.5097656, 0.46142578, 0.20129395, 2.6835938, -0.7060547, -1.0976562, 0.89160156, 1.5566406, -1.6064453, -2.0527344, 1.359375, 0.7944336, -1.2255859, 0.21850586, 1.1054688, -0.26708984, 0.6323242, 1.53125, 0.26342773, -0.3544922, -0.42089844, -1.1474609, 0.2076416, 2.2167969, -2.6855469, 1.7958984, -0.53564453, -0.24816895, -0.45141602, -0.79541016, -1.5322266, 0.08166504, 0.5175781, -1.0136719, -1.5556641, 0.9482422, 3.0878906, 1.4482422, -0.6801758, 2.5273438, -1.3300781, 2.015625, -0.56591797, -0.9814453, 0.6777344, -0.38671875, 2.4335938, -1.3056641, 1.2177734, -2.2890625, 3.078125, 0.8535156, -0.75683594, 0.9863281, -0.088378906, 1.5673828, -0.4506836, -1.5625, 0.014183044, 1.3574219, 1.1503906, -0.0848999, -2.5234375, 1.0419922, -0.86328125, -3.3632812, 0.93847656, 0.4868164, 2.0703125, -1.2207031, 0.05886841, 0.024810791, -0.62158203, 2.4902344, -1.7353516, -1.3632812, 0.8457031, 0.16064453, 0.9794922, 0.23522949, 2.4921875, 2.6269531, -0.43041992, -2.40625, -1.7265625, 1.7480469, -1.0722656, 0.3623047, 1.8710938, 0.78564453, 1.2490234, 4.5273438, 2.84375, -2.03125, 0.85009766, 0.9321289, 0.47485352, -1.0507812, -1.9501953, 0.8588867, -2.7636719, -1.2587891, 0.9472656, 0.55908203, 0.9946289, -1.4375, -1.3818359, 0.31420898, 1.4833984, -0.7080078, -1.6142578, 1.359375, -0.08526611, 1.6767578, 2.3574219, -0.19250488, 0.7919922, -0.28881836, 1.6074219, -0.61376953, -1.0449219, -0.29003906, 1.6689453, 0.31591797, 0.43676758, -1.4511719, 2.1796875, 1.5234375, -0.19006348, 1.4980469, -0.2758789, -0.7167969, -1.6699219, 0.28076172, -0.4326172, 0.7988281, 0.32543945, -1.6318359, 0.015586853, -0.9482422, -2.5644531, 0.40698242, 1.4511719, 3.125, 0.68066406, -0.80078125, 0.48608398, 0.062927246, -0.7167969, 1.3603516, 0.703125, -1.3007812, 0.48535156, -0.20385742, -1.2265625, 0.5839844, -0.20324707, -3.0097656, 0.047454834, -0.45654297, 0.60839844, 0.61376953, 0.034484863, -1.9462891, 5.2851562, -0.12634277, -0.58691406, -1.1816406, -0.20874023, -1.3232422, 0.10223389, -0.5161133, -1.8105469, -0.6821289, -0.041809082, -0.5595703, -0.24377441, 0.68408203, 0.053588867, 0.86621094, 0.6401367, 2.4082031, -0.28979492, -0.82177734, 0.048065186, -0.05609131, 0.73828125, 0.5810547, -1.4199219, 0.4326172, -1.9091797, 1.4697266, -1.3828125, 0.77783203, 1.4003906, -0.03894043, -2.0546875, -0.8178711, 4.0078125, -0.45141602, -0.89746094, 1.8984375, -0.4140625, 2.375, 1.2412109, -0.6254883, 0.31201172, 1.8691406, -0.7089844, -0.14538574, -1.0693359, -1.7802734, -0.39746094, -0.11395264, -0.9003906, 3.6210938, -0.07965088, -2.1074219, 1.8007812, -1.7822266, 0.61083984, -0.5283203, 1.6640625, 0.57421875, 1.8486328, 2.6308594, -0.03616333, -1.5390625, 0.8852539, 1.7607422, 0.5161133, -1.0195312, -0.31689453, -0.7080078, 0.9370117, -1.5878906, 2.7304688, -1.5556641, 0.054138184, 1.7470703, -1.7978516, 1.6796875, 0.12188721, 0.5439453, -0.22290039, 0.52783203, -0.1430664, -1.7070312, -1.2705078, 2.5039062, 0.4272461, -0.62353516, -0.31933594, 0.077697754, 1.1787109, 1.5166016, -0.8183594, -0.8647461, -0.7421875, 1.125, 0.29736328, 1.1064453, 0.45776367, 0.13964844, 2.3535156, -0.57910156, 0.72753906, 0.51904297, -0.05807495, -1.1201172, -0.7519531, 1.2197266, 2.0566406, 1.9726562, 1.7578125, -0.2783203, -0.0010948181, -0.9707031, 0.36743164, -0.8588867, -0.70947266, 1.7597656, -0.8564453, 1.1787109, 0.14367676, 0.5029297, 0.5522461, 2.1484375, -0.120910645, 1.0458984, 0.76171875, -1.0820312, 1.4414062, -0.5620117, 0.90625, 0.59765625, 0.79003906, -1.5498047, 3.2617188, -1.4335938, 2.5507812, 1.0878906, -2.03125, 0.7871094, 0.3857422, -1.0722656, -0.21691895, -1.5146484, -1.6748047, -0.17297363, 0.28173828, 1.4521484, -1.1943359, 0.68847656, -0.8696289, 0.11193848, -1.6298828, -0.54833984, 0.40673828, -0.89746094, 1.2353516, 0.018951416, -1.1875, 0.31713867, -1.5458984, 3.3847656, 2.0644531, 1.2060547, 0.5253906, 0.016738892, 0.6542969, -0.73291016, 0.5463867, -0.83203125, 0.5551758, 1.1669922, 0.46972656, -3.4101562, -2.453125, -1.0546875, -1.765625, 0.29345703, 0.28588867, -2.4296875, 0.48486328, 1.8232422, 0.25439453, 0.07019043, 0.44628906, -1.0332031, 0.048858643, -1.4160156, 0.057769775, -0.6591797, 0.3725586, -1.1279297, -1.2666016, -0.07501221, -1.6611328, 2.8398438, -0.27197266, 0.006450653, 0.46606445, -1.4892578, -1.4179688, 1.0976562, 1.0693359, 1.7373047, -1.1494141, -1.5791016, -3.4179688, 0.062927246, -1.6015625, 2.1757812, -0.9433594, -0.4411621, -1.3193359, 0.12609863, -0.75, 1.5654297, -0.31176758, 0.70654297, -1.2822266, -1.1435547, -1.9423828, -0.49829102, -0.23986816, 0.12371826, 0.56347656, 1.5537109, -2.0566406, 0.93847656, -0.24108887, -1.8388672, 3.8671875, 0.3334961, 0.3737793, 0.7006836, 0.14953613, 0.2932129, -2.6386719, -0.51953125, -0.15490723, -0.6347656, 1.6699219, 0.7597656, -0.48486328, -1.4335938, -0.59521484, 0.65527344, 0.6069336, -1.4287109, -1.6513672, 1.1015625, 0.041229248, 0.37182617, -1.3515625, 0.42822266, -0.3046875, -1.2060547, -0.97314453, -0.265625, -1.2119141, 0.70166016, -1.2958984, 0.48608398, 1.2333984, -0.10089111, -0.48535156, 1.0136719, 2.875, 0.21777344, -1.8183594, 0.049194336, -1.1074219, -1.6416016, 2.7226562, -1.2626953, 1.5947266, -0.14770508, -0.9394531, -0.40454102, -0.5834961, 1.5703125, -1.0654297, -0.953125, 1.8339844, 0.84716797, 2.8105469, 0.45092773, -0.19116211, -1.0009766, 1.3046875, 0.73828125, 1.4707031, -0.91552734, -0.33666992, -1.8212891, -0.31445312, -0.090270996, 0.43481445, -0.011146545, 0.02557373, -1.6484375, -0.1307373, -0.57128906, 0.07501221, -2.1347656, -0.36547852, -0.10626221, 1.3476562, 0.43481445, -2.1601562, -0.57666016, -0.5698242, 0.9321289, -2.5664062, -0.72753906, -0.10418701, -0.16992188, -1.515625, 1.1103516, 0.80615234, -0.50097656, 0.2265625, 1.6972656, -0.11456299, -1.8125, -1.7773438, -0.29956055, -0.5107422, -1.8310547, 1.40625, 1.8300781, -0.17321777, -0.8178711, 0.48657227, 1.2431641, 0.45263672, 0.12658691, 0.6796875, -1.1640625, -0.9301758, -0.21496582, 1.1855469, 2.3945312, 2.6464844, 1.2080078, 2.2011719, 0.5546875, -0.609375, 0.4741211, 0.8701172, 0.16125488, 0.8256836, 0.7753906, -0.44555664, 0.7944336, 0.36157227, 0.7319336, 0.041748047, 0.8564453, 0.70996094, -0.33032227, -0.62841797, -1.7958984, -1.9199219, -2.0820312, 0.97998047, 1.3310547, 1.5800781, 0.7207031, 0.34277344, 0.24975586, -0.5341797, -1.3603516, 0.63964844, 1.2792969, 1.2265625, -1.7070312, 0.8066406, 0.3713379, 0.09863281, -0.021759033, -1.8339844, 0.4020996, -1.5527344, 1.0664062, -1.4013672, -0.22692871, 1.4208984, -2.0117188, -0.9736328, -1.5322266, -2.8125, 1.2050781, 1.5947266, -0.30151367, 0.18725586, -0.9458008, 1.2382812, 0.42626953, 1.2646484, 0.124816895, 0.11016846, -1.1445312, 0.31323242, 0.16467285, -0.9067383, -0.27197266, -1.9677734, 0.7182617, -1.5927734, -2.4316406, 0.0054969788, -0.81396484, 0.14892578, 2.2265625, -1.6005859, 0.08203125, 1.2353516, 1.6103516, -0.26293945, 0.64501953, -0.29736328, -0.9609375, 0.2824707, 3.3984375, -0.20739746, -1.90625, -2.1015625, 0.26660156, -0.3322754, -0.16796875, 0.097839355, -0.20361328, 0.2619629, 0.9458008, 0.26342773, 1.6318359, 1.5380859, -1.4716797, -2.9882812, -1.9648438, -0.8613281, 3.015625, -0.28833008, 0.24267578, -1.7958984, -0.45654297, 0.47680664, 0.82421875, -2.6386719, -0.26171875, 0.83984375, -0.78564453, -0.45581055, -0.6020508, 0.32495117, 0.8486328, -1.6445312, 1.3847656, 1.4765625, 1.1982422, -1.1318359, 0.8623047, 0.046905518, -1.5410156, -2.2324219, 1.6875, -0.96728516, 0.21435547, -0.61816406, 0.3486328, -0.47973633, -2.6738281, -0.32714844, -0.9472656, -0.34106445, -1.3720703, -0.2722168, 0.52001953, -0.110961914, 1.0166016, -0.07928467, -1.2373047, -1.0966797, -0.87597656, 1.4824219, 0.1661377, -0.15368652, -2.0078125, 1.4013672, 3.859375, -1.8388672, 0.1730957, 1.7519531, -0.56591797, -0.8574219, 0.15136719, -0.47973633, -1.4628906, 0.5214844, 0.056732178, 0.26611328, 2.1230469, -0.5805664, 0.23571777, -0.9926758, -0.5185547, 0.27026367, -0.6640625, -0.8823242, -0.25512695, 0.24719238, 2.796875, 1.4550781, 1.4912109, 1.5498047, 0.5410156, -1.671875, -0.34375, 2.1582031, 3.3535156, 0.46142578, -1.6416016, 0.77441406, 0.23046875, -0.92285156, -0.12109375, 1.4287109, -0.49804688, -1.9111328, 0.31054688, -2.625, -0.2442627, 0.51708984, -0.7055664, -0.48217773, 0.13562012, -0.69921875, -0.7060547, -0.6508789, -0.9355469, 1.3037109, 0.4375, -0.26904297, -1.6279297, -0.75439453, -0.36987305, 0.8232422, 1.1396484, -1.1933594, 0.33764648, -0.83447266, 1.1230469, 2.5, -2.4355469, -2.3964844, -0.9067383, 1.7119141, 0.7397461, -2.796875, 0.036834717, 0.1328125, 2.6894531, -0.12780762, -2.6425781, -4.1835938, 1.4169922, 0.72509766, 2.6328125, 1.5097656, 0.9609375, -0.124572754, 0.5185547, -0.59472656, -1.0429688, 0.19091797, -1.2353516, 0.48364258, -0.035064697, 4.4570312, 0.5097656, -0.060668945, -1.3847656, -0.6201172, 0.8051758, -1.1601562, -0.27612305, 1.0693359, -0.37329102, -0.99609375, -0.45947266, -0.8125, 0.953125, 0.4880371, 0.18359375, -1.3085938, -0.39990234, -0.14953613, 2.2109375, 0.2722168, 1.2412109, -0.69189453, -2.0292969, 6.5664062, 0.3010254, 0.31347656, 1.6894531, -1.3144531, -1.8984375, -2.7597656, 0.74658203, -1.7675781, -0.87646484, -0.43432617, -1.9248047, -1.1376953, -0.75927734, -0.69921875, 0.020904541, 0.9321289, -0.3239746, -0.77783203, -0.8198242, 2.7128906, 0.9633789, -1.3037109, -3.4238281, -0.51660156, 2.1914062, -1.8603516, -0.07507324, -0.38256836, -1.7470703, -0.08605957, -0.3371582, -0.08746338, -0.3413086, 1.8730469, 0.7207031, 1.5693359, -0.95166016, 0.2010498, -0.32373047, -0.06665039, 0.94970703, -1.6269531, 1.2207031, 1.1289062, 0.9394531, -1.5966797, 1.5224609, -1.5986328, -0.37060547, -2.0859375, 0.08502197, -0.89404297, 2.8242188, 1.7226562, 0.9814453, 0.5517578, 0.0758667, -0.16809082, 1.3134766, -0.16577148, -2.8828125, 0.7373047, -1.1708984, -1.5, -0.8979492, 1.0810547, 0.26220703, 1.0927734, -0.21875, 0.55371094, -0.12487793, -1.328125, 0.79248047, -1.1542969, -0.72753906, -0.5444336, 1.6123047, -2.2636719, 0.1796875, 1.9091797, 0.5527344, 0.6088867, -1.7402344, 0.2614746, 0.0736084, -0.8334961, -1.1035156, -0.5678711, 1.6015625, 0.48364258, -0.7944336, -0.30932617, 0.7739258, 0.4855957, -0.89501953, 2.3417969, -0.10668945, 1.3896484, 0.73779297, 1.2568359, -0.31176758, 0.17333984, -0.7578125, 0.09075928, 1.1611328, 2.8066406, 0.52441406, 0.021774292, 0.7714844, 0.18054199, 2.3867188, -1.2763672, -1.5263672, 2.5917969, 0.48217773, -2.0703125, -0.2692871, 0.35961914, 1.8681641, -0.4230957, 3.625, -2.0976562, -1.4824219, 0.5361328, 1.9873047, -1.5712891, 1.53125, 0.1385498, 1.9726562, -1.8408203, 1.1162109, -1.2539062, -1.7705078, -2.0800781, 1.2304688, -1.2900391, -1.9501953, 0.028213501, 0.053527832, -0.21374512, 1.734375, 0.10656738, 1.0830078, 0.2253418, 0.8828125, 3.1484375, -0.0231781, -0.4111328, 0.39160156, -1.7373047, -1.0058594, -2.2929688, -1.0410156, -1.7099609, 3.1132812, 2.3613281, 0.95214844, -0.7475586, -0.6347656, -0.5605469, 0.8798828, 1.2675781, 0.37158203, 2.1347656, 0.12487793, -2.6933594, -0.018463135, 0.91259766, 1.1757812, -0.49072266, 1.4394531, -0.38476562, 0.5292969, 1.8027344, -1.1308594, 0.090148926, -0.9458008, 0.0501709, 1.9667969, 0.38500977, -0.19750977, 0.3413086, -1.4482422, 0.038482666, 0.81933594, 0.15490723, -0.49682617, -2.8515625, -1.4257812, -0.40576172, 1.1054688, -1.5244141, -0.609375, -0.020843506, -1.40625, 0.6791992, -1.4208984, 1.7304688, 0.03994751, -0.6176758, 0.22546387, 0.42504883, 1.2177734, 0.11383057, 0.58984375, -0.30786133, 0.3947754, -1.6025391, 0.31762695, 0.66259766, -1.5214844, -0.5004883, 0.921875, 0.5800781, -0.43164062, -0.41870117, 0.23083496, -0.101257324, -0.12854004, 1.0634766, 0.3959961, -0.22851562, 2.4316406, 0.85595703, 1.6992188, -0.9555664, -0.81689453, 0.5004883, -0.11651611, -1.1064453, 0.4033203, -0.41333008, 0.07446289, 0.13867188, 1.3935547, 0.09423828, 0.62890625, 0.94921875, -0.08959961, -2.7304688, -2.03125, -0.46728516, 0.9394531, 0.7080078, 2.3300781, 1.8603516, -1.109375, -0.9013672, 0.38427734, -0.24243164, 0.99121094, 0.97314453, -1.3857422, -0.85253906, -1.0595703, -1.2167969, -0.21313477, 0.96484375, -2.2402344, -1.0751953, -2.6386719, 0.51904297, -0.3701172, 1.2265625, 1.4658203, 1.4257812, -0.74365234, -0.38110352, 0.88916016, -0.85009766, 2.34375, 0.2512207, 1.3339844, -2.0722656, -0.59814453, 0.93408203, -0.5419922, 2.1933594, 1.2822266, -2.2753906, 0.24206543, -0.0927124, -0.70751953, 1.7646484, -0.71435547, -2.8496094, -1.0107422, -0.5, 1.5146484, 1.6835938, 1.6787109, 0.026901245, 0.8198242, -1.2695312, 1.2558594, 1.0917969, 1.1728516, 0.16687012, -0.37524414, -1.4990234, 0.6113281, 1.5302734, -2.2421875, 2.5136719, 0.6586914, -3.2207031, 0.13110352, -0.6064453, -1.8164062, -0.50097656, -1.1796875, -0.80029297, 0.17102051, 0.99121094, -1.1074219, 1.6181641, -2.5019531, -0.68115234, -1.5625, 1.9267578, 0.080444336, -0.12182617, -0.96435547, -0.18408203, -0.75, -0.36645508, -0.7060547, -1.1787109, -0.006729126, 0.060668945, -1.0507812, -0.26489258, -1.2050781, 1.1318359, -0.090270996, 0.5654297, 1.0966797, -0.26611328, 0.35961914, 0.3852539, -0.07788086, 0.68359375, -0.33447266, 0.3388672, 1.2587891, -1.9804688, 1.0019531, -0.6972656, -0.8598633, 0.42163086, 5.0078125, -0.4650879, -0.08135986, 0.12451172, -0.62939453, -0.16467285, 0.5625, -1.6962891, 1.6367188, -0.07122803, 4.1953125, -0.421875, 0.47973633, -0.52685547, 0.7583008, 0.37646484, 0.99853516, -1.8789062, 0.5620117, 0.20959473, 0.12976074, -0.41552734, -0.70214844, 2.40625, -0.9707031, -1.1494141, -1.9619141, -0.96484375, 0.39282227, 0.7705078, 2.3496094, -0.44458008, -0.023208618, -0.5961914, -0.53271484, 0.45410156, -0.37158203, 1.1083984, 0.09039307, -3.453125, 1.1748047, -1.2695312, 0.07244873, -1.1455078, -1.5566406, -0.15197754, 2.5292969, 0.81152344, 0.6020508, 1.3808594, 0.97216797, -0.52685547, -1.2880859, -0.19665527, -1.9140625, 0.77685547, 1.7001953, 0.14953613, -1.9619141, 0.18469238, -0.5703125, -0.10559082, 0.5180664, 0.29125977, -0.15075684, 1.0664062, 0.8598633, 0.086364746, -1.7392578, 0.5024414, -0.35717773, 2.2773438, -1.4375, -0.1743164, 0.37695312, 0.06738281, 0.40576172, 1.34375, -0.7895508, 1.2841797, 4.5273438, 1.0380859, 2.0761719, -1.7265625, -1.0195312, -0.47851562, 0.30615234, -0.8232422, -0.73535156, -0.8432617, -1.1054688, -0.36987305, -1.2373047, -2.4257812, 0.60302734, -1.1806641, -3.7773438, -1.4287109, -1.7607422, 0.49047852, 0.09118652, 0.08947754, 0.56103516, -0.39086914, -1.9335938, 0.80615234, 0.64453125, -0.18457031, 0.35498047, 0.35009766, 0.070739746, -0.43945312, 1.453125, -1.6435547, 0.40625, -0.22473145, 0.6645508, 1.0410156, 0.33129883, 0.6381836, 1.2080078, -2.2265625, -0.026565552, -0.6948242, -0.4658203, -1.7832031, -0.4423828, 0.74853516, -3.5800781, -1.34375, 0.5361328, -0.9951172, 0.73095703, 0.28637695, 0.7832031, -1.2070312, 0.21520996, 2.3730469, -0.79296875, -1.1660156, -2.5566406, 1.3632812, -1.3056641, 0.4777832, 0.25170898, -0.6645508, -0.7446289, 1.5927734, -2.4003906, -1.7929688, -0.27563477, 0.15539551, 1.3076172, 2.4882812, 0.3798828, 1.5654297, 0.044952393, -0.30932617, 2.0195312, 0.62890625, 2.3496094, -1.3369141, -0.25805664, -1.4921875, 0.7089844, -1.9414062, 0.91064453, 0.07635498, -0.39770508, 0.6020508, -1.7929688, -1.3349609, 0.17614746, -1.2646484, 2.7871094, -1.7773438, -1.5908203, 1.5625, 0.16662598, 0.89746094, -2.3925781, -2.1347656, 1.5136719, -1.3369141, 1.0449219, 1.2089844, -0.1394043, 0.46289062, 0.7944336, 1.2675781, 1.2939453, -0.953125, 0.21594238, -3.1894531, 1.8105469, 1.1630859, 1.9892578, 0.98583984, -0.29589844, -1.7021484, -0.78564453, 0.30004883, 0.93066406, -0.54052734, 1.2314453, -0.390625, -1.3427734, 0.10461426, -0.76953125, -2.8769531, 0.58154297, 0.14050293, -0.41430664, -2.8769531, 1.1728516, 0.69384766, -1.1728516, 1.1533203, 0.91259766, 0.60058594, 0.86328125, -2.0292969, -0.80908203, -1.3632812, 1.0732422, -1.40625, -0.029663086, 0.03149414, 1.0664062, 1.2832031, -4.640625, -1.0732422, 0.048065186, 0.3955078, -1.5068359, 0.8598633, 0.7026367, 1.5527344, -3.0996094, 0.08642578, -1.6992188, -1.4482422, -1.6611328, 2.3222656, 0.8886719, -1.1777344, -0.4099121, -0.9873047, 1.7783203, -0.26464844, 1.390625, -0.5029297, 1.1015625, 0.70410156, 0.5024414, 1.5195312, -0.062561035, -1.2890625, -0.9433594, -1.1152344, 1.8808594, -0.1262207, 1.1474609, 0.58447266, -1.984375, -0.02204895, 1.0068359, -0.29541016, -0.8071289, -2.8144531, 1.0146484, 1.4970703, -1.3515625, 2.4570312, -0.31225586, 1.0839844, -0.75, 0.5, 0.17907715, -0.6557617, -0.37646484, -0.77197266, 0.043151855, -0.8535156, -1.0595703, -0.9609375, -1.0322266, 0.40478516, 0.08258057, 2.1914062, -0.5439453, -0.3088379, -2.09375, -0.24682617, 0.111694336, -0.7705078, -0.8256836, 1.2958984, 0.6171875, 0.77490234, -1.5498047, -0.23071289, -0.87890625, -2.0644531, -0.40966797, 0.6386719, -1.4140625, 0.8286133, -0.61865234, -0.8198242, -0.7060547, 0.9213867, 0.6958008, -0.43798828, 0.23449707, -0.47021484, 0.35009766, -0.47485352, -0.53125, -1.2480469, -0.7832031, -0.20959473, 0.62402344, -1.9072266, -1.4580078, 1.1152344, -1.4892578, -1.5771484, 0.88671875, -0.52490234, 3.0957031, 0.117614746, 0.5205078, 0.6645508, 0.22875977, -0.4116211, 0.38891602, -0.2211914, 0.047210693, 1.0058594, -1.4121094, -1.1494141, -3.6757812, -0.60009766, 0.23413086, 2.6425781, 0.44384766, 1.2548828, -1.6669922, 0.8310547, -0.96435547, 0.1685791, -1.9160156, -0.3383789, -1.2089844, -1.6240234, 1.2373047, 1.0078125, 0.82666016, -0.7163086, -3.3144531, -1.1230469, -1.7724609, 1.6923828, 1.3876953, 1.0322266, -0.3527832, -1.3662109, 1.0263672, -1.0234375, 0.09295654, -0.30737305, 1.6103516, 0.59228516, 0.9951172, -0.5942383, 0.19104004, 1.3789062, -0.84716797, -0.21240234, 0.27197266, -0.62060547, 0.21679688, -1.8818359, -0.29052734, 0.92529297, -1.5068359, 2.6015625, 1.5, 0.30151367, 0.3383789, -0.48364258, -1.6962891, -0.6171875, -0.04208374, -0.6274414, -0.7294922, 1.9072266, -0.19152832, -1.75, -0.8486328, -0.91552734, 0.3395996, -1.9970703, -0.60791016, 0.32592773, -0.8149414, 1.1914062, -0.27416992, -0.85595703, 0.99658203, -3.1621094, -1.4736328, -0.36694336, 0.9760742, -0.5332031, -2.0058594, 0.34814453, -4.6484375, -0.019241333, 0.22570801, 0.3466797, -0.13952637, 1.0009766, 2.3671875, 3.4199219, 0.062927246, 0.7211914, -0.06384277, -0.7451172, 1.8408203, -1.9980469, -1.5224609, 0.8520508, 1.9462891, 2.0957031, 1.9394531, -1.0712891, -0.9194336, -0.23864746, -0.25634766, -1.3818359, 1.4921875, 0.7680664, 0.34570312, -1.2900391, -0.9067383, -4.5273438, -1.4316406, 2.6640625, -0.39111328, 0.10479736, -0.079589844, -1.5107422, 0.19604492, -1.8359375, -0.8828125, 0.22595215, -0.35839844, 0.62597656, 0.3408203, -0.051757812, -1.5830078, 0.98095703, -0.13061523, 2.2363281, 0.42822266, -1.1298828, -0.007183075, -0.9394531, -0.65185547, -0.41992188, 0.21142578, 0.8486328, 0.76904297, -2.1777344, 1.5283203, -1.65625, 0.22509766, -1.5234375, 0.18493652, -1.0751953, -0.1508789, 1.53125, 0.27416992, -1.3242188, 0.3088379, 2.8515625, -1.3417969, -0.67089844, -0.22729492, -1.9794922, -1.5703125, 0.23583984, 0.47583008, 0.93652344, -1.8203125, -1.2773438, -1.8261719, -1.7695312, -1.21875, -0.68408203, 2.9121094, 0.7392578, 1.7480469, -1.1269531, 0.16357422, -0.097717285, -1.0546875, -0.4050293, 0.11035156, 2.1601562, 0.2915039, -0.36401367, 0.10858154, -2.921875, -2.4179688, 0.21679688, 3.4394531, -1.6142578, 1.1425781, -0.75097656, 1.828125, -1.0751953, -1.3447266, -0.93652344, -1.7822266, -0.17163086, -2.0332031, 3.3339844, -1.4228516, 1.2050781, 2.0917969, -0.19604492, 0.0029678345, -1.3603516, -1.3671875, -0.99658203, -0.45532227, -1.53125, 1.1748047, -0.09301758, -0.6455078, -1.4931641, 0.14794922, 0.10369873, 0.8901367, -0.1538086, -0.7338867, -1.3789062, -0.20422363, 1.4492188, 1.4414062, 2.6835938, -1.6494141, -0.7705078, 1.0322266, 0.3408203, 2.078125, 0.71484375, -1.7724609, -0.50634766, -0.101501465, 2.15625, 0.79833984, 0.5361328, -0.14294434, -1.1142578, 0.82666016, -0.45141602, -0.69921875, 0.7558594, 2.453125, -0.040161133, 1.4736328, 0.11584473, 0.0020771027, -0.9902344, 1.7216797, 1.8378906, 0.8359375, -1.2607422, -1.0947266, 2.8398438, 0.8256836, 3.3242188, 3.4433594, 0.26464844, 1.0419922, 1.1142578, 2.046875, -0.91796875, 0.36328125, 2.7597656, -0.11462402, 1.0224609, 1.2216797, -1.0292969, 0.9472656, 1.578125, -0.7519531, 0.45898438, -1.4990234, 0.11065674, -0.31420898, -0.3239746, -0.56152344, 0.9785156, 0.4387207, 0.14001465, -2.1523438, 0.08148193, 0.21899414, -2.2890625, -1.0664062, -0.62353516, -1.2998047, -3.0820312, 0.4868164, 2.5429688, 1.0537109, 0.5732422, -2.8671875, -0.19689941, -1.4892578, -0.9921875, 1.0068359, -1.7402344, -0.60546875, -0.59375, 0.5126953, -0.8496094, -1.7148438, -1.3085938, 1.328125, -0.35620117, 0.7373047, -0.47680664, -1.1650391, 1.3984375, -1.2060547, 0.30151367, 0.6972656, 0.3154297, -0.65185547, -1.9287109, -1.0097656, -1.0830078, 0.05078125, 0.41479492, -0.40551758, -0.43359375, 2.5898438, -0.43554688, -2.5644531, -0.5600586, 0.93847656, -0.3605957, -2.0722656, 0.057037354, 1.1904297, -2.1328125, -1.1806641, 0.029525757, 1.984375, -0.68603516, 0.5410156, 0.23071289, -0.5888672, 0.49951172, 2.3066406, -1.0527344, 0.12030029, 0.014160156, -0.54833984, -0.7841797, 0.29492188, 2.4667969, -2.4140625, -2.1953125, -0.20483398, 1.5195312, 1.2353516, 0.3701172, -1.046875, 1.6572266, -1.2841797, 1.6357422, 0.22375488, -0.45947266, 1.2480469, 1.515625, 0.12536621, 0.45385742, 0.41210938, -0.33276367, -1.1445312, -0.31640625, -0.83935547, 0.6669922, -1.6572266, 0.8510742, 0.7734375, -0.04449463, 0.7207031, -0.32421875, -2.1113281, -0.70996094, 0.98583984, -0.7783203, 0.5136719, 0.36889648, 0.25512695, 2.1152344, 0.78759766, -0.60058594, 0.62109375, 0.87402344, 0.09472656, -0.8544922, -0.83740234, -1.3945312, -0.2890625, -0.5239258, -2.2734375, -1.9199219, -1.6484375, -2.0410156, 1.4726562, -0.009727478, 0.03677368, -1.6962891, 0.7817383, -0.26416016, 1.4306641, 0.5727539, -0.30395508, -0.88134766, -0.46972656, -0.0680542, -1.3730469, -1.4414062, 1.5419922, -2.296875, 1.8886719, 0.4338379, -1.7216797, 0.049957275, 1.1269531, 0.43554688, 0.6953125, 0.35083008, -0.7895508, 0.43066406, 2.8457031, 0.42089844, -0.30541992, -0.9482422, 0.5053711, -1.734375, -0.5307617, -0.92578125, -1.4970703, 1.2880859, 0.10437012, 1.6738281, -0.17163086, -0.56152344, 0.7314453, -0.72265625, -0.28930664, -1.3134766, 0.23620605, -0.7446289, 0.4260254, -2.4824219, 0.041046143, 0.087402344, -0.06347656, -0.37768555, -0.3786621, 0.5830078, 2.4785156, -0.49682617, 0.48095703, 1.65625, 0.5019531, -1.46875, -1.484375, 0.9194336, 0.11651611, 1.265625, -1.8818359, -1.1318359, -0.16772461, 1.4589844, -2.3789062, -1.8789062, 0.0005970001, 0.70410156, -0.05178833, -1.0771484, -0.057922363, -0.6303711, 0.31933594, 0.04385376, -1.6083984, -0.3347168, -1.1943359, 1.2216797, 1.4248047, -0.7817383, 0.2578125, -1.0488281, -1.3486328, 0.98876953, -0.2548828, -0.5571289, -2.9140625, 0.8574219, -1.7265625, -0.7104492, 0.36328125, 0.7167969, 1, 1.7304688, 0.18359375, 0.36914062, -0.056030273, 2.8925781, -0.14575195, -1.0283203, -1.9628906, 1.1064453, 1.3388672, 0.5161133, 0.28076172, 1.4121094, -2.0761719, -0.7446289, -0.22509766, -0.21179199, -0.33618164, -1.0205078, 2.8535156, -0.29296875, -1.2802734, 1.4931641, -1.3476562, 0.49829102, -0.30737305, 1.1679688, -0.19482422, 1.6845703, 0.49560547, 2.5566406, 0.28442383, 1.4082031, 1.8203125, -0.71777344, -0.5527344, 0.32739258, 0.103515625, -1.6835938, 0.60009766, -0.02017212, -1.3681641, -0.3461914, -1.3564453, 0.045440674, -0.80322266, -0.15771484, -0.75878906, -0.83935547, 1.0566406, 0.60302734, 0.9277344, -2.7695312, 0.16381836, 0.9267578, 0.22436523, 0.41235352, 2.6816406, 0.66259766, -0.7338867, -1.0966797, 1.828125, -3.5800781, 0.00623703, -0.2487793, -0.3071289, 2.2441406, -0.7114258, 1.5078125, -1.2158203, -0.2512207, -0.26635742, 1.2177734, -0.29370117, -0.44140625, -0.8041992, 1.84375, -0.49829102, -0.3959961, -0.63916016, 1.7148438, -0.8823242, -5.8007812, 1.8730469, -1.3691406, -0.03817749, 1.0449219, 0.56689453, 2.1953125, -0.008773804, -1.9765625, -0.054901123, -1.1533203, 0.4638672, -1.3994141, 1.7626953, -0.9946289, 0.3449707, -0.27807617, -0.44677734, 1.3427734, -0.11584473, -0.39648438, -0.01939392, 5.1015625, 1.1289062, -1.8134766, -0.72509766, -0.7817383, -2.8886719, -2.1523438, 1.1845703, 0.032836914, -0.52441406, -0.4362793, 0.48999023, 0.7426758, 0.015106201, 0.73095703, 1.0146484, -3.046875, -0.20288086, -1.6484375, -0.50097656, 0.22668457, 0.068603516, 1.1386719, 0.5673828, 0.49072266, -0.6972656, -0.33447266, -1.6513672, 2.2949219, 0.14147949, -1.7880859, -0.7626953, -0.40356445, -0.94433594, 0.2536621, 0.7260742, 0.70996094, 0.19946289, 1.3681641, 2.0292969, 1.3964844, -0.09124756, -1.5673828, 0.6767578, -0.17321777, -0.8310547, -0.9404297, -0.36401367, -0.6611328, 1.1025391, -2.9433594, 1.4541016, -1.5537109, 3.484375, -1.2382812, -0.26123047, -0.66015625, 0.40673828, 1.9267578, -0.3010254, -3.5917969, 0.57714844, 0.29223633, 1.421875, 0.5698242, 1.140625, 2.4453125, 1.6816406, 0.38598633, -0.52001953, -0.4423828, 0.64697266, 1.4960938, -0.47143555, 0.515625, 0.5439453, -0.90625, -0.26538086, -0.045928955, 1.7275391, -2.3417969, -1.578125, 0.96728516, 0.44262695, 0.51660156, -0.44995117, -0.04598999, -2.0410156, -1.3007812, -0.57470703, -0.23901367, -1.7070312, 0.49682617, -0.8046875, 2.34375, 3.5410156, -1.5712891, -1.3457031, 0.34643555, 1.5507812, 1.625, 0.18664551, 1.4335938, -0.19299316, 1.4785156, 0.06842041, 1.6025391, -0.6328125, 0.43359375, 0.8925781, -0.7939453, -0.6489258, 0.22229004, -0.35888672, 0.23620605, -0.12805176, 2.1699219, -0.045043945, -2.421875, -1.3339844, 0.014839172, 0.25830078, 0.064086914, -0.1459961, -0.8496094, -4.0898438, 0.2541504, 0.80810547, 0.0</t>
-  </si>
-  <si>
-    <t>[-0.20809603, -0.08473555, -1.6607745, 0.46936885, -1.4711685, -0.9816424, -1.1778955, 0.008045181, 1.9961923, 0.4719662, 0.9548663, -0.63025373, 1.4122066, 0.48288724, -1.1570683, 0.8420079, 1.2747266, 0.067294605, -0.48437014, -0.69208556, -0.35514647, 2.3599486, 1.6825103, -0.8005708, -0.80226344, 1.4403616, 1.2282615, -2.2202253, 0.03454781, 0.9100882, 0.3840655, 2.5796182, -0.2864051, -0.5975823, 1.1161392, -0.45049536, 0.7363371, 1.1053743, 1.8011813, 0.22728467, 0.94775426, 1.6365327, -0.5316822, 0.08297742, -1.117764, 0.62587583, -0.16466677, -0.81401867, -1.5897062, -1.1387982, 3.193465, 0.30180156, -1.9737183, 2.1974282, -1.0892214, -0.52258927, 1.5994233, -1.8569434, -0.8413176, -1.8256856, 1.2937522, 1.5807922, -0.5363315, -0.6175292, -0.08038447, 1.1637076, -1.7452158, 2.4365416, -0.26014018, 0.7103235, 1.1420709, -0.2321899, -0.3173314, 0.27174276, 1.4462678, 0.3425755, -1.4400275, -1.3980027, -1.0806171, 0.73649204, -0.24048789, -0.3941777, -1.6716944, 2.359166, 0.23816179, -0.8484119, -1.2121724, -0.9083929, 0.36062035, -0.1545886, 0.9985685, 0.38428152, 1.898373, -0.847625, -1.485053, 0.049850527, 0.8289293, 0.46302816, -0.26150692, 1.2500104, -0.42643413, -0.57846534, 0.9871699, 1.5434175, -0.051269185, 0.561085, -3.2440865, -0.22800234, 0.9322607, 1.1246898, -0.41199633, -1.8746582, 0.08241465, 1.596315, -0.498797, 0.88168454, -0.20906034, -0.81486636, -0.7906836, -1.745752, -0.8073588, -0.68690544, 1.1338731, 1.0426034, -0.3365192, -0.74331063, -0.052758686, -2.08449, -1.6416974, 0.8341021, -1.9258479, 0.33269212, 1.6747394, -0.42681476, 4.268031, -0.40698692, -1.1044648, -1.6713027, 0.61449295, -1.6484153, 0.7203767, -0.4651723, 1.4139, 0.7424514, -0.5598412, -1.2787433, 1.7245094, -0.5822744, -1.3419011, -0.38550603, 0.068678185, -1.0084251, -4.157926, 2.8100634, 0.30721933, 0.98766726, 0.39039025, -1.1345981, -1.5546167, 0.0040611387, 0.26366284, 0.68940574, 1.5307263, -0.19726077, 0.68842375, 0.48625657, 1.0373455, 0.51414967, 0.5700555, -1.2518475, 0.02133157, -1.7340916, 0.96234256, -0.010727601, -0.35500616, 0.52031887, 0.32064068, -2.17487, -0.515277, -1.2318676, -0.37485552, 1.2334964, 0.7664939, 1.4423342, -1.8223348, -1.7585654, 0.6509046, -0.9132749, -0.36273584, 0.2710263, 1.0025574, -2.9741037, -1.7032111, 1.6192573, 0.35864744, 1.3578196, 0.47685838, -0.24164991, 3.5603607, -0.7117149, 0.3164896, 0.0026672278, -0.49301264, -1.0868224, 1.2266369, 2.339973, -0.025262477, -1.4960077, 0.9676767, -0.19716005, 0.08481299, -1.4525944, 0.43986154, 1.2856605, -1.5207162, 0.5636939, 0.8663762, 0.13117193, -0.5093586, -1.2086718, -0.44940072, -3.188192, -2.574005, 2.1713083, -2.1227717, 0.7030531, -1.5015649, -0.15120049, -0.4638908, -0.26151177, 0.83351624, -0.44355977, 1.3817234, 1.0585827, -0.035223622, 1.6101238, -2.0938334, 1.6223328, -0.107531615, 0.49463168, 1.557338, -0.051445257, -1.1952882, 0.60521454, -0.23563321, 0.0058203056, -0.7729815, -0.115460455, 0.73660874, 1.1334426, 3.0639613, 0.83369267, -0.34224558, 0.34768543, 1.2678773, -0.33273718, 0.08512416, -1.9454639, 0.29856002, 0.51356906, 0.20073569, 0.40918386, 0.95778, -0.4260542, 1.1803939, -0.11993938, -1.5766143, 0.95601165, 0.292684, -1.5650407, -1.8387623, 1.8728024, 2.5473945, 1.416745, -1.317769, 0.30600926, 2.1739767, 0.26928467, -1.6100085, 0.90763634, -1.4509871, -1.8376156, -0.95695275, 1.665701, -0.6584252, -1.4089735, -1.6714277, -0.4524332, -1.7391286, -0.5546596, -0.17771284, -0.13033082, -0.2958373, -1.6763008, -0.6487549, -3.0078042, -1.4537418, -1.7221825, -0.2893941, -0.40379402, -0.67953193, 0.4356292, -1.7589751, -2.197806, 0.20593591, 0.66027087, 1.7846311, 0.6802834, -0.34727284, -0.9495195, 0.6203714, 0.19218417, -2.0547223, -0.94377476, 0.60719824, -0.1915521, 0.08925059, 1.2960638, 0.12636274, -1.453082, -0.2612277, -1.9436063, -0.08001978, 0.5278605, -1.4180744, -0.3337524, -0.45919693, 1.9484061, 2.2353904, -0.921568, 1.7509588, -0.044517722, -2.2879777, -1.1177335, 0.036565874, -0.7620334, -1.0092835, 1.8151296, -0.26431262, 1.531218, 0.019410396, -0.07734153, -1.7740349, 0.07424792, -1.7164816, -1.877995, 1.0023699, 0.43779624, -0.07000029, -0.13242146, -0.7457041, -1.1358714, 1.7078537, 1.3285472, 1.3993961, -0.47284934, 2.5880878, -1.7283183, -1.6053021, 0.6934476, 0.2481521, 0.9584968, 0.37982237, 0.090907134, -0.78228176, 0.91015625, 0.4288679, -0.1482069, 1.0567753, -2.4324796, 0.34016117, 1.3227425, -0.85258037, -0.6452869, -0.57076186, -1.2407407, 0.0076958127, 1.7079828, 1.5686611, -0.81645757, -0.17751558, 1.3668416, -1.007982, -0.07696091, -0.35487697, -0.29998702, -1.4076731, -0.027496556, -1.3506179, 1.3672643, 0.07804165, -2.0934694, -0.44413713, -0.7251577, 0.051567502, 0.3677852, 1.3595362, 2.028055, -1.1462121, -1.152159, 0.6141467, 0.50487655, -0.41805723, -1.319163, -0.846149, 0.2388093, -0.65474975, -0.59063697, 1.0713849, 0.54985887, 0.49241114, -1.0601914, 0.7391953, -0.3134071, 0.8381032, -0.77258736, -1.6783289, -0.51862484, -0.01742532, -0.32244414, 1.0524336, 0.8963234, -0.8135009, 1.4111419, -0.8791091, -0.49623623, -0.9565603, -0.06835104, -3.099115, 0.39510113, -1.1708581, 0.6527011, 0.19691278, -0.3485703, 1.3525099, -1.7368102, 1.0148221, -0.7366365, 1.2594128, 0.8987821, -0.7111921, -1.1677306, 0.9466798, 1.563264, 0.7296492, 4.4578285, 1.5600092, -0.71664476, -1.6067481, 0.78234535, -1.1016827, 0.7876775, -0.82275254, -1.4325784, 0.94586575, 0.24401143, 0.50756663, -1.141764, 0.13201791, -2.275699, -0.33451086, 2.474162, -1.5962564, -0.7341694, 0.4923431, 0.15815885, 3.4312685, -0.43442863, -1.6099293, -1.9682944, -0.87227243, 1.4374083, 0.56192905, 0.38036102, -2.8695178, -0.35608968, -1.174945, -0.70835215, -0.6248472, 0.35816368, -2.3890455, -0.82307273, -0.25269422, -0.5522107, 0.1753666, -2.131576, 0.54492676, 2.112845, 0.59186214, 1.0304779, 0.4643409, 1.6274394, 0.55643815, 0.21307121, -0.2147743, -1.8655233, 1.2484941, 1.4014852, 0.16747473, 0.34784448, 0.96932787, 1.7451422, -3.1353033, 0.70558935, 0.6736378, -1.4042913, -0.977214, -0.79400784, 1.2018998, 0.954552, -0.35221955, -1.9940434, -0.32528594, 0.9047553, -1.1983311, 1.2698337, -1.5045133, -0.7847965, 1.1035643, -0.94526076, 1.0609636, -0.055120043, 0.62533337, -1.6643028, -0.6021501, 3.3138087, 1.1522042, 2.6374772, 1.0896673, -0.8538421, 2.8910084, 0.2302965, 0.5711404, -1.5689588, -1.7128906, 1.1131063, 1.2265236, -0.52867246, 0.40804267, -1.2536784, 0.97025996, 0.08779061, -1.1527948, -0.52878845, 0.47605407, 0.48737693, 1.1843272, 2.4571352, -2.0052426, -1.7979363, -0.86221546, 0.65152764, 1.1060688, -0.37054887, 2.466869, 0.15417324, -0.04816134, 0.3390988, 1.582134, -0.877183, 1.0852158, -0.4551595, -0.7485483, -1.0836114, -0.96846384, -1.2610756, 0.94475126, 0.96749526, 0.9872547, 0.29389045, -1.3442557, -0.5560947, 1.1534786, -1.2250577, 1.6754701, -1.2189438, 0.83113873, 0.31075662, -0.8896401, -0.13805823, 1.2120404, 0.0032165442, -0.4437775, -0.4265543, 0.693151, 1.7341374, -0.22339804, 0.44127706, 0.81426835, -1.4970644, -0.6553485, -0.12575917, -0.11869888, 0.86489266, 0.09408617, 0.16814761, -0.2647054, -0.12344486, 0.56169915, -0.822863, 0.75400835, 0.78631896, -0.46978492, 0.20130454, -0.13973595, 2.0715516, -1.0075669, 0.16403958, -0.20818563, 1.3900216, -0.86461484, -1.3579525, 0.58769876, -0.35014907, 0.19649152, -0.066764645, 0.69136596, -0.14479345, -1.0386659, 1.6856052, 1.419933, 1.6051493, -2.1434636, -0.58668244, 0.30240932, -0.2476982, -0.3553854, 1.061453, 0.35806713, -0.02672211, 1.5330503, 1.988555, -1.6813989, 0.6923134, 3.3025343, 2.3367627, -1.7883457, 2.9858184, -1.7780383, 1.009525, 0.3347984, -0.43828797, 0.1361992, 0.6142729, 3.1792526, 0.112431794, 1.9092283, -0.9812029, 0.7263444, 0.23408884, -0.91334295, 0.35071105, -0.5968394, 1.1612991, -3.162851, -0.8853421, -1.1305441, 0.8733614, 1.5829238, 0.5245456, -0.7434919, 1.4143959, -1.8191956, -1.4782448, 1.5675089, 0.16764474, -0.3330752, 0.6272657, -0.9914374, 0.52724236, 0.7996234, 1.3136766, -0.2714162, -0.9293277, 0.46487892, -2.2923977, 1.8845683, -0.37997103, 0.7210518, 0.96183556, 0.14209254, -0.51977295, -0.8823999, 1.5753912, -1.2563595, -0.09432788, 0.107695185, -0.9695349, -0.47580746, 4.4498024, 2.1994007, -1.3338094, -0.37862077, 0.87888193, -0.3391714, -2.1464093, -1.1540427, 0.93718565, -1.1452932, -1.7304744, 0.90457886, 0.83048725, 0.15341268, 0.37622592, -1.2388213, 0.21602556, 1.1910937, 0.31755888, 0.9331621, 1.9867921, 0.17831782, 1.076392, 2.076822, 0.24466711, 0.81040794, -0.6217897, -0.24887203, 0.19561534, 0.1393859, -1.0282815, 1.10721, 0.13754112, 1.253493, -1.0321599, 2.2916164, 1.0733137, -2.0298026, 1.4318643, -0.6758632, 0.36405987, -0.3364334, -0.7068562, 0.9040079, 0.47277433, -0.38122332, -0.47879136, -0.58693284, -0.12920909, -2.3990154, 0.5119424, 1.164398, 1.3245564, 2.0703568, -0.23531961, 0.75240636, -0.42736036, 0.15260838, -0.48130363, 0.26056993, -0.25761592, 0.05292191, -0.6379912, 0.6355881, 0.88294584, -0.40849763, -3.0760913, 0.050852098, -2.157235, -0.358504, 0.5133218, -0.2760852, -1.4242032, 1.8516542, 1.0748907, 1.1148134, 1.1944748, 1.1150086, -1.4944525, 0.2008746, 0.20013337, -0.033443097, -4.8265443, 0.23020065, 0.7738362, -0.5677808, 0.21761404, -0.038411688, 1.725365, 0.8822124, 1.8555827, -0.7436086, -0.44524512, 0.9532781, -0.3034053, 1.3922253, 0.86171776, -1.7402253, -1.1208743, -1.4700239, 2.5400681, 0.13399327, -1.0362499, -0.16890885, 0.69488674, -0.9466363, 0.29565674, 1.3488203, 1.7926583, -0.9537091, 1.6546581, 0.34813672, 0.80063885, 1.229031, -0.16915177, -2.457191, 1.1650968, -0.8938582, 0.9767563, -0.22769083, -1.3797008, -0.56030726, -1.9780183, -0.28544068, 1.5660956, -0.4981712, -0.5758385, 1.3844295, -1.2857453, -0.95276463, 0.97598183, -0.32320538, 1.411952, 0.17364615, 1.1594338, -1.0710362, 0.19903365, 0.23915137, 1.268913, -0.6457419, 0.6476526, 0.39326036, -1.662265, -0.014090005, -0.92798096, 0.8178926, -1.4899204, -1.3736824, 0.5318501, -0.7055796, 1.0524309, -0.024474837, 0.6973698, 0.48349777, 1.0477033, -1.4681756, -0.6913667, 0.96214396, 2.5724156, -1.4752429, -0.31482977, 0.54096144, -0.5705181, 1.5757266, 0.92561454, -0.8335322, 0.40237153, -1.9239628, 0.40310013, 0.5859618, 0.42604795, 1.0999025, -0.64512545, 0.77129406, 0.42664808, -0.27912012, 0.05727546, -1.5672133, -0.52174693, -0.3747359, 1.160416, 1.3661373, 0.27912948, 1.8036011, -0.395853, -1.2052017, 0.49568743, 0.35433245, -0.18073907, -0.5009328, 1.2274474, -0.6145353, 0.5639044, -0.26960486, -0.0077972193, -0.46624887, 0.89772195, 0.43265885, 1.1411612, -0.19709198, -0.32006663, 1.2968153, -1.9794241, -0.5521419, 0.8293509, -0.611067, 0.54293716, 1.9873825, -0.3694233, 1.7558473, -0.06407667, -1.6069537, 2.1017716, 0.98170775, -1.1732177, -0.7255512, -1.5263728, -0.8673858, -0.691773, 0.30237043, 1.2709177, -0.3482647, -0.95076835, -0.12421757, -0.63429046, -2.2319968, -1.1809663, -0.6302169, -0.8273561, 0.5660145, -0.41817296, 0.15568566, -1.0259893, 0.13990346, 0.4589941, 0.71441036, -0.5520565, -0.25840133, 1.2901314, 0.06989507, 0.7666825, -0.652284, 0.176603, 0.68665385, 0.28738442, -0.73288864, -3.0403738, -0.39007908, 1.2786218, -1.7478997, 0.69144374, -0.41491958, -1.536709, 0.077218935, 2.0916963, -1.3146629, 0.3819665, 0.3201135, -1.3268241, -0.73334354, -1.2920352, 0.18507978, -0.46204153, -0.5882237, -1.2915462, -1.4714546, 0.09943816, -0.48737067, 1.1964488, 0.4178215, -0.6762114, -0.022498444, -0.91335684, -0.84884465, 1.2666696, -0.66521686, 2.4237142, -0.06165749, -0.57434726, 0.36396262, 0.79023355, -0.3362556, 1.2884958, 0.2799324, 0.7606401, -1.0177442, 0.041501474, 0.17880957, 0.9869362, 1.2033376, 2.122583, -1.1298481, -1.2603519, -0.78537434, -0.4634487, 0.09504467, -0.71223915, 1.1272547, 2.225093, -1.0351562, 1.173012, 1.1616113, 0.5786161, 2.142192, 0.32165232, 0.69376916, 0.65501785, 0.26535273, -0.020548793, -2.808816, -0.62534016, -0.9135423, 0.23044409, 2.4605653, -0.080312885, -1.4033064, -1.154251, -1.0280522, 1.9361359, 0.56615275, -1.2020595, -1.2031862, 2.1796958, -0.8857922, -0.12764049, -1.142524, 0.023354152, -0.86863637, -0.6329361, -1.1800376, 0.9121024, -1.2792246, -0.15065248, 0.62758243, 1.2125365, 2.55526, -0.10256268, -0.72432774, 1.2429682, 2.5752966, 0.5410955, -1.8925736, 0.41267616, 4.882054, -0.5426451, 1.9310454, -3.1397943, 2.9164588, 2.574673, -0.6656142, 0.38899624, -1.1911097, 1.4714713, -1.7197585, -0.2655611, 1.1155435, 0.8660818, 0.09863559, -0.2895473, 0.5566941, 0.62466246, 0.8948716, 1.7830267, 1.2582057, -0.7738223, -0.87867427, 0.20650755, -0.49394527, -1.0740507, -0.21807975, 0.12639053, -0.8271564, -0.5377706, -0.086834885, -1.9704294, 0.23518278, -0.70953864, -0.25724158, 0.00093289156, 0.06387108, 1.4302793, -0.59453315, 0.6023668, -0.14989558, 1.5387236, 0.4137456, -0.42423168, -0.513078, 0.16675673, -2.170597, -1.1535301, -0.048449237, -0.8888073, -0.4048131, 0.22176963, 2.6367235, -1.5108415, -1.8426164, -1.2475879, 0.91596425, -1.7608478, 1.5309393, 1.1721455, -0.7847062, -1.1651335, 0.477164, 0.4726882, -0.32025972, 0.22648263, -0.42062077, 0.8933005, -0.0823577, 1.7898585, -0.46421725, 1.394334, 1.214402, -0.21921988, 0.8259906, -0.5125828, 0.13719644, -0.2322392, -0.12510766, -2.1693566, 1.7179252, 0.17489594, 0.98752487, -0.14460626, 1.6597562, 0.42990628, 0.17685366, 0.75772357, 1.1552526, -0.04113787, 1.237094, -0.5794586, -1.5598106, -0.57966137, 0.14929321, -0.06876205, 1.2453082, -0.6632202, 0.86590326, 0.1138857, 1.0923872, -1.4431205, 0.21858886, 0.5358206, 2.1507297, -1.1415863, 0.61357784, 0.31791988, -0.5421985, 0.09858072, -0.27540034, -0.22179334, -0.43439564, 2.7026818, -0.78441447, 0.414589, 1.3146684, -1.3496722, -0.39427045, -1.6035712, -0.9881757, 0.6924134, 0.6155532, -1.9752303, -0.2903721, 0.17807332, 1.7950553, 0.9683732, 1.8781784, -0.23925087, -0.53185564, -0.89801383, -0.96972007, 0.047553245, 0.49951726, -0.20967755, -1.151012, 0.3795647, -0.50923014, -1.5223637, -1.9545141, -0.7790982, -0.963224, 1.1678201, -0.22966965, 0.3516363, 0.39176756, 0.26832375, -0.45476627, 0.38162982, -0.8088469, -1.7862397, -0.10976396, 1.6035587, 0.6012847, -2.1590893, -0.06252101, -0.31688827, -0.40745682, -1.2844422, 0.43389797, -1.3948762, -0.22612023, 0.81631494, 0.13569635, 0.80766165, 1.8527961, 0.060046785, -2.0164168, -0.8470645, -0.034689154, 2.353749, -0.3103189, 0.67083454, -0.94368446, -0.29777378, -0.42245775, 1.9438956, -1.4734077, -2.825969, 1.4912707, -0.7599573, 0.7647332, 0.23796001, 2.370209, 0.69508123, -1.2315515, 1.8982347, 1.6738782, -0.44856706, -0.61990327, 1.1410148, -0.26456717, -0.8285306, -0.73852295, 0.2234043, 0.19971606, 0.60527843, 1.0360141, 1.147786, -0.5438045, -1.0130787, -0.34872657, 1.1347275, -1.1059216, -0.056155816, -1.1011453, 0.80448467, -0.73013395, 0.42093733, 0.14804159, -1.1547647, 0.0366079, 0.3493588, 1.2671434, 1.2384673, 0.9606329, 0.37408802, 0.13874759, 2.7903712, -0.81702024, -0.65042955, 0.4473968, -0.6428912, 0.08603266, -0.39579624, -0.40297025, -0.047937687, -0.31144425, -0.41932732, 0.80815756, 0.97284657, -2.2778397, 0.4530076, 0.22071633, 0.7162704, -1.542163, -0.0371316, 0.59342635, -0.9086415, 1.0052787, 1.3146226, -0.9703795, 1.2634649, 0.603899, -0.048919808, -0.87635857, 0.013935811, 1.6025307, 2.7139046, 0.8037596, -1.4185674, 0.07655389, 1.1074511, 0.82994336, 0.44398153, 1.5547055, 0.830602, 0.35864782, 0.21352533, -1.5479321, -1.1080803, 2.5790584, -2.9439373, -0.502136, -0.966867, -0.4576897, -1.1197824, -1.0836148, -0.59145653, -0.6422788, 0.552841, -0.10764114, -1.4878033, -1.3276933, 1.1833689, -0.13657984, -0.2523296, -0.56856847, 0.16156761, 1.3072366, 2.9507413, 1.1323464, -1.29519, 0.8954154, 0.3354916, 0.6043547, 0.8877231, -0.93833345, 0.7136519, 0.19490756, -0.18613812, -0.72950715, -1.4425356, -2.748076, 0.8658713, 0.15742174, -0.12904382, 0.053185843, -0.5886463, -1.3486203, -0.87375116, -0.048826735, -1.0098469, -0.33214474, -1.0453637, 1.1934955, -0.9836352, 3.3947647, -0.27524576, 0.1083137, -2.3722246, 0.7475957, 1.0831349, 0.4292937, 1.4315934, -0.21002658, -1.3947868, -0.016112586, 0.083213404, -0.68397295, 1.221869, -0.52992475, -2.0934417, -0.37362683, 0.35546944, -0.54710835, 1.9930134, 0.6489112, 0.6122477, -0.27315688, -1.4449861, 3.6166763, -0.08078424, 0.9093423, -0.6572783, 0.5332455, -1.0257568, -0.36117253, 0.9861948, -0.029070793, -1.5833565, 0.3524208, -2.7729735, -0.2024306, 0.03920419, 0.24908595, 0.69593483, 0.009005421, 1.0898757, -1.145305, -0.9617488, 1.9683082, -0.64735746, -0.8528433, -1.0297453, 0.63862884, 1.8698171, -0.96460205, -1.3256537, -0.49105328, -1.6608008, -0.5003278, -0.7973091, -1.6619482, -0.78502774, 0.541132, 0.21512297, 1.4842291, 0.6612547, 0.11133889, 0.1322881, -0.9329867, 2.1773593, 0.50320333, 0.91409445, 0.22691117, -1.2317593, -1.0080132, 1.1884769, -0.78309685, 0.04172799, -2.0466485, 0.32740265, -0.74513525, 1.2926707, 1.0644087, 1.0815506, -0.7082686, -1.7460549, -0.12035334, 0.8488676, 0.111437865, -1.4428072, 1.9034668, -1.670315, -0.6076747, 0.09002295, -0.7564845, -0.593635, -0.33062127, -0.43699157, 1.4384432, 0.9763041, -0.43511623, -1.2212241, 0.1673103, 0.011560909, 0.14803013, 0.70239156, -0.012773104, 0.6312914, -0.49951866, 1.5822507, -0.27921215, -0.54591787, -0.7809916, 0.007543181, -0.7435655, -0.6188847, -0.069141455, 1.6143672, 1.1524417, -1.3089675, -0.10880684, -0.5072531, 0.050152667, 0.30744737, 1.1526577, 0.012559177, 1.2077758, 1.6818323, 0.6453453, -0.53332573, 0.7504695, -0.17644942, -1.4391232, 2.2041926, 2.9334242, -0.5323752, 1.2333046, 0.2230775, 1.267674, 2.885527, 1.3129251, 0.23091327, 0.741254, 1.834772, -1.2492068, 0.56335014, -0.061176848, 0.26825324, -0.03695657, 1.7624522, -0.7395634, -0.36846203, 0.7851215, 1.0800442, -1.9551921, 1.1701671, -1.8671263, 0.7137463, -0.5965453, 0.5241751, -0.77564764, -1.5053517, -1.0965776, 2.5568657, -0.45499894, -2.335236, -0.83400106, 0.86264676, 0.25574756, 1.2611214, -0.21069232, -0.08219378, -0.0246266, 0.17201947, 1.4786628, -0.22676879, 0.39274624, -0.6301141, -2.5232236, -1.6815851, -2.6810765, -1.855916, -0.34544057, 1.627323, 0.98907226, 1.1617523, -0.052813556, 0.06496919, -1.5059823, 0.33361626, 1.4094145, 1.6447462, 2.0549014, 0.055518985, -1.126403, 2.0646074, -0.83291477, 0.791224, -0.9420126, 1.5082418, 0.44702184, 0.8256426, 0.49950895, -1.2069479, 0.05806171, 0.21524729, 0.08891459, -1.7594239, 0.11495585, -0.022331748, 0.25187743, -0.4877631, -1.5643433, 0.923718, -0.33653066, -0.43197992, -3.219675, -0.6249125, -1.0299665, 1.9479991, -0.6689925, 0.124653414, 0.37681767, -2.0828202, 0.2641039, 0.49109772, 0.9208594, -0.74235076, -0.09313739, 0.7826496, 0.115487896, 0.4959632, 0.17866302, 1.3252717, 0.20661832, -0.47422388, 0.024953395, -0.22727373, 1.4824424, -1.1319683, 0.02699117, 0.6781217, -0.33520335, -0.5619167, -0.6136657, -0.33956453, -0.25863868, 1.2215991, 0.3815067, -0.9819169, -0.69857347, 1.3805788, 0.6427101, 0.7262208, -1.2747746, -1.7892712, 0.48407105, 1.3944979, -0.23770337, -0.41106334, -0.014927654, -1.6513144, 0.655213, 1.4801173, 0.34376597, -0.67904156, 0.9701197, -1.1426316, -2.3237464, -0.31738037, 0.28542504, -0.32933667, 0.40929037, 2.0623167, 0.7351685, 0.48590508, -0.51471233, 0.63748276, 0.14597456, 1.7451435, 1.8390311, -1.3181301, -0.39593405, 0.11987409, -0.037726387, 0.8605391, -0.7541049, -2.1003585, 0.59834385, -1.3622422, 0.099365585, 1.0771956, 0.12527575, 1.8348929, -0.43469688, 0.40575704, 0.15936445, 0.7515378, 0.29542196, 1.120313, 1.5213065, 0.36261585, -0.085668005, 0.18269081, 1.2191265, -0.043799452, 1.0133433, -1.2377915, -2.10436, 0.19858113, -0.54733825, -0.47438988, 0.38966233, 1.0066693, -0.30623084, -0.31433573, 0.54091424, 0.4078725, 2.6543608, 0.16813059, -1.172898, 0.6566862, -1.1803181, 1.2035, 1.0079417, -1.2492528, -0.02868496, 1.1207609, -1.4810216, 1.0975909, 0.7574166, -0.7796136, 2.153637, 1.5638113, -2.0751286, 0.040105395, -1.1433018, -1.707623, 1.8443002, -0.24778034, -0.0695575, -0.5795822, 0.4713838, 1.0497994, 1.3176148, -0.5407378, -0.21094032, -1.3582399, 1.0729588, 0.2911812, -1.0801212, -1.5776721, 0.2992202, -0.27693397, 0.34467378, 0.0644098, -0.7237266, 1.4282414, -1.5420908, -2.2143993, -0.85269743, 0.9779843, -0.17825252, -0.30382276, 0.08107969, -0.1808002, 1.0126245, 0.34997472, -0.6132988, 0.20393522, -0.067559235, -0.46003872, 0.41327068, 1.2453673, -2.600868, 0.100737356, -1.2592173, -0.17136519, 0.30460414, 3.0424075, 0.25900856, 0.28409913, 0.8842322, 0.751153, 0.20667146, 1.0121008, 0.06864901, 2.304, 0.6277496, -0.8889219, 1.4149394, -0.85046923, 0.14448401, 0.11105202, 0.012619604, 2.182595, -0.9351079, 1.0951849, 0.938364, -0.51671547, -0.4615355, 0.12560654, -0.19230641, -1.4883916, -1.1579993, -1.9891963, -1.3328817, 0.6043116, 2.5086682, 1.7965403, -0.23396452, -0.53710175, -0.26715583, 0.050132524, -0.24010171, -1.5049932, -0.3352235, -0.24275635, -2.4300597, 0.14636353, -1.74361, -0.10091186, -0.57167387, -0.7849812, -1.4093658, 1.0965971, 0.08157596, 1.1000706, 0.506365, 0.31812418, 0.09483023, -1.2472703, 0.26621157, -0.7683596, 0.59388393, -0.028651275, -0.23669347, -3.1380413, 0.56364745, -1.1836876, -0.07022915, -0.025312487, -0.433359, -0.5234542, 1.7545091, 1.7078519, -0.5310708, -0.77582264, 0.10839427, 0.7250984, 2.2404623, 0.8268387, -0.10365384, 0.6886599, -0.9335493, 1.2029114, -0.59744334, 0.56215686, 2.5544972, 4.6640515, 1.746241, 1.728483, -0.69943964, -1.1022029, -0.075532876, 0.22266042, 0.28827068, -0.6206131, -0.3301733, 0.26142007, -0.19532362, -2.5163903, -0.2650999, 0.4413007, -1.230095, -3.004273, -2.5274549, -1.1536273, 0.04287368, 0.17502557, 0.6162478, -0.32879317, -0.4458626, -2.4920402, 1.4528028, -0.007951413, -0.59596777, 0.3908028, -0.20072319, -0.3867354, 2.2122295, -0.12031167, -1.5296109, -0.9759263, -0.17657687, 0.10372122, 0.53042346, 1.2842383, 0.78062487, 1.5384179, -1.3882455, -2.8962884, -2.0661438, -0.97587836, -2.3811831, 0.4219, 2.061272, -2.2518337, -2.6314983, 0.5534166, 0.9303807, 1.2249873, 1.1138362, 0.85411435, -0.5327107, 2.3004382, 1.099276, 0.21550289, -0.87116146, -1.2143402, 0.5265672, -0.009507245, 0.39999056, 0.12283833, -1.3971317, -1.1934038, 0.6072722, -1.2000717, -2.315674, 1.4946421, 1.0653145, 0.98529875, 1.0483253, 1.0416282, -0.70758, -1.382436, -0.19272871, 1.5250565, 2.2347615, 0.9760832, -0.63264304, -1.123772, 0.3187952, 1.2281212, -1.595292, 1.3001436, -1.5038202, -0.24086297, 0.005113409, 0.002481691, -2.085518, -1.037215, -1.0690898, 0.020325141, -0.39817032, -5.8763056, 0.19890346, 0.5812831, 0.20344867, -2.0530567, -1.2891473, 0.31656185, 0.36712325, 0.0782653, 0.9099694, 0.9793774, 0.107573636, 0.54148096, 0.9643798, 2.1780734, -1.0140747, 0.41159558, -1.8160173, 2.0922344, 1.0388895, 0.45080516, -0.3502685, -0.45316666, -0.52006054, -0.7793087, 0.3604198, 0.17197016, -0.41145718, 1.8544463, -1.6280075, -0.77565175, -0.26181182, -0.7691881, -1.8864013, 0.7061568, 1.3495843, -0.12120419, -2.5133107, 2.6821268, -1.0631001, -0.55326504, -0.27184972, -0.85274047, 0.29439497, 0.9864274, -1.8599168, -1.964916, -2.5004861, 1.1110976, -0.30868632, 2.2333944, 1.736667, 0.29009706, 0.50073344, -3.0649533, -0.60833526, -0.15953253, -0.08997711, -0.5397105, -0.44513366, -0.949441, 2.1784067, -3.1679132, 0.28915104, -0.80283576, -0.8559112, -2.2010024, 1.2110041, -0.038340062, -0.581245, -0.720185, 0.8851566, 2.0099955, -0.5484267, 1.823968, 0.3429422, 0.9154433, -1.0763328, 1.7548231, 3.4354386, 0.21806933, -0.29345495, -1.546568, -0.8780457, -0.18042791, -0.9056485, 0.7835004, -1.0407711, -0.4574334, -0.6771162, 1.2212216, -0.50948083, 0.93859744, 0.8939603, 0.09898749, 1.19334, -1.3967928, 1.060929, -0.6007151, 0.38784257, -1.0974562, -0.50777084, 0.2864766, 0.5847121, -0.097963, -2.1908534, -0.1507511, -1.4406533, 1.3743832, -0.22017664, -0.35297942, -0.70830333, 0.20244744, 1.1783928, -0.5997259, -0.7768492, -2.661894, -1.6746264, 0.30427128, -1.0383247, -1.844953, 1.2896442, 0.20835927, 0.8597862, -0.93428, 1.789507, -0.14472434, -2.03759, 0.8357083, 1.0986814, -1.0071256, 0.84672135, -2.4295652, -0.04706392, -2.155179, 1.0366551, -0.11979283, -0.11367715, 1.3374773, -0.33399895, -0.27121487, 0.36855164, -0.5965901, -0.7812389, 0.8540897, -0.57456326, 0.34607193, -0.50183296, -1.2726818, 0.2024346, -1.835329, -0.22529387, 0.6695829, -1.4430993, 3.1496377, 0.33564752, 0.15656117, -1.4691348, 0.54554284, -0.26825187, -0.092713706, 0.48884732, 0.5107375, 0.1305713, -1.6394553, -0.77749586, -6.0209427, -0.93034106, 1.0431907, 0.94667804, -0.17008093, 1.0173073, -1.3346026, 0.016735613, 0.11269781, -0.76944375, -2.6359992, 1.4324456, 1.7636663, 1.3615472, 0.43519682, 1.5614095, 0.31613466, 0.36436132, -4.484914, -1.9420397, -1.0682184, 2.7502654, -0.2302833, 1.7528977, -0.46018112, -0.24468517, 1.2558724, -0.7635628, 0.6909242, 0.8142288, 2.2895389, 0.25101477, 0.2760963, -0.8290599, -0.80707127, 0.20368725, -0.67666614, 1.5858215, 0.16782567, -0.39333937, -0.30144942, -1.1009374, -1.2618716, -1.231762, -1.9443595, 1.7134769, 0.106396, 1.979663, 0.38518307, -1.3576372, -0.14575647, 0.05092711, 0.35798308, -0.1732308, -0.27969694, 2.2698174, 0.85426855, -0.08940535, -0.12032895, 0.48917645, 0.15273479, 0.007571485, -0.8136627, 1.6762828, 0.28296316, 0.38983735, -0.81134635, 1.0345659, 0.05373594, -1.8601307, -0.3923635, 0.6533433, 1.2115071, -0.18468717, -2.0411074, -0.30816972, -1.7386619, 0.43437827, 0.6750037, -0.3129841, 0.56863445, -0.6474012, 0.9270912, 1.1201388, -0.7143353, 0.25920787, -0.6544066, -0.107674696, 1.0076528, -0.24376972, -0.28862977, 1.1217966, 1.7969694, 2.8327787, 1.7982585, -0.1108975, -0.6948079, 0.6577836, 1.1693496, -2.6063328, 1.1142064, -0.953241, -0.91206634, 0.53345215, -2.387137, -2.7637303, 0.18124056, 1.0102546, -0.48320952, 1.383257, 1.0455345, -2.1419642, 0.4674189, -1.7439489, -1.7478149, 0.08064819, -0.3527905, 1.5156667, -1.2857786, 0.014173353, -0.93646336, 2.229538, -1.7761637, 0.5131266, -0.7785078, -0.70292914, -1.2687255, 1.0850724, 0.34632546, 0.29594985, -1.0286065, 0.21741226, -0.1416481, -1.8235769, -1.3435284, -0.075250186, 0.11805432, -1.6650265, -0.5803504, -0.50654006, -0.4213777, 1.0993398, 0.0677452, 1.4329158, 1.5267367, 2.930493, 0.02761246, -1.6905853, -0.51789206, 0.010981119, -2.425584, -0.00012154938, 0.9805778, 0.97081494, -0.7631385, -0.8148671, -1.7878957, -2.896251, -1.482865, -1.9860141, -1.5799941, 0.762272, 0.47873232, -0.80221903, 0.37840894, 0.9287665, -1.8922142, -0.30593356, 1.1006554, -0.17966667, 1.0212746, -0.96731293, 0.3186733, -0.8761697, -0.85943055, 0.2796108, 3.0019088, -1.2626939, 0.21200643, -1.3322688, 0.34128428, -1.6293535, -1.0406684, -0.32736862, -0.002337221, -2.1050324, -2.205203, 2.7689755, -1.372067, 0.9883277, 1.5578713, -0.5400585, -0.3753431, -1.0611012, -1.1765008, -1.5256222, -1.4132484, -0.37912783, 1.1649113, 0.10983272, -1.3180267, -1.7083954, -0.5642003, -1.4211606, 1.1002202, -0.13662915, 0.3183163, 0.57101816, -0.9021569, -0.23864798, -0.44601956, 1.0467278, 0.69471794, -0.35483462, -0.24702725, 0.18827097, 0.6685883, 0.29196787, -0.9777839, 0.29662496, 0.65682787, 0.8105121, -0.47040725, -0.73608226, 0.4200667, -1.7425015, 1.2299062, 1.1861149, -1.0846901, 1.5448024, 0.5605788, -1.0331267, 2.8269887, 0.66994655, 1.9910539, -0.040845457, 0.37716705, 2.4168684, 0.61347365, -0.31376827, 0.08185344, 1.6072941, 2.2915797, 1.162948, 2.7546065, 0.23962454, 0.60902494, 1.8201319, 2.1986575, 1.1095073, 0.76573455, 1.1461148, 0.100228064, 1.2375537, 0.5145498, -0.22855036, 1.2131351, 1.3608253, -0.009788719, 0.63767236, -1.4975913, 0.32194543, 0.11170688, -0.2092688, -2.4097812, -0.5409809, -0.98026544, -0.06401207, -1.4912068, -0.56020516, -1.1925509, -0.8511145, -0.31246665, 1.1689134, -4.2642083, -1.4202636, 0.5694401, 1.6766398, 0.7655875, -1.6171298, -0.6732572, -0.8833348, -2.3226852, -0.9777252, 1.9932724, -0.23126125, -0.11232014, 0.967936, -0.3883741, -1.705499, -1.5394653, -0.3515139, 0.26478735, -1.143512, 0.71271557, -0.19139098, -1.2179081, -0.84283596, -2.046125, 0.3007375, 0.812607, -0.089392975, -1.1612592, -1.3065072, -1.0725136, -0.3642394, -0.050335295, 0.80431765, -0.80384463, -0.78318614, 1.683127, 0.93166566, 0.014431733, -0.46209466, -0.11743338, 0.9051262, -0.7442045, -0.5881983, 0.5848623, -1.3053223, -0.8210362, -2.0209231, 1.7696632, -0.8563324, 0.079197414, 0.70397526, -0.32393327, -0.91308314, 0.88167065, 0.3034838, 1.8273721, 0.09439039, -0.6891879, -0.87397325, -0.58585155, 0.8262903, -1.9446235, -2.0347035, -0.22831888, 0.70734864, -0.9277545, 0.22138588, 1.0081277, 0.46749353, -0.34925324, 2.153597, 1.9302738, 0.47178215, 0.76402646, 1.6963745, 0.24675688, -0.7176916, 1.2647067, 0.058977153, 1.1678346, -2.6609995, -0.7855508, -1.1723014, -1.625839, 0.2978179, 0.36217758, 0.73032427, 1.1447814, -0.7698702, -0.46893755, -1.5815171, 1.0643246, -1.1755229, -0.33918598, -1.4708253, -0.3354277, 1.6218522, 2.1307414, 0.10087904, 0.3087299, 0.055771027, -1.8304504, -2.8400452, -0.02172539, 1.7221006, -1.4260479, -0.941113, -1.1652772, 0.7545015, -1.4646659, -1.356999, 1.0105699, -0.3280126, 1.1270878, 0.33159506, 0.4889286, 0.5029408, -0.5625243, 1.1736295, 2.3185456, -0.3580199, 1.5474168, -0.065783046, -0.14847153, -0.3833098, 1.2990865, -1.5339975, -0.35570934, -0.4219653, 0.29906568, 0.009268315, 0.4660391, 0.34858212, 0.4239718, 0.7336559, -1.1615899, -0.9575348, 0.6496072, 1.6937081, -0.674058, -0.21136397, 1.0622083, 0.018828694, 0.32462305, -0.54574704, -1.0007913, -0.09332414, -0.04681058, -0.7441361, 0.102179274, -1.2177637, 0.16736291, 0.42427403, 1.4161601, -0.7030618, -0.42583543, 0.6216393, -0.25245598, -1.5409906, -0.1959963, -1.5978924, 0.3931067, -0.41400832, -0.21610509, -0.9390961, 1.5529983, -1.3300045, -0.06192073, 1.4512677, 0.6266767, -1.0027838, 0.51093876, 0.9128262, -0.5129436, 0.47344667, -0.18878774, -1.3591332, -0.35814354, -0.908451, -0.7992037, -1.005351, -0.30685872, 0.8841544, -0.7256068, -0.6427483, -0.08422487, 0.49396837, 0.3514274, 0.10193513, -1.6416113, -1.2823259, 1.2435002, 1.2090296, 1.1714464, -0.6250118, -1.093302, 1.2409817, -1.9230134, 0.84191495, -1.1921523, -0.42970833, -0.9372083, -2.3821685, -1.30666, 1.1071249, 0.5456651, -1.5530279, 0.4318101, 0.7744717, -0.96224487, -0.2202211, 0.33614102, 2.1264791, 0.020842595, -0.18353818, -0.7626981, -0.10892544, 1.279383, -0.440313, -0.50932664, -0.5055107, 0.2220353, -3.052037, -0.76321936, 0.18743055, 0.13084722, -1.7621535, 0.20416337, 0.43726298, 0.32768777, 1.2953359, -0.7879656, 0.015128558, 0.22741874, 1.1751117, -0.7599337, 0.8825284, 0.44799492, 1.9113301, -1.0442148, 1.3745333, -1.7500536, 0.9688549, 0.6398396, -0.2419701, 0.23837988, -0.51887, -1.1609842, 1.206857, -1.9167504, -0.14021768, -0.06382454, 0.9402005, -1.3581859, 0.28727886, 1.5641173, -1.5462909, 1.2553968, 1.3906987, 1.3505692, -1.506124, 0.6541649, 0.03351846, -0.09274705, 0.922821, 2.2528617, 0.06826283, -1.7777814, -1.9524165, 1.6011096, -1.0897104, -0.10639461, -0.5294872, 1.1341822, 1.765957, 1.4005613, 0.06845661, -0.5630501, -0.56363976, 1.2716441, 0.97002244, -1.9569604, -1.266346, -1.9357858, 1.1351851, -0.26243556, -0.75328636, -1.1738566, 1.2824613, 0.9532521, -2.5279787, 0.8448599, -1.037423, -0.03208348, 0.9247366, 1.2104971, 1.1192559, -0.8080353, -0.32425833, -0.73719496, 0.12589295, 0.19173834, 0.28393137, 0.8415204, 0.84509295, -1.0570734, 0.3275367, 0.8916689, -1.3336778, 0.335718, -0.59537804, 0.79391056, 4.2345586, 0.53707045, -0.27508518, -0.69827205, -0.85634303, -0.8023371, -3.0206926, -0.76723707, -0.38457948, 0.19431858, -3.5677426, 1.0151638, -0.23950052, 0.5828401, 1.4061195, 1.6455203, -0.99741936, 1.3136405, 0.37255442, -0.49275634, 0.034667276, -0.63109624, 0.3444411, 1.0989648, -1.1873951, 0.38114414, -0.05999973, -2.6732934, 2.4294152, 2.2474718, -1.9909706, -0.8990334, -0.5732283, -1.537822, 2.3151534, 0.053841516, 0.19195166, 1.5799983, 2.4247034, 1.442637, -0.4835377, -1.8249091, -0.80453783, 0.8091022, 0.01583337, -0.4941295, -0.7910908, -1.8637508, -0.7008607, 0.9461189, -1.1616857, 0.7160995, -0.8699081, 0.7438086, -1.3690767, -0.21655239, -0.71801656, 0.9379973, 1.3833946, -2.0300162, 0.97310495, 1.8107747, 0.39686915, -0.5930566, 0.07454485, -1.5055114, 1.4484742, -1.0889533, -0.04646034, 1.0368413, -1.4697126, 0.3740429, 3.566773, 0.60274327, 0.8740464, -1.648182, -1.0594676, -1.3996224, -0.8771379, 0.1530543, -1.7871386, -2.343061, 1.2369602, 0.6113903, 2.0215788, 0.38306114, -0.51610875, -0.9026202, -0.6334418, 0.32860774, 0.5331795, -0.07208868, 1.8932185, -1.9418025, 1.0536609, -0.42911518, -0.39759916, -0.8694087, 1.3220395, 1.3684058, 0.20469403, 0.43796492, 0.108356416, -0.5245642, 1.5351673, 1.550226, 0.77105653, 0.707349, 0.34317803, -1.9005476, -0.11325347, 0.35309124, 1.0206162, -0.011856275, 2.6512325, -1.0444801, 1.5672717, -1.220338, -2.4620905, -1.5214791, -0.72582763, -0.804443, 0.153589</t>
-  </si>
-  <si>
-    <t>[1.1978543, -1.2399534, 0.67043024, -0.2057353, -0.32896778, -1.2814106, -1.0143274, -0.031290133, 1.9019892, 1.7988415, -1.6721627, -0.29159755, -1.0936563, 0.31740957, -0.08095436, 0.44761345, 1.015294, 0.081636615, -1.1958393, 0.32922196, 0.49424765, 2.4145308, 0.49221426, -0.90841717, -1.409494, 2.4805255, -0.7994974, -2.6103916, -2.2266562, 0.747378, -0.12798989, 2.3620906, -0.38935414, 2.2409968, 1.5707037, -0.06350666, 0.7742067, 0.9506769, 1.2896779, 0.7376391, -0.016675139, 0.74984616, -1.9506167, 1.2711098, -0.9905287, 0.5335911, -1.1967305, -1.1254014, 0.15050098, -0.51833147, 1.4596266, -0.71967304, 0.31356686, 1.4286942, 0.21345249, 0.79701966, -0.63056505, -0.100626074, -0.010441192, 0.09551584, 0.32314855, 2.1192744, -0.19005512, 0.32272047, 0.012180276, 1.7810627, -2.138324, 1.066045, -0.0635167, 0.3850867, -0.078254595, 0.09344231, -0.8273491, -0.02905608, 2.2590165, 1.4361204, -1.3497164, -0.5056186, 0.04027317, 0.058717493, 0.9144638, -0.1656979, -0.677119, 1.0246749, -0.71107125, 0.3608599, -2.602218, -0.56711525, 0.77627355, 0.68371415, 1.1824433, 1.0102239, -0.31339464, -1.1356485, 0.026835402, -0.81436616, 1.9801878, 0.10053577, 0.9153735, 0.76946104, -1.5938704, -0.808169, 1.8630003, 0.3997485, -1.3055637, -1.159474, -1.2123588, -0.97282344, -1.1610258, 0.639518, 0.13362853, -2.4832513, 2.2555516, 1.0918236, 0.25270498, 0.25206015, 0.3144665, -1.7636852, -0.25719044, -1.6644906, -0.24786294, -0.3529337, 0.9926022, 2.3578231, 0.27406958, -1.5215111, -0.37168697, -1.0275979, -1.6826289, 0.89587736, -1.9396939, -0.6126458, 1.5600386, -0.7635648, 3.5695634, -0.22579998, -1.1462837, -2.9233065, 0.26713666, -1.9999331, 0.23250215, 1.7633107, -0.024614725, 0.49977258, -0.48529136, -1.0144845, 0.44670376, -0.9668905, -1.3892003, 0.100251496, 0.41523138, -0.7283551, -1.3509338, 1.507866, -1.6651059, 0.8059182, 0.67914236, -0.5862318, -1.8574085, -0.03075503, -0.10049229, -0.3162056, 0.77387226, -2.0649147, 1.5201333, -1.0070232, 0.6090673, 1.1147661, -2.0597441, -1.5338453, 1.4142398, -1.371455, -0.6228395, 1.0100996, 1.17641, 0.63361514, 0.55566573, -0.70470357, -0.4755926, -0.05027959, -1.4001765, 0.6281705, 1.4730041, 0.7746883, -2.379789, -0.7661467, 0.16453071, 0.9691513, 0.3801813, 0.25472227, 0.15084212, -1.8552681, -1.184276, 1.0783658, -0.30820215, -0.16074486, 1.1347991, -1.1952323, 4.2046766, 0.14847763, 1.410183, 1.012993, -1.2964536, -1.0004306, 0.68311214, 2.3751338, 1.0962583, -0.15796232, -0.27722335, -1.0858171, -0.7681918, -0.35429487, 0.4168116, 1.1049069, -0.90943384, -0.6503873, 1.9103235, -1.3716289, 0.25155848, -1.1046861, 0.6952122, -0.82504815, -1.0492562, 2.3439105, -1.7908283, -0.45307148, -0.7288768, -0.90812284, -1.20869, 0.21792728, 0.15845396, -0.9427189, -0.5360676, -0.68371165, 0.7345071, 1.2033658, -2.5076454, 2.4032266, 0.4462389, -0.056600492, -0.05906531, 0.3343121, -0.3335429, -0.17385153, -0.076446116, 0.4328446, -1.5625067, -1.3176789, 0.68272424, -1.4882411, 1.9435467, -0.5838773, 0.85349554, 0.17880793, 0.34267938, -0.38279912, 1.4439614, -0.55096185, -0.74452186, 0.0063677225, -2.8041525, -1.3703847, 0.00944958, 0.074001364, 0.89695257, 0.48566595, -1.4187179, -0.40969807, 0.1970449, -2.4251926, 1.0393585, 0.09063637, 1.6813463, 1.798273, -1.899093, -1.7865742, 0.7958048, 0.47427493, -0.35787, 1.0565671, -0.09339215, -1.6424444, 0.6341536, 0.8552012, 0.06906504, 0.6467653, -0.80911547, -0.22245559, 1.6728249, -1.6995131, 0.0070399456, -0.11184567, 0.66468453, -1.5703125, -0.26432738, -3.0789278, -0.7588426, 0.50045484, -0.45408818, -0.4272511, -1.1797142, 0.6637682, -2.8713012, -0.4512254, 0.9034006, 0.17923266, 0.9537805, -1.4281758, 0.76599956, 0.43752006, 2.7119274, -0.5634448, -1.3569136, 0.6719561, -0.5015384, 1.3538635, 0.04735659, 0.6437754, 0.27411306, 0.4249251, -1.1309396, -2.1685574, 0.41826305, -0.055918235, 0.25015384, -2.3873875, 1.4359214, -0.91875803, 1.4868097, -2.0848372, 1.6570526, -0.43567395, -1.1380498, -0.38457835, 0.40280527, -0.23836653, -0.24522421, -0.7768086, -1.5018729, 0.7509598, -1.0090432, 1.6039102, 1.1366117, 1.4025645, -1.5208824, -1.1495078, -0.5793557, -0.5001405, 0.55084646, 0.5855696, -1.4275471, -1.2590767, 0.34370986, 0.5326981, -0.056714203, 0.016922625, 2.9372458, -2.7323148, -1.8378571, 1.3819563, -0.7871094, 0.81002516, 0.124385886, -0.6307791, -0.9285203, 1.2570132, -0.70561326, -2.198336, -1.2359669, -1.3141856, -0.40902585, 1.134605, 0.35999706, -1.114512, -0.6203212, 0.09154939, -1.1957206, 0.7013299, 0.14693922, -0.63744116, 0.4092399, -0.33946916, 1.0864726, -1.5631689, 0.815766, -0.1351335, -0.30618578, -0.85504067, 0.70032907, 1.3562045, -0.5749144, -1.0231031, -0.20668511, -0.3212824, -0.15239726, -0.7839389, 1.9751177, 0.16489191, 1.3080186, -1.1639956, -1.1584975, 0.3886451, -1.5853488, -0.02812362, -1.381331, 0.38147473, -0.8374759, 0.063023396, 1.4374398, 1.4659274, 2.1959746, -0.86959547, 1.4227479, -0.3312821, 2.0599182, 0.22175996, -0.7916845, -0.22252582, 0.97380674, -1.093255, 1.0958102, -0.54779804, 0.042886812, 1.571182, -0.2695346, -0.4998261, -0.9032267, -0.92819256, -1.085175, 1.9977125, 0.79947025, 0.20668343, 0.17690496, 0.49941137, 0.12394317, -1.4308647, 1.07561, -0.95660317, 2.6052463, 0.35851884, -0.5822185, -0.61679953, 0.82779473, 0.36059904, -0.22684343, 1.8095301, 1.627, 1.0122939, -2.2636049, -0.23420109, -1.9804754, 0.37301344, -1.0183072, -0.71347255, -0.4810841, -1.0272902, 1.0146685, -1.1007063, -0.44466034, -0.93611544, 0.7929119, 2.3805382, -1.5593864, -0.7337195, 1.3477298, 2.1473172, 1.9252996, 1.2455854, -0.98989993, -0.17507224, -0.7150377, 1.0514234, 0.105816565, -1.3661072, -2.2390304, -0.52062154, -0.4961874, -1.1985632, 1.7750428, 1.1030875, -0.4778869, 0.4824754, -0.4390953, 1.1485445, -0.29417273, -2.1160069, 0.76735073, 0.25666955, 0.41808245, -0.6772695, -0.25153172, 0.47574982, -0.0061536813, -1.1682396, -0.5400424, -1.7792166, 1.5901514, -0.08316834, 1.2859589, -0.68177605, 0.6553905, 0.7516496, -1.0794895, 0.16118632, 1.0584198, -3.1587734, 0.29135007, -0.92525953, -0.23682643, -0.63354826, -0.2443739, -2.8138244, 0.7518327, -0.8517581, -2.2320473, 0.45400792, 0.47329837, -1.5516851, 2.510381, -1.3913206, 0.42093858, -1.9105777, -1.2759124, -1.0998502, 0.051637415, 0.30890143, 0.4665494, 0.2210777, 1.7269772, 0.52025366, 1.2774441, -1.0565469, -0.6553771, -1.2016267, 0.03746388, 0.4257545, 0.07266695, -1.3853408, -0.8546661, -0.79324967, -1.0468148, -1.605957, -1.2128104, 1.12905, -1.122893, -0.73054063, 0.96600676, 0.37153187, -1.1115422, -1.1991652, -0.2931293, 0.58249277, -0.050266214, -0.77376527, 0.35043877, 1.2798587, -1.1531531, 0.89124036, -0.52376527, -1.1642498, 1.2163671, -0.07103154, -2.128585, -1.7380672, 0.6424193, 0.511585, 0.47927815, 0.46310467, -0.19919617, -0.6919681, -0.7683875, -1.1039855, 1.1646845, -0.924798, 3.2418933, -1.1154618, 0.5117856, 1.8110285, -0.8694082, -0.13093965, 2.2873385, -0.4822747, 1.6597081, 0.006427922, -1.3254896, -0.21088399, -0.9942008, 0.10187019, -1.0171099, -1.3509471, -0.1626311, -0.3156233, 0.54967594, 0.0723994, -0.3021123, 1.4589108, 1.1234231, 0.1583971, 0.4722014, -1.506167, 1.2057525, 1.0426009, 0.6238027, -0.8207174, -0.12689961, 0.5447881, -1.7594312, -0.47134027, 1.5233606, 1.6403909, -0.26399294, 1.6627481, 1.5605335, -0.30261397, -0.7354979, -0.111328125, -0.3017277, -0.78063464, 0.048105735, -1.2376659, 0.9114606, 0.008083396, -2.0171232, -0.107468694, -0.69176203, 0.79551804, -1.0816299, -0.5109429, 0.69192797, 0.99882275, -0.7904404, 0.40790883, 0.65686536, 1.5460724, 2.0932684, 2.0418317, 0.08133562, 2.8406732, -1.2863736, 0.5406285, -0.96676844, -0.69970036, 1.0047959, -0.57651967, 1.2509499, 0.30394503, 0.15444236, -0.524909, 0.93192154, 0.4298012, -1.1824524, 0.51005995, 1.5175012, 2.1721425, -1.9930236, 1.1163648, -0.8747743, -0.67895174, 0.81891954, 0.2633995, -1.7906946, 0.17786816, -1.0496182, 0.27955773, 1.5719044, 0.73110086, 2.1797009, -1.2010248, 2.5748892, 0.95499784, -0.5263572, 0.64166176, -1.6722764, -1.0707673, 0.8020053, -1.3768729, 1.5285611, -0.28847387, -0.058826603, 0.27341408, 1.6736408, 0.54201394, 0.15067825, 0.79569775, -1.6969312, -0.6314346, 1.661989, 0.2620532, -0.4710409, 0.87933433, 1.1290802, 0.50862855, -1.2698523, 2.0677574, -0.52394587, 0.49339148, -1.361395, 2.823396, -0.84188384, -2.1334813, 2.7695045, 0.5789043, 1.0332767, -0.327824, -0.18961366, -0.48249546, 0.14808968, -0.32780895, 0.30686805, 0.62818384, 0.091285184, 0.20949273, -1.0564867, 1.1939547, -0.6431692, -1.7171714, -1.248271, 1.2857583, -0.54715925, -1.4645963, 2.5811484, -0.41158766, 2.1324713, 0.08353623, 0.5711219, -0.38196972, -1.3431907, 0.3855549, -1.1292541, -0.3025705, -0.5642926, 0.71622163, 1.6783497, -1.6041043, 0.42595515, -1.2287163, 1.5710683, -0.4079757, -1.2024561, -0.28043061, 0.7123555, 0.23652878, 1.484054, -0.9803718, 1.275802, 0.18794146, -0.63123393, -0.08524312, -1.5591339, 1.0738174, -1.7030748, -0.30741653, 0.3050621, 0.66403574, -1.4162297, -0.5229158, -0.03689784, -0.63718694, -0.913922, -0.0814627, -1.394625, -2.5146618, -0.0016053083, -0.33929527, 1.0535237, 1.4447907, 1.3318841, -0.5670216, -0.1606763, -0.1857074, -1.2782668, -4.2048907, -0.38697293, 1.3070887, -0.3320212, -0.097147904, 0.5306614, 0.8451697, 1.0057256, 0.97225493, 0.35276252, 2.3503718, -1.2325556, -1.8510407, 0.56810355, 1.3101321, -3.1306252, -0.58973336, -1.7450637, 4.804072, -0.8788996, -0.9797405, -0.5052959, -0.32043248, -2.5814693, 0.3042728, 1.5577911, 1.6335884, -1.4008154, 1.5096452, 0.36728784, 1.9537604, 0.965031, 0.60003746, -2.4173, 0.07724041, -1.1623368, 0.65735364, 0.47206762, -0.43014234, 1.2359937, -0.83592415, -0.6649053, -0.76680225, -0.48440176, 0.21816683, -1.266441, 0.19394799, -0.70703125, 0.5947801, 1.4042434, 1.0146418, 0.42513913, 0.39665827, -1.8285664, -0.5479987, 0.4290972, 1.0121468, -1.4601014, -0.4931373, -1.3704249, 1.2329437, -0.45275378, -0.32817516, -0.19010863, -2.210603, -0.5934022, 0.39716327, 1.4834787, 0.7032053, 0.89611316, -0.35131502, 0.57445955, -0.01765839, -0.062581934, -3.321222, 0.5679112, 1.2411374, -0.8391498, -0.30309558, 0.39554796, 0.95467013, 2.8016775, -0.12169574, 0.8917955, -0.42027637, -2.154511, 1.0088292, -0.2477927, -0.31157863, 1.9607702, -0.28165802, -1.6398625, -2.4622352, 0.7342546, 0.41229665, -1.2566888, -0.46626177, -1.4054205, 0.96353275, 0.8158444, 1.6021779, 0.5526006, 0.7117778, 1.1980816, 0.34288713, 0.17269103, -1.0772433, -0.25926396, -0.9758468, -1.9933782, 1.699125, 1.0621054, 0.68583447, 0.38415027, 0.14627033, 0.39839068, 2.377341, -0.62961525, 0.44488442, 0.18907186, -1.9677868, -0.46018165, -0.13242455, -0.88875216, 0.26823363, 1.0213238, -0.8040855, 0.7954436, -0.44616866, -0.8024668, 2.6626177, -0.8479531, -0.4627234, -0.18336968, -0.50652826, -0.97600067, 1.0944122, 1.2520936, 1.1477686, -0.76188594, 0.09589041, -0.115394905, -1.4108987, -1.7520334, -1.900832, 0.08231218, 0.22265625, -0.20988066, -1.5078794, 2.3661106, 0.68258375, 0.037084293, -0.48449206, 1.248261, 0.53604585, 1.1001846, 0.84611446, 0.70400125, -1.9511452, 0.8865649, -0.06679755, 1.5314373, 0.36519423, -1.0149828, -1.7713506, -1.506448, -0.872378, -0.14891909, -1.1579623, 0.61242175, -0.16433507, 0.6194082, 1.4490047, -0.8170216, 0.53312284, 0.8002863, 1.3703647, -0.7555316, -0.5851482, 0.16383843, -0.9638404, 1.059664, -2.1293612, -1.135167, -0.26087597, -0.19509846, 1.0347282, 0.7151715, -0.51784235, -1.4848433, 1.5837034, -0.62746316, 0.267237, -2.6022582, 2.3109481, 0.8984375, 0.05484803, 0.033042595, 1.1348585, -0.83130884, -1.1943443, 1.8289678, 0.85845405, -0.6124184, 1.354121, 0.484676, 0.4731111, 1.0512795, 1.035678, -0.34734857, -0.8231619, -0.5550353, -0.5659648, -0.38404325, 0.87702, 0.6783765, 0.18174765, -0.9229051, 0.85236514, 0.30233306, -0.29481485, 1.2904538, -2.3602445, 0.22938517, -0.7555718, 1.8163929, -0.15983519, -2.353569, -0.65372163, -0.5841048, 2.450396, -0.32199138, 1.014314, -1.5268153, -0.9959466, 0.87663203, 1.8534721, -0.96179366, 1.1904632, -0.04219285, 1.4948095, -0.46987373, 0.07363014, -1.1492401, -0.97120816, -1.2537023, -0.4956389, -0.28811938, -3.3665454, -1.0852953, -0.6510863, 0.4835255, -1.1196758, 1.5344338, 0.028574487, 0.47921795, 1.2329971, 0.104050726, -0.3269946, -0.52746415, -0.27239406, 2.2092519, -0.5986729, 1.5381528, -1.4012334, 2.1339095, 0.7132518, 0.7091382, 0.73757225, -1.1829984, -0.06748649, 0.8410076, -1.2125863, 1.9138752, -0.041985497, -0.3455493, 0.09416471, -2.022715, 1.6089469, -0.6625107, 0.9413594, 1.5024749, -0.16007222, 0.58005804, 0.74855524, -0.804032, 0.23338005, -0.0061871256, 0.42378798, -2.3761103, 0.43962702, 0.7981258, -1.9175674, -0.5488549, -0.942744, 0.47300407, -0.23146538, -0.31753165, -0.9009391, 1.2363548, -1.314589, 1.0811985, 1.6536013, -0.84348243, 0.42700362, 0.39083904, -0.77726346, 0.63386935, -0.08932871, 0.103729665, -1.7545918, -0.09502421, 0.78218645, 2.7218134, -1.1538286, -0.5231164, -1.1380699, 0.7682671, -1.0787805, 2.92641, -0.38896617, 0.49414062, -1.3995078, 0.36380297, 1.3714215, 1.5913955, 1.3602579, 0.3284862, -0.87974906, -0.17170109, 0.8089817, -0.018728595, 1.4281023, 0.96040237, -0.73965913, -0.97069645, -0.04688169, -0.69085777, 0.20791417, 2.1439962, -0.44313195, 1.8771939, 0.69045645, 1.6293832, 0.010474636, -0.5348619, 0.6189868, 1.9857128, 2.588653, 1.5322065, 1.9145876, -0.1935801, -0.39615664, -2.3383455, 0.029771779, -0.5622057, -0.39779538, 1.7534815, 0.7007037, 0.09455934, 0.15540722, 0.9435533, -1.5828674, 1.7767953, 1.8427868, 2.419574, 0.0061269263, -0.04736328, 0.2963399, -0.12986943, 0.5387548, -1.1169467, -2.1510913, -0.32631904, 1.9073398, -2.5620987, -0.27358466, -0.29761747, 0.16776809, 1.9574192, -3.5126686, -0.96401435, 1.4210724, 1.2284889, 0.17521103, 1.8391213, -0.4871843, 0.24102364, 0.2205359, 0.81608516, -0.95644265, 0.4961339, -1.0033913, 0.18181454, -1.2800193, -1.1069269, -1.4483759, -0.69032264, 0.08719321, -0.3226335, -0.35450557, -1.0134779, -0.4565229, -0.3212874, 0.47567958, 1.1187928, -0.11491498, 0.8686189, -0.16624974, 1.0818172, -0.80831283, -1.6847668, -0.3632545, -1.3136973, 0.38999626, 1.8365462, -1.2871094, 0.74658287, -0.4661682, 0.6212576, -1.866221, 0.66034687, -0.81224585, -1.4425951, 0.5963319, 0.9743418, 0.3107743, 1.6233279, -0.8857154, -3.1151006, -1.9270388, 0.10652558, 3.4457808, 1.2297597, 1.1622498, 0.0050567207, 0.056854665, 1.0089028, -0.20787403, -0.7679393, 1.3693513, -0.48325127, -1.2156531, 0.6999679, -0.74855524, 1.0354238, 1.1292942, -0.23901701, -0.7726081, 1.6938937, 0.5824192, -1.3175567, 1.8692242, -0.21145922, -0.48135167, -1.7999653, 0.059612952, -0.9620612, -0.7113154, -0.18717225, -0.51813996, -0.54534996, -1.2308433, 0.6064052, -0.63029754, -0.52783537, -0.49466234, -1.1308594, 1.0636237, -0.7891428, 0.75485605, -0.40581188, -1.3445526, -0.5123609, -0.4911173, 2.118445, 0.6719419, 0.24668236, 0.08169932, -1.1336151, 2.5299656, 0.11428457, 0.17376123, -0.60338855, -1.0917902, 0.22993365, 0.001006662, 0.4411922, -0.042380136, -3.3500376, -0.92992496, 1.585884, 0.032387093, -1.620037, -0.30703527, -0.55709547, -0.9868365, -0.43217906, 0.17129308, -0.7273317, -0.92805547, 1.3040788, 0.89467174, -1.2238803, 1.3453017, 1.2177199, 0.36017525, 0.049483627, -0.06376084, 1.8818626, 2.0303404, 1.2483813, -0.4582921, 0.1428925, 0.5750247, 1.2746013, 0.73224795, 3.8087811, -0.34467974, -0.14570847, 0.8808727, -2.6531465, -1.3865315, 2.1436417, -1.9547437, 0.89966154, -0.24186978, -0.28286535, -2.6757812, -0.78379846, 0.66523975, 0.2712302, 1.3457566, 0.11853529, 0.54688835, -0.88518035, -0.5793532, -1.0732555, -0.58116174, -1.2230058, 0.55007225, 0.08583048, 3.5168023, -0.4800206, 0.33122858, 0.93838626, -0.8628866, 0.7079142, 0.93584454, -1.2383481, 0.22335188, 1.4154738, -0.9388946, 1.1829115, -0.42950022, -2.125535, -0.79518944, 0.60129493, 2.0443065, -0.3349074, 0.6049905, -1.2441206, -0.36811054, 0.024414062, -2.0499284, -0.7958048, 0.15598245, 0.35017124, 0.29027987, 4.844285, 0.65001607, 0.5131987, -1.6045859, -0.05417581, 0.22569965, 0.6383441, -0.22345221, -1.0726135, 1.0059346, -0.48656893, 2.095168, -0.07343282, 1.4747498, -0.47276327, -1.7462275, 1.3643214, 0.9034474, 0.50001335, 2.5034246, 0.83245933, 2.3901968, -0.8926049, -0.20305811, 4.039651, 0.34174335, -0.77084416, 0.023564586, 0.36130136, 0.48514757, 0.38496628, 0.8371348, -0.28248075, -2.0551348, 2.1044521, -0.7668691, 0.15718643, -1.3930012, 0.9549444, -0.4673052, -0.07555651, 0.944453, -0.5011404, -0.51809317, 1.8985345, -0.8463687, -0.53470474, 1.1663635, -0.92348033, 0.31532267, 0.388809, -0.22767285, -0.34017485, -2.2607956, 0.3377694, 0.67612237, -0.72206765, 1.0586673, 1.0698577, 1.0828005, 2.1707513, -0.32438597, -0.22291042, 0.24701011, 0.5224208, 1.0257987, -1.6426584, 1.8126873, -0.4639742, 0.02960456, -0.51155156, 1.3209145, -1.2087638, 1.5821115, -2.1982956, 0.3814087, 0.91505915, 0.7411708, 0.07314729, 0.982957, -0.26847443, -1.865542, 0.45919842, -0.2336526, 2.499893, 0.8217305, 0.21289062, -1.4531718, -1.4827162, 0.75472647, -0.8650672, 1.0922049, 0.46236795, 1.5480924, -0.8801905, -0.5505271, -1.8652745, 0.32898116, 1.9767231, 1.1952356, 2.1353543, 3.117669, -1.9417139, 0.64452124, -0.45700952, 1.1784835, -0.7156196, -0.25702992, -1.2577188, -0.6384545, -1.2411708, -3.1181307, -0.12019996, 1.0361195, 0.7617522, -1.5871549, 0.44147983, -1.4917444, -0.9005913, -0.49979934, 1.6720456, -0.17889488, 2.2085428, 2.8745718, 0.8388271, 0.115341395, -1.1685574, -2.2979987, -1.9513324, -0.43045002, 2.3462114, -0.54702467, -0.99352527, -0.19649307, 2.1199164, 3.1697881, 0.60630316, -1.219653, 0.73804045, 0.7849723, -1.3458904, 0.3728596, 0.1592934, 0.9239004, 0.25200665, 2.0064747, 1.1192744, 0.8631742, -0.005150364, 1.2561938, -2.7399402, -0.04206242, -0.61016095, 1.3002996, 0.16628653, -0.28972805, -0.69885755, -0.49426103, 1.1201574, 2.0274642, 0.10005084, -1.1727312, -1.278822, 0.92447025, -1.6737161, 2.156036, -0.9070995, -0.054005243, -0.3074299, 0.6923293, 0.90480524, -0.24705693, 0.0046420163, -0.5323737, -3.8779967, -0.8788293, -2.8971531, -2.3394825, -0.19670545, 1.5469854, 1.3549336, -0.5694162, -0.4806828, 1.2954437, -1.4731007, 1.2013575, -1.8622512, 1.0048962, 0.7068172, 0.13394625, 0.94822884, -0.57453644, -1.7620666, 0.44049656, -0.30840647, 1.202824, 0.18298507, 0.3266936, 0.87620395, -1.7032588, -1.1274079, -1.5509552, 0.36724102, -1.1694411, 1.1359805, 0.06453339, 2.1842625, 0.19018221, -2.1070473, 0.044273064, 2.61791, -0.24202614, -1.397568, 0.13524722, -1.4432791, 1.8650738, -0.70113176, -0.1574105, 0.83063996, 0.65305275, -0.96818817, 1.1723031, 2.4318814, 0.33381715, -0.1619409, 1.2379067, 0.3636625, -0.17852364, 1.0255646, 1.586466, 0.86863226, 0.18509036, 0.25612023, -0.61424446, 0.6499759, -0.37483945, 1.521591, 0.24042167, -0.7586954, 0.70434237, -1.1463975, -0.44247645, -1.1902424, 0.12810025, 0.4180558, 1.7633508, 0.22932832, 2.1380832, -0.2284153, -0.10572961, 0.83144265, 0.042995505, 0.6851589, -0.70988065, 1.1277549, -0.7440671, -0.2598392, -0.34776327, 0.16787511, -0.95456976, 0.748689, -0.5354706, 1.7057203, 0.999291, -1.3539704, 0.98523116, 2.922437, -0.47575316, 0.12659194, 0.8336633, 0.9895471, 0.64346105, 0.6829048, -1.8913474, 1.2221311, 0.20114511, 0.13745117, -0.5019799, -1.0560253, -0.033831872, 0.18993807, 0.14582887, -0.83964306, -1.887722, 0.94300485, -3.3905716, 1.2334118, 1.0076119, 1.2143053, 1.0578847, 0.025143139, 0.550915, 0.17491171, 0.63017714, 0.20830546, -0.95107824, 0.22184022, -0.12968215, 0.805667, 0.5263271, 1.6289865, -0.054861408, -0.20602793, -1.3574219, -2.202135, 0.28504923, 0.9258649, -0.18691139, 0.9669306, -0.699406, -0.002113656, -1.0872753, 1.8747458, 0.32569364, 2.0486677, 0.97997046, 0.09886525, 0.65281194, -0.9670109, -0.21355782, 0.20590085, -0.11658802, 0.5284758, -0.029372124, -0.5105549, -0.013511344, 0.07320205, -2.5265477, 2.5053377, -0.6714068, -2.1264582, -0.21024187, 0.23646191, -1.6283444, 0.93724334, 0.10095716, 1.1040508, 0.49679273, 1.0665534, -0.4564761, 0.5700717, 0.42548695, -0.56169736, -1.0263805, -0.6072212, 1.2336794, -1.2752267, 0.65919304, 0.9197162, 0.6904799, -0.6437194, 1.1244047, -1.3952804, 1.1024722, -1.7762468, -3.215352, -0.7514715, 1.6046393, 0.32217532, -0.44626564, 1.017441, -0.82625216, 0.5860579, 0.7210911, -1.7344218, 0.15281865, -0.35244542, 0.46078366, 1.7064961, 1.5324339, -2.3249385, -1.2468295, -1.1665674, 1.2556152, 1.0122539, 3.5345943, -0.25825396, 0.39372858, 0.7498997, -0.46285048, -0.056438237, 1.659688, -1.2855843, 1.5303671, -0.92440337, 1.1186055, 0.87244487, -0.121555276, -1.3478837, 2.4626231, 0.5792554, 1.7874438, -0.39191258, 1.9532822, 0.88194966, -0.62748444, -0.75580585, -0.8452617, -0.06550326, -0.51519024, -0.21325181, -0.094365366, 0.0896122, 0.4013538, 2.663086, -0.16980273, 0.107933566, 3.2860525, 0.14584225, -0.37307364, -1.1097596, 0.47139877, -0.692142, -0.040018994, 0.31688786, -0.5579784, -0.027771832, -1.0560119, -0.8602445, -1.1271036, -0.66734, 0.20168023, -1.6518488, -0.16324313, -1.8020722, 0.20559317, -0.6348994, -2.0314908, -0.32969007, -0.5504468, 0.13229078, 0.9781812, -1.2558995, -1.9975117, 0.07950289, 0.1292758, -0.5458583, -0.9104305, -1.0193774, -1.2970356, 2.1848445, 1.3571342, 0.98531145, 0.24171929, -1.1152477, 0.66728985, 0.729131, -0.09640879, 0.33231887, 0.07550467, -1.3407534, 0.9221175, 0.8342787, 0.19735257, 1.8561643, 5.1157427, 1.2873502, 0.520717, -1.6774133, 0.030811049, 0.080583125, -1.7801664, -0.47514448, -0.2869154, 0.95321864, 0.5008388, 0.11803029, -2.6484575, 1.147785, 0.565831, -0.993552, -2.6793664, -0.9640077, -1.6238964, -0.13412684, 0.37271076, -0.108385056, 0.74801177, -1.2031517, -1.2203687, 1.5827403, 0.7795377, -1.4247645, -0.4740195, 0.20668009, 0.513605, -0.08447935, 0.06773063, -0.8787925, -1.4658738, 0.66154754, 0.3343255, 0.6608318, 1.432256, 1.1602365, -0.06688784, -1.5420055, -0.5432229, -1.843342, -0.83292085, -0.4744221, 0.028527664, 1.3268943, -0.74919736, -2.497679, 0.8921015, -0.5377314, 0.5920377, 1.9235271, -0.17630966, -0.76201475, 1.2833102, 2.004495, -0.029357074, -1.6578821, -0.881555, -0.19100492, -0.65877837, 1.3255565, 0.4284969, -1.4847162, 0.35282335, 2.3626125, 0.78843373, -1.4282293, 0.37495986, -0.41302156, -0.11856539, 1.8648598, 0.55138326, -0.10053243, -0.47649562, -0.28418636, 1.0030032, 1.7582874, 0.3468001, -0.65860444, -1.955727, 0.0661387, -1.2047169, -0.6231539, 1.9104773, -0.08788059, 1.67389, -0.47556588, 0.091422305, 0.8934343, -0.7799791, 0.35088694, 0.3645655, -0.5100332, -3.0093644, 0.55384976, -1.989833, 0.454737, -0.39651114, -0.9229987, -1.2399467, 0.12843135, 0.13099983, 0.4034942, 0.71520495, 0.84241223, 1.174818, 0.8430008, 0.92843, -0.31952, -0.06987104, -0.9678002, -1.0637307, 0.25155848, 0.8893675, 0.4067918, -0.862385, 0.49253365, 1.1781256, 0.18945312, -0.19293463, -0.5401728, 2.1750054, -1.9084841, 0.30849844, 0.038694616, 0.05906531, -2.0405874, 0.019076413, 0.71776676, 0.85851884, -0.99405366, -0.74272263, -0.13845783, -0.07466021, 0.029731646, 0.5712824, 0.8335563, 1.8888458, -1.3265866, -2.423574, -3.5575235, 1.0490689, -0.46795404, 1.367736, 0.83098114, -0.5335292, 0.017230308, -2.9397473, -0.576212, -1.0022808, -0.26090273, -1.2332981, -1.0647875, -0.25651488, 0.67550534, -0.9457105, -0.2960255, 0.3117241, -0.5057925, 0.8237104, 1.1516749, -0.35863924, -0.22806078, 0.8748027, -0.22487693, 0.3942102, -0.9163768, 1.6497753, 0.6749786, -1.7551236, -0.43580773, 1.9684323, 1.2690898, -1.3364726, -0.37349585, -0.20713827, -0.6396351, -0.010193707, -0.7678624, 0.7065764, 0.5849743, 0.066647045, -0.36764234, 2.6275485, -0.15956764, 0.4430818, 2.208757, 1.1028334, 1.0353585, -1.576406, 2.4347308, 0.15630351, -0.1928945, -1.3048213, -0.37897983, -1.2688155, -0.15717305, -1.1972389, -1.4621147, -0.23433487, -1.1073952, 1.686985, 0.34914365, 0.45654964, -0.532571, 0.014748352, 1.4307845, -0.14821677, 1.0176684, -1.4187179, -0.674896, 0.23081322, 0.3943055, -1.5111836, -0.12264555, -0.3110452, 0.15053777, 0.36377287, -1.8600774, -0.012066566, -0.22428831, 0.53364456, 1.0396979, -0.8687293, -0.27019343, -0.9735392, 0.12027772, -0.68395495, -1.0219727, 1.1752328, -0.16153415, 1.1300367, 1.4543022, -1.2386291, 0.47044227, 0.29746363, 0.47543877, 0.39660478, 0.30149695, -0.5714496, -0.8661708, -2.4164438, 0.41355416, -0.29820606, -0.9276273, 0.82191783, -1.7448797, 4.447078, 0.28281182, -0.21490395, -0.36162913, -0.5829543, 1.5616037, -1.7087971, 0.36166757, -0.27895072, 0.13346633, -0.5675835, 0.68482447, -2.6156356, -0.910785, -0.28686857, 0.79924285, 1.0062072, 1.0640517, -0.59698737, 0.33740234, -0.3119649, 1.2747886, -2.257652, 0.7434383, 1.6307139, 0.9552253, 0.8860482, 1.6994721, 1.9184922, -2.2828152, -3.2722871, 0.008407801, -1.0524267, 1.9926941, -0.07063356, 1.1579021, 2.0937717, -0.6957406, 1.719064, -0.88232756, -0.8665186, 0.8020655, 0.9701329, -0.8745719, 0.20642257, 0.005926263, -0.16601562, -0.48206067, 0.8498511, 0.32872698, -1.4411387, 0.1506264, -0.67596185, -2.0899775, -2.8305063, 0.15720649, -1.4706831, 1.4087583, 0.58417165, -0.2129642, 0.49030125, 1.0979372, -0.82302815, -0.3701707, 0.20978369, -1.0379388, 0.8111221, 0.17394853, 0.104050726, -0.1584506, -0.8854345, -1.3373221, 0.043570742, 1.3520541, -0.39090592, 1.9372994, 0.5323001, -0.9404698, -0.76967174, -0.1800721, -1.3634284, -3.9055543, -1.727713, -0.98626125, 1.4332594, -0.69584763, -0.86673266, -1.3425862, -2.5037458, -1.2350355, -0.4680109, -1.7895675, 1.3190416, -0.02684878, 1.2402077, 1.489298, -0.37980923, -2.0322633, -0.44724932, 0.077188574, 0.85076654, -0.09883348, -0.008180384, 1.4242796, 1.8156838, 0.20504217, 0.46879014, -0.29960403, 0.87611705, 0.29489845, 0.5721452, -2.85884, -0.026012681, -1.0518799, 1.1599154, -0.47182685, -2.0979774, -2.7592037, -0.15226348, 1.5366278, 1.0699689, 2.9439614, -0.045443602, -0.8313289, 0.25747806, -1.1403575, -0.62628424, -0.9396939, -0.09749572, 0.21117495, -1.0069932, 2.0218723, -0.9918196, 2.6010141, -0.9293138, 1.9239619, -1.7510368, -0.21317825, 0.32583743, 0.07493779, -0.7132652, -0.7445687, -0.01650792, -0.012989619, -0.70699114, -2.2710562, 0.19588773, 0.07056668, -0.5017324, -2.1425781, -1.5645869, -0.118337974, -0.50521725, 0.42864406, 0.35989672, 0.1502836, 0.4770441, 1.3490074, 0.07742937, -1.1063116, -0.073947854, 0.7169306, 0.30096853, 1.0057925, 1.2914237, 0.56116223, 0.14497271, 0.47945204, -2.4100358, -0.50959504, 0.87805676, -0.32456657, 0.9578874, 1.4136211, 1.2895843, -0.79177815, -0.18087141, 0.079114944, -1.8352017, -1.3606174, -0.64049, -0.585991, 1.2389768, -0.91952056, -0.11413741, -0.43808863, -0.8511478, -0.92235327, 0.3669467, -0.26454142, 0.8962436, 1.1644104, 0.12104024, -0.33411145, -0.9823951, -0.012648491, -1.1859148, -0.77447927, -1.7966342, 1.5221299, 0.5915293, 0.53301585, 0.79395866, -0.19182095, 0.44473726, 0.84651667, -2.1241705, -0.751311, -2.0773525, 0.633468, 0.67028975, -1.0533096, -1.8385023, -1.6000642, -0.57563674, -0.15562794, -0.8076172, -1.5475572, 0.080245346, 0.37459198, 0.25841448, -1.5688812, 1.0843389, 1.1411333, -0.5536173, -0.65024596, 0.7053992, -1.6032263, 2.3157642, -0.7322195, -1.7683014, 0.2359502, 0.1775404, 0.35918772, -1.2337922, -0.17606218, -0.052185893, -1.5914925, 0.8584252, -0.3491813, -3.300353, 0.21193413, 1.58266, -0.7696784, 2.508829, 2.3266535, 1.2734141, -0.85724795, 0.7937179, 1.7862867, 2.659086, -0.34538874, 0.4333496, 1.8026809, 1.8044467, -0.91194886, 2.2962997, 0.884284, 0.9961071, 0.5817637, 0.734977, -0.7221479, -0.27577856, 3.300527, -1.0037725, -0.7182316, 2.103917, -1.1492903, 1.0333169, 1.5205078, 1.0991211, 0.48829463, -1.3274294, 0.388503, 2.6564374, -2.0223672, -2.614833, -1.0601941, -1.0465406, 0.47441372, -1.137187, -1.0623796, -1.9479479, -0.5808875, -0.66325986, 0.017063089, -1.2050246, -1.4746294, 0.6231999, 2.119194, 1.0815563, -1.2376659, -0.94124573, -1.3660036, -1.9629575, 0.0707874, 1.0456576, -1.8173159, -1.5401728, 0.9402692, -1.6248662, -0.9309784, -1.3134632, -0.64362156, -0.2401541, 0.038577564, 0.7295725, -0.16007598, -0.33323523, -0.6910986, -0.93986785, 0.2960456, 1.1752061, -0.4865957, -0.8508535, -0.59187716, -0.58556294, 0.14367509, 1.4181159, -0.18554333, -1.3664668, -1.5682337, -0.013431079, 0.8312554, 0.9899133, -0.059153937, 1.3812691, 0.65967464, -0.7267966, -0.97241545, 0.8501846, -0.93021655, -1.266829, 0.04339683, 1.9156544, -0.6970917, -1.0009097, 0.25856164, -0.9700209, 0.31944296, 0.48177975, 0.37354854, 2.4689574, 0.3522379, 0.59214467, 1.1806105, 0.035968937, 0.1418156, -1.7450101, -1.2607589, 0.07517859, 0.838506, 0.6228061, -1.4135809, 0.51838076, 0.7571704, 0.17028306, 1.3446062, 0.107207835, -1.8043396, 1.8139949, 0.6491666, 0.68304193, -0.98785317, -0.5592292, 0.105244674, 0.6565309, -0.019404164, 0.7947413, -0.7242883, -0.37550834, -1.3225064, 0.018869061, 0.19357342, -0.0038393622, -1.3711473, -1.2644478, 0.58976346, 0.09320152, 1.5960543, -1.0689747, -0.31118733, 1.3747258, 1.5248555, 2.403357, -0.22596051, 0.09503592, -1.5577911, -0.455145, -0.2854773, -2.2598526, 2.7377996, -1.2588024, -1.5483332, -2.9001098, 0.35689345, -0.96276104, 1.760789, -0.4380351, -0.5249993, 2.327135, 0.12736113, 0.5322399, 2.1176157, 0.18062393, 2.1690123, 1.5307684, -0.32903132, -0.8759097, 0.79991174, 0.7113522, -1.7178905, 0.4770169, -2.14512, -0.43382785, 0.4695794, -0.6486716, 0.45256314, -0.7680865, 1.2061617, 0.2423982, 1.3845617, -0.4650511, -1.5098233, -0.808781, 0.15766802, 0.42536572, -0.124384634, -0.15154277, -0.33806118, 1.7515367, 0.020641588, 0.04009759, -0.6416149, 0.48202723, -0.5623629, -0.46812126, -1.0133709, 0.44716865, 0.15930009, 1.4206743, 1.091924, -0.31574824, -1.7106717, -0.1388993, -1.247057, -0.8432015, -0.09748903, 0.7364084, -0.72171813, -1.3135703, -0.5658109, -0.030126285, -1.0573229, -0.07281411, 2.5637307, 0.5478223, -0.8133495, -0.44268715, 2.799925, 0.04152063, 0.11329463, 0.081415884, -1.3756689, -1.2566888, -0.41063786, -2.0539117, -1.1423106, 1.2075797, -1.0315175, -1.7214272, -1.0927467, -0.35778308, 0.42745513, -0.08327536, 1.5061404, -0.95850277, -1.8195634, -0.46165988, 3.0563464, -0.5372431, -1.311863, -0.23014769, 2.1915267, -0.15101936, 0.4385468, 0.10669949, -1.0599984, -1.5815765, 0.005785798, 0.1658551, 0.21034889, 0.4936323, 1.9372458, 0.83214915, 0.7967044, 0.20154645, -0.6954262, -0.42087838, 0.075334944, 0.38039786, 1.0581657, -1.0497378, -0.17536655, 1.0722656, -0.37659192, -0.9358579, -0.6251739, 0.89936054, -1.6544106, -0.61444676, 0.26906973, -1.1094619, -2.1870854, 1.6074486, -0.29696363, 1.9125441, 1.2923534, 0.5024213, 0.7547156, 0.48733145, -0.3085135, -0.9074908, 2.0437715, 0.5521859, 1.243552, 0.6722567, -0.13625471, -1.1090138, 0.7212909, -0.6017431, -0.59081364, 1.1725439, -0.26813832, -2.027528, -0.97245556, 1.4336473, -0.4695861, -0.89437073, 0.07568694, -0.55048066, -0.31217226, 0.5868806, 0.037182953, 0.05882786, -0.3380378, 1.6689186, -0.8092292, 0.6421032, 0.7395387, -0.683781, 0.56791794, 0.10069965, 1.4420133, -0.5805062, -0.1934062, 1.8197373, -1.7149792, -0.44318548, -2.1657948, 0.60388184, 1.3729131, 0.64040095, 0.90836364, -0.40456107, 0.19432256, 0.2715178, 3.226402, -0.29773116, -0.8794815, -1.7557825, 1.4735124, -1.056159, -1.1081309, 0.38137943, 0.7694242, 0.6935734, -0.19402826, 0.62585616, -1.3605657, 1.0846533, 0.5885595, 1.1726776, 0.80258054, -0.8711874, -0.15865797, 0.92431307, -0.78241885, 0.884672, -0.52611303, 2.2634044, 0.47377998, -0.78588533, -0.54149055, 0.13438436, -1.0932049, 0.36023116, 2.213653, -0.4339884, 5.338078, 0.29540348, -0.77712303, -1.4730576, -1.902705, -1.812607, -1.2973566, 0.09060627, 0.033788394, 0.10029163, -1.9891909, -0.020922517, -0.5427815, 1.1852463, 1.0423801, 1.2768086, -0.7409969, 0.9334867, -1.0746402, -0.7329553, 0.7995196, -2.0646203, 1.2590967, 1.436082, -0.32494113, -1.0291765, 0.4470984, -0.3236661, 1.7955372, 2.0861583, -0.7072988, -0.31645977, 0.9542153, -1.6990047, 0.6976937, 0.99215406, 0.49950504, 1.5611087, 1.4498341, 0.03949058, -0.7235626, -1.6605308, 0.042707887, 0.95125216, -0.18937285, -0.782862, 0.35819107, -1.2322346, -2.1231272, -0.3397501, -2.214817, 0.30712223, -0.87823737, 0.80855364, -0.15015317, -0.7231646, -0.4072667, -1.0549016, 0.09248248, -1.5455072, 1.7060915, -0.008006475, -1.3231393, -0.2861997, 1.2437125, -0.1761692, 2.4557202, -1.1443005, -2.244716, 1.5065818, 0.005290828, 0.6793865, -0.08167005, 0.07046634, 1.4231057, 0.72864604, -1.0219829, -1.7557523, -1.1841422, 0.611997, 0.58656627, -2.7064626, 0.9997592, -0.17823268, 0.3091556, 2.131983, 1.1181239, -0.17508562, -0.13233091, -0.17556721, 0.26767176, -0.81575745, -0.25379923, -0.62437123, 1.4435467, 2.1157963, -1.4926289, 0.07682738, 0.8547531, 0.4077416, 1.1810253, -0.46614137, -0.58869326, -0.3920397, 0.5740749, -1.7934437, 1.444397, 1.6884832, 1.3232255, -0.76036763, 0.722178, -0.98163927, -1.6089736, 0.06462704, 1.438102, -0.27817315, -0.16256422, 0.099</t>
-  </si>
-  <si>
-    <t>[-0.19384766, -0.7421875, -0.113342285, -0.84521484, 0.17687988, -2.5839844, -0.90234375, 1.7861328, 1.3300781, 1.5058594, -2.25, -0.2980957, -0.43164062, -0.38549805, 0.4099121, -1.1298828, 0.3137207, 1.6005859, -0.5644531, -0.90966797, -1.2158203, 1.6503906, 0.061279297, -1.3164062, -1.4853516, 3.1464844, 0.050323486, -0.98046875, -0.8496094, -0.76660156, 2.0097656, 2.328125, 0.8881836, 2.4785156, 0.66845703, -2.1484375, -1.3710938, 0.019210815, 1.2822266, 1.1933594, -0.5390625, -0.2602539, -0.5029297, 1.2431641, -0.5996094, 0.62646484, -2.3164062, -0.5605469, -1.7519531, -0.0045051575, 2.5019531, 0.099365234, -0.88671875, 2.0839844, -1.2138672, -0.7133789, -2.296875, -0.51904297, 1.0849609, -0.14416504, -1.3134766, 1.3857422, 0.41577148, -0.52001953, -0.30297852, 2.3613281, -1.3789062, 0.73828125, -0.51416016, 0.8515625, 0.6977539, 1.5439453, -1.2177734, -1.3974609, 2.9960938, 0.53271484, 0.50439453, -1.3554688, -2.1269531, 2.4121094, -1.7851562, -0.59472656, -0.61035156, 0.828125, -1.3691406, 0.8779297, -1.1767578, -0.24572754, -0.37890625, 0.38232422, 1.3544922, 1.2919922, 0.32714844, -0.4074707, 0.40942383, -0.33984375, 0.002363205, 0.9350586, 1.4638672, 0.8935547, 0.24572754, -0.33666992, 2.5332031, -0.044189453, -0.047851562, -0.4423828, -1.0488281, 0.6665039, -0.3383789, 1.3388672, -0.9785156, -2.7480469, 2.9042969, 0.3635254, 0.3017578, -0.14880371, 0.30639648, -0.8486328, -0.62353516, -2.8574219, -1.0820312, 0.90966797, 1.2666016, 0.95458984, -0.31030273, -0.31640625, -0.66308594, -1.8212891, -1.6181641, -0.6171875, -0.28076172, 0.3005371, 2.7597656, -1.8007812, 3.0761719, -0.54296875, -0.34545898, -1.2197266, -0.17358398, -1.5107422, 2.7773438, 0.30908203, -0.9399414, 0.9379883, -1.8984375, -0.27075195, 0.26171875, -1.6220703, -0.35546875, 0.1920166, -2.5546875, -0.86083984, -0.32836914, -0.06994629, -3.5976562, 0.9902344, -0.12988281, 0.121276855, -2.9511719, 0.32763672, -1.2607422, -0.010154724, 1.8056641, -1.6074219, 1.5605469, -0.039916992, 0.33276367, 3.1484375, 0.08862305, -0.3034668, -0.61816406, -1.8046875, -0.16601562, 0.3203125, 0.13684082, -0.58251953, 0.96533203, -1.7744141, -0.049194336, 0.018951416, 1.6933594, -1.9355469, 2.3300781, 1.1582031, -1.203125, -1.3662109, 0.41918945, -1.2900391, -0.8378906, 1.375, -0.72216797, -0.9975586, 0.076171875, 0.22509766, -0.019561768, 2.046875, 0.10681152, -1.6777344, 6.984375, -0.7553711, 2.3378906, -0.8886719, 0.43554688, -1.5605469, -1.3945312, 1.9501953, 0.05996704, 0.9975586, -0.3479004, 0.47583008, 0.5839844, 1.0400391, 2.1601562, 0.7104492, 1.2314453, 1.3994141, 0.81884766, -1.8701172, -0.26245117, -0.35766602, -0.16723633, -1.8623047, 0.43408203, 0.47705078, -2.1347656, 2.5566406, -2.5859375, -1.53125, -1.296875, -1.0888672, 0.5263672, -0.51708984, 0.58154297, 0.5361328, 1.703125, 3.2050781, -2.40625, 2.2441406, 1.1171875, -1.6816406, -0.5253906, 0.47094727, 0.12561035, 0.9091797, -0.74316406, 0.80322266, -0.093688965, -2.2597656, 0.25146484, 0.06201172, 3.2910156, 0.26733398, 0.8198242, -1.0966797, 1.2685547, 0.09869385, -0.6582031, -2.6015625, -1.4472656, 0.1583252, -3.1230469, -0.24389648, -0.79589844, -0.203125, -0.07611084, -0.9453125, -3.0625, -1.4658203, 0.12445068, 2.6523438, 1.0419922, 1.4267578, 5.40625, 1.2626953, -0.9145508, -0.30493164, 0.046936035, -0.15039062, -1.8710938, 1.2099609, -0.27001953, -0.49194336, -1.4023438, 2.2382812, 1.3652344, -1.5664062, -1.2412109, -1.2587891, 1.0195312, -0.8598633, -1.1044922, -1.6083984, 1.2548828, -1.7714844, -0.8642578, -0.36157227, -0.9506836, -1.0605469, 0.24279785, 1.1582031, -0.19189453, 0.51416016, -1.1474609, -0.5083008, -1.1337891, -0.30737305, 2.0097656, -1.0263672, 0.7246094, -0.59228516, -1.5820312, -0.36889648, -0.86621094, 0.8964844, 1.3876953, -0.46289062, -0.3779297, -0.095703125, -0.99365234, -0.11779785, -1.0039062, -2.4882812, -0.50878906, 1.2304688, 0.062561035, -0.7104492, -1.1962891, -0.34716797, 0.1763916, -0.8442383, 0.6826172, 1.0019531, 0.49609375, 2.7792969, -1.8212891, -1.2119141, 0.8466797, -1.1835938, 0.08917236, 0.09869385, -0.2788086, 1.3876953, -1.0498047, 0.14331055, -1.0917969, -0.96728516, 0.015838623, 0.48364258, -0.37475586, -0.20666504, -1.5341797, 0.65478516, -0.3918457, -1.4003906, 0.6298828, -0.050842285, 3.0195312, -1.0742188, 0.00066661835, 1.4355469, 0.6303711, -0.3701172, -2.5585938, -2.2167969, -0.55859375, 1.6894531, 0.11743164, -2.5097656, -2.2089844, -1.921875, -1.7236328, 1.7421875, 0.09686279, 0.32617188, -0.008224487, 0.53027344, -1.7763672, 0.0067825317, 2.1347656, -1.8105469, 1.6455078, -0.22473145, -0.18017578, -0.87158203, 0.67333984, -0.0020122528, -1.1035156, 0.5473633, 0.26538086, 0.9941406, 1.3398438, -0.93115234, -0.52685547, 0.8461914, 0.41577148, -1.5693359, 1.4023438, 1.4355469, 1.1796875, -1.3652344, -0.37939453, -1.2998047, 0.71240234, -1.40625, -2.1445312, 0.9428711, -1.5244141, 1.1601562, 1.3046875, 0.9394531, 0.25610352, -1.6826172, 1.4169922, -0.53466797, 1.9902344, -0.65283203, -0.32958984, -0.39013672, -1.2207031, 0.28857422, 0.6713867, 0.11743164, 0.8486328, 1.5048828, -1.0908203, 0.5205078, -1.2265625, -0.93310547, -0.9736328, 2.2597656, 0.27319336, 0.7675781, 0.67285156, 0.59716797, -0.7080078, -3.0351562, 2.2109375, -1.9072266, 1.6083984, 0.1661377, -1.0175781, 0.31396484, 1.2714844, -0.23596191, 1.4882812, 3.0507812, -0.12585449, -0.2932129, -2.4980469, 0.60595703, -1.5546875, 0.56933594, 0.40234375, -0.7133789, -0.65283203, -0.98828125, 0.79345703, -2.2929688, -0.14501953, 0.22875977, -0.14709473, 3.1503906, -1.4580078, -0.10687256, -0.1328125, 0.1315918, 2.2929688, -0.23913574, -0.68847656, -2.5332031, -0.6879883, 1.5361328, -2.2558594, 0.49389648, -1.2099609, 0.40063477, -2.0625, -1.6904297, 1.2089844, 0.14929199, 0.53222656, -1.2119141, -0.46704102, 1.3330078, 1.9814453, -0.70166016, 1.3125, 0.03970337, 0.60595703, 0.2298584, 0.24157715, 0.9838867, -0.72802734, -0.7910156, -1.6162109, -2.8085938, 1.6103516, 0.37695312, 0.5288086, -0.35961914, 0.7036133, 0.31469727, -0.88671875, 0.5463867, -0.8564453, -0.40649414, -0.4267578, -0.95996094, -0.6694336, 0.49023438, -0.7441406, -0.48168945, 0.54345703, 0.17749023, -1.0507812, 2.3632812, -0.4362793, -0.56152344, 1.3779297, -2.0664062, 1.3730469, -1.3583984, 0.18017578, -1.6875, -0.9819336, 2.078125, 0.64208984, 0.91552734, 0.3828125, 1.3603516, 1.3720703, -0.19592285, -0.032958984, -2.4667969, -1.7402344, 0.96484375, 1.6230469, -0.5292969, -1.6298828, -2.0722656, -0.54052734, -1.3046875, -1.7919922, 0.41064453, -0.2565918, -1.9990234, 2.6308594, 0.1005249, -1.3652344, -1.0136719, -1.4150391, -0.13635254, -0.15515137, -0.1529541, 0.5253906, 0.77197266, -0.57714844, 0.0680542, -0.546875, -0.9355469, 0.70947266, -0.9609375, -1.1816406, -0.5839844, 0.07519531, 0.92822266, 1.6542969, 1.3789062, -0.17602539, -0.99365234, -1.6455078, -2.0722656, 0.4934082, 1.4199219, 2.6582031, -1.3027344, -0.49560547, 2.5878906, -1.1630859, -1.6279297, 1.3535156, -0.8022461, 0.47680664, -2.2226562, 0.6147461, -0.36328125, -0.9135742, -1.1142578, -0.8676758, 1.0009766, 0.6660156, 1.2080078, 0.07324219, 0.77001953, 1.4794922, 1.3623047, 0.9145508, 0.8105469, -0.062286377, -0.5058594, -0.011795044, 1.0302734, -0.37597656, -0.25341797, 0.46166992, 1.1425781, -1.5849609, -0.21838379, 2.75, 2.1621094, 0.3762207, -0.5, -0.6230469, 0.7285156, -1.1914062, 0.36547852, -0.42773438, -1.3691406, -1.2255859, -1.3945312, -0.0071792603, -0.31640625, -0.54589844, 2.5488281, 1.9140625, 0.29370117, -2.3730469, -1.9609375, -0.8984375, 2.2011719, -0.8183594, 2.1269531, 0.10510254, 1.9140625, 1.8154297, 3.0488281, -0.2607422, 1.5576172, -1.7783203, 0.49267578, -0.58251953, -0.6035156, 0.4296875, 4.1210938, 3.2226562, -0.14416504, 0.40405273, -1.234375, 2.2089844, 0.22436523, -1.4970703, 1.8027344, 1.2988281, 1.1025391, -1.5039062, 0.31469727, 0.29125977, -0.3737793, -1.0166016, 0.37817383, -0.99072266, -0.09136963, 0.99072266, -1.2558594, 1.7236328, -0.74853516, 0.859375, -0.9770508, 1.9453125, -0.08093262, -0.5839844, -1.0576172, -1.2412109, -1.9716797, -0.019042969, -3.3457031, 1.7636719, -1.3105469, -0.09222412, -0.24169922, 0.33398438, 0.6489258, -1.5302734, 2.6464844, -0.09564209, -0.6904297, 1.5107422, -0.66503906, -0.054656982, 2.7109375, 1.5664062, -1.2539062, -1.0478516, 0.94677734, 1.3984375, 0.2421875, -2.609375, -0.27392578, -1.2929688, -2.1523438, 1.8681641, 1.0742188, 2.0566406, -2.0976562, -0.06903076, 0.81884766, 0.16577148, 0.81591797, 2.4824219, -0.017562866, -0.9375, 2.2304688, 2.1386719, 1.1621094, 0.96777344, -1.8505859, 0.51464844, 1.2197266, 0.16467285, -1.953125, 1.8320312, 0.012298584, 1.2128906, -0.5473633, 1.8291016, -0.30395508, -0.42700195, -0.2841797, 1.3193359, -1.171875, -1.6738281, 0.5776367, -0.09765625, -0.578125, 0.5048828, -3.6152344, 0.6826172, -0.89208984, -3.4003906, -2.2890625, 2.1347656, 0.2010498, 2.40625, -0.34936523, 2.3945312, -1.0126953, 0.9916992, -0.32373047, 0.46850586, -0.84765625, 0.0116119385, 0.54345703, 0.010101318, 0.29223633, -1.0273438, -2.3242188, -0.16247559, -0.9140625, 0.53271484, -0.23168945, -1.3945312, -1.1142578, 2.3046875, -0.17810059, 1.9150391, -0.48217773, 1.3759766, -0.31103516, 0.33666992, -0.15063477, -1.3701172, -3.9140625, 0.31176758, 0.22814941, -2.5371094, 1.3779297, 0.18359375, 0.0053215027, 2.6640625, 2.1582031, -0.6010742, 2.9121094, -1.0175781, 0.7241211, 0.76708984, 0.35888672, -1.4326172, -1.0166016, 0.92626953, 1.4101562, -0.28930664, -0.13244629, -0.32348633, -0.39672852, -1.1875, -1.6601562, -0.03439331, 1.5566406, -1.0644531, 1.8476562, -0.5239258, 2.4726562, 0.20800781, -0.005958557, -3.5546875, -0.81689453, -0.84716797, -1.3388672, -0.38354492, -2.875, 0.18261719, -0.12683105, 1.3945312, -0.31298828, 0.08807373, -0.05166626, -0.1652832, 0.68310547, -0.5966797, 0.33081055, 1.0253906, 0.72265625, -0.3569336, 1.2392578, -1.0449219, -0.36791992, 1.5380859, 0.81640625, 0.22351074, 1.0234375, -0.9916992, 1.0166016, 0.44873047, 0.27197266, 1.0859375, -1.5068359, -0.6738281, 0.6503906, -1.265625, 1.7753906, 0.75927734, -2.1328125, 0.21057129, 1.1855469, -0.64697266, -3.5332031, 0.42089844, 2.8613281, -1.4921875, -1.7177734, 0.35595703, 0.6777344, 0.14501953, 1.7636719, -0.94433594, -0.13378906, -2.3496094, 0.46044922, -0.96533203, -1.4042969, 1.2871094, 0.23779297, 0.12408447, -2.6445312, -0.6538086, -0.3395996, -1.5048828, -1.4726562, 0.9296875, 1.5332031, 0.07696533, 2.7226562, 0.7963867, -0.60058594, 0.9194336, 1.2597656, 0.87841797, -0.03857422, 0.68408203, -0.33642578, -0.17468262, 1.0097656, -0.359375, 0.0881958, 1.3632812, 2.2285156, -0.4362793, 0.2088623, 2.2773438, 0.30566406, 0.17456055, -2.484375, -0.25683594, -0.5756836, -0.86376953, -0.81884766, 1.5800781, -1.6943359, 1.9384766, -0.6982422, 0.18945312, 1.2490234, -1.1708984, -1.1083984, -0.9082031, -1.1103516, -1.5488281, 0.34423828, 3.3710938, -0.12939453, -2.2871094, -0.7133789, -0.8515625, -1.9990234, -1.4384766, -1.4101562, 0.35107422, -0.14880371, 1.2871094, -1.078125, 1.9931641, 0.45288086, -1.6269531, 1.2851562, 0.23034668, 0.6069336, -0.4267578, -0.20861816, 1.5664062, -1.6103516, 0.98046875, -0.5683594, 0.8754883, 0.06524658, -2.2441406, -2.15625, -2.2792969, -0.77441406, -1.3222656, 0.20214844, 0.08959961, -1.0126953, 0.19616699, 2.0917969, -0.71484375, 2.6542969, 0.15332031, 0.88720703, -1.4902344, -1.7490234, 0.17089844, -0.41015625, -0.1529541, -1.4794922, -0.20959473, -0.16894531, 0.2619629, 0.45654297, 1.0830078, -1.640625, -1.1630859, 0.38330078, -1.5722656, 1.140625, 0.8901367, 2.5371094, 1.1142578, 0.10803223, -0.7421875, 1.7207031, -1.578125, 0.10546875, -1.7509766, -0.061340332, -0.1303711, 2.2050781, 0.17553711, 1.296875, 1.2636719, 0.47973633, -0.94384766, 0.6118164, -0.8256836, -0.80566406, -1.7519531, -1.5410156, 0.84814453, -1.109375, 0.08807373, 1.0859375, -0.22851562, -0.038024902, 2.1386719, -0.4711914, 0.0075187683, -0.40429688, -0.57714844, 0.87353516, -1.8544922, -3.0214844, 0.3154297, -0.19128418, -1.7207031, 1.375, -1.7792969, -2.7988281, -1.2353516, 1.6269531, -1.1923828, -0.96875, -2.0097656, 1.2314453, 0.7866211, -0.038604736, -0.5078125, -0.18017578, -1.4101562, 0.2993164, -1.0722656, 0.27661133, -1.4873047, -1.1796875, 0.46313477, -1.4013672, 1.046875, -0.74853516, 0.61083984, 1.34375, 0.9399414, 1.7363281, -1.8613281, 1.1328125, 4.3945312, -0.04827881, 2.5039062, -1.125, 1.2734375, 0.2680664, -0.23730469, -0.020477295, -1.7685547, 1.8085938, -0.40673828, 0.41674805, 0.6972656, 0.6713867, 0.9941406, 1.4111328, 0.044403076, -0.8515625, -0.41186523, -0.42797852, 1.7871094, 0.64941406, 0.2956543, -0.111816406, -1.7099609, -0.0541687, 0.328125, 0.24926758, -1.8642578, 0.34887695, 1.6611328, -2.8886719, 1.0498047, -2.1484375, 0.45385742, -0.6274414, -1.7695312, -0.9921875, -1.1855469, -0.5678711, -0.17041016, 0.87597656, -3.171875, 1.5927734, 1.2001953, 1.9785156, -0.33276367, -0.8964844, -0.9008789, -1.4443359, 1.1337891, 0.2512207, 2.8691406, -1.3105469, -1.1513672, -1.4853516, -0.002401352, -2.328125, 3.1464844, 2.4179688, 0.5078125, -0.8642578, 2.25, -0.049224854, 2.2402344, 1.6318359, 0.30395508, 0.97802734, -1.9414062, 0.24682617, 0.69628906, 2.4023438, 1.2949219, -1.0302734, 1.3115234, 0.35424805, -0.029022217, -1.1074219, 0.4729004, -1.2089844, 1.609375, 1.2353516, -0.052093506, 0.1361084, 1.1074219, -1.0751953, 1.3291016, 0.34301758, 1.7441406, 2.1308594, -1.0527344, -0.29296875, -2.8808594, -2.1191406, 0.3244629, -0.16235352, 1.2285156, 0.8725586, 2.1308594, -0.13989258, -0.8227539, -0.26000977, 0.23083496, -0.17651367, 1.8837891, 0.71777344, -0.3347168, 1.9912109, 0.60498047, -0.2890625, 0.34643555, 0.62841797, -0.93652344, 2.0644531, -0.3881836, -0.54541016, 1.2529297, -0.6767578, 0.44848633, -1.7626953, -1.8955078, 0.44140625, 0.9716797, -3.0878906, 1.8603516, -0.75390625, 0.07849121, -0.1784668, 0.19433594, -1.2607422, -0.35961914, -2.0371094, 0.032958984, -1.1621094, -0.1772461, 0.13903809, -0.17102051, -1.0332031, -0.8071289, -0.50878906, -2.78125, -0.54296875, 0.3293457, -0.08929443, 0.4025879, -0.5600586, 0.020965576, 0.07635498, 0.11187744, -1.3398438, -0.12042236, -2.4238281, -0.35253906, 1.5410156, 0.82177734, -1.6650391, -0.35888672, 0.0154418945, -0.1895752, -2.7304688, -0.41870117, -0.5629883, -2.2441406, -0.50878906, -0.54589844, 1.3554688, 2.84375, 1.7753906, -2.7675781, -1.9199219, -0.6064453, 4.0820312, 0.26391602, 0.4404297, 0.1772461, 0.12231445, -0.008796692, -0.6298828, -0.78027344, 0.8964844, -1.0693359, -1.8212891, 1.1621094, -0.7441406, 1.6435547, 0.9511719, -0.6953125, -1.0322266, 0.55859375, 1.0615234, -0.83740234, 0.43701172, -1.3291016, 0.26904297, -1.8017578, 1.8115234, -1.5205078, -0.8149414, -1.2548828, 3.1035156, 0.5449219, -0.48242188, 0.4362793, -0.3461914, -0.7006836, 0.92626953, -0.56884766, 0.90478516, -1.8994141, 1.2929688, -0.22473145, -2.3691406, -1.0771484, -0.30249023, 1.1455078, 0.09375, -0.25732422, 0.10821533, -0.9082031, 1.2519531, -0.41503906, -0.38623047, 0.5625, -0.28466797, -0.10040283, -0.43359375, -1.7783203, -1.2128906, -1.0556641, 0.008621216, 2.5488281, 0.5571289, -0.6088867, -1.2910156, -0.6074219, -0.12475586, -0.19885254, 0.42333984, -1.6464844, 0.44873047, 1.0341797, 1.9404297, 0.6328125, 1.2001953, 3.0195312, 0.03933716, 0.6660156, -0.6381836, 1.0888672, 1.4404297, 0.41210938, -0.27148438, 1.3847656, 0.35717773, -0.6411133, 2.3613281, 0.7792969, -0.047943115, 0.09710693, 0.97998047, -3.8496094, -0.43066406, 3.3828125, -2.1347656, 0.81591797, -0.5761719, -0.44628906, -0.7080078, 0.27612305, -2.0292969, 1.8828125, -0.30615234, -0.21594238, -0.5629883, -0.43920898, 0.81933594, -1.6728516, 0.03842163, -0.016906738, 0.26611328, 0.7373047, 3.9648438, 0.71728516, -0.9169922, 0.8100586, 0.7895508, 2.3867188, 0.49902344, -1.7773438, 1.8144531, 0.17407227, 0.51660156, -0.46875, -1.5292969, -3.2519531, 1.6699219, -1.8095703, 0.59375, 0.24804688, 0.6586914, -1.9414062, -1.4433594, -0.48999023, -2.5292969, -0.20373535, -0.34033203, 0.42041016, -0.29711914, 3.6523438, 1.0791016, 0.16540527, -2.2324219, 0.22851562, 0.27807617, 1.0175781, 0.9824219, -0.8076172, 1.4941406, -0.80029297, 2.0351562, 0.15075684, 1.0732422, -2.7265625, -1.2705078, -0.9472656, 0.25317383, 0.23156738, 2.4765625, 0.037963867, 2.2460938, 1.03125, -0.14465332, 3.6308594, 1.2685547, -0.6464844, 0.18579102, -0.34545898, 0.6977539, 0.1295166, 0.47460938, 0.08416748, -0.1751709, -0.36816406, -0.34277344, -0.61621094, 0.46142578, 0.3408203, -0.53564453, 0.2998047, -0.36206055, -0.97509766, -1.9267578, 1.4873047, -3.4375, -0.2512207, -1.4570312, -0.0287323, 0.6455078, 0.94140625, -2.7714844, -0.61865234, -2.0234375, -0.8901367, -0.5703125, -1.7871094, -0.26586914, 2.0273438, 1.1445312, 0.9892578, -0.5996094, 0.7939453, 1.3916016, 1.0761719, 2.4316406, -1.5576172, 2.3730469, -2.734375, 1.1777344, 1.1425781, 2.7050781, -1.4042969, 2.4628906, -0.6542969, -0.7578125, -0.17785645, 2.7324219, -0.7973633, 0.44482422, -1.0478516, -1.7294922, -0.60009766, 1.7451172, 2.3144531, -1.2089844, -0.19396973, -0.72509766, -1.7285156, 0.34545898, -1.078125, -0.9008789, 1.1142578, 0.59472656, -0.32836914, 0.75878906, -0.53027344, 0.73095703, 2.4804688, 0.7685547, -2.453125, 1.4433594, -1.4794922, 1.3212891, 0.15393066, 4, 0.9394531, -0.0736084, 1.4726562, -0.9394531, -1.5488281, -1.1298828, 0.6040039, 3.2636719, 0.62841797, -1.7070312, 1.0458984, 0.10522461, -0.6557617, 0.9428711, 1.7714844, -0.921875, 0.5390625, 2.6386719, 0.5449219, -0.71191406, -0.21862793, -2.3789062, 1.2617188, 0.17651367, 0.75634766, 0.70410156, 0.091796875, 1.5195312, 1.4365234, 2.3144531, 0.36450195, -0.6142578, -0.09881592, -0.26953125, -2.3789062, 1.1640625, -0.4501953, -0.74316406, 2.1542969, 2.1835938, 0.7163086, 0.4501953, -0.16418457, 2.265625, -0.8334961, -0.6958008, -0.84765625, 1.8710938, -0.7319336, -0.94628906, -0.20483398, -0.30810547, 0.64453125, 1.0957031, 1.234375, -2.2792969, 0.09448242, 0.7426758, -0.26733398, 0.609375, -2.2226562, -0.4909668, -0.75439453, 0.859375, -0.39013672, 0.05239868, 0.7783203, -0.89160156, -1.4199219, -1.5488281, -2.3613281, -2.1582031, 0.46484375, -0.21582031, -0.0023651123, 1.5332031, 0.9482422, -0.5751953, -0.89453125, 1.4013672, -0.30517578, 1.3457031, 2.7675781, -0.44848633, -1.8261719, -0.4970703, -1.2597656, 0.91308594, -0.35546875, -0.72802734, -1.3134766, -0.14733887, 1.1689453, -1.4101562, -0.6123047, -0.8378906, 0.88134766, 1.1679688, 0.056762695, -0.14624023, 0.12927246, -1.3613281, -0.8989258, 0.33203125, 0.5058594, 1.3955078, -2.0585938, 0.5698242, -2.9257812, 1.0068359, -1.7070312, -0.1842041, -1.3515625, 0.88720703, 1.1240234, 0.8120117, 3.3964844, -0.31689453, -0.045410156, -0.2927246, 0.4411621, 1.875, 0.6352539, -0.9194336, -0.46655273, -0.18078613, 0.3828125, 0.43774414, 1.1601562, 0.059753418, -0.09967041, 0.3930664, 0.16906738, 1.3398438, -1.2382812, 1.8974609, 0.41137695, -0.45507812, 0.5751953, 2.359375, 1.1660156, 0.14465332, -2.1445312, 1.1582031, 0.7504883, -0.11828613, 1.2949219, -0.057891846, -0.81591797, -0.77783203, -1.4746094, 1.8222656, 2.2929688, 0.0463562, 0.46679688, -0.38330078, 2.1777344, 0.010978699, -0.2397461, 5.0234375, 0.05053711, 0.26416016, -0.30664062, 3.4042969, 1.1552734, 1.9199219, -0.8251953, 0.12475586, -0.18200684, -1.3173828, 2.0332031, 0.037200928, -0.6772461, -1.1679688, -0.9741211, -1.1152344, 0.052001953, -2.2734375, 1.53125, -3.046875, 0.20959473, 0.8486328, 0.50634766, 2.6230469, 1.6914062, 1.2304688, -1.0664062, 0.6166992, -0.36914062, -0.7939453, -0.35986328, 1.5175781, -0.22265625, 0.7973633, 2.4941406, -0.094055176, 0.6357422, -0.47094727, -1.4287109, 1.4501953, 0.40600586, -1.2070312, 0.2548828, -0.34033203, -3.3398438, -1.9160156, 1.2412109, 1.2861328, 1.9824219, 1.9697266, 0.6152344, 1.2919922, -1.3271484, 0.087890625, 0.52783203, -0.33251953, -0.14550781, -0.3791504, -1.0117188, 0.5986328, 0.8989258, -1.4550781, 2.2695312, 1.5009766, -2.4609375, 0.5073242, -1.5957031, -2.4570312, 1.5078125, -0.14001465, 0.96484375, -1.5117188, 0.94628906, -0.6845703, -0.8076172, -0.62402344, -0.55908203, -0.90771484, -1.2158203, -0.14929199, -0.8876953, 2.5742188, -1.9091797, 0.29785156, 1.5546875, 0.9428711, -1.7412109, 0.028839111, 0.0061531067, -0.8364258, -0.70751953, 0.26123047, 0.8354492, -0.90771484, -0.79541016, 0.14343262, 1.0634766, -0.58984375, -0.25878906, 0.45410156, 1.4208984, 0.022888184, -0.3642578, -0.027511597, -1.5234375, 1.1240234, -0.359375, 2.703125, 0.8857422, 4.1289062, 1.1210938, -1.2792969, -1.3417969, -0.5332031, 0.52001953, 1.7158203, -1.2988281, 0.921875, -0.9814453, 0.27978516, 2.4746094, -0.12768555, -0.97558594, 3.078125, -1.4853516, 1.0849609, -1.0859375, -0.5708008, 0.46142578, -2.9199219, -1.5400391, 0.35986328, 0.68115234, -0.64990234, -2.5800781, 0.19592285, -1.6787109, -0.26245117, 3.7675781, 0.8613281, -1.1523438, 2.6425781, 1.8876953, 0.21691895, 1.1748047, -0.47338867, 0.32910156, 0.79833984, -1.5068359, -1.8779297, -1.0527344, 0.022109985, -0.50683594, -1.5273438, -0.78271484, 1.8964844, -2.3574219, 0.65234375, 0.0692749, 0.043884277, -0.47265625, -2.109375, 1.3564453, -0.17822266, -0.3828125, 0.69091797, -0.33569336, -1.9052734, -0.97753906, 0.61865234, 1.0966797, 2.1113281, 0.4362793, -1.9853516, 0.74072266, 2.4160156, 1.6113281, -0.34277344, -0.41625977, -0.3972168, 1.9394531, -1.2587891, 2.7324219, 1.5332031, 0.0206604, 1.0488281, 0.109436035, -0.70751953, 2.2558594, 5.09375, 1.0048828, -0.70166016, -1.4423828, -2.4980469, -1.0087891, -1.1552734, 1.4414062, -2.1015625, 1.2333984, -0.15429688, 0.9707031, 0.06982422, 0.12011719, 0.83496094, -0.83251953, -3.0195312, 0.10656738, -0.25585938, 0.7036133, 1.0888672, 0.77441406, 1.2314453, -0.95214844, -1.0966797, 0.83496094, 1.3701172, -0.8261719, -1.5566406, 0.45458984, 0.1694336, 0.18164062, 1.1289062, 1.5390625, -0.29248047, 0.37231445, 0.96191406, -1.4570312, 1.1943359, 1.8515625, 1.8691406, -2.3203125, -0.32080078, -1.5302734, 0.7138672, -1.8398438, 0.48095703, 1.4990234, -0.50146484, -2.4824219, 1.8095703, -2.4394531, 1.2460938, 1.40625, -0.016723633, -1.078125, 2.5566406, 5.6484375, 2.6035156, -0.09259033, -1.0283203, 1.2392578, 0.43115234, 1.2900391, -0.4099121, -0.70458984, -1.0869141, 2.8457031, -1.6220703, -0.5595703, 1.2675781, 0.4255371, -0.12219238, 2.9335938, 0.039031982, 0.7006836, 1.1162109, 1.0576172, -0.13232422, 1.2021484, 1.9169922, 0.83935547, 0.35253906, 0.12487793, 0.70996094, -0.8203125, 2.1113281, -0.0178833, 0.5058594, -0.20874023, 0.43579102, -0.017623901, 0.3786621, -0.13635254, 0.7602539, -0.0770874, -2.5722656, 1.5117188, -1.0693359, -1.1650391, -0.07122803, -0.24072266, 0.37548828, -1.3779297, 0.42358398, -0.034423828, 0.6123047, 0.6425781, 1.2695312, 2.1152344, 0.2121582, -1.6386719, -1.1367188, 0.34448242, -0.59277344, 1.5058594, 1.5966797, -0.34521484, -0.12719727, -0.234375, 0.8486328, -0.18444824, -0.14367676, -3.1835938, 2.859375, -2.7753906, -0.59814453, 2.0546875, -0.1418457, -0.6723633, -0.9614258, -0.29223633, 0.42993164, -1.7167969, 0.28076172, -0.38110352, 0.16577148, -0.37939453, 0.9980469, -0.7324219, 1.6123047, 0.7480469, -2.5351562, -3.7050781, 0.85839844, -0.56152344, 1.4433594, 1.1044922, 2.0683594, -0.2854004, -2.7871094, 1.0019531, 0.50097656, -0.0309906, -0.56933594, -0.07989502, -1.9941406, -0.74853516, -2.4316406, 0.19250488, -1.6708984, -1.3613281, 0.026260376, 1.7617188, -0.16540527, -0.16101074, 0.97265625, -0.08929443, 0.67529297, 1.5947266, 2.0546875, 0.06982422, -0.8798828, 1.4560547, 2.4023438, 1.7949219, -1.5009766, -1.9160156, 0.60253906, -0.9067383, 0.89746094, 0.63183594, 0.9838867, -0.48706055, -2.2441406, -0.5419922, 1.125, -0.46606445, -0.072143555, -2.2324219, 0.296875, 0.69677734, -1.0771484, 2.5507812, -0.7109375, -0.45410156, -1.8378906, -1.1767578, -1.1904297, 0.10601807, -1.0351562, -0.5908203, -1.0947266, -0.24084473, 2.0742188, -1.5214844, 0.6689453, -0.41259766, 0.32421875, 0.7495117, -0.56640625, -0.12695312, -1.7070312, -0.55371094, 0.2685547, -0.6166992, 1.7128906, 0.56347656, -1.53125, 0.047790527, -0.45043945, 0.072631836, -0.5644531, -1.4746094, 0.24609375, 0.6591797, -1.0498047, 0.47265625, -0.70703125, 1.1572266, -1.0830078, -0.4572754, 1.9472656, 0.33081055, 0.88623047, 1.6601562, -1.4404297, -1.1367188, -1.6152344, -0.40112305, -0.09197998, -1.1572266, 0.47509766, -0.046569824, -0.82910156, -1.7373047, -3.0039062, -1.8115234, 0.5629883, -0.80322266, 3.6386719, 0.52490234, 0.2208252, 0.49291992, -0.24731445, 0.44384766, -2.5351562, 0.4116211, 1.09375, 1.0185547, -2.3535156, 0.049316406, -7.5585938, 0.052093506, 1.0048828, -0.03366089, 0.55566406, 1.6484375, -0.7939453, 0.8798828, -1.5761719, 1.375, 0.085632324, -0.31958008, -2.1582031, 0.5522461, 1.1210938, 1.4384766, -0.2614746, -0.6308594, -3.3203125, -0.8984375, -0.58740234, 4.5507812, 0.2364502, 1.2402344, -0.40576172, 0.24291992, 1.2392578, -0.54052734, -0.028869629, 0.016662598, 0.9692383, -0.49902344, 1.7216797, -1.375, -0.63134766, -0.52978516, 0.10247803, 0.921875, -1.5332031, -2.1738281, 0.07702637, -0.40063477, -1.265625, -0.9770508, -1.2333984, 1.2011719, 1.5673828, 1.9375, 0.72802734, -0.062347412, -1.0449219, -0.09631348, -1.9365234, 0.49267578, -0.05065918, 1.0351562, -1.3398438, 0.8647461, -1.8027344, -0.96777344, 2.3398438, -0.90478516, -0.75146484, 2.4296875, 1.2060547, -2.3574219, 0.45507812, -0.9345703, -1.6289062, -2.9667969, -1.1923828, -0.03010559, 1.3271484, -1.4238281, -0.48583984, -2.0546875, -2.8242188, -0.21240234, 0.048095703, -0.9165039, 1.5488281, -0.051513672, -0.26489258, 1.0957031, 0.9277344, -0.9926758, 0.33544922, -1.1044922, 2.4199219, -1.0195312, 1.2451172, 0.74658203, 1.5136719, 0.68310547, 1.0097656, -0.9448242, 1.6025391, 1.9736328, -1.3613281, -3.4921875, 0.92578125, -0.94628906, 0.8227539, -1.0410156, -2.140625, -1.9550781, -1.0820312, 1.71875, -0.78125, 2.0996094, 0.1640625, 0.77441406, 0.109313965, 0.0067863464, -0.5498047, -1.3193359, 0.42236328, 1.9287109, 0.025604248, 2.1445312, -0.7397461, -1.1835938, -3.2753906, 2.6445312, 1.9121094, 0.1977539, 0.17163086, -1.6240234, 0.38232422, 1.4726562, 0.33398438, 1.4902344, -0.31591797, -1.9306641, 0.13684082, -2.7480469, -0.27978516, -0.17907715, 0.53808594, -2.1347656, 0.41088867, 1.5400391, 3.9082031, -0.5932617, 0.08093262, 1.8007812, -0.06781006, -1.9863281, -0.64160156, -0.5463867, -2.1933594, 1.0175781, 0.15490723, 1.1455078, -0.6645508, -0.44848633, -3.4570312, -0.50634766, -0.4880371, -0.671875, 1.3896484, 0.94091797, 1.40625, -1.703125, -1.5537109, 1.2021484, -2.03125, 0.08685303, -2.6660156, -0.8100586, 0.33618164, -2.6074219, 1.0058594, -1.5126953, -1.6279297, -0.47705078, -0.047912598, 1.109375, -1.2089844, -0.3852539, -0.37475586, -0.6279297, -1.0341797, -2.0585938, -1.1445312, -0.9663086, 0.66308594, 0.30322266, -0.7939453, 2.4941406, 0.26586914, 0.40185547, 1.0761719, 0.33618164, -2.0097656, 0.42529297, -2.0585938, 0.97216797, 0.81884766, 0.17614746, -1.1894531, -3.3339844, 0.13781738, 0.7832031, -1.5585938, -0.1574707, -1.4589844, -0.65478516, -0.47583008, -0.24267578, -0.44921875, 1.0878906, 0.11065674, 1.40625, 0.79296875, -0.24206543, 0.73339844, -0.7397461, 1.0458984, 0.0770874, 1.6220703, 1.5595703, -0.26538086, 0.01789856, 0.5786133, -0.022720337, 1.0371094, -1.0371094, -1.7158203, 1.2597656, 1.9931641, -0.10180664, 2.3535156, 0.80566406, 0.81152344, -0.34350586, 0.7519531, 1.7099609, 0.7871094, -1.2626953, -0.75146484, 2.4707031, -0.65478516, 0.6274414, 1.6904297, -0.55029297, 1.6279297, 0.18981934, 2.1660156, -0.5913086, 1.6865234, 0.49169922, -1.8994141, 1.2480469, 2.8554688, -0.5996094, 1.5927734, 1.2226562, 1.4033203, 0.5336914, -0.9682617, -0.40966797, 0.15283203, 0.8076172, -0.8310547, -0.14794922, 0.57470703, 0.37695312, -2.1425781, 0.27124023, -1.7705078, 0.23522949, 0.38427734, 0.07684326, -3.7128906, -0.5732422, 0.2578125, 3.5488281, 2.2734375, -0.009277344, -1.5625, -1.3964844, -2.4472656, 0.4567871, 0.59277344, -1.1826172, -0.3647461, 0.19616699, -0.6220703, 0.69628906, -1.1318359, -0.49121094, 0.097961426, -1.2275391, 0.7636719, -0.41015625, 1.1152344, 0.24194336, -1.2783203, 1.3935547, 0.22070312, 0.61035156, 0.5317383, -1.4570312, -0.5629883, -0.44799805, -0.7451172, -0.41625977, -1.0644531, -1.0380859, 0.66796875, -0.65966797, 0.76660156, 0.26049805, -0.08441162, -0.6196289, 0.87353516, -1.3632812, 1.3564453, -2.4648438, -1.4707031, -0.7001953, -0.046691895, -1.0771484, -0.4729004, 0.7709961, -1.1328125, -0.984375, 2.8125, 0.9663086, 0.2854004, 0.66308594, -0.40454102, -0.38476562, 0.37182617, 1.2197266, 0.11651611, -0.6274414, 0.2956543, 1.5615234, -1.5214844, -1.3017578, -0.35913086, 2.34375, 0.097961426, 1.5263672, 2.0429688, -0.7734375, 2.0839844, 2.2285156, 0.43139648, -1.0947266, 0.84521484, -1.0126953, 1.0458984, -1.7939453, 0.6147461, 0.87402344, 0.06695557, 0.36987305, 2.2675781, -0.3852539, -0.009712219, -0.9404297, -1.640625, -0.27954102, 0.41308594, 1.9433594, 0.27905273, 1.1494141, 1.3457031, 1.2871094, -0.52246094, 0.43652344, 0.28442383, -0.2800293, -2.5820312, -0.6464844, -2.3261719, 1.6357422, -1.8457031, -1.5986328, -1.5146484, -0.52734375, 0.29077148, -0.81689453, 1.734375, 0.12792969, 0.5136719, -0.88183594, 0.11981201, -1.3154297, 1.1201172, 2.6875, 2.6367188, -1.375, -1.3222656, -0.096191406, -0.11816406, -1.3349609, -1.4228516, -2.2773438, -1.078125, 0.28735352, -0.43066406, 0.7973633, 0.37158203, 2.2675781, 1.15625, 1.3339844, -1.0214844, 0.26635742, 0.79541016, -0.72314453, 0.26879883, 1.0986328, 0.81884766, -1.6279297, 0.33740234, 0.4440918, -0.24499512, 1.9912109, 0.56396484, 0.9863281, -1.4433594, -1.3955078, 0.2253418, 0.84228516, 1.6914062, -0.97314453, 0.39282227, -0.7080078, -0.37548828, -1.2158203, -0.8574219, 0.8466797, 2.65625, 2.0605469, -0.26416016, 0.20947266, -0.1472168, 0.4296875, 1.0048828, 2.9453125, 1.0351562, -0.1850586, -1.8378906, 1.9609375, 0.6015625, 1.1347656, -1.328125, -1.7460938, 0.41796875, -0.9902344, -1.0839844, -1.9121094, 0.36743164, 0.4206543, -1.3603516, -1.2285156, -1.0927734, 1.2539062, -0.4580078, 2.0078125, -0.24047852, -1.2158203, -0.02281189, 1.4609375, 0.027389526, -0.7084961, -1.6582031, 0.4790039, -0.7416992, 0.46557617, -0.0690918, -2.0566406, -1.4355469, -0.22595215, -0.6635742, -0.3330078, 0.72216797, 2.6035156, -0.22692871, 0.89990234, -0.47216797, 0.4506836, 0.30322266, 0.94091797, 0.28686523, 1.5029297, -1.8310547, -0.5551758, 1.8671875, -1.6171875, 0.044799805, -0.66552734, 0.050689697, -2.7167969, -2.4765625, -0.74853516, 0.10308838, -0.7392578, 1.1621094, -0.796875, -0.042785645, 0.31079102, -1.3710938, 0.51464844, -0.090148926, -0.26733398, -0.03579712, 1.78125, 0.028656006, -0.37109375, 0.828125, 0.5209961, -0.16247559, 1.5546875, 0.2980957, -1.0898438, 1.2949219, 0.18798828, -0.76953125, -1.2148438, -2.6640625, -0.47143555, -2.0585938, -0.2644043, -0.62597656, -1.6113281, 2.1152344, -0.20117188, -0.98583984, 2.0039062, 1.2412109, -0.85009766, 0.38452148, 0.4802246, -1.2392578, -0.22155762, 1.203125, 0.17687988, -2.0195312, -1.4384766, 1.7421875, -1.8818359, -1.1191406, -0.34887695, -0.47973633, -0.3293457, -0.09222412, -1.1054688, -0.54052734, 0.35253906, -0.122802734, 0.99121094, -1.1025391, 1.2060547, -1.1289062, -0.64404297, -2.484375, -0.45263672, -1.0527344, 1.90625, -0.7915039, -1.1748047, 0.6484375, -0.83984375, 1.4755859, 0.1776123, -0.8339844, 0.6074219, -0.58740234, 1.296875, 1.7128906, -1.0195312, -1.0332031, -0.06976318, 0.1328125, 0.27416992, -0.7836914, -0.11468506, -0.32592773, -0.30151367, 0.453125, 1.5673828, 1.8779297, 1.6708984, 0.15771484, -1.8886719, -0.71875, -1.4931641, -1.9160156, -0.3684082, 0.60839844, -1.0039062, -1.7431641, -3.1582031, -0.5878906, 0.6875, -0.20422363, 1.8466797, -0.4338379, -1.5322266, 1.5507812, -2.0351562, -0.86328125, -1.0761719, -2.2929688, 2.6015625, -0.32202148, -0.3864746, -0.22192383, 0.029800415, -0.5810547, -0.15576172, 1.4794922, -0.02923584, -0.61865234, -0.70214844, -0.26782227, 0.8129883, 1.1796875, 0.2442627, 0.44799805, 0.5576172, 1.1464844, 0.09460449, -1.0634766, 0.13061523, -0.9404297, -0.5371094, -0.55810547, 1.9599609, 0.5620117, -1.7636719, 0.8251953, -2.2636719, 1.0419922, -0.7866211, 2.1152344, 0.59033203, -0.9794922, 0.3798828, -0.19519043, -0.80078125, -0.55810547, -1.8369141, -1.8046875, -0.61328125, 2.5449219, 0.4663086, 0.109069824, 1.9140625, 0.7729492, -0.7109375, 1.3173828, -0.8261719, -0.6977539, -0.43652344, -0.0059890747, 0.4880371, 0.45922852, -0.18286133, -3.2167969, 0.5258789, 1.1992188, -1.4892578, -1.2910156, 0.70996094, 1.8798828, 0.2368164, 0.25854492, 0.44604492, -1.6542969, 1.3486328, -1.2060547, -0.47851562, -1.2832031, 0.6894531, -1.1806641, 0.44335938, -3.015625, -3.1054688, -0.40820312, 0.9194336, 1.9492188, 0.9707031, -0.021224976, -0.8847656, 1.5517578, -0.75341797, -1.4414062, 0.95410156, 0.59375, 0.68115234, 1.0048828, -0.064086914, -0.36010742, 0.2565918, 1.3662109, 1.6464844, -0.50390625, 0.36401367, -0.8964844, -1.9033203, -1.3808594, 0.048919678, -0.7626953, -</t>
-  </si>
-  <si>
-    <t>[0.40647706, -0.7565313, -0.30101815, 0.4198651, -1.9160215, -1.1935644, -1.5283527, -0.04686023, 1.7305707, -1.2112327, 2.0005224, -0.023305438, -0.08166171, 0.3205685, -1.5538163, 1.8167816, 0.8755236, -1.2014974, -0.3374287, -0.14070147, -0.3748167, 1.4578202, 0.3163208, -1.1731927, -0.877254, 2.7757103, 0.84273404, -0.03170237, -0.2265932, -0.8989982, 2.3233962, 0.9159021, 1.3810871, -0.03984792, 0.08891961, -1.0280828, 0.9672336, 0.79265714, 1.8260711, -0.21807927, 0.1719726, 2.1356494, 0.9366115, 0.33719164, -0.44982478, 0.14680411, -1.3214217, -0.9634639, -1.4047284, -0.45932856, 1.1383417, 0.09482007, -2.1283734, 2.2547636, -2.3138878, -0.48510483, -0.11213266, -0.7143804, -0.7228204, -0.18401694, 0.5566154, 0.79441446, -0.09401839, -0.48825026, 0.1342507, -0.6156474, -1.0487986, 0.85947, 0.010998782, 1.0912663, 0.51902735, 0.9671328, -0.6319414, -0.15887618, 1.9089862, 0.17611213, -0.036241125, -1.0907196, -0.70200855, 0.6857044, 0.09444361, 0.99854964, -0.777298, 0.54418683, 0.2308742, -0.61664075, -1.9057704, -1.1966459, 0.1839355, -0.7559613, 3.3036332, -0.19032484, 1.2129711, 0.32698607, -1.0343361, 0.82150596, 0.28708157, 0.44370574, -2.6237235, 1.8739527, -0.7538182, -0.7181738, 1.3629048, 2.1939907, -0.9278282, -0.7547426, -2.1678135, -0.9908576, -0.6604388, 1.1748649, -0.7278504, -1.3190371, 1.1479177, 1.8533813, 1.1247718, 1.3333172, 0.5626344, -0.7544323, -1.0721568, -2.0809608, -1.0580139, -0.9808777, 0.3493516, 2.5689895, -0.8207504, -1.5462494, -0.6776388, -2.3164642, -0.38755095, 1.5528201, -0.7465745, 0.45853373, 1.8330368, -0.8020963, 3.9929752, 2.6878684, -1.0151801, -1.8860167, 1.2537881, -0.62512624, 0.5901852, 1.2325215, 0.71763617, -0.44182676, 0.44199356, -1.1339716, 1.2332733, -0.7782798, -0.63194513, 0.53331083, -0.036280587, -1.5757664, -4.8645487, 1.4483476, 0.52942663, 0.7684012, 0.6146227, -1.5510477, 0.3443599, 0.76467973, -0.36116856, 0.012466956, -0.53877056, -1.6021035, 2.6956577, -0.05649466, 2.810102, 1.6334276, 0.26604927, -0.877405, -0.2469507, -1.2121406, 0.72584325, 0.47204113, 1.5327027, 1.2972451, 1.9336737, -2.026132, 0.8531339, -1.7482884, 0.008311787, 0.2935862, -0.19942321, 0.99952996, -1.7962923, -0.73327446, -1.5197223, -1.3700616, 0.6678011, 0.18333773, 1.1025089, -3.5788734, -2.5655026, -0.17859393, 0.030380014, 0.12826636, -0.012053828, -0.42668426, 4.42447, -1.8689333, -0.41998908, -0.8413245, -0.2841959, -0.41038737, -0.051268954, 2.212162, -0.11547127, -1.1116444, -0.34254986, 0.6826884, -0.9140608, -0.46872798, 0.51449555, 1.0163479, -1.2578177, 0.2952474, 0.93589497, -1.1244416, 1.3010963, -0.25718725, -0.27031377, -1.2645384, -1.556022, 1.2544612, -2.4682426, 1.4061515, -0.13971968, -1.8647779, -0.5276415, -1.419338, 0.861963, -0.9902604, 0.701213, 0.8334492, 0.9774348, -1.6128017, -0.5164718, 1.590767, -0.52611697, 0.69350344, 1.1494418, 0.2984137, -1.2107359, 1.6155148, -0.52732694, 1.2049484, 0.42378873, -2.684583, 1.4435343, -0.7888528, 1.9040455, -2.2996993, -1.1340563, 0.7394304, 0.84693867, 0.93652, -1.0795475, -0.47910526, 0.035776593, 0.47186157, -0.3611277, -0.09811304, 1.3139133, -0.18800682, 0.88133085, -0.1140186, -1.187782, 0.24435493, 0.40384567, 0.30016842, -0.6545876, 0.15075871, 3.938195, 0.3306388, -2.0569243, -0.056174353, 1.3175368, -0.3987862, -1.4443023, 0.42688176, 0.092165835, -1.9585603, -0.32880762, 1.0017365, -0.5244378, 0.8042114, -1.706496, -1.2331018, -0.085265316, -0.66029847, -1.3318228, -1.2766162, 0.0546791, -1.5353026, 0.721192, -2.3742006, -1.4804132, -1.7407395, -0.17852502, -2.0138757, -0.56323445, -0.82504416, -2.2480586, -0.2862533, -0.17342962, 0.54646957, 0.8496379, 0.64801407, 2.150635, -0.17880651, 0.5115346, -0.20271723, -0.26088873, -0.22284392, 0.67806363, 0.15474866, -0.6691179, -0.16174273, -1.7146648, -2.0205936, -0.1521978, -2.8547342, 0.94016325, -0.43442142, -1.7893753, -1.1141744, -1.5824553, -1.0475955, 2.546905, -0.21862142, 0.9904157, 0.44579035, -1.8713695, -0.7657084, -0.15681185, -0.6343612, 0.48148933, 0.85414696, -0.18747799, 0.5491674, 2.0408373, 0.92215073, -0.9296817, -0.34010556, -1.5716574, -0.24818617, 0.26321718, -0.86696625, 0.17262799, 0.24318665, -1.4706672, -1.5189173, 1.9198292, 1.7440132, 1.0043346, -0.94004667, 1.5367161, 0.49561995, -1.2181557, 0.6911155, 0.9831633, 0.61621094, -2.875308, 0.11224271, 1.241343, 0.03592951, 0.23598377, -0.9286217, 1.5804546, -2.5141723, 0.08542402, 0.40473187, 0.6662056, 0.26092348, -0.09747379, -0.8585809, 0.42273456, 0.530652, 0.5780665, -0.49484727, 2.177234, 1.8102804, -1.364786, -0.86834985, -1.2559242, -0.101914085, -0.93017405, 0.6919484, -0.03613629, 1.4832664, 0.31814188, -1.4859853, 1.0210024, -0.38548386, -0.0154466005, -1.605339, 1.8836766, 1.8649702, -1.1281347, 0.67882794, -0.7878612, 0.6493949, -0.47164378, -0.9901915, -1.8291119, 2.3588212, -1.7303494, -0.35793507, -0.15885417, 0.8947062, -0.24671699, -1.2410685, 1.0502658, -0.4567764, 1.2626641, -0.15588567, -1.347793, 0.044902038, -0.84837914, 0.745741, 0.3276118, 0.29933783, 1.0163056, 1.2716929, 0.52566284, -1.7461795, -0.3538562, 0.71769005, -3.608161, 1.245459, -0.21026213, -0.037734207, 0.2083901, -0.29522684, -1.5103287, -2.7627497, 1.3214501, 0.103945985, 2.3848305, 0.025038606, -0.6407426, 0.63327587, 1.6728435, 0.9000877, 1.7919806, 3.6297681, 1.5911725, 0.3956584, -2.2199895, 1.4675545, -0.83371836, -0.86127484, -0.13122313, -0.7436494, -0.17121874, -0.52610075, -0.14689562, -2.0805578, 1.2825556, -0.8481399, 0.24090452, 2.392335, -0.7241063, -1.7024971, 1.2656974, 0.6450641, 1.857167, -0.44284445, -1.1680377, -1.8433955, -0.48487893, 1.5303174, -0.5573797, -0.3326539, -1.7490396, 0.8941629, -2.7642975, -0.66964126, 0.6998561, -1.4131532, -1.4853272, 1.1688375, -0.57335687, 0.9652898, 1.693854, -2.2613018, -1.3936532, 1.9486268, -0.3318569, 0.05122638, 0.29241502, 0.57523805, 0.25701144, 0.6700548, 0.52718735, -1.1182, 0.7521918, 1.7526355, 0.37005976, 0.23256783, 0.7692005, 0.2345169, -3.792788, 1.3783653, 1.7307212, -1.1732442, -0.31686324, -1.2865348, -1.4207015, 0.614208, -0.69927293, 2.332103, 0.9320443, -1.1001515, -1.8611833, 0.6877815, -1.0190853, -0.4929225, 1.0163835, -1.3205929, 0.6865761, 0.24226859, 0.4238576, 1.0619313, 0.15956429, 3.253364, -0.12462409, 2.165191, 0.1811231, 0.15971576, 5.173761, -0.42581543, -0.022955155, -1.4153866, -0.14464362, 1.4499532, 1.3265066, -1.5284356, 0.5319567, -0.96898055, -0.21859194, -0.19668293, -1.0722743, 0.2030342, -0.27726614, 1.703542, -0.6266496, 1.4252484, -2.0964608, 0.065284885, -1.0454507, -1.1485418, 1.0873578, 0.29200828, 0.3533627, 0.46198747, -0.057239246, -0.012950748, 0.22080564, -0.73574483, 0.489197, -1.7850995, -0.63331336, 0.8422185, -0.60420924, 0.51984984, 1.4871367, 0.33782554, 1.0650508, -1.192551, -2.4614334, -0.4847192, 1.353533, -0.56328255, -0.75679946, -0.94853383, 0.23637214, 0.72969127, -1.4773734, -0.44929868, 1.1849769, -0.05007634, 2.1151834, 0.562105, 0.029806588, -0.031560753, -1.3973092, -0.52461344, 0.5408798, -1.2395037, -0.2254979, 0.24640004, 0.10498423, 1.5537306, 0.2587989, 0.09606108, 2.0429063, 0.3018699, -0.22336985, -1.5090103, 0.7310966, -0.04160802, 0.11643278, 0.4752914, 0.44243234, 1.3169044, -1.8703917, -1.4608107, -0.32780644, -0.9450959, 0.20104031, 0.6101894, 0.3123187, -0.5890861, -1.0423449, -0.22211468, -0.92218196, -0.39117634, 0.107177444, 2.6061616, 0.38037762, -0.13976602, -0.9371493, -0.7653366, 0.38809064, 0.6255734, -2.3695612, 1.2323211, 0.8187492, 1.5644416, 0.08185691, 0.6767178, -1.57338, 0.7112784, 1.8693781, 4.4013844, -1.2079012, 1.6683673, -0.87728447, -0.053739898, -0.591403, 0.34946543, 0.9264908, -0.3728349, 2.1179278, 0.37631947, 1.1150461, -0.33608982, 0.041756734, 0.03841725, -1.2838414, 0.8164792, 0.80087274, 1.1416243, -3.0410504, -1.0696279, 0.5657506, 0.5103402, -0.62013805, 1.7409804, 0.07812518, 1.2513009, -1.7988988, -1.4174914, 1.452189, -0.66189504, 0.17348523, -0.27264223, 0.56862116, 0.3839518, -1.10675, 1.5327861, -0.68741894, 0.4613534, 1.0181226, -0.43827152, 1.1919472, -0.20930006, 1.5704886, 0.29217392, 0.66598725, 0.21381621, -0.3709776, -0.015776176, -1.0228189, -0.4824578, 0.33537507, -1.2027392, -0.25984788, 1.3305386, 1.0950547, 0.89651334, 1.18198, 0.05355571, 0.018603921, 0.2815187, -1.0196285, -1.0243886, 0.21017525, -1.3608856, 0.64940596, 0.6858032, -0.7327509, -1.2029501, -1.288401, -0.08661099, 0.42411867, 0.7183547, 3.0020804, 1.9995644, 0.61315006, 0.6598237, 1.5786347, -0.14279737, 0.59439296, -1.607339, 1.984426, -0.07320745, 0.36252162, -1.6706146, 1.6881418, -1.0961016, -1.5620273, -1.2365366, 1.048767, 1.2528312, -1.2643079, 1.267599, -1.0213245, -0.08903284, 0.7138695, -0.562946, 1.1252989, -0.65024465, 1.0269221, -2.0187967, -0.05828025, -0.91655576, -3.7029212, 0.026701687, -0.03999504, 1.538306, 1.7222902, -0.6392511, 1.048692, -1.513, -1.1491476, 0.03150196, 0.8112732, 0.09286669, -0.56940866, -0.44395915, -0.05751988, 0.85504884, -1.7452829, -2.15606, -0.31749287, 0.10901241, -1.4727675, -0.8114192, -0.025073793, -2.2078097, 1.6364315, 0.5976651, 1.0336028, 0.86643684, 0.053824175, -1.3485222, 0.0022217375, -0.19458036, -1.6638447, -4.5389094, 1.2364347, 0.7288632, -0.17326513, 1.032895, -0.17204645, 0.9870967, -0.46804798, 2.6220088, -0.5674662, -0.44040883, -0.38491043, 0.25296706, 1.5320817, 0.2936105, -0.54272664, -0.35871226, -3.0578732, 0.28202558, 1.5260903, -1.5539438, 1.0157999, 0.32584086, -0.07636997, -0.2838449, 0.053611312, 2.323591, -2.789864, 1.8266804, 0.086140804, 0.5205466, 0.19946203, -0.24336824, -0.13315308, 1.7829645, -0.86552787, 0.49383682, -0.9383943, -1.699689, 0.6791813, -1.5563313, -0.23235147, 0.8955588, -0.9039146, -0.7745345, 0.6335007, -0.89839464, -0.93654084, -0.10461846, -0.3596465, 1.6728945, 0.13495365, 0.185184, -0.5133845, -1.3088312, 0.24614704, 2.0024815, 0.21148342, -0.0009562899, 0.7881754, -0.83827674, 1.4558983, 0.20839778, -0.42089677, -0.058462556, -0.30759516, -0.16105404, -0.7842515, 1.198643, 2.3138635, 0.7720413, -0.1313801, 1.8495445, -0.5499861, -2.2115793, 0.86192334, 1.025642, 0.32826865, 0.20564403, -0.4234693, 0.96540093, 1.0960495, 1.5165946, -0.18622456, -0.4729004, -1.1762693, -0.3985041, 0.066716425, -0.6216428, 0.18727903, 0.17267664, 0.13036183, -0.793446, 0.45459738, 0.23894937, -0.93351495, 0.4068744, 0.65958863, 0.8403934, 1.3849857, -0.09369208, 1.2619458, 0.7087388, 0.4943086, 0.3782222, 0.38507667, 0.28538793, -0.91875994, 2.566807, -1.4455384, 1.8574404, 0.47248828, 0.026320271, 0.33330727, 0.07481187, 0.6690325, 0.8877416, 1.4383758, -1.1794373, 0.36347935, -2.7021797, 0.040016472, 1.3720251, 0.42644852, -0.7036903, 0.47364467, -0.77606255, -0.29586485, -1.4018838, -0.66778225, 0.28395262, 1.4954334, 0.20887375, -1.2076654, -0.7249789, 0.15321258, -0.10963449, 0.89560395, 0.6334547, -0.80872816, -0.9590151, -0.21923958, -0.47625956, -2.5340464, -1.3706691, 0.19431132, -0.12819928, -0.5134642, -2.3949206, 1.2287844, -1.4516196, -0.6359287, -0.48094139, -0.22268955, -0.12805943, -0.6826427, 0.99791366, -0.33829862, 0.007341016, 1.0011966, 1.1974405, 1.3121108, -0.46381333, -1.6236516, -1.242444, -0.4784299, 1.204741, -1.2605823, 0.509995, 0.5409681, -1.4185549, 0.6305501, 0.83791614, -0.2816595, -0.6302422, -0.2561099, 0.8330252, -0.7579663, -0.49815056, -1.0905278, 1.2208769, -0.31335202, -1.5084878, -3.0069714, -0.6682908, -0.4699316, 1.1060699, -0.9849409, -0.5818039, -0.21170786, -0.43233106, -2.5619116, 1.5075461, 1.057104, 2.8901687, 0.04729363, 1.3097429, -0.53150195, 0.49219328, -0.26616424, -0.66621834, 0.767778, 1.2288169, -1.7835217, -0.30322236, -0.3923557, 2.38939, -0.16200946, 1.6289757, -0.6970397, -1.3280867, -1.4599749, -0.52215165, -0.79475856, -1.0668186, 1.2425141, 0.16668521, 0.02262949, 0.5835827, -0.7965802, 0.2257576, 1.432667, -0.8646702, 0.044912606, 0.75166005, 0.04250306, -1.6388572, -1.7474607, -1.5516292, 0.21732281, -0.46881834, 2.1087494, 1.991687, -1.4484612, -2.6520147, -2.561798, 0.65972185, 0.57713336, -0.80133903, -1.3940448, 0.013916305, -1.1366191, 0.5332932, -2.3716388, -0.74895626, -0.38858992, -0.69015545, 0.5592862, 2.6120117, -0.82814413, 0.42720354, 0.44561747, 0.21167278, 1.6745857, 0.29697058, -0.09564926, 0.9950013, 1.8203056, 1.5290866, -2.1535056, -0.8824893, 5.4869328, -1.2246546, 2.3920243, -0.4732346, 1.4692429, 2.0218296, -0.93620604, -1.1504335, -0.43051288, 0.6558945, 0.03017555, -1.5285531, 0.1624042, 0.64665276, -0.057365227, -0.31548646, 1.8352239, -0.5361554, 0.21908113, -0.31509432, 1.3381814, -1.3377944, 0.19863808, -0.8419, -1.1423198, -0.36521006, -1.2651511, 1.4851402, -1.3016895, 0.32738245, 0.049964987, -2.2756896, -0.1180905, -1.4307846, 0.59484124, -1.3344455, 0.88938665, 0.4705534, 0.12796676, 0.8340817, -0.436407, 1.2236375, 0.18222405, 0.37323105, -0.81352913, 0.1732631, 0.4369173, -2.7035189, 0.9096072, -1.0448593, 1.2342684, 0.65548617, 2.5089326, -1.393627, -1.2919024, 0.004655759, 1.5624965, -2.485983, 1.8882071, -0.01200778, -1.0773928, -0.82652473, 0.7649893, 0.90268606, 1.4323044, 0.26015264, -0.9667204, 1.0470418, -0.3064567, 1.6126812, 0.65217113, 0.4117074, 1.3597666, 0.2397529, 1.1169233, -0.7250709, -0.015303823, -0.7681261, -0.18060209, -1.8572053, 3.4547515, -0.62432563, 0.72163683, -1.0771369, 1.5718011, 0.34749928, 0.28473052, 1.5336491, 2.0436778, 0.116309404, 0.43227312, -0.70065403, -2.0618744, -1.0431379, -0.070917204, 0.4545406, 1.3536094, -0.17469493, 0.898632, -1.3075998, 1.0737653, -0.007871146, 0.7407186, 1.8792144, 0.4269194, -1.8410972, -1.1225402, -0.16168788, 1.109361, 1.4910407, -0.25648355, -0.5356593, 0.86405045, 1.6948467, 0.64294237, -1.3314034, 1.430576, -0.12727025, -0.09218466, -1.044447, -0.57865036, 0.9752859, 0.45239404, -1.3559124, 0.05998764, 0.21573342, -0.008747431, 0.6580299, 0.4412151, -1.039322, -0.843666, -2.257926, -0.44816282, -0.7004971, 0.40317115, 1.2212563, -2.272798, 0.4836203, -1.4134659, -0.42191467, -1.1726605, -0.09398806, 0.18073705, 2.390303, -0.8888468, 0.12579411, 0.42104396, 0.08982782, 1.6194905, -0.6768176, 0.1432755, -1.9022557, -0.11034983, 1.013457, 1.1429558, -2.165068, -1.2741604, -0.26477674, 0.33626187, -0.71971035, 0.31759655, -1.1381629, -0.5775724, 1.3518012, 1.3406384, -0.239378, 2.914366, -0.6446679, -0.27409086, -0.7570896, -1.0165042, 2.6220577, -0.3381478, 0.5444956, -0.83376396, 0.18114394, 0.5134981, 0.6111552, -1.5996071, -1.1515815, 1.1066927, -0.64318085, 0.7370866, -0.38925168, 2.5251637, -0.82009816, -1.1550388, 1.1530411, 1.1113559, -0.0779062, 0.8317083, 0.57839084, -0.4336986, 0.5759263, -1.3195908, 0.7684701, -1.0338715, 0.64920264, -0.04082506, -0.45676827, -1.5232122, -0.06317721, 0.7381243, 0.8771593, 0.2985107, 0.10899272, -1.0922035, 1.6400377, -0.317651, -0.14329375, 0.75657266, -0.8270766, -0.30829024, -0.22995208, 3.0665498, 0.7600419, 0.42642477, 0.5055947, 0.40523463, 2.9229732, 0.5142563, 0.12835716, 1.9503424, 2.6780703, -0.3834117, -1.2344862, -0.25695643, -0.30679005, 0.48226663, 0.81602746, 0.47310978, -1.24785, -0.85541606, 0.11551935, -0.70347714, 0.82674474, -0.50466967, -0.71467924, -1.8597804, -0.5298744, -0.5363448, -0.58035266, 0.21308032, 1.4141958, -1.6994041, 0.25315413, -0.5923923, 1.1594322, 1.8031757, -1.0657737, 0.5814393, -0.49640653, -0.26386, 1.8548026, 1.8712536, -0.28543428, 1.158348, -0.31802458, -0.70611954, 1.3887947, -1.2593625, -1.0153458, 1.8814421, -3.5471785, -0.19265099, 0.10149299, 0.13830929, -0.5991159, -1.1718345, -0.3518978, 0.6412384, 0.3113753, -0.7190526, -1.1913993, -1.7473391, 1.19536, 1.332161, -1.0392148, -1.4200957, 0.33960882, 0.2169411, 1.2360588, 1.9185897, -1.6688237, 0.13186114, 0.91697973, -0.48654157, 1.2999518, 0.061013725, -0.02731479, -1.2025816, -0.6664547, 0.23952396, -1.2431258, -1.3288931, 0.8798418, 1.4830567, -3.0525699, -0.22325642, 1.4206616, -1.3018332, -0.94924885, -0.7746962, -1.4169563, -1.0162181, -0.694981, 0.36264896, -1.4269884, 5.759277, 0.6604369, 1.6661615, -2.3706791, -0.08315493, 1.0787379, 1.8185986, 0.7879672, -0.19856119, -0.027827397, -0.8479493, 1.7707754, -0.53311783, 1.6268291, -1.2365923, -2.17431, 0.23933992, 0.4466754, -0.246708, 0.82938594, -0.39672416, 0.88108873, 0.30727807, -1.0693072, 3.572101, -0.51725495, 0.5501789, -0.04871112, 0.8357336, -1.5536333, -1.4294355, -0.79358274, -0.5233857, -0.00060933793, -1.1466118, -0.6662484, -0.7672742, 0.7366829, -1.3197889, -0.82799643, 1.150635, 1.2746904, -0.68413764, -1.9179108, 2.597407, -0.41347632, -0.73172855, -1.7906716, -0.8718363, 0.52091557, -1.6705335, -0.6765945, -0.3703564, -1.8598615, -1.5423061, 0.187288, -0.06604308, -0.5048191, 0.36870736, 1.0259107, 1.7687678, -0.5793124, -0.6114023, 1.0296977, -0.6690079, 2.0079134, -1.3292649, 1.1410525, -0.41882223, -0.60739815, 0.6719862, 0.71065426, -1.5160948, 1.6760094, -1.7441951, -0.4782428, 0.877782, 2.182499, 0.5923176, 0.6604389, -0.79049027, -0.97946495, -1.4418836, 0.036517702, 0.54148424, 0.15518191, 1.6461687, 0.27677554, -1.0774323, 1.5707238, -0.46314955, -0.49883345, -0.9342946, 0.36530215, 0.38657454, 0.7196107, -0.47435668, -1.7928344, -1.1571212, 0.8623817, -0.14911692, 1.6916947, -1.4197505, -0.8212213, 1.2311372, 1.3017682, 0.24716683, -1.1117678, -1.183548, -1.1740413, -0.9926254, -2.4109266, 0.21636072, 0.57813483, 1.0392114, -0.60484934, 0.26538983, -1.2679408, -0.55342424, -0.4932857, 1.8577764, 0.8290328, 0.8604315, -1.8197865, 0.9908165, -0.0013418322, -1.3634782, -0.81306994, 0.10842884, -0.12600146, 2.3269458, 0.10898229, 0.03910884, 0.85605145, 1.7868012, 1.6839598, 1.998209, -0.98327625, 1.1382879, 0.19326612, -0.922321, 0.99663097, -1.3247956, -0.85944843, 1.5249921, 2.2855768, -1.0194107, -0.29404145, -1.5594441, 0.19201848, -2.5192277, -0.07471558, -0.19236428, 1.5414072, -0.7744934, 0.62986284, -0.5467738, -1.7077657, 1.3803693, 1.4920352, 1.3740066, -2.4115615, -0.69754595, 0.924997, -1.0383096, 0.72654974, -1.3803914, -0.61061454, 0.20396921, -0.3165612, -0.5552551, -0.2702101, 0.92353445, 0.7494997, -1.2435707, -1.1468146, -1.8234588, -0.8037798, 0.17864606, 1.503203, 2.2119615, 1.7155458, -0.048182297, 0.20635705, -0.62692845, 0.48956826, 1.4407802, 0.5908713, 1.1939785, 1.3233824, -2.8775508, 0.630334, -1.5513362, -0.901322, 0.28259394, 2.27872, 0.37186128, 1.8308265, 0.54225457, -1.8731928, 0.21096589, 2.164994, -1.0369738, -0.24336158, -1.1374106, 0.39173943, 0.90424013, 0.550306, -0.82107997, -0.6382942, 0.9462694, 0.63187665, -1.5442841, -0.8756858, -1.7173645, 0.07972364, -1.3141624, -0.13400279, 2.1481965, 1.6680638, -0.4062077, -0.40451306, 1.9827347, -1.137919, 0.44180533, 1.0212319, 0.65746635, -0.6650437, -0.21305744, -0.16311185, 0.98397535, -1.4449012, -0.9659836, 0.021130763, -0.05749903, -1.0309259, 0.44008562, -0.41552764, 0.21887164, 0.8082694, 0.53692114, 0.28312695, 0.15868272, 1.1545888, 2.362716, -0.9934305, -0.39939567, 1.2644874, 1.6085595, 0.65418565, -1.201811, -1.7231648, 1.3086181, 1.8760738, 0.17690435, -1.0272597, -0.5166265, -0.26201618, 0.07570155, -0.23653772, -0.32320946, -0.25774184, 1.5998967, -1.9388635, -1.9525944, 1.7151821, 1.4127141, -0.9250862, 0.8339699, 3.9563756, 1.7423984, 0.023344826, 0.73664904, 1.2846929, -0.6867308, 1.0705911, -0.013746594, 0.38453248, -1.8190128, 1.5617354, 0.7883941, 0.22423635, -2.7358983, -1.91101, -0.7417809, -1.2320882, -0.5484696, -0.76235586, 0.36779958, 1.6058255, -0.020965938, -0.81701905, 0.9268593, 0.9285082, -0.37467796, 0.8417621, 1.6365218, 1.4944668, 0.8087542, 0.52681196, 0.8981282, -0.5012896, 0.89591616, 0.54639655, -4.1487575, 0.13412848, 0.47753444, -1.5117046, -0.20685169, 0.41053042, -0.66115946, 0.11776237, 1.6165324, -0.6170431, 1.5235603, -0.65608317, -1.4631258, 0.2917408, -1.8286104, -0.43019894, 1.1691602, -2.3915076, 0.71982616, 1.5381682, -1.6044782, 2.1380463, 0.7760521, -0.4517951, 2.7250357, 1.9618133, 0.7805885, -0.015200432, -0.8123138, -2.9900398, 1.2677484, 0.43994126, 0.7812859, -0.44445062, -0.071693935, -0.92829967, 0.69348824, -0.62087524, 0.724018, -0.8250993, 0.26002112, -0.09189534, -0.33605587, -1.670559, -0.49655944, 0.21500418, -0.20714651, 0.07942723, -1.2988583, 1.5612049, -2.471185, -2.2887537, 0.21877548, 1.570894, -0.007953829, -1.0911378, 0.3854986, -0.3607822, 0.011116941, -0.4021458, 0.5459587, 0.8134178, 0.6708648, -2.0568538, 0.34838912, 0.301581, -3.3437338, 1.9395342, 0.23737071, 0.6827064, 0.15892483, 2.4179084, 1.3600179, -0.5280064, -0.34517837, 0.48493683, 0.4683101, 0.6164432, -0.19915242, 1.835915, 1.0434437, -1.3148899, 3.1383638, -0.79013, -0.25744238, -0.047961034, -1.0354239, 0.7000395, -0.5909121, 0.3661197, 1.508876, 1.9350882, -1.8434268, -1.6116756, -1.0635154, -0.5626628, -0.47886285, -1.3244139, -1.2113575, -0.17682905, 2.7517145, 1.1021185, -0.16117929, 0.44994858, 0.14242116, 0.41738737, 0.15737107, 0.05892043, -0.7070602, 0.28213578, -2.6340497, -1.3236859, -0.83938676, -0.5918235, -1.6027186, -0.9709093, -0.4611356, 0.992798, 1.3409883, 0.30146602, -0.75317353, 0.3131919, -0.9793752, -1.7289373, -0.11487526, -0.7390527, 0.71581334, 1.0216582, -1.0359092, -3.017789, -0.049475692, -1.3300086, -0.21646903, -0.34229094, -1.9442328, 0.24749169, 0.06542824, 2.063333, 0.034869283, -3.227283, -1.7039707, -0.3176614, 1.7266592, 0.83001095, -0.1303388, -0.07120971, 0.072303854, 1.1667523, -0.2258376, 0.31403783, 1.8203287, 1.7579318, 1.573882, -0.32732105, -0.6010725, -1.9521774, 1.5990996, -0.2617535, 1.383767, -0.36098385, -1.418252, -0.91331995, -1.2376198, -0.65752023, -1.8245918, 3.0204048, -1.1682161, -3.9474812, -2.4315062, -1.3540682, -0.34545058, 1.3711308, -0.47720426, 1.0356057, -0.8783922, -3.5675182, 0.31407896, -0.4210583, -0.7322452, -0.16080266, 1.0247929, -1.1487236, 3.3275366, 0.21546467, 0.560533, 0.17813809, -0.45393446, 1.0876323, 0.8838794, 0.061309997, -0.6375702, 0.2253108, -0.94872177, -2.613301, -2.0516338, 0.5469584, -1.6142185, 0.020404711, 2.3702943, -1.9502057, -2.0570438, 0.09286177, 1.0403727, 1.8630414, 0.8445499, 0.04749773, -1.1476394, 1.5998294, 5.107795, 0.579368, -0.70539093, -1.6471117, 0.38092425, -0.24563074, 0.820521, 0.14729539, -1.4020038, -1.3621744, 1.0497764, -0.28557965, -0.54089546, 1.2333474, -0.037527572, 0.43244457, 1.5155091, 1.667444, -0.5486335, -0.39085206, -0.06931936, 2.8456035, 2.042138, 0.8455554, -1.0473262, -1.7110568, -0.1813348, -0.65523523, -1.6074497, 1.7242751, -2.2227442, -0.7132057, 0.5179326, 0.09920291, -0.3106888, 1.5655061, -0.84823376, -0.572389, 0.57372236, -2.8619094, 1.7426683, -0.41481143, -0.2714589, -0.85678124, -0.19047834, -0.48126793, -0.23596148, -0.051337298, 0.3272786, 0.25628105, 0.1025925, 1.184813, 0.2899632, 1.7640738, 0.7142877, 0.15879625, -0.74163955, 1.8632002, 0.04386741, 1.7543801, -0.14309943, -0.7745021, -1.7819277, 0.12766585, -0.8269457, -0.38546994, -1.185504, 0.9292942, -0.9177941, -0.56605697, 1.0811207, -1.01931, -1.4648206, 0.519365, 0.17927915, 0.6016762, -1.8788263, -0.4322847, 0.616917, 1.3848734, 0.9900027, -0.6860705, 1.6185024, -0.1258804, -1.9882743, -0.6005779, -2.0518534, 2.3378558, -0.4142131, 0.4195929, -0.4306293, 1.4390627, -0.293312, -1.6603045, 0.13384192, 1.3764805, -0.5076318, -0.4873022, 1.5632367, -1.6309277, 0.58591145, -0.82128614, 0.00021257321, -0.5385619, -1.623209, -1.0693185, 1.8872864, -0.19068223, 0.18024819, -0.7407267, 1.1321361, 0.30921844, -0.29045784, 0.11756892, 1.497832, -0.12754682, 0.3296495, 0.40750748, 1.9262128, -0.4137115, -0.73982084, -2.1269705, -0.74040437, 0.31445256, -0.8954696, 1.2195424, -2.0210626, -1.4139513, -0.5466565, 2.770706, -0.44594616, -0.56707466, 0.8990677, 0.84813935, -0.2683728, -2.4517071, 1.4535328, 1.0240022, 0.05217717, -0.79558915, -0.585678, 0.72591954, 0.23400083, 0.72429544, -0.49282232, 0.17486797, -1.2424774, -1.5337546, -1.9373778, 1.429867, -0.07114686, 0.04935782, 2.1782627, 0.48236394, -0.33467537, 0.07306147, -0.2880952, 1.2326211, -2.288861, -0.04958806, 2.572085, 0.46963504, 1.2999704, -0.3633166, 0.52013713, -1.4568923, -2.4918795, 0.4249379, 2.49045, -2.098034, -0.086499706, -1.1523948, 1.2233826, -2.5716631, 1.1078506, 1.3161954, 0.209402, -0.17563869, 2.1484606, -0.63197845, 0.2060987, -0.45341462, -1.5978996, -0.09343838, -0.017517887, 1.4803089, 0.23795609, -0.9729412, 0.04909833, -0.60287386, -2.324791, 0.7976303, -0.4829559, 4.2280197, 0.69695747, 1.2573526, -1.3343829, -0.8016201, -0.37624097, -1.5299085, 0.061113786, 0.7729915, -0.7649346, -1.3315296, -0.5751032, -4.2226424, -1.0463723, -0.23155189, 1.4478587, -0.4265128, 1.5852946, -0.7888606, 0.98854536, 0.334508, 0.47746435, -0.4125496, 0.50915134, 1.4911542, 1.807733, 0.19146301, 2.4423285, -0.65972185, -0.38565096, -2.31454, -1.3122567, -2.427535, 1.9590046, -0.9512182, 1.6831245, 0.35282287, 1.3870153, 0.86829966, -0.6230686, 0.51551265, 0.49867126, 1.5680362, -1.7016665, 1.6014478, -1.2154554, 1.0378786, -0.36899793, -1.0189925, 1.5741134, -0.09462288, -0.91155565, -0.9360682, -1.6045629, -1.4356419, -0.7809998, -1.2817389, 1.6403412, 2.0412195, -0.13336508, -0.01935401, -1.0830507, 0.24919257, -1.0535198, -0.6995101, -0.5791195, 0.3420749, 2.0906441, 0.62282187, -0.12102424, -0.54683214, 0.34258994, 0.27154085, -0.8384968, 0.568728, 0.87833166, 0.7430586, -1.0972577, -0.5106834, -0.81457764, 0.26840553, -0.25254858, -0.79777336, -1.7815466, 1.6187989, 0.30230352, -1.5052257, -0.27388638, -2.8791587, 0.031790555, 0.57060325, -0.37913114, 0.7545081, -0.5340117, -0.041868813, -0.5103614, 0.11861651, 0.11593349, 0.6087602, 0.074435376, 2.3953352, -0.20959017, 0.11144556, 0.3102109, 0.63289243, 1.9317333, -0.46266705, 1.0202616, -0.49669874, 1.508054, -0.39595035, -1.8583289, 1.2821836, -1.2913412, -0.40229857, 0.08999377, -2.6965034, -3.3443615, -2.4251788, 0.00629292, 0.1111267, 0.734499, 0.5875164, -0.7901364, 0.10645632, -2.3304603, 0.42836255, -1.0651505, -0.67767006, 2.683443, -1.6450746, 1.044864, -0.232463, 1.7414091, -1.3508605, 0.7323709, -0.050164815, -0.66845155, -0.41505897, -0.5405233, 0.6082328, -1.4058431, 0.8236291, 1.9991995, 0.66464984, -2.238763, 0.7171409, -0.39789867, -0.27685663, 1.0410144, 1.683457, 0.52424204, -0.6393808, 1.7457763, 0.69440776, 0.719474, 0.7333886, 1.6814297, -0.4211278, -1.460181, -1.0310879, -0.023157448, -0.5314013, -0.0501764, 0.7502977, 0.34907186, 0.111299746, -0.27674255, -3.6540375, -3.8829098, -0.46840146, -2.3572366, 1.7997711, -0.1429746, 2.0188363, 0.30484787, 0.44856712, 0.9020066, -2.1075134, -0.16768667, -0.012355311, -0.3643308, 1.0186706, -1.0409334, 0.4230336, -3.267861, -0.51206917, 0.6194036, -0.1438941, -1.2468699, 0.4296203, 0.56263494, -0.6613182, -1.2655324, -0.20331421, -1.111287, -1.1212698, 0.21631034, -2.2583292, 1.9442456, -1.5396156, 0.62876755, 0.59551924, 0.5882301, 1.7377415, 0.47631344, -2.3239453, -1.8448354, -0.39601493, -0.62431103, 0.45553455, -0.69413203, -0.520809, -1.7787524, -0.6249461, -0.5312818, -0.23656735, -1.3907142, -0.5709589, 0.04382252, -1.2411727, -0.47427806, 0.22395255, 0.23019478, 0.82042253, -0.17565034, -0.2236512, -0.75225896, 0.4862986, -0.012208769, -1.1550956, 0.86869866, 0.74194944, 0.3260427, 0.16875823, -1.2322501, 0.05871249, -1.9772043, 1.1738664, -0.0018088996, -1.5042086, 2.2242038, 0.1874357, -0.7852924, 2.342997, 0.60073656, 1.5953186, -1.1330419, 0.93273073, 1.0657111, 0.27869073, -0.08677766, -0.37625808, 2.1991248, 2.346565, 1.8110659, 2.417422, 0.8673827, 1.6886654, -1.3534021, 0.99994093, 0.5450522, 0.95525944, 1.0535835, 0.5130996, 1.6316216, -0.024652917, -1.0982563, 0.27875125, 0.68695265, 0.08903111, -0.23259825, 0.0806892, 1.1911074, -0.2585736, -0.5406885, -2.9444551, 0.5963768, -0.5270203, -0.3461636, -0.09774052, -0.36306578, -3.1294253, -1.014331, 0.61899, 2.0720525, -3.7405078, -1.8025966, 0.39379853, 1.7585447, -0.0031564515, -0.7256983, -1.02411, 1.2083217, -2.7645082, -0.26242077, 1.1436288, -1.2945002, 0.86223054, -0.281016, -1.276198, -0.1209976, 0.108028606, -1.4458709, -0.3288015, -2.2512558, 0.9372463, 0.20782275, -2.756457, 0.13459678, -1.1833887, -0.14154509, 0.15188733, -0.74393034, -0.04006889, 1.0747788, -1.495138, 0.25527436, 0.45707342, 1.1292549, -0.025897875, -1.1204288, 3.3525658, 1.292225, -0.18344344, -0.7028748, 1.946281, 1.3071944, -0.81031287, 0.106309555, -0.23555893, 0.7442692, 0.5775281, -2.3812625, 1.4729042, 0.40149924, -0.59280527, 0.47651848, 0.17106077, -0.07740966, 1.052285, 1.3171245, 0.92589766, 0.1555968, -1.0362813, -0.2169915, 0.11860716, 1.8042752, -0.5040706, -2.3287482, 0.6466561, 0.47450742, -0.25617853, -1.351852, -0.16887696, 0.86146945, -2.0186532, 2.3604698, 1.0478828, 0.06740272, 0.80952567, 1.8504643, 0.1617743, 0.020233119, 1.4310324, 0.70347947, 1.8615928, -1.9428936, 0.9185862, -1.0372626, -1.0727985, 0.19490936, 0.9240905, -0.28994682, 0.95327675, -1.9663775, -1.0406623, -1.5238348, 1.4476897, -0.26309207, -2.798638, -0.05658618, -0.49312106, 1.693247, 0.21883456, 0.08395657, -0.5265059, -0.8540265, -1.0407851, -2.3739388, -2.1106052, 2.3266306, -0.32669663, -1.3159058, -0.660158, -0.22468692, -1.0935403, -1.503777, 0.37051576, -0.9672197, 0.5740832, 0.43417528, 1.5889604, 1.1027291, -0.23768032, 2.6167426, 0.9031338, -0.1585188, 0.0543892, 0.020987984, 1.1744821, 0.3515735, -0.013929935, -0.9939842, 0.02173858, 0.583945, -0.32577336, 0.32682842, -0.5168217, -0.06973502, 0.88616735, 1.1605513, -1.2657502, -0.8660505, 1.0962232, 1.6257101, 0.25425813, 0.91974205, 0.06203431, 0.8302959, -0.115398295, 0.15998365, -0.03829214, 1.0565201, 0.45489973, -0.66080797, -1.8427422, 0.48659572, -0.23901324, 0.38017532, 1.9951334, -1.2362609, -0.6455304, 0.5861776, -0.3092115, -2.4380283, -0.5482576, -1.4956883, -0.03452519, -0.4520326, 0.052273896, -1.898024, -0.21964113, 0.20939012, -0.09320206, 1.6004133, 0.16338699, 0.3127989, 0.17588174, 0.93957245, 2.171764, -1.2751682, -0.53677344, -1.8309643, -0.59865046, 0.69436145, -0.8502396, -1.3353342, -0.5335437, -0.00091169, -1.4494655, 0.6375013, 0.32617998, -2.8255718, -0.50891936, 0.6966447, -0.3777009, -0.2558294, 0.4302001, 1.765486, 0.7103716, -1.7763706, -1.1683432, 1.5574203, -2.2225647, 1.5222235, 0.32325667, -1.0947104, -0.8958501, -1.8209867, 0.10796055, 1.0605716, 0.93674874, -1.0880748, 1.5198724, -0.0937138, -1.0287199, 0.45906678, 0.061645363, 1.8752804, -0.1831008, 3.0817833, 0.4508734, -0.31511632, 1.1343973, -0.21755971, 1.2124516, -1.1295133, -0.055309907, -3.6705868, -0.9100372, -1.0939753, -0.5615684, -2.381872, 0.0020747609, 0.39340323, 0.59828097, 1.1466628, -1.1375865, -0.7816242, -0.5949936, 0.9626074, -0.9484913, 1.1393594, 1.4951601, 1.4875045, -0.089652896, 1.8419081, -0.030638345, 0.7789331, -0.34093043, 0.046147503, 0.41908404, -0.89814675, -0.5846018, 0.5184006, -2.4526465, 0.04283495, -2.0969613, 0.370964, -3.3612888, 0.5960072, 1.4721773, -0.94778115, -0.26335794, 1.0908759, 1.486159, -2.40634, 1.393561, -0.48761195, -1.7659285, 0.7168131, 2.555964, 0.11010163, -1.959844, -0.18731233, 1.0338733, -1.0887837, -1.2614303, -0.97267944, 0.7864583, 0.63270724, 0.18945827, -1.1321301, 0.12085048, -0.18576351, -0.09361924, 1.7987748, -0.7974771, -1.7701684, -0.7567311, -0.34031177, -1.3880138, -3.042188, -0.2684568, 0.084334224, 1.3960812, -2.742134, 0.80333674, -0.98750913, 0.70640105, 1.2725588, 1.1139987, 1.3400824, -0.111424275, 0.8036785, -0.29096583, 1.4564451, 0.96943814, 1.6539447, 0.37208283, 0.9312062, -1.2842524, -0.9382443, 1.517621, -0.73545265, -0.37066108, 0.88435555, 0.66901684, 4.09884, -0.44072503, -0.72881216, -0.027490871, -1.8377099, -1.1058658, -3.2884114, -0.94484913, -0.13879648, -0.1364639, -2.4813108, 1.5970284, 1.306482, 1.3412327, 2.0489717, 0.62698686, -1.5481944, 2.3306515, 0.52650386, 0.34657773, -0.30435184, 1.174939, 0.2915181, 0.57183933, -0.7012495, -0.47896045, 0.58027333, -2.3198004, 1.7919725, 1.8350896, -0.5591195, -0.6801323, -1.8575627, 0.8632616, 1.9144679, 1.9977874, 1.4821786, 1.6867007, 1.5017, 0.36215755, -0.04683373, -0.64721215, 0.09760065, 0.8159452, -0.43604347, -0.6816844, 0.46248576, -1.1946933, -1.9251789, 0.88004035, -1.9832363, -0.56412935, -0.5602781, 1.6237303, 0.15295425, 0.15820082, -0.1273609, 1.5474032, 1.1479672, -0.87837106, -0.40331683, 0.65295684, -0.5626897, -0.4047191, 0.63205403, -0.2601954, 1.7720567, 0.7480561, -0.088022105, 2.0081542, -0.70464, -0.29998887, 3.427206, 0.9621837, 0.9702571, -0.31159875, -2.664498, -1.9876835, -2.0475423, 0.7220501, -0.6049272, -1.8432589, 0.8786537, -0.8850645, 1.937288, 0.7388521, -0.017866576, -1.9674711, -0.06336072, -0.52241576, -0.76142913, -0.4896401, 0.0359046, -2.0446253, 0.98765224, -2.9906075, 1.1428515, 0.05115716, 1.5987747, 1.5669878, -0.4400781, -0.3922225, 1.9579638, 0.15428044, -0.014911693, 2.1794581, 0.08299044, 1.0205623, 0.5929959, 1.0677987, -0.5162019, -0.8797473, 0.9141563, 1.8389575, 1.4433982, -0.0764777, 0.7821814, -1.9070517, -0.7501095, -0.47774526, -0.42705554, -0.914958, -0.24765995, 0.22615589, -0.34443694, -1.35</t>
-  </si>
-  <si>
-    <t>[0.234375, 0.2590332, 0.5683594, -0.08630371, -1.7910156, -1.0205078, -0.8457031, -0.023849487, 1.1533203, -1.2822266, 0.46679688, 0.6958008, 1.0244141, 0.12915039, 0.36914062, 0.16699219, 1.4140625, -1.0751953, -0.84277344, 0.73583984, -0.92578125, 3.1738281, 0.8574219, -0.27929688, -2.1035156, 0.8178711, 1.1708984, -0.48242188, 0.16625977, -0.7285156, -0.42749023, 2.4980469, 0.6430664, 0.8442383, 0.42041016, 1.2480469, 0.98876953, 1.0234375, 1.6650391, -0.77783203, 0.20874023, 1.5693359, -0.3828125, 1.4375, -0.93066406, -0.7729492, -1.2587891, -0.15942383, -1.2871094, -1.3125, 2.1347656, 1.1025391, -0.9038086, 0.97802734, -1.2050781, 0.7753906, 0.1854248, 0.03543091, 0.47387695, -0.92626953, 0.7548828, 0.5805664, -0.048583984, -0.46142578, -0.78125, 0.41674805, -2.6738281, 1.2470703, -0.37817383, -0.23754883, -0.68896484, 1.1337891, -0.8823242, 0.15576172, 2.96875, 2.1464844, 0.19189453, -0.91796875, -0.46801758, 3.0917969, 0.57470703, 0.50097656, -2.4121094, 0.37036133, -1.1835938, 0.11102295, -1.53125, -1.6308594, 0.36938477, -1.0927734, 2.5097656, -0.421875, 1.5771484, 0.5786133, 2.1015625, 0.12683105, -0.6484375, 0.8046875, 0.3256836, 0.7138672, -0.3149414, -0.23278809, 2.34375, 0.81347656, 0.30273438, 1.2158203, -1.4384766, 0.9863281, -0.055114746, 0.3227539, 0.7739258, -2.0820312, 1.3037109, 1.6445312, 0.10040283, 0.84277344, -0.22363281, -0.6245117, -1.8574219, -2.8886719, -0.9980469, 0.4675293, 1.3349609, 1.265625, -0.3203125, -0.87060547, -0.7993164, -2.2910156, -0.33618164, 0.27490234, -1.9570312, -0.20507812, 2.6992188, -1.1074219, 4.0625, 0.42993164, -0.8330078, -1, 0.005680084, -0.9667969, 2.1230469, -0.48657227, 1.0751953, -0.5415039, -0.25024414, -1.2890625, 0.96191406, -1.9443359, -0.61279297, 0.16540527, 1.0625, -1.5703125, -3.3222656, 1.2548828, -0.8129883, 1.1298828, -0.55322266, -1.0126953, -1.6523438, 0.31567383, -0.4963379, -0.11981201, 0.9291992, -1.2890625, 2.7714844, -0.41015625, 2.0429688, 2.1660156, -1.6796875, -2.7480469, 0.1496582, -2.6621094, -0.55859375, -0.96484375, 0.9584961, 1.1357422, 0.93359375, -3.7714844, -0.46850586, -0.93066406, 1.5585938, -0.95703125, -0.66503906, 0.6269531, -1.8037109, -2.3476562, 0.26733398, -0.96240234, -0.28955078, 0.36694336, 1.3496094, -2.6113281, -0.5883789, 0.075927734, 0.095336914, -0.40356445, 0.9042969, -1.7373047, 3.3203125, -1.2099609, -0.75097656, -0.2763672, -0.59228516, -0.61572266, -0.90966797, 2.5078125, -0.010414124, -0.7373047, -0.17883301, -0.62158203, -0.1361084, -0.28076172, 1.2978516, 0.11566162, -0.99072266, -0.6777344, 0.8857422, -1.6230469, -0.0031414032, 0.37548828, 0.5698242, -3.2519531, -1.5830078, 1.8056641, -2.7265625, 3.2089844, -1.8203125, -0.38061523, -1.7177734, -0.81103516, 0.6665039, -1.8085938, -0.10131836, 0.63916016, 0.51660156, 1.7353516, -1.1855469, 2.9335938, 0.02255249, -0.27661133, 0.27905273, 0.41259766, -1.2685547, 0.6269531, -0.20581055, -1.2363281, -0.63671875, -1.0361328, 0.44140625, 0.29101562, 0.39672852, 0.76708984, 0.31225586, -0.6694336, 0.097595215, 0.48242188, -1.1503906, -0.004928589, 0.8769531, 0.7104492, -3.2441406, 0.38745117, 0.8588867, -0.038238525, 1.6796875, 0.89746094, -1.2041016, 0.15319824, -0.2479248, 1.2050781, 1.6220703, 0.90625, 3.2519531, 0.008331299, -1.1445312, -1.9599609, 1.7402344, -0.17053223, -1.4443359, 0.89746094, -0.6142578, -0.7944336, 1.3417969, 1.1132812, 1.4746094, -0.72558594, -1.5791016, -0.5776367, 0.8510742, 0.8676758, -0.9589844, -0.33251953, -0.36816406, -1.6210938, -1.3613281, -1.6806641, -0.84716797, -1.8349609, 0.3149414, -0.75097656, -1.2988281, 0.17883301, -1.9492188, -0.6542969, -0.3947754, 1.1630859, 2.5625, 0.11871338, 0.7270508, 0.124938965, -0.4543457, -0.8881836, -1.1699219, 0.27563477, -1.3837891, -0.87109375, 0.4794922, -0.96435547, -0.75927734, -2.6601562, 0.27246094, -1.7070312, 1.4267578, 0.49975586, -1.0097656, -1.7207031, -0.46044922, 2.1738281, 2.1777344, -0.38183594, 2.4492188, 1.8496094, -0.9951172, 1.1787109, -2.453125, -0.6347656, -0.040161133, 3.890625, -0.123046875, 0.79589844, -0.30517578, 2.5839844, -0.9941406, -1.5068359, -2.84375, -1.5859375, 0.39013672, 1.3261719, 0.36547852, 0.7631836, -1.8935547, -1.3779297, 1.3730469, 0.5830078, 1.03125, -1.1064453, 2.0117188, -1.9355469, -0.8955078, 1.1787109, 1.4306641, 1.6171875, -0.9199219, -2.3046875, -0.80566406, 0.8496094, -0.3779297, -2.0175781, 0.02420044, -2.4492188, -0.11010742, 1.3056641, -0.17932129, -0.5541992, 0.8129883, 0.42260742, -2.3320312, 0.34106445, 1.046875, -0.4880371, 1.8964844, 2.4433594, -1.0458984, -0.40527344, -1.7451172, -0.2364502, -0.4309082, 0.04623413, 0.46264648, 0.92578125, 0.9213867, -0.10852051, -1.2246094, 0.71435547, 0.44482422, -1.8662109, 0.82910156, 2.9785156, -0.72509766, -0.9916992, 0.33276367, 0.70166016, 0.08850098, -1.8769531, 0.1282959, 2.0429688, -2.1464844, -1.0478516, 1.0791016, -0.04067993, 0.6738281, -0.8383789, 2.40625, -1.3037109, 0.19067383, 0.36572266, -0.98339844, 0.68310547, -1.1943359, 0.008628845, 2.0429688, 0.29760742, 1.2480469, 1.5888672, -0.8808594, -1.4296875, -2.3027344, -0.29785156, -1.2548828, 1.328125, -0.28100586, 2.2011719, 1.2041016, 1.0087891, -0.73046875, -2.4902344, 1.5019531, -0.78564453, 1.578125, -0.94970703, -1.2529297, 0.52685547, 1.6328125, 0.9785156, 1.1289062, 3.2167969, 0.20715332, 1.1269531, -1.6660156, 1.2958984, -2.6347656, 0.105773926, 1.078125, -0.23876953, 0.09832764, -1.6103516, -0.16430664, -2.234375, 0.65185547, -1.8349609, 0.4543457, 1.1386719, -0.8154297, -1.1494141, 0.5942383, 0.2800293, 1.8203125, -0.4465332, -1.6474609, -2.5039062, -1.7695312, 1.2128906, -0.8203125, 0.25927734, -1.4648438, 0.0519104, -2, -0.86083984, 0.13781738, -0.87597656, -2.1054688, 0.58154297, -0.6069336, 1.5878906, 1.7236328, -2.3222656, 0.89746094, 1.1142578, 0.60791016, 0.46069336, -0.75341797, 1.1972656, -1.15625, 0.88134766, -2.9628906, -2.0351562, 1.9130859, 0.66748047, 0.5126953, 0.7416992, 2.484375, -0.1270752, -1.4658203, 1.2568359, 0.375, -1.0722656, 0.07409668, -1.9033203, -0.80859375, 1.4599609, -0.7861328, 0.6225586, 1.4746094, 0.38623047, -1.3359375, 0.9555664, -1.1757812, 0.98828125, 1.6445312, -1.7597656, 2.1464844, -0.9086914, 0.6464844, -0.07904053, 0.64746094, 3.0214844, -1.0810547, 2.3984375, -0.6621094, 0.45361328, 0.028869629, 0.061584473, -0.13964844, -1.1982422, -1.3808594, 0.36254883, 1.5097656, -1.0361328, -1.0683594, -1.4472656, -0.34838867, -0.7729492, -2.5625, -0.15368652, 0.8222656, 0.04586792, 1.2685547, 0.18200684, -2.2871094, -0.84033203, -0.058410645, 1.4785156, 0.02557373, -0.50390625, 1.0488281, 0.41259766, -1.2744141, 0.5229492, 0.8652344, 0.49609375, -0.44873047, -0.44677734, -0.76953125, 6.496906e-05, 0.4724121, 2.2382812, 2.2480469, 0.24304199, 0.17785645, -2.2890625, -2.0097656, -0.7709961, -0.36694336, -0.67529297, 0.9428711, -0.86865234, 1.78125, 0.08337402, -0.30908203, -1.1572266, 2.7910156, 0.08166504, 1.7509766, -0.6894531, -0.0692749, -0.20837402, -1.0791016, -0.40405273, 0.0848999, -0.94433594, 0.3515625, 1.2128906, 0.33496094, 1.03125, 0.4819336, 1.3886719, 0.59228516, 1.5185547, 0.80859375, -1.0488281, 0.6904297, 1.859375, -0.48632812, 0.8251953, 1.6230469, 1.0263672, -1.0068359, -0.018295288, -0.38012695, 0.6503906, 0.23339844, -0.28173828, -0.8408203, 0.7392578, -1.265625, 1.1328125, -1.2734375, -1.3300781, -0.57470703, -0.030426025, 0.6401367, 1.2158203, -1.0009766, 1.0380859, 1.03125, -1.0830078, -0.38720703, -0.20617676, -0.6171875, 0.8520508, 1.0693359, 2.1445312, -1.5341797, 1.4375, 3.3632812, 2.7734375, -0.7285156, 0.96875, -0.46606445, -0.50683594, -1.2763672, -0.11425781, 0.7373047, 2.2460938, 2.5273438, 0.13989258, -0.9433594, -0.8178711, 2.1777344, 0.7763672, -1.8330078, 1.703125, 0.51220703, 0.38720703, -1.7177734, -0.64453125, 0.5024414, 0.33764648, -0.7451172, -0.69970703, -2.390625, 1.4394531, -1.2021484, -2.4199219, 1.9746094, 0.10772705, 0.7993164, -0.35864258, 0.94140625, -0.2915039, 0.3383789, -0.26733398, -2.3554688, -2.0800781, 0.578125, -0.18286133, 0.94433594, -0.86083984, 0.40014648, 1.5498047, 0.5595703, -0.9667969, 0.15588379, 2.6992188, -1.7587891, -0.87841797, 0.040527344, -0.47143555, -0.08526611, 2.7050781, 2.7929688, -0.060791016, -0.28173828, 0.12573242, -1.2382812, 0.3869629, -0.6669922, 0.52685547, -1.2431641, -2.8222656, 1.1962891, 0.28125, 1.0107422, -1.9101562, -0.5288086, 0.06274414, -0.090026855, 1.4902344, 0.5058594, 0.030471802, -0.92822266, 1.3085938, 1.21875, 1.5664062, -0.43310547, -1.4052734, 1.7265625, 0.4177246, -0.92529297, -1.9931641, 0.84716797, -1.2128906, 0.43286133, 1.0986328, 1.5820312, 1.3408203, -1.0585938, 0.6953125, 0.07788086, -1.5859375, -1.265625, -0.42016602, 0.4711914, -0.7915039, -0.5048828, -1.6191406, -0.003255844, 0.65625, -1.9140625, -0.64208984, 1.8349609, 2.703125, 1.4248047, -0.1381836, 1.2978516, 0.14160156, 0.2154541, 1.3369141, 0.40771484, -1.7460938, -0.6821289, -0.5341797, 0.9501953, 0.6201172, -1.6035156, -2.3261719, -0.41479492, 0.72509766, -0.6591797, -0.63134766, -0.16967773, -1.2207031, 2.1289062, 0.85253906, 1.6044922, 0.90722656, -0.17053223, -0.83154297, -0.50341797, -1.1611328, -1.6279297, -3.0175781, 1.4453125, 0.35864258, -0.69140625, 2.8378906, -0.4802246, -0.26904297, -0.9663086, 2.6933594, -0.3232422, 0.97802734, -1.9345703, -0.049804688, 0.02178955, 1.2128906, 0.47143555, -1.0673828, -2.8886719, 0.07904053, -0.9423828, -1.0761719, 0.35864258, -0.21643066, -1.5625, -1.4375, 1.6201172, 0.22912598, -2.8828125, 2.0898438, -0.9375, 1.6962891, 0.019119263, 0.37182617, -0.29663086, 0.11016846, -1.5263672, -0.19299316, -1.0898438, -2.03125, 0.8154297, -1.7255859, 0.026123047, 1.015625, -0.38964844, -0.37890625, 0.6123047, -0.390625, -0.2927246, 0.24816895, 0.08557129, 1.9003906, 0.84814453, 0.8725586, -0.5996094, -1.8740234, -0.27392578, 1.9580078, 1.609375, -0.32128906, 0.101379395, -0.34423828, 1.6142578, -1.0009766, 0.34350586, -1.8349609, 0.6171875, 0.7290039, -1.5546875, 0.80859375, -0.044921875, -0.70166016, 1.0039062, -0.0039520264, 0.20959473, -2.0058594, 0.023406982, 1.4628906, 0.2590332, 0.62353516, -0.004749298, 0.89501953, 0.94873047, 1.4960938, 0.4230957, -0.90771484, -2.1953125, 1.40625, 1.5097656, 0.31713867, 0.85791016, 0.3137207, -0.19445801, -0.82470703, -0.1081543, -0.11639404, -0.78466797, 0.16149902, 0.7709961, 1.6826172, 1.8769531, 0.61572266, 0.5385742, 0.6923828, -0.90966797, 0.82666016, 1.6474609, 0.9560547, -0.9140625, 0.60791016, -0.09661865, 0.88183594, -0.09106445, 1.2587891, 0.54589844, 0.29418945, -0.6254883, -0.40014648, 2.1054688, -0.066589355, 1.3261719, -1.9433594, -0.017211914, 0.64746094, 0.22375488, -0.62890625, 2.3554688, -0.03805542, 1.4277344, 0.49121094, -0.5395508, 2.21875, 0.05029297, 1.0859375, -0.3239746, -0.7504883, 0.17797852, -0.34106445, 1.1650391, 0.49975586, -0.8486328, -1.0292969, -0.7470703, -1.3222656, -1.2509766, -1.7548828, 0.84521484, 0.97998047, 1.4375, 0.31591797, 0.39038086, -0.8027344, -2.0976562, 0.7763672, 1.4960938, -0.3737793, -1.6660156, 1.3525391, -0.7416992, -0.12561035, 0.13330078, -0.010482788, 1.0761719, 0.31225586, -1.5166016, -2.6894531, -0.89746094, -0.17663574, -1.1171875, 1.4619141, -1.3720703, -1.5068359, 0.27026367, 0.18664551, 0.33520508, 1.0488281, 1.2421875, 1.1279297, 0.82714844, -0.93652344, -1.5068359, -0.9238281, -0.049804688, -1.7529297, -1.8085938, 0.51953125, -0.29223633, 1.7539062, 0.38964844, 0.21362305, -0.26123047, 0.7915039, -2.7128906, 0.27661133, -0.37353516, 3.6113281, -0.9067383, 0.10510254, -0.9038086, 1.6191406, 1.9296875, -0.67333984, -0.10992432, -0.67089844, 0.2409668, 1.2695312, -1.6640625, -0.52783203, -1.0263672, 1.0107422, -2.28125, -2.1328125, -2.7578125, -1.2011719, -2.8007812, 0.5541992, 0.3630371, 0.63671875, -1.2919922, 0.6621094, -1.1396484, 0.4555664, 4.3554688, -1.4492188, 0.74658203, -0.50341797, 0.5942383, -0.47143555, -2.5058594, -2.2421875, 1.2216797, -0.9995117, -0.73046875, 2.3222656, -1.3789062, -2.7441406, -1.6533203, 1.0605469, 0.12133789, -0.25708008, -1.0683594, 1.4716797, 0.4494629, -0.12158203, -1.0371094, 0.57128906, -0.53125, -1.4550781, 0.3059082, -0.19995117, -1.6972656, 0.9169922, 0.1776123, 0.68408203, 1.890625, 0.11242676, -0.7729492, 0.6923828, 1.9248047, -0.58740234, -1.6855469, 1.2041016, 3.4179688, -1.2783203, 2.5976562, -0.73339844, 2.3535156, -0.43725586, -1.5556641, -0.09173584, -1.5019531, 0.25341797, -0.6616211, 0.33154297, 1.6708984, 1.0595703, 0.41357422, -0.35620117, 0.8383789, -1.0478516, -0.9448242, 0.036956787, 1.9306641, 0.8300781, 0.07116699, -1.0478516, -0.04989624, 1.2646484, -2.7128906, 0.45458984, -2.515625, 1.8115234, 1.1796875, -3.7617188, 0.8330078, -2.2480469, -0.51708984, 0.4411621, 0.07531738, -0.9350586, -1.1777344, -1.3740234, 0.77978516, 0.7060547, -0.29101562, -0.0014762878, -0.20166016, 1.4541016, -0.52246094, -0.23950195, -0.1270752, -0.92041016, 0.5703125, 1.3125, 3.8007812, -1.203125, -1.5644531, -0.7338867, 0.1743164, -2.484375, 2.6289062, 0.32885742, -0.5341797, -0.10101318, 0.1005249, 2.7441406, 0.68115234, 0.9370117, -1.3330078, 0.63720703, -2.0976562, -0.28393555, 0.39746094, 2.3007812, 1.6054688, -0.67871094, 0.70654297, -0.32055664, 0.31201172, 0.6152344, 1.2851562, -1.0556641, 2.140625, -0.032165527, 0.3017578, 0.3449707, 0.30859375, 0.24243164, 0.33374023, 1.1572266, 1.1328125, 1.7753906, -0.0019683838, -3.0976562, -1.5126953, -1.3740234, -0.72021484, 0.10681152, 1.5097656, -0.47436523, 0.37402344, 1.0146484, -0.18811035, -1.1054688, 0.20935059, 0.62841797, 1.0341797, -0.5253906, -0.35864258, -1.0322266, -0.453125, 0.2890625, 0.15405273, -0.93115234, -0.43579102, 1.6425781, 1.0732422, -0.54345703, 1.8935547, 0.69677734, -0.34204102, -0.2097168, -2.2675781, -0.03137207, 2.34375, -1.5146484, 0.3642578, -0.78027344, 0.62353516, 0.4633789, -0.32958984, -0.53027344, 0.0025196075, -2.0117188, -0.04046631, -2.1660156, -1.4248047, -0.6191406, -1.5751953, -0.33129883, -2.2402344, -0.08544922, -3.4589844, -0.53808594, -0.055511475, 2.1621094, 0.09539795, 0.6479492, -0.56591797, 0.6411133, 0.7167969, 0.13000488, -0.3046875, -0.2993164, -1.5283203, 1.7080078, 1.4931641, -2.7441406, -1.1689453, -1.6914062, 0.49560547, -0.27319336, 1.1748047, -0.9223633, -0.81884766, 0.8798828, 0.9223633, 1.890625, 2.5859375, 0.16833496, -1.7587891, -0.69140625, -1.5732422, 3.9667969, 0.06817627, -0.890625, -1.7363281, -0.6352539, -1.1875, 1.6591797, -1.2519531, 1.0361328, 0.0077056885, 0.61621094, 0.8930664, -0.072753906, 2.3027344, -0.49609375, -1.3408203, -0.25927734, 1.0585938, 0.21032715, 0.33764648, 0.22167969, -1.5966797, -0.65771484, -0.7236328, 1.9101562, -1.2451172, 0.7001953, 0.08001709, 0.040527344, -1.9306641, -1.6494141, -0.8183594, -0.41015625, -1.4238281, -0.67089844, 0.35888672, 1.2080078, -1.6025391, 0.5708008, 1.3525391, -0.07611084, -0.9995117, -0.77783203, 3.046875, 0.8105469, -0.36523438, -1.1162109, -1.4208984, 2.2832031, -1.4501953, -2.6503906, 0.8071289, 1.4541016, 0.3100586, -0.33398438, -0.265625, -1.46875, -1.0117188, 0.17236328, 0.9477539, 1.375, -0.8520508, 0.5957031, -1.1435547, 2.3398438, -0.12658691, -0.27661133, 0.69140625, -0.28759766, 0.3227539, 1.7402344, 0.4387207, 2.484375, 0.86035156, -0.34057617, -0.2529297, 0.93847656, 0.8066406, 1.6796875, -0.9140625, -0.27001953, 0.19458008, 1.0087891, 0.45239258, 1.1425781, 1.3867188, -2.1796875, -0.35327148, 0.8823242, -1.7109375, 0.41015625, 1.1337891, -1.6738281, -0.1928711, -0.10961914, -0.5078125, -1.2353516, 0.5048828, -1.6640625, 1.1552734, 1.2070312, 1.0839844, -1.1982422, -1.4404297, 0.35766602, -0.5083008, -0.6616211, -1.4277344, 0.63964844, 0.031921387, 2.453125, 1.4003906, -1.6298828, -1.5761719, 1.7216797, -0.7890625, 1.1386719, -0.8300781, 0.65478516, 0.3930664, 0.8125, -0.7807617, -2.5351562, -1.8095703, 0.9916992, 0.21618652, 0.06365967, -0.6611328, 0.2680664, -1.2587891, -1.0097656, -1.3115234, -1.3085938, -0.23010254, -0.87109375, 0.88964844, -0.5908203, 3.3261719, 1.171875, 1.1943359, -1.8583984, -0.10418701, -0.15393066, 1.1474609, 2.0078125, 0.96191406, 0.5019531, -1.3369141, 1.4833984, 0.2553711, 1.3837891, -2.6445312, -1.8505859, 0.42773438, -0.103027344, -0.27416992, 0.65478516, 0.7026367, 1.6103516, 0.20483398, -0.47705078, 4.6523438, 2.0683594, -0.5229492, 0.91308594, 0.05203247, -0.045196533, -1.96875, 0.88134766, -0.3527832, -0.6459961, -0.21069336, -1.4765625, -0.3737793, 0.8330078, -0.34106445, -0.4963379, 1.4951172, 0.14562988, -1.8125, -0.62158203, 2.8203125, 0.026000977, -0.37719727, -1.4824219, -0.8066406, -0.42114258, -1.0830078, -1.0566406, -0.18823242, -0.7885742, -1.4667969, -1.4355469, 0.60791016, 0.9477539, 1.2548828, 1.4619141, 2.8457031, -1.0019531, 0.19616699, -0.21655273, 0.1772461, 2.3789062, -1.6367188, 1.5439453, -1.4814453, 1.3583984, 0.3388672, 2.2070312, -1.5068359, 1.3388672, -1.6474609, -1.6308594, 0.5522461, 0.7578125, -0.07965088, 0.1459961, -0.546875, -0.8100586, -1.9384766, 0.38208008, 0.6611328, 1.3466797, 1.7294922, 0.58154297, -1.2109375, 1.140625, -0.04623413, -0.21240234, 0.7504883, 1.5507812, 2.3496094, 1.5234375, -2.2324219, -0.91845703, 0.93115234, 0.41503906, 1.4902344, 1.3369141, -1.7539062, -0.6567383, 0.50341797, 0.86279297, -0.41064453, -2.2285156, -0.31323242, -0.2088623, -1.3505859, -1.4775391, -0.33496094, 0.47851562, 0.6616211, -0.32421875, 1.4951172, -2.0136719, -0.19250488, -1.0595703, 1.4121094, 0.028015137, 0.5307617, -0.34228516, 1.6982422, 0.83251953, -0.023834229, -0.7944336, 0.56884766, 0.2076416, 1.2597656, -0.6088867, -0.36547852, 2.1386719, 1.2011719, 2.1308594, 1.3222656, 0.67333984, 0.20532227, 1.3369141, -0.87646484, 0.2130127, -0.048736572, 0.38134766, 1.8134766, 1.4052734, -0.3479004, -0.5205078, -0.1418457, 1.1445312, -1.5058594, -1.7089844, -0.5336914, 1.5380859, -1.2900391, 2.3398438, 0.022247314, 0.2244873, -1.0722656, 1.4931641, -0.9970703, -2.625, -0.29223633, -0.6489258, 0.1508789, 0.6713867, -2.3808594, 0.056152344, 0.6040039, 1.5429688, 0.6245117, 0.34423828, -1.0957031, 0.66015625, -0.6899414, -2.3945312, -1.1171875, 1.8085938, -1.0976562, 1.4746094, 0.64746094, 2.515625, -2.703125, -0.58447266, -0.045806885, 0.6948242, 0.035095215, 1.03125, 1.1367188, 1.3974609, -2.2832031, -1.3789062, -0.8305664, 1.0722656, -1.4443359, 2.7460938, -1.7070312, 2.0683594, 2.5253906, -0.88134766, -0.2397461, -1.5673828, -0.46606445, -0.19433594, -1.421875, -0.13537598, 2.7050781, -1.0410156, 0.19006348, -0.14550781, 0.99121094, 0.04638672, -2.34375, -0.47680664, -1.0429688, 0.4716797, -1.1767578, 0.13635254, -1.0341797, -2.390625, 0.34033203, -0.90771484, 2.2519531, -0.8823242, 0.34985352, -0.35839844, 0.7426758, 1.6210938, -1.1142578, 0.55908203, 1.1474609, -0.6850586, -0.5239258, 0.13305664, 0.54589844, -1.3564453, 0.42578125, 0.29760742, 1.1884766, 0.7446289, -0.82910156, 1.4736328, 0.8510742, 0.35620117, 0.7861328, 0.46166992, -0.02911377, 3.25, 1.0351562, 0.6616211, -1.2207031, -1.9179688, 1.3955078, 1.4052734, -0.89746094, -0.8984375, -1.3408203, 0.14038086, 1.5488281, 0.47509766, -0.9707031, 0.2088623, 0.97558594, -0.50341797, -1.8515625, 2.6601562, 0.54052734, -0.50146484, 0.124572754, 2.1777344, 1.9833984, -0.008987427, -1.2480469, 0.9604492, 0.96777344, -0.30639648, 0.26171875, -0.043273926, -1.9775391, 0.15710449, -1.1894531, -0.39794922, -1.6054688, -0.46801758, 1.328125, -3.7578125, 0.055480957, 0.22167969, 2.2460938, 2.9804688, 1.6816406, 1.0322266, -0.84814453, 0.7763672, -0.2824707, 1.4140625, 1.0019531, 0.98291016, -0.92822266, 1.4560547, 1.5566406, -1.0742188, 1.9765625, -0.13586426, -3.6855469, 1.2675781, 0.20349121, -1.2197266, 0.82128906, 0.10821533, -2.078125, -0.6533203, 1.7109375, 0.49365234, 1.1894531, 1.7753906, 0.8901367, 0.66552734, -2.3320312, 0.59472656, 1.5693359, -0.8852539, -0.36157227, 0.43823242, -2.0800781, 0.9013672, 1.9599609, 0.1262207, 3.453125, 0.8676758, -2.7363281, 0.7939453, -0.3876953, -2.2773438, -0.10632324, -1.1484375, -0.8798828, -0.63671875, 1.6191406, -1.0703125, 0.05178833, -0.78515625, -0.87939453, -3.0214844, -0.48608398, -0.25439453, -0.61279297, 1.5869141, -1.3037109, -0.042541504, 0.51464844, -0.00283432, -1.1689453, 0.009727478, -2.0371094, -0.8496094, 0.19567871, 0.16210938, -0.3774414, -0.9345703, -0.70947266, -1.0458984, 0.7192383, 0.27246094, 0.28881836, 1.2705078, 0.640625, -1.1318359, 1.2431641, -0.01020813, -2.8027344, 1.3203125, 1.0625, 0.09057617, 0.38623047, 3.8320312, 1.3232422, -0.1381836, -1.0273438, 0.62402344, 0.3347168, 1.4765625, -1.3896484, 2.0605469, -0.8642578, 0.97509766, 1.8525391, 0.58251953, -0.6098633, 0.40625, -0.9589844, 0.8046875, -0.7475586, 0.051452637, 0.067993164, -1.2324219, -0.9951172, 0.20935059, 0.23242188, 0.27319336, -2.4609375, -1.7871094, -0.6948242, 0.40161133, 1.5595703, 2.1269531, -0.011932373, 1.3203125, 0.18969727, 0.65771484, 0.6152344, -0.4970703, 0.39746094, -0.38134766, -2.6992188, -0.73828125, -2.1835938, 0.6357422, -1.9277344, -1.0009766, 0.8984375, 1.8574219, 1.2041016, 0.40771484, -0.5102539, -0.55859375, -1.2626953, -2.8125, -0.2998047, -1.8261719, 1.5166016, 0.038970947, 0.009391785, -2.9355469, 0.4284668, -0.16369629, -0.20751953, -0.6513672, -0.78466797, -1.1113281, 0.8388672, 2.3125, 0.095336914, -3.2988281, 0.53271484, 0.00491333, 1.7636719, 0.45751953, 0.4321289, 0.92529297, 1.0097656, 1.234375, 0.55859375, 0.20935059, 2.0136719, 2.6816406, 2.2734375, -0.11022949, 0.7524414, -1.8398438, -1.0732422, -0.6430664, -0.26049805, -0.7636719, -0.49951172, -1.4082031, -0.6899414, -0.19958496, -0.016448975, 1.5058594, -0.6977539, -3.9960938, -0.8383789, -0.74121094, 0.68310547, 2.1992188, -1.2841797, 0.47558594, -0.69433594, -1.7714844, 0.03527832, 0.69970703, -1, -0.30249023, 0.87890625, 0.27905273, 1.1503906, -0.4345703, -0.5854492, 1.0068359, -0.5449219, 0.20788574, -0.53027344, 1.78125, 0.9296875, 0.48779297, -1.7431641, -2.5097656, -0.5786133, 0.02456665, -1.8457031, -0.061340332, 2.6230469, -2.2519531, -0.9267578, 2.1953125, 0.16552734, 0.0026302338, 1.4267578, 0.5473633, -1.0048828, 1.3798828, 5.6054688, 0.31445312, -1.3740234, -2.1445312, 0.4321289, 0.0814209, 0.33813477, 0.60791016, -1.3837891, -0.49267578, 1.9501953, -1.9414062, 0.61572266, -0.09863281, 0.27514648, 1.1347656, 2.21875, -0.27661133, 1.2431641, -0.13269043, -0.11047363, 1.4726562, 0.11956787, 1.8427734, -0.5239258, -0.06896973, -0.76708984, -0.1538086, -1.7675781, 3.5273438, -1.7070312, -0.41992188, -1.8613281, -0.06414795, -1.1904297, 0.07684326, -1.5625, -0.43286133, -0.3876953, 0.47705078, 1.7841797, -1.0761719, 0.42456055, -0.38598633, -1.6210938, 0.4831543, -0.8989258, 2.2558594, -0.70947266, 1.3896484, 1.0322266, 0.94433594, 1.0742188, -1.5234375, -0.13000488, 0.18554688, -0.9003906, 1.8808594, 0.4189453, 1.1992188, 0.92871094, -1.1494141, 0.41357422, -0.38867188, -0.23754883, -0.77490234, -1.1113281, 0.75634766, -1.3916016, -0.9477539, 1.4208984, 1.0585938, -1.609375, 1.234375, 0.91748047, 0.21179199, -1.8769531, -0.22277832, 0.65185547, -0.19689941, -1.3369141, 1.2490234, 0.83154297, 1.5341797, -0.85546875, -2.0097656, -2.484375, 0.8725586, -1.7128906, 0.37524414, 1.7529297, 0.24230957, 0.83447266, -3.7578125, -1.7246094, 0.2286377, -1.1357422, 0.26611328, 0.21826172, -1.0546875, 1.328125, -0.6508789, 1.5625, -0.56152344, -1.1123047, -2.8769531, 1.4736328, 0.84716797, -1.1533203, -0.03289795, -0.7133789, 1.4794922, 0.03677368, 0.21643066, 0.9296875, -0.5024414, -0.6816406, 2.3027344, 2.2207031, -0.26635742, -1.5458984, -0.79589844, -0.4777832, 2.0957031, -1.0595703, 1.0625, 1.0117188, -1.5654297, -0.19348145, 2.0898438, -0.6875, 0.5498047, -0.26489258, 0.9194336, 0.91552734, -3.0742188, 2.9257812, -0.73046875, -0.43432617, -0.6875, -0.43579102, -0.14855957, -0.17785645, -0.38134766, -0.22546387, -0.8808594, -1.3115234, -0.22790527, -1.5830078, -0.081970215, -0.37817383, 1.859375, 2.0371094, 0.029541016, -0.75097656, -2.0957031, 0.2055664, 0.009170532, -1.4394531, -0.94140625, 1.1943359, -0.024261475, 0.4423828, -1.1035156, -0.9838867, 0.46142578, -1.2871094, 0.8642578, 0.48999023, -0.8359375, 1.6386719, -0.8989258, 1.2246094, -1.0556641, 0.124572754, 1.5654297, -0.5986328, 0.68896484, 1.9208984, -1.0976562, -1.1611328, -1.4033203, -2.0898438, -0.5517578, -1.3017578, 0.6269531, -1.2011719, -0.66552734, 1.3535156, -1.7363281, -1.9648438, 1.6337891, -2.9824219, 2.84375, 0.7324219, -1.7255859, -0.46069336, -0.9921875, 0.45141602, -1.4335938, 0.39648438, 0.6171875, 0.9975586, -1.7509766, -1.8496094, -4.8945312, -1.2412109, 0.98339844, 3.84375, -0.10394287, 1.7539062, -0.7050781, 0.87402344, -0.54833984, -0.28588867, -2.2441406, 0.24047852, 1.3691406, 0.05923462, 0.36816406, 1.6259766, 1.2861328, -1.8857422, -3.65625, -1.9345703, -1.3857422, 4.3007812, -0.10095215, 1.5009766, 0.24987793, -0.009216309, 0.93408203, -0.7392578, 0.86328125, -0.29638672, 1.5351562, -1.4326172, 1.6464844, -0.81396484, -1.7802734, -0.7001953, -1.6386719, 1.1103516, 0.33984375, -1.1269531, 0.15576172, -1.3740234, -1.5087891, 1.5166016, -1.4746094, 1.0537109, 0.51416016, 1.3476562, -0.42700195, -0.25683594, 1.0166016, -0.32128906, -0.32177734, 0.78466797, 0.82714844, 0.47436523, 0.068603516, -0.7729492, -2.4355469, -0.6191406, 0.7602539, -0.6557617, -0.41503906, 2.7460938, 0.9589844, -1.0976562, 0.60498047, -1.1445312, -0.6723633, -1.1611328, 0.21411133, -1.265625, 1.1630859, -1.8427734, -0.47631836, 0.10101318, -1.7705078, -1.3847656, 0.9121094, -0.51171875, 1.5664062, -1.2431641, 0.69140625, -0.0670166, 0.5439453, 0.29589844, 0.2019043, 0.54345703, 1.0419922, -0.12438965, -0.21850586, 0.5908203, 0.4038086, 1.4736328, 1.4980469, 0.35839844, -0.3137207, 0.9921875, -0.2010498, -2.2265625, 0.2286377, -0.9213867, 0.16027832, 0.23840332, -1.8662109, -4.5859375, -2.2167969, 2.0410156, -0.65966797, 3.859375, -0.54003906, 1.4765625, -0.43579102, -1.9228516, 0.16967773, -0.69873047, -0.39916992, 1.4599609, -1.8339844, 1.5605469, -0.5473633, 0.90185547, -2.1953125, 0.80810547, 0.83154297, 0.44262695, -0.21484375, 1.0429688, 0.7314453, -0.19628906, 1.7851562, 0.86572266, -0.2631836, -2.5683594, 0.8955078, -2.5410156, 0.2163086, -0.06567383, -0.41210938, -2.0820312, -0.6591797, 2.6699219, 0.046020508, -1.1611328, 0.39746094, 2.6132812, -0.61816406, -0.94189453, 0.23425293, -0.67333984, -2.3398438, 1.3017578, -0.3034668, 1.7822266, 0.18078613, -0.4868164, -3.7578125, -1.7802734, -0.0368042, -2.4433594, 1.8466797, -0.74902344, 2.9902344, -0.59716797, -0.31958008, 0.5209961, -2.0019531, -1.6484375, -0.44628906, 0.92626953, 0.66015625, -0.60546875, 1.7509766, -2.640625, -1.0712891, 0.16638184, 0.67529297, -0.11114502, 1.7158203, -0.11364746, 0.6142578, -0.23205566, -1.2646484, -0.6542969, -1.8476562, -0.7519531, -1.2470703, 1.1064453, -0.29296875, -0.1026001, 1.9941406, 0.37231445, 1.5771484, 0.8203125, -1.9511719, -1.4013672, -0.042297363, 0.7963867, 0.76660156, -0.6875, -0.09466553, -2.4238281, -0.03640747, -0.36865234, -1.1552734, -0.5961914, -0.030670166, -0.6850586, 1.1210938, -0.10601807, -2.265625, 0.3864746, -1.1523438, 1.265625, -0.8652344, -0.45214844, 0.29907227, 0.76464844, -0.9433594, -1.2431641, 0.3720703, -0.3088379, 0.01096344, 0.006931305, 0.008682251, 0.17565918, 0.67529297, 0.80810547, -2.6367188, 1.46875, 1.1289062, -0.24475098, 2.9882812, 1.2011719, 0.9707031, -0.6948242, 2.7539062, 1.6054688, -1.0048828, -1.1220703, -1.0263672, 2.5351562, 0.6298828, 1.015625, 2.4628906, 0.45043945, 2.3046875, -0.65722656, 1.0595703, -0.23828125, 1.2265625, 1.8007812, -1.3886719, 0.004928589, 1.2460938, -1.1523438, 1.2763672, 1.71875, -0.5654297, 1.3632812, 0.40698242, 0.8623047, -1.0234375, 0.034118652, -2.2929688, 0.25390625, -0.04598999, -0.2746582, -1.6904297, -1.7597656, -1.3476562, -0.98876953, 0.6171875, 0.095214844, -2.5625, -1.1445312, 0.80126953, 3.2382812, 1.1220703, 1.4228516, -2.0273438, 0.39257812, -1.2548828, 0.58740234, 0.4819336, -1.1552734, -1.2470703, -1.5712891, -0.6352539, -1.2470703, -1.2871094, -2.1933594, 0.2006836, -2.5527344, 0.16491699, -0.31640625, -0.26391602, -1.2783203, -0.97802734, 1.0595703, 1.4912109, 0.7763672, 1.7216797, -0.65478516, -1.9033203, -0.9790039, 0.08129883, 0.74658203, 0.35742188, -0.75, 2.6933594, 0.24377441, -1.2382812, -0.24731445, 0.24060059, 0.42895508, -1.4326172, 0.13293457, 0.91015625, -1.7519531, 0.07165527, -0.92333984, 1.7207031, -0.35131836, -0.2277832, 0.1315918, 0.6791992, 0.67285156, 1.3955078, -0.3239746, 1.3076172, -0.55322266, -0.6484375, 0.296875, 1.2841797, 1.4951172, -2.7011719, -2.0527344, 1.1474609, 1.1201172, 0.8623047, -1.8115234, 0.30273438, 2.0527344, -1.6933594, 2.2871094, 1.1455078, -0.030807495, 0.7895508, 1.1191406, -0.09844971, -0.390625, 2.5898438, -0.6430664, 0.9604492, -0.37939453, 1.7763672, -0.32421875, -0.39453125, -0.09777832, 0.8496094, -0.96240234, 0.75927734, -1.6738281, -1.2802734, -1.0566406, 1.7802734, 0.4111328, 1.7265625, 0.3725586, 0.27075195, 1.3671875, 0.2631836, -0.7709961, 0.92626953, -0.06323242, -0.8588867, -1.6279297, -0.6621094, 2.0195312, -1.0107422, -2.125, -1.6572266, -0.8876953, -0.9199219, 0.03955078, 1.3730469, -0.011169434, 0.4958496, -0.70947266, 1.8466797, 0.5395508, -0.5361328, 0.28173828, 0.18908691, -0.95410156, -0.22302246, 0.45874023, 0.31567383, 0.2927246, 0.6933594, -1.3789062, -0.0060577393, -0.7036133, -0.40283203, 1.1621094, 0.45922852, 1.2763672, 0.6435547, 1.1708984, -0.17736816, -0.63671875, 1.7109375, -1.3144531, 1.3330078, 0.88378906, -0.29223633, -0.27416992, 0.2692871, -0.39916992, 0.7919922, 1.2294922, -0.4885254, -0.17736816, -0.6699219, -0.91503906, 0.71777344, -0.09869385, 1.1201172, -0.15673828, -0.11816406, -0.11871338, -1.2294922, -2.453125, -1.1298828, -1.1337891, 0.9916992, 1.0488281, 0.45703125, -1.8339844, -0.29370117, 0.5336914, -0.26000977, 2.4375, -0.17089844, -0.17236328, -1.6865234, 1.4501953, -0.031982422, 1.7822266, -0.5336914, -1.3935547, -0.56347656, -1.6708984, 0.0052757263, 0.038238525, -0.8515625, -0.35742188, -1.2636719, -1.3066406, -1.3789062, 0.7026367, -0.07910156, 1.0585938, -1.5332031, -1.2529297, 0.35473633, 0.2442627, 0.034210205, -1.5693359, -1.8339844, 0.71240234, -0.46020508, 0.33422852, 0.5878906, -1.2744141, -2.6464844, -1, -0.7890625, 0.36938477, -0.46948242, -0.39038086, 0.07727051, 0.044921875, -0.39013672, 0.9296875, -0.65185547, 1.2744141, -0.6176758, 3.890625, -0.2705078, 0.34057617, 0.9560547, 0.25195312, 2.1484375, -0.69189453, -0.30200195, -1.7460938, 0.42749023, -0.4729004, 0.56689453, -2.0566406, 0.34057617, -0.3713379, -0.2607422, 0.40966797, -0.9453125, 0.66503906, 0.049468994, 0.0027332306, -1.4052734, 1.2636719, -0.40844727, 1.0996094, 0.28271484, 1.6757812, -0.7373047, 1.2753906, 0.41088867, -0.72509766, 1.078125, -0.9433594, 0.31860352, 0.20043945, -1.9130859, -0.5800781, -1.8515625, -0.23583984, -0.73095703, -0.22680664, 1.3369141, 0.32299805, 0.94140625, 1.3349609, 1.1005859, -3.2519531, -0.05380249, -0.057525635, -0.93310547, 0.10809326, 2.3535156, 0.4555664, -2.640625, -0.8564453, 2.6347656, -1.2539062, 0.33691406, -0.94140625, 0.5019531, -0.46020508, 1.3359375, 0.057128906, -2.3867188, 0.99560547, 0.5859375, 1.9707031, -0.56103516, -0.32714844, -1.015625, -0.20751953, -1.3007812, -1.1777344, -0.6845703, 0.3269043, 0.66845703, -2.3886719, 1.6582031, -1.7734375, 0.91015625, -0.4519043, 1.4072266, 1.0527344, -0.7446289, -1.8515625, -0.09674072, -1.6767578, -0.24951172, -0.90185547, 0.19909668, 0.20532227, 0.84375, -2.2871094, 0.50439453, -0.16760254, 0.8442383, 1.53125, 0.6430664, 1.1210938, -0.45874023, -1.8300781, 0.1986084, -0.14953613, -2.3964844, -1.6777344, -0.89208984, -0.93408203, -0.009498596, -3.1347656, -1.8496094, 0.19787598, 0.3491211, 0.9995117, 0.28735352, -0.94970703, 0.9770508, -0.5834961, -0.78808594, -0.76660156, -0.95166016, 0.5107422, -1.0107422, -0.84228516, -0.22265625, -0.4482422, -1.9130859, 0.81152344, 1.4677734, 2.046875, -0.7050781, -1.9570312, 0.64501953, 0.9238281, 1.4658203, 0.97216797, 0.8808594, 2.4628906, 2.671875, -0.015396118, -0.57373047, -0.86035156, -1.0166016, -0.8623047, 0.3071289, -0.36865234, -1.0869141, -0.5234375, 0.45092773, -1.6083984, 0.59375, -0.91308594, 2.1777344, -1.5488281, -0.5546875, -2.0078125, 1.4003906, 0.63964844, -0.99121094, -0.9555664, 0.5810547, -1.859375, 0.01637268, -0.51416016, 0.9199219, 1.3837891, 1.3232422, -0.81591797, 1.5292969, -1.6464844, 1.7617188, 0.30444336, 1.0029297, 0.6953125, -0.83984375, -1.6357422, -1.6933594, -0.22753906, 1.4599609, -0.27905273, -1.9716797, 0.9238281, 0.057678223, 1.9550781, -0.5083008, 0.48120117, -1.0097656, -0.3388672, 0.36010742, 1.7460938, -0.42041016, -0.70947266, -1.7636719, 0.7558594, -1.9550781, -1.6806641, 0.3876953, 0.08074951, 2.1386719, 0.640625, 0.12756348, 1.0488281, 1.4541016, 1.1132812, -0.6591797, 2.0175781, 0.99365234, 0.78271484, -0.29858398, -0.296875, -0.027450562, -0.1586914, 1.0595703, 0.21264648, 0.09918213, -0.6459961, -0.36938477, -1.9726562, -1.9443359, -1.9335938, -0.8125, 0.13867188, 0.18188477, -0.68847656, -3.5957031, 0.03756714, 1.3681641, 1.9882812, -2.</t>
-  </si>
-  <si>
-    <t>[2.0546875, -0.63671875, 0.34179688, -0.50634766, 0.76123047, -2.21875, -1.296875, 1.9257812, 2.5546875, 1.6464844, -0.22827148, 1.0195312, -0.87158203, -0.34570312, -0.3713379, -0.10864258, 1.2148438, -0.5131836, 0.04220581, -0.95458984, -0.2836914, 0.95214844, 0.34594727, 0.08001709, -0.43798828, 0.4946289, 0.9238281, -1.8330078, -1.4931641, 1.2675781, 0.09375, 3.0078125, 1.3115234, 0.68310547, 1.3671875, -0.93310547, 0.56640625, -0.39501953, 3.5859375, 0.4482422, 0.29663086, 0.6816406, -0.9995117, 1.0537109, -1.7011719, 0.22045898, -0.4489746, -0.34228516, -0.55859375, -1.1806641, 0.7915039, 1.0009766, -1.078125, 0.6113281, -1.2636719, -0.007083893, -2.1074219, -0.6303711, 0.61376953, 0.5131836, -0.81396484, 2.3359375, 0.7993164, -0.13208008, 0.24572754, 0.87158203, -1.7089844, 0.61865234, 0.97802734, -0.120910645, 2.2636719, 0.2607422, -1.4335938, 0.58935547, 2.0625, 1.5966797, 0.089660645, -0.000890255, -0.029510498, 0.80615234, 0.38354492, -0.23864746, -1.4619141, -0.09649658, -0.77685547, 0.037017822, -1.9248047, -0.8432617, 1.9384766, 1.0703125, 0.5708008, -0.07208252, 1.4902344, 1.2089844, 0.26489258, 0.40454102, 0.49121094, 0.23522949, -0.6777344, -0.25756836, -1.8691406, -0.3798828, 1.109375, -0.04647827, -2.0546875, -0.12976074, -0.73339844, -1.4091797, 0.2775879, 1.2675781, -0.9970703, -0.9770508, 2.8554688, 1.5751953, 2.4082031, -0.4338379, 0.5722656, -0.3503418, -0.33398438, -2.2871094, -0.5078125, -0.8540039, 1.5039062, 1.8789062, -1.296875, -1.7412109, 1.0986328, -0.11895752, -0.62158203, 1.96875, 0.24914551, 0.03552246, 2.3496094, -1.2841797, 3.421875, -1.1630859, 0.58740234, -1.1787109, -0.4248047, -1.3701172, 0.9243164, 0.69433594, 0.30322266, 1.6025391, -0.24389648, 0.85058594, 2.0761719, -0.7290039, -1.3330078, 0.46264648, -0.8149414, -1.2392578, 0.03225708, 1.5644531, -0.25341797, 0.85253906, -0.4008789, -2.4199219, -1.8115234, -2.2207031, 0.04159546, -1.3867188, 0.5258789, -0.94873047, 0.26000977, -0.4013672, 1.3720703, 1.6542969, 0.25830078, 0.37353516, 0.8535156, -2.5332031, -0.17553711, 1.2529297, 0.60058594, -1.0009766, 0.9082031, -2.609375, 0.3984375, -1.8701172, 0.037384033, 0.038879395, 0.20495605, 0.9008789, -0.30371094, -0.8041992, -0.59277344, 0.008293152, 1.1435547, 0.4482422, 0.671875, -1.7275391, -0.3400879, 1.6025391, -0.23010254, 0.8203125, 0.34228516, -1.0683594, 5.2695312, -1.3115234, -0.38891602, -0.39526367, -0.17492676, -1.1835938, -1.6767578, 2.6660156, 0.16308594, -0.3828125, 0.32788086, -0.7216797, -0.74853516, 0.079711914, 1.359375, 2.3183594, -0.14099121, 1.6835938, 0.40454102, -1.53125, 1.1699219, -0.0064048767, 0.57958984, -1.9501953, -3.0546875, 1.9287109, -1.8447266, 0.75439453, -1.1533203, 0.06890869, 0.8125, 0.8154297, -0.31396484, -1.4912109, 0.2487793, 0.16418457, 1.3095703, 1.5400391, -2.2070312, 1.3515625, -0.4494629, -0.5966797, -0.2939453, -0.70703125, -0.2788086, -0.29833984, -0.39746094, 1.8779297, 1.8251953, -0.02784729, 1.1201172, -0.16809082, 2.8808594, -0.47998047, 0.75341797, -0.93115234, 0.06335449, 0.55810547, -0.3076172, -1.2246094, -0.6621094, 0.1081543, -2.4101562, -1.4726562, -1.2421875, 0.07867432, 1.2314453, -0.51123047, -2.3085938, -0.2446289, -0.38989258, -0.51953125, -0.27441406, 0.921875, 1.8261719, -0.78222656, -0.84033203, -0.22668457, 1.5126953, 1.4248047, -2.4257812, 2.5820312, -0.33007812, -1.4658203, 1.9384766, -0.7783203, -0.57958984, -0.2064209, -1.2089844, 0.6401367, -0.23059082, -1.1455078, -0.08203125, -0.79296875, 0.6303711, -1.2958984, -1.9072266, -2.3769531, -1.125, 0.4152832, -0.56884766, -0.20703125, -1.2285156, 0.60302734, -2.5253906, -2.0488281, 0.57714844, 1.4111328, 1.7988281, 0.5761719, -0.27490234, 0.94091797, 0.3486328, -0.14196777, -0.40820312, -1.3447266, -0.72998047, -1.5400391, 0.92285156, 1.6035156, -0.21166992, -1.7480469, -0.73095703, -1.4814453, 1.8261719, -0.23632812, -0.009407043, -0.640625, -1.6650391, 5.796875, -0.64501953, -1.65625, 3.453125, -1.6699219, -1.0078125, 0.6455078, 1.5341797, -0.28149414, 1.3359375, 3.1308594, -0.6118164, 0.46020508, 1.1308594, 1.0087891, -0.61035156, 0.18835449, -1.0292969, -0.6801758, -2.2148438, -1.0507812, -0.46972656, 0.115356445, 0.2619629, -2.609375, 2.4667969, 1.4140625, 0.31567383, -0.77490234, 2.3203125, -1.8857422, -2.578125, 1.4853516, 0.15246582, -0.6513672, -0.7763672, -1.1201172, -3.0976562, 0.85839844, -0.9272461, -2.1347656, -0.038970947, -2.6445312, 0.43774414, 1.8144531, 1.3085938, 0.7373047, 0.7050781, 0.30249023, -2.3164062, 1.3808594, -1.0869141, -1.7353516, 0.9453125, -0.29370117, -0.83740234, -1.7109375, -1.2578125, 0.19519043, 0.08355713, -0.7519531, -0.45043945, 3.0976562, -0.29736328, -1.5380859, 0.50146484, 0.20910645, 0.9160156, -0.91259766, 2.2324219, 1.0878906, 2.1503906, -0.23632812, -1.2568359, -0.3227539, -2.5273438, -1.8691406, -0.8413086, 1.1015625, -0.11651611, -0.34960938, 1.6425781, 0.99658203, 0.94921875, 1.1103516, 2.4023438, -0.5073242, 1.5517578, 0.3984375, -0.5180664, -1.8144531, 0.26611328, -0.8691406, 0.9550781, -0.3466797, -1.2236328, 1.0996094, -0.27734375, 0.5678711, -1.4628906, -3.515625, -0.27563477, 0.65966797, -0.9472656, -0.47143555, 0.52783203, 0.010765076, -1.3457031, -1.1513672, -0.16064453, -2.2929688, 2.8730469, -1.3007812, -1.0234375, -1.5898438, 0.6464844, 0.79296875, 0.3149414, 4.2148438, 1.1757812, -0.13256836, -1.0976562, 0.22937012, -1.0439453, 0.3293457, -0.48291016, 0.05432129, -0.67578125, -2.7910156, 1.0742188, -2.0019531, 0.11981201, -0.4699707, -0.6435547, 1.109375, -1.0625, -0.0637207, 1.6933594, 1.7207031, 0.41088867, -0.076171875, 0.9765625, -1.1123047, -0.9902344, 0.33642578, 0.7192383, 1.6982422, -3.8144531, 0.18408203, -1.7041016, -1.8574219, 0.76904297, 0.90527344, 0.4326172, 0.5551758, -0.4074707, -0.6015625, 0.8232422, -1.5966797, -1.0400391, 0.21240234, -0.6152344, -1.15625, -2.9257812, -0.8388672, -0.29516602, 0.47973633, -0.23706055, -0.48364258, 1.6171875, 1.4111328, 0.3864746, -0.6738281, 0.89453125, -0.09649658, -1.1015625, 1.1933594, -0.53808594, -2.2695312, -0.38134766, -0.8989258, -2.6074219, -0.72314453, -2.1289062, -0.19616699, -0.43725586, 1.1914062, -0.67285156, 1.7070312, -1.5654297, -0.06567383, 1.5625, -1.7568359, 1.6806641, -2.3125, 0.5307617, -2.0644531, 0.6123047, 1.875, -0.9863281, 1.5654297, 1.1435547, 0.6269531, -0.046295166, 1.2402344, -0.8364258, -2.2226562, -2.3457031, 0.87841797, 1.2617188, -0.36572266, -1.2939453, -0.122680664, 2.5507812, -0.69873047, -1.8720703, 1.0957031, 0.16088867, -1.0341797, 0.7363281, 1.1669922, -1.1972656, -1.8173828, -0.96728516, 2.7070312, -0.7163086, 0.63623047, 1.7578125, 0.7246094, 0.014625549, -0.55810547, 0.39648438, -1.8017578, -0.5288086, 0.09667969, -1.0546875, -0.5854492, 0.07550049, -0.20935059, 0.09686279, 1.4199219, -0.99658203, -0.60058594, -0.98779297, -0.95703125, 0.65625, -0.9399414, 2.96875, -0.6689453, -0.55908203, 0.13903809, -1.3730469, -0.98876953, 3.2167969, 1.1171875, 1.7177734, 0.63134766, -0.38964844, -0.64697266, -1.5693359, 1.1669922, -1.4121094, -1.8330078, -0.042877197, 2.3105469, -0.7890625, 1.8134766, -0.14880371, 1.2988281, 0.52978516, -0.07910156, -0.22827148, -0.45288086, -0.24304199, 2.5820312, 0.11529541, -0.08691406, 0.48266602, 1.140625, -1.3798828, 1.3476562, -1.2255859, 1.28125, -1.9912109, 1.9541016, 0.045837402, 1.5400391, -2.7753906, -0.97558594, 0.9995117, -0.5644531, -0.6982422, -0.6230469, -0.7192383, -1.3251953, -0.6689453, -0.5864258, 2.0351562, 2.4121094, -0.6381836, 1.1083984, 0.8432617, 1.8544922, -0.4921875, 3.0566406, 0.13793945, -1.6777344, 1.8271484, 3.6777344, -0.9550781, 2.4140625, -1.7910156, 0.33789062, -0.59033203, -0.019210815, -0.119506836, 1.15625, 1.7910156, 0.63623047, 0.82470703, -0.76708984, 0.8676758, -0.1427002, -1.0693359, 1.8847656, 0.00012862682, 0.9145508, -0.9536133, 0.48657227, -0.5385742, -0.71875, -0.54345703, 0.88183594, -0.6074219, 0.84814453, 0.42529297, -1.875, 0.8305664, -0.1385498, 0.07611084, -1.9443359, -0.38427734, 0.37817383, -1.6210938, 0.014045715, -1.9619141, 0.098083496, 0.08898926, -2.0820312, 1.4716797, -1.6552734, 0.9038086, 0.4482422, 0.6713867, -1.109375, -1.1992188, 3.390625, -2.5449219, -0.00969696, -0.59033203, -0.95654297, 0.08099365, 1.5654297, 1.9511719, -0.60595703, -1.4052734, 1.0878906, -1.609375, -0.42993164, -0.7265625, 1.8886719, 0.9692383, -3.2558594, 1.6279297, 0.30322266, 1.15625, -2.2558594, 0.2878418, 1.6982422, -0.5341797, 0.26123047, -0.5708008, 0.6147461, -0.41235352, 2.5234375, 0.082458496, 0.38671875, 0.0031719208, -1.7822266, 0.29003906, 1.2539062, 0.12420654, -1.3964844, 2.7109375, -0.6381836, 0.36499023, -0.4885254, -0.25976562, 0.6435547, -1.4287109, 0.7080078, 0.40698242, -0.6040039, -0.23327637, -0.12310791, 1.1083984, -0.14489746, 1.1318359, -0.6723633, 1.3574219, -1.0351562, -2.6503906, -1.8720703, 2.0175781, 0.24157715, 2.3125, 0.059570312, 1.3457031, 0.76220703, 1.5722656, 0.70703125, -0.15161133, 0.8388672, -0.4333496, 0.005126953, 0.9794922, -0.22741699, -0.40429688, -0.5439453, 0.9794922, -0.8178711, -0.10864258, -1.0537109, -1.578125, -2.0136719, 0.7919922, 1.9482422, 0.28588867, 0.48706055, -0.29223633, -0.13989258, -0.9536133, 0.29833984, -0.39672852, -4.8710938, 0.24377441, 1.4648438, -0.29882812, 0.92822266, 0.018188477, 1.7353516, 0.5932617, 2.1445312, 0.26220703, 1.9501953, -0.4152832, -0.6850586, 2.4296875, 0.8276367, -1.6591797, -0.2668457, -1.7929688, 2.5820312, 1.3027344, -0.009010315, 0.34350586, 0.9067383, -1.2353516, -0.9902344, 0.83203125, -0.19787598, -0.62158203, 1.7431641, -0.37109375, 1.2158203, -0.19360352, -0.4272461, 0.020233154, 0.7421875, 0.4477539, 0.1505127, 0.88183594, -2.3398438, 2.7363281, -0.8911133, -1.0947266, -0.8017578, -1.4052734, 1.5712891, -1.7675781, 1.2871094, -1.1982422, -0.37280273, -0.012542725, 0.9770508, 0.91015625, 1.1542969, -0.15856934, 0.25170898, -0.041168213, 1.4755859, 1.0478516, 0.091796875, -0.8959961, -1.0957031, 0.5239258, -0.025421143, 0.02748108, -2.5703125, -0.82714844, 0.9458008, 1.1298828, 1.109375, 1.9970703, -0.8017578, 1.7695312, 0.6689453, -0.41137695, -3.6582031, 1.0380859, 0.87158203, -0.6098633, -0.095336914, -0.0925293, -0.0019607544, 1.2675781, 0.40527344, 0.53759766, -0.43164062, 0.9243164, 0.2861328, -0.6542969, 0.2697754, 3.6582031, 0.1538086, -1.234375, 0.51171875, 1.4150391, 1.1201172, -1.1601562, 0.67529297, -0.7548828, -0.2944336, 0.4658203, 1.46875, 1.4492188, 1.4912109, -0.22595215, -0.07128906, 0.9194336, -0.11779785, -0.3828125, -0.83251953, -1.5175781, 2.9296875, -1.2587891, -0.8388672, 1.6015625, 0.49902344, -0.984375, 0.6982422, 1.1699219, -0.66503906, -0.89404297, -1.8505859, -1.2851562, -0.22717285, -0.7836914, 0.3178711, 2.5175781, -2.6855469, 1.0498047, 1.1494141, -0.12225342, 2.0136719, -0.115356445, -0.35424805, -0.40673828, 0.35986328, -1.1933594, -0.4482422, 1.7177734, -0.38891602, -1.6591797, -1.6894531, 0.6982422, 0.28833008, -1.6210938, -1.1826172, -1.0351562, 0.35107422, 0.7949219, 0.61621094, 0.68603516, -0.2541504, 0.75341797, 0.059661865, 0.2310791, -0.76123047, -0.23864746, 0.3828125, 0.8310547, 0.13537598, 0.5727539, -1.3251953, 1.6357422, 0.46801758, -1.7392578, -2.1875, 0.60791016, 1.6455078, -1.3144531, 0.12524414, 0.24353027, 0.20117188, 1.6181641, 3.6210938, 0.28442383, 0.45288086, -0.32885742, 0.04345703, -0.8959961, -0.24267578, 0.7949219, 0.93603516, 0.14196777, -0.36572266, -0.58740234, 1.1855469, 0.78564453, 0.27148438, -0.7636719, -0.9628906, -0.9223633, 0.33276367, 0.32714844, -0.91015625, -1.0107422, 2.5566406, 0.5444336, 0.32128906, -0.9194336, 0.35009766, 1.1630859, -0.44384766, 2.0351562, 0.20227051, 0.69921875, -0.07525635, 0.79833984, -0.67333984, 0.46435547, 1.1132812, -1.4042969, -0.5258789, -0.62597656, -0.64941406, -2.1992188, -2.6523438, 0.91259766, -1.0498047, -1.4394531, 1.9482422, 0.6479492, 0.6459961, 1.5712891, -0.9145508, 0.11645508, -1.3037109, 0.95947266, 0.23986816, -1.5517578, -1.8798828, 0.29418945, 1.3144531, -0.4494629, -0.30078125, -1.1865234, -2.3964844, 0.6767578, 1.4052734, 0.14025879, -0.15734863, 0.25952148, 1.3300781, -1.2705078, 0.6328125, 0.6411133, -0.57421875, -1.0175781, -1.7333984, -0.33251953, 0.24108887, 0.38964844, -0.6230469, -0.2590332, -1.3261719, 0.42016602, 0.021087646, 0.29174805, 1.84375, 0.5336914, -0.3557129, -1.5302734, -0.0259552, 1.3720703, 2.1132812, 2.4492188, -1.7089844, 1.9121094, 0.20959473, 0.98291016, -0.044952393, 0.26879883, 0.038513184, -1.1962891, -1.0263672, -0.36499023, 0.2849121, 1.0117188, 0.48364258, 0.6796875, -0.06304932, -0.5317383, 0.07867432, 1.3212891, -0.64746094, -0.5, -0.014633179, 0.44482422, -0.77197266, -2.2910156, -1.2099609, -0.9707031, 1.0107422, 0.054840088, -0.9165039, 0.64160156, -0.7294922, -0.375, -2.3417969, 1.9990234, 0.14245605, 0.77001953, -0.7207031, 0.30493164, 1.6054688, 0.98583984, 0.26611328, 0.99072266, 0.20227051, -1.9013672, -1.5830078, 0.5854492, -0.5805664, -0.7890625, -0.14855957, 2.2949219, 0.44335938, -0.46826172, 1.1777344, 0.30371094, -0.6660156, 2.8535156, 1.2070312, 0.89404297, -1.6826172, 0.5854492, 0.97314453, 2.2558594, 1.0908203, -1.34375, -1.1015625, -0.85839844, 1.1201172, 1.2851562, 0.2998047, -1.9277344, -0.35864258, 0.3540039, -0.28759766, 1.5830078, 0.7421875, 2, -1.5009766, 4.2578125, 0.67285156, 0.9995117, 0.56396484, 0.8417969, 0.8496094, 1.7431641, 1.921875, 0.14294434, 1.15625, 0.57177734, 0.2631836, -0.4567871, 1.3828125, -1.0195312, -1.1621094, 0.8647461, -0.33325195, 0.87060547, -0.030715942, 1.46875, 0.13378906, 0.9736328, -0.25634766, 0.17712402, 1.7646484, 1.1367188, 1.3623047, 0.6152344, 0.29174805, 0.041168213, -1.1210938, 0.4729004, 2.3164062, -0.06945801, -0.46826172, -1.7548828, -0.7001953, 2.2285156, -1.1826172, -2.2441406, 0.79345703, 0.7163086, 0.55859375, 2.5351562, -1.5097656, -0.28295898, 0.83496094, -0.62060547, -0.5546875, 0.7714844, 0.22814941, -0.40771484, -2.9765625, -1.4150391, 0.2746582, -2.3710938, 1.0205078, -2.8398438, -1.0693359, -1.2871094, 0.05505371, 0.047454834, 1.6113281, 1.2392578, 1.2226562, -0.051818848, -1.2363281, 0.8125, 2.1757812, -0.13720703, -2.6484375, -0.70410156, 0.6274414, 3.1601562, -1.8984375, -1.2099609, -1.9013672, -0.08544922, -2.6816406, 2.6191406, -0.9926758, 0.2076416, 0.10223389, 0.953125, 0.4736328, 0.46044922, 2.765625, -1.0830078, 0.1262207, -0.14855957, 2.4179688, 1.4228516, 0.99560547, 0.6118164, -1.3408203, 1.078125, 0.4440918, -1.3828125, 0.24841309, 0.37426758, -0.09375, 1.1542969, 0.27124023, 2.3476562, 1.546875, 1.5400391, -1.3964844, 0.8808594, 1.7382812, 1.2050781, 0.9848633, 0.5151367, 0.3244629, -0.3347168, 0.84814453, -2.6230469, 0.070495605, -1.1123047, 2.9257812, 0.08129883, -0.7573242, -0.004486084, 0.32006836, 0.49926758, 0.46655273, -1.0585938, 0.7036133, 0.22290039, 0.8881836, 0.4338379, -1.6455078, -0.107299805, 1.3017578, 1.390625, -0.59033203, 0.13061523, -0.69189453, -0.24816895, 1.3974609, -0.83496094, -0.44970703, 0.73876953, -1.4550781, 0.030227661, -0.32470703, 0.37597656, -0.67333984, -0.47753906, -0.09448242, 0.68310547, 1.2324219, -2.3710938, -1.1494141, -0.06585693, -2.4980469, -1.5380859, 1.0302734, -2.5507812, -1.7880859, 0.79003906, 1.0253906, -0.77001953, -0.59375, 0.11706543, 0.3154297, -0.036315918, -0.41845703, 1.0722656, -0.0869751, -1.2958984, 0.21777344, 0.21118164, 0.42016602, 1.859375, 1.6953125, 3.1757812, 0.48510742, 2.4921875, -0.11468506, -0.3642578, 0.74853516, 1.1835938, -3.1933594, 1.1103516, 1.2988281, -1.5556641, -0.6254883, -0.23950195, -0.84033203, 0.7036133, 1.3251953, -0.7421875, -1.4189453, -0.140625, -0.50097656, -0.27856445, -0.24487305, -1.0244141, -0.14331055, 0.9941406, 2.2441406, 1.2539062, -0.20385742, 3.0742188, 0.56640625, 1.4072266, 2.0253906, -1.2558594, 1.4404297, 1.4931641, -0.9941406, -1.0585938, 0.1706543, -2.78125, 0.19848633, 0.050567627, -0.7651367, 0.06524658, 1.5712891, -2.5, -1.2958984, 0.21862793, -4.5351562, -0.83984375, 0.3720703, 0.20471191, 0.12695312, 2.1933594, 0.042877197, 0.74072266, -2.8085938, 0.5673828, 0.7871094, 0.9375, 1.7236328, -1.6201172, 0.03250122, 0.88623047, 1.1591797, -0.1439209, 1.0898438, -3.28125, -1.4189453, 0.58496094, 2.015625, -0.22314453, 2.6601562, 0.9375, 1.6337891, 0.12719727, 0.07720947, 2.1230469, 2.0117188, -0.6191406, 0.640625, 2.6015625, -1.1796875, 0.23168945, 1.6621094, 2.2578125, -1.1376953, 2.4023438, 0.46044922, 0.023376465, -1.4082031, -1.0126953, -0.17810059, -0.2824707, 1.5556641, -1.1806641, -0.76220703, 0.12817383, -4.0195312, -0.7089844, -0.8310547, -1.0078125, 0.56640625, 0.7675781, 0.87402344, 0.22912598, -1.1650391, 1.1220703, 0.12036133, -0.5605469, 0.03289795, 1.9443359, 2.5585938, 0.63427734, 0.8149414, 2.2890625, 0.4597168, -1.6777344, 2.2167969, -4.40625, 1.4189453, -0.56152344, -1.4970703, 0.4868164, 0.55371094, -1.3984375, 1.8984375, -2.265625, -0.23962402, -0.5625, 1.6210938, 1.3193359, 0.4326172, -1.0800781, -2.4023438, -0.09991455, 1.4492188, 0.9033203, -0.60498047, 0.47729492, -2.171875, 0.90966797, -0.78271484, -1.0761719, 0.07739258, 0.21276855, 1.5097656, 2.7695312, 0.23168945, -0.6152344, 0.017684937, 1.9990234, 1.9072266, 1.5712891, 2.7539062, -1.5117188, 0.77978516, 0.55078125, 2.0292969, -0.08874512, -0.9785156, 0.09240723, 0.05657959, -1.0419922, -1.6748047, -0.6401367, 1.0595703, 1.6728516, -0.7729492, -0.37963867, -0.62158203, -0.7519531, 0.6904297, 2.3359375, 2.4101562, -0.11456299, 2.6386719, -1.2675781, -1.2929688, -0.7558594, -1.8935547, -0.17358398, 0.28515625, 0.82470703, 0.8256836, 1.8173828, 0.35473633, 2.2226562, 1.96875, -0.57177734, -1.4755859, 1.3203125, 0.5336914, 0.17346191, 2.6542969, -2.4042969, 0.28686523, 2.1582031, 1.7080078, 1.1982422, -0.31420898, 1.0556641, 1.6455078, -0.65478516, 0.7363281, 1.6669922, 0.7363281, -0.15942383, -1.4824219, -0.7529297, -0.19177246, 0.025283813, -0.080322266, 0.42797852, -0.38671875, -2.0136719, 0.5913086, -1.2480469, -0.079833984, -0.5444336, -0.6635742, -1.2626953, 1.0878906, -1.1416016, 0.94140625, 0.21508789, -0.0435791, -2.6523438, -0.8540039, -2.4746094, 0.012527466, -0.29125977, 0.81689453, 1.0039062, 0.5864258, 0.19958496, 0.6484375, 1.4970703, -0.34350586, -0.72558594, 0.4169922, 2.4824219, 1.1210938, -1.2099609, -0.15136719, -1.6152344, 0.36938477, 0.38671875, 1.1171875, -0.29760742, 0.609375, 0.4633789, -0.34057617, -1.0214844, -1.2001953, 1.2158203, -0.8461914, 2.0253906, 0.22509766, -0.37329102, 0.21313477, -2.28125, -0.69384766, 1.7695312, -0.11669922, -0.6098633, 0.06518555, -0.52246094, 1.7636719, 0.023971558, -0.5439453, -0.13757324, 1.3759766, -0.81396484, 1.0878906, 2.5429688, 0.023452759, -0.11816406, 1.7988281, 0.30419922, -0.10168457, 0.78759766, -0.16955566, 0.9658203, 0.7348633, -0.16137695, -0.35205078, 1.0449219, -0.21960449, 0.31567383, -1.1064453, -0.56689453, 0.07116699, -0.86035156, -0.4729004, 0.52685547, 1.7431641, 0.39990234, 1.4580078, 1.5693359, 3.5078125, -0.34106445, -1.2412109, 1.9785156, -0.7270508, 1.5683594, -0.09301758, -2.7871094, -1.5341797, -0.9814453, 0.5498047, -0.3293457, -0.086242676, 0.43652344, -1.0068359, -0.057556152, 0.828125, -0.7597656, 5.7851562, 2.0078125, -2.1347656, 1.0263672, 1.7148438, 0.2548828, -0.77197266, 1.1894531, 0.9428711, 1.2402344, 1.7197266, -0.8046875, -1.7734375, -1.1669922, -0.7939453, -1.1542969, -0.05834961, -1.7949219, -2.8886719, 0.0066337585, -3.2109375, -0.99121094, -1.2851562, 1.0859375, 0.6850586, -0.91796875, 0.066589355, -0.69091797, -0.58496094, -1.5058594, -0.049102783, 0.8613281, -0.02848816, 1.2490234, 1.1972656, 2.0664062, -0.5097656, -1.7548828, -1.2050781, -3.8496094, 1.8134766, -0.27661133, 0.8774414, 0.6801758, -0.8623047, -0.7734375, -0.8876953, 1.9482422, 0.0076675415, 0.9067383, 2.2128906, -0.41015625, 1.6298828, -1.7480469, 1.2558594, -0.17919922, -1.59375, 0.7050781, 0.9345703, -0.14123535, -1.296875, 0.7871094, -1.4990234, 1.7431641, 1.2246094, -2.7246094, -0.17333984, 0.31933594, -1.390625, 1.8984375, -1.2275391, -0.4633789, -1.5683594, -0.3647461, -1.5332031, -0.4699707, -0.11065674, -0.17138672, -1.8320312, 0.26831055, 1.3378906, -0.5625, -0.19519043, 0.9560547, 1.4755859, -1.6123047, 1.2021484, -2.5976562, 2.3085938, -1.1357422, -2.5136719, 0.28222656, 1.9101562, 1.9619141, -0.79003906, 0.2890625, -1.5898438, 1.1064453, 0.22009277, -1.1113281, -0.29663086, 0.49316406, 0.68603516, 1.203125, 1.0859375, -2.1699219, -2.875, 0.3720703, 2.71875, 1.1132812, 4.5234375, 1.4541016, -0.41479492, 1.2724609, -0.6791992, 0.92041016, 0.42016602, -1.8701172, 1.3457031, 0.66015625, -0.53808594, 2.3652344, -1.2167969, -2.0175781, 0.37109375, -0.1607666, -0.15393066, -1.8623047, 1.2197266, 0.43798828, 0.4897461, -1.7753906, -0.47973633, -0.2770996, -1.0693359, -2.3964844, -0.14428711, 0.7675781, -1.5625, 1.4521484, 0.56396484, -0.41918945, 3.2480469, 0.87597656, -0.45092773, 1.0654297, -0.4567871, -2.5605469, 1.5039062, -0.08544922, -0.30004883, 0.7651367, -2.3496094, 0.6455078, -1.4931641, -1.0839844, -0.22937012, -1.3378906, 0.22277832, -0.4921875, -0.6230469, -0.16467285, -3.0761719, -0.2841797, -0.36035156, -0.101135254, -0.86328125, -0.122802734, -2.4980469, -0.5131836, 0.010772705, -1.0068359, 1.2363281, 1.921875, -1.6542969, -0.8666992, 1.6982422, 1.0517578, -0.70654297, -0.8691406, 0.13635254, -0.58203125, 0.8046875, 1.0566406, 1.9873047, 0.75146484, 0.75439453, 0.6401367, -0.027267456, 1.9384766, 1.4355469, 0.6352539, 1.1494141, -1.6933594, -0.68603516, -0.9770508, 0.5522461, 1.2275391, -0.0793457, -0.39892578, 0.0670166, 0.44970703, -1.0351562, 1.0097656, -0.12683105, -2.1191406, -1.9648438, -0.0027275085, 0.14758301, 0.47583008, 1.34375, 0.6928711, 2.4921875, -0.47070312, -0.35302734, 0.09454346, 1.8544922, -1.8261719, 0.41601562, 1.5566406, 0.96728516, 0.5292969, 1.0595703, -0.57421875, -0.3786621, 0.23864746, -0.46875, -0.055908203, -0.6508789, 1.0605469, 1.1171875, -2.2558594, -2.4101562, -2.125, -0.7807617, -1.1904297, -1.0302734, -0.0368042, -0.8027344, -1.4414062, 0.5, 0.16455078, 1.2304688, 0.6176758, 0.33398438, 0.72021484, 2.3632812, 2.0742188, 0.5727539, -2.3496094, 1.0673828, -0.81103516, 0.3605957, -1.1435547, 0.11456299, -1.15625, -1.1259766, 0.67089844, -0.15979004, 1.7949219, 0.7109375, 0.44311523, -1.5351562, 4.1601562, 0.4609375, 1.5957031, 0.9194336, -0.26123047, -0.31201172, 1.0361328, 0.74560547, -1.1347656, -0.17211914, -0.203125, -0.22680664, -0.41064453, 0.39697266, 0.59472656, 1.3515625, -0.5341797, 0.70458984, 1.7919922, 0.28222656, -1.4628906, -0.9560547, 1.1777344, -1.6933594, -0.8833008, -2.2265625, -0.28588867, -2.5097656, -2.0449219, -0.13769531, -1.3701172, 0.70996094, 1.6962891, -0.05529785, -0.22717285, 0.6977539, 0.37402344, 0.0859375, -0.3322754, 0.43554688, -0.062927246, 0.5019531, 0.13989258, 0.4555664, 0.7949219, -2.4492188, 0.765625, 0.3161621, 0.030822754, -0.6821289, -1.6171875, 2.2910156, -1.3359375, -0.31298828, 2.1933594, -1.2763672, -2.0976562, -0.8491211, 0.72265625, 0.32714844, -1.6826172, 1.3857422, 0.83984375, -2.4941406, -0.8071289, -0.49072266, 1.3623047, 2.5859375, 0.14331055, -1.9091797, -4.2929688, 2.5546875, 1.1035156, 0.3408203, 2.46875, 0.8183594, -0.61621094, -3.0292969, -1.3886719, 1.1865234, -0.6748047, -1.03125, -0.49316406, 0.61621094, 0.16369629, -3.7753906, -0.097229004, -1.3066406, -2.1210938, 0.9301758, 0.6113281, -1.1728516, 0.92578125, 1.5527344, -0.6098633, 0.10089111, -1.0253906, -0.1899414, -0.19885254, 0.10205078, -2.0390625, 1.7763672, 1.1796875, -1.4208984, -1.1132812, 0.96777344, 0.9506836, 2.1660156, -1.0830078, 0.59375, 1.2109375, 0.56347656, -1.3525391, 2.9804688, -0.2861328, 0.25439453, 1.2578125, 1.625, 0.27929688, -1.0166016, 0.9980469, 1.8046875, -0.9692383, -1.2226562, -0.8745117, -0.4309082, 1.8271484, 0.023483276, -0.44018555, -0.42236328, -0.64697266, 0.51220703, -1.1357422, -0.37426758, -2.3144531, -0.1217041, 1.1191406, -0.55566406, 1.375, 0.5888672, 0.036499023, -1.6113281, -0.058502197, -0.81689453, 2.2441406, 0.6323242, 1.1630859, -0.26245117, -0.07293701, 0.76660156, -1.9130859, -1.1640625, 0.35717773, 0.081970215, 0.025772095, -0.14025879, -1.1767578, -0.034820557, -2.2011719, 0.8383789, -0.64990234, 0.6933594, 2.5332031, -0.5136719, 0.47070312, 0.0022277832, -1.7617188, -0.028060913, 0.1307373, -0.31225586, -1.7509766, -0.8149414, 0.22790527, -1.9560547, -1.2275391, 1.8945312, -0.5024414, 4.3203125, 1.4667969, 1.2333984, -0.3256836, 1.375, 1.5722656, -0.68603516, -1.2138672, 2.2128906, -0.1619873, 0.7006836, -0.52197266, -6.9921875, 0.42138672, 1.0888672, 0.6479492, 0.18164062, 1.7988281, -1.2333984, -0.46655273, -1.7304688, 0.97216797, -1.6982422, 0.41137695, 0.5288086, 1.2353516, -0.08087158, 1.3037109, -0.43579102, -1.6220703, -2.3339844, -1.3789062, -1.5039062, 2.390625, -2.2910156, 2.609375, 0.57714844, -1.6054688, 0.18981934, -0.6308594, 0.84033203, 0.8178711, 0.13977051, -1.3828125, 0.7285156, -0.8808594, -0.77441406, -0.7294922, -0.5366211, 1.46875, -0.4790039, -0.19091797, -0.14819336, -1.5214844, -1.3037109, 0.5708008, -2.1933594, -0.15795898, 4.4765625, 2.8515625, -0.22155762, 0.64404297, -0.71972656, 0.8198242, 0.47680664, 1.0458984, 2.1015625, 0.21533203, -0.35229492, -1.6152344, 0.020690918, 0.21435547, 0.7871094, -0.06982422, -1.4902344, 3.6230469, -0.5004883, 1.2568359, -0.20703125, 0.03289795, -1.5351562, 1.1103516, -2.3769531, -2.5390625, 1.2988281, -1.2304688, -0.69677734, -1.4394531, 0.32348633, 0.77441406, 0.44433594, -1.0253906, 0.011146545, -1.4130859, -1.6054688, 2.0058594, -1.2177734, -0.6308594, 0.9272461, 1.0205078, 1.8251953, -0.7470703, 1.15625, 1.6777344, 1.8798828, 2.0664062, -0.98583984, -0.40673828, -0.8305664, 0.8901367, -0.67285156, -2.8496094, -1.5878906, -1.0615234, -0.42529297, 0.5888672, -1.9511719, -3.0175781, 1.0810547, 0.77685547, 1.0976562, 2.1269531, -0.20251465, 1.5058594, 1.7070312, -1.7607422, -1.359375, -1.0058594, -0.27807617, 3.2988281, -0.45117188, 1.2470703, -0.4543457, 2.8730469, -0.96435547, 1.2636719, -0.8417969, -0.90478516, 1.4355469, -0.20214844, -0.07946777, -0.5756836, -0.19213867, -0.57958984, -0.8598633, -2.5292969, -0.38427734, -0.31152344, -0.55078125, -0.86035156, -0.051818848, -1.4970703, -0.31079102, -0.67578125, -0.23010254, 0.0057525635, 0.68359375, 3.5039062, 1.6015625, -0.8105469, 0.062561035, -0.41674805, 0.012298584, 0.22131348, 0.8198242, 0.9926758, -0.3227539, 1.3857422, -1.390625, -1.1513672, -0.8652344, -0.37109375, 3.3125, 0.5390625, 0.17443848, -0.99365234, -1.2226562, -0.01222229, -2.2929688, -0.3161621, 0.42626953, 0.3984375, 1.2412109, -4.3203125, 0.7597656, -1.5302734, 0.4885254, -1.1884766, 1.5566406, 0.28198242, -0.45874023, 0.10015869, -0.4411621, -1.3984375, 0.034973145, 0.9375, -1.5595703, -1.7480469, -1.5566406, 0.23864746, -0.68603516, 2.3046875, 0.2290039, 0.27661133, 0.62158203, 0.6323242, -0.9165039, 0.76904297, -1.3320312, 1.625, -0.87939453, -1.4433594, -2.3710938, -1.7822266, -0.49365234, -0.6875, 0.6464844, -1.5683594, 0.53027344, 0.8354492, 0.44799805, -2.7636719, -0.38208008, 1.5253906, 0.89746094, 0.9067383, -1.0351562, -1.4248047, 1.0654297, 0.036499023, -1.4697266, -0.49145508, 0.5625, 0.6328125, -1.7451172, -0.5180664, -1.1689453, -2.8457031, 2.2773438, -0.010520935, 1.2324219, 0.39379883, 0.43237305, 0.50341797, 2.3457031, -2.4492188, 3.5332031, 0.3720703, -1.9599609, 0.57128906, 1.6455078, 0.047424316, -0.2019043, 0.7529297, 1.5683594, -0.8745117, 0.8535156, 0.7001953, 0.50146484, 1.5224609, 1.4462891, -0.6064453, 0.015731812, 1.1298828, 1.1542969, -0.4440918, 1.4628906, 0.47998047, 1.6425781, 1.0224609, 0.10107422, 1.2333984, -0.3317871, -1.3408203, -0.12249756, -1.2617188, -1.3251953, 0.18933105, -0.43969727, 0.099365234, -1.2070312, -1.4873047, -1.9033203, -0.9482422, 0.2154541, 0.7949219, -4.0351562, -1.8417969, 0.08428955, 0.9038086, -1.4208984, -1.4238281, 0.30273438, -0.4765625, -1.0400391, 0.15319824, 0.48706055, -1.1826172, -0.35546875, 0.78222656, 1.2080078, -0.25097656, -0.029464722, 0.19836426, 0.028396606, -0.33007812, 0.8413086, -0.082336426, -0.4975586, -1.0332031, -1.9072266, 2.5234375, 0.47509766, 0.77685547, -0.7919922, -0.07116699, -1.4355469, 0.80126953, 0.101867676, 0.13684082, -0.42700195, -2.5097656, 0.5834961, -0.1274414, 0.5498047, -1.9130859, 0.83691406, -0.45483398, 1.1230469, -0.41992188, -1.1542969, -0.14587402, -0.20507812, 0.66552734, 3.4277344, -0.77685547, -1.7509766, 1.0048828, -1.8759766, -0.70947266, 1.6025391, -0.73095703, 2.3300781, -0.14123535, -0.5473633, -0.13378906, -0.5053711, 0.79541016, -2.3203125, -1.1806641, 1.0830078, 1.6982422, -0.90966797, -0.92089844, 0.4946289, -0.1574707, 0.030471802, 2.6210938, 1.9462891, -2.0800781, 1.9072266, 1.0117188, -0.4885254, -1.7822266, 0.08734131, 1.2148438, 0.6953125, 1.578125, 0.5878906, 0.23413086, 0.033843994, -0.6958008, -0.7495117, -0.33666992, 1.0419922, -1.9130859, 0.13903809, -1.1972656, 1.3935547, 1.90625, 0.58447266, 1.2011719, 0.30932617, 1.9667969, 0.67089844, -0.5566406, 1.5341797, -1.4541016, -0.79833984, -0.8745117, -2.0039062, 2.0644531, -0.80126953, -1.3984375, -1.4599609, -1.7646484, -0.80126953, 1.9873047, -0.010169983, 0.20874023, -0.6401367, -0.24023438, 1.1142578, -0.07208252, -2.0058594, 1.9941406, 1.0703125, -1.5146484, -1.5371094, -0.21704102, 0.28466797, -1.6865234, -0.6616211, -2.6601562, 0.14465332, 0.88623047, -1.3710938, -1.3095703, -1.8671875, 0.058532715, -0.0826416, 1.8798828, 0.41625977, -1.1806641, 0.2980957, -0.94921875, 0.9057617, -0.30273438, 1.3193359, -0.47143555, 1.1494141, 0.062469482, -0.14746094, 0.028137207, -0.6953125, -0.36132812, -0.36816406, -0.71435547, 0.4489746, -0.85058594, 0.7807617, 0.5957031, -0.9399414, -0.5151367, -1.1826172, -1.2373047, -1.1513672, 0.011238098, -0.3161621, 0.51464844, -1.9628906, -0.28759766, 1.2011719, -0.6254883, 0.07977295, 2.8496094, -0.6616211, -2.0019531, 1.1533203, 1.5595703, -0.02142334, 0.20703125, -2.1484375, -1.9619141, 0.85839844, -0.38330078, -0.5024414, -1.8886719, 0.3881836, 0.081604004, -1.5957031, 0.08770752, -0.8901367, 2, -0.46264648, -0.8955078, -1.4326172, -1.6298828, 0.79785156, 1.9814453, 0.36450195, -0.8364258, -1.7548828, 2.1425781, -0.2783203, 0.8652344, -1.0273438, -1.1191406, -0.99560547, -1.2070312, 1.0302734, 0.54296875, 0.39135742, 0.7060547, 1.4589844, -0.117492676, -1.1728516, -1.0625, -0.65185547, 0.03894043, -1.2089844, 0.5991211, -0.32104492, -0.19494629, 1.0253906, -0.4897461, 0.27807617, -1.4042969, 1.7304688, -1.6171875, -0.07165527, -0.65722656, -1.9960938, -2.0644531, -0.203125, -1.0605469, 1.1142578, 1.0048828, 0.22058105, -0.80126953, 1.0986328, -0.27490234, -0.7885742, 1.9824219, 1.59375, 0.41381836, 1.2802734, 1.1494141, -2.2617188, -0.27148438, -0.5366211, -1.3642578, 1.9013672, 0.22753906, -1.4492188, 1.1455078, 0.77685547, -0.31054688, -0.7167969, 0.91748047, 1.1464844, -1.8662109, 2.2832031, -1.0722656, 0.70214844, -1.1162109, 2.0859375, -2.2929688, -0.24328613, 0.2993164, -0.46801758, 1.2333984, 0.51123047, 0.31689453, -3.0429688, -1.7294922, 1.4873047, -2.5136719, -1.5195312, 0.043792725, 1.2490234, 2.1289062, 1.0986328, 0.5385742, -2.8886719, -1.5009766, -0.58154297, 0.08605957, -0.08294678, 0.43188477, 0.36865234, -0.34204102, -1.6201172, -2.2929688, -0.2578125, 0.060272217, 2.2070312, -3.5898438, 0.13903809, -2.7226562, 1.1855469, 0.99658203, -0.30737305, 0.093566895, -0.81689453, 0.28442383, 0.03515625, -0.59375, 2.8144531, -2.7714844, 2.5253906, 0.45288086, -0.9863281, -1.6181641, -1.859375, 0.94433594, 2.2597656, 0.3046875, 0.83203125, 2.5097656, -2.0703125, 1.0703125, 0.43920898, -0.5708008, 0.66552734, -1.6054688, -1.0859375, -0.4338379, -0.13208008, -0.6591797, 0.46044922, -0.35473633, 0.41137695, 0.21069336, 1.5410156, -0.80322266, 0.82958984, -1.0068359, 0.21887207, -0.33935547, -3.5175781, 1.8486328, 1.8818359, 0.96240234, -1.2744141, 0.7441406, -1.2724609, 0.8041992, 0.36499023, 1.0224609, -1.4179688, -1.2353516, -0.34936523, 0.46435547, 1.5058594, 1.7480469, -0.081970215, 0.54541016, 1.2568359, -0.4736328, -1.5654297, 1.5693359, -0.6352539, -1.3261719, -0.39648438, 0.12249756, -1.9345703, -3.2285156, -0.12176514, -2.3085938, 1.3789062, -1.1777344, 1.9824219, -0.65527344, -0.76220703, 1.7265625, 0.66015625, 0.5864258, -1.2207031, 0.47607422, -0.8305664, -0.25634766, 0.49829102, 0.7998047, -1.5283203, 1.0361328, -1.6054688, -0.64404297, -0.09729004, -0.54785156, 0.5576172, 0.88671875, -0.7348633, -1.1552734, -0.14221191, -1.7753906, -1.9931641, 0.6796875, 0.87841797, -1.3603516, -4.1054688, 0.20471191, 1.6035156, 1.2617188, 0.80615234, 1.5595703, -1.9912109, 0.34985352, -0.5258789, -0.76904297, -0.7890625, 0.7426758, -0.06719971, 0.017456055, -1.7851562, -1.7460938, -0.28125, 1.0429688, 0.2208252, 0.3239746, 1.0009766, -0.3618164, -0.96728516, -0.19995117, -0.15270996, 0.80859375, 1.3037109, -0.2088623, -0.087890625, -0.56689453, 0.7080078, -0.19592285, -1.6171875, 1.03125, -0.86816406, 0.30444336, -1.3037109, -2.0058594, -0.49902344, -0.5546875, -1.0175781, 0.96533203, 0.9243164, -0.5083008, -2.6386719, -1.3320312, 1.7246094, 1.1210</t>
-  </si>
-  <si>
-    <t>[0.76464844, -0.06378174, 0.010139465, 1.2451172, 1.0966797, 0.18579102, -0.006023407, 0.14990234, 1.3105469, -1.0087891, 1.1572266, -0.9584961, -1.765625, -0.0949707, -0.6020508, 0.47070312, 1.6630859, -0.9033203, 0.31713867, -0.8256836, -0.75927734, 1.3779297, -0.4572754, -1.7392578, 1.3037109, 2.9277344, -0.19592285, -1.7998047, -0.31103516, 0.8769531, 0.3244629, 1.796875, 3.0410156, 0.064697266, 1.8515625, -0.82666016, -0.54248047, -0.28198242, 1.3408203, 0.5366211, -0.53027344, -0.050872803, 0.50927734, 0.8540039, -1.6240234, -0.578125, -0.33984375, -0.09765625, 0.73095703, -0.26098633, 2.1035156, 1.8359375, -0.5600586, 1.2050781, -1.0898438, -0.20324707, 2.53125, 0.9584961, 0.38916016, 0.51708984, 0.82177734, 2.1875, 1.0537109, -0.34936523, 1.0839844, -0.14758301, 0.1541748, 0.18066406, -0.085754395, 1.8261719, 1.0869141, 1.2705078, -0.05239868, -1.1933594, 3.6582031, -0.103271484, -0.47973633, -2.0390625, 0.4567871, -0.020263672, -1.0634766, -0.24829102, -3.2539062, 1.2285156, 1.8447266, -1.2919922, -0.8876953, -1.2783203, 0.2553711, 2.0703125, -0.013641357, -0.45996094, 0.42041016, 0.9819336, -2.0195312, 0.4543457, 1.5742188, -1.0947266, 0.6484375, 1.8984375, -0.1328125, 1.0146484, 0.0054092407, 0.9248047, 0.20666504, 1.2207031, -0.73339844, -0.9042969, -1.7841797, 1.2392578, -0.6635742, -2.2070312, 0.38500977, -0.9135742, 0.8544922, 1.7675781, 0.9560547, -0.8154297, -0.1640625, -3.2285156, -1.0009766, -0.35009766, -0.63183594, 2.4570312, -0.20141602, -2.7324219, -0.43847656, -2.8730469, -0.022033691, 2.0996094, 1.6152344, -1.1132812, 0.7680664, -2.4570312, 5.3554688, 0.6567383, -0.48266602, -0.8598633, -1.1591797, -0.12902832, -0.47802734, -0.7416992, 2.0527344, 2.4648438, 0.28637695, -0.74902344, 1.4892578, -0.6123047, -0.48828125, -0.26245117, -1.8515625, -0.19250488, -1.140625, 1.3310547, -1.9257812, 1.3291016, 1.453125, -0.35742188, -0.78515625, 3.3164062, -1.6474609, -2.0722656, -1.3515625, -0.9428711, 2.0957031, 0.08514404, 0.9243164, 1.8330078, -0.83447266, -2.7558594, 0.5805664, 0.47753906, -0.37402344, -0.32250977, 0.7207031, 0.35595703, 0.7895508, -0.40478516, 0.4494629, -1.7861328, -0.17578125, -0.97753906, 0.33374023, -0.5415039, -0.40454102, 0.71484375, -1.6142578, -0.6982422, 0.7519531, -0.73339844, -0.99560547, 0.5629883, -0.73339844, 0.21655273, -0.71435547, 0.73339844, -0.7915039, -1.0976562, 7.0507812, -1.2021484, 0.93896484, -0.3630371, -0.3630371, 0.057861328, -0.20678711, 2.75, 0.77246094, 0.58740234, -2.3789062, -0.82470703, -0.34887695, -1.0078125, -0.6738281, -0.6020508, 1.9726562, -0.31420898, -0.06640625, -0.5756836, -0.5073242, 0.5546875, 0.004497528, 0.62109375, -0.1772461, 0.12243652, -1.1289062, -0.2998047, -3.1757812, 1.7158203, 0.9111328, -1.0322266, 0.30981445, -0.62109375, 1.1279297, 3.5351562, 1.9414062, -1.8740234, -0.5102539, 1.3154297, -0.9941406, 0.86328125, -0.15454102, -1.6347656, -0.6376953, 0.4736328, 0.032318115, -0.06591797, -1.4423828, -1.0878906, 2.2265625, -0.79589844, 1.3056641, 0.09448242, 0.61572266, -0.80859375, -1.2900391, -0.38452148, -1.3818359, -1.1601562, -1.8359375, 1.4726562, -0.7998047, -0.8251953, -0.11669922, 0.6352539, 0.9707031, -0.6254883, -1.1669922, 0.26660156, 0.49267578, 0.41845703, 2.7578125, 1.8652344, 3.0332031, -0.6723633, -1.7587891, 0.85839844, 1.7568359, 1.3105469, -1.3017578, 0.82177734, -1.9013672, -0.6660156, 1.4697266, -0.4741211, 1.765625, -0.66015625, -1.6015625, 0.081726074, 0.76464844, -0.7470703, 0.23083496, -1.4296875, 0.009269714, -0.8232422, -0.3244629, -1.203125, -1.6933594, -1.6728516, -0.08300781, -1.6738281, -0.15393066, 0.25146484, -1.5917969, -1.5351562, 0.74365234, -0.68652344, 1.4736328, 1.1621094, 0.28686523, -1.1992188, 2.2792969, -1.3818359, -0.48535156, -1.0351562, -0.17993164, -0.0927124, -1.3867188, -1.0927734, -2.3222656, -1.8808594, -0.9946289, -1.4335938, 0.75878906, 0.17736816, -1.3398438, -0.6538086, 0.031311035, 1.9707031, 1.5742188, 1.8496094, 0.89160156, 0.9326172, -1.1875, 0.9394531, 0.09729004, -0.6513672, 0.10601807, 1.9345703, -0.007259369, -0.11602783, 0.6171875, -0.026809692, -1.9462891, -0.021392822, 0.4482422, -1.4003906, -0.43139648, 0.98291016, 1.5390625, 0.8417969, 0.52734375, -1.4511719, 2.234375, 2.1992188, 0.7734375, 0.8339844, 1.6572266, 1.2041016, -2.3085938, 0.67089844, -0.6977539, 0.8876953, -1.8066406, -0.5727539, -0.20727539, 0.75146484, 0.38427734, -0.70947266, 0.6699219, -3.3886719, 0.0657959, 1.1416016, -0.016708374, -0.7602539, 0.3149414, 0.13891602, 1.2705078, -0.27294922, 2.1855469, -3.2734375, 2.0800781, 1.3271484, -2.3496094, 0.38427734, -1.8173828, -0.6230469, 0.4309082, -1.2324219, -1.7255859, -0.022338867, -0.7709961, -1.1220703, 0.026901245, -0.33422852, -0.7602539, -1.734375, 2.5996094, -0.29736328, 0.4729004, -0.13464355, 0.3881836, 1.1591797, -0.5239258, -0.07519531, -0.63427734, 0.027801514, -2.4863281, -0.088256836, -0.07006836, -1.2470703, -1.1982422, 0.43774414, -1.1279297, 0.5629883, -0.27978516, -0.17199707, -0.8666992, -0.10107422, -0.7480469, 0.84375, 1.5947266, 0.042755127, -0.15270996, 0.46118164, -0.038330078, 0.7871094, 0.2310791, -0.6923828, -1.7089844, 1.4960938, -0.30029297, -1.4423828, -0.22473145, 2.8769531, -2.1640625, 0.29223633, -0.06616211, 0.7963867, -0.8305664, -0.10571289, -1.2021484, -0.20910645, -0.31225586, 1.7587891, 0.029251099, 4.7734375, 1.234375, -0.038024902, -1.1298828, 2.453125, 1.0849609, 1.0849609, -0.12927246, 1.4189453, 0.35253906, -1.3466797, 1.3203125, -0.33544922, 1.5449219, -1.0263672, 1.2988281, 1.9501953, -0.43896484, -0.16772461, -1.5908203, -0.4152832, 1.3037109, -1.8554688, -0.6303711, -0.8798828, -1.8535156, -1.4521484, -0.67529297, 0.61083984, -0.39526367, 1.1503906, -2.5097656, -0.47192383, 0.05630493, 1.3945312, 0.10668945, -0.30786133, 0.19628906, 0.8696289, 0.5390625, -1.6806641, 0.39624023, 2.3085938, 0.6118164, -1.8466797, -0.7963867, -0.15979004, -1.4570312, -0.06951904, 2.6074219, 0.3762207, 0.7998047, 1.7705078, -0.1817627, 0.040985107, 0.9506836, -0.52001953, -2.484375, 1.4580078, -0.22180176, -2.0917969, 0.4494629, 0.7080078, -1.4023438, -0.6660156, -1.9257812, -0.39648438, 0.046783447, 0.42236328, -1.8515625, 0.5786133, 2.0371094, -0.8618164, -0.19140625, -0.2944336, -1.3183594, -3.2929688, -0.5698242, -1.3564453, 1.4257812, 1.3164062, -0.38330078, 1.9121094, 1.7929688, 0.06298828, 1.1845703, 0.64990234, -1.1064453, 0.58154297, -1.4619141, 1.4619141, 1.6132812, -1.2578125, -0.9404297, -1.7001953, -1.1572266, -0.14538574, -2.546875, -0.99560547, -0.52978516, 1.0195312, 1.3935547, 0.04156494, -1.4306641, 0.1640625, -1.9824219, 2.0761719, 0.7402344, 0.27416992, 0.9223633, 0.9458008, -0.85839844, 2.0488281, 1.1210938, -2.5195312, -0.3635254, -0.7988281, -2.2910156, -1.3886719, -0.1303711, -0.66259766, 1.1191406, 1.5908203, 0.6503906, 0.13659668, -1.3369141, -1.6542969, -0.15026855, -1.3037109, 2.7109375, -0.2763672, 0.13781738, -1.0107422, -0.094177246, -0.15368652, 4.1992188, 1.1914062, -0.55126953, 0.27905273, -0.26220703, -0.16296387, 0.009124756, -0.09832764, 0.3083496, 0.57373047, -1.5849609, 0.7001953, 0.23120117, 2.1210938, -0.2446289, -0.008644104, -0.3269043, -1.2607422, -0.39404297, -0.4724121, 1.4824219, 0.89160156, 0.028533936, -0.16589355, 0.09869385, 1.4003906, -1.4052734, -1.3037109, 0.88183594, 2.0859375, -0.50341797, -0.059051514, 1.3789062, 0.10437012, 1.0585938, -2.3378906, -0.048065186, -1.2353516, -0.3647461, -0.8442383, 0.6225586, 1.0585938, -0.5644531, -0.020477295, 0.15124512, -0.84716797, -1.0859375, -0.21850586, -0.6850586, 1.2910156, 0.93115234, -1.3388672, -0.49145508, -0.98779297, 3.1816406, 2.9355469, -0.44995117, 2.6660156, -1.4912109, 1.8964844, -1.1650391, 1.4960938, 0.02104187, 0.6381836, 0.3095703, -0.9370117, 0.0368042, -0.76220703, 3.2324219, -0.8876953, 0.015396118, -1.3271484, 2.1992188, -0.2541504, -1.7705078, 0.89746094, -1.4667969, 2.9296875, -2.3476562, 0.75439453, -1.2548828, 2.8652344, 0.17138672, -1.3818359, 1.3583984, -1.0410156, 0.5786133, -0.3869629, 1.2744141, 0.40429688, -0.7495117, 3.1875, -1.9013672, -0.026977539, 0.9067383, 0.8208008, -0.06402588, -1.0957031, 0.8808594, 1.21875, -0.76708984, -0.66748047, -0.8886719, 1.0185547, -2.0898438, 0.14233398, 1.6484375, -1.0771484, 1.1669922, 2.4355469, 2.0136719, -2.0390625, -0.32543945, 0.54785156, -0.18225098, 0.14526367, -3.0371094, -0.011207581, -0.07867432, -1.5039062, 2.0957031, -0.5, -1.9570312, -0.44580078, -2.4316406, 1.4638672, 1.0390625, -1.5556641, 0.89160156, 1.9033203, 0.027175903, 0.52001953, 1.0917969, -0.042388916, 0.045684814, -2.2792969, 1.8671875, -1.7773438, 0.4819336, -0.14587402, 1.2011719, 0.07324219, 1.6396484, -0.23901367, 0.17480469, 0.55371094, 0.91015625, 1.4658203, 0.7602539, -0.2944336, -0.9741211, -0.3959961, -0.13293457, -0.4802246, -0.053894043, -0.92333984, -0.19970703, 0.8886719, -1.4326172, -0.24780273, -1.515625, 0.6953125, 1.296875, -0.18481445, 0.2993164, -1.9726562, -2.2558594, -0.74609375, 0.87646484, 0.87402344, -0.19311523, 1.2167969, -0.6640625, 0.4633789, -2.3300781, -2.4199219, -0.9584961, -1.5126953, -0.01713562, 0.42529297, -2.5449219, -2.828125, -0.09301758, 0.5385742, -0.105163574, 0.16809082, -0.8544922, -2.359375, 0.85302734, 0.122924805, 0.12756348, -3.1269531, -0.5239258, 0.8178711, -0.89990234, -0.31396484, 0.81884766, 1.4746094, 2.7695312, 3.296875, -0.49169922, -1.3564453, 0.85058594, 0.5756836, 1.046875, -0.04660034, -0.54248047, 0.01209259, -0.62060547, -0.8364258, -0.9472656, -1.1796875, 0.90966797, 0.42333984, -2.9121094, 0.70751953, 2.1738281, 2.5683594, 0.053863525, 1.6855469, 0.2368164, -0.7363281, -1.3457031, -3.0097656, 0.61035156, 2.6523438, -1.4628906, 0.7705078, -0.3618164, -1.3300781, 0.78271484, -1.40625, 0.46166992, -1.0546875, -1.2021484, -0.43847656, 0.25512695, -1.7050781, 1.3085938, -0.1730957, 0.21130371, 1.7177734, 1.2304688, 1.9208984, -0.61279297, -1.3798828, 1.3027344, 2.8652344, 0.55126953, -0.10424805, -0.28051758, -0.42578125, 0.6015625, -0.35375977, 0.5131836, 0.31274414, -0.071777344, 4.3671875, 0.27001953, 1.2714844, 0.59033203, 2.4082031, 1.3183594, -0.22460938, -0.58203125, -0.86279297, 1.0527344, 1.5498047, -0.6279297, -0.9326172, 1.0820312, -0.020904541, 0.21057129, -0.8676758, 0.1862793, -0.71777344, -0.16271973, 1.0595703, -1.3769531, -0.6645508, 0.35009766, -0.45263672, 1.2753906, -0.87841797, 0.70410156, 0.88720703, 0.64160156, -1.8603516, 0.3876953, 0.85546875, 0.99560547, 2.0351562, 1.9082031, 0.7949219, 0.96728516, -0.8100586, 1.2392578, 0.7290039, -0.12817383, 1.5253906, 0.4633789, 1.4404297, 0.4880371, 1.1308594, 1.7060547, 1.6494141, -0.43945312, 0.8076172, 0.24938965, -1.4541016, -1.2167969, 0.23840332, 0.3005371, 0.7583008, -0.24157715, -0.14147949, 0.8286133, -1.9726562, 1.7646484, 0.23425293, -3.5019531, 1.7324219, 0.8208008, -0.3244629, 1.2949219, -1.0869141, -0.57177734, -0.73876953, 1.0966797, 1.140625, -0.40649414, 1.0253906, 0.8105469, -0.2512207, -1.2207031, -2.8339844, 0.13562012, -0.33007812, 0.12976074, -0.3310547, 1.2451172, -0.76220703, -0.46728516, 1.3994141, 0.5864258, -0.7480469, -0.09124756, 0.57128906, -0.38793945, 0.30078125, 1.5488281, 0.4741211, -0.34716797, 0.103759766, -0.14086914, -3.0722656, 1.2421875, -0.20910645, 0.57373047, 1.2578125, 0.1352539, -1.0371094, 0.08959961, 2.5605469, 0.19177246, 0.7866211, -0.4477539, 0.23083496, -1.7910156, -1.2109375, -1.2158203, 0.5332031, 0.56933594, -1.6289062, -1.0566406, 1.5810547, 0.15783691, 0.9921875, -1.1826172, -0.017288208, -0.9873047, 0.51416016, -1.65625, 0.41015625, 0.6660156, 0.53808594, 0.20153809, 0.7207031, -2.4921875, 1.5703125, -1.203125, -0.6176758, -0.26220703, 0.19555664, -1.9863281, 1.0166016, 0.035064697, 0.5175781, 2.0078125, 2, 0.6064453, -1.8603516, -1.8066406, -0.5332031, 0.43432617, 0.6191406, 1.1689453, 2.1152344, -0.6855469, 2.9023438, 0.64990234, 0.39672852, 0.43408203, -0.7680664, 0.33007812, -0.050994873, 1.6796875, -0.29125977, -2.3574219, -0.3630371, -0.013397217, 2.7421875, 0.9584961, 0.07928467, -0.076049805, -1.3710938, -0.23620605, -0.5209961, -0.47924805, -1.2216797, -1.0673828, 1.3349609, -0.28735352, 1.2373047, -1.3964844, -0.7949219, -1.1035156, 0.05319214, -1.9228516, -1.0498047, -0.46166992, -0.34204102, -0.25854492, -1.1191406, 0.84375, 0.25561523, 0.062683105, 0.5527344, 3.5722656, 0.83496094, -1.1279297, 1.2695312, -0.37475586, 0.9448242, 1.3886719, -2.5703125, 1.1787109, 1.2255859, -0.74316406, -0.26586914, -0.33154297, 1.3183594, -0.23254395, -2.078125, -1.34375, 1.0224609, 0.58447266, -0.5151367, 0.5566406, 0.30688477, 2.015625, -0.48876953, 0.076416016, -2.2304688, 0.7519531, 0.5263672, -0.070739746, -1.8134766, 1.7285156, 0.12286377, -0.6401367, -1.8349609, -0.3696289, -2.4863281, 0.22949219, -2.0664062, -0.42333984, -0.4338379, 0.49829102, 0.1619873, 0.66308594, -0.43115234, -0.52001953, 0.41723633, -0.70214844, -0.45117188, 0.14904785, -0.07281494, -0.76220703, -1.0185547, 0.55371094, -0.15344238, -0.100097656, -0.35205078, -0.86035156, -0.24951172, 0.041107178, 1.0400391, 0.85058594, -0.22070312, -0.028427124, 3.421875, -0.35498047, -0.22387695, -0.42333984, 1.296875, 0.4243164, 0.30078125, 1.1123047, -1.3945312, -1.8789062, 1.7460938, 0.68847656, 0.17565918, 0.8642578, 1.3125, -0.75097656, -0.86572266, -0.7944336, -0.9501953, 0.43188477, -1.1513672, 2.4316406, 0.88964844, -0.34985352, -1.6347656, 1.3349609, -1.1191406, 1.1152344, 0.55615234, -0.18701172, 0.8076172, -0.96972656, -1.6669922, -0.82666016, -1.5253906, 0.36499023, 0.8544922, 0.0055351257, 2.3007812, 0.12414551, 0.61376953, 0.53222656, -3.0644531, 1.1210938, 0.42089844, 2.0117188, -0.2800293, -1.1757812, 0.12719727, 0.19396973, 1.234375, -0.9897461, -0.66845703, -1.2236328, 1.4619141, -0.24914551, -2.2539062, -1.1650391, 0.018005371, 0.72314453, -2.0488281, -0.49389648, 0.49389648, -0.33276367, 0.9760742, 0.31347656, -0.484375, 1.7392578, 0.10870361, 1.7548828, -1.3349609, 1.3701172, -4.1445312, 2.1132812, -1.3974609, 0.14196777, 1.0957031, -0.7661133, 0.9765625, -1.9501953, -2.6425781, -2.2617188, -0.70654297, -0.71875, 2.2402344, -0.13696289, -0.87890625, 1.9169922, 0.40356445, 0.67822266, -1.5351562, 0.15576172, -2.2480469, 0.062805176, 3.4042969, 0.53759766, -1.4296875, -0.43017578, -0.48242188, -1.2275391, -0.41503906, 1.6660156, 0.74072266, 0.49658203, 1.1142578, 1.3183594, -0.3515625, -0.46044922, -1.1113281, -0.44262695, -0.57666016, -0.9223633, 2.1269531, 0.09301758, 0.13012695, -1.7304688, -0.9980469, 0.041137695, -0.40795898, 0.16674805, -1.2373047, 0.77197266, -2.7695312, 1.1103516, 0.22692871, -0.86035156, 1.1533203, -0.5283203, 2.078125, 1.7060547, 1.2314453, -0.7519531, 0.29589844, 2.3339844, -0.091430664, -1.0390625, -0.3942871, -1.1943359, 1.1826172, -0.9243164, 0.9765625, -0.07141113, -0.78125, -0.84765625, -0.75146484, 0.8256836, -1.0332031, -1.4296875, 2.0976562, 2.3945312, 0.17407227, 0.74072266, -2.4042969, -1.4980469, 1.3046875, 0.035949707, -1.3447266, 1.2119141, -2.1054688, 0.29663086, 1.1953125, -1.8359375, 1.2167969, 1.1884766, -0.06677246, 0.3317871, -0.030471802, 0.13916016, -1.0068359, 0.35620117, -0.20495605, 1.8720703, -0.41748047, -0.6333008, -0.60253906, -0.8510742, -1.9121094, -1.0673828, -2.6191406, -3.8613281, -0.92089844, -1.0849609, 1.4960938, 0.15075684, -1.0263672, -0.040740967, 1.0722656, -1.0263672, 1.1962891, 2.0195312, 1.6484375, -0.22180176, -1.2763672, -1.1005859, -0.28027344, 1.1279297, 2.8925781, 1.8486328, 0.3630371, -1.2451172, -0.51416016, -2.0625, -0.8178711, 1.2753906, -1.96875, 1.2197266, 1.7138672, -0.18859863, -0.08886719, -1.9824219, 0.7402344, 1.2304688, 0.77001953, -1.4921875, -0.90185547, -0.18701172, -0.29541016, 2.1992188, -0.39941406, -2.5410156, 1.7910156, -0.9716797, 0.57910156, 1.3886719, -0.8066406, 0.101379395, 0.044403076, 2.5039062, 1.0107422, -2.1367188, -0.8676758, 0.82714844, -0.6489258, 1.3310547, -1.9052734, -2.0898438, 0.56640625, 2.0410156, -1.6679688, 0.64160156, 1.4990234, -2.8945312, -1.1181641, -0.24438477, -2.7519531, 1.4365234, -1.1347656, -0.62353516, -1.4716797, 2.703125, -0.97753906, 0.1850586, -1.7949219, 2.0957031, 1.8378906, 0.54589844, 1.1689453, -2.3457031, 1.1816406, -1.4189453, 1.6572266, -1.7070312, 0.4465332, 0.086242676, -1.2753906, -0.7832031, 0.2919922, -1.390625, 1.2773438, -0.24499512, 1.5234375, -1.78125, -0.8696289, 5.625, -0.2697754, -0.5571289, 0.63183594, -0.056640625, -2.09375, 0.62890625, 1.4052734, -0.3317871, 0.21594238, -1.6474609, -0.81640625, -0.13464355, -1.9150391, 0.21606445, 0.18481445, 1.8515625, -1.4208984, -0.9863281, -2.1269531, 1.2275391, -2.7597656, -0.94677734, -2.2851562, -1.5029297, 0.63671875, -2.1640625, 0.7475586, -0.20690918, -2.546875, 0.61035156, 1.6621094, -0.6796875, -0.5390625, -1.0048828, 0.36621094, 0.6152344, -2.1191406, 0.83691406, -0.88378906, -1.6689453, 1.1728516, -2.2714844, -0.37182617, -0.73583984, 1.7509766, -0.6977539, -0.60595703, -1.4228516, 1.8017578, 0.17236328, 0.4013672, -1.8125, 2.5585938, -0.0020275116, 1.3564453, 0.2878418, -1.5791016, -0.63623047, 0.19006348, 0.111206055, -0.98291016, -0.15026855, -1.3349609, -2.5957031, -1.6074219, 1.1005859, 0.9448242, 0.65625, 1.9521484, 1.3496094, 0.39746094, 0.2836914, -1.0029297, 1.2910156, 0.5805664, 0.07800293, 0.88183594, -1.4501953, 0.13134766, 1.4882812, 1.7392578, -0.21289062, -0.9975586, -1.7753906, 0.34106445, -0.20996094, -0.70458984, 0.18249512, 2.3476562, 1.1298828, -1.3632812, -0.6040039, -0.8125, -0.49658203, 0.6767578, 1.2050781, 0.052490234, -0.21801758, 1.4257812, 0.37963867, 0.14099121, -0.7167969, 0.025787354, -0.5805664, 1.1669922, 2.7832031, -0.82910156, 0.64208984, 0.13476562, 1.8154297, 3.8691406, 0.65185547, -1.0390625, 1.0527344, -0.68066406, -0.6308594, -1.2431641, -2.0019531, 2.5019531, 1.1855469, 2.6679688, -0.21166992, 0.1619873, 0.9404297, -0.05819702, -1.2451172, -0.20385742, -0.98095703, 1.2773438, -0.0385437, -0.41088867, -0.41430664, -1.3369141, 1.953125, 0.20605469, -0.5161133, -1.8710938, -1.4453125, -0.47753906, 1.0175781, 5, 0.19482422, 1.6572266, -1.4326172, 1.3173828, 1.8398438, -0.5488281, -0.50439453, -1.5644531, -0.21203613, -0.54785156, -1.0917969, -1.6503906, -0.08630371, 0.40014648, 2.8554688, 0.64501953, 0.49169922, 1.9667969, -0.46899414, -1.1845703, 3.7441406, -0.101257324, 1.6962891, 0.1270752, -0.9199219, -0.6542969, -0.22241211, -0.050354004, 0.5307617, 0.35717773, -0.453125, -0.55371094, 0.6958008, -1.8945312, 1.1708984, -1.1103516, 0.04425049, 1.2099609, 0.9248047, -0.7128906, 0.91015625, -0.3227539, -0.85058594, 0.17468262, 0.9628906, -1.3925781, -1.7148438, 0.44873047, -0.71191406, 0.6870117, -1.203125, -0.17285156, -1.0683594, 2.8808594, 0.44873047, 0.6015625, 1.4570312, -0.7890625, 0.48657227, -0.6074219, 1.4599609, -1.0478516, -1.6650391, 0.43286133, 1.6171875, 0.58496094, -0.44067383, 0.60595703, -0.6347656, -0.003921509, 0.5107422, 1.6679688, -1.0625, 0.41235352, -2.65625, 1.5380859, -2.78125, 0.9458008, 1.4013672, -0.29956055, -0.6376953, 1.1767578, 2.0585938, 0.49731445, 0.23962402, 0.0836792, 0.99560547, -0.06304932, -1.9667969, -0.7709961, 0.14672852, 1.7021484, -0.33447266, 0.74560547, -0.9482422, -1.9794922, 0.04067993, -0.1282959, -2.5371094, -0.47460938, 1.7626953, -0.9086914, 0.5415039, 3.9863281, 1.2089844, -0.7919922, -0.81591797, 0.34423828, 0.13061523, 0.7446289, 0.37231445, -1.7128906, -0.421875, 0.21911621, 0.97265625, 1.0751953, -0.9873047, -2.5039062, 0.53515625, -2.4726562, -0.06561279, -1.4355469, 0.20117188, 0.12243652, 2.5371094, -1.1816406, 1.9433594, -2.3417969, -2.0820312, 0.57128906, 1.3798828, 0.49560547, -0.36791992, -1.6445312, 0.51660156, -1.3720703, 1.4814453, 1.3720703, -1.9414062, -0.7529297, 0.63427734, 0.8457031, 0.40625, -0.1661377, -1.4892578, -0.7729492, 1.2861328, -0.23486328, 1.6220703, 1.4169922, 0.27392578, -0.19189453, -2.0234375, 1.3964844, -0.71875, 0.6015625, 0.12023926, 0.515625, -1.4482422, -0.031677246, 0.2956543, -0.9291992, 1.6982422, 0.8886719, -1.6855469, -0.58496094, -1.4296875, -2.6289062, 2.125, -0.52197266, 0.74902344, -1.2070312, -0.12780762, 0.3828125, 1.1650391, -0.7573242, 1.6074219, -1.03125, -0.1751709, 0.079589844, -0.3388672, -1.8486328, -0.16516113, 1.125, -0.73828125, 1.8720703, -1.0097656, 0.89404297, -0.8095703, -1.5615234, -1.2880859, -0.27075195, 3.8066406, 1.2207031, 1.5576172, -0.04699707, 1.1289062, 0.9897461, 0.025512695, -1.5888672, 0.2241211, 0.8105469, -0.9145508, 2.984375, -0.9243164, 0.03201294, -1.1845703, 0.11260986, 0.1862793, 3.9589844, -0.5751953, 0.8623047, 0.74072266, -1.6738281, 1.0849609, -0.07434082, -0.2614746, 0.6953125, -1.2275391, 2.6054688, 3.2265625, -1.0400391, -1.1523438, 0.5644531, -1.2431641, 0.9042969, -1.2412109, 1.5117188, 1.9746094, 0.24865723, 0.3383789, -0.4375, -0.83984375, -1.0244141, -0.9135742, 0.20629883, 0.6635742, -1.3710938, 2.703125, 1.2958984, 0.26538086, 2.7402344, 0.64746094, 0.10864258, 0.89404297, 0.97753906, -0.42773438, 0.4638672, -2.6113281, 0.97314453, -0.3635254, -0.76953125, 1.3359375, -2.5175781, -0.23083496, 1.984375, 0.14282227, 1.0087891, -1.2900391, -0.77441406, 1.015625, -1.1640625, 0.018859863, -1.5703125, 0.9223633, 2.4609375, -0.7685547, -1.8720703, -0.7241211, 0.26293945, -0.15124512, -0.17028809, -3.5136719, -3.625, -0.40185547, 1.0693359, -0.12432861, -1.3466797, -1.5859375, -0.7836914, -0.53515625, 0.062164307, 0.1586914, 1.2119141, 1.3339844, 1.0839844, 0.47705078, -0.24414062, 1.3125, 1.3476562, 1.1835938, 0.73339844, -1.8037109, -0.8588867, 0.12817383, 0.25268555, -1.1660156, -0.7631836, -0.9482422, 1.5507812, -0.43603516, -1.1259766, -0.22998047, -0.070739746, 0.4267578, -4.3125, -1.4169922, 0.17382812, 0.9536133, -1.0332031, -0.13537598, 0.25634766, -2.6523438, -2.1386719, 0.38256836, -0.40161133, -0.35546875, 0.26245117, 2.2285156, -1.7324219, 1.2099609, 0.83984375, -1.2539062, 0.65625, 0.17053223, -0.3701172, -0.41308594, 0.13684082, 0.35375977, 1.0810547, -0.79248047, 0.35498047, -0.7993164, 0.1550293, -0.79833984, -0.41381836, 1.1757812, -0.17053223, -1.7509766, -0.67529297, 0.8984375, 2.6953125, 0.9223633, 0.9345703, -0.24072266, -0.00440979, 6.3085938, -0.49487305, -0.076538086, -1.0029297, 0.4165039, -0.97753906, 0.25048828, 1.4169922, -1.3925781, 0.84521484, 0.8510742, 0.7421875, 0.3491211, 0.09484863, 0.7910156, 1.1621094, 0.64941406, 0.3798828, -0.5214844, -0.5131836, -0.2705078, 1.2744141, -0.66015625, 0.39892578, -0.74853516, -0.4091797, -3.421875, 0.28027344, -1.7548828, 1.5292969, -1.8037109, 0.296875, 0.25610352, 0.24938965, -1.5253906, -0.37768555, -1.9931641, 0.14538574, -0.05581665, 0.9741211, 1.5498047, -0.026992798, -0.05078125, -2.0214844, -1.8564453, -1.3583984, -3.2753906, -0.41455078, 0.5595703, -0.5703125, -0.5332031, 1.1025391, -0.46166992, 0.22155762, 1.4589844, -1.2558594, -0.08538818, 0.0496521, 0.7241211, 2.3710938, 0.13586426, 0.26293945, -1.1318359, 1.5869141, -0.82177734, 2.609375, -0.96484375, 0.8964844, 1.2099609, -0.85791016, -1.6328125, -1.0683594, -1.8828125, -0.56933594, 0.47851562, -1.0048828, -1.1582031, 2.2597656, -0.5966797, -2.890625, -0.056732178, -1.6591797, 0.010223389, 0.6147461, -0.88427734, -1.7910156, -1.0996094, 2.0117188, 0.53759766, 1.4716797, -0.123046875, -0.08544922, 0.9213867, -3.1972656, -1.4882812, 1.4179688, -0.25878906, 0.03945923, 1.3994141, -2.0371094, 1.515625, 0.18188477, -0.28686523, -1.1210938, 0.79003906, -3.640625, 2.9921875, -1.4277344, -1.2246094, -0.87402344, -0.30419922, 1.6835938, 0.7631836, 0.8955078, -1.5488281, -0.38500977, 0.5385742, 1.2167969, 0.79589844, 0.14099121, 0.31884766, -1.0478516, 0.67822266, 1.0693359, 0.057495117, 1.6445312, -0.88378906, -1.3564453, -0.29174805, -0.058929443, -1.0839844, -1.2246094, -1.2617188, 1.2001953, -0.35546875, -0.53515625, 1.8652344, 0.7270508, 0.4638672, -1.2617188, -0.7089844, 0.7944336, -0.23901367, -1.2548828, -0.30981445, 0.5805664, -0.89746094, -1.5097656, -1.9619141, 1.7675781, -0.093566895, -0.98535156, 2.75, -0.33154297, -0.2866211, 0.0071105957, -1.5507812, 0.45117188, 0.22009277, -1.2919922, -0.11456299, 0.24035645, 0.27661133, -1.5888672, 1.0078125, -1.3515625, -0.4567871, 0.5317383, 0.49609375, 0.5859375, 0.38720703, -1.7363281, -1.8671875, -0.578125, -1.0693359, 1.2392578, -0.6767578, -0.8022461, -0.83984375, 0.67626953, 0.070495605, -2.078125, -1.3232422, -1.140625, -1.4150391, -0.47509766, 0.47021484, -2.6796875, 0.71191406, -3.2753906, -0.16235352, 2.6445312, 0.96191406, 4.3789062, 0.22668457, 0.13317871, -0.8129883, -1.359375, -0.64208984, -0.5830078, 0.09942627, 0.50146484, -1.4697266, -1.4296875, -1.1962891, -8.4140625, -0.7817383, -0.55078125, -1.0185547, -0.013473511, 1.9052734, -0.075927734, 1.0292969, -0.5961914, 1.8017578, -1.5361328, 1.1357422, 0.2770996, 0.52734375, 0.9199219, 1.9082031, -2.75, -0.054718018, -0.71875, -2.2871094, -0.23144531, 2.6835938, -0.060455322, 1.6474609, 1.6103516, 0.41503906, -1.5009766, -0.2692871, -1.1044922, -0.042785645, 1.359375, 0.5385742, 0.7446289, -0.58984375, 0.5341797, -0.38256836, 0.71533203, 1.6787109, 0.3972168, -0.3725586, 0.34179688, -2.1289062, -1.0146484, 0.53466797, -1.5771484, 1.8017578, 0.8984375, -2.2324219, -0.038482666, -0.3095703, 0.35913086, -0.79052734, -1.2871094, -1.5283203, 1.5771484, 0.8652344, 1.4404297, 1.9277344, -0.04525757, -1.3085938, -0.5751953, -1.4785156, 0.63378906, -0.5126953, 0.47143555, 1.7578125, 0.44482422, 0.20385742, 0.19433594, -3.7382812, -0.50683594, -0.8510742, 1.0986328, -1.2509766, -1.3984375, 0.3671875, -3.1269531, 0.07446289, 0.2626953, -0.5473633, 0.60839844, 1.5615234, 2.2011719, -1.3671875, -1.6796875, -0.58154297, 0.99316406, -0.2322998, 2.359375, -2.2734375, -0.30615234, -0.47583008, 1.0771484, 1.3476562, 1.1679688, 0.98876953, -0.5083008, 1.3486328, 1.6123047, -1.2744141, 0.375, -0.7783203, 0.6230469, -2.2910156, -1.1523438, -3.6582031, -0.9111328, 1.6884766, -0.07647705, 0.56103516, -2.0800781, 0.92578125, 0.73828125, -1.3300781, 0.21740723, -0.17468262, -0.13977051, 1.8349609, 0.051696777, 0.9243164, -0.6489258, 0.20324707, -1.2382812, 0.36987305, 0.11053467, -0.78027344, 0.18530273, -2.6992188, 0.2758789, -0.28393555, 1.4433594, 0.35498047, -0.068237305, 0.83251953, 2.3320312, 0.055267334, 1.0478516, -0.6699219, 0.79589844, -1.5244141, 0.41723633, -0.4892578, -0.79785156, -1.7128906, 1.7724609, 2.859375, -0.44580078, -0.25756836, 0.3017578, -1.3007812, -0.26660156, 0.29663086, 1.7470703, 0.08306885, -0.87841797, -0.33691406, 1.4541016, -2.6054688, -0.84521484, -1.2207031, 0.46557617, 0.58251953, -1.2001953, -1.3369141, -1.2851562, -0.44189453, -0.8071289, 0.05050659, 0.2614746, -0.46777344, -0.85498047, -3.3203125, 0.8120117, -2.2539062, -0.5595703, -2.3105469, 1.5957031, -1.7255859, -1.4550781, -0.19213867, -1.2460938, -0.19555664, -1.1855469, -0.3449707, -1.7841797, -0.46679688, -0.78466797, 1.6933594, -0.65722656, 1.5507812, 0.87939453, 0.59033203, -0.107788086, -0.08917236, -0.7363281, -0.42333984, -1.0625, -2.2148438, 0.5991211, -0.6845703, -0.11444092, -2.4316406, 0.3059082, -1.2138672, 0.4296875, -0.60009766, 0.34106445, -0.3708496, -0.48754883, -0.05053711, 0.33276367, 0.5551758, -0.890625, -1.2460938, 0.27026367, -0.03857422, 0.107177734, -0.88183594, -1.3349609, -0.3671875, -0.1496582, 1.4970703, 1.0039062, -0.16418457, 0.28710938, -3.3808594, 0.9980469, -0.8100586, -0.27490234, 2.7226562, 1.3203125, 0.7729492, 0.87841797, -0.5161133, 2.5996094, -0.66796875, -0.3227539, 0.3798828, 0.2763672, 0.8364258, 0.40600586, 3.25, 2.8164062, -0.1373291, 2.0703125, -0.09680176, 1.6757812, 0.40771484, 0.9379883, -1.0205078, -0.12426758, 3.1601562, 0.09259033, -0.21057129, 0.27612305, -1.1201172, 1.8671875, 1.9150391, -0.51123047, -0.9394531, -1.0986328, 0.2409668, 0.19482422, -0.7138672, -1.5820312, 2.9394531, 1.1367188, 0.2775879, -1.7480469, -0.9267578, -0.8984375, 0.00090265274, -1.0986328, 1.5771484, 0.53759766, -2.8613281, -0.15026855, 0.60546875, -0.02558899, -0.09051514, -1.0205078, 0.17053223, -0.9946289, -1.0341797, 0.70214844, 0.14501953, 0.65527344, 1.6894531, 0.019058228, -1.8261719, -0.5527344, -1.2128906, -1.2753906, -0.18066406, 0.86279297, -0.28442383, -3.4394531, 0.5551758, -1.6269531, -0.15576172, -0.8100586, 0.77246094, -0.9199219, -2.6796875, 0.3317871, -0.18151855, -1.3242188, 1.1171875, -0.9472656, -1.3183594, 0.71875, 1.3886719, -0.2927246, -1.0078125, 1.9980469, 0.64746094, 1.6123047, -0.07110596, 0.22741699, -3.1367188, -0.78759766, -0.22888184, 2.0039062, -1.2294922, -0.5888672, 0.6245117, -0.8623047, 0.3828125, 0.3425293, -0.20349121, 0.8183594, -0.42578125, 1.2832031, -0.9243164, 0.8852539, 1.8515625, -1.4707031, -0.8691406, 0.6665039, 0.3605957, 0.29125977, -1.0224609, 0.6699219, 2.0957031, -2.0273438, 0.93896484, 0.16894531, 1.3652344, 0.29589844, 0.71533203, -0.6254883, -1.7978516, 0.3244629, 1.1455078, -0.4663086, 1.5703125, -0.22717285, -0.5307617, -0.35009766, -0.5073242, 0.30566406, -0.28515625, 1.4042969, -1.9326172, -0.3881836, -0.25219727, 1.7128906, -0.5307617, -1.5195312, -0.5527344, -0.8491211, 1.25, 1.03125, 0.53515625, 1.0820312, -0.77246094, -1.0859375, -0.90185547, 0.43408203, 0.087768555, -1.28125, -1.3125, -0.421875, -0.47875977, -0.22998047, -2.28125, 2.1933594, -0.7260742, 1.2412109, 0.36547852, 1.2109375, -0.7607422, -0.45874023, 1.5117188, 0.42504883, -1.1191406, -0.6113281, 0.061950684, 0.083618164, -1.6240234, 0.71777344, -1.3105469, 2.0253906, 3.3964844, 0.15649414, 0.8930664, -0.8017578, -0.13146973, -0.48999023, 1.8652344, -0.23901367, 0.91308594, 1.2060547, 1.4326172, 0.26879883, 0.55615234, -2.015625, -1.3349609, 0.34326172, 0.96191406, 0.14208984, 2.6679688, 0.0513916, 1.5449219, -0.4880371, -0.4411621, -0.16418457, 1.0478516, 0.43579102, 1.0595703, -0.41137695, -0.45874023, 0.7783203, -1.0703125, 0.484375, -0.03540039, -0.6743164, 0.34887695, -0.9765625, -0.6508789, 1.6611328, 0.2927246, -0.52734375, 0.8930664, 1.2148438, 0.54296875, 1.8564453, 1.5478516, 1.0605469, -3.8417969, -2.2304688, -1.7597656, -0.9501953, 0.76660156, -1.8486328, -1.7978516, -0.9550781, 0.2241211, -0.0013771057, -0.7998047, -0.29248047, -0.62939453, 0.45117188, 0.41625977, -0.8022461, -1.6914062, -0.17810059, 1.0605469, 1.8642578, -0.26513672, 0.27905273, 0.41992188, -1.2080078, 2.4472656, -0.8100586, 0.30981445, -1.3701172, 0.4633789, -1.7011719, 1.0332031, 1.0478516, 3.734375, 2.0292969, -0.36083984, 0.037597656, -1.1445312, -0.61865234, 0.8046875, 0.9355469, -0.75683594, -2.0195312, 0.38110352, 1.2978516, -0.984375, -1.7998047, -0.29248047, 0.2824707, 0.4260254, 0.13647461, 0.64453125, -1.6289062, -2.5234375, 2.1796875, 0.49316406, 0.40722656, 0.8886719, -1.8066406, 0.40161133, -0.54589844, 0.7109375, 0.91308594, 3.3203125, 0.24609375, 0.71484375, 0.6870117, 0.64501953, -1.0078125, 1.3710938, -0.5498047, 0.9785156, -0.37280273, -0.18151855, -1.5771484, 0.93359375, -2.5078125, 0.23510742, 0.14880371, -0.5239258, 0.57421875, -1.2861328, -1.0673828, 0.22375488, -0.8852539, 1.1953125, 0.79589844, -2.1777344, 0.06518555, 0.88623047, 1.4902344, 0.60058594, 1.2666016, 1.2207031, -0.23754883, -0.8964844, -0.38452148, -0.78027344, -1.4365234, -1.6435547, 1.5771484, 1.1435547, -0.55371094, 0.2788086, 0.30371094, 0.8227539, 0.79003906, -1.0341797, -0.3322754, -0.2763672, 0.47875977, 1.7148438, -1.6503906, -1.0996094, -0.53027344, 1.2402344, 0.01713562, -4.8984375, 1.7128906, -1.5800781, -0.27856445, 0.8496094, -0.07922363, 1.2851562, 0.26000977, -0.72265625, 0.7314453, 0.8618164, 1.8359375, -1.0595703, 0.47070312, 0.7714844, -1.5751953, 0.30371094, 0.057373047, 0.3581543, 1.6240234, 1.5458984, 0.39135742, 7.0351562, -0.14428711, 1.3417969, -1.1005859, -0.6479492, -0.7001953, -1.5205078, 0.7519531, 2.078125, -2.6054688, 0.31054688, 1.1357422, 0.97509766, 1.0244141, 1.4638672, -0.12524414, -0.47680664, 0.2006836, -0.16394043, 0.77734375, -1.2490234, 1.7841797, 1.7392578, 0.89990234, -0.4404297, -0.65527344, -0.08154297, -0.8198242, 0.9321289, 2.3144531, -2.9960938, -1.0175781, 0.49365234, -2.5957031, -1.0175781, 2.4160156, 1.3339844, 1.2490234, -1.2470703, 0.38745117, 0.484375, -0.5161133, -1.15625, 2.4082031, -0.7763672, -1.3125, 0.048431396, -0.14331055, -2.609375, 0.8017578, -1.0576172, 2.7734375, -1.4912109, 1.6923828, 0.09564209, -1.8466797, 0.33789062, 0.55126953, 1.4902344, -1.2705078, -0.6323242, 0.6826172, 0.20812988, 2.0214844, 1.7949219, 0.5551758, 1.6855469, 0.4645996, -0.21166992, 0.42651367, 0.58984375, 1.0253906, 0.25268555, -0.22021484, 2.2480469, 2.3789062, -2.0234375, -0.7089844, -1.0634766, 1.6240234, -1.9052734, -1.2753906, 1.0078125, -0.44482422, 2.2441406, 0.12445068, 1.5839844, -2.125, -1.125, 0.14819336, -1.1806641, -0.8955078, 0.38842773, 1.4863281, 2.375, -0.62158203, 0.006729126, 0.43481445, 2.0019531, 0.9428711, -0.14355469, -0.34106445, -0.25341797, -0.38842773, -0.28857422, 0.05517578, 2.734375, -0.5336914, 1.3154297, 0.6425781, 0.22668457, 0.002286911, -1.3027344, -2.2988281, 0.27172852, -0.23986816, 1.9052734, -2.4648438, -0.69433594, -1.0771484, 0.828125, -0.8095703, 1.4746</t>
-  </si>
-  <si>
-    <t>[1.342494, 0.09861447, -0.45292792, 0.43835065, 0.052603927, -0.48301613, 0.17550948, 0.33652067, 2.9294882, 0.12965633, -0.10106607, -1.702123, -1.691341, 0.49076524, -0.045670718, 0.056421172, 0.53686297, -0.341035, 0.7498197, -0.59711814, -0.690263, 0.77857, 0.09322911, -1.6688311, -1.0185647, 1.8038396, 0.061420165, -0.998373, -3.292628, 0.52949846, -0.6390161, 4.0259957, 0.43763316, 0.23905124, 3.3105686, 0.037666958, 0.28536734, -1.1644883, -0.22837883, 0.5327615, 0.26815155, -1.3846352, 0.69244987, 0.28619918, -0.99328905, 0.63343257, -2.2839568, 0.0024495593, -0.46187374, 0.06015507, 2.981179, -1.0353664, -0.2561402, 2.1995375, -0.58159393, -0.6246374, -1.7777382, -0.0067236056, 0.21025264, 0.72907907, 0.16709727, 0.86919135, -0.14461516, 1.2502002, 0.01406413, 0.7659946, -0.6016694, -0.24106826, 0.26774016, 0.98081255, 0.40903202, 0.29526657, 0.46465078, -0.77386504, 3.0202742, 0.2915465, -0.6785769, -1.3018638, -0.2734991, 1.1387081, -0.3498449, -1.2291389, -1.2824856, 1.0185783, -0.33343902, 0.4813194, -1.4634776, -1.6986598, 0.83559686, 1.7202048, 0.03472776, -0.40637863, 0.6590318, -0.6266741, -1.0458242, -0.25912198, 1.3268024, -0.6182392, 0.97188985, 2.5577874, -0.37477714, -0.32149628, 0.49589354, 0.593254, -2.0751889, 1.0427731, -2.0580094, 0.144187, -0.42798078, 2.1298938, 3.74222, -0.5696965, 1.6862715, 0.65613765, -0.54004085, 1.5980023, 0.47504422, -1.2241836, -0.5769548, -1.0999129, 0.7206342, -0.41059923, 0.11857172, 0.3959499, 0.14002755, -0.4311605, 1.3073038, -2.1223438, -1.1724254, 0.77306426, -1.0944747, -0.77218825, -1.8227073, -0.12195436, 1.4515197, -1.18829, -1.4136186, -0.8724734, -0.21080886, -0.21526408, -1.0679758, 1.3674321, 0.5095319, 2.6405816, -1.1253715, -1.0356745, 0.19941533, -0.82904357, -0.44730955, -1.1039808, -0.9069765, -1.498335, -0.6964367, 2.4208603, -2.3010943, -0.5776512, 0.81968695, -0.23045245, -1.540954, 1.509858, 0.21658127, -1.0049843, 0.5413079, -1.4491191, 0.8496438, -0.83684474, -0.42843735, 0.6458457, -0.57195854, -2.5052469, 0.21486187, -0.71605265, -0.53223836, -0.4404152, 0.39082792, -0.40130922, 0.8265542, 0.404772, 0.31646603, -1.2198391, -1.991588, -1.9478563, 1.0988466, -0.8758778, -1.661796, -0.9071344, -0.79717034, -0.094036944, 0.01972602, 0.51673746, -0.35231122, -1.9149575, -0.7079984, 0.39698806, 0.61230063, 1.1196878, 0.37197793, -1.2342771, 8.104686, 0.7602376, 2.144504, 0.3672518, 0.0074356445, -0.5879921, 0.3375678, 0.2275753, 1.082967, 1.7360219, -0.3293498, 0.7141516, 0.02462695, -0.6509052, -0.10982795, 1.2919534, -0.28472358, -0.2743914, 2.2693474, -0.7655417, -0.6237315, -0.49592525, 0.5308093, -0.94712067, -0.6326712, 1.0684029, -2.5328844, 1.2650516, 0.6788618, 2.003274, -0.5019003, 1.5028459, 0.028772358, 0.4467669, 1.0244086, -0.4612917, -0.33318627, -0.17019908, -0.9493963, 1.3937032, -0.8034113, -1.0992343, -0.96704054, -0.36413506, 0.42992574, 0.048516493, 0.36081538, -1.0495638, -2.025742, -0.08439883, 1.2783158, -0.35329458, 1.146979, 0.876935, -0.034856398, -1.2581387, -0.35481742, -0.7988494, 1.3183424, -1.0442026, -0.6527686, -0.1346243, -3.3909004, -1.2192537, 0.9818747, 0.71688634, 0.32443434, -0.08374793, -1.7872652, -0.8621552, 1.0481596, 1.5230724, 0.31928703, 2.1704075, 2.1351316, 1.2350272, -2.7368789, 0.95888203, 0.9281294, 0.4142147, -2.0815384, 0.9337858, 0.49094278, -1.7651247, -0.83928573, -0.52916914, 0.07784417, 0.12833418, -1.0741427, -0.4977964, -0.65623254, 0.5425185, 0.16053401, -1.3714833, 0.040315364, -1.7209097, -1.6446007, -1.1518401, 0.30560064, -0.7066005, 0.4279047, -0.8105011, -0.9085057, -0.105624564, -1.4392502, -0.06689, -0.57850003, -0.07678698, 1.0552583, -0.10380008, -1.0104507, -0.24718876, 2.459219, -0.4691975, -2.8682837, -0.7997838, 0.06296382, 0.53064394, 0.60132337, -0.6140187, -0.0559304, -0.720685, -1.7527213, -1.6353672, 0.072703175, -0.8028503, -0.64784324, -0.8027452, -2.514951, 0.89144754, 0.21921518, -0.09654154, 2.034899, 0.50653696, -0.19450217, 0.6966831, -1.0160725, -1.3003247, -0.9140639, -0.00449871, -0.86180645, 0.82733154, -1.6755358, 1.8127726, -0.03188232, -0.9336309, -0.42809945, -1.0209118, 0.43163157, -0.47838247, 0.35269126, 1.1780741, 0.16177079, -1.7242578, 0.5957357, 0.7889556, -0.18675354, 0.57271266, 1.750338, -1.0827904, -0.27706656, -0.13895543, -1.6418842, 0.08161816, 0.3515043, -0.24621151, -2.955868, 0.7130147, 1.0217829, -0.7414012, -0.09062826, -2.1916962, 0.9100711, 2.0332448, 0.25609854, 0.35815158, 0.22195463, 0.2628493, -1.2812102, 1.3369888, 0.31076926, -1.7861854, 1.7271993, 1.1430397, -0.6712771, 1.2371688, -0.57940507, 0.22624, -1.7279848, 0.75713986, -0.2712724, 1.831585, -0.27644873, -2.2700717, -0.66448873, 2.0760958, 1.6955516, -0.30642322, 1.7790251, 0.35535732, 0.80926955, -1.7419683, -0.70829636, -0.123698674, -0.73772866, -1.026869, -3.001125, 0.013481636, -1.069307, -0.9550654, 1.2425145, -0.71633303, 1.5063323, -1.5595962, 0.73169625, 1.4204111, 1.0532879, -1.0315073, -1.8890867, -0.8263195, -0.3289403, 0.48114637, 1.2682612, 1.3710811, 0.13514385, 1.7073112, -1.2188212, 1.1755928, -0.54421526, 0.5775253, -0.69314015, 0.9183601, -0.15299962, -0.41950426, 0.59425503, 1.3209684, -1.3710502, -1.8126142, -1.3410151, -1.3977944, -0.6666027, -0.4336481, -1.2133844, -0.46344686, 1.5173439, 0.6373909, -0.07530153, 3.2423832, -0.35424578, 0.3392975, -0.7243974, 1.5836111, -1.3950639, 0.154132, 0.10367212, -1.073591, -0.06235596, -0.40039787, 1.081842, -1.187047, 0.5644604, -0.8717732, -0.78561646, 2.3443768, -1.5882186, -0.7184103, 0.5338264, 0.87304324, 1.5311811, -0.07428941, -1.2150874, -2.4957712, -0.82220405, 0.2501522, -1.8009516, -0.15211637, -0.72716653, -0.2855757, -1.1587394, -1.345435, 0.1875779, -0.60264957, -1.228803, -1.2940123, 0.22866328, -0.014556375, -1.2003267, -1.9715745, 0.6009709, 2.4557934, 1.88126, 0.40443638, 0.5646479, 0.7187695, -1.5647612, -0.9456314, -0.38345274, -1.5954884, 1.2990038, -0.9745406, -0.52075994, -1.5269687, 0.66170895, 0.7823002, -0.7439268, 0.19669671, -1.0843956, -1.490787, -1.3036261, -0.2741586, -0.8313473, -0.8305297, 0.30750486, -0.32963666, -0.37667048, 0.64501953, -1.3610835, 0.16859291, -0.62024945, 0.32521206, 0.75419253, -1.8366984, 0.7081598, -0.7515817, -0.53250015, -1.1997913, 0.09382338, 0.12713023, 0.66837597, 1.8823723, 1.7251022, 1.1035192, 2.8335207, -2.02684, -1.2164164, -2.0537345, -0.7684451, -0.29026327, 0.266174, -1.3069268, -1.5950527, -1.3724871, -0.4989423, -0.9862928, -1.7941391, -0.34238118, 0.4398807, -1.4520868, 2.6802003, 1.7407308, -2.010784, -0.58420724, -2.0950944, 1.9040306, 0.8480809, 0.343288, 2.3373363, 0.7130709, -1.0860045, 0.92740643, -0.3957071, -1.975153, -0.7989731, -0.36956957, -1.7516868, -1.9393408, -0.66399074, 0.61778903, 0.6864745, -1.5097417, -0.9699657, 0.27261767, 0.16980185, 0.3624913, 1.0476034, 0.26783472, 2.7395313, 0.11582712, -0.15528703, 2.7847338, 0.066610985, -0.72032887, 1.6444588, -0.72835636, -0.49824414, 0.18167143, 2.024335, -0.035971433, -0.13111302, 0.5088424, 0.4068497, -0.540396, 0.0569287, 0.054379493, 0.47314724, 0.5725582, 0.023717424, 0.93441266, 1.1821755, -0.91937745, 1.1831968, 1.4065762, -0.07328205, 1.1802963, 0.6759008, 0.4536024, 1.6090597, 0.27060202, -2.3411012, -1.3301529, 2.255791, 2.0730665, -0.7773945, -0.27427185, 1.7892545, -0.87790656, 1.1423451, 0.5218001, 1.115267, -0.37991995, -1.459585, 0.29803184, 0.51677597, -0.8499536, -1.4729787, 1.2621074, 0.5038252, 1.2821596, -0.98096156, 0.7657165, -1.2048063, 0.74594724, -0.85784405, -0.30666447, 0.8348414, -1.2727907, 1.1017528, 2.5138822, -0.932811, 2.1771836, -1.213398, 2.4529836, -0.32319507, -0.26204306, -1.3505336, 0.7503433, 1.1022917, -0.8420886, -0.8047944, -2.6582177, 1.9030087, 1.5874442, -1.479244, 0.7525791, 1.2818642, 0.0015635871, -1.4576328, -0.81058586, -1.8431965, 0.21632762, 0.8944588, 0.19845779, 0.8187032, -0.12138545, -1.8351321, -0.97099847, 1.9092124, -0.16410145, 0.5873111, 0.12739158, 3.0096931, -1.0168684, -0.9543043, 1.0747098, 0.005397365, -1.6793879, 0.7861401, -0.74836874, 1.6960626, -0.8977206, 1.0462409, -0.20402093, -0.54655135, 0.20902786, 0.4087213, 1.8957014, -0.2735281, 0.25556767, 1.548685, -0.42376563, -0.3099093, 5.215034, 1.3314153, 0.46008778, -1.0432488, 2.212789, 0.35017556, -0.5394194, -1.299146, 2.190205, -0.60358006, -1.009146, 0.5220669, 0.4117914, -0.103844695, 0.24132146, -1.347167, 1.0239077, 1.9584082, 1.0932051, 1.849305, 1.1960227, -1.3123769, 0.61985993, 2.0359762, -0.45547128, 0.43263078, -0.5051383, -1.2777097, 0.27691436, 1.255786, -1.0053705, 1.5641559, 0.27508965, 1.8138534, 0.062950686, 1.5759255, -0.46161512, -0.9112447, 0.042945195, -0.01037575, -1.6184286, -0.93028176, 1.1940533, 0.7393375, -0.8757465, -1.5766375, -2.0034425, -0.048894256, 0.576623, -2.7807372, -1.4248196, 0.040283658, 1.4441602, 2.1078513, -1.1228707, 1.3155774, 0.2176756, -1.1630805, 0.1319126, -0.50840044, 0.7903634, -0.5704312, -1.3916305, 0.70850426, 1.4350568, -1.0540425, -0.5843274, 0.1815745, 0.86594385, 0.96389747, 0.2026639, 0.28971475, -2.413682, 1.599584, 0.051456146, -0.323966, -0.43313265, 0.5040775, 0.18534282, -1.0366347, 0.1748287, 0.77788365, -4.36202, -0.3749058, 0.030739978, 0.23240964, -0.15404503, -0.35991853, -0.015342811, 0.45688766, 2.0505493, 1.5094594, 0.8932467, -0.033742137, -0.4430296, 2.6112466, 0.12316736, -1.9207245, -0.24141522, 1.0122868, -0.9077718, 0.39391887, -0.47528064, 0.40768677, -0.388069, -2.0996883, -0.3165204, 3.4938905, 0.38266575, 0.7506314, 1.3276503, -0.19110368, 2.1417954, -0.13352136, -1.2315848, -0.44670442, 0.85032505, -1.9387809, -0.6226408, 1.3991722, -1.9297509, 0.6302524, -0.774626, -1.6683166, -0.4984219, 0.5374407, -1.4234223, -0.56088567, -0.15650773, -0.81861097, 1.4882025, 1.3361014, 1.5808463, 0.5036358, 1.4340312, -0.019391514, -0.31369036, 0.5175061, 0.8507762, -0.0710336, 0.9857223, -0.16349179, -0.9418592, 0.17762567, -0.5041792, 1.1666099, -0.9377537, -0.4901447, 1.2501667, -1.6692361, -0.038961038, 0.94865435, 0.096156076, 0.79000735, 1.2365501, -2.0271807, -2.4452255, 1.4020973, 1.6800462, -0.52679294, -0.9548254, 0.46469337, 0.08553981, 0.9421948, 0.87685436, 0.21483472, -0.434756, 0.19817787, 0.39702204, -0.73123604, -0.54865235, 1.8514103, -0.5195106, 0.21768466, -1.7512773, 0.29085618, 1.1409203, -0.6328558, 0.16947414, 0.90786135, 0.46454117, 0.4631198, 2.2742817, 0.49148, -0.024247376, -0.17506106, -0.3152988, 0.67402196, -0.32495615, -1.1051961, -0.81684834, 0.12665871, 1.0319225, -0.41332152, 0.03486704, 0.107663296, 0.4759193, -1.5160272, -0.2068152, 1.8626653, -0.8123442, -0.970353, -0.6637183, -0.027626392, -1.2206306, -1.7687558, 0.35895738, 2.1788106, -1.0177593, 1.9183176, -1.5646261, -1.2240722, 1.8096302, -0.8123218, -0.8332678, 0.76876336, -1.4004105, -2.340717, 1.0249794, -1.8616452, 0.6565571, -0.4740586, -1.1109413, 0.26076847, -0.5852003, -1.4496645, -2.3830462, 0.09082031, 0.72276103, 1.1251142, 0.7961593, 2.6412065, 1.9594482, -0.26960847, 2.1244845, 0.6376256, 0.33284837, -0.80384684, -0.022322334, -0.09848968, 1.1891763, 1.4753685, 0.9301593, 1.0804124, 0.6191279, 1.1223222, -3.634954, -0.31639177, 0.6265917, -0.39487246, -0.19998877, -0.41802582, -0.7728851, 0.5804042, 2.6487274, -0.17817464, 0.30192268, -0.93818486, 0.54474705, -1.6446508, -1.3404992, -0.1930396, 0.17188315, 2.4802442, 0.49490884, 0.9465391, 0.80306596, 0.00042560414, 1.6518102, -0.25092855, 0.82515293, -0.51484776, -0.4060507, -2.0229187, 1.1503947, 0.73960793, -0.82444274, 0.22094296, 0.5771104, -0.28121376, 0.1489747, -3.5285957, 0.41867626, 0.2866279, 0.8343857, -2.14666, 1.0877882, 1.4868293, 0.031935766, 1.7879379, 0.8413018, 0.45910668, -0.34256688, -0.83544195, -0.017204214, -1.249977, -0.26603368, 0.84697413, -0.007886331, -0.0499759, 1.2609397, 0.21271624, 0.5361346, 3.170596, -1.346662, 0.78865844, 0.4475954, -0.18905272, 1.0242736, -1.0512958, -2.9253392, -1.8980643, 1.20313, 1.304865, -0.51254857, -1.3870721, -0.8403148, 0.1500303, 0.34591335, 0.039866943, 2.3960822, -1.3324461, 1.0832524, -0.9329809, -0.8529331, -0.7470902, 0.2981475, -1.7878159, 0.37007007, -1.0968119, 1.6865476, -1.2778039, 0.085709214, -1.059106, 0.10591989, 2.965824, 0.114410006, 0.48574236, 0.056436118, 2.6522105, 1.659938, -2.830216, -0.5603313, 3.6271923, 1.8350044, 2.5617716, -3.120753, 1.6699183, 0.9234975, 0.18283641, 0.9353367, -0.66382337, 1.5058395, -0.4991068, -2.112493, 0.6617706, 0.46260437, 1.2336854, -0.67187047, -0.83575815, -0.91606635, 1.4257287, 1.2841779, 1.4212617, 0.28186873, 0.8557858, 2.3132265, -0.99287146, 0.4051602, 0.07597982, -1.4277643, -1.1420375, -0.40219337, -0.9391818, -0.37534785, -0.408166, -0.9802713, 0.8418295, 0.58303136, 0.5634367, 0.46586788, -0.74839836, -1.2144089, -1.8555086, -0.90608466, 1.0393578, 0.06723062, 0.4882559, -0.14690109, -1.4848895, -0.44352242, -1.5237247, -0.7235884, -0.3666168, 1.223169, 0.11854998, -1.1469047, -1.3695827, -0.09584445, -0.81421214, -1.7539316, 2.8248746, 1.9097757, 0.48545575, -1.1795933, 0.78239506, 1.616894, 0.07322045, 0.40599996, 0.9886753, -1.2795287, -1.2945468, 0.7861342, -0.23425089, 1.1785841, -0.8527189, -1.2085178, -0.77598125, 0.2651544, -0.57432204, -0.16018932, 2.7634337, -0.47112074, 1.4512733, -0.208314, 0.1403256, -0.26216537, 0.16217007, -1.436422, 0.8950204, 1.6687007, 0.5515549, 2.338387, 0.9513132, -2.3120253, -0.3682293, -1.3947197, -0.1345174, 0.5571203, 0.75579053, 0.6459762, 1.8427793, 0.25051183, 1.4381776, -1.5670042, 0.9714894, 0.6792463, 2.0500484, -0.047934, 0.48070067, 0.2934036, -1.3649409, -1.0306087, 0.3228128, -0.3354791, -0.433909, 2.1625876, -0.5665512, -0.3769579, 0.26682872, -0.65583783, 0.7636818, -3.1334195, -0.20931774, -0.7225217, 0.16755928, -1.7825155, 1.9359953, -1.0409305, 1.5254178, -0.035909962, 0.076831825, -1.7306644, 0.37381688, -1.8970134, 1.147335, -0.94934195, 0.343413, -1.8315091, -0.38703492, 1.3053588, 0.5829942, -0.48460874, -1.0127872, -0.8225718, 0.67475396, -0.24265222, 0.09509436, -0.46979338, 1.1084908, 0.87697613, 1.1434994, -0.26540715, -0.70375913, -2.1090744, 0.8062788, 0.77568054, 1.2679839, -2.6246939, -1.2643713, -0.28785855, -0.3155692, -2.6390524, 0.14616913, -1.2222822, -0.34670776, -0.6073467, 0.8698889, 0.75169575, 2.067266, -0.41510972, -3.668882, -1.2257241, 0.38750416, 1.7324545, 1.834638, 1.3106121, -1.5749711, -0.3835209, -0.22362919, 0.5629353, -0.81684834, 2.295462, -0.04236451, -1.0756519, -1.1430719, -0.17813207, -0.69951123, 1.6925495, -0.34153643, 0.7942841, 1.2505617, -0.17846635, -0.7120536, 0.409013, -0.025513828, -1.6367613, -1.5989462, 0.84539515, -1.4037243, 0.5057851, 1.0782192, 0.83355135, 1.1691726, 1.5824102, 0.65848124, 0.4753377, 0.4533234, -1.8542367, -1.3982835, -0.071588464, 0.09039997, 0.49037343, -1.0004747, -1.363149, -1.0119543, 0.18798375, 1.9114069, 0.30762082, 0.8428794, -0.63659555, 1.1419386, 0.64177734, -1.474825, -0.40754068, -0.48098987, 0.23347816, -1.2252806, 0.30678284, 0.5987501, -0.8676957, -0.398548, -0.9744789, 1.4762363, 1.297955, -1.3243275, 0.13366269, 2.1095798, -0.31181875, -3.5344417, -0.91275257, -1.1135467, 0.0064604413, 2.7026558, 2.1771166, -0.025774727, 1.9821646, 1.4137763, -0.054033667, -0.5593873, 0.4478418, 2.5420485, 1.9783634, -0.5295487, -1.3015119, 0.5311413, 0.74020445, 0.8201422, 2.0010798, 0.20345475, 0.9350441, -1.1127422, -0.5966781, -4.3971114, -0.8052111, 1.5787545, -1.8315221, 0.098757826, 1.3331853, -1.2175235, -0.6730418, -0.56230253, -0.2581468, 2.0256877, 1.2310929, -0.8917954, 0.03672527, -0.54531235, 0.38976982, 0.39545164, 0.3212347, -1.3657707, 0.33070862, 0.50904465, 1.8516549, 0.6435674, 0.048404165, 0.48852628, 0.26836717, 1.3926669, 0.91727096, -0.25824735, 2.3226511, 1.2672285, 0.7199535, -0.52720857, -0.8035678, -2.950005, -2.275744, -0.900445, 4.4214473, -0.08029192, 0.16485335, -0.60713154, -0.9498982, 1.1098804, -1.2081981, 0.42910635, 0.21896742, -0.014679238, -0.82669866, 3.2854245, -0.9249442, 0.30166993, -1.3901141, 1.7129178, 1.654931, 0.33847323, 0.8818885, -0.6408859, 0.64820015, -0.9298311, 1.6643451, -0.49950448, -0.07480623, 0.3013522, -1.8925817, 0.4347728, 0.28567806, -0.19672209, 0.7253812, -0.022982737, 0.9014681, -2.0219843, -1.7389883, 4.1287394, -0.42722163, -0.040699918, 0.61707157, -0.3261542, 0.08288665, 0.11408207, 2.684679, -1.7977003, -1.2476683, -2.144565, -0.6624373, -0.05943624, -0.40382263, -1.9860382, 0.3468826, 0.34541053, -0.85740376, -1.4869949, -1.5934764, 1.2933357, -0.22978027, -0.46103716, -0.45479366, 1.3020364, 0.7495833, 0.22261277, -0.83412206, 0.11415816, -2.4920425, -0.16896465, -0.97197866, -1.3165978, 0.9430333, 0.57340705, 0.38914928, 0.6387299, -1.938502, 0.09187399, -1.4694117, 0.32710034, 0.44071415, -0.8176564, 1.4137509, -0.6268453, 1.0452697, -0.6592232, 2.3479986, -0.27536073, 0.5660439, -1.0605977, 0.49683297, -0.691442, 0.7354947, 0.29033166, 0.4145046, -0.8029282, -0.9720909, -1.2267808, -0.07762676, 1.008768, -1.7842159, 0.75760597, -0.42962047, 0.5790386, 0.16840358, 0.6204746, -0.06265446, 1.3544142, -0.58135, -1.5152998, 0.48513597, 0.28180397, 0.6460122, 0.69671255, 0.3706709, 0.5505987, 1.5585648, -0.24544875, 1.6778557, -0.72336197, 1.8278297, 0.86418986, -1.0641378, 0.15773296, -0.3212945, -0.083580345, -1.2823416, 0.7734828, 2.646727, 1.5357722, -0.6824034, -1.3050442, 0.39867848, 0.29268068, 1.5413154, 2.1344848, -0.49276412, 0.769717, 3.6712427, 1.6206679, -1.4467149, 0.4625423, -0.23059195, -1.1904813, 0.14189869, 0.84651846, -0.42539352, 0.6528927, 0.34299356, -0.11099657, 3.325661, 0.4812193, -0.12824313, -0.818103, 1.509184, -1.4579185, -1.1945388, 0.5185275, 0.6285928, 0.85897505, 1.5165799, 1.2331213, -0.44581437, 0.48743695, 1.5893908, 0.36068222, 1.0834191, -1.0452027, 2.0582387, -0.5385842, -0.47024927, -0.6890634, -0.08073943, 0.38317215, 1.0176352, -0.3048261, -1.8281014, 2.0970438, 0.5875618, 0.75029534, 2.4367101, -0.46130666, -0.17818733, -0.70308876, 0.52688265, 0.02031395, 1.7829459, 0.73498195, 1.6390325, -3.4207544, -0.015225497, -2.4057658, -1.1498609, 0.09798147, 0.45669606, 0.4078009, -0.5627286, -1.2071481, 2.7533772, -0.9751008, 1.4448333, 1.1747956, 1.0762634, 1.4221214, 0.87785906, 1.0345552, 0.9790682, -0.8293996, 1.4505522, 0.8145872, 1.5421988, -0.5079928, -0.6179734, 0.85620797, -1.4760824, -0.06736469, -1.4802803, 0.51146364, 0.8535482, 0.5868262, -0.85105336, -0.3250268, 0.010488535, -1.3444467, -0.16789356, -0.17069054, 0.08415559, -1.8598325, -0.42034686, -0.45345476, 1.3867668, 0.16580206, 1.0643001, -1.0335976, -2.2145422, -0.9945886, 0.99208695, 3.2539752, -1.1341994, 0.44949415, 0.34529638, 0.21841799, 1.1157299, -0.3488584, 0.12449813, -0.29427868, -0.6400579, -2.1626258, -0.03162142, 0.9183696, 0.44112837, -0.4287037, 1.8559865, -1.2036178, 1.1914661, -2.4042172, 1.2716057, 0.27796882, -0.09314667, -0.22106367, 1.5799236, -0.07589739, 0.928046, -0.046827894, -1.1228911, 0.47485566, 0.56639993, 1.1940407, 0.09170991, -1.114102, -0.4157638, -1.2469761, 0.634878, 0.7443007, 1.1793052, 1.0442624, -0.71868294, 0.13241933, 0.8206948, -1.4345087, -3.017408, 2.1389089, -0.6834524, 0.24035972, 2.1705017, 1.0317456, 0.9496246, -1.8222249, -0.047001828, 0.99941295, 0.20967852, 1.7598431, -2.3500876, 0.5044489, -0.8412789, 0.19222337, -0.16571079, 0.92935777, -0.9006511, -1.4028474, -2.5477011, -0.6181876, -0.46687207, 0.839851, 1.2125237, 1.9050597, -0.6249171, -1.3948419, -0.05944258, -1.0538368, 0.28163862, 0.050607316, 0.63387436, 0.62167174, 0.21651061, 2.382222, -0.4886907, -0.5584461, -0.45205197, -0.38964662, 0.1456899, 0.4993645, -0.6695278, 1.3609368, 0.39087844, -2.5331814, -0.87399083, 0.019875493, 0.44631082, 2.4227953, 0.9394622, -1.1910403, 1.0335727, -0.90446585, -0.38552114, -0.29640937, -0.50851274, 1.0303152, 0.08948094, -1.4666755, -0.879881, 0.1448755, -1.4473308, 2.099991, 0.22898398, -2.055945, 1.0441228, -0.5067943, 0.42370978, 0.8624297, -0.20968238, 0.19375254, 0.35154074, 0.10590245, -0.49007493, -0.38463518, -0.144439, 0.18412007, -3.3892372, -1.3823006, 0.27835217, -1.0446428, 0.39547703, -0.5916821, 0.5259654, -0.04562157, 1.8735478, -0.8074342, 0.52291346, -0.28528216, -0.71660846, -0.59409153, -0.6261428, 1.6739585, -0.2360799, 1.4254556, 1.2137549, 1.7359513, 0.17188224, -0.5690732, -0.17552647, -1.2965362, 1.4735576, -0.017378826, 2.4054601, -1.8873855, -1.4147836, -0.83342093, 0.24345556, -0.09234314, 3.527735, 1.5545607, -0.66213256, 1.2089463, -0.1927814, 0.3979284, 0.5784747, 0.15746029, 2.2264738, -0.9881734, -0.75700444, 0.36925295, 2.7177064e-05, -1.6544962, 3.157598, -1.0828326, 1.9499308, -1.6703087, 0.8006363, 0.47277403, -0.6307851, -1.1125362, -0.0972495, 0.76029557, 0.09414769, -0.5158252, -1.630362, -0.069031104, 0.5708705, 1.4552602, 1.8315424, 0.4542773, 0.676265, 1.3019516, -0.5929437, 0.040031817, 0.07261938, -0.8671042, 0.2774742, -1.5266843, 1.1382533, -0.72328407, 0.5932243, -0.23871039, -1.8872007, -0.5900177, 1.5450596, -0.19265866, 0.018603606, 0.40698016, 0.29893684, 1.0483992, -2.142763, 1.1591905, -0.55934566, -0.45503828, 2.399838, -0.42938492, -0.63352543, 1.0078723, 0.20268089, 0.36843073, 0.50023913, -1.6958524, -1.1276525, -0.8427013, 1.7921516, 0.723178, 0.10504479, -0.6263073, 0.48925418, 1.3500949, -0.4630451, 0.9608006, 0.5283638, -0.46658874, 2.440017, 0.24173908, 0.51008403, 0.76209015, 2.7190037, 1.6744034, 0.019278504, -1.2669748, -1.0502739, -0.3694921, -0.5878082, 1.131392, -0.8389107, 1.4410828, -0.17996895, 1.0252855, -1.2959111, 1.836163, 0.10845166, -1.0810438, -3.1745384, 0.69166535, -0.7024295, 0.45055044, 1.1768434, 0.8261753, 2.0993114, -0.9581455, -1.9269426, -0.14871289, 0.6184322, -1.1531337, -0.55329967, 1.2329564, -0.8350153, -0.3862477, -0.08120869, -0.6452179, 0.48944852, 0.08855171, 0.5683259, 1.2148999, 1.8399389, 0.76781183, 0.10395363, -2.31866, -1.3161553, 0.006960952, 0.32641464, 0.0786323, -0.34854946, 0.6805572, -1.22108, -2.8245158, 1.6376863, 0.3625302, 0.8633655, 0.57417524, 2.1986034, 0.35781503, 0.41348726, 2.3820226, 1.8821241, -0.39593896, -1.6030663, -0.3425789, -0.595099, 0.85939676, -0.109558895, -1.0539435, -0.4416599, 1.4386442, -1.377722, 0.45239848, 0.4941857, 0.860607, -0.20357478, -0.15736969, -2.174487, 0.0011604606, 0.6918513, -0.30010363, 2.3653865, 3.3033214, 1.2665907, -0.21005878, -0.18526696, -0.20686819, 0.99531376, 0.17607385, 0.53070194, -0.47446442, 1.3219593, -0.07526439, -0.4291041, -0.21077444, -1.0946962, -1.8492017, 0.8895454, -0.4178691, -2.4609265, -0.43763044, -1.1007707, -0.1610164, -0.62546563, -1.5247365, -0.061944682, -2.3685155, -0.108341366, 1.0716968, 0.37344727, -0.43893924, -0.7230889, 1.2769632, 0.5960039, -1.7029634, 0.42362884, 0.7357665, -0.8480422, 2.4043157, 0.66175425, -0.42765647, -1.6634393, -0.65379137, 0.22342898, 1.0639687, 0.96382916, -0.49050432, 1.422211, -1.8055481, 0.50801086, -0.46244085, -1.1687297, -0.31999362, 0.344096, 1.1839408, -1.7967409, -2.3182254, 0.22442095, -0.15741318, -1.8314224, 0.49140322, 2.5128927, 0.4056195, 0.68881357, 1.203, -2.5967612, -1.9964235, 2.055568, 0.26485726, 2.5560825, -0.08824755, -0.20892821, 0.42060357, -3.5030909, -0.5744615, 1.2298926, 0.34883392, -1.5002346, 0.2772509, -1.3231895, 0.38064378, -0.27496758, 0.5314792, -1.0582532, -1.3485024, -0.68333286, 0.7315431, -0.8006568, 1.658325, 1.1053528, -0.9026771, 1.6148883, 0.30276245, 2.138139, -0.29211175, -0.90286875, 0.12950867, 2.0898094, 0.73212564, -0.9073235, -1.5398588, -0.7722671, -0.12383048, -0.077503555, -0.39772546, -0.7672239, 0.66613704, -0.14052898, -1.1973454, 0.16337696, -0.31165382, 0.52601933, -1.4833724, 1.4007621, -0.13336663, -1.2105348, 1.7734702, -0.28020096, -0.8497756, -0.68100375, 0.8487506, -1.4907861, 1.12009, -0.3429023, 0.36133718, -1.6071492, -0.041990377, 0.73378795, 0.19676647, 1.0682199, -0.9186283, 0.32406566, -0.25172848, 0.33543745, -0.16405095, -2.3530374, -0.65154475, -0.49629077, -0.5842109, -0.75404084, -1.5116498, -2.3536081, -0.49721164, -1.2204784, -0.42074624, -0.75040764, -2.56123, -0.40182194, 0.7348171, 0.61563295, -0.8485241, -0.90524447, -0.25077906, 0.65991527, -0.9849004, 0.61394256, 1.0056049, -0.39806607, 0.84756655, 0.15545642, 0.34229964, -0.71390164, 0.89803165, 0.13140835, -0.26286563, 0.03912274, 0.28577226, -0.84074104, -0.22274186, -2.348631, -0.37986606, 0.5775525, 1.2010686, 2.3084815, -2.01242, -0.6934029, 0.22301045, 0.24292627, -0.26635334, -1.0408762, -0.47047848, 1.1029468, 0.6422742, 0.60193956, -1.3428296, -8.411685, -0.3665253, 0.29171136, 0.40214083, 1.5816399, 0.405244, -2.5121145, 1.3429687, -3.3001688, 1.4157873, -0.58858633, 0.6616376, 0.17404282, 1.2481216, 1.511052, 1.2029583, 0.5175428, -0.55084467, -1.1691763, 0.9671651, -1.5510702, 4.2874045, -0.20455723, 1.4523712, 1.0633014, 0.4789686, 1.4120278, -1.8084271, -0.75889957, 0.9942756, 1.2578624, -0.75017935, -0.019020207, -0.2576175, 0.8225646, -1.6275243, -0.01151311, 2.216786, -1.1900564, -0.44440886, 0.6691011, -1.32644, -0.96533114, -0.046974648, -2.0958843, 2.0889406, 1.0116752, 1.0113915, -0.057205908, -0.24187864, 0.4249306, 0.40412566, -1.0778886, -1.6095154, 0.4137726, 0.520347, -0.37757117, 0.69575095, -0.37081292, -2.5592265, -0.6998692, -0.9087648, 0.5625876, 1.5088525, 0.6945597, 0.008135001, 0.13794217, 0.9756539, -0.6029141, -2.1789773, -0.31329358, 0.809207, 1.1725138, -0.75159985, -1.4114952, -1.0554874, -1.1315044, -1.4426826, 0.40264633, -1.2570914, -0.09096661, 0.13799788, 0.6293048, 0.42863485, -0.82607406, -0.31927976, -0.66954684, -1.6812493, 1.8354565, -1.3902735, 0.856583, -0.45384338, 1.0387826, 0.08763516, 1.7975762, -0.70262766, -0.41515502, 0.91958123, -0.58405685, -2.7858303, 0.027623702, 0.08519647, 0.21926726, -1.2298146, -2.362216, -2.671875, 0.38537303, 1.887005, 0.40802014, 1.7927151, -0.7471944, -0.84022784, 1.7097689, -0.83085537, -1.850508, -0.028110143, -0.40190983, 1.875366, -0.022949219, -0.8488611, -1.4037982, 0.8390031, -2.6250615, 3.2775648, -0.6432548, -0.05166269, -0.21455817, -2.0688322, -0.9999429, -1.0077345, -0.7810104, 0.43453386, -0.2013295, 0.002249355, -0.51458865, 0.21456859, 1.2703955, -0.43800187, -1.421875, -1.5283747, 0.783089, 1.6114465, -0.5934968, -1.2208209, 0.42127213, 2.7874808, 0.27410832, -0.013645604, -0.7312315, -0.3934265, -0.62729377, 1.2559762, 1.6512839, 1.6826117, -0.46135762, -1.4221159, 0.7736785, -1.9850272, -0.9682717, -1.7679613, -0.7052738, 1.9542048, 2.3776507, -2.413923, -0.62856156, -0.27453476, -2.0440123, -0.53616816, -0.99925625, -0.87586874, 0.25271362, -2.0182521, -0.094391376, -2.7421548, -0.69085187, -0.8056985, 2.569807, -0.13150144, 0.44801754, -0.8465275, 1.6384019, -1.143542, -0.3585443, -0.12940268, 0.17575407, -2.0661876, -0.15685152, 2.4897435, -0.9538479, 2.1767397, 0.5820686, 0.578982, 0.1308793, 0.15256694, -2.3531642, -0.095627934, -0.5769121, -0.91703206, 0.52001864, -0.7253091, -0.45432532, -2.4216685, -0.97061706, 1.5912216, 0.16985059, 0.20807847, 1.358683, -1.0996565, 2.3260033, -0.24237865, 1.7052493, 1.8159914, 0.7605157, -1.0471405, -0.116025224, -0.81886756, -0.7690597, -0.5986129, -0.49397576, -0.6713749, 2.0708842, 1.6739676, -1.3607864, -0.023317015, -0.092745356, -1.2926209, 0.2597346, 0.5984471, -0.06888661, 1.2521352, 1.2261648, -0.06261686, 0.37128955, -2.0062852, 2.4758956, 0.71823543, -0.2145011, 1.6460767, -0.35968482, -0.4275088, 0.73344195, 1.8864162, 1.0165092, 0.2528735, 1.0930706, -0.012845692, -0.2734828, 0.33139348, 1.4353349, -0.56152344, -0.8715148, 1.61597, -1.1240886, -0.29355216, 1.1819794, -1.7467967, 0.77085567, 1.4721453, 0.61098206, 0.77973354, -1.2234969, -0.49694258, 0.706082, 0.19607437, -0.61869675, -0.57675457, -0.27314126, 0.09682101, -1.7824186, -1.4081868, -2.2481394, -0.22392179, -0.3347843, -0.37005603, -2.3011, -1.5254341, 0.52260405, 2.0932953, 0.34716344, 0.13160041, -0.13442568, -0.4110531, -1.2933859, -0.15446062, 2.441158, -1.6536795, 0.20239122, 2.4655232, 0.060076714, -1.8975008, -1.1726235, -0.2137784, 0.8658649, 0.5206256, 0.33365914, -0.866615, -0.2450284, 0.20197631, -1.161352, 1.0813862, 1.9922848, 1.1480534, -0.8505551, -1.8787721, 0.12609886, 1.003896, -1.089735, 0.66661894, -0.6623057, -0.42195472, 1.4153162, 0.9822389, 0.022814013, -0.70061296, 0.65800565, -0.21051717, 0.85026526, -0.30833015, 0.018743115, -0.8930274, 0.034161568, 0.42330453, 0.59966916, 0.54579335, 0.6632591, 0.283202, -2.03021, -0.2562444, 0.5399829, -0.069643036, -0.38825426, -0.630555, -0.11812239, -0.55745095, 0.26808542, 1.3385066, -0.1979831, -2.321657, 0.0091478, -0.051576633, 0.12778474, -1.8124366, 1.0468858, 0.13128062, -0.5122283, 1.9236904, 1.0986092, 2.624405, 1.3705755, 0.5499732, -1.1803688, -1.1855288, -0.036778267, 1.309275, -0.18481071, 1.0171379, -0.04235455, 0.23272988, -0.78688836, -0.114328474, 0.33522275, -0.19246389, 1.1108534, -0.4462569, 0.023846967, -1.8382037, -0.7746421, -0.2153112, -1.4002584, -1.1764897, 0.026831008, 0.29416817, 1.0644703, 0.4907779, -0.51891345, 1.8965261, -1.41696, -0.45821622, 0.9625192, 1.281096, -1.4199871, -0.41732737, -2.1695306, 0.23826857, -1.1139915, -1.3158077, 1.0943696, 0.1850372, 0.31618136, 0.59240925, 0.9266473, -0.6382135, 0.71822095, 1.3140328, 2.1976025, -2.6667805, -0.754929, -0.011469627, -0.27481267, -0.61244875, -0.4793418, -1.9503167, -1.2349179, -0.0072997594, 0.011027547, -0.69188726, -0.0743261, -0.9374212, -0.63958234, 0.7035843, -0.5116241, -0.7539108, -0.19013165, 1.312722, -1.1163595, 0.21358092, -1.4122322, -1.2816513, 0.82934797, 2.5217903, -0.86863333, 0.71065825, 1.0759109, 0.18506403, 0.4105947, -0.9459675, 1.1380912, 1.324668, -0.005839219, -0.33269438, -0.4524782, -1.6448058, 0.07328567, -0.68089235, -0.94499815, 0.5619848, 0.89851767, 0.3043306, -0.2554354, 0.09131471, -1.1066791, -1.9678477, -0.10169838, 2.5039098, 0.39148742, 1.2336138, 0.7263306, 2.3416157, -0.13075294, -0.55681276, -0.38903785, -1.5736021, -0.17594454, -1.66682, -1.6146437, -1.9614086, 0.042113353, -0.79547447, 1.1272141, -1.3114437, -0.32877272, -0.42984694, -0.8333122, 0.9249852, -1.6444488, -1.3215138, -0.59453726, 2.2049005, 1.8766161, -0.44751474, 0.30670223, 1.2199494, -1.8815542, 0.86186534, -0.32905853, -0.44261473, -2.27297, 0.45627934, 0.08342634, -0.12732682, 0.53517437, -0.41440493, -0.26158467, 1.0428433, -0.03891382, -1.1921065, -1.41245, 1.4961209, 0.034943815, -2.2244282, -0.37261748, -0.7461961, 2.18727, -1.3258879, -1.1179829, -0.39772138, 0.35215586, 1.0796089, -0.043111883, 0.40972322, -3.1788177, -0.7904186, 1.4958818, -0.38668975, -1.0681787, 1.2567992, -0.7146467, 0.9506265, -1.3652543, 0.27766082, 0.61636674, 1.4238498, 0.8571601, 0.3230733, -0.3897696, 0.72699916, -0.9064638, 0.20502876, 0.092218116, -1.1438409, 1.5646597, -0.78700477, -0.72367084, -2.2467003, -0.9809706, -0.51726806, 0.46649522, 0.7510753, -0.7963102, -1.4200324, 0.18982862, -0.5454416, 0.6130729, 0.007576286, 1.8813812, -1.3303028, 0.3012324, 0.9096947, -0.12771408, -0.7352519, 0.8745253, 1.1108117, -1.5277696, -1.8452343, 0.15231386, -2.4458768, 0.19003652, -0.87384135, 1.7349982, 0.029856723, 2.006643, 1.0108944, -0.7784888, 0.8164787, 0.92083687, 1.1074563, -0.681175, -0.14880529, -1.3014625, 0.7814336, 0.090990625, -0.12684533, -1.464725, 2.4955103, -0.4172739, -1.4491752, -0.6673405, -1.1646767, 1.6793306, 0.4007983, -0.2924936, 2.0916374, 0.09940736, -0.014050542, 1.4169863, -0.81600857, 1.3206205, -1.3467776, -0.16496116, -0.060942076, -1.7003566, 0.9836485, -1.2223881, -1.16402, 0.49466062, 2.1315806, 0.33053017, 3.2738724, 0.2790414, 0.012664512, -1.6088061, -3.1096358, -0.0047840658, -0.2073302, 0.9336825, 1.0042423, -0.703404, -0.75148207, 1.3967906, -0.7508497, 0.0866509, 0.5613169, -1.6151383, -0.9846341, 0.8783047, -0.53529984, -1.1838909, -0.884692, -2.741661, 0.5788654, -1.4186838, -1.5285228, -1.464952, -0.530971, -1.9440986, 1.7946266, 1.6836735, -2.2029638, -0.12485596, 0.52583814, -0.0073840083, 0.35337567, 1.5418419, 1.3041005, 0.643754, 0.0664905, 0.72501975, 1.2134727, -0.5229356, -0.19151857, 1.1377804, 0.14810684, -1.1254004, 0.24640663, -0.74123085, -2.4955611, 0.51553804, -1.0748094, 1.2883106, 0.19138633, 1.1684688, -0.38939115, -1.2604396, 0.87416023, -0.5956807, -0.0741499, -1.0014857, -0.57463, 0.4376968, 0.13530101, 1.7801511, -0.03393532, 0.053285163, 0.34188023, 0.16837187, -1.4078372, 0.74358624, -0.20198537, 1.0068523, 0.7598834, 1.0039631, 0.18518904, 0.61221045, 0.06380993, -1.0736625, -1.9682264, 1.1320624, -1.3263712, -2.1401992, 2.5057979, 0.4576029, 0.8268241, -0.6667911, 0.21922085, -0.07730153, 0.7499586, -0.9618461, 1.7206053, -0.12526815, 0.0639277, -0.35637736, 1.5536475, 0.7645144, -1.9703263, -0.047790416, 0.4746456, 0.4762563, 0.65581155, 0.90915704, -1.8501221, -0.59967417, -0.35767192, -1.1896465, 0.6695336, -0.26432595, 0.83716863, 0.14427397, 0.08303907, -0.035811782, -1.7874789, -0.15733889, 0.449813, -0.15982288, 1.4683517, -1.2471473, -1.0673954, -1.043929, -0.16423598</t>
-  </si>
-  <si>
-    <t>[2.2168195, -0.29395214, 0.15022752, -0.19423439, -0.42750332, -1.1778419, -0.9602918, -0.010930424, 2.6524937, 0.28270793, -0.86489755, 0.18895777, -0.27900192, -0.3624094, -0.84879273, 0.051350202, 1.3304093, 0.46643773, 0.6736059, -0.4903759, -1.3794299, 1.9865149, 0.9633478, -1.4666101, -0.19501528, 3.91798, 1.2573625, -0.95806724, -1.0597742, 0.038731318, -0.9922696, 3.9538383, -0.6487715, -0.29353628, 1.3739979, -1.3199813, -0.055410724, -0.6306839, 1.01281, 0.51182634, -0.32421026, 0.06072662, -0.66632915, 0.7349751, -1.8493942, 0.6200478, -0.3273296, 1.2050824, -0.5484573, -0.75954765, 1.8685263, 0.25649625, -0.15313916, 1.0404778, 0.13385983, -1.3797385, -3.126356, -0.79872054, 0.2927375, -0.44878426, -0.43842843, 2.1850855, 0.097391054, 0.3726718, -1.330282, 1.4928697, -2.2417147, -0.40526494, -1.4644446, 0.6923234, -1.1780202, 1.5468665, -1.1311623, -0.42788157, 3.104444, 1.0539898, -0.24505067, -1.497192, -0.04716372, 2.1015682, 0.5170067, 0.68262565, -2.5461333, 0.50499886, -0.6370075, -0.120207414, 0.050777003, -1.5510558, -0.06971382, 2.1656363, 1.5061141, 0.59730244, 1.7670544, -0.58699614, 0.63249123, -0.39390287, 1.0203689, 0.14699955, 1.0757416, 0.2801319, -0.6201055, -0.44273946, 2.2911572, 0.71761495, -0.4621575, 0.8251472, -0.71493006, 0.65775627, -0.56006, 0.64161146, 1.4737135, -0.61362094, -0.1186396, 0.95157135, 0.07754384, 0.81223106, 1.0453981, -0.7247686, -0.8043068, -2.7623188, 0.09018484, -0.45544398, 1.2340693, 1.9319407, 1.1194166, -0.0122523215, 0.24649711, -2.5722544, -1.8885444, 0.60583675, -0.6860196, 0.6421648, 1.002004, -1.6978515, 3.9648325, -0.9353077, 0.47639266, -0.7785411, 1.4823228, -1.2849524, 0.4547802, 0.906618, -0.48444575, 3.113519, -1.0120598, -1.0811388, 0.5592306, -0.77997833, 0.16196953, -0.42783388, -0.90897304, -1.4557717, -2.8539968, 2.0900023, -2.1783514, -0.30908203, 0.76696175, -1.1067963, -2.5744126, 0.11287506, -0.51956236, 0.93155855, 2.2307913, -1.0566944, 1.463703, 0.23251228, -0.15411572, 2.7869623, -1.4288893, -1.6403958, 0.35919666, -1.6888913, 0.22681673, -1.061529, 0.006094316, -0.3686495, 0.64647377, -2.5665026, -1.3607507, -0.73395467, -0.31867924, -1.7323766, 0.16764465, 0.030754643, -3.0172498, -0.4998443, -0.68543047, 0.649839, 0.77652, 0.051950295, 0.37154594, -1.1503297, -0.4945086, 1.9184747, -0.12076929, 0.25942808, 0.7642946, -0.8667714, 8.326789, -1.2915676, 0.3038638, -0.7128552, 0.747444, -0.22599071, 0.5245131, 1.3738168, 0.085740775, 1.3252519, -0.14276211, 0.109897956, -0.67314595, -0.14993349, 1.2514096, 0.54444915, -0.627198, 1.1647475, -0.06771824, -0.25388503, 0.6332314, -1.4028674, 0.26771116, -3.0774853, -0.5717987, 1.521776, -1.9036599, 1.0058608, -0.7526707, 1.6400928, 0.661139, -1.0347854, 0.35186538, -0.29672498, 0.75811535, 1.700719, 0.28052536, 2.3017974, -2.1729507, 1.9602242, -0.56640625, -0.7600515, -0.26776353, -0.16687012, -0.8757487, 1.2540576, -0.26070255, 0.8200486, -0.43396103, 0.096314535, 0.53027344, -1.5881538, 2.0277853, -0.4582838, -0.12575011, -1.0020543, 0.13389239, 0.4033925, 0.12938462, -1.6840099, -1.2981458, -0.3783444, -2.8183255, -0.58746743, 0.55122846, -0.21303852, 0.08474227, 0.57950383, -1.8098788, -1.1496745, 1.2773225, 0.23751698, 1.9649676, 2.238478, 3.450872, -0.47312084, -1.4508916, 0.39763042, 2.4323425, 1.1308191, -1.8457258, 0.34355417, 0.21560165, -0.36934656, 0.2536805, 0.6896711, 0.19942397, -0.39142323, -1.7338711, -1.0418196, -0.27761266, 0.66420865, -0.37188065, 0.06432292, 0.9489081, -2.3861752, -0.71321046, -1.1272949, -1.4811962, -0.5279481, 0.36557052, -0.9649881, -0.9248358, 0.64675045, -2.3565345, -2.3699841, 0.3027747, -0.22090976, 1.1739894, -0.036645155, -0.08013049, -0.04516814, 0.32545573, -0.43997395, -2.659307, -0.16548418, 0.7039375, -0.61254, 1.3589844, -0.17350686, -0.66744506, -1.0698512, -1.3512907, -2.5361469, 2.1373198, 1.2803867, -0.86442196, -1.1724327, -0.6676882, 2.9360592, 1.3637879, -0.17547484, 2.0377138, 0.97422016, -1.7611724, 0.8705135, -0.5497127, -1.204062, 1.1488451, 1.4721665, -0.17620654, 0.118922666, -2.5134623, 1.040509, -0.5616009, -0.15965028, -0.63518316, -0.9593849, -0.22956862, 0.38141134, 0.1708956, 1.063485, -0.006092901, -1.4057766, 1.770113, 0.33978713, 1.283789, 0.5944067, 3.2415195, -1.3215014, -0.53345644, 1.3453351, -0.5435835, 0.8861031, -0.7819095, -0.83724207, -1.1027825, 1.4878793, 0.23751096, -1.547543, 0.31348506, -2.7845562, -0.32877886, 1.7785609, -1.1495613, 0.5670191, 0.19098166, 0.6233427, -1.8832116, 0.93671733, 0.5072846, -1.860929, 1.4313179, 0.5234304, -0.91254246, -1.3140709, -0.22021626, -0.28902286, -1.4353912, -1.4118773, 0.29475486, 1.451094, -0.5875807, 0.54439396, -0.45618525, 1.1405146, -0.23015456, 0.46931046, 1.4306471, 0.75301176, -0.5275263, -1.3952074, 0.6349579, 0.7643286, -1.2222501, -1.0210202, -1.173562, 0.69604, -2.5055707, -0.5906193, 0.7229195, -0.5738253, 1.03521, -1.7579257, 2.0589788, -1.1147362, 0.15268767, 0.77094233, -1.5917771, -0.93057346, -0.29281715, 0.30648354, 0.6764486, 0.9754869, 0.5315628, 1.3610536, -1.3904396, 0.65294224, -1.3255973, -0.87832314, -1.3435661, 1.9001755, -0.42972288, 0.24729818, -0.2058615, 1.1508039, 0.12513162, -3.3512511, 0.04470533, -1.2617542, 0.45684406, -0.34686005, 0.6519319, -1.0858979, 0.5050272, 1.0434585, 0.69901776, 4.1880717, -0.006263799, 0.5727723, -1.3344967, 0.68120044, -1.1183453, -0.33846647, 0.92982763, -0.74505347, 1.8903165, -1.0434726, 0.39162844, -1.925099, -0.6656788, -0.83330363, 0.12062865, 1.4306117, -0.92127776, -0.0077749942, 0.3616586, 0.8965622, 1.7939425, -1.0511435, -0.46641615, -3.8980072, -1.3194605, 0.91918874, -0.39039075, -0.10277117, -2.7003481, 0.5343807, -1.553527, -0.84511435, -0.34673417, 0.5679687, -2.6239583, -0.6972713, -0.34824643, 0.6758591, 0.22997499, -1.797158, 1.2558225, 1.0049423, 1.3940868, -0.2009893, 0.2789487, -0.4279141, -0.010045856, 0.26074502, -0.7108809, -2.9990659, 1.9163892, 0.6833843, 0.3221003, 1.125471, 0.843733, 1.6394985, -2.098132, 1.6609743, -1.1450568, -2.921807, 0.38428867, -0.30871972, 0.15046988, -0.45787972, -0.52262616, 0.027556047, 0.8755548, 0.76790506, -2.0424705, 2.0450125, -1.3407036, 0.4443501, 0.37850854, -2.4715805, 2.0210938, -1.5232139, -0.32567087, -2.224591, 0.41725686, 3.3153589, 0.39322174, 0.8455743, 1.710929, 0.35584804, 0.89636123, 0.375518, -0.5838711, -1.0826526, -0.6483328, 1.1518201, 1.6575096, -1.2724354, 0.4127519, -0.9300442, 0.44227242, -0.07461132, -1.807722, -0.38601217, 0.289589, -1.4072917, 1.9013134, -0.012208447, -2.833939, -1.2030321, -0.78381735, 1.4483285, 0.075082794, -0.587391, 3.3208334, 0.41781184, 0.13595448, 0.022139663, -0.95913154, -0.5367796, -0.40808424, -0.67346865, -2.5404892, -1.6746321, -0.24929518, -0.40245688, 1.0301659, -0.37204412, -0.021143286, 0.15777712, -0.26920855, -1.8485762, 0.6764153, -2.9592109, 1.8093637, -0.8182122, -0.5177338, 0.3476244, -1.0031703, -0.6795629, 2.3413157, 0.32474878, -0.37980074, -1.5657269, 1.1109601, 0.41163948, -1.3428243, -0.6386492, 0.50512624, -1.0684596, 0.52208465, 0.87128127, -0.038707256, 0.9829739, 2.1130066, 0.9492697, 2.2887964, 0.30301178, 1.3428725, 0.05790379, 0.06423977, 1.772226, -0.3837926, -0.07201016, -1.121514, 1.7935717, -1.1093581, -1.2700747, 0.8440133, 1.6565783, -0.31797525, 0.13226195, 1.8303102, 0.8804822, 1.1580178, 0.14120528, 1.0831691, -0.5597996, -1.6106205, -0.7568614, 0.055021513, -0.4165294, -1.5003709, 1.4187754, 1.3490616, -0.23304036, -2.7594316, 0.200518, -0.48526382, 1.14215, 0.275627, 1.3178385, -1.2227044, -0.042451456, 1.1938123, 1.6943897, -0.83967054, 1.8308395, -0.061381906, 0.38538837, 1.0380279, -1.8757076, 0.3126449, -0.21778476, 1.6409986, -1.0023693, -0.3823879, -2.0975373, 2.9385812, 0.9309641, -0.71121633, 1.3104818, 0.7774004, 0.4072294, -2.961229, -1.41768, 0.23589349, 0.15015993, 1.2867994, -0.14640936, -0.83419245, 0.46943077, -1.9002151, -2.637783, 1.2088386, -0.30935803, 0.1759709, -0.17618957, 0.3202343, -0.8722925, 0.0033797554, 2.2575126, -0.74630606, -2.1045063, 0.19018625, -1.3001132, 2.1833816, -1.8716174, 0.42048517, 0.18639252, 0.066305764, -0.031187726, -0.14998868, 3.0029948, -2.6789799, 0.52386206, 0.31560802, -0.20562798, 0.75405043, 4.302344, 2.6081522, -1.1634058, -0.64529973, 1.4897758, 0.31235707, -0.99991083, -0.4696558, 2.59221, -1.1240574, -2.6028051, 1.4624462, 0.73660696, 1.7727214, -1.1160157, -1.36257, 1.4862319, 0.31896937, 1.234675, 0.87779665, 0.7183622, -0.5405796, 2.513417, 0.5345165, 0.3132105, 0.0077912705, 0.16456422, 0.2997495, -0.13718297, -0.5484375, -0.8777471, 2.6637568, -0.012042502, 0.63635075, 0.26285666, 2.500283, -0.31211433, -0.4419554, 1.5101166, 0.9511464, -2.4434385, -0.827412, 0.95416385, -0.7038507, 0.2531066, -0.53720635, -1.3581522, 0.32494056, -0.98062724, -1.9983696, -0.6050272, 1.5753086, 0.9240914, 2.840908, 1.4060893, 0.10218948, -0.6919738, 0.34420857, -0.21853487, 0.082027, 0.3402542, 1.5636804, -0.47315443, -0.1979931, 1.0287279, -0.5831493, -1.803442, 0.5156632, -1.2969118, -1.0518074, 1.0515682, -0.055749867, -2.1243942, 2.5205503, 0.55576736, 0.043615192, -0.8366451, 1.955824, -0.71494, -0.19187896, 0.30714163, -0.95821023, -3.9307518, -1.1046168, 0.3186481, -0.5798446, 2.2629755, -0.61310184, 0.30488512, 1.4108101, 1.9558934, 0.41636238, 0.9759454, -1.0189382, 0.4909307, 1.0659703, -0.35931486, -2.3752208, 0.06885898, -1.2720965, 2.061699, -0.12615418, -0.8897411, -0.36981043, 0.35858527, -2.1623585, -0.8253029, 4.891916, -0.24569428, -0.34769872, 0.6684188, -1.0306273, 3.5304177, 1.0929419, -0.09838655, -2.108886, 0.35778773, -1.4812812, -0.74918574, 0.91008073, -2.7743375, -0.7153897, -1.2306753, 0.35447875, 1.5511549, -0.23227875, 0.3005364, 1.0800697, 0.0064778645, -1.0013396, 0.6511322, 1.3091599, 0.5582626, 1.1769757, 2.1376755, 0.43458587, -0.7561, 1.799281, 1.9101902, -0.25546592, 0.61890566, -0.25248954, -2.457773, 1.6032127, -1.6850402, 0.84167516, -1.1646944, -0.1959975, -0.3625865, -0.5186651, 0.15083645, 0.6829144, 0.7104478, 0.40599382, -0.20754926, 0.18253723, -3.2400622, 0.07559585, 0.975484, -0.70419145, 0.27740887, -0.30611697, 0.3259426, 0.025607875, 1.615291, -0.41027442, -1.0840367, -0.6968007, 1.4830616, -1.2022659, 0.20774882, 2.9832032, -1.5512059, 0.1123797, -0.9858809, -0.17700514, -0.020792289, -0.048675273, -2.034426, 1.1952516, 0.5134369, 0.93842846, 1.3195256, 1.844687, 0.041169893, -0.24278617, -0.08630265, 0.7335117, 0.40725344, -0.4512766, 1.8566463, -0.083406135, 1.1703733, -0.29141563, 0.8200275, 0.6631114, 1.4558141, -0.84269845, 1.233639, 0.97977805, -0.20795687, -1.0327842, -1.5102525, -0.56276184, 1.5411431, -2.2482932, 0.50060487, 3.3921196, -0.8009624, 2.491797, 0.38938448, -0.806768, 2.8304913, -0.92202926, -1.3018427, -0.7655882, -1.5096099, -1.1527925, 0.039436143, 0.62824386, 0.713587, -0.19574134, -0.19789614, 0.18874477, -1.6303244, -0.64912254, -2.0079002, -0.33292642, 0.30549327, 1.3134992, -0.09909633, 0.46677, 0.34836602, -1.0771867, 1.6394928, 1.1318728, 0.7147942, -0.18867259, -0.028317481, 1.0163723, 1.0452416, 0.6110734, -0.19687977, 0.423262, 0.8526551, -1.5237913, -3.0433028, -0.033064425, 0.122961074, -0.13041426, 1.4473222, 0.46246392, -2.036464, 0.07403476, 2.3651495, 0.048724808, 1.1710994, -0.23042913, 0.5537983, -1.6957909, -0.70296085, 0.29444084, -0.5697508, 0.17057858, -1.6695312, -0.20620899, 0.49241254, 0.30948114, 1.4126444, -0.3133237, -0.8412081, -0.31379077, 0.56059784, -1.3831974, 0.7783854, 1.694033, 0.65181476, 0.035003375, 0.10531731, -0.3590523, 0.9093948, -0.14287817, 0.5773211, -0.2083344, 0.19621547, -1.5092788, 0.6576745, 0.68285495, -0.16421252, 0.3560759, 1.7781321, 0.43274316, 0.588979, -1.3267776, 0.27412817, -1.3763644, -0.9832955, 1.6307008, 0.30182856, -0.7555367, 0.9718396, 0.92907894, 0.47759852, 4.040874, -1.3630321, 0.37209436, 0.17881373, 0.90539515, -0.13039409, -2.326489, -2.3061423, -0.18823242, 0.42569774, 1.3518455, 1.525167, -0.19861653, -2.5580106, -0.39919433, 0.348078, 1.4560292, 0.76201457, -0.73000455, 3.5817652, -0.7950478, -0.8525051, -3.0581522, -0.39073822, -1.1325634, -0.7166101, -0.117242694, 0.3794681, -0.8090693, 0.054613195, -0.8709805, -0.20198639, 2.4708729, 0.82051915, -0.31226152, 0.3756268, 1.2489753, 1.5504925, -1.8114073, 0.72577274, 3.5348845, 1.1160297, 2.2893796, -4.4740715, 2.1356149, 1.4365659, -0.48370272, -0.60624504, -1.3187642, 1.2588599, -1.0765455, -0.70165026, 1.5704993, 0.4396654, 0.80069065, 1.3952333, 0.84490347, -0.57974976, 1.9474128, 0.17936304, 1.875818, 0.69686365, 0.85422647, 0.5616317, -0.3997693, -0.68752265, 0.00666327, -1.2920856, -0.96559423, 0.011243914, -1.5921025, -2.2933764, -0.2327497, -1.1492414, -0.62257874, -0.81438804, -0.25171253, 1.5137709, 0.40195313, -1.3719571, -0.022367528, -0.035416313, -0.8748754, -0.18975194, 0.07512879, -0.07788723, -1.1409986, 0.7074841, -0.4000067, -0.17126146, -0.34501317, 2.3034477, 1.5904467, -1.8719826, -1.3031038, -1.4732592, -0.041028187, -1.6105355, 3.916661, 2.3253453, -0.01927791, -1.760963, 0.46225375, 1.1434499, 0.9626387, 0.9330135, -0.0747226, 0.09482563, 0.3897744, 0.2427791, -0.9880194, 2.1491566, -0.5605377, -0.30806655, -0.26563916, -0.033528645, 0.19425315, 0.5238168, 2.0586674, -1.5069548, 1.6216344, 1.1120697, 0.35602072, 0.19376273, 0.63828975, -0.2816647, 1.7839363, 0.9300243, 1.1950182, 1.3361965, 0.48824304, -0.30171466, -1.5790874, -1.735111, -0.5099687, -0.20113012, 1.8416865, 0.41000766, 1.7519418, 0.6537194, 0.5894174, -1.697993, 1.1586107, 1.5649145, 1.7396003, -0.20200124, -0.37762892, 0.51631355, -0.46403843, -0.3120853, 0.059301402, 0.24966882, 0.25230694, 1.9597402, -0.3838117, -0.30236286, -0.25863054, -1.8325747, 0.6669724, -3.0287647, -0.83334327, -0.7308594, 1.8352638, -1.5020027, 1.7820128, 0.060729362, 1.2580304, -0.9113932, 1.3222203, -2.4542685, -0.04257547, -0.30263248, -0.18132015, -1.4010587, -0.69097036, -0.16604394, -1.3894814, 0.8532269, -0.95804954, -2.0546818, -2.007516, -1.3264577, -0.81133944, -0.7574721, -0.21282127, 0.6381567, 0.4517281, 1.202992, 0.67881215, -0.9828797, -0.31077474, -2.7382586, -0.5346581, 0.8329144, 2.3453379, -1.3022617, -0.93923235, 0.16637653, -0.88840014, -0.7518937, 0.38868815, -0.6564453, 0.38937387, 0.85144925, 0.5813096, 1.5195284, 2.239439, 0.47552118, -3.7887342, -0.17590296, -0.29755893, 2.1758096, 1.307845, -0.017984318, -0.6690217, -0.8297753, 0.015426856, 0.8150437, -1.879829, 2.3310688, -0.43462375, -1.1718184, 0.014318317, 0.48003006, 1.7897419, 2.4003396, -0.27122113, 0.39973676, 2.4422386, 0.5255774, -0.4257289, 0.61713654, -1.0348053, -1.256151, -1.6797752, 1.7409647, -1.0974355, 0.8172399, -0.31091982, -0.17959267, -0.19463882, -1.7069973, 0.4605228, 0.5252477, -0.21396272, -1.3718864, -0.4686028, -0.042077813, -1.2368251, -0.16395211, -0.7165449, -1.2865348, -0.7805905, -0.0594769, 1.794684, -0.4168273, 0.77528375, -1.5525419, -0.5438377, 2.3736243, -0.9906986, 0.81677705, 1.1462969, -0.75845647, -0.046344258, 0.19794355, 0.60443276, -0.3789572, -1.0347501, -0.44028348, 0.5873457, 0.091714785, -2.258308, -0.57742655, 1.2090665, -0.96020156, -1.8006142, 1.0010077, -0.2801857, -0.97833586, 1.0895773, 1.9258068, -0.13228884, 0.63549167, 0.7658231, -0.034704767, -0.6141729, -0.22521795, 1.8274966, 3.1383605, 0.48702163, -1.1620698, 0.33201852, 0.22129473, 0.05891361, -0.39745635, 3.0209975, -0.27669555, 0.6498769, -0.23429255, -2.768348, -0.28769892, 0.4534109, -2.8195934, 0.37918437, -0.20133889, -0.24849305, -1.3001486, -1.1946261, -0.0230214, 0.9946643, 1.4339023, -0.67174906, -0.9876132, -1.4486045, 0.058709096, 0.17415188, -0.048022106, -1.0873125, 1.0004781, 0.8136622, 4.6997905, 2.2224693, -0.30449927, -0.5958376, 0.9265115, 0.989889, -0.56294155, -1.5208163, 1.6305225, 0.6903239, -0.3123698, -0.58678764, -2.5257246, -2.8193557, 0.23963287, 1.1607563, 1.5797951, 0.98511094, -0.17818162, -2.139289, -1.5185745, 0.29620793, -1.8726541, -0.1577757, -1.0486385, 1.6898932, -1.7403419, 2.7922215, -0.1523947, 0.7175158, -0.15679489, 0.016941236, 1.5084748, -0.43515483, 0.19480582, 0.39875594, -0.38808027, -1.3424876, 0.33055368, -0.40463266, 1.5569322, -0.9844836, -1.2855384, 0.9002179, 1.5746009, -0.2574601, 2.0021627, 0.54176927, 1.0551602, -0.45990857, -0.7635445, 5.7082314, 1.6996094, 0.4302423, 0.5082074, 0.2402273, -0.10816332, 0.77326274, 1.9569265, -1.6554347, -1.4721836, -0.21918592, -0.61534476, -0.043956988, 0.3825963, -0.4620018, 0.71631, 1.4493546, -0.30224043, -1.8621688, -1.0420941, 1.1846694, 0.2603714, -2.1743433, -0.701755, 1.5932907, 1.1478459, 1.0508733, 0.6931163, -0.5295969, -0.656066, 0.18088989, 0.10525999, -1.4103119, 1.254931, 1.9368716, 0.39698255, 2.163853, -0.9417827, 1.2724426, 0.5687185, -0.020916836, 1.2137158, -2.4123812, 2.3881624, -2.3687613, 0.24814737, -0.36917105, 1.8367131, -0.73746604, 1.1756921, -2.023047, -0.12063501, 0.018917449, 0.8688406, 0.54233897, 0.41448966, -1.9358313, -0.5332725, -0.79491127, 0.33684894, 0.5088011, -2.549918, 0.12436028, -0.14587863, -0.829897, -0.007949785, -0.9293068, 0.7270409, 1.1319321, 1.072853, 0.59915787, 0.935486, -0.40120727, 0.265107, 2.7373924, 0.4488168, -0.2695992, 2.195839, -1.1450351, 0.9841316, 1.1006935, 0.74110055, 0.076052986, -1.0903051, -0.67260253, -0.7850968, 1.3671904, -0.56302935, -0.19304235, 0.9916893, 0.9776523, -1.7608894, 0.6693642, -0.94371176, -0.5421932, -0.61968976, 1.8631454, -1.3714278, 0.07260282, 1.6877208, 0.884893, -0.6644961, 0.30985904, -0.8289749, -0.33939686, 1.2315302, 2.3639266, -1.6863564, 0.28792176, 0.7453889, 0.2560384, 3.156816, 0.39620036, -1.0570652, 0.8475883, 1.545488, -1.0178357, -0.46555778, -0.10854846, 1.2602185, 1.0687925, 1.0735338, -1.7507558, -0.20392182, 0.005489272, 1.1039572, -1.7884482, -1.0832113, -1.490223, 2.0371263, -1.6100855, 0.3629083, -1.9756312, -0.48136324, -1.5794525, 0.2891078, -0.5928131, -2.97226, 0.48034137, -0.26034206, -0.4680466, 0.6660609, -1.1660978, -0.9737022, -1.4564205, 2.3779693, 1.4290138, -0.17956012, -0.29367286, 0.4721071, -1.2407439, -0.7177168, -3.0473053, -1.8578578, -0.90098506, 0.30319577, 0.9642352, 0.05188519, -1.0467943, 0.30353206, 0.42049578, 0.46742526, 0.46336192, 2.3968806, 2.531083, -0.14913277, -1.1573596, -0.139589, -1.6524951, 1.9629246, -0.38853672, 1.5480189, -0.68152314, -0.6751684, 1.0364066, -1.0811198, -0.16052352, -1.185496, 0.006748896, -0.029855568, 0.6266798, -1.4297413, 0.9113536, -0.34094575, -0.6594295, 1.6639436, 0.5054235, 0.2609644, -2.0402005, 0.1606035, -0.36643404, 1.9176404, -0.048569124, -0.10559754, 0.32055736, -1.370355, -0.43803498, -0.17380123, 1.7709805, -1.1238904, -1.4363564, 0.4024584, 0.6537265, 0.6708188, -0.34154707, 1.5626839, 0.9196105, -0.877014, -1.1084989, -1.0551691, 0.538979, -1.4841638, 0.054888472, 0.31107053, 0.17755888, 0.31641898, -1.2215184, 0.66207963, -0.10092924, 0.6678545, -0.45258737, 1.236198, 0.31692708, 1.6917545, -1.0586419, -0.44224834, -0.29390782, -1.5261889, 0.032261238, -0.05379727, -0.19336504, 0.23580942, -1.0321827, 0.3422894, 0.79254985, 1.141061, 0.7756708, -0.55028296, 1.2875793, 0.12190897, -1.9251359, 1.8897291, -0.89681274, -0.09257848, 0.43010643, 3.3745074, 1.4271654, 0.43433625, -1.9394801, -0.9324757, 0.96114415, 0.42822337, 0.2639652, -1.1943388, -0.6103827, 0.08761889, -0.54373676, -0.7260261, 0.19310746, -1.4245839, 0.40831068, -2.5953946, 0.49679574, -0.102191605, 1.9890879, 1.4758718, 0.07211135, -0.28411812, -1.5123386, 0.3608922, -1.077038, 0.345638, -1.1241975, 1.2337183, -0.40101337, 0.21829604, 2.4551375, -0.056053273, 1.7575833, -0.8746283, -3.0553613, 1.3366253, -0.3713018, 0.6592938, 1.2038666, 0.004857337, -1.4398891, -0.8602723, 0.18497933, -0.0063023665, 2.4908402, 1.896875, -0.29694718, 0.6902825, -1.0976676, -0.2615645, -0.8292516, -0.837616, 0.19850402, 0.26180792, -1.9940585, 1.1232953, 1.3078351, -1.8764974, 2.2192907, 1.2120811, -2.8269417, 0.5325358, -2.146006, -0.38528222, -0.38669115, -0.6097557, -0.3175314, 0.34184074, 1.0216967, -1.6575804, -0.3619675, -1.6397306, 0.10032411, -2.7078068, 0.004840353, 0.88872564, -0.850668, 2.0774174, -0.8296648, 0.83012056, 0.25406548, 1.666259, -1.3533175, 1.4258548, -1.5312563, -2.3369367, -1.971207, 0.09362404, 1.2308098, -0.35499746, 0.18807037, 0.5885841, 1.4253086, 1.2813944, 0.22616622, -0.11637936, -0.18879358, 0.16727808, 1.3508322, 0.4223675, -3.025034, -1.2390087, -0.78971356, -0.43277746, 0.051297836, 3.3873754, 0.2924932, -0.3119735, 0.34490207, -0.5775985, 0.27310064, 1.7145777, -1.0691293, 1.953527, -0.5539657, 1.2590481, 1.1110289, -0.26977468, -0.10034109, 1.8064991, -0.9987885, 2.7635162, -1.3187953, 1.0913758, -0.53281957, -0.81539005, -0.668701, -1.1410114, 1.7897588, -1.0499773, -0.97244394, -1.481901, 0.0016828012, 0.2566661, 0.64448595, 1.5866508, -0.5926404, 2.4384086, 2.4727652, 0.7822701, 1.0222664, -0.94778645, -0.22087438, -0.2975317, -4.0100374, -0.29875082, -1.2901678, 0.3460336, -1.1180253, -1.231301, -0.83318794, 2.2367527, 0.15158868, -0.22590013, -0.7320369, 0.7562132, 0.6696657, -1.7573285, 1.1304942, -0.22672385, 0.52379274, 0.16747339, -0.743531, -1.6999661, 1.3736087, 0.05769503, -0.5985932, -0.9268636, -2.347577, -0.2302692, 1.8819294, 1.9210541, 0.081205055, -0.0046478715, 0.104433455, 0.07122643, 0.10633775, -0.059837807, 1.2808565, 1.1921083, -0.041257642, 1.2414387, 1.9157722, 0.5552282, 1.3954469, 4.946456, 1.560043, 1.1434414, -1.5087211, -1.5977129, -1.1859021, 0.19585314, 0.6692185, -1.6972712, 0.37201086, -0.6094826, 0.07751076, -0.9523027, 1.3550948, -0.3373698, -0.8646272, -5.04392, 0.015019248, -1.558172, -0.12454427, -0.04601025, -0.19147675, 0.31794116, -1.545788, -1.3274881, 1.0006001, 0.3242895, -1.4293761, 0.2672441, 1.5521371, -0.8860847, 0.6187019, 0.4958772, -1.4144659, -1.7218438, 0.07141273, 0.44972473, -0.3350632, 0.7611007, 0.606233, 1.070052, -1.8052592, 2.6743717, -0.61985254, 0.39057264, -1.7375226, -0.5924288, 0.8826055, 0.15711759, -1.6344373, 0.63381314, 0.758684, 0.041713547, 0.80921614, 1.1284477, -0.51796097, -0.24289799, 1.3693388, 0.26846907, -1.2421154, -1.8566803, 0.0019446332, -0.5472727, 1.4581804, -0.57335967, -0.27353516, -1.0021102, 2.9027627, -1.0950068, -1.0936729, 1.5740602, 1.7092774, 0.2074431, 1.5362545, -1.3158811, 0.67812073, 0.47477922, -0.095171675, 4.232014, 1.3726364, 1.3884964, -0.9739612, -1.3975827, -0.2687698, 1.4035001, -2.8306782, 1.7307914, 0.5754961, 1.3496038, -0.4252852, 0.37150136, 0.8990574, -1.2014387, -0.4844854, -0.11359403, -0.25255108, -0.9166214, -0.16610886, -0.9753885, -0.2863522, -1.4362178, -0.15137002, -0.29575267, -0.4338793, -0.11996079, 0.48498926, 0.6966924, 0.40235224, 0.42310277, 2.167029, 1.1177338, -1.9871943, 0.29645747, -1.0013134, 1.0404382, -0.091076486, 1.5514549, -0.3149085, -1.6946303, -0.011989074, -0.13918386, 0.8499774, -1.1175951, -2.553425, 1.1680338, -2.150303, -0.61269003, 0.44051957, -1.6240263, -1.6707428, -0.73708814, 0.7631578, 0.4527471, -3.2998245, 0.54788834, 0.68112826, -1.1557716, -1.048439, 1.2660666, 1.33049, 2.0416553, -0.6566095, -2.354914, -1.8551291, 0.2207562, 0.01005081, 0.995621, -0.874666, -0.3416872, -0.08203125, -3.7950182, -0.08158118, 0.5179716, 0.8369848, -1.1086107, -0.7303187, 0.15314057, 1.2349072, -3.110779, -0.2878156, -2.0593183, -0.96392524, -0.29808438, 2.4921083, 0.8267472, -0.11486215, 0.093501434, -0.5763143, 2.6841824, 0.39083728, 2.2768853, -0.7756256, 0.32769474, 0.285411, 1.8477695, 0.52894306, 0.40073314, -1.8328578, -0.38898608, -0.989088, 1.6899173, -0.059233468, 0.66910416, -0.89940983, -1.7376204, -1.5054885, 0.99570876, -0.59358793, -0.012950775, -0.5579993, 0.34229788, 1.2756538, -1.9680848, 3.299383, 0.27015895, 0.27254975, -1.8163157, -0.5458687, -1.4495634, 1.4967307, -0.13268371, -1.3655506, -1.2990489, -0.81258833, 1.8041893, -0.64842194, -1.1975799, -0.6657071, -0.07571685, 0.5048616, 0.06824473, 0.59440386, -2.4246404, -1.7748054, 0.32062387, -0.5113674, -1.5150844, -0.0384058, 1.2579993, 0.13842137, -0.3201441, -0.5958928, -0.9886379, -2.6572492, 0.37175894, 1.2319605, -1.8656617, 1.133022, -0.43722188, 0.5078748, -0.399551, -0.48581082, 0.7289515, -0.5932433, 1.3084553, -0.2797328, -0.61610335, -0.13380888, -0.7909137, -0.781779, 0.08195553, -0.6993659, 0.9499802, -1.5530118, -1.0711391, 0.97754896, -1.7665534, -1.1300554, 0.9802791, -1.084248, 3.0874434, -0.27762115, -1.5809184, 0.53929603, 0.2209147, 0.6530411, -0.33352193, 0.050232507, 1.201704, 0.4919639, -2.2553585, -0.6894882, -7.336617, -0.4413199, 0.9106268, 1.9923177, -0.29019332, -0.7067013, -1.765976, 0.70076424, -1.9797894, 0.120969206, -2.6865978, 1.283254, 0.66739696, -0.7821869, 1.6213259, 1.2800314, 0.2003057, -0.87473536, -2.3985846, -0.6633329, -2.1039855, 4.3470845, -1.5636973, 2.3638134, 0.43799394, -1.2199134, 0.88778305, -1.9087919, 0.21915336, 0.5588315, 0.75475967, -0.5082247, 1.0883435, -0.9099751, -1.3105066, -0.90095073, -0.24111435, 0.6870839, -0.74335974, -0.8981488, -0.16890869, -1.4479846, -0.6620443, -0.18610592, -2.8241622, 0.48966402, 1.2864074, 2.077258, 0.9877519, 0.48147893, -1.0084239, 0.83937883, -0.095564425, -0.78577614, 1.0786338, 0.118390515, 0.2924189, 0.10396994, -0.579057, -0.184024, 0.53953713, 0.22491792, -0.17631906, 2.281519, -0.54093635, -0.5028986, 0.016118942, 0.03455899, -0.43880066, -3.3832314, -0.17008322, 0.010387653, 0.6726107, -0.74843043, -0.579627, -1.5398325, -1.2964448, -0.013949452, 0.199223, -0.8223785, 0.6495443, 0.65391827, -0.269953, 2.5262341, 1.0051771, -0.44415018, 0.4668181, -0.49830163, 2.394401, -0.44298008, -0.6945086, 1.4222953, 1.6271315, 1.2537024, 1.526438, -1.3217024, -0.38612148, 2.0290675, -1.2386669, -2.447843, 0.94836247, -0.2818982, 0.6122849, -0.48902288, -2.0417247, -4.2357054, -0.30804673, 1.371926, -0.5747877, 2.1002944, 0.10615942, -2.0579767, 1.4401155, -0.34538752, -1.6241876, 0.26201597, -0.18299551, 1.5314, -0.7114556, -0.105480075, -0.5735592, 0.9771357, -3.4970844, 2.3044908, 0.69551206, 0.4243334, -0.29816717, 0.045601223, -0.92908174, -0.41445455, -0.68780285, -0.41160977, -0.38654608, -1.7549211, 1.3453522, -1.1897334, -1.0364145, -1.4240354, -1.9553976, -2.265693, 0.7657736, 1.7684839, 1.0633548, -1.4254699, 0.41223887, 1.6565387, -0.9910128, 0.44565785, -0.36051148, -1.5437783, -0.7193232, 0.9685621, -0.00021937274, 2.118569, -0.8087087, -0.41605526, -1.455473, -0.47970164, -1.835745, -1.3961362, 0.08139719, 0.9139282, 1.2136832, -1.0751387, -0.55011886, 1.349184, -1.435813, -0.47070488, -0.95462805, 0.27840522, 0.83126134, -2.4375284, 0.004043535, -0.31056952, -1.3518286, 0.5671054, 2.6453917, -0.7484778, 0.3685193, -0.06307214, 0.26198766, -0.45014435, -1.1032524, -0.86416155, -1.6849468, 0.45452332, -1.2596722, 3.8233187, -0.317731, 1.5213315, 0.18714476, 0.3353997, -0.35254756, -0.54062784, -2.5602582, -1.2250212, -1.2477072, 0.023686593, 0.6160128, -0.18604648, -1.7520833, -2.2165847, -0.3507487, 0.2825949, -0.41545093, 0.021648727, 0.12042006, 0.33836192, 1.8964928, -0.4656933, -1.0944605, 1.3832824, -1.1950549, -0.30448368, 0.8622559, 0.54728264, 1.0612687, 0.5894549, -0.18942906, -0.10964674, 2.5272985, 0.38069803, -0.04498061, -0.5512568, -0.27631766, 0.40183, 0.94217336, 0.642852, -1.3614187, 0.44073045, 0.82588243, -0.38587806, 1.7743518, 1.0832173, 1.1428852, -0.9955956, 0.92601717, 1.3881115, -0.5540457, -1.2898154, -0.21063286, 2.0442255, 1.0516361, 0.8497254, 1.4838371, 0.9884557, 0.8743546, 0.65782946, 1.7866493, 0.053793024, 1.1134087, 1.8046762, 0.56123966, 0.3921889, -0.02410411, -0.75954765, 1.2951986, 1.5050243, -0.9048414, 1.8490206, -1.2676743, 0.011532814, 0.21165577, 0.3976506, -2.1002605, 0.42367527, -0.34615922, 0.9675158, -2.4180508, -0.84461194, -1.927106, -0.7412647, -0.14482564, -0.30084637, -2.1295998, -0.30703408, 2.0514662, 3.0422215, 0.6359708, -0.66359544, -0.6765597, -0.24366508, -0.8426715, -0.34007585, 1.3826766, -0.50573415, -0.046740368, 0.50338256, 0.2777051, -1.4424462, -1.96128, -1.5621843, 0.44743404, -0.9115977, -0.6469493, -2.0350344, 0.27036557, -0.92685264, -0.48428443, 0.71464276, 0.63780856, 0.6002597, -0.5868716, -0.4785029, -0.95076, 0.3254727, -0.18240772, 1.096214, -1.3541015, -1.4093835, 1.2739301, 0.72816145, -0.32837975, -0.59276426, 0.63220674, -0.7693048, -0.5209579, -0.7994374, 0.9235153, -2.537149, 0.11626189, -0.7420141, 1.9890597, -0.1893222, 0.20172366, 0.2408189, -2.1166413, 0.6168365, 1.6191124, 0.20567538, 0.30377835, -1.8936198, -1.1470802, -0.38902006, 0.30647644, 0.3870641, -1.0016729, -1.280446, 0.47838718, 2.3091486, 1.2733129, -1.5317963, 0.94660324, 1.9021796, -0.11870895, 2.3039148, 1.2633473, -2.7317028, 0.88448256, 0.5414034, -0.4191668, -1.059116, 1.4404912, 0.23675625, -0.3131652, -1.2867131, -0.54949474, 0.6714154, -0.5880067, -0.21921846, 0.35049254, -0.71334, 1.0768682, 0.030699445, -1.7949106, -0.9611809, 1.2951497, -0.9946395, -0.7468099, -0.7472444, -0.27245456, 1.2711504, 0.44017422, 0.025205042, -0.27638063, 0.33586887, -1.1943275, -0.92471766, 0.33709523, 0.7616692, 0.9559783, -0.6719939, -2.0343156, -0.6612432, -0.8839532, -1.9567369, 1.5199332, -0.3695737, 0.7792063, 0.2892196, 1.8922838, 0.016873302, -0.0044525587, 0.8213867, 0.42378283, -1.5095193, -0.4906986, 1.5257473, -0.46604958, -0.41858867, 0.5361229, -3.3928556, 0.51246035, 0.3030263, -0.5033458, -0.07764468, -0.17612092, -0.27110827, 1.1197237, 0.995672, 0.4860656, 0.18894078, 2.5500169, -0.5188321, -1.214923, 0.29331973, 0.62689084, -0.73217845, -0.23055367, -0.490504, -0.7876231, 2.6327276, 0.5469797, 1.1613309, 0.016292317, 0.80343634, 0.07873924, -0.011427197, 0.43785664, -0.06633336, 0.19685589, -0.75314057, 0.25993404, -0.43410042, 0.5414213, -0.5647417, 1.1896739, -0.024295177, -0.228827, 0.10671988, -1.8855894, 0.0712873, 0.04779141, 2.6135077, -1.1691887, -1.3981644, -2.289572, 1.4781476, -1.2325718, 1.3729162, -1.8070652, -1.8975713, 0.15155047, -1.1892068, -1.7412789, -1.0422385, 1.0832881, -0.60861284, 0.1855582, -2.2582994, -0.2512529, 0.3773664, -0.4377392, 0.5579852, -1.5367754, -1.3594949, -0.5192397, 0.94674194, 1.9968042, -0.26756763, -2.399751, 0.58710617, -1.4761916, -0.26317227, -0.64311594, -1.2565062, -1.9071501, -0.27315763, -0.21368603, -0.8625467, 0.4301022, 0.22271144, 0.5244325, 1.106901, -0.5486215, 0.54609376, 0.20083362, 1.5735677, -0.15613253, 0.9122934, -0.35442, 0.06646569, 1.0594416, -1.5385133, -0.7842646, 0.4717646, -0.1931952, -1.8270494, -1.2032361, -0.14254239, -0.23474899, -0.54467773, 1.3479959, 0.3815642, -0.68426883, 1.0300158, -1.5509738, 1.0091316, -1.0693557, 0.32568783, 0.16650532, 1.4710201, 0.7106318, 0.36045772, 0.27939346, 1.3034109, 0.14356318, 0.9337551, 0.6404226, -1.5740871, 0.8378453, -0.8455177, -0.35401452, -1.8270097, -1.5399513, -1.434041, -0.5258265, 0.15040478, -0.30573764, -0.034810208, 0.4912534, -0.35710767, -0.00010499816, 0.5996269, 1.3802282, -2.2658458, 0.7496915, 0.8039006, -0.5240829, 0.103882276, 1.3571614, 0.4338641, -1.9492612, -1.769135, 1.455047, 0.38958332, -0.1190557, -0.54529554, 0.48856786, 1.166736, 1.5178471, 0.38993716, -1.5542488, 0.17372763, 1.7990617, 0.33601323, -1.1375991, -0.32408005, -1.4438207, 2.7718241, -0.93583417, 0.08908019, -0.9293889, 2.858492, -0.40017053, -1.203527, -0.017157247, -1.8147645, 1.2437358, 0.9834805, 0.24334717, 1.3256793, -0.6755916, -0.7252062, 0.47764805, -0.7350402, 0.2546592, -1.4062924, 1.3850119, -0.67027146, -0.48464674, -0.37117088, -1.2279799, -0.855974, 0.195212, 3.3953917, 1.0942386, 1.800753, 0.25817817, -2.1114357, -1.4374264, -1.496858, -0.17126642, -1.7893399, 0.21304914, -2.022928, -0.1202658, -2.4883776, 1.1218538, -0.41824192, 0.7966457, 2.136215, 1.179529, -1.9606205, 0.77362716, -1.2466457, -1.4022985, -1.5221184, -0.7964419, 0.70303726, -0.079985425, -0.4556789, -1.0605851, -0.006082109, -1.6741564, 1.6072351, 1.5680565, -1.2461957, -0.54174876, -1.0134511, -0.93213737, 1.7974949, 1.348446, 0.45032835, 0.73980343, 2.480166, 1.5309613, 0.037410837, -1.1656377, -0.8577729, 0.62832314, -0.7105384, -0.95134455, -0.17183873, -1.0410722, -0.85185546, 1.3859601, -0.82572746, 0.49390286, -0.6115801, 2.6664515, -0.4644602, -0.098747455, 0.3300753, -0.30493304, 0.3215509, -2.0770833, -0.71403986, -0.58968526, 0.37763813, 0.8636153, -0.6640908, -0.7377328, 1.8733243, -0.1273166, -0.6248924, 1.2713301, 0.7118051, 0.19230214, 1.323889, -0.090166084, 0.56665605, -0.88919127, -2.7317765, -1.7192935, 0.07376727, 1.582453, -2.0219202, -2.40533, 1.2612743, 0.35551545, 1.5075182, -0.20963612, 1.2732521, -1.1207173, -1.0913666, -0.08366027, 0.05644248, -0.0965141, 0.21184401, -2.006335, 1.3584317, -0.16094033, -1.2959522, -0.8001826, 0.6746376, 0.29740575, 0.89229506, 0.22978246, -0.7720406, 0.17149144, 0.22508916, 1.1271173, 1.4153461, 0.14338273, 1.1249624, -1.0040874, 1.0861158, -1.0606035, -0.2452304, 0.70008826, 2.0192482, 0.6767968, 1.3568813, -1.1845845, -1.0791491, -2.4910553, -0.47357833, -0.28555253, 0.32907325, -0.1</t>
-  </si>
-  <si>
-    <t>[2.359427, -0.6471641, 0.19354191, -0.45004153, -0.19121301, -1.0072626, -0.3848496, 0.9474796, 3.4701169, 1.2513527, -0.979474, 0.12924734, -1.2687272, -0.56067526, 0.040465742, 0.5960403, 1.8328236, -0.07455027, 0.12181612, -1.3668561, 0.17330256, 2.014288, 0.20278068, -1.1466105, 0.7385251, 3.3655665, 0.5645327, -0.49096972, -2.7701693, 0.793101, 0.9612682, 4.095296, 0.672493, 0.78121334, 3.0634727, -0.7210779, 0.8515443, 0.33339363, 0.8767599, 1.1531401, 0.17370686, -0.41110867, -0.052284352, 1.05168, -1.995492, 0.49043798, -0.3393908, 0.111252256, -0.3793057, -0.5837243, 2.7598565, -0.15732627, -1.5654634, 2.1264591, 0.21922466, -0.81495154, -1.8418747, -1.0097234, 0.16840547, 0.895797, -1.3351637, 2.2094033, 0.6825381, 0.21742716, 0.86895, 1.2015934, -0.020033391, -0.50413257, -0.5188471, 1.0197102, 1.0405909, 0.3288503, -0.42870933, -0.13075401, 3.2602532, 1.2441591, -0.48876628, -1.2577126, -0.63077605, 1.0043329, -0.40160194, -0.19366592, -2.4237893, 0.74195534, -0.24195342, 0.34389427, -1.7879148, -0.63855, 1.4298768, 2.0852995, 0.58903706, -0.17484392, 1.0327582, 0.6546055, 0.15162462, -0.79588807, 1.2955508, -0.549665, 0.98003525, 1.1148375, -0.6354219, 0.17177968, 0.7398132, -0.0823023, -2.5899086, 0.122864015, -1.8433505, -0.7406342, -0.9463805, -0.3497175, 0.7514655, -1.1837378, 0.8266673, 1.431747, 2.1782246, 0.917699, 1.241329, -2.1322522, -0.46648693, -1.7709812, -0.18890713, -0.77371114, 0.43579927, 1.0274923, -0.7336572, -0.97646004, 0.72690815, -1.4249305, -1.7709721, 1.5714823, -1.2719455, 0.25544178, 0.33550125, -1.4061139, 2.9987602, -2.6431112, -0.70139897, -0.8196731, -1.0557283, -1.1337748, -0.3716138, 1.8357183, 0.0139367655, 2.2177305, -0.0030494477, -0.6988543, 1.5611136, -1.3789127, -1.3709122, -0.10504677, -0.6483435, -1.648636, -2.0760033, 2.1345983, -1.6484077, 0.18546906, -0.03496285, -1.6017817, -0.37673783, -0.024219528, -0.8667336, -0.14568873, 1.8272496, -0.97257847, 1.301903, -0.3777332, 0.81686276, 0.89857316, -1.1441363, -2.3808413, 0.5965928, -1.5203632, 0.20878871, 0.48220983, 0.12879731, 0.19740666, 1.4471308, -1.1471465, -0.3618986, -1.4048234, -1.2703236, 0.043262456, 0.6882762, 0.7052133, -1.86038, -0.7585107, -0.52124184, 0.39859438, 0.27439785, 0.22560124, 0.20053315, -1.4215877, -0.36170292, 0.8869178, -0.22087918, 1.3502241, 0.6851967, -0.6172517, 6.4557085, -0.974018, 0.19527104, -0.05932309, -0.9672171, -1.87144, -0.40563107, 2.1807964, 1.0588, 1.0052342, -0.37785584, -1.0765921, -0.32755056, -0.9102029, 0.92160136, 1.583323, 0.47745088, -0.097582325, 1.1276976, -1.1132008, -0.49739453, -0.6666368, 0.24374945, -2.6887424, -1.6659755, 0.6555899, -0.85991776, 1.6922454, 0.8228168, 0.51019716, 1.0891752, 0.84767115, -0.81501794, -1.5395651, 0.6768914, 1.4967104, -0.26864514, -0.01731291, -2.4608648, 2.0585535, 0.2985869, -0.47370738, -0.779911, 0.011410089, -0.4691462, 0.38065642, -1.4123409, 0.64677227, -1.1385967, -1.0123231, 1.1189474, -0.25730672, 1.3472283, -0.25936812, 0.12856759, -1.2655939, -1.0260469, -0.30521145, -0.38577542, -1.6644022, -1.945354, 1.2140838, -3.6729915, -1.5877519, 0.90456533, 0.37315452, 1.8984064, 0.55410457, -2.1184196, -1.3526195, 1.1012, -0.1252354, 1.0713266, 1.9810965, 1.2565924, 0.841317, -1.3868147, -0.04831358, 0.0075145382, 2.4484432, -2.6110868, -0.06558953, -1.3941591, -1.1543902, -0.028991455, -0.42756706, 0.473116, 0.6518124, -2.4207675, -0.37350112, 0.10565789, -0.82262164, 0.41632298, -1.9588002, 0.35710576, -0.40575653, -0.74497324, -2.0052173, -0.7205608, 0.18937531, -0.07605653, -0.9416637, -0.9600128, 0.36886317, -3.2587514, -1.6680517, 1.1577135, -0.021614065, 1.7954789, -0.5089032, -0.9392284, -0.476639, -0.021861771, -0.46459216, -2.0062406, -0.55078906, -0.96944255, -0.08966024, 1.0241923, -0.29188973, -0.4920669, -0.7223158, -0.90845084, -2.0558805, 0.701144, 0.30669832, -0.4509973, -0.83246374, -1.0101599, 5.1900005, -0.32087016, -0.8761124, 2.0899022, 0.68378794, -0.6853703, 1.0436704, -0.25838572, -1.5194716, -0.23666175, 0.79929435, -0.5177642, 0.049162075, -0.068504624, 0.7433836, -0.7408569, -0.812144, -1.3261817, -1.0221276, 0.5589874, -0.27818123, 1.3157747, 0.4374961, -0.16931103, -2.1013174, 0.9503704, 1.0517565, 0.83692443, 0.50434786, 2.558783, -0.32196733, -0.5366503, 0.25886104, -1.5997987, 0.1822736, 0.64733386, -0.2088641, -2.2444518, 0.7279762, 0.48902828, -1.203247, -0.4139641, -2.0748205, 0.4541288, 2.115805, -0.29666522, 0.011396147, -0.013976646, 0.38910308, -1.814632, 1.5663478, -0.024530135, -1.5000986, 1.364298, 0.391385, -1.1734228, -2.1005673, 0.2903153, -0.8071552, -1.1390324, -1.7485968, -2.0668564, 2.1652894, -0.69657826, -1.0651859, -0.17658338, 1.0141737, -0.18970342, 0.18390955, 1.7797858, 0.788542, 1.2728798, -0.879842, -0.5062828, -0.17255117, -1.4685788, -1.5077373, -1.9825463, -0.103701405, -0.76307595, 0.33385792, 1.680668, -0.10937978, 1.2054665, -0.31549355, 1.9365973, 0.099395305, 0.24894692, -1.0255955, -2.3036008, -1.2670853, -0.52769, 0.0686502, 2.1477215, 0.41120672, -0.8274415, 1.9393117, -0.87240946, 0.42991963, -1.7617459, -2.01269, -0.9781032, 1.8177953, -1.1715677, -0.30218577, 0.73517066, 0.83238465, -1.0052595, -1.9392546, -1.4566163, -2.43332, 0.76124203, -0.13102148, -1.0260961, -1.1907176, 1.0445614, 0.92094123, 0.097372554, 3.4298458, 0.023867745, 0.4974996, -1.2290817, 1.4006617, -0.64126176, 0.21255992, -1.3106292, -2.3357766, 0.61757785, -1.7831066, 0.9241588, -0.4093794, -0.034534063, -0.6109676, -0.10384763, 1.888703, -1.4502913, -0.36541206, 1.5165303, 0.15835227, 2.6751406, -0.599647, -0.21786033, -0.4822935, -1.1129485, 0.781001, -0.079747744, 1.0667648, -1.8635691, -0.5303072, -1.04912, -1.1027083, 0.76134753, 0.589882, -0.8772514, 0.4023452, 0.63857913, 0.3001315, 0.060747895, -1.4423153, -0.108423725, 1.4648697, -0.5401059, -0.920606, -1.7833121, -0.43201438, -0.9047404, -0.15423535, -0.09793249, -1.3200129, 1.9516258, 0.4485279, -0.054078285, 0.38335103, 1.1065705, 0.8486341, -0.5251654, 1.0231996, -0.94490397, -3.0326443, -0.70825684, 1.0085362, -0.9796342, -1.6891289, -1.4456873, -2.5525813, -0.5744237, 0.6112659, -0.9391679, 1.6161941, -1.3222786, -0.03196394, 0.2428742, -1.9274154, 0.85585004, -2.2447865, 0.580141, -2.0726416, 0.17744127, 2.0603886, 0.0047972174, 1.5288508, 0.70579076, 1.8366015, 2.4534051, 0.17725128, -0.6112892, -0.97012407, -0.8207288, 0.88963026, 0.9537164, -0.4812754, -0.7099765, -1.1815149, 0.19618271, -0.9552182, -2.199377, 0.26696387, 0.19935071, -1.7610404, 2.507854, -0.85955656, -1.4450804, -1.7987244, -1.7135974, 2.0103776, 0.17521581, 0.15558924, 1.1229017, 1.0653363, -0.46091738, 0.872401, -0.06721908, -1.1474129, -0.34739524, -0.33154556, -1.9058479, -1.5379083, 0.12035663, 0.16168658, 0.9881446, -0.80588454, -1.4282104, -0.9336277, -0.1632286, -0.6597036, 1.231854, -2.3279746, 1.7365187, 0.49918166, -0.034358215, 1.1545008, -1.3353124, -0.26981986, 3.0635765, 0.07984987, 1.5223644, 0.31958023, 0.9418641, -0.6756392, -0.6090753, 0.50036705, -0.9101666, -0.956266, -0.10385735, 1.4304839, -0.19309157, 1.4392288, 0.2775837, 1.8653926, 2.2946923, -0.2552453, -0.025637034, -0.541941, 0.21804838, 1.0953257, 0.1185541, 0.17459694, -0.27201027, 1.1356747, -1.5048919, -1.0991412, 0.7788246, 1.774536, -0.54551846, 0.2000131, 1.9871167, 1.1697143, -0.3631352, -1.1220392, 0.7400684, -0.29478765, -1.2265521, -0.7726477, 1.0838884, -0.3469073, -1.1147195, 0.7160732, 0.8880249, 1.4224962, -2.819288, 1.2979683, 0.55913556, 1.2426624, -0.61562735, 2.4081383, -0.70439726, -0.68744814, 0.617004, 4.5674334, -1.0290005, 2.6942983, -2.367312, 1.3347055, -0.43915483, 0.023927402, -0.93592685, 1.3479156, 0.96121114, -0.22454616, 0.44603747, -1.3625251, 1.4830457, 0.057055306, -1.4459039, 1.4431205, 1.7810179, 0.4296285, -1.6368484, 0.2835896, -1.0891681, -0.20801689, -0.39994255, 0.9058389, -0.11920028, 0.8518264, -1.461372, -1.2124445, 1.7242216, -0.40213737, -0.13479935, -0.054131698, 1.1018089, -0.17652373, -0.2704138, 1.3962795, -1.2466112, -1.3157462, -0.00072950387, -1.2967025, 1.6380196, -1.1912507, 1.1865423, 1.94448, 0.31470472, -1.1206036, -0.23382966, 1.5835097, -2.1677248, 0.8672199, 0.7744426, -1.7410424, 0.28186932, 4.0060697, 1.9812223, -0.43749002, -1.1689155, 2.5758815, -1.3353059, -0.91516066, -0.15083286, 1.959852, -0.81194234, -3.230692, 1.1123384, -0.018549217, 2.1358862, -1.3368622, -1.4070216, 1.1750848, -0.120565265, 0.7971234, 0.17176087, 1.1783478, -0.9894225, 1.7747837, -1.3880714, 0.6686937, 0.31740746, -0.7504351, -1.2446036, 0.6155492, -0.024355702, -1.3287553, 2.305874, -0.044201773, 2.4540148, 1.1251336, 1.2035582, 1.0865834, -0.9633238, -0.12341584, -0.20988247, -1.6770561, -0.72062534, 0.40783513, 0.86005, -0.70566887, -0.43718743, -1.1713886, 0.62662077, 0.14196987, -2.5630732, -0.9629237, 0.69225216, 0.2452793, 2.2183583, 0.21953964, 1.861843, 0.094945416, -1.4805984, 0.23159654, -0.31765485, 1.3569434, 0.35977897, -1.0609969, 0.09502355, 0.84050584, -0.25343645, -1.28469, 0.34133098, -0.035406876, 0.13859536, 0.2602886, -1.0071524, -2.7866037, -0.71722585, 0.9857225, 0.32564145, 0.26649782, 0.9988542, -0.399678, -0.18038717, -0.24317962, 0.16756542, -5.786936, -0.0073178965, 1.333345, -1.456338, 2.1500146, -0.06559439, 0.23162948, 1.0793765, 2.2148464, -0.35355583, 0.72528136, 0.74448043, -0.10795619, 0.44241783, -1.3622298, -2.7154326, 0.32560304, -0.664816, 1.5517915, -0.33440068, -1.1055971, 0.84140974, 0.30973098, -2.152279, 0.43048963, 3.0453913, 0.3965215, -0.3524405, 1.4593709, 0.2455403, 2.440042, -0.041619238, -0.90094376, -1.277585, 1.170429, -0.7662345, -0.897647, 1.1401335, -2.8316343, 0.37305856, -2.2986803, -1.4536574, -1.4336236, 0.32078588, 0.60236007, -1.3532381, 0.18211918, -0.84521806, 1.1378872, 1.3173394, 1.7979515, 0.6199862, 1.387493, -0.5071012, -0.50169307, -0.030545786, 1.8156463, 0.3899626, 0.20630041, -0.32875594, -0.2572438, -0.46490374, -1.1422215, 0.71761847, -1.5813179, -0.49782747, 1.1775528, -0.12948856, 0.36967966, 1.959568, 0.21304795, 1.2706867, 0.4322975, -1.807066, -2.3964715, 1.7294234, 1.944716, -0.3692742, -0.09193888, 0.11409408, -0.8320565, 1.1609473, 0.32547414, 0.28358343, -1.0247345, -0.28824806, 0.943244, -0.75030476, -0.8089303, 0.8511909, -0.421566, -0.4079593, -0.54961437, 0.39863333, 1.4804493, -0.39722815, 0.06280858, 0.3664703, 0.54608846, 0.21771054, 1.8670772, 0.5130526, 0.9482124, 0.6475728, 0.10525411, 0.6638161, -0.22812104, -0.3325513, 0.23204383, -0.11376337, 1.0876552, -0.23781307, -0.6412443, 0.8416815, -0.24427778, -0.69353074, -0.07495798, -0.05960776, -0.3109554, -1.9656634, -2.6601121, -0.76773036, 0.3232921, -1.866674, 1.0564073, 2.7466385, -1.3159381, 1.384514, -0.70927036, -1.1375449, 2.5525982, -1.3445826, -0.72730374, -0.66185683, -1.705829, -1.6483986, 1.5644537, -0.2018307, 0.31202194, -0.48635277, 0.4344925, 0.6572512, -0.4371074, -2.321096, -2.3797855, -0.9023742, 0.2912442, 1.1727141, 0.33697987, 1.7333142, -1.400305, -0.16974103, 0.3874943, -0.17231075, 1.0495272, -0.43465462, -0.1913119, 1.7664508, 0.3772553, 0.23491484, -0.5163629, 0.3862791, 0.874773, -1.0015761, -4.066686, -0.35442215, 0.21115091, -0.48460194, 0.7556635, 0.07286868, -1.2464983, 1.1995896, 3.1532204, -0.1349181, 0.7391956, -0.51250416, 1.2303767, -1.5313895, 0.5768467, 0.08802842, -0.15503286, 1.2596723, -0.7588053, 0.15123166, 1.4495637, 0.6649911, 0.31099075, 0.38185441, -0.28181416, -0.41848946, 1.1639215, -0.8237804, 0.3094638, -0.9002582, 0.34372082, 1.0668465, 0.6719852, -0.42404976, 0.66567326, 1.469627, -1.32816, 1.1155839, 0.17843583, -0.37547046, 0.9784158, 1.3603872, -0.3635588, 1.7399595, 1.7820904, 1.0322064, -0.08394741, -0.07286252, -1.1943748, -1.5050877, -1.2947066, 1.8982015, -0.3277758, -1.1711305, 1.5546317, 0.3967963, 0.6718867, 2.5364764, -1.0369226, 0.09409822, -0.6116887, 0.8236559, 0.66759914, -2.4165888, -1.3564193, -1.2483919, 2.0944264, 0.31625453, 0.9427502, -0.7519337, -1.3106664, -0.10099835, 1.3248354, 0.7809802, 1.502158, 0.099136494, 2.7907252, -0.51815265, 0.78539616, -0.6651383, 0.09014633, -0.72494787, -0.41916966, -0.99604833, 1.1406114, -1.7655861, 0.4681424, -0.07167165, -0.73596466, 0.5901628, 2.09607, 0.28915262, 0.8249413, 1.899475, 0.7262227, -1.458203, 0.63480115, 3.72393, 2.0285654, 2.063994, -3.9813507, 1.924037, 1.3296223, 0.91548, 0.60484886, -0.71488917, 1.3725631, -0.8500192, -1.1825757, 0.43403655, 0.874895, 0.12513553, -0.5849979, 0.5560862, 0.4827392, 1.1894584, 0.7477577, 1.7464712, -0.48182037, 0.5685176, 2.0481758, 0.3606343, -0.2607921, -1.4233813, -0.19931082, -2.3869185, 0.45502043, -0.38265622, -2.0472834, 0.7544811, -0.43117794, -0.4846804, -0.7892076, 0.50930524, 0.4381089, 0.603587, -1.4618881, 0.27107716, -0.49535966, -0.52774125, 0.026912106, 0.9816262, 0.13182458, -0.03570516, -1.3862103, 0.49067318, -0.8058359, -0.9213887, 0.568449, 2.6166558, -0.43557265, -0.6186283, -0.03821952, -0.24656874, -1.1557572, 3.204051, 1.9693557, 1.6225748, -1.6091233, 0.5820715, 1.4221097, 1.1489054, 1.5060138, -0.2305015, 0.025557965, -1.9018561, 1.1881549, -0.09417887, 0.7063517, -0.55773973, -0.49105337, -0.17462863, -0.74511445, 0.006051964, -0.97975934, 3.1463728, -1.7937936, 1.7502671, 2.279726, 0.4784955, -0.6059246, 0.64016783, 0.24696429, 1.3233238, 1.1564796, -0.101898395, 2.1625686, 0.47456658, -0.31984693, -2.2935576, -0.25064066, -0.09040531, -0.38365677, 1.1472794, -0.04098839, 0.07274807, 0.11057398, 1.6837502, -1.3992753, 0.9292718, 0.71797186, 2.4609246, 0.44925895, 0.14373496, 1.1489342, -0.711263, 0.5421115, 0.3274344, -0.78046536, 0.4885121, 1.9097918, -0.9954917, 0.04562844, -1.1047772, -0.3792603, 1.9991168, -1.7096872, -0.5665891, -0.4814414, 0.6576746, 0.19923367, 1.5378836, -0.6391628, 0.91437894, -1.03329, 0.42097756, -2.465478, 0.8007488, -1.4220884, -0.07747428, -1.1805032, -0.915873, 0.13425724, -0.7512061, -0.16675226, 0.10825254, -1.7353503, -1.9795376, -1.2405405, -0.8195208, 0.43664178, 1.1763843, 0.58274, 0.743313, 0.8944991, 0.630969, 0.126044, -1.2095311, -2.1571681, -0.21007311, 1.3015282, 2.9213822, -1.8209246, -0.8199267, -0.8985004, -0.42815945, -1.9040362, 2.5809639, -0.89527047, -0.5851555, 0.46968487, 1.6454313, 2.010444, -0.27023837, 1.201456, -2.5709221, -0.28742144, -0.64864475, 2.8158538, 1.496143, 1.2154078, -0.4418926, -1.6722381, 0.30566067, 0.8016891, -0.3860484, 1.7671754, 0.43826842, -1.2797846, 0.3630504, 0.16089581, 0.76482123, 2.2786562, 0.4660617, 0.57844794, 1.7177618, 0.33174333, 0.35804448, 1.5121614, 0.910308, -1.863328, -0.76964796, 1.8051622, -0.83643, 1.5110781, -0.4842377, 1.2954458, 0.47340587, -0.7810443, 0.7891771, -0.25076905, 0.83343774, -0.24747819, -0.92854625, 0.78878623, -0.51651275, 0.74293786, -1.0770856, -1.3764085, -0.46888682, 1.0460048, 0.81603646, -0.077534266, 1.7210585, -0.35611978, -0.6300619, 1.1115901, -1.0952998, 0.33127436, -0.33641088, -0.20510407, 0.9350547, 0.14647806, 1.5353949, -0.5244958, -0.76654774, -0.5470669, 1.7679802, 1.4350177, -2.8926377, 0.020967238, 0.84737676, -1.1824352, -2.3943238, 0.18901162, -0.8476441, -1.8606926, 1.085896, 1.8184268, -1.0113193, 0.03181788, 1.0905843, -0.56284595, -0.8966102, -0.2175267, 2.4014256, 1.103181, -0.9296927, -0.29962572, -0.31508473, 0.49341112, 1.3377817, 2.1303873, 2.5713928, -0.107941605, 0.76330614, 0.4680915, -2.839906, -0.16792336, 2.4943016, -2.6960907, 1.5692289, 1.5367825, -0.52180016, -2.0166178, -0.42670107, -0.6575346, 0.3868815, 1.40345, -0.2036898, -1.610301, -0.55762106, -0.04966138, -0.5757789, -0.5493056, -1.6022602, -0.032803357, 0.33181953, 3.085507, 1.0588311, 0.6693701, 0.62387043, 0.39435682, 1.6164807, 0.47890338, -1.0977004, 1.0800683, 1.7800621, 0.47723883, 0.2500441, -1.2095784, -2.1829433, 0.6551117, -0.16492948, 1.160378, 0.21638478, 0.4640293, -1.8506858, -0.8452907, -0.32652432, -3.274908, -0.71610403, 1.4731153, 0.32776383, -0.3612438, 1.4994475, 0.96540207, -0.436123, -1.6152266, 1.0415143, 1.6692306, 0.65281194, 1.0903275, -1.010938, -0.24161848, -0.96775526, 1.3869762, 0.09474148, 0.8537763, -0.8648933, -1.6666757, 1.6778965, 1.5173408, -0.53838015, 2.1690528, 1.3005075, 1.2098514, 0.2517949, -0.45255437, 3.4992607, 1.4131027, -1.219855, 0.37224603, 0.891627, -0.10861664, 1.9086415, 2.460909, -1.0658797, -1.8079997, 1.3356962, -0.8479727, 0.297314, -1.3792927, -0.6089957, 0.30833584, -0.22695011, -0.3468447, -1.3415946, -1.3225003, 1.733877, -1.629676, -0.99789965, -0.6984722, 0.07599031, -0.23443206, 1.3551977, 0.28140497, -0.23587535, -2.0593848, 1.1282455, 0.03152235, -0.8334403, 0.2284832, 1.2735627, 1.3171902, 1.9297082, -0.62241656, 1.0722939, -0.5357956, -0.9777647, 1.458642, -1.743427, 1.0194242, -0.34642485, -0.02282115, -0.87392485, 1.4587587, -0.636425, 2.4074833, -1.7626369, -0.06452772, -0.4100966, 0.43423346, 0.86738205, 0.9979963, -1.4958175, -1.7472532, -0.8128534, 1.0587909, 0.6136275, -2.383561, 0.7361417, -1.6746205, -0.65308297, -0.22225401, -0.4498539, 0.41673183, 1.3205225, 1.0925828, 1.1428539, 0.8041324, -0.41401613, 0.08798595, 1.8841742, 1.1493142, 0.9918231, 1.631928, -0.54572076, 1.0925114, -0.70706433, 1.2353894, 1.3049663, -1.0589958, -0.14246611, -0.24610671, -0.26154923, -1.4878352, 1.3868173, 1.4318105, 1.9782096, -1.0686103, 0.041370973, -1.0366296, -0.7969584, 0.9671003, 2.7820618, -0.18893404, 0.88488495, 3.3709433, 0.41091883, -0.5330721, -0.8167146, -2.0285778, -0.25408262, 0.56178474, 3.0658123, -0.7884461, 0.66022825, 0.6441723, 1.8865638, 3.6188838, -0.0824696, -0.83269334, 1.1506351, 0.89692664, -0.2825521, -0.33928868, -1.1360009, 1.2577788, 1.2221861, 1.3337146, 2.120667, -0.34063938, 0.6668774, 1.0588635, 0.075886555, -0.074220374, -0.13406433, 1.2573372, -0.64329404, -1.4074898, -1.7477428, 0.10166495, 0.4677527, 1.1226215, 0.19331844, -1.4372004, 0.4562737, 0.60668826, -1.5801598, 1.891079, -0.6234288, -1.2567594, -0.848721, 1.0642171, 0.8106636, 0.16186912, 0.19307211, -0.12008217, -1.4995046, -1.4662315, -2.63606, -0.7579665, -0.49565086, -0.03722966, 1.7164189, -0.102580525, -0.085830994, 3.5584588, 0.03473411, -0.0027198335, 0.62930506, 0.7417712, 0.904909, 1.4019923, 0.6728678, -0.7587173, -2.0493274, 1.4300299, 0.675228, 1.5694851, -0.54082435, -0.16396263, 0.08493994, -0.4316056, -0.043135077, -1.5426873, 1.3069772, 0.65540504, 1.3793951, -1.4028865, 0.4485771, 0.11576286, -1.4080644, -0.28284308, 0.8795038, -0.13057454, -2.3612595, 0.462684, -0.62853146, 1.5956649, 0.009304254, 0.023743892, -0.9386024, -0.19608188, -0.6781497, 0.9044412, 3.0772977, 0.2148525, -0.08485038, 0.29511058, 1.2150785, 0.40748334, 0.8385809, 1.0998467, 1.3561431, -0.0063619222, -0.0069993464, -0.858166, 2.1861486, 0.040948186, 0.47985402, 0.36077046, -1.9736886, 1.2629294, -2.59057, 0.9090072, -0.8543061, 1.1438828, -1.2354618, 1.3135239, 1.2055385, 2.3282392, -0.05285758, -1.3660138, 1.5628942, -0.889618, 1.0788902, -0.13855483, -1.1848514, -0.86855835, -1.7178551, 0.8971795, 2.0975473, -0.1548513, 1.0796976, -1.1779029, 0.5875152, -0.09254453, -1.762004, 2.1284628, 0.6139193, -2.220869, 0.011066574, 2.335232, 1.7183843, 0.73040193, -1.0910952, -0.8161331, 0.6553733, 1.8037174, -0.10427734, -2.1459396, -0.88309, -0.18334086, -0.64082086, -0.2942575, -1.4552548, -1.6920418, -0.4287077, -3.0626323, -0.82476085, -0.5998253, 0.75008947, 1.5677239, -0.014586187, -0.842705, -1.6960025, 0.9677903, -1.7270463, 0.925114, -0.31053585, -0.0998138, 0.4335957, 0.41633207, 2.6066346, -1.149833, 0.20796429, -1.2987088, -2.90826, 1.2904845, -0.19825126, 0.76662946, 0.5727604, -0.6385856, -0.47972172, -0.9181701, 0.91237134, -0.2643281, 0.9580856, 1.1237433, 0.26181862, 1.2223074, -1.9410613, 1.1878567, 0.13754812, -0.47554573, 1.4755522, 0.64843553, -2.2480314, -1.1642493, -0.1791411, -2.255117, 2.4836032, -0.15615533, -2.3752515, 0.007322111, -0.21378753, -0.13050467, 0.90857273, -0.75633365, 0.93171585, -1.1610748, -0.39704853, -0.113430716, -0.6410157, -0.37186736, 1.4715471, -3.0790925, -0.2980795, 1.2841719, -2.098201, 1.1985878, 0.11432006, 1.5168129, -0.6472787, 2.1439943, -2.1349187, 0.97209835, -2.1692824, -2.2110996, -1.5676746, 1.4339834, 3.0586715, 0.2583546, 0.49915248, -0.40671557, 1.3205446, 1.5041397, -1.4562415, -0.7386463, 0.20556316, 2.0603485, 0.9923963, 1.8005089, -2.8796897, -1.1723737, -0.3622807, 0.8900588, 0.6560169, 2.5616155, -0.17076105, 0.08659697, 1.2799103, -1.423452, 0.1415458, 1.2217127, -1.3964016, 2.200028, -0.32627112, 1.3289343, 1.8700484, -1.504307, -2.0563838, 1.5924337, -1.0310892, 1.1597102, -1.668114, 1.1157519, 0.117829464, -0.71627814, -2.0335767, -0.27489004, 0.84241486, -1.1625451, -1.2426155, -1.405014, 0.6774134, -0.9258565, 2.4276812, 0.9165694, -0.20746896, 3.843846, 1.4175389, -0.79088527, 0.9132857, -0.11236589, -0.5206401, 0.9957786, -1.6972585, -0.38304725, 0.15716885, -0.396783, -0.19770786, -2.6029787, -1.4004321, -0.635132, -0.5395621, -0.2650641, -0.50646144, 0.18502164, 0.23759973, -2.650445, 1.0646139, 0.45966363, -1.0699247, 1.8037809, -0.8495873, -1.7296569, 0.33651268, 0.2788261, 0.6754107, -0.09261862, -1.9033346, -0.90739644, 0.19302543, 2.1370585, 0.75310314, -0.27818802, -0.88501513, 0.79428184, -0.40124008, 0.6968188, 1.0237246, 0.9965334, -0.18271706, 1.9097477, 0.73831564, 0.90306807, 1.1895841, 2.4879947, 1.153009, 0.5392895, -0.7082912, -0.288843, -0.4327513, 0.15911743, 0.9731867, -1.5417328, 1.4668682, -0.27670375, 0.89815414, -1.1588794, 0.70844096, -0.08232629, -1.1712818, -5.409793, 0.9922971, -1.7454194, 0.2219637, 0.093487866, 0.2876748, 2.0724149, -0.48906392, -2.0481615, 0.25585938, -0.22350572, -2.386047, 0.3371955, 1.6517705, -0.20943813, 0.70863163, 0.8669969, -1.823298, -1.111015, 0.87782466, -0.5720356, 0.33517948, 0.44284678, 0.7139476, 0.97076017, -1.561799, -1.2195177, -0.93235004, -0.24096583, -0.25370783, -0.56506884, 0.45023033, 0.9713373, -2.3941681, 0.80600387, 0.3180386, 0.44607928, 0.9117834, 1.3277022, 0.1373685, 0.23893683, 1.6240532, -0.20594122, -1.3130797, -0.80832726, -0.7251709, -0.12212219, -0.090861164, 0.56729615, 1.1040323, -1.3148448, 2.2889562, -0.6981845, -2.5770018, 1.577627, 0.56455404, -0.21984361, 1.742478, -1.1361909, 0.37218994, 1.3792026, 1.0750653, 1.0423994, 2.173186, 0.1361585, -0.6979167, -1.2572341, -0.25714007, 0.30796733, -0.6510125, 1.2634125, -0.040907983, 0.5154313, 0.85558677, 0.9166044, 1.3522933, -0.8233096, -1.6180019, -0.471135, 0.61297226, -1.4596108, -0.7349106, -0.06420023, 0.040368516, -1.4319038, -0.56370157, -0.6832449, -2.997292, 0.52252316, 0.9050575, 0.36920094, 0.24653924, 0.7510466, 0.7189173, -0.7258226, -0.9195782, 1.3606336, -0.34174824, 0.95264906, 1.5238084, 1.5062536, -0.8952348, -1.9894744, 0.7790537, 0.18105638, 0.113582775, -0.0015452512, -2.5307806, 2.7024689, -1.3415284, -0.72918355, 1.5710206, -0.75115716, -0.8198197, -0.2824438, 1.2649765, -0.41257754, -4.1221986, 1.2926134, 0.306402, -1.7291278, 0.37187707, 0.51496553, -0.05283294, 1.4271235, 1.1518785, -2.1294975, -3.2331455, 1.400698, 0.021320967, 1.6519105, 1.2477317, 0.2917555, 0.45152074, -2.5185053, -0.63614553, 0.71310526, 0.072822645, -1.7102605, -0.41431603, -0.83515096, 0.6470213, -1.8264027, -0.26265705, -1.9272273, -1.6393579, 0.26198104, 1.081672, -1.0605748, 0.10140785, 1.0838901, -1.7372178, 1.0303364, -0.22308941, 1.2853975, -0.8204837, -0.69297874, 0.0024083355, 1.8268968, 1.875109, -0.770845, -1.6675823, 0.7049413, -0.8402573, 1.2342998, -1.0794128, 0.43943432, -0.18034697, 0.29439858, -1.2024148, 1.3896029, -1.1419854, 0.94295216, 1.0581398, 1.9007965, 1.1845158, -1.0599698, 1.5163785, 0.97576684, -0.269445, -1.240884, -0.030467324, -1.6734935, 0.87050754, -0.3831873, -0.8086748, -1.0594159, -1.6483104, 1.8631555, -1.0552163, 0.87148607, -2.3386714, 0.43115163, 0.55993086, -0.39725927, -0.37400916, -0.9745199, -1.2528701, -0.5409145, -0.15308557, -2.0803556, 0.84717476, -1.037859, 0.11686036, 0.019252418, 0.2704637, -0.3797489, -2.1234903, -0.120159335, 0.76342934, -0.4048124, 0.43297318, -0.19075294, -0.34011805, 0.506181, -2.1245499, 1.2494472, -0.28751823, 1.2385134, 0.78442997, 0.6146099, 1.0239275, -0.013228336, -1.2794071, -0.59098375, -0.64199775, -0.6271885, -0.69962466, -1.5077269, 0.3545862, -2.8102772, 0.0068750065, 1.2834599, -0.2885444, 4.3238115, 0.0019754965, 1.0218213, -0.21069369, 0.18661925, 0.5025552, -0.66667575, -0.67999226, 1.3565971, 0.39683777, -0.6946122, -1.449224, -7.5719624, -0.45337918, 0.22611767, 0.5222217, 0.7754204, 1.0687498, -0.9467041, 0.70758986, -3.0833852, 0.9550259, -1.9430741, -0.83203447, 1.7792528, 1.0885864, 0.6354251, 1.8265727, -0.65817654, -0.96149, -1.0730554, -0.97195363, -1.1966178, 4.212595, 0.80274993, 1.3854011, 1.4720441, -0.6909734, 0.9850523, -1.217741, -0.46698558, 0.7652665, 0.33976725, -0.19286396, 0.9542743, -0.8846395, -1.1785839, -0.9466665, -0.46274504, 1.8612024, -0.6148129, -0.81543064, -0.3462407, -1.4878118, -2.5238967, 0.23897874, -2.0690467, 0.9605562, 0.97149587, 1.1624154, 0.13256869, 0.9279639, -0.46682218, 0.35998195, -0.36215815, -0.3688741, 0.84564996, 0.4828492, -0.4274507, 1.5509375, -0.41386408, -1.8813535, -0.35293624, -0.8187627, -0.44215715, 2.9931629, 0.33489025, 0.7749886, 0.18691097, 1.9181348, -0.7918904, -2.5222042, -0.48182514, -0.7430863, 1.1562668, -0.47464216, -0.44269538, -1.3978539, -0.5656955, -0.63165826, 0.979689, -0.5427985, 0.24470606, 0.80904573, -0.18341348, 0.4610153, -0.44870245, -0.8342878, 0.1889577, -0.12607205, 2.1537392, -0.23396842, 0.17368805, 1.2514032, 1.8792019, 1.1595927, 0.9480775, -0.46492025, 0.08194865, 2.0404177, 0.33968812, -3.4847796, -0.20733035, 0.12883589, -0.3034347, -0.054801628, -1.7363476, -3.4779658, 0.67205137, 0.73781174, 0.07436595, 3.1236641, -0.8825596, -0.9526283, 1.6416276, -0.8480479, -1.6759032, -0.19698209, -0.54186994, 3.7480416, -0.67223555, 1.4419055, 0.7384851, 1.7697322, -3.0003552, 2.9535763, -0.8325552, -0.7289151, 0.0796093, -0.83611387, 0.0051639145, -2.0694098, -1.9143971, -0.56336373, -0.27567658, -1.5004357, -1.04748, -0.6735415, -0.23201789, -0.43091178, -0.6815654, -1.3171779, -0.9619387, -0.22987218, 1.5370935, -0.97424495, 1.3924147, 3.6597543, 0.31048334, -0.2347258, 0.038993116, -0.6645819, -0.26103982, 0.6047334, 0.3986677, 0.88576555, -0.048343733, 0.1923961, 0.1541166, -1.1028516, -0.65112984, -1.1571436, -0.118655585, 1.7704313, 0.94190425, -1.0775589, -0.9456328, 0.095626935, -1.1379106, -1.9775507, 0.3221878, -0.9145947, 0.05507657, -2.8559291, 0.8806713, -2.2713053, 0.6511415, -0.8848233, 2.5728414, -0.075531855, 0.55994606, -0.52472854, -0.2667209, -0.03604965, -0.5312317, 0.028623786, -1.0035852, -1.6456258, -0.76818377, 1.2686701, 0.054730944, 1.7801023, 0.5903504, 1.3334656, 0.44116923, -0.3556996, -2.266389, -0.56873417, -1.1663489, 0.36569673, 1.1700879, -0.7788522, -1.972122, -1.9999455, -0.65590113, -0.13815588, -0.011710969, -0.37242955, 0.429183, 0.1872056, 2.0953808, -1.547172, 0.24738935, 2.3717499, -0.38455942, -0.8632346, -0.23210607, -0.9110031, 0.6549395, -1.0539762, 0.10088196, 0.39479905, 1.2368021, -0.4032211, -0.63992274, -0.9311497, -0.0965928, -1.4306356, 1.8171234, 0.99154943, 0.2793896, 0.78273886, 1.2315179, 0.4546349, 2.3782136, -0.6527717, 4.5064898, -1.20921, -0.21886283, 1.0718526, -0.05781302, -0.27192986, 0.914163, 1.4374546, 2.2396314, -0.061394952, 1.3226923, 0.5904695, 0.99670136, 1.599481, 2.367413, -0.68473047, 0.1649674, 1.1295282, 0.9706772, -0.012391028, 0.928838, -0.92318743, 2.1979842, 1.2741612, 0.0902714, 1.0505381, 0.1618519, -1.0364233, 1.2371565, -1.040895, -1.895277, 1.5499454, 0.7025103, 1.3706427, -2.2240076, -1.8836892, -2.0551128, -0.504949, -0.6637454, 0.10234129, -3.0387123, -1.6055362, 0.4912599, 2.3944302, -1.6348565, -0.55691427, 0.052035835, -1.3260674, -1.2072984, -0.3744618, 1.8157357, -1.1148933, -0.5269638, 2.3019187, 0.31316465, -1.7646679, -0.36082816, -0.8927247, 0.3143928, -0.4804245, 0.4414004, -1.165976, 0.21012823, -0.06930384, -1.7606475, 1.1824402, 0.6981527, 0.34929243, -0.13394542, -1.2331002, -0.28675207, 0.87515885, 0.37050173, 0.8202094, -0.47884762, -2.4274282, 1.3729781, 1.0208528, 0.3964469, -1.2265106, 1.3702416, -0.65028435, 0.51753986, -0.58401483, 0.372895, -1.6758571, -0.36880344, -0.18636861, 2.207227, -0.15290304, -0.5259071, -0.4878986, -2.7605178, -0.069429316, 1.0763314, 0.626756, 1.3527803, -1.9008303, 0.42085433, 0.36441344, 0.7685631, 1.1359004, -0.79260564, -2.198687, 0.5199135, 1.5859011, 0.5941728, -1.9846357, 1.2171029, 0.0984292, 0.2230304, 2.2970176, 1.826679, 0.11113424, 1.5952388, 0.9369038, -0.578197, -1.1065283, 0.122578375, 0.14924547, -0.2925518, 1.4028469, 0.9490917, -0.45760512, -0.7385549, -0.85362715, -0.20324886, 0.2464611, 0.72262126, -0.5808501, -0.36144614, -1.1100948, -0.116566285, 1.2689658, -0.9726065, -1.4322139, 0.9561727, 1.2923223, 0.9075903, -0.09841558, 1.3835945, 0.53807557, -1.5768877, -0.22973134, -0.67093116, 2.0010848, 0.06955446, -1.6444937, -1.9817786, 0.5685332, -0.7739488, -0.16166373, 1.2440822, -0.37295845, -0.009550016, 2.330218, 0.34097075, -0.6024742, -1.642189, 1.8608042, 2.3695867, -1.121785, -0.65296364, 1.4480369, -0.70263994, -1.7606747, 0.10645601, -3.837154, -0.6007581, 1.2543991, -0.570029, 0.33724818, -1.6671914, -0.47963613, 0.41258016, 1.5384802, 0.69754124, -0.6679506, 0.6290327, 0.42570636, 0.41862223, -0.7464491, -1.3015996, -0.18270278, 1.7728072, 2.1414914, -1.5334684, 0.7992392, 0.33308485, -0.07149851, -0.68716234, -2.0033798, 0.84135073, 0.31869933, 0.36681983, 0.2494579, -0.5206991, -1.1666926, 0.2442806, -0.41579774, 0.09061086, -0.2696888, 1.0454535, 0.7757447, 0.11873275, -0.24457379, -0.8042174, -1.1191484, -0.28346705, 3.945515, 0.6682722, -0.6397554, 0.19701792, 2.4800174, -0.61789304, -0.6920083, -2.4672158, -1.9637752, 1.613411, -1.0546758, -1.8720379, -1.2123888, 0.035296883, -1.0965345, -0.19995992, -0.97381437, -0.35201675, 1.7182455, 0.17273355, 1.0760925, -1.579619, -2.2295246, 0.19982375, 1.3863647, 2.5300386, -0.203825, -0.7595802, 1.5656852, -1.2950684, 2.11546, -0.98976165, -1.1772118, -1.0059165, -0.18787156, 0.422966, 0.63170135, 0.050547607, 1.3837566, 0.8584399, 0.06726026, -0.21057697, -0.22439215, 0.10632957, 1.3344551, -0.15307033, 1.6709957, -1.5250326, -0.28706658, 1.534996, -1.361843, -1.0406331, -0.20775071, 0.3068572, -0.021926617, -0.4037427, -0.7151991, -2.6438646, -1.3405194, 1.4012699, 0.3394936, 0.4214107, 0.38284817, -0.6779445, 0.33442596, -0.8653066, 0.14034551, 0.72915304, 3.4910955, 1.3664534, -0.5076066, -0.8555323, 0.061014406, -3.8351386, 0.4758184, -0.014557007, -0.54783535, 2.0755222, 0.22158891, -1.257771, -0.14376122, 0.5179614, -1.4842064, -0.30768463, 0.87320185, -0.49283093, -1.1682281, -0.35194767, -1.62521, 0.5108391, 0.9095389, 1.1570693, -2.1271996, -0.15688191, 0.08288347, -1.0697334, 1.0802519, -0.12605438, 0.88232744, -1.8776301, -1.2010305, 1.0336629, -1.5954839, -0.58119345, -0.15330507, 1.2990214, 0.98914367, 0.37167996, 0.7024889, -1.6025819, 0.08223746, 1.1896892, -0.07447067, -0.65535647, 1.2385727, -0.5853059, 0.6796888, -1.7293891, -0.9199135, -0.7322507, 3.1119118, 0.35185272, -0.12907225, -0.7416537, -1.4837103, 1.9161783, 1.380849, -0.16943392, 0.9626935, -1.3713713, -0.29957902, 1.1394345, -1.2977154, 0.5129764, -2.318969, 1.3439289, 0.008025191, -1.556306, -1.1392912, -0.97525686, -1.2830138, 1.7212738, 1.9509954, -0.26041344, 2.7085693, -0.563639, -1.2012575, -1.250354, -1.202937, -0.60383743, -1.3116447, -0.7711697, -0.6108291, -1.3283656, -0.625404, 1.2691759, -1.3826036, 0.76238114, 0.728941, 0.6299483, -1.5682278, 0.5439641, -0.027038656, -1.2649175, -0.04575513, -3.9924314, 1.1825773, 0.46318015, -0.25106347, -1.9486767, -0.19033274, -2.5423489, 1.312142, 2.802073, -0.92974716, -0.30016524, -0.4927044, -1.4744005, 1.1317984, 1.2212108, 0.41534537, 1.0725684, 2.4338403, 0.18636197, 0.4987686, -1.53685, -0.5570323, 0.32933256, -1.1157447, -1.0614884, 0.5696044, -1.4164488, -3.7327564, 0.7541799, -0.9381737, 1.7448227, -0.57017565, 1.5047998, -0.26054084, -1.1131876, 0.62428397, 0.106994875, 0.34019974, -1.685718, -0.21394889, -0.6973046, -0.6915431, 1.9900165, 0.6167731, -2.0524802, 0.5906329, -1.4039121, -1.4577367, 0.5657578, -0.071316294, 1.064327, 1.8842236, 0.23457861, 0.03575963, -0.18462656, -1.569664, -1.4570144, -0.57520604, 0.9010086, -1.5374414, -2.8142326, 1.5323563, 0.97934383, 1.2828231, -0.087126754, 0.17646417, -0.84359956, 0.69560313, -0.2485204, -1.5233921, -0.1975798, 0.33785433, 0.1302213, 1.2272317, -1.3732083, -1.8095347, 1.3238206, 0.7811242, 0.8314061, 1.0025698, 0.40312952, -1.6466595, -0.21979271, -0.106988385, 0.21588062, 0.6096454, 0.6009411, 1.1459169, -0.7674977, -0.29789597, 0.25147974, -1.9018523, -0.5926917, 1.4626092, -0.41820478, 1.0340973, -1.984799, -1.158067, -1.5092236, -0.54995126, -0.7106749, 0.9620055, 0.88107467, 0.12637211, -2.0787268, -0.40881008, 1.6586401, 1.8854711, -0.66598, -1.39477</t>
-  </si>
-  <si>
-    <t>[0.7282434, 0.12936221, 0.5335906, 0.16696157, -1.072856, -1.5055192, -0.3574372, -0.5289149, 1.8349593, -0.5331827, -0.31639946, -0.14851916, -1.2536749, -0.73841393, -0.60216475, 0.037530452, 1.1044139, 0.17713466, 0.29849467, -0.8899224, -0.5791526, 2.686806, 0.7880009, -1.0117323, 0.4446243, 4.213928, 1.14449, -1.1496319, -1.0440302, 0.5813235, 0.46483696, 3.361141, 1.482592, 0.865641, 2.3582978, -0.2211812, 0.803497, -0.18948205, 0.65874076, 0.21527758, 0.15583828, -0.17479108, -0.042254403, 0.9944549, -1.6905998, -0.5933983, -1.2863744, 0.25296032, 0.16593482, 0.07753294, 2.6951323, -0.069431216, -0.42027575, 1.4811662, 0.017949015, 0.26515543, -0.88083214, 0.4496934, 1.518826, 0.17788239, -0.5447892, 1.318441, 0.4046984, 0.18054754, -0.23905025, 0.6916168, -1.9503502, 0.14373502, -0.5040628, 0.27696946, 0.79705536, 0.5083599, -0.69100046, -1.0222261, 2.6387331, 0.97879803, -0.4699503, -2.1444173, -1.4706215, 1.1120844, 0.2784862, -0.6554636, -2.3168418, 0.96750885, -0.43656862, 0.37763026, -1.5588149, -1.5096976, 0.94703597, 1.4264073, 0.9900381, -0.014597397, 1.762634, 0.052533194, 1.225848, -0.28405207, 0.9115071, 0.6107232, 1.5685295, 1.3753062, -0.3022665, 0.47841185, 1.2361988, 0.58704674, -1.0593492, 0.90296644, -2.1159446, -0.16796535, -1.061338, 0.41879985, 1.1569624, -1.6890193, 1.1100725, 0.6747137, 0.31636882, 1.3926326, 0.65822864, -1.7983551, -1.3889619, -1.9321374, -0.035833377, -0.35854986, 0.9722088, 0.977226, 1.1179055, -0.72213906, 0.70430654, -1.7784394, -0.7678486, 0.4389257, -1.951866, -0.16643755, -0.92443293, -1.8907552, 4.5277247, -1.8487281, -1.067159, -0.50163245, -0.23906726, -0.9048617, 0.21368429, 0.8073709, 0.048671603, 1.5737356, -0.075642765, -1.6294677, 0.26650968, -1.5057709, -0.83866984, -0.82970554, -0.50698483, -0.7622496, -1.0462115, 2.0608366, -2.9839735, 0.102481216, -0.7175046, -0.1629124, -1.3945763, 1.0423069, -0.81162894, -0.5258908, 1.6718826, -0.6663916, 1.9057634, -0.14881754, 1.1322919, 0.7443114, -1.2898383, -2.880349, 0.110937454, -1.2243984, 0.18022172, -0.5917799, 0.6227821, 1.0579259, 1.5331955, -1.5075063, -0.50924164, -0.76505846, 0.22904304, -1.2753379, 0.86620075, -0.1731646, -2.174655, -0.90321994, -0.51368546, -0.6862036, -0.63040173, 0.93756807, -0.05639053, -2.5861535, -0.0685193, -0.3413205, -0.026445448, 0.44279113, 0.48344266, -0.7842103, 6.7262425, -1.0269082, 0.913661, -0.54050523, 0.71880615, -1.7456597, -0.41134804, 1.6342212, 1.1849276, 0.9853601, -0.6215854, -0.7463565, -0.344422, -0.11534836, 0.5591186, 0.6890346, 0.15043657, 0.3975154, 1.1828502, -0.7780515, -1.2171677, -0.023639958, -0.28762403, -1.8737988, -0.42221525, 1.0395865, -1.2140646, 2.2205958, -1.6813072, 0.92730737, -0.38708454, 0.26911435, 0.25597847, -1.1321915, 0.6775438, 0.85663116, 0.8834896, 0.461305, -1.6925784, 1.5568856, -0.48756605, -1.1001478, 0.27745092, -0.11557975, 0.14512332, 1.6303915, 0.43987483, -0.33032313, -1.5314984, -1.621941, 0.87251264, -0.058267094, 1.7074872, -0.19601004, -0.6314393, -0.64989555, -0.814072, -0.18342787, 0.99699205, -1.1728277, -0.43325177, 0.6428282, -2.4631016, -0.9032948, 0.93343765, 0.79280204, 1.2537242, 0.06859841, -1.3109254, -0.60600126, 1.3620223, 0.9484242, 0.92949015, 1.3222247, 2.8400376, 0.028771164, -2.2331083, 0.45701423, 0.65811634, 0.45066828, -1.9685084, -0.43751362, -2.0420568, -0.14121707, -0.42795894, -0.025428055, 1.4065018, -0.6102767, -1.7306287, 0.13938133, -0.69840384, 0.95106894, -0.5010225, -1.9156181, 0.26358894, -1.9866683, -1.4872876, -1.1784319, -0.8947541, -0.45502198, 1.0851413, -1.0119561, -0.62238675, 0.8696612, -2.47186, 0.19430871, 0.19013529, 0.6447796, 2.5801258, -0.26310873, -0.15576002, -0.32053366, -0.06785238, -0.19798273, -1.7543962, -0.89082235, -0.0741609, -0.082507625, 0.37310132, -0.5458644, -0.19245596, -1.0688051, -0.91975516, -2.6549196, 0.32796338, 0.2721462, 0.025074178, -0.70584375, -0.74481374, 3.0253499, 1.3058751, 0.23686235, 1.5417472, 1.8574848, -1.5441631, 0.76726043, -1.449787, -1.3310376, -0.16038083, -0.029357271, -0.12267258, 0.03183398, -0.44326028, 1.687956, -1.6623544, -1.1471946, -1.0808268, -1.0226277, 8.8469074e-05, 0.33791953, 0.024803666, 1.9261249, -0.7919105, -1.0629513, 0.6419231, -0.45993543, 1.5658789, -0.2448807, 2.0801105, 0.9863451, -0.46505472, 1.226617, -0.14141952, 0.629386, -0.20361158, -1.4157017, -2.0274153, 1.3925322, 0.8868191, -0.26428095, 0.24273872, -2.1003444, -0.234113, 2.311098, -1.3089306, -0.35131922, 0.39862123, 0.13812745, -1.7553456, 0.31596732, 1.7525741, -2.5739057, 2.300458, 1.5389009, -0.709784, -0.4313769, 0.47537836, -1.0715239, -0.9554541, -1.2961876, -1.1468875, 0.4380559, -0.32357055, -1.2215291, -0.009690766, 1.3328415, -0.23649655, -1.8965354, 1.2889128, 1.5981326, 0.12992705, -1.0978264, 0.28075323, 0.43366477, -0.32602215, -2.1223145, -1.8787514, 0.24016292, -1.9246924, -0.31294745, 0.8178056, -0.69207996, 1.2348343, 0.070514955, 1.5742519, 0.34982163, 0.24259582, -0.5285007, -1.7297236, -0.47649786, -1.419187, 0.44819456, 1.198055, -0.23754968, 0.36545354, 1.3371284, -1.5421249, 0.046789084, -0.89745075, -0.5434162, -0.7302782, 1.3395375, 0.03574023, -0.554303, -0.23069929, 2.016639, -1.007069, -2.266377, 0.7331288, -1.7415717, 1.2275901, 0.5605333, -1.0106912, -1.0201573, 0.80363053, 1.0318539, 0.3618045, 3.950311, 0.06446674, -0.0036752946, -1.5135357, 1.5163838, -1.4125347, 0.89030856, 0.019124208, -1.2663395, -0.015979728, -1.6264052, 0.5577159, -1.2908757, 0.048703928, -1.0987068, -0.6738451, 2.2758567, -1.5026064, -0.16750003, 0.2243848, -0.7456293, 1.9428694, -0.46469745, -0.32964972, -2.5887039, -1.3485563, 1.083901, -1.8610628, 0.16190861, -1.9224262, 0.7626443, -1.8138474, -0.36316812, 0.33892843, 0.19446184, -1.3015945, -0.4693897, -0.08511746, 1.2697201, 0.24750319, -1.0031049, 0.89462143, 1.4195833, 0.7495866, -0.25765258, -0.11256329, 0.032080248, -1.4553759, 0.055808675, -0.85444456, -1.07796, 1.6074933, 0.3192713, 0.31245407, 0.12061227, 1.6638583, 0.38288397, -1.0544868, 1.7343137, -1.0293853, -2.3936074, -0.5597047, 0.28938916, -1.1888984, 0.019150153, -1.1210614, -2.0930636, 0.6974817, 1.0511198, -2.5616698, 0.8122941, -0.5221853, -0.23699504, 0.4081793, -2.2335958, 0.66385835, -1.3349881, -0.3876953, -0.40724272, 0.67846256, 2.1154726, 0.511028, 1.7408094, 1.0155314, 0.9367379, 3.7208734, -0.23146233, -0.10801904, -0.6769245, -0.63559353, 0.22606911, 1.0733196, -0.9556523, -0.8037824, -0.7290542, -0.3159486, -1.8406944, -2.8760378, -0.9179211, 0.51030153, -0.88784164, 2.3172212, -0.07129542, -1.2263753, -0.35421658, -0.6404957, 1.8251953, -0.20635752, -0.13872972, 1.3474078, 1.3119453, -0.4587428, 0.7026469, 0.18027276, -0.41902697, -0.73277235, -0.5066284, -2.1846693, -2.3032856, -0.5579664, 0.75789076, 1.768262, -0.02108116, -0.24224874, -0.7833154, -0.9305994, -0.86771834, 0.24488156, -1.2217443, 2.5550754, -0.21667778, 0.6346704, 1.364257, -1.2239985, -0.76995146, 3.003675, 0.1552122, 0.41915628, -0.11014911, 1.162778, 0.06024404, -0.19330153, -0.03926836, 0.14102991, -1.2655586, 0.11680428, 0.38211495, 0.023211224, 0.6571415, -0.1876157, 0.94833744, 1.767516, -0.37580302, 0.86095726, 0.6697389, -0.32175183, 0.76404786, -0.012923291, 0.8058614, 1.3856776, 0.7405644, -0.8059771, 0.16772461, 1.1032435, 2.4820101, -0.86797184, -0.38569477, 0.8623587, 0.2959512, 0.049028456, 0.5626888, 0.20484206, -0.40059862, -1.145273, -0.77930665, 0.98388845, -0.87829375, -1.0521747, 1.748792, 1.1685166, 0.14320081, -4.760882, 0.111683704, 0.0781267, 0.9168761, 0.14637549, 1.3541324, -1.0312535, -0.24634555, 0.82949287, 3.668132, -0.30113173, 2.3357537, -0.983133, 1.9579364, -0.5249921, -0.10250876, -0.6388114, 1.4593383, 1.5791322, -0.53515625, -1.1192971, -1.6112345, 1.5885745, 0.7787916, -1.420007, 1.1890991, 2.879905, 0.14541595, -1.470089, -1.0140632, -1.5182314, 1.2606367, 0.64661026, -0.08627436, -0.7316431, 2.0248394, -1.6407033, -1.8981006, 2.284782, -0.7141462, 0.4218733, 0.14181253, 0.41197157, -1.7936382, 0.7565637, 0.43473023, -1.9329677, -1.4084107, 0.75365615, -1.3390012, 2.0331435, -1.89758, 1.1802659, 1.8348861, 0.29320014, -0.11130064, 0.3093168, 1.6199946, -1.3027412, 0.8608637, 1.3719257, -0.93641794, -0.16085975, 5.96008, 1.6688237, -1.2713381, -0.6490942, 0.98520017, -0.811976, -1.1237886, -2.1144857, 0.9779491, -1.517636, -2.636586, 0.25916165, 0.20692746, 1.2850474, -1.1986743, -1.1136632, 0.8248481, -0.09839633, 1.2785908, 0.00558376, 0.6931144, -0.40354702, 1.7501225, 1.8131942, 0.83775455, 0.65735924, -0.787419, 0.22165246, 0.39200222, -1.045599, -1.5852941, 1.9645307, -0.018997032, 1.7751048, 0.26448724, 2.1286376, 0.5468103, -1.1615837, -0.13366486, -0.25510228, -2.1266944, -1.7200686, 0.71084565, 0.23736338, -0.14455847, -1.2190869, -1.3897165, -0.018330112, 1.1745605, -3.1898818, -0.73479265, 0.3083494, 0.6755192, 1.7378559, 0.20747529, 1.4961754, -1.0498149, -1.1955643, 0.99470204, 0.7944115, -0.4723415, -0.17310506, 0.41742772, 0.2986512, 0.6989423, -1.288829, -1.8445632, 0.30705404, -0.6461883, 0.36430204, 0.09164035, -0.8885426, -1.9956923, 1.0785146, -0.47148573, 0.8033435, 0.53885156, 0.95756596, -0.68943954, -0.2843107, -0.55208105, -0.3935681, -3.560506, 0.5086921, 0.26556376, -0.765169, 1.9090079, 0.22837271, -0.23418786, 0.62467843, 2.7928598, 0.38240927, 1.1515203, 0.15281671, 0.37937242, -0.5644123, -0.86274195, -0.9478781, -1.2484331, -0.3293006, -0.21474507, -1.2185254, -0.8605557, 0.47883505, -0.023059806, -2.5984457, 0.37161437, 2.3822818, -0.31403118, -0.48151165, 1.4487015, -0.025405938, 2.1977062, 0.28924283, -1.005383, -1.2316699, 0.7667411, 0.17626357, -1.3969897, 0.4478781, -2.18652, 0.1664214, -1.8099242, -1.1088203, 0.4184417, 0.109150425, -0.08296698, 0.38796923, -1.2799569, -0.96587473, 1.3808022, 0.7485079, 0.55758655, 0.41167724, 0.8155726, -0.73947215, -0.44417602, 1.1776663, 1.4731293, 0.34646276, 0.7947313, 0.54083866, -1.3419499, 0.4258119, -0.18321775, 0.52305216, -1.3776948, -1.0352856, 0.8773002, -1.3735504, 0.8492232, 0.79281396, -0.24403855, 0.98750204, 1.042586, -0.66186947, -1.5996927, 0.4638961, 1.6657026, -0.91733587, -0.32908624, 0.30104324, 0.5644123, 0.5969451, 0.47811753, -0.24575476, -0.7353737, -0.9076975, 0.24950321, -0.14551036, -0.94833064, 0.6619001, -1.2529972, -0.16353849, -0.16196476, -1.181479, 0.57595754, -0.5255097, -1.4771818, 0.93080527, 0.34815645, 0.44765183, 1.3144192, 0.45830044, 0.9023642, -0.0041722953, 0.12736826, 1.2143878, 0.04527405, -0.039236885, 0.63622195, 0.47372383, 0.45470384, -0.57512724, 1.852767, 0.26457188, 0.28937554, -1.7106687, -0.7613649, 1.6901643, -0.958018, -0.583525, -1.798527, -0.13311256, 0.017356953, -0.91627085, 0.3975426, 2.6214426, -0.6912021, 2.0147676, 1.1454631, -1.3599058, 2.6191704, -0.8267299, -0.8460757, 0.5397941, -1.5107456, -1.2334912, 0.8218458, -0.42666084, 0.41331223, 0.54001355, -0.6872312, -0.6884298, -0.71669817, -1.5054485, -2.8375163, 0.3783108, 0.5900054, 1.2883645, 0.19157426, 1.8188187, -0.8659353, -0.68079674, 2.3474326, 0.5703057, 0.7385433, -0.023546385, -0.46520188, 0.48813835, 0.37337524, 0.83445734, 0.22355966, -0.04801149, -0.15781522, -0.25526392, -4.252321, -0.66504246, 0.07764352, -0.95426226, 0.36031413, -0.35442138, -1.7253188, 0.34136134, 2.1952648, -0.33505026, 0.25611457, 0.38412762, 0.23618521, -1.2115517, -0.68562514, -0.9300737, -0.9339646, 0.8674291, -0.6784421, -0.08097302, 0.8395911, 0.22894861, 1.7094982, 0.75626177, -0.22803245, -0.41749153, 0.99753475, -1.6088417, 0.5049951, 0.09636834, 1.3820605, -0.76182425, 0.0006388488, -1.4289474, 1.0846888, 0.20651916, 0.10790505, -0.59964854, -0.37934604, -1.7383629, 1.7466143, 1.0264828, -0.10024227, 1.0941277, 1.3158005, -0.19073592, 0.44536012, -1.1569867, -0.59619683, 0.44111064, 0.2449981, 1.1994909, 0.80874604, -0.9861308, 1.9304156, 0.0631397, 1.4012481, 3.1801434, -1.9584532, -0.10482225, 0.171274, 0.65028346, -0.39288393, -3.3344846, -2.6106238, -0.9268399, 0.89812446, 0.18906863, 1.182806, -0.10649635, -1.8677596, 0.46556002, -0.66598374, 0.048076138, 2.0672195, -1.5029331, 2.9847186, -0.30338597, -0.058522295, -2.0439079, 0.06732305, -0.7534622, 1.1124368, -1.08422, 0.37987942, -2.0932057, 0.18615936, -0.81783193, 0.12689868, 0.16900826, 0.9265435, 0.54505455, 0.33173862, 2.7363706, 0.8968008, -2.258527, 0.862958, 3.1987424, 0.72674286, 1.6771083, -3.5056245, 2.7170281, 1.5236195, -0.3534076, 0.118584394, -0.5821163, 1.1817614, -1.8890772, -0.67323095, 1.5581548, 0.5821929, 1.1909027, -0.113915846, 0.5472493, -0.12392816, 1.6832058, 1.0712823, 1.4907329, 1.022723, 0.24907108, 1.054457, -0.30194497, 0.15399064, 0.22424869, 0.91314036, -2.0908213, 0.15230632, -0.20673011, -2.4380069, 1.2724631, -1.3049189, 0.41475323, -0.18866031, -0.1510065, 0.29014114, -0.7280512, -1.695207, -0.2751184, 0.4280287, -2.1773431, 0.3054897, 0.6004975, 0.18637712, -0.45103747, -0.11082474, -0.06910881, -0.845174, -0.034291975, 1.0236757, 2.636831, -2.1520996, -0.49557826, -1.025045, -0.07314521, -1.1068488, 2.7121387, 2.2166102, 0.23196954, -0.8548044, 0.22768538, 1.0988319, 1.6820234, 0.78824073, -0.30112746, 0.5081238, -2.3093662, 0.016718103, 0.72150916, 1.311964, 1.5453931, -0.5913375, 0.17581527, -0.72417045, -0.09859326, 0.30158088, 2.080165, -0.3862611, 1.3142047, 0.819307, 0.42989337, -0.12923078, 1.0788991, -0.5976086, 1.2158169, 0.77042615, 1.145801, 1.8242549, -0.6248086, -1.5994637, -2.2508924, -1.8611681, 0.29104283, 0.16094397, 1.8746767, 1.1589857, 1.4382486, -0.22314964, 0.37236464, -1.0611253, 0.7582651, 0.3988016, 2.4653983, -0.95160997, -1.1735992, 0.5690569, -0.55835897, 0.04116534, -0.7114156, -0.28084296, -1.6412001, 1.2092565, -0.08081395, -0.12277147, 0.15819632, -0.47410068, 1.1873809, -2.6726372, -0.9032216, -0.20073165, 1.3200905, -0.60490936, 0.9104838, -0.5704452, 1.8581901, -0.36097425, 0.66319484, -1.7088414, 0.59303886, -1.635504, 1.0514057, -0.7428901, -0.35315028, -0.4264584, -0.44066447, 0.05630036, -1.2387644, -1.1023791, -2.799968, -0.9405097, -0.3724344, 0.031590264, 0.95146793, 0.41940296, 1.1363564, 0.93897843, 0.47736713, -0.61211073, -0.6478278, -1.4535419, -0.4834733, 1.9318107, 1.4835311, -1.9999319, -1.5341933, -0.5582705, -0.83370876, -0.8967345, 1.0044268, -0.57736367, -0.5396665, 0.87877184, 0.7262222, 1.8983797, 0.9726358, 0.8801754, -3.3943148, -0.07623993, -0.8347789, 3.3458843, 0.31922704, 0.6084291, -0.7694496, -1.5433431, -0.7180903, 1.1644428, -1.1270994, 2.0785367, 0.21570292, -1.6184874, 1.273999, -0.36543173, 0.31855673, 1.0123985, -0.75259256, 0.7345962, 1.4662524, 0.94118845, -0.9982051, 0.701525, 0.27770784, -2.3647275, -1.2763493, 1.3089, -0.6644504, 0.7698273, -0.29869542, -1.5192032, -0.6692992, -0.952242, 0.15644395, -0.13811415, -0.40492976, -0.99702185, -0.030365309, 1.0434145, -0.09538327, 0.32377982, -0.49656332, -0.9179194, -0.4038239, -0.10058934, 1.6734385, -0.3008663, 0.78148603, -0.73209804, -0.0256135, 2.397194, -1.3372186, -0.72356814, -0.24472249, -0.3342838, 0.9934805, 0.13535088, 0.78013223, -0.9003651, -2.319717, -0.18455926, 1.8426696, 1.422729, -1.4822016, -0.0920274, 0.08142217, 0.27892938, -1.5483925, -1.4981081, -0.6401316, -0.14444448, 1.6357762, 1.755366, -0.13366641, 1.4099078, 2.9856749, 0.27046528, -0.3606476, 0.65314335, 1.4502089, 2.8484015, -0.56267184, -0.7128175, 0.6572606, 0.071035564, 1.4839054, 1.6452764, 1.2167765, 0.8150069, -0.2858606, -0.18457638, -4.4129934, -0.26225126, 1.5205151, -2.4390721, 0.8747516, 0.82286197, 0.06418091, -1.4496666, -0.5013917, -0.6275792, 1.0685908, 0.7649326, -0.19894314, -0.7263009, -0.4966722, 0.6140207, 0.00075879245, -0.48956066, -0.57545733, 1.1051991, 0.84231895, 2.9878628, 0.6218083, 0.09367684, 0.28743264, 1.3175702, 1.2139386, 0.78115475, -0.582739, 2.054764, 0.4915446, 0.30577296, -0.4128869, -1.3597425, -2.3178558, 0.19748339, 0.50721705, 0.9843342, -0.48018676, 0.29090673, -1.5087448, -0.7371788, 0.6142068, -1.3785762, -0.029146733, -0.38878587, 0.39045656, -0.27399212, 3.328819, 0.22782318, 0.7718846, -1.1197429, 1.0829704, 0.8990568, 1.1531247, 0.57793444, 0.24190848, 0.81024146, -1.278647, 1.6819985, -0.12864998, 0.9235083, -0.5828479, -0.57115805, 0.52592826, 0.5826965, -0.015776418, 1.3951573, 1.0974283, 0.8431988, -0.5066386, -2.0654058, 4.463292, 1.14169, -0.8213333, 0.7919956, -0.33402094, 0.29563302, -0.07163954, 2.1256874, -1.7120025, -2.2146506, 0.7028936, -1.6596696, 0.21747996, -0.5995226, -0.5255846, 0.50901365, 0.71699595, -0.4103264, -0.79796726, -1.0964619, 2.0853224, -0.6500844, -1.6217607, -0.61724705, -0.19299869, -0.14614241, 0.32648492, -0.30744874, -0.81715655, -1.6046045, -0.44681987, -0.38914526, -0.1641935, 0.091705, 1.1857921, 0.6161004, 1.5284164, -0.6975548, 0.2988764, -0.53413886, 0.5896872, 0.7415257, -1.1004362, 1.510521, -2.126185, 1.1594076, -0.106799185, 2.349065, -0.84642106, 2.2270048, -1.5958422, -0.039004654, 0.09904836, 0.3552782, 0.17075212, 0.9970839, -1.4756768, -1.067006, -0.6307726, -0.40004015, 1.0100412, -0.2908676, 0.6772529, -1.003008, -0.848028, 0.2898047, -0.1115595, 0.77592003, 0.6202771, 0.79464966, -0.25202116, 0.8829401, -0.6366574, -0.01910762, 1.3247904, 0.47473356, 1.522614, 0.8190416, -0.5629652, 0.52249664, 0.49892816, 1.0653523, 0.69109744, -0.7698545, 0.1402439, 1.1547052, 0.21371152, -0.89529514, 0.68998736, 1.5592062, 1.0619658, -1.6577268, 0.17882939, -1.6021137, -0.77132446, 0.2000592, 2.115454, -1.0181625, -0.35120183, 2.743882, 1.5501058, -0.57731175, 0.057814542, -1.234113, 0.49684063, 0.8328666, 1.5718232, -1.8325961, 0.5078993, 1.3865145, 0.47980863, 4.090184, 0.5529968, 0.212541, -0.20986907, 0.991068, -0.00959379, -1.0239351, -0.4189011, 1.6243297, 1.7612228, 2.2161436, 0.6565358, -0.30337578, 0.3902575, 1.1101967, -1.3793486, -1.2569073, -0.8998062, 1.6194562, -0.90904015, -0.0710781, -1.4595969, 0.2631853, -0.5703533, 1.2178551, -0.4543874, -2.9493527, 0.5916557, -0.37695056, -0.0011126688, 2.3308744, -0.42133057, -0.6575617, -0.73044664, 1.6902051, 0.7263277, -0.23879676, -0.27508864, 0.28006247, -0.86013335, -2.2990706, -1.1295868, -0.689249, -0.36417305, 0.30503798, 1.0847296, 0.32906413, -0.62508166, 3.0263076, -0.24786696, 0.22624606, 1.3785967, 1.0162953, 1.560489, 0.24070905, -0.75475013, -1.2072217, -0.7020502, 1.8479362, 0.03027684, 1.02176, -0.6082555, -0.12553762, 1.4116875, -0.4692842, 0.27008674, -2.3523042, 0.8656988, 0.2165706, 0.17134504, -0.23760071, 1.3654742, -0.5375279, -0.6028776, 0.44419345, -0.23317556, 0.37447345, -2.7464068, 0.5837164, -0.08462918, 1.7170929, -1.2757037, -0.036655545, -1.487439, -1.159343, 0.14026432, 0.897039, 1.7671834, -0.8976379, -0.6776255, -0.44868112, 1.0075505, 1.2719811, 0.009415152, -0.44178218, 0.5249166, -0.904399, -0.388318, 0.37736654, 0.66601497, -0.22786486, 0.9486811, 1.6244965, -0.9437107, 0.62696165, -2.0840542, 0.45670798, -0.014121026, 0.80382323, 0.18436615, 0.85573417, -0.01333161, 1.2979655, 0.7434703, -1.1003443, -0.5692985, -1.2071368, 1.7114342, -0.10103849, -0.92954797, -0.4290138, -1.496571, 0.8088932, 0.2628616, 0.64541596, 0.21162526, -1.351241, 0.2636821, 0.5602032, -2.100722, 0.523446, -0.04915478, -1.3528486, -0.18703553, 3.771389, 2.3433926, 1.35422, -1.4465357, -0.7760273, 0.7229523, 0.41004735, 1.2717429, -1.7937112, -0.6986437, 0.8917683, -0.1237172, -1.1592953, -0.44032592, -2.0224304, -0.0799735, -2.4511106, -0.14852065, 0.7293144, 0.77785754, 1.7874905, 1.4021896, 0.58160675, 0.22851562, -0.076993614, -0.3917751, 1.3117833, 0.19491439, 0.7034721, -0.0030258126, 0.55812883, 2.2460325, -0.45039606, 1.6855878, -0.4155818, -1.2734784, 1.3702286, 0.197685, -0.7087428, 1.2794092, -0.37930095, -0.7837101, -0.8458367, 1.1112303, 0.32308736, 2.2088823, 1.2993402, 0.4823432, 0.9163253, -1.4951069, 0.35000747, 0.18792023, 0.15492296, 1.1421834, 0.43635565, -2.4075873, 0.5286453, 0.4869508, -1.3952802, 3.0567324, 1.270222, -2.6989908, 1.0552268, -0.801945, -0.9483681, -0.25950363, -0.43989888, 0.06880513, -0.99419504, -0.4212013, -0.86555254, 0.23486158, -0.33845627, 0.15414375, -3.0400066, -0.5508459, -0.20555525, -2.0930653, 1.0378511, -1.0457411, 0.5656406, 0.13234846, 0.93950754, -1.5391084, -0.2625439, -1.2082869, -2.0696967, -1.8877089, 1.1570394, 1.5446565, -0.071090855, 0.64526623, 1.0528892, 1.3618172, 0.52966434, -0.91503567, 0.7748105, -0.7108967, 0.8200845, 0.2238693, 0.6670432, -2.6966803, -1.0575763, -0.6036517, 0.5140683, 0.14159475, 3.6101167, 0.45300847, -0.101764955, 0.38851622, -0.51251495, 0.8483674, 1.2388086, -0.17557369, 2.4226577, -1.8368682, 0.3324872, 1.4113812, -0.34670776, -0.5052348, 1.1669108, -1.828125, 2.3064365, -1.4161177, 0.8782232, 0.51047, -1.1443552, -0.69973254, 0.24711625, 0.35955533, -0.84047323, -1.2389396, -1.0997957, -0.72365665, -0.2019026, 1.0008847, 1.3751872, -0.28774908, 2.3359444, 0.9970703, 0.12042784, 0.90480214, -0.7279193, 0.45559874, -0.24184723, -1.6687378, -0.14822653, -1.2276105, 1.196104, -0.69073594, -1.5551639, -1.1211946, 1.6150519, 0.4163512, -0.07102195, -0.42595905, -0.11497577, 1.1406931, -2.430528, 0.4680967, -1.7359123, -0.22019528, 0.7232109, -0.04567471, -1.5977311, -0.048593342, 0.66191286, 0.66811335, -0.17027575, -2.856122, -1.615316, 0.021980738, 2.182978, -0.59021807, -1.6069932, -0.5975244, -0.04386705, 0.75290674, 0.99017996, 0.898294, -0.004948314, -0.0043305187, 2.3334775, 0.1117239, 0.37584385, 1.6811336, 4.3428383, 2.4745176, 0.73293906, -0.87956214, -1.4342564, -0.5286759, -0.48185873, 0.1250687, -1.615782, 0.7493603, -0.64887816, 0.6224608, -1.3571922, 0.6010691, 0.60303074, -0.9874544, -4.6049514, -0.49194592, -0.31703913, 0.4803675, 0.16024727, -0.30914074, 1.5230461, -1.1513808, -1.2955773, 0.46949008, 0.25235933, -1.6220831, 0.90785265, 1.6814743, -0.26852065, -0.05088333, -0.015371502, -1.0323831, -0.10070163, 0.7776857, 0.7389652, -0.37521097, 2.129415, 1.118552, -0.04160854, -1.5662701, 0.7822606, -1.094223, -0.10052129, -0.97339123, 0.15784925, 1.0582126, 0.7328064, -2.4433866, 1.2983791, 0.4855285, -0.29902548, 0.7509744, 0.7115236, -0.1000296, 0.1234688, 2.3398573, 0.8127969, -0.79781926, -2.3610368, -0.20662208, -0.04791621, 0.009013638, 1.2549428, -0.36367595, -0.57601535, 2.1279297, -1.9632581, -3.7536952, -0.2881557, 1.0937296, 0.98331165, 1.9458705, -1.1996202, 0.13592423, 0.5454229, 0.6745852, 1.4644388, 2.2302186, 1.5445817, 0.21279025, -0.030287048, 0.6758476, 0.817393, -0.29478577, 2.0188384, -0.20366602, 0.43331304, -0.4465235, 0.08688429, -0.68499565, -0.5317757, -1.7121812, 0.9708835, -0.5649397, -2.852944, -0.2521003, -0.34322685, -0.6289403, -0.46624565, -2.1135535, -0.0765098, -2.5992963, 0.51582915, 0.10505788, 0.40691265, 0.4446762, 0.62467676, 0.7528242, -0.632559, -0.74530095, 0.60599273, -0.21656549, 0.9797236, 1.1963537, 0.83037585, 0.12631768, -1.9487194, -0.08835339, 1.2725784, -0.56085056, 0.17540015, -2.347042, 2.5891411, -1.4693047, -0.43206006, 1.1179273, -1.4707797, -0.8122142, 0.4441339, 0.7897324, -0.9850181, -2.6994026, 1.3250694, 0.34231323, -1.0055054, -0.4715589, 0.84609103, -0.42142415, 1.283964, 0.61165094, -2.1225672, -3.1789594, 1.8358431, -0.1322349, 1.0625244, 1.3513541, 0.013168282, 1.2588916, -3.6331477, -0.2615214, 1.2670405, 0.06932573, -0.46513298, 0.10695358, -1.0003165, 1.531284, -0.84777194, 0.46022975, -2.1164644, -1.1767465, -1.1180722, 1.1066154, -0.044667527, -0.22048876, 0.5355067, -0.62448364, 2.1573968, 1.1023643, 1.0019327, -0.60103, -1.200949, 0.58904326, 1.3722566, 0.95885336, -0.35024908, -1.7958236, -0.9376565, -1.1069165, 1.1900988, -0.052320953, 0.5473173, 0.54616046, -0.52065754, -0.7824341, 0.77347153, -0.6255683, 0.6687973, -0.784115, 0.901095, 1.386068, -1.6345725, 2.3584857, -0.2216967, -0.29209596, -1.1307826, -0.5756189, -1.326194, 0.5631261, -0.82190496, -0.97853607, -0.3650132, -1.0460856, 1.7439535, -0.74808943, 1.1140435, -0.6813871, 1.3714391, 1.070694, -0.008591709, -0.41213745, -2.277041, -0.8159044, -0.18056539, -1.0192964, -1.1673461, -0.60968804, -1.2576321, -0.16953227, -0.708001, -0.11781019, -0.46842334, -2.5151894, 0.39760044, 0.77122235, -0.22317006, 0.67230886, -0.08538797, 0.890676, -0.94512534, -1.1944618, 1.7904571, -0.41613132, 0.70011705, -0.106663086, -0.14045146, -0.28528556, -0.65554225, -1.604516, -0.53133, -1.008533, -0.15135187, -0.25535747, -1.9713292, 0.54638845, -3.7560499, -0.76929474, 1.3096758, -0.89147395, 3.6531196, -0.11328125, -1.4657726, -0.36739507, -0.83461726, -0.065480724, -1.2070006, -0.5310101, 1.1476378, 0.18082058, -1.9748578, -2.0661068, -7.220329, -1.3283726, 0.16202047, 0.8617296, 1.102927, -0.23071459, -0.96547157, 0.6990131, -1.705275, 0.76141083, -1.9059438, 0.16283755, 2.133214, -0.41733927, -0.059267476, 0.9773085, -0.34983736, -0.96370727, -2.1885004, -0.5567223, -0.70803165, 4.103667, -1.0656645, 1.6146083, 0.68127996, 0.52802086, 1.1199504, -0.7496427, -0.010961659, 0.5952811, 1.0726535, -0.32407245, 1.2090354, -1.0969315, -1.2833886, -1.1177328, -0.3107808, 2.4239216, -0.7415444, -1.2660172, 0.7976559, -1.3425624, -1.9491371, 0.050175577, -1.7337847, 2.0126867, 0.33797655, 1.2590494, -0.45417896, 1.5396477, -0.07894079, -0.13146845, -0.96603, -0.5204993, 1.0141482, -0.16288517, -0.49893495, 1.5470332, -0.7934955, -0.863841, 0.9502455, -0.7137311, -0.53825307, 2.0790982, 0.89414847, 0.00017013284, 0.28503546, 0.56390953, -0.71992564, -4.124272, 0.109395415, 0.29927728, 1.6274976, -0.61603993, -0.21957344, -0.85490733, -2.8719716, -1.3620367, 0.75177026, -0.48436308, 0.8737206, 0.072290085, 1.3277388, -0.11941794, 0.3786937, -0.68320584, 1.0847746, 0.24018823, 1.5063357, -1.8122754, -0.055242132, -0.9799311, 0.50965333, 1.5180545, 1.0681994, -1.6249303, 0.13069604, 1.9624959, -0.28951845, -1.5601045, -0.035794247, 0.043645877, -0.11754223, -1.536269, -2.0215864, -2.589136, -0.16941999, 2.1549144, -0.80268335, 2.287824, -0.32828832, 0.08038776, 1.3269392, -0.20955943, -0.44788575, -0.031346977, -0.58146644, 1.8511065, -0.9123618, 0.98293996, 0.45636997, 0.20972572, -3.3280637, 1.8559077, 0.38249946, 1.1896169, -0.6483933, -1.2155957, -0.41800278, -1.1637001, -0.123479016, 0.8395945, -0.49155632, -1.3423209, -0.74648845, -1.3425217, -0.3532434, -0.93117785, -0.9125798, -2.6089802, 1.1340579, 1.2402463, 0.36754477, -1.5759796, 1.5838653, 2.6561854, -0.037174024, -0.06787237, 0.34506375, -0.8136654, -1.5632937, 1.0959481, 0.6504655, 2.2698357, -0.083320856, -0.9099521, -0.8014235, -1.46368, -1.6443577, -1.5067687, 0.5571867, 0.93876195, 1.3590202, -1.6728698, -1.2629063, 0.8573436, -1.8866371, -1.5263608, -0.040387835, 0.25392666, -0.6780372, -1.9660482, 0.9154999, -2.6356435, -0.8621243, -0.51465523, 1.7602556, -0.08480101, -0.09687619, -0.51182085, 0.52744246, -0.18553667, -1.9520583, -1.062107, -1.2636106, -1.4074512, -0.8929116, 1.7810663, -0.7180218, 1.8170936, 1.0541396, 1.7431232, 0.71013445, 0.9404297, -2.236124, -1.142949, -1.4535571, -0.18871135, 1.4225488, -0.05528233, -1.1558825, -2.6889088, -1.3164301, -0.013467716, -0.47736126, 0.47449708, -0.026088169, -1.1082283, 2.977859, -0.49153078, 0.22781084, 1.0719526, -0.40747496, -0.44563916, -0.52947825, -0.3095261, 0.3419483, -0.30445868, 0.06264121, 0.11461573, 2.7028236, 0.24674366, -0.32301676, 0.72365326, 0.3168792, -0.82685924, 0.8039491, -0.3360583, -1.6351467, 1.5751579, 1.1430477, 0.19362436, 1.3492554, 0.89616114, 2.8305545, -1.2294854, 0.6572776, 1.1164882, -0.7932137, -0.4539846, -0.17350148, 1.9934669, 1.9121842, 1.5807655, 2.0883398, 0.55319375, 0.6722561, 0.044059303, 2.1242805, -0.26018074, 0.8079983, 2.222486, -0.50389266, -0.062527224, 1.8936567, -1.6859568, 1.6893783, 1.8443421, -0.66806316, 1.7838973, 0.46921957, -0.1714905, 0.5059768, 1.175754, -1.3785523, 0.48377612, 1.0051584, 0.06879832, -1.9080734, -0.7531381, -1.0428871, -0.81415707, -0.66802657, 0.19012685, -2.883418, -1.0298549, 0.927144, 2.5492585, 0.031398017, -0.752763, -1.0792003, -0.22944306, -0.927765, 0.1404889, 1.5332558, -0.49939772, 0.09005982, 0.59330934, 0.52295685, -2.550856, -1.0301646, -1.7887018, -0.29163322, -1.9345839, 0.84123456, -0.65376693, -1.9002818, -0.6699185, -0.5954488, 0.66215193, 1.1272832, 0.5301983, -0.4336482, -1.188531, -0.17754382, -0.50583214, -0.7784398, 0.7848789, -0.6073062, -0.2552269, 1.4183016, 0.8534467, -0.8623787, -1.0803852, 0.70737237, -0.5105219, 0.218186, -0.15218468, 1.4058349, -3.220657, -0.5478754, -0.421596, 1.119338, -0.044064406, -0.35467592, 0.2974024, -1.8248993, -0.31759888, 0.6143293, 1.0365633, 0.4881996, -0.17039697, 0.9554439, -0.32815903, 0.6331332, 1.1507105, -0.7427515, -2.4088497, 1.0163702, 0.6176469, 0.5154293, -1.7532343, 0.2762566, 1.3979986, -0.43986356, 1.9750857, 1.0650125, 0.0031729774, 0.68339217, 1.7312514, -0.19977848, -0.85372657, 2.005332, 0.3153055, 0.27266508, -0.95388037, -0.08263182, 0.107381046, -0.38804662, 0.14629382, 1.0496159, -0.1942866, 0.11504149, -0.15645416, -0.8861156, -1.3477651, 0.7187568, -0.4834495, 1.3529099, -1.4573052, -0.06536504, 1.3267571, 0.78747517, 0.5846666, -0.26435113, 0.8741374, -1.6343913, -1.6319278, 0.19741194, 1.9806865, 0.20985375, -1.497955, -2.463139, -0.4812165, -0.31714973, -1.9445639, 2.1827974, -0.49374083, 1.2205262, 0.073766194, 1.3663164, 0.1537048, -0.24836162, 1.6244521, 1.0000885, -1.7996005, -0.40261087, 1.1794803, -0.31140223, -0.818208, -0.015832562, -3.330364, -0.5795269, -0.6878913, -0.6084325, 0.4542513, -0.5696167, 0.2567764, 0.2595351, 1.5027255, 0.46297187, 0.25341627, 0.43534273, 0.65185374, 0.033485547, 0.68375367, -1.24865, -1.0159006, 0.02022369, 1.1593668, 0.10264625, 2.3778243, 0.30788878, 0.56758016, -0.74686277, -0.40415397, 1.0036136, 1.223552, 0.04235287, -0.42322862, -0.2708336, -0.80337745, -0.39974502, -1.0369529, -0.72087497, -0.5222253, 0.82761973, 0.34346417, -0.67871433, -0.69067764, -1.1507037, 0.29077998, -0.3761535, 3.3806596, 0.6464008, -0.114659324, -1.1907462, 1.9509864, -0.9563847, -0.83303845, -1.4290954, -1.2743154, -0.9293438, -1.6558222, -1.6073912, -1.1146628, -0.5578605, -0.59798974, 0.9292843, -0.60849714, -1.1051728, 0.011435479, -0.08535394, 0.59928614, -0.4173903, -2.745027, -0.8569778, 0.72446984, 2.1647108, -0.477944, -1.676244, 0.83456707, -1.1033556, 1.124117, -0.3857422, -0.1354149, -1.890283, -0.1315314, -1.032806, 0.12881055, 0.13904446, 0.5186959, 0.10992623, 0.6147784, -0.4187116, -0.37356406, -1.0318983, 1.1957753, 0.09905984, 1.1802965, -1.2050372, 0.6621978, 1.1466222, -1.0808607, -0.28753132, -1.0299706, -0.45785555, -1.8684329, -0.08551897, -0.049534176, -0.7320272, -1.675264, 1.6362134, 0.4212285, -0.12676087, 0.22516656, -1.653106, 0.7691025, -1.2697287, 0.5503389, -0.342212, 2.765077, 1.8391243, 0.30956352, -0.18816182, 0.16621809, -1.3408306, 1.1008071, 0.29984125, -0.27115133, 0.75513035, 0.7246468, -0.79719484, -0.42693135, -1.9521042, -1.4923253, -1.0074995, 0.65752536, -0.48839015, -1.0066658, 0.7648832, 0.44712782, 0.8436173, 1.141935, 2.1620872, -2.703819, -0.060318045, -0.464119, -0.0011569033, 0.5307175, 1.5250572, 0.36059314, -1.5489081, -1.8328445, 0.82416683, -1.0530423, 0.6543003, -0.68609846, 0.96268475, 0.26454636, 0.7202387, 0.41196987, -0.7717906, 0.4535448, 1.0341219, 0.8971326, -0.9549863, 0.14110647, -0.9461929, 1.262845, -1.8879063, -0.29603794, -0.9301945, 3.0945666, 0.44490758, -2.8785388, -0.23046535, -1.1100079, 1.3186486, 0.7502288, 0.6002916, 1.9215603, -0.29077998, -0.19439888, 1.2214364, -0.9309329, 1.3872461, -1.3623736, 0.8901146, 0.25721875, 0.4412276, -0.41289538, -0.55525064, -1.9294901, 1.1402677, 2.5624166, 0.04173656, 3.4177918, 0.33735982, -0.6369705, -1.1940114, -0.77211046, -2.2513304, -0.4871907, 0.19902734, -1.58238, -1.4982374, -1.9657352, 0.015774718, -1.4741304, 0.49405214, 1.2321565, 0.0068767695, -0.69593686, 0.709995, -1.3036003, -1.0869753, 0.07784768, -1.405207, 1.1860352, 0.23998939, -1.1980176, -1.3594567, -0.27841642, -1.2298495, 0.30124402, 2.870415, -0.18138203, -0.90480727, -0.80453223, -1.1842982, 0.5221704, 1.7195581, 0.2849368, 1.5988412, 1.1476701, 2.175332, 0.98289996, -1.3998309, -1.352699, 0.5922663, -1.4863213, -0.90495443, 0.4710468, -0.6141115, -2.9033782, 0.5461655, -0.11664478, 0.49262816, 0.19064745, 1.7384446, 0.06602175, -0.57063913, -0.30688137, -0.62507147, 0.005604176, -1.3968893, -1.7295774, 0.68945485, -0.54632294, 1.6376647, 0.27423543, -0.36741206, 0.79267615, -0.41943827, -1.1250783, 1.2516656, -0.29185778, 1.2934315, 1.843852, 1.2941111, 1.5723286, 0.3628559, -0.41449592, -1.3680656, -0.3966613, 1.7463256, -1.5232061, -1.3146641, 1.9357634, 0.50183743, 1.9589895, -0.7435349, 0.42792323, -0.25008506, 0.13804919, -0.5898233, -0.043036804, 0.5027596, -0.6670058, -0.24367404, 0.8411351, -1.5388414, -1.4932696, 0.4780601, 1.15314, 1.3966086, 1.3273747, 0.12994917, -0.7362737, 0.41929153, 0.007843124, 0.6635045, 1.8339708, 0.7223534, 0.7612271, -0.569222, 1.0471796, -0.45636603, -1.7919624, 0.1682886, 1.0981088, 0.39967948, 0.96771646, -0.85473716, -1.34</t>
-  </si>
-  <si>
-    <t>[-1.3134766, -1.3144531, -0.11633301, -1.0244141, -1.2587891, -0.71972656, -0.23913574, 1.0429688, 2, -0.26123047, 0.43774414, -0.19677734, -1.4277344, -0.07208252, -0.16491699, 0.42163086, 1.1708984, -1.2226562, 0.54589844, 0.0713501, -0.7607422, 0.1508789, 0.5107422, -0.70996094, 0.7705078, 0.7207031, -0.2800293, 0.1784668, -1.1103516, 1.2675781, 0.5830078, 2.203125, 0.4584961, 0.81933594, 0.25610352, -1.6806641, 0.46166992, 0.15405273, -0.5605469, 0.36694336, -0.010124207, -0.3955078, 0.42407227, -0.30908203, 0.4506836, 1.3720703, 0.058502197, 0.3720703, 0.4284668, 0.4501953, 1.3574219, 0.08502197, -0.16894531, 1.7021484, -0.8754883, -1.3759766, 0.11395264, 2.1347656, 0.12445068, 0.08337402, -0.26708984, 0.99560547, -0.79589844, 0.17822266, 0.2697754, -0.50097656, 0.24353027, -0.29541016, -0.58691406, 1.1191406, 1.6630859, -1.3417969, -1.4003906, -0.17785645, 1.0908203, 0.48217773, 0.26904297, -1.1396484, -1.5019531, 2.5175781, -1.3164062, 0.7885742, -3.03125, 0.20275879, 1.2558594, -1.9267578, -1.8193359, 0.44580078, 0.6171875, -1.6113281, 0.4260254, -1.5683594, 1.4023438, -0.7050781, -0.8701172, 0.7890625, 0.9013672, 0.5859375, -0.56689453, 1.0859375, 0.9848633, 0.09008789, 0.9433594, 2.8378906, -2.4160156, 0.32421875, -1.8378906, -0.67822266, -1.9335938, -0.47680664, 1.0556641, -0.82910156, 1.6865234, -0.061676025, 2.0898438, 3.1523438, 0.20092773, -1.2158203, 0.12634277, -0.99121094, -1.3964844, -0.19165039, 0.57666016, 0.49682617, -0.15319824, -0.42773438, -0.43554688, -2.2128906, 0.75927734, 1.3505859, -0.4477539, -0.13232422, -0.4814453, -0.8251953, 2.7421875, -1.2119141, -0.5395508, -2.1074219, 0.7841797, -0.86279297, -1.6904297, 0.5161133, 0.7084961, 1.3359375, 0.15893555, -1.1962891, 1.1884766, -1.1660156, -0.90722656, 1.75, -0.91796875, -1.6669922, -1.9814453, 0.8720703, 0.22631836, 2.125, 0.5019531, -2.6445312, 0.055908203, 0.13269043, -1.6201172, -0.04864502, -0.49609375, -2.4726562, 0.79833984, -0.16003418, 1.5820312, 1.7880859, -1.3115234, -0.5517578, -0.35766602, -1.2382812, -0.6699219, 0.16503906, 1.2226562, 0.22229004, 0.9819336, -2.53125, 1.3964844, -1.1308594, -0.71777344, -1.6816406, 0.6816406, 0.2199707, -0.27197266, -0.56103516, -0.77978516, -0.80126953, 0.2783203, 0.1517334, 0.22619629, -0.6152344, -0.38476562, 1.0800781, 0.19628906, 0.8334961, 0.27026367, -1.78125, 4.2070312, 0.94970703, 1.5478516, 0.6821289, -0.55859375, -3.1640625, -0.62939453, -0.2668457, 0.3227539, -1.1582031, -0.19262695, 1.453125, -0.7216797, -1.9560547, 2.0371094, 0.71777344, -0.4609375, 1.5380859, -0.72216797, -0.57421875, -0.9433594, -1.1679688, -0.6191406, -3.4726562, -1.2060547, 1.4970703, -3.2421875, 1.5224609, 0.108947754, 0.30566406, 0.43066406, -1.1826172, -0.6479492, -0.6152344, 2.0039062, 2.046875, 0.093811035, 1.8115234, -0.86376953, 1.5175781, 0.39916992, -0.95996094, -0.41308594, -0.32250977, -1.796875, 1.8417969, -0.35327148, 0.61865234, -1.34375, -2.5820312, 1.4980469, -2.3027344, 1.9423828, -2.9179688, -0.31274414, -0.47021484, 1.2841797, -0.07647705, -0.24328613, 0.32470703, -0.44995117, 0.8041992, -0.49658203, 0.5292969, 0.71484375, -0.09625244, 0.10644531, 0.9355469, -1.1962891, -0.23339844, 0.24353027, 2.3730469, 0.14501953, 3.0117188, -1.5087891, 1.7001953, -1.1533203, 1.1494141, 4.3554688, -0.6513672, -0.9086914, 1.2236328, -0.44921875, -0.7529297, 0.5473633, 0.26660156, 0.7285156, -0.34594727, -1.5361328, 0.060028076, -1.6513672, -0.8515625, -0.8383789, -1.7685547, 0.76416016, -0.5136719, -0.6538086, -1.1416016, -0.84472656, -0.7421875, 0.9008789, -2.0722656, -0.42749023, 0.37280273, -1.1914062, -1.6035156, -1.1669922, -0.43017578, 1.9091797, 1.5527344, -2.078125, -0.27856445, 0.20922852, -0.36938477, -3.4179688, 0.1887207, -0.5004883, -0.6196289, 1.4785156, -1.703125, 0.29711914, -1.1494141, -0.35083008, -2.2441406, 1.6083984, 1.1767578, -2.4882812, -1.2021484, 0.89501953, -0.5878906, 2.1054688, 0.0066833496, 0.33203125, 0.62060547, -2.234375, 1.6962891, 0.8413086, -0.27807617, -0.6455078, 1.7119141, 0.6699219, -0.77783203, -3.1582031, 0.47192383, -0.40551758, -0.9111328, -0.6069336, -1.4589844, -1.1767578, -0.67285156, 0.20019531, 0.8598633, -0.24328613, -0.60009766, -1.2275391, 1.4541016, 0.8754883, 1.1269531, 1.7265625, -0.10821533, -2.8320312, 0.97509766, -0.25097656, 0.17956543, -2.0253906, -0.70947266, -3.3398438, 0.4650879, 0.76953125, -0.7416992, -0.66015625, -1.2460938, 0.33520508, 0.8051758, 0.8720703, -0.74658203, -0.5283203, 0.101501465, 0.31298828, 0.64990234, 0.2442627, -1.7060547, 2.4199219, 0.29467773, -2.2558594, 0.44067383, -2.71875, -0.3190918, 0.8461914, 0.6220703, -0.15527344, 1.109375, 0.9638672, 0.7451172, 1.0732422, 0.50927734, 0.67089844, -0.6894531, 0.89453125, 0.68603516, 0.13220215, -2.3046875, 0.4404297, -0.5566406, -2.0527344, 0.4975586, -2.09375, 0.51708984, -0.64160156, -0.14831543, 0.7207031, -1.0419922, -0.54248047, 0.021240234, -0.5629883, 0.22290039, -0.84814453, -1.0927734, -2.8945312, 1.2890625, -2.8359375, 0.4465332, 0.97802734, 0.36767578, 0.7260742, 0.8828125, 1.0527344, -0.5805664, -0.9863281, -2.1113281, -2.4921875, 1.0019531, 0.47729492, 0.103881836, 0.5151367, 1.5136719, -0.4206543, -1.0517578, 0.11175537, -0.22546387, -0.043640137, -0.0055618286, 0.09436035, -1.0976562, 1.3261719, 1.2324219, 0.08068848, 4.2382812, 0.009140015, -0.390625, -2.5019531, 2.8066406, -0.65722656, -1.2333984, 0.13879395, -1.5966797, 1.8378906, -0.8857422, 0.859375, -0.5541992, -0.7885742, 1.2275391, 0.58203125, 0.33691406, -1.1503906, -0.096069336, 0.5522461, -1.4990234, 1.5058594, -0.4897461, -1.1738281, 0.5839844, 0.039031982, -1.0712891, -0.93066406, -1.2412109, 1.1923828, -0.68359375, -1.8701172, 0.24169922, 1.9599609, 1.1259766, 0.92529297, -0.8105469, -0.8178711, -0.18493652, 1.2138672, -0.3017578, 0.48535156, 1.5878906, 0.37036133, -2.0800781, 0.04724121, 0.16345215, -1.1835938, 1.8339844, 0.9506836, -0.8071289, -0.82910156, 0.9892578, -1.8339844, 0.25146484, -1.8134766, 0.74316406, -2.1113281, 0.3840332, -1.4726562, -0.5551758, -0.40356445, -0.6020508, -1.1191406, -0.11505127, -0.74121094, 1.1806641, -0.7348633, -0.84521484, -0.3972168, -0.7636719, -1.3974609, 0.84277344, 0.2734375, -0.5839844, 2.1074219, -1.7578125, -0.113220215, -2.1347656, -0.6484375, 2.2089844, -2.2128906, 0.9116211, 1.0556641, 0.27416992, -1.0136719, 0.18530273, -0.81884766, 0.51123047, -0.94091797, 2.1347656, 1.90625, 0.4194336, -2.7167969, -1.5185547, 1.0351562, 0.11004639, -1.3115234, -1.2578125, 0.86035156, -1.5810547, 0.21716309, -1.5859375, -0.19116211, 0.9716797, -2.4414062, 1.4199219, 0.87353516, -0.6479492, 0.44848633, 0.69091797, 0.33813477, 0.81152344, -1.0576172, -0.5961914, -1.1279297, -0.6069336, -0.9189453, -1.2099609, -1.1484375, 0.63183594, 0.8232422, -0.77441406, 0.2536621, -0.8808594, -1.4238281, -1.0273438, 0.39013672, 0.113098145, 1.8339844, -0.2619629, -0.453125, 0.83203125, -0.15612793, -0.051879883, 1.9765625, 0.29223633, -0.51660156, -1.71875, 1.5390625, -1.0634766, -1.1025391, 0.33325195, 0.078308105, -0.0748291, 1.1201172, 0.7260742, 0.3635254, 2.265625, 2.1113281, -0.85595703, 0.5522461, -0.8413086, -0.4555664, 2.1210938, 0.5029297, -0.43847656, -0.30395508, -0.7421875, 2.5664062, 1.1474609, -2.7753906, -1.0839844, 1.0556641, -0.765625, -1.1123047, 0.16833496, 1.9501953, 0.6582031, -0.7241211, 0.072265625, 0.38452148, -1.03125, -1.6806641, -0.53515625, -1.7431641, 0.29345703, -0.7290039, 0.703125, 1.1484375, -0.09503174, -1.703125, 0.17358398, -1.9980469, 0.34545898, -0.38720703, 0.35717773, -1.9208984, 0.26098633, -0.27270508, 1.6640625, 0.45288086, 2.234375, 0.50146484, 1.8271484, 0.9291992, -1.6318359, -0.8857422, 0.73291016, 1.3164062, -0.57373047, -0.3083496, -1.8466797, 3.0644531, 0.16259766, 0.15551758, 0.38232422, 0.79785156, 0.57666016, -0.71484375, -2.2265625, 0.9550781, 1.9208984, -1.015625, 2.5136719, -0.6010742, -0.44262695, -0.21960449, -1.9472656, 2.2910156, -0.51171875, 0.3022461, 0.7734375, -0.7290039, -2.1308594, -0.42700195, 0.19592285, -0.29760742, 0.5883789, 0.19616699, -0.64697266, 2.0410156, -0.4152832, 1.4560547, 0.53125, -0.12023926, -0.7216797, -0.4580078, 3.2011719, -2.1933594, -1.2128906, -0.015548706, 0.4404297, -0.027862549, 1.8662109, 0.8798828, -0.36279297, -0.9584961, 0.97216797, -1.5439453, -0.12719727, -2.3710938, 1.4482422, -0.14624023, -1.4560547, -1.1796875, 0.33569336, 0.8066406, 0.1920166, -0.9946289, 0.99853516, 0.057769775, 1.8886719, 1.8476562, 1.5322266, -1.3310547, 2.0917969, 1.84375, -0.6894531, 0.060943604, -1.1289062, -0.94873047, -0.18261719, 1.421875, -0.8803711, 1.4882812, -1.9492188, 0.0023212433, -1.7617188, 1.8144531, 0.3798828, 1.6728516, 0.7416992, 0.4025879, -0.21276855, -0.29467773, 0.8798828, -0.064819336, 0.78027344, 0.40600586, -1.2382812, -0.2310791, 1.03125, -1.8310547, 0.25878906, 0.043060303, 0.66796875, 1.0390625, 0.9970703, 1.6699219, -0.59521484, 1.4511719, -0.7182617, 1.7363281, 0.23632812, 0.89453125, -0.1427002, 0.53222656, -0.8959961, -0.96777344, -2.7050781, -0.5283203, -0.13806152, -0.47851562, -0.48950195, -0.61083984, -0.41357422, 0.85546875, -0.44555664, 0.31176758, 0.23291016, -0.23364258, -1.5, 0.51123047, 0.46533203, -1.40625, -1.6826172, 0.38183594, 1.6884766, -0.14135742, 1.84375, 0.28857422, 1.0810547, -0.6977539, 0.5258789, -0.2064209, 0.8754883, -0.23583984, -3.3554688, -0.032592773, 0.45288086, -0.030303955, -0.3474121, -2.0332031, -0.34326172, -0.60791016, -1.8583984, 1.1826172, -0.23986816, 0.16870117, -0.09100342, 1.2109375, -0.53027344, -0.7910156, 1.1875, -1.7626953, 2.4042969, 2.3417969, -0.66308594, 0.98046875, 0.81103516, -0.3869629, -0.7993164, 0.5683594, -1.671875, 0.9819336, -0.27539062, 0.19677734, -0.5390625, -0.030136108, 0.76953125, 0.42773438, -0.6010742, -0.49414062, 0.5996094, 0.27954102, 1.5507812, 0.47021484, 1.1621094, 1.1591797, -0.2775879, 1.328125, 2.1523438, 0.38305664, 0.87353516, -0.29760742, -2.921875, 1.2998047, -0.10357666, 0.78808594, -0.10412598, 0.68896484, 1.7666016, -1.7080078, -0.9682617, -0.038970947, -0.48583984, -0.34545898, 1.2470703, -0.10949707, -2.0078125, 0.6801758, 2.1015625, -0.80859375, -0.4189453, 1.203125, -0.5239258, -0.13330078, 1.7412109, 0.93408203, -1.1660156, 1.0136719, 1.7167969, 0.34033203, 0.7680664, 3.1445312, 0.8144531, -0.15930176, -0.5410156, 0.72216797, 0.49389648, -0.5805664, 1.0117188, 0.40942383, 2.0039062, 1.1289062, 0.5830078, 1.2617188, 0.22583008, -0.46923828, -1.0117188, -0.06161499, -0.2849121, -0.69677734, -1.4970703, -0.044921875, 0.53564453, -0.114990234, 1.7041016, 0.4951172, 0.8300781, -0.6230469, -0.3125, 2.3066406, -0.07989502, 0.55126953, -1.390625, -0.55029297, -1.1767578, -1.8330078, 1.1015625, 1.9941406, 0.046966553, 1.9863281, -1.4189453, -0.22216797, 0.81152344, 0.23498535, -0.42504883, 0.62597656, 0.68310547, -2.2421875, 0.6386719, 0.5439453, 0.078186035, -1.5273438, 0.9394531, 0.83496094, -1.1513672, -2.125, -0.9746094, -0.7207031, -0.5361328, 1.4462891, 0.7915039, 0.23901367, -1.6064453, -1.2021484, 2.078125, 0.25097656, 0.59375, -0.7133789, -0.116760254, -1.8173828, 0.012817383, 0.22131348, -0.1373291, 0.10827637, -0.42895508, -0.2166748, -3.90625, 0.08459473, -1.9589844, -1.0712891, 0.79052734, 2.0761719, -1.7509766, 2.5644531, 1.0615234, 0.093322754, 1.9326172, -0.34448242, 0.6152344, -0.6772461, -0.71875, -0.74121094, 1.7734375, 0.5488281, -0.8652344, 0.6245117, -0.1895752, 0.18579102, 0.61376953, 0.9658203, -0.49291992, -2.0175781, -2.2226562, -1.5761719, -1.515625, 0.2397461, 3.2460938, 1.0410156, 1.2294922, -1.1865234, 0.52441406, -1.2763672, 0.5288086, -1.5380859, 0.6064453, -0.64990234, -0.17980957, 0.1920166, -1.1582031, 0.0892334, -0.109375, -1.2734375, -0.039642334, -1.09375, -0.28637695, -2.2421875, -1.6142578, 2.2402344, -0.23510742, -0.6113281, -0.66845703, -0.5449219, -0.046295166, 0.3425293, -2.3203125, 0.48706055, 1.4892578, 0.0635376, 0.21044922, -0.76708984, -1.28125, -1.1181641, 1.7871094, 1.46875, 1.1113281, -0.10913086, -4.65625, -0.7001953, 1.3427734, 1.0566406, 1.4814453, -0.9707031, 0.54052734, -1.4814453, 0.6845703, -2.0957031, -1.4082031, -1.9277344, -0.2541504, -1.3691406, 2.9960938, -1.2636719, 0.6020508, 0.42138672, -0.45288086, 1.1591797, -1.1123047, -0.4091797, -0.45507812, 2.2988281, 0.8261719, -1.6982422, -0.8364258, 2.8867188, 1.4628906, 0.359375, -2.2421875, 0.45703125, 0.60791016, -1.2255859, -0.36328125, 0.17285156, 2.2382812, 0.06286621, -0.96484375, -0.38305664, 1.3632812, 1.4833984, 0.50634766, 1.2998047, -1.2480469, -0.21203613, 0.2980957, -0.48486328, -1.8183594, -0.8671875, -0.74609375, -0.20373535, -0.47753906, -0.9091797, -0.81933594, 0.10253906, -1.8486328, 0.23950195, -0.6303711, 0.9082031, -2.3066406, -0.13061523, -0.72216797, 1.2617188, 0.22644043, 0.5307617, -0.12988281, -2.2832031, -0.9091797, -2.3945312, 0.63427734, -0.37646484, 0.5605469, -1.4570312, -0.88183594, -0.9267578, -0.037841797, -0.5493164, 0.8989258, 0.09832764, 1.2529297, -0.82177734, 1.7412109, -1.0771484, -1.1337891, -0.5131836, 1.2255859, -0.4050293, -0.029312134, 0.38549805, 0.5083008, 1.0869141, -1.1103516, 0.3095703, 0.6455078, -1.2109375, 0.4477539, -0.25390625, -0.5698242, 0.36669922, -0.36206055, 0.6796875, -0.4333496, -0.3425293, -1.0664062, 1.3339844, 0.026229858, 2.7539062, 0.008216858, -0.9458008, -1.8291016, 0.3852539, 1.2236328, 1.3769531, 1.9326172, -1.0429688, 0.85546875, -0.08673096, 0.081604004, -2.0195312, -0.45239258, 0.63623047, -0.34350586, -0.36645508, 1.5839844, 0.9663086, 0.81103516, 0.34692383, -0.55566406, 2.5175781, 0.33935547, 2.3320312, 0.5551758, -0.3955078, 2.0039062, -0.72314453, -0.7885742, 0.26513672, -1.421875, 0.63623047, 2.8925781, -1.9492188, -1.5058594, -0.9921875, 0.15661621, 1.6025391, -1.5927734, -0.19921875, -3, -0.32910156, -1.0644531, 0.7529297, 0.09802246, -0.009353638, 0.56591797, 0.0541687, -3.2246094, -0.09918213, -0.36035156, 1.0537109, -0.8730469, 0.0317688, 0.05480957, -2.0664062, 1.8808594, -0.81103516, -1.0498047, -0.8491211, -0.69677734, 0.7661133, 3.6464844, -0.9394531, 1.171875, 2.1972656, 0.64501953, 0.5419922, 0.14929199, -0.4921875, -2.1132812, 0.7792969, 1.8417969, 0.8041992, -2.1835938, -2.0332031, -0.015289307, 1.1787109, -0.69628906, 1.1777344, -0.74365234, -0.93896484, 0.8286133, 0.46191406, 0.013763428, 1.3027344, 0.05105591, -2.4941406, -1.1044922, -1.7089844, 2.1445312, 1.3662109, 1.9824219, -0.65478516, -0.5332031, -0.17919922, -1.2275391, -0.5361328, -0.4423828, 0.76171875, -0.55371094, -0.6958008, 1.4726562, -0.828125, 1.2402344, 0.47705078, 0.84521484, 0.99658203, 0.94433594, 0.33642578, 0.35205078, -0.9946289, 0.31860352, 0.609375, 2.5195312, -1.8925781, -1.6542969, -0.4248047, -1.4091797, -0.20043945, 0.18969727, -0.19885254, 0.3642578, -0.8535156, 0.8417969, 0.73583984, 0.23095703, 0.53808594, 0.84375, -0.35986328, -0.87158203, -1.0097656, -0.9003906, 2.8398438, 0.2722168, 0.009742737, -0.8808594, 0.06982422, -0.6230469, -0.23266602, -0.7602539, 1.5537109, 1.7744141, -1.046875, 0.53027344, -0.82470703, -1.0810547, -0.081970215, -1.8017578, -0.122924805, -1.2470703, -0.9633789, 0.15979004, 0.7368164, -0.85058594, -2.0292969, -1.2988281, -1.9775391, -0.89453125, 1.8203125, 2.4179688, 1.0683594, 2.1386719, -1.921875, -0.27929688, -2.3398438, 1.7841797, 1.3867188, -0.43359375, 0.25878906, -1.4335938, -0.62158203, -0.26708984, 1.0224609, 0.8935547, 0.37597656, 0.84716797, -1.9589844, -0.1628418, -1.3339844, -0.13244629, 1.2587891, -1.0703125, 0.99902344, 0.8256836, -0.8432617, -1.6923828, 0.3564453, 2.3671875, 1.5517578, 1.84375, -0.91845703, -2.0839844, -0.74121094, 0.80908203, -0.115356445, -0.6152344, 0.029968262, -0.19042969, 1.0761719, 1.5625, 2.0429688, 0.21350098, -0.8544922, -1.0693359, 1.1230469, 0.72314453, 0.13220215, -0.11975098, 0.10827637, -0.83496094, -0.5654297, -2.3027344, -2.9726562, -1.1113281, 1.1357422, 3.6035156, -1.1113281, 1.7841797, -0.18554688, -1.0800781, 0.17260742, -2.3183594, -0.37475586, 0.055908203, 0.2668457, 0.4897461, 3.5449219, -0.14697266, -0.7578125, -2.0253906, 0.3330078, 0.26464844, 1.1367188, 0.7607422, -2.5351562, 1.1279297, 0.036499023, 1.8701172, -0.040985107, 0.8066406, -0.11193848, 0.99609375, 1.0175781, 1.1054688, 0.7192383, 1.0419922, 1.9921875, -0.15637207, -1.1386719, -0.17883301, 3.5605469, 0.453125, -0.76416016, -0.60546875, 0.36206055, 0.19580078, -0.08026123, 3.1367188, -0.44970703, -1.6425781, -2.6542969, -1.1572266, -0.49194336, -2.2421875, -1.4726562, -0.75146484, 1.3037109, -1.0693359, -2.4882812, -3.3554688, 1.0107422, 0.04522705, -2.2675781, -0.90478516, -0.7807617, 1.1064453, -1.0029297, -1.2226562, -1.7998047, -1.7529297, 0.40185547, -0.02999878, -0.4489746, -0.78808594, 0.043151855, 1.015625, 2.7480469, -0.5253906, -0.21203613, 0.37817383, 0.2130127, 1.5371094, -2.0253906, 3.046875, -0.16430664, 1.1982422, 0.7207031, 0.8041992, 0.75, 0.8486328, -1.1142578, -0.49804688, -0.07733154, 0.61279297, -0.88720703, -0.5839844, 0.3203125, -2.4863281, -0.50878906, 0.64501953, -0.18249512, -1.7070312, 2.78125, -1.0869141, -2.5664062, -1.6914062, 0.25708008, -0.054138184, 1.8681641, 0.49243164, -1.1875, 1.0537109, 0.005821228, -0.30273438, 0.19421387, 1.5283203, 2.8808594, 1.0419922, -1.8896484, 0.73779297, 0.47607422, 0.47998047, 0.8208008, -0.46435547, -0.296875, -1.2998047, -0.9760742, -1.4931641, 0.6411133, 0.9169922, 2.84375, -0.31982422, 0.87353516, 0.26513672, -0.57421875, -0.47680664, 1.3144531, -0.23535156, 0.17883301, 2.8476562, 2.09375, -1.2041016, -0.71777344, -0.5292969, 0.67041016, 0.99365234, -0.042877197, 0.5234375, 1.4589844, -0.5986328, 0.87353516, 3.3417969, -0.36743164, 0.33032227, 0.44677734, 2.1582031, -1.6933594, 2.1855469, 0.31225586, 2.3261719, 0.2746582, 0.8041992, 1.1777344, 0.18664551, -0.3779297, 1.1464844, -0.009483337, -1.9013672, -0.5439453, 0.8564453, -0.90478516, -0.73535156, -0.8051758, 0.50439453, 0.6303711, 0.35717773, -1.6201172, -1.9414062, -0.12927246, 0.8378906, -0.68310547, 1.9228516, 0.7661133, 0.29418945, -0.70214844, 0.2849121, 0.8935547, 2.2070312, -0.30932617, -0.51953125, -3.59375, -0.80078125, -1.3867188, -1.1962891, 0.46899414, -0.32739258, -0.05999756, 1.7685547, -0.89208984, 0.5419922, 0.89697266, 1.6835938, -1.46875, -0.33642578, 0.38354492, 1.3056641, -0.34545898, -0.48999023, -1.5742188, -0.27856445, 0.95703125, 0.42773438, 1.3300781, -0.9008789, -1.1601562, -0.8935547, -0.9628906, -0.15917969, 1.4697266, 0.003604889, 0.7788086, 1.1054688, -0.057739258, -0.9399414, -0.13916016, -0.86376953, -0.22216797, 0.08068848, -0.34472656, 1.0878906, -1.4521484, 0.06817627, 1.0605469, 0.83203125, -1.4960938, -1.4335938, -1.3964844, 0.04348755, 1.8857422, -0.12512207, 0.61621094, 1.9794922, 0.4465332, 0.5522461, 0.00068473816, 1.1796875, 1.3583984, 1.4003906, 0.25927734, 1.0009766, 0.80126953, 0.43310547, 0.7739258, -0.012802124, -0.2208252, 1.1777344, -1.1738281, 1.2509766, 0.41723633, 0.72314453, 0.6435547, 0.026779175, -0.45263672, 2.3632812, -0.46484375, -0.5859375, 0.75341797, -0.0024471283, 1.4443359, 0.75390625, -3.3046875, -0.5214844, -2.09375, 1.6171875, 0.5620117, -1.2255859, -1.0439453, -0.5864258, 0.24511719, 0.24658203, -3.4863281, -0.5908203, 0.5131836, 0.74853516, -0.8652344, 6.359375, -0.6220703, 2.1640625, -1.3212891, 0.111083984, 1.5371094, 0.6953125, 1.0957031, 1.0898438, -0.38110352, 2.3632812, -0.24169922, -0.36889648, -0.7915039, -1.734375, -0.3166504, -2.3183594, -0.8588867, -1.5800781, 0.25927734, 1.8017578, 1.4169922, -0.28808594, -0.97216797, -1.4775391, -1.5966797, 0.5551758, 0.041656494, 1.7685547, 0.30664062, -1.0742188, 3.4433594, -0.80615234, -2.8398438, 1.8730469, -1.7041016, 0.22729492, 0.2919922, -1.0322266, 0.66015625, -1.1015625, -0.79052734, 0.13879395, 2.1445312, -1.4287109, 2.3574219, -0.6743164, -0.018157959, 0.86328125, -0.3942871, 0.22167969, -0.8378906, -0.66308594, 1.3369141, 0.60839844, -0.78515625, -0.79785156, 0.38989258, -0.19274902, 1.8125, 1.6621094, -1.7666016, 0.32910156, 0.21533203, 0.18359375, 1.6376953, 0.7246094, 0.3947754, -0.34326172, 0.3984375, -0.8051758, -1.4228516, -0.78515625, 1.1083984, -1.4785156, 0.51220703, -0.7036133, -0.09484863, -0.035369873, -0.53125, 1.1357422, -1.4296875, 2.5390625, 0.81591797, 0.29760742, -1.9267578, -1.6728516, -3.4746094, 0.67578125, 0.45288086, 0.36010742, 1.1572266, -0.019332886, 0.27270508, 0.021438599, -1.0175781, 0.3334961, 0.13842773, 0.18200684, -1.1113281, 0.47583008, -0.18493652, -1.7998047, -0.19641113, 1.8115234, -0.20751953, 3.6835938, -0.13952637, 0.7480469, 0.67041016, -0.24719238, 1.7314453, 0.5336914, -1.1621094, 2.15625, -1.4023438, 4.296875, 1.0644531, -1.8388672, -0.6665039, 3.46875, -0.6948242, 0.9658203, -0.18286133, -0.14892578, 1.0830078, -0.86376953, -0.35058594, -0.5234375, 0.043640137, -2.3027344, 0.12524414, -0.84814453, -0.48291016, -0.3630371, 0.38256836, 0.61376953, 0.6381836, 0.29736328, 0.3251953, 1.4716797, 0.31347656, -0.69628906, -1.0478516, 0.7480469, -1.5722656, -0.42138672, -0.7734375, -0.2277832, 0.31811523, -0.14172363, -0.5917969, 0.6513672, -0.23779297, 0.59472656, 0.35205078, -0.5390625, 0.06976318, -0.75634766, -0.26123047, -0.84277344, -0.5102539, 1.7363281, 1.1416016, -0.61083984, -0.048187256, 0.9863281, 0.13110352, -0.10620117, -2.3769531, 0.05581665, 1.3828125, 1.1279297, 0.5546875, 0.22668457, -0.4321289, -0.14709473, 0.8857422, -0.08868408, -1.0488281, 2.4804688, 1.15625, 2.1621094, 0.8720703, -0.10076904, 0.2175293, 2.4570312, 1.4423828, 0.2956543, -1.2734375, -0.6801758, 0.15234375, -1.7597656, 2.5917969, -0.9794922, 1.0810547, -1.7998047, 0.2763672, 1.2099609, -1.2714844, 0.5678711, -1.3222656, -3.3183594, -1.7431641, 1.7744141, -0.032104492, 0.08972168, 0.14123535, 1.8691406, -1.6357422, -1.5556641, 0.17468262, 0.39990234, -1.7373047, 0.03652954, 0.17126465, -0.99658203, 0.7866211, 1.0458984, -0.7089844, -1.2460938, 0.04534912, 0.038146973, 0.7841797, -0.9350586, 1.2529297, 0.8183594, -0.051605225, -1.3564453, 0.08483887, -0.35839844, -1.2939453, 1.1416016, 1.2373047, -1.7939453, -1.6806641, 1.671875, -0.22021484, 0.60839844, 0.14074707, 1.3017578, 0.46484375, 1.7675781, 3.2910156, -0.3815918, -1.1416016, -1.6279297, 0.3857422, -0.06488037, -0.6660156, 0.20275879, -0.8569336, 0.031036377, -0.26171875, -2.5195312, -0.21984863, 0.9482422, 1.2880859, 0.8666992, 0.7807617, -1.7128906, 2.0019531, 0.7446289, 0.5522461, 1.8720703, 2.5, 0.4807129, 0.31835938, -0.7167969, -0.75927734, -0.3552246, 0.890625, 1.8798828, -0.98046875, 2.7714844, 0.15222168, -0.050079346, -1.1943359, -1.0517578, -1.0234375, 0.76123047, -0.8100586, -0.7216797, 1.5644531, -1.6210938, 0.24133301, -0.76464844, -0.23791504, 0.05569458, -1.9130859, 0.06008911, 1.1591797, -0.6020508, 0.17993164, 0.8457031, 0.30810547, 1.4833984, -2.8535156, -0.110839844, -0.45532227, 0.49023438, 0.5463867, 2.8535156, -0.68359375, -1.4501953, -1.8613281, 1.1757812, -0.07171631, 0.4423828, -2.078125, 0.4506836, -0.89404297, 0.1048584, 0.13391113, -1.5527344, -1.6259766, 0.6040039, -0.26660156, 0.7392578, -1.4189453, 0.6538086, 0.9448242, -1.0136719, -0.23205566, 0.89941406, 0.18591309, 0.60498047, -0.8754883, -1.3457031, -0.58203125, 1.7988281, 0.04736328, 1.5136719, 2.3789062, -0.68066406, 2.6230469, -1.5742188, 1.4765625, 0.074279785, 0.5336914, 0.70996094, -0.83496094, -1.0742188, 1.2607422, -3.5800781, -0.0075302124, -1.6875, -0.10101318, 0.31201172, 2.9511719, -0.11126709, 1.3828125, 0.2565918, -1.359375, 0.38671875, -0.5209961, 1.2509766, 0.20874023, 1.1142578, -0.48828125, 0.57714844, -0.20471191, -0.37329102, -0.88671875, 0.5390625, 0.73095703, -0.19616699, -0.43920898, 1.0283203, 0.17321777, -0.59472656, 0.6538086, 0.45898438, 0.23742676, 0.3618164, -2.8574219, -1.1503906, -1.0810547, -0.47216797, 1.2890625, -0.9628906, -0.59472656, -0.36035156, 0.78808594, 1.0820312, 0.48608398, 1.0947266, 0.6269531, -0.4555664, 0.44580078, -1.1835938, 2.3164062, -0.21838379, -0.75927734, -0.027328491, 0.5175781, 0.47338867, 0.39013672, 0.13806152, -0.27514648, 0.12670898, -1.3027344, -0.44921875, 0.26831055, 0.5341797, 1.9306641, -1.3427734, -1.1894531, -1.8740234, -1.7392578, 0.37158203, -0.17321777, -0.9663086, 0.3720703, -0.859375, -1.0898438, -0.21704102, -0.6328125, 0.62939453, 0.37597656, 0.66796875, 0.06945801, 0.33544922, 1.0019531, -0.5703125, -0.9448242, -1.4697266, 0.4584961, 2.1464844, -1.7001953, 0.8486328, 0.46069336, -2.2714844, -1.0849609, 0.36157227, 0.31762695, 1.421875, 0.59375, 1.5839844, -0.04647827, 0.1665039, -1.5625, -0.16589355, -0.67871094, 0.76904297, -0.2866211, -0.7998047, -0.27392578, -6.3515625, 0.33154297, 0.45703125, 0.6098633, 2.5820312, -0.6635742, -0.48657227, 0.84033203, -2.1015625, 0.07141113, -1.9335938, -0.8383789, -1.3779297, -0.052490234, -0.6220703, 1.8222656, -0.36157227, 0.46435547, -1.0146484, -0.12780762, -2.7226562, 3.5488281, -0.38842773, 1.4033203, 0.7451172, 0.1026001, 0.13146973, -0.74316406, -1.2724609, 0.63623047, 0.9379883, 0.71777344, 0.62060547, 0.07800293, 1.0478516, 0.9267578, -1.765625, -0.27514648, -0.3701172, -0.39819336, -0.18701172, -1.078125, 0.18981934, -1.6806641, -2.578125, 1.7929688, 1.890625, 1.3378906, 1.1113281, -0.7192383, 0.5053711, 0.5830078, -2.4453125, 0.017562866, 1.1386719, 0.36401367, 0.23388672, -1.3876953, 1.3632812, -1.7138672, 0.19165039, -2.3339844, 0.23339844, 1.7177734, -1.0693359, 0.31396484, 2.4042969, 0.33544922, 0.17773438, -1.1171875, 0.07879639, 0.17419434, 1.4462891, -0.8808594, -0.5917969, -0.73095703, -2.1757812, 0.9584961, 0.8261719, -1.78125, 0.28686523, -0.07824707, -0.54589844, -0.3659668, -0.16088867, -0.98876953, 1.1132812, 0.62060547, 2.6933594, -0.9921875, -1.6132812, -2.3183594, 0.31347656, 0.9501953, -1.7421875, -0.2734375, 1.0126953, 1.75, -2.7011719, -1.2939453, 0.64990234, -1.2207031, -0.4650879, 0.6035156, -1.4833984, -3.5761719, 1.2460938, 1.4921875, -0.14428711, 1.4902344, -0.40673828, -1.0185547, 1.2539062, -0.4116211, -1.6474609, -1.1201172, -0.07141113, 2.0664062, -1.2675781, -0.2088623, -0.9145508, 1.3974609, -3.3515625, 4.203125, -0.89160156, 1, 0.91552734, -3.21875, -1.3193359, -1.2167969, -0.40942383, -0.40112305, 0.6308594, -0.18078613, 1.046875, 0.87841797, 0.7519531, 1.3242188, 0.76171875, -2.1660156, 1.4921875, 0.015914917, -1.3369141, -0.6147461, -1.3134766, 1.3789062, -0.26464844, 0.53466797, -1.6894531, -0.5239258, -2.359375, 1.1669922, 1.1269531, 2.0683594, -0.7055664, -1.0517578, 2.3710938, -1.3056641, -1.0927734, -0.91845703, -0.9980469, -0.08099365, -0.12512207, -1.0273438, 0.6586914, -0.31811523, -0.9243164, 0.8779297, -1.8193359, 0.8691406, 0.9194336, -1.6142578, -0.50146484, -2.2988281, -0.101379395, 0.17700195, 0.24633789, -2.1601562, -2.1542969, 0.5551758, -0.32226562, -0.27514648, -0.4008789, -0.49682617, -1.0019531, -1.0136719, 1.0683594, 0.3293457, -0.9272461, 0.7739258, 2.5566406, 1.0507812, -0.10723877, 0.5180664, -0.87109375, 1.3066406, -0.53222656, 0.8647461, -1.0537109, -1.7802734, 1.2763672, -2.3554688, -0.6928711, 0.95996094, -0.9555664, -1.8056641, 1.6210938, 0.93652344, -1.3427734, 0.51416016, 0.46533203, 1.2392578, -0.8754883, 0.17541504, 1.7792969, -1.1708984, 0.38330078, -1.7363281, -0.27319336, -0.68310547, 3.1679688, 1.2285156, -1.0722656, 1.4228516, -0.48999023, -2.8378906, 1.8701172, 0.030029297, 0.87353516, 1.5341797, 3.0605469, 0.23327637, 1.421875, -2.1054688, 1.8476562, -0.6855469, 0.93652344, 2.1699219, 0.7167969, -0.6582031, 0.609375, 2.1816406, 0.12536621, 2.0976562, 2.1425781, 1.1855469, 1.5244141, 0.3227539, 0.5917969, -0.46948242, -0.66845703, 0.7890625, 2.5, 1.7382812, 1.5009766, -0.6333008, 0.03466797, 2.1132812, -1.1201172, 1.5205078, -2.6621094, 0.7792969, -0.5527344, 1.46875, -2.5996094, 0.04257202, 0.8696289, 0.13110352, -1.6875, -2.0742188, -0.7763672, 0.45288086, -0.40112305, -0.53271484, -2.0527344, -2.671875, 0.4909668, 1.4316406, 0.87890625, -0.26098633, -0.71972656, 1.1884766, -1.0869141, 0.38598633, 1.6123047, -0.7441406, 0.98876953, -1.4628906, -0.35839844, 0.21887207, -0.13977051, -0.13781738, -1.7001953, 0.6582031, -0.43530273, -0.6035156, -3.4277344, 0.9536133, -0.3395996, 1.2314453, -0.021102905, 0.51660156, -0.5649414, 0.10369873, -0.30004883, 1.0917969, 0.72802734, 1.015625, 0.24780273, -0.46850586, 1.1171875, 0.22497559, 0.4543457, -0.014709473, 0.8144531, -0.23046875, 0.16894531, -0.22497559, 1.2197266, 0.011764526, -0.46850586, -1.0136719, -0.20947266, -0.7441406, -1.3740234, 0.23571777, -1.0107422, 0.26171875, 1.7060547, 1.3017578, 1.7861328, 0.038848877, -0.93847656, 1.2919922, 1.0830078, 1.2939453, -1.0595703, -2.1171875, -0.4729004, 0.91064453, -1.5273438, -0.72802734, 0.0021438599, 0.8017578, -1.3330078, -0.49023438, 0.70166016, -1.7636719, -0.38671875, 1.0771484, 0.26611328, 0.79296875, 0.4519043, 0.0029830933, 1.2763672, 0.7216797, 0.60498047, 0.47729492, 0.13586426, 0.79833984, -0.12200928, -0.4128418, 0.013168335, -1.0986328, -0.081848145, 0.47998047, 0.8588867, -1.140625, 2.2597656, -0.22485352, -0.21569824, 1.78125, -0.359375, -1.0722656, 1.5195312, -0.5175781, -2.0722656, -0.44482422, -0.1472168, -0.4580078, -0.37426758, -0.35083008, -0.022842407, -0.5913086, -0.12646484, -1.5742188, 1.1630859, -0.85546875, 0.62646484, 1.2294922, -0.4248047, 0.55615234, 0.23986816, 0.7495117, 0.34423828, -0.7758789, -0.20300293, -0.34350586, -0.9946289, 0.42456055, -0.9111328, -1.1757812, -0.06976318, -0.2697754, -1.6777344, 0.9511719, 0.6665039, -1.3779297, 1.1738281, 1.3828125, -0.27661133, -0.072021484, 1.3701172, -1.203125, 0.61083984, -0.6953125, 1.3798828, -1.8466797, 0.6772461, 2.078125, 0.9433594, 2.7597656, 0.86376953, -0.6796875, 0.6411133, -1.6455078, -0.0064201355, 0.34350586, 0.19470215, -0.6538086, -0.72509766, -2.1035156, 0.047180176, -0.2130127, -0.33007812, -0.19018555, 1.2177734, 0.074157715, -1.0791016, 1.0361328, -1.7314453, 1.8300781, -0.7963867, 1.5390625, -0.41015625, -0.9741211, 0.24377441, 1.7919922, -0.21960449, -0.44458008, 0.5341797, -1.2773438, -0.38452148, 2.1347656, -0.2084961, -2.5078125, 0.93310547, -0.6582031, 0.68066406, -1.1943359, -1.0068359, -0.87939453, -2.0566406, -1.1523438, 0.24206543, -0.09503174, -0.7709961, -0.24169922, 0.4567871, -1.3388672, -0.5957031, 1.1669922, -0.19580078, 0.46044922, -0.43066406, -1.1816406, -1.5966797, 3.4511719, -0.5488281, -2.0273438, -0.13806152, -0.6484375, 0.11303711, 0.40283203, -0.2388916, 1.7861328, 0.14758301, 0.2854004, -0.5288086, -1.3486328, -1.6328125, 0.5805664, 1.6171875, -0.028167725, -0.034729004, -0.26611328, 0.98339844, -2.3144531, -1.1181641, 0.61328125, -0.37402344, -1.1455078, 0.17053223, -1.4072266, -0.98339844, -0.0077056885, -2.0664062, 0.65283203, -1.4541016, 1.2294922, -0.07421875, 1.9042969, 2.1386719, 0.10461426, 2.2402344, 1.3496094, -0.057891846, -1.9013672, -0.3005371, -0.29785156, 0.50439453, -1.1591797, -1.3388672, -1.6796875, 0.4350586, 1.5195312, 0.61279297, 0.6220703, -1.0185547, -1.6865234, 0.041015625, -0.20300293, -0.86376953, -0.09448242, 1.3515625, 0.4794922, -2.1875, -0.6816406, -0.12927246, 0.81884766, 2.2011719, -0.21350098, -3.6992188, -1.2626953, 0.46826172, -2.3710938, -0.6538086, -1.0341797, 0.72998047, 0.117370605, 0.8129883, 0.49560547, -2.6191406, -1.1357422, -0.075805664, 0.640625, -0.74072266, -0.06414795, 0.51171875, -0.4116211, -2.4648438, -0.90478516, -0.6508789, 2.9941406, 0.88623047, -2.359375, 1.8984375, -0.5800781, -0.025650024, 0.2692871, -0.3095703, 2.4472656, 1.2138672, -0.37841797, 0.8930664, 0.4025879, 1.2910156, 0.23706055, 1.4902344, 0.57421875, -1.6494141, -0.5732422, -0.47143555, -0.1751709, -0.46533203, 1.4462891, 1.109375, 6.5976562, -1.1474609, -0.73339844, -1.1640625, -0.24829102, -0.22167969, -0.2052002, 1.0332031, -0.7368164, -1.2763672, -0.90478516, 1.0546875, 0.19226074, 0.6088867, 0.54296875, -0.5966797, -0.7993164, -0.7963867, -0.93603516, 0.014564514, -0.8959961, 0.47802734, 1.5078125, 0.47314453, 0.23120117, -0.71972656, -0.109375, -1.4042969, 0.7988281, 1.0605469, -0.77441406, -1.1259766, -0.07055664, -0.45166016, 1.5693359, 1.5185547, 1.6777344, -0.9145508, 2.4863281, -1.1572266, -0.546875, -0.5800781, -0.35717773, -0.20507812, -0.099731445, 0.34326172, 0.23046875, -1.3789062, -4.5039062, -0.88916016, 0.39672852, 0.6982422, 0.25683594, 1.8984375, -0.75439453, -1.2675781, -0.17041016, 0.9760742, 0.8100586, -2.4785156, 0.10626221, 1.5371094, 1.4423828, 1.2587891, -0.5644531, 0.12109375, -0.8300781, 0.09222412, 1.5712891, 1.234375, 0.35229492, 0.49267578, 1.2373047, 0.51416016, 1.8779297, 0.75634766, -0.039276123, -0.0036449432, -0.6616211, 1.3583984, -0.2142334, -2.5742188, 0.30859375, 0.2163086, -0.10394287, -1.1474609, 1.7011719, -1.3798828, 0.8408203, -0.049804688, -1.2392578, -1.4257812, 0.76660156, -0.77783203, 1.0742188, -0.06210327, -0.7871094, -0.47558594, -0.3083496, 0.19165039, 1.3789062, 0.28222656, 1.1875, 0.041015625, -2.0136719, 0.69873047, -0.48046875, 0.65283203, 0.27612305, 1.8261719, -1.1357422, 0.359375, -0.14172363, 0.121154785, 2.2324219, 0.8413086, 1.3466797, -0.80029297, 0.47436523, 0.2052002, 2.183</t>
-  </si>
-  <si>
-    <t>[1.5449219, -1.0214844, 0.97265625, -0.035583496, -0.27197266, -0.25952148, -1.9121094, -0.34204102, 2.3515625, 1.0898438, -0.3305664, 0.83447266, -1.0410156, 0.8105469, -0.70410156, 0.10437012, 1.7128906, -0.87060547, 0.72998047, -0.38842773, 1.1777344, 2.6015625, 1.2080078, 0.5488281, -0.24035645, 1.4306641, 0.953125, 0.26293945, -0.83203125, 0.08325195, 1.4365234, 3.6425781, 2.3984375, 0.32495117, 1.8242188, -0.5800781, 1.3623047, 0.6328125, 3.546875, 0.119506836, 0.2783203, 1.46875, -0.016693115, 1.2421875, -3.1484375, 0.60302734, -0.9477539, 0.8642578, -0.8198242, 0.19604492, 1.4716797, 2.4609375, -0.69140625, 0.43676758, -2.6914062, -0.7314453, -2.3417969, -1.2021484, 0.59716797, 0.40039062, -0.6591797, 3.5546875, 0.15148926, -1.4130859, 1.0693359, 0.010185242, -1.7939453, -0.75683594, -0.11846924, -0.023513794, -1.1669922, 0.79541016, -1.7470703, 0.61083984, 2.3710938, 1.1396484, -0.50878906, -2.1933594, -0.68603516, 0.40429688, -1.0068359, 0.48828125, -1.3955078, -0.9003906, 0.89501953, 0.27905273, -0.8364258, -1.5175781, -0.58154297, -1.578125, 0.81152344, -0.48779297, 1.6015625, 0.59228516, 0.21228027, 0.018859863, -0.043182373, -0.3984375, 0.21044922, -0.72998047, -1.40625, 0.7841797, 0.34887695, 0.13769531, 0.0345459, 0.64501953, -0.22497559, -1.4589844, -0.92285156, -1.140625, -1.0683594, -0.50097656, 2.6289062, 0.7211914, 1.7666016, 2.0253906, 0.42626953, -1.0166016, -1.4638672, -3.1640625, -0.58935547, -0.026504517, 0.04840088, 1.6943359, 1.9423828, -0.47143555, 1.078125, -1.5820312, -0.9272461, 1.4912109, -1.8261719, -0.78027344, -0.45703125, -0.18347168, 6.2070312, 2.3261719, 0.80615234, -0.28930664, -0.8198242, 0.32714844, 0.24560547, 1.0498047, 1.1054688, 2.6328125, 0.45263672, -0.10131836, 0.076049805, -2.6445312, 0.39672852, 0.10614014, -1.1005859, -1.1435547, -0.86328125, 1.1152344, -1.8828125, 1.5996094, -0.066833496, -2.2890625, -2.15625, -0.24108887, -1.8681641, -0.7553711, 0.46435547, -1.5419922, 2.0214844, 0.8227539, 2.7558594, 0.7446289, -0.9614258, -3.7011719, 0.25561523, -2.6992188, 1.0234375, 0.69921875, 0.6459961, 0.31323242, -0.024841309, -1.7011719, 0.11303711, -2.2480469, 1.1650391, -0.70751953, 1.6943359, 0.4663086, -1.40625, -1.7558594, -0.9560547, -1.6044922, 1.2158203, -0.5283203, 1.2304688, -0.70654297, -1.5712891, 0.00026226044, -0.57128906, -0.13977051, 0.13757324, -0.19140625, 6.203125, -1.2763672, 0.84277344, -1.0185547, 0.63671875, -1.90625, -2.2832031, 1.0957031, 0.49194336, -0.1895752, -0.3876953, -1.5947266, -0.55859375, -0.10662842, 1.5869141, 0.28222656, 0.14916992, 1.8173828, 2.0117188, -2.8261719, 0.30151367, -0.19787598, -0.09234619, -1.5351562, -0.17944336, 0.91503906, -2.6035156, 1.4492188, -2.0332031, 1.0146484, 0.68652344, -0.014053345, 1.0576172, -0.92871094, 0.5332031, 1.4238281, 0.45141602, 2.9433594, -1.2832031, 3.1484375, -0.5151367, 0.30297852, 0.4658203, 0.15600586, -0.48950195, 0.19824219, -0.88720703, 0.58251953, 1.2490234, -1.1259766, 0.8154297, -0.6821289, 3.2851562, 2.0234375, -0.8886719, -1.7802734, -0.6386719, -0.48339844, -0.796875, -0.4794922, -0.5390625, 0.4645996, -4.4570312, -0.74072266, -0.7314453, 0.16479492, 0.9584961, 0.17993164, -1.3173828, 0.52783203, -0.94970703, 0.76171875, 1.8007812, -0.097473145, 5.3320312, -0.027679443, -0.7363281, 0.40600586, 0.29248047, 1.4873047, -1.0048828, -0.45458984, -1.203125, -1.6074219, 0.20874023, -0.73095703, 2.4863281, 0.025970459, -2.8535156, -2.3300781, -0.63623047, 1.8583984, -1.3095703, -1.8955078, 0.37817383, -0.81591797, -1.5175781, -0.90478516, -0.69140625, -0.76416016, -0.39282227, -1.4375, 0.26708984, 0.32299805, -2.8007812, -0.46704102, 0.32592773, 1.390625, 2.7539062, -0.17028809, -0.074523926, -0.94384766, -0.4519043, -0.7392578, -0.75439453, -0.6640625, -0.08013916, -0.578125, 0.19812012, -1.0400391, -1.0019531, -2.3261719, -0.3388672, -2.2246094, 1.6083984, -0.39794922, -0.8725586, -2.1347656, 1.4501953, 1.2939453, 1.4638672, 0.34228516, 2.1347656, 2.2519531, -1.2568359, 1.4863281, -0.57373047, -1.0537109, 0.113342285, 2.0859375, -0.034973145, 0.07006836, 0.44677734, 1.3984375, -2.484375, 0.8364258, -1.4755859, -0.7270508, -0.8676758, 0.054656982, 1.5371094, 0.8911133, 1.0644531, -1.7197266, 1.8652344, 1.8085938, 1.0742188, 0.6020508, 2.6640625, -1.0820312, -1.5273438, 2.1425781, 0.5253906, 0.6245117, -0.5541992, -1.9785156, -1.828125, -0.022521973, 1.0732422, -3.9082031, -0.8120117, -1.8896484, -0.3815918, 1.6914062, -0.5029297, -2.8398438, 1.1621094, -0.27270508, -2.0371094, -0.09008789, -0.17138672, -1.7802734, 1.4003906, 1.3759766, -2.421875, -0.016983032, -1.5634766, -1.1582031, -2.0078125, 1.0292969, 0.8618164, 1.3242188, 0.5341797, -1.2167969, 0.2944336, 0.4560547, 1.4960938, -1.2958984, 2.0839844, 1.5029297, 0.3149414, 0.6015625, -0.2541504, -0.36572266, -0.014053345, -1.4003906, 0.26538086, 0.18334961, -0.6347656, -1.1933594, 1.6152344, -0.14660645, -0.14709473, -0.3696289, 1.3730469, -0.9980469, -0.6894531, -1.4970703, -0.5698242, -1.5087891, -0.83251953, -1.1005859, 1.578125, -0.30029297, 0.7324219, 1.6953125, 0.8300781, -1.0410156, -0.85058594, -0.43310547, -0.119262695, 2.1230469, -0.8256836, 0.047058105, 0.2692871, 1.8164062, -1.4052734, -2.0195312, 1.7050781, 0.29785156, 1.0400391, -0.79833984, -0.8408203, 0.0070724487, 0.24133301, 0.39501953, -0.4194336, 4.1835938, 1.1054688, 1.5869141, -0.72216797, 0.82470703, -0.86376953, 1.3173828, 1.5371094, 0.02507019, 0.5439453, -2.4980469, -0.6977539, -1.8828125, 0.2775879, -0.19030762, -0.06149292, 2.0898438, 0.8071289, -0.7915039, -0.86279297, -0.0022506714, 1.4423828, -1.8056641, 1.0498047, -2.2675781, -0.5366211, 1.1396484, -1.5908203, -1.0488281, -1.4101562, 0.36279297, -2.1953125, 1.6787109, -0.8857422, 0.50146484, -2.984375, -0.63916016, -2.3496094, 0.57910156, 1.4042969, 0.15161133, 1.7900391, 1.7167969, -0.39868164, -0.6640625, -0.96435547, -0.8276367, 1.0273438, 0.88427734, -0.07684326, -1.3759766, 1.3466797, 0.61572266, 1.2451172, 1.8769531, 1.3212891, -0.09234619, -0.5673828, -0.23742676, -1.1162109, -3.0566406, -0.90234375, -1.4453125, -2.953125, -0.89404297, -2.1816406, -0.2692871, 0.4814453, 0.59765625, -2.1171875, 0.38720703, 0.57714844, 0.057769775, 1.25, -1.2949219, 0.328125, -2.9882812, -0.04547119, -0.73095703, 0.083984375, 4.2304688, -1.1914062, 2.8261719, 1.1923828, 1.1494141, 3.0976562, 0.7270508, -1.5498047, -0.80859375, -1.4140625, 1.1367188, 1.2275391, -0.61572266, 0.47485352, -0.5756836, 0.9433594, -0.9433594, -2.5078125, 0.14453125, 0.09875488, -0.032165527, 0.11328125, -1.1025391, -3.5664062, 0.037078857, -1.3867188, 2.0546875, -0.42358398, -1.1894531, 0.8461914, 2.703125, 0.49780273, 0.8095703, 0.60546875, -0.9790039, -1.5146484, -2.5761719, -1.8535156, -0.17895508, 0.03274536, 0.6665039, 1.7822266, 1.6074219, 0.1328125, -1.4599609, -1.3867188, -1.390625, 0.22351074, -2.0058594, 0.12756348, -0.44848633, 1.2832031, 0.5673828, -1.3232422, -0.3317871, 2.6640625, -0.18884277, -0.61376953, -1.3642578, 0.5595703, -0.84375, -1.265625, -0.93603516, 0.5908203, -0.30029297, -0.3569336, 0.80908203, -1.9453125, 2.625, -0.67871094, 1.1376953, 1.0166016, -0.31225586, -0.5317383, -0.5625, 1.1210938, 1.3085938, -0.12036133, -0.31445312, 1.15625, 1.1152344, -1.2197266, 0.007369995, 0.34985352, 0.041656494, -1.0537109, 0.22009277, 0.06097412, 1.5800781, -1.2851562, -1.9404297, 0.2010498, -0.8154297, -0.10247803, 0.007293701, 2.0625, 1.1933594, -1.1738281, 1.4667969, 0.9975586, -1.1875, -1.6347656, 1.0693359, -0.2524414, 1.7871094, 1.5332031, 2.9570312, 1.0244141, -0.6484375, 2.0429688, 3.3261719, -0.033966064, 0.9189453, -0.69628906, 0.4951172, -0.5629883, 0.20983887, 0.98583984, 1.7597656, 1.4951172, -0.20605469, 0.16174316, -0.56103516, 1.0439453, -1.4667969, -0.97753906, 1.3222656, 0.08001709, 1.9599609, -0.94140625, -1.7275391, 0.40649414, -0.0524292, -0.18786621, 0.31176758, -1.8007812, 0.6816406, 0.53271484, -2.0390625, 2.3261719, -0.42016602, 0.9819336, -0.3371582, 1.0947266, -0.4543457, -0.19140625, 1.1015625, -2.40625, -1.1835938, 0.52441406, -0.3701172, 1.0927734, -1.8710938, 0.94921875, 1.4960938, -0.31811523, -2.0019531, -0.7939453, 2.765625, -2.0429688, -0.039733887, 1.6689453, -0.56591797, 0.29711914, 3.1269531, 2.0253906, 0.21362305, -0.27905273, 1.6982422, -0.2849121, -0.051849365, 0.09918213, 2.1523438, -0.8027344, -2.3945312, 0.82958984, 0.28735352, -0.33935547, -2.3144531, -1.0419922, 0.7084961, -0.06555176, 0.3984375, -0.77441406, -0.16308594, -0.8701172, 2.7011719, -1.0576172, -0.12646484, -1.3007812, -0.6972656, 1.078125, -0.020126343, 1.1826172, -2.3203125, 1.8554688, -0.72265625, 0.24621582, 0.35424805, 1.8457031, 1.7314453, 0.16015625, 0.8720703, -1.9599609, -2.1328125, -0.6303711, 0.08123779, 0.19104004, 1.1220703, 0.9550781, -1.6376953, -0.24890137, -0.38720703, -2.1621094, -0.47583008, 0.43725586, 0.21704102, 1.8876953, 0.29956055, -0.022888184, -0.47070312, -0.32470703, 0.2668457, 1.4443359, 0.30297852, -0.7705078, -1.5185547, -0.21081543, 0.17114258, -3.0292969, -1.078125, -0.2861328, -0.54833984, 0.5917969, -0.45141602, -1.2021484, -2.140625, 3.3359375, 1.4140625, 0.2548828, 0.14501953, -0.89697266, -1.2695312, 1.1035156, -0.5566406, 0.6015625, -3.0527344, 0.44555664, 1.7529297, -0.9868164, 2.2011719, 1.03125, 1.3730469, 2.2558594, 2.9375, 0.04244995, 1.0625, -0.37939453, 0.6323242, 0.60839844, -0.34570312, -1.3505859, -0.08123779, -3.7636719, -0.5390625, -1.2910156, -0.6411133, 0.4621582, -0.10913086, 0.44458008, -1.3330078, 2.9628906, 0.30419922, 0.5913086, 1.5898438, 0.26464844, 1.1230469, 0.19470215, -0.7270508, -0.060516357, -1.3769531, 0.2043457, 0.7211914, 0.99316406, -2.8984375, 0.5917969, -1.2675781, -1.1894531, -0.7993164, 0.20239258, -1.1835938, 0.21472168, -0.67333984, 1.1533203, -1.1855469, 1.9189453, 1.9511719, -1.1152344, 0.703125, -0.34765625, -0.46899414, 0.9980469, 2.9648438, -0.07183838, 1.8076172, -0.9682617, 0.9404297, 1.8056641, -0.10974121, 0.13708496, -2.0683594, 0.11413574, 1.421875, 1.8515625, 0.03475952, 3.3730469, -0.13195801, 0.1619873, 0.66503906, 0.67285156, -1.7910156, 1.2275391, 1.2265625, 0.6484375, 0.265625, 0.79003906, 0.5288086, 0.3815918, 0.2890625, 0.0034770966, -0.26611328, 0.3310547, 1.1416016, -0.40454102, 0.21862793, 1.6650391, 0.54589844, 0.30200195, -1.1503906, 0.35668945, 0.6455078, -1.4404297, 0.28100586, -1.0585938, 1.2880859, 3.3535156, 0.18786621, 1.3984375, 1.7636719, 0.67578125, 0.85058594, 1.8320312, -0.40429688, -1.1396484, 1.6015625, -0.99853516, 1.9902344, -0.0690918, 2.4667969, 0.55371094, 1.3398438, 0.06439209, 0.82958984, -0.1586914, -1.2050781, -0.40576172, -1.359375, -0.6958008, 0.3046875, -0.43652344, -0.08660889, 2.1074219, -0.94384766, 0.93115234, 1.1464844, -1.9326172, 0.040252686, 0.15637207, -0.4140625, -2.5136719, -0.12243652, -1.5166016, 0.6254883, 1.6689453, 0.7651367, -1.8945312, 0.6123047, 0.78222656, -0.6640625, -2.9179688, -1.7773438, 0.50927734, -0.4724121, 1.0947266, 0.46240234, 0.14367676, -0.8803711, 0.3557129, 1.3300781, 0.5102539, 0.5107422, -0.29882812, -0.32958984, 1.2617188, -0.28637695, 2.0253906, -0.8144531, 1.4316406, -0.3395996, -0.7758789, -2.7636719, 1.9091797, 0.15930176, 0.02168274, 0.57470703, -0.74853516, 0.18395996, -0.12768555, 1.6689453, 1.2431641, 1.4042969, -1.3730469, 2.265625, -1.4101562, -0.9428711, -0.12683105, -0.109191895, 0.22949219, -0.30566406, -0.40112305, 1.2509766, 1.1054688, 1.2148438, 0.110839844, -0.8066406, 0.0713501, -0.74560547, -1.3759766, 0.8803711, 1.4951172, 3.9394531, 0.16625977, 1.4228516, -0.21350098, 1.5371094, 0.90283203, -1.9824219, -0.5258789, -0.44433594, -0.44433594, 2.3105469, 0.21972656, -0.61083984, 0.15270996, 1.9199219, 0.16601562, -2.546875, -3.0625, -0.6611328, -0.82910156, -1.7060547, 1.8076172, 0.30200195, -0.7636719, 0.9794922, 0.055664062, -0.30639648, -1.3417969, -0.5957031, 0.515625, -0.44067383, 0.77001953, -0.16088867, -2.28125, -2.5566406, 2.0820312, 0.45776367, 0.3239746, 2.0097656, -0.9003906, -1.796875, -0.4987793, -0.16430664, -0.546875, 2.2949219, 0.04675293, 1.7587891, -0.3713379, 0.56884766, -2.5292969, 0.83447266, -0.4831543, -0.09313965, -0.796875, -0.29174805, -1.5449219, -1.5576172, 0.56591797, -1.0107422, 1.9501953, -0.24841309, -0.23425293, 1.0283203, 2.0117188, 0.8256836, -2.4003906, 2.6113281, 0.44702148, 0.114746094, 1.5048828, -1.7197266, 1.3242188, 2.8164062, 1.2666016, -0.11553955, -1.4716797, 0.33374023, -2.90625, -0.13879395, -0.64697266, 0.9951172, -0.6254883, 0.14221191, 0.8979492, -0.65527344, -0.15905762, 0.6665039, 1.9912109, -0.6040039, 2.1328125, -1.2236328, 0.79541016, 0.3388672, -0.07684326, 0.6196289, -1.421875, 0.41235352, 0.19494629, -1.5498047, 0.24487305, -2.7148438, -0.515625, -1.1777344, -0.32421875, 0.19580078, 0.8066406, -0.8652344, -1.0742188, 1.3642578, 0.94091797, -0.20947266, -1.1289062, -0.03074646, -0.27294922, -2.3066406, 1.4306641, -0.8881836, 0.30786133, -0.04925537, 1.5664062, -0.32836914, -1.1943359, 1.1923828, -1.3193359, -0.8276367, 0.546875, 2.5214844, -0.26367188, -0.43041992, 0.24194336, 1.7636719, 1.7275391, 1.5009766, -0.16967773, 0.23913574, -0.2980957, 1.2197266, 0.3647461, 0.3149414, -0.57421875, -0.47021484, -0.14953613, -1.6044922, -0.67333984, -0.103393555, 1.0712891, -1.0732422, 1.2548828, 1.2265625, -0.43164062, -0.32373047, 0.77685547, -0.31689453, 1.1591797, 0.6948242, 1.1113281, 1.3759766, 0.9584961, -0.875, -1.3535156, 0.87646484, 0.32495117, -0.27905273, 1.6601562, 1.8271484, -0.23278809, 2.0859375, 0.25610352, -0.92285156, 2.3964844, 1.3447266, 0.3190918, 0.026794434, 0.22436523, 1.3779297, -0.17712402, 1.9326172, -0.1361084, -1.6533203, 1.2832031, 2.1523438, -0.035614014, -1.3828125, -0.3083496, 0.23046875, 1.1005859, -2.9121094, -1.8642578, 0.37304688, 1.7451172, -0.6196289, 0.5576172, -0.4387207, 0.20275879, -0.8491211, 0.4333496, -1.8808594, 1.2050781, -2.8535156, 2.0351562, -2.7929688, -2.2109375, 0.265625, -0.8886719, -0.13171387, -2.296875, -1.0302734, -2.6640625, -0.6303711, -0.21716309, 1.2578125, -0.51464844, 0.3154297, 1.0830078, 0.37060547, 1.6787109, -0.6035156, 0.34228516, -1.7529297, -1.8808594, 2.4453125, 0.86572266, -1.2988281, -0.9482422, -1.0253906, -0.6064453, -1.2460938, 1.9736328, 0.29418945, -0.5361328, 0.002325058, 1.2392578, 1.4492188, 0.65185547, 1.6132812, -1.5742188, 0.19836426, -3.0351562, 2.5195312, 0.5698242, 0.8642578, -0.52978516, -0.5209961, 0.006252289, 0.38085938, -0.7890625, 0.66308594, 1.4238281, -0.68847656, 0.13708496, 0.34692383, 1.4873047, 0.56396484, 1, 0.093811035, 0.37353516, -0.2052002, -0.77783203, 1.0546875, -0.5996094, 1.5185547, -1.2421875, 1.6464844, -0.95703125, 1.8164062, -0.9970703, 0.20214844, -0.4958496, -0.85009766, -0.15551758, 0.051818848, 0.37280273, 1.8828125, 0.4621582, 1.1474609, -0.42993164, 0.6113281, 0.6689453, -1.171875, -1.5996094, 0.80029297, 2.3378906, -0.3935547, 0.15844727, -0.7314453, -0.53466797, 1.6455078, -0.77734375, -1.6054688, 0.6201172, -0.86083984, 0.9746094, -1.4648438, -2.7636719, -0.5932617, 0.6503906, -2.2285156, 0.79589844, 1.3583984, -1.7529297, -0.2319336, -1.1289062, -0.640625, -1.65625, -0.18688965, -2.4160156, 0.40112305, 0.99121094, -0.31567383, 0.7871094, 0.3178711, -1.2060547, 0.8696289, -2.5410156, 1.2490234, 1.6289062, 2.875, 0.1907959, -1.2607422, -0.74072266, -0.22790527, 0.66552734, 1.2001953, 3.1367188, -0.75927734, 0.08831787, 1.1396484, -2.8398438, -0.6064453, -0.47509766, -1.4365234, 1.5644531, 1.1484375, -0.1739502, -1.6992188, -1.1259766, -1.046875, 0.52197266, 1.9863281, -1.25, -0.5541992, -0.46972656, 0.14794922, 1.0400391, -0.85058594, -1.9902344, 0.2668457, -0.02053833, 1.8925781, 1.234375, -1.5351562, -0.33496094, 2.4160156, -0.070495605, 0.6621094, -0.8457031, -1.1279297, 1.4003906, -0.51416016, 1.4833984, -1.2880859, -0.5546875, 0.49243164, 0.76416016, -1.2675781, -1.1376953, 1.7695312, -1.3808594, -1.4169922, -1.6464844, -3.8125, -0.34448242, 0.5727539, 0.6826172, -1.2148438, 3.8476562, 1.0732422, -0.81396484, -2.0292969, 0.76220703, -0.7841797, 1.6582031, 1.6601562, -0.56152344, -0.5449219, -1.5898438, 1.5371094, 0.2788086, -0.053741455, -2.1679688, -1.4765625, -0.29003906, 0.17285156, -0.18017578, 0.21765137, 0.23120117, -0.4885254, -0.37475586, -0.2055664, 6.4570312, 1.8984375, -1.0097656, 0.765625, -0.19250488, 0.68847656, 1.1201172, 0.5175781, -0.43408203, -0.47705078, 1.9677734, -0.013328552, 0.025268555, -1.5351562, -0.37524414, -0.45776367, 1.2734375, 0.9267578, -1.4599609, -1.7988281, 0.22033691, -1.2402344, -0.8652344, -0.12536621, 0.10223389, -2.0585938, -0.46606445, -1.21875, 0.79589844, -1.2353516, 0.18286133, -0.29223633, -0.43164062, -0.5654297, 0.1694336, -0.4428711, 2.5761719, 0.61816406, 0.07647705, -1.1962891, -2.25, 2.0742188, -2.6347656, 1.1894531, -1.1425781, -0.49804688, -0.6020508, -0.5253906, -1.8242188, 2.2460938, -1.5498047, -0.53027344, -0.39013672, 1.9306641, 1.8583984, 1.0947266, -0.89941406, -1.4814453, 0.18615723, -1.1708984, 1.1152344, -2.5527344, 0.4946289, -0.57177734, -1.6220703, 0.18566895, -0.55810547, -0.90283203, 0.6542969, 1.5996094, 2.1660156, 0.67041016, -2.0996094, -0.07989502, 1.3271484, 0.09655762, 1.4326172, 1.4238281, -2.9433594, 1.1865234, -0.34057617, 2.4375, 1.1015625, -1.59375, -0.86621094, 0.29638672, -0.27685547, -0.33447266, -0.03164673, 1.3632812, 1.0830078, -1.1201172, 2.0625, -1.1220703, 0.121520996, 0.7607422, 1.1220703, 0.5415039, 0.6665039, 1.7441406, 1.5449219, -0.02444458, -1.5488281, -1.2275391, -0.9243164, 0.8178711, 1.8212891, -0.101745605, 0.6894531, 0.77685547, 0.65234375, 4.4765625, 0.18286133, 0.45996094, 3.0351562, -1.078125, -0.64501953, 1.4824219, -2.2832031, 1.4101562, 2.1855469, 2.296875, 0.27856445, 0.6977539, 0.83691406, 1.6123047, 0.036132812, -0.8833008, 0.5761719, 3.2207031, -0.105651855, -0.43408203, -1.3320312, -0.45214844, 0.5834961, -0.25830078, 0.38867188, -1.3398438, -1.0585938, 1.1601562, -2.109375, 3.234375, -1.2207031, -0.93603516, -0.4111328, 0.95751953, 1.7939453, -0.44091797, -0.17260742, -0.8334961, -0.063964844, -1.8515625, 0.421875, 0.19494629, -0.62109375, 0.30126953, 2.046875, 2.7460938, 0.26660156, 1.5761719, 0.8769531, -0.26635742, 0.7182617, -1.4101562, 2.3984375, 2.4003906, 0.039520264, -1.6621094, -2.6816406, -0.94970703, -0.00566864, 1.7353516, -0.77441406, 0.3149414, 2.2421875, -0.9453125, 0.10614014, -0.56933594, -1.3779297, 1.3232422, 0.041137695, -0.6254883, 2.2851562, 0.083862305, -1.8623047, -1, 1.3037109, 0.74560547, -1.4101562, 0.5571289, -1.6464844, 0.7089844, -0.5488281, -1.0244141, -0.10986328, 1.8896484, 0.7006836, -0.54248047, 1.4824219, -1.1376953, 0.02708435, -0.27075195, 0.6894531, 0.7133789, -0.34545898, -0.08203125, 1.4394531, -0.12805176, -0.99316406, -0.27905273, 0.18530273, -0.6982422, 0.43652344, 0.022537231, -0.31054688, 0.52978516, -0.7246094, 0.7607422, 0.097473145, 2.2792969, -0.6484375, 1.0947266, 0.03353882, 2.3828125, 1.4394531, -0.12878418, 1.1777344, -1.7216797, 1.0146484, 0.9458008, -1.6953125, 0.0039901733, -0.3798828, 1.7939453, 0.71972656, 0.048339844, -0.27929688, -0.5307617, 2.0742188, -0.51708984, -2.7207031, 4.203125, 1.5380859, 0.4033203, -0.101989746, 2.765625, 2.1386719, -1.7460938, -0.62841797, 0.5371094, 1.4130859, 0.48608398, 0.6665039, 0.65283203, -0.37426758, 0.18518066, 0.11553955, -0.5361328, -2.5820312, -1.1259766, -0.36010742, -4.4960938, -0.828125, -0.99072266, 1.1513672, 2.1113281, 0.040740967, -1.5107422, -0.95458984, 0.27075195, -0.31225586, 0.17541504, 0.075805664, 1.1787109, 0.5336914, 0.6308594, 2.2128906, -0.55078125, 1.5605469, -0.6118164, -4.0507812, -0.047454834, 0.6791992, 0.15661621, 0.36621094, -0.56396484, -1.5966797, 0.11566162, 1.0449219, -0.6904297, 1.3417969, -0.2310791, 0.6796875, -0.17053223, -2.1484375, 1.0664062, 1.0673828, -0.14135742, 0.6660156, 0.4477539, -0.7993164, 1.0048828, 2.7441406, -1.7304688, 1.7666016, 1.921875, -0.32348633, -0.7006836, -0.5263672, -1.2949219, 0.17199707, -0.54589844, 0.6948242, -0.58496094, 0.29077148, -1.2353516, 0.13195801, -0.44335938, 0.022644043, -2.015625, 0.1027832, -0.11437988, -0.74853516, 0.11456299, -0.054992676, 0.17272949, 0.2109375, 0.00022292137, -0.21716309, 1.3847656, -0.8388672, -1.7001953, 0.30126953, 1.9277344, 3.7910156, -0.6201172, 1.4189453, -0.67089844, 1.3945312, 0.4658203, -1.6123047, -1.1640625, 0.48657227, -0.56640625, 0.38549805, 1.0644531, -1.9462891, -0.006839752, 1.3271484, 1.2333984, 0.43652344, 2.9453125, 1.8232422, -0.40454102, 0.20812988, -1.9355469, 2.9335938, 0.08618164, -0.3803711, 2.4765625, -1.2832031, 1.1435547, 4.3007812, -0.09094238, -1.6396484, 1.4365234, 0.14379883, 1.3056641, -1.4375, 0.40771484, 0.9589844, 1.1875, -2.1484375, -0.19128418, -0.7495117, -1.0234375, -2.1015625, 0.2512207, 1.5605469, -1.2460938, 2.1601562, 1.9902344, 0.4951172, 2.7382812, -0.08459473, 0.5698242, 0.67041016, -0.29077148, -0.55371094, 0.93603516, -3.0117188, 0.03479004, -0.1517334, -1.5673828, 0.7817383, -0.84765625, 0.3071289, 1.7363281, 0.6074219, 0.71972656, -1.3378906, -0.5258789, -1.53125, -2.2753906, -0.061645508, 0.6660156, -0.8017578, 1.453125, 0.89990234, -2.8164062, -0.5932617, -0.20751953, -0.53027344, -1.2001953, -2.7421875, -0.9301758, -0.78466797, 2.8183594, -1.0947266, -3.1640625, -0.45996094, -0.4724121, 1.3398438, -0.39282227, 0.7416992, 1.8046875, 1.125, 0.3984375, 1.34375, 0.796875, 0.6689453, 2.1582031, 1.1503906, -1.296875, -1.3369141, -1.3095703, 0.52246094, 0.43188477, 1.3085938, 0.40771484, -1.4736328, -0.13781738, -0.13671875, 0.66748047, -1.3544922, 0.984375, -1.2822266, -5.7851562, -0.6933594, -0.6621094, 0.62353516, 0.7338867, -2.0214844, 1.4511719, -1.4042969, -2.625, 0.7265625, 1.0830078, -2.0019531, 2.5273438, 0.96435547, -0.52685547, 1.7861328, -0.056243896, 0.48632812, 0.6352539, 0.27929688, -0.74072266, -0.23657227, -0.79785156, 1.6484375, 1.3769531, -2.1054688, -1.3984375, -0.5083008, -0.36914062, -1.9667969, 0.7290039, 3.9199219, -1.9033203, -0.44921875, 0.8857422, 0.6958008, 1.6181641, 0.5527344, 0.7089844, -1.1669922, 1.9755859, 4.9960938, 0.22973633, -1.8515625, -1.6181641, 0.6176758, 0.2763672, -0.31323242, 0.6821289, -0.3737793, 0.7416992, 0.34423828, -0.44580078, 0.7338867, 2.0605469, 0.14990234, 0.37817383, 3.3457031, 0.6870117, 0.9838867, -0.55029297, 0.6196289, 1.1132812, 0.6801758, 0.27929688, 1.125, -1.0302734, -1.1914062, 0.46923828, -2.0566406, 1.5507812, -0.79833984, -0.6220703, 0.29638672, 2.46875, -0.0073547363, -0.77197266, -2.3164062, -0.08929443, -0.13793945, 1.1240234, 0.16247559, -2.6269531, -0.5625, -1.2636719, -1.296875, -0.40551758, -2.5664062, -0.068725586, 1.4199219, 0.27685547, 1.3583984, 0.66552734, 0.5566406, 1.8828125, -0.33862305, 1.3320312, -1.6621094, 1.6044922, 0.43896484, 2.0625, -0.48876953, -2.3984375, -0.97509766, 0.38989258, -0.43725586, 1.6767578, -0.85595703, 3.0292969, 0.72509766, -1.2714844, 1.2646484, -0.26953125, -1.5458984, -0.46899414, 0.7294922, 0.3725586, -3.5625, 1.4970703, 0.44458008, -0.8720703, -1.4697266, -1.5449219, 0.34692383, 1.9228516, -0.7680664, -0.82910156, -2.7207031, 2.8359375, 0.37768555, 1.8955078, 1.9716797, 0.14868164, 0.49243164, -3.2910156, 1.4892578, -0.59033203, 0.15197754, -0.36743164, 3.1035156, -0.9824219, 0.77001953, -1.8037109, -0.97802734, -0.52734375, -1.6171875, -1.5419922, 0.4338379, -0.47509766, -1.5742188, -0.4519043, -0.3791504, -0.7470703, -0.7636719, 0.38989258, -0.7207031, -1.1923828, -0.21777344, 0.8310547, 0.9814453, -1.5947266, -0.6425781, -0.07849121, 1.1787109, 1.5878906, -0.6689453, 0.3125, -0.8432617, -2.1972656, -0.640625, 1.9052734, -0.75878906, 0.059539795, 1.6181641, 0.3371582, 0.67333984, -1.75, 1.9394531, -0.32348633, -0.027923584, -0.027267456, -0.5366211, -0.25683594, 0.13000488, -0.040374756, -1.1884766, 0.3815918, -2.5195312, 0.39746094, 0.11541748, -0.25268555, 0.65966797, -0.5107422, 1.3320312, 0.09918213, 0.27001953, -0.24475098, 0.76220703, -0.5058594, -1.8623047, -0.20617676, 2.3027344, 0.15893555, 1.0302734, -0.83447266, -0.31518555, -1.7226562, -2.234375, 0.88427734, 1.4423828, -0.51464844, 1.2451172, -0.36547852, -2.015625, -0.51708984, -0.18798828, 1.3730469, -1.3681641, 0.43286133, 1.4501953, -1.3925781, -0.28979492, -1.9775391, -2.6210938, -1.2802734, 0.99609375, -0.27148438, -1.3173828, -1.1435547, 0.88378906, -2.8847656, -1.5302734, 1.4951172, -0.28979492, 3.6992188, 0.41723633, 0.14587402, -0.76220703, -0.7548828, -0.000910759, -1.5957031, -0.8173828, 0.6767578, 0.08258057, -2.9902344, -0.9116211, -6.6015625, -0.74072266, 0.78027344, 1.2822266, 0.41601562, 3.2285156, -0.07965088, 1.2373047, -2.6660156, 0.20617676, -2.3691406, 0.33398438, 0.19787598, -0.19165039, -1.2880859, 2.8203125, -0.3544922, -2.0058594, -1.8730469, -2.7832031, -2.6464844, 0.75927734, -0.2166748, 2.7539062, 0.30664062, 0.9584961, 0.5493164, -0.16357422, 0.6020508, -0.2763672, 0.4873047, -0.12438965, -0.0042648315, -0.32592773, -0.8251953, -0.109558105, -0.6425781, -0.42089844, -0.47265625, -0.6748047, -0.33276367, -2.0507812, -2.6210938, 0.10168457, -1.2851562, 1.3134766, 0.85595703, 1.5244141, -0.15368652, -0.50390625, -0.8886719, -0.12084961, -0.39916992, -0.7939453, 1.1035156, 0.23144531, 1.3916016, -1.3691406, -1.1074219, 0.8105469, 0.21777344, 0.7290039, -0.008003235, 1.7832031, -0.5444336, -0.37304688, 1.2236328, -1.1054688, 0.028289795, 0.15795898, -1.0400391, -1.2119141, 1.4902344, -0.07733154, -1.1933594, -0.5756836, -3.7460938, 0.92285156, 1.3867188, -0.25073242, 0.44750977, -0.070617676, 2.0878906, 0.83496094, 0.4645996, 0.13256836, 0.9794922, -0.09100342, 2.0019531, -1.3632812, 0.32543945, 0.05709839, 1.3017578, 0.9926758, 1.5498047, 0.08996582, 0.83251953, 2.4296875, -1.9140625, -1.1962891, 0.61035156, -0.5258789, -0.16540527, -1.7724609, -1.78125, -1.6865234, -0.8076172, 1.0253906, 0.5175781, 0.75634766, -1.1757812, 1.3642578, 1.2226562, -2.1601562, 0.5366211, -1.796875, -1.8515625, 3.0332031, -0.06939697, 1.0507812, -0.5292969, 1.6699219, -1.2265625, 1.6494141, -0.78125, -0.95458984, 0.24780273, -2.2832031, -1.3623047, -0.17272949, 0.4831543, 0.029815674, 0.24389648, -3.984375, -0.17089844, -2.7304688, 0.54345703, -1.5908203, 0.23303223, -1.65625, -0.9267578, 1.5371094, -2.015625, -1.1572266, 1.3222656, 2.9648438, 0.35205078, -0.101989746, -1.1513672, -0.7006836, -1.2763672, -0.3227539, 0.5991211, 0.18359375, -0.2442627, 0.9975586, -0.24133301, -1.4619141, -0.20043945, -0.7675781, 1.8574219, 1.1152344, 1.0878906, -1.0927734, -0.83203125, -0.94091797, -1.1494141, -1.3134766, 1.1064453, -0.7910156, 1.1611328, -0.8886719, 1.4677734, -0.90966797, -0.58447266, -1.1191406, 0.5830078, -1.0078125, 0.11022949, -0.13659668, 0.37963867, -0.65527344, -2.0761719, -0.9707031, -0.7651367, -0.6152344, 2.6367188, 1.5664062, -0.25268555, -0.008834839, 1.3085938, 0.03656006, -0.6074219, 0.043518066, -2.375, 0.9472656, -0.875, -1.3867188, -0.7734375, -0.68847656, -0.6982422, -1.8779297, 1.2265625, -1.7832031, -1.3056641, -1.3193359, -1.9511719, 1.2197266, -3.171875, -1.1054688, -1.9189453, 0.91308594, -0.7973633, -0.035186768, -0.15148926, 0.26489258, 2.3398438, -0.099731445, 0.30371094, 0.14196777, 0.52001953, 0.11456299, 0.6040039, -0.9428711, -0.07897949, -1.8300781, 1.5498047, -0.04663086, -1.2666016, 2.4394531, 0.42285156, 0.57910156, 2.1308594, 0.6635742, 1.8671875, 0.6640625, 1.5761719, 1.4755859, -1.1220703, -1.5214844, -1.6132812, 2.8925781, 2.4472656, -0.49438477, 0.7163086, 1.6347656, 0.9946289, -0.17993164, 1.3457031, 0.1348877, 0.24963379, 3.8808594, 3.0800781, 0.27124023, 1.96875, -0.42871094, 1.7744141, 1.0009766, -0.40234375, -0.20056152, -3.1640625, 1.2646484, -0.4921875, 1.1074219, -3.2539062, 1.4306641, 0.6972656, 1.4326172, -1.9423828, -0.17822266, -1.8808594, -1.6464844, -0.30810547, 2.1230469, -3.28125, -0.9165039, -0.8959961, 2.5488281, -1.2373047, 0.6015625, -0.7661133, 0.54296875, -1.703125, 0.14733887, -0.6152344, -1.671875, -0.32861328, 0.42700195, 0.81884766, 1.296875, -1.3769531, -1.3808594, -0.6665039, 0.47827148, 0.45410156, -1.8105469, -1.0898438, -0.9008789, -1.4736328, 0.18371582, 0.17028809, -0.13708496, 0.090270996, -0.546875, -0.38671875, 0.4206543, 0.64990234, 1.5097656, 0.8022461, -2.0234375, 0.45410156, 1.4501953, -0.42285156, -1.1445312, 0.36035156, 0.23474121, 0.15405273, -0.4111328, 0.16186523, 0.26953125, 0.24377441, -1.2832031, 3.1484375, -1.0175781, -0.031036377, -0.13647461, -1.2226562, 0.90625, 1.5107422, 0.23339844, 0.11779785, -1.9912109, -1.4326172, 0.41918945, 1.1152344, 1.0097656, -1.2724609, -1.4091797, -0.6635742, 1.6982422, 0.20666504, -0.6401367, 0.90283203, 3.1445312, 0.34643555, 3.2734375, 0.04550171, -3.109375, -0.25854492, -0.055114746, -0.42407227, 0.21862793, 0.7915039, -0.12213135, -0.79248047, 0.40576172, 0.63916016, -0.8120117, -0.6323242, -0.6904297, 0.6357422, -0.17663574, 0.9838867, -2.6894531, -1.3037109, 1.3623047, 1.0576172, 1.2558594, -0.42163086, -0.2006836, 0.67041016, 1.5693359, -0.4416504, -0.21643066, 1.5185547, -0.92871094, -2.0488281, -1.1230469, -0.95947266, 0.79833984, -2.1425781, -0.12188721, -0.5551758, -1.0009766, -0.56103516, -0.32373047, 1.5400391, 1.1435547, 2.8535156, 0.5263672, 0.953125, -0.9296875, -1.2392578, 1.4853516, -0.3762207, -0.9560547, -1.3652344, 0.6879883, -0.25146484, -0.64746094, 1.2666016, -1.4443359, 1.4003906, 1.7861328, -0.78466797, 0.87109375, 0.08758545, -0.4111328, 0.045776367, 1.8710938, 0.35131836, 0.10687256, 2.3242188, -1.46875, 1.5380859, 1.0244141, -1.5644531, 0.9223633, 0.3696289, 2.7070312, 0.5488281, 2.8261719, 0.023513794, 1.7695312, -0.5083008, -3.4277344, 1.5498047, 0.6635742, 0.77490234, -0.32128906, -0.9199219, -0.07446289, -1.0136719, -1.0029297, -0.6015625, -0.46728516, -0.5800781, 0.0635376, -1.7626953, -1.6123047, 0.6948242, 0.08319092, -0.18139648, 3.2304688, -0.5859375, 1.0146484, -0.5786133, 2.21875, 0.09088135, 0.66796875, -1.390625, -1.1923828, -0.6298828, 0.30639648, -2.0742188, 0.46435547, -1.7353516, -1.4228516, -0.3876953, -0.9428711, -1.0878906, 1.9580078, -0.23706055, 0.62109375, -0.9003906, -0.86816406, 0.21142578, 0.6591797, -0.69140625, -1.0869141, -0.7451172, 0.7084961, -1.203125, 0.75, 0.55810547, -0.86279297, -3.7617188, 0.39013672, -1.5078125, 1.3232422, 0.4020996, 1.3496094, 1.4892578, -0.734375, -0.32983398, 0.09710693, -1.1445312, 1.1103516, -0.05657959, 1.6640625, -1.3496094, -1.2919922, 1.6806641, 0.8803711, 0.59716797, -1.3779297, 2.1074219, -0.87353516, 0.6503906, 0.06524658, -1.7998047, -0.6328125, 1.3544922, -0.9560547, -1.1132812, -0.0073547363, -0.48608398, -0.015174866, -1.0332031, 0.6894531, 0.78564453, 2.1640625, -0.37817383, 1.3623047, 1.1582031, 1.9169922, 1.3349609, 0.6245117, 0.52441406, -1.6601562, 0.9248047, -1.4179688, -0.43676758, -0.8803711, -1.0917969, 0.0066566467, -1.0556641, 1.5009766, -0.91796875, -1.1298828, 1.5996094, -0.5546875, -0.057281494, 0.6767578, 0.6225586, -0.97021484, 0.66064453, -0.18969727, -0.14025879, 0.33422852, 1.1083984, 1.7451172, -1.8515625, -0.11828613, 0.67529297, -0.16369629, 0.2722168, -0.51171875, 1.3144531, -0.51220703, -0.16308594, 0.13562012, -1.5644531, 0.022079468, 1.3242188, 0.5097656, -0.4182129, -0.050994873, -0.15332031, -0.09655762, -2.5332031, -1.8134766, -1.3994141, 1.4082031, 0.90478516, -2.5800781, 2.2207031, -1.9628906, 0.31176758, 0.48095703, -0.9902344, -0.014404297, 0.29296875, -1.7763672, 1.0761719, -0.03466797, 2.3789062, -1.3007812, 1.3037109, 1.5605469, 0.7519531, -1.8671875, -0.17028809, -0.07537842, 1.6015625, 1.0917969, -0.22729492, 3.3457031, -0.42163086, -0.9433594, -0.16662598, -1.1669922, -1.296875, -2.1289062, -0.9790039, -1.203125, -2.4707031, -5.2304688, 1.1767578, -0.20788574, 0.9160156, 2.5839844, 0.2475586, -0.017059326, 1.0556641, 0.5996094, 0.45654297, -1.9482422, 0.5205078, 1.1044922, 1.0869141, -3.5195312, -0.17004395, 0.120666504, -1.2744141, 1.7949219, 2.4511719, -1.9257812, -2.4609375, -1.2158203, 0.97802734, 0.80029297, 0.79785156, 0.60791016, 0.9980469, 1.53125, 1.2294922, 0.17736816, -0.55859375, 0.6147461, 0.9160156, -1.3574219, -1.6904297, 0.63671875, -2.3105469, -2.546875, 0.92285156, -3.3339844, 0.24108887, -1.4941406, 0.57910156, 0.38867188, -1.6347656, 0.46362305, 0.5385742, 1.1582031, -0.23535156, -0.43530273, -1.6132812, 0.45751953, 0.984375, 0.25170898, -0.53564453, 1.4912109, -0.6479492, -1.1582031, 0.5654297, 0.02798462, 1.5458984, 1.8818359, -0.84472656, 0.9682617, 1.0087891, -1.5996094, -1.9453125, 1.1601562, 1.4580078, -0.37768555, -2.015625, 1.1074219, -1.4863281, 2.125, 0.27294922, 1.8466797, -0.10290527, -0.4169922, -0.78125, -0.51904297, -0.5161133, -0.9379883, -0.5961914, 0.5390625, 0.5913086, -0.7607422, 0.05203247, 0.71191406, 0.9038086, -0.52246094, 0.025115967, 0.15332031, -0.9111328, 0.5234375, 1.0527344, 1.4453125, 0.28173828, 0.41723633, -0.1706543, -1.1611328, -0.70654297, -1.5029297, 0.3803711, 1.7441406, -1.4833984, 1.3574219, -1.5634766, -0.5102539, -1.2832031, 0.84472656, -1.2324219, -0.54589844, 0.51123047, 0.11273193, -3.7558594, -0.89990234, 0.50390625, 0.77001953</t>
-  </si>
-  <si>
-    <t>[0.88134766, 0.31518555, 1.8125, -2.5996094, -1.9443359, -0.95410156, -1.5429688, -1.0791016, 1.1347656, -0.8901367, 1.2138672, 1.2275391, 1.7548828, 2.9609375, -1.4697266, -0.104003906, -0.8754883, -2.0058594, -0.3720703, 1.6708984, 2.1484375, 1.8203125, 0.41625977, 2.2851562, 0.04159546, 2.5371094, 0.4453125, 1.2363281, 0.076660156, 0.91748047, -0.06536865, 2.7988281, 0.09124756, -1.4853516, -0.9604492, 1.0830078, 0.22290039, 1.4189453, 3.4472656, -0.7963867, 0.7089844, 0.79003906, -0.27368164, 0.053955078, -0.9511719, -0.48657227, -0.3815918, 0.94140625, -0.8901367, -0.16101074, -1.0214844, 1.7617188, -1.3037109, -0.35424805, -2.671875, 0.37841797, -0.77246094, 1.0576172, 1.34375, 1.015625, 0.73876953, 2.0175781, 0.66064453, -3.2949219, 1.1777344, -0.42333984, -1.5644531, -0.54248047, 2.1679688, -0.031677246, 0.60839844, 1.0166016, -0.2722168, 1.1845703, 0.31933594, 0.42504883, -0.20422363, -3.2636719, 0.1986084, -1.3037109, 0.41845703, 1.8457031, -0.31567383, -0.91748047, 0.31860352, 0.16894531, 0.89404297, -0.57910156, -1.4931641, 0.8935547, 0.50683594, -0.96191406, -0.7651367, -0.15917969, -1.0546875, 0.16223145, -0.13220215, 0.7060547, 0.25976562, -2.9042969, -0.68847656, 1.4990234, -0.0055999756, -2.8164062, 0.6977539, 0.8149414, 0.0021629333, 0.27197266, 1.1728516, -0.8964844, -0.71240234, -0.7290039, -0.74609375, 1.0078125, -0.49414062, 1.7363281, 0.36621094, -2.375, -0.46606445, -1.5, 0.20495605, 1.0517578, 0.2746582, 1.5927734, 3.0019531, -0.50146484, 0.92578125, -0.2800293, 0.2692871, -0.19250488, -0.36254883, -0.0038070679, -0.15490723, 0.6274414, 5.1328125, 2.4335938, 2.5546875, 3.1699219, -2.6386719, -0.52685547, 0.8613281, 1.5673828, 0.12335205, 1.0791016, 0.9838867, 0.54345703, 0.1159668, -1.2333984, 0.5493164, -0.40625, -1.2900391, -1.3203125, 0.25317383, 0.029953003, 0.14428711, 1.3496094, -0.11395264, -2.3964844, -2.6113281, 1.2851562, -0.24316406, -1.8320312, -0.061798096, 0.31152344, -1.03125, 0.3972168, 1.7451172, 0.52441406, 1.3603516, -3.1855469, -1.1865234, -2.3886719, -0.63183594, 0.5605469, 0.9536133, 0.67822266, -2.2460938, -2.6894531, 0.1986084, -0.40893555, 3.2246094, 0.60595703, -0.20800781, 1.2548828, -0.30664062, -1.8505859, -0.013282776, 0.75878906, 2.0019531, -0.9477539, 1.2236328, 0.14978027, -2.1914062, 1.3398438, -0.2685547, -0.97509766, -0.46704102, 0.5385742, 0.78125, 1.5302734, -2.1796875, -1.6191406, 3.5839844, -0.6567383, -2.1679688, 0.55371094, 0.32470703, -1.0244141, 1.0537109, -1.5380859, 1.2509766, 0.19213867, 1.8056641, -0.62939453, 0.03363037, -0.7973633, 2.6074219, -2.2949219, -0.6557617, 1.3691406, -0.13305664, 0.61865234, 2.1152344, -0.15991211, -1.2099609, 1.8623047, -0.9316406, -0.8876953, -0.13220215, -0.22644043, 0.6928711, 1.7080078, -0.28173828, 2.5703125, -1.1630859, 1.1425781, 0.671875, 0.8598633, 0.28027344, 1.2275391, 0.03967285, 0.14733887, -1.1386719, -0.90527344, 1.3427734, -0.42651367, 1.1044922, -1.0185547, 0.89990234, -0.2421875, 4.1289062, 1.7753906, -1.4082031, -1.0576172, -0.92089844, 0.80810547, -2.2363281, -0.5395508, 0.081604004, -0.20727539, 0.8979492, 2.0390625, 1.5703125, -0.20263672, 1.1054688, 0.73828125, 0.6972656, 0.8911133, -0.57177734, 2.1230469, 1.5712891, 0.3869629, 4.8789062, 0.55029297, 1.0830078, -0.18041992, 1.0009766, 0.9980469, -0.21923828, 1.4960938, 0.116760254, -0.56103516, 1.8623047, -0.88964844, 2.1757812, -0.6411133, -2.0527344, 0.4177246, 1.2978516, 1.2441406, -0.47436523, 0.012687683, 0.75390625, 1.1367188, 0.19458008, -0.45996094, -1.3544922, -0.10845947, 0.03250122, -1.0126953, -0.78515625, -0.70654297, -0.6660156, -2.8378906, -0.29516602, 2.5917969, 1.5507812, -0.7290039, 0.98046875, 0.31835938, -2.7402344, -1.5712891, 0.1538086, -1.5126953, 0.0058937073, -1.6064453, -1.1933594, 0.71240234, -0.8041992, -2.1464844, 0.13806152, 1.7207031, 3.921875, 1.5039062, 0.69873047, -1.2451172, 0.23376465, 5.3554688, 0.19384766, 1.3671875, -0.25048828, 2.2382812, -4.3007812, 0.578125, 0.29541016, -0.8354492, 0.95214844, 4.2929688, 0.33496094, -1.8037109, 1.4189453, 0.15405273, -1.0595703, 0.15283203, -1.3486328, 0.7163086, 0.5439453, 2.1875, 2.0253906, 1.0966797, -0.060394287, -2.4355469, 1.9462891, 1.6542969, 0.3388672, -0.34545898, 1.0234375, -2.1074219, -1.5117188, 1.7607422, -0.23828125, 2.1542969, 0.9868164, -1.9423828, -1.7353516, -1.1767578, 0.85009766, -0.9082031, -0.49169922, -1.0605469, -0.6972656, 1.6474609, 0.77001953, -1.5703125, 0.20227051, -0.4453125, -0.92871094, -1.1103516, -0.5854492, -0.35253906, -0.9277344, 2.5136719, -1.1269531, 0.65185547, -3.0839844, -1.2353516, 0.038024902, 2.2207031, 2.1699219, 1.0146484, 1.1523438, -2.6328125, 0.3010254, 0.08483887, -2.1464844, 0.08312988, 0.79248047, 0.35498047, -2.5644531, -0.034210205, 2.0839844, 0.28857422, 0.050201416, -1.1152344, 0.92285156, -1.4824219, -0.6425781, -1.2929688, 0.59033203, -0.16931152, -1.6337891, 1.0302734, 1.1132812, -0.32592773, 0.53125, -1.28125, 0.29052734, 0.09326172, 0.66064453, 0.4987793, 3.3574219, 0.9682617, -0.30639648, 1.4560547, -0.24133301, -0.18603516, -0.9458008, 0.83740234, 0.037506104, -1.7373047, -2.1425781, 0.42626953, 1.3681641, -0.0012207031, -0.34057617, -0.80371094, 1.2675781, 1.3789062, -1.2392578, 0.37646484, -1.2128906, -1.2080078, -2.0449219, 0.021881104, -1.0712891, 1.4726562, -0.14562988, 3.7285156, 0.18640137, 0.034118652, 0.058807373, 2.140625, 0.6098633, -0.38232422, -0.97314453, -1.9931641, -0.039794922, -2.5, -0.28149414, -0.81591797, -0.7246094, 3.0917969, 0.671875, -1.8603516, 0.53515625, -0.27685547, 0.16931152, 1.6914062, -0.6479492, -2.8515625, 0.24243164, -0.4753418, -0.5800781, -0.3798828, -1.6162109, 2.1933594, -1.3242188, 0.32592773, -4.171875, -0.55126953, -3.5136719, -0.41064453, -1.3564453, 1.5634766, 1.2861328, -1.5175781, 2.2519531, 1.4072266, -1.5810547, -0.33496094, 0.17138672, -1.4042969, 1.9765625, 2.1132812, 0.66796875, -0.3972168, 0.68408203, 0.07421875, -0.30932617, 1.0673828, 0.41088867, -2.3046875, -0.32714844, -1.7207031, -1.4355469, -0.35205078, -0.18115234, -2.1972656, -0.96240234, 2.5117188, -1.6396484, 1.7060547, 0.026397705, -1.1923828, -0.81591797, -0.41992188, 1.5048828, -1.1113281, 0.69628906, -0.2010498, -0.546875, 0.17236328, -0.37719727, -0.9003906, 0.25976562, 1.7128906, -1.1025391, 2.5449219, -0.32763672, 2.0800781, 2.6953125, 2.1699219, 0.65527344, 0.46728516, -0.29003906, -0.30810547, 1.0703125, 0.5288086, 0.6772461, 1.1455078, -0.13256836, -0.20727539, -0.86621094, -0.9223633, 0.7495117, 1.0761719, 0.2927246, -1.1298828, -1.5537109, -1.7226562, 0.10070801, 0.4892578, 0.4597168, -0.97509766, 2.2949219, 1.3310547, 1.5888672, 1.9521484, 1.6191406, -0.875, -3.2480469, -1.3105469, -0.030654907, 0.23071289, -0.23547363, -2.4589844, -0.44799805, 1.5302734, 0.8496094, -0.72558594, -2.0019531, -0.390625, 0.1505127, -1.4667969, -2.0800781, -0.26538086, 0.011924744, -2.3515625, 0.9038086, -0.20422363, -0.026733398, 1.3955078, 1.3603516, 0.21142578, 0.7783203, 1.1962891, 0.4519043, 0.76464844, -0.0574646, 0.8276367, 0.8022461, -0.75634766, -1.6826172, 2.7851562, -0.8803711, 0.12524414, -0.40625, 0.5209961, -0.22216797, -0.17443848, -0.54785156, -0.6435547, -0.17077637, -2.4160156, 1.4980469, 0.7104492, 0.5449219, 0.3642578, -0.82128906, -1.8251953, -0.09106445, 0.16564941, -0.67529297, 1.0009766, -1.1445312, -1.6748047, -1.8164062, 1.5849609, 1.3427734, 0.11175537, 0.57666016, -0.80810547, 0.040985107, 1.9248047, 0.98876953, -0.45043945, 1.5361328, -0.2927246, -1.5498047, 1.2929688, 1.4892578, 3.2832031, 0.5107422, -3.5644531, -1.3564453, 0.9121094, -1.2695312, 0.8691406, 0.25585938, -0.12475586, 1.0712891, 0.8808594, 1.0351562, -2.0390625, -0.35424805, -0.3408203, 0.4260254, 1.0693359, 1.0322266, -2.8535156, 0.1541748, 0.7998047, 0.6254883, 0.9824219, -0.43310547, -3.3632812, 1.7490234, 3.1484375, 1.6367188, 1.2207031, -1.8574219, 0.43603516, 0.39672852, 1.0458984, 1.4707031, -1.1591797, -1.1591797, -1.1826172, 1.3515625, 1.7792969, -1.0527344, -0.07141113, 0.84765625, -0.3059082, 0.9379883, 1.3271484, 1.5517578, -0.74316406, -1.0273438, 0.71777344, -1.0556641, -0.82421875, -0.18762207, 1.9726562, 0.80029297, -0.54296875, 0.63964844, 0.5161133, -0.7026367, -0.21936035, -1.5585938, -0.105895996, -0.8183594, -0.17895508, -1.5419922, 1.3076172, 0.021469116, 3.1953125, -1.0703125, -2.5097656, 1.5253906, -0.3215332, -1.8085938, -0.36987305, -0.61328125, -0.5488281, 0.54541016, 0.13720703, -3.4726562, 1.3789062, -0.6738281, 2, -1.4794922, -1.2988281, -0.25341797, 2.3574219, 0.14709473, -1.5585938, 2.5917969, -0.006713867, -0.5029297, -1.4169922, 2.1582031, 0.7949219, 1.8291016, 3.1738281, -0.27514648, -0.24890137, -0.34228516, 0.2541504, 0.38745117, -2.0058594, -0.2626953, 1.0634766, 2.1542969, -0.3869629, -0.35253906, -1.5800781, 0.14746094, -0.95996094, -0.27807617, -0.60839844, 1.5556641, -0.5053711, -0.19274902, 0.68652344, -0.044189453, -1.6201172, 0.8461914, 0.0049476624, 1.0419922, -2.1347656, -0.122802734, 0.7753906, -2.0488281, 1.5761719, -0.7651367, -1.2734375, 1.7294922, 1.0820312, 0.4807129, -0.74902344, -0.14440918, 0.9033203, -0.062927246, 1.8798828, -0.67578125, -1.0878906, 1.7080078, -0.27807617, 1.7099609, -1.6669922, 0.26757812, 2.1386719, 0.33740234, -1.4179688, -0.24658203, 1.4306641, 1.3007812, 1.3623047, -0.11224365, 1.7578125, 0.19238281, 0.70410156, -2.5292969, -0.26464844, -0.2310791, 0.73535156, -1.0820312, 0.51123047, -0.5932617, 0.234375, -0.5966797, 0.35009766, 0.34033203, -1.21875, 0.24914551, 0.38378906, 1.5253906, 1.8916016, -1.2558594, -1.2431641, 1.2509766, 0.49023438, -1.2480469, 0.36987305, 1.2119141, -0.48120117, 0.21203613, -2.6914062, 0.9213867, -1.4667969, -2.3046875, 2.6152344, 0.7128906, 0.9301758, -0.22961426, -1.0390625, 2.7539062, -0.98046875, 0.7246094, 0.88134766, -3.7167969, 1.078125, 0.2467041, 0.44995117, 0.86328125, 1.9833984, -1.6835938, 0.57128906, -1.0732422, -0.51660156, 0.23046875, 1.7568359, 0.70654297, -1.5244141, 0.63671875, -2.75, 0.8417969, -0.43139648, 3.5507812, 0.46972656, 0.060791016, 0.10559082, 2.6113281, -1.7871094, -0.17675781, 0.42773438, 0.04953003, 3.4492188, 1.0693359, 2.0175781, 1.0712891, 0.39697266, 1.5732422, -1.5732422, -1.0478516, -1.3183594, -2.8046875, 0.89990234, 1.2919922, 0.30688477, -0.42504883, 2.3652344, -1.1699219, -0.30810547, -1.3037109, -2.3671875, 0.13452148, -0.35986328, 4.7226562, -2.4375, 0.8300781, -0.4050293, -1.4833984, 0.828125, 0.075927734, 0.43432617, -1.2109375, 2.6835938, 0.39013672, 1.2744141, 0.0927124, 4.1484375, 1.6708984, -0.9584961, 0.09857178, -1.1826172, -2.7226562, -3.0527344, 0.45214844, -2.5371094, 0.9692383, -0.27416992, -0.9272461, 0.5830078, 1.0234375, -0.45947266, -2.1308594, 5.34375, -1.8818359, -0.1159668, -0.10443115, -0.48779297, -1.6494141, 0.2680664, 1.4462891, 1.2128906, -2.4296875, 0.48583984, -2.8378906, -0.6645508, -0.17077637, -1.5634766, -1.2958984, 0.96972656, -0.103637695, -1.6992188, -0.8120117, 0.99560547, -3.0390625, 0.9633789, -0.74560547, 0.5966797, 0.77490234, -0.703125, 1.5136719, -0.4909668, 0.8105469, 0.053344727, -0.37939453, -1.1933594, 0.84814453, -0.8417969, 0.296875, -0.7363281, 3.7148438, 0.40039062, -0.67285156, 0.45996094, -0.47460938, 0.6069336, -1.8242188, -0.9086914, 1.1015625, -1.6396484, -0.016082764, 1.5751953, -0.58154297, -1.4960938, 0.50439453, -0.1817627, -2.4492188, 0.4934082, -0.43701172, -0.6401367, 1.2207031, 1.7949219, 1.6650391, -0.0236969, 1.3378906, -1.3896484, -1.0732422, -1.7324219, 1.9697266, 2.9472656, -1.0009766, 0.08520508, -1.3203125, -0.021987915, 1.9921875, 0.64501953, 0.40478516, -0.49072266, -0.6020508, 1.6699219, -0.04940796, -1.21875, 1.0292969, 1.5751953, 0.62939453, -3.7089844, -3.6503906, 0.8051758, 0.44848633, 1.6914062, 0.53222656, -0.72509766, -2.3613281, -0.19067383, 0.45922852, 0.17810059, 0.3798828, 1.6113281, 0.30786133, 0.95214844, -0.27685547, 0.53759766, -1.6914062, 0.5708008, 2.6914062, -0.5180664, 1.0576172, 0.9086914, -0.6254883, -0.9277344, 0.1381836, -0.60839844, 0.015007019, 0.6801758, -0.15710449, 2.1113281, 0.5024414, -0.7602539, -1.7685547, 1.9462891, 1.2792969, -1.015625, 0.45996094, 0.5317383, -0.5019531, -0.5449219, 0.23620605, 0.4091797, 1.2724609, 0.014976501, 0.14282227, 1.5888672, 0.47631836, -0.81884766, 1.1210938, 1.8134766, 0.47607422, 0.1776123, -0.04611206, 3.046875, -0.8442383, -0.0003402233, -0.5395508, 2.0820312, -0.7998047, -0.7089844, -1.6767578, 0.32470703, -0.47680664, 0.77441406, -0.33691406, 1.2558594, -0.28930664, -1.6689453, -0.33691406, -1.0400391, 2.2910156, -0.54248047, -0.5566406, -0.9345703, 0.5488281, -0.7783203, 0.23352051, 3.5390625, -0.94384766, -1.1494141, 0.9658203, -0.2980957, 0.026687622, 0.4580078, -0.72802734, -2.2480469, 0.07531738, 0.55810547, 0.6464844, -1.8759766, 0.17041016, 0.47558594, 3.2363281, -0.45458984, -0.088378906, -1.3378906, -0.8691406, -2.8339844, 0.3630371, 0.80322266, 0.89990234, -1.1572266, 0.6333008, 1.3505859, -2.0292969, -1.0107422, -2.9101562, -1.3701172, -2.2519531, 2.390625, -2.5839844, 1.1425781, -0.82421875, 0.60009766, -0.6147461, 0.09136963, -1.3193359, 2.9121094, 1.7685547, -0.9526367, 0.42944336, -1.1630859, -1.5859375, -0.8095703, -0.60546875, -1.2314453, -1.5439453, -1.0966797, 0.43432617, -0.25732422, -0.7524414, -1.3525391, -0.37939453, -1.3886719, -0.44702148, -1.2822266, -1.1240234, -0.49560547, 1.0136719, 0.42529297, 1.3935547, -0.8276367, 0.70654297, 0.9741211, -0.20446777, -0.14672852, 1.1328125, 2.0625, 0.63183594, 1.2861328, -0.28051758, 1.6201172, 0.44262695, -0.6635742, 1.2294922, -0.23547363, -0.6035156, 0.24841309, 1.1914062, 1.1777344, -0.59814453, -2.0527344, -0.3112793, 1.7548828, -1.4804688, -2.2597656, -0.19970703, -1.0009766, -1.7197266, -1.09375, -1.1318359, -1.9208984, 1.1132812, 1.1298828, 1.2705078, -0.4309082, 1.3613281, 0.90966797, 0.17578125, -1.3994141, -0.4111328, 0.8520508, 2.5175781, -0.40283203, 0.359375, -1.9423828, -0.026672363, -1.4697266, 0.038604736, -0.6582031, -3.1621094, 1.0927734, 1.0107422, 1.8994141, -2.7363281, -0.71972656, 1.2099609, 1.2236328, -0.78515625, -0.54296875, -0.20385742, 0.36083984, -0.8022461, 1.6552734, -0.19628906, 0.12487793, 0.11431885, -0.5878906, 0.03744507, -0.5083008, -0.29663086, -1.3242188, 2.0292969, -0.32763672, 0.3154297, 2.234375, -0.02204895, 0.5800781, -0.4494629, 0.65283203, -0.27441406, 0.034179688, 2.0839844, 0.2565918, 0.057250977, 1.1328125, 1.2646484, 1.4003906, -1.3369141, 1.5712891, 0.40405273, 1.6318359, 1.7255859, -0.2553711, 3.1074219, -0.05114746, 2.2207031, 0.5102539, -0.049957275, -0.82373047, -0.94970703, -1.3310547, 2.8144531, 0.16723633, -0.3527832, 1.1152344, 2.1816406, -0.70947266, -1.2744141, -1.4804688, 1.6103516, -0.75634766, -0.6347656, 0.2401123, 0.111083984, 2.7617188, 1.7509766, 0.6225586, -0.9370117, -0.06976318, 1.5205078, 0.06390381, -0.32666016, 0.47998047, 0.89990234, -0.36572266, 0.0049057007, 0.10345459, 0.57128906, 0.81933594, 1.7460938, -1.7041016, 0.75878906, -3.2285156, 2.0175781, -0.99072266, -2.9257812, 0.15722656, 1.0742188, -0.9379883, -0.0075950623, 0.9506836, -0.33422852, 2.4296875, 0.026779175, 0.86621094, -0.4880371, 0.24914551, 1.0732422, 0.111694336, -1.6259766, -0.24304199, 1.5175781, 1.4833984, 2.3613281, 0.4963379, -1.9765625, 1.8007812, -0.38232422, 4.4414062, -0.9370117, -3.6894531, -2.0527344, 0.4802246, -1.0273438, 0.3154297, 3.0253906, -0.26000977, -0.62402344, 0.55078125, -1.7011719, -0.625, -2.0449219, -0.63964844, 0.7636719, 0.7241211, -0.65185547, -0.45117188, 1.8769531, 0.76660156, -1.1201172, -0.045684814, -0.056488037, -2.0039062, -0.1517334, -0.8833008, -0.9008789, -0.15344238, -1.7207031, 0.6347656, -0.64453125, 0.52001953, -0.72509766, -2.0292969, -2.5371094, 0.22680664, -1.15625, 0.022964478, -0.5180664, -1.1054688, -1.1269531, -0.86328125, 0.75634766, -2.1601562, 0.022720337, -0.6113281, -0.4013672, 0.47460938, -1.8349609, -0.26733398, -0.55566406, -0.40283203, -1.1933594, -1.75, -0.30517578, 1.1816406, 0.640625, -1.3925781, 1.5498047, 0.06793213, 0.8696289, 0.7553711, 0.95410156, -0.20935059, 1.8710938, 2.8242188, -0.7836914, -2.2792969, -2.0585938, -0.7192383, 0.28735352, 1.0830078, -1.5703125, 0.1743164, -2.7324219, -0.89697266, -0.056518555, 1.0771484, -0.47558594, -1.4257812, 0.58251953, 0.14904785, 2.953125, 1.0517578, 0.4260254, 0.05529785, -1.3164062, 2.0605469, 2.21875, -0.9584961, -0.79345703, -0.7949219, 2.953125, -0.105773926, -0.6743164, -1.078125, -1.1542969, -1.5703125, 1.3525391, 0.95996094, -0.97753906, 0.070129395, -0.52734375, -0.74658203, -0.018493652, -0.77246094, -0.02923584, -0.79785156, -0.31152344, -2.375, 1.3583984, -0.5605469, -2.2382812, -0.19824219, -0.74609375, -0.5078125, -1.1445312, -0.87890625, 1.3085938, 1.8271484, 0.19836426, 1.1083984, -0.4099121, 0.67089844, -2.2636719, 0.41992188, -1.3388672, -0.4736328, -3.4042969, -2.0507812, -1.8632812, 2.109375, -0.8808594, -0.73095703, -0.89746094, 0.043182373, 2.1230469, -1.0068359, 0.10015869, -0.68408203, -1.5019531, -0.2734375, -1.2080078, -0.31860352, 0.5859375, 0.65722656, 0.3322754, 1.0039062, -0.043701172, 1.0576172, -1.2275391, -1.0449219, 5.6601562, -1.1660156, -0.33007812, -1.8017578, 2.2207031, -0.33764648, -0.9033203, -0.73535156, 0.61572266, -0.7626953, -1.4804688, 0.81689453, 0.07354736, -0.13366699, -0.51953125, -0.6777344, 0.4020996, 0.55908203, -0.3659668, 0.4560547, -1.4121094, 0.34375, 0.22875977, -0.38330078, 0.40454102, 0.25805664, -1.0527344, 0.64453125, -1.3066406, 1.8896484, 0.7207031, -0.5493164, -0.2421875, 0.1776123, -0.36816406, 0.88671875, -0.7709961, -0.48413086, -0.5058594, -0.7104492, 0.8847656, 1.3525391, 2.2421875, 0.42285156, 1.8564453, -0.32788086, 0.25048828, -1.3730469, -1.6318359, 1.6132812, 1.9355469, -1.2587891, -0.22045898, -0.10583496, 0.7319336, 0.5996094, 1.7734375, -2.4921875, -0.17333984, 2.1210938, 0.6323242, -1.0898438, -1.75, -0.40844727, 0.09857178, -0.70703125, -0.68847656, -0.5527344, -0.98339844, 0.50683594, -0.21691895, 1.5556641, -1.96875, 0.49316406, -1.3769531, 1.3330078, 0.027160645, -3.4589844, 2.3027344, -0.5595703, -1.2041016, -0.90966797, 1.4326172, 1.3828125, -1.2246094, 1.0732422, 1.6162109, 3.3730469, 1.1435547, -1.6015625, 1.6582031, -0.008460999, -0.68408203, -0.9448242, 1.9833984, 1.3740234, -2.4765625, -1.8935547, -1.6552734, -0.8803711, -1.3173828, 0.04510498, -2.4453125, -1.4130859, 1.5253906, 0.03717041, 0.10949707, 0.5571289, 0.10827637, 0.11279297, -0.3623047, -1.6865234, 1.1621094, -0.3984375, -1.0976562, -0.41210938, 3.0585938, -0.59814453, 0.15759277, 0.8535156, -0.17626953, -0.5083008, -0.22338867, -1.8583984, -1.5439453, 1.2578125, 0.28808594, -2.1757812, 0.72265625, 0.2692871, -0.06088257, -0.75878906, -1.3994141, -0.1586914, -2.0976562, 1.1201172, 0.859375, -0.14953613, -1.2001953, -0.68066406, 0.91796875, -0.81640625, 0.38891602, -1.3730469, 0.4724121, -0.5996094, 0.5161133, 0.75, 1.0761719, 1.1171875, 0.17785645, 0.5083008, 0.30786133, 0.9399414, -1.7890625, 0.3408203, 1.2099609, 0.33935547, 0.9160156, 0.12390137, -0.7050781, -1.4453125, 1.1035156, -1.0146484, -0.53808594, 0.5385742, -0.609375, -0.7915039, -0.83691406, -1.0429688, -0.42944336, 3.1347656, -0.15466309, -0.20361328, 0.4729004, 0.9707031, -0.34179688, 0.22265625, 1.5302734, 1.9677734, 0.8378906, 0.24267578, 1.6259766, 1.1914062, -0.09350586, -0.2998047, 0.5336914, -1.5419922, -1.9853516, 0.7910156, 0.60546875, -2.4746094, -0.5463867, -1.1650391, 1.4550781, 3.1132812, 0.2919922, -1.0048828, -1.2080078, -0.14038086, 0.8833008, -1.0429688, -0.9975586, -1.3144531, -0.56933594, -0.21594238, 2.3886719, 0.07281494, 2.9414062, 0.22570801, -2.7578125, -1.3984375, 0.3486328, 1.5175781, 0.07904053, 1.4541016, -1.6630859, -1.0195312, -1.7304688, -2.0410156, 0.20593262, -1.9414062, 2.3496094, 1.5195312, -1.9462891, 1.2050781, 1.6494141, 1.6621094, -1.4384766, -0.5854492, 0.013221741, 2.7363281, 2.6582031, -0.3552246, -0.71484375, 0.85009766, 1.5390625, -0.6855469, 2.0644531, 0.65283203, 0.9741211, -1.2431641, 0.0107040405, -1.4560547, 0.23144531, -1.0322266, 1.1474609, -0.1763916, -0.65527344, -3.1347656, 1.1796875, 0.86816406, 1.6748047, 0.33422852, 1.2871094, -0.12408447, 0.053985596, -1.6494141, 1.7304688, 1.5429688, -0.6196289, 2.6523438, -1.2958984, 1.0429688, 2.2167969, 0.78466797, 1.21875, -0.3137207, 0.05239868, 0.34594727, -0.38720703, -0.22680664, 1.0800781, -0.20446777, 0.022384644, -0.25732422, -0.062072754, 1.3623047, 1.6113281, -0.011688232, 0.15466309, 3.1757812, 2.7265625, -0.34692383, -0.06903076, -1.5810547, -1.4697266, 2.7011719, -0.4345703, 2.6699219, -2.3867188, 3.0488281, 3.9375, -0.47192383, -2.5351562, -1.2421875, 0.77441406, 0.42163086, -1.0683594, -0.44067383, 2.3359375, 0.4362793, -3.5703125, 0.43188477, -1.0576172, -0.023406982, -1.5869141, 0.5830078, 0.22216797, -0.89404297, -1.3486328, 0.7011719, -0.04812622, 4.984375, -0.85546875, -0.20800781, 0.8364258, -1.0195312, 0.35131836, -1.9248047, -2.0371094, 0.7963867, -0.19702148, -2.3613281, 2.0253906, -1.6074219, 1.2890625, 0.94189453, 2.0527344, 1.5322266, -1.2646484, -0.058441162, -1.1611328, -1.2744141, -2.3457031, 0.42871094, -0.9145508, 1.8007812, 1.1337891, -1.7226562, -1.7871094, 0.066345215, -2.3476562, -2.0917969, 0.92822266, 0.11846924, -0.77685547, 2.0351562, -1.2832031, -2.5039062, -1.1660156, 0.2220459, -1.2744141, -1.8701172, 0.09643555, 0.049072266, 2.1074219, 0.045074463, 0.8041992, 0.3503418, 0.6508789, -2.109375, 1.2304688, -0.0010108948, 0.28515625, -1.8759766, -0.2109375, 1.3056641, -0.14562988, 0.5395508, -0.83203125, -0.19152832, -0.6542969, 0.93359375, -2.1972656, -0.34179688, -1.2802734, -2.2675781, -0.6333008, -0.06506348, -1.1513672, -0.19873047, -2.3046875, 0.54248047, -0.38134766, -2.2597656, 0.9711914, 0.3486328, -3.0527344, 1.6357422, 3.9550781, 0.57910156, 0.9375, -0.033477783, -0.21228027, 0.06518555, 0.5332031, -1.7421875, -0.4597168, 0.9194336, 1.8164062, 2.8261719, -0.37353516, -0.9189453, 0.79052734, -1.5136719, -1.7314453, 0.26220703, 2.140625, -0.6425781, 1.4560547, -0.734375, 1.6640625, 1.5488281, 1.2080078, -0.013122559, -1.6962891, 0.4482422, 1.5273438, -0.10076904, -0.7915039, -0.3869629, 0.40795898, 0.7397461, -1.9609375, 0.07171631, -0.6035156, -0.20959473, 0.22399902, -0.6254883, 0.5136719, 1.4228516, -1.7626953, 0.070373535, 2.1230469, -1.4189453, -0.39672852, -0.2626953, -0.07611084, 0.43774414, -0.94970703, 1.2148438, 2.9726562, 1.6806641, 1.8789062, 0.66503906, -0.9003906, 0.09088135, -0.99316406, -3.3203125, 0.06137085, 1.5957031, -0.7915039, -2.9472656, -0.30810547, 0.42333984, 0.53222656, 0.066223145, -2.1269531, -1.5126953, -0.7602539, -0.6220703, -1.3125, 0.47436523, -2.6035156, -0.61572266, 0.18139648, 0.671875, 0.71533203, 0.54589844, -0.79589844, 1.5791016, 0.5395508, 0.023712158, -1.4365234, 3.4003906, 0.30688477, -0.22277832, 0.115722656, -1.0898438, -0.79345703, -0.6616211, 1.8955078, 1.5761719, 1.6523438, 2.2089844, 0.6665039, -2.1796875, 0.16394043, 0.29516602, -0.6723633, 0.63378906, 1.1865234, -0.5776367, -2.1074219, -2.6738281, -0.31396484, -2.4980469, -1.2851562, -1.6289062, 0.52783203, 0.58203125, -0.068725586, -1.1611328, -0.6635742, 0.8847656, 0.44067383, 0.49829102, 0.80078125, 1.0673828, 2.2773438, -1.0986328, 0.5810547, 0.14489746, 0.023925781, 0.43945312, 1.3251953, 0.12866211, 1.2509766, -2.3984375, -0.87109375, -0.5761719, -0.86621094, -2.5800781, 1.7080078, -0.36450195, -1.5488281, 0.01966858, -0.08538818, -0.7788086, -2.4726562, -1.3369141, -1.9892578, -0.9086914, -0.21875, -1.4570312, 0.4560547, -0.5366211, 1.0439453, -0.8261719, 1.1601562, 0.25097656, -1.6503906, -0.22021484, -0.095947266, -3.3730469, 0.85546875, 1.4072266, -1.6669922, 0.48242188, 2.8671875, -1.0283203, 0.91845703, -0.26660156, 0.8598633, -2.2597656, 0.94970703, -0.5161133, -0.73779297, 0.2376709, -0.5292969, 0.3779297, -1.0800781, 2.6914062, -0.79248047, -3.0253906, -0.115234375, -0.28881836, 1.1269531, -0.9375, 0.9707031, -0.18933105, -1.1953125, 0.7573242, 0.0791626, -0.12719727, -1.6357422, -2.7148438, 2.1152344, -0.00932312, 1.9765625, 0.42504883, 0.7583008, -1.6210938, -1.7304688, 0.34423828, 0.6425781, 0.2286377, 0.2890625, -0.95410156, -0.8183594, -0.07305908, -1.0361328, -0.9145508, -0.8105469, 0.9189453, 1.8388672, 0.48242188, -3.9140625, -1.9179688, -1.5820312, -0.53564453, -0.58496094, -1.7675781, 0.17175293, 0.6323242, 0.7866211, -0.49047852, -0.095214844, 0.08306885, -0.08148193, 0.84814453, 0.01776123, -0.61035156, -0.3642578, -1.2255859, -1.0810547, -0.2783203, 1.6601562, -0.0014419556, -2.7089844, -2.9726562, -0.30810547, -2.921875, -1.0537109, -0.1083374, 1.1933594, 1.8212891, 3.2382812, -1.1708984, -0.15393066, 1.1494141, 0.61376953, -3.296875, -0.02218628, 1.2568359, 1.1552734, -1.2197266, 1.1679688, 0.34375, 0.5078125, -1.4492188, -5.1679688, -1.1914062, -1.8691406, -1.4667969, 1.1533203, 0.010528564, 2.5664062, -0.002040863, 1.5830078, 1.9755859, -0.34277344, 0.51220703, -0.07836914, -0.16552734, 0.34179688, -0.31567383, -1.6796875, -0.2524414, -1.2509766, -0.48461914, 1.7294922, -1.3359375, -1.1923828, -2.5019531, 0.5131836, -0.79296875, 0.31811523, 0.6586914, 0.6713867, -0.45581055, -2.2363281, -0.41186523, -0.56152344, 0.14904785, 0.51464844, 0.5810547, -0.1303711, 1.8925781, -2.5957031, -0.79052734, 0.13891602, 0.83691406, 1.8984375, 0.24768066, 2.1074219, 0.953125, -0.6376953, -0.8911133, -0.6308594, 0.60253906, 1.7988281, -0.6401367, -2.3867188, -0.12866211, -0.5541992, -0.8774414, 1.2558594, -4.2695312, 1.1806641, -1.1474609, 0.93066406, 0.15148926, -0.7626953, 1.9267578, -1.0419922, 1.0664062, 1.2148438, 1.1962891, 1.1708984, -0.9121094, -1.0976562, 0.5908203, 2.09375, 1.4082031, 0.5913086, 2.4960938, 0.24060059, 1.1611328, 0.07458496, 1.2939453, 0.5361328, 0.66845703, -0.97314453, -1.2666016, -0.8457031, -0.39160156, 0.80615234, -0.8276367, -1.0507812, -2.3574219, -1.6201172, -0.56689453, 2.4199219, 1.0771484, -0.4411621, 0.19213867, -0.9375, 0.1842041, 0.118652344, -1.9306641, 0.48486328, 1.8613281, -0.33032227, -0.42041016, 0.06768799, -2, -0.19445801, -2.2539062, -0.53808594, -1.0742188, 0.14953613, 2.0546875, 0.117248535, -0.7011719, -2.7792969, -0.13012695, -1.8515625, 0.6621094, -0.038085938, 1.28125, -0.6870117, -1.7460938, 1.0947266, -3.2773438, -0.03479004, 0.54248047, 2.6894531, 1.0380859, -0.8354492, -0.012512207, 0.5625, 1.1367188, -1.1835938, -0.8286133, 0.60058594, -0.38305664, 0.2006836, 0.20397949, -2.1484375, 0.88720703, -1.5244141, 0.29467773, -0.16296387, 0.5410156, -2.6601562, 1.4257812, 0.4404297, -2.09375, 0.34985352, 0.21569824, -3.234375, -0.44873047, -1.2460938, 1.6025391, 0.4404297, -1.1650391, -2.2089844, 2.5175781, -0.17004395, 2.3964844, 0.13574219, 2.4707031, 0.23046875, -1.5751953, -0.16320801, 0.32763672, -2.296875, 7.1015625, 0.7524414, 0.29101562, -1.6484375, 0.60253906, -0.52734375, -0.7084961, 1.5419922, -1.8291016, -0.27783203, -1.8037109, -1.3369141, -1, -0.71435547, 0.7836914, -2.2773438, 1.5605469, -1.4941406, -0.42871094, -0.7788086, 0.007171631, 0.64501953, -2.7714844, -1.5107422, -2.6699219, 0.73339844, 1.4960938, -0.7602539, 1.7617188, 1.2734375, 0.12036133, -0.30493164, 0.05618286, -0.94970703, -2.8300781, -1.5791016, 1.015625, 0.085632324, -0.14477539, -1.0410156, 0.57177734, -1.1962891, -1.2695312, 4.2109375, -0.46411133, -0.98046875, 1.9140625, 1.4951172, 1.5146484, 1.3183594, 1.4619141, 1.3984375, 1.2802734, 0.13220215, -1.2070312, 0.91552734, 3.2988281, -0.33813477, -1.4960938, 0.44335938, 0.09063721, 1.8945312, -1.1201172, -0.83984375, 0.7631836, 1.0400391, 0.7788086, 0.77685547, -0.93310547, 0.89160156, 1.1191406, 0.8100586, 0.50146484, -1.3486328, 0.34887695, 1.0556641, -0.8461914, -0.4609375, -1.9121094, 0.26049805, 1.8125, -0.22216797, -2.4980469, 2.3300781, 0.8310547, 2.0761719, -0.43310547, 1.2333984, -3.1425781, 0.8222656, -0.3996582, 0.36401367, -1.4882812, -1.3330078, 0.5703125, 0.609375, 0.6254883, -1.0400391, -1.0302734, 0.13305664, -0.52246094, -1.7773438, 1.4003906, 1.8564453, -2.9511719, -2.9824219, -0.6591797, -1.3662109, 1.2353516, -2.3828125, -2.9453125, -1.2578125, 0.94873047, 1.3007812, -0.076538086, -0.6586914, -1.4355469, -0.3815918, 0.8100586, 0.29418945, -0.6010742, -0.23596191, -0.29589844, 0.016723633, 0.5834961, 0.3708496, 0.9428711, 0.78466797, -0.74902344, 1.3701172, 0.05758667, 0.89990234, -0.10601807, 1.9746094, 0.17785645, 0.3642578, 2.0839844, -1.4443359, 0.921875, 0.36816406, 2.3125, 2.1035156, -1.8369141, 0.6972656, 1.3916016, -0.8222656, -0.83251953, -0.26098633, 0.93408203, -0.5761719, -4.0585938, -1.0585938, -0.7817383, 1.6875, -0.21166992, 0.117248535, 0.8286133, 3.3574219, -2.1113281, 0.6928711, 0.2614746, -0.12561035, -1.5117188, 0.18139648, -1.0742188, 0.32348633, -0.15551758, -1.2138672, -0.57714844, 0.9711914, 0.98876953, -0.96435547, -0.6347656, -1.2558594, 0.7895508, -0.21813965, 0.38012695, -3.0371094, -0.89697266, 0.5473633, 1.3701172, -1.1083984, 0.9614258, 0.9995117, 1.0068359, 0.3786621, -1.40625, -0.578125, 0.91503906, -0.34228516, -2.1308594, -2.2910156, 1.1884766, -0.4091797, -1.5878906, -0.44213867, 0.56347656, -0.74316406, 0.11315918, -0.29370117, 0.890625, 1.5, 2.6230469, -0.6303711, -0.27001953, 2.3457031, -2.1738281, -2.7734375, 0.05871582, -0.40771484, 0.30004883, 1.1201172, 0.03866577, 0.58203125, 1.3710938, -0.5415039, 0.57666016, 2.1386719, 0.6689453, 0.33154297, 1.1191406, -1.8330078, -0.0008049011, -0.9370117, -0.40405273, 1.5048828, 0.7729492, -0.32836914, 1.5576172, 2.3085938, -2.109375, 1.9609375, -0.4230957, 0.59033203, 0.3779297, 1.78125, -0.4099121, 1.9238281, -0.25439453, -1.5244141, 1.2490234, -1.0507812, -0.5786133, -2.1972656, -0.5786133, -1.2617188, -0.87841797, -0.17358398, 0.50878906, -1.0761719, -1.25, -1.8105469, 0.23339844, -1.4599609, 2.4082031, 1.4873047, 0.44433594, 1.3427734, 1.0898438, 1.8486328, 0.4675293, 0.453125, 1.8798828, 1.8505859, 0.27294922, -0.2006836, -0.20324707, 0.53125, -0.5136719, 2.5078125, -1.8613281, -0.66503906, 2.0234375, -0.3371582, 0.24072266, 1.1914062, 0.027023315, -0.94384766, -2.171875, -2.4472656, 1.3134766, -0.91064453, -1.6015625, -0.24926758, 1.1445312, -0.051513672, 1.3476562, 1.4296875, 0.44873047, -0.28759766, -1.71875, 3.3007812, -1.0175781, -0.091674805, 0.21789551, 1.6835938, 1.2167969, -1.1513672, 0.22497559, -0.9057617, 0.06542969, 2.3886719, -1.5537109, 1.1376953, 0.058410645, 0.84375, 0.04107666, 1.6054688, 0.6645508, -1.5917969, 1.8105469, -1.5703125, -0.033569336, -1.2880859, -0.07104492, -0.078430176, 0.94970703, -0.5102539, -1.0527344, -0.5629883, 1.1669922, -0.21813965, 1.5244141, 1.4042969, 0.06262207, 1.5439453, -0.34155273, -0.27270508, 2.2226562, 1.8183594, 3.7011719, 0.06842041, 1.5234375, 0.18518066, -0.1817627, -0.9941406, 0.75878906, -0.9560547, -2.6972656, 0.31884766, 0.37768555, -0.7597656, -0.18493652, -0.23144531, 1.5703125, -0.84765625, -1.8203125, 1.1708984, 0.8574219, 0.014129639, -0.16088867, -1.0332031, 1.0722656, -0.85595703, 1.5566406, 2.2460938, -0.7368164, 0.2421875, -1.1591797, 2.1035156, 1.4580078, 0.58203125, -0.64453125, -2.0195312, 1.4951172, 0.59033203, -0.89453125, 0.67871094, 1.4912109, -0.5683594, 0.086364746, -0.26538086, -0.67871094, 0.91748047, -0.46533203, 0.7133789, -1.1923828, -1.0703125, -0.69091797, 0.030532837, 2.953125, 0.039031982, 0.6645508, -0.76220703, 0.5083008, 1.4257812, -0.62841797, -2.1796875, 0.14477539, -1.4501953, 2.7871094, -1.6669922, 0.8022461, 0.044769287, 1.4794922, -0.6489258, -0.76904297, -2.0976562, 1.4599609, 0.46240234, -0.7792969, 2.0957031, 1.7197266, -0.22595215, 1.1396484, -1.7617188, 0.74072266, -0.91259766, -1.6191406, 0.8178711, -2.3027344, -2.4589844, 1.2939453, 0.51660156, 0.6621094, 1.2578125, 0.5209961, -1.1220703, 0.08581543, -0.49072266, 0.73339844, -2.3183594, -0.3635254, -1.3525391, 0.79296875, -3.1230469, 0.7792969, -0.2878418, -0.5410156, 2.0664062, 1.4384766, -3.5996094, -1.3974609, 0.3869629, 1.0351562, -0.7841797, -1.0615234, 0.34277344, 1.7792969, -0.7583008, 0.7055664, -0.28100586, -1.8681641, 2.1601562, 0.91552734, -0.7973633, -0.33325195, -1.4121094, -1.3076172, -0.08129883, 0.47436523, -3.8125, -0.5161133, -0.9291992, 1.3261719, 0.3828125, 0.6279297, -0.097717285, 0.33911133, 1.6787109, 0.6220703, 1.7255859, 0.13977051, 2.2324219, 1.7421875, 0.8510742, 0.7626953, 1.4003906, -0.9121094, -0.68652344, -1.4355469, 0.81152344, 1.1806641, 4.1171875, 1.6191406, -0.03161621, -0.49804688, 0.2866211, -1.9804688, 1.4892578, 0.19152832, 0.41308594, -2.9238281, 0.39746094, -1.7558594, 1.3886719, -0.3166504, 0.3046875, -0.3984375, -0.38452148, -0.5102539, 0.023513794, -0.78466797, -0.14025879, 0.5571289, 1.2832031, -0.4453125, 1.7421875, 0.3713379, 0.5102539, 1.7148438, -0.7128906, -0.20178223, 0.4423828, -0.625, 1.6269531, -0.6279297, 1.4980469, 0.05807495, 0.7270508, -1.1328125, -0.8378906, 0.66259766, -0.5600586, -1.0888672, 0.7675781, 0.3798828, 0.2824707, 0.7260742, -0.63183594, -0.65722656, 2.3222656, -0.11907959, 1.0078125, 1.2314453, 0.6176758, -3.0449219, 0.5473633, -0.6279297, -0</t>
-  </si>
-  <si>
-    <t>[2.2128906, -0.32836914, 0.64990234, -1.1064453, -0.7036133, -1.6572266, 0.2290039, 0.26660156, 1.3896484, 0.5722656, 0.9501953, -0.6147461, -2.1289062, -0.2175293, -0.37329102, -0.91845703, -0.13928223, -1.3183594, 1.4648438, -1.2216797, -0.034484863, 2.2421875, 0.28955078, -0.70947266, -0.49487305, -0.29223633, -0.8847656, 0.48510742, 0.65527344, -1.4248047, 2.4355469, 1.0185547, -0.04058838, -0.74902344, 0.20263672, -0.8564453, 0.74609375, 0.12219238, 3.6855469, -0.92285156, 1.6171875, -0.23803711, 0.55126953, -0.08996582, -0.9995117, 0.18566895, 1.0810547, 0.04421997, -0.36010742, 1.0996094, 0.4350586, 0.55810547, -1.7412109, 1.3623047, -0.27954102, 0.86865234, 1.6259766, 0.63916016, -1.2011719, -1.2099609, 0.8183594, 0.68603516, 1.0888672, 0.60253906, 0.25732422, 0.7236328, -1.3964844, 1.4238281, 1.7832031, 0.040161133, 1.1328125, -1.2109375, 0.51660156, 1.2080078, 1.53125, 0.9995117, 0.92529297, 0.15722656, 0.07751465, -1.1533203, 2.5449219, 0.06854248, -1.4511719, 1.2724609, 1.2958984, 0.7128906, -0.9707031, -1.3886719, 0.041290283, -0.0034809113, -0.7910156, -0.24499512, 0.64160156, 1.2910156, -1.1982422, 0.73095703, 0.97314453, 0.30419922, 0.44433594, 1.6210938, -0.96484375, 0.22302246, -0.5336914, -1.0820312, 1.1894531, 0.43579102, -1.5908203, 2.0644531, -0.92285156, -1.4052734, -2.7167969, -1.1464844, 1.9345703, -0.19702148, 0.64746094, 1.1279297, 1.1123047, -0.33813477, -1.0166016, -0.06921387, 0.22302246, 0.5371094, -0.54003906, -0.5595703, 0.8144531, -2.8515625, 1.4892578, -1.1494141, 0.55810547, 3.4765625, -2.1894531, 0.21496582, 1.8398438, -0.77197266, 4.2460938, -0.86035156, -1.3505859, -0.40649414, -2.0078125, 0.07244873, -0.9013672, 0.35888672, 0.5053711, -0.22973633, 0.58203125, -1.0996094, 0.6503906, 0.3791504, -0.18225098, -0.8066406, -0.35620117, 0.58935547, -2.8066406, 1.3837891, -1.1162109, 2.2617188, 0.1508789, -1.4960938, 0.03845215, 1.2080078, 0.9926758, -0.62353516, -2.0292969, -0.24243164, 0.625, 0.17529297, 3.0195312, -0.9902344, 1.4248047, -3.4960938, 0.6401367, -0.59716797, -0.089660645, 0.5957031, 0.56396484, 0.3413086, 1.8349609, -1.3544922, 0.38500977, -0.8652344, 2.3144531, 0.11987305, 0.7114258, -0.69140625, -1.5751953, 0.028778076, 0.95166016, -1.9228516, 1.3027344, 0.27807617, 0.52783203, -2.2910156, -0.59814453, -0.60546875, -0.8779297, -0.54296875, 0.77685547, 0.39941406, 4.046875, -1.4658203, 0.16931152, -0.515625, -1.3193359, 2.3085938, -1.3339844, 0.8339844, 0.45361328, -1.6347656, 0.14074707, 0.1953125, 0.36645508, 0.64746094, 1.1533203, -1.3212891, -2.1757812, 0.7294922, 0.76708984, -0.5527344, 1.1572266, -1.7412109, 0.39892578, -0.5180664, -2.046875, 1.0996094, -1.7324219, -0.15783691, -0.7089844, -0.12939453, 0.7158203, -0.71533203, 0.53515625, -1.0429688, 1.7470703, -1.5380859, -0.59716797, -2.4355469, -3.0214844, -0.46923828, -1.2607422, 1.0410156, 1.5068359, -1.3310547, 0.22106934, 0.8310547, -0.43115234, 1.2460938, -2.7636719, -0.6298828, 2.0859375, -0.025253296, 3.1035156, 0.94921875, -1.6708984, -0.65527344, 0.6699219, 0.28051758, -3.5058594, -3.1875, -1.3828125, -0.23400879, -3.5546875, -0.3864746, 1.2529297, 0.14160156, 2.3691406, -1.2099609, -1.0009766, -0.26586914, -0.21203613, 0.5654297, -0.78027344, 1.7001953, 2.8710938, -0.8823242, -0.2770996, -0.63916016, 3.421875, 1.8320312, -1.1171875, -2.3828125, 0.19250488, -2.0917969, -2.0351562, -1.5878906, -0.007320404, -0.5463867, -1.9882812, -0.19458008, -0.40478516, 0.5371094, 2.2695312, -2.0664062, 1.3027344, -0.578125, 0.92578125, -0.045440674, 1.0996094, -1.1044922, 1.1933594, -0.43408203, -1.6777344, -0.52441406, -1.6269531, -0.015449524, 1.2265625, 1.8056641, 0.55126953, -0.32983398, 0.6557617, -0.8852539, 1.1777344, 0.42016602, 1.5683594, -2.7890625, 1.7216797, -1.3789062, -0.06530762, -0.37646484, -0.29736328, -1.0976562, -2.4511719, -1.7783203, 1.2871094, 1.6962891, 1.1503906, -2.5585938, 0.4091797, 2.4199219, 1.9287109, -0.69628906, 0.99365234, 0.18054199, 0.076416016, 0.20629883, 1.0703125, 1.0351562, 1.4882812, 0.15478516, 1.4277344, -0.9584961, 1.6054688, 0.31811523, -0.07348633, 0.2932129, 0.27783203, 0.5888672, -2.0292969, -2.1445312, 0.6386719, -0.2614746, -1.3710938, -0.7207031, 1.0849609, 3.5332031, 0.49853516, 1.25, 1.0751953, 0.3046875, -1.5810547, 0.3095703, -1.4960938, -0.4560547, -0.73828125, -0.8779297, -0.79003906, 0.004508972, -0.83935547, -0.24389648, 3.328125, -0.99316406, -0.66845703, 0.6152344, 2.6699219, 0.93066406, 1.0009766, -2.0957031, -0.06878662, 1.1279297, 1.0664062, -0.70458984, -0.024887085, 1.6650391, -0.4165039, -3.3964844, -1.7802734, -1.1572266, -2.1503906, 0.40576172, 1.5849609, -0.66259766, 0.45214844, -1.1962891, -0.3388672, -0.55810547, 0.5644531, -0.75, 0.2993164, 1.2646484, -1.0019531, -0.07727051, 0.453125, 0.61328125, -0.44677734, -0.8066406, -0.09100342, -0.63623047, -1.7753906, -0.4736328, 0.2010498, 0.40356445, -0.34155273, 0.12817383, 2.6308594, -0.46533203, 2.2734375, -1.9335938, -2.4101562, -0.86328125, -0.8911133, 0.21655273, -0.67578125, 0.10424805, -0.2788086, 1.2734375, 2.5019531, -0.6557617, -1.0595703, -0.8066406, -0.076293945, 1.6816406, -0.54785156, -0.89697266, -0.6479492, -0.83251953, -2.1074219, -2.3457031, -1.2988281, -1.8427734, 0.12420654, -0.64941406, -1.2685547, -0.42163086, -0.796875, -1.3378906, 1.5820312, 1.5166016, -0.095581055, 2.8417969, -1.5224609, -0.12854004, 0.09887695, -0.46655273, 0.012435913, -1.1123047, -1.6503906, 0.37475586, -0.7089844, -1.8105469, -0.09741211, -0.22338867, 0.15124512, 2.4746094, -0.60302734, -0.5263672, -1.3515625, 1.1103516, -0.04336548, -1.2373047, -2.3457031, -2.8496094, 0.0013437271, 2.4980469, -1.2724609, -0.17114258, -1.2412109, 1.7333984, -1.3515625, -1.5634766, -0.65771484, -2.2890625, -2.7460938, 1.5019531, 1.4003906, 0.16564941, 0.66503906, -2.5332031, -1.09375, -1.7148438, 0.58251953, 0.35595703, -1.4931641, -0.23815918, 1.21875, -1.1181641, -0.25146484, 0.29614258, 0.64453125, 0.94189453, -0.328125, -2.0429688, -1.2041016, -1.3515625, 0.31445312, -0.11206055, 0.2602539, -1.0537109, -1.2460938, -0.65185547, -3.1074219, -0.068359375, -0.7988281, 2.2890625, -4.208088e-05, -0.9135742, -0.953125, -0.1661377, -1.1572266, -0.32739258, -0.03970337, -2.8691406, 0.9404297, -0.6870117, 0.103515625, -1.5507812, -0.48217773, 2.921875, -1.0771484, 2.9394531, 0.107055664, 0.2993164, 1.6464844, 0.8652344, -0.12164307, 0.39111328, -0.515625, 1.4794922, 1.4960938, 0.75878906, -1.0742188, -0.038085938, 2.4414062, -0.5786133, -1.7167969, 1.5585938, -0.37402344, 0.46020508, -1.0625, 0.8803711, 0.88378906, -0.4765625, -0.32373047, -1.3105469, 1.2724609, -1.4052734, 0.67626953, 2.0976562, -0.3388672, 0.6176758, 2.7851562, -0.8964844, 0.7270508, -2.6484375, -0.37329102, -0.31713867, -0.8339844, 0.91748047, -1.1142578, 2.0820312, 0.79052734, 0.22033691, -0.4477539, 0.058807373, 0.24743652, -2.2578125, 2.4179688, 0.08807373, -1.4453125, 0.28808594, -0.50878906, 0.8232422, 0.94189453, 0.7675781, 1.3662109, 1.0966797, -0.14343262, -1.0644531, -0.99316406, -0.61328125, -0.60498047, 0.5498047, 0.7739258, -1.2626953, -1.4384766, 2.8867188, -1.3066406, 0.70166016, -1.1914062, 0.21264648, -1.1181641, -0.5234375, 1.8105469, 0.96191406, -0.90771484, 0.55566406, 0.51416016, 0.18859863, 0.3864746, 1.2578125, -0.5078125, -1.21875, -1.7148438, -1.0605469, -1.0693359, -0.54296875, -0.38891602, 0.24304199, 0.38061523, -0.18286133, 0.97265625, 1.5009766, -0.59521484, 1.2304688, -1.4619141, -0.32202148, 1.2636719, 1.7353516, -3.0976562, 1.8125, 0.8457031, 0.89697266, 1.2568359, 2.5039062, -1.1181641, -1.0400391, 2.0957031, 4.484375, -0.24707031, -0.23620605, -0.6323242, 1.3349609, 2.2421875, 0.7294922, 0.20153809, 2.9082031, 0.56103516, 1.7724609, -0.3005371, -0.12890625, -0.4814453, -2.0253906, -2.1269531, 1.2412109, -0.49853516, -1.0410156, 1.5273438, 1.6474609, 1.3564453, 1.8916016, -0.55029297, 2.8730469, -1.4921875, -0.05508423, 0.94970703, -1.3691406, 0.48120117, 0.47998047, -0.56933594, -2.3496094, 1.0888672, -0.0065345764, -0.37719727, 1.7587891, 0.05407715, 0.6279297, 1.4160156, -0.043914795, 0.9902344, 0.6123047, 1.1884766, 2.7382812, 0.005191803, -0.9067383, -1.7597656, 1.8476562, -1.7675781, -0.8022461, -0.43969727, 0.4411621, 0.6147461, 1.8261719, -0.36010742, 0.13354492, 2.3691406, -0.90771484, 0.6923828, -0.6425781, -1.6337891, 0.75927734, -0.71533203, -0.58935547, 0.61279297, 0.11651611, -1.2929688, -4.53125, -1.9316406, 2.0292969, -0.064697266, 0.7675781, 3.421875, 2.3574219, 0.88916016, 1.7050781, 1.2880859, -2.2050781, 0.15856934, -2.1269531, 0.8027344, -0.31835938, -1.3154297, 1.0957031, 1.3212891, -2.6523438, 0.22497559, -1.2421875, 2.2675781, -1.0332031, -0.27197266, 0.60253906, 0.671875, -1.0878906, -0.17297363, -0.044555664, 0.59716797, 0.52001953, 0.24499512, 0.9477539, 0.48535156, -0.82421875, -2.0585938, -0.26879883, -2.4941406, -1.3144531, 2.8320312, 0.17236328, 3.1386719, -0.08239746, 0.68115234, -0.8925781, -0.10809326, 3.1601562, 0.051818848, 0.54785156, -1.2958984, 0.73779297, -0.32617188, -0.5180664, 0.76904297, -2.640625, -0.36791992, -0.51708984, -1.9169922, -0.90966797, 0.21740723, 1.3369141, -0.18713379, 1.7958984, -0.65478516, -1.1181641, -1.1445312, 1.6533203, 0.25024414, -4.9765625, 0.6279297, 3.0175781, 3.0449219, -0.26904297, 0.45483398, 0.37719727, 0.051330566, 4.6914062, 0.65283203, -0.6044922, -0.23791504, -1.7949219, 2.3925781, 1.4199219, -0.9785156, 0.4765625, -0.4116211, 2.7089844, -1.9609375, -2.1132812, -0.79052734, 0.45117188, 1.4443359, -0.13635254, 1.6181641, 0.99560547, -0.7753906, 1.2568359, -0.16186523, 2.2480469, -0.118652344, -0.73046875, 0.21276855, 0.2919922, -0.2043457, 1.5507812, -0.096191406, -1.4130859, 0.77783203, -0.82128906, 0.24829102, -1.1445312, -0.95751953, -1.0957031, -1.5859375, -0.6738281, 0.43310547, -0.21496582, 0.89941406, 0.14807129, -1.3134766, 0.18395996, -0.60498047, 0.5571289, 0.44482422, 0.5673828, 0.026473999, -0.47607422, -0.7470703, -3.0546875, 1.9716797, -0.3232422, -0.48217773, -0.33520508, -0.54296875, 4.859375, -1.8427734, -0.3088379, 3.2167969, -2.4941406, -0.40307617, 3.734375, -1.7578125, -1.7646484, 1.6074219, 1.9804688, 0.8354492, 1.2304688, 0.5083008, 0.27783203, 1.8037109, -1.0078125, -0.45214844, 0.76220703, -0.8798828, 0.8408203, -0.6479492, -0.2553711, -0.45532227, 2.0292969, 1.2255859, 0.8154297, 0.3178711, -0.8198242, -0.32373047, -0.8178711, 0.14428711, 0.51123047, 1.8613281, -0.09326172, 0.8232422, 0.65966797, 0.9926758, -1.0283203, -0.11541748, 0.21179199, -2.203125, 0.69970703, -1.6220703, -0.20593262, 0.5205078, -0.36254883, 1.0673828, -0.14953613, -0.2265625, 0.12231445, -0.42529297, -1.8447266, 0.032470703, -0.8417969, 0.6875, 2.7363281, 0.32495117, -1.3837891, -0.017059326, -1.7373047, 3, 0.4819336, -1.4140625, 1.5224609, 0.6333008, -0.87841797, -1.9882812, -0.58691406, -2.4960938, 1.5029297, -0.98291016, -3.640625, -1.0869141, 0.31152344, 2.1699219, -0.95458984, -2.859375, -1.2353516, -0.8588867, -0.56103516, -0.18823242, -0.05831909, -0.01902771, 0.14562988, -1.1669922, -0.014091492, -0.15698242, -1.4140625, -3.4101562, 0.32055664, -0.3618164, 1.1230469, 0.017486572, -0.16516113, 2.8925781, -1.5371094, -0.8823242, -1.1181641, -0.94433594, -0.8598633, 1.0976562, -0.027328491, -0.09234619, 0.21765137, 0.62646484, 1.7431641, 1.5800781, -0.43139648, -1.9794922, 0.7060547, -2.4394531, -0.047607422, -0.049346924, 0.007583618, 0.6611328, -1.5683594, -0.49243164, 0.1538086, -1.3896484, 1.4814453, 0.31933594, -0.984375, -1.3710938, -1.4101562, -0.09484863, -0.57177734, -1.3232422, 1.9433594, -0.22912598, 0.81103516, -0.44335938, 1.6728516, -0.96484375, -2.4824219, -0.46435547, 1.1220703, -1.3710938, -0.65625, 0.6845703, 0.4489746, -0.96191406, 0.49047852, -3.0664062, -0.3046875, -1.8115234, -1.2216797, -0.8071289, -0.51953125, 0.3544922, -0.5932617, -1.6542969, -0.5878906, 0.40014648, 1.4033203, -1.5527344, -1.0996094, 1.1835938, 0.43701172, 2.3789062, -0.45166016, 0.1977539, -3.4160156, 0.8876953, -1.2529297, 0.36669922, 0.2849121, -1.0976562, -2.3105469, -1.1650391, 0.7133789, -1.2177734, 0.37426758, -0.9033203, 0.50341797, 1.1123047, 0.9941406, -2.2851562, 0.15270996, 0.13562012, 0.013000488, -1.7724609, -1.3457031, 0.5576172, -0.49682617, 2.5273438, -1.2255859, 2.5605469, -0.7866211, -0.8388672, -0.33398438, 1.5195312, 1.0654297, -1.6064453, -1.7060547, 2.5996094, 0.25463867, 1.8261719, 3.7714844, 0.74365234, 0.7602539, -0.17883301, -0.074401855, 0.4501953, 1.7324219, -0.73046875, 0.43579102, -3.296875, -0.3935547, 1.0087891, -0.21716309, 1.0966797, 0.043701172, 1.9443359, -0.24230957, 0.18151855, 0.7373047, -0.5395508, -1.5585938, 0.66796875, -1.7167969, -1.4648438, -1.2441406, -0.5048828, 1.0556641, 0.55859375, -2.2128906, 1.8037109, -0.33129883, 0.30273438, -1.6992188, 0.7939453, 0.4321289, 0.4104004, -0.070129395, -0.028427124, 0.6923828, 0.63916016, 0.41308594, 0.8803711, 0.74365234, 1.7226562, -1.9833984, 2.0429688, 0.117614746, 1.1025391, -0.5932617, 1.4433594, -0.045562744, -1.4394531, 1.4355469, -0.3395996, -0.6616211, 1.9248047, 0.59765625, -0.33276367, -0.57910156, 0.51464844, 0.5493164, 0.8486328, -0.36669922, -1.1181641, -0.90234375, -0.7729492, 1.2568359, 1.4755859, -1.1621094, 0.28979492, -1.1328125, 2.0117188, -0.64697266, 0.8120117, -0.2709961, 0.8833008, -0.09918213, 2.1621094, -0.8125, 2.2050781, 0.33374023, -0.36279297, -1.0429688, 0.17053223, 0.26953125, -0.16577148, 0.51904297, 1.2265625, 0.07946777, -1.9785156, 0.9428711, -1.0273438, 1.6347656, 0.77441406, 1.5947266, -0.25878906, 0.18261719, -0.25195312, -0.9008789, 0.67578125, 1.2568359, 1.7402344, -1.5751953, 1.1064453, 0.65625, 3.015625, 1.8681641, -0.23266602, 1.4121094, -0.47436523, 1.6474609, 1.4501953, 0.65478516, -1.0390625, -0.5415039, 1.3876953, 1.2529297, -0.107788086, 2.5488281, -0.15148926, -0.7998047, 0.6464844, -0.37695312, 0.08520508, -0.14941406, -0.88964844, 0.54003906, 0.06237793, -0.26391602, 0.8754883, -1.2158203, -1.2304688, 2.5390625, -1.6796875, 1.7060547, -1.6582031, -1.4414062, 1.1435547, -0.890625, -0.7739258, 1.3105469, 0.51171875, 0.28710938, -1.2460938, -0.026657104, -0.33789062, 0.83496094, -0.17041016, -1.1523438, 0.6040039, 2.4257812, -1.8242188, -1.7119141, -1.1142578, 0.11407471, -0.11407471, -0.4177246, 0.73339844, -0.28710938, -0.5361328, -0.38354492, 1.0585938, 1.2753906, 2.6757812, 0.013298035, -0.44750977, 0.95166016, -1.53125, -0.12817383, -0.68603516, 2.7890625, -0.5678711, -0.32543945, 1.0166016, 0.58740234, 0.38549805, 1.8037109, 1.3222656, 0.009857178, 1.9150391, -0.67626953, 0.80126953, 1.2226562, 1.1767578, -0.46606445, 0.45092773, -0.69970703, 2.0117188, 0.08959961, 0.4013672, -0.48754883, 1.9404297, 0.7441406, -0.1418457, 0.5551758, -1.0292969, 0.56884766, 0.3479004, 0.35742188, -0.011985779, 1.4277344, -0.09741211, 1.5488281, -0.05001831, -0.5620117, 0.6010742, -0.70458984, 1.8183594, 0.45776367, 0.69091797, 2.2421875, 2.9882812, 1.0419922, -0.1817627, -0.21850586, 3.140625, 1.0595703, 3.5039062, -0.030059814, 0.421875, 0.66259766, 2.1386719, -0.63720703, -0.828125, -0.4255371, -0.01651001, 0.48583984, -2.2382812, 2.0644531, -1.6445312, -0.13781738, -0.5283203, -0.5620117, -1.4375, -0.15258789, 0.22216797, -0.8364258, -1.5390625, 0.79296875, -1.3417969, 3.2226562, -2.484375, 0.8173828, -2.7753906, 0.91015625, 0.53466797, 0.3251953, -1.7109375, 1.2802734, -0.2006836, -1.5849609, 2.2324219, 0.8935547, -0.48657227, 0.43701172, -1.0332031, -0.9404297, -0.7885742, -1.1591797, 2.0800781, -2.0058594, -1.4824219, 1.1103516, 1.6152344, 1.0986328, -0.7324219, 0.20874023, 0.14526367, 1.0703125, -3, 1.9472656, -0.79052734, 0.03366089, 0.79833984, 0.56591797, -1.9228516, 0.5102539, 1.0019531, -0.6513672, -0.3154297, 1.1669922, -0.65966797, -0.12902832, 0.20922852, -0.103149414, -0.3779297, 0.42407227, -1.7421875, 0.4645996, 1.0517578, 0.8041992, -0.15393066, 0.2548828, 1.9931641, -0.3774414, -0.19799805, 0.69433594, -1.4169922, -2.2324219, 0.89746094, -1.4882812, -1.2285156, -0.57666016, 1.3378906, -1.2421875, 4.71875, -0.31323242, 1.8710938, -1.4707031, 0.6621094, 1.7304688, 0.79541016, 2.2089844, 0.12817383, 0.39331055, -0.3413086, 0.08831787, 0.28979492, 0.4975586, -1.0957031, -0.060455322, -0.26904297, 2.0371094, -0.2010498, 0.38134766, 0.37524414, -1.2128906, -0.54003906, 1.3535156, 4.09375, 0.57128906, -1.4980469, -1.3652344, 0.3203125, -3.2441406, 1.7724609, 0.70214844, -0.14746094, 0.18676758, -0.9550781, -1.4853516, -1.1005859, -0.21057129, -1.5546875, 0.8613281, -1.1005859, 1.8251953, -1.0820312, -0.3779297, 0.38598633, -0.60595703, -0.14074707, -2.4140625, -1.4169922, 1.3466797, -1.2285156, 1.4990234, -1.2685547, -0.7832031, 1.6591797, 2.0566406, -0.036712646, 1.1816406, -0.4025879, 2.1757812, 1.1318359, 2.2890625, 0.9082031, 1.5087891, -1.8583984, 3.1464844, -1.5585938, 2.9140625, 0.54003906, -2.1621094, -0.015991211, -0.94628906, -0.49145508, 1.4921875, -0.15100098, -0.8745117, -0.20239258, 0.37548828, 1.5654297, 0.21044922, -1.1708984, -1.5244141, 0.16894531, 2.2910156, 0.52978516, 0.8129883, 0.3486328, -0.51220703, -0.9760742, 1.0849609, -1.2626953, -0.33666992, 0.81152344, 1.3007812, -0.32202148, 1.9003906, -1.2900391, -1.2841797, -2.9785156, 0.18225098, -2.4414062, -0.12548828, 0.1850586, -0.34814453, 0.107910156, 0.5058594, 0.22229004, -0.3791504, -0.48632812, 0.62060547, -0.71728516, -1.0234375, 0.3083496, 1.2675781, -0.21069336, -0.484375, -1.5283203, 0.7011719, -0.03591919, -3.0605469, 1.2509766, 0.9692383, -0.20007324, 0.79052734, -2.0683594, -0.6621094, -1.9169922, -2.9414062, -1.2851562, 0.29589844, 3.4707031, -1.0400391, -0.25463867, 1.5859375, 1.6787109, 2.7773438, -0.203125, 0.20544434, 0.64990234, -0.30615234, 0.6699219, 1.3320312, -2.2773438, -0.68896484, -0.117248535, 3.7382812, 0.70458984, 0.51904297, 0.4169922, 1.2265625, -1.7226562, -1.3623047, 1.1455078, 2.2617188, -1.5419922, -1.7119141, -0.15356445, -0.24743652, 0.5107422, 1.4345703, 0.24487305, -1.8720703, 0.42797852, -0.5004883, 0.9902344, 2.3808594, -0.30444336, -0.77978516, -1.6894531, 1.0742188, 1.0029297, 2.5273438, -1.7880859, -1.2578125, -2.3203125, -0.7363281, -1.0537109, 0.97802734, -0.22302246, 1.09375, 4.7617188, 2.8886719, 1.0664062, 1.2001953, 0.9863281, -0.8330078, 2.0332031, -0.060272217, 1.4433594, 0.40820312, -0.55908203, -0.7553711, -0.25439453, 0.40014648, -0.39086914, 0.85009766, 0.43139648, 0.8017578, -1.7558594, 1.2402344, -0.64501953, -1.3720703, 0.46728516, 1.3779297, -0.101989746, -0.46533203, -0.4423828, -0.23010254, -1.5693359, -0.70410156, 0.93652344, 1.2265625, -0.10992432, 1.7871094, 0.7060547, 0.024353027, 0.7036133, -2.5566406, 0.30688477, 1.3144531, -0.7763672, 1.0205078, 1.6601562, -0.7011719, 0.70947266, 2.3964844, 0.21887207, 0.4243164, 0.41552734, -0.13647461, 3.2949219, -0.5126953, -0.90722656, 0.90625, 0.41381836, -1.0957031, 1.0371094, -1.3476562, -0.4104004, 1.4648438, -1.0039062, -0.6435547, -0.27075195, 1.4580078, 1.1650391, 0.8232422, 0.5629883, 3.3417969, 1.7685547, 1.3291016, -0.043640137, -0.37329102, 1.6044922, 1.7822266, -1.3349609, -1.0136719, -1.6953125, 1.8535156, -1.6181641, -0.84472656, -0.57666016, -0.4765625, 0.099853516, -0.9272461, -0.20629883, 4.4726562, 1.5117188, -1.0498047, 1.5029297, 4.1914062, -1.0029297, -0.11773682, 1.3134766, 0.19055176, -1.7783203, 1.4179688, -0.09106445, -0.20837402, -0.89453125, -0.043701172, 1.0078125, 1.9970703, -1.125, -3.5507812, 0.41333008, -0.40576172, -0.6508789, -0.28686523, -0.32080078, 1.9892578, -1.5615234, -0.4970703, -0.671875, -0.16369629, -0.6230469, -0.39013672, 0.70996094, -1.3164062, 0.64697266, -1.7333984, 2.2578125, 0.30541992, -1.5966797, 1.0087891, -1.9892578, -1.1689453, -2.09375, 1.9072266, 2.2226562, 0.33911133, 1.8115234, 0.29956055, -0.99658203, -0.140625, -0.09423828, -0.6821289, 1.8945312, 1.8027344, -1.4130859, -1.0380859, -0.5234375, -2.078125, -0.016677856, -0.6533203, -2.7695312, 0.98095703, -0.3178711, -2.2148438, 2.9980469, 2.2753906, -0.55371094, 0.25805664, 0.7158203, -1.2177734, 2.5917969, -1.3857422, 0.13793945, -0.80908203, -2.3964844, 0.083740234, -2.0449219, -2.0195312, -1.0634766, 0.00089645386, 1.6464844, 1.0029297, 1.7919922, -1.7519531, 1.2294922, 0.5942383, -1.3183594, -0.10479736, -0.39379883, -0.0039138794, -2.5195312, 0.8129883, 0.4104004, 1.2158203, 3.2871094, 0.9682617, 1.9755859, 0.45043945, 0.5107422, -0.093322754, -0.32983398, -0.73291016, -1.9746094, -2.2285156, 2.6835938, 0.96240234, -1.1757812, -1.3212891, 0.3869629, 1.078125, -0.2524414, 3.9140625, 0.70458984, -0.7548828, -0.27954102, 0.9116211, -2.2460938, 0.7182617, -0.9111328, 0.9560547, 0.0048446655, 0.38208008, 3.1425781, -0.43969727, -0.69873047, 0.9814453, 0.8051758, 0.19384766, -1.1347656, 0.60839844, 1.4414062, 1.4443359, -2.6875, -0.00983429, -2.0175781, -0.36987305, 0.058929443, -0.38842773, -0.24243164, 0.73339844, 1.9570312, -0.27978516, 0.64404297, 1.1425781, -0.03326416, -0.046966553, 1.2167969, -1.0693359, -0.72558594, 1.1601562, -3.9257812, 1.8212891, 0.7602539, -2.1992188, 0.42089844, 0.70654297, 0.3227539, 2.015625, 0.70166016, -0.9746094, -0.77246094, -0.8144531, -0.46557617, -1.5791016, -0.8754883, 3.2578125, -0.65966797, 2.2109375, 0.53466797, -2.046875, -1.8857422, 0.5107422, -0.8198242, 0.21972656, 0.27392578, -1.3203125, -0.062469482, -0.5410156, 1.4179688, -3.7070312, -1.2597656, -1.2021484, 0.11785889, 1.7792969, 1.9316406, -0.024795532, 1.4365234, 1.2412109, -1.2373047, 2.1738281, -0.50390625, 1.6855469, -0.3774414, -0.37939453, 1.0507812, -1.9091797, 0.036376953, 0.61328125, 0.9614258, 0.43188477, -0.734375, -0.86083984, 2.3261719, -1.1103516, -1.5712891, 1.3457031, -2.9082031, -2.0996094, -1.8378906, 0.60253906, 0.08673096, 0.6513672, 0.7011719, 1.4238281, -1.1240234, -1.9082031, -1.3603516, 0.8066406, -1.5410156, 1.3349609, 1.9589844, -0.80566406, -0.33911133, -0.828125, -0.4453125, -1.2724609, 0.50878906, 1.4990234, 2.0136719, 0.37231445, -0.5019531, -1.9316406, 1.9921875, -0.055389404, -2.0898438, 0.7758789, -0.22033691, 1.1171875, 0.03353882, -0.1307373, -3.6503906, 0.29077148, 0.7314453, -0.21838379, -0.7739258, 0.18518066, 0.44970703, 0.7504883, 1.8271484, 1.0703125, -1.1650391, -0.085754395, -1.9082031, 2.2128906, -0.32006836, -1.5449219, -1.2783203, 0.84716797, 0.8408203, -0.52685547, 1.1621094, 1.4199219, 2.0449219, 0.35327148, 1.9599609, 2.0625, 0.8388672, 0.59277344, 0.87646484, 2.2441406, 0.73095703, -3.2636719, -1.9267578, -0.83251953, 2.3183594, 1.5605469, 0.011138916, 0.46923828, -3.2988281, -2.7714844, 0.73291016, 2.078125, 0.34521484, 1.9902344, -0.6411133, -0.33691406, 2.8574219, -0.38354492, -2.0292969, 0.7338867, -1.21875, -1.0693359, -0.39526367, 1.5761719, -2.0273438, -0.66845703, 1.7353516, 1.4257812, 0.6503906, 2.1523438, -0.42333984, 0.5908203, -0.7158203, 0.021102905, -0.49267578, 1.3222656, 0.99609375, 0.16882324, 0.7504883, -0.9741211, -2.0292969, 1.3613281, 1.3632812, 0.9980469, -1.5126953, 0.33813477, 0.45166016, -1.2792969, 1.0644531, -0.43017578, -1.3212891, -0.15515137, 1.0273438, 0.22814941, -2.1191406, -2.0859375, 0.06555176, 0.13842773, 0.11608887, -0.26660156, -1.375, 0.54541016, -0.10443115, -1.59375, -2.3730469, 2.2929688, -0.70410156, 0.9321289, -0.1307373, 2.1425781, -2.6933594, -1.0878906, 1.4169922, 0.58154297, -0.10345459, -1.3203125, 2.234375, -2.2128906, 0.4892578, -3.6503906, -1.5722656, -1.9306641, -2.0449219, -3.2539062, 1.5800781, -0.66015625, -0.6142578, -0.28173828, 0.037475586, -0.6982422, -0.019744873, -1.3193359, 0.28442383, -0.06149292, -2.0292969, 2.1582031, 0.83154297, -0.99902344, -1.1142578, -1.6328125, 0.29101562, 2.2207031, -1.1933594, -1.1181641, -0.25073242, -0.7753906, 0.20617676, 2.5625, 0.6201172, -0.69433594, -0.7519531, -0.23840332, -0.059631348, -0.82958984, -1.0126953, -0.28881836, 0.5307617, 0.74853516, 0.7651367, 0.32299805, 2.4042969, -0.6191406, -1.5859375, -0.4338379, -0.7363281, -1.7324219, 0.0847168, 0.59375, 0.04156494, -0.28442383, 2.9746094, 0.43969727, -0.31762695, 0.62646484, -0.66552734, -1.0068359, -1.0966797, -0.8227539, 1.8769531, -1.3857422, 0.8652344, 0.9501953, 0.99853516, -1.1972656, -2.1484375, -0.009407043, 2.7089844, -0.53125, -0.31518555, -0.8886719, -0.86376953, -0.72753906, -0.75390625, 1.3330078, -2.4414062, -0.23168945, 1.2666016, 1.1865234, -0.4663086, -1.2714844, -3.0175781, 0.34472656, 0.83154297, -0.8574219, -0.984375, -1.2353516, 0.32666016, -3.171875, -2.1894531, 1.6630859, -0.55371094, 1.3027344, -1.4394531, 0.9189453, 0.16906738, -0.5571289, -0.27124023, 0.13452148, -3.6132812, 1.0029297, -2.1992188, -1.8671875, -0.3725586, -3.2480469, -1.46875, 0.25439453, -0.7426758, 0.7895508, 1.7753906, 0.12548828, 0.23669434, -1.9248047, -0.17932129, -0.5488281, 0.7729492, 1.4150391, 1.6035156, -0.13928223, 0.20227051, 0.30615234, 0.13439941, -2.2792969, -1.2773438, 0.14221191, 0.13586426, -1.0332031, 0.81152344, 1.2255859, 1.3095703, -0.13208008, 0.005657196, -1.3339844, 0.7338867, 1.3632812, -0.35009766, 1.6445312, -2.546875, 1.3642578, 0.29174805, 0.796875, 1.7041016, -1.9355469, 0.5004883, -0.26904297, -1.4072266, -0.8544922, -3, -1.2373047, -1.2978516, 2.0273438, -0.07556152, -2.6601562, -0.39257812, -1.8203125, -0.45117188, 0.17443848, -0.27612305, 1.5585938, 0.34814453, 0.30151367, 0.109313965, -2.3203125, -0.09466553, -1.2558594, 0.7783203, -0.23815918, 3.4199219, 0.59033203, -0.59716797, -1.3408203, 0.37695312, -0.92822266, 4.109375, -1.3886719, -2.4863281, 0.35595703, -1.6650391, -1.2050781, -1.3017578, -1.9257812, 0.07879639, 1.2011719, -0.9404297, -0.87060547, 0.578125, 0.8598633, -0.29760742, 0.52685547, 1.4257812, -0.5385742, -1.0341797, 2.2539062, -2.4609375, 1.4150391, 0.4580078, 1.1132812, 2.0292969, -1.0185547, 1.3408203, -0.88134766, -1.5068359, -0.92871094, -2.0917969, -0.91259766, -0.7871094, 0.44677734, 0.40478516, -0.73339844, -1.6796875, 1.2851562, -1.3515625, -1.3417969, -0.02960205, 1.6914062, 0.34204102, 0.296875, -1.6181641, -1.1171875, -1.3740234, 1.1542969, 3.6933594, -1.6103516, 0.9741211, 0.09033203, 1.3212891, -1.9316406, 3.8320312, 0.14916992, 0.8144531, -1.8359375, 0.81396484, 0.48461914, -1.2060547, 0.38452148, -0.57373047, 0.087524414, -0.3154297, -1.4394531, -1.3564453, 0.65966797, -0.5019531, 0.064208984, -0.028549194, -0.30322266, -0.18200684, -3.4648438, -2.0351562, 1.3867188, 3.6992188, 1.8339844, -0.6894531, 1.2070312, -0.9423828, 1.9785156, -0.45117188, -0.16760254, -0.07897949, -0.50634766, 1.0410156, -0.16442871, -4.5, -0.4423828, -0.27612305, -2.4804688, -1.6318359, 1.6152344, -3.1308594, -1.1396484, 3.1113281, -1.6269531, -0.013160706, 0.4807129, 1.9306641, 2.7050781, -0.60595703, -0.96484375, -1.3652344, -0.5419922, -1.1367188, 1.0800781, 0.071777344, -0.61621094, 0.22607422, -0.23120117, -1.6533203, -0.55126953, -1.7167969, -0.88378906, -0.087524414, -1.4462891, 0.78759766, -1.5966797, -0.33862305, -0.6269531, 0.38183594, -0.6616211, -0.34838867, 1.0605469, 1.3671875, -0.38232422, -1.4082031, -0.60546875, 0.15124512, -0.34521484, -1.2167969, 0.71875, -0.76123047, 0.19885254, -1.1103516, -2.7773438, 1.7275391, -1.0361328, 0.13928223, 1.5527344, 0.12683105, -0.16760254, 1.4931641, 0.76904297, -0.10675049, 0.63964844, 0.7661133, -2.3164062, 1.2988281, 0.98291016, 0.1899414, 0.671875, 0.36547852, -2.2636719, -2.9121094, 1.5732422, 0.67333984, -0.101989746, 0.57470703, 0.6333008, 0.42749023, -0.22705078, -1.1630859, 1.7929688, -1.1689453, 1.2285156, -0.6748047, -1.9609375, -0.06549072, -1.1992188, 1.0849609, 1.3349609, 0.9951172, -1.7021484, 0.05319214, 0.84765625, -1.2998047, -0.5761719, -0.9472656, 1.2900391, 1.7470703, 2.2285156, 1.4970703, -1.1572266, -1.4169922, 0.91259766, 0.8535156, 0.7133789, -0.9375, 0.71533203, -1.1259766, -0.51904297, -1.3808594, -3.1054688, 0.7919922, 0.2783203, -0.28125, 0.98828125, -0.23474121, -1.4414062, -1.21875, 1.3808594, 0.5004883, -4.546875, -1.1806641, 0.46020508, 0.63427734, -2.5585938, -2.5800781, -0.11364746, 0.5957031, -0.91308594, -0.38110352, 1.1289062, -1.5166016, -0.15063477, 1.4150391, 0.12609863, 1.2460938, -0.18383789, -0.91748047, -0.6459961, -1.8291016, 1.1992188, -2.6054688, -0.6074219, -1.2441406, -0.08703613, -0.81347656, 0.44018555, -0.42285156, 1.9140625, -0.60009766, -3.2128906, -0.064819336, 1.4404297, 1.1220703, -1.1669922, -2.3164062, 0.31298828, 1.0498047, 1.0810547, -0.71533203, 2.828125, 1.2490234, -1.1171875, 0.6894531, 0.21044922, -0.7084961, 0.8652344, -2.0058594, 2.4824219, 0.057617188, 0.9135742, -0.6669922, -0.96777344, 0.25634766, 1.4091797, 0.3959961, -1.3662109, 0.8442383, -1, -0.8154297, 0.2746582, 0.22192383, 0.4892578, -1.5214844, -0.3383789, -0.107177734, -1.4570312, -1.1748047, -0.95214844, 0.93408203, -1.0419922, 2.7792969, -0.12719727, 0.6113281, 0.9707031, -0.7949219, 1.71875, -1.5839844, 0.029968262, 1.0058594, 2.0683594, -0.94970703, -0.19897461, -0.7753906, 0.06286621, -2.3769531, 0.3395996, -1.4169922, 2.6894531, -0.4404297, -0.8198242, -2.625, 1.3310547, 0.80615234, 0.1821289, -0.4567871, -0.58251953, 1.0576172, -0.42089844, -0.69140625, -0.46118164, -0.7709961, -0.30908203, -2.6582031, -0.11419678, -0.41870117, 0.3515625, -1.125, -1.3378906, 0.06652832, -0.53466797, 0.29663086, 0.9814453, 0.0128479, 1.0234375, 1.6425781, 0.5498047, 0.095214844, -0.5073242, 0.59716797, 0.15441895, 0.30908203, -0.042266846, -1.0087891, -0.33618164, 0.8520508, -0.4584961, -3.2773438, -0.05657959, 1.4570312, 0.0541687, 0.33642578, -1.5380859, -2.2578125, -0.2130127, 0.27172852, -0.5151367, -0.9477539, -0.023925781, -0.03125, 0.51953125, 1.3564453, -0.13586426, -0.16430664, 0.71972656, -0.37158203, -0.65234375, 0.91748047, -1.7578125, -1.2353516, -0.47094727, 0.14685059, -0.04284668, 0.46679688, -0.546875, -0.9316406, 0.953125, 0.96875, -1.0146484, -1.5371094, 0.6801758, -0.36767578, -0.19030762, 1.1171875, -0.97558594, -0.6503906, 4.0820312, 2.0859375, -1.7714844, 1.0771484, -0.6689453, -0.73583984, 2.5390625, 0.79345703, -0.29663086, -0.88916016, -1.6591797, 0.31518555, -0.6166992, 0.57373047, -0.5004883, -0.35986328, -1.8652344, -0.23425293, -0.08129883, 0.75390625, 0.22766113, -1.2519531, 0.16967773, -1.8398438, -2.0878906, 0.25341797, 0.29101562, 1.8828125, -0.5371094, 1.0175781, 1.8808594, -0.5996094, -2.3574219, -0.6635742, -0.30126953, -0.95947266, 0.15161133, -0.3095703, -0.028167725, -0.17626953, 0.08227539, -1.5566406, 0.39892578, 0.009056091, 0.40063477, -1.4873047, -1.5546875, 1.0332031, 0.5283203, -1.2294922, -1.0556641, 0.80126953, 1.3398438, -1.8740234, 0.9160156, -3.4960938, 3.8476562, -1.1982422, -0.29589844, -1.3710938, -1.8789062, -2.09375, 1.0791016, -2.1914062, 0.38208008, -0.1427002, 1.2714844, 0.9511719, -0.53808594, 0.68603516, -1.0732422, 1.1113281, -0.047088623, 1.1552734, 1.1669922, 2.2617188, -0.47680664, -1.2167969, 1.2314453, 1.5859375, 1.1445312, 0.10882568, -0.96533203, -0.12841797, 1.0351562, 1.1591797, -1.1767578, 0.22521973, -0.36035156, -0.9379883, 1.2666016, -0.97265625, -2.2910156, -0.18518066, 0.23669434, -0.7709961, 0.9272461, -0.46264648, 0.48608398, 0.6196289, 1.2724609, -0.060302734, -1.0332031, -2.6816406, 0.28466797, -0.76220703, -0.64160156, -1.0986328, 0.92333984, 1.9355469, -0.86083984, -0.6020508, -2.1855469, -2.2207031, 1.3251953, -0.78808594, 0.17480469, -0.2697754, 0.81884766, -0.3486328, -1.7265625, -2.6445312, -1.3320312, -1.4824219, 0.73828125, -0.42651367, 0.2602539, 0.34838867, 1.1640625, 2.8769531, -0.18444824, 2.3535156, -0.5991211, 0.28466797, -0.13195801, 0.3779297, 2.0761719, 0.11236572, -0.28051758, -0.57177734, 0.37182617, -0.093566895, -0.06945801, 0.03656006, 1.8632812, -1.0283203, 0.5444336, 2.6542969, -1.5009766, 1.8935547, 0.13122559, 0.34179688, -2.703125, -2.6757812, 0.61279297, 1.0595703, -1.0595703, -6.7265625, 1.9941406, 0.19824219, -0.46118164, 0.78271484, 1.1210938, -1.2324219, 2.109375, 2.765625, 1.7646484, -0.24169922, 3.2304688, -0.20178223, 1.2890625, 0.41918945, -0.9946289, 0.75, -0.84521484, 3.1835938, 0.9423828, 0.1237793, -0.6845703, -0.34179688, 0.5258789, -1.6591797, 1.2265625, 1.3105469, 0.92626953, 0.107666016, -0.79296875, 0.0027618408, -1.2089844, -0.41870117, 0.98291016, 0.32885742, -0.61865234, 1.3662109, 0.6401367, -2.9296875, 1.6494141, -0.8520508, 1.0449219, -1.2070312, 3.2050781, 1.3564453, 0.7753906, -0.20568848, 1.4462891, 0.75634766, -0.8696289, -0.13806152, 0.8154297, -1.53125, 0.94140625, 1.7333984, 0.14611816, 1.1064453, 0.46264648, 1.3642578, 0.8496094, -0.3828125, 0.81152344, 1.3789062, 0.05795288, 0.17749023, -1.0410156, -0.15844727, -0.24816895, 0.05279541, -0.014732361, -2.2460938, 0.54589844, 0.5722656, -0.75683594, 1.4794922, 0.24145508, -0.86572266, -1.9150391, 0.7963867, 1.2011719, -0.8852539, -1.9287109, -0.6196289, -1.4140625, -0.04498291, -2.3378906, -0.027023315, 0.9316406, 0.6142578, -0.69970703, -1.2265625, -0.13574219, 2.0175781, -0.3671875, 1.3417969, -1.8320312, 0.36376953, 1.2050781, -0.25708008, -1.5439453, -1.8349609, -0.51904297, 0.65625, -2.5195312, 0.66259766, 0.4658203, 1.4580078, -1.2021484, -0.391357</t>
-  </si>
-  <si>
-    <t>[-1.1611328, -0.034423828, 1.1152344, 1.4658203, -1.0292969, 0.7397461, -0.28808594, -1.5732422, 0.94189453, -0.84521484, 0.28955078, -0.68310547, 2.6113281, 0.87353516, 0.10473633, 0.6308594, -0.81933594, -0.6567383, 0.4321289, -1.6191406, -0.55810547, 0.34228516, -0.28833008, 0.03265381, -1.3789062, -1.7216797, 0.5727539, -0.071899414, 0.5175781, 0.14086914, 0.9560547, 1.1445312, 1.0947266, -0.42285156, 0.24243164, 0.1171875, -1.5439453, 1.9521484, 1.9082031, -2.4140625, 1.0498047, 1.8789062, 0.21508789, 0.9892578, -0.5727539, 1.890625, -2.8085938, -1.3115234, -0.8886719, 0.23693848, -1.4082031, 2.1894531, -2.3242188, 0.4753418, -1.2763672, 0.8305664, 2.7089844, 0.26391602, -0.95703125, 0.9477539, 0.25878906, 1.0615234, 1.1503906, -1.1699219, 0.5229492, -1.5800781, -2.3710938, 0.8100586, 1.0576172, -1.4150391, -1.3886719, -0.34033203, -0.7919922, 0.048675537, 1.6455078, 1.2373047, -0.8378906, -0.7651367, -0.8959961, 1.5888672, -0.5410156, 0.41870117, -0.71875, 0.6713867, 0.6567383, 0.47460938, -1.4228516, -1.4072266, -0.3942871, 0.13146973, -1.3203125, -1.1025391, 1.2236328, -0.3671875, -2.21875, -0.029632568, -1.0537109, -1.0136719, 0.87939453, 0.62597656, -0.09820557, -0.69873047, 1.0966797, 0.36083984, 2.6445312, -0.13574219, 1.8642578, 1.3085938, 0.08099365, -0.80126953, -0.042541504, 0.8564453, 2.9550781, 0.92041016, 0.074645996, -0.15222168, -0.8364258, 0.24182129, -1.5986328, -1.8681641, 0.92626953, -1.0351562, 1.5888672, 0.81591797, 1.3818359, -0.67089844, -0.11785889, 0.6464844, -0.96777344, -0.5786133, 0.38354492, 0.48706055, 1.0927734, 0.43310547, 3.2382812, 1.1259766, -2.5019531, 1.3789062, 0.34179688, -0.7421875, 1.4521484, -2.3046875, 2.2128906, -0.13720703, 0.71484375, -0.5102539, 1.3212891, -1.2539062, 1.6308594, -1.4472656, -0.06384277, -0.94921875, 0.48461914, 1.0703125, -1.9648438, 1.7441406, 0.49023438, 0.21459961, 1.0302734, 0.72509766, 0.58984375, -0.026931763, 0.63427734, -1.5263672, -1.6474609, 0.6616211, 3.0605469, 0.8071289, 1.6542969, -1.8232422, -1.5986328, -1.8164062, 1.4091797, -1.7109375, -0.55615234, 1.9853516, 0.11682129, -3.2363281, 1.3525391, -1.125, 0.7963867, 0.33666992, 0.8227539, -0.7363281, -1.2910156, -1.34375, 0.7583008, 0.6220703, 0.8769531, -1.7363281, 1.0136719, -1.6689453, -1.6503906, 0.7216797, 0.34814453, -1.9492188, -0.48095703, 0.77001953, 1.6171875, -0.7607422, -1.2675781, -0.56689453, 0.20629883, 1.5683594, 0.5292969, 0.73291016, 0.10058594, -0.09729004, -0.28320312, 0.08282471, 1.4335938, 1.59375, 1.2011719, -0.3515625, 0.49804688, 0.38916016, 1.1728516, -0.89990234, -0.6689453, 1.3398438, 0.37231445, -0.10797119, -0.90478516, 1.25, -0.3269043, 2.2851562, -1.7216797, -0.6430664, 0.7011719, 1.2402344, 0.86328125, 1.421875, 1.7314453, -1.5048828, 1.4580078, 2.53125, -1.109375, 2.8476562, -1.0722656, 0.63134766, 1.4570312, -1.2246094, -0.46264648, 0.9707031, -1.1494141, 0.49902344, 1.2929688, -0.9790039, 1.1953125, 1.8632812, 3.5664062, 2.421875, -1.2548828, -1.0117188, 1.0185547, 1.3896484, -3.1699219, -1.15625, 0.58740234, -1.7529297, 0.34277344, 0.40307617, 0.7495117, 0.023498535, 1.8505859, -1.4677734, -0.01739502, -0.78027344, 1.0361328, 1.4990234, 0.72216797, 0.1586914, 4.1445312, 0.30444336, -0.017105103, -0.10882568, 1.8730469, -0.50439453, 1.2529297, -1.1416016, -1.3408203, -0.8154297, -0.37963867, -0.6166992, -0.6850586, -0.051696777, -0.2919922, -1.1416016, 0.4489746, 1.3154297, 1.6914062, -0.030334473, 0.062805176, -0.45922852, -0.19702148, -2.7324219, -1.6005859, -0.5419922, -1.1132812, -0.5073242, -0.57714844, 0.11694336, -2.5449219, -0.36376953, 1.5371094, 1.8876953, 2.0253906, 0.6508789, 0.39331055, 0.86083984, 0.4111328, 0.10510254, 0.40673828, -0.9819336, 1.5292969, -2.7402344, -0.78466797, 0.5830078, 1.8701172, -1.7617188, -0.10797119, 0.30444336, 0.9501953, -0.12011719, 0.82666016, -3.5605469, -0.8955078, 1.1914062, 0.91503906, -0.86376953, 3.1699219, 0.8256836, -2.1445312, -0.96240234, 1.4658203, -0.36035156, -0.71728516, 1.1386719, 0.42651367, -0.029403687, 2.3222656, 0.58691406, 0.8041992, 1.7353516, -1.2832031, 0.69970703, -3.0898438, -0.6015625, 0.96484375, -0.7739258, -2.4082031, -0.61279297, 1.0732422, 2.1875, 1.1240234, -0.23962402, 0.5371094, -2.375, -1.1953125, 0.94873047, -0.53271484, 1.6191406, -1.7939453, -2.2070312, 0.6152344, -1.8212891, -1.6308594, 1.4658203, 1.4394531, -2.0859375, -0.14050293, 0.41503906, -1.2480469, 0.12194824, 0.62353516, -2.5683594, -0.8256836, 0.2548828, 0.25854492, -0.11102295, 1.4511719, 2.1289062, -1.7099609, -0.8857422, -1.7841797, -1.6083984, -0.72216797, -1.6445312, -1.1640625, -0.4572754, 1.9492188, -0.86376953, 0.101135254, -1.3271484, 2.6054688, -1.671875, -0.20178223, 3.8925781, -0.8540039, 1.1601562, 0.30566406, 0.8510742, -1.3730469, -1.5976562, 0.38745117, -1.5087891, -2.0449219, -1.1933594, 1.0595703, -0.064575195, -2.1289062, -0.3154297, 2.2890625, -0.37841797, -1.5107422, -0.5625, -0.54345703, 0.5102539, 1.7294922, -1.2197266, 0.24841309, 0.47021484, 0.54345703, 0.48535156, 1.7402344, -1.9726562, -1.2695312, -0.9042969, 0.6586914, 1.2402344, 0.2705078, -0.5854492, 0.20361328, 1.1992188, -1.9716797, -0.9658203, 2.2011719, 0.5878906, -0.5883789, -1.4169922, -0.3713379, -0.38232422, 0.6743164, 1.203125, 2.2597656, 0.34350586, 1.3710938, 0.81933594, 0.87939453, 1.3271484, -0.9555664, 1.0517578, -0.05041504, -0.88183594, -1.8623047, -0.8930664, -1.7314453, -0.32617188, 0.6904297, 0.01461792, -2.515625, 2.2207031, 1.1660156, 0.6064453, -0.5913086, -0.70458984, 0.89453125, 0.16918945, -1.9169922, -1.6484375, -0.89160156, 0.9638672, -0.48828125, -1.3496094, -3.9238281, 0.47705078, -0.061279297, -1.7001953, -2.5664062, -3.5566406, -2.9609375, 1.2294922, 0.96728516, 0.74121094, 1.7783203, -1.0830078, 1.5791016, 2.0195312, 0.044677734, 0.011878967, -1.9238281, -0.06060791, -0.08569336, 0.57470703, -0.09576416, -2.1679688, 1.5703125, 2.625, -0.20739746, -0.16918945, -0.41381836, -2.5878906, -1.3662109, 0.06976318, 0.9760742, -1.8505859, -0.034240723, 0.066467285, -2.9335938, -0.4411621, -0.48461914, 3.0429688, 1.1757812, -0.54541016, -0.1743164, -0.84228516, 0.21850586, -0.6074219, -0.2927246, -0.5205078, -0.54833984, -1.484375, -1.1367188, 3.0761719, -0.026519775, 1.3554688, 0.8808594, 3.0136719, 0.4951172, -1.4697266, 3.0253906, 2.5546875, -0.16320801, 0.90722656, 1.2792969, 0.6074219, -0.2956543, 0.8178711, 0.54248047, 0.5, 0.43896484, -0.9873047, -2.1210938, 1.5214844, 0.8432617, 0.20874023, -1.2949219, -2.03125, -2.0683594, 0.83935547, -0.98095703, 0.5541992, 2.4472656, 0.010101318, 0.89697266, 0.15124512, -0.25146484, 1.3535156, 0.38891602, 0.072509766, 0.22277832, -2.1328125, 0.36499023, -1.3496094, 0.6743164, 0.72216797, -0.33740234, 1.2617188, 0.3215332, -1.640625, -0.009414673, 0.66748047, -0.5888672, -1.5097656, 0.7158203, 0.20959473, 0.07489014, 1.0615234, 0.56347656, 0.43774414, 1.5722656, 0.095825195, -1.1347656, -0.16125488, 0.2409668, -0.013519287, -0.6796875, -0.10406494, 1.6865234, -1.1230469, 0.4555664, 0.3046875, -2.0703125, 3.7832031, -2.3886719, -1.5205078, -3.4628906, -1.6757812, 0.8359375, 0.71728516, -0.108947754, -0.7988281, -0.4482422, -0.011413574, 0.70410156, 1.0498047, -0.17321777, 0.734375, -1.578125, -1.5869141, -1.6259766, -0.31933594, -0.1505127, -0.18737793, -1.0605469, -0.6386719, 0.88671875, -2.0292969, -0.9692383, 1.0253906, 2.0761719, 0.042755127, -1.734375, -0.40673828, 0.56884766, 0.13977051, -1.0292969, 1.6474609, 0.41992188, 1.3154297, 0.95410156, 0.06317139, -3.8554688, -2.9726562, 2.1484375, 1.6230469, 0.94384766, -0.3630371, 1.1708984, 0.1694336, 0.74902344, -0.46679688, -0.26220703, 1.4951172, 0.10107422, 1.3671875, 1.1269531, 0.31884766, -0.53466797, 0.94970703, -2.1894531, -0.34643555, -2.7988281, 1.1552734, -1.3916016, 2.1601562, 1.9658203, 2.5722656, 0.80126953, 2.2714844, -0.7451172, -0.8486328, -0.7138672, 0.029006958, 0.87353516, -0.056854248, -1.4521484, -0.039916992, -0.5649414, 0.9038086, -1.0419922, -0.06567383, 0.15783691, 1.8759766, 0.63623047, 0.60839844, 0.6665039, -0.02368164, 0.96875, 1.9785156, 0.4831543, 0.06732178, 1.1064453, 1.4472656, -2.0957031, -1.2070312, -0.6166992, -1.6894531, 1.2421875, 0.2697754, -0.29125977, 2.0566406, 2.4628906, -1.5703125, -0.37304688, -0.37890625, 1.7099609, -0.3720703, -1.5761719, -0.85839844, -0.5786133, 0.9316406, -1.7695312, -3.4980469, -1.2685547, 1.5322266, -0.70947266, 0.6743164, 2.4453125, 0.56591797, -0.61376953, 0.9199219, 1.5185547, -4.4023438, -1.0742188, -0.4074707, 0.7402344, -0.022994995, -0.8256836, 0.85791016, 1.5957031, -1.6142578, -0.25097656, -0.9145508, 1.7617188, -0.045684814, 0.24487305, 0.0071029663, -1.28125, 1.2988281, 3.0234375, -1.390625, 0.96972656, 1.6650391, 0.57177734, 1.5400391, -0.7216797, 0.72998047, -1.3564453, 2.4589844, -1.2890625, -0.99853516, 0.7841797, -1.2382812, -1.7558594, 0.8881836, 2.2480469, 0.13232422, 1.6679688, 0.6123047, -0.06738281, -2.3183594, -0.25097656, 0.6972656, 0.5292969, -0.5410156, 0.20361328, -0.101745605, 2.0546875, 0.044647217, 0.30615234, -0.2878418, 0.8691406, 2.4941406, -0.0725708, 0.54345703, -0.21533203, -0.19885254, -0.14331055, 1.5302734, 0.1895752, -4.5351562, 2.2792969, 1.9902344, 0.2454834, 0.52685547, 1.3183594, 2.1132812, 2.2148438, 2.9355469, 0.23486328, 1.0341797, -0.23144531, 1.4511719, 1.4931641, 0.85546875, 0.41064453, -0.29418945, -0.59228516, 1.1445312, -0.60839844, -1.5205078, -0.4868164, 0.65234375, 0.051635742, -0.25097656, 1.9404297, 1.8457031, -0.6694336, 0.63720703, 1.0195312, 0.7915039, 0.3425293, -0.84521484, -1.1806641, 1.8193359, 0.4189453, 1.2490234, 0.8881836, -0.7841797, -0.2680664, -0.7915039, -0.6225586, 0.3413086, -1.0390625, -2.9355469, 2.21875, -2.2011719, -0.37036133, -1.4335938, -0.1451416, -0.23999023, -0.6557617, 0.9013672, 0.11187744, -0.026397705, -0.05529785, 4.2070312, -1.7099609, -0.64697266, 0.09576416, -0.39746094, 0.56347656, -0.16320801, -0.40698242, -0.96191406, -0.7602539, 3.6308594, -3.0449219, -1.2744141, 3.1875, -1.0322266, 0.19238281, 0.21826172, -0.18774414, -1.4726562, -0.9814453, 1.5927734, -0.025177002, 1.4736328, 0.9370117, 1.0722656, 1.7080078, -0.65625, 0.55908203, -1.7265625, -0.7158203, 1.3339844, -1.0273438, -0.38623047, 4.4609375, -0.3413086, 0.75634766, 1.1865234, -0.53125, -1.09375, 0.15905762, 1.0400391, -0.81884766, -0.55029297, 3.7109375, -1.3212891, 0.89208984, 1.2480469, 0.20385742, 0.022354126, -0.1270752, 1.65625, -1.2226562, -0.34204102, -0.95166016, 0.09661865, 0.7807617, 0.17407227, 1.3144531, 0.17053223, -0.38500977, -0.13781738, -1.5371094, -2.7304688, -1.1943359, -1.8876953, 0.01878357, 2.0546875, -0.46069336, -1.0576172, 1.1904297, -0.5390625, 0.93359375, 3.1621094, -0.78027344, -0.19494629, 0.48217773, -0.61279297, -0.83935547, -0.8388672, -0.94921875, 1.3183594, -0.46826172, -0.37036133, 0.57910156, 0.1472168, 0.22546387, 0.60595703, 0.020401001, 2.0410156, -0.009498596, -0.54248047, -0.53808594, -0.80615234, -2.3476562, -0.96191406, -0.8623047, 0.2512207, -0.1607666, 0.5361328, -0.9980469, 0.27612305, -0.81152344, 1.359375, -0.19555664, -0.68359375, -0.1159668, -1.5947266, 0.6430664, -0.63720703, 3.375, -0.47851562, 1.8232422, 0.31225586, -0.9980469, -1.5488281, -2.9335938, 0.8847656, 0.23388672, 1.1191406, -0.71435547, -0.36157227, -1.7773438, 0.72998047, -0.16992188, -0.8261719, -0.46289062, -0.5917969, -2.2988281, 1.5996094, 0.65771484, 1.9677734, -0.83447266, -0.6274414, -0.9169922, -0.8823242, 1.1328125, 0.27661133, 0.48242188, -0.61083984, -1.1777344, -0.051513672, -2.0507812, 0.43432617, 2.9179688, -1.4951172, -0.9135742, -0.9067383, -1.6396484, -0.44702148, -1.2441406, 0.12963867, -1.0078125, 1.6396484, -1.3505859, 0.9663086, -2.6269531, 1.4072266, -0.7138672, 1.6210938, 0.20117188, -0.65771484, -0.48828125, -0.2097168, -0.1796875, -1.6650391, 0.01940918, -0.07208252, 1.1445312, -0.7026367, 0.35717773, -1.4560547, -0.83984375, -2.078125, 3.1699219, -0.59521484, 1.2841797, 0.9091797, -0.3786621, -4.9726562, -1.3671875, -0.61572266, -0.8588867, -2.8105469, 0.05545044, 1.2724609, -1.2294922, 0.007843018, 0.75878906, 0.58203125, 0.54003906, -1.4257812, -0.6879883, -0.11352539, 1.6269531, -1.7333984, 2.0429688, 2.1074219, 0.94677734, -0.33276367, -1.8017578, 1.5390625, -0.92626953, -0.80126953, -1.9111328, 1.2890625, 0.8496094, -1.7744141, 1.4658203, 1.6748047, 1.2636719, 2.3242188, -0.44677734, -1.21875, -1.5097656, 0.5830078, -0.050598145, -0.4543457, 0.048553467, -1.0996094, -0.82958984, -0.33007812, 1.9140625, -0.93847656, 1.1083984, -0.29541016, -1.1455078, 0.61083984, -0.70410156, -1.3935547, 0.19274902, -1.0947266, -0.3762207, 0.5566406, -0.55371094, 1.2597656, 0.5756836, -4.7578125, 1.3212891, -0.6904297, -1.3291016, 0.45214844, -1.5449219, -0.29882812, 1.0224609, 0.59765625, -0.43969727, 1.6806641, 0.47265625, -2.0585938, -2.1386719, -1.6347656, 0.6118164, -0.76171875, 1.5458984, -0.68603516, 1.359375, -1.6757812, 2.9882812, 0.18395996, -2.3222656, 2.0410156, -0.4025879, -0.24731445, 0.0690918, -0.9638672, -0.18005371, 0.85009766, -0.06921387, 0.8598633, 1.2197266, 0.6123047, -1.8662109, -0.02885437, -1.5175781, 0.78564453, 1.8085938, 0.2705078, -1.8583984, 0.40820312, 2.2265625, -0.6230469, 1.0273438, -2.0917969, -0.00040721893, 0.4975586, 2.4179688, -1.1025391, 1.5634766, -0.15368652, -1.2402344, 0.0826416, 1.1640625, -1.2041016, -0.09411621, -0.6508789, 0.092041016, -0.31054688, -1.078125, 0.7182617, -1.3505859, 1.5136719, 1.9433594, 0.096069336, 0.006225586, 0.60058594, 0.14855957, -1.0654297, 0.6982422, 2, 0.09484863, -1.9599609, 0.2644043, 1.6806641, 0.6171875, 2.5898438, -0.25146484, 0.17321777, 0.6044922, 0.96777344, 0.35717773, -0.9638672, 0.51953125, 0.07696533, 0.40820312, 0.9472656, -2.1738281, 0.7470703, 1.3242188, 0.4638672, 0.5732422, 0.97802734, 0.6826172, 1.2646484, -1.1923828, -1.4990234, 1.4179688, -1.6083984, 2.0664062, -2.1660156, -1.1484375, 1.625, -1.0175781, 1.015625, -1.3310547, 0.87109375, -3.3496094, -0.36743164, 2.0371094, -0.012359619, -0.71191406, 0.3918457, -1.0322266, -0.66552734, 0.16967773, 0.9614258, 0.39868164, 0.4206543, 0.02659607, 1.4384766, -0.921875, 0.38183594, -0.054748535, -0.5078125, -0.42041016, -0.43066406, -0.7265625, -0.66064453, 0.7885742, -1.4970703, 0.984375, 1.1523438, 1.1806641, -0.23278809, 1.7460938, -1.2480469, 0.1348877, 1.1210938, 0.51464844, 1.6669922, 1.4169922, 0.7578125, 0.29174805, -1.2089844, -0.5029297, -2.6777344, -0.13903809, 0.7529297, -1.0644531, -0.1484375, 0.2253418, -0.8955078, 0.14758301, 0.3383789, -1.8349609, -1.4580078, 0.42260742, -0.45483398, -1.3798828, 0.7480469, 0.98046875, 0.90771484, 0.08001709, 1.515625, -1.0966797, 0.081726074, -0.081604004, 0.34301758, 0.111572266, 1.8330078, 0.7324219, 2.5449219, -0.76953125, -0.11566162, 0.84716797, 0.009674072, -0.43969727, 0.359375, 0.73583984, 3.5566406, 3.8027344, -0.6557617, 0.8520508, 0.43017578, 2.4238281, 1.1513672, 3.2050781, 0.07537842, 1.9912109, 1.9775391, 0.48242188, -0.58203125, -0.4411621, -0.34179688, 0.7739258, 0.52197266, -0.18920898, 1.2246094, -1.0820312, -0.5957031, -1.2519531, 0.41748047, 0.2614746, -0.23217773, 2.8007812, -0.70458984, -1.6103516, -1.4257812, -0.36645508, 2.296875, 0.8076172, 1.4023438, -2.3398438, 0.80615234, -0.94091797, -1.2626953, 0.2836914, -0.5097656, -0.7675781, -1.2890625, 1.9902344, -2.6816406, 0.6254883, -1.3300781, 1.6914062, 0.18200684, 2.578125, -0.9946289, -4.015625, 0.37963867, -1.1533203, -1.0498047, -1.7939453, 2.265625, 1.5615234, -0.9296875, 1.1962891, 1.8417969, -0.6015625, -1.2910156, -0.60498047, -0.9946289, 1.3271484, 0.59521484, 0.066101074, 1.5273438, 1.2929688, 0.79541016, -0.0335083, -0.03842163, -0.77001953, 0.9824219, -2.7207031, -0.3815918, 1.3730469, -1.0234375, 0.33935547, 1.7216797, 0.7373047, -2.3203125, -0.0001373291, 0.88134766, 0.10205078, -2.0664062, -1.6220703, 3.6464844, -1.3818359, -0.9042969, -3.1269531, -1.953125, -0.68310547, -1.3769531, 0.5732422, -2.2304688, 0.29467773, 1.8261719, 0.78564453, -1.2949219, 0.15466309, -1.546875, 2.2695312, 0.4416504, 0.32226562, -1.2841797, -1.9501953, -2.3339844, -0.07720947, -0.4814453, -1.9941406, 0.54345703, -2.2949219, -0.115478516, -0.38061523, -0.27612305, 1.1474609, -2.1699219, -0.28833008, 1.546875, 5.8554688, 0.87939453, 0.06262207, 0.9819336, -1.5732422, -2.3320312, -0.8955078, -0.1854248, -0.46899414, -0.21765137, 1.15625, -1.2763672, -0.46313477, 0.60302734, 0.12658691, 0.4638672, -0.92626953, 1.4345703, -0.2788086, -3.0136719, -0.3305664, -0.61279297, 0.84521484, -2.1132812, 0.54785156, 0.94628906, -0.4338379, 0.25512695, -1.3095703, 0.6274414, 0.29370117, 0.29516602, -0.057861328, 0.040283203, 0.25463867, -0.25756836, 1.3271484, -0.43554688, 1.0859375, 1.4746094, -0.55908203, 1.1279297, -1.1542969, 3.1347656, 1.6455078, -1.953125, -1.0361328, -2.1328125, -0.85595703, 1.6445312, -0.93603516, -0.8540039, 0.01802063, 2.1660156, 0.6376953, 0.65625, -2.4746094, 1.2314453, -1.7275391, -1.5322266, -0.87060547, -2.0976562, 0.0178833, 0.69189453, 0.4975586, 2.0136719, 0.5078125, -0.06365967, -1.1464844, -0.24914551, 2.6484375, -0.6635742, -0.5229492, 0.017486572, -1.0234375, 1.453125, 0.8388672, 2.1113281, -1.3828125, 0.24365234, 0.40234375, -0.3010254, -1.6416016, -0.16101074, -1.3134766, -1.0292969, -0.36523438, -1.0683594, -0.15039062, 0.36743164, 1.1025391, 0.5336914, -1.0849609, -1.8203125, -1.0566406, -0.81933594, 2.2109375, 0.9975586, -2.0273438, -4.7695312, 0.34643555, 0.1027832, 0.6982422, -0.2668457, -1.2099609, 1.5390625, 1.234375, -3.5234375, -1.4521484, 0.15551758, 1.0722656, 1.9453125, 1.3222656, 1.3652344, 0.5019531, -0.5678711, 0.38720703, -1.6005859, -1.2929688, -3.34375, 0.8984375, 1.9287109, -1.90625, -0.58154297, 1.8837891, -1.1367188, -1.4677734, -1.1953125, 1.0585938, 2.9394531, -1.1289062, 0.6748047, -1.5957031, -1.7021484, -0.82910156, -1.0390625, 2.3808594, -1.5009766, -0.7290039, 1.2626953, -0.49072266, 2.3105469, 1.8466797, -0.8623047, -0.78027344, 1.671875, -0.9350586, -0.5756836, -1.2255859, 0.4165039, 1.2080078, -0.23498535, 0.2644043, -0.41845703, -0.7807617, 0.31054688, 1.1572266, 3.375, 1.1328125, 1.09375, 1.5263672, -1.2714844, -0.41845703, 0.4609375, 0.91259766, 1.7373047, -1.0908203, -0.8881836, 0.24633789, 0.42260742, -0.9580078, 0.3791504, 1.6367188, -1.0888672, -0.9272461, -1.2988281, 0.61865234, 0.116882324, -1.8662109, -0.98535156, 1.0683594, 1.9316406, 3.5214844, 0.48706055, -1.6269531, 0.14086914, 0.98339844, 0.072631836, -0.16027832, 0.66259766, -0.59472656, 0.25146484, 0.13806152, -0.92871094, 0.27490234, 0.8676758, -1.0205078, -0.53125, 0.3569336, -1.6064453, -1.4404297, 1.4804688, -0.42285156, 0.77197266, 0.2866211, -2.3007812, 0.21655273, -0.4025879, -1.3369141, 1.3232422, 0.66552734, -1.6289062, 1.6748047, 1.0029297, 0.3071289, 0.76123047, 2.015625, -1.0214844, -0.9057617, 1.3662109, 0.9765625, -0.9838867, 0.78466797, 1.0742188, 3.9140625, 0.7739258, 0.32202148, -1.4960938, 0.9951172, 1.7988281, 1.515625, -0.22033691, 0.2944336, 2.1777344, -2.2890625, -1.1132812, -2.4648438, -0.0011425018, 0.5708008, -0.22021484, -1.0302734, 6.2304688, 2.1914062, -2.0859375, 1.9873047, 4.3710938, 0.85058594, -0.68408203, 0.46411133, 0.16589355, 0.0015869141, 2.1425781, 0.015472412, 1.0498047, -0.7861328, -0.33129883, 1.5673828, 0.062072754, -1.1611328, -0.79052734, -0.81591797, -1.2548828, -0.53271484, -0.40307617, -1.4716797, 1.9814453, -1.4355469, -0.22717285, -0.27954102, -1.7451172, -2.8242188, -1.2011719, 1.6025391, 0.5019531, 0.7734375, 0.6635742, -1.7724609, -0.057891846, 1.8759766, -1.2236328, -1.1542969, 0.5024414, -0.74072266, 0.18652344, 0.73046875, 0.49023438, -0.76953125, 2.0292969, -1.8222656, -1.6162109, -0.86865234, -1.7724609, 0.4975586, -1.4619141, -1.5742188, -1.421875, 1.2285156, -1.6865234, 1.3046875, 0.072509766, -1.9384766, 1.2089844, 1.6552734, -0.47802734, 1.5722656, 3.1464844, 1.3798828, 0.6484375, -1.2392578, -2.1523438, 1.0527344, 0.21142578, 0.22290039, 0.38964844, -0.25976562, -0.7480469, -2.46875, -0.28808594, -1.7978516, -2.3789062, 1.6865234, -0.7626953, 2.0351562, -2.0371094, 1.1650391, -1.3613281, -0.27514648, -0.46679688, -1.4882812, 0.5444336, 0.7001953, -1.2167969, 2.25, 0.43701172, -0.16540527, -1.3056641, 1.3759766, -0.9838867, 1.8857422, -1.4638672, 0.026275635, -0.69140625, -1.2587891, -3.234375, 1.2167969, 0.14831543, -1.2275391, 0.7211914, 1.5341797, -0.06451416, -1.015625, 3.2011719, 1.0253906, -0.7475586, -2.4511719, 0.7895508, -0.31445312, 0.89208984, -0.80810547, -0.18554688, 0.075805664, 0.1171875, 2.8261719, 1.0107422, 1.3115234, -0.04260254, -0.06677246, 0.6972656, -1.7988281, -1.0976562, 0.98095703, 0.2052002, -1.5283203, 1.5908203, -2.8222656, -1.7568359, -1.1923828, -1.5136719, 1.6738281, 0.03665161, -0.82373047, 0.31030273, 0.42626953, -0.37426758, -0.40673828, 1.6308594, 0.54003906, -1.3037109, 0.14624023, 1.4648438, -1.1777344, -0.13574219, -2.0664062, -1.4277344, 2.5507812, 2.6074219, 1.6748047, -0.14880371, 1.2314453, 0.7685547, -0.1237793, -1.4746094, -0.94677734, -1.6894531, -1.0673828, 3.2226562, 0.038116455, 0.14123535, -0.01512146, -1.1640625, -0.74609375, -0.81689453, -2.2304688, -1.8554688, 0.40527344, -1.2333984, 0.08685303, 2.1738281, -2.3066406, -4.2890625, -1.8574219, 0.41796875, -0.390625, 0.47192383, -0.41503906, -0.5175781, 0.94433594, -1.1660156, 0.2734375, 2.8554688, 0.98828125, -2.5390625, 0.9316406, -2.4746094, -1.2158203, -3.71875, 2.2539062, 2.734375, 1.5458984, 0.12573242, -2.2304688, -0.9667969, 0.07281494, -0.8491211, 0.04486084, 1.0722656, -2.7050781, -2.5761719, -0.26220703, 2.0566406, 0.6303711, 2.1796875, -0.97753906, 1.4628906, -2.6035156, 0.31420898, -2.8554688, -0.31469727, 0.61621094, 1.3271484, 1.5751953, -1.3955078, 2.6640625, -0.44604492, 0.38867188, 0.34594727, -0.5473633, 0.9111328, 1.0087891, 0.7915039, -0.5073242, -2.40625, 2.0917969, -1.8623047, -1.1699219, -1.8076172, -1.5234375, 1.3261719, 2.3125, -0.5654297, -0.44848633, -0.6845703, 0.40283203, 0.46923828, -0.9746094, 0.32714844, 0.5966797, 1.4863281, 6.140625, 1.7636719, -2.0097656, -0.28979492, 0.123413086, 1.1660156, -0.105895996, -1.21875, -4.046875, 1.2255859, 0.8852539, 1.8867188, 2.0488281, 0.39453125, 1.4121094, 3.5019531, 1.4580078, 1.5849609, 2.65625, -2.8164062, 0.54589844, 4.171875, -1.6865234, 0.70654297, 0.19360352, -0.7084961, 1.6035156, -0.056549072, -2.5195312, 1.2949219, -3.4609375, -3.1035156, 0.98339844, 2.4667969, -2.0410156, 1.2421875, -2.3652344, -0.035339355, 0.49145508, -2.2519531, 0.7246094, -1.0917969, -0.045959473, -1.2880859, 0.9194336, 0.23352051, -0.984375, 0.5566406, 0.7944336, 0.25317383, 2.0039062, -0.20654297, 0.53564453, 2.3359375, -2.1484375, 0.3696289, -0.93652344, 1.4365234, 0.92285156, -2.0996094, -0.0680542, 0.54052734, -3.5917969, 0.94873047, 2.0605469, -0.42089844, 2.0859375, 1.1962891, 0.90625, -0.27929688, 0.30249023, -0.07574463, -0.7109375, 0.7675781, 1.09375, -1.0800781, 0.7373047, -3.1640625, -0.8354492, 0.7817383, -0.7294922, -2.2988281, 1.1787109, 1.3232422, -0.16796875, -0.14440918, -2.8339844, 2.0976562, -1.6679688, 2.2636719, 1.0283203, 1.2246094, -0.26220703, -1.7128906, -2.6953125, -0.80371094, -2.0390625, 0.87890625, 2.6308594, -1.3457031, 0.28320312, 0.9746094, 1.1025391, -0.15795898, -2.4101562, -2.359375, 0.6484375, 1.0058594, -1.7949219, 0.84472656, 0.9658203, 0.58154297, 0.8544922, -1.2578125, 0.04034424, -0.058807373, -0.5649414, 1.6103516, 0.65185547, 0.30297852, -1.3017578, -1.5488281, 0.8876953, 2.734375, 0.23376465, 0.38256836, -0.23657227, -1.4208984, 1.3125, -1.1230469, 0.8388672, 0.39697266, 4.8085938, -0.13049316, -1.9882812, -0.38208008, 0.72265625, 1.0644531, 0.2512207, 2.140625, 0.095214844, 0.9790039, -1.7958984, -1.1708984, -0.46899414, 1.1816406, 0.4423828, -4.4179688, -0.35327148, -2.4824219, 0.51660156, -1.4423828, -0.14770508, -0.31884766, -0.97021484, 0.87841797, -1.5839844, 1.0722656, -3.9023438, -1.1240234, 2.796875, 0.30615234, 0.39941406, 0.87353516, -0.60058594, 0.8149414, -1.2753906, 0.94970703, 1.4238281, -0.36914062, 1.3125, -0.6694336, 0.5136719, -0.45288086, -1.6240234, 0.6347656, -1.7890625, -1.7392578, 1.5009766, -1.7685547, -1.3544922, -0.8769531, -3.0351562, 0.28979492, 0.9169922, 0.14916992, -0.36010742, 1.2382812, 3.3242188, -1.7880859, -1.3671875, -0.24377441, -1.046875, 1.8027344, -2.3457031, 0.15551758, 0.9160156, -0.6113281, 0.62646484, 0.41845703, -2.8671875, 0.35424805, -1.6171875, -1.2402344, -1.5527344, 1.8320312, -0.796875, -1.1523438, -0.88916016, 1.7109375, 2.3691406, -0.24487305, 0.31103516, -2.4335938, -0.5961914, 0.28930664, 1.0214844, 1.1904297, 0.5732422, -0.76464844, 1.2021484, 0.31152344, -0.72216797, -1.7041016, -3.0449219, 1.0244141, -2.1601562, -1.8710938, 0.3088379, -1.8691406, 2.75, -0.6743164, -1.3408203, 0.47509766, -0.8105469, 1.6484375, -0.42260742, 0.75634766, 0.70947266, -0.3671875, 0.35546875, 0.42626953, 0.8442383, 0.6176758, 2.5214844, 1.0976562, 0.20288086, -2.1953125, -1.3779297, -1.2666016, -1.2265625, 1.8212891, -1.0263672, -0.13879395, -1.2333984, 0.092041016, -0.7597656, 0.8251953, -0.7763672, 1.3417969, -0.35058594, 0.95996094, -0.024017334, 0.23571777, 1.3242188, 1.8886719, 0.24047852, 2.0253906, 1.0498047, 0.029708862, 0.5361328, 0.5732422, -1.3046875, 1.4326172, 0.109436035, 0.2746582, -0.92285156, 2.2890625, -0.63720703, -2.6875, -1.0117188, -3.2421875, 0.3642578, 0.07470703, 0.23010254, -0.9116211, 0.2788086, 0.10998535, -0.50927734, 0.14807129, -0.7260742, -0.62402344, -2.1054688, 0.50341797, -1.5878906, -0.7836914, -1.4814453, 1.0693359, 0.7626953, 0.3088379, 0.56103516, 0.19189453, 1.8837891, -3.5527344, -1.5800781, -0.59277344, -2.0683594, 0.40454102, 0.40454102, -0.79052734, -1.3662109, 0.34521484, -1.4824219, 1.1123047, -0.578125, -1.7949219, -0.051849365, -0.16223145, -1.3242188, -0.28442383, -0.7788086, -0.6010742, 2.65625, 0.5629883, 1.5810547, -0.6743164, 3.2558594, -1.3359375, 0.16052246, 1.1816406, 0.9082031, -2.4824219, 0.32861328, -0.026794434, 0.7788086, 0.39111328, -0.22827148, 0.48461914, -3.4726562, -0.48242188, -1.6992188, -0.95458984, 1.2558594, 0.5517578, -0.9423828, 1.6503906, -0.058441162, -2.5488281, -1.8300781, 0.6645508, 2.9160156, 2.0917969, 0.01448822, 1.6650391, 1.3789062, -1.1992188, 0.34448242, -1.3310547, -1.7001953, -0.18078613, 0.1463623, -2.1875, -1.2119141, -1.6103516, 0.5019531, -1.0546875, 0.7451172, 1.4755859, -1.5166016, 0.4025879, -0.88720703, -0.53125, -0.4663086, 1.2011719, 0.039093018, 1.6962891, 0.18530273, 0.6118164, -2.3847656, -0.34472656, -0.9248047, -1.1494141, -0.99658203, 0.31274414, -0.2783203, -1.3134766, -1.2724609, 0.55859375, -1.7490234, -0.3942871, -1.5810547, 2.4550781, 0.15588379, 0.011154175, 1.140625, 0.82714844, -1.7626953, -1.3691406, 0.18603516, -0.032073975, 2.9335938, -0.1616211, -2.3066406, -0.60791016, -1.3300781, -1.6738281, 0.4399414, 0.6274414, -0.49267578, 0.8251953, -0.9404297, 0.19628906, 1.3076172, -0.76660156, 0.44604492, 0.48535156, 1.2265625, -1.0029297, 1.9423828, 0.89453125, 0.98339844, -0.09112549, 0.4309082, -1.375, 0.67871094, 0.32592773, 0.6533203, 1.6513672, 1.9492188, -2.546875, -1.8505859, -0.18920898, 1.7910156, 1.0292969, 1.7939453, -1.1962891, -0.8066406, 1.703125, -1.1542969, 0.13085938, 1.1025391, 1.9306641, 0.6767578, -1.953125, -2.1445312, 0.72021484, 2.9101562, -0.013511658, 0.92529297, -1.7226562, 1.4814453, -0.49438477, -3.3203125, -2.0292969, -0.22619629, 0.5053711, -0.32373047, 2.0566406, 0.7109375, -1.2138672, -1.5166016, 1.2529297, 0.6621094, -1.0957031, -1.9726562, 1.9013672, -0.9658203, -0.34399414, -1.1357422, -2.7617188, 1.5644531, -0.63427734, -0.5854492, 0.18322754, 1.3378906, 0.64990234, -0.59033203, 1.3466797, 1.0751953, -3.1269531, -0.9707031, -0.6538086, 0.17089844, -1.6806641, -2.6953125, -0.05529785, 0.26293945, -0.88964844, -0.24853516, -0.3154297, -1.8574219, 1.9267578, -1.3554688, 1.3779297, 0.6254883, -1.9404297, -0.80322266, -1.0410156, -2.2402344, -1.9130859, -0.86376953, -0.9057617, -1.4570312, 0.2064209, 0.64990234, -1.0341797, 0.80908203, 0.3708496, -0.75, -1.3183594, -0.7216797, 2.1386719, 0.7583008, -0.5756836, -0.0124435425, 0.8652344, 0.3149414, -0.60498047, -0.5913086, 0.7626953, 0.89453125, -0.453125, -0.48095703, -0.1541748, -0.89501953, 2.71875, -0.5629883, 1.0761719, -0.2319336, 1.4082031, 0.06088257, 1.9638672, 0.58935547, 1.0332031, 1.4335938, 0.35864258, -0.9628906, -0.75, -0.9663086, -1.2402344, 0.89501953, -0.23266602, 1.0097656, 1.2294922, -1.21875, -1.3632812, -0.6791992, -0.4814453, -0.17016602, -2.0742188, 3.234375, -1.40625, -0.17541504, 0.9316406, 0.95654297, 1.4375, -2.203125, 0.32080078, -1.0888672, 0.34716797, -0.76171875, 1.6220703, -1.9550781, 0.73046875, -0.6801758, 2.1171875, -0.77734375, 2.2578125, -1.6875, -2.0117188, 0.93896484, 2.9042969, -2.9921875, 0.41796875, 1.0751953, -1.7548828, 0.7480469, 0.9296875, 0.23156738, -0.19885254, 2.515625, -0.21166992, -3.8359375, 1.6796875, 0.74853516, 0.73095703, 1.2294922, -1.4746094, -0.06677246, -1.8222656, 0.6845703, 0.6933594, 0.09588623, 1.3369141, -1.3017578, 4.453125, -2.7636719, -1.6220703, -1.5380859, -2.1386719, 0.15209961, -0.6113281, 0.25805664, -0.41064453, -0.26757812, 2.1367188, -0.6303711, 1.0625, -0.9794922, 1.7783203, 0.40600586, -0.1854248, 0.21923828, 0.75390625, -0.55126953, -1.3232422, 1.7832031, -0.23815918, 0.93066406, 1.2109375, 2.0664062, -0.52783203, -0.43896484, -0.14257812, -2.2949219, -0.48168945, 1.6582031, -0.29052734, -1.5800781, 0.9560547, -0.19812012, -0.4416504, 0.74853516, -1.0449219, -1.7226562, 1.6914062, 0.34375, -0.19824219, 0.04611206, -0.8076172, 0.6542969, 0.77441406, -0.7817383, 1.3789062, -0.4802246, -0.63916016, 2.8632812, -1.4560547, 0.16320801, -2.4902344, 0.21728516, 1.2519531, -0.55615234, -1.9248047, -1.1347656, -1.6757812, -1.8320312, -4.1328125, 1.0253906, -0.36328125, 0.78027344, -2.6132812, 0.8623047, 0.46240234, 1.8017578, 0.2619629, 1.0742188, 1.0947266, -1.7890625, -2.0800781, 0.5595703, 1.4619141, 0.625, -1.6552734, -1.4238281, -0.48095703, -0.77978516, -1.4052734, -0.2866211, 1.6337891, -0.35961914, -1.078125, -0.9326172, 0.1505127, -0.5239258, -0.08111572, -0.12927246, 0.61083984, 0.3618164, -0.10949707, -1.7460938, -2.2011719, 2.46875, -2.0839844, -0.0038928986, 0.101379395, -0.2919922, 0.42260742, -2.078125, 0.6113281, -2.7441406, 2.4375, -4.9570312, -0.51708984, -0.89697266, 1.515625, -0.10638428, -0.22485352, -1.6767578, -0.09552002, 0.8647461, 1.6708984, -0.9003906, -1.2607422, -0.7324219, 0.74658203, 0.74658203, 0.89501953, 1.3027344, 1.9736328, 2.09375, 1.4013672, -0.9873047, 1.4355469, 1.3330078, 0.012016296, -1.1513672, 1.7333984, -0.34472656, -0.7294922, -1.1748047, -0.51416016, 1.4736328, 0.3647461, -1.6611328, -0.47314453, 1.1142578, -2.03125, 2.7988281, -0.7714844, 0.9067383, 0.57177734, 0.14538574, -0.10003662, -1.1220703, 2.6738281, 0.5830078, 0.98583984, 0.72216797, -0.24511719, 2.3535156, 0.5917969, 0.3647461, -0.7338867, 0.9042969, 0.053649902, -0.9243164, 1.1582031, -0.5361328, 0.4814453, 0.38183594, 0.6821289, -1.6767578, 0.953125, -0.14074707, -0.15197754, -0.9399414, -1.0224609, -1.515625, 1.0039062, -1.6835938, 1.4326172, -0.7626953, 0.8515625, -0.25073242, 1.6074219, 0.5864258, -0.71435547, -1.71875, -0.79589844, 1.5507812, 2.2949219, -1.4560547, 0.40673828, 1.0537109, 1.4384766, -0.28100586, 0.6640625, -0.4321289, -2.4882812, 0.515625, -0.009971619, 0.4477539, -1.1386719, 1.6103516, 1.7363281, -1.2001953, -0.8666992, -1.0908203, -0.94873047, 0.6098633, -1.1875, -2.5390625, 1.9511719, -0.32080078, 0.5239258, 0.52978516, 1.6630859, -1.2988281, 0.52734375, 1.703125, 0.81396484, -0.37182617, 0.7763672, -1.1806641, -0.3947754, -2.1816406, 0.7294922, -1.1943359, -2.7011719, 2.3476562, -0.34643555, 0.4399414, -1.6201172, -1.8535156, 0.84375, -2.3808594, -0.30078125, 0.11077881, 0.33081055, 1.0664062, 1.5263672, -0.37719727, 0.90283203, -1.5683594, 0.8203125, -1.0878906, -0.4267578, 0.6352539, -0.59814453, -0.16992188, 1.8427734, 0.9145508, 0.026443481, -1.0537109, 0.61865234, 1.5341797, 1.9902344, 0.9116211, 0.4699707, 0.4711914, -1.3271484, 0.025512695, 0.39990234, 0.13708496, 0.6274414, 0.47265625, -0.1348877, 2.8945312, -0.2668457, 0.39257812, 1.9287109, -1.0244141, 1.2861328, 2.0234375, -0.38452148, 0.013671875, -1.4296875, -1.1181641, -1.9628906, -1.6269531, 0.32641602, -0.22021484, 0.83447266, 0.008613586, -0.5620117, -0.2783203, 0.66552734, -0.50878906, -2.4179688, -0.7246094, -0.87158203, 2.1777344, -0.8222656, -0.7998047, -2.9628906, -0.67871094, -1.4267578, 0.4519043, 0.5205078, 1.2070312, 1.3818359, 0.11425781, 0.24047852, 2.8808594, -1.2763672, 1.0585938, 1.3212891, 3.0839844, 0.6533203, -0.2253418, -0.7421875, -2.2089844, -0.3474121, 1.1230469, 0.43139648, -0.38842773, 0.9892578, 0.47485352, -1.3388672, -1.0546875, -0.84277344, -0.31396484, 0.83203125, -1.0205078, 1.1865234, -1.7207031, -0.17797852, 0.31201172, 0.5073242, -0.13342285, -2.2460938, -1.9951172, -1.8974609, -2.1503906, -0.12719727, -2.6699219, -0.5473633, -0.797</t>
-  </si>
-  <si>
-    <t>[2.8222656, -0.94873047, 1.5205078, -0.80322266, -0.6303711, -1.9472656, -0.76904297, 1.0273438, 2.8183594, 1.8525391, -0.75439453, -0.0027637482, -0.29418945, -0.77197266, -0.3503418, 0.6767578, 1.7216797, -0.6928711, 0.13354492, -0.6616211, 1.4931641, 1.0498047, -0.12768555, -0.020568848, 0.66259766, 1.7607422, 0.8046875, -0.86083984, -1.9208984, 1.4599609, 2.4082031, 1.4511719, 1.859375, 1.2509766, 2.4238281, -2.3125, 1.3798828, 0.7001953, 2.6445312, 0.50146484, -0.80322266, -0.34326172, -2.0371094, 0.88671875, -2.2558594, 0.73583984, -0.10296631, -1.3457031, -1.1523438, -0.89697266, 0.9692383, 0.010696411, -2.0605469, 1.2128906, -0.34204102, -1.2841797, -0.44555664, -0.50683594, 0.095214844, 1.6728516, -0.22131348, 2.1171875, 1.2207031, -1.4628906, 1.0400391, 0.83251953, -0.5864258, -0.77490234, -0.7001953, -0.12915039, -0.02281189, -0.48120117, -1.4228516, -0.91015625, 2.7558594, 1.7587891, -0.29516602, -0.48046875, 0.05279541, 1.6259766, -0.37304688, 0.7963867, -0.9814453, 0.82177734, 1.5683594, 0.53222656, -2.2695312, -2.3945312, 1.046875, 0.44604492, 0.7421875, 0.23364258, 0.85498047, 0.4489746, -0.80126953, -0.44848633, 0.018310547, -0.48706055, 0.039398193, 1.3447266, -0.9350586, 0.09588623, 1.3027344, 1.1279297, -3.6894531, -0.7763672, -1.0849609, -0.7319336, -1.0390625, -0.5566406, -1.8525391, -0.83447266, 2.8222656, 1.1630859, 3.1796875, 0.0892334, 0.31298828, -0.99853516, 0.09503174, -2.40625, -1.1279297, -1.3769531, 0.3659668, 2.3457031, -0.53125, -2.5957031, -0.15710449, -1.4023438, -0.8935547, 2.953125, 0.35058594, -0.8857422, 1.9072266, -1.5751953, 2.9023438, -0.15759277, -0.8251953, -1.3251953, -1.0732422, -1.1064453, 0.1385498, 1.8574219, 0.58496094, -0.3125, 0.5209961, -0.53027344, 0.953125, -1.1669922, -0.45410156, 0.76220703, -1.4599609, -1.6259766, -2.3261719, 1.4462891, -2.0957031, 2.109375, -0.66796875, -1.9052734, 0.16589355, -1.0546875, 0.24487305, -0.09869385, 0.8569336, -1.0664062, 1.1386719, 0.010398865, 2.8554688, 1.1728516, 0.7973633, -3.0546875, 0.69433594, -1.9638672, 0.19250488, 1.2714844, 0.77734375, 1.125, 1.1484375, -2.9179688, 1.8925781, -1.7988281, -1.84375, 0.35839844, 0.49975586, 0.50097656, -2.3007812, -1.2167969, -0.6196289, -0.27661133, 0.23046875, -0.09588623, -0.13745117, -1.5029297, -0.73339844, -0.23828125, -0.020874023, -0.27246094, 0.44580078, -0.94873047, 3.96875, -0.39746094, -0.41064453, -0.32202148, -0.7871094, -1.4658203, -1.9716797, 3.0742188, 0.83251953, 1.1748047, -2.0214844, -0.91796875, -0.7890625, -1.6357422, 0.97314453, 0.70214844, 0.3388672, 1.6689453, 0.43237305, -1.7753906, 1.3935547, -0.01991272, 1.1054688, -1.0566406, -2.1992188, 0.9423828, -0.98583984, -0.3244629, -1.0830078, -1.0527344, -0.44360352, -0.34448242, -0.4736328, -0.875, 0.4580078, 0.031585693, 0.93652344, 0.2310791, -2.2421875, 2.9003906, 0.328125, 0.08483887, -1.0009766, -0.013969421, -1.8359375, 1.7333984, -1.2490234, 1.5859375, 0.5439453, -0.83203125, 1.7617188, -0.8647461, 2.5605469, 0.075927734, 0.47607422, -0.9667969, -0.11968994, 0.69189453, -1.0683594, -2.5234375, -0.51708984, -0.15356445, -2.2480469, -1.2978516, 0.1352539, 0.0309906, 1.5996094, -0.31835938, -1.8564453, 0.085632324, -0.050048828, -0.5385742, 1.5, 0.044189453, 1.4394531, -1.1113281, -1.6855469, -1.1308594, -0.1418457, 3.1171875, -2.5429688, -0.09942627, -1.5751953, -2.0644531, 0.8803711, -1.0830078, 0.71240234, 0.0793457, -1.7460938, 0.5332031, 1.1074219, -1.9667969, -0.37597656, -1.7363281, -0.5024414, -1.0703125, -0.1541748, -2.5507812, -0.7314453, -0.4753418, -0.58154297, -0.78027344, -0.75878906, 0.51953125, -2.5175781, -1.2226562, 1.3232422, 1.015625, 1.3808594, 0.47460938, -0.42700195, -0.64404297, 0.6660156, -0.09729004, -1.4589844, -1.1162109, 0.54052734, -1.7041016, 0.3239746, -0.88134766, -1.1064453, -1.9970703, -1.2460938, -2.78125, 1.8476562, 0.5366211, -1.7451172, -2.4921875, -0.2286377, 1.78125, 0.2253418, -0.8076172, 1.8486328, 0.39135742, -1.6767578, 1.2138672, 0.5629883, -0.55126953, 0.2244873, 0.8305664, -0.65478516, 0.7011719, 2.5039062, 0.9770508, -0.76171875, -0.21472168, -1.6298828, -0.009788513, -1.2177734, -1.359375, 1.3740234, 0.083984375, -0.041748047, -2.03125, 0.081848145, 2.2578125, 0.3330078, 0.31884766, 3.1132812, -2.0839844, -2.0429688, 1.8203125, -0.8647461, 0.47729492, -0.27124023, 0.90234375, -1.7617188, -0.4243164, -1.5849609, -3.5507812, 0.6274414, -2.84375, 0.6254883, 0.9223633, 0.92285156, -1.3740234, -0.40966797, -0.8300781, -1.9560547, 0.33911133, 0.3737793, -1.2607422, 2.0839844, 0.45361328, -0.90771484, -2.7597656, -0.8803711, -0.15246582, -1.0830078, 0.5058594, -0.93652344, 1.3896484, -1.0039062, -0.015151978, 0.46728516, 0.013664246, 0.57910156, -0.47607422, 1.09375, 2.6542969, 0.76416016, -0.36865234, -1.0039062, 0.09008789, -1.7119141, -0.56933594, -1.1162109, 1.1826172, -1.0751953, 0.28125, 1.8652344, 0.3449707, 0.11706543, -1.1074219, 1.7871094, 0.37231445, 0.79248047, -0.29858398, -1.5869141, -1.5039062, -0.46289062, 0.49267578, 1.3027344, -0.23669434, -0.50390625, 1.3935547, 0.52685547, 0.21264648, -2.8867188, -2.1679688, 0.14575195, 2.1894531, -1.5654297, -0.47436523, -1.2685547, 0.6748047, -1.8125, -0.65625, -0.4362793, -1.4785156, 1.6669922, 0.2734375, -0.91015625, -1.0576172, 1.2060547, -0.6933594, -0.10784912, 3.46875, 1.0390625, 1.1474609, -1.0869141, 2.7050781, 0.8261719, 0.088134766, -0.6982422, -1.1894531, -0.30395508, -2.0449219, 0.8691406, -2.7070312, 0.2142334, -0.2783203, 0.33129883, 2.1621094, -0.78759766, -0.5288086, 0.9013672, 1.4316406, 1.4316406, 1.2490234, 1.0302734, 0.9838867, -1.1777344, 0.5576172, 0.5517578, 0.76416016, -2.3554688, 0.71240234, -2.1835938, -1.3896484, 2.171875, 0.8354492, -1.1386719, 0.9980469, -0.9140625, 0.7680664, 0.9423828, -0.92871094, -0.81347656, 1.7431641, -1.4267578, -1.7753906, -1.7158203, -0.7158203, -0.7084961, 0.6542969, -0.65478516, -1.9277344, 0.8017578, 0.8623047, 0.9536133, 0.2590332, 1.0087891, 1.0957031, -1.0976562, 0.71777344, 1.2431641, -1.5849609, -0.99609375, 0.4194336, -1.4990234, -2.2402344, -2.0761719, -0.3955078, 0.20031738, 0.23706055, -0.20117188, 0.90185547, 0.049072266, -0.515625, 1.1494141, -2.1503906, -0.15734863, -0.30371094, -0.17932129, -1.0136719, -0.15112305, 4.3984375, -1.0273438, 1.609375, 0.12390137, 1.5986328, 1.7431641, 0.5161133, -1.7939453, -1.3769531, -0.51123047, 1.2109375, 1.0087891, -0.6879883, -0.19836426, -0.97802734, 0.31201172, 0.03414917, -2.3046875, 1.2890625, -0.021499634, -1.6962891, 1.0107422, 0.33398438, -2.1992188, -1.6503906, -1.8017578, 1.8447266, -0.75878906, 0.22912598, -0.33642578, 0.34960938, -0.31835938, 0.7192383, 0.21875, -0.10870361, 0.6635742, -2.4121094, -0.37182617, -0.54003906, 0.63378906, 1.8046875, 1.2041016, 0.2668457, -0.36279297, -0.98779297, -0.5854492, -1.0996094, 1.4482422, -1.2119141, 1.4521484, 0.70458984, -1.0888672, 1.09375, -1.4384766, 0.43237305, 1.9960938, 0.36645508, 2.6972656, 0.74658203, 0.42456055, -2.0625, -0.49829102, 0.25219727, -1.7949219, -0.15661621, -1.1464844, 0.99609375, -0.77441406, 3.2617188, 0.039733887, 1.15625, 1.3105469, -0.4428711, -1.5830078, -1.9716797, 0.7636719, 2.0996094, -0.39013672, 1.6601562, -0.6040039, 0.94433594, -0.7480469, 1.1787109, -0.49487305, -0.73535156, -0.6435547, 1.1142578, 1.3642578, 0.16003418, -2.4550781, -2.1308594, 0.43554688, 0.5307617, -0.9897461, 0.33496094, 0.45458984, 0.7133789, -1.3291016, 0.30444336, 1.3564453, 1.9990234, -4.1523438, 0.8300781, 1.8271484, 1.7255859, 1.15625, 3.0839844, 1.0869141, -1.4433594, 2.0429688, 5.2070312, 0.83984375, 1.4716797, -2.0566406, -0.640625, -0.17102051, 0.17834473, 0.14318848, 1.4960938, 2.9277344, 0.60839844, 1.6337891, 0.30639648, 0.42895508, -0.7319336, -0.73339844, 1.3798828, 1.3457031, 2.1660156, -1.6816406, 0.29638672, -0.27368164, -1.1181641, -1.2578125, 1.109375, -1.609375, 0.38232422, 0.27856445, -1.8232422, 1.9306641, 0.109069824, -0.42285156, -2.4453125, 2.1054688, 0.92578125, -0.8051758, 0.053619385, -2.9433594, -1.0400391, 0.6982422, 0.2854004, 1.8251953, 0.14196777, 1.3291016, 1.8867188, 1.6953125, -1.2021484, -1.2978516, 2.4316406, -3.5332031, 0.27075195, -0.2783203, -0.7397461, -0.7495117, -0.16430664, 1.9345703, -0.98535156, 0.14855957, 1.3681641, -1.2128906, 0.2006836, -0.57421875, -0.98291016, 0.37841797, -3.9375, 1.2119141, 0.51904297, 0.14074707, -2.5644531, -0.92285156, 1.0898438, -0.57128906, -0.3034668, -0.3347168, 1.4306641, -0.20129395, 1.3154297, -2.3535156, 0.69091797, 0.25268555, -1.5273438, 0.5913086, 0.41503906, 0.7241211, -0.6113281, 1.7412109, 0.20996094, 0.21374512, 0.4477539, 0.3659668, 1.5107422, -0.8671875, -0.19482422, -0.13012695, -0.5083008, -0.62646484, -0.3486328, 1.7050781, -1.3330078, 0.28759766, -0.5180664, 0.83251953, -0.7519531, -2.1835938, -0.6479492, 0.5541992, 0.01184845, 3.4980469, -1.046875, 1.4462891, -0.5029297, 0.048706055, -0.47680664, -0.20629883, 0.78515625, -0.61816406, -0.020767212, 0.3737793, -0.029830933, -0.9873047, -0.6411133, -0.18444824, -0.43359375, -0.7260742, -0.671875, -1.1220703, -2.3300781, 0.20532227, 1.7207031, 1.6113281, 0.7084961, -0.61865234, -0.23449707, -1.0400391, 0.0043258667, -1.2470703, -6.5195312, -0.5366211, 2.2480469, -2, 2.8632812, 1.0126953, 0.8642578, 1.7636719, 2.6289062, -1.2275391, 0.29077148, 0.4921875, 0.81933594, 1.2705078, 0.0925293, -1.1074219, -0.19506836, -2.0976562, 2.0019531, -0.21923828, -1.3535156, 0.77734375, 1.4023438, -1.3359375, -0.61621094, 0.95214844, 1.2734375, -1.5654297, 1.6503906, -0.58154297, 2.609375, -1.5195312, -1.3896484, 0.7480469, 0.66845703, 0.2541504, 0.8334961, 0.8232422, -3.4570312, 0.98339844, -1.8320312, -1.4462891, -1.0917969, -0.8544922, -0.3779297, -1.6708984, 0.03488159, -1.3271484, -1.2841797, 0.42504883, 0.98535156, 1.3115234, 0.07751465, -1.0117188, 0.10723877, 0.70214844, 1.7207031, 0.68652344, 1.3398438, -1.2128906, 0.4255371, 0.057647705, -0.57714844, -0.16442871, -1.8046875, -0.0061798096, 5.4765625, 1.2675781, 1.0439453, 3.2597656, 0.19396973, 0.73291016, 0.14294434, 0.1977539, -3.2519531, 2.21875, 2.5175781, -0.35009766, -0.2421875, -0.06719971, 0.39038086, 1.6845703, 0.82128906, 1.8691406, -1.4912109, 0.20935059, -0.16540527, -1.140625, -0.44091797, 4.8203125, 2.3085938, 0.010437012, -0.9609375, 1.6572266, 0.9326172, 0.13830566, 0.94091797, -1.3320312, 0.87109375, 0.82177734, 1.2138672, 1.3964844, 1.3476562, 0.5654297, 1.6689453, 0.3491211, -0.5263672, -0.8979492, 0.5332031, -1.5214844, 1.2216797, -0.03112793, -1.1416016, 2.4355469, 1.8808594, 0.16394043, 1.3447266, 1.3642578, -1.21875, -2.7324219, -1.2929688, -0.38305664, 1.3603516, 0.13195801, 0.15673828, 2.0527344, -3.0820312, 0.7236328, -1.7939453, -1.4296875, 2.3261719, 0.6557617, -0.4819336, -2.5605469, -0.34301758, -1.1025391, 1.1523438, 1.3066406, -0.22888184, -1.3085938, 0.7524414, 0.6386719, 0.13500977, -2.0234375, -0.27172852, -0.097351074, 0.44384766, -0.66259766, -1.3984375, 1.2167969, -2.5039062, 0.31884766, -0.45410156, 0.64453125, -0.92626953, -1.2119141, 0.95703125, -0.02822876, 0.3251953, 0.6171875, -1.4179688, 1.3447266, -0.65722656, -2.3964844, -2.4726562, 0.5444336, 0.34155273, -0.56640625, -0.10858154, 0.45922852, 0.25952148, 1.7832031, 3.2070312, 0.9213867, -0.12286377, -2.0214844, 1.1640625, -1.1796875, 1.7978516, -0.28515625, 0.07611084, -0.12658691, -0.52441406, -2.2050781, 1.0810547, 0.5102539, -0.36694336, -0.94677734, -0.9506836, -1.4628906, 0.796875, -0.8071289, -0.18029785, -1.2509766, 1.4111328, 1.5234375, -0.16015625, -0.8828125, 0.80126953, -0.08862305, -2.2226562, 1.1572266, 0.4111328, 0.9321289, 0.23498535, 1.1708984, 0.2286377, 1.2871094, 0.90625, -0.047088623, -0.20861816, -0.5678711, -0.18017578, -1.6953125, -1.3486328, 1.0253906, -0.48950195, -1.4746094, 0.9399414, 0.29003906, -0.36401367, 0.36889648, -1.4384766, 0.6459961, -2.1464844, 0.7446289, 0.19726562, -2.0839844, -1.9248047, 0.8730469, 0.36157227, 0.890625, 0.59228516, -1.0205078, -2.2011719, 0.08911133, 0.96875, -0.35180664, 0.67871094, 0.5620117, 1.2890625, -0.72802734, 2.0078125, -2.9179688, 0.16760254, -0.77734375, -1.1357422, -1.8164062, 1.0810547, -1.2773438, 0.43164062, 1.2080078, -0.1484375, 1.6884766, 0.15783691, -0.11273193, 1.1669922, 0.42749023, -0.14819336, -1.7509766, -0.9501953, 2.6464844, 0.78466797, 2.7460938, -0.60546875, 2.1210938, 1.1035156, 1.3759766, -0.06921387, -0.4580078, 0.37060547, -0.8417969, -0.97753906, 0.109436035, 1.3642578, -0.9345703, 0.59765625, 0.48388672, 1.1123047, 0.32983398, 0.18701172, 1.2587891, -0.5751953, 0.9370117, -0.4946289, -0.079589844, 0.25219727, -2.3964844, 0.90185547, -0.27075195, 0.88964844, 1.4804688, -2.4902344, -0.17895508, -1.1582031, 0.22180176, -1.71875, 1.3085938, -0.41430664, 1.7988281, -1.1757812, 0.22802734, 1.8496094, 1.6308594, 0.94628906, 0.65722656, 0.10046387, 0.3527832, -2.1914062, 1.6113281, -1.484375, -0.6660156, 0.93066406, 3.9746094, -0.13916016, -0.6723633, 1.7470703, 0.46728516, -0.40673828, 3.4921875, 1.40625, 1.5107422, -2.2304688, -0.051330566, 0.8051758, 2.2675781, 0.93896484, -0.7709961, -0.62109375, -2.7871094, 2.0058594, 0.18701172, 0.2434082, -1.5205078, -0.28149414, 0.18273926, -1.2382812, 0.026123047, 0.38208008, 0.7392578, -2.703125, 3.4355469, 0.6069336, -1.2919922, 0.041992188, 1.5683594, 0.26220703, 2.0410156, 1.2314453, 2.03125, 2.5703125, 1.3222656, 1.0966797, -2.2988281, 0.81152344, -0.18139648, -0.80566406, 1.1220703, 0.11578369, -0.3359375, 0.21704102, 1.4990234, -0.30444336, 1.7587891, 1.2275391, 2.046875, 0.6513672, -0.5332031, 0.5703125, 1.1376953, 1.3515625, 0.69873047, -0.9555664, 1.8037109, 2.0019531, 0.48339844, -1.0273438, -2.2675781, 0.7036133, 1.8818359, -2.5214844, -1.3720703, 1.8886719, 1.9833984, -1.5, 2.3554688, -0.04196167, -1.2880859, 0.8222656, 0.24707031, -1.5615234, 1.0175781, -2.6015625, 1.0136719, -3.5898438, -1.6240234, 2.0371094, -2.3144531, 1.6240234, -1.3320312, -0.75878906, -0.8261719, -0.65625, -1.3925781, 0.9633789, 1.6894531, 1.0595703, 1.1005859, 0.21936035, 1.3076172, 0.10266113, -0.88671875, -1.2109375, -1.3691406, 2.7050781, 2.1035156, -2.6308594, -1.0380859, -1.5292969, 0.45898438, -1.2333984, 2.0878906, -0.7841797, 0.33422852, 0.4921875, 1.9267578, 0.5761719, 1.0419922, 1.8369141, -0.0070381165, -0.12194824, -2.3769531, 4.0117188, 0.36450195, 0.9223633, 0.5317383, -1.1572266, -0.24194336, -0.21313477, -0.79785156, -0.84765625, -0.6694336, 0.35351562, 1.2705078, 0.18408203, 1.8779297, 0.72558594, 0.69921875, -0.390625, 1.0849609, -0.65185547, 0.6796875, 1.6269531, 0.4946289, 0.52685547, -1.7587891, 1.1630859, -0.6357422, 1.8144531, -1.0332031, 2.2167969, -0.3701172, -1.0683594, -0.6245117, 0.052215576, 0.6464844, 1.6142578, -0.80810547, 1.1816406, 0.014282227, 0.9941406, 0.14746094, -0.5600586, -0.6923828, 2.2382812, 1.8291016, -0.29833984, 0.4724121, 0.37280273, -1.9785156, 0.46313477, 0.45092773, 0.90185547, -0.15612793, 0.32763672, 1.2949219, -0.109313965, -0.07086182, -0.45996094, -0.1083374, 0.18493652, 1.9052734, 0.9038086, -2.1914062, 0.12817383, -1.140625, -2.2636719, -0.73291016, 0.95947266, -2.6132812, -2.2050781, 1.1181641, 0.47143555, -0.45166016, -0.7709961, -0.92578125, 0.05319214, -0.66259766, 0.42504883, 2.4160156, -2.1640625, -1.1787109, -0.8754883, -1.0507812, -0.14489746, 0.45898438, 1.8330078, 1.6445312, 0.2902832, 1.6972656, 1.4003906, -1.1503906, -0.53125, 1.9824219, -1.7900391, 1.765625, 0.64697266, -0.7866211, -2.0507812, -0.20996094, -0.8847656, 0.99609375, 1.5458984, -0.107910156, -1.5732422, -0.87841797, 0.050872803, -0.7602539, -0.72558594, -2.3496094, 0.049194336, 0.22937012, 2.1835938, 0.5517578, -0.83251953, -1.0830078, 0.39575195, 0.6020508, 1.1689453, -1.1474609, -0.021911621, 1.1630859, -0.6616211, 0.6645508, -1.8222656, -0.12670898, -0.3840332, 1.1425781, -1.09375, -0.23217773, 0.8486328, -2.1855469, -1.8818359, -1.2177734, -4.2695312, -0.54541016, -0.2980957, 0.37426758, -0.25854492, 3.4179688, 0.3095703, -0.4345703, -2.1210938, 2.5957031, 1.8046875, 1.5576172, 0.5209961, -1.0478516, 0.22790527, -1.0351562, 0.9199219, -0.40771484, 1.421875, -1.984375, -1.0615234, 0.921875, 0.13293457, -0.5004883, 1.2568359, 0.028427124, 1.3486328, 0.04397583, 0.47680664, 3.4921875, 1.4873047, -0.07501221, 0.25976562, 2.8144531, -1.2919922, 0.51416016, 0.80566406, -1.2099609, -0.11419678, -0.37890625, -0.86279297, 0.7338867, -1.6064453, 0.12731934, -1.1074219, -0.20629883, 1.8613281, -1.0644531, -1.984375, 0.81689453, -3.2460938, -1.3320312, -1.3320312, -1.65625, -0.5136719, -1.0927734, 0.4128418, -0.24194336, -1.0888672, 0.58203125, 1.7470703, -0.17663574, 0.18408203, 0.7270508, 1.7587891, 1.4433594, -0.3095703, 1.0400391, -0.057159424, -1.9423828, 3.1621094, -2.3398438, 1.7128906, 0.74316406, 0.034484863, 0.034973145, 1.34375, -1.9394531, 2.1289062, -1.5478516, -1.0664062, 0.39257812, 1.4472656, 0.8666992, 1.4394531, -1.7568359, -2.53125, -0.42016602, 0.77246094, 1.5126953, -1.3193359, 0.81396484, -1.7617188, 0.3552246, 0.33935547, -1.0839844, 1.328125, 0.8276367, 1.2070312, 0.98339844, 0.01184082, -1.6875, -1.3330078, 0.7036133, 2.1660156, -0.15100098, 1.8857422, -0.84765625, 0.6328125, 0.72753906, 0.8911133, 0.4885254, -1.5136719, -0.74365234, -0.5966797, -0.6538086, -2.2597656, 0.7758789, 1.1914062, 2.0195312, -0.91748047, 0.26513672, -0.35424805, -2.0585938, 0.6542969, 1.8085938, 0.25341797, 0.73535156, 1.2675781, -0.092163086, 0.55078125, -2.0546875, -2.0585938, -0.55078125, 0.40795898, 2.6953125, -0.48461914, 0.4970703, 0.70751953, 1.7451172, 3.1992188, -0.81152344, -1.2636719, 0.6933594, -1.0585938, -0.11730957, 0.6303711, -2.65625, 1.4960938, 0.6088867, 2.4277344, 1.8154297, 0.4802246, 1.2080078, 1.3183594, -0.6430664, -1.3291016, 0.68408203, 1.2646484, -0.17822266, -0.7104492, -1.0517578, 0.6176758, 0.3527832, 0.73583984, 0.44360352, -0.98291016, -0.84472656, 1.2861328, -2.0410156, 2.0644531, -1.2451172, -0.6826172, -0.36376953, 0.85839844, -0.11248779, 0.04751587, -0.1262207, -1.3730469, -0.60791016, -0.6870117, -3.5722656, -0.6738281, 0.97802734, 0.32128906, 2.7128906, 0.5439453, -1.3388672, 2.1425781, 1.1035156, -1.7978516, 0.58154297, 0.03753662, 1.1572266, 2.1542969, -1.6679688, -1.6884766, -2.171875, -0.6748047, 0.3486328, 2.4121094, -0.35864258, 1.5341797, 0.5620117, -0.22961426, -0.30151367, -1.4833984, -0.6870117, 1.2558594, 0.56347656, -0.6801758, 1.7041016, 0.09460449, -3.5214844, -1.3144531, 1.0078125, -0.121154785, -1.3740234, 1.5732422, -0.23364258, 0.36401367, -0.21447754, -0.107055664, -0.56933594, 2.6582031, -0.64160156, 0.75390625, 3.34375, 0.51171875, -0.08947754, 1.7949219, 0.2619629, 0.55810547, 1.7617188, -0.04849243, 1.2324219, 1.2636719, -1.8017578, -1.7695312, 2.71875, -0.94433594, -0.36083984, -0.19714355, -1.0800781, 1.4599609, -1.5048828, 1.65625, -0.14880371, 1.8076172, 0.65625, 0.65966797, 0.8510742, 3.2949219, 1.3203125, -0.044555664, 1.2011719, -1.34375, 1.8251953, 0.53759766, -1.4990234, -1.5478516, -0.36914062, 1.7587891, 1.2470703, 0.092285156, -0.37573242, 0.0054473877, 1.2099609, -0.60595703, -0.89941406, 6.3945312, 1.2636719, -0.66259766, 0.7270508, 4.703125, 0.68603516, -1.0371094, 0.55322266, 0.52783203, 0.10406494, 1.0605469, -2.5332031, -0.67578125, -1.1816406, 0.6591797, 0.60009766, 0.087768555, -1.7695312, -2.9199219, -0.8198242, -4.4335938, -0.50146484, -0.78125, 0.8725586, 1.5205078, -1.2636719, -0.92578125, -0.5336914, 1.2412109, -1.1289062, -0.30493164, 0.65625, 0.16589355, 0.33422852, 0.9526367, -0.30151367, -0.68652344, 0.74560547, -0.23913574, -2.9902344, 1.5478516, 1.2792969, 1.4423828, 0.46069336, -0.7211914, -0.5908203, -0.08105469, 1.84375, 0.15710449, -0.7290039, 0.49902344, -0.050567627, 0.79345703, -2.9199219, -0.43066406, 0.5283203, -0.96533203, 1.0996094, 1.7490234, -1.2138672, -0.5527344, 0.58740234, -0.6323242, 1.5898438, 0.09613037, -0.81933594, -0.011619568, -0.06335449, -0.46533203, 2.3476562, -0.26000977, 1.8066406, -1.6142578, -0.63720703, -1.4023438, 0.23937988, 0.1262207, 1.3896484, -1.9550781, -0.25024414, 0.7441406, -1.1113281, 1.3779297, 1.2998047, 1.0566406, -0.2758789, 1.5654297, -1.7304688, 2.6054688, -2.5273438, -2.8691406, -0.13476562, 2.859375, 4.3710938, -0.74365234, 0.33276367, -1.5458984, 1.2412109, 1.7744141, -2.3417969, -0.15759277, 0.1673584, 0.4428711, 2.4746094, 0.36499023, -4.046875, -0.08270264, 0.9321289, 2.0585938, -0.03074646, 4.1835938, -0.10632324, 0.11376953, 0.8691406, -0.5878906, 1.0664062, 0.57128906, -1.59375, 0.8183594, -0.034729004, 1.3164062, 5.1601562, -1.2880859, -1.5029297, 0.7602539, 0.9116211, -0.2788086, -0.5883789, 1.515625, 1.46875, 1.2119141, -1.6923828, -0.57128906, -1.5986328, -0.51171875, -1.5859375, 1.1376953, 1.8681641, -0.68066406, 2.3417969, -0.20861816, 0.14868164, 3.1367188, 0.06109619, 0.080078125, 2.3085938, -1.0009766, -0.5332031, 0.3544922, -0.74365234, -1.8525391, 0.29541016, -2.1582031, -0.39672852, -1.5615234, -1.4931641, 1.1181641, 0.27783203, -0.23327637, -1.390625, 0.32495117, -1.0761719, -1.8564453, 0.9921875, 2.0097656, -1.0546875, 0.60009766, -0.9526367, -2.4609375, -0.4897461, -1.0107422, -0.06677246, -0.37475586, -1.7167969, -1.1816406, 0.18273926, 1.9130859, 0.04345703, -2.4160156, -0.7133789, -1.2744141, -0.9008789, 0.056884766, 1.0478516, 2.5839844, 1.5820312, -0.6611328, 0.82714844, 1.3388672, 0.98339844, 1.3203125, 0.33276367, 0.43066406, -1.2919922, -0.21765137, 0.13659668, 0.49145508, 1.5136719, 0.079711914, -1.0546875, -1.1523438, 0.67822266, -2.2207031, -1.6933594, 0.6821289, -2.1035156, -6.2304688, -0.16003418, -0.8671875, -0.079589844, 0.014915466, 0.4321289, 3.2441406, -1.3945312, -2.0292969, 0.08880615, -0.89941406, -1.7900391, 0.62939453, 0.19006348, -0.40844727, 0.8696289, 1.3984375, 0.09869385, -0.29467773, 0.4958496, 0.38110352, 0.66845703, -1.0175781, 0.8408203, 0.82177734, -0.59472656, -4.1328125, -2.1914062, -0.55908203, -1.359375, 0.018081665, 0.8300781, -2.9375, -1.3837891, 0.7832031, -0.9199219, 0.77490234, 1.0224609, -0.2927246, 0.8383789, 1.2978516, 3.4355469, -1.3847656, -0.9140625, -1.1816406, -0.33496094, -0.09631348, -0.14904785, 0.8486328, 0.20593262, -0.0013771057, 2.9316406, -1.0488281, 0.44140625, 1.1894531, -1.265625, -0.89746094, 3.0585938, 1.2841797, 1.1777344, -0.0030708313, 0.99121094, 0.5419922, 0.5234375, -1.4345703, -2.4589844, -0.89160156, -0.077941895, 0.5761719, -1.2431641, 1.4130859, -0.062805176, 0.31640625, 1.7021484, 3.1894531, 0.9794922, 0.74121094, -0.91015625, -1.0800781, 1.890625, -1.2529297, -0.58740234, -0.9145508, -0.07714844, -2.3164062, -1.1064453, -1.4091797, -2.3925781, 1.1816406, 1.1162109, 0.7026367, 0.43041992, 0.6118164, -0.26098633, 1.5986328, -0.3942871, 1.8837891, -0.70751953, 0.8930664, -0.036834717, 2.2851562, 0.79052734, -0.6533203, -0.7861328, 0.5810547, -0.7416992, -0.37524414, -1.8886719, 3.484375, -1.4658203, -0.30004883, 2.2421875, -0.28198242, -1.8974609, 0.3215332, 0.3942871, 0.38134766, -2.4238281, 0.39379883, 0.050720215, -1.046875, 0.026809692, 0.21875, 0.23657227, 0.23413086, 0.80566406, -2.0019531, -3.7324219, 1.7734375, -0.53125, 1.1650391, 0.5498047, 1.0810547, -0.9199219, -2.3632812, 0.29956055, 0.03125, -0.57666016, -0.58447266, -0.5698242, -0.30297852, -0.42529297, -2.5019531, -0.71875, -0.90527344, -2.7070312, 0.7319336, 1.1523438, -1.2617188, 0.29614258, -0.06536865, -1.1484375, -0.41381836, -0.8276367, 0.13208008, -0.6713867, -0.7944336, -0.4736328, 1.3291016, 1.9462891, -0.3564453, -0.4375, 0.07739258, -0.37670898, 1.1503906, -0.52197266, 0.5058594, -0.9794922, -0.5161133, -1.0888672, 2.03125, -0.72998047, 1.0498047, 1.9267578, 0.60791016, 1.4023438, -1.078125, 0.80810547, 1.9580078, -1.2001953, -1.7373047, 0.22167969, -0.29638672, 0.7446289, -0.54248047, -0.19555664, -1.2978516, -1.3398438, 0.027038574, 0.1586914, -0.07513428, -0.83447266, -0.039093018, 1.5068359, 1.4052734, 0.6118164, 0.4885254, -0.44677734, -0.29248047, -1.2900391, -0.7314453, 4.1992188, -0.9609375, 0.21008301, 0.73339844, 0.28198242, -1.4267578, -0.9814453, -0.6748047, 0.5600586, 0.25927734, -0.13293457, -1.0361328, -1.8447266, -0.015312195, -1.4150391, 2.6953125, -0.5566406, 1.25, 1.2226562, -1.1650391, 1.859375, -2.0214844, -1.4521484, -0.6328125, 0.44091797, -0.49829102, -0.52197266, -0.8652344, -0.7084961, -0.82177734, -2.390625, 1.2783203, -0.46289062, 3.8417969, 0.50878906, 1.9453125, -0.74121094, -0.36889648, -0.31518555, -1.8925781, -2.1308594, 0.22033691, -1.0400391, -0.75341797, -0.74609375, -6.453125, -0.22521973, 1.0478516, 1.1777344, 0.5883789, 3.9921875, -0.11578369, 0.56689453, -2.4414062, 1.0771484, -4.6523438, -0.06561279, -0.10253906, 2.1132812, 0.44604492, 1.5029297, -0.10626221, -0.38208008, -2.3066406, -1.0566406, -1.0068359, 1.5986328, -0.07269287, 2.359375, 1.8251953, -0.296875, 1.0195312, -1.2353516, -1.4257812, 0.81591797, 1.5751953, -1.0107422, 1.3105469, -1.1044922, 0.74609375, -0.68896484, -0.3737793, 0.8671875, 0.06896973, -0.64990234, -0.5180664, -2.4882812, -3.3339844, -0.18811035, -2.4609375, 0.5620117, 3.9902344, 0.06689453, -1.6230469, 0.31835938, -0.4663086, 0.25146484, 0.07763672, -0.4987793, 1.5625, 0.90527344, 0.5102539, -0.5698242, -0.025115967, 0.37426758, 0.2631836, -0.9111328, -1.6396484, 2.7519531, -1.2841797, 1.1132812, -0.5336914, 0.040985107, -1.1298828, -0.4819336, -1.0498047, -1.3564453, 1.5869141, 0.34106445, 0.06585693, -0.8930664, -1.5498047, -0.0055122375, 1.1728516, -0.97753906, 0.6665039, 0.19018555, -0.059020996, -0.43408203, -1.2304688, 0.64746094, 0.99853516, 0.94091797, 1.3222656, -0.8886719, 0.76220703, 2.4980469, 1.0253906, 1.3447266, -0.3779297, -0.17248535, 1.1191406, 1.8388672, -0.69873047, -2.0292969, -1.2001953, -1.7089844, -0.36376953, 0.2277832, -1.6523438, -4.4726562, -1.7714844, 0.05557251, 1.3535156, 2.53125, -0.640625, 1.9335938, 0.98583984, -2.1757812, 0.14916992, -1.0419922, -0.29956055, 4.0351562, -1.234375, 1.2207031, 0.0043182373, 3.1894531, -1.6064453, 4.5820312, -1.7910156, -1.1367188, 0.93896484, -2.3300781, 1.4541016, -1.5527344, -1.0625, -0.17785645, -0.71240234, -3.4746094, -0.50146484, -1.8779297, -1.5117188, 0.28320312, 0.81152344, 0.22949219, -0.6635742, 0.5966797, 1.1699219, 0.21362305, 2.6054688, 2.03125, 0.18811035, -0.9946289, -0.028060913, 0.36547852, 0.7314453, 0.04675293, 0.43847656, 0.54052734, 0.8671875, 1.9296875, -1.4882812, -0.74560547, -0.84765625, -0.9707031, 0.20043945, 1.2548828, 1.9150391, -0.13500977, -1.5126953, 0.40771484, -0.296875, -0.6533203, -0.32885742, 0.043151855, 0.85253906, -1.5517578, 2.0234375, -2.8671875, 0.48950195, -1.2753906, 0.20812988, -0.3232422, 0.7709961, -0.14074707, -2.171875, -0.88916016, -0.7260742, 0.26708984, -2.1503906, -1.3857422, -1.5742188, -0.14489746, 0.30541992, 2.140625, 0.66015625, -0.35742188, 0.7729492, 0.28149414, -1.8076172, 0.54833984, -0.96484375, 0.12915039, 0.4807129, -0.24438477, -0.6699219, -1.8935547, -1.6132812, -0.85791016, 0.06732178, -1.7841797, -0.12561035, 0.8959961, -1.7041016, -1.0175781, 0.32788086, 2.5625, -0.16308594, -0.21960449, -0.20397949, -1.9003906, 0.6723633, -0.40600586, -0.62646484, 0.66845703, -1.328125, 0.453125, -0.07104492, -1.9335938, 0.43408203, -3.8496094, 2.7675781, 0.7138672, 0.7363281, 0.98291016, 0.80126953, 0.7026367, 1.7460938, -0.68847656, 2.7871094, -1.3017578, 0.23242188, 0.95947266, 1.0058594, -0.4650879, -0.09869385, 1.9414062, 1.6728516, 0.28027344, 1.1542969, 0.5385742, 0.6254883, 0.86035156, 1.0566406, 0.5371094, 0.5209961, 0.9013672, 2.3515625, 0.27124023, 0.9111328, -0.2788086, 1.7041016, 1.0341797, -0.80810547, 0.4802246, 0.19018555, -0.3659668, 0.37109375, -0.3010254, -2.9023438, 0.049224854, -0.2019043, 0.5053711, -1.7304688, -1.8925781, -3.1386719, -1.3017578, 0.54345703, 1.0234375, -3.0351562, -2.0585938, 0.47827148, 2.0644531, -2.1132812, -0.24609375, -1.0517578, 0.1730957, -1.3222656, 0.078186035, -0.4572754, -1.1210938, 2.2011719, 1.4970703, -1.1015625, -0.5522461, 0.08709717, -0.43652344, 0.26879883, -0.65625, 0.6088867, -0.89404297, -0.60595703, 0.120666504, -2.0488281, -0.28515625, 1.3330078, 0.5566406, 0.48461914, -0.48339844, -0.5986328, 0.30200195, -0.15856934, 0.7089844, -0.80126953, -3.21875, 1.0195312, 0.8696289, 1.6035156, -1.0048828, 1.0605469, -0.86865234, 0.2397461, -0.44555664, 0.063964844, -0.85302734, -0.0017213821, -1.8046875, 3.1308594, -0.90722656, -1.1425781, 0.076171875, -1.0742188, 0.5546875, 0.52490234, -0.79296875, 2.1054688, -1.0361328, 1.1923828, 0.7260742, 2.1328125, 0.65722656, -0.9116211, -1.2324219, 0.92626953, 2.4082031, -0.6020508, -1.5947266, 0.75878906, 0.049468994, -0.91015625, 2.7324219, 2.140625, -3.2929688, 1.7060547, 1.0742188, -0.1149292, -2.4960938, 0.029724121, -0.16809082, 0.34716797, -0.46948242, 1.5869141, -0.9501953, 0.92871094, -1.2392578, 0.4987793, -0.16955566, 1.3369141, -0.79296875, -1.0419922, 0.23449707, 1.0126953, 2.7519531, -0.97753906, -0.5209961, 0.90722656, 1.5117188, 0.9316406, -0.011154175, 2.1816406, -1.09375, -0.9453125, -1.0996094, -2.6464844, 1.5244141, -0.73535156, -2.0917969, -1.4345703, -0.13928223, -0.76416016, 0.98339844, 0.9472656, -0.47680664, 0.49267578, 0.7138672, -0.28857422, -0.76464844, -1.8847656, 3.8183594, 1.2900391, -0.36083984, -2.0625, 0.37109375, -0.15490723, -1.7832031, 0.38232422, -2.203125, 0.8334961, 1.8642578, -0.20129395, 0.14160156, -1.6259766, 0.0949707, 0.8989258, 1.984375, -0.34545898, -0.6123047, 2.2324219, -0.97314453, 1.6640625, 0.7890625, -1.6611328, 0.76660156, 1.2148438, -0.6123047, -0.54541016, 1.7167969, -0.9902344, -1.0292969, -1.0283203, -1.6064453, -0.6923828, -0.8354492, 0.5571289, 1.0185547, -0.95458984, -0.8852539, -0.7006836, -1.8144531, 1.2587891, -0.46899414, 0.87109375, 1.7607422, -0.7001953, -1.2705078, 1.4111328, -0.6328125, 0.30151367, 1.9462891, -0.1706543, -0.23571777, 2.3535156, 1.4296875, 0.18457031, -0.6069336, -1.4482422, -2.1699219, 1.5498047, -0.034057617, -1.421875, -1.1582031, 0.4716797, -1.0371094, -1.8681641, -0.3955078, -0.87646484, 1.9599609, 0.092285156, -0.45629883, -0.8417969, -2.2011719, 0.6621094, 1.6875, 0.6459961, 0.12915039, -0.6953125, 1.9433594, -1.0097656, 0.14660645, 0.953125, -1.2685547, -1.2451172, -0.7104492, -0.15307617, 0.77197266, 0.077941895, 1.2578125, 2.1152344, 0.40234375, 0.31079102, -0.092163086, -0.796875, 1.2001953, -1.6679688, 3.0625, -0.16333008, -0.99316406, 0.64990234, -0.4326172, -0.09887695, -1.4667969, 1.6308594, -2.5761719, -1.2529297, -0.39770508, -1.7988281, -2.8496094, 0.26879883, -0.84472656, 1.5117188, 1.1738281, -0.7338867, -0.45458984, 0.7988281, -0.23449707, 0.3359375, 3.3945312, 2.3964844, 0.77197266, -0.01889038, 0.75878906, -1.5546875, 0.1776123, -1.3681641, 0.28515625, 2.1464844, -0.46313477, -0.53027344, 1.0410156, 0.21887207, 0.6972656, -1.6025391, 1.3251953, -0.82177734, -0.4189453, 0.7944336, -0.671875, -1.0263672, 1.1425781, 0.8730469, -3.6738281, 0.45507812, -0.052612305, -1.5458984, 1.4599609, 1.1621094, 1.5205078, -1.1386719, -2.609375, 1.3984375, -2.1914062, -1.1689453, -0.24267578, 1.609375, 0.8540039, 0.9091797, -0.22998047, -1.1308594, -0.63964844, 0.3894043, 1.9023438, 1.1835938, -0.7758789, 0.98779297, -0.34936523, -2.03125, -2.5488281, -0.06112671, 0.65771484, 0.117370605, -1.5273438, 0.8725586, -1.0703125, 1.6367188, 1.5605469, -0.7988281, 0.49169922, 0.12792969, 0.8232422, 0.22729492, 0.09741211, 1.6367188, -0.85253906, 1.2148438, 1.3447266, -0.85058594, -2.6621094, -0.3383789, -0.11260986, 1.8779297, -0.9042969, 0.07977295, 2.7539062, 0.2866211, 2.3496094, -0.46801758, -0.18432617, -1.8193359, -0.37060547, 0.15710449, -0.08166504, -1.3476562, -1.8359375, 1.0605469, -0.6723633, 0.46289062, 1.3427734, 0.80908203, -0.32788086, 1.4130859, 0.5415039, 1.0576172, -0.83154297, -0.7963867, 1, 0.8100586, -0.07891846, -2.4121094, 0.82958984, -1.5722656, 1.9296875, 1.5566406, -1.6953125, -1.7167969, -0.43017578, -0.7089844, 1.3857422, 1.7285156, -0.4326172, 0.5263672, 0.47851562, 0.023117065, 0.48242188, -0.30029297, -1.9755859, -1.640625, -1.8310547, -1.0107422, 1.2148438, -2.0175781, -2.578125, 1.3740234, -1.8896484, 0.80810547, -1.8154297, 1.8925781, -0.4609375, -1.9345703, 0.6508789, 0.7661133, 0.23376465, -2.0019531, -0.6152344, -1.6962891, -0.921875, -0.5175781, 1.1318359, -2.1757812, 2.046875, -0.5913086, -1.9423828, 0.9897461, -1.5869141, 1.7939453, 1.3681641, -0.6142578, -0.22851562, 0.39892578, -2.0332031, -2.390625, -0.70947266, 0.021026611, -1.3017578, -2.7148438, 0.89404297, 0.23730469, 1.8291016, 0.73779297, 1.3408203, -2.5097656, 1.0957031, 0.30615234, -0.9296875, -0.9707031, 0.44873047, 0.06124878, -0.56103516, -2.1191406, 0.3996582, 1.4560547, -0.0657959, 1.4960938, 1.0625, 0.44604492, -0.32055664, -0.21472168, -0.14074707, 0.16271973, 0.24316406, 1.078125, 0.71777344, 1.1337891, -0.23510742, 0.117492676, -1.4794922, 0.58984375, 1.5986328, -1.390625, 1.3759766, -2.8632812, -1.0419922, -1.6972656, -0.2939453, -0.60302734, 0.8300781, 1.1318359, -0.6513672, -3.703125, -1.4599609, -0.015464783, -0.40771484, -0.21154785, -0.9790039, -0.67285156, -0.</t>
-  </si>
-  <si>
-    <t>[0.26708984, -0.12072754, 1.2773438, 0.7705078, -1.8779297, -1.0419922, -0.8901367, 0.828125, 0.38232422, -0.16491699, -1.9511719, -0.21020508, 0.23168945, -1.2304688, 1.4853516, -0.45239258, 0.21069336, 0.69189453, -0.46801758, -0.4729004, -0.60253906, 0.9838867, 0.16552734, -1.4169922, -1.6689453, -0.26489258, -0.35058594, -1.1474609, 2.3320312, 0.7158203, 0.90527344, 0.9951172, 0.4489746, 3.2421875, 1.3769531, 0.0513916, -0.40307617, 0.7553711, -0.5625, -0.3774414, 0.024230957, -0.6044922, -1.8896484, 0.8251953, -0.17883301, -1.4931641, -1.6025391, -1.4257812, 0.6401367, 0.20214844, 0.6660156, 1.6962891, -0.32250977, 2.6210938, -0.50927734, 0.31347656, 1.0683594, 1.3017578, 1.5605469, 0.49780273, -0.38720703, 0.74072266, -0.8432617, -0.07092285, -1.0820312, 0.97021484, -2.8886719, 1.9111328, 0.38232422, -1.0224609, 1.1337891, 0.35742188, -0.9550781, -0.1829834, 3.7753906, 1.1123047, 0.7397461, -0.94140625, -1.3212891, 2.1425781, 0.39624023, -0.50341797, -2.4765625, 2.2734375, 0.4255371, 0.43481445, -1.5820312, -3.0566406, -0.051452637, 1.5546875, 2.2597656, 1.3916016, 1.625, 0.28735352, 0.8354492, 0.4880371, 0.7324219, 1.1533203, 2.5625, -2.2109375, 0.0637207, -0.16931152, 3.2246094, 0.076660156, 0.95703125, 0.70996094, -1.2724609, -1.2431641, -0.47973633, -0.43530273, -1.9960938, -2.2675781, 3.4882812, -1.2529297, 1.8154297, 0.024841309, 0.107177734, -2.3378906, 0.41088867, -2.1210938, -1.0332031, 0.6977539, 1.2568359, 0.9169922, -0.24633789, -1.0292969, -0.2376709, -1.1357422, -0.12817383, 0.6166992, -1.9355469, 0.42871094, 2.6445312, -1.7412109, 4.5195312, -1.1064453, -0.89160156, -0.71484375, -1.9638672, -1.3789062, 0.013687134, -0.5883789, -1.5058594, 1.4023438, 1.5908203, -0.7685547, 0.37646484, 0.014556885, -0.8466797, -0.40551758, -1.3046875, 0.5415039, -0.7055664, 0.81591797, -2.875, 1.4570312, -0.37451172, -0.7241211, -1.0800781, -0.5576172, -0.05633545, -1.3535156, 1.0917969, -1.9257812, 3.2089844, -0.38330078, 2.5117188, 0.16381836, 0.29614258, -3.8710938, 0.45825195, -1.6708984, -0.91796875, -0.091674805, 0.079833984, 0.041107178, 0.76708984, -0.28955078, 0.2939453, -0.5097656, 1.9140625, -1.75, 0.8989258, 0.18408203, -0.7182617, -0.6894531, 0.6713867, 0.24523926, -0.78515625, 0.12231445, -0.055999756, -1.7138672, 0.110839844, -0.38598633, 0.023147583, 0.24658203, -0.18774414, -2.0449219, 4.8007812, -0.14404297, 0.54003906, -0.65185547, -1.6679688, 1.6806641, -0.61279297, 1.5634766, 0.48901367, 0.33325195, -1.3916016, 0.3112793, 0.03781128, 0.28149414, 0.60498047, 0.28808594, 0.50341797, -1.5703125, 1.5458984, -0.95703125, -0.9008789, 0.11102295, 0.38989258, -1.2421875, 0.60302734, 2.1660156, -1.3798828, 3.2109375, -2.8183594, 0.6801758, 0.079956055, 0.09814453, 0.71191406, -0.96240234, -1.6621094, -0.099975586, 1.3876953, 2.5644531, -0.39624023, 1.5566406, 0.73046875, -0.6738281, 1.4716797, 0.99560547, -0.6743164, 1.2275391, 0.9433594, 0.86865234, -1.7392578, -1.2050781, -1.2011719, 0.64404297, -0.33007812, 0.10040283, 0.8623047, -0.2241211, 0.117614746, 0.44848633, -1.5947266, -0.7758789, 0.09387207, 2.1972656, -2.7363281, -0.75097656, -0.6977539, -0.5385742, 1.5341797, 0.01398468, 0.17163086, -1.0234375, 0.5253906, 0.6513672, 0.5957031, -0.74365234, 1.2431641, -1.2148438, -1.7460938, -0.9741211, -1.6650391, -0.45776367, -2.1679688, -0.5864258, -1.34375, 0.6894531, 0.10620117, 0.22509766, 1.7744141, -1.7431641, -1.8115234, -1.0771484, -0.43920898, -1.4697266, -0.9824219, -2.4160156, 0.74902344, -0.6894531, -1.4140625, -0.67089844, -1.6601562, -0.88720703, 1.1669922, 0.49536133, 0.2902832, 1.2890625, -0.3449707, 0.5961914, -1.78125, 1.75, 2.1679688, 0.44555664, 1.1240234, -0.64990234, -0.76904297, 1.5292969, 0.69384766, -0.8183594, 1.2978516, 0.45947266, -0.6542969, -0.6635742, -0.33691406, -1.6474609, -1.5869141, -1.8271484, 0.5654297, 0.58251953, -0.046142578, -1.3271484, 0.18737793, 1.3789062, 0.42041016, -0.48217773, -0.5283203, 2.0332031, -1.5117188, 2.4765625, -0.8769531, -0.5336914, -0.21594238, -0.05999756, -0.6508789, 0.25952148, -0.7270508, 0.94189453, -0.84716797, -0.13110352, -1.0166016, 0.029586792, -2.2675781, -0.12335205, 0.048980713, 1.0185547, -2.2167969, -1.1298828, 0.06085205, -0.6069336, 0.67041016, -0.58691406, 1.6523438, 1.3007812, 0.34692383, 1.1259766, 2.4355469, 1.6826172, -0.8276367, -2.1484375, -0.82666016, 0.9980469, -1.2646484, -0.9536133, -0.6772461, -1.1328125, -0.10772705, 0.14868164, -1.3916016, 0.05267334, 0.40625, 0.4951172, -2.421875, 0.22729492, 3.2792969, -1.9462891, 3.0214844, 0.8417969, -0.5957031, -2.2226562, -0.86279297, -0.15649414, -0.3642578, -0.6713867, 0.18762207, 1.2978516, 0.6845703, -0.46118164, -1.9121094, -0.5083008, 0.09124756, -2.2167969, -0.5839844, 2.3828125, -1.2119141, 0.12023926, -0.95214844, -0.44091797, -0.51464844, -2.4101562, -0.9941406, 2.5820312, -1.4785156, -0.57958984, 1.4882812, -1.1435547, 0.9995117, -0.072631836, 0.57373047, 0.9633789, 2.2675781, 0.7236328, -0.5649414, -0.33447266, -0.44677734, 0.29125977, 1.3359375, -0.22106934, 0.5107422, 1.5253906, -0.41308594, 1.4238281, -1.8320312, -0.46826172, 0.6635742, 1.4736328, 0.3486328, 1.5341797, -0.47338867, 1.8574219, -2.3847656, 0.40014648, 3.2792969, -0.9238281, 2.1191406, -0.28466797, -0.7529297, 0.008392334, 0.5307617, -1.0039062, 3.7617188, 0.58447266, -0.93066406, 0.10699463, -2.0390625, 0.38793945, -2.8984375, 1.7724609, 0.87060547, 0.6152344, -2.1054688, -2.0585938, 0.087646484, -2.4472656, -0.35864258, 0.2836914, 0.69970703, 1.9042969, -0.7597656, 1.9228516, -0.52734375, 0.76416016, 0.10803223, -1.7148438, -0.76416016, -0.009185791, -0.5986328, 1.7871094, -1.2958984, -0.21936035, -1.2431641, 0.06774902, -2.6796875, -0.0082473755, 0.68896484, 1.2919922, -1.6621094, 0.46728516, 0.6791992, 0.9399414, 1.3417969, -0.9628906, 1.0068359, -1.4130859, 1.3505859, 0.7583008, -0.16967773, 1.9316406, -0.7182617, 0.63183594, -2.7167969, -2, -0.3942871, -0.50341797, 1.1035156, -0.21081543, 0.83691406, 0.61279297, 0.42407227, 0.7055664, -0.24511719, -0.2479248, -1.1337891, -0.97314453, -1.5878906, 0.94873047, -0.56640625, 0.7783203, -0.3630371, 1.0380859, -1.2363281, -0.009864807, 0.19262695, 0.9848633, 1.2705078, -0.5864258, 0.5649414, -0.4152832, -0.08129883, -1.4960938, 1.2636719, 3.4296875, -2.1679688, 3.515625, -2.3535156, 1.6826172, -1.5478516, 0.6933594, -0.3876953, -0.94628906, 0.029006958, 0.64453125, 2.6582031, -1.3476562, -0.82128906, -2.1308594, 0.97216797, -0.4951172, -2.75, 0.35864258, 0.43237305, -0.49121094, 1.2744141, -1.2421875, 0.3774414, 0.2607422, 0.3996582, 0.18200684, -0.035308838, -0.4169922, -1.3525391, -0.080444336, -1.4013672, 0.7973633, 1.0205078, 0.36767578, 0.1505127, -0.6977539, 0.55322266, -0.97753906, -0.85498047, 1.0097656, 2.9921875, 2.0488281, -0.60546875, -2.5332031, -0.14025879, -1.6816406, -1.4570312, -0.3408203, 3.234375, -1.8300781, 1.2558594, 1.3994141, -1.4140625, -0.82421875, 1.9365234, -0.32958984, 1.1376953, -0.13427734, 0.10687256, -1.0244141, 0.049041748, 0.24975586, -0.39111328, 1.4833984, 0.1776123, 2.1445312, -0.7128906, 0.29418945, -1.2929688, 1.3613281, -0.5864258, -0.15490723, 0.5986328, 0.47753906, 0.54785156, 1.5800781, -0.66015625, 0.9536133, -0.41723633, 0.11456299, -0.28051758, 0.8208008, -0.4362793, 2.3867188, -1.5927734, 0.31103516, 0.47460938, -1.2441406, -2.0371094, 1.6572266, -2.1601562, -0.12854004, -0.91552734, -2.9101562, 0.04373169, -0.27172852, -1.0166016, 0.9873047, 1.0205078, 0.4970703, 2.25, -0.4177246, -0.6225586, 0.9536133, 1.3554688, 0.24401855, 1.2001953, 0.5839844, 2.6347656, 2.7148438, 0.025985718, 0.37182617, -0.09112549, 1.6035156, -0.5830078, 0.47216797, -1.4570312, -1.3154297, 2.2128906, 0.17529297, -0.79345703, -1.6894531, 1.1054688, 0.86376953, -0.14501953, 0.24255371, 0.8959961, 1.6015625, -1.0380859, 1.1884766, 1.9013672, 0.6660156, -0.7783203, -1.1445312, -2.6445312, 1.8076172, 0.2479248, -2.1699219, 2.2109375, 0.58251953, 1.2041016, -2.3984375, 1.8203125, -0.57666016, 0.27441406, -1.1494141, -1.2939453, -0.70214844, 0.68847656, -1.2783203, 0.6323242, -1.0498047, 1.0869141, 2.3613281, 1.1933594, -0.7763672, 0.0015277863, 1.4697266, -0.31079102, -1.5761719, 1.2861328, -0.13513184, 0.109191895, 4.453125, 1.6630859, 0.19091797, 0.78759766, -0.9091797, -0.4423828, -0.091308594, -1.0302734, 0.9433594, -1.6210938, -2.1601562, 1.1503906, 0.64160156, 0.2927246, -2.6308594, -0.46533203, -0.3737793, -1.3466797, -0.21704102, 0.95654297, -1.1347656, 2.0332031, 0.7993164, 2.6367188, 2.1347656, 0.23254395, -2.0839844, 2.2929688, 0.15661621, -0.94921875, -0.86572266, 0.03237915, -0.017150879, -0.84472656, 0.6230469, 0.7246094, 0.6254883, -0.14831543, -0.9301758, 0.71875, -1.28125, -1.8486328, 0.96191406, -1.0722656, -0.93359375, 1.5185547, -3.4707031, 0.15588379, 1.2197266, -2.5390625, -0.91748047, 0.22827148, 1.2158203, 1.8964844, -1.3232422, 3.1894531, 0.7763672, 1.3105469, 0.27368164, 2.0292969, -1.5214844, -0.7714844, 1.7070312, 0.46899414, 0.84521484, -0.50097656, -0.48657227, -0.2607422, 0.0073165894, -1.2070312, -1.4941406, -1.0185547, -1.0292969, 0.5004883, -0.062561035, 1.8457031, 0.45458984, 0.4453125, -0.88623047, -0.17883301, -0.76708984, -2.2871094, -2.0761719, 0.35351562, -0.04421997, -0.09161377, 1.7353516, 1.4912109, -2.3164062, 1.2333984, 2.0058594, -0.72509766, 2.2929688, -1.3515625, 1.8300781, -0.65625, -0.03378296, 0.38720703, -1.7548828, -3.0292969, -2.0332031, -1.8173828, -1.7773438, -0.062805176, -0.050323486, -1.3779297, -0.53271484, 1.1425781, 1.0263672, -1.8730469, 1.4023438, 1.5361328, 2.0136719, -1.7568359, -1.2353516, -1.4189453, -0.18481445, -0.3293457, -0.27001953, -2.4511719, -2.7773438, 0.08508301, -1.3759766, 0.44604492, 1.3701172, -0.77441406, -0.64160156, 0.8300781, -0.86816406, -0.27294922, -1.2929688, 0.53222656, 0.2475586, 0.06768799, -1.8085938, -1.9306641, -1.7988281, -0.34057617, 0.94433594, 0.8544922, 1.4580078, 0.00869751, -1.6972656, 0.8154297, -0.25854492, -0.082458496, -1.4814453, -2.0957031, 4.90625, -1.8564453, 1.7666016, -0.8935547, -2.6347656, 1.0029297, 0.37597656, 0.011810303, -3.6132812, -1.2607422, 1.4707031, -0.6611328, -0.22302246, 1.3974609, 0.4506836, 0.69091797, 0.6381836, -0.3605957, -1.7753906, -1.6318359, 1.2783203, -0.9746094, -0.15576172, 1.7841797, 1.0195312, 0.1149292, -0.6513672, 1.6279297, 0.7861328, -0.890625, 0.082336426, -2.4160156, 2.0996094, 1.0400391, 2.5410156, 0.30419922, 0.5317383, 0.124572754, 0.65283203, 1.4111328, 0.4724121, -0.18273926, -1.625, -0.85058594, -1.2001953, -0.07757568, 0.16381836, 1.0273438, 1.3730469, -1.7587891, -2.7109375, 3.1269531, -1.0419922, -0.3005371, -1.2910156, 1.4248047, 1.0732422, 0.2541504, -1.1025391, 1.7207031, -0.43945312, 0.7758789, -0.5888672, -0.5073242, 0.54541016, -0.36010742, -0.08239746, -0.7895508, -1.3173828, -2.3320312, 0.75390625, 2.1054688, -0.20666504, -1.3164062, -0.2697754, -1.0380859, -0.98535156, -1.21875, -0.005680084, 0.29882812, -0.017562866, 1.6230469, -0.5102539, -0.7939453, 0.4958496, -2.2734375, 2.2207031, -0.01689148, -0.7416992, 0.9951172, 0.18835449, -0.9321289, -1.2783203, -0.12805176, -1.2099609, 2.234375, 2.2558594, -0.7597656, -1.1318359, -0.9746094, -0.3552246, -0.6098633, -1.8710938, -1.6933594, -0.5288086, -0.31225586, 1.8222656, 0.010002136, 0.40576172, -0.15124512, 1.4707031, -1.3808594, 1.0068359, -1.09375, -1.5263672, -0.8261719, -1.4355469, -1.5087891, 1.875, 0.54833984, 2.3027344, 0.5229492, -0.67822266, -0.30419922, 1.1982422, -0.96777344, 0.5776367, -1.5878906, 3.3398438, -0.9277344, -1.3222656, -0.8647461, 1.3300781, -1.3837891, -1.75, -0.8354492, -0.86328125, -0.51123047, 0.7163086, -0.0362854, 0.1262207, -0.13574219, -0.14770508, -2.6289062, -0.85009766, -1.7626953, -1.1064453, -0.12426758, 0.68310547, -1.2519531, 0.0034046173, 0.6166992, 0.42944336, 0.82666016, -0.26538086, 2.8535156, -0.2705078, 0.6118164, 0.022949219, -0.21728516, 1.3369141, -2.109375, -1.7304688, 0.8754883, -0.6166992, -1.2294922, 1.6113281, -0.42822266, -2.7382812, -0.5317383, 0.17944336, -0.55029297, -1.6386719, -0.88183594, 0.5727539, 1.4863281, 1.6201172, -0.52734375, 0.28808594, -0.2590332, 0.6816406, -0.48486328, -2.6367188, -1.3759766, -0.7089844, 0.80908203, 0.21520996, -0.2758789, -0.44335938, 0.5180664, 0.83984375, 2.5605469, 0.57128906, -2.8964844, 2.0488281, 1.1113281, -2.6171875, 2.0957031, 1.3916016, 2.3925781, -0.011207581, -0.8041992, 0.49072266, -2.6113281, 0.40063477, -1.09375, 0.9716797, 1.2626953, 1.2294922, 0.60009766, -0.9658203, 0.3227539, -0.1048584, -0.15002441, 0.4794922, 1.3583984, 1.9394531, -0.0005865097, -1.0253906, -2.4511719, 0.87597656, -0.12524414, 0.3305664, -1.6914062, 0.036376953, 0.3930664, -2.6113281, 1.2451172, -2.5273438, 0.37817383, -1.7695312, -2.015625, -0.91503906, -0.89453125, -0.06573486, 0.8027344, 0.51953125, -2.4394531, 0.24121094, 0.08648682, 1.6386719, 0.36645508, 1.6904297, 1.4521484, -1.2548828, 0.0690918, 1.8769531, 3.6875, -1.5830078, -0.57714844, -1.4091797, 0.1459961, -0.7055664, 3.3378906, 0.88427734, 0.5805664, -1.2089844, 1.1103516, 0.09979248, 2.4902344, 0.47729492, 0.3088379, -0.29418945, -2.4511719, -1.3623047, 1.4414062, 2.4199219, 0.7158203, -0.9848633, 1.8417969, -0.0048599243, -0.30004883, -0.15905762, 0.34228516, -1.1123047, 0.55078125, -0.11553955, -0.99121094, 2.2480469, 0.09649658, -0.33398438, 0.32983398, 0.71777344, 1.2412109, 1.4375, -1.1601562, -1.6328125, -1.2880859, -2.3925781, 0.66552734, -0.71777344, 2.1894531, 1.1630859, 0.6669922, -1.1669922, -0.6689453, -1.2910156, -0.0236969, 1.5654297, 3.4414062, -0.70947266, -0.7524414, 0.15588379, 1.0224609, -0.6694336, 0.25805664, 0.44677734, -1.7607422, 0.83447266, 1.1953125, -0.48901367, 0.29589844, 1.1376953, 0.7167969, -0.7416992, -2.1210938, -0.56396484, 2.9375, -0.61865234, 0.3864746, -0.2919922, -0.08074951, 0.7192383, -0.89404297, -0.4074707, 0.36206055, -2.4980469, 2.0703125, -2.1035156, -1.8066406, -0.8286133, 0.53564453, -1.0039062, -1.1835938, -0.57470703, -1.4433594, -0.33422852, 0.3659668, 2.1757812, 1.2675781, 0.56933594, -0.81689453, 0.030288696, 0.21582031, 0.60009766, -0.6401367, -1.1855469, -0.96972656, 3.3378906, 0.9116211, -2.4414062, -1.1044922, -0.23510742, 1.2177734, -1.1455078, 0.12585449, -0.43408203, -1.1191406, 0.008110046, 0.04486084, 0.50146484, 0.8959961, 2.1484375, -0.89453125, 0.90722656, -1.0498047, 4.5820312, -0.8486328, -0.82421875, -0.74121094, -0.77246094, -1.1494141, -0.028259277, -0.890625, 0.28051758, 0.18444824, -0.7246094, 1.4130859, -1.3808594, -0.5566406, -0.1932373, -0.65283203, -0.5053711, -0.049682617, -0.114868164, 0.56933594, -1.2851562, -2.0136719, -1.6162109, -0.12719727, 0.14245605, -1.3193359, 0.19372559, -1.3105469, -0.63623047, -1.7089844, -1.6337891, -0.07733154, -0.68408203, -1.3740234, 0.83984375, 1.6806641, 1.6308594, -1.2636719, -0.50146484, 0.30297852, -1.6396484, -0.59277344, 0.60302734, 2.2929688, 0.7661133, -1.0185547, -0.98291016, -2.1914062, 0.94140625, -1.3154297, -1.0107422, -0.018463135, 1.9306641, -0.83935547, 0.51660156, -1.6035156, -2.7910156, -1.7294922, 1.2919922, 0.79296875, 1.4501953, 0.2553711, -0.9135742, -1.0429688, -0.13549805, 0.6274414, -1.2773438, 0.9433594, 0.91748047, 1.4726562, 0.9033203, 1.4013672, 2.2050781, 4.109375, 0.04269409, 0.124816895, 1.1552734, 1.0068359, 0.21020508, -0.5151367, -0.123413086, 0.16040039, 0.6298828, 1.7548828, 2.1367188, 0.42919922, -1.7646484, -0.6850586, -0.09320068, -1.2763672, -1.3720703, -0.23413086, -0.5986328, -0.5644531, 0.27124023, 0.29638672, -1.2744141, 1.5927734, -2.3320312, 1.4970703, 1.1748047, 0.22497559, -1.2353516, -1.9638672, 0.81396484, 1.6542969, 0.6191406, -2.3125, 0.2697754, -0.29736328, 1.8603516, 0.5786133, -1.7744141, -0.31762695, 1.7373047, 0.80810547, 1.0146484, -0.30151367, 0.24328613, -0.32543945, 1.9570312, -0.8095703, -0.6801758, -1.1552734, 1.1855469, -0.98583984, 0.73291016, -0.029754639, 1.5166016, -0.95410156, -1.1904297, -1.1474609, -1.4316406, 1.3027344, -0.1595459, -1.6083984, -0.8095703, 3.2929688, 0.18457031, -0.47851562, -3.0644531, -0.095214844, 0.35839844, 1.9472656, 0.83251953, 0.24389648, 1.3300781, -1.1337891, 0.79833984, -0.6977539, 0.9301758, -2.2578125, -0.75634766, -0.9873047, 0.41308594, 1.1767578, 1.4042969, 0.6801758, 0.7573242, -1.5488281, 0.82177734, 4.3085938, 1.8134766, -1.4873047, 0.7338867, 1.4541016, -0.6689453, -0.40063477, -0.3564453, 0.16796875, 0.36450195, -1.5048828, -0.84521484, 0.17443848, -1.6191406, 1.2099609, -1.0546875, 0.041107178, 1.2363281, 0.3293457, -0.421875, 1.7832031, -0.5600586, 0.006717682, -1.0332031, -2.0546875, -0.25634766, -0.7583008, 0.5239258, -1.4697266, -1.2607422, -0.36523438, 0.24816895, -0.09411621, 1.0380859, 0.13024902, 0.94628906, 1.2861328, -0.1928711, 1.4365234, -0.78271484, 0.027664185, 2.0722656, -2.3378906, 1.6875, -1.4570312, 2.421875, 1.5839844, 2.9453125, -1.3554688, 2.0585938, -0.9794922, -0.9604492, -0.30541992, 3.3789062, 0.8183594, -0.40478516, -0.7988281, -0.9482422, -0.085510254, -0.67871094, 0.8540039, 0.62841797, 0.32958984, 0.5463867, 0.984375, -0.1907959, 0.7260742, 0.09039307, 0.9316406, 0.6220703, 0.5073242, 0.8041992, -2.8710938, 0.027389526, 1.8291016, -0.62890625, -0.5908203, -2.3613281, -0.09448242, -0.5239258, 1.5322266, -0.39819336, -1.0361328, -1.9804688, 1.2539062, -0.34277344, -0.21618652, -0.4230957, -0.15686035, 2.5878906, 0.74072266, 0.3095703, 0.75878906, -1.4199219, -1.6376953, 0.3984375, -0.055511475, -0.68896484, 1.1152344, 0.0072364807, 1.5869141, 1.6240234, -0.43701172, -2.0742188, 1.0068359, 0.1451416, 0.12536621, -1.6992188, -1.0029297, 1.1064453, 0.7836914, 1.7294922, -0.4321289, -0.3984375, 0.11328125, -0.3474121, -0.38891602, 0.92089844, -0.21777344, 0.8720703, 1.3222656, 1.4658203, -0.7001953, -0.004108429, -0.04159546, 1.2724609, -1.2822266, 0.09942627, 0.022842407, 2.8535156, -1.0478516, 1.1230469, 0.44677734, -0.13391113, -0.36621094, 0.52734375, 1.3515625, -1.6894531, -0.3881836, -1.3994141, 0.7314453, -0.2006836, 0.6347656, 1.7451172, -0.45581055, 0.47485352, 0.6621094, 0.61279297, 0.40625, 0.68408203, 0.7373047, -2.703125, -1.4921875, 0.6904297, 0.10437012, 3.109375, -0.07507324, 0.27148438, -0.98046875, 0.88183594, -0.14990234, -1.5244141, 1.8662109, 0.34033203, 0.35107422, 1.4609375, -0.38452148, -0.59716797, -0.24780273, 1.0429688, -0.25097656, 0.91259766, -1.4257812, 2.5429688, 2.1523438, -1.4941406, 0.22973633, -0.6894531, 0.06402588, 3.109375, -1.0244141, 0.11834717, 1.5527344, -0.9326172, -0.09289551, -0.66796875, -0.6669922, 0.47583008, -1.4248047, 0.31103516, -1.0800781, -0.34375, -2.8457031, -0.57910156, -0.41870117, -0.08581543, 0.49780273, -1.2324219, 2.8984375, 0.12792969, -0.31420898, -1.3710938, 0.48657227, 2.3808594, -0.3137207, -1.7285156, 0.5317383, -0.12371826, 0.38964844, 1.6162109, 1.0419922, -1.0888672, 0.13183594, -0.09716797, 0.6123047, 1.5605469, -1.3320312, 1.4492188, 0.3803711, -0.6425781, 3.2988281, 0.50146484, 0.083984375, 0.28222656, 1.9609375, 1.9726562, -0.6801758, -1.5419922, 2.1503906, 0.4194336, -1.1054688, -1.5683594, 0.13659668, 2.0957031, 0.70214844, 0.090148926, -0.41967773, -0.31201172, 1.4375, -0.5991211, -0.19030762, 3.5039062, 1.4921875, 0.3317871, 0.05822754, 5.5390625, 0.32202148, 0.68310547, -0.7480469, -0.14575195, -0.33813477, -0.3815918, 0.9868164, -0.27905273, -1.1123047, -0.3659668, 0.36694336, 0.048461914, -1.3632812, -1.4785156, 0.8251953, -1.8974609, 0.546875, 0.5834961, 2.0859375, 0.36621094, 0.9550781, 2.515625, -0.02330017, 1.5722656, -2.2597656, -0.40112305, 0.35620117, 0.80908203, -0.4267578, 0.76660156, 2.2128906, -0.47338867, -0.28710938, 1.0791016, -2.0566406, 1.375, 1.9384766, -1.4287109, 1.3662109, -0.16564941, -2.2519531, -2.0097656, 2.0195312, 1.9804688, -0.058532715, 1.7470703, 2.0703125, 1.0332031, -1.9238281, -0.11315918, 1.6972656, -0.020187378, -0.60595703, 1.1113281, -2.2265625, 1.1328125, 2.703125, -2.3261719, 4.375, 1.5322266, -2.8710938, 1.8085938, 0.8330078, -2.3710938, -0.8798828, 0.052368164, -0.16113281, -1.6416016, 0.2644043, 0.53125, -0.95214844, -1.3662109, -0.19714355, -1.5546875, 0.36621094, -1.1601562, 0.86621094, 1.7685547, -0.73291016, 0.031921387, 0.22729492, -0.18908691, -1.7119141, 0.08135986, -1.0595703, -0.97314453, -0.23071289, 0.328125, 1.5751953, -0.51660156, -0.94140625, 0.43896484, 2.3164062, -0.08227539, -0.82421875, 1.4589844, 0.63964844, -0.73291016, 0.36645508, 0.017242432, -1.7041016, 3.2753906, 1.6982422, -0.14416504, -0.04663086, 4.28125, 0.42382812, -0.007724762, 0.006614685, 0.7207031, -0.74560547, 2.1171875, -1.7314453, 0.42773438, -2.2871094, 0.27075195, 1.9121094, 1.3945312, -1.2304688, 1.5253906, -0.97753906, 1.6425781, -2.2675781, 1.1699219, 0.55566406, -2.8769531, -0.30541992, 0.7036133, 0.09613037, -0.28393555, -3.1015625, 0.32080078, -2.6386719, 1.3457031, 1.0800781, 0.41479492, -0.0357666, 0.019821167, 0.16088867, 0.37231445, 1.0683594, -0.44091797, 3.4238281, -0.61376953, -0.4729004, -1.4482422, -1.2958984, -2.0097656, -1.5087891, 1.5878906, 0.43847656, 2.4941406, 0.15026855, -0.21777344, -0.09197998, -1.3095703, 0.28344727, -1.7451172, -0.44580078, 0.017074585, 0.6508789, 1.1035156, 0.3256836, -1.2177734, -0.78027344, 1.5625, -0.2758789, 0.88427734, 2.2890625, -1.1660156, 1.21875, 0.16760254, -0.83251953, -2.109375, 0.19030762, -1.5849609, 1.2988281, -1.6308594, 1.3154297, 1.7617188, -0.29467773, 0.6040039, -0.37402344, -0.34228516, 0.8925781, 1.6972656, 2.3164062, 0.3881836, -0.73339844, -1.4980469, 0.4230957, -0.6254883, -0.7583008, -0.42797852, -0.4638672, -1.5029297, 0.5263672, -1.1435547, -0.42114258, 2.0722656, -1.1738281, -4.2226562, -1.0673828, 0.27246094, 0.35839844, 0.10192871, 0.06072998, 2.0058594, -0.57128906, -0.17687988, 0.8652344, 1.7792969, 0.34472656, -0.06878662, -0.22302246, 0.07476807, -1.2939453, 0.23498535, 0.001326561, 1.2607422, 0.35424805, -0.07495117, -0.60058594, 3.4140625, 0.8222656, 0.92333984, 0.014625549, -0.4321289, -1.2226562, 0.7441406, -1.0419922, -0.45385742, 2.1816406, -1.2207031, 0.34814453, 1.9238281, -2.7441406, -1.0976562, -0.035736084, -1.1904297, -0.068847656, 1.7089844, 6.3007812, 2.0449219, -0.91748047, -2.3203125, -0.50341797, 1.1435547, -0.0309906, -0.46118164, -2.9199219, -1.0410156, 2.2773438, -2.6894531, 0.3479004, -3.0644531, 0.1583252, 0.5786133, 2.4589844, -0.7480469, 0.3930664, -0.28808594, 1.4306641, 0.47192383, -0.24536133, 0.1517334, -1.3134766, 0.22314453, 0.8925781, -0.28271484, -1.0419922, 1.8515625, -0.11193848, 1.1796875, -0.57714844, -0.0074043274, -1.8398438, 2.609375, -1.2851562, 1.6328125, -0.5136719, -3.2226562, 2.8886719, 0.6274414, 0.7441406, -0.36669922, -2.1230469, 1.5390625, -0.9003906, 1.9316406, -0.54589844, 0.29370117, 1.3066406, 1.1757812, 0.48583984, 0.4104004, -0.9760742, 0.13549805, 0.54541016, -1.2421875, 1.7216797, -1.0683594, 1.1484375, 1.1523438, -0.8666992, 1.9648438, 0.7553711, 1.0693359, -1.84375, 2.0449219, -2.0859375, 0.48486328, 3.3730469, 1.4375, -2.4472656, -0.21936035, -0.62158203, -0.41918945, -0.21191406, -0.06921387, -0.92871094, 0.46411133, 0.20727539, 1.6445312, 0.22375488, 2.046875, -0.71191406, -1.5986328, -2.9648438, 1.1884766, -1.1572266, -0.25683594, 0.36108398, 0.9121094, 1.7539062, -2.3828125, 2.4785156, 1.5585938, -2.5722656, -0.36254883, 0.61376953, -0.8652344, -0.6875, 0.97753906, 1.3037109, -2.6542969, -1.4482422, -1.8125, 0.9916992, 1.2607422, 0.27612305, 2.1054688, -0.2055664, 0.33935547, -0.47729492, -0.17456055, 0.04006958, 0.16772461, 1.4355469, 0.7944336, 2.3730469, -0.25976562, -1.3613281, -0.8911133, -0.6616211, 3.2890625, 0.14550781, 0.33251953, 1.0126953, -2.7617188, 2.0136719, -0.13269043, -0.42895508, -0.49291992, -1.2167969, -0.6074219, 1.0742188, -1.4316406, 0.8569336, -1.5126953, -1.2988281, -2.0429688, 0.23596191, 0.52978516, -0.5625, -0.9165039, -0.5180664, 0.7114258, -1.1123047, -0.099121094, -1.2216797, -0.3725586, 0.40039062, 0.84033203, 1.8476562, 0.1763916, -0.62939453, -2.3730469, -0.06921387, -0.9536133, -0.8803711, 0.578125, 3.2890625, -2.1816406, 0.0104904175, -0.88183594, -1.8779297, 0.703125, -0.2446289, 1.3369141, -0.4428711, 0.5283203, 0.9086914, 0.40478516, 0.05255127, -0.7260742, -0.95458984, 2.625, -0.6142578, 0.21044922, 1.2832031, -1.6210938, 0.049591064, -1.4873047, -2.4628906, -1.0341797, -1.1523438, 0.71191406, -0.14050293, -0.45361328, -0.16723633, -2.421875, -2.7949219, 1.4892578, -1.3417969, 2.0996094, 0.026153564, -1.2558594, 0.73779297, -1.9570312, 1.1533203, -1.375, -1.8818359, 0.8261719, 0.5078125, -1.6660156, -1.5654297, -0.45288086, -0.32714844, 0.8691406, 1.8408203, 0.12963867, 1.1787109, -0.640625, 0.65283203, -0.8232422, 1.4453125, -0.8125, -0.31591797, -1.2910156, -0.43945312, -1.1064453, -0.17480469, 0.36987305, 0.34716797, -4.015625, -0.47070312, 0.46875, 3.1328125, -0.4555664, 0.25830078, -0.31079102, -0.77783203, 1.1171875, -1.4101562, -0.7416992, -1.6972656, -0.6147461, -2.3574219, 1.5576172, -1.9326172, -0.8183594, 0.9770508, 0.7060547, 0.19555664, 0.11981201, -3.1074219, 1.6015625, -1.2675781, -1.1464844, -0.54248047, -0.8823242, 0.6020508, 1.5947266, 0.39770508, -1.4648438, 0.70751953, 0.8208008, -0.56152344, -1.0537109, 1.3076172, 0.25634766, 0.50634766, -0.30493164, 0.04840088, -1.3857422, -0.13769531, 2.4003906, -1.1572266, -1.5771484, 2.6210938, 0.21606445, 0.625, 0.016448975, -0.86621094, -0.45410156, -2.0839844, -0.6489258, 0.6459961, 1.6220703, -1.4785156, 0.10046387, 0.2927246, -2.9824219, -1.2861328, 1.8398438, -1.0253906, 2.3886719, 0.53222656, 2.1425781, 0.82177734, 0.44604492, -0.13513184, -0.6298828, -0.07763672, 0.74072266, -1.7011719, 0.42358398, -1.1054688, 0.24719238, -0.0670166, 0.5917969, -0.79296875, -0.1730957, 1.0195312, -1.9160156, -1.125, 0.32202148, -0.8442383, 0.29516602, -1.3007812, -1.5507812, -4.484375, -1.6123047, 2.4101562, 0.52001953, 0.24365234, 2.3339844, 2.3945312, 0.83740234, -0.5864258, 0.96875, -0.34985352, -0.5332031, 0.5576172, -0.8408203, 0.025848389, 0.11138916, -1.96875, -1.8476562, 2.6796875, 1.9072266, 1.6279297, 0.6376953, 0.38110352, -0.06329346, 0.65527344, 0.9536133, 0.6660156, -0.70214844, -1.5205078, 0.72021484, -2.3828125, 0.027282715, -0.94384766, 1.2929688, -1.8476562, 0.3815918, 2.0351562, -0.5678711, -1.7998047, 1.8486328, 1.0478516, 0.40893555, -0.67578125, 1.0234375, -0.36816406, -2.1191406, 0.5336914, -0.62890625, 1.6191406, -0.43164062, 0.23706055, -3.3652344, -1.4970703, 0.061920166, -1.0869141, 1.5566406, -0.578125, 0.5229492, -0.18103027, -1.6513672, -2.171875, -1.0576172, -0.546875, -1.5761719, 1.6630859, 1.3837891, -0.8017578, 2.2597656, -3.6347656, 1.1259766, -1.7382812, 0.6191406, 1.3613281, -0.7060547, -1.0546875, -0.15698242, 1.1855469, -1.7714844, -1.2197266, -1.6640625, -1.4580078, 1.3427734, 0.10803223, -0.96240234, 1.2177734, -0.52246094, 0.39941406, 1.0429688, 0.33666992, -0.39575195, 1.5136719, -0.44189453, -0.76464844, 0.2019043, -0.06719971, -0.5566406, -2.3476562, -0.27539062, 0.6748047, -0.66845703, 0.19873047, -1.6494141, -1.8730469, 2.2050781, 0.20544434, 0.42041016, 0.66308594, -0.91308594, 0.5722656, -0.3479004, -0.24377441, -0.08380127, 0.77197266, -0.2454834, -0.8847656, 1.7070312, 1.6513672, 0.024719238, -0.0013389587, -0.60302734, -1.6621094, 1.6533203, 0.6538086, -2.7441406, 2.0585938, 1.2949219, -0.26660156, 1.3320312, 0.29492188, -2.3652344, -1.2978516, 1.8974609, -0.17993164, -0.29467773, -0.9008789, -0.9873047, 2.4492188, 0.61328125, 1.8710938, 2.6542969, -0.71435547, 0.38891602, 0.14440918, 1.7910156, -0.038238525, 1.6601562, 1.2246094, -1.2207031, -1.0732422, 3.3339844, -1.2734375, 1.3085938, 1.0644531, -1.4931641, 1.2929688, 3.1210938, -0.88427734, -0.92822266, 0.43066406, -1.1113281, -1.2226562, 1.2099609, -0.64697266, -1.4902344, -0.5253906, -0.67333984, -0.47387695, 0.94384766, -0.35961914, -1.7167969, -2.8105469, 0.7392578, 3.2246094, 1.4853516, 1.2138672, -2.8613281, 0.30322266, 0.42358398, 0.81152344, 0.30249023, -1.7705078, 0.6591797, -1.6054688, 0.87109375, -1.1396484, -1.8720703, -2.4511719, 0.24780273, -1.6279297, -0.17358398, 0.40283203, -1.0839844, -0.85595703, -0.6088867, 0.8413086, 1.4453125, 1.7158203, 0.85791016, -2.0742188, -2.0058594, -1.71875, 0.27563477, -1.0654297, -0.90966797, -1.2910156, 0.09112549, -0.0385437, -1.0664062, -0.3557129, -0.3881836, 0.16638184, 0.017990112, -0.5410156, 1.78125, -1.6962891, -1.0576172, 0.3984375, -0.36206055, -2.4746094, -0.4189453, 0.92626953, 0.38330078, 0.41064453, 0.953125, 0.38720703, 0.17150879, 2.2675781, -0.2052002, 0.42895508, 0.58496094, 2.25, -0.15893555, -1.9824219, 1.2636719, 0.08099365, -1.6943359, -2.8046875, 0.18835449, 1.1728516, -1.5830078, 2.2128906, 1.5205078, -1.5078125, -0.39501953, 2.1679688, 0.34423828, -0.78759766, 1.9628906, -0.0859375, 0.55566406, -0.9868164, 0.5053711, -1.6806641, 0.0736084, 0.37719727, 0.8417969, 0.50927734, 0.8066406, -0.73535156, -1.3408203, 0.06262207, 0.7026367, -0.08251953, 1.4277344, 0.4753418, -0.25195312, 0.54296875, 1.4716797, -1.5478516, 2.1523438, 0.5058594, 0.42773438, -2.0292969, -1.9287109, 0.8979492, -0.25976562, -1.6152344, -1.7412109, -0.8486328, 0.15905762, -0.04421997, 1.9619141, 1.1806641, -0.64697266, -2.5039062, 0.99658203, -0.7368164, 0.79833984, 0.7573242, -0.80859375, -0.13635254, -0.38208008, -1.1054688, -0.7426758, -0.6298828, -0.032165527, -0.8833008, -0.89746094, 0.8095703, -1.5898438, 0.3161621, 0.9902344, 1.4609375, 0.22717285, 1.4404297, -0.52197266, -0.12695312, 1.1318359, -0.83740234, 0.13574219, 2.6132812, 0.4399414, -2.3359375, 1.5332031, -1.6845703, 0.1496582, 1.1269531, -1.1210938, -0.17333984, -0.2685547, 0.8691406, -0.013381958, -0.3017578, -0.08337402, -0.091430664, 0.8173828, -0.88427734, -0.6699219, -1.2080078, -0.8432617, -0.6582031, 0.5864258, 2.1386719, 0.3466797, -0.15673828, 1.9755859, 1.7421875, 0.20043945, 2.6660156, -0.14147949, -0.3071289, -2.1816406, 0.018112183, -1.0546875, 0.421875, -0.08074951, -1.4599609, -0.4519043, -1.0166016, -1.9101562, -0.953125, -0.5205078, 1.7412109, -0.8305664, 1.2744141, -1.9082031, 1.7792969, 1.2197266, 0.40576172, 0.5307617, -2.1582031, -0.29907227, 0.8989258, -0.45166016, -2.8085938, -0.012252808, -0.2722168, -0.19909668, -0.45117188, 1.6171875, -0.36401367, -1.4140625, -2.2265625, -0.71972656, 0.5830078, -0.09448242, 1.2050781, 0.047088623, 0.6972656, 0.43554688, 0.7788086, 0.10888672, 1.1738281, -1.4433594, 0.68066406, -0.46362305, 0.22009277, 1.4375, 0.02218628, 0.24902344, -1.0917969, -1.1015625, 0.40307617, -1.2382812, -0.13439941, 0.24719238, -2.2382812, 2.0761719, -1.5087891, -0.8574219, 0.095581055, -1.1416016, 0.9316406, 0.8959961, 1.2636719, -0.14013672, 2.7148438, 1.6181641, 1.5927734, 1.5322266, -0.0053710938, 0.8276367, 1.0419922, -0.14208984, 0.7163086, 0.41259766, -0.20715332, 1.8740234, 0.0574646, -1.1445312, -0.36254883, -1.3037109, 1.1513672, 0.27539062, -0.46923828, 2.1679688, -0.34375, -0.039123535, 2.3378906, 1.2050781, -2.0996094, 0.39794922, -0.90625, -0.3449707, -0.43066406, 1.0507812, 0.082214355, -1.0908203, -3.8515625, 1.8583984, -0.6166992, -0.084106445, -0.7026367, 0.8461914, -1.5292969, 0.24914551, -0.06274414, -2.5410156, 0.78759766, 0.089538574, 1.7734375, -0.5083008, 0.48120117, 0.5654297, -0.3852539, -0.82373047, -0.8666992, -1.8525391, -0.9243164, -0.70214844, -5.3632812, 2.6914062, -0.2097168, 0.46899414, -1.4033203, -0.40966797, 1.2148438, 0.27661133, 0.38549805, 0.95996094, -0.17480469, -0.2783203, -0.45825195, 1.0449219, 1.3095703, 2.3847656, -1.5546875, 0.94921875, 1.2158203, -0.6274414, -3.3535156, 0.5185547, 0.625, -0.0072288513, 0.3864746, 0.055511475, 0.65185547, -3.5390625, -0.74365234, -0.0072784424, -2.421875, -0.19177246, -1.3642578, -1.0019531, 0.3383789, -0.9111328, 1.5341797, 0.37817383, -1.2597656, -0.0597229, -1.6464844, 0.14794922, 1.0302734, -2.0078125, 1.4833984, -0.4423828, 0.28076172, -1.5917969, -1.1728516, -0.14367676, 0.8330078, 1.0029297, 2.2558594, -1.0498047, -0.89697266, 0.3317871, 0.7348633, 1.0380859, 0.06124878, 0.29638672, 0.29711914, 3.015625, 1.7041016, -0.046722412, -2.3359375, -2.0449219, -3.1054688, -1.1269531, 1.7080078, 0.9589844, -1.5214844, -0.2590332, 0.4387207, 0.0016698837, -0.5209961, 2.8925781, -0.7661133, -0.39819336, -1.0751953, 0.9501953, -0.44604492, -1.4560547, -2.2949219, -1.0146484, -1.5712891, 1.7617188, 0.9916992, 2.0976562, 1.7216797, 1.2832031, -0.9350586, 1.5058594, -3.0996094, 1.0097656, -1.4169922, -0.6586914, 2.125, 1.71875, -0.5761719, -1.5, 1.0195312, 0.5136719, -1.6875, -1.0146484, -0.6176758, -0.055786133, 0.43969727, -0.23498535, 1.0683594, -0.38598633, 1.5976562, 0.093811035, -0.42358398, -1.9892578, -0.43603516, -1.6689453, 0.61328125, -0.44018555, -1.2177734, -0.64990234, 2.4042969, 3.2070312, 1.4726562, 0.2980957, 1.0410156, 1.2685547, -0.24584961, -1.8320312, 0.8676758, -0.87353516, 0.43774414, 0.047424316, -0.74072266, -0.66015625, -0.50927734, 2.1777344, -0.3076172, -0.7324219, -0.22558594, -1.9794922, -3.5761719, -1.8583984, -0.5756836, -0.36035156, -0.24560547, -0.186767</t>
-  </si>
-  <si>
-    <t>[0.45507812, -1.2998047, -0.29833984, 0.19506836, -2.6152344, -0.55908203, -0.45336914, -0.09020996, 1.4951172, -1.4570312, 0.37109375, 0.47705078, 1.4921875, 0.7524414, -0.61865234, 1.421875, 1.8496094, -1.2880859, -0.14892578, 0.062927246, -0.5083008, 1.9296875, 1.0048828, -0.734375, -0.2788086, 1.7587891, 0.2286377, -0.38330078, 0.71777344, -0.59277344, 3.1367188, 0.119140625, 0.42749023, -0.19897461, 0.6586914, -0.86328125, 2.1230469, 0.9814453, 2, -0.45336914, 1.0478516, 1.6064453, 0.80908203, 0.37402344, -0.97265625, -0.050872803, -1.3232422, -2.0507812, -1.1787109, 0.05407715, 0.8925781, 0.5395508, -2.4472656, 2.2441406, -2.5664062, -0.5698242, 1.4003906, -0.41357422, 0.72265625, -0.59765625, 0.6118164, 1.0742188, 0.34814453, -0.25830078, 0.089538574, -0.2705078, -1.3613281, 1.3916016, -0.38427734, 0.74853516, 0.36401367, 0.6791992, -0.09326172, 0.10882568, 0.7705078, 0.33813477, -0.77197266, -2.1601562, -0.06359863, 0.8491211, 1.3916016, 1.4082031, -0.4711914, 0.89453125, 1.1269531, -0.4453125, -1.2011719, -1.6396484, -1.2011719, -2.0078125, 2.2675781, 0.05718994, 2.3476562, -0.49902344, -1.3261719, 0.49121094, 0.7026367, 0.5605469, -1.4912109, 1.0273438, -0.703125, -0.84765625, 0.89697266, 2.5410156, 0.72753906, -0.63183594, -2.5527344, -1.8808594, 0.39257812, 1.453125, -1.1376953, -0.8666992, 2.109375, 0.31225586, 1.2529297, 0.94970703, 0.61816406, -1.21875, -0.61376953, -1.6699219, -1.421875, 0.52246094, 0.0051956177, 1.8085938, -1.6494141, -2.2988281, -1.4804688, -2.0683594, -0.80322266, 1.8886719, -1.5322266, 0.57666016, 1.5703125, -1.5244141, 5.3632812, 3.421875, -0.7338867, -2.3847656, 0.066589355, -1.0664062, 0.57910156, 1.3320312, 1.7744141, -1.5117188, 0.3017578, -1.3544922, 0.8388672, -0.24304199, -0.91845703, -0.14440918, -0.3876953, -0.56591797, -3.7636719, 1.7333984, 0.58447266, 2.203125, 1.0664062, -1.8974609, 0.18493652, 1.3085938, -0.05783081, -1.6533203, -1.078125, -1.7685547, 1.3720703, 0.5566406, 2.9433594, -0.06341553, 1.3662109, -2.3417969, 0.13769531, -2.0429688, 1.4970703, 0.89160156, 0.22155762, 1.4326172, 1.8876953, -2.3652344, 1.3261719, -2.0253906, 1.6376953, 0.81884766, -0.28930664, 1.4326172, -1.1318359, -1.1875, -1.5585938, -2.359375, 0.109802246, 0.20703125, 1.9443359, -3.9785156, -1.5, -0.053955078, -0.25024414, -0.33007812, 0.40795898, 0.1895752, 4.2929688, -0.5073242, -0.9140625, -0.5205078, -0.5493164, -0.008987427, -0.8491211, 1.5488281, 0.1895752, -1.7705078, -0.9584961, -0.56103516, 0.17407227, -0.53515625, 0.20776367, 0.92529297, -1.4599609, 0.3178711, 1.6201172, -0.9082031, 1.515625, 0.8725586, -0.6464844, -1.4248047, -1.8378906, 1.7587891, -2.921875, 1.2792969, 0.6176758, -0.5151367, -0.6923828, -1.2705078, 1.1699219, -1.2568359, 1.2724609, 1.6630859, 0.5258789, -2.8320312, -0.5234375, 0.44750977, -0.07397461, 1.6904297, 1.8808594, 0.17175293, -1.296875, 1.3212891, -0.72021484, -0.6567383, 0.36132812, -0.9272461, 2.4960938, -1.0107422, 2.4980469, -0.7241211, 0.09539795, 0.6401367, 1.2626953, 0.83691406, -1.0976562, -1.2871094, 0.12939453, 0.50341797, 0.37036133, -1.0546875, 1.7021484, -0.57470703, 1.1259766, 0.05630493, -1.0371094, 1.5527344, -0.11657715, -0.93310547, -1.2177734, -0.890625, 3.1679688, 1.2744141, -1.5009766, 0.83154297, 2.8359375, -0.8129883, -2.1640625, 2.265625, -1.5673828, -2.1210938, 0.19458008, 0.24365234, -0.52441406, 0.026062012, -1.7431641, -1.1572266, -1.4560547, -0.080200195, -0.51660156, -0.9404297, -0.3112793, -0.76123047, 1.5712891, -3.0058594, -0.8754883, -2.0136719, 1.0126953, -2.0234375, -1.6357422, -0.84765625, -2.5097656, -1.1738281, 0.1730957, 1.6337891, 0.70214844, 0.1472168, 2.5371094, -0.55322266, 0.4506836, -0.30566406, 0.3630371, -1.2421875, 0.609375, 0.037597656, 0.040740967, 1.9853516, -1.0722656, -2.1328125, 0.33544922, -1.8369141, 1.0429688, 0.54833984, -0.27807617, -1.9433594, -2.6054688, -0.041534424, 2.484375, -0.8359375, 1.046875, 0.5620117, -1.7373047, -1.6347656, 0.56103516, -1.3935547, -0.87939453, 2.3203125, -0.68847656, 1.1503906, 2.6972656, 1.5, -1.4248047, 0.05670166, -1.6044922, -0.109313965, 0.328125, -1.5234375, 0.5966797, 0.042388916, -0.6352539, -1.4970703, 2.9472656, 2.578125, 1.2695312, -0.52001953, 1.328125, 1.4003906, -1.2802734, -0.1116333, 1.1015625, 0.94433594, -1.0263672, 0.5786133, 0.62158203, 0.60058594, -0.76220703, -1.7236328, 1.7021484, -3.3652344, -0.04244995, 0.34399414, 1.0371094, -0.6748047, -0.31567383, -0.95458984, 0.07458496, 0.93847656, 0.16601562, -1.1953125, 1.3046875, 2.1132812, -1.1181641, -0.6591797, -1.3876953, 0.11401367, -0.97753906, 1.4921875, 0.25732422, 0.8129883, 0.10308838, -1.1337891, 0.12310791, -0.89160156, 0.33496094, -1.90625, 1.5244141, 2.9335938, -1.9003906, -0.056671143, -1.3525391, 1.0341797, 0.16467285, -1.7265625, -1.3232422, 2.4375, -0.16235352, -1.3886719, -0.40551758, 0.41992188, -0.62890625, -0.40966797, 0.47485352, 0.23864746, 2.2226562, -0.40063477, -0.064941406, -0.22277832, -0.80322266, -0.117004395, 1.0107422, 0.19152832, 0.6669922, 1.6103516, -0.13232422, -1.3251953, -1.3330078, 1.4628906, -1.9882812, 0.19299316, -1.0576172, 0.97802734, 1.3662109, -0.4506836, -1.8857422, -0.46923828, 2.0253906, 0.54833984, 2.0976562, 0.18945312, -1.4628906, 0.13415527, 1.0166016, 0.7368164, 1.8544922, 2.6230469, 0.63623047, -0.18786621, -2.6660156, 0.6064453, -0.29174805, -0.65478516, 0.8022461, -0.32128906, -1.6679688, -1.2041016, 0.8925781, -2.6171875, 1.3935547, -1.9257812, 1.1914062, 3.3964844, -0.1697998, -1.4404297, 0.8095703, 0.91796875, 2.7089844, -0.010040283, -1.3144531, -1.1083984, -1.0527344, 1.2265625, -0.22265625, -0.042816162, -1.7871094, 0.33129883, -2.7226562, -0.63134766, 0.51953125, -1.8417969, -2.3066406, 2.0859375, -1.0371094, -0.070129395, 2.3359375, -2.5878906, -1.8613281, 0.46142578, -0.21972656, 0.5966797, -1.5664062, 1.6191406, 0.036254883, 1.0244141, 0.24255371, -2.2558594, 1.3955078, 1.7373047, 1.1347656, 0.47045898, 0.5986328, 0.63720703, -3.8671875, -0.097473145, 1.5029297, -0.5913086, -0.21520996, -1.9003906, -1.6464844, 0.6591797, -0.7910156, 2.0859375, 0.84375, -0.069885254, -1.4042969, 0.3166504, -0.7368164, -0.30322266, 0.87353516, 0.046295166, 0.93066406, -0.65722656, 0.9580078, 0.99072266, 0.77197266, 4.2226562, -1.3496094, 3.0566406, 0.5493164, 0.90478516, 1.5244141, 0.42358398, 0.2709961, -0.7753906, 0.051818848, 0.35205078, 0.92626953, -0.47436523, -0.50097656, -0.3310547, 0.6845703, 0.55908203, -0.42089844, -0.3642578, -0.10095215, 1.9375, -1.4912109, 1.2998047, -2.109375, -0.40551758, -0.28344727, -0.17504883, 2.0664062, -0.77001953, -1.6835938, 0.55566406, 0.28393555, 0.17773438, 1.1679688, -1.6816406, 0.40283203, -1.0566406, 0.12609863, 0.6401367, -0.91503906, 1.0302734, 0.83740234, 0.97021484, 1.4960938, -0.8730469, -1.1992188, -0.3461914, 0.8378906, -1.4550781, -0.99072266, -1.2109375, 0.42993164, 0.40673828, -0.5058594, 0.31591797, 2.2558594, 0.20129395, 1.8623047, -0.06341553, 0.22277832, 0.5917969, -0.72558594, 0.09246826, 1.1103516, -1.2587891, 0.38110352, 1.4033203, -0.28076172, 3.421875, -0.31323242, -0.59375, 0.7475586, -0.4140625, 0.039276123, -1.9052734, 2.1835938, 0.6323242, -0.14526367, 2.4746094, 0.23913574, 1.1953125, -2.0996094, 1.1015625, -0.76660156, -0.6357422, -0.56933594, -0.47705078, 0.59228516, -0.6826172, -2.0605469, 0.0725708, -0.75, 0.97021484, 0.04647827, 2.5605469, 0.69384766, -0.034332275, -1.2089844, -1.6933594, -0.70996094, 0.8071289, -1.4160156, 1.4472656, 1.2333984, 1.3701172, 0.4790039, 0.1394043, -1.2001953, -0.41088867, 5.265625, 3.3710938, -0.47851562, 1.3300781, -0.89941406, 0.0012464523, -0.39672852, 1.09375, -0.7519531, -0.18945312, 2.8417969, 1.3505859, 1.3417969, 0.23205566, -0.26953125, -1.078125, -0.8730469, 0.23718262, -0.47094727, 1.2509766, -3.5253906, 0.5620117, 0.24487305, 1.8613281, -1.6044922, 1.40625, -1.2402344, 1.7773438, -1.453125, -2.1367188, 2.1230469, 0.32739258, -0.36889648, -1.2939453, 0.8232422, 0.78515625, -0.6948242, 1.5087891, -1.0166016, 0.6699219, 1.3701172, -0.79589844, 0.76953125, -0.62646484, 2.1894531, 2.3203125, 1.2246094, -0.34985352, -1.421875, 0.92822266, -1.4804688, -0.6958008, 0.30688477, -0.10821533, -0.49902344, 1.7939453, 1.0107422, 0.1394043, 0.78515625, -0.39794922, 1.1650391, -1.3769531, -1.8359375, -0.72998047, 0.7973633, -1.3193359, 0.18737793, 1.0537109, -1.3730469, -1.0361328, -0.4892578, -0.00025177002, 1.0322266, -0.47094727, 1.9550781, 0.51416016, 0.051330566, -1.1757812, 2.4492188, -0.24267578, -0.41577148, -1.8300781, 2.7851562, -0.58984375, 0.18688965, -2.3183594, 1.5283203, -0.43847656, -1.9130859, -0.43359375, 1.1376953, 1.0986328, -1.1777344, 1.1376953, -0.84521484, -0.7573242, 0.27001953, 0.59472656, 0.5024414, -1.7509766, 1.4638672, -0.7939453, -0.6269531, -0.31860352, -3.078125, 0.5229492, 0.63183594, 1.1474609, 1.0634766, -0.7314453, 1.5048828, -1.65625, -1.6347656, -0.6743164, 1.1367188, 0.43774414, -1.5185547, -0.60253906, 0.51416016, 1.2871094, -2.6640625, -1.1357422, -0.25268555, 0.029769897, -0.4753418, -0.67822266, -1.4013672, -2.3808594, 0.9379883, 1.1435547, 1.9716797, 0.9589844, -0.5395508, -1.1748047, -0.97558594, -1.0009766, -2.609375, -4.1328125, 1.7421875, 2.2441406, -0.55078125, 1.3769531, 0.66064453, 2.1210938, -0.32910156, 3.7324219, -0.98828125, 0.4963379, -0.71875, -0.8515625, 0.4880371, 1.5595703, 0.46044922, -0.85302734, -3.2988281, -0.9013672, 0.55078125, -1.7705078, 0.115234375, 0.30126953, 0.5102539, -1.9160156, 0.0154953, 3.1523438, -2.3203125, 2.375, 1.0498047, -0.2861328, 0.7651367, 0.2590332, 0.2088623, 2.4589844, -0.13134766, 2.34375, -0.9921875, -2.3320312, 0.25073242, -2.8515625, -0.68847656, 0.91503906, -1.0361328, -1.5556641, 0.31811523, -0.9638672, -1.2724609, -0.04324341, -0.4104004, 2.0410156, -0.007282257, 0.101745605, -0.34838867, -1.6425781, -0.035491943, 2.5390625, -0.15661621, 0.7104492, 0.24597168, -0.89746094, 1.5791016, 0.6611328, -0.68115234, -0.6225586, -1.2666016, 1.6914062, 0.67089844, 2.1933594, 2.7324219, 0.4987793, 0.69628906, 0.14221191, -0.94873047, -2.34375, 0.79296875, 0.38598633, -0.07019043, 1.2832031, 0.4543457, 0.6743164, 1.7138672, 0.2927246, 0.5151367, -1.0175781, -1.3701172, 0.41748047, 1.5839844, -0.46533203, 1.6162109, 1.2890625, 1.3046875, -0.37573242, 0.2536621, 0.09301758, -1.2070312, 1.7568359, -0.12402344, 1.0810547, 3.0019531, -0.26513672, 1.3486328, 0.0126571655, -1.3398438, -1.0507812, -0.058013916, 0.08270264, -0.6845703, 2.2773438, -2.1367188, 0.9926758, -0.21435547, 0.17749023, 0.26513672, 0.60791016, 1.3359375, 0.4074707, 0.7836914, -2.3027344, 1.7802734, -1.5361328, 0.42041016, 1.8466797, 0.3503418, -0.48779297, 0.47314453, -0.8232422, 0.012870789, -1.5410156, -0.9145508, 0.18737793, 2.0605469, 0.40161133, -2.8886719, -0.23864746, 0.984375, -1.2666016, 0.41552734, 1.5625, -2.0625, -1.2119141, 0.86279297, 0.34692383, -1.6416016, -0.23901367, 0.04660034, 1.2714844, -0.76953125, -1.4052734, 0.890625, -0.38964844, -0.75439453, -0.22875977, -0.13427734, -1.6230469, -1.3222656, 1.0283203, -0.66015625, -0.070129395, 0.88720703, 1.6162109, 2.359375, -0.017623901, -1.2294922, -1.2548828, -0.46435547, 1.1621094, -0.9863281, 1.2158203, -0.70214844, -0.47631836, 0.8598633, 1.1220703, 0.18945312, 0.00944519, -1.0322266, 0.7661133, 0.38720703, 0.083740234, -0.9326172, 0.8886719, -0.6591797, -1.2304688, -2.4667969, -0.29467773, -0.09564209, 0.41064453, -0.23706055, -0.92871094, 0.48046875, -0.064208984, -3.2792969, 1.7568359, -1.0546875, 2.9199219, 0.265625, 1.0449219, 0.3137207, 0.13342285, -1.8623047, -1.2236328, 0.69384766, 0.31713867, -2.2558594, -0.41088867, -0.9477539, 1.1992188, 0.7841797, 1.8222656, -1.1621094, -1.9550781, -1.9248047, -0.30737305, -0.62890625, -0.24902344, 0.4465332, 1.6552734, 0.17443848, 0.41088867, -0.67529297, 0.27905273, 1.59375, -0.53222656, 0.33154297, -0.17602539, 0.5390625, -1.9121094, -2.4003906, -2.0585938, 1.0292969, -0.68408203, 1.9736328, 1.5332031, -1.0009766, -1.9960938, -2.984375, 0.46362305, -1.0146484, -0.94970703, -0.8408203, 0.38964844, 0.09197998, 0.42749023, -0.8901367, -0.7128906, -0.5810547, 0.5683594, 0.7480469, 1.7460938, -0.43725586, -0.765625, 1.7724609, 1.0126953, 2.359375, -0.0231781, -0.8256836, 1.2539062, 3.4296875, -0.016296387, -3.2910156, -0.56884766, 5.5976562, -2.7636719, 1.9482422, 1.4052734, 2.2539062, 1.9775391, -0.22619629, -0.46850586, -1.4287109, -0.35839844, -0.30810547, -0.48583984, -0.82128906, 1.2265625, -1.59375, -1.34375, 0.48901367, -0.46704102, 0.2890625, 1.6308594, 1.3769531, -1.6357422, -0.9086914, -0.38476562, -1.1416016, -0.4897461, -0.77246094, 1.7021484, -1.2158203, 0.4802246, 0.23803711, -1.3857422, -0.092041016, -2.4746094, 0.15270996, -1.5488281, 0.4416504, 0.44726562, 0.20446777, 1.0371094, -0.89160156, 1.5644531, 1.2919922, 0.13537598, -0.35424805, 0.75927734, -0.6088867, -3.0703125, 1.5556641, -1.4091797, 0.7651367, -0.056396484, 2.6367188, -1.6533203, -0.13781738, 1.4638672, 1.9677734, -2.2265625, 1.5048828, -0.12890625, -2.3496094, -0.25854492, -0.44018555, 0.63671875, 0.9145508, -0.06689453, -0.35913086, 0.010749817, 0.0011262894, 0.8964844, 0.6645508, -0.8984375, -0.034576416, -0.46166992, 1.7333984, -0.015129089, 0.82373047, -0.66308594, -0.11541748, -2.375, 3.5722656, -0.8881836, 0.074035645, -0.71435547, 0.58691406, 0.2010498, -0.27124023, 1.2988281, 1, 1.5859375, 1.6992188, -1.3496094, -0.8227539, -0.8574219, -0.31420898, -0.25952148, 1.6074219, 0.40478516, -0.04348755, -1.578125, 1.3505859, -0.5283203, 0.8100586, 2.0351562, 1.7470703, -1.0869141, -0.22058105, -0.99072266, 1.1650391, 1.7275391, 0.51660156, -1.0449219, 1.2460938, 0.7294922, 1.0986328, -0.83496094, 1.7587891, 0.08203125, 0.4584961, -0.82666016, -1.0615234, 3.2363281, 0.7416992, -0.47729492, -0.76123047, 0.6879883, 0.6977539, 3.1757812, 0.72558594, -0.19555664, -0.72265625, -2.9765625, 0.13598633, -0.20922852, -0.6533203, 0.52734375, -2.5390625, 0.98828125, -1.8457031, -1.0527344, -2.9902344, -1.0410156, 0.2265625, 2.6328125, -0.3395996, 0.80371094, 0.51660156, 0.095947266, 1.7373047, -0.06109619, 1.2558594, -1.9296875, -0.76660156, 2.671875, 0.5834961, -3.0898438, -1.0263672, 0.20336914, 0.4333496, -0.34106445, -0.20776367, -1.6699219, -0.30517578, 1.1142578, 1.1064453, -1.2832031, 1.3740234, -0.3544922, -0.20947266, -1.3740234, -1.1582031, 2.9707031, -1.8525391, 0.4987793, -0.19848633, -0.16711426, 0.08728027, 0.8730469, -1.2607422, -1.2929688, 0.9169922, -1.2685547, 1.5839844, -0.28271484, 2.3105469, -0.4645996, -1.140625, 1.1894531, 1.0058594, -1.8525391, 0.24365234, 0.10290527, -0.8847656, -0.2253418, -0.87890625, -0.041259766, -1.1601562, 1.6748047, 0.0018405914, 0.5708008, -1.0566406, 0.45947266, -0.27734375, 1.3583984, -0.3540039, 1.2138672, 0.0713501, 1.3925781, -0.6254883, -0.7504883, 1.1298828, -0.27661133, -0.1796875, 0.4440918, 3.8242188, -0.28295898, 0.55371094, 0.38256836, 0.13903809, 2.9921875, 0.33422852, -1.2255859, 1.5820312, 2.9355469, 0.035003662, -0.515625, -1.1337891, -0.18005371, -0.15063477, 1.2314453, 0.33422852, 0.42944336, -1.1923828, -0.059661865, -1.9833984, 0.86279297, -0.9824219, -1.6240234, -2.2285156, -0.1595459, -0.065979004, -0.43652344, -0.6323242, 1.5302734, -2.8203125, 1.1171875, -0.2590332, 2.296875, 2.0742188, -0.7368164, 0.921875, -0.8149414, -0.041870117, 1.4101562, 2.34375, 0.41455078, 0.04168701, -0.859375, -0.42236328, 1.203125, -2.140625, -1.59375, 1.3935547, -3.4824219, -0.60546875, 0.86279297, -0.077697754, -0.7519531, -1.9472656, -0.6118164, 0.24438477, -0.09838867, 0.26123047, -1.5009766, -2.5371094, 0.25268555, 1.2841797, -0.9482422, -1.1523438, -0.3166504, -0.4404297, 0.5830078, 0.8676758, -2.4863281, -1.2919922, 2.0214844, -1.4814453, 1.4804688, -0.04550171, -0.4921875, -1.0888672, 0.4465332, 0.69189453, -0.515625, -1.8242188, 0.84521484, 1.5390625, -3.4277344, -0.5727539, -0.12145996, -1.1660156, -1.6240234, -0.6098633, -0.2142334, -0.89697266, -0.4440918, 0.76220703, -1.7138672, 5.6640625, 0.0012969971, 1.6464844, -3.3886719, 0.43676758, 1.0703125, 1.7451172, 1.2255859, -0.4663086, -1.0634766, -1.5146484, 2.140625, 0.04849243, 0.6455078, -0.671875, -2.6582031, -0.9145508, -0.09454346, -0.19055176, -0.08105469, -0.61279297, -0.087768555, 0.7109375, 0.55615234, 2.7539062, -0.74365234, 0.5151367, -0.56591797, 1.0371094, -1.6982422, -1.1083984, -0.25219727, 0.23071289, -0.16455078, -2.0136719, -0.5341797, -0.6152344, 1.0175781, -1.0039062, -1.6240234, 0.3173828, 0.30273438, -0.012924194, -2.3007812, 2.4335938, -1.5449219, -1.1738281, -2.0859375, -0.46899414, 1.3164062, -2.6933594, -0.55029297, -1.0898438, -1.7548828, -2.0859375, 0.6044922, 1.2148438, -1.3105469, -1.0986328, 1.6640625, 2.2128906, 0.6948242, -0.96484375, 1.1025391, -1.2451172, 1.9716797, -3.2988281, 1.5566406, 0.28076172, -0.8930664, 0.0008044243, 0.5449219, -1.8974609, 1.2548828, -1.0654297, -1.0419922, 0.2631836, 2.3945312, 0.40307617, 0.4345703, 0.93847656, -1.2978516, -1.5283203, 0.78515625, 0.72216797, -0.26782227, 1.8574219, -0.4501953, -1.3398438, 2.9589844, -0.9086914, -0.5307617, -0.84765625, -0.051330566, 1.4990234, 0.2541504, -1.1259766, -2.0839844, -1.5859375, 0.5371094, -1.3857422, 1.0507812, -0.56591797, -1.2949219, -0.42651367, 1.8583984, 0.6074219, -0.47216797, -1.0722656, -0.7553711, -2.671875, -1.8837891, -1.1953125, 0.36083984, 0.35009766, -0.22436523, 0.96777344, -1.0546875, -0.58496094, -0.21520996, 0.9526367, 1.0595703, 1.9003906, -1.3662109, 0.64746094, 0.7050781, -1.3134766, -1.6708984, -0.29345703, 0.21313477, 2.6757812, 0.26416016, -0.085510254, 1.7294922, 1.6152344, 0.70410156, 1.6914062, 0.26123047, 1.5302734, -0.0029354095, -0.45947266, 1.5664062, -1.2685547, -2.4746094, 0.7841797, 2.1425781, -1.3876953, -0.4494629, -0.42041016, 0.31518555, -3.0253906, -0.5629883, -0.6503906, 1.9238281, -0.056884766, 1.7070312, 0.10217285, -1.6943359, -0.74853516, 1.7734375, 0.1048584, -2.0253906, -2.7988281, 1.4882812, 0.042755127, 0.6225586, -0.60253906, 0.53808594, -0.92333984, -0.09918213, -0.3293457, 0.4880371, 0.40966797, -0.7241211, -0.47485352, -2.1621094, -2.8183594, 0.12939453, 0.48291016, 3.328125, 2.6289062, 2.0566406, 1.4277344, 1.828125, -0.2854004, -0.14428711, 0.296875, -0.46362305, 0.9707031, 1.15625, -1.9628906, 1.4951172, -1.6601562, -0.8100586, -0.17712402, 2.0722656, 0.009941101, 1.5048828, 1.6494141, -1.2695312, 1.2128906, 2.6367188, -0.92822266, 0.21228027, -0.38476562, 0.10583496, 0.9760742, -0.09472656, -1.2626953, -0.021148682, -0.028533936, 0.53808594, -0.16772461, -1.3164062, -0.5698242, -0.1496582, -1.5117188, -0.9658203, 0.97802734, 1.3457031, -0.4963379, -0.43188477, 1.2880859, -1.9873047, -0.40673828, 0.73046875, -0.49316406, 0.2241211, -0.2626953, -0.6010742, 1.7617188, -1.7695312, 0.02784729, 0.6484375, -0.10681152, -0.30322266, -1.1298828, -0.93115234, 0.1104126, 0.5839844, 0.5131836, 0.9638672, 0.012718201, 1.4375, 2.8007812, -0.9707031, -1.2207031, 1.2636719, 2.5585938, 1.1123047, -1.0351562, -1.3408203, 1.8818359, 1.9804688, -0.0013456345, -1.7802734, 0.2854004, -0.037200928, 1.2197266, -0.62353516, -1.3115234, -0.81591797, 0.13256836, -1.46875, -1.4638672, 1.6464844, 2.0566406, -0.6171875, 1.2216797, 3.1484375, 0.90478516, 0.16113281, 0.42919922, 1.0820312, -1.0302734, 1.1279297, 0.32226562, 0.76123047, -0.80126953, 0.99853516, 0.6850586, 1.8398438, -1.9599609, -1.5068359, -1.3837891, -1.3232422, -0.6591797, -0.4038086, 0.52734375, 1.0029297, 0.2376709, -0.80371094, 0.50927734, 0.94091797, -0.7832031, -0.00579834, 1.8603516, 1.4931641, 1.1533203, 0.35888672, 0.4868164, 0.055633545, 0.5966797, 0.74072266, -5.5273438, 0.6401367, 0.67333984, -2.109375, -0.23742676, 1.1953125, -1.3925781, 1.1816406, 0.8071289, 0.96875, 0.98339844, -0.21374512, -1.4394531, -0.6435547, -3.2070312, -0.23693848, 1.0146484, -2.4042969, 0.54833984, 0.17712402, -1.6259766, 2.6875, -0.0395813, -0.86328125, 2.59375, 2.9355469, 0.36035156, 0.61572266, 0.121520996, -3.7089844, 1.1220703, 0.43945312, 0.57910156, -0.69091797, -0.9550781, -2.0273438, 1.2617188, -0.029464722, 0.07470703, -0.33911133, 0.24658203, -0.44677734, 0.98828125, -1.9853516, 0.5415039, -0.875, -0.07397461, -0.6147461, -0.58740234, 1.5068359, -2.7714844, -2.0546875, 0.7783203, 1.5751953, 0.3491211, -0.34423828, 0.5361328, -0.6357422, 0.7138672, -0.030181885, -0.17822266, 1.0478516, 0.5957031, -2.1894531, 0.32666016, 0.37182617, -3.03125, 2.3144531, 1.1621094, 0.7832031, 1.6220703, 3.515625, 0.7602539, -0.20275879, -1.0234375, 1.0908203, -0.74609375, 0.91796875, 0.8823242, 1.1103516, 0.6958008, 0.1340332, 4.8125, -0.77197266, -0.5527344, 0.1239624, -0.88720703, 0.042816162, -0.68408203, 1.0634766, 2.3476562, 2.4160156, -0.4177246, -1.1923828, -2.7148438, 0.39672852, -2.0136719, -0.8666992, -1.0068359, -0.06713867, 2.9199219, 1.8808594, 0.28027344, -1.1513672, -0.74365234, 0.9824219, 0.42919922, 0.05419922, -0.35717773, 0.07397461, -3.4199219, -0.9609375, 0.17907715, -0.8574219, -0.79345703, 1.4238281, -0.4309082, 1.6240234, 1.8447266, 0.92333984, -0.06341553, -0.32666016, -0.8574219, -1.7832031, -0.7138672, 0.73339844, 0.97802734, 0.81933594, -0.062927246, -2.3671875, -0.70214844, -1.5966797, -0.8334961, 0.46728516, -2.3652344, -0.06378174, 0.5029297, 1.515625, -0.26782227, -3.4375, -1.7470703, -0.98583984, 1.5839844, 0.012924194, 0.1784668, 1.6513672, 1.3378906, 0.84521484, -1.1992188, -0.30932617, 1.8691406, 1.5507812, 1.4208984, -1.0458984, 0.21130371, -1.5605469, 1.3535156, 0.46557617, 0.86376953, 0.41259766, -1.3798828, -1.4365234, -0.80615234, -0.3034668, -2.984375, 2.890625, -1.90625, -3.4785156, -3.5332031, -0.20581055, 0.27612305, 1.8466797, -0.22180176, 1.8730469, -0.40454102, -3.6992188, 0.8652344, -0.6411133, -0.6669922, 0.3173828, 0.8076172, -1.1269531, 2.0839844, -0.93847656, 0.796875, 1.3164062, -1.2099609, 0.14001465, 1.7783203, 0.7426758, -0.55322266, 0.2454834, -0.008743286, -2.0195312, -2.3574219, 1.5488281, -2.046875, 0.94628906, 1.1220703, -3.2246094, -1.2568359, 0.62060547, 0.7890625, 1.6533203, 0.62841797, -0.07373047, -1.2226562, 2.4628906, 3.9667969, 0.1385498, -1.0224609, -0.90527344, 0.37719727, 0.8071289, 0.5205078, -0.8154297, -1.7089844, -1.0400391, 0.57666016, -0.08709717, 2.8007812, 0.44848633, 0.15136719, 0.86572266, 2.3867188, 3.0488281, -0.47827148, -0.4008789, -0.5751953, 2.5878906, 1.1298828, 1.1132812, -0.5336914, -0.6826172, -0.1505127, -0.38061523, -1.9951172, 1.0234375, -3.4589844, -0.80908203, -0.2939453, 0.59765625, -1.78125, 1.9472656, -1.1181641, -0.57373047, 0.8828125, -3.4101562, 1.3798828, 0.68408203, 0.0035934448, -0.5419922, -0.67285156, 0.2685547, 0.46655273, -0.19580078, 0.43481445, 0.5419922, 0.5292969, 1.4179688, 0.07537842, 0.4008789, 1.3583984, 0.38989258, -1.2949219, 2.7832031, 1.28125, 1.1347656, 0.86376953, 1.09375, -2.125, -0.49731445, -1.4511719, 0.7939453, -0.078430176, 0.32104492, -0.18237305, 0.1616211, -0.3491211, 0.07067871, -1.8056641, 1.1513672, 1.1796875, -1.7939453, -2.4960938, 0.6699219, -0.043029785, 1.1396484, 0.50634766, -1.1738281, 1.1132812, 0.31176758, -2.3125, -0.49780273, -1.8623047, 2.8652344, 0.5004883, 0.21520996, -0.7319336, 1.0166016, -0.41235352, -2.3613281, 0.8510742, -0.6113281, -0.63916016, -0.08898926, 2.0703125, -1.8798828, -0.76220703, -0.19946289, 0.20397949, -0.19555664, -1.59375, -1.0644531, 1.3125, -0.16333008, 0.47729492, -1.8955078, 0.95654297, -0.5371094, -0.27441406, -0.5878906, 1.4775391, -0.07519531, -0.48046875, 1.0136719, 2.4667969, 0.3930664, 1.1357422, -1.9970703, 0.17260742, 0.28808594, -1.9921875, 0.8300781, -2.8789062, -1.3154297, 0.84277344, 1.7529297, 0.20251465, -0.6899414, 0.9086914, 1.0800781, 0.19799805, -1.8144531, 0.027114868, -0.047027588, -0.52734375, -0.97753906, 0.7993164, 1.3798828, 1.0175781, 0.1628418, -1.8544922, 0.08911133, -2.7304688, -1.6464844, -0.26245117, 0.92333984, 0.3623047, 0.004196167, 3.5820312, 0.033416748, -1.0478516, 0.609375, -0.29248047, -0.057281494, -2.1953125, -2.6035156, 3.2714844, -0.58203125, 0.29638672, -0.29785156, -0.66064453, -0.61621094, -2.5136719, 0.30273438, 2.0898438, -0.5473633, -0.8666992, -1.9257812, -0.11932373, -2.3710938, 1.4140625, 1.6318359, -1.2705078, -0.008911133, 1.2070312, -0.7084961, 0.7128906, -0.09527588, -1.9199219, 0.4897461, 0.39794922, 0.81591797, 0.4501953, -2.6269531, 1.1552734, -1.7871094, -2.8886719, 1.0839844, 0.22424316, 4.546875, -0.4387207, 2.0371094, -2.0019531, -1.6777344, -1.5273438, -0.50097656, -0.14294434, 1.1943359, -0.828125, -2.4042969, -0.78125, -3.0898438, -0.66015625, 0.7949219, 1.8183594, -0.9663086, 1.6337891, -1.1640625, 0.14624023, 0.67871094, 1.2275391, -2.2832031, -0.41674805, 2.46875, 2.1269531, -0.15283203, 3.2363281, 0.5991211, 1.2646484, -2.4628906, -2.0898438, -1.6220703, 2.0214844, -1.6005859, 1.5273438, 0.1965332, 0.56933594, -0.14685059, -0.96875, -0.36914062, 0.5888672, 2.2089844, -1.8417969, 0.7792969, -1.6630859, 1.0253906, -0.5078125, -0.007865906, 1.8837891, 0.1361084, -1.3232422, -0.67871094, -0.39868164, -1.9628906, -0.11975098, -0.5888672, 2.1894531, 1.3017578, 0.8051758, -1.3779297, -1.4414062, 1.2392578, -0.6767578, -0.70166016, 0.35986328, 0.27001953, 2.4648438, 0.75439453, -0.70410156, -0.74072266, 0.09301758, -0.7319336, 0.6269531, 0.96240234, 0.8334961, 0.45214844, -0.4506836, 0.6147461, -1.0410156, -1.2753906, 0.48999023, -0.7836914, -0.6513672, 1.1445312, 0.9223633, -1.4365234, -0.22912598, -2.0371094, 0.07159424, 1.3876953, -0.75146484, 1.296875, -1.4091797, 0.66308594, -0.097717285, 0.024780273, 0.7426758, 0.15539551, 0.30688477, 2.1796875, 0.22290039, 0.4501953, 2.3261719, 0.7910156, 3.2070312, 0.41503906, 1.4638672, -0.7446289, 1.4736328, -1.3955078, -1.1884766, 1.7304688, -1.1572266, -0.8408203, 0.25512695, -3.2480469, -1.90625, -2.8515625, 0.29125977, 0.114746094, 0.77197266, 0.29345703, 0.3798828, 0.63427734, -2.6582031, 0.04119873, -0.6660156, -1.4521484, 3.1816406, -1.9169922, -0.25708008, -0.6166992, 2.6015625, -0.53759766, -0.032958984, -0.33862305, 0.9995117, 0.25463867, -0.23022461, 1.0224609, -0.57714844, -0.29614258, 1.1767578, 0.55615234, -3.0664062, 0.42626953, 0.33764648, -0.22375488, 0.8598633, 1.7236328, 0.6982422, -0.10089111, 2.5097656, -1.4794922, 0.5390625, 1.0126953, 1.5664062, 0.12988281, -2.5527344, -1.0742188, 0.82714844, -1.6777344, -0.38720703, 1.0634766, -0.5288086, 0.8725586, 0.23596191, -3.0410156, -3.9707031, 0.27954102, -2.3652344, 1.6503906, -1.0693359, 1.2558594, -0.20874023, 1.5947266, -0.8154297, -1.6347656, -0.1907959, 0.5551758, -0.19836426, 1.7646484, -0.98046875, 0.5185547, -2.7363281, 0.7861328, 0.29492188, 1.1582031, -1.2705078, 0.34399414, -0.82666016, -0.5888672, -1.3535156, -0.15527344, 0.6225586, -1.4052734, -0.32958984, -2.6875, 1.7470703, -1.6855469, -0.4724121, 1.1416016, -0.19641113, 1.1318359, -0.12988281, -2.0292969, -1.9257812, -0.54589844, -0.6298828, 0.97265625, -1.1513672, -0.28833008, -1.5351562, -0.8574219, -1.0898438, 0.109680176, -1.9101562, -0.9033203, 0.70996094, -3.03125, -0.09716797, -0.7426758, 0.65625, 1.65625, -0.30737305, 0.019454956, -0.057403564, -0.76171875, 1.0507812, -0.89453125, -0.12524414, 0.037078857, 0.453125, -0.070373535, -0.33740234, -0.43286133, -3.2167969, 1.6298828, -0.80029297, -0.22949219, 2.8203125, 0.9350586, -1.1240234, 2.6484375, 1.0800781, 0.4892578, -0.67089844, 0.21569824, 1.0390625, -0.80810547, -0.81884766, 0.47436523, 2.6445312, 1.9970703, 1.3505859, 2.4882812, 0.5239258, 1.2705078, -0.84716797, 0.10028076, -0.36987305, -0.484375, 1.5478516, 0.35791016, 1.421875, -0.6879883, -1.6435547, 1.8085938, 0.69628906, -0.44677734, -1.1269531, 1.0556641, 1.5273438, 0.27539062, -0.37670898, -4.5859375, -0.012557983, -0.52685547, -0.61865234, -0.8339844, -1.2236328, -2.6464844, -1.6708984, 1.0371094, 1.8779297, -3.3652344, -3.1640625, -0.8227539, 1.1357422, -0.5620117, -0.8647461, -1.3925781, 0.5371094, -2.7597656, -0.65478516, 0.86865234, -2.5820312, 1.6308594, -1.1953125, -0.34936523, 0.35229492, -0.7495117, -2.3476562, -0.48242188, -1.3857422, 0.52734375, -0.4987793, -2.9609375, -1.0498047, -2.7285156, -1.6230469, 0.055511475, 0.39013672, -0.46826172, 0.19604492, -1.578125, 0.014976501, 0.8569336, 0.9628906, -0.11376953, -0.35009766, 2.1308594, 2.8359375, 0.03942871, 0.009033203, 1.3505859, 1.6220703, -0.55078125, -0.63378906, -1.3261719, 0.9580078, -0.07562256, -1.3261719, 2.0058594, 1.265625, -0.50146484, 0.7753906, 0.61328125, -0.71484375, 0.9003906, -0.2277832, 1.4287109, 1.21875, -1.4892578, -1.5078125, 0.4243164, 2.1601562, -0.9560547, -2.5605469, 0.60546875, 0.039886475, -1.0136719, -1.8925781, -0.4465332, 0.32763672, -1.8056641, 2.7128906, 0.48632812, -1.0429688, -0.053649902, 1.2216797, 0.4621582, 0.43530273, 1.9472656, 0.77246094, 1.8681641, 0.012420654, 1.4472656, -2.7519531, -1.3417969, -0.7216797, 0.8745117, -0.07635498, 1.3818359, -2.7402344, -1.4296875, -1.3925781, 1.6279297, 0.31689453, -2.9589844, 0.6220703, -1.3837891, 1.8398438, 0.6850586, -0.4008789, -0.10845947, -0.88427734, -1.4169922, -1.5673828, -1.2548828, 1.4042969, -1.2666016, -1.3222656, -0.033325195, 0.24743652, -1.2226562, -1.7099609, 0.3852539, -0.5541992, 1.2236328, -0.17651367, 1.1474609, 0.19580078, -0.17468262, 2.5058594, 1.0410156, 0.21362305, 0.2166748, -0.7050781, 1.1542969, 0.31079102, -0.3708496, -0.32177734, -0.8120117, 0.45898438, 0.27441406, 0.71240234, 0.5258789, 0.7685547, 0.41259766, 1.5917969, -1.140625, -1.2119141, 0.74365234, 1.2607422, -0.14538574, 1.1708984, 0.32470703, 0.8330078, 0.18005371, 0.53515625, 0.9140625, 0.9145508, -0.19360352, -0.87841797, -1.6357422, -0.8911133, -0.4177246, 0.31567383, 1.8730469, -0.89941406, -0.8466797, 0.36083984, -1.6035156, -2.2714844, 0.4819336, -1.6455078, 0.122924805, 0.10247803, -0.045166016, -2.7617188, 2.6933594, 0.029953003, -0.16430664, 1.1972656, -0.35253906, 0.3310547, 0.8803711, -0.26904297, 2.6347656, -0.34033203, -0.71875, -2.5605469, -0.484375, 0.022735596, -0.55810547, -1.1816406, -0.6591797, 0.14123535, -1.5820312, 1.7744141, -0.05340576, -1.6738281, -0.1607666, 0.83691406, -0.91308594, -0.42138672, 0.99853516, 2.4003906, 0.40893555, -1.4990234, -0.5004883, 0.85546875, -2.3359375, 0.15490723, 0.13989258, -1.2412109, -1.0761719, -2.7851562, -0.70996094, 1.3535156, 0.7993164, 0.6923828, 1.1640625, 0.8017578, 0.21765137, -1.0039062, -0.51904297, 2.3496094, -0.2322998, 0.78027344, 0.11566162, -1.3085938, 0.63671875, -0.4008789, 0.67822266, -1.6318359, 0.9716797, -4.8671875, -0.091308594, 0.101379395, -0.9423828, -2.4570312, -1.5478516, 0.057281494, -0.34057617, 2.1328125, 0.4375, -1.7412109, 0.2548828, 1.8759766, 0.12036133, 1.3564453, 0.03982544, 2.90625, 0.13928223, 1.7490234, 0.5390625, -0.36401367, -0.15795898, 0.35888672, 0.05505371, -0.765625, 0.15234375, 1.7050781, -2.6816406, 0.38623047, -2.6816406, 1.3076172, -2.7949219, 0.28344727, 3.078125, -0.76171875, -0.57470703, 1.6083984, 0.7895508, -1.4677734, 1.4628906, -0.97265625, -0.4494629, 0.7524414, 2.3203125, -0.7890625, -1.3417969, -1.7275391, 0.54248047, -0.33764648, -0.32495117, -0.87841797, 0.5913086, 0.29541016, 0.7763672, 0.08081055, -0.9868164, -0.17700195, 0.14978027, 1.8251953, -0.24194336, -2.6132812, -0.48608398, -0.703125, -0.76171875, -2.5976562, 0.11218262, -1.7050781, 0.82128906, -3.0449219, 1.6787109, -1.5546875, 0.17944336, 1.1464844, 0.17028809, 1.171875, 0.09777832, 0.80810547, -0.3173828, 1.4521484, 1.7724609, 1.8535156, -0.09625244, 1.1767578, -1.3076172, -1.7412109, 1.9199219, -0.4753418, -0.48706055, -1.0166016, 0.08874512, 2.8398438, -0.48095703, -0.9082031, 0.097229004, -0.72265625, -0.59277344, -2.6074219, -1.6875, 1.3847656, 0.1875, -3.546875, 1.6123047, 1.0546875, 0.7895508, 0.9902344, 1.6796875, 0.14782715, 3.2246094, 1.5185547, 0.0041275024, -0.2788086, 0.5830078, -0.06088257, 1.4492188, -1.8417969, 0.2824707, 0.15014648, -1.953125, 2.4042969, 2.3339844, -0.54785156, -0.7832031, -2.3183594, 0.96240234, 1.4013672, 0.6591797, 0.7519531, 0.6748047, 0.78808594, 0.30541992, 0.5209961, -0.69628906, -0.15563965, 0.3269043, -0.50341797, -0.72998047, 1.4394531, -1.4804688, -1.2236328, -0.081848145, -0.8647461, 0.4453125, -1.0986328, 1.9296875, -1.5546875, -0.45751953, -0.9428711, 1.7177734, 1.3183594, -1.3007812, 0.37597656, 2.0664062, -0.21118164, -0.79003906, 0.58496094, 0.047607422, 2.5488281, 1.4912109, -0.484375, 2.3632812, -1.4296875, 0.79785156, 2.0566406, -0.0034713745, 2.1503906, -0.47094727, -2.5, -1.2744141, -1.6601562, 0.23083496, 0.017654419, -1.5361328, 0.27441406, 0.23303223, 2.3417969, 1.2929688, -0.1508789, -2.40625, 0.10241699, 0.25, 0.95654297, -1.3916016, -0.29101562, -1.5703125, 1.0029297, -1.0146484, 1.6699219, -0.051361084, 1.9736328, 1.1699219, -0.953125, -1.0107422, 1.6816406, -0.4621582, 0.8256836, 1.515625, 1.2392578, 0.5102539, -0.21643066, 0.56103516, -1.3730469, -0.59277344, 1.3037109, 1.6826172, 0.27905273, -0.73339844, -0.22485352, -1.6855469, -1.8886719, -2.0058594, 0.56103516, -0.5175781, 0.23120117, 0.37182617, -1.0664062, -1.9648438, -0.23754883, 0.149902</t>
-  </si>
-  <si>
-    <t>[0.33276367, -0.2244873, 1.0546875, -0.87353516, -1.2900391, -0.25317383, -1.0517578, -2.4335938, 2.2753906, -1.3964844, -1.6181641, -0.04763794, -0.14868164, -0.79589844, 0.50341797, -0.95458984, 1.3876953, -0.6645508, 0.07244873, -1.2226562, -0.36572266, 1.5566406, 1.0439453, -1.4453125, -0.7495117, -0.43286133, -0.19177246, -0.9399414, 2.3964844, 1.0810547, 0.4855957, 1.6689453, 1.4863281, -0.15722656, -0.15612793, -1.9091797, 1.3808594, 2.3183594, 1.4833984, -0.3815918, -1.7568359, -0.59521484, -2.109375, 0.70947266, -2.21875, -0.0635376, -0.8652344, -1.25, -0.14355469, -0.2607422, -1.5068359, -0.5957031, 0.3154297, 0.43286133, -0.796875, -2.3984375, 0.8334961, 0.19299316, -0.4658203, 0.96484375, 0.18457031, 1.7910156, -1.1669922, -0.6386719, -0.032562256, -1.1220703, -1.6894531, 0.34375, -0.013977051, -0.56591797, -1.0224609, 0.65771484, -1.3251953, -0.61035156, 1.3408203, 0.9433594, 0.91845703, -0.80078125, 0.80810547, 0.76904297, 2.9746094, 0.3203125, -0.6748047, 0.36767578, 1.9160156, 0.4741211, -1.0976562, -1.7382812, 0.35986328, -0.9614258, 0.91015625, 0.17944336, 1.4257812, -0.7788086, 2.6816406, 0.23278809, -0.41235352, -1.4873047, 2.4628906, -1.2421875, -1.1123047, 1.3623047, 1.71875, 1.5185547, 0.80078125, 1.6142578, 0.1015625, -0.6401367, -1.3554688, -0.47192383, -0.67333984, 0.49804688, 0.2244873, -0.19812012, 0.3076172, -0.4387207, -0.86035156, 0.26611328, -1.2392578, -0.79541016, -0.15344238, 0.18310547, 0.64990234, -0.71875, 0.4802246, -0.5419922, 1.3310547, -2.0371094, 0.95410156, 1.4414062, 0.31567383, -2.3535156, 2.1640625, 0.2133789, 2.6386719, 0.086242676, -0.84277344, -1.3925781, -2.3613281, 0.61035156, 2.3808594, 0.3154297, 0.70996094, -1.0126953, 0.6118164, -0.83984375, -0.7841797, -0.52246094, 0.087402344, -0.033966064, -0.3774414, -0.34545898, -2.1894531, 0.97802734, -2.6992188, 0.6020508, -1.4306641, -1.5859375, 0.70166016, 1.9306641, 0.9902344, -0.0970459, -0.06793213, -2.1113281, 2.3574219, 1.4677734, 0.69384766, 0.55859375, -0.021011353, -0.22497559, 1.2324219, -0.4333496, -2.0820312, -0.7597656, 0.15759277, 0.9916992, 0.40576172, -0.30371094, 0.7636719, -1.2929688, 0.9951172, -1.5751953, 0.3083496, -0.89453125, -2.1074219, 0.4987793, 1.4296875, -0.171875, 0.3630371, -1.9160156, 0.7416992, -1.8095703, 0.06726074, 1.0566406, 0.53271484, -1.0830078, 0.27294922, 1.0585938, 3.4667969, -0.9448242, 1.4306641, 0.60302734, 0.56152344, -2.1347656, -1.6416016, 1.3427734, -0.24316406, 0.1348877, -0.2421875, -0.3881836, -0.12670898, -0.2758789, 1.4257812, 0.050201416, -0.12731934, -0.48754883, 1.0830078, -0.9111328, -0.9785156, 1.8554688, -0.009132385, 0.04449463, -0.7626953, 0.2866211, -1.2373047, 3.1308594, -2.3886719, 0.67578125, 0.20983887, -0.4177246, 1.7314453, 0.4248047, -0.4597168, 0.19006348, 1.2216797, -1.7939453, -1.1435547, 3.7988281, 0.34472656, -0.96777344, 0.96533203, -0.90283203, -0.6796875, 1.4765625, 1.8320312, 0.59228516, -0.9941406, 0.069885254, 0.9003906, 1.4033203, 1.3603516, 1.7216797, -1.6494141, 1.5185547, -0.39135742, 0.5341797, -0.4440918, -0.34057617, -0.35498047, 0.83203125, 2.7890625, -1.6640625, -1.3828125, 0.04776001, 0.79052734, -0.39453125, -0.82373047, 0.2253418, 0.068481445, -0.7001953, 1.0322266, -2.1894531, 1.9345703, -0.7871094, -2.7792969, -0.33447266, 2.1835938, -0.33422852, -1.4208984, -0.7451172, -1.9902344, 0.39990234, 0.80322266, 0.6201172, 0.0024795532, -2.9296875, -2.4238281, 0.20043945, -1.6992188, -2.5703125, -1.0800781, 0.5878906, 1.5136719, -1.3115234, 0.5161133, -1.4804688, -1.4736328, -0.98583984, -1.4716797, 0.45361328, 0.5551758, 0.3972168, -1.5097656, 0.6118164, 0.11340332, -0.3786621, 1.0898438, 1.2080078, -1.3652344, 0.89453125, -0.04333496, -0.10681152, -0.23022461, -0.91015625, 1.4697266, 0.14477539, -1.0302734, -0.32299805, 0.04220581, -1.5527344, -0.7324219, -0.9746094, 0.56884766, -0.29296875, 0.30395508, -2.3183594, 0.74658203, 0.026031494, 2.25, -0.4350586, 3.4414062, 0.1751709, -0.74609375, 1.84375, 1.0068359, 0.080566406, 0.0637207, -0.00028276443, 0.57421875, -0.2770996, -2.9042969, 2.4941406, 0.69140625, -0.14770508, -0.1895752, -0.27612305, -0.5625, -0.7114258, -1.4072266, 1.4257812, -0.96240234, -0.54589844, 0.21484375, 0.8642578, -0.6088867, 0.68847656, 1.7001953, -2.0917969, -1.4375, 1.4931641, 1.6757812, 0.40039062, -0.2565918, -0.5678711, -0.73583984, 1.7119141, -1.2490234, -1.6708984, -0.74902344, -2.3847656, 1.0986328, 0.29541016, -0.02468872, -1.3935547, -0.59765625, -1.6240234, -1.5214844, 2.078125, 2.5429688, -0.14624023, 1.3222656, 1.0800781, -2.5234375, -1.2021484, -2.5390625, -2.2148438, 0.68115234, 2.2089844, 2.59375, 2.3984375, 0.38916016, -0.5341797, -2.2050781, -0.41333008, 0.0043563843, -0.8989258, 0.60546875, 3.5195312, -1.7880859, 1.5195312, -1.7255859, 1.7861328, 0.37329102, -1.4335938, 0.31567383, 0.7368164, -1.4208984, -0.7651367, 0.78222656, 1.0927734, -0.6328125, 0.8256836, 1.5712891, 0.2290039, 1.5634766, 0.16955566, 1.1845703, -0.094055176, 1.6005859, -1.3515625, -0.8354492, -0.36767578, 1.6298828, 0.03149414, 1.8876953, 0.6772461, -0.12347412, -1.125, 1.671875, 0.33007812, 0.92089844, -0.76416016, -1.1191406, 0.8388672, -1.6376953, -0.7939453, 3.3984375, -1.7070312, 1.234375, -1.6123047, 0.17480469, 0.13183594, 1.0507812, -1.3671875, 0.8496094, 3.4765625, -1.4707031, 0.98779297, -0.3642578, 1.7880859, -2.5273438, 1.4648438, 0.3786621, 0.18444824, -2.140625, -1.7207031, 0.017288208, -1.0478516, -0.85546875, 0.31054688, -0.017684937, 3.3496094, 1.3046875, 0.7158203, -2.1347656, -0.60058594, 1.8867188, 0.1673584, 0.38842773, 1.2880859, -0.81933594, 0.5649414, -1.1171875, -1.6894531, -3.3359375, 1.0214844, -1.8417969, -0.90478516, 0.6669922, 0.58496094, -2.0507812, 1.8466797, 0.13378906, 0.734375, 1.5869141, -0.77246094, 1.8847656, -2.1015625, 0.19592285, -0.11883545, -1.4296875, 0.5361328, 0.51220703, 1.0126953, -0.8300781, -1.2441406, -0.4494629, 0.11645508, -0.41015625, -0.09716797, 0.734375, 0.3605957, -1.0322266, 1.1396484, -1.7265625, -1.3447266, -0.55029297, -0.042663574, -2.9902344, 1.3320312, 1.3242188, 0.08343506, 0.70751953, 0.00023770332, -1.6259766, 0.6689453, -1.9492188, 0.6064453, 0.09307861, -2.0390625, -0.056854248, -0.06121826, -2.5390625, 2.4804688, 0.5722656, 2.9570312, -1.390625, 2.484375, -1.1083984, -1.1083984, 1.6171875, 1.4052734, 1.2890625, -0.6352539, 0.13244629, 1.4765625, 0.859375, -1.0810547, -0.4777832, -1.6611328, 0.7836914, -0.19055176, -1.5693359, 0.87597656, 0.36108398, -0.9472656, -0.27270508, 0.7392578, 0.33032227, 0.002878189, -1.2421875, 0.859375, -0.9614258, 0.7109375, 2.7070312, 0.21252441, -0.89208984, 0.83203125, -0.97021484, 1.8105469, 0.76416016, -1.4355469, 1.7890625, -0.21447754, -1.7861328, 2, 1.6220703, 1.8730469, 1.0429688, -1.7119141, -0.55908203, -0.4921875, 0.5102539, -2.0332031, -0.20666504, 0.14685059, -1.2519531, 0.3347168, -0.33129883, -0.6879883, 0.76660156, 0.16027832, 0.11431885, -0.96777344, -0.58447266, -0.63378906, -2.046875, -0.9111328, 0.3173828, 0.24511719, 0.24853516, 0.05505371, -0.46557617, -0.3310547, -1.6035156, 0.71972656, 1.5878906, 0.41235352, -0.07635498, 0.74316406, 1.4345703, 2.7089844, -1.0810547, 1.9501953, -1.5058594, 1.3056641, -0.7128906, 2.4394531, -0.5830078, -1.1132812, -1.7119141, 0.29467773, 1.5244141, -1.7470703, -2.9042969, -0.51171875, 0.13891602, -1.7480469, -0.57714844, -1.7089844, -0.8066406, -1.4580078, -0.8066406, -1.3134766, 0.49414062, 0.8930664, -2.6777344, -0.35351562, 0.21240234, -0.18859863, -0.72021484, 1.5810547, -0.57666016, -1.2001953, 1.8466797, 0.29614258, 0.140625, -1.328125, 1.3935547, 0.18005371, 0.103881836, -1.7138672, 1.6835938, 1.1953125, 3.21875, -1.171875, -2.5585938, -1.1464844, -0.67822266, 0.58984375, -1.6318359, 0.4272461, 0.42895508, -0.3400879, 0.17028809, 1.1220703, 0.86035156, 3.2226562, -0.64941406, 0.64990234, -2.3457031, 0.055725098, -0.52734375, -2.3027344, 2.3925781, 0.29614258, 0.50683594, -1.0429688, 1.359375, -1.7685547, 0.41870117, 0.38598633, -0.29492188, 2.3925781, 0.54541016, -0.35546875, 1.2724609, -0.66064453, -0.3696289, 1.5273438, -0.02557373, -1.3876953, -0.6699219, 1.7236328, 0.111450195, -1.6533203, 1.7304688, 1.0976562, -0.20922852, 2.8554688, 1.6630859, -0.6274414, -0.05819702, 0.051483154, 0.19616699, 0.4946289, -0.66796875, -1.1269531, -1.0185547, -1.6787109, -1.5644531, 1.0185547, -1.3271484, -1.1064453, 0.2849121, 1.9248047, -1.6679688, -1.5390625, 1.2128906, 0.114746094, -0.6542969, 1.3701172, 2.859375, -1.4824219, -0.017211914, -0.5859375, 1.3779297, -1.2988281, -0.84472656, -0.41186523, 0.0030002594, -2.4003906, -1.1318359, -1.4248047, 0.4963379, 0.16784668, -1.1660156, 2.4433594, -1.0039062, 0.6582031, 1.3027344, 1.1259766, 0.65234375, 2.734375, 2.2070312, 1.2753906, -0.19873047, -0.8691406, -1.7285156, -0.11114502, -0.78222656, -0.09716797, 1.2929688, 0.34692383, 0.91845703, -0.3803711, 1.2255859, 2.0996094, 1.6992188, -0.63378906, -0.0033664703, 0.8041992, 1.2900391, 1.015625, -0.061462402, 0.4724121, -0.33666992, -1.3408203, -1.5830078, -0.96240234, -0.8798828, -0.5961914, 4.1523438, 0.012413025, 2.359375, 2.0058594, 1.8818359, -1.2109375, -1.5097656, -0.25830078, -1.8896484, -2.1835938, 0.2878418, 1.8076172, -0.578125, 0.7006836, -0.2199707, 0.013259888, 1.2529297, 1.5605469, 1.3525391, 2.0644531, -0.2980957, 1.6416016, -0.8364258, 0.81152344, 0.63916016, -0.8857422, -1.5546875, -1.09375, 1.1337891, -1.7304688, -1.3134766, 0.40771484, -0.94921875, -0.9975586, 0.15661621, 0.37475586, -0.35766602, 1.7929688, -1.8388672, 1.1337891, 1.6103516, 0.74316406, 0.89404297, 2.8144531, 1.4384766, 2.1210938, -1.1640625, -2.4355469, 0.5834961, -2.3027344, 1.5888672, 0.4519043, -2.1367188, 0.78125, -0.6513672, 0.2244873, -1.5449219, -1.3066406, 1.5859375, -0.4284668, 2.4433594, -0.9135742, -1.1435547, -0.20788574, 1.4521484, 0.8847656, -1.2929688, 1.0439453, -0.3857422, -2.984375, 1.3232422, -0.93603516, 1.28125, -0.019165039, -1.4716797, 4.6367188, 0.3635254, 1.9785156, 1.8720703, -0.06518555, -1.5595703, 1.7070312, -0.050048828, 1.3876953, -0.23730469, 0.31347656, -0.6816406, -0.6669922, 1.3496094, -0.036102295, 0.79296875, 0.7734375, 1.3964844, -2.3027344, 0.7167969, 0.78515625, 0.3244629, -0.17895508, 1.3144531, 0.7910156, 0.28881836, 0.43945312, 0.2998047, -1.8515625, -0.73876953, -1.3486328, -4.1796875, 0.12915039, 2.3066406, -0.45922852, 1.1640625, -0.4482422, -0.53222656, -0.6254883, -0.13085938, -0.008636475, 0.022583008, 0.5341797, -1.1611328, 0.18127441, -0.9267578, -0.27294922, 0.9277344, 1.9033203, -2.03125, 0.54589844, 0.36914062, -1.3681641, -0.101135254, -0.765625, 1.2060547, 1.4121094, 0.9316406, -0.42919922, 0.14697266, -1.4345703, 3.6640625, -0.13513184, -2.703125, 1.6064453, 1.1796875, 0.92285156, -0.85791016, -1.9501953, -1.8320312, 2.078125, 2.8710938, -1.6523438, 1.4755859, 0.89404297, -1.0087891, -2.0996094, -0.84228516, 1.3066406, 0.34423828, -0.13537598, 0.46044922, -0.90234375, -2.2050781, 0.7446289, -0.40844727, 1.7929688, 0.48486328, 0.03201294, -0.09423828, 1.3847656, -0.62402344, 0.8823242, -1.9667969, -0.5449219, 0.13891602, -0.24731445, 0.15002441, 0.90283203, -1.5390625, 1.3662109, -0.4189453, -2.609375, 0.578125, -0.25512695, 0.54052734, 3.2949219, 1.6855469, 0.6694336, 0.62353516, 2.0351562, -1.9970703, 0.36132812, 0.52978516, -0.53271484, 1.0126953, -0.61572266, -2.2128906, 0.46557617, 0.7416992, 1.7255859, -0.64746094, -0.4597168, 1.2109375, -1.6806641, -0.120910645, -1.7255859, -1.3740234, 1.8417969, 0.25219727, -0.9458008, -2.7890625, 1.4404297, 0.06951904, -1.6074219, 0.3088379, 0.46923828, 0.12915039, -0.5317383, 0.9326172, -0.1920166, -0.8417969, 0.15625, -2.2519531, -0.030532837, -2.5957031, 0.24914551, 1.0605469, 2.3671875, 0.16088867, 0.90527344, -0.95214844, 1.4521484, -1.4287109, -2.2148438, 0.71240234, 0.40356445, 0.37670898, -0.8330078, 0.5698242, -0.36889648, -1.1484375, -1.3398438, 1.1171875, -1.7255859, 3.7128906, 2.9316406, -1.1689453, -1.6855469, 0.73291016, -0.2454834, -0.9375, -2.2675781, -0.3413086, -1.6464844, -1.7333984, -0.27734375, -1.0693359, 0.46826172, 0.59814453, -0.27319336, 0.71240234, -2.3066406, 0.52734375, 0.079833984, 0.9951172, -0.4326172, 2.9941406, -1.3291016, 0.96484375, 1.5966797, 1.1162109, 1.0126953, -2.5253906, -0.21813965, -1.7529297, 0.51416016, 3.34375, 2.6210938, 1.4765625, 1.5625, -1.4658203, -1.3046875, -4.3359375, 0.13122559, -2.6230469, 0.27294922, 0.65771484, 0.48510742, -0.22802734, -0.27978516, 0.42895508, 1.5595703, 0.9350586, 0.15100098, -0.51123047, 1.7666016, 0.83984375, -0.37890625, 0.484375, -0.08306885, -1.5332031, -0.63623047, 1.0664062, 0.57177734, 0.33325195, -2.1601562, 0.6948242, -1.8818359, 1.5429688, -1.2314453, -1.5283203, 0.2932129, 2.65625, 1.8486328, -2.40625, -0.6738281, -3.3808594, -0.3791504, 0.265625, -0.33398438, 0.047607422, 0.051361084, 2.1328125, -0.68408203, 0.32885742, -1.7236328, 2.4589844, -1.2724609, 0.59521484, -0.77490234, -1.3154297, -0.15795898, 5.8632812, 1.3203125, 0.47338867, -1.4931641, 0.11798096, 0.31835938, 1.484375, -0.62158203, -0.4267578, -1.8671875, -1.1298828, -0.5576172, 0.42504883, 2.4628906, 0.13745117, -0.890625, 1.0810547, -1.2197266, -0.87597656, -0.07043457, -0.1496582, -0.29541016, 1.7861328, -1.0791016, 0.32226562, 0.63134766, 1.1455078, 0.56933594, -0.87109375, 0.47973633, -0.27563477, 0.71728516, 0.018478394, -0.48510742, -1.2402344, -0.9375, 1.8408203, 1.1015625, 0.4597168, -0.34277344, 0.94921875, -0.2861328, -1.0390625, -1.8964844, 1.7910156, 0.53759766, 0.26635742, -2.1542969, -2.4941406, -0.25097656, -0.008430481, 0.4934082, -0.80615234, -0.62841797, 2.2246094, 2.5175781, -0.7817383, -0.13635254, 1.3720703, -0.0847168, -0.35229492, 0.7988281, -1.3261719, 1.0390625, 2.5761719, 0.115234375, 0.82421875, 0.53222656, -0.9736328, 3.1230469, -0.27368164, -1.1826172, 1.9501953, -2.7167969, 1.3720703, -1.6230469, 0.19470215, 0.09686279, -1.3710938, 0.24377441, -2.5683594, 1.0126953, -1.0556641, -1.9804688, -0.4958496, 1.8359375, 1.5390625, 1.7695312, 0.7216797, 0.28076172, -0.09362793, 1.5253906, 0.45483398, -0.2775879, -0.0047035217, 1.5341797, 1.140625, -1.7001953, -1.0283203, -1.2792969, 0.5644531, -1.0761719, 1.7998047, -0.2244873, -1.8720703, 0.4802246, -0.52734375, 1.1328125, -0.7397461, -0.010192871, -2.9765625, 0.26635742, -3.3183594, 1.8935547, -0.60253906, 1.0205078, -0.6665039, 0.71728516, -1.7695312, -2.5976562, -0.29711914, -1.9345703, -0.79003906, 0.61083984, 1.6298828, -1.7792969, -0.3564453, -0.9399414, -1.3417969, -0.023666382, -0.44458008, -0.60839844, 0.3959961, 1.234375, -0.24255371, -0.32055664, -0.89990234, 0.68896484, 1.6503906, -1.2607422, -0.9194336, -1.2431641, -1.2822266, -1.3242188, -0.47705078, 0.7939453, -0.9951172, 1.0966797, -0.84765625, 0.011291504, -0.32836914, 0.41625977, -0.46142578, -1.2080078, -0.8144531, 0.9926758, 0.63427734, -0.53759766, 1.296875, -0.15649414, -0.29663086, 0.16882324, 0.20690918, 1.0400391, 2.0234375, 3.1699219, -0.97509766, -0.6567383, -1.0410156, -0.89990234, 0.28833008, 0.796875, 0.6503906, 1.1865234, -0.17736816, -3.1816406, -2.6113281, -2.1503906, -0.3774414, -0.27807617, -1.1064453, 0.76953125, 1.7832031, 1.8623047, 0.69140625, 1.5361328, 0.53515625, 1.4257812, -0.15344238, 0.03086853, -0.98828125, 0.69384766, -0.8129883, 0.22570801, 0.109191895, 0.015533447, 1.359375, -3.375, 0.77783203, 0.93896484, -0.80615234, -0.33447266, -1.0556641, -1.7998047, -1.0175781, 0.37353516, 0.6767578, -0.15698242, -1.2705078, 0.8173828, -0.65966797, 0.09161377, 1.1757812, 2.5878906, -0.82177734, -1.6044922, -2.2558594, 0.67285156, 1.4951172, 0.40795898, -1.875, -0.89990234, 1.2246094, -2.4765625, 0.3322754, -0.8676758, -1.8828125, 0.87353516, -1.5458984, 1.1689453, -0.3972168, 0.93115234, 0.41992188, 2.9628906, -0.25024414, 1.2089844, -2.859375, -1.1972656, 1.4501953, -0.5175781, 1.6591797, 1.2167969, -1.2998047, -0.5805664, -0.42919922, 0.68603516, 2.6289062, -2.5292969, 0.31445312, -0.90478516, 4.25, -0.6875, -0.63134766, -0.7036133, 2.3378906, 0.22021484, 1.5703125, -1.6591797, 2.3046875, 1.0595703, -0.8798828, -1.1171875, -0.42773438, -1.6376953, -1.4433594, 0.3720703, -1.7158203, -0.34057617, 0.21191406, 1.6826172, 0.3059082, 1.1308594, -2.421875, 2.0820312, 4.8164062, -0.10467529, -1.3808594, 1.4296875, 3.1347656, -2.2890625, -1.5595703, -0.91845703, -1.2802734, -0.94921875, -2.828125, 1.6269531, 0.2487793, 1.2080078, 0.058288574, 0.16149902, -0.83154297, 0.4855957, -0.57421875, -0.2993164, -0.1694336, -0.22692871, 0.4699707, -0.38085938, -0.6479492, 2.03125, -1.671875, 0.44726562, -1.3779297, -1.4804688, 0.26220703, 1.7158203, 0.19970703, 0.7421875, -0.5361328, -0.61279297, 3.125, 0.4597168, 0.4909668, 0.7675781, -1.1533203, 1.3896484, -1.9091797, 2.2226562, -1.0595703, -0.1381836, 2.7871094, 0.3071289, -1.3759766, 0.5214844, -1.1103516, 0.5859375, 0.26538086, 2.3691406, 0.70703125, 0.5654297, -0.6933594, -0.6699219, 0.14428711, -0.1083374, 0.66259766, -1.8173828, -0.25952148, 1.203125, 0.66308594, 0.0093307495, -0.71484375, 1.2441406, 0.2241211, -1.578125, 0.2939453, 0.2565918, -1.6630859, 0.90771484, 2.2988281, 0.44335938, 0.52783203, -1.3027344, -0.7890625, -0.45483398, 2.1816406, 0.53759766, -1.2783203, -0.83154297, 1.3720703, -1.5449219, -0.4711914, -0.234375, -0.17041016, -0.3395996, 2.8378906, -1.2539062, -2.3535156, -2.7285156, -1.2949219, -2.3789062, 0.9638672, 1.7744141, 0.9291992, -1.9355469, -0.875, -0.4404297, 0.111450195, -1.1376953, 0.10180664, 1.5439453, 0.18395996, -1.6542969, 0.9785156, -1.9033203, -0.8208008, 2.171875, 0.80322266, 0.7236328, 1.3828125, -0.64453125, -0.14331055, 1.5410156, -2.1816406, -0.5883789, 0.39013672, 1.4394531, 0.11669922, 0.59228516, 1.53125, -1.2363281, -3.6835938, -0.2919922, 1.2392578, 3.9375, -1.0195312, -0.52197266, 0.28320312, -0.9794922, -1.2792969, 0.39916992, 0.74072266, 0.110839844, -0.6645508, -0.49682617, -2.7773438, 3.0546875, 1.8359375, -0.040039062, 0.066467285, -0.9482422, -1.3212891, 0.2800293, -0.78125, 0.46142578, -1.1064453, -1.9228516, -2.1308594, -0.5029297, 1.5166016, 2.8339844, 1.0703125, 0.0970459, 1.5849609, 0.50683594, 0.35107422, -3.2128906, 2.2910156, -1.3671875, 3.3242188, 0.1550293, -1.6679688, -0.43676758, 0.5439453, 1.4345703, 1.0546875, 0.5288086, 0.43798828, 2.9355469, 1.0400391, -1.7255859, -1.3408203, 0.036468506, -0.9580078, 0.64453125, 1.0351562, 0.41503906, 2.1347656, 0.2861328, -3.7558594, -0.099243164, 1.7402344, -0.22802734, 0.31201172, 0.5751953, -1.6025391, 2.046875, -2.7382812, -0.6958008, 1.4716797, 1.3623047, -1.9716797, 0.38012695, 3.1542969, -0.87841797, -1.6376953, 0.88916016, -1.7451172, 0.80322266, 0.040893555, -2.8203125, 0.85546875, 0.98535156, -0.66845703, -1.7783203, -0.4104004, -0.5209961, 0.15673828, -1.6943359, -1.578125, 0.72998047, -0.97216797, 2.109375, -0.26342773, 0.25854492, 4.2578125, -2.3847656, -0.39624023, 2.6972656, 2.3378906, 1.6230469, 0.46264648, -0.80908203, 2.0566406, 1.0849609, -0.24157715, -0.42260742, 0.37817383, 1.7314453, -1.5966797, 0.60302734, -0.081726074, -0.21252441, 1.1572266, 0.34301758, -0.52441406, 6.65625, 0.1899414, 0.20788574, 2.3164062, 4.578125, -0.9160156, -0.38598633, -1.8203125, 0.93847656, -0.6308594, 0.6269531, 0.69140625, 0.43920898, 0.27026367, 2.25, 1.7119141, 0.8256836, -0.40063477, -1.1748047, -0.23291016, -1.8457031, 2.1660156, -0.9003906, 2.6855469, -0.040039062, -0.328125, -1.2265625, -1.8242188, 1.3173828, -1.1708984, 0.1315918, 0.69921875, 0.027450562, 1.0234375, 0.4650879, 1.1025391, 0.18554688, 0.30786133, 0.5703125, -3.4570312, 1.5019531, 0.2668457, -0.92041016, 0.6611328, -0.31982422, -0.8979492, 0.4013672, 2.1757812, 0.54833984, -3.7890625, 0.1607666, -1.1962891, 0.38549805, -0.56103516, -1.3017578, 1.0068359, -2.7128906, 1.5537109, 0.3642578, -0.3095703, 0.028121948, -0.30908203, -1.7744141, 2.453125, 1.7714844, -1.7158203, 2.4199219, 1.3886719, -0.13769531, 1.5136719, -0.54248047, 1.5507812, -0.07342529, -1.2070312, -0.36865234, 0.19213867, -1.1699219, 0.83984375, -1.3837891, 3.0214844, 0.7680664, -0.79052734, -1.6259766, -0.72509766, -1.3613281, -1.4472656, -0.4428711, -1.1748047, 1.3681641, -0.057373047, 0.24572754, -0.7421875, 0.73095703, 1.1484375, -1.3603516, 1.2158203, -0.4831543, 3.1113281, -0.043182373, 0.4375, 1.15625, 0.51171875, 0.3959961, 1.9345703, 1.1728516, -0.28320312, -1.0371094, 0.40795898, 0.5913086, 0.15161133, 5.0117188, 1.3466797, -0.3918457, -0.59472656, 1.9091797, 1.6054688, 0.5991211, -1.3652344, -1.0664062, -1.5224609, 1.9814453, 2.5371094, -0.7910156, -0.82177734, 0.4345703, -3.484375, 0.25317383, -1.0703125, -0.18481445, 1.5332031, -0.6899414, 0.49926758, -0.40527344, -0.36669922, -0.2956543, -1.9980469, -1.4150391, 0.10864258, 2.7265625, 3.6621094, -0.42138672, -0.25561523, 1.0166016, -1.1660156, 0.78271484, 0.9589844, -2.453125, 0.7182617, 1.4814453, -1.2109375, -2.6699219, -0.2878418, -3.5195312, -1.8154297, 3.8085938, -0.22265625, 2.7109375, 2.0527344, 0.4753418, 0.90625, -1.9785156, -1.2441406, -2.2832031, -0.7963867, 0.63134766, 2.7167969, 0.7495117, -0.41503906, -1.8056641, -1.8798828, 0.45507812, -2.515625, -0.11932373, -0.2166748, -0.96240234, -0.06536865, 0.14941406, -0.89990234, -1.3720703, -0.69384766, -2.7382812, 0.62890625, -1.03125, 2.5292969, 2.0683594, 0.6298828, -0.20922852, 0.39086914, 1.7958984, 1.4814453, -0.28466797, 0.5678711, -1.4501953, -3.3945312, -1.4130859, 2.5625, 1.1621094, -2.0214844, 1.7998047, -1.6767578, -0.013763428, 0.083862305, -1.9179688, -1.4541016, 0.064941406, -2.7636719, -2.8027344, -0.011886597, 0.12805176, 0.16223145, 0.5864258, 0.9135742, 2.0195312, -1.6826172, -1.0185547, -2.625, -1.1796875, -0.5214844, 0.5288086, -1.6992188, -2.0546875, 1.5849609, 0.4404297, 0.22033691, 1.2734375, 1.5869141, 1.0898438, 1.0234375, 0.7475586, -0.19128418, -0.73779297, -0.31298828, -0.030166626, -1.0878906, -1.1826172, -1.4306641, -0.08477783, 3.1152344, -1.5742188, 0.23669434, -0.83740234, -1.0371094, -0.18969727, 1.8935547, -1.9980469, -0.62646484, 1.6289062, 3.2226562, -0.92822266, 0.16882324, -2.3222656, -0.119262695, -0.22717285, 1.0605469, -0.5234375, -2.7929688, 1.8076172, 1.2861328, 0.5527344, 4.125, -1.3027344, 0.93652344, 1.8339844, 2.8652344, 2.2558594, 2.4277344, -2.703125, -0.93603516, 0.70166016, 0.36083984, -0.49267578, -0.82421875, 0.63916016, 1.6796875, -0.34643555, -0.94677734, 2.5, 1.1904297, 2.1621094, -0.56103516, 0.9951172, -2.3359375, 2.3164062, -0.5810547, 1.421875, 0.2524414, -2.5273438, 1.5078125, -0.80615234, -0.11444092, -4.734375, -1.2060547, -0.99609375, -0.24975586, 0.58935547, 0.23791504, -0.8544922, 1.3037109, 1.0830078, -0.0836792, 0.72216797, -1.5488281, 2.1347656, -2.4433594, -0.79541016, -0.5053711, -2.0839844, -0.8120117, 1.4404297, -0.4633789, 0.34448242, -0.28759766, -0.08709717, 0.62939453, 4.1289062, -0.080444336, 0.77978516, 1.3847656, 2.0078125, -2.3417969, 0.9794922, -0.34277344, -1.7958984, -1.2734375, 0.78222656, -0.671875, -0.1751709, -0.12817383, -0.50927734, -0.4638672, 1.1015625, -1.3261719, -1.3720703, -0.8334961, 1.8154297, 0.60498047, -0.6035156, -0.19128418, 1.5068359, 0.91796875, -3.9140625, 2.2832031, -0.9458008, -0.3330078, -0.21936035, 1.0078125, -0.30737305, -0.17248535, 1.0332031, 0.86035156, -2.2753906, -1.9257812, -3.0585938, 0.36254883, 0.88720703, -1.5244141, 0.015083313, 1.2373047, 0.82714844, -0.107910156, -1.2363281, -0.6308594, 0.7583008, -2.3691406, 0.6040039, 0.03503418, -0.19006348, -0.30004883, -1.7304688, -0.2980957, 1.0205078, 1.5449219, -0.74072266, 0.8847656, -2.2382812, 0.15905762, 0.5996094, 0.74853516, -0.56347656, -1.6640625, -0.3720703, -0.4638672, -0.86328125, 0.70166016, 0.25146484, -0.9399414, 0.03555298, 1.3662109, 2.8769531, 0.95410156, -1.3291016, 0.32006836, -0.18383789, -0.7949219, -2.1191406, 1.3994141, -1.5234375, 1.5605469, -0.796875, 2.8164062, -1.5537109, 0.035339355, 0.3803711, -0.03744507, -1.1044922, -1.1601562, 0.8120117, 4.3710938, -1.1660156, 2.046875, -0.12036133, -1.3417969, 0.13269043, -0.097839355, 0.48242188, -1.0117188, -0.018676758, -0.11010742, 0.23852539, -2.9941406, -1.6152344, -0.76953125, 1.4482422, -1.0068359, 1.0888672, -0.068481445, -1.7832031, -0.111450195, -0.9375, -3.0605469, -1.1640625, 0.17272949, 1.9785156, 0.9160156, 0.17077637, -0.53125, -1.6376953, -3.5429688, 0.93115234, -0.040618896, -0.63916016, -0.6484375, -0.16381836, 2.9277344, -1.0195312, 1.2568359, -0.074645996, -3.3886719, 0.49951172, -0.98828125, 0.19763184, 0.10668945, -4.46875, -1.1943359, 1.6298828, 5.1289062, 2.4003906, 1.3623047, -0.8383789, 0.7910156, -2.1796875, 0.859375, -2.3320312, 0.29882812, -0.51416016, 0.77783203, -0.49023438, 2.2246094, -2.0742188, 0.2841797, -2.015625, -1.6074219, -0.7973633, -0.6435547, -0.18359375, 0.9267578, -1.1679688, -0.9941406, 1.4736328, -0.31933594, -1.0683594, 0.043548584, 0.72753906, -1.5107422, -0.4267578, -1.0048828, 1.2255859, 0.07086182, 0.69921875, 0.2697754, 0.53027344, -0.78271484, 0.0357666, -1.8320312, -0.27124023, -0.9580078, -1.1845703, 0.58740234, 5.6054688, 1.71875, -1.1738281, -1.5253906, -0.89453125, -0.26245117, 0.4309082, 0.96777344, 0.8833008, -0.98828125, -0.88964844, -2.3378906, -0.15820312, 1.5917969, 2.4082031, -0.13208008, 1.5585938, 1.28125, -0.4116211, -0.54296875, 0.38549805, -0.1340332, -1.9208984, 3.0234375, 0.45898438, 0.93896484, 0.23913574, -0.45922852, 1.0214844, 0.18054199, -4.3242188, -0.6665039, 0.80322266, -0.15930176, -0.5083008, 0.097839355, 0.9194336, 0.51953125, 1.5332031, -1.4296875, 1.1230469, -0.95214844, 0.3791504, -0.79052734, -0.93408203, -0.4831543, -0.10858154, -0.46411133, 0.4206543, 0.3642578, 0.2388916, 0.4958496, -2.1523438, -1.7236328, -1.2929688, -1.6259766, 0.9169922, 1.2060547, -0.79296875, -5.28125, -1.3974609, 1.6845703, 1.7041016, -1.3623047, 1.1171875, 2.3515625, 1.4492188, 1.5908203, 1.1171875, -1.8505859, -0.051513672, 1.3876953, -0.28588867, -0.41796875, -0.31445312, 1.1787109, -0.3713379, 1.75, 0.016860962, 1.2060547, 1.265625, -0.8676758, -0.04574585, 0.5410156, 0.97265625, -1.0761719, 0.27539062, -1.5449219, 0.013450623, -1.4355469, 0.19824219, 0.4831543, 0.8510742, 0.4482422, 0.65527344, 1.6269531, -0.73779297, -2.6894531, 2.4863281, 2.984375, 1.0996094, 0.017074585, 0.07763672, -0.26464844, -1.9619141, 0.10821533, 0.4140625, 0.27539062, 0.4909668, 0.6826172, -2.1308594, 0.017211914, -0.734375, 0.65527344, 0.92041016, -0.43676758, -0.62158203, -0.51123047, -2.1171875, 0.44702148, 0.5917969, 1.2470703, 2.3027344, 0.81152344, 0.24645996, -2.0117188, 0.1027832, -1.4248047, 0.20666504, -0.34204102, 1.1210938, 0.13269043, 1.3027344, -1.3222656, 0.2697754, -0.31396484, -0.91845703, -2.4277344, -2.3613281, -1.9228516, 0.21777344, -0.53759766, 1.3212891, 1.7832031, 0.47973633, -0.71484375, -0.99658203, 0.8417969, -0.29541016, -0.017959595, -1.9560547, 0.118652344, 0.50878906, -0.07287598, -0.09777832, -2.1113281, 0.12158203, 0.6308594, 0.30419922, -1.5693359, 1.7109375, -1.1484375, -4.5742188, -2.5058594, 1.9189453, 1.9707031, 0.54785156, 1.8779297, -0.97802734, -0.25195312, -0.048919678, 1.7714844, -0.62353516, 0.05606079, 0.28515625, 1.234375, -0.96875, 0.7216797, 0.041900635, -3.4179688, 2.5371094, 1.1376953, 0.63916016, 2.3242188, -0.6972656, -0.3725586, -0.3852539, -2.0410156, 0.33081055, -2.4980469, -1.1748047, -0.8227539, 0.42919922, -1.5849609, -0.3635254, 0.6982422, 1.0839844, 2.6738281, 1.9804688, -1.5078125, 0.64501953, 1.0859375, -0.8823242, 1.3691406, 0.26757812, 2.2753906, 1.1611328, 0.5498047, -0.012130737, -0.71533203, 0.66259766, 1.4189453, -1.1513672, -0.21972656, -1.7480469, -0.63378906, -0.8989258, 0.06323242, -1.5332031, -2.0976562, -0.57373047, -0.8066406, -0.49047852, 0.38598633, -2.3691406, 0.55859375, -0.5996094, 0.77197266, -6.3867188, -1.1376953, 0.3076172, 1.8417969, -0.10064697, -2.828125, -2.625, 2.1035156, -0.4711914, -0.008033752, -0.80908203, -0.80029297, 2.390625, 0.2388916, 0.63671875, 1.2431641, -2.1308594, -0.9760742, -1.7861328, -0.5136719, -0.44848633, -0.56884766, 0.19567871, -1.8935547, -0.12261963, -1.7832031, -0.101867676, -0.101989746, -0.49926758, 0.11029053, -0.57958984, -0.26489258, 0.7426758, 0.2442627, -1.2783203, -0.35498047, -1.0947266, 0.058807373, 0.4501953, -1.7998047, -0.15332031, 0.009689331, 2.1503906, -0.020446777, 0.6035156, -1.2353516, 0.2277832, -0.7841797, 2.0625, 0.86328125, 0.03439331, 2.0371094, 0.9589844, -0.11505127, 0.24694824, -0.3840332, 1.0849609, 0.6850586, -0.93847656, 0.3017578, -0.109069824, 0.20568848, -0.7597656, -0.57373047, 1.2558594, 1.1376953, -0.30932617, -1.2939453, 0.16247559, -1.2861328, 0.11151123, 3.7070312, -2.2363281, -3.8027344, 0.5961914, 1.0009766, 0.48901367, -2.0917969, 1.0761719, -1.2587891, 0.9458008, -2.328125, -0.43017578, -0.31958008, 0.8105469, 1.3261719, -0.97509766, -1.2285156, 1.6953125, -2.0390625, -1.8916016, -0.34301758, -0.019302368, 0.79589844, 1.1767578, 0.95410156, -1.4287109, 0.86328125, 0.53466797, -2.21875, 0.6303711, 0.0368042, 0.29589844, -2.4238281, 1.9160156, 2.4628906, -1.1660156, 0.19104004, -0.2401123, -0.98339844, 0.65478516, 1.1503906, 1.7734375, -0.8676758, 0.59228516, -1.0410156, 1.2558594, -1.1679688, -0.20495605, 1.6806641, -3.3046875, 1.0136719, -1.3740234, 0.4169922, -0.64990234, 0.29125977, -0.5732422, -1.9853516, 0.29467773, -1.4833984, 0.49926758, 1.9873047, -0.19616699, 1.5507812, -0.111816406, 1.3554688, 0.5805664, -0.25585938, 0.33691406, -0.37695312, 1.2910156, 0.96972656, 1.6044922, -1.8671875, 0.6196289, -2.7636719, 0.3894043, 1.0585938, -0.41918945, -1.7685547, -0.95947266, -0.023406982, -1.1171875, -0.16833496, 0.3774414, -1.1835938, -0.20080566, -0.02909851, -0.5942383, -0.93847656, -0.02494812, 0.9458008, -0.17456055, 1.484375, -0.25317383, 0.87597656, 1.1103516, 1.2988281, 1.1503906, 2.1992188, -2.2558594, -0.6459961, -1.4228516, -0.5541992, 0.45263672, 0.14025879, -0.061828613, -1.1298828, -1.0722656, 0.17419434, -0.4345703, -0.5283203, -1.1074219, 0.3605957, 0.18566895, 2.28125, -1.2441406, -0.6308594, 1.6992188, -0.6928711, -1.7568359, -1.6708984, -1.0527344, -0.9746094, 0.04107666, 0.20410156, -1, 0.50927734, -0.23669434, -1.2636719, -1.0869141, -1.2763672, 0.005256653, -2.5195312, -0.4494629, 0.6010742, 1.2392578, 0.77490234, -0.68115234, 0.80566406, 0.34985352, -0.16674805, 0.2980957, 1.0126953, -1.1064453, -1.4443359, -0.078430176, -0.3046875, 1.3408203, -0.9448242, 1.0605469, -2.1855469, 0.17956543, -1.4833984, -1.4013672, -1.4863281, -0.53466797, -1.1425781, 0.29907227, -1.3789062, -0.04348755, 0.27539062, -1.5761719, 1.4521484, 0.5078125, 0.8691406, -0.06707764, 1.7666016, 1.8271484, 2.6914062, 0.18457031, 0.31054688, 3.5292969, 0.24316406, 0.67041016, -0.7373047, 0.65478516, -0.33447266, 0.875, 0.3918457, -2.2148438, -0.12158203, -2.546875, 1.4970703, 0.1953125, 2.2773438, 0.44995117, -1.0322266, -0.94921875, -0.17675781, 0.53759766, -0.1463623, 0.24914551, -1.1523438, -0.74853516, 0.3203125, 2.8691406, -0.63720703, 0.0770874, -4.3007812, -0.4897461, 1.5898438, -0.24121094, -0.08068848, 0.4177246, 1.390625, 0.93408203, 0.6381836, -1.3896484, -0.39697266, 0.29223633, 0.16137695, 0.41992188, -0.6821289, 1.0703125, -0.77197266, -0.8701172, -2.859375, -1.5117188, -0.95947266, 0.75878906, -4.6875, 2.6152344, 0.3010254, -0.25195312, -1.0302734, 0.74316406, 1.2167969, -0.29614258, 1.3847656, -0.25268555, -0.0037002563, 2.4003906, 0.4091797, 0.5629883, 0.13903809, 2.3105469, -1.3154297, -1.4716797, 1.0957031, -0.5473633, -0.047454834, -1.1513672, 4.8398438, 1.0341797, 1.2978516, -2.21875, -1.0244141, -2.6386719, -2.1445312, 0.74560547, 1.1640625, 0.31396484, -3.734375, -1.0087891, 1.1953125, 0.77978516, 1.7236328, 0.9375, -1.4169922, 0.51416016, 1.8935547, 1.0810547, 0.2512207, 1.0234375, 2.1816406, 1.4716797, 1.5058594, -1.3486328, 0.61816406, -0.91259766, 2.7558594, 0.90478516, 2.6542969, -1.6484375, -0.7241211, 0.10626221, 0.6098633, 1.4873047, 1.4931641, 0.5727539, 0.091796875, 3.765625, -0.4567871, 0.11029053, -1.90625, -0.65478516, -2.8945312, -2.0019531, 1.1484375, 1.4462891, -0.25219727, 1.3076172, -0.54296875, -0.70410156, -1.5722656, 1.0371094, -0.39624023, -0.9916992, 1.1298828, -0.0096206665, -0.8310547, -0.28808594, -1.2539062, 0.06524658, -0.43041992, -1.3222656, -2.1503906, 1.5234375, 0.12768555, 0.35424805, -1.6748047, 0.98046875, -1.0957031, 0.30932617, 0.4440918, -2.0136719, 1.9423828, -1.03125, -0.6044922, -2.3320312, 0.005382538, 2.0566406, -0.88964844, -2.5527344, -1.1025391, 0.7578125, 0.22839355, 0.41748047, 1.4814453, -1.1904297, -0.47729492, -1.3671875, 0.10223389, -1.9189453, 0.08477783, -2.65625, 0.08227539, -0.3383789, -0.13781738, -0.59765625, -1.1435547, 2.140625, -0.671875, 0.96484375, 0.61376953, -0.41577148, -0.5859375, 0.45385742, -0.1427002, 0.19812012, 0.9423828, -1.4453125, -1.6220703, -1.0791016, 0.26464844, 1.1728516, -1.3066406, 0.13220215, 1.5458984, 0.17236328, -0.98535156, -0.31933594, -1.0546875, 0.17456055, -1.8896484, -1, 1.0087891, -1.7285156, -0.5048828, -0.6147461, -1.0634766, -2.0683594, -1.0898438</t>
-  </si>
-  <si>
-    <t>[0.80810547, -0.55078125, 0.9760742, -0.8027344, -1.2519531, -1.1357422, -0.7128906, -0.9199219, 1.9580078, 0.21557617, -1.078125, 0.10180664, -0.38110352, -0.20251465, 0.6621094, -0.25146484, 1.5878906, -0.7602539, 0.5151367, -1.5576172, 0.54248047, -0.10040283, 0.95751953, 0.109558105, -0.5048828, 1.8408203, 0.40307617, 0.875, 1.2626953, 1.0732422, 1.3701172, 0.54248047, 2.1699219, -0.19433594, 0.16674805, -2.0117188, 0.89208984, 1.3427734, -0.46264648, -1.2294922, -0.2890625, -1.0234375, -1.2568359, -0.057281494, -1.9912109, -0.24536133, 0.70166016, -1.8769531, 0.38964844, 1.1621094, -0.98535156, 0.6958008, 0.44604492, 0.6567383, -1.2705078, -0.59765625, -0.40625, 0.57177734, 1.015625, 1.8837891, 0.032226562, 2.9726562, -0.3227539, 0.7495117, 1.2626953, -0.9716797, -1.171875, 0.33422852, 1.6806641, -0.62353516, -1.2998047, 0.5366211, -2.3984375, -0.34179688, 2.4023438, 0.81640625, 0.6645508, 0.40161133, 0.44335938, 0.8671875, 4.90625, 0.06124878, 0.94921875, 0.22680664, 1.6923828, 1.4833984, -1.5117188, -2.6230469, -0.73535156, -0.23339844, 0.7998047, -0.3310547, 1.5097656, 0.080566406, 2.1601562, 1.2851562, -0.38183594, -1.0683594, 2.625, -1.1787109, -2.2675781, 0.67285156, 1.3564453, 1.4570312, -0.88671875, 1.4472656, -0.2697754, -1.2539062, -0.5473633, -0.09661865, -0.7241211, -0.14501953, 0.00919342, -0.24377441, 0.27978516, -0.65771484, -0.048614502, -0.10021973, -0.010971069, 0.3317871, 0.15759277, -0.011909485, 0.18579102, 0.40795898, 1.1972656, -1.0058594, 0.53125, -1.6582031, 0.2076416, 1.5947266, -1.8349609, -1.234375, 2.109375, 0.19580078, 2.5253906, 0.94677734, -0.58251953, -1.6328125, -1.6289062, 0.5395508, 1.3466797, -0.038116455, 0.13293457, 1.1298828, -0.10986328, -0.7421875, -0.72216797, -0.6591797, 0.83740234, -1.1230469, -0.68847656, 0.021713257, 0.81689453, 0.5859375, -1.2236328, 0.6748047, -0.46679688, -1.5771484, 0.89501953, 0.5410156, -0.18884277, -0.70166016, -0.37548828, -1.9140625, 1.7578125, 1.4765625, 1.7001953, 1.1855469, 0.09814453, 0.0024700165, 0.45214844, -2.1210938, -1.0996094, 0.2824707, -0.009796143, 1.3359375, 1.4560547, -0.0725708, 0.19091797, -1.609375, 0.95703125, -2.2851562, 0.81103516, -1.2509766, -1.3271484, 0.15698242, 0.86816406, -0.54833984, 0.81933594, -0.96972656, 1.1660156, -1.8876953, 0.52978516, 0.9111328, -0.71435547, -2.1738281, 1.1308594, -0.13964844, 3.0351562, -1.2197266, 0.0046310425, -0.42504883, 0.73339844, -1.8574219, -0.5161133, 1.4921875, -0.5136719, 0.5444336, -0.16137695, -0.022567749, 0.23718262, 0.97314453, 1.6162109, 0.78466797, -1.0117188, -0.039978027, 0.76171875, -1.7470703, -0.7114258, 1.8095703, 0.28930664, 0.2734375, -0.73291016, 0.15759277, -0.94384766, 2.4082031, -3.640625, 0.41992188, 0.57177734, -0.00071811676, 0.80078125, 1.0429688, 0.8388672, 0.035308838, 2.3457031, -0.87402344, -0.3725586, 3.3125, 0.32226562, 0.44018555, 1.1806641, -0.41088867, -0.43041992, 1.6708984, -0.11413574, 1.4384766, 0.7519531, 0.3527832, 1.3847656, 0.36132812, 0.7602539, 0.5673828, -1.5009766, 0.57177734, 0.38330078, 0.3166504, -1.6464844, 0.22241211, 0.29174805, 0.51123047, 1.3417969, -0.71484375, -0.49169922, -0.16247559, 0.25317383, -1.2431641, -1.2060547, -0.8588867, -0.56689453, -0.5058594, 0.8066406, -2.4550781, 1.7646484, -1.1992188, -1.9189453, -0.2524414, 1.6298828, 0.68603516, 0.26416016, -1.5703125, -0.12841797, 0.34570312, 1.5976562, -0.6489258, 0.08532715, -2.5527344, -2.3808594, -0.3798828, -3.59375, -2.9863281, 0.34887695, -1.0224609, 2.4121094, -2.0390625, 0.034973145, -0.9707031, -1.1171875, -0.87402344, -0.85791016, 0.8173828, 0.5258789, 1.1064453, -1.9140625, 0.4140625, -0.38378906, -0.2722168, 1.5546875, 0.29882812, 0.66259766, 0.42138672, 0.34814453, 0.22143555, 0.28759766, -0.75927734, 1.2148438, -0.4296875, -1.0068359, -0.5834961, 0.90283203, -2.5898438, 0.45629883, -0.83154297, 2.3417969, 0.38964844, 2.2910156, -2.5527344, 1.9375, -0.022659302, 2.2792969, -0.52001953, 1.5371094, 0.6328125, -0.546875, 2.484375, 1.2128906, -0.17028809, -0.70703125, -0.3256836, -0.515625, 0.35424805, -1.0761719, 1.4589844, -0.5102539, 0.78125, 0.39379883, -0.5888672, -0.81640625, -2.1523438, -0.43188477, 0.68847656, -1.0332031, -1.5107422, 0.6928711, 1.2988281, 0.62890625, 0.74560547, 2.1777344, -0.73828125, -0.92626953, 1.4794922, -0.2548828, 0.41748047, 0.7285156, -0.8305664, -0.30395508, 1.1230469, -0.63623047, -1.5390625, -0.5175781, -0.59765625, 0.068847656, -0.38745117, -0.12683105, -2.3085938, 0.33544922, -1.6103516, -3.6113281, 1.9082031, 2.2207031, 0.47705078, 1.1416016, 0.21142578, -3.3359375, -2.109375, -1.3886719, -1.3515625, -0.6098633, 0.3100586, 0.45117188, 0.5722656, -0.059814453, -0.37670898, -1.9746094, -1.3994141, 1.0166016, -0.44262695, 0.46972656, 1.8076172, -0.63378906, 0.17871094, -1.6748047, 2.8710938, 0.7114258, -1.9296875, -0.015426636, 1.7802734, 0.6669922, -0.8613281, 1.5244141, 0.021118164, -0.9116211, 0.30029297, 1.0878906, 0.38305664, 1.8339844, -0.46484375, 3.0351562, 0.22302246, 0.9501953, -1.3417969, -0.14733887, -1.0498047, 2.203125, 0.35742188, 1.5869141, 0.7001953, -0.58740234, -0.3569336, 4.15625, -0.0690918, 0.83935547, 0.92578125, -0.71240234, 1.359375, -1.3359375, -1.4414062, 3.6660156, -2.3085938, 0.7993164, -0.32177734, 1.1484375, 0.6772461, 0.22680664, -1.0791016, 2.4882812, 5.0078125, -1.1308594, 0.43725586, -0.47875977, 1.9355469, -1.8359375, 2.0097656, 0.89697266, 0.57666016, -2.421875, -2.0996094, -1.2832031, -1.8046875, -0.31079102, -0.08770752, 0.7680664, 2.5566406, 0.41796875, 0.58203125, -2.5390625, -0.6459961, 2.9765625, 1.2402344, -0.68066406, 1.1328125, 0.16845703, 2.3867188, -1.4609375, -0.07385254, -3.3339844, 0.73876953, -0.88378906, -1.3115234, 0.32006836, 1.2060547, -1.7646484, 2.0644531, -0.2944336, 0.06561279, 0.47558594, 0.18310547, 1.8574219, -2.6445312, -0.76904297, -0.51904297, -1.8984375, -0.90283203, 0.8208008, 1.2929688, -0.94384766, -1.8916016, -0.9345703, 0.13171387, 0.06689453, 0.16491699, 0.57421875, -1.0087891, 0.36279297, -0.07086182, -0.69091797, -2.546875, -1.3134766, -0.87939453, -3.7167969, 0.49853516, 0.6557617, 0.91064453, 1.0732422, 0.26953125, -0.41601562, 0.6098633, -0.67578125, 1.0654297, 1.5234375, -1.8808594, -0.3708496, -0.9824219, -1.3027344, 0.93115234, 0.93408203, 1.9921875, -1.1982422, 1.7265625, -0.78808594, -1.0439453, -0.9038086, 2.3515625, 0.42236328, -0.65283203, 0.7963867, 0.69921875, 0.25390625, -1.4765625, -1.3261719, -0.44555664, 1.3144531, -0.36132812, -2.1640625, 0.72021484, 0.29248047, -0.17919922, -0.21020508, -1.1113281, -0.1116333, 1.3212891, -0.6904297, 0.421875, 0.05331421, 0.63916016, 1.5166016, 1.6347656, -1.2324219, 0.55078125, 0.6279297, 0.14465332, 0.84716797, -2.3261719, 1.1972656, 0.42700195, 0.2668457, 2.6738281, 1.4580078, 2.2011719, 0.84765625, -2.765625, -0.14111328, -1.3632812, -0.6015625, -1.4335938, 0.5986328, -0.3852539, -0.9223633, 0.30273438, -0.021453857, 0.51464844, 0.8051758, -0.6586914, 1.5517578, -0.9633789, -0.42773438, 0.4699707, -0.78515625, -0.18859863, -0.060272217, 0.30981445, 1.5039062, 0.30078125, -1.0546875, -0.20214844, -2.1289062, 0.57666016, -0.8222656, 0.16271973, 0.26391602, 0.7109375, 0.9243164, 1.7011719, -1.2119141, 3.0253906, -0.54589844, 1.3603516, -2.3105469, 1.9150391, -0.65527344, -0.97314453, -2.2910156, -0.29052734, 1.8632812, -1.2412109, -1.7333984, -0.39916992, -0.9511719, -3.453125, 0.24499512, -0.8198242, -1.2783203, -2.1054688, -1.6357422, -1.3310547, 0.2915039, 0.4572754, -1.6503906, 0.46606445, 1.6015625, 0.062805176, -0.27661133, 2.4355469, 0.8564453, -2.4882812, 2.4238281, 1.2011719, -0.24584961, -2.4921875, -0.3725586, 0.24291992, 0.020568848, -0.90478516, 0.28710938, 2.3867188, 2.3105469, -0.27539062, -1.6953125, -1.4716797, -0.3022461, 0.25097656, -0.7714844, -0.11669922, 0.3659668, 1.3398438, 1.0273438, 0.32250977, 1.3291016, 2.1933594, -1.1308594, 1.2646484, -2.2539062, 0.54785156, -0.38989258, -2.5078125, 1.1816406, -0.04119873, 1.2207031, -0.68603516, 2.0488281, -0.9042969, -0.20947266, -0.84521484, 0.13574219, 1.7109375, 0.2783203, -0.82177734, 1.3466797, -0.29370117, 0.36669922, 2.2578125, -0.46655273, -0.34570312, 0.56396484, 2.8203125, -1.4384766, -1.4072266, 2.1796875, -0.15783691, 0.11340332, 2.2558594, 1.7207031, 0.19677734, 1.2265625, 0.0064048767, 0.6821289, -0.24169922, 0.6201172, -1.0673828, -1.8984375, -1.6289062, -0.6142578, 1.0292969, -1.2626953, -1.7978516, 0.045532227, 1.9482422, -0.5546875, -0.65527344, 2.953125, -0.5649414, 0.11694336, 0.94677734, 0.48754883, -1.3789062, -2.59375, -1.1318359, 0.8378906, -1.4267578, -0.90234375, 0.32861328, 0.07159424, -1.9208984, -1.3242188, -0.65234375, 1.8378906, -0.51220703, -1.0966797, 0.9863281, -1.7841797, -0.21191406, 0.67529297, 1.7958984, 1.4335938, 1.2080078, 0.9707031, -0.59814453, -0.21325684, 0.20263672, -1.6308594, 1.3417969, 0.19152832, 1.3046875, 0.67578125, -0.94384766, 1.0195312, -0.2401123, 0.31201172, 2.15625, 1.5683594, -0.30737305, 0.30249023, -0.030273438, 1.4160156, 0.23242188, -0.38891602, -0.15368652, 0.0044174194, -2.0136719, -1.4609375, -1.2470703, -1.2431641, -1.4111328, 1.6992188, 1.1083984, 1.0517578, 2.7363281, 1.0751953, -0.27612305, -1.2480469, 0.062316895, -1.8935547, -3.7675781, 2.0703125, 1.5449219, -1.0224609, 1.515625, 1.3193359, -0.47607422, 1.8681641, 2.2871094, 0.43701172, 2.0175781, -1.3671875, 2.1445312, 1.5859375, -0.23425293, -0.29711914, -1.3320312, -1.4199219, -3.078125, 0.3503418, -1.5595703, -1.265625, 1.6113281, 0.16040039, -0.2705078, -0.5751953, 0.40771484, 0.3413086, 1.6757812, -0.26831055, 0.47851562, 0.34350586, 1.8691406, -1.4707031, 1.5097656, 1.6435547, 2.8242188, 0.59765625, -2.2558594, 0.5151367, -2.3574219, 0.7739258, 1.1044922, -1.6328125, 0.78125, -1.3076172, 0.6772461, -1.0039062, -0.86035156, 0.5078125, 0.87109375, 0.68408203, -0.81884766, -1.5068359, -0.6748047, 1.3105469, 1.0673828, -1.0839844, 1.4003906, -0.38256836, -1.4824219, 1.7099609, 0.74072266, 0.56640625, 0.60595703, -2.2695312, 2.5507812, -0.3317871, 2.2421875, 0.9194336, -0.7885742, -0.21240234, 0.10595703, -0.6201172, 0.51953125, -0.014564514, 0.9086914, 0.122802734, -0.4958496, 2.296875, 0.005191803, 1.1464844, -1.2558594, 0.3942871, -1.9765625, 0.68359375, 0.48339844, 0.77197266, -0.056030273, 0.56884766, 0.8359375, -0.046569824, 1.6630859, 1.0996094, -2.1875, -1.0654297, -0.52685547, -3.7519531, 0.4169922, 3.0800781, -0.54052734, 0.8310547, 0.28027344, -0.90527344, -0.52978516, 1.6083984, 0.40039062, -0.1940918, -1.6611328, -1.2324219, -0.0051574707, -1.7509766, 0.3930664, 0.6586914, 0.7915039, -2.0566406, -1.5664062, -0.94384766, -1.3076172, -0.97509766, -0.3696289, 0.08251953, 2.1757812, 2.0351562, -1.4677734, 0.9633789, -1.0517578, 1.8896484, -0.7504883, -2, 0.71240234, 1.4765625, 0.86035156, -0.2442627, -1.7128906, -3.2460938, 0.35473633, 0.8847656, -2.4492188, 0.85302734, 0.37231445, -0.4440918, -0.9873047, -1.1650391, 1.2265625, -0.14160156, -0.24633789, -0.6542969, -0.24353027, -1.5595703, 1.1982422, -0.88623047, 0.6557617, 0.36523438, -0.39135742, 0.3334961, 1.0322266, -1.3857422, 0.36279297, -1.5966797, -1.0390625, 1.0654297, -0.5209961, 0.27685547, 0.79833984, -0.48120117, 0.8515625, 1.1523438, -2.1953125, 0.12030029, 0.36669922, 0.7524414, 0.47436523, 2.0195312, 0.033966064, -0.70947266, 0.60009766, -1.6054688, 0.048919678, -0.3852539, -2.0332031, -0.16931152, -0.7651367, -1.5458984, 1.2851562, 0.8227539, 1.7958984, -1.1103516, -1.8046875, 1.1914062, -0.79589844, 0.08618164, -1.8837891, -2.4863281, 0.81640625, 0.46679688, -0.11114502, -2.5273438, 0.74609375, 1.4707031, -1.5488281, 0.09326172, -0.25097656, -1.6777344, -0.9355469, 0.984375, 0.37353516, -1.0693359, 0.36157227, -1.2197266, 0.030670166, -1.8476562, 0.46801758, 1.7099609, 1.6289062, -0.11376953, 0.3864746, -0.98535156, 0.67529297, -0.54248047, -1.90625, 0.18518066, -0.075805664, 0.71875, -0.2199707, 0.87841797, -0.43408203, -1.6679688, -2.4980469, 2.0703125, -2.6367188, 1.5078125, 2.1816406, -0.57910156, -2.8632812, 1.5537109, -1.3935547, -0.42163086, -1.96875, 0.50390625, -1.1757812, -1.9521484, 1.0449219, -0.48535156, 0.19665527, 0.1274414, -0.80078125, 0.75146484, -2.2949219, 1.1113281, -2.65625, 1.8896484, -0.30786133, 2.7695312, -0.74902344, 0.34228516, 1.1904297, 1.5537109, 0.22033691, -2.9414062, -0.17492676, -2.9648438, -0.73828125, 3.6289062, 3.9160156, 1.8789062, 2.1777344, 0.5776367, -0.7055664, -3.0625, 0.53027344, -1.2734375, 0.24511719, -1.2558594, 1.2617188, 0.94921875, -0.46679688, 0.8881836, 0.8911133, 0.5390625, 0.3544922, -1.4082031, 1.0341797, 0.64453125, -1.1904297, -0.109558105, -1.0566406, -1.4863281, 0.20214844, 0.18579102, 0.2524414, 0.21276855, -3.2558594, -0.43554688, -2.3027344, 0.84716797, -0.89160156, -1.171875, -0.99365234, 1.8466797, 0.79248047, -3.3105469, 0.22216797, -2.6660156, -0.44995117, 0.6591797, -0.5859375, 1.0234375, 0.5800781, 2.1992188, 0.13415527, 0.07318115, -0.7167969, 2.0703125, -2.5078125, 1.0751953, 0.29492188, 0.32910156, 1.1845703, 2.4277344, 1.6328125, 0.65234375, -0.9707031, -0.80126953, 0.12164307, 2.3535156, -1.2353516, -0.30688477, -2.3476562, -0.89941406, -1.7568359, 0.63671875, 1.1728516, 0.16503906, -1.5966797, 1.8046875, -0.5175781, -0.19592285, 0.19958496, 1.1513672, -0.17370605, 3.6289062, -2.2167969, -0.068115234, 1.3417969, 1.0957031, -1.7001953, 1.0175781, 0.9560547, 0.8847656, 0.95214844, 0.7470703, 0.6508789, -1.6367188, 0.064819336, 0.7998047, 1.4121094, 0.6171875, 0.40307617, 0.74316406, 0.7133789, -2.0234375, -1.5898438, 0.9248047, 2.1035156, 1.2734375, -2.1699219, -1.9648438, -1.0371094, 0.98876953, 0.056396484, -0.3178711, -0.37841797, 0.21728516, 1.0654297, 0.3322754, -0.29638672, 0.10290527, 1.125, -0.8881836, -0.6464844, -2.4101562, 1.3271484, 3.4785156, -0.46362305, 0.8676758, 0.28076172, -1.0361328, 2.9921875, -0.09869385, -1.1826172, 2.0234375, -1.9101562, 3.2832031, -1.5722656, -1.3818359, 0.8510742, -1.1318359, 0.52246094, -1.5771484, 0.9584961, -2.3691406, -1.7138672, 0.07562256, -0.4958496, 0.0635376, 0.8798828, -0.43920898, -0.73535156, 0.46289062, 1.4052734, 0.02558899, -0.26000977, -0.12683105, 1.4658203, -0.48535156, -1.8378906, 0.5024414, -0.57714844, 0.2788086, -0.67285156, 1.3017578, -1.2558594, -1.3388672, 0.4284668, 1.1660156, -0.064941406, 0.04284668, 0.87158203, -2.5429688, 1.6484375, -2.421875, 1.8398438, -1.3789062, 1.0722656, 0.1706543, -0.09625244, -1.3046875, -1.1015625, 0.4255371, -2.1445312, -1.046875, -0.29101562, 1.1816406, -2.2050781, -1.6884766, -0.6665039, -0.65527344, -0.27661133, -0.55371094, -0.35107422, 0.2548828, 1.1962891, -2.0722656, -0.101745605, -1.3378906, 0.8334961, 0.87109375, 0.39282227, -1.0234375, -0.9345703, -1.4453125, -0.80859375, -0.38623047, 0.8774414, -0.34570312, 1.1054688, -0.984375, 0.16906738, -0.38989258, 0.51220703, -0.5854492, 0.3388672, -0.9272461, 3.0996094, 1.7851562, 0.16308594, 0.8515625, 0.12963867, 0.46264648, 1.0546875, 0.4765625, 0.088378906, 1.7421875, 1.4765625, -1.1425781, 0.066467285, -1.3779297, -1.7041016, -1.4462891, 1.3398438, -0.0647583, 1.2587891, -0.9140625, -2.4199219, -0.92626953, -3.1015625, -0.35131836, -0.4963379, -1.4267578, 0.78027344, 0.6699219, 0.48120117, 1.0107422, 1.5234375, 0.5419922, 0.89746094, -0.18591309, -0.43579102, 0.123046875, 0.92089844, -0.67871094, -0.6357422, -1.7167969, 0.23730469, 2.3164062, -3.109375, 0.59765625, -0.34375, 0.66308594, -0.8691406, 0.38110352, -2.0175781, -0.7636719, -0.45410156, 0.4729004, 0.77783203, -0.8173828, -0.6020508, -0.5805664, -0.16796875, 0.43115234, 2.234375, -0.044830322, -2.0351562, -1.1367188, -0.16503906, 0.20227051, -0.7832031, -0.7421875, -0.25390625, 1.3300781, -2.7675781, -0.03805542, -0.98046875, -0.75634766, 1.6474609, -1.1933594, 1.2558594, 0.453125, 0.55029297, 0.20007324, 1.8173828, 0.88427734, -0.119018555, -1.1328125, -0.29492188, 1.1777344, -0.65527344, 0.66748047, 2.109375, -1.3515625, -1.6171875, -0.28710938, -0.47436523, 1.7587891, -1.7226562, 0.02609253, -1.3916016, 4.6835938, 0.38232422, -1.3447266, -0.953125, 1.3066406, 1.6123047, 2.0488281, -0.3059082, 2.5722656, 0.96484375, 0.19665527, -0.43164062, -1.2089844, 0.026733398, -1.2421875, -0.80810547, -0.7421875, 1.1679688, 0.27783203, 0.93896484, 0.16516113, -0.41552734, -1.9462891, 1.5283203, 3.7792969, -0.25268555, -1.6103516, 1.5449219, 2.0273438, -1.9960938, -1.4443359, -1.0058594, -0.89990234, -0.96875, -1.1123047, 0.01600647, 0.3942871, 0.95703125, 1.1533203, 0.41674805, -0.9291992, 0.49267578, -1.2490234, -0.88134766, -0.50390625, -1.25, 0.05670166, 1.3789062, 0.06262207, 1.0351562, -2.4414062, 1.0761719, -1.8085938, 0.07110596, -0.95214844, 0.5917969, 0.69140625, 1.5439453, -0.5966797, -0.1694336, 2.28125, -0.078125, 0.5361328, -0.65722656, 0.97314453, 1.1513672, -2.3359375, 2.4882812, 0.5209961, 0.7470703, 1.1679688, 0.7480469, 0.018188477, 1.8574219, -1.6357422, 0.0028934479, 0.33935547, 3.7675781, 0.10479736, -0.30444336, -1.0341797, -1.7158203, -0.82470703, -1.8574219, 1.0439453, -1.6835938, 0.115600586, 1.3955078, -1.3554688, 1.0830078, -1.0517578, 1.3369141, 0.057373047, 0.4663086, 1.9794922, -0.5566406, -3.1679688, 0.32543945, -0.62890625, 1.0595703, 0.29248047, 0.34960938, -1.1289062, -0.32226562, 1.1787109, -0.24865723, -2.2382812, -1.5927734, -0.18469238, -1.2773438, -0.43896484, -0.47607422, -0.26342773, 0.4128418, 1.4277344, -1.1962891, -1.4238281, -1.0458984, 0.05859375, -0.5029297, 0.22387695, 2.0566406, 0.96240234, -2.8535156, 0.14855957, -0.1315918, -0.92578125, 0.7470703, 0.28710938, 1.53125, -1.0683594, -2.8261719, 0.7167969, -1.4042969, -0.2919922, 2.453125, 0.7260742, -0.1817627, 1.0488281, -2.6601562, -0.45092773, 2.15625, -2.9960938, -2.3144531, 0.9008789, 2.109375, 1.7070312, -0.25683594, 1.0771484, -1.1152344, -2.8789062, -1.4296875, 2.5625, 3.6933594, -0.3857422, -1.3720703, 0.43847656, -1.0488281, -1.0175781, 0.23986816, 1.3085938, -0.05319214, -0.76171875, 0.6791992, -1.5371094, 3.71875, 2.34375, 0.76660156, -0.060028076, -0.58984375, -1.09375, 1.4765625, -0.33398438, 1.4921875, 0.34960938, -1.9150391, -0.76171875, -0.25585938, 0.22619629, 2.765625, 0.12475586, -0.47338867, 1.8808594, -0.31567383, 0.49536133, -2.828125, 0.578125, -1.3291016, 2.1914062, 0.42700195, -1.75, -0.54003906, 1.5019531, -1.0566406, 1.1806641, 0.57714844, 0.796875, 2.2421875, 0.35913086, -1.4853516, -0.92529297, -0.09814453, -0.5678711, 0.22387695, 0.8417969, -0.4958496, 3.0253906, 0.13330078, -2.8535156, -1.6835938, 0.29785156, -0.34204102, -1.1650391, 0.48632812, -0.9707031, 0.8120117, -0.32739258, -1.0244141, 2.7675781, 1.2265625, -0.22290039, -0.6147461, 3.6171875, -1.109375, -2.3183594, 0.3310547, -1.7851562, 1.0361328, -0.85302734, -3.2265625, 0.6191406, 0.2980957, -0.9267578, -0.54296875, 0.43725586, -0.29882812, 1.4306641, -1.3554688, -0.66308594, 1.1845703, 0.36254883, 0.7807617, -0.15588379, 1.0507812, 3.2421875, -1.4511719, 0.8598633, 0.16931152, 2.9824219, 0.33496094, 0.9897461, -1.4199219, 1.5283203, 0.9716797, -0.99365234, 0.84814453, -0.052520752, 1.9521484, -0.17333984, 0.4638672, -0.5292969, -0.36669922, 1.1826172, 0.56347656, -0.23498535, 6.1757812, 1.09375, -0.5527344, 2.2871094, 3.2871094, 0.25219727, 0.67578125, -1.5205078, -0.6699219, -0.9741211, 0.14501953, 0.89160156, 0.5180664, 0.5307617, 1.9482422, 1.5625, 0.5703125, -0.050445557, -1.1533203, -1.3095703, -0.97998047, 0.62939453, -0.45825195, 1.5976562, 1.0390625, -0.5517578, -0.55859375, -0.7529297, -1.2451172, -0.6401367, -2.2011719, 1.8554688, -0.25805664, 1.5771484, 0.23901367, 0.2607422, 0.68359375, -1.7207031, -0.5205078, -3.7714844, 0.8886719, 0.82910156, 0.8076172, 2.6347656, -0.6357422, 0.08148193, -0.13049316, 1.3046875, 1.4462891, -2.40625, 1.0273438, -0.8881836, 0.72998047, -0.5073242, -1.0771484, 2.0078125, -2.0664062, 2.3535156, -0.6279297, -0.95214844, 1.5234375, 0.3630371, -1.0996094, 3.8867188, 3.1523438, -1.8076172, 1.4892578, 0.8432617, -1.6699219, 1.9560547, 0.40795898, 1.1855469, -0.3059082, -0.08630371, -0.7890625, -1.2783203, -0.5732422, -0.16589355, -0.5473633, 3.5351562, 0.15209961, 0.37304688, 0.8925781, 0.36132812, -0.9633789, -1.4716797, 0.90234375, -1.3095703, 1.9707031, 1.3662109, -1.0117188, -0.11022949, 1.5263672, -0.24169922, -0.9760742, 1.9023438, -0.9760742, 2.0292969, -0.30810547, -0.054595947, 0.11199951, 0.11981201, -0.75146484, 1.0322266, 0.024765015, -0.42285156, 0.24084473, 0.37719727, 0.67089844, 0.11376953, 2.2519531, 1.5136719, 0.23620605, -0.23461914, 0.48242188, 1.5576172, -0.5703125, -0.92285156, -0.4321289, -0.8833008, 0.40454102, 3.6914062, 0.8823242, -1.5078125, 1.6464844, -2.0117188, 0.5996094, -2.1230469, -0.9355469, 2.1054688, -0.83447266, -0.036346436, -0.3149414, -1.7373047, -0.73095703, -2.4003906, -1.6640625, -0.62060547, 1.2119141, 3.7714844, -0.63671875, 1.2705078, 1.4189453, -0.28149414, 0.12866211, 1.3691406, -1.3876953, -0.13769531, 0.6533203, -1.0195312, -2.3007812, -0.18200684, -3.9628906, 0.2836914, 3.6875, -0.45922852, 2.5644531, 1.5605469, 0.10119629, -0.09454346, -2.3339844, -0.18432617, -3.3300781, -1.5585938, 1.15625, 1.9580078, -0.23547363, 0.29125977, -0.14941406, -1.0546875, 0.0770874, -3.6269531, 0.15942383, 3.4667969, -1.6455078, -0.57421875, 0.75683594, -1.2080078, -1.1269531, -1.1464844, -1.4169922, 1.7529297, -0.46533203, 1.1513672, 1.9746094, 0.60546875, 0.18066406, 0.107299805, 1.5839844, 0.88134766, -2.1679688, 0.17602539, -1.7568359, -2.9472656, -1.5263672, 1.5332031, 1.2285156, 0.2142334, 1.0341797, -0.8671875, -0.6279297, -0.024307251, -1.8154297, -0.010772705, 0.34472656, -2.6074219, -3.1992188, -1.7685547, -0.033477783, 0.4645996, 1.2568359, 0.68066406, 2.5195312, -1.0966797, -0.5644531, -1.0703125, 0.75634766, -0.79296875, 1.4267578, -1.2578125, -1.3798828, 0.39819336, 0.012290955, -0.24865723, 1.3476562, 1.0058594, 0.83203125, 1.6279297, 0.16467285, 0.37182617, -0.7182617, 1.5908203, -2.5996094, -1.9628906, -0.25195312, -1.3544922, -0.30395508, 2.0742188, 0.34423828, 0.57373047, -0.27563477, -1.0830078, -0.9169922, 0.52734375, -2.3085938, 0.10083008, 1.0253906, 1.3496094, -0.17541504, -0.62158203, -2.2089844, -0.78759766, 1.3261719, 0.15368652, -0.62353516, -3.4453125, 2.2890625, 1.6689453, 0.60498047, 3.9882812, -1.1210938, 0.80371094, 1.0234375, 3.5742188, 1.6181641, 2.6953125, -2.46875, 0.115600586, -0.29492188, -0.62109375, -0.09802246, 0.024765015, -0.30200195, 1.4443359, -1.9433594, -0.8569336, 2.953125, 1.7148438, 2.1054688, -0.66015625, 0.5307617, -1.5654297, 2.5195312, -1.6435547, 0.3425293, 1.6884766, -2.1640625, 1.546875, -1.3330078, 0.8041992, -4.1992188, -1.6083984, 0.51708984, -0.38916016, 0.31054688, 0.88671875, -0.9897461, 1.7324219, 1.2519531, 0.89501953, 0.055725098, -1.1640625, 2.4121094, -1.484375, -0.59521484, 0.30126953, -1.2480469, -0.23254395, 1.9375, -1.7822266, 0.8227539, 0.14196777, -0.7758789, 2.2050781, 3.9082031, -0.15942383, -0.42407227, 1.1621094, 0.76904297, -1.8076172, -0.9038086, -0.98828125, -0.25878906, -0.5283203, 0.14355469, -0.36645508, 0.14526367, -1.0341797, -0.1328125, 0.24084473, 1.4726562, -2.1445312, -0.7324219, -1.9140625, 2.3984375, 0.99609375, -0.79248047, -0.33691406, -0.09246826, 0.89404297, -3.03125, 3.1132812, -0.69677734, -0.2758789, -0.77197266, 1.609375, -0.7890625, -1.8935547, 1.1640625, -0.005344391, -2.7792969, -1.9042969, -0.48657227, 0.016159058, 1.0517578, -1.0371094, 0.18200684, 1.9980469, -0.5859375, -1.8466797, -1.3701172, 0.29223633, 1.4160156, -2.5898438, 0.140625, 0.09277344, -1.0283203, -1.6572266, -2.4199219, 1.1923828, 1.3535156, 0.28808594, -1.1611328, 0.11669922, -1.9814453, 1.7021484, 1.0390625, 0.55859375, 0.23144531, -0.75634766, 0.16687012, -1.1777344, -1.0546875, -1.0878906, -0.041137695, -0.63671875, -0.010284424, 1.2001953, 1.8984375, -0.5341797, -1.1923828, 0.04425049, 0.09442139, 0.48291016, -2.3359375, 1.4355469, -1.8613281, -0.007797241, -0.21777344, 3.0449219, -1.4023438, 0.74365234, 0.19995117, -0.90527344, -0.0033740997, -0.8857422, 0.27563477, 5.0195312, -1.0976562, 1.5244141, 0.7631836, -1.5742188, -0.032989502, -0.84814453, 0.30810547, -0.6582031, 1.9169922, 0.38964844, 1.0390625, -2.2832031, -1.5488281, 0.4572754, 0.61621094, -1.4619141, 0.7167969, 0.9399414, -2.3554688, -0.2199707, -1.5292969, -2.9375, -0.8046875, 0.101745605, 0.9316406, -0.28344727, -0.69140625, 0.6303711, -2.3144531, -3.3710938, 1.0117188, -0.9238281, 0.7988281, 0.8144531, 0.86572266, 1.7763672, -1.9208984, 1.9560547, -0.61621094, -2.5703125, -0.6689453, -1.3632812, -0.06304932, -0.8305664, -1.4716797, -0.59472656, 1.9248047, 3.3554688, 2.15625, 2.4472656, -0.37231445, -0.62646484, -2.671875, 0.6323242, -2.5605469, 0.47607422, -0.23571777, 2.9023438, -1.1855469, 1.7265625, -1.1025391, -1.1005859, -1.9521484, -1.71875, -0.80566406, -1.9775391, 0.9477539, 1.4501953, -1.1123047, -2.015625, 1.8837891, -0.38793945, -1.7802734, 0.24145508, 0.1965332, -0.6796875, 0.62353516, -1.6601562, 0.5654297, 0.17590332, 1.6982422, 1.1396484, 1.8388672, 0.5058594, 1.4169922, -0.89453125, 0.19580078, 0.36889648, -0.5761719, 0.4501953, 4.7148438, 2.0097656, -3.4785156, -1.6318359, -0.6152344, -0.28320312, -0.66015625, 1.1855469, 0.42236328, -0.64941406, 0.25756836, -0.89404297, -1.4697266, 1.2177734, 2.2324219, 0.53515625, -0.17028809, 1.1269531, 0.34570312, 0.8808594, -0.1373291, -0.79785156, -0.9213867, 3.7050781, 0.7163086, 0.9980469, 0.36816406, -1.5136719, -0.1451416, 1.4580078, -3.4980469, -0.6821289, 0.6982422, -1.1640625, 0.10357666, -0.13647461, 1.4228516, 0.21777344, 0.42114258, 0.48632812, 1.7763672, -1.3251953, 1.9667969, -1.8642578, -0.45776367, -2.2636719, -0.047668457, -0.24975586, -0.7841797, 1.2470703, -0.043701172, 0.6113281, -2.75, -1.8769531, -1.1425781, -1.609375, 0.51416016, 0.030761719, -0.6591797, -1.0126953, -0.54833984, 1.6962891, 2.9980469, -1.2314453, 0.24633789, 2.0292969, 1.6171875, -0.022262573, 0.40527344, -3.4980469, -0.60546875, 0.40454102, -0.36743164, -0.029815674, 0.79345703, 1.3183594, -0.107666016, 0.7915039, -0.4567871, 2.1894531, 0.9223633, -0.59521484, -0.57958984, 0.84472656, 0.047790527, -0.41992188, -0.67333984, -2.0371094, -0.16333008, -0.7973633, 0.27416992, 0.24658203, 0.8154297, -1.0126953, -0.19238281, 1.5078125, -3.2011719, -1.6660156, 1.5498047, 2.7851562, 1.2783203, 0.20227051, 1.2685547, 1.2822266, -0.78222656, -0.2298584, 0.44799805, 0.0032176971, -0.38330078, -0.14807129, -2.5039062, -0.13684082, -0.89453125, -0.07354736, 1.6787109, -0.59472656, 0.61572266, -0.07928467, -0.9379883, -1.0322266, -0.15490723, 0.6958008, 0.88671875, 0.84472656, 0.7241211, -0.038024902, -1.5341797, -0.5571289, 0.4543457, -0.0038051605, -0.48950195, 1.1777344, 1.0380859, 0.031433105, -0.7451172, -0.44018555, -2.7109375, -0.79296875, -0.78027344, -0.8984375, 2.375, -1.1796875, 0.049743652, 1.65625, 0.6748047, -0.51953125, -0.20031738, -0.44335938, -0.32250977, 0.30859375, -1.40625, 0.71484375, -0.17480469, -0.5854492, -0.3852539, -1.7265625, 1.1494141, 0.79052734, -0.22033691, -0.27929688, 1.5732422, -0.26049805, -3.1835938, -1.7597656, 0.8989258, 2.203125, -0.058166504, 1.96875, 0.0791626, -1.0283203, 0.5810547, -0.038330078, -0.7714844, -0.29248047, 1.2734375, 1.6201172, -0.2722168, 0.8925781, -0.34057617, -3.8867188, 1.6953125, 0.65625, 1.7802734, 2.1757812, -0.68359375, -0.7939453, -0.52197266, -2.2734375, -0.45166016, -1.4482422, -2.078125, -0.23754883, 0.63623047, -0.39868164, -0.1973877, 1.2294922, 0.69140625, 1.7851562, -0.32177734, -0.58203125, 1.0009766, -1.3525391, -2.0351562, 1.4921875, 1.0185547, 1.71875, 2.3378906, 0.7714844, -0.09686279, -1.2275391, 0.93603516, 0.82421875, -0.62597656, -0.065979004, 1.3925781, -1.4609375, 0.45947266, 0.2788086, -1.9521484, -2.1152344, -0.2746582, -0.29541016, -0.17614746, 0.5053711, -2.234375, 0.2607422, 0.062927246, 1.7226562, -5.0507812, -1.5, -0.22583008, 2.4589844, -0.8823242, -2.953125, -2.0332031, 1.3447266, -0.53222656, -0.28344727, -1.3046875, -1.1621094, 0.62109375, -0.12597656, -0.41748047, 0.24926758, -1.4921875, 0.0045700073, -1.6943359, -0.0023841858, -0.8989258, -0.9667969, 0.7363281, -2.0078125, -0.6875, -0.4807129, -0.67089844, 1.6015625, 0.2631836, 0.6455078, -0.96240234, -0.4321289, 1.5644531, -0.4560547, -0.8120117, -0.035217285, -0.5444336, 1.7900391, 1.34375, -1.3701172, -0.5473633, 0.81591797, 2.7441406, -1.3662109, 1.6318359, 0.21777344, 1.3876953, -1.5917969, 2.1914062, 1.7138672, 0.33691406, 0.9790039, -0.00409317, 0.69140625, -0.14819336, 1.7470703, -0.43823242, -0.08428955, -1.0332031, -1.3017578, 0.77246094, 1.6171875, 0.56347656, -1.9941406, 1.1904297, -0.4560547, -1.7441406, -1.703125, -0.72998047, -1.4453125, 0.50439453, 3.1972656, -1.6152344, -3.1835938, 0.30737305, 0.8803711, 0.34277344, -2.3632812, -0.0019607544, 0.06036377, 0.13146973, -2.4140625, -0.2055664, -1.5390625, 1.1259766, -0.33618164, -0.19311523, -0.3857422, 3.265625, -3.3066406, -1.1386719, -0.15490723, 1.0283203, -1.1123047, 2.4589844, 0.6767578, -2.1679688, 0.3083496, 0.8359375, -2.2207031, -0.023803711, -0.89453125, 0.16149902, -2.4335938, 0.9550781, 1.640625, -1.0214844, 0.6694336, -2.0449219, -0.9448242, -0.31445312, 1.2558594, 2.0644531, 0.23254395, 1.6259766, -1.4589844, 0.9121094, -0.39819336, -0.53515625, 1.7294922, -2.0683594, 0.85058594, -1.5712891, 0.12658691, -0.7319336, 0.7216797, -2.6660156, -0.98046875, -1.3720703, -2.0917969, 1.5263672, 2.2519531, 1.1933594, 1.0371094, -1.1591797, 1.6123047, 0.26782227, 0.32055664, -0.7167969, -0.73828125, 1.1464844, 1.6455078, 1.1962891, -2.234375, 0.60058594, -1.7734375, 1.3974609, 1.4892578, -0.36938477, -2.3398438, -0.6220703, 0.2644043, 0.035888672, -0.13098145, 0.38330078, -1.6220703, -0.9091797, -0.3125, -0.92041016, -1.1640625, -0.78515625, 1.3925781, -1.8740234, 1.7275391, 0.09362793, -0.60058594, 2.859375, 1.2646484, 0.53515625, 1.1611328, -3.65625, -0.59814453, 0.025299072, -0.3227539, -0.038024902, -0.18786621, -0.68652344, -1.0605469, -0.6035156, 1.7011719, 0.030639648, -0.9121094, -0.68847656, 1.3398438, -0.7739258, 2.1269531, -0.9814453, 0.72265625, 2.2949219, -0.9584961, -1.1816406, -2.5429688, -1.3408203, -0.05340576, 0.78759766, 0.23730469, -0.07397461, 0.074645996, -0.19042969, -2.0820312, 0.49438477, -1.2695312, -1.4335938, -2.234375, -0.64404297, 1.1259766, 0.40307617, 1.4326172, -1.1660156, -0.08270264, 0.007911682, -1.0400391, -0.61572266, 1.8691406, -0.72998047, 0.064819336, 0.35961914, -0.02281189, 1.9101562, -2.0546875, 0.63671875, -2.28125, 0.26708984, -0.5292969, 0.16491699, -1.9003906, -1.8300781, -1.5136719, -1.6914062, -2.1152344, -1.1396484, 0.58154297, -0.43188477, -0.3046875, -0.12371826, 0.99560547, -0.13012695, 2.5214844, 0.69921875, 2.0097656, 0.74609375, 0.6855469, 4.3203125, 0.30322266, 1.3789062, -0.60546875, 0.93359375, -1.4892578, 0.84472656, 0.8652344, -0.9897461, -0.59814453, -2.8105469, 1.484375, 0.045440674, 0.65527344, 2.6542969, -0.98828125, -0.484375, 0.7392578, 0.4128418, 0.22631836, -0.70458984, -0.59765625, -0.5761719, -0.14807129, 1.8271484, -0.39160156, 0.72216797, -3.0644531, -0.27929688, 2.7714844, -0.9428711, -0.43896484, -1.1474609, 0.12487793, 0.06225586, 1.5087891, -1.5234375, -1.1474609, 0.81933594, 0.21008301, 0.34716797, -0.51220703, 1.6933594, -0.36132812, -1.5039062, -2.4160156, -0.44458008, -0.34155273, -0.12548828, -5.0039062, 2.2148438, -1.6308594, 0.54003906, -1.4902344, 1.0732422, 1.3740234, -0.2631836, -0.1595459, 0.3161621, 0.021133423, 1.6269531, 0.47460938, 0.24060059, 1.9150391, 2.7714844, -1.7099609, 0.37158203, 0.38256836, 1.0205078, -2.5546875, -1.2041016, 4.53125, 0.80371094, 1.4814453, -2.1152344, -0.9135742, -2.359375, -1.0400391, 0.79589844, 0.80908203, 0.23547363, -5.1484375, -0.3540039, 0.59033203, 0.2232666, 0.8261719, 1.8027344, -1.6816406, 0.44458008, 0.87353516, 1.8193359, -0.31396484, 1.2177734, 1.4736328, 0.81884766, -0.3256836, -1.1621094, -0.04714966, -0.65722656, 2.0703125, 0.30322266, 1.7744141, -1.8222656, -1.4619141, 0.35668945, -0.5341797, 0.7128906, 1.8691406, 1.6279297, 0.5151367, 2.8066406, -0.7080078, -0.8334961, -1.5400391, 0.05670166, -2.3730469, -1.8652344, 1.9433594, 0.012123108, -0.2241211, 0.58251953, -1.0087891, -0.87597656, -0.62646484, 0.2939453, -0.70654297, -0.41015625, 0.9916992, -0.52197266, 0.10144043, -1.4589844, -1.1933594, -0.43115234, -1.3261719, -0.5517578, -1.90625, 2.5371094, 0.09790039, -0.6166992, -0.61572266, 0.91552734, -1.6640625, 0.77441406, -1.703125, -3.15625, 1.7324219, 0.01071167, 0.85253906, -1.4716797, 0.57666016, 1.6533203, -0.25854492, -1.3505859, -0.22546387, -0.26757812, 0.37182617, -0.10430908, 0.9301758, -2.1621094, -1.0400391, -1.0712891, 0.8232422, -1.9189453, 0.054870605, -2.1972656, -0.65771484, 1.4042969, 1.2734375, 0.05670166, 0.18640137, 1.8496094, -0.066101074, 0.62939453, 3.09375, -0.17895508, -0.55078125, 2.1601562, -0.54785156, -0.08868408, 0.06878662, -0.77783203, -2.2128906, -0.9633789, -0.2052002, 1.4423828, 0.021270752, -0.10021973, 1.078125, -0.22753906, -0.52978516, -0.12451172, -0.23</t>
-  </si>
-  <si>
-    <t>[4.7304688, -1.0039062, 0.79785156, -0.9003906, -1.1376953, 0.73095703, -1.9257812, -0.40527344, 1.5429688, -1.0390625, 1.3574219, 1.9111328, 1.3789062, 1.9287109, -0.9765625, -0.7314453, -0.050354004, -0.74609375, 0.28125, 0.89990234, 1.0546875, 2.8554688, -0.26220703, 2.9902344, -0.13793945, -2.2402344, 1.5830078, 2.7402344, 0.35766602, 0.80859375, -0.20166016, 4.5703125, 1.8935547, -0.20019531, 0.74121094, 0.94384766, -0.6538086, 2.6601562, 4.1328125, -1.9873047, 0.21557617, 1.9355469, -0.16821289, 0.99902344, -1.4707031, 1.1425781, 0.09954834, 1.1611328, -0.99072266, 0.6347656, 0.31323242, 1.7939453, -1.3056641, -0.5473633, -1.1103516, -0.20532227, -1.0185547, -0.8051758, -0.24267578, -0.6513672, -0.4411621, 2.4550781, 0.46533203, -2.6425781, 1.1826172, -0.734375, -2.1367188, -1.7207031, 2.0625, -0.79248047, -2.1386719, -0.5991211, -1.7792969, 2.3085938, 0.73779297, 0.55566406, -0.7421875, -1.203125, -0.7788086, -0.4868164, -2.7851562, 1.3300781, -1.4550781, -3.2578125, 0.04437256, 1.1035156, 0.57666016, -0.9838867, -0.22546387, -2.953125, -1.0703125, 0.9536133, 0.5546875, 1.5214844, 0.28466797, 0.5258789, 0.015235901, 0.77978516, -0.87060547, 0.40356445, -0.6381836, 1.1103516, -0.30688477, -0.14624023, 0.52197266, -0.20178223, 0.7529297, 1.7060547, 0.72998047, -1.2265625, -0.6333008, 0.6669922, -1.0175781, 0.3791504, 0.16259766, 0.4116211, 0.17138672, -2.1132812, -1.2324219, -2.7460938, -0.022094727, 0.6176758, -0.59716797, 0.8120117, 3.2285156, 0.051452637, 0.4699707, -0.71240234, -0.04788208, -0.32226562, -0.26733398, -0.5761719, -0.47436523, 1.0146484, 4.6015625, 3.0742188, 1.171875, 1.9472656, -1.1787109, -2.015625, 1.4697266, -0.62890625, 1.5429688, 1.1855469, 0.6333008, -0.09338379, 1.3193359, -2.4511719, 2.4101562, -1.0732422, 0.6020508, -1.8886719, 0.8540039, 0.36743164, -2.3554688, -0.063964844, 0.43066406, -2.6074219, -2.4375, -1.484375, -1.1210938, -0.29492188, 0.15332031, -0.8618164, 0.6459961, 1.6142578, 2.7246094, 0.4482422, 1.6621094, -2.3105469, -1.2216797, -1.0126953, 1.0927734, -0.55078125, 0.90234375, 0.38891602, -0.93359375, -2.0039062, 0.5517578, -0.7441406, 3.1328125, -0.4243164, 1.1279297, 0.9296875, -0.3647461, -2.4785156, -0.4189453, -1.2099609, 1.6074219, -0.7241211, 0.97509766, 0.18786621, -2.5351562, -0.30786133, -0.5058594, -1.0693359, 0.7685547, 1.2880859, 2.2480469, -0.19958496, -0.2088623, -1.2021484, 3.0253906, -1.1650391, -3.28125, 1.2353516, 0.6586914, 0.2232666, 0.05255127, -1.4140625, 0.54833984, 0.068603516, 1.3769531, -0.6669922, -0.83251953, -0.018539429, 2.1816406, -4.0429688, -0.09448242, -0.016464233, 0.26367188, -0.7314453, -0.7636719, -0.3190918, -0.37817383, 1.8115234, -1.8525391, 1.6914062, 0.11621094, 0.31225586, 0.17993164, -0.30297852, -0.02229309, 1.7910156, -0.47729492, 1.6582031, 1.0771484, 3.0351562, -0.41748047, 0.14001465, 0.67578125, -0.26098633, -0.22058105, -1.1806641, -0.5864258, -1.2519531, 2.0605469, 1.3388672, 0.49609375, -1.3623047, 2.4277344, 3.8417969, -0.58935547, -1.6308594, 0.5854492, 0.51123047, -3.296875, -0.092163086, -0.6767578, -0.6801758, -0.001083374, 0.097839355, 0.24865723, -0.14440918, 0.46166992, 0.34814453, -0.5517578, 0.45385742, -2.15625, 1.1689453, 2.6347656, 0.95996094, 2.6191406, 0.30273438, 0.7285156, -0.3857422, 1.2460938, 1.6210938, 0.37890625, -0.25952148, -0.011276245, -0.8222656, 0.54589844, -0.3083496, 2.7285156, -0.20483398, -1.8730469, -0.60595703, 2.6835938, 1.2255859, -0.21289062, -0.6586914, 0.36035156, 0.9902344, -2.0019531, 0.06939697, 0.18908691, -0.6665039, -0.9482422, 0.3544922, -1.3115234, -1.2363281, -2.8671875, -0.3791504, 2.3613281, 2.6640625, 3.0195312, -0.78222656, -1.4384766, -0.21496582, -0.23571777, -1.5517578, -0.6791992, -1.2226562, -1.5830078, -1.8964844, -0.24291992, 0.2590332, -1.2597656, -1.9335938, 0.021560669, 0.7236328, 3.515625, 0.7163086, -1.4921875, -1.9814453, 1.2197266, 3.6015625, 2.4179688, 1.1152344, 1.2060547, 1.0429688, -0.5541992, 0.95996094, -0.68603516, -1.1669922, 0.8017578, 2.203125, 0.15661621, -0.15991211, 1.0195312, 0.5361328, -1.0292969, 0.91503906, -1.8017578, 0.13439941, -1.3251953, 1.7255859, 0.57373047, 0.08178711, 0.70947266, -2.2480469, 3.5039062, 1.65625, -0.28588867, -0.38891602, 1.5458984, -2.75, -1.0693359, 2.6210938, 0.19506836, -0.46435547, 1.3505859, -2.9238281, -2.09375, -0.9116211, 0.3449707, -2.8867188, -0.13110352, -0.0042266846, 0.4399414, 0.75097656, -0.7807617, -2.1445312, 1.0791016, -1.03125, -2.0605469, -0.4543457, -0.40307617, -0.43969727, -0.6166992, 1.3076172, -1.1972656, 0.48120117, -2.5800781, -0.9453125, 0.012237549, 1.1142578, 1.2929688, 2.1484375, 0.27734375, -1.2734375, 0.45117188, 1.2402344, -0.3515625, 0.2548828, 1.0458984, 2.4179688, 0.19604492, 0.55078125, 2.3457031, 0.9140625, -0.042022705, -1.1884766, 1.8730469, -1.2880859, 0.3618164, -1.0810547, -0.5878906, -1.40625, -1.6708984, 0.33325195, 2.0761719, -1.4990234, -1.8720703, -0.6826172, 0.23937988, -0.81884766, -0.78466797, -1.140625, 2.6445312, 1.0185547, 0.7348633, 0.8847656, -0.07501221, -1.0234375, -0.99902344, -1.1660156, 0.82177734, 0.14575195, -2.1699219, -1.2753906, -0.11151123, -0.12841797, -0.045440674, -0.5029297, 1.7158203, 0.56933594, -0.14904785, -1.3769531, -1.6796875, -0.023101807, -1.5517578, -0.3864746, -1.7373047, 3.8886719, 0.9121094, 2.1699219, 0.88183594, 0.68066406, -0.23034668, 0.7573242, 0.90283203, 0.7973633, 1.8925781, -2.8359375, 0.37304688, -1.0976562, -0.65722656, -1.5019531, 0.21008301, 2.5800781, 2.6992188, -1.4707031, -1.9355469, 0.18334961, 0.10858154, -0.16040039, 0.78027344, -3.1289062, 0.57421875, 1.6425781, 0.6801758, -0.89990234, -2.34375, 0.88964844, -1.2236328, 2.8007812, -3.3613281, -2.8085938, -1.3945312, 0.59521484, -3.1914062, 0.111328125, 0.70166016, -0.5488281, 1.5458984, 2.8769531, 0.6953125, 1.1689453, -2.9882812, -1.1826172, 1.3759766, 2.171875, 0.65527344, -2.4042969, 0.34960938, 1.4042969, 1.6162109, -0.03466797, 0.10070801, -1.9345703, 0.5942383, -1.6259766, -1.7255859, -1.3046875, -1.3574219, -1.4482422, -1.8115234, 2.0683594, -1.1777344, 1.4707031, 1.4638672, -1.0185547, -1.8369141, -0.5131836, -0.9091797, -1.2314453, 1.0019531, 0.5551758, -0.29370117, -2.4765625, -1.7539062, 0.06958008, -1.0927734, 3.3828125, 0.12335205, 1.9306641, -1.0683594, 1.5615234, -0.7114258, 1.2636719, -0.66259766, -0.51220703, -0.2512207, 1.7529297, -0.69384766, 0.76123047, -0.9873047, 1.1201172, -0.5332031, -0.94189453, -3.3339844, -1.0410156, 1.1269531, 0.88623047, -0.63623047, -0.2088623, -2.7402344, -0.4975586, 0.32226562, 1.8701172, 0.9707031, -1.8046875, 1.6523438, 2.8535156, -0.5307617, 1.6542969, -0.040100098, -0.25024414, -0.6894531, -1.3144531, -1.9882812, 0.08343506, 0.24926758, -0.36767578, -0.33544922, 0.6098633, 0.55615234, -0.94873047, -0.796875, -0.49389648, -0.34960938, -2.0078125, -0.33740234, -1.4628906, -0.3256836, -1.0966797, 1.2265625, -1.1367188, 2.8261719, 1.6484375, 0.015655518, -0.43432617, -1.7832031, 0.28149414, -0.9916992, -0.22607422, 1.1464844, -0.5957031, 0.031921387, -0.95751953, -1.8671875, 2.5234375, -2.1484375, -1.0703125, -0.5913086, 0.13464355, -0.13647461, -0.8754883, 0.38623047, -0.3305664, -0.23022461, -1.1630859, 0.28564453, 1.7089844, -0.03326416, -0.25976562, -1.3720703, -1.3935547, -0.14953613, -1.5869141, -1.3291016, 2.1308594, -1.2041016, -1.7373047, 0.11895752, -0.8105469, -0.4946289, 0.72802734, 1.4746094, 1.4580078, -0.062194824, 1.8720703, -0.028335571, -1.2451172, 0.58447266, 0.60498047, -1.8945312, 1.9179688, 1.1591797, 4.2460938, 1.7929688, -3.7558594, 1.7666016, 1.421875, -0.41552734, -1.1679688, 0.88916016, -0.7685547, -0.20996094, 0.21557617, 0.5493164, -1.3183594, 0.6459961, 0.25317383, -0.82177734, 1.0478516, -0.33422852, -2.2128906, -0.69873047, 0.61816406, -1.1728516, 1.46875, -0.90771484, -0.8564453, 0.30078125, 1.1650391, 0.24023438, 1.4082031, -0.31933594, 0.29663086, 1.8085938, -0.107421875, 2.0625, -1.2939453, -1.5546875, -1.0244141, -0.6176758, -1.6171875, -0.0054130554, -0.6274414, -0.44677734, -1.0390625, 1.8095703, 1.1484375, 0.3203125, -1.7783203, 1.5078125, 1.0625, -0.6328125, -0.78271484, -0.7338867, 3.1621094, -1.2695312, -0.99365234, -0.058563232, -0.23535156, -0.5776367, -1.4707031, 0.2944336, 0.49951172, -1.4882812, 1.7451172, 0.2631836, -0.18017578, 1.2333984, 2.7109375, -0.0039520264, -1.5273438, 0.4777832, 0.41064453, -1.2167969, -3.7109375, -0.50439453, -1.015625, 0.50439453, 1.7402344, 0.1697998, -1.1386719, -0.5390625, 1.8183594, -0.72998047, -0.5288086, -1.7246094, 1.1035156, 3.3515625, -1.4970703, 0.99121094, -1.4882812, 0.50390625, -2.7832031, -0.09429932, 0.115478516, 1.0449219, 0.5629883, 0.45874023, 0.6801758, 0.047546387, -0.49682617, -1.3476562, -1.1611328, -0.99072266, 1.0751953, 1.2460938, 0.67089844, -1.1083984, -1.3789062, -0.7192383, -0.9736328, -2.2578125, 0.9238281, 1.4404297, 0.80078125, -0.44311523, 0.5078125, 1.9326172, -0.83251953, 1.5029297, -0.45043945, 0.07366943, -2.5898438, 0.6171875, 0.6694336, -1.0078125, 0.008125305, 0.56689453, -0.80566406, 0.15222168, 0.4362793, -0.20263672, -1.1845703, 2.8105469, 2.8652344, 0.27197266, -0.63623047, 0.8696289, 0.2088623, 1.046875, 0.42089844, 0.01184845, 0.54785156, -0.88720703, 2.2011719, -0.46240234, 2.2382812, 1.4570312, 0.068603516, 2.4082031, 2.4804688, -0.06665039, 0.9892578, -0.7504883, 0.21533203, 0.11407471, 1.2724609, 0.041412354, 0.35302734, -4.1171875, -0.45947266, -1.6230469, 0.8144531, 0.037078857, 0.9472656, 0.85302734, -2.3925781, 2.1191406, -0.7763672, 1.5527344, 0.5498047, 0.578125, 1.3203125, 2.015625, -0.33618164, -2.3691406, -0.23413086, -0.37963867, -0.109069824, 1.0458984, -4.90625, -0.2277832, -0.6748047, -0.8041992, -0.7265625, -0.083984375, -0.1541748, 1.4785156, -0.023162842, 1.3447266, -2.25, 1.8359375, 2.6347656, -0.8339844, 0.62402344, 0.7504883, -0.3557129, 1.0976562, 3.2304688, -0.45410156, 0.096191406, -2.5800781, -0.017791748, 1.9365234, -0.26757812, 0.5126953, -3.0292969, 0.25976562, 2.6054688, 2.0175781, -2.1308594, 1.4326172, 1.4189453, 0.50390625, 0.2277832, 1.8798828, 0.32666016, 0.9633789, 1.828125, -1.1083984, 2.1875, 1.5449219, -0.3083496, 0.7661133, 1.1376953, -0.15966797, 0.55371094, -0.95410156, 2.1425781, -0.5263672, 0.5385742, 2.7070312, 0.22058105, -0.37402344, 0.9165039, 0.6645508, -0.2770996, -2.2714844, 0.24291992, 0.73828125, -0.4387207, 2.2304688, -0.6826172, 1.0273438, 0.6225586, -0.28857422, 1.640625, 0.42578125, 0.0836792, -1.9697266, 0.36767578, 0.29614258, 1.8427734, 0.24853516, 3.3398438, 0.82128906, 0.3779297, -0.6191406, 0.51904297, -0.8774414, -2.5039062, -0.4086914, -1.2753906, 0.040008545, 1.2197266, 0.38330078, -0.08905029, 1.2353516, 0.49194336, 0.5546875, 1.9658203, -2.3261719, -0.88916016, -0.9663086, 0.6064453, -0.8178711, -0.6171875, 0.79541016, 1.1025391, -1.5830078, 1.2666016, -0.23742676, -1.1621094, 0.60253906, -0.52246094, -1.0185547, -0.26342773, -0.7944336, -1.7060547, 1.0957031, 0.9511719, -1.5, 0.9926758, -1.7441406, -1.7548828, 2.1308594, 1.6191406, 1.4589844, -0.012893677, 0.39331055, -0.59765625, 0.85498047, -0.10559082, 0.89501953, -0.43188477, 0.6845703, -2.0566406, 1.6054688, -0.48901367, -0.051483154, 1.4335938, -2.1992188, 2.0234375, -0.51953125, 0.17114258, 0.4753418, -0.5854492, -0.008865356, 1.3662109, -0.7993164, -1.1025391, 0.5058594, -1.1748047, -0.088378906, 0.19018555, -1.21875, 1.8251953, 0.8466797, 0.20483398, 1.0722656, 0.8979492, 1.0458984, 0.026687622, -0.035461426, -0.3647461, 2.7402344, 5.1367188, -0.2602539, 2.0527344, 0.75146484, 1.2333984, 5.1835938, -0.60595703, -0.39282227, -0.6196289, -0.17736816, 1.8945312, -1.2265625, -2.6992188, 1.3515625, 0.81933594, -1.1201172, -2.3964844, -4.8828125, 0.20483398, -1.6474609, -0.20471191, 1.3056641, 0.2705078, -1.5498047, 0.1907959, 1.9345703, 0.5390625, 0.15002441, -1.6035156, 0.49389648, 0.23657227, -0.04748535, -0.06335449, -1.6269531, -1.1904297, 3.7714844, -0.97509766, -0.3869629, 1.4960938, 0.5756836, -2.1601562, -1.6113281, -0.5571289, -0.62646484, 1.3671875, 2, 0.5649414, -0.94628906, 0.7363281, -1.9609375, 0.78027344, 0.9941406, -0.52001953, -0.6542969, -0.07330322, -0.084350586, -1.4414062, 2.328125, 0.90185547, 1.8417969, -1.2861328, -0.59521484, 0.734375, 0.86621094, -0.5263672, 1.4121094, 1.9326172, -0.12017822, 0.24304199, 1.4355469, 1.1494141, -0.73828125, 0.78466797, -0.4423828, 0.5732422, -0.99072266, -0.49975586, -1.3789062, 0.9946289, -0.85302734, 0.1895752, -0.91259766, 1.0771484, 0.70654297, 0.24987793, -0.23168945, -0.14208984, 1.7783203, -0.38671875, 1.4707031, -0.88427734, 1.9853516, 0.7963867, 0.30908203, 2.3125, -1.4023438, -0.57470703, -0.12225342, -2.9609375, -0.017333984, -1.4951172, -1.5458984, -0.083984375, 0.5546875, 1.0380859, 2.1542969, -0.86572266, 0.22924805, 0.24902344, 4.0859375, -0.29760742, -0.60253906, -0.16552734, 0.0024166107, -1.7197266, 0.69628906, 0.020065308, 1.6474609, -1.0878906, 1.7177734, 1.5146484, -2.1445312, -0.17773438, -2.40625, -1.1494141, -0.39672852, 2.6347656, -0.1685791, 0.25219727, 0.07281494, 1.3671875, 0.05682373, 0.28027344, -1.0039062, 1.7382812, -1.1494141, -1.1582031, -1.4189453, -0.3569336, -0.47729492, 0.32202148, -0.5131836, -1.3183594, -1.1171875, -0.07922363, 0.84228516, 0.0390625, -1.1298828, -0.17956543, 0.69873047, -0.6176758, -0.5595703, 0.20092773, 0.041992188, 0.059661865, 0.024536133, 0.1463623, -0.51708984, -1.4306641, 0.015525818, 2.0371094, -0.003189087, 0.1574707, 1.1591797, 1.0429688, -0.29736328, 1.5546875, -2.6679688, 0.6166992, 0.17114258, 2.2773438, -0.51171875, -0.9448242, 0.39257812, 1.0664062, 0.51220703, 3.6972656, -0.39038086, -2.3574219, 0.97998047, 1.8613281, 1.1835938, -1.7675781, 0.5996094, -0.9707031, 0.46166992, -0.9941406, -1.6220703, 1.4550781, 1.1367188, -1.3798828, 0.8857422, 0.41748047, -0.11138916, -2.40625, -0.32910156, -1.1464844, 0.43652344, -0.7705078, 2.2714844, -1.7529297, -1.0683594, -1.7080078, -0.6279297, -0.27807617, -2.2695312, -0.1854248, -2.1660156, 0.5317383, -0.65283203, 0.31323242, -0.052490234, 1.4755859, 1.3447266, 0.3684082, 0.5292969, -1.2451172, 1.0585938, 1.0048828, -1.1083984, 0.77246094, 0.5932617, -1.2900391, -0.14868164, -1.0537109, -0.67578125, 1.0273438, -0.22143555, -0.9160156, -0.39794922, -0.3413086, 1.9326172, 0.6791992, 1.0107422, 1.7617188, 1.3457031, 0.6435547, -2.1972656, 0.23010254, 0.8076172, 1.2490234, 1.4746094, 1.2373047, 0.13085938, 0.18017578, -1.7539062, -1.0634766, 0.6713867, 1.4804688, 1.1650391, 0.21057129, 2.1132812, -0.14050293, 3.2460938, -1.4023438, -0.30541992, 0.8544922, -0.5439453, -0.4790039, -1.1904297, 0.72021484, -0.49023438, 2.1210938, 0.63378906, 2.2480469, -0.8027344, -0.91845703, -0.6875, -1.7626953, -1.1142578, 0.5234375, -1.3242188, 2.328125, 1.2548828, 0.48999023, -0.83154297, -0.24377441, 1.5048828, 0.14050293, -1.4980469, 0.97998047, 0.70166016, -0.020690918, 0.26245117, -0.40771484, -0.5161133, 0.017623901, 0.51171875, -1.3769531, -0.13793945, -1.4414062, 2.0039062, -1.8154297, -2.015625, -0.23327637, 0.089782715, -0.6508789, 0.28759766, 3.1582031, -0.78515625, 0.8930664, -1.8994141, 1.0722656, -2.484375, 0.5888672, 0.4482422, 0.68066406, -0.7260742, 0.013710022, -0.32250977, 1.625, -0.77978516, 0.7109375, -1.890625, 1.0058594, -0.28100586, 6.0742188, -1.4765625, -1.8154297, -0.11694336, -0.8652344, 1.0224609, 0.97802734, 3.171875, -0.66064453, -0.71728516, -0.020828247, -0.84472656, -0.8491211, 1.0458984, 0.48754883, -0.67626953, 0.025909424, -0.77197266, -0.31933594, 0.9238281, 0.7192383, 1.0458984, 1.8925781, -0.26513672, 0.36889648, -0.22912598, -1.2939453, 0.3479004, 0.32495117, -2.5742188, 1.0458984, 0.14624023, 1.5664062, -1.2353516, -0.42016602, -2.0019531, 2.8535156, -3.1347656, 0.2861328, 0.60498047, -1.2470703, 1.9863281, -2.0351562, 0.76416016, -2.0722656, 0.10638428, 1.421875, -0.10668945, -2.8808594, -1.6054688, 1.1513672, -0.82910156, -1.3300781, -1.8769531, -2.3339844, -0.87890625, -0.42333984, 2.0351562, -1.1660156, 2.0664062, 0.765625, -1.359375, -0.7426758, -1.1474609, -1.4677734, 0.25756836, 1.6503906, -1.5566406, -2.3105469, -2.0761719, -0.57910156, 0.5649414, 1.0146484, -2.0546875, 0.96435547, -0.6850586, -0.38134766, 0.20727539, -1.6201172, 0.29882812, -1.7373047, -0.28515625, 1.2558594, 5.3632812, 1.5722656, -0.6713867, -0.51171875, -2.1875, 2.1855469, 0.5546875, 1.5927734, -1.2832031, 0.16833496, 3.1230469, 0.12878418, -1.3457031, -1.1835938, -0.3696289, -1.7480469, 0.6044922, -0.11968994, -2.390625, -0.27319336, 0.014404297, -0.14453125, 1.3652344, -0.22619629, 2.2011719, -1.3964844, -0.07067871, -0.61035156, 1.2783203, 1.4550781, 0.7363281, -0.80615234, 0.0013008118, 0.40649414, -0.02268982, -0.2244873, 2.4921875, 2.2871094, 0.53515625, 0.56103516, -1.5527344, 1.4580078, -2.0332031, 0.45581055, 0.13293457, -0.9667969, -0.18103027, -2.9101562, -1.8857422, 0.7998047, 0.5307617, -2.3535156, 0.24035645, 1.0449219, 0.9350586, 0.060943604, -0.8535156, -0.64404297, -1.2382812, -1.0039062, 0.9760742, -2.8632812, -0.07006836, 1.3476562, -1.5703125, 0.83203125, -0.7084961, -1.34375, 1.0263672, 2.296875, 4.6171875, 0.8232422, -0.2939453, -0.6455078, 3.3164062, -0.5073242, 0.5341797, 0.48217773, -0.7836914, -0.107666016, -1.4736328, 0.6171875, 1.1484375, -0.4567871, -1.3183594, -0.048217773, -0.2388916, 1.0927734, -0.14074707, -1.6064453, -0.12683105, 0.15063477, 1.0439453, -0.4243164, -0.3552246, -0.36108398, -0.28979492, 0.64208984, -1.2822266, 0.67529297, 1.3964844, 1.4873047, -1.171875, 0.2854004, -1.0078125, 1.0615234, -1.0419922, -0.27270508, 0.46557617, 0.38793945, 1.6630859, 1.8193359, 1.9589844, 2.03125, 2.4902344, -1.5097656, 0.32080078, -0.5161133, -1.9873047, 0.40527344, 1.0712891, 0.40942383, 0.14807129, 1.2617188, -0.2927246, 0.49536133, 0.021850586, -0.33129883, 0.85791016, 2.9140625, 0.53515625, -0.99902344, -0.7753906, 0.19348145, 0.65283203, -1.8486328, -0.6894531, -0.9345703, -0.37646484, 1.2607422, -0.059265137, 2.90625, -2.3515625, -0.94970703, -0.9291992, 1.7890625, 0.7558594, -2.4179688, -0.019821167, -1.2548828, -0.33447266, -2.0585938, 0.57470703, 2.7324219, -0.85009766, -0.8154297, -0.78564453, 2.8671875, 0.9379883, -1.2753906, 1.6992188, -0.97998047, -0.76123047, -1.1220703, 1.0517578, 2.0332031, -2.0859375, -2.4238281, -1.6464844, -0.120910645, -0.6933594, 2.1660156, -0.18041992, -0.51416016, 2.9414062, -0.18151855, 0.09320068, 1.0292969, -0.72802734, -0.5024414, 1.4345703, 0.22631836, 2.4042969, 0.3310547, -0.6064453, -1.4003906, 1.8193359, -0.050048828, 0.9428711, 1.671875, -0.23913574, -0.050811768, 0.4206543, -1.2265625, -1.4199219, 0.28320312, 0.20629883, -0.9458008, 0.45288086, -1.8164062, -0.73291016, 2.0820312, -0.98876953, 1.3076172, -1.2861328, -0.5341797, 0.076293945, -1.6806641, -1.1503906, 0.04638672, 1.3085938, -1.4121094, 0.62060547, -0.93115234, 0.8183594, 0.33569336, -0.20300293, 0.99560547, -0.35668945, 1.5947266, -0.87939453, 0.9555664, 0.7363281, 1.9462891, 0.31811523, -0.039794922, 0.27856445, -1.046875, 1.1845703, 0.6245117, -0.11212158, 1.1855469, -0.54541016, 0.5419922, 0.8383789, 0.5024414, 0.31811523, -0.0602417, 2.3691406, -2.0664062, -0.08538818, 3.5429688, -0.44311523, -0.11187744, 0.5576172, 1.8291016, 0.3544922, -2.296875, -2.4707031, 0.37475586, 1.6435547, 0.6850586, -0.12054443, 2.0742188, -2.2714844, -0.35473633, -0.0057754517, -0.53271484, -1.8505859, -0.17016602, 1.5126953, -3.4179688, 0.004589081, -1.4042969, 2.5722656, 2.4160156, -1.3691406, -1.4228516, -2.1230469, 0.33251953, 0.052856445, 1.8994141, -0.36889648, -0.5107422, 0.06518555, 0.8310547, -1.2265625, 1.0585938, 1.1220703, -1.2441406, -2.0195312, -0.8046875, 0.9082031, 1.2216797, 0.5371094, 0.93603516, -1.8242188, 0.20800781, -0.25561523, -1.9658203, -0.4230957, -2.9824219, 0.7285156, -0.092285156, -2.7539062, 1.9003906, 0.48608398, 0.8432617, -0.101379395, 1.1289062, -0.7758789, 1.2060547, 1.8857422, 0.24829102, -0.39257812, 1.0507812, 1.5185547, -1.3486328, 0.45507812, -1.9697266, -0.5366211, -1.7226562, 0.44213867, 0.044677734, 1.5097656, -1.1142578, 0.07977295, 0.15197754, -0.45336914, -0.9628906, 0.21398926, 0.44799805, 0.09423828, -0.073913574, 0.70458984, -1.2333984, 0.9121094, -1.6542969, 0.0970459, 1.6767578, -0.119506836, -0.093933105, 1.1171875, 2.1816406, 3.0429688, -2.0996094, 0.15637207, -1.1972656, 0.69677734, -2.2578125, -1.140625, -0.9169922, 0.07537842, -3.1640625, 1.59375, 1.3105469, -0.24694824, -0.37280273, 3.1855469, 0.77783203, -0.7841797, 2.9414062, 3.2324219, -0.32666016, -0.8041992, -0.5629883, 0.48901367, 0.69628906, -1.5371094, 2.7675781, -1.9326172, 1.0185547, 4.2421875, -0.52734375, -2.1972656, 0.24719238, 0.4909668, 0.09777832, -0.9819336, 0.7001953, 0.68066406, 0.97021484, -0.94140625, 0.1315918, -1.3671875, -0.06713867, -2.6953125, -0.7192383, 2.5039062, -0.21911621, 0.43554688, 2.0507812, 0.625, 2.7988281, -0.6821289, 1.4736328, 1.9804688, -1.25, -0.3852539, -0.9975586, -3.515625, -0.12030029, -1.2285156, -1.6298828, -0.42749023, -1.3505859, 1.8574219, 1.2001953, 0.7451172, 2.1035156, -1.1308594, -2.7421875, -1.6689453, -2.1777344, -1.9365234, 1.0195312, -0.9658203, 1.0244141, 2.390625, -2.5898438, -0.7626953, -0.64208984, -1.1533203, -1.6962891, 0.23242188, -1.6865234, -0.6298828, 3.1582031, -0.08508301, -3.8359375, 2.5722656, 0.5551758, 1.1591797, -0.40942383, 1.1816406, -0.50878906, 1.7451172, 0.17321777, 1.4130859, 0.88623047, -0.44140625, -2.8359375, 0.36328125, -1.0751953, -0.114746094, -2.2402344, 1.2646484, 1.6513672, 1.6982422, 2.6875, -1.2548828, 0.9926758, 0.5625, -0.34326172, -1.4150391, -0.32421875, -0.4165039, -2.5175781, -1.3466797, 0.8857422, 0.4038086, 0.56933594, -2.0917969, 0.68115234, -0.07281494, -1.3007812, -1.4160156, 0.8305664, -0.41259766, 1.7783203, 0.5957031, -0.1829834, -0.15722656, -2.7304688, 0.20507812, 0.77490234, -0.51123047, 0.22680664, 0.06304932, 0.21813965, 1.1074219, 0.5307617, -0.10699463, -1.2832031, -0.2775879, -0.79345703, -1, -0.74072266, 2.3652344, -1.7265625, -1.6884766, 0.8979492, 1.578125, 2.6308594, 0.34960938, 1.3212891, -1.1201172, 3.2441406, 4.7382812, 0.3388672, -1.5332031, 0.12036133, -0.08746338, 0.21057129, -2.7011719, 0.13549805, -0.28344727, 2.4804688, -0.076171875, 1.2021484, -0.89990234, 1.953125, -1.2050781, 0.39526367, 1.2958984, 0.32177734, 1.8105469, -1.4140625, 0.1932373, -3.1191406, -1.6826172, 0.89746094, 1.5576172, -0.21911621, 0.7636719, 0.90771484, -1.6152344, 0.48950195, -2.6035156, -1.6220703, -1.7958984, 4.2265625, -0.15234375, -2.2773438, 0.07788086, -0.8276367, -0.5078125, 0.80566406, -0.07885742, -2.3066406, 0.48999023, -1.2607422, -0.13574219, -0.12719727, -2.3925781, 1.2763672, 0.5732422, -0.24414062, 1.4326172, 0.0020122528, -0.4638672, 1.9433594, 0.0546875, 0.94628906, -0.54541016, 2.1894531, -0.72802734, -1.0273438, -1.3662109, -1.6083984, -0.1920166, -0.953125, 1.0048828, 0.5932617, 0.65185547, 0.96484375, 1.5185547, -1.5224609, 0.4650879, -0.6381836, -0.9091797, 0.51220703, -0.3010254, -0.17211914, -2.8710938, 0.051330566, -0.28466797, -0.2548828, -1.7998047, -1.28125, -0.39086914, 1.7783203, -1.8886719, -0.5957031, -3.0878906, 1.4833984, 0.4099121, 1.0996094, 0.92871094, -1.6435547, 0.7036133, -1.1542969, 1.8867188, -1.9121094, -0.08807373, 1.1337891, 3.1113281, -2.015625, 0.6201172, -1.3017578, -0.6459961, -0.6845703, -2.8339844, -2.9648438, -0.6513672, 0.42700195, -2.8984375, -1.2890625, 0.3955078, -0.011489868, -1.5214844, 0.39038086, -0.67822266, -0.23803711, -1.3837891, -0.11090088, 0.4753418, -1.9169922, -0.41723633, 0.96728516, 1.9169922, 1.7617188, -0.42041016, 0.022842407, -0.64990234, -1.796875, -0.04574585, 1.9042969, -0.82714844, 1.4550781, 1.6933594, -0.41381836, -0.24267578, -1.4716797, 2.2304688, -1.3945312, -0.24255371, -0.04650879, 0.30786133, 0.45141602, -1.4863281, -0.5292969, -1.0771484, 2.1914062, -1.90625, -1.6787109, 2.4570312, -0.92333984, 2.2929688, -0.18115234, 1.0097656, -0.27514648, -0.3720703, -1.1767578, 1.2421875, -1.1474609, -0.9873047, 0.8154297, 2.8046875, 0.48632812, 0.91259766, -1.0869141, -0.28100586, -1.6855469, -1.9736328, 1.6445312, 0.62109375, 0.4309082, 2.703125, -0.66015625, -1.4052734, 2.046875, -1.7080078, 0.28344727, -1.4326172, -0.6152344, 2.4199219, -1.2207031, -1.7314453, -2.6875, -1.6826172, -2.5117188, 0.9067383, -0.9707031, -0.6645508, -0.01512146, 0.34228516, -1.0097656, 0.4399414, 0.26293945, -1.4550781, 1.1464844, -0.18408203, -2.078125, -0.47998047, -1.0859375, -0.47338867, 0.2133789, 0.020706177, -0.22766113, -1.2285156, -1.8105469, -0.68115234, -2.5253906, -1.1865234, -0.44604492, 4.265625, 1.4638672, 3.4511719, 1.2050781, 0.6113281, -1.0986328, -0.4958496, -3.6386719, -0.09753418, 2.7851562, -0.28955078, -0.7084961, 1.5742188, 0.92822266, -1.0058594, -1.5683594, -4.0820312, -0.8901367, -0.11212158, -0.5004883, 1.3642578, 0.76904297, 1.2636719, -0.0597229, -0.21081543, 0.32421875, 0.7006836, 1.3046875, -0.6928711, 0.12780762, 0.8203125, -1.9306641, -0.734375, -0.9614258, -1.8945312, 0.09857178, -0.24157715, -1.2285156, -0.6435547, -1.9941406, 0.026748657, -0.1907959, -0.8051758, 1.8300781, 1.4042969, 0.75927734, -1.6796875, -0.08111572, 0.52978516, 2.1503906, 1.2636719, 0.07519531, -0.16247559, 1.6494141, -1.7773438, -1.3183594, -0.123168945, 0.46533203, 2.2929688, 0.07550049, 0.6542969, -0.85791016, -0.82128906, 0.58447266, -3.1464844, -1.4023438, 1.8935547, 0.48242188, -1.5146484, 0.28173828, -0.69873047, -1.5634766, 1.0820312, -1.4599609, 0.2614746, 1.4755859, -0.22192383, 0.012512207, 0.3449707, 1.7236328, -0.59765625, -0.31201172, 0.3930664, -0.63964844, 0.6225586, 1.3632812, -0.859375, 1.2304688, -0.20336914, 1.1699219, 0.31713867, 2.9238281, -0.1307373, 1.0410156, 0.66748047, -1.6621094, 0.25756836, 0.11206055, -0.7138672, -0.21228027, 0.2619629, 0.7524414, -1.1796875, 0.6435547, -0.10882568, -0.59277344, -0.10723877, -0.8222656, 1.2666016, 1.4863281, -2.671875, 0.07714844, -0.6796875, -0.58154297, 2.0253906, -0.21801758, 0.6484375, -0.5473633, 2.3886719, -0.6958008, -0.5644531, -2.0703125, -0.97753906, -1.0146484, 0.048950195, -1.8466797, 0.87597656, 0.26416016, -0.859375, -0.56884766, -3.8515625, 0.94628906, -2.3671875, 0.09259033, 0.07739258, 0.26416016, -0.6767578, -0.058929443, 1.8007812, -1.6083984, -0.5625, -0.035583496, 1.359375, 0.85595703, -0.7084961, 0.15063477, -0.42944336, 0.08972168, -0.6982422, -1.09375, -0.24157715, -0.4892578, -1.078125, 2.0566406, -2.1171875, -0.40649414, 0.29052734, -0.6357422, -0.37451172, 1.6113281, -0.5419922, 0.45092773, 1.0986328, 0.37280273, -0.44750977, 0.31152344, -1.9580078, 0.36376953, -0.19641113, 0.19934082, 1.640625, -0.41870117, -0.90722656, 1.6035156, -1.1542969, 1.2607422, 0.6191406, 0.59716797, -0.26879883, -0.2644043, 0.8388672, -0.18811035, -1.6787109, 5.1484375, 0.2878418, 0.7006836, -0.8388672, 1.4980469, -1.34375, -2.8242188, 0.18762207, -1.2626953, -0.27856445, -0.4387207, -0.6040039, -1.3076172, -1.2724609, 0.27270508, -2.6660156, 1.4677734, -0.98583984, -0.5336914, -0.80029297, -0.90966797, 1.6787109, -3.2109375, -1.8232422, -2.9335938, -0.6118164, -1.4394531, 0.88720703, 0.10675049, 2.2714844, 3.2226562, 1.6650391, -0.33984375, -0.78515625, -0.21679688, -0.890625, 1.3408203, 0.72998047, -0.28271484, 0.36376953, 0.49438477, 1.8505859, -1.2841797, 1.3242188, 1.3935547, -0.5229492, 2.9394531, 0.79248047, 2.28125, 2.1757812, 1.1748047, 0.58984375, 0.2512207, 0.46606445, -0.9301758, 1.7695312, 2.6835938, -0.22009277, -2.5019531, 0.3869629, 0.3203125, -0.57666016, 0.96435547, 1.1523438, -0.09106445, 2.5078125, 3.1425781, -0.24060059, 0.95654297, 2.0664062, 1.3671875, 0.6850586, -0.42944336, 0.79345703, -3.7871094, 2.0253906, -0.6484375, 0.6328125, -4.2539062, 0.6245117, -0.89746094, 0.6171875, -0.79785156, 1.1923828, -0.375, -0.7163086, -0.11206055, 2.1601562, -3.7714844, 0.40185547, 1.1289062, -0.25561523, -1.0429688, -0.99609375, -0.49316406, 0.93066406, 1.1816406, -0.734375, -0.86816406, 0.09637451, -0.7973633, -0.20947266, 0.30566406, 1.390625, -2.9199219, -2.2050781, -0.8276367, 0.11279297, 1.5644531, -1.9355469, -0.8417969, -2.1621094, 0.15393066, -1.5820312, 0.51660156, 0.00097227097, 0.1928711, 0.6064453, -2.4257812, 1.5185547, 1.1894531, 0.83740234, 1.6796875, -2.6367188, -1.4208984, 0.8613281, 0.6586914, 0.81884766, 0.21850586, 2.15625, 0.21875, 0.40307617, -1.828125, 0.80371094, 1.8251953, -0.88720703, 3.9199219, -1.015625, 0.9350586, 0.34716797, 0.99121094, 0.9013672, 0.35351562, -0.30517578, 0.7426758, -2.0058594, -3.7519531, 0.23632812, 0.9038086, 0.47143555, -2.296875, -0.022094727, -0.6088867, 1.3037109, -0.005504608, 0.5258789, 0.98095703, 2.8085938, 0.33129883, 2.328125, 0.41796875, -0.9135742, -0.8183594, -1.5126953, 0.29760742, -0.4272461, 0.6542969, -1.3740234, -1.5859375, 2.1738281, -1.0673828, -2.1933594, 0.3461914, -0.7861328, -0.11584473, -0.25048828, -0.7294922, -3.0117188, -0.28442383, 1.5097656, 2.4609375, -0.13513184, 1.9580078, 1.0322266, 0.0904541, 0.17614746, -0.4309082, -0.4951172, -0.27661133, -1.0019531, -0.90527344, -2.71875, 0.75927734, 0.5180664, -1.9667969, -1.4492188, 0.6933594, -1.0146484, -1.3720703, 0.98046875, 1.0449219, 1.4482422, 3.5546875, -0.8466797, 1.1210938, -1.1279297, -3.5175781, -0.03289795, -2.0566406, -0.5361328, -0.0949707, 0.5732422, -1.0859375, 0.4428711, 1.2080078, 0.20935059, 0.2322998, 2.3535156, 1.4726562, 1.5585938, 0.69433594, 0.14819336, -0.22424316, 0.87353516, 1.4951172, 1.2695312, 2.7148438, -1.8144531, 1.9697266, 1.8339844, -0.5024414, 1.4121094, 0.03491211, 0.33129883, 2.0253906, 2.1113281, -0.044281006, 1.9736328, 1.1914062, -3.6777344, 0.117370605, 1.0947266, -0.640625, 0.15527344, -0.984375, -1.3271484, -2.0078125, -1.0058594, -0.4116211, -1.3789062, -0.30541992, 0.66503906, -2.4160156, -1.1777344, 1.6533203, 1.4521484, -1.8730469, 2.25, -0.5517578, 0.3696289, -0.5966797, 0.7739258, -1.7607422, 2.3730469, -1.1328125, -0.07598877, 0.12512207, -1.359375, 0.48876953, 1.3134766, -2.6835938, 0.24401855, 1.9160156, -2.2714844, -0.28833008, 3.2539062, -0.36401367, -0.8989258, -1.4013672, -0.3076172, 1.0253906, -0.42749023, -1.4570312, -1.2783203, -1.3984375, -1.828125, 0.33935547, -0.29467773, 1.0986328, -1.1035156, -2.3632812, 2.9121094, -0.5131836, 0.92578125, -0.3725586, -0.40722656, 1.6171875, 0.4345703, 0.5761719, 0.19152832, -1.9824219, 2.421875, -0.8696289, 2, -0.31860352, 0.4111328, 1.9628906, -0.47802734, 0.27197266, -2.1132812, 2.0664062, -0.29614258, 0.07067871, 0.96435547, -1.109375, 1.4941406, -0.15478516, -1.5595703, -0.62597656, -0.1607666, 0.66015625, -0.51904297, 0.12133789, -0.3100586, -0.25585938, 0.79052734, -0.8935547, 1.2275391, 0.99609375, 1.9355469, 1.2763672, -0.100097656, 1.0839844, -2.4511719, -0.33789062, -0.80859375, -0.004272461, -0.92041016, -2.6347656, 0.49609375, 0.90478516, -0.3112793, 1.0986328, -0.7861328, 2.4453125, 0.1821289, -0.48828125, 1.4111328, 0.07244873, 0.54589844, 0.8515625, -0.93603516, 0.4814453, -0.08355713, 0.6386719, 1.9130859, 0.019256592, 0.43286133, 0.88427734, 3.2753906, 1.1328125, -1.0175781, 0.72216797, -0.095703125, 1.0146484, -1.1757812, 0.46972656, -0.16503906, 1.6152344, -0.8388672, -0.14379883, 0.22839355, -0.6254883, -0.57373047, -2.7578125, -2.09375, -2.0253906, -1.3974609, 1.5126953, 0.7529297, 2.3164062, -2.0742188, 0.7578125, -0.3864746, -0.11138916, -0.3088379, -0.35351562, -2.8242188, 0.68310547, -0.8286133, 2.0234375, -1.6591797, 1.4580078, 0.66259766, 1.8242188, -2.9257812, -0.18347168, -0.4555664, 1.4970703, 0.36791992, -0.15136719, -0.019363403, -0.3322754, 0.7739258, -1.0107422, 0.9716797, -0.63916016, 0.0014257431, -1.3017578, -2.1816406, -1.5185547, -4.59375, -0.2902832, -0.3310547, 0.5488281, 1.3339844, 1.7773438, -0.9404297, 1.2451172, 0.5151367, 1.2558594, -3.7871094, -1.4013672, -0.16040039, 0.88183594, -2.9082031, 0.32348633, -0.7246094, -0.47729492, 0.8618164, 0.30566406, -1.7744141, -2.1503906, -2.1855469, 0.8989258, -0.89404297, -0.5131836, -0.63964844, 1.5722656, 1.6376953, 1.4355469, -1.6201172, 0.88720703, 1.2070312, -0.32885742, -1.8583984, -1.4873047, -2.0351562, -1.9599609, -0.7216797, 0.36523438, -0.67529297, 0.6816406, -1.8339844, 1.5410156, -0.14453125, -0.7470703, 0.11035156, -0.13562012, 0.71533203, 0.49658203, 2.6621094, -0.64404297, 0.6088867, 0.34643555, 0.04562378, -0.8154297, 1.0654297, 1.5839844, -0.109375, 0.28833008, 1.2314453, 1.8574219, 1.0400391, 0.016235352, 0.045684814, -0.96484375, -0.96533203, -2.5078125, 2.5859375, 0.066223145, -0.30517578, -1.7021484, 0.31176758, -1.7197266, 1.6210938, 1.4667969, 1.4384766, 1.5283203, -0.58447266, -0.58984375, 0.42651367, 0.4182129, -2.4824219, -0.9814453, 1.4980469, 0.6464844, -0.19677734, 1.6904297, -1.3037109, 0.59716797, -0.5732422, 0.3461914, -0.46411133, -1.0029297, 1.5087891, 1.2470703, 0.5395508, 0.3010254, 1.4501953, -0.46850586, 0.6582031, 0.58251953, -0.09838867, -0.22570801, 2.1367188, 1.1757812, 0.18469238, -1.0107422, -0.26611328, -2.0019531, 0.3581543, -1.0654297, -0.01184082, 1.2470703, 0.9609375, -4.2539062, -0.05728</t>
-  </si>
-  <si>
-    <t>[1.2714844, -1.2724609, 0.98583984, -1.3037109, -0.46289062, 0.5317383, 0.05935669, 0.79248047, 0.1282959, -0.20593262, 1.0527344, 1.7197266, -0.86376953, 1.4570312, 0.21691895, 0.60839844, 0.5678711, -1.8916016, -0.41552734, 0.9838867, -0.11639404, 0.3034668, 0.65771484, 0.6894531, -0.5019531, 2.25, 0.084228516, -0.26660156, 1.6162109, -0.08862305, 0.15722656, 3.5976562, -0.34423828, 1.0019531, -0.13293457, -0.47827148, -2.6132812, 0.65185547, 4.1015625, -0.9746094, 1.4335938, 2.6523438, 2.375, 1.7080078, 0.21740723, 0.67529297, -1.1835938, -0.5888672, -0.76123047, -0.20397949, 0.63427734, 0.17358398, -1.3867188, 0.96533203, -1.9775391, 0.045532227, 1.3046875, 1.3291016, 0.97265625, 0.9555664, 0.22607422, 0.99316406, -0.18713379, -0.6699219, 2.0273438, -1.3417969, -0.61621094, 0.8623047, 1.4072266, 2.2519531, 1.9619141, -1.9072266, -2.6914062, 0.7397461, -0.6621094, -1.5498047, 0.93359375, -0.8642578, -0.015007019, -2.3261719, 0.18322754, -1.6142578, -1.1025391, -1.0996094, 1.1425781, -0.9394531, -0.6533203, -1.5078125, -0.82666016, 0.18347168, 0.058746338, 0.36987305, -0.6123047, 0.09277344, -1.5537109, -0.83984375, -0.63183594, -1.6992188, -1.5361328, -0.47802734, 0.54052734, 0.8154297, -0.5908203, 1.46875, -0.21508789, 0.8642578, 0.11920166, -1.8779297, 0.65234375, -2.5332031, -2.5332031, -0.6591797, 1.0917969, -1.2998047, 2.84375, 2.3378906, 0.8486328, -1.3476562, 0.9916992, -1.46875, 0.61816406, -0.6098633, -1.1679688, 2.4863281, 1.1640625, -1.4667969, -0.50634766, -2.1191406, -0.18725586, 1.7441406, -0.6586914, 1.2167969, 0.7397461, -1.0439453, 0.5341797, 3.8164062, -1.0283203, -1.1591797, -0.3713379, -0.71191406, -1.1064453, 1.7021484, 0.38891602, 2.6269531, 1.5546875, -0.28564453, 2.65625, -0.296875, -0.31079102, 0.14257812, -0.30981445, -1.2373047, 3.0175781, 0.4128418, 0.87939453, 1.6777344, 1.4902344, -2.828125, -0.08074951, 1.3154297, -2.2382812, -1.2480469, -0.9736328, -0.45874023, -2.0273438, 0.015258789, 1.7011719, -0.8647461, 2.5507812, -0.5205078, -1.6308594, -1.4082031, 0.43676758, 0.85253906, 0.16906738, 0.6748047, -0.80566406, 0.49853516, 2.2753906, 0.6958008, 1.4316406, 0.46362305, 0.7216797, -2.1972656, 0.69140625, 0.98876953, 0.0982666, 0.32470703, 0.28271484, -1.0566406, 0.9272461, -0.8515625, -1.6015625, 1.1601562, -0.7421875, 0.7504883, -0.328125, 0.3395996, 2.7402344, -1.3544922, -0.38452148, -0.049316406, 0.6020508, 2.0507812, -3.0097656, 2.3144531, -0.94677734, -1.2958984, -1.2792969, -0.24072266, 0.9584961, -0.50683594, 0.36816406, -0.07635498, -1.2050781, -0.72558594, 1.6679688, -2.0800781, -0.14050293, 0.08508301, 0.6386719, 0.828125, 1.4355469, -0.23571777, 0.76904297, -1.0722656, -1.9580078, -0.4465332, -0.2602539, 0.578125, 2.1328125, -0.085876465, -0.8198242, 1.5947266, 1.5576172, 0.31591797, 1.15625, 1.3193359, -0.8149414, 2.2910156, -0.34814453, -0.48583984, 0.17883301, 0.49658203, 0.15100098, 1.4580078, 1.0400391, 0.15209961, 4.25, 0.7636719, 3.9667969, 0.97558594, -0.28320312, 2.1640625, -1.1035156, 1.0039062, -1.8310547, -0.49194336, -0.4074707, -2.1425781, 1.1962891, 0.7949219, -0.8901367, 1.6484375, 0.9399414, 0.41552734, 1.6025391, -0.2208252, 0.36889648, 0.0055351257, -0.5361328, 0.01424408, 2.3535156, 1.0107422, 0.1348877, 1.5800781, 3.0273438, 1.3642578, -1.6845703, 1.6259766, -0.77734375, 0.0015869141, 1.6708984, -0.06317139, 0.4892578, -0.093811035, -0.73046875, -0.3779297, -2.6503906, -1.2998047, -1.6279297, -0.44970703, -0.5395508, 0.31103516, -0.14404297, 0.96484375, 0.48168945, -0.4189453, 0.06286621, -0.87597656, -1.1103516, -0.27026367, -1.59375, 0.28320312, -0.80322266, 0.6352539, 1.4755859, 0.23461914, 0.43066406, -0.9453125, -0.8276367, -0.95996094, -0.7739258, -0.74316406, 1.2998047, 0.62597656, -2.3789062, 0.95410156, -0.8144531, -3.0117188, -1.4199219, -0.7314453, 0.63916016, 0.44750977, -0.49389648, -2.6425781, 1.2470703, 4.8359375, 2.5332031, 1.203125, 2.0058594, -0.21813965, -2.5058594, 0.19177246, -0.60546875, 1.9716797, -0.9980469, 3.4941406, -0.064575195, -0.09655762, -2.0390625, 0.39624023, -1.0644531, -0.1081543, 0.60058594, 1.1708984, -3.1914062, 0.8120117, 1.5654297, 0.22143555, 0.421875, -0.2175293, 0.5883789, 2.109375, -0.34204102, -0.6982422, 2.1425781, 0.0019054413, -2.5527344, 1.8486328, -0.21557617, 2.3085938, -0.88183594, 0.8198242, -0.12322998, -1.7490234, -0.6308594, -0.38061523, 1.3408203, -0.93603516, -0.28344727, 1.3769531, 2.4296875, -0.21459961, -0.40649414, -1.5605469, 0.7944336, -0.5654297, -0.15490723, -1.0898438, -1.1357422, 1.1523438, -1.0371094, 0.101745605, -0.6533203, 0.68408203, 1.5742188, 0.31469727, 0.76464844, 0.6328125, 0.2565918, -0.88134766, 0.20751953, -2.7363281, -1.1103516, -0.5053711, -0.7192383, 3.5058594, -1.0019531, 0.23779297, 0.29125977, -1.0839844, -0.4724121, 0.6875, 0.37451172, 0.5209961, -1.0859375, 0.4345703, 0.9589844, 0.67285156, -2.3535156, 1.6464844, -1.7382812, -1.6806641, -1.6611328, -1.4902344, 1.3554688, 0.23937988, 1.3115234, -0.52246094, 2.3984375, 1.6621094, -0.19226074, 0.27368164, 0.55126953, -0.4934082, -1.6923828, 0.078186035, -1.0517578, 0.4177246, -0.5263672, -0.6611328, -0.87939453, 3.8710938, -1.5625, -1.390625, 1.9736328, 2.3613281, -2.5332031, -0.036071777, -0.06335449, -0.6953125, -1.6396484, 0.3852539, -0.007194519, 3.0839844, -0.107910156, 0.51416016, 0.14624023, -0.39672852, 0.29638672, 1.7978516, 0.9951172, -0.37573242, -0.34399414, -1.6806641, 0.07006836, -0.25268555, 0.2746582, -0.79589844, 1.125, 2.1113281, 2.8769531, -2.0039062, -1.5439453, -0.6220703, 1.1162109, 2.1777344, 0.89697266, -0.5830078, -0.5761719, -2.0351562, -1.7509766, -0.25756836, -0.78125, 1.7998047, -0.76708984, 0.08477783, 0.21618652, -4.71875, -0.109375, 0.85302734, 0.14941406, 0.2208252, -1.4628906, 0.96240234, -1.0791016, -0.14709473, -1.2089844, -0.18469238, -1.1757812, -1.4980469, 0.5908203, -0.085510254, 3.7929688, -0.84472656, -0.0793457, 1.3808594, 0.57177734, -0.70703125, -1.1035156, -1.7802734, -2.6953125, -1.3242188, -1.7998047, -0.7133789, 1.8994141, 0.4243164, -2.9238281, 2.2011719, -0.74609375, 0.87646484, 0.6191406, -0.2355957, -1.2539062, -0.2602539, 1.9736328, -0.91845703, 0.17687988, -0.0121154785, -3.3261719, -1.2324219, 0.19311523, -1.0976562, 0.6933594, 2.6933594, -1.1347656, 1.2265625, 0.29345703, -0.13012695, 1.4462891, 2.0273438, 0.14172363, 0.79248047, 0.43725586, 0.17333984, 0.8095703, 0.101501465, 0.59521484, 1.6083984, -1.3798828, 1.3378906, 0.5854492, -1.3652344, 1.0371094, -0.5600586, -2.4296875, -0.7114258, -0.61328125, -1.6523438, -0.97558594, 1.1386719, -0.9394531, -0.007194519, 1.6689453, 1.0966797, 1.5878906, 0.5292969, 1.8837891, -3.3769531, -1.6796875, -2.3007812, -1.4189453, -1.4853516, -1.6044922, -0.79833984, -1.2080078, 0.88671875, 0.36694336, -0.45581055, -5.1796875, 0.60839844, 1.3398438, -1.0976562, 1.2011719, 0.08709717, -0.45483398, -1.2734375, 0.038146973, 0.1463623, 1.0527344, -0.34960938, 0.35131836, -0.40527344, 0.9243164, -0.009773254, 0.3203125, -0.5126953, 0.88671875, 0.10058594, -1.2324219, 1.2958984, -0.4741211, 2.2519531, -3.1953125, 0.1484375, -0.09118652, 0.29516602, 0.78759766, 0.28686523, 0.82128906, -0.24523926, -0.78222656, -1.5351562, -0.2685547, 0.4609375, -0.15612793, -0.42163086, -1.3535156, -0.44873047, -1.2089844, 0.18469238, 0.7006836, -0.9277344, -0.83496094, -0.8652344, 0.57177734, -1.5742188, 0.55566406, -0.51660156, 1.0390625, -1.8876953, -0.2043457, -1.8203125, -0.5126953, 0.8227539, -1.8789062, -0.0317688, -1.0292969, 1.0585938, 0.1239624, -0.67041016, -0.48779297, -3.7792969, 0.8496094, 0.044403076, -0.12133789, 2.3027344, 0.21984863, 2.2109375, 0.75, 0.45239258, 0.40673828, -3.6972656, 0.002450943, 0.11804199, 0.7861328, 1.9863281, 1.1103516, -1.1972656, 0.19433594, -1.3212891, -1.0986328, 1.5, 3.3261719, -0.18713379, 1.9472656, 3.3457031, -0.3059082, 3.7851562, -1.6503906, 0.71875, -1.1894531, -1.484375, 3.0390625, -0.49438477, -1.0029297, -1.8818359, 1.8076172, 0.53515625, -1.7421875, 2.4492188, -1.2050781, 1.9316406, -0.6088867, -0.23327637, 0.3408203, 2.5058594, 1.1972656, 0.5566406, 1.9599609, -2.1933594, -0.055999756, 2.9355469, -0.9707031, -0.7192383, 0.26538086, -0.5083008, 1.1621094, -0.52734375, -1.3193359, -0.51708984, 0.41552734, 0.1463623, -0.7919922, -0.006591797, -4.4609375, 1.2294922, 0.61035156, 0.5761719, 1.0927734, 0.8569336, -1.4677734, -2.7148438, -0.9008789, 0.31860352, -0.099487305, -0.9213867, -1.6699219, 0.86083984, -1.3603516, 1.2246094, -0.5332031, -0.59277344, 1.5644531, 1.0371094, -0.12695312, -2.9648438, 1.4277344, -1.9355469, 0.3083496, -0.6142578, -1.0722656, -1.078125, 0.072753906, 1.2597656, 0.92041016, 1.3115234, 0.042022705, 0.74365234, -0.10443115, -1.2080078, 0.49047852, 0.65527344, 1.921875, 0.15100098, -0.14453125, -0.96533203, -1.1396484, -1.2851562, -0.5361328, 0.7451172, -0.6176758, -2.2011719, 0.5004883, -0.36376953, 1.3583984, -1.1894531, 1.2929688, 0.47753906, 0.29760742, 1.2373047, -0.23522949, 0.16113281, -3.6152344, 1.1992188, 0.5761719, 0.2208252, 0.17614746, 1.4775391, -0.5751953, -0.25805664, 1.6015625, -0.27294922, 1.4560547, 1.5449219, -0.75634766, -3.3320312, 0.4074707, 0.056274414, 0.6376953, -0.9506836, 0.83251953, -0.1887207, 0.12158203, -2.9960938, 0.7241211, 1.6181641, -1.4511719, 1.0224609, -0.46240234, -0.41308594, -0.26660156, -1.7099609, -1.9511719, 0.19116211, 0.8696289, -0.01247406, -1.3603516, 1.4521484, -0.037994385, 0.2800293, -0.83203125, -0.026397705, 0.4675293, -0.83740234, -0.82666016, 0.6796875, 1.21875, 1.0175781, 0.6796875, -2.0859375, 0.2692871, -1.5947266, 1.9853516, 2.3066406, -0.52246094, 0.9716797, 0.18225098, -1.3066406, 1.6865234, 0.14147949, 0.82666016, 1.9072266, -0.13586426, 0.9267578, -0.15307617, -2.1425781, 2.140625, -0.8276367, 1.6865234, -1.3173828, -1.6015625, -0.8413086, 2.1308594, 0.4182129, 0.03643799, 0.8251953, 1.2519531, 1.8271484, -1.2490234, -2.0625, 0.24768066, 0.6376953, 0.6870117, 0.8183594, -0.07788086, 3.2714844, 1.3544922, 0.6875, 1.9150391, 1.328125, -1.6640625, -1.0947266, -0.75146484, 0.23120117, 1.2392578, -1.6953125, 0.6347656, 2.1914062, 1.4091797, 1.0722656, -0.7402344, -1.6289062, 2.6816406, 0.19360352, 1.7675781, 0.34936523, -2.0976562, -0.80859375, 1.0673828, 1.6591797, 1.3095703, 1.1728516, 0.043182373, 0.765625, -1.1660156, -0.17028809, -0.34326172, -0.38500977, 1.8720703, -0.21484375, 1.2353516, 0.029632568, -0.5708008, -0.041290283, -1.0136719, 1.25, -0.3942871, 0.5317383, 0.8413086, 0.7973633, -0.75097656, 3.1113281, -0.625, 0.26171875, -0.45483398, 1.3515625, -1.6171875, -1.0361328, 0.77197266, -1.4541016, -0.3935547, 2.3046875, -0.5205078, 0.58740234, -0.19042969, -1.8144531, -1.9960938, -0.52001953, -2.7246094, 0.050201416, 2.6816406, 0.3618164, -0.9970703, -1.4619141, 0.02281189, -0.08300781, 1.6171875, 2.5351562, -0.4099121, 1.3691406, 0.02609253, 0.6816406, -0.7451172, 0.20361328, -2.4160156, -0.57421875, 0.2746582, 1.0419922, -1.4677734, -3.7910156, 0.79248047, -1.2167969, 0.11791992, 0.26879883, 1.4189453, -0.98876953, 1.2558594, -0.16333008, -0.35668945, -0.84472656, 1.5751953, -1.8720703, -1.8466797, -0.2775879, 0.25073242, -0.66308594, 1.328125, -0.2915039, -0.8540039, -0.86328125, 0.48486328, 0.33520508, 1.4892578, -2.5839844, 0.089416504, -0.87402344, -1.2646484, -2.3457031, -0.22485352, 2.3027344, -0.9819336, -0.5605469, -2.234375, 0.048065186, -0.89697266, 1.8613281, -0.9399414, -1.8837891, 0.19384766, -2.2890625, 0.018814087, -0.41577148, 0.8208008, 0.8847656, -0.6459961, -0.35473633, -2.5195312, -0.8520508, -2.9140625, 0.47216797, -2.0292969, 1.7597656, -1.6103516, 0.5761719, -0.4272461, -0.86816406, 0.26293945, 0.52197266, 0.9086914, -1.9980469, -1.5185547, 1.3193359, 2.3203125, 0.7817383, 1.0039062, -0.34521484, -2.2519531, 0.74853516, 0.21325684, -1.7792969, -2.4082031, 0.43945312, 0.21203613, 0.5957031, 0.8520508, -0.7109375, -2.4726562, 1.5625, 2.03125, 0.21972656, -0.10723877, 0.72021484, -0.4753418, -0.63427734, -0.57666016, -0.4074707, -1.0654297, 0.37158203, 0.14086914, 2.8339844, 0.5644531, 0.47607422, -3.8710938, -0.31518555, -0.33911133, 1.09375, 0.46289062, 0.38134766, 0.44140625, -0.83984375, 0.8095703, -0.0625, 0.7583008, -1.8554688, -1.4462891, 1.1054688, 1.125, 0.18371582, -0.5917969, -0.8466797, 3.3574219, -0.40820312, 0.84765625, -2.5644531, -0.13671875, -0.9248047, -1.6933594, -1.171875, -0.9848633, 0.39135742, -1.3447266, -3.0820312, -1.1777344, 1.6523438, 2.3730469, 1.6347656, -0.7832031, -1.1025391, -0.32373047, -1.6503906, -0.29101562, -1.5771484, -1.5878906, -1.8349609, 1.03125, -0.2631836, 0.2578125, 2.625, 1.5908203, -2.0703125, -1.9716797, 2.7695312, -1.3417969, -0.39746094, -0.41210938, 0.21557617, 0.3779297, 0.7036133, 0.4699707, 0.16589355, -0.4675293, 1.2753906, 2.0117188, 0.77246094, 1.4511719, 0.6352539, 0.05001831, -2.3183594, 0.9433594, -0.27685547, -0.54345703, -1.9775391, -1.4833984, 1.2226562, 0.27270508, -0.9638672, 0.09918213, 0.029434204, -2.4160156, 0.66259766, -0.9086914, 0.8261719, -0.4794922, -0.07751465, 1.6347656, 0.29223633, -0.38745117, 0.118652344, 0.9272461, -0.65625, 0.14892578, -1.1972656, -0.13879395, -0.54541016, 0.034301758, -0.6015625, -2.3242188, -1.0078125, -2.5039062, -0.81689453, 0.15185547, 0.484375, -2.6601562, -0.62109375, -0.52246094, -0.005458832, -0.33007812, 0.5136719, 0.3544922, 1.2285156, 1.1474609, -2.2089844, 0.46191406, -2.1328125, 0.039794922, 2.8632812, 0.35791016, 1.7578125, 1.2529297, -1.6728516, 0.31762695, 0.6166992, 0.33569336, 1.1806641, 1.0693359, -0.21875, -0.8208008, 0.48168945, 1.5410156, 3, -2.8847656, 0.35205078, -0.32836914, 1.4755859, -0.7680664, -1.7744141, -0.16687012, -1.2919922, 1.5058594, -1.3330078, -1.1523438, -0.53271484, 0.7524414, 1.6191406, -2.1386719, -0.48583984, -1.1689453, 1.7939453, 0.49047852, 1.2353516, 0.08276367, -0.5258789, 3.2109375, -1.3427734, -0.55615234, 0.61035156, -2.1210938, -0.54345703, -0.65966797, -0.19372559, -1.4228516, -1.5869141, 0.020965576, 2.0722656, -1.5351562, -0.47338867, 3.2871094, 1.0654297, -0.6459961, 0.4868164, -0.2890625, -0.6088867, 0.3305664, 1.3320312, -0.57177734, -1.1542969, -1.4072266, 2.0019531, -0.7324219, 0.36157227, -0.9086914, 0.4621582, -1.8769531, 0.73339844, 1.1513672, 0.077941895, -1.1376953, -0.85839844, -1.2705078, -0.55126953, 0.82421875, 1.1611328, 1.2011719, 0.62841797, -1.8164062, 2.2207031, 0.46069336, 0.5854492, -0.875, 1.3896484, -0.08001709, -0.54785156, 1.6699219, 0.34033203, 1.4023438, -0.09161377, 2.3710938, 1.25, -2.2734375, -0.87158203, -0.06109619, 1.21875, 0.38867188, -0.9926758, 0.16589355, -0.43676758, -0.8125, 1.2880859, -1.7929688, -2.7167969, 0.5810547, 0.8540039, 0.030426025, 0.6948242, -0.22363281, 1.9072266, -0.4428711, 1.3027344, 1.0048828, 1.7460938, 1.6826172, -0.5888672, 0.093933105, 2.0253906, 1.3798828, -3.7617188, -0.29638672, -0.71435547, 0.04537964, 2.4550781, 0.40771484, -0.035339355, 1.5390625, 3.6152344, 0.57714844, -1.4833984, -1.5849609, -0.9819336, 0.8510742, 0.10266113, -2.1933594, 0.9970703, 1.0351562, 1.5957031, -0.953125, -1.0625, -0.004085541, -2.0820312, -1.4082031, 0.20800781, -0.14318848, 0.58935547, 0.9580078, 0.6225586, 0.69970703, 0.5, -1.5791016, 1.6845703, 0.81689453, 2.1835938, -0.46166992, -2.1230469, -1.8974609, -1.7236328, 0.3005371, -0.9326172, 1.421875, 0.75146484, -2.40625, 0.11743164, -0.671875, -0.80371094, -0.7651367, -0.8725586, 0.8881836, 1.8525391, -1.1005859, 0.26464844, 0.35229492, 0.20703125, 0.9746094, -0.33276367, -0.47729492, -1.5117188, 0.53271484, 0.66796875, 1.0576172, 0.13781738, -0.4152832, -0.07232666, -0.24133301, 0.74072266, -1.1328125, -1.4267578, 0.63623047, 1.7304688, -0.71484375, -0.7211914, 0.7988281, -0.28710938, -0.09161377, 1.5849609, 0.24414062, -0.65527344, -1.9863281, -0.21704102, 1.6425781, -3.9707031, -0.27392578, -0.60839844, -1.2871094, -0.11578369, 2.1386719, -2.5078125, -1.0126953, -0.30908203, 0.34814453, 0.43774414, 4.0078125, 0.9326172, 0.7348633, -0.9145508, 2.1601562, 0.052337646, -0.5786133, 0.8310547, -1.0117188, -2.1855469, -0.017211914, 1.6787109, -0.46264648, 0.77441406, -1.0361328, 1.0185547, -3.0820312, 1.9394531, 0.5239258, 0.9169922, 1.5976562, -1.9570312, -2.9355469, 0.7207031, 0.76220703, 1.0195312, 0.66503906, 0.5878906, -0.88720703, 1.1611328, 0.7397461, 0.98583984, -1.7880859, 0.57470703, -3.8066406, 1.8115234, 0.3774414, 1.4492188, -1.15625, -1.6748047, 0.80908203, 1.6289062, -1.1552734, -2.4394531, -1.3740234, -0.69921875, 1.0019531, -0.6459961, -1.296875, 0.52685547, -0.31567383, -1.7353516, -0.50683594, -1.7666016, 0.20739746, 1.7226562, -1.1513672, -0.77441406, -1.5673828, -1.6816406, 0.9980469, 0.9404297, 0.20263672, 1.1933594, 0.16955566, 1.4414062, -2.8828125, 1.0107422, -0.6738281, 1.4052734, -1.6708984, -1.7460938, -1.2578125, 1.6298828, -2.25, 1.15625, -0.82666016, 5.1132812, 0.17102051, 1.0078125, 1.8417969, -0.95458984, 1.4765625, -0.62060547, 0.28320312, -1.1894531, -1.9414062, 1.2207031, 1.078125, -0.44873047, 1.1933594, 0.12359619, -2.2597656, -0.11505127, 0.16723633, -1.6728516, 0.23303223, -2.0058594, -1.6259766, -0.21936035, -1.6796875, 2.1054688, 1.8896484, 0.22229004, 0.19824219, 2.0273438, -0.24768066, -1.9023438, -1.6201172, 0.7651367, 0.044555664, -2.1835938, -0.47314453, 3.1738281, 0.2277832, -0.059753418, -1.2119141, -0.48828125, -1.4072266, -0.27514648, 0.57958984, 1.8779297, -1.0292969, 2.3203125, 0.7861328, 2.1523438, -0.7680664, -1.1914062, 0.038146973, 0.35253906, 1.875, 2.2089844, -1.1240234, -1.1914062, 0.30810547, 2.1503906, -1.0585938, 0.5800781, 1.8154297, -2.5371094, -0.1595459, 1.7109375, -1.6601562, 4, 0.12023926, 1.2939453, -0.2775879, -0.36791992, 1.2587891, 1.2636719, -1.1445312, -0.4440918, 1.2236328, 1.6591797, -0.21594238, -0.3010254, -1.8339844, -0.15258789, 2.0390625, 0.47680664, -0.11151123, -1.3359375, -0.3540039, -1.6484375, 0.18469238, 2.9140625, 0.13684082, -0.09057617, -1.1572266, -0.171875, 0.5239258, -1.4423828, 0.81152344, -1.1103516, -2.2734375, 0.6855469, -0.066223145, -0.6489258, 1.0087891, 1.0322266, 3.9804688, -0.04345703, 3.0234375, 1.5371094, 0.54785156, 0.23400879, 0.52685547, -1.8193359, 2.2460938, -0.4338379, -5.1914062, -1.6103516, -0.34155273, -0.45410156, -0.79296875, -1.3105469, -0.45166016, -0.9868164, 0.6459961, -0.9926758, -1.5449219, -0.69140625, -0.4033203, 1.2363281, 0.95166016, -0.016281128, 0.42163086, -0.52197266, -1.2832031, -0.58496094, 0.3400879, -0.6464844, 0.9511719, 0.5234375, -2.7402344, -1.4042969, -1.0214844, -0.95458984, 0.53125, 2.4941406, 2.265625, 0.15722656, 1.6806641, -1.0546875, -1.2226562, 1.1738281, 0.2932129, -0.5102539, -1.0927734, -0.57128906, 0.59716797, 0.34887695, -0.25170898, 0.9223633, -1.9228516, -2.1972656, 2.1503906, -1.2734375, 0.97265625, 1.4580078, -0.14160156, -1.9072266, 0.39941406, -0.6479492, 2.4511719, -0.17236328, 0.073791504, 1.0371094, 1.7021484, 1.3554688, 2.7460938, 1.3808594, 2.0703125, 1.4902344, -0.70947266, -1.0976562, 0.8774414, 0.5097656, -0.22180176, 0.8046875, -1.8398438, -0.118774414, -0.38964844, -0.019363403, -1.0019531, -0.90234375, -0.57958984, 0.27807617, 1.2675781, 3.2519531, 0.44360352, -1.0097656, 4.609375, 0.26489258, 0.34887695, -0.97558594, -0.6279297, -0.91259766, -0.75634766, 2.3085938, 0.06707764, -0.033294678, -3.6210938, -3.5605469, -0.7109375, -3.6484375, 0.10211182, -2.6210938, -0.39575195, 1.6591797, -0.65185547, -2.9003906, 1.4833984, -2.2890625, -0.31274414, -0.2631836, 0.4934082, 0.5961914, -1.3583984, -1.3476562, -1.4355469, 0.095581055, -0.46704102, 0.33276367, -3.2304688, -1.1367188, 0.21362305, 1.7451172, 1.4550781, 0.07824707, -0.8408203, -1.234375, -1.2470703, -2.8945312, 1.4365234, -1.2207031, -0.37353516, -1.3945312, 0.18920898, 0.87109375, 1.5761719, 0.08917236, 0.96972656, -1.1230469, -1.4863281, 2.0839844, 1.6230469, 0.19018555, 0.87158203, 2.1367188, 0.47509766, 1.3164062, 1.6035156, -3.0605469, 1.8642578, -0.8823242, 2.3671875, 0.82177734, -2.2949219, -1.6875, 1.3085938, 1.2714844, 0.9951172, -0.30810547, 2.4179688, -1.3300781, 0.3857422, -2.4277344, 1.28125, -2.0019531, -1.9355469, -1.0693359, 2.9179688, 0.9189453, -0.72509766, 2.0800781, 1.0751953, 1.3037109, 4.4023438, 0.85791016, 3.6308594, 0.39379883, 0.5126953, 0.7973633, -0.47558594, -0.7524414, 0.41992188, 0.30859375, -0.36645508, 0.20715332, -0.88964844, 0.19970703, 1.7539062, 2.1425781, -0.119506836, 3.078125, 0.703125, -0.24084473, 1.4921875, -0.90185547, -0.0418396, -0.020584106, 1.4990234, 0.6401367, -0.41064453, 3.2714844, 3.8632812, -2.4765625, -1.3164062, 0.9707031, -0.44091797, -0.4807129, -1.0556641, 0.453125, 4.6054688, 0.63378906, -0.31958008, -2.6015625, -2.6953125, -1.7802734, 0.8105469, 0.04171753, 1.2177734, -0.8730469, 2.2558594, 0.53808594, 1.84375, -0.33422852, -1.4541016, 0.84033203, -0.18469238, 2.7402344, -0.54589844, -0.32470703, -4.0429688, -1.0400391, 1.3173828, -2.3300781, 2.2539062, -1.6708984, -0.5800781, 1.0439453, 2.8378906, 1.0878906, -1.4169922, -2.4042969, -1.9199219, 0.4338379, -0.77197266, -1.6669922, 0.26586914, 2.8183594, 1.5976562, 0.37353516, -1.1044922, -0.46606445, -1.0048828, -0.15759277, 0.048187256, 0.44970703, 0.83740234, 0.46557617, -1.6542969, -2.1152344, -1.9335938, -1.0419922, -1.8447266, -2.8515625, -1.0429688, 0.54833984, 0.5966797, 0.03062439, 0.8696289, -0.8486328, -0.0016965866, -2.9648438, -1.3535156, 0.62402344, -2.1445312, 0.29223633, 2.3574219, -1.3271484, -0.55859375, 1.2958984, -0.2692871, -0.48266602, 0.5493164, -0.61816406, -1.5947266, -0.08312988, -1.8183594, -1.8427734, -2.3378906, 0.89208984, 0.45092773, -0.38745117, -1.1416016, 0.3330078, -1.9335938, -1.4394531, -0.103027344, 1.1269531, -0.2536621, 1.4599609, 0.5761719, -1.3935547, 1.03125, 1.7998047, -3.1503906, 0.8574219, 0.5732422, -0.18713379, 0.13720703, 0.33862305, 0.21411133, -1.0908203, 0.15270996, 1.6542969, -0.40893555, -0.94970703, -2.0839844, -1.4707031, -1.5859375, -3.546875, -3.8457031, -0.97558594, 2.3046875, 3.5449219, 2.0351562, 1.1074219, -0.6894531, 1.7050781, 3.515625, 2.0742188, -0.50683594, -2.2773438, 0.40698242, -1.0888672, -2.1875, 0.73583984, -1.3359375, 0.6323242, 0.42041016, -2.0234375, 3.9199219, 0.2705078, 1.1982422, 0.28125, 0.7294922, 1.3173828, -1.2480469, 0.65478516, -0.42089844, 0.41479492, -0.9707031, 0.32910156, -0.8881836, 1.7568359, -1.3203125, 0.56152344, 0.4675293, -0.4411621, 1.34375, -1.6464844, 0.7636719, 1.5087891, -1.5195312, 0.20629883, -1.1259766, 3.5351562, -0.6669922, -4.1640625, 0.42382812, 0.86816406, -0.4555664, -1.3222656, -1.4199219, 0.8828125, -1.7949219, 0.47851562, 0.90283203, 0.59814453, -0.76220703, 2.9238281, -1.4873047, 5.0078125, -1.0429688, 0.64990234, -1.7441406, 1.9980469, 0.5449219, -0.08087158, -0.37719727, 2.0253906, -3.0957031, 0.16674805, -0.46923828, 2.7558594, 1.4023438, 0.46166992, 0.18603516, -1.0800781, -0.13476562, -0.5864258, -1.7617188, 0.61083984, -1.2744141, 1.34375, -2.4824219, 0.30419922, -0.49438477, -1.1533203, 0.4567871, -2.546875, -1.4511719, 0.5083008, 1.8574219, -0.24133301, 2.5449219, 4.2070312, 0.12548828, -0.3630371, -0.5996094, 1.5595703, -0.50927734, -2.0878906, 1.5302734, 1.7363281, -0.6894531, 1.09375, 2.7851562, -0.099487305, 1.4296875, -0.25219727, -0.6611328, -1.3320312, -1.2363281, -2.8671875, 2.0683594, -0.87646484, -0.034606934, -0.21594238, 0.6777344, -0.88720703, -0.49389648, -0.9165039, 0.5371094, -0.3881836, 3.0214844, -0.035614014, 0.39160156, -0.9897461, 0.73876953, -0.052459717, 0.0025024414, -0.60546875, 0.3010254, -0.18237305, -0.4428711, -3.0527344, 2.9589844, 0.49291992, -1.2431641, 0.24365234, 2.1425781, -1.5107422, -1.0390625, -1.3916016, 0.014572144, -0.17346191, 2.8046875, -1.4160156, -0.22631836, 0.875, 1.2392578, -0.80615234, -1.5712891, 2.7753906, 0.025268555, -1.4746094, -1.2734375, -1.2412109, 0.32983398, -1.8564453, 2.421875, -0.47265625, -1.8515625, -0.16064453, 1.3505859, 1.1445312, -3.3554688, 1.6787109, 1.6953125, -1.0371094, 2.2871094, -1.2041016, -0.1038208, -2.2714844, -1.9355469, -0.09765625, -0.35229492, -0.077941895, -2.1445312, -0.81103516, -0.20800781, -1.1943359, -1.2509766, 2.9609375, -0.6533203, -0.42114258, 0.07763672, 1.0126953, 0.95751953, -0.8354492, -0.36938477, -0.7495117, 0.72753906, -0.37646484, -0.8808594, -1.5849609, 1.0302734, -0.81933594, -1.171875, 2.3417969, 2.7675781, 1.4951172, 1.2929688, -0.4230957, -0.171875, -1.5898438, -0.34643555, -0.8828125, 0.7236328, 0.7368164, -3.1113281, -2.625, 0.35009766, -4.2460938, -0.21044922, -1.0546875, -2.4726562, 3.1074219, 0.32080078, -0.38183594, -0.72802734, 2.1699219, 2.5273438, -3.6171875, 1.3808594, -0.21875, 0.48095703, 1.1123047, 1.0224609, -1.71875, 1.6630859, -2.3632812, -2.7128906, -2.2304688, -1.4853516, -1.8730469, 2.3847656, 1.7255859, 0.5625, -0.58203125, -0.0814209, -0.09790039, -1.0400391, -2.3613281, 1.671875, -1.2978516, -1.4101562, 1.9775391, 0.8520508, 0.53027344, 0.8017578, 0.12182617, 0.10595703, -0.027938843, -0.83447266, -1.5371094, -1.1738281, 0.8564453, 2.5390625, 1.7919922, -0.34472656, 1.2099609, -1.7773438, -0.99072266, -0.49804688, 0.14367676, 1.1220703, 0.765625, -1.6220703, 1.3251953, -0.7192383, -0.08605957, -0.32983398, 0.8520508, -0.052459717, -0.86621094, -0.58496094, 0.90234375, 1.3789062, -0.28735352, -1.4082031, 1.1904297, 1.6513672, 0.5161133, -0.703125, -0.4868164, -0.0026664734, -0.0362854, -0.27490234, -4.15625, -0.2355957, 0.16223145, 0.85253906, 0.484375, -0.25634766, 2.2714844, -0.7910156, 0.06994629, 0.33032227, -0.96972656, -0.083862305, 1.8095703, -2.7832031, 1.5830078, 1.9599609, 0.23669434, 1.7050781, 0.9042969, 1.7275391, 0.20349121, 1.3408203, -1.1083984, -0.4428711, -0.29370117, -0.15551758, -0.30859375, 0.83447266, 0.46191406, -3.8398438, -0.7524414, 0.6328125, -0.26391602, -3.4980469, -0.79052734, -0.8676758, 0.9736328, -2.8789062, 0.6738281, 0.0012044907, -2.0917969, 2.5058594, 0.018157959, 0.17980957, -0.06994629, 0.11047363, -1.1171875, -0.44628906, -1.0576172, 0.07269287, -0.13439941, -0.26782227, 0.96435547, -0.76660156, -0.1887207, 0.24291992, -0.11364746, -3.6386719, 2.0371094, -0.7763672, -1.4375, -2.0664062, 0.8432617, 0.5288086, 1.1123047, -2.3066406, 0.7988281, -1.5527344, 1.2880859, 2.4433594, -0.41308594, 0.07574463, -1.7910156, -0.41235352, 1.2275391, -0.42944336, -0.42797852, -1.046875, 0.765625, -0.29418945, 4.6835938, -1.7714844, 0.6010742, 1.0751953, 2.0097656, -0.70410156, -0.7885742, -1.3457031, -1.0341797, 0.28637695, -1.9208984, 0.6855469, -1.5283203, -0.85595703, -0.0178833, 0.9477539, -1.2226562, -1.5224609, 1.2011719, -0.9501953, 2.2148438, -1.9814453, 1.9599609, 2.2480469, 0.09124756, -0.9736328, -0.5678711, -0.080444336, 0.75683594, 0.0793457, 0.016021729, 0.6142578, -0.40112305, 0.2800293, 1.21875, 0.07373047, -0.33740234, 1.0976562, -0.16821289, 0.9267578, -0.5004883, -1.1972656, -0.61621094, 0.37695312, 2.0546875, -1.328125, 1.7070312, -3.0253906, 0.88916016, -2.6679688, -2.4003906, -0.36206055, -4.34375, 1.6621094, 1.4501953, -0.0692749, -0.0018024445, -0.6201172, 1.4042969, 1.75, -0.47021484, 0.30566406, -2.765625, 0.7944336, -1.8652344, 0.19616699, 1.3476562, -0.15185547, 0.9277344, -2.8613281, 1.4970703, -1.0292969, 1.1904297, 2.9003906, 1.8574219, -0.33813477, 0.49047852, -0.2927246, 0.28857422, -0.12207031, -0.75146484, -0.2783203, -0.3330078, 1.3496094, -1.1464844, 1.6650391, 1.5976562, 2.6171875, -1.9453125, 0.6347656, 1.2480469, 1.6835938, -2.5566406, -0.9111328, 0.34350586, 2.4433594, -0.77246094, -1.1005859, -0.27514648, -1.7998047, 2.5917969, 0.73535156, 1.1357422, -0.28857422, -1.7685547, 0.25952148, -2.2949219, -0.15649414, -3.7109375, -1.9697266, 0.8886719, -0.8232422, -1.0615234, 1.0810547, 1.4355469, -1.3212891, -1.7763672, 0.84033203, -2.0703125, -0.7314453, -0.29248047, 1.109375, -0.7216797, -0.033477783, -0.42089844, 0.8852539, -0.63964844, -1.5625, -2.2792969, 0.88427734, 0.95703125, -0.7841797, 1.6699219, -0.017562866, -3.1132812, -1.4667969, -0.44262695, 0.6665039, 0.5649414, -2.0097656, -5.3945312, 1.1337891, 0.9838867, -0.5366211, -1.5742188, -1.1328125, -0.94628906, -1.1416016, -1.2900391, -1.6679688, -0.22802734, -0.7890625, -0.42285156, -0.5366211, -0.9067383, 0.60546875, 0.26782227, 1.1611328, -0.68896484, -0.33813477, 0.7270508, 0.13305664, -2.7363281, -1.4462891, 0.9238281, -0.71972656, 2.8710938, -0.6616211, 0.14355469, 1.2246094, 1.9921875, 0.9511719, 0.62402344, -0.7573242, -1.5742188, 1.0537109, 0.38134766, 0.3876953, 0.2578125, 2.3085938, -0.20166016, 0.033050537, -0.17480469, 0.26342773, -0.69384766, 0.09967041, -0.037841797, 2.2539062, -0.30322266, 1.5595703, -2.4726562, -3.3652344, -0.43945312, -1.2705078, -0.56884766, -0.75097656, -2.2089844, -0.43798828, -2.3945312, 0.47143555, -0.67285156, -0.12487793, -1.46875, 0.39257812, -0.72998047, 0.038635254, 1.3046875, -2.6640625, -1.6699219, 1.3857422, 1.3740234, 0.5932617, 0.58984375, 0.80615234, 1.0224609, 0.90283203, 0.24902344, 0.07745361, 0.1932373, -1.2851562, -0.66796875, -1.6875, -1.1826172, -1.0283203, -1.5175781, -0.6015625, 2.0507812, -1.9550781, -1.2216797, -1.0439453, 1.2363281, 0.70996094, 2.3769531, -0.7089844, 2.2753906, -0.14587402, -0.67333984, 1.1142578, -0.2619629, -0.009994507, -0.2854004, -1.5673828, -0.17358398, -0.4177246, 0.2709961, 1.0615234, 0.83203125, 2.4277344, 0.115356445, 1.9658203, -0.59375, -2.4550781, -0.36376953, 1.1123047, -1.6748047, 0.9526367, 1.7919922, -0.57666016, 0.87939453, 0.35986328, -1.9257812, 0.75341797, -0.8588867, 2.3261719, 0.5444336, 2.4296875, -0.8847656, 0.50878906, 1.2763672, -3.7558594, 1.34375, 0.6274414, 0.21984863, 0.47827148, -0.98583984, -0.5341797, -0.40551758, -1.3300781, 1.2353516, -1.1855469, -0.38085938, -1.1806641, -3.6425781, 0.53808594, 1.7050781, 0.25683594, -0.3005371, -0.09869385, 0.49536133, 2.4667969, 2.609375, -0.23925781, 2.1835938, -1.4033203, -0.06677246, 0.52246094, -3.0410156, 0.71875, -1.0322266, -0.11566162, -1.4433594, 1.3388672, 1.8193359, 1.8613281, -1.0019531, -1.0878906, -0.98779297, -1.8291016, -0.0087890625, -1.9511719, -0.60546875, 1.2050781, -2.234375, -0.5151367, -0.6879883, -0.39648438, 2.515625, 2.4433594, 0.59033203, -1.1552734, -0.93896484, 3.0664062, 0.22387695, -0.79833984, -0.21740723, 0.69628906, 1.4785156, -1.0341797, -1.703125, -1.0996094, -1.6220703, 1.2851562, -2.5292969, 0.2939453, -0.50683594, -0.18054199, -0.30517578, 1.9160156, -0.33276367, -3.3261719, 1.5693359, -4.3710938, -0.7080078, 0.3569336, -1.1201172, -3.1210938, 0.076416016, -1.5820312, -0.002855301, 0.11810303, -1.0947266, -0.5629883, 1.6035156, 2.609375, 0.4777832, 3.3359375, 0.9091797, 1.4472656, 2.4355469, 1.3896484, 1.3837891, -1.0039062, 0.00013077259, 0.09625244, 0.057250977, -0.7602539, 0.023666382, -1.5566406, -3.8632812, 0.95166016, -0.85546875, 0.67578125, 0.31884766, 0.21728516, 2.3242188, -0.89697266, -2.1640625, 2.6347656, 1.0517578, 0.6542969, -2.0585938, -0.21899414, 1.1230469, 0.6459961, 1.9306641, 0.2956543, 0.9926758, 1.8085938, 0.14868164, 0.6455078, 1.3222656, -0.8955078, 0.42333984, 0.27734375, 0.17736816, -1.6416016, -0.12322998, -1.125, 1.1982422, 0.36450195, 1.7988281, 1.2763672, -0.37597656, -1.9550781, -2.7890625, -2.7480469, -1.1660156, -1.3261719, 0.5209961, -0.81933594, 1.7412109, -0.62841797, -1.2080078, -1.1962891, 0.39770508, 2.7871094, -0.67529297, 0.34375, 1.2412109, 1.8007812, 2.0273438, -2.3320312, 0.77685547, 1.0097656, 1.5039062, -0.41259766, 0.43066406, 0.5805664, 1.0361328, 2.1132812, -2.28125, 2.75, -0.21362305, 3.9667969, -0.9326172, 1.2919922, 2.0605469, 0.53515625, -0.4177246, 0.99072266, -2.0449219, -2.8457031, 0.6503906, 2.2304688, 1.4853516, 0.91015625, 1.7890625, -0.35058594, 1.4970703, 0.52197266, 0.0028190613, -1.3886719, 1.5830078, -1.8154297, 1.8886719, -0.025024414, 0.21081543, 0.24133301, -1.3857422, 3.5273438, 1.7919922, -0.9951172, -0.07116699, 1.0195312, 0.28027344, 0.1381836, 1.4589844, 0.8496094, -1.3945312, -3.1972656, 2.7734375, 0.02609253, 0.16149902, 1.6728516, 0.118896484, -2.1210938, -0.034484863, -0.8779297, 2.4609375, 0.118652344, -0.6899414, -0.8125, 0.4807129, -1.0341797, 1.9296875, 1.0576172, -0.67333984, 0.5366211, 0.27392578, 0.8881836, -0.10266113, 0.51904297, 0.26000977, -0.43408203, 1.7216797, -0.8178711, -1.3408203, 1.1582031, -0.6010742, -1.7158203, 0.8510742, 0.6669922, 2.2539062, 2.9199219, 0.23461914, 0.80322266, 1.2822266, 1.6357422, -0.03466797, -0.03729248, 0.45703125, -1.2949219, -0.86083984, -0.35986328, -1.7939453, 1.6113281, 0.061187744, 1.7089844, -0.38549805, 0.5185547, -2.1484375, 0.3701172, -1.0791016, 0.61083984, 1.1523438, 3.1621094, 1.4726562, 4.046875, -0.62841797, 2.2441406, 2.3339844, 0.089904785, -0.2878418, 1.4511719, 0.1282959, -0.39648438, 0.63916016, 0.9970703, 0.055145264, 0.3696289, 1.5976562, -1.3525391, 0.5888672, -2.9550781, -1.5625, -0.08416748, 2.1054688, 1.3300781, -0.8959961, -0.5498047, 0.81103516, 3.7089844, 1.2734375, -0.68603516, 0.65771484, -1.1503906, -2.609375, -0.45288086, 0.57470703, -1.8710938, -0.6870117, -2.5214844, -1.0566406, 0.90966797, -0.8496094, 0.65771484, 0.038</t>
-  </si>
-  <si>
-    <t>[1.7490234, 0.42919922, 0.6347656, -0.63378906, -0.88720703, -0.037017822, -0.41723633, 0.123168945, 1.7333984, -0.21362305, 1.5097656, 1.8427734, -0.80078125, 2.3710938, 0.32128906, -1.1787109, 0.053466797, -2.4140625, -0.32055664, 1.8867188, 0.7753906, 0.51416016, -0.37963867, 1.0556641, -1.9794922, 0.82714844, 0.31030273, 1.1845703, 0.08703613, -0.4440918, 1.2431641, 4.4335938, 1.4121094, 1.1777344, -0.113220215, -0.068115234, -1.3837891, 0.42944336, 5.1992188, -1.3623047, 1.8417969, 2.8789062, 1.1953125, 1.4052734, -0.0066337585, 1.1699219, -2.6367188, -0.8305664, 0.062561035, -0.02609253, -1.7626953, -0.42358398, -1.2382812, 0.3791504, -2.6777344, 0.16430664, -0.1237793, 0.5595703, 1.6640625, 2.0878906, 0.092163086, 0.85253906, 0.19970703, -1.6240234, 1.0527344, -1.8388672, -1.1132812, -0.101135254, 1.0019531, 0.19616699, 0.06628418, -0.6875, -2.0507812, 1.7802734, 1.5478516, -0.0022144318, 1.0214844, -0.86621094, 0.3947754, -0.7402344, -0.12976074, -0.058563232, -1.3720703, -2.8222656, 0.94189453, -0.45336914, 0.14208984, -1.6416016, -0.9555664, 0.6923828, 1.7236328, -0.22546387, -1.5, -0.024276733, 0.0385437, -0.78271484, -0.8232422, -1.1660156, -1.0771484, -0.71972656, -0.34204102, 1.4443359, -1.3740234, 0.9082031, -0.020553589, 1.6083984, 1.2392578, -0.21459961, 0.23486328, -1.6806641, -2.5351562, 0.005847931, 2.53125, -0.8745117, 1.5380859, 0.7626953, -0.8330078, -2.9804688, -0.87646484, -1.3759766, 1.2138672, 1.2939453, -0.66259766, 1.8652344, 1.7558594, -1.4257812, -0.41333008, -0.38110352, 0.6074219, 1.6416016, -1.3164062, -0.08050537, 1.7480469, 0.73339844, 1.3066406, 3.8671875, 0.103759766, 2.1933594, -2.6621094, -1.4589844, 0.36914062, 0.6791992, 1.1083984, 0.43774414, 1.6962891, 0.9370117, 2.8457031, -0.5996094, -0.4892578, 0.33740234, -0.25024414, -1.7412109, 1.4853516, -0.6220703, 1.6152344, 0.8881836, -0.41967773, -2.0136719, -0.7114258, 0.06573486, -2.2871094, -1.4248047, 0.57910156, -0.39770508, -0.44604492, 2.0371094, 0.3059082, -0.015457153, 2.484375, -0.40893555, -0.8496094, -0.70996094, 0.75097656, 0.4099121, 1.4628906, 1.0097656, -1.6064453, -1.9912109, 1.8710938, 1.5195312, 1.2197266, 0.49047852, 1.0419922, -0.26708984, 0.6503906, 1.7880859, -0.33862305, -0.6479492, 1.8466797, -1.0820312, 0.63964844, -0.43969727, -1.7978516, 0.8330078, -1.1669922, -0.26049805, -0.53222656, 1.0517578, 0.8828125, -1.4033203, -1.1337891, -1.3896484, 1.4404297, 0.79003906, -1.734375, 3.4140625, 0.007888794, -1.1582031, -0.7441406, -0.6977539, 1.4394531, 0.4345703, 1.8427734, 1.1816406, -1.5195312, -1.6552734, 0.9941406, -2.8222656, -0.3466797, 0.8276367, -1.0810547, 0.23950195, 1.3671875, -0.94091797, 0.60302734, 0.07733154, -3.078125, -1.3671875, -0.55908203, 1.7070312, 1.8027344, 0.44213867, -0.10089111, 1.4277344, 0.40527344, 2.4980469, 0.41308594, 3.2207031, -1.2167969, 1.5332031, 1.6142578, 2.015625, -0.6015625, 1.2832031, -0.3466797, 1.5498047, 0.25732422, 1.9384766, 4.0273438, 1.3984375, 4.84375, 0.65283203, -0.73779297, 0.43774414, -0.07788086, 0.33544922, -1.8154297, 0.7055664, 1.4541016, -1.7089844, 1.8515625, 0.78271484, -0.59765625, -0.088012695, 0.27124023, -1.1748047, 1.6269531, 0.20446777, 0.03643799, 2.4804688, 2.4238281, -0.19714355, -0.025253296, -1.1054688, 0.0368042, 0.7216797, 2.8828125, -0.009887695, -0.6074219, 1.2138672, -0.86621094, -0.98583984, 2.8183594, 0.5097656, 0.87353516, -1.5664062, -0.25219727, -0.48461914, -0.54345703, -0.44921875, -1.0908203, 0.8833008, 0.23986816, 0.25097656, 0.34472656, -0.20471191, -1.2080078, -0.68115234, -0.26489258, -2.5566406, -1.171875, -0.25585938, -2.0195312, -1.4736328, 0.5722656, 1.5585938, 1.8212891, 0.90625, 1.9628906, -0.7138672, -1.2705078, -2.1757812, -0.99560547, 0.7167969, 0.12792969, 0.9580078, -0.8129883, 1.3427734, 0.56152344, -2.453125, -0.032348633, 1.0664062, 1.1523438, 0.5151367, 0.17651367, -3.03125, 0.6845703, 4.4570312, 2.2460938, 0.7729492, 0.99902344, 1.3105469, -2.7382812, 0.13952637, -0.87939453, 1.1621094, 0.26416016, 3.5253906, 0.25390625, 0.44604492, -2.3769531, 1.4443359, -1.4912109, 0.75146484, -1.5791016, 1.0419922, -3.1425781, 0.47583008, 0.92041016, -0.18933105, 0.9873047, -1.8417969, 0.49780273, 0.88671875, -1.7705078, -0.85595703, 1.8398438, 1.1152344, -2.28125, 1.7128906, 0.21069336, 0.8574219, 0.15209961, -0.47192383, 0.43579102, -2.2109375, 0.63134766, -1.6660156, 0.8833008, -1.0097656, 0.64404297, 0.95654297, 3.6894531, -0.85595703, 0.4086914, -2.0546875, 0.41918945, -0.65283203, 0.41503906, 1.0830078, -1.078125, 0.6816406, -2.4472656, 0.38891602, -2.828125, -0.70996094, 2.1132812, 1.6552734, -0.74365234, 1.4912109, 1.1689453, -1.4941406, -0.62109375, -0.9526367, -2.7246094, -1.0341797, 0.20080566, 3.6679688, -1.6552734, -0.29516602, 0.49414062, 0.33935547, -0.63964844, 0.47924805, 1.2353516, 0.5048828, -0.51464844, -0.046569824, 0.6772461, 0.5942383, -2.734375, 1.8544922, -0.66552734, -1.5664062, -2.3105469, -2.8378906, 1.2431641, 0.64990234, 1.0615234, -1.4003906, 2.0761719, 1.0351562, -0.1348877, 0.12310791, 0.51220703, -0.4560547, -1.4677734, -0.7885742, -0.57666016, -0.4494629, 0.14953613, 0.68896484, -0.071899414, 1.3271484, -1.7568359, -0.34838867, 2.8730469, 1.9746094, -1.0107422, 0.063964844, -0.8515625, 0.49536133, -1.3066406, 1.0146484, 0.06359863, 2.8359375, -0.6010742, 2.4082031, -2.3632812, -0.9560547, 0.5546875, 2.0878906, 0.38623047, 0.30932617, 0.36865234, -2.1796875, -0.5136719, -1.6259766, 0.13183594, -1.0097656, 0.46972656, 2.4355469, 1.0703125, -2.6972656, -2.46875, 1.6757812, 1.6220703, 1.8417969, 0.19787598, -0.13415527, 0.50634766, -0.49243164, -1.8144531, 1.4335938, -2.6835938, 1.8378906, -0.5161133, 1.2412109, -1.1855469, -3.9414062, 0.5097656, 0.033996582, 0.28442383, 0.0134887695, -0.78759766, 0.08728027, 1.0341797, -0.06384277, -0.5600586, 0.44335938, -3.03125, -1.9492188, 0.9160156, 0.37890625, 0.03652954, -0.9970703, 0.54541016, 1.5351562, 0.07611084, 0.19274902, -2.0996094, -2.6367188, -1.2255859, -0.6821289, -0.69140625, -1.6083984, 0.34155273, -0.84033203, -2.9707031, 3.8730469, -1.1894531, 1.5273438, 1.1005859, -1.5214844, -0.8515625, -1.1630859, 2.7539062, -0.45776367, 1.5585938, -0.49536133, -2.0957031, -0.19726562, -0.6381836, 0.9921875, 0.99072266, 3.6035156, -0.8066406, 1.3378906, -0.96435547, 0.16064453, 0.35986328, 2.4296875, 0.54052734, 0.35302734, 1.3818359, 0.203125, 0.6298828, -1.6162109, 1.0244141, 1.5830078, -1.3046875, 0.27148438, -0.95458984, -1.4130859, -0.2553711, 0.7553711, -0.5336914, 0.17749023, -0.9057617, -0.94091797, -0.21875, 0.88671875, -0.035980225, -0.7988281, 0.2376709, 1.4013672, 0.5136719, 0.9916992, 0.6723633, -2.5546875, -2.6132812, -1.0908203, -1.6435547, 0.023895264, 0.69921875, -1.0742188, -1.125, 1.2041016, 1.3691406, -0.5864258, -2.2265625, 0.28051758, 1.75, -0.7373047, 2.0839844, -1.5947266, -0.4375, -1.0703125, 0.7104492, -0.31347656, 0.9003906, 0.8417969, 1.1210938, -0.39135742, 0.83984375, 0.8354492, 0.3569336, -0.5078125, 0.20690918, 0.75878906, -0.5522461, -0.1182251, -1.0029297, 1.3544922, -2.6855469, 1.2158203, -1.015625, 2.3164062, 0.6669922, -0.6176758, 0.43774414, 0.18286133, -0.5385742, -2.0488281, -0.14587402, 0.67529297, -0.32592773, 0.10668945, -1.5429688, -0.9379883, -1.9453125, 1.0390625, 1.3476562, 0.7089844, -0.7705078, -0.15319824, -0.23669434, -2.3261719, 0.4321289, 0.65234375, 0.50097656, -1.0400391, 0.33325195, -0.80859375, -0.31884766, -0.10192871, -2.7871094, 0.75634766, -0.7602539, 0.9501953, 0.96240234, 1.3183594, -2.3925781, -1.171875, 2.0390625, 1.2490234, 0.1239624, 0.10784912, 0.2541504, -0.016433716, 0.8232422, -0.17028809, 1.3808594, -3.3007812, -1.2265625, -0.6777344, 0.3371582, 0.5761719, 0.43945312, -0.123535156, -0.6748047, 0.42578125, -1.7949219, 1.2919922, 2.8496094, 0.7060547, 1.1015625, 2.5878906, 0.6816406, 2.5332031, -1.5371094, -0.43530273, -0.29833984, -0.5517578, 0.95947266, -1.4746094, -0.15319824, -2.5292969, -0.20861816, 0.34814453, -0.7651367, 1.5283203, -1.9277344, 1.7617188, -0.13549805, 0.052520752, 0.97021484, 1.2675781, 1.9804688, -0.09564209, 0.47387695, -0.76171875, 1.5742188, 2.875, -1.1201172, -1.2460938, 0.26000977, 0.30126953, 0.27612305, -0.95996094, 0.9169922, -0.28515625, -0.35546875, -0.28564453, -1.0869141, 0.037384033, -1.4414062, -0.2368164, -0.07733154, -0.78271484, 0.3623047, 0.6928711, -1.2480469, -3.3027344, -1.3398438, -0.0869751, -0.33764648, -1.8681641, -3.4609375, -0.6098633, -1.9580078, 1.0742188, -1.5175781, -0.08514404, -0.5175781, 0.9145508, 1.2041016, -2.7324219, 0.76904297, 0.06427002, 0.41381836, -0.5942383, -0.56347656, 0.07244873, 0.8378906, 2.2675781, -0.39746094, 1.5068359, -0.75634766, 0.26416016, -0.30615234, -1.1171875, 0.49169922, 0.4338379, 3.4765625, 0.9458008, 0.5644531, -0.46655273, -1.6894531, -0.44189453, -1.4472656, 1.4277344, -0.95458984, -0.98095703, 0.9794922, -1.578125, 0.6123047, -0.25854492, 2.0917969, -0.5078125, 0.3232422, -0.53759766, 0.22924805, 0.6894531, -3.1835938, 2.1367188, 0.5888672, -1.4189453, -0.92041016, 1.1914062, 0.58203125, 0.25732422, 1.9912109, -0.29296875, -0.28881836, 1.2431641, -0.72216797, -2.4394531, 0.34204102, 0.72314453, 0.59033203, -0.5605469, 0.8173828, 0.36401367, 0.48120117, -1.6464844, 0.12286377, 0.61865234, -0.74609375, 1.7675781, -0.83154297, 0.2175293, -1.1367188, 1.5244141, -0.7709961, 0.8701172, 1.5498047, 0.37060547, -1.5068359, -0.70654297, 0.49951172, -0.010795593, 0.4741211, -0.12585449, 1.4189453, -2.1484375, -0.39868164, -0.4333496, 0.07788086, 1.7353516, 0.21569824, -1.5390625, 1.4560547, -0.17297363, 1.1640625, 2.2246094, 0.84033203, 0.9238281, -0.42944336, -2.9765625, 0.3251953, -0.5644531, -0.3190918, 1.4960938, -1.0166016, -0.4284668, -0.41381836, -0.103637695, 2.5957031, -2.4042969, 1.3515625, -0.4477539, 0.5786133, -0.39868164, 1.4140625, -0.9609375, 1.0380859, 1.1445312, -0.58154297, 0.5878906, -1.9169922, -0.32226562, 0.5805664, 1.5527344, 1.8583984, 0.40014648, 0.6435547, 3.3027344, 1.2265625, -0.84277344, 4.1132812, 2.1640625, -0.20214844, -1.6748047, 1.1972656, 1.4277344, 1.3564453, -2.328125, -0.044158936, 2.6367188, 1.2919922, 2.0703125, 1.0996094, -0.039886475, 1.3369141, -1.0136719, 0.7426758, -0.19396973, -1.5546875, -0.6201172, 0.9458008, 1.5722656, 0.90625, 3.3691406, -1.3759766, 0.60595703, -0.25146484, -0.3400879, -0.56347656, -0.87353516, 2.2363281, -1.6894531, 0.9160156, 0.43798828, -1.9804688, 2.1503906, -0.80908203, 0.31323242, -0.34960938, 0.85595703, -0.39013672, 1.9013672, -1.3476562, 2.9765625, 0.3618164, 1.6601562, -1.0957031, 1.9794922, -2.3867188, -1.4521484, 1.0996094, -1.3359375, -0.007633209, 1.4609375, -0.55810547, 1.5888672, 0.7036133, -0.22802734, -1.2802734, 1.2246094, -1.8232422, -0.5966797, 1.8027344, 0.3852539, -0.5805664, -0.9892578, -0.25805664, 0.6748047, -0.25805664, 3.203125, -0.4013672, 0.5161133, -0.49316406, 0.5546875, -1.8095703, -1.2685547, -1.3398438, -0.009132385, -0.8261719, 1.1416016, -2.3164062, -0.34521484, -1.1943359, -1.6943359, -0.33935547, -0.14111328, 1.703125, -0.9116211, 0.06616211, 0.6035156, 0.24401855, -1.7685547, 1.1171875, -1.2138672, 0.16882324, 0.019104004, 0.15820312, -0.15368652, 0.21508789, -0.61035156, 0.24560547, -1.4394531, 0.5942383, 0.41210938, 2.53125, -1.1240234, -0.18725586, 0.4482422, -0.117370605, -1.8095703, -0.70214844, 0.12768555, -1.4521484, 0.97314453, -2.5253906, 0.46069336, -0.34814453, 2.2832031, -0.5546875, -0.8388672, 1.5322266, -1.6943359, 0.33422852, -2.2714844, 0.92041016, 0.8486328, -1.1269531, -1.3339844, -2.2792969, -1.3056641, 0.34350586, -0.5371094, -1.4560547, 0.12200928, -0.5678711, 0.20153809, -0.54785156, -1.1728516, 1.3134766, 0.9638672, -0.026733398, -2.9941406, -3.8613281, 0.41748047, 1.0166016, 0.5698242, 1.3232422, 0.45141602, -2.0214844, 0.8408203, 0.69189453, -1.2148438, -1.9082031, -0.45483398, 1.3203125, -0.31079102, 0.61035156, -1.5654297, -1.9677734, 1.1542969, 3.4492188, -0.17260742, 0.019073486, 0.16259766, -1.1533203, -1.4375, 0.42114258, -1.5195312, -0.87890625, -0.044799805, 0.8300781, 2.2324219, 0.49023438, 0.09539795, -3.3574219, 1.5146484, 1.4394531, -0.7348633, -0.47094727, -0.5683594, -0.39331055, -0.6665039, 1.5166016, -0.25952148, 2.3398438, -1.5898438, -0.5761719, 2.3085938, 0.3798828, -0.5888672, -0.17529297, 0.1763916, 2.8789062, -0.22021484, 0.8979492, 0.67089844, 0.88720703, -0.7470703, 0.4116211, -1.7949219, -0.51416016, -0.63134766, 0.0748291, -2.4785156, 0.7392578, 2.2988281, -0.34326172, 1.9853516, -0.46240234, -0.8989258, -0.96777344, -1.6748047, 0.7729492, -0.9707031, 0.18078613, -1.2216797, -1.0722656, 0.62597656, 0.43847656, 2.3183594, 0.77197266, -2.3203125, 0.49121094, -0.4975586, -2.1894531, -0.9873047, -0.7661133, -0.0395813, 0.36157227, 0.81103516, 1.7412109, 1.3388672, 0.29638672, 0.70458984, 0.36865234, 0.09210205, 1.3085938, -0.31567383, -0.7636719, -3.046875, 1.2207031, 0.9614258, 1.1464844, -2.3105469, -0.4020996, 0.17736816, 0.41137695, -0.42285156, -1.7519531, 0.9003906, -2.203125, 1.2021484, -0.86621094, 0.35986328, -0.11376953, -0.24841309, 1.5771484, 0.7963867, -1.4091797, -0.07928467, 0.11383057, -2.5957031, -0.6870117, -1.4990234, 1.8144531, -0.12854004, -0.55078125, -1.0693359, -2.3183594, -1.2177734, -1.0839844, -0.060760498, -0.10235596, -0.85302734, -1.7685547, -0.23693848, -0.1595459, -0.22839355, 1.296875, -1.6015625, 1.3378906, 1.0019531, 1.6318359, -0.31054688, -1.0273438, -1.2207031, -0.67089844, 1.1542969, 0.91796875, 0.93310547, -0.18493652, 0.36767578, 0.9472656, 0.3876953, 0.20092773, 0.6196289, -0.6010742, -1.9619141, -0.6948242, 0.42773438, 0.8647461, 2.0058594, -1.5859375, -1.6904297, 0.84472656, 0.06439209, -0.6064453, -1.2236328, 0.90966797, -1.3359375, 0.5864258, -2.2363281, -1.8935547, 2.6484375, 0.95654297, 1.2490234, -1.4257812, 0.042907715, -0.80615234, 2.6425781, -0.2932129, 0.17858887, 0.6411133, -0.23840332, 3.0957031, -1.5537109, -1.1582031, -0.25878906, -2.8164062, -2.0859375, -1.2705078, -0.26123047, -1.7333984, -0.49780273, 0.34838867, 0.5444336, -0.5185547, -1.7431641, 2.5507812, 0.17663574, -0.034118652, 0.9785156, 1.328125, -0.15075684, -1.2792969, 1.1787109, -0.31152344, 0.1027832, -0.8745117, 0.69970703, 0.09008789, 0.0068473816, -0.25146484, -0.01386261, -1.4414062, 0.4086914, 0.91552734, 0.7260742, -0.21276855, -0.43920898, 0.017547607, 0.0748291, -1.3925781, -0.113342285, 0.40527344, 1.5712891, -0.7416992, 1.8505859, -0.35253906, 0.4272461, -0.32861328, 1.0439453, 0.6767578, 0.5332031, 2.6972656, -0.8510742, 3.8027344, -1.5908203, 2.015625, 0.46240234, -0.49243164, -0.64990234, -1.6806641, 0.8022461, 0.69970703, 0.49829102, -0.07299805, 1.0576172, 0.048797607, 0.047088623, -1.7675781, -1.5693359, 2.0195312, -1.3378906, 0.66064453, 0.8276367, 0.81347656, 1.2841797, -1.2304688, 0.7944336, -1.5039062, 0.92871094, 2.3496094, 0.046783447, -0.26245117, 2.1230469, 2.7148438, -2.296875, 0.5151367, 0.03540039, 0.32910156, 1.8212891, 1.5683594, -0.5878906, 0.67041016, 1.3105469, 0.47998047, -2.0371094, -1.1171875, 0.28076172, -0.023025513, -0.34814453, -2.46875, 1.9785156, 1.4375, 1.1103516, -0.43115234, -0.87353516, 0.7988281, -0.055023193, 0.00793457, 1.1083984, -1.0507812, -0.31030273, 1.1513672, 1.4023438, 0.27441406, -0.27563477, -2.171875, 0.22680664, 0.2524414, 3.8867188, -3.0390625, -1.7197266, -2.8417969, -1.7753906, 1.1220703, -2.0976562, 0.37890625, -0.02458191, -1.6777344, -0.7675781, 0.8442383, -0.4321289, -0.62060547, -0.020553589, 0.6845703, 1.1132812, -1.3505859, -0.28051758, 1.1152344, 0.1730957, 2.0859375, 0.18518066, 0.09448242, -1.8603516, 1.5322266, -0.03201294, 0.7001953, 1.1933594, -1.2558594, -0.68896484, -1.1728516, 1.0234375, -1.4462891, -2.3398438, -1.2626953, 2.5507812, -2.5761719, -0.6308594, -0.11999512, 1.3066406, -1.4296875, 1.0595703, 0.88916016, -2.9414062, 0.11743164, -0.8417969, 0.24450684, -0.8671875, -0.4868164, 1.4248047, -1.8408203, 0.22058105, 0.029342651, 0.28076172, -2.03125, 1.8447266, 0.9638672, -0.1583252, 2.3339844, -0.07659912, 1.0839844, -0.9223633, 1.7685547, -0.021240234, 0.7451172, -0.13305664, 0.77197266, -2.765625, -0.63720703, 1.125, 0.076416016, -0.33569336, -2.0410156, 0.73828125, -2.7929688, 1.1660156, 1.0117188, 1.5800781, 1.1992188, -2.1699219, -0.2076416, 1.5537109, 3.1289062, 0.51123047, 0.24438477, -0.07458496, -1.1679688, 0.8857422, 0.6972656, 0.010093689, -1.9609375, 1.5009766, -1.3408203, 0.58984375, 0.008880615, -0.64697266, -1.1445312, -1.6191406, 0.46069336, 0.84716797, -1.2138672, -2.6738281, 0.02949524, -1.0683594, -0.058013916, 0.17614746, -0.35620117, -0.7060547, -1.5615234, -1.9794922, 0.98291016, 0.33398438, -0.12438965, 1.9892578, -0.13110352, 0.22106934, -0.41503906, -1.7558594, 3.2128906, 1.2851562, 0.101989746, 1.5527344, 1.03125, -0.6826172, -4.5429688, 1.4912109, -0.9121094, -0.124572754, -1.3603516, -2.5175781, -1.140625, 1.7441406, -1.25, 0.7890625, -1.1044922, 3.1210938, 1.7421875, 0.24316406, 3.3925781, -0.47460938, 0.7944336, -0.46411133, 1.3710938, -1.1210938, -1.1777344, 1.6816406, 0.7519531, 0.041503906, 0.45336914, 0.3696289, -0.6455078, -0.09838867, 1.3681641, -1.8994141, -0.46044922, -1.3457031, 0.5048828, 0.03274536, -0.15405273, 0.88964844, 0.40014648, 1.0566406, -0.5410156, 1.1103516, 0.29736328, -1.4541016, -1.4228516, 0.27001953, -0.59277344, -1.9833984, -0.22058105, 0.02178955, -0.40820312, 0.4255371, -1.1992188, -1.8505859, 0.29467773, 0.0791626, 0.33422852, 1.8818359, -1.7255859, -0.79541016, 0.08166504, 0.5126953, -0.87646484, -0.3161621, 0.8808594, 0.7597656, 1.6044922, -0.46948242, -0.75, -1.984375, 0.9135742, 1.8369141, -0.031982422, 0.77490234, 2.1210938, -1.8447266, -0.0025634766, 0.9916992, -2.1386719, 2.3339844, 0.0859375, 0.5864258, -0.5917969, 1.0068359, 0.86621094, 0.80908203, 0.12731934, -0.85546875, 0.0058174133, 2.5507812, 0.6582031, 0.2861328, -1.578125, -0.75341797, -0.3100586, 0.31323242, -0.34838867, -0.55908203, 0.3623047, -0.2902832, -0.7265625, 2.9667969, 0.2208252, -0.7294922, -1.8837891, 0.75878906, 0.0030460358, -1.8115234, 0.4440918, -1.5839844, -0.7607422, -1.1806641, -0.9790039, 0.49243164, -0.14282227, 1.7333984, 3.0019531, 1.7431641, 2.921875, -1.0283203, 1.5878906, -1.1162109, -1.4414062, -2.1816406, 2.4882812, 0.53027344, -4.6445312, -2.3554688, -0.88720703, -0.79052734, 0.09063721, -0.23034668, -0.49291992, 0.52490234, 1.4873047, -0.81152344, -2.2050781, 0.5307617, -1.2890625, -0.17053223, -0.011077881, 0.58447266, 0.6611328, 0.14990234, -1.5712891, -0.7055664, 2.4257812, 0.7548828, 0.2121582, -0.31420898, -1.6992188, -0.77783203, -0.60253906, -2.1074219, -0.60839844, 2.3554688, 1.0976562, -1.7470703, 1.1972656, -0.3100586, -0.96533203, -0.3791504, -0.23413086, 0.22216797, -0.5732422, -0.36401367, 0.056610107, 0.2602539, -1.1279297, -1.015625, -0.6855469, -0.89453125, 0.89990234, -1.1884766, 0.53515625, 1.6367188, 0.5854492, -1.390625, 0.023376465, 0.089660645, 1.5898438, 0.4104004, 0.64208984, 1.9082031, 1.5839844, -0.035125732, 2.1289062, 0.74609375, 1.9179688, 1.5410156, 0.61279297, -0.35498047, 0.39257812, 1.8652344, -0.7973633, 1.3984375, -0.76171875, 0.49487305, 0.25878906, -1.1640625, -1.1816406, 2.6328125, -2.1621094, 2.1816406, 2.2832031, 1.7646484, 0.10534668, -0.9008789, 0.09112549, -0.96484375, -0.7495117, 1.7587891, 0.12054443, -0.63916016, -0.89208984, 1.6142578, 0.9067383, -1.5380859, -1.8320312, -2.5546875, -0.94677734, -4.7070312, 0.3022461, -2.2929688, 0.93603516, 3.1425781, -1.1396484, -4.1015625, 0.86572266, -1.2207031, 0.15881348, -1.4033203, -0.6738281, 0.09588623, -0.9897461, -1.4453125, 0.2220459, 1.4267578, -0.1743164, 1.3408203, -3.1894531, -0.79052734, 1.2666016, 2.7148438, 0.23120117, -0.097717285, -1.6054688, -0.40942383, -0.3166504, -1.5478516, -0.15576172, -1.859375, 0.32299805, -1.5615234, 0.099731445, 2.1816406, 2.8378906, 1.6015625, 2.1621094, -0.8574219, -0.5864258, 1.8398438, 1.6054688, 0.28564453, 1.6523438, 2.7988281, 1.2167969, -0.26098633, 1.9492188, -3.0136719, 2.1503906, -0.7729492, 1.6601562, 1.0966797, -0.5839844, -3.2207031, 0.8203125, -0.13586426, -0.27148438, -1.1328125, 2.0546875, 0.14831543, 0.080566406, -1.1669922, 0.7314453, -2.5429688, -1.3232422, -1.8681641, 0.85009766, 1.0751953, -0.2770996, 1.7158203, 0.53466797, 2.0429688, 3.3242188, -0.51953125, 2.1699219, 0.18933105, 0.022476196, -0.5546875, 0.04763794, -0.8286133, 1.0488281, -1.4941406, 0.13745117, 0.28833008, -1.2177734, 1.2490234, 2.8144531, 1.2695312, 0.41796875, 3.8789062, 2.3496094, -0.092285156, -0.19628906, -1.0068359, -0.88427734, -0.390625, 0.24438477, 1.0126953, 0.22668457, 4.3671875, 4.5390625, -0.8051758, -2.8085938, 0.33276367, 0.012931824, -0.4321289, -1.8125, -0.65478516, 1.9414062, 1.7285156, -0.24523926, -1.4726562, -2.5019531, -1.5966797, -1.6289062, 0.14282227, 1.3291016, -1.4267578, 2.5742188, 0.5004883, 1.5166016, 1.6435547, -1.0644531, 0.29663086, 0.42700195, 1.1689453, -0.10858154, -1.2089844, -3.4355469, 0.42358398, 1.7412109, -2.2929688, 1.6357422, -2.3320312, 0.15600586, 0.7792969, 2.1191406, 1.2109375, -1.3193359, -2.6679688, -3.5742188, -1.7294922, -2.1914062, -0.80810547, 0.328125, 2.5019531, 1.1640625, -2.1503906, -1.7314453, -1.1572266, -1.5693359, -2.9492188, 0.8095703, -1.0595703, -0.13513184, 1.3339844, -1.0986328, -3.7636719, -1.3193359, -0.46777344, -0.081970215, -2.9511719, -0.7910156, -0.13623047, 0.5942383, 0.77783203, 1.7324219, -0.38305664, -0.4399414, -3.5878906, -0.87890625, 0.44799805, -1.0361328, -1.8037109, 2.1972656, -0.05444336, 0.8847656, 3.1035156, -1.4433594, 0.61279297, -0.39208984, 0.5444336, -0.50634766, -0.9316406, -1.1181641, -3.3632812, -1.1123047, 1.0273438, -0.89990234, 0.58496094, -1.2050781, -0.18652344, -1.6005859, -1.8837891, -1.0029297, 0.6875, -1.2646484, 3.046875, 0.5859375, -0.88671875, 0.19042969, 1.1962891, -1.4902344, 0.5966797, 1.1337891, 1.2744141, 0.69628906, -0.7685547, 1.6015625, -0.48168945, -0.8256836, -3.328125, 0.26831055, -1.6005859, -1.2353516, -1.3535156, 1.3730469, -2.3632812, -1.8867188, -0.89160156, 2.2929688, 2.2910156, 2.3105469, 0.9951172, -1.2431641, 1.3320312, 4.1953125, 1.1357422, -0.8666992, -1.3330078, 0.5883789, -0.6254883, -1.2353516, 1.3642578, 0.44677734, 2.2890625, 1.0722656, -1.2666016, 3.6816406, 0.6567383, -1.3642578, 0.9375, 3.4140625, 1.3759766, 1.4960938, 0.234375, -0.7402344, -0.46875, -2.1464844, 2.0820312, 1.8408203, 1.7246094, 0.6767578, -0.97265625, -1.6425781, 0.8095703, 1.4404297, -4.0742188, 0.17663574, 1.7626953, -1.0019531, -0.59228516, -1.0292969, 2.5292969, 0.20446777, -0.93896484, 1.2148438, -1.6591797, -0.7060547, -2.3359375, -0.47387695, -0.2626953, -0.9067383, 0.7866211, 0.09661865, -0.08093262, 1.3916016, 2.203125, 0.30639648, 4.9960938, 0.10205078, 2.1816406, -1.0585938, 0.63916016, -0.8959961, -2.1464844, 0.42944336, 0.8535156, -2.5546875, 0.22839355, -0.23840332, 1.2802734, 1.9394531, 0.3635254, 0.6308594, -0.85791016, 0.11456299, -0.105651855, -1.0751953, 1.8837891, 0.12902832, 1.1982422, -1.8300781, -0.8022461, -0.7080078, -0.80371094, -0.09753418, -3.5332031, -0.45507812, 0.8959961, 1.5791016, -0.6035156, -0.078308105, 3.5039062, 0.07409668, 0.78564453, -0.6928711, -0.23144531, 0.8095703, -1.4667969, 0.8588867, 0.76953125, 1.3955078, 1.3955078, 2.953125, -1.0976562, 1.4091797, -1.1621094, -0.9345703, -0.15136719, -1.9355469, -1.6757812, 1.6015625, 0.28637695, -0.14257812, -1.2929688, 0.44067383, -1.7431641, -2.7753906, -0.4970703, -0.25756836, 0.97021484, 0.16662598, -0.7548828, 0.39868164, -0.8798828, 0.8022461, 0.03439331, 0.77246094, 1.3359375, 0.70214844, -0.40161133, -0.44677734, -3.4765625, 2.0292969, 0.4970703, -1.2431641, 0.9707031, 1.8486328, 0.5336914, -1.0556641, -1.5117188, 0.46118164, 0.43676758, 2.3535156, -0.6977539, -0.29296875, 1.8837891, 0.4152832, -0.75390625, -1.1308594, 2.5683594, -0.53466797, -1.4033203, 0.88671875, -1.8291016, 0.9555664, -1.3476562, 1.3164062, 0.28051758, -0.18823242, 0.19165039, 0.0390625, 2.1367188, -3.390625, -0.1529541, 3.2675781, -0.012275696, 1.2578125, -1.3476562, -0.22875977, -3.6914062, -1.7070312, 0.42456055, 0.7260742, 0.91015625, -1.3046875, -0.22302246, -0.8203125, -0.5629883, -1.0039062, 1.1103516, -1.3945312, 0.5073242, -0.84814453, -0.4729004, -1.4794922, -1.8691406, -0.7470703, -1.6884766, 0.92871094, -0.6489258, -0.40527344, 0.54785156, 1.3935547, -1.0117188, -1.1669922, 0.9892578, 1.9970703, 1.0039062, 0.025115967, -0.036468506, 0.42163086, -1.4414062, -0.75439453, -1.2119141, 0.3383789, 0.51171875, -1.6787109, -1.4443359, -1.1728516, -2.4238281, -1.3466797, -0.28149414, -0.04989624, 2.8554688, 1.4804688, 1.0585938, -0.7553711, 2.2636719, 0.7319336, -3.5839844, 1.2529297, 0.11663818, -0.06274414, 0.52783203, 2.9941406, 0.50341797, 1.0283203, -2.3886719, -3.859375, -2.0644531, -2.6269531, -0.96484375, 1.4619141, -0.12719727, -1.2441406, 0.025558472, 0.74658203, -0.79296875, -1.8427734, -0.57910156, 0.5175781, -1.0351562, -1, 0.5527344, -0.19384766, 1.0908203, 1.2353516, 0.1340332, 0.053527832, -1.7265625, -0.32080078, -0.8745117, -0.6455078, -0.12420654, -0.40649414, 1.7597656, 0.13330078, 0.24487305, -3.1464844, -1.8652344, -0.9448242, 1.1689453, 0.15246582, 0.4309082, -1.2246094, 2.0800781, 1.0283203, 0.029846191, -0.8466797, 1.1347656, 0.34570312, -0.5654297, 0.8652344, -1.3212891, 0.4880371, -0.86572266, -1.1640625, -0.85839844, 2.9492188, 0.6381836, -1.3154297, -0.22509766, -0.7324219, -0.9916992, 0.3322754, -4.390625, -0.1081543, 1.2578125, 1.6777344, 0.1928711, -1.9189453, 1.4619141, -0.22399902, 1.3564453, 0.8833008, -0.058929443, 0.20166016, 1.9335938, -2.4472656, 1.4501953, -0.45239258, -0.5102539, 1.2587891, 1.1240234, 1.5419922, 0.92578125, 1.2373047, -1.5908203, -0.35131836, -0.3474121, -1.0146484, -0.1472168, 0.328125, -0.16918945, -1.6044922, -1.5683594, -0.17211914, -0.46948242, -2.9863281, -1.0703125, -0.21569824, -0.30371094, -2.921875, 1.6611328, -1.25, -0.3154297, 1.7832031, 1.1123047, 1.1669922, -0.45532227, 1.9414062, 0.1517334, 0.9033203, -0.99560547, -0.8442383, -0.6010742, -0.6430664, 0.8442383, -0.095336914, 1.8759766, -0.118652344, -0.23022461, -4.328125, 1.1103516, -1.3476562, -0.28125, -1.3398438, 0.5546875, -0.87890625, -0.27172852, -1.4248047, 1.7207031, 0.033813477, 0.7060547, 1.4042969, 0.23278809, -0.7006836, 0.14257812, 0.107055664, 2.3261719, -1.7089844, -1.8984375, -1.1269531, -0.34204102, -0.19628906, 2.0722656, -0.49145508, 0.7661133, 0.92822266, 1.5703125, -0.08331299, 0.9628906, -1.1191406, 0.21398926, -0.62890625, -1.5166016, -0.72314453, -2.5644531, 0.17980957, -0.5595703, -0.29370117, -1.0097656, -1.7255859, -0.074157715, -0.59765625, 1.4785156, -0.6459961, 3.3261719, 0.37548828, 0.7348633, -0.07836914, -1.3330078, -0.6245117, -0.3305664, 0.5722656, 1.671875, -2.0292969, -0.123535156, -0.43847656, 1.3554688, -1.4414062, -0.44213867, 0.5048828, -0.76660156, -0.9897461, -0.6152344, -1.8574219, -1.6484375, 0.32202148, 3.1640625, -1.0410156, 1.5566406, -2.1699219, 1.0820312, -1.8447266, -2.2617188, 0.34106445, -6.0820312, 0.73535156, 0.51953125, 1.5341797, 0.53222656, -0.7626953, 0.64990234, 1.5595703, -0.080444336, 1.2216797, -1.9941406, -0.021347046, -1.3496094, -0.5854492, 1.4589844, 1.0019531, 0.3190918, -1.8554688, -0.89697266, -1.2792969, 0.41796875, 3.1738281, 1.5341797, -0.80078125, 0.48242188, 0.39257812, -0.11206055, 0.50097656, 0.31079102, -0.13964844, 0.84716797, 0.28930664, -0.6796875, 1.0439453, 0.54589844, 3.7929688, -2.0488281, -0.21911621, -0.12384033, -0.2919922, -1.1621094, 0.6201172, 0.35546875, 0.71728516, 1.0751953, 0.1920166, -0.32006836, -0.35083008, 2.4492188, 1.0527344, 1.3896484, -0.8515625, -2.7636719, -0.09350586, -1.1289062, 0.5605469, -2.8867188, -0.48828125, 0.6040039, 0.44677734, -0.9135742, 1.6035156, 0.43823242, -0.6791992, -0.89697266, 2.4921875, -1.4755859, -0.45385742, 0.359375, 1.2539062, -1.6748047, -1.6044922, -0.40893555, 1.2539062, -1.1230469, -2.9589844, -2.2460938, -0.48388672, 1.0097656, -1.4726562, 0.5698242, 1.3710938, -4.3828125, -2.125, -0.8486328, -0.6142578, 0.6953125, -1.3710938, -2.0058594, -0.19116211, 1.1660156, -0.5878906, -1.8623047, -0.109802246, 0.9404297, -0.8925781, -1.5869141, -0.4038086, 0.7050781, 0.8129883, 0.1538086, 1.4345703, -1.5195312, 0.5078125, 1.8496094, 0.8515625, -1.2587891, -0.028503418, 2.4824219, 1.2333984, -0.15490723, -0.75146484, 1.5664062, -0.5136719, 3.2578125, -0.78271484, -0.31176758, 1.9501953, 3.0664062, 1.625, 0.62939453, -1.4882812, -1.5253906, -0.44677734, -1.1445312, -0.5258789, 0.20983887, 1.6210938, -0.37817383, 0.035705566, -0.0011930466, -0.31640625, -1.4013672, 0.76953125, -0.07366943, -0.3786621, -0.36547852, 1.6972656, -3.90625, -3.3691406, -0.50439453, -1.7929688, -0.21557617, -1.9697266, -1.7236328, -0.47192383, -2.6289062, 0.40820312, 0.4584961, -0.390625, -0.24304199, -0.75097656, 0.056121826, -1.7197266, 0.03161621, -4.5976562, -2.1015625, 1.1777344, 1.0898438, 0.1932373, 2.4335938, 2.984375, -0.6308594, 0.8959961, -0.5205078, 0.064331055, 0.49072266, -0.9819336, -1.1601562, -1.3603516, -0.87597656, 1.1757812, -1.2216797, -0.5097656, 2.0097656, -1.6757812, -1.6777344, -0.6376953, 1.9794922, 0.44506836, 3.2734375, -0.15734863, 2.1445312, 0.14196777, -2.6933594, -0.6694336, -1.3222656, 0.2331543, -0.31030273, -0.72802734, -0.06939697, 0.95947266, 0.059509277, 1.3837891, 0.07421875, 1.9960938, 0.34692383, 1.2109375, 0.79785156, -0.64746094, -0.26464844, -0.14196777, -0.37817383, 1.0341797, 1.5498047, 0.28100586, 1.4580078, 0.5239258, -2.3261719, 1.8310547, -2.203125, 2.0546875, -0.39770508, 3.6132812, -0.38793945, 1.0019531, 2.09375, -4.671875, 1.8457031, -0.7861328, -0.17675781, 0.25634766, -1.5146484, -1.2333984, -1.3017578, -2.1035156, 2.2089844, -0.31469727, -1.0117188, -0.6743164, -3.3398438, -0.19909668, -0.43481445, 1.7167969, -0.07513428, 0.31298828, 0.46826172, 2.0585938, 0.3659668, 0.5595703, 1.5332031, 0.025848389, 0.32666016, 0.06488037, -2.2695312, 0.41137695, 0.67285156, -0.054016113, -1.6572266, 1.6660156, 1.9013672, 0.05996704, -1.7324219, 1.0146484, 0.053619385, -0.6484375, -0.51660156, 0.20422363, 0.24841309, -0.1307373, -1.8466797, -1.0957031, 1.4072266, 0.7241211, 1.8212891, 0.67578125, 0.2836914, -1.1660156, -1.9111328, 2.5058594, -0.45947266, -1.3632812, 1.0517578, -0.61035156, 1.2314453, -1.1240234, 0.11126709, 0.06756592, -1.3652344, 1.2529297, -2.0058594, 0.5620117, -0.14440918, -0.7529297, 0.6796875, 1.2441406, 0.78466797, -1.3642578, 3.3574219, -2.5820312, 0.24108887, -0.49023438, -0.9819336, -1.2294922, -1.1083984, -1.5341797, -1.8320312, 0.2770996, -0.5576172, -0.9370117, 1.6181641, 1.4296875, 1.1552734, 2.6464844, 0.82714844, 1.8212891, 1.8544922, 1.3759766, 4.7148438, 0.19177246, -0.36450195, -0.32177734, 0.08111572, -1.7558594, 0.45288086, -2.7324219, -3.3144531, 0.7480469, -1.5927734, 0.9223633, -1.3320312, 0.94921875, 2.3984375, -2.2460938, -2.1464844, 2.78125, -0.8022461, 1.1357422, -1.8789062, -2.0664062, 0.23144531, 0.3491211, 2.0917969, 0.3071289, 0.90771484, 2.5078125, 0.30859375, 0.30419922, 0.89746094, -0.7441406, -0.42407227, 0.11981201, 1.5917969, -1.8955078, 0.97753906, -0.86328125, 1.4873047, -0.6977539, 1.0966797, 0.62890625, -0.75634766, -2.015625, -1.5751953, -2.9355469, -0.8388672, -0.39526367, 0.8417969, -1.1259766, 1.8759766, -0.06536865, -1.0175781, -0.56640625, 0.5751953, 1.0429688, -2.3632812, -1.3828125, -1.0087891, 1.5380859, 2.2324219, -1.0253906, 1.3808594, -0.33740234, 2.4179688, -1.3789062, 1.0048828, -0.88134766, 0.45288086, 2.0546875, -1.7783203, 3.9648438, 0.7050781, 1.4345703, -1.2158203, -0.5800781, 0.80029297, -0.049743652, -0.6040039, 0.75878906, -0.9013672, -1.2802734, -0.6611328, 2.9765625, 0.9140625, 0.69384766, 1.6015625, 0.33544922, -0.07299805, 2.4003906, -0.58447266, -2.1191406, 1.2529297, -1.6689453, 1.6396484, -0.7832031, 0.25, 0.06689453, -1.3486328, 2.875, -0.014503479, -0.36865234, -1.0029297, 0.092163086, 1.9130859, -0.23730469, -0.62646484, 1.5263672, -0.22692871, -3.828125, 2.8027344, -1.3212891, 1.1591797, -0.26049805, 0.38476562, -1.6699219, 0.41430664, -1.3574219, 1.1542969, -0.3803711, 0.0104904175, 0.29614258, 0.8515625, -1.3369141, 1.4121094, -0.71777344, -1.0947266, 0.6972656, 0.50146484, 0.9169922, 0.24975586, -0.56640625, -0.06036377, 0.81396484, -0.119018555, -0.28710938, -0.9248047, 1.4316406, 0.037475586, -1.2509766, -0.2607422, 1.6210938, 1.8125, 2.828125, -0.09509277, 0.022140503, -0.43481445, 0.10638428, -0.2758789, 0.65527344, 0.11004639, -1.2392578, -0.8618164, -1.3291016, -0.74121094, 0.29052734, 0.13049316, 1.8818359, -0.26000977, -0.7006836, -1.9541016, -0.5078125, 0.37670898, -1.0214844, -0.07910156, 1.6503906, 0.30517578, 2.2207031, 0.6166992, 0.22070312, 1.7236328, -0.9194336, -0.515625, 2.0136719, -1.7402344, 1.3378906, 2.8242188, 0.9135742, 1.7929688, 0.043792725, 0.04547119, -2.9121094, 1.1855469, -1.6308594, -0.6123047, 0.070739746, 3.1542969, 1.9101562, 0.4375, -0.32421875, 0.7885742, 2.2070312, 1.515625, -1.8652344, 1.1552734, 0.0569458, 0.22631836, 0.3259277</t>
-  </si>
-  <si>
-    <t>[5.0273438, -0.5361328, 1.4384766, -1.9394531, -1.3183594, -0.5649414, -2.0800781, 1.0302734, 1.2636719, 0.7241211, 1.7285156, 2.2089844, -1.1552734, 0.5185547, 0.4284668, -0.59716797, -0.35766602, -1.0117188, 0.66552734, -0.74121094, -0.8959961, 2.0976562, -1.0244141, 2.6113281, -1.2587891, -1.2753906, 1.2685547, 2.6113281, -0.25927734, 1.2246094, -0.09851074, 2.7167969, -0.20141602, 0.94433594, -0.11291504, -1.3417969, -1.234375, -0.7163086, 4.0546875, 0.057922363, 1.0097656, 1.5498047, 1.7441406, -0.15649414, 0.34057617, 0.6357422, -0.07159424, 0.41992188, 0.036193848, 0.20739746, -0.36938477, 1.8544922, -1.5849609, 1.1396484, -0.37036133, -0.98828125, -1.7324219, -0.91845703, 0.13110352, -1.0419922, -1.9453125, 0.047790527, 0.875, -1.5185547, 1.3837891, -3.1503906, -0.32958984, -1.8378906, 2.1660156, 0.54248047, 0.3852539, -1.1972656, -1.1875, 1.8955078, -0.9379883, -0.4765625, 0.60791016, -1.3896484, 1.5322266, -0.89501953, 0.22058105, 1.3876953, -1.2246094, -2.7792969, 1.4111328, -1.8496094, -0.73583984, -0.33422852, 0.41186523, -1.1054688, -1.6328125, -0.24975586, -0.08721924, 0.97216797, -0.2800293, 0.76220703, 0.37426758, -1.0488281, -2.015625, 3.1445312, 0.00617218, 0.28173828, -1.15625, 1.265625, -1.3847656, -1.3662109, 0.22131348, -0.79589844, 0.66259766, -0.72998047, -2.7539062, 0.11035156, -2.7460938, 1.9238281, 0.8930664, 0.15979004, 1.8544922, -1.4228516, 0.4729004, -1.6357422, 0.06317139, 0.02848816, -2.8769531, -0.6303711, 0.63134766, -0.76660156, 1.1669922, -1.0371094, 1.0908203, 1.3261719, 0.2956543, -1.1328125, 0.8666992, -0.066833496, 1.6630859, 2.2070312, -0.06378174, 0.40429688, 0.56103516, -1.1191406, -0.17883301, -0.36572266, 1.1386719, -0.42358398, 1.9794922, -1.0908203, 1.8642578, -0.9975586, 2.6191406, -0.6015625, -0.13208008, -1.3623047, -0.037384033, -0.4555664, 2.5957031, 0.69970703, 0.053253174, -3.2128906, -0.9536133, -0.984375, -3.6875, -0.21154785, -0.78027344, -1.2060547, 0.45532227, 1.7050781, 0.93359375, -0.1940918, 0.93408203, -0.5083008, 0.29663086, -0.040130615, 1.4755859, 0.6279297, 1.3095703, -1.3232422, 0.2915039, 0.03491211, 3.5839844, -0.8989258, 1.5576172, -0.3581543, 0.61572266, -0.053497314, -0.38061523, 0.7001953, -0.064453125, -3.6855469, 2.1835938, -0.6459961, 1.6181641, 0.54833984, -0.38476562, -2.0605469, -0.48950195, 0.21765137, -0.43237305, 0.17089844, 3.6816406, -1.0458984, 0.5307617, -0.6694336, 1.2998047, -1.5419922, -0.90625, 2.4394531, -1.7705078, -1.7548828, -1.0654297, -2.0117188, -0.16345215, 0.070617676, 1.1416016, 1.3017578, -0.828125, 1.4755859, 1.2294922, -2.2304688, 0.88623047, 0.59277344, -0.5053711, 0.8569336, -0.05355835, -1, 0.21594238, 0.5239258, -0.2409668, 0.09460449, 0.095581055, 0.5551758, 0.80908203, -1.6347656, -1.1152344, -0.3918457, -1.3662109, -1.6337891, 1.3183594, 1.21875, -0.4958496, 3.1582031, 2.21875, 0.45483398, -0.20397949, -1.5107422, -1.40625, 0.9609375, 1.9589844, 2, 1.9238281, 1.5078125, -0.23852539, 0.18481445, 0.34033203, -0.46264648, -0.5571289, 1.4443359, -1.0390625, 0.24572754, 0.5673828, -0.9423828, 0.15429688, -0.609375, 1.5058594, 0.124572754, 1.3916016, 0.33618164, -0.53466797, -0.01953125, -2.3476562, -3.8554688, 0.55615234, -2.3261719, -3.3457031, 0.93408203, -0.76708984, 0.75146484, 4.3710938, 0.87402344, -0.96484375, 0.034820557, 0.041290283, -0.5776367, -0.30981445, -0.48095703, 0.2298584, 0.17700195, -0.112976074, -0.6225586, 0.5395508, -1.2998047, 0.15454102, -1.1503906, 1.0683594, -0.9892578, -0.026779175, -0.06604004, 1.9072266, 0.30297852, -0.15234375, 0.12915039, -0.91064453, -0.74853516, -0.67822266, 0.4543457, 0.7114258, 1.6728516, 1.9013672, -1.2080078, -0.92041016, -0.5288086, -0.010673523, -0.17248535, -0.80566406, 0.19750977, -1.8535156, -0.37670898, -1.6894531, 1.0361328, -1.4501953, -1.5673828, -0.3647461, 0.24328613, 1.7763672, 0.7783203, -2.0078125, -1.6806641, -0.13586426, 3.2402344, 4.1054688, 0.46704102, -0.7602539, -0.4765625, -0.14001465, 1.5068359, 0.78564453, 0.98828125, 0.77685547, 5.0039062, -0.25805664, 0.61376953, -0.039123535, 0.16833496, -0.96533203, -0.7631836, 0.47802734, 0.48608398, -0.90478516, -1.9365234, 0.7001953, -0.086120605, 0.054229736, -2.3261719, 2.0996094, 0.67626953, -1.4599609, 0.09869385, -0.3371582, -0.32226562, -0.5439453, 3.0644531, -0.14282227, -0.25463867, 0.97753906, -0.83154297, 0.14978027, -1.2783203, 0.78125, -0.13586426, 0.9189453, -0.48266602, 0.8876953, 0.69873047, 1.0195312, -0.08843994, 0.7524414, -0.87158203, 1.0263672, -0.8671875, 1.3613281, 0.6772461, -1.2734375, 1.1464844, -0.5834961, -0.056610107, -3.5722656, -0.11224365, 2.9179688, 1.484375, -0.40063477, 0.81884766, -1.4589844, -0.9736328, 0.84716797, 0.3034668, -1.4707031, -0.06311035, 0.16271973, 1.7109375, -0.37695312, 0.30786133, -0.110839844, 0.7866211, -0.8774414, 0.640625, 2.6210938, 1.4306641, 2.0800781, 0.38427734, -0.07519531, -1.0673828, -2.8398438, 0.875, -1.1767578, -0.8046875, -1.484375, -1.6689453, -0.23718262, 0.49243164, 2.2246094, -2.0761719, 2.4550781, 2.5039062, -0.58496094, 0.9609375, 0.29223633, -0.93847656, 0.46899414, -2.0878906, 0.33398438, -0.3425293, -1.1943359, -0.32641602, 0.12585449, 0.12817383, -0.16821289, 0.72558594, 1.4384766, 0.9458008, -0.6928711, 0.5805664, -0.22570801, -0.09698486, 0.07159424, 0.49291992, 0.2590332, 4.8085938, 1.8876953, 0.52246094, -1.7480469, 3.0097656, 1.4326172, -0.76708984, 1.0019531, 0.37817383, 0.15759277, -2.0390625, 1.1015625, -1.8105469, -1.8017578, -0.33569336, 1.2509766, 2.1289062, 3.328125, -3.3339844, -0.65185547, 3.5625, 1.0419922, 0.7807617, -0.23535156, -0.6928711, 0.2722168, 2.328125, -1.2060547, 0.05831909, 0.9038086, 1.6044922, -1.0439453, 3.6035156, 0.38793945, -1.0888672, 0.53564453, 1.4638672, -0.33007812, -0.109375, 0.9194336, 1.1269531, -0.06970215, -0.97314453, 0.8989258, 0.6821289, -3.9414062, -3.0507812, 0.50439453, 1.515625, 1.1621094, -1.2392578, -1.6123047, 1.9228516, 1.6787109, -0.30859375, -2.0664062, -2.9726562, 0.9350586, -0.62890625, -1.4638672, -1.0205078, -0.09466553, -1.7988281, -1.6103516, 2.2304688, -1.109375, 2.7128906, 0.38085938, 0.5488281, -1.0722656, -0.6586914, -0.27905273, 0.12402344, 1.796875, -0.24047852, -1.1455078, -2.2792969, 0.05014038, 0.7236328, 0.14221191, 5.5234375, -0.91015625, -0.62109375, 0.73779297, 0.68896484, 0.40112305, 0.090148926, -1.7705078, -2.0898438, 2.0449219, 2.8496094, 0.76416016, -0.23901367, -0.54248047, 1.0947266, -0.35864258, 1.3466797, -0.5732422, -1.3564453, 2.21875, 1.1621094, -3.9335938, 1.96875, -2.2832031, -0.3972168, 1.1298828, -0.46923828, -1.2431641, 0.35888672, 0.5732422, -0.84375, 0.59814453, 1.3984375, 0.27026367, -1.1816406, -0.5830078, -1.6035156, -1.2314453, 0.8305664, -1.0498047, 3.2636719, 0.14477539, 0.27026367, 1.0419922, -1.4589844, -0.044708252, -0.07373047, 0.45458984, -0.5522461, 1.4736328, -2.7929688, 0.0803833, -1.78125, -0.94628906, -0.053710938, 0.06896973, 2.5410156, 0.65185547, -0.54833984, -0.25805664, 1.5625, -0.44995117, -1.0546875, -0.3293457, -1.2578125, -1.5703125, -0.6875, -0.011421204, 2.3574219, -0.89160156, -0.24816895, 0.85058594, 0.18884277, -0.09710693, -1.6552734, -0.38671875, -0.51416016, -0.8120117, -2.0136719, 1.6494141, 3.0722656, -0.5854492, 0.4633789, -1.5712891, -2.171875, -0.21655273, -0.123413086, 0.7006836, 1.5644531, -1.2128906, 0.01625061, 1.5732422, -0.85009766, -0.5786133, 0.56689453, -0.32836914, 0.8881836, 0.061431885, -0.91748047, -1.1777344, 0.06335449, -4.2890625, 0.97753906, 0.38989258, 2.1113281, -0.703125, -1.2871094, 0.47631836, -0.75, 2.8300781, 3.0742188, -0.53466797, 0.18713379, -1.71875, -1.359375, -0.51416016, -0.46557617, -0.19836426, -4.5039062, 1.0732422, 0.6225586, -0.3552246, 0.7163086, -1.5380859, 0.6645508, 0.11126709, -1.6347656, -1.4433594, 1.2109375, 0.5708008, -0.07574463, 1.015625, -0.23413086, -2.3085938, 2.4121094, -1.1816406, -0.31079102, 0.005859375, -0.91259766, 0.45922852, -1.4755859, 0.4321289, -1.2626953, -0.44091797, -0.6225586, -1.0244141, 0.9399414, -0.99121094, 1.3525391, 0.90527344, 0.29125977, 0.52441406, -1.1591797, 3.3261719, -0.96435547, 1.0449219, -2.2128906, -0.59277344, 1.7578125, -2.5449219, 0.7836914, 0.20446777, -0.5395508, -1.9628906, -2.3085938, -0.36669922, 0.6069336, -1.4873047, 1.0820312, 0.96875, -0.60546875, -3.1542969, -1.3037109, 1.1464844, -0.091796875, -0.34594727, 1.21875, -0.44140625, -4.1210938, -0.5463867, -0.6586914, 0.19519043, -0.1451416, 1.5185547, -2.0351562, -1.2724609, 0.04800415, -0.17810059, -0.23144531, -1.5927734, 1.3447266, 3.5507812, -1.6796875, 0.1496582, -1.8359375, 0.8256836, -1.2275391, -2.3730469, -2.3808594, -0.3383789, -1.2294922, 0.38745117, -0.23608398, -0.39697266, -0.45043945, -1.3496094, -0.5019531, -0.8857422, -0.7338867, 1.7177734, 0.40649414, 0.12420654, 0.11651611, -1.1347656, 0.38452148, -2.7949219, 2.7753906, 0.47827148, -2.109375, 0.5449219, 0.3671875, 0.19177246, -0.70996094, 1.4921875, -1.2373047, 1.1972656, -0.4194336, 0.9692383, -1.0205078, -3.3164062, 1.921875, 1.4980469, 0.88671875, -0.18688965, 1.4921875, -1.109375, -2.375, 5.4414062, 0.2277832, 0.2553711, -0.83935547, 0.2932129, -2.4101562, 1.7421875, 2.3613281, 0.035308838, -1.3427734, 2.3535156, 0.020233154, -0.51220703, 1.7548828, 1.3730469, 0.023223877, -0.80859375, 1.7431641, -0.80126953, -0.038909912, -2.5429688, -0.5703125, 0.80371094, 0.9770508, -0.859375, 1.7333984, -4.5976562, -0.9633789, -0.8334961, -0.13549805, 0.86035156, -0.06359863, 1.5595703, -2.5585938, 1.3203125, 1.40625, -0.24597168, -0.8310547, 2.9394531, -0.31860352, 1.9238281, 0.54003906, 0.94091797, 0.27734375, 0.2154541, 0.9350586, 0.71777344, -4.1523438, -0.32177734, -2.1621094, 0.057556152, 0.80615234, -1.8925781, 1.453125, -1.8994141, 1.2177734, -0.30419922, -1.8701172, 1.3955078, 2.0859375, 1.6689453, -1.1767578, 1.4902344, -0.30419922, -0.41552734, 2.4472656, 0.13842773, 0.5776367, -1.6513672, 1.9902344, 1.6953125, 1.4130859, 1.5917969, -0.021896362, -2.2167969, 1.5810547, 1.0419922, -1.0136719, 2.0800781, -0.12658691, -1.1513672, -1.4042969, -0.27783203, -0.7583008, 1.6015625, 1.546875, -1.1943359, -0.5083008, 1.8232422, -0.7734375, 0.031463623, -0.97509766, 0.7421875, 1.9160156, 0.22363281, 0.7807617, 0.17004395, 1.1152344, 2.2382812, -0.23046875, 1.0488281, 2.2285156, 0.14855957, -0.088012695, -1.6767578, 2.9414062, -0.75390625, -1.1582031, 0.06222534, -1.5400391, -1.2919922, 0.46948242, 0.49804688, 1.0576172, 0.26049805, -0.42919922, -1.7675781, -0.7470703, -0.31860352, 2.8417969, -0.82714844, 2.4902344, -0.6923828, 1.5136719, -0.71435547, -0.10870361, -1.59375, -2.4179688, -0.32299805, -1.0019531, 0.29125977, 2.1582031, -1.2216797, 0.61816406, 0.36547852, 0.94677734, 1.0957031, -1.4658203, -0.9946289, -1.4482422, 1.4238281, 1.2998047, -0.84277344, -1.5009766, 0.42382812, 1.4707031, 0.7060547, 1.2919922, 0.28515625, 0.68896484, 0.11291504, 1.6591797, 0.15551758, 1.0693359, -1.4316406, 0.375, 1.4052734, 1.2949219, -0.84765625, 0.55615234, -2.7597656, -4.1367188, 0.6635742, 0.86328125, 0.8076172, -0.004558563, -0.76708984, -1.0673828, -0.77246094, 0.24804688, 1.71875, -0.80566406, -1.75, -0.22680664, -0.98095703, 0.83984375, 0.44726562, -0.08856201, -0.032226562, 1.4150391, 0.89746094, -0.18981934, 1.5791016, -0.875, -1.3300781, 0.24353027, 0.14074707, -0.43701172, 0.88183594, 0.81152344, -1.2099609, 0.61865234, -2.3085938, 1.3574219, -0.1541748, -0.890625, 0.72998047, -0.43701172, 1.0693359, 0.09222412, -0.27490234, -1.1132812, 1.2910156, 4.2578125, -0.31469727, 0.74121094, -0.6166992, 0.5341797, 2.0234375, -1.6113281, -1.2138672, -1.0615234, -0.69384766, 1.5830078, -2.4824219, -0.9921875, 0.60253906, 1.1240234, -2.4394531, -1.0615234, -2.9648438, -0.4086914, -0.5283203, 0.15258789, 2.3613281, 2.7753906, -2.1542969, -0.019454956, 1.3925781, -1.2451172, -0.83251953, -1.0634766, -0.98535156, -0.79003906, 0.98339844, 0.00062799454, -1.8974609, -0.9428711, 2.1230469, -0.7915039, -0.66748047, 1.0458984, 1.7558594, 0.6591797, -2.1757812, -1.3583984, 0.69873047, 1.4199219, 3.0996094, -0.99658203, 0.26220703, 0.40673828, -2.3125, -1.1474609, 0.25952148, -0.5102539, 0.6171875, 3.0117188, -0.01651001, -2.0957031, 0.9399414, 0.8227539, 0.7685547, -1.2216797, -0.5283203, 0.82470703, 0.47607422, -0.34570312, 1.2128906, -1.6767578, 1.8613281, -0.96875, 1.4052734, 1.2470703, -2.5527344, 0.27563477, 0.3137207, -1.1738281, 1.1474609, -1.921875, -0.5239258, -2.0976562, -0.24975586, 0.56347656, -0.9736328, -0.9086914, 0.12414551, 0.54833984, -1.6230469, -0.5571289, 0.80371094, -0.12780762, 0.3022461, -0.92333984, -0.875, -0.4411621, 1.3916016, 3.0722656, 1.8896484, -0.2578125, -0.94873047, -0.31860352, -2.4257812, -1.8730469, 0.030838013, 0.3034668, 1.5068359, 0.6357422, 2.4570312, 0.5307617, -0.051483154, 0.83496094, 3.6191406, -0.37231445, 1.8125, -0.48999023, -0.17565918, -1.1611328, 0.6171875, 1.1259766, 1.6162109, -1.7509766, 1.4736328, 0.7446289, -0.21496582, -0.60839844, 1.9775391, 0.49047852, -3.0761719, 0.5830078, -0.9326172, -0.05722046, 1.5185547, 0.57470703, 0.50683594, 0.78466797, -1.5556641, 2.5195312, -1.2958984, -0.15930176, -2.6503906, -0.08270264, 0.66503906, -0.10015869, 0.43920898, -0.06161499, -0.6977539, 0.38452148, -0.5288086, 0.3166504, 0.375, 0.17224121, -1.59375, 1.8496094, 0.11383057, 0.56103516, 0.87939453, 1.1806641, 0.67333984, 1.3105469, 1.6826172, -0.84277344, -0.62402344, 0.6328125, -0.10882568, 0.080078125, -0.49487305, -0.33032227, -1.1806641, 0.34448242, -1.2724609, 1.7412109, -0.71728516, 2.8222656, -0.17199707, -2.1582031, 1.8076172, -0.32348633, 2.7285156, 2.9746094, -2.1425781, -1.5957031, 2.8652344, 0.11706543, 1.9453125, -1.3574219, 0.44384766, -0.24694824, -0.32788086, -1.5087891, -0.92529297, 1.9580078, -0.875, 0.09454346, -2.4726562, 1.2675781, -0.5732422, -1.5634766, 0.16833496, 0.24682617, 0.39404297, 0.48583984, 1.9316406, 1.6230469, -2.6816406, -1.2167969, -2.7675781, 0.29174805, -2.7382812, 0.4140625, -1.3349609, -1.0996094, -1.828125, 2.1992188, -0.14135742, 0.0009069443, 2.6191406, 0.11627197, 0.11187744, 0.123168945, 0.8100586, 0.46704102, -0.57910156, 2.1054688, -1.0019531, -2.0800781, -0.171875, 2.359375, 0.17773438, 1.9990234, 0.19592285, -0.30737305, 0.9477539, 0.8779297, 1.8613281, -0.44360352, -0.74609375, -0.49243164, 1.6328125, 1.3261719, -2.2695312, -1.5644531, -0.104003906, 1.7177734, -0.028533936, 0.9428711, -0.23901367, 0.31420898, -0.29638672, 0.059783936, 0.83935547, 0.55859375, 1.8388672, 0.5102539, 0.87060547, -0.75439453, 2.6289062, 0.10089111, -0.54541016, -1.5175781, -0.54248047, -0.42114258, -0.8041992, 1.6005859, -0.7421875, 1.75, -0.28320312, 2.3769531, -0.4958496, -2.0742188, -0.65771484, -0.23522949, -1.4277344, 0.17871094, 1.0488281, 0.82470703, -1.0712891, 0.3256836, 0.45483398, -0.98779297, 2.2773438, 0.25634766, -0.26782227, 0.62158203, 1.4443359, -0.46435547, -0.45776367, -0.9140625, 0.45507812, 0.8203125, 0.24523926, -1.5244141, 0.9223633, 3.1660156, 0.6147461, -2.1152344, -0.21679688, -0.4428711, -1.5185547, -0.28076172, -0.71728516, 0.62646484, -0.73876953, 0.15563965, -1.7568359, -1.8066406, 0.086364746, -0.77783203, -1.1455078, 1.8828125, -0.38305664, -0.3125, -0.7578125, 1.5800781, -5.4765625, 0.9057617, -1.5263672, 1.7421875, -1.3818359, 3.7167969, -0.6923828, -2.0039062, -0.17407227, -3.2167969, 3.6777344, -1.6904297, 0.21813965, -0.37109375, -0.7182617, -1.5605469, -2.0898438, -2.859375, 2.9824219, 0.22253418, -0.26904297, 1.4873047, -0.99560547, 0.33740234, 0.8359375, -1.3808594, 2.6210938, 1.0488281, -2.6269531, -1.1298828, -0.78515625, -1.4628906, 1.5361328, 0.030410767, -1.2890625, 0.03643799, -1.4873047, 0.38793945, -2.6113281, -2.0800781, -0.47924805, 0.67333984, -1.7714844, 0.6171875, 2.6464844, -0.8071289, 0.69628906, -0.48779297, 1.2988281, -1.6962891, -2.96875, -0.32299805, -0.58740234, -3.796875, 0.22961426, 0.17077637, 0.105041504, -1.4511719, -0.92871094, -1.0869141, -1.7128906, 0.10809326, -0.55566406, -1.0537109, 5.1445312, 0.82666016, -1.0292969, -0.2541504, 0.34838867, -1.4443359, 0.16394043, -1.6503906, -0.49951172, -2.3710938, 0.41748047, 1.2509766, 0.7739258, 1.5146484, -1.5849609, 0.8725586, -2.03125, -0.8876953, 0.08935547, -1.0751953, -0.59716797, -3.9101562, -0.8334961, 0.96777344, 3.7480469, -1.0849609, -1.2392578, -0.061706543, -1.3828125, 1.4765625, 0.20275879, -0.6430664, -0.10681152, 2.1386719, -0.51171875, 0.055480957, -1.1181641, -1.5605469, -0.058563232, -4.1953125, -0.25073242, 0.13476562, -2.8066406, -1.46875, -0.07183838, 0.04156494, -0.80078125, -0.46044922, -0.32983398, -2.1972656, 0.15820312, -1.4892578, -0.41967773, 2.0957031, 0.6845703, 1.3095703, 0.4038086, -0.33374023, 0.15063477, -0.13696289, 2.5644531, 1.2412109, -0.4362793, 1.4169922, -0.10900879, 1.7626953, -4.0898438, 0.58154297, 1.359375, -0.19763184, 0.046173096, -0.7319336, 0.3515625, 1.328125, -0.8461914, -2.0273438, 0.48828125, 3.2402344, 0.92529297, 1.0410156, 3.8183594, -0.24243164, -0.32006836, -0.06311035, 0.29418945, -0.8461914, -1.2255859, -0.05621338, -1.6777344, 1.1083984, -2.4101562, -0.75927734, 0.8833008, 1.2060547, 3.1191406, -1.7470703, -0.5288086, 0.18200684, 0.9350586, -0.52441406, -1.7138672, 0.74365234, 0.86328125, -1.0087891, -0.9399414, 2.7695312, 0.75146484, 0.5371094, -0.70654297, 0.1796875, -2.7402344, 0.49169922, -0.11663818, -1.4375, 0.29248047, -0.35107422, 0.113708496, -1.1337891, 1.0087891, -1.2207031, 1.59375, -0.047943115, 0.48095703, -1.0712891, 0.44506836, 2.7714844, -0.34545898, 0.06149292, -0.20690918, 0.41015625, -0.8745117, 2.3261719, 1.0634766, -0.16674805, 0.38012695, 1.2099609, 0.83154297, 2.3066406, 1.9130859, -2.0253906, 0.17272949, -0.58203125, -0.46533203, 0.48510742, 0.24133301, 1.1552734, -0.3569336, 1.3125, -0.21606445, 2.1074219, -1.0771484, -0.3046875, 2.6230469, 2.2675781, 0.61621094, -0.91308594, -0.359375, 0.6220703, 0.88720703, -0.90625, -0.93408203, -0.8364258, -0.5522461, 1.3466797, -1.6611328, 4.1445312, -1.3115234, 0.9946289, -0.9814453, -0.47973633, -0.34545898, -2.2949219, -0.19934082, -1.8583984, -3.0644531, -0.070007324, -0.35986328, 1.9453125, 1.8515625, -0.029296875, 0.7915039, -0.9272461, 0.953125, -0.8491211, -0.703125, -0.22729492, -2.2675781, -3.1699219, 0.17614746, 1.7871094, -3.390625, -1.3955078, -0.40795898, -0.12023926, 2.2773438, 0.96435547, 1.1474609, 0.75341797, 1.78125, 0.12414551, 0.9526367, 0.82421875, -0.64160156, -1.0478516, 1.5458984, -0.13354492, 0.11437988, 2.6601562, -0.42773438, -0.08868408, 1.1455078, -1.0244141, 1.8974609, 1.4267578, 0.6088867, 0.38330078, 0.8203125, -0.80322266, 0.5732422, 1.3046875, 0.22009277, -1.9042969, 1.8876953, -2.0273438, -0.23205566, 1.4248047, -0.35864258, -0.27490234, -0.9301758, -1.1347656, 0.55615234, -0.9682617, -0.88623047, 0.7783203, -0.24511719, -0.44873047, -0.13464355, -2.0097656, 0.86035156, -0.36547852, 0.7368164, -0.60791016, 0.25048828, 3.7148438, 0.27783203, 0.076049805, 0.24450684, 4.6796875, 0.8383789, 0.6245117, 1.9677734, 0.23352051, 1.8378906, -0.6845703, -1.0966797, 0.97216797, 1.9052734, 0.9897461, -0.12878418, -0.61279297, -0.53027344, 0.38549805, -0.045837402, -1.2548828, -0.88720703, -0.22790527, -1.0048828, 1.4306641, 0.9135742, 2.1074219, -1.421875, -2.40625, -1.4404297, -0.6508789, 1.6650391, -1.0332031, -1.6025391, 1.5205078, -1.4785156, 2.921875, -0.22631836, 0.6401367, -0.051483154, -1.1220703, 0.43823242, -3.8222656, 0.7451172, -2.0136719, 1.1103516, -0.16955566, -3.0839844, -1.3212891, -0.12005615, -1.1425781, 0.2644043, 1.1494141, -1.9990234, -0.2614746, -0.24694824, 1.4121094, -0.3112793, 0.15649414, 0.75146484, -0.18688965, -4.6523438, -1.9189453, 1.3720703, 1.0830078, 0.5678711, -1.1357422, -0.73779297, 0.0024585724, 0.54052734, -0.625, -0.2824707, -2.5371094, -0.38208008, 0.017578125, -0.8461914, 2.8007812, 0.7055664, -0.45825195, 0.18981934, 1.9658203, -0.75439453, -1.5712891, -0.77441406, -0.0670166, -0.16711426, 0.35595703, 0.7495117, -1.7587891, -0.07775879, -3.3945312, 0.23217773, 0.16906738, 0.19921875, 1.0009766, -0.51464844, -1.0810547, 0.5161133, 0.6196289, 1.0908203, 0.33666992, 0.7944336, -1.3955078, 0.48413086, -1.46875, 1.6806641, -2.40625, -1.1787109, -0.88623047, 0.33740234, 1.6181641, -0.75341797, 0.48486328, 1.6708984, 2.0214844, 3.4785156, -1.5839844, 2.8789062, -1.1738281, 0.030899048, -1.3759766, -0.7705078, -0.66259766, 0.24047852, -0.54345703, 1.7353516, 0.47509766, -0.2692871, -1.0136719, 2.546875, 0.20446777, -0.22644043, 1.7441406, 3.8398438, -0.3762207, -1.4580078, 0.7236328, 0.0030345917, -1.3251953, -0.27685547, -0.96777344, 0.7084961, 0.77783203, 3.1660156, -1.8300781, -2.8691406, -0.025665283, 0.13793945, -0.4206543, -0.32177734, 0.9916992, 0.81591797, 2.2050781, 0.8491211, -2.3027344, -1.9951172, 0.5942383, -1.7988281, -1.3525391, 1.6123047, -2.7597656, 3.3886719, 2.0273438, 2.6035156, -1.1191406, -0.18127441, 1.1611328, 0.15930176, 1.8359375, -0.22619629, -0.000767231, -1.0634766, -0.11859131, 2.109375, -1.953125, -0.46557617, -1.6943359, -0.07849121, 0.8022461, 3.8105469, 2.5097656, -1.5498047, -2.1875, -2.3144531, -1.1308594, -1.5380859, 0.9375, -0.21887207, 1.6005859, 1.0527344, -1.1748047, -1.0947266, -2.5292969, -0.8935547, -1.2236328, 1.0478516, 1.0556641, -0.9116211, 1.2128906, 0.016281128, -2.4394531, -1.9902344, 0.16491699, 1.0390625, 0.32373047, 1.4736328, 1.0146484, 0.6743164, -0.50878906, 2.1855469, -0.54052734, 0.6616211, -4.4414062, 0.0018835068, -0.65625, -0.5317383, -2.2832031, 2.4707031, 0.5214844, 0.22155762, 2.5742188, -1.2646484, 0.5371094, -0.082214355, -0.8256836, -1.4941406, -0.11907959, -0.41625977, -3.75, 0.05126953, 0.2043457, -2.2558594, 1.2744141, -1.2294922, 0.2800293, -0.5004883, -1.0488281, 0.75390625, 0.08605957, -1.1621094, 1.8515625, -0.75097656, -0.84814453, -1.4580078, -0.88183594, 1.3173828, 1.2216797, 1.6748047, -0.70751953, 0.9379883, -1.3017578, 0.9741211, -0.74072266, -0.033935547, -0.53222656, -1.3740234, 1.5878906, -0.35766602, -0.64160156, -0.13879395, -1.9794922, -3.9257812, 0.06628418, 2.2011719, 1.9980469, 1.7421875, 2.1933594, 0.17614746, 3.6210938, 1.1171875, 1.1142578, -1.0185547, -1.6113281, 0.9711914, -0.77441406, -1.6337891, 0.9536133, 0.9296875, 0.8618164, -1.4580078, 1.1035156, 0.6352539, 0.8227539, -0.98095703, -1.4169922, 2.0957031, 1.4453125, 0.96728516, -1.9511719, 0.47045898, -3.4316406, -1.2099609, -0.53271484, -0.5336914, -0.18200684, 0.13439941, -0.59765625, -1.4902344, 0.034454346, -3.0585938, -1.2265625, -0.28930664, 2.8320312, -0.32543945, 0.62890625, 1.5771484, 0.9345703, -1.2490234, 0.90625, 0.61572266, -1.9677734, 1.1865234, -3.1308594, 0.2524414, 0.0107040405, -2.9160156, 3.2070312, -0.015701294, 0.024627686, 1.8417969, 0.80078125, 0.35327148, 3.4023438, 1.390625, 0.9921875, -1.1542969, 1.0761719, -0.21594238, 1.0009766, -1.5214844, -0.34448242, -2.2929688, -0.7084961, -1.0908203, 1.8486328, 0.8989258, -0.9375, 1.1953125, -0.8046875, 0.6640625, 0.4765625, -2.875, 0.75, -0.14916992, 3.2792969, -0.5698242, 0.8510742, -0.6225586, 1.3134766, 0.48291016, 0.12023926, -0.44482422, 0.21618652, 0.20117188, 0.47607422, -0.38208008, 3.5273438, 1.2470703, 0.60546875, -0.23168945, -0.122558594, 1.3974609, -1.2871094, 1.7001953, -1.2001953, -0.34057617, 1.6298828, 3.2011719, -1.3652344, -1.0869141, 0.0077438354, -0.48266602, -0.79785156, -3.1230469, -1.1982422, 0.45141602, -2.1835938, -1.2763672, -1.8466797, -0.16638184, -0.19934082, 0.13342285, 0.5488281, 0.5161133, -0.6357422, 0.20898438, 0.65771484, 1.0654297, 0.4350586, 0.30737305, 0.58154297, 0.86816406, 0.3815918, 0.08331299, -0.7133789, -2.2617188, -0.8334961, 2.4257812, 2.1523438, -0.23669434, -0.59277344, -0.4934082, -3.3144531, -1.6738281, -0.95214844, 0.8959961, -0.44995117, 0.7758789, -0.74316406, 1.78125, 1.7050781, 2.5488281, 0.22070312, 0.003068924, 1.4287109, -1.3037109, -1.0703125, 1.6191406, -1.1259766, 1.1191406, 1.2392578, 3.0117188, 0.3840332, 0.0014648438, 1.0693359, 1.1767578, -0.8979492, -1.3388672, 1.6621094, 4.1132812, -0.9458008, 1.3574219, 0.3046875, 0.0004708767, -2.6445312, -1.5263672, 1.5869141, 0.46044922, 0.1303711, 0.2932129, -0.8076172, -0.095703125, -0.28051758, -0.5727539, 1.3681641, -1.2294922, 1.3183594, 2.2167969, -0.07305908, 0.45385742, -2.9824219, -0.81933594, -2.7714844, 0.23278809, 0.3996582, -2.3261719, -1.3056641, -0.7807617, 1.4541016, 0.28588867, -0.5522461, 0.48608398, 2.546875, 0.111694336, -0.24060059, -1.0126953, -1.0283203, -1.78125, -0.94873047, 0.4152832, -0.29125977, -1.0488281, -0.2142334, -0.78564453, -4.5820312, -0.34326172, 0.007534027, 1.2587891, 1.1933594, 2.1894531, 1.4306641, -1.6796875, -0.27124023, -0.6298828, -5.0625, 0.62402344, 2.9082031, -0.32592773, 1.3779297, 2.1640625, 0.75341797, 0.40478516, -0.99121094, -3.1523438, -1.7138672, -1.9345703, -0.82666016, 0.90234375, 0.089538574, -0.23400879, -1.0498047, -1.5, -1.3847656, -0.18334961, -0.35205078, 2.4042969, -0.6225586, -0.44189453, 0.62109375, 0.6669922, -1.3037109, 1.1689453, -1.4326172, -0.6743164, -0.77197266, -0.30908203, -0.13317871, 0.40673828, 0.9321289, -1.3759766, 5.6054688, 0.3359375, -0.95214844, -0.42529297, -0.1385498, -0.0124435425, 1.4013672, 2.5039062, 1.53125, -1.2441406, 0.2788086, -0.8330078, -0.49951172, -1.4443359, -0.46020508, -1.3964844, -2.6210938, 0.8276367, -1.9863281, 0.4440918, -0.017929077, -3.03125, -1.7792969, 5.8320312, 1.1630859, -1.1748047, -0.46264648, -0.34545898, 0.31982422, 0.6015625, -1.6933594, -0.06768799, 1.625, 0.7993164, 0.014053345, -0.3347168, 1.1777344, 0.5239258, -0.87109375, 0.67871094, -2.9511719, 0.70166016, 0.97558594, -1.1464844, 0.71875, -0.79833984, 0.9067383, 0.9067383, 0.9658203, 0.8569336, 0.8256836, -0.42016602, -2.7636719, 0.7192383, 0.6298828, -0.3010254, -0.96728516, -0.32641602, 1.0185547, -5.4335938, -2.0996094, 0.29418945, 2.0039062, -1.0634766, 0.30029297, -0.39916992, 0.86816406, -1.6943359, 0.546875, -0.2878418, -2.9746094, 3.6855469, 0.15197754, -0.7416992, 0.23010254, 2.7011719, -0.25585938, -3.375, -1.8583984, 0.10144043, 1.484375, 0.41625977, -1.6230469, -1.1572266, -0.06719971, -2.78125, 0.28173828, -3.9472656, -0.18884277, -0.85058594, -0.25097656, 1.1181641, -0.18054199, -0.33764648, 0.7133789, -0.5629883, 2.5488281, 0.9711914, -0.6352539, 0.9951172, 1.4404297, 0.66308594, -1.3447266, 0.31958008, 1.8037109, -0.3996582, -1.1074219, 0.43896484, 0.734375, 0.18530273, 0.24536133, -0.6586914, -0.20898438, -0.92041016, 0.8564453, -0.80371094, 1.0253906, 0.16381836, 1.3408203, -0.018066406, 0.640625, -1.4501953, -0.48461914, -1.2255859, 1.7050781, -1.2255859, -0.82128906, -0.31420898, 1.2421875, 0.64746094, 3.6289062, 0.31860352, 2.2675781, 1.5361328, -0.37768555, -0.4116211, -0.30908203, 0.85058594, 0.05545044, -0.10058594, 3.3476562, -0.3671875, 0.18493652, 1.5488281, 1.1396484, -1.3603516, -0.50097656, 1.3505859, -0.8598633, -2.4824219, -0.0009765625, -1.5859375, 0.20922852, 0.021270752, 2.2949219, -1.7001953, 0.94140625, -1.5732422, -0.20727539, -2.1875, -1.7089844, 0.45385742, -3.7167969, 0.35327148, -1.2714844, 0.30639648, -0.74316406, -0.7602539, 1.0048828, 0.83154297, 1.8037109, 1.5751953, -0.72558594, -1.3417969, 1.1376953, 0.72021484, 1.1230469, 0.2836914, 0.05319214, -0.7739258, -0.21252441, -2.671875, 0.9272461, 1.171875, 0.9321289, -0.68847656, 1.0390625, 0.6796875, 0.96972656, 2.4960938, 0.8466797, 0.47314453, -0.21411133, 1.8310547, -1.0224609, -0.20251465, 0.4621582, 1.2392578, -3.8164062, 1.3720703, 0.6635742, 0.2277832, -0.60498047, 0.5395508, 0.70458984, 4.2734375, 4.0351562, 0.98779297, -0.52441406, -1.1728516, 1.5371094, -0.10168457, 0.045959473, 1.6699219, -3.7988281, 1.4277344, -0.52978516, 2.1035156, -2.3496094, -0.8383789, -0.45581055, 0.5229492, -0.79785156, 0.33984375, -0.40014648, -2.1660156, 0.44750977, 1.7255859, -1.5771484, -0.7631836, 0.33520508, -0.43530273, -1.2822266, -2.34375, 0.80615234, 1.0615234, -1.3115234, -1.0869141, -1.7001953, -0.28393555, 0.91552734, -1.1767578, 0.5102539, 2.0957031, -1.0166016, -0.8696289, -1.2177734, 2.0097656, -0.46826172, -1.0527344, -1.4814453, -0.17895508, 0.3215332, -0.95996094, -1.0292969, -0.1217041, -1.1035156, 1.171875, -2.5898438, 3.8378906, 0.20336914, -0.53808594, 1.0908203, -0.33325195, -2.2558594, 1.8144531, 2.15625, -0.24536133, -0.12298584, 0.27392578, -0.3696289, 0.6923828, -2.0527344, 0.9453125, 0.5522461, -0.23461914, 3.1132812, -0.4194336, -0.42114258, 1.3134766, 0.082336426, 1.3154297, 1.9365234, 0.06427002, 0.08807373, -0.50439453, 0.16381836, -0.66259766, 1.359375, 0.87109375, 1.7529297, -0.41748047, -0.1685791, 0.4416504, -0.5004883, -1.0654297, 0.7939453, 1.96875, -1.4238281, 0.26733398, -1.8505859, -3.6875, 0.2421875, -0.9428711, 0.02734375, -1.5341797, -0.13110352, 0.796875, -1.0048828, -0.7573242, -0.012519836, -1.8671875, 0.077819824, -0.56396484, 0.17321777, -0.41235352, 0.95751953, -2.0742188, -0.9326172, 0.88964844, 0.96777344, 0.87060547, -0.90283203, 0.7866211, 1.0761719, 1.1865234, -1.4521484, -0.13549805, -1.6025391, -2.1542969, -1.3837891, -2.40625, -0.33520508, 2.7773438, -2.671875, 1.2636719, 0.89501953, -0.6533203, -1.2060547, -0.46411133, -0.5727539, -0.17297363, 3.2519531, 0.40478516, 0.67333984, 1.5830078, -3.125, 2.3964844, -1.5302734, 1.0683594, -1.0800781, 0.25219727, 0.20532227, 2.4511719, 0.16125488, 1.0849609, -0.81396484, 1.3974609, -0.8671875, 1.6933594, 1.5126953, -1.0820312, -0.53271484, 0.44604492, 0.37329102, -0.6435547, 2.2695312, -1.3701172, -0.116882324, 0.57666016, -0.80810547, 1.8964844, -2.4257812, 1.5478516, 1.6230469, 3.2597656, 0.578125, -0.28979492, 0.29418945, -1.8525391, -0.12902832, -0.5942383, 1.0410156, -0.29125977, -2.6210938, -0.07873535, -2.6230469, -0.3474121, 0.71875, -1.6738281, -0.24987793, 0.3815918, -3.8320312, -3.1230469, 3.5917969, 1.3300781, -1.5029297, 1.9609375, -1.4121094, 0.23498535, 0.8041992, 1.8037109, 0.28710938, 0.58447266, 0.25512695, -1.0673828, -2.4902344, -0.09362793, -0.71972656, -0.98828125, -1.1962891, 0.3894043, 1.3183594, -0.78808594, -1.9394531, -0.06976318, -0.62939453, -1.6230469, 0.43945312, -0.86621094, -0.21594238, 0.45703125, -1.8212891, -2.0078125, -0.88427734, -1.0048828, 0.11047363, 0.57128906, 0.2631836, -1.09375, -2.0019531, 2.8847656, 0.087890625, 0.75439453, -0.62939453, -1.578125, 1.59375, -0.3762207, 0.16320801, 0.4494629, -0.5, 1.3457031, -0.80908203, 2.09375, -1.1064453, -0.42236328, 1.6025391, 1.328125, -0.92578125, -2.7402344, 3.3730469, -3.5507812, 0.58935547, 1.7451172, -1.8134766, -0.017852783, -1.9580078, -2.3105469, -0.86572266, 0.30493164, 0.88964844, -1.8212891, 0.13598633, -0.3269043, 0.56689453, 2.3710938, 1.8671875, 2.7480469, 0.75439453, 0.4099121, 1.8964844, -0.70166016, -0.30517578, -0.39624023, 0.8720703, -1.8994141, 1.0556641, -0.5942383, -3.5117188, -0.007045746, -1.3212891, -0.13916016, 1.2060547, -0.21569824, 0.6977539, -0.15014648, -0.050872803, 1.046875, 0.39672852, 1.4560547, -1.0292969, -1.3818359, -0.8364258, -0.07489014, 1.3603516, -1.6230469, 0.16625977, 0.038909912, 0.7055664, 0.00819397, 1.7158203, 0.49804688, 0.2824707, -0.88427734, 0.39916992, -1.5810547, -0.72509766, -1.2158203, 0.20727539, -0.051330566, -0.1282959, 2.0429688, 0.60839844, -2.5351562, -2.8613281, -2.8417969, -0.2993164, -1.2636719, -0.6171875, -0.029373169, 1.6875, -1.9541016, 0.6245117, -0.6044922, -2.1132812, 1.1689453, -1.4677734, -0.63427734, -1.0068359, 1.28125, 0.5390625, -1.4863281, 0.7998047, -0.42041016, 1.5009766, -2.3886719, 0.79296875, -0.6923828, -0.056121826, 0.9482422, -1.234375, 3.4707031, -0.1842041, 1.8144531, -1.3251953, 0.21606445, -0.3828125, 1.4072266, -0.49389648, -1.9248047, 0.57128906, -1.265625, -0.8359375, 1.4638672, -0.23999023, -0.6411133, 1.8886719, 0.77978516, 0.50439453, 1.2207031, 1.09375, -1.0576172, -0.28198242, 0.04019165, 1.9355469, -1.6396484, -0.4387207, 0.33642578, 0.16516113, 1.7412109, 1.7568359, -1.8740234, -2.890625, -0.23522949, 2.3945312, -0.16345215, -1.1552734, 0.14624023, 0.024246216, -1.2675781, 2.4824219, -1.1777344, 1.4716797, -0.55566406, -0.64160156, -1.796875, 0.6821289, -0.040863037, 0.86865234, -1.2128906, -0.9379883, 1.3378906, 1.4355469, -1.4716797, 1.2285156, -0.79589844, -0.99658203, 0.17504883, 0.78466797, 0.19897461, 1.0458984, 2.3867188, 0.5678711, -0.24829102, 1.0751953, 1.0292969, -0.85498047, 1.2558594, -0.63623047, -0.115722656, -0.6557617, 0.6357422, 1.0478516, 1.6464844, -1.6611328, 1.9667969, -1.3378906, -1.1767578, -0.14147949, 1.609375, 0.75927734, -1.1513672, -0.0057907104, -0.3840332, -1.0039062, 0.9033203, 1.0488281, 1.5263672, -1.0341797, -1.2060547, -1.7666016, -2.7441406, -1.0673828, -2.2695312, -0.32592773, 1.3935547, 0.73535156, 2.7832031, 1.2597656, -1.1181641, 0.5385742, -0.06817627, -1.34375, -0.016815186, 0.3684082, 0.4790039, 2.1875, 0.11773682, 0.375, 0.9838867, 0.89941406, 1.453125, 0.2692871, -2.8300781, -0.8125, 1.7714844, 2.6269531, 0.011367798, -0.66552734, -0.93066406, -2.2753906, 2.375, 0.1673584, 0.10760498, 0.640625, 0.33935547, -2.5839844, -0.22253418, -1.7324219, -1.5673828</t>
-  </si>
-  <si>
-    <t>[1.1933594, 0.7294922, 0.85009766, -1.2265625, -1.3759766, -0.7138672, -0.1776123, -0.15734863, -0.30737305, 2.5097656, 2.8710938, -0.3762207, -0.7241211, 0.63623047, 0.53027344, -0.19543457, 0.12561035, -1.8251953, 1.3652344, 0.25976562, -0.14819336, 0.29858398, -0.21118164, 0.045135498, -1.6269531, 0.9248047, -0.27612305, 1.7080078, 0.09265137, 0.5541992, 1.4052734, 5.0390625, -0.4074707, 0.71777344, -0.4951172, -0.042022705, -1.4580078, -0.7553711, 2.46875, -0.27294922, 1.9501953, 0.8725586, 1.0214844, 0.49926758, -0.23535156, 2.265625, -0.67871094, -0.12561035, -0.32348633, 1.1308594, -0.7451172, -0.6928711, -3.0488281, 0.31762695, -3.0292969, 0.109802246, 0.49243164, 0.21777344, 1.4951172, 3.1289062, 0.3544922, 1.328125, 0.7246094, -0.33374023, 0.9511719, -3.1210938, -1.7949219, 1.8330078, 0.39404297, 0.5546875, -0.90722656, -1.4482422, -0.3552246, 2.25, 0.98535156, -0.46313477, 0.7421875, 1.1455078, 0.7285156, -2.8105469, 1.7207031, -1.0341797, -2.0136719, -1.5585938, 0.8852539, -0.40454102, -0.4794922, -2.4550781, -1.2460938, 0.20007324, 2.5722656, -0.5463867, -0.09423828, 0.33642578, -2.0253906, -1.5683594, 0.7211914, -2.4785156, -0.87158203, -1.6259766, -1.0332031, -0.089538574, -1.4638672, 0.49121094, 0.16687012, 1.203125, 0.6479492, -0.57666016, -0.3215332, -2.3222656, -2.6035156, 0.45117188, 2.1992188, 0.61083984, 3.2324219, -1.1230469, 0.3798828, -0.87353516, 0.9975586, -1.3066406, 0.90625, -0.3088379, -0.9428711, 2.1660156, 0.6772461, -3.140625, 0.120666504, -0.12249756, 1.0800781, 3.1660156, -0.018249512, 0.28515625, 2.4785156, -0.08972168, 1.5830078, 2.8964844, 0.69677734, 1.2871094, -0.34716797, -0.6176758, -0.7397461, 1.484375, 0.24194336, 1.6142578, 1.9277344, 0.29052734, 1.5166016, -0.8183594, 2.1875, -0.8334961, -1.984375, -0.9477539, 0.51171875, -1.671875, 1.2119141, 0.5, 1.5283203, -2.9628906, 0.23461914, -0.80908203, -1.296875, -1.9794922, -0.86621094, -0.8486328, 0.09613037, 1.2763672, 0.095947266, -0.2705078, 2.6054688, -0.00021278858, -0.84277344, 0.25512695, -0.74560547, 1.1767578, 1.0556641, -1.0888672, -0.9238281, -0.47387695, 2.5097656, 0.8017578, -0.34423828, 0.26635742, 1.0537109, -1.8955078, 0.4025879, 0.6303711, -0.23278809, -0.9238281, 3.6054688, -0.7290039, 0.38964844, -0.05078125, -0.41357422, -0.74853516, 0.40234375, 0.59521484, -0.022979736, -0.16003418, 2.9316406, -1.9580078, -0.9848633, -0.81396484, 0.51953125, 0.8935547, -0.108947754, 3.15625, -1.7597656, -0.37036133, -1.1464844, -0.16430664, 1.2753906, 0.16418457, 0.7446289, -0.5180664, -0.9609375, 1.8496094, 0.9038086, -0.97265625, -0.0102005005, 0.61279297, -1.8828125, 1.9482422, 1.203125, -0.25854492, 1.0253906, -0.07574463, -3.5996094, 0.20812988, 0.16772461, 1.0830078, 2.1464844, 0.9838867, -0.3474121, 1.5810547, 1.2080078, 1.4638672, 0.5522461, 1.3955078, 0.04147339, 1.1064453, -0.4711914, 0.7607422, 0.37402344, 1.21875, -2.0195312, 1.0419922, 2.1660156, 1.2607422, 1.6181641, 1.6767578, 3.2324219, 1.7822266, -0.203125, 0.6694336, -0.86865234, 0.29638672, -2.5410156, -1.1806641, -0.11669922, -2.1132812, 1.1503906, 1.8623047, 0.032287598, 1.6044922, 1.4130859, -0.53222656, 1.4179688, 0.064697266, 0.09246826, 0.20300293, 0.85498047, -0.38671875, 1.3466797, -1.5429688, 1.1982422, 1.0742188, 2.7949219, 1.4082031, -0.9277344, -1.2607422, 0.64208984, -0.30859375, 0.9511719, -0.6347656, 0.4206543, -1.1669922, 0.009727478, -0.93115234, -2.7324219, -1.3466797, 0.1743164, -0.16210938, 1.8681641, -1.3642578, 1.2695312, -0.107177734, -1.0419922, -0.9863281, 0.43579102, -1.6162109, -0.19799805, -0.15222168, -0.9711914, 0.21179199, -0.28076172, 0.051971436, 0.5966797, -0.6557617, 2.7011719, -0.90527344, -0.70654297, -2.1230469, 1.4365234, -0.47875977, 0.9584961, 0.10784912, -0.84765625, 0.58154297, 1.7832031, -3.8964844, -1.0019531, -0.93896484, -0.07165527, 1.3203125, 0.5136719, -3.4960938, 2.328125, -1.6181641, 1.6357422, 0.8652344, 0.6269531, 1.1953125, -0.7758789, 2.6992188, 2.0566406, 1.6679688, -0.5258789, 1.3681641, 0.18444824, 0.42138672, -1.6904297, 0.64453125, -1.5449219, 2.3046875, -0.004043579, 1.5634766, -4.8671875, -2.5175781, 1.4746094, -0.89404297, 0.096069336, -1.7705078, 1.5898438, -0.6616211, -0.9321289, 0.4638672, 3.0585938, 2.9179688, -1.8330078, 0.5878906, 0.40673828, -0.12597656, -0.28808594, 0.44995117, 1.9521484, -2.2167969, 1.1035156, -0.8359375, 1.6445312, 1.0234375, 0.5078125, 1.1777344, 1.5625, 1.6582031, 0.03656006, -1.2255859, 0.19506836, -0.08795166, 0.011894226, 0.62841797, 0.043914795, 1.109375, -2.3144531, 0.38256836, -2.5488281, -0.09906006, 0.10003662, 2.7675781, -0.27392578, 0.41186523, -0.10345459, -0.3100586, 0.12585449, -2.515625, -0.49365234, -0.4399414, -0.96875, 2.78125, -0.94970703, -0.38671875, -0.69433594, 0.18273926, -0.7734375, 0.8540039, 1.5390625, 1.8027344, -1.0771484, -0.099975586, 0.33740234, -0.203125, -0.7998047, 1.8730469, -0.88378906, -0.8286133, -1.0166016, -2.1933594, 0.34936523, 0.24560547, 2.4355469, -1.3994141, 1.5244141, 1.7871094, -0.8334961, -0.42114258, 0.9511719, -2.3789062, 0.40820312, -0.62597656, 1.9199219, -0.21032715, -0.054473877, 0.67529297, -0.5854492, 2.1347656, -1.3027344, -2.1621094, 3.8457031, 2.0078125, -2.0449219, -1.0576172, 0.59277344, -0.47875977, -1.5380859, 0.41015625, 1.3642578, 5.8242188, -0.7109375, -0.5317383, -1.9580078, 1.5644531, -1.2402344, 1.6123047, -0.2861328, 0.359375, -1.5966797, -1.4130859, -0.13476562, -2.2011719, 1.4492188, -1.0556641, 0.82714844, 0.49365234, 0.76660156, -2.3847656, -3.9492188, 0.89160156, 0.58447266, 0.5800781, 1.0751953, -0.24157715, 0.3894043, 0.18896484, -3.1523438, 0.06188965, -1.9101562, 2.2519531, 0.39453125, -1.171875, 1.1210938, -2.6152344, -0.9399414, 1.1796875, -2.1738281, -0.42700195, -1.3916016, 1.2900391, -0.3166504, -0.99902344, -2.3710938, -0.99853516, -0.7788086, -1.6044922, 1.1679688, 1.4101562, 1.5898438, -0.84375, 0.73876953, 0.6376953, 0.60302734, -0.0715332, -1.5224609, -2.4140625, -1.2138672, -0.37890625, -0.07122803, -0.6538086, -0.73046875, -1.5800781, -5.1992188, 1.5576172, -1.2626953, 1.5380859, 1.0742188, -0.82128906, -1.8125, -0.671875, 2.8320312, -0.47070312, 0.03857422, -1.7792969, -0.16503906, -1.9101562, 1.4433594, 1.3740234, 0.6948242, 3.5585938, -1.2353516, 1.3759766, -0.7553711, 0.5834961, -0.034118652, 2.2519531, 0.7368164, 0.09210205, 1.5332031, 0.8178711, 0.89160156, -1.0332031, 0.62402344, 1.1982422, 0.35131836, 0.8540039, -0.94140625, 1.1035156, -0.17980957, 1.1523438, -0.83740234, 0.2409668, -0.5942383, -1.5146484, -0.84277344, -0.56591797, 2.4023438, -1.5898438, 0.50341797, 2.0585938, 0.58447266, 1.5292969, 2.9238281, -2.6835938, -2.2519531, -1.8144531, 0.90283203, 0.20727539, -1.0869141, 0.079956055, -0.9584961, 2.3378906, 0.7817383, 0.6894531, -2.7285156, -0.4794922, 0.9165039, 0.2734375, 3.4960938, -0.9013672, -0.76953125, -0.004020691, 0.15148926, 1.2724609, -0.98535156, -0.29760742, 1.8017578, -0.14221191, 0.0284729, 0.21679688, 0.6948242, 0.12670898, 0.13476562, -0.076293945, -0.6513672, 0.036010742, -1.4150391, 1.8017578, -1.1767578, 1.6318359, -0.38745117, -0.008102417, 2.046875, 0.16516113, -0.5493164, 1.078125, -1.1855469, -0.54003906, 0.32299805, 0.58935547, -1.1367188, -0.52246094, -1.1142578, -0.70166016, -1.171875, 0.50878906, 0.49121094, -0.9199219, -0.53125, -0.8076172, 0.68847656, -1.5986328, -0.12030029, -0.28027344, 0.8066406, -0.45239258, -0.31762695, -2.46875, 1.1210938, 0.74902344, -2.9042969, 0.42358398, 0.5620117, 0.6333008, 0.74853516, 1.3017578, -1.5888672, -2.96875, 2.2714844, 1.75, -0.2368164, -1.5703125, -0.8774414, 0.87890625, 0.13232422, 0.1270752, -0.6196289, -2.0566406, 0.079589844, 0.041931152, 0.6640625, -0.88134766, 0.6640625, -0.12561035, 0.19616699, -0.14978027, -1.6269531, 1.7646484, 2.3398438, 0.3996582, 3.0644531, 1.4375, -1.7207031, 2.2910156, -0.61279297, -0.56640625, 0.96728516, -1.6630859, 0.83496094, -0.31933594, 1.21875, -1.8125, -0.20678711, 0.46484375, -1.9042969, 2.6171875, -2.0976562, 0.8515625, 0.8413086, -1.5087891, -0.18383789, 0.6376953, 1.0107422, 1.9824219, 0.41235352, -1.7167969, 1.0439453, 1.7626953, -2.0273438, 0.07342529, 0.045776367, -1.2929688, 0.67871094, -1.1162109, -1.265625, -0.30786133, 1.2519531, -0.5834961, 0.296875, -0.36206055, 0.14343262, -1.5644531, 0.14562988, -0.08972168, 0.60595703, 0.9160156, -0.65966797, -2.5996094, -0.21813965, -1.2792969, -0.22790527, -0.7944336, -1.3066406, 0.27734375, -1.4130859, 1.3955078, -0.47485352, -2.609375, 0.08807373, -0.26049805, -0.12841797, -2.6445312, -0.8876953, 1.0634766, 1.7373047, -1.1025391, -1.8457031, -0.24316406, 1.3408203, 1.5068359, 0.76464844, 0.71972656, 0.61035156, -0.8676758, -0.00680542, -0.5053711, -1.3105469, -0.99365234, 2.1621094, 2.2246094, 0.097717285, 0.43481445, -3.1894531, 0.22973633, -0.95214844, 1.0078125, 1.0615234, -1.3388672, 0.22070312, -0.75683594, -0.24035645, -1.3779297, 2.1308594, 0.57958984, -0.23535156, -0.9741211, 0.15539551, 1.2998047, -2.6328125, 1.9794922, -2.4101562, 0.10809326, 0.09698486, 1.0068359, 0.70410156, -2.3300781, 0.8041992, -0.9550781, 0.19348145, 0.49121094, -0.8461914, -0.6245117, 0.15783691, 0.80029297, 0.51464844, -2.03125, 1.8974609, -0.10180664, -1.046875, -0.7553711, 1.2275391, 0.46118164, -2.9921875, 3.59375, -0.14575195, 0.6352539, -2.0058594, 1.9580078, 1.2705078, 1.9130859, 0.19226074, 0.74658203, -1.9199219, -2.6933594, -0.13781738, -1.0205078, -0.47436523, 1.7431641, 1.4394531, -1.3486328, -0.8276367, 0.2355957, 1.2128906, 0.5546875, 1.1777344, -1.0458984, -1.1582031, -0.41870117, 2.0898438, 0.23242188, 0.6796875, 2.0625, -1.4462891, -1.2285156, 1.2304688, -0.5131836, 0.119384766, 0.23815918, -1.6054688, 0.8774414, -0.13354492, -0.049987793, -0.10235596, -2.4238281, 1.3623047, 0.10638428, 0.5854492, -0.8964844, 2.2089844, 0.08557129, 1.1494141, 0.39501953, 0.4699707, 0.078125, -0.6894531, -0.24279785, 1.1054688, 1.9179688, 0.9863281, 0.13000488, -0.95654297, 4.6679688, 1.765625, 0.8227539, 1.6728516, 1.4248047, -0.48242188, -0.010971069, -0.42797852, 1.4785156, 1.7978516, -1.609375, 0.91845703, 1.6855469, -0.63427734, 0.51220703, 0.002735138, 0.19433594, 0.9975586, 0.44482422, 1.0458984, -0.4868164, -1.2792969, -1.7421875, 2.5195312, 0.76953125, 1.0107422, 2.5195312, 1.5761719, 0.023513794, -1.5224609, -0.13256836, -0.9736328, 0.117370605, 1.5683594, -1.1542969, 1.1298828, -0.42260742, 0.23059082, 0.97265625, 0.71240234, 1.5712891, -0.45263672, 0.81103516, -2.0136719, 1.6132812, -1.0429688, 1.2558594, 0.1204834, 2.5058594, 0.09033203, -0.57470703, -2.7714844, -2.1679688, -0.99853516, -1.7480469, 0.42871094, 1.0322266, -0.7861328, 1.140625, 0.69091797, -0.7348633, 0.31103516, 2.1445312, -0.24584961, -1.2890625, 2.4394531, 0.2409668, -1.2373047, 1.3056641, -2.0039062, 1.5537109, 1.7392578, -0.50634766, -1.5400391, 1.515625, 0.93359375, 1.0244141, -0.9165039, 0.009849548, -1.7607422, 0.55810547, 0.9423828, 0.98339844, -1.2832031, 1.0537109, 0.77246094, -1.53125, -1.1679688, -1.2451172, 2.3203125, -0.14160156, -0.5786133, -0.59814453, -0.79296875, -0.9296875, 1.2792969, -1.6005859, -1.2050781, 0.41308594, -0.0690918, -0.95410156, 1.9072266, -1.4511719, 1.1044922, 0.00831604, -1.0888672, 1.0859375, 0.70996094, -2.59375, -0.19226074, -0.37768555, -2.4511719, -1.4287109, 0.2878418, -0.036102295, -0.9111328, 0.24084473, -2.7265625, 1.3486328, -0.7348633, 1.5517578, -0.050567627, -1.5234375, 0.48876953, -1.4033203, 0.25512695, -1.8720703, -0.90283203, 0.037872314, -0.22058105, -2.1601562, -1.4365234, -0.94140625, 1.0976562, -0.49560547, -2.0585938, -0.71777344, -2.9257812, -0.33569336, -1.1230469, 0.93359375, -0.12939453, 1.0175781, -0.43237305, -1.0449219, -0.38671875, 0.30737305, 1.3496094, -0.44433594, 1.1064453, 0.9277344, -0.9951172, 1.2597656, 0.8041992, 0.3383789, -2.0957031, 0.7158203, 1.2783203, 0.6044922, -0.070007324, -0.9848633, -0.8510742, 0.20654297, 3.6699219, -0.3034668, 0.03918457, 1.1152344, -0.032562256, -1.7705078, 1.0869141, -2.8457031, -0.83984375, -0.07287598, -0.30932617, 1.1894531, 0.50097656, 0.90527344, -6.1992188, 1.2275391, 1.9121094, -0.66015625, 0.27075195, 0.087524414, 0.33154297, -0.8310547, 2.4707031, -0.7285156, 2.3105469, -1.3515625, 0.0061912537, 1.4599609, 0.19836426, 0.6152344, -0.4831543, -0.7631836, 4.8085938, -0.95654297, 0.91845703, 1.734375, 0.03677368, 1.0898438, -0.47045898, -1.4267578, -1.4023438, 0.50341797, -1.9023438, -1.1005859, -0.5180664, 1.2421875, 1.2246094, 1.0634766, 0.17736816, -0.20080566, 2.1171875, -0.9111328, -0.5727539, -0.77246094, -0.35327148, -2.1210938, -0.18884277, -0.022369385, -0.3190918, 1.1289062, 1.2167969, -1.4433594, 0.1126709, 1.1875, -2.2929688, 0.10839844, 0.107543945, -0.9326172, -0.2199707, -0.5986328, 1.0849609, 1.2978516, 1.234375, 0.35546875, -0.59277344, -0.21154785, 1.4804688, 1.0830078, 0.41186523, -2.4941406, 1.1982422, 0.70458984, 1.4667969, -1.1357422, -0.6533203, 0.004863739, 0.92529297, 1.5478516, -0.62060547, 1.9746094, -1.4033203, 1.2744141, -0.5288086, 0.10467529, 0.18786621, -0.04486084, 1.4824219, 0.16235352, -0.12988281, 0.84716797, 0.8935547, 0.5444336, -0.17785645, -1.6845703, 0.28857422, -1.9677734, -0.6796875, -0.1772461, -0.6533203, -1.3828125, -0.6015625, -0.83251953, 1.8828125, -0.40576172, -2.4140625, 1.4355469, 1.0830078, -0.021850586, 1.9648438, -1.5166016, 0.039123535, -0.20288086, 1.1464844, 0.09820557, 0.64697266, -0.4326172, -0.45751953, 0.53808594, 0.27685547, 0.06542969, -0.64160156, -1.2480469, -1.5332031, 0.63427734, 0.5102539, 1.7177734, -0.19848633, -2.2363281, 0.7607422, 1.5107422, 2.4238281, 2.7207031, -1.8828125, 0.24597168, 0.9189453, 1.1005859, 0.6767578, 0.09375, 0.32714844, -1.0244141, 0.21313477, -2.0859375, -1.8027344, 0.13684082, 0.49682617, 2.5, 0.29956055, 0.45922852, -2.0410156, 1.8945312, -1.9277344, -0.48828125, 1.6494141, 0.47680664, 3.6992188, -0.17382812, -2.0117188, -0.2211914, -2.9277344, -1.1845703, -1.2402344, -0.24401855, -1.7626953, -0.37109375, 0.5883789, 2.90625, -0.8803711, -1.8349609, 1.5537109, 0.52441406, -0.16955566, 1.3769531, 0.36035156, 0.70458984, 1.4472656, 2.3398438, -1.4775391, -0.43237305, -0.71972656, 0.8339844, -0.96728516, 0.24255371, -1.0322266, -0.016479492, -1.8476562, -0.6850586, 2.40625, 0.7661133, 0.24938965, 0.1940918, -2.703125, -1.5361328, -0.049987793, 0.96240234, -0.6430664, 1.3232422, -1.8017578, 1.7177734, 0.053985596, 0.6611328, -0.48510742, 0.19934082, -1.2568359, 0.3696289, 2.2363281, -0.5410156, 1.3193359, -0.8510742, 2.171875, -0.44750977, -0.14086914, -1.1367188, -0.26513672, 0.81396484, 0.23522949, 0.5107422, -0.9897461, -0.37329102, -0.5107422, 2.1113281, -2.2011719, -2.2304688, 0.105041504, 0.4711914, 1.0371094, 1.6455078, -1.0791016, 3.9003906, -0.49804688, 0.13269043, -0.16064453, -1.3349609, 2.6445312, -1.4033203, -0.39038086, 2.1210938, 3.0703125, -2.1171875, -0.005508423, 0.032562256, 1.1318359, 2.3789062, 1.6699219, 0.9199219, 1.7705078, 3.0839844, 1.1464844, -0.55566406, -2.5410156, -0.07006836, -0.32348633, 0.60546875, -1.2998047, -0.28955078, -1.5087891, 0.58154297, -0.89501953, -0.6230469, 1.2001953, -1.3349609, -0.051696777, 0.6279297, -2.3144531, -1.3056641, 2.3613281, 0.7675781, 1.1630859, -0.63916016, -3.1914062, 1.7753906, 0.7446289, 1.7607422, -1.9121094, -2.0136719, -1.0839844, -2.3535156, 1.6845703, -3.7304688, -1.1757812, -0.68066406, -0.72265625, -0.51660156, 1.4072266, -1.4033203, 0.22717285, 0.43676758, 0.85009766, 1.4375, -0.5932617, 1.0917969, 1.0761719, -1.8681641, 2.34375, -0.6142578, -1.5029297, -1.6132812, 0.2746582, -0.796875, 1.9423828, -1.2744141, -0.8798828, -0.84033203, -0.25170898, -0.8027344, -1.9980469, -1.6035156, 1.1855469, 0.114990234, -4.25, -0.09387207, 1.4960938, 1.359375, 0.56933594, 1.6455078, -0.43017578, -2.0273438, -0.053649902, 0.9350586, 2.0429688, -3.9160156, -0.14343262, 2.28125, -2.0839844, -0.64404297, 0.54003906, 0.78515625, -1.7148438, 1.7998047, 0.19665527, -0.5888672, 0.90966797, -0.8964844, 0.76123047, -1.0595703, 3.234375, -0.63720703, 0.81640625, 0.21960449, 0.049682617, -2.1289062, 0.2109375, 1.9003906, -0.63964844, -1.1201172, -1.6630859, 0.9375, -1.9970703, 2.4179688, 1.1542969, 0.35375977, 1.0976562, -2.0644531, 0.25976562, 2.2207031, 3.4648438, -0.64453125, 0.74902344, 1.2431641, -1.7851562, -0.83984375, 2.6523438, -1.0966797, -1.3652344, 1.8447266, -2.3515625, 0.20935059, -0.54296875, -0.22033691, 0.23742676, -1.4482422, -1.6855469, 0.32299805, -1.0283203, -2.8164062, -0.41430664, -0.8173828, -0.3540039, -0.16064453, -1.6582031, -0.5957031, -1.4902344, -0.6791992, -1.7128906, 0.5473633, 1.5869141, 2.3339844, -1.9394531, 0.36450195, 0.2644043, -1.4023438, 0.03967285, 1.2431641, 0.48950195, 1.1503906, 1.4599609, -1.1162109, -3.6464844, 1.7177734, 1.2060547, 0.33203125, 0.36328125, -0.25561523, -0.47998047, 2.9824219, -2.078125, -0.10876465, 0.55029297, 2.9589844, 1.4970703, -0.7753906, 2.1484375, 0.06707764, -1.2646484, 0.7680664, -0.43554688, -2.78125, 0.84277344, 2.7597656, 1.5527344, 0.12219238, 0.046142578, -0.41748047, 0.86376953, 0.7495117, 1.0771484, -1.6796875, -0.9477539, -0.38793945, -2.046875, 0.6665039, -2.1464844, 1.7128906, 0.89160156, 0.35083008, 0.9838867, -0.6928711, 0.6333008, -1.3652344, -1.5341797, -2.1210938, -1.1337891, -3.0117188, -1.4921875, 2.1953125, 0.16418457, 0.01537323, -0.20568848, -1.0947266, 0.69091797, 0.52783203, 0.10266113, 1.1933594, -0.52246094, -3.09375, 0.35424805, 0.1303711, 0.53027344, 1.2929688, 1.4335938, 1.2568359, 2.8964844, -1.0292969, -0.64160156, -1.1123047, 0.39111328, 2.609375, -1.1542969, 0.37329102, 1.984375, -3.4003906, 0.20214844, 0.95751953, -2.6308594, 0.8261719, 0.43310547, 1.3945312, -1.1630859, -1.4472656, 0.96972656, 0.8510742, -0.13012695, 0.8803711, 2.2597656, 1.265625, -0.07775879, -0.92626953, -1.6455078, -1.2714844, 2.6113281, -0.41308594, 1.734375, -1.2519531, -0.65478516, 2.0644531, -0.44067383, 3.265625, 0.63916016, 1.1357422, -2.1386719, -0.62597656, -0.97753906, -2.6777344, 0.33813477, -1.6347656, 0.21557617, -0.82470703, -1.0419922, -0.7714844, 0.3605957, 1.5478516, 2.7089844, 0.4699707, 2.4355469, 0.28027344, 0.5678711, -0.98339844, 0.68603516, -3.5859375, 0.5883789, 0.058441162, -2.3417969, -0.26611328, -0.29638672, -1.9892578, -0.95410156, -0.78466797, 0.84765625, 1.9453125, 0.7163086, -0.78466797, -1.6679688, 0.39038086, -0.6411133, 0.95751953, -0.36694336, -0.13256836, 1.1357422, 1.0351562, -0.33422852, -2.0390625, 0.13928223, -0.42504883, -0.7651367, 1.1845703, -1.8994141, -0.15136719, -0.31054688, -1.5605469, 0.11218262, 5.2578125, 1.5791016, -2.6777344, 1.8955078, -2.3183594, -2.53125, 0.6010742, -0.4350586, -1.4355469, -0.22497559, 0.14050293, 1.5273438, 1.5693359, -2.0429688, -0.9926758, 0.36279297, -2.6210938, 1.7744141, -1.2294922, -0.09161377, 2.171875, -0.21276855, 0.48388672, 0.23498535, 1.390625, 2.3847656, -0.45263672, -0.009613037, 1.5976562, 1.015625, 1.9804688, 2.328125, -0.8203125, 2.3789062, 0.4482422, 0.20336914, -0.02659607, 2.5839844, 2.7128906, -1.2021484, 0.8652344, -0.20751953, -1.3408203, -0.37475586, -0.43139648, 0.43432617, -0.49389648, 0.9946289, 1.4619141, 2.7128906, 3.2167969, -0.9111328, -0.56396484, 0.51708984, 0.40234375, -0.5991211, 2.7285156, -0.38598633, -0.29760742, 0.7421875, 1.4072266, 1.265625, -0.97265625, -1.3632812, -3.0136719, -1.2568359, -4.9296875, 1.1367188, -3.1601562, -0.8540039, 1.5595703, -0.4194336, -3.4414062, -1.0957031, 0.29882812, -0.8515625, -1.7519531, 0.06149292, 0.90234375, 0.28076172, -1.453125, -0.068237305, 0.49267578, 0.9038086, 0.20422363, -2.65625, -2.0273438, 2.6855469, 2.90625, -0.19360352, -0.93896484, 0.45996094, -0.86621094, -1.0234375, 0.124816895, 0.018081665, -2.1230469, 1.109375, -0.90478516, 0.62597656, 1.0039062, 1.2558594, 1.1445312, 1.5322266, -2.2910156, -0.17272949, 1.4619141, 1.3925781, 0.44189453, 1.8330078, 3.7539062, 0.5673828, 0.32739258, 2.5664062, -4.6679688, 0.32373047, -1.0996094, 1.5966797, 1.0234375, -0.90234375, -2.1484375, 0.5732422, -0.14172363, 0.75097656, -0.96533203, 3.0566406, 0.59375, 0.84472656, -2.0488281, 1.0019531, -1.8154297, -1.4570312, 0.32861328, -1.609375, 1.4267578, 0.45361328, 1.4335938, 2.1972656, 1.0839844, 3.2753906, 0.19970703, 3.0898438, -0.29077148, 0.35864258, 0.13146973, -0.9296875, -1.7001953, 1.2011719, -1.9970703, -0.023742676, -3.2851562, -0.7885742, -0.18774414, 1.7001953, 0.81591797, -0.20288086, 0.044006348, 1.515625, -1.0595703, -1.3193359, 0.9560547, -1.7167969, -1.0302734, 0.30517578, 0.18615723, 1.2753906, 1.9648438, 5.9023438, -0.32885742, -1.8955078, 0.64160156, 0.27563477, -1.5878906, -1.5292969, 0.39160156, 2.4882812, 2.7714844, -1.4677734, -2.2324219, -3.8007812, -2.3359375, -1.3720703, 1.3486328, 1.1269531, -2.5664062, 2.2011719, -1.3066406, 2.6328125, 1.9726562, -0.74658203, 0.89501953, 0.8203125, 0.13928223, -0.99853516, -0.1895752, -2.8476562, -1.2861328, 1.640625, -2.578125, 4.0585938, 0.10559082, 0.7114258, -0.27783203, 2.5253906, 0.36450195, -1.3417969, -2.8613281, -2.7929688, -1.0957031, -2.09375, -0.008911133, -0.96484375, 1.5244141, 0.9350586, -1.1123047, -1.2529297, -1.2832031, -2.9472656, -0.55566406, 1.2587891, -1.2392578, 0.13366699, 0.8178711, -1.4580078, -1.3798828, -1.6894531, -1.6904297, -0.6459961, -1.1523438, -0.6425781, -0.63183594, 0.61328125, -0.5673828, 1.0175781, 0.94873047, 0.6152344, -3.3164062, -1.2792969, -0.12207031, -1.6904297, -2.21875, 2.46875, 1.6972656, 0.94873047, 3.1074219, -0.9975586, -0.97216797, 0.99902344, 0.8046875, -2.3046875, -0.81152344, -1.1435547, -4.046875, -2.1035156, 0.60839844, 1.1132812, 0.69091797, -2.125, 0.53222656, -0.96777344, -1.0322266, -0.5019531, 2.2363281, -1.0849609, 1.9677734, 0.26098633, -0.8803711, 0.66308594, 2.2949219, -0.8022461, 1.3837891, -0.7578125, 0.484375, 1.5927734, -0.1928711, 0.6171875, -0.05593872, 0.9111328, -3.6386719, -0.39770508, 1.6171875, -1.8076172, -1.2646484, 0.99609375, -2.53125, -3.1875, -0.90234375, 1.0917969, 1.5205078, 1.8417969, -0.25048828, -0.3779297, 1.7568359, 4.359375, 1.6054688, -0.94628906, -1.9326172, 0.1784668, 0.26757812, -0.35766602, 0.62353516, 0.18688965, 0.75390625, -0.57128906, 0.024978638, 1.1494141, -0.63720703, 0.6665039, 0.75097656, 2.6894531, 1.5244141, 1.7421875, 0.125, 0.48876953, -1.1162109, -1.1904297, 0.65283203, 0.6479492, 0.03857422, 0.69384766, -0.87109375, -1.1777344, 0.8876953, 1.1054688, -3.59375, 2.9257812, 0.82128906, -2.3535156, -0.5053711, -1.1396484, 2.1210938, -0.046875, -0.5883789, 0.31103516, 0.12408447, -1.5761719, -2.2128906, -0.80029297, 0.9296875, -2.3457031, 0.5283203, 0.35327148, 0.0027542114, 0.45483398, 1.6904297, 0.62597656, 1.9228516, 0.26293945, 0.5473633, -1.1943359, 0.6772461, 0.8798828, -0.60498047, 0.2800293, 0.043823242, -4.5820312, 0.66064453, 1.7578125, 2.1777344, -0.20007324, 0.15283203, 0.5410156, -1.1855469, 0.3244629, 1.9667969, -3.7558594, 0.45141602, -1.1230469, 1.5439453, -1.1689453, -1.0507812, -1.1455078, 0.7246094, 0.66845703, -1.1416016, 0.7392578, 1.3701172, 0.17602539, 0.05960083, 0.54345703, 1.8457031, -0.87109375, -0.2619629, -0.9902344, 0.9326172, 0.81396484, -1.6601562, 0.5317383, 0.5966797, 1.1582031, 0.76220703, 2.7265625, -1.2001953, 0.8334961, -1.4042969, -2.4082031, -0.23815918, -1.8603516, 0.38793945, 1.8623047, -1.8369141, 0.4399414, 0.012756348, 0.18029785, -0.6850586, -0.7973633, -0.90625, 1.421875, -0.025634766, 1.7304688, -0.71191406, -0.8598633, -0.5991211, 0.70410156, -1.6875, 0.4020996, 1.0742188, 0.63134766, 0.5395508, -1.7978516, -4.2578125, 2.3730469, 0.71533203, -1.3310547, 0.20507812, 1.4443359, -1.3662109, -2.21875, -0.76464844, -0.9301758, -0.33081055, 0.62597656, 0.7397461, 0.18115234, 2.5917969, 0.6147461, -1.4082031, -0.24816895, 2.8027344, 1.2431641, 0.3449707, 0.6425781, -1.8144531, 0.085510254, -2.2890625, 2.4902344, -0.5366211, -1.4375, 0.18347168, 0.90234375, 1.5410156, -1.5576172, 0.59814453, 3.375, 0.6191406, 2.0078125, -0.20239258, -1.3857422, -1.7548828, -2.4472656, -0.8798828, -0.28588867, -1.0488281, 0.27294922, 0.41870117, 0.74072266, -1.6064453, 0.58251953, 0.54052734, -0.76464844, 1.8642578, 0.359375, 0.066345215, -0.7548828, -2.9472656, -1.6357422, 0.27954102, 0.49267578, -0.9238281, -1.6474609, -0.62841797, 1.0585938, -0.9165039, -2.9023438, 0.8959961, 0.35327148, -0.26391602, 1.3955078, 1.9023438, 0.8334961, -1.5693359, -0.6533203, -1.0830078, -0.6621094, 0.52783203, -1.9306641, -0.76416016, -0.7631836, 0.050476074, 0.6904297, -0.48486328, -1.2509766, 2.171875, 2.8789062, 1.2685547, 0.43139648, -0.6279297, 0.6816406, -2.1386719, 2.8339844, 0.86621094, 1.875, 2.1425781, 2.0820312, 1.7294922, 0.7973633, -1.2539062, -2.0546875, -2.140625, -4.4375, 0.98095703, 1.9482422, -0.21411133, 0.6352539, -2.0253906, 0.24279785, -2.4375, -0.8364258, -1.1289062, 2.7851562, -0.94970703, -2.3808594, 2.4140625, 2.4238281, 1.6474609, 0.008468628, 0.43945312, 1.3496094, 0.66015625, -0.49951172, 0.22058105, 0.11315918, 0.58935547, -0.62841797, 4.6679688, -1.015625, -0.91259766, -2.1523438, -1.8779297, 0.23876953, 1.1123047, -0.2253418, 1.2421875, -1.7324219, 0.52441406, -2.6796875, -1.7724609, 0.26049805, 0.55908203, 0.19726562, -1.0292969, 0.44262695, -0.8652344, 1.2949219, -1.1396484, -1.3710938, 2.1367188, 1.8398438, 1.0458984, -0.95410156, 0.34033203, -0.24279785, -0.66845703, -0.8286133, -4.7773438, 0.0803833, -1.0185547, 1.0693359, 1.7646484, -0.8120117, -0.4111328, -0.6928711, 1.5634766, -0.7060547, -1.5458984, -0.9741211, 2.2929688, -1.8076172, 0.11608887, -0.1829834, -0.50097656, 1.7871094, -0.44702148, 1.1982422, 0.0016460419, 0.31347656, -0.8178711, -1.3056641, -0.3359375, 0.8310547, -0.5126953, 0.37231445, 0.76171875, -1.2294922, -1.3652344, -1.0498047, 0.35961914, -3.5859375, 0.4206543, 0.8574219, -0.084350586, -2.859375, 0.15490723, -0.5097656, -2.6660156, 1.9150391, 1.6826172, -0.27319336, 0.20715332, 0.5673828, -1.6083984, 3.1210938, -0.3540039, -0.703125, -0.040802002, -0.6303711, 0.42822266, -1.4042969, 0.87402344, -1.0449219, 0.09918213, -3.3554688, 0.93652344, -1.7402344, -0.14208984, -0.93359375, 0.21838379, -0.89501953, -0.21557617, -0.005710602, 2.296875, -1.828125, -0.7988281, 2.2695312, 0.96875, 1.3183594, 1.5380859, 0.70410156, 3.2988281, -1.8125, -0.5366211, -1.5986328, 0.4711914, 0.61083984, 2.0410156, -0.5102539, 0.16833496, -0.09875488, -0.2446289, -0.47045898, 0.68310547, -0.88623047, -0.7363281, -1.1181641, -2.5527344, -1.6328125, -0.77490234, 0.05819702, 1.078125, 0.7182617, 0.6425781, -2.4726562, 0.75683594, -0.039520264, 2.3691406, -1.7929688, 3.84375, 2.0410156, 0.20690918, -0.74121094, -1.171875, -0.95996094, -0.80810547, -0.2854004, 4.1523438, -3.0507812, -1.0341797, 0.75390625, 0.9814453, -1.0966797, 1.4082031, -0.034851074, -0.09613037, 0.30517578, -0.76220703, -1.1767578, -0.9975586, 0.33544922, 1.9648438, -0.8676758, 1.7373047, -1.2353516, 0.21191406, -1.6582031, -1.5068359, 0.28393555, -4.8046875, -0.12841797, 1.1650391, 1.609375, -0.37109375, -0.38549805, 1.4960938, 1.0625, 1.9775391, 1.1855469, -2.2910156, 1.4121094, -2.6386719, -0.25634766, -0.26635742, 0.32421875, -0.23474121, -1.4736328, 1.296875, -2.5839844, 0.76171875, 2.7324219, 0.98876953, -0.036743164, 0.6298828, -0.55859375, 0.66552734, -0.7446289, -0.34716797, -0.25585938, 0.14990234, -0.79589844, -0.49682617, 0.7832031, 1.1699219, 2.9453125, -2.7910156, 2.0097656, 1.7578125, -0.3154297, -1.0810547, 1.0986328, 0.13757324, 0.7788086, 2.2910156, -0.35986328, -0.97509766, -2.7480469, 1.3896484, 0.091430664, 0.10144043, -1.8222656, 1.7851562, 0.5864258, -0.15466309, -0.5449219, -2.9042969, 0.3540039, 0.5649414, 0.6538086, -0.99902344, 0.7036133, 0.3762207, 0.15490723, -1.1611328, 1.1142578, -0.5151367, -2.3964844, 0.6977539, 1.6445312, -1.9648438, -2.4121094, -1.5878906, 0.5517578, 0.28515625, -2.0039062, -3.2519531, -2.2734375, 0.65527344, -1.4501953, -0.62890625, 1.9003906, -2.4707031, -1.8896484, -1.6269531, -0.25683594, -0.013298035, -0.55029297, -2.8710938, 0.06365967, 0.83740234, 1.5439453, -1.9296875, 0.8129883, -1.0205078, 0.6459961, -2.2910156, 0.27075195, 0.7246094, 0.27001953, -0.40649414, 0.24584961, -0.17602539, 2.0703125, 0.8774414, 0.50927734, -0.56396484, 1.6943359, 0.51416016, -0.29638672, 0.28027344, 0.13867188, 0.68847656, -1.4169922, 4.1601562, 0.38964844, 0.42138672, 0.5991211, 0.7338867, 0.43310547, 0.7397461, 0.15991211, -1.0097656, 1.046875, 1.2138672, -2.6757812, 0.51171875, 1.859375, 0.6298828, 0.093811035, -0.003042221, -1.8681641, -0.21875, -0.6044922, -1.7255859, 1.0097656, 0.5883789, 1.9394531, -3.5644531, -4.734375, -0.63964844, 0.0018405914, -0.76220703, -0.7861328, -1.6767578, 0.53759766, -2.1464844, -0.21276855, 1.4892578, -0.5083008, 0.018112183, -0.61035156, 0.61621094, 0.84716797, 0.39013672, -3.1210938, -1.5234375, 0.02772522, 2.2363281, -1.0556641, 1.0136719, 2.71875, -0.89501953, 0.99853516, -2.4023438, -1.1982422, 0.041503906, -0.27124023, -1.6748047, -2.796875, -1.7021484, 0.005607605, 0.96728516, 0.2614746, -0.078063965, -0.79541016, -1.6162109, 0.1505127, 1.2324219, -0.5205078, 2.9101562, -0.61328125, 2.5605469, 0.74316406, -2.5, 1.3623047, -2.0566406, 0.43945312, 0.1204834, -0.14221191, -0.43823242, 1.9970703, 1.1425781, 1.2783203, 0.42700195, 1.7207031, 1.0537109, 1.5742188, 0.23071289, -1.171875, -0.33081055, 1.7851562, -1.4033203, 0.4338379, 0.008285522, 0.8227539, 1.2255859, 0.49365234, -0.6826172, 0.7055664, -0.65527344, 2.8828125, 0.3330078, 4.6835938, 0.16455078, 0.055480957, 0.9248047, -0.52783203, 0.25219727, -0.24194336, 0.94091797, 0.09875488, -1.3408203, -0.10046387, -0.80908203, -2.7167969, 0.31103516, -0.9638672, -0.5830078, -0.87890625, -3.1738281, -1.1884766, 0.060333252, 2.4140625, -0.38549805, 0.13061523, -1.1318359, 2.34375, 1.6621094, -0.18225098, 0.93359375, -1.7822266, 0.43798828, 0.390625, -0.93603516, 0.2746582, -1.2802734, -0.3857422, -1.0224609, 2.0449219, 1.4130859, 1.2480469, -0.5600586, -0.31884766, 1.5517578, -0.66552734, -1.0361328, 0.7709961, 0.6621094, -0.23400879, -0.81103516, -0.36987305, 2.4882812, 1.0810547, 0.045715332, 0.018875122, 0.51953125, -0.484375, -1.1464844, 3.0039062, 0.093322754, -1.4873047, 0.10949707, 0.70214844, 0.90966797, -1.2558594, -0.41796875, -0.7578125, -2.3085938, 0.25317383, -2.2226562, -1.2851562, -0.6665039, -0.32666016, 0.34545898, 0.24560547, 0.36816406, -2.71875, 1.7246094, -2.796875, 1.3867188, -0.88623047, -1.3544922, -1.1572266, -2.2285156, -2.9023438, 0.6586914, 0.34887695, 0.039764404, -2.2714844, 1.765625, 1.6767578, 1.0029297, 3.8007812, 1.4833984, 1.6650391, 1.8095703, 1.1220703, 5.7226562, -1.2353516, 1.8056641, 0.26245117, 0.5629883, -2.5273438, 0.121398926, -0.6347656, -1.3486328, -0.5966797, -1.1103516, 0.8984375, -1.0087891, -0.19555664, 2.65625, -0.8652344, -1.8251953, 2.8300781, 0.4206543, -0.21911621, -1.1240234, -0.17651367, 0.5756836, -0.8696289, 1.8857422, -0.61279297, 0.71240234, 0.5229492, -0.50097656, 0.15258789, 0.33813477, -1.3037109, -1.0830078, -0.57958984, 0.70996094, -0.7421875, 1.6855469, -1.0908203, 1.6601562, -0.41625977, 0.48754883, 1.9794922, 1.1308594, -1.1787109, -1.7304688, -1.5419922, 0.19506836, -1.1210938, -0.06427002, -4.8945312, 2.625, -0.60595703, -0.71533203, -1.4580078, 0.15991211, -0.59033203, -0.91845703, -0.35546875, -1.3037109, 2.1816406, 0.9472656, -0.5673828, 0.59765625, 0.2722168, 0.49438477, -0.80810547, 0.5180664, -0.5, -1.9628906, -0.005207062, -0.32080078, 1.1826172, 0.30200195, 3.1308594, 0.010940552, -0.05105591, 0.43237305, -0.70458984, 0.7866211, 0.7006836, -1.6630859, -0.061309814, 1.234375, 2.1875, 1.1542969, 0.52783203, 1.9130859, 0.018096924, -2.1640625, 3.2617188, 1.2919922, -0.59716797, 5.6875, -1.4267578, 1.4091797, -2.6367188, 0.7133789, 0.63964844, -1.8222656, 3.5605469, -0.23596191, 0.7675781, -2.2910156, 0.36572266, 2.0761719, -2.5058594, 2.1933594, 2.5332031, -0.6196289, -2.9863281, 1.5458984, -0.20227051, 0.79345703, 0.030548096, -0.045654297, -1.9277344, -0.34985352, -1.109375, 2.8417969, -1.7626953, 1.2871094, -1.0996094, 0.10498047, -2.7675781, 1.6054688, -0.27856445, 1.2148438, 0.60839844, 1.1279297, 0.68408203, 0.121520996, -2.0585938, 0.77001953, -0.48828125, 0.3918457, 1, 0.24914551, 1.9052734, -0.7314453, 0.8071289, -0.59033203, -0.76416016, 0.88378906, 2.8203125, -1.2978516, 0.68652344, 0.3894043, 0.31884766, -0.013442993, 0.30517578, -0.19360352, -1.8720703, 0.5834961, 0.034240723, -1.8779297, -0.66503906, -1.3183594, 1.6220703, -1.0634766, -2.6738281, -3.4707031, -1.4667969, -2.15625, -0.64941406, -0.62158203, 1.9628906, 1.9443359, 3.2539062, 1.4394531, 1.4394531, 1.5996094, -1.3994141, -1.1533203, 2.5351562, -0.5341797, -0.47802734, 0.8364258, 1.0527344, 0.35229492, -0.42944336, 0.024383545, -0.43115234, 0.1282959, -1.0107422, -1.7998047, 0.12817383, 0.6381836, 1.6210938, -0.1105957, -2.0625, -0.4326172, 3.1289062, 1.9775391, -1.3525391, 1.4853516, -0.57714844, -4.8320312, 0.47314453, 0.18811035, -2.0039062, -1.0292969, -1.2431641, -2.2910156, 0.33251953, -2.4667969, -0.82373047, -1.5722656, 0.2763</t>
-  </si>
-  <si>
-    <t>[0.4897461, -0.6982422, -1.1669922, -0.6489258, -0.5473633, -0.7817383, -3.4726562, -0.6118164, 1.1708984, 1.1621094, 1.3037109, 0.37646484, -0.38623047, 0.30444336, -0.27441406, 0.15161133, 0.4873047, -1.3896484, -0.72558594, -0.4885254, -1.1533203, 2.8554688, 0.009185791, 0.31762695, 0.066833496, -0.26708984, 2.0917969, 3, 0.6582031, -0.38012695, 2.5390625, 3.3046875, 1.0566406, 0.34204102, 0.6098633, -2.3691406, -0.18835449, 0.6113281, 4.0664062, -1.5048828, 2.2578125, 0.124938965, -0.21435547, 2.1953125, -0.29663086, 2.3652344, -1.9306641, -0.32543945, -0.69970703, 0.008529663, 1.7167969, 3.4453125, -2.5351562, 0.34936523, -1.9521484, 0.42626953, -1.2949219, 2.2578125, 0.84814453, 0.4296875, -0.15441895, 0.99560547, 0.8510742, -1.5429688, 0.5839844, -0.90283203, -1.1103516, -0.3527832, 3.1582031, 0.3010254, -0.5366211, -0.15478516, -1.1171875, 0.58154297, 1.0869141, 0.20458984, -1.3886719, -1.5507812, -0.72216797, 0.2397461, -0.76660156, 0.3334961, 0.1373291, 0.099853516, 1.4228516, 0.23815918, 0.4555664, -1.3457031, 1.0673828, 1.5722656, 0.8647461, -1.2773438, 0.9038086, 0.9121094, -0.24633789, 1.3183594, 0.22570801, 0.45092773, -0.47387695, 1.0068359, 0.4206543, 0.953125, -0.32470703, 0.6816406, 1.1025391, 1.8173828, -0.05496216, 0.047668457, -0.58154297, -0.12854004, -0.83251953, 0.5883789, 0.5361328, -0.001502037, 1.9199219, 1.1367188, -0.7270508, -1.5087891, -1.0214844, -2.7167969, 1.9755859, 1.4951172, -0.19592285, 1.6269531, 2.3847656, -0.89746094, -0.18896484, -1.3457031, -1.5830078, 0.81591797, -1.2402344, -0.8618164, 0.7836914, 0.4814453, 6.7539062, 2.4042969, -0.71777344, 0.7128906, -0.7270508, -1.1347656, 0.16040039, 0.68652344, 0.2866211, 1.5292969, 1.4101562, -0.5800781, 1.3339844, -1.5224609, 2.6796875, -0.50097656, -0.32983398, -3.0859375, 0.8984375, 0.19812012, -1.1650391, 2.9238281, -0.07086182, -1.1347656, 0.41918945, 1.1289062, -2.4101562, -0.20336914, -0.90185547, 0.61279297, -1.8271484, 1.7070312, 3.4980469, 0.10284424, 0.9736328, -2.9648438, -0.12213135, -0.042419434, 1.1396484, 0.099853516, 0.45483398, -0.08276367, -0.578125, -0.07458496, 0.7763672, -0.30981445, 1.4863281, 0.6542969, 2.4179688, -1.2333984, 0.22583008, -0.0635376, -1.1005859, -2.0273438, 1.4394531, 0.4194336, -0.27514648, -1.0996094, -2.2207031, 1.8212891, -0.234375, -0.9707031, 0.6254883, 0.17492676, 4, -0.7788086, 0.4873047, -1.3242188, 2.5292969, -0.23693848, -1.5449219, 1.3378906, 0.19836426, 0.77441406, -0.05886841, 0.09832764, 1.3027344, 1.5722656, 1.7744141, -0.64160156, -0.9916992, 1.1513672, 1.4589844, -1.0302734, -0.072387695, -0.5029297, 1.3886719, 0.9580078, 0.090270996, 0.4650879, -2.1523438, 0.1217041, -1.2861328, 1.0996094, -0.40673828, -0.12084961, 1.5224609, -0.09210205, -0.37548828, -1.0683594, 0.13659668, 2.7734375, 0.25048828, 1.3955078, -0.3046875, 0.3725586, 0.14648438, -0.23706055, -2.2734375, 1.2568359, 0.17700195, 0.36279297, -0.062438965, -2.3808594, 1.8818359, 0.6464844, 3.4453125, 0.7011719, -0.48999023, -1.6992188, -0.046203613, -0.21362305, -3.9765625, -1.5488281, 0.6923828, -2.4667969, -0.96777344, -0.36547852, -0.044769287, 1.7695312, 0.6142578, -0.78564453, -0.49658203, 1.0527344, -1.5644531, -1.0800781, 2.1425781, 0.42871094, 3.8105469, 1.4443359, 0.77685547, -0.051940918, 2.5488281, 0.035583496, -0.7807617, 0.66748047, -1.2128906, -1.9755859, -1.7568359, -0.921875, 1.4882812, 0.4819336, -1.7988281, -1.5673828, -1.2353516, -0.26538086, -1.2089844, -0.57714844, 0.5332031, 0.9941406, 0.94873047, -1.3691406, -0.23815918, -1.3583984, 2.3867188, -0.1809082, -0.61376953, 0.39501953, -0.80029297, -0.9951172, 1.6572266, 1.5351562, 1.9541016, -0.94433594, -0.3972168, 0.027679443, -0.69091797, -1.0957031, 0.26586914, -0.7739258, -0.94433594, -1.0058594, -0.6977539, 1.015625, -1.7138672, -1.8007812, -0.4116211, 0.0018405914, 2.0800781, -0.38842773, -0.3955078, -1.9638672, -0.9321289, 0.27490234, 2.7519531, 0.20288086, 2.8242188, -0.65185547, -2.4882812, 0.9003906, 1.3916016, 0.7426758, -0.35131836, 2.5292969, 0.05783081, -0.71191406, 0.7084961, 1.0859375, -1.6582031, 0.9243164, 1.1767578, -0.6142578, -3.8359375, -0.03253174, 1.3916016, 0.67529297, -1.40625, -1.0859375, 1.6708984, 1.2011719, 0.38842773, 0.16186523, 1.2558594, -1.1308594, -1.765625, 1.9375, -0.54785156, 1.1162109, -1.9150391, -0.31030273, 0.49487305, -1.8330078, -0.28686523, 0.37060547, 0.41625977, -0.36499023, -0.7426758, -0.23852539, 1.3535156, -1.1054688, 1.2851562, 0.116760254, 1.1210938, -0.4350586, -0.6044922, -2.2753906, 0.5332031, 1.4794922, -0.016784668, 0.421875, -1.3320312, -0.9355469, -0.053863525, -0.84033203, -1.6181641, -0.22839355, 0.9057617, 1.1328125, 0.52734375, -0.2088623, 0.30371094, 0.65625, 0.039123535, 2.1289062, -0.47143555, 1.0898438, 0.12548828, 0.22631836, -0.9848633, 1.1650391, -0.049438477, -0.022537231, -0.82714844, -0.1661377, 0.46826172, 0.1607666, -1.9257812, 0.6323242, -0.40478516, 0.9116211, -0.69189453, -1.1279297, -0.09851074, -0.83251953, -0.4116211, -0.04156494, 1.5869141, 0.6508789, -0.074523926, 1.4414062, 2.2402344, -1.0966797, -1.1865234, -0.4790039, -1.9589844, 1.0185547, -0.7060547, 1.6552734, 0.70410156, 2.0605469, -2.5585938, -1.2050781, 1.8085938, 1.1416016, -1.0761719, -0.011016846, -1.6816406, -0.3256836, -1.1396484, 0.6542969, 0.7841797, 1.4492188, 1.3505859, 1.2607422, -2.0761719, 1.7021484, -1.0439453, 0.4350586, 1.9785156, 1.3916016, -0.10614014, -1.1142578, -0.7729492, -1.7451172, -0.0770874, 0.8334961, -1.1474609, 1.3115234, 1.3056641, -1.3378906, -1.2646484, 1.7958984, 1.4384766, 0.796875, 0.3371582, -1.8867188, -0.52685547, 0.4506836, -1.6767578, 0.21923828, -2.0761719, 1.6230469, -1.2431641, 1.3740234, -3.53125, -2.5039062, -1.8535156, -0.39013672, -1.3222656, 0.7602539, 0.7910156, 3.2089844, 2.1757812, 1.3183594, -1.0458984, -0.47680664, -1.8242188, -0.47143555, 0.14916992, 0.56347656, 0.93066406, -2.7929688, 1.6337891, 0.8618164, 0.68310547, 0.55029297, -0.5029297, -2.9785156, -0.3088379, 0.46850586, -0.88964844, -1.8164062, -0.59375, -0.80810547, -3.6328125, 2.2792969, -2.1328125, 1.1757812, 0.41503906, -0.31762695, -1.8740234, 0.7104492, 2.3632812, -1.3574219, 2.8125, -0.8774414, -1.1982422, 0.028915405, -4.0703125, 0.6357422, -0.86621094, 2.5761719, -1.4150391, 2.3632812, 0.42285156, -0.6201172, 3.1484375, 1.9833984, -1.3447266, -1.9599609, 0.9458008, 1.1503906, 0.41308594, -0.47875977, -0.6933594, 0.44873047, 0.9189453, -0.22021484, -1.9169922, -0.8198242, 0.4897461, 0.45263672, -0.9453125, -0.8413086, -1.515625, -0.49658203, -0.7680664, 1.0214844, 1.1396484, -0.23583984, 0.8051758, 2.5664062, 0.39453125, 1.1923828, 0.11364746, -0.3154297, -0.96875, -3.1992188, 0.55566406, -2.7285156, 0.5019531, 0.23840332, -0.28442383, 2.0703125, 1.4580078, -0.5488281, -1.7451172, -0.671875, 0.047973633, -0.3779297, 3.1699219, -0.49072266, -2.0078125, 0.42749023, -0.66308594, -0.76904297, 2.1855469, -0.21923828, -1.3818359, -0.25927734, -1.1113281, -0.16918945, -1.7763672, -0.3461914, 1.4433594, -1.4277344, -0.09643555, 0.07110596, -1.2792969, 2.3515625, -1.1259766, -0.48706055, 0.17138672, 0.41845703, 1.3339844, 0.65283203, 1.3574219, 0.13867188, -1.4394531, -0.5131836, 1.9111328, -0.21276855, -0.38891602, -1.296875, 0.16992188, -1.9326172, -0.7285156, -0.57714844, -0.13500977, 0.7163086, -1.4746094, -1.3730469, 1.3867188, -1.0253906, 0.21728516, -0.5834961, 0.8964844, -0.59716797, -0.9423828, 0.6303711, 1.2001953, 0.4338379, -1.9335938, 0.48046875, -0.9267578, 1.9101562, 1.1757812, -1.6962891, 0.017364502, 0.7216797, 2.5019531, 1.5986328, -0.99316406, 0.59277344, 0.08581543, 0.021820068, -0.024337769, -0.5136719, -0.0847168, -0.14172363, 0.62939453, -0.2685547, -1.2988281, 1.2177734, 0.43896484, -1.6894531, -1.7978516, -0.21789551, -0.24108887, 1.1113281, 1.4882812, 0.9013672, 2.4707031, 3.03125, -0.1694336, 3.1230469, -0.58154297, -0.2824707, -0.8076172, -1.5449219, 2.171875, -1.0556641, -0.6743164, 0.6357422, 0.7441406, -0.64501953, -0.47705078, 1.0351562, -1.1914062, 0.85253906, 0.9785156, -0.31689453, 1.0615234, 0.86816406, 1.2802734, 1.9003906, -0.67089844, -1.9863281, -0.8051758, 3.0429688, -0.75683594, -1.0205078, -0.23413086, -1.0869141, -1.0625, 0.9038086, -0.60058594, 0.32714844, -0.30444336, -0.71777344, 0.6899414, -1.4697266, -0.66845703, 0.7294922, -0.72753906, -0.91308594, 0.640625, 0.9082031, -1.9960938, -1.796875, -0.31689453, 1.5458984, -0.031066895, 1.5166016, -1.3388672, -0.018035889, 0.0051078796, 1.1279297, -0.78027344, -0.9902344, 0.9819336, -1.1972656, 2.6210938, -0.98535156, 0.5107422, -0.84716797, 1.7861328, -1.0019531, -1.0244141, -1.5087891, 1.3066406, 0.9555664, 1.1162109, 0.6899414, -0.08294678, -0.08105469, 0.54248047, 0.06439209, 0.3828125, 3.1777344, 2.09375, 0.2524414, -0.171875, 0.9863281, -3.03125, 0.3852539, -1.4199219, -0.3515625, 1.2128906, -0.5722656, 0.67871094, -0.4868164, 0.4375, 0.18640137, 0.8144531, 1.8662109, 0.46044922, 1.0400391, -0.28955078, 0.18615723, -2.5527344, -0.5390625, 0.38061523, -0.7939453, 1.2744141, 0.5859375, -1.0996094, -0.86376953, 0.32592773, -0.11236572, -0.0637207, 1.8642578, -0.8071289, -0.8676758, 0.5107422, -0.24365234, 0.62158203, -2.6484375, -0.18078613, 2.2226562, -1.4169922, 0.796875, 1.3544922, 0.12176514, 1.1542969, 2.6894531, -0.46606445, 2.1914062, -0.50439453, -0.019607544, -0.49902344, 0, -0.3737793, 0.7949219, -2.2109375, 0.2322998, -2.1269531, -0.10797119, -0.44140625, 0.27905273, 1.4667969, -1.9804688, 0.27416992, 0.4333496, 0.21569824, 0.113342285, 0.33422852, 0.095581055, 0.06903076, -1.2304688, -0.3798828, 2.2167969, 2.1328125, -0.055511475, 0.36889648, -3.6875, 1.2988281, -0.1784668, -1.4726562, 0.30541992, -2.1542969, -0.8149414, 2.1015625, -1.2539062, 1.8183594, -0.4501953, 0.92871094, 0.5151367, -1.8291016, 0.40234375, 0.32299805, 0.07824707, 0.9169922, 2.9570312, 0.85498047, 0.51464844, -1.1689453, 0.9243164, 0.94628906, 2.1328125, 2.2792969, -0.83496094, -1.7646484, 3.7675781, -0.31933594, -0.37280273, 1.9726562, -0.89404297, -0.6953125, 1.4335938, 1.4472656, -0.6435547, -0.07092285, 2.0488281, 0.2019043, 2.0117188, 0.86035156, 0.68310547, 1.5556641, -0.6123047, 0.94091797, -0.38549805, -0.12719727, 2.2539062, -1.0488281, 0.85595703, 1.5947266, 0.019454956, 0.6435547, 1.1162109, -0.4284668, 0.9941406, -2.0644531, -0.19055176, -0.3881836, 0.14172363, 2.0761719, -2.2363281, 0.26391602, 0.13061523, 0.08428955, 0.17504883, 0.4489746, 0.1472168, -1.9384766, 0.6503906, -1.4375, 1.2490234, -0.8100586, 1.7333984, 1.0761719, 2.2304688, -0.46264648, 0.890625, -1.8896484, -3.5195312, 0.25756836, -2.3203125, -1.9482422, 2.4199219, -1.2802734, 1.2207031, 2.1289062, -2.0859375, 0.6948242, 0.29736328, -0.4501953, 0.25854492, -0.041229248, 0.39160156, -2.0917969, 0.23388672, -1.4912109, -0.12731934, 1.6542969, 0.081726074, -1.5068359, 0.84277344, 0.4873047, 0.6699219, -1.4667969, -0.9580078, -0.39819336, -0.13134766, -0.55566406, 0.2208252, -0.86035156, -0.10839844, -0.65625, -1.2773438, 0.3137207, -1.0244141, -0.45458984, 1.1181641, -0.17590332, 0.42089844, 0.6977539, -0.8203125, 0.56933594, -2.0292969, 0.90966797, 0.0028915405, 1.7226562, -0.24938965, 0.90966797, 0.46264648, -0.6357422, -0.7426758, 0.007965088, -0.10876465, 0.3959961, 0.1182251, -0.359375, 0.8984375, -0.21875, -1.1308594, -0.84472656, -0.11553955, -0.24365234, 0.6074219, -1.1367188, 0.70654297, -0.2614746, 0.5102539, 0.5776367, -0.83496094, -0.2619629, -1.1826172, -1.5263672, -1.1601562, 0.7919922, 4.8710938, -0.83935547, -0.39794922, -2.3359375, 0.6196289, 0.84277344, -0.9536133, -0.08874512, -0.7841797, 0.40966797, 1.7070312, 0.042999268, -0.42138672, -0.70751953, 1.6455078, -0.5888672, -0.019989014, -3.0625, 0.43481445, -1.2255859, 0.9716797, 2.1757812, -0.10479736, -1.0478516, 0.028244019, 0.8071289, -0.55615234, -0.6816406, -1.2050781, 0.97558594, -1.7919922, 1.4443359, 0.04812622, -1.2861328, -2.0195312, 2.1289062, -1.1884766, -1.0185547, 0.7402344, -1.5566406, -2.3398438, -1.1064453, -1.1992188, -0.23071289, 1.0771484, -0.03225708, 2.4179688, 0.07104492, 0.71972656, -3.3769531, 0.17077637, 0.8100586, 0.27246094, 0.4658203, 1.7900391, 1.375, -2.4394531, 0.43774414, 0.3984375, 2.3789062, -0.71533203, -1.2197266, 0.6425781, 0.60498047, -0.12719727, -2.1601562, 1.2158203, 3.5839844, -0.9223633, 0.7988281, 0.8666992, -0.31933594, 0.9301758, -0.86279297, -0.8408203, -0.13098145, -0.4255371, -1.4628906, -2.7207031, -1.5351562, 0.13745117, -1.0078125, -1.0117188, 0.88720703, -1.2832031, 0.24267578, 1.1494141, -0.76660156, -0.27539062, -0.64404297, -2.7773438, 0.9868164, 0.28979492, -0.12426758, 1.1835938, 0.058654785, -0.38964844, -1.0615234, -0.15014648, 1.0019531, -0.8925781, 0.69433594, -0.041503906, 0.21936035, 0.6689453, -0.24536133, -0.71777344, -1.1210938, 1.3632812, 1.3955078, -0.5673828, 0.19616699, 0.101989746, 0.09106445, 0.19897461, -0.18664551, 0.086364746, 2.3320312, -2.2421875, 1.5664062, 0.8486328, -0.7939453, 2.0292969, -2.3066406, -0.9765625, -1.6181641, 1.0917969, -0.7788086, 1.5644531, 0.40673828, 0.9370117, 2.2148438, 0.5488281, 0.25756836, 0.5703125, 0.8725586, 0.5986328, 1.1621094, -0.34423828, -0.8613281, -0.65625, 1.5507812, -0.45751953, -1.6132812, -1.5869141, 0.58447266, -0.5722656, 1.0703125, 0.31030273, -1.2988281, -0.041870117, -0.08117676, 0.32421875, -0.06616211, -0.4567871, 2.359375, 2.1855469, -0.10949707, 1.6083984, -0.22155762, -0.23779297, 0.1973877, 0.7084961, 0.15893555, 2.6601562, 1.4550781, 1.7392578, -1.2763672, -0.6347656, 0.7578125, 1.5400391, -0.1529541, 0.58984375, 0.103149414, 0.5209961, 0.72753906, 2.8945312, -2.1582031, -1.1318359, 0.5097656, 1.9667969, -1.0791016, -1.5244141, 0.13598633, -1.2675781, -0.43115234, -1.9492188, -3.7207031, 0.23449707, 1.3710938, -3.3535156, 0.064453125, 0.5698242, 0.32177734, -0.9370117, -0.12347412, -1.5615234, 0.2211914, -0.6298828, 1.9638672, -1.9335938, -2.0332031, 1.65625, -1.9824219, -0.4645996, -2.0214844, 0.88378906, -1.0058594, -0.33569336, -0.5175781, 2.0605469, 0.9736328, 0.8496094, 0.9970703, 0.30200195, 1.0566406, 0.0418396, -0.46240234, -0.9814453, 0.09387207, 3.1445312, -1.8544922, -1.5869141, 0.026138306, 1.4951172, -1.203125, -1.0429688, 1.2148438, -0.4033203, -0.5996094, -0.7949219, 1.4375, 0.5415039, 0.7104492, 1.1376953, 0.25830078, 0.26611328, -1.3662109, 1.0019531, -1.1396484, 1.9443359, -0.28881836, -0.22338867, -2.1738281, 0.30664062, -0.2692871, -0.5551758, -1.0849609, -0.36035156, 0.04067993, 0.34277344, 1.65625, 0.08306885, 1.1699219, 0.031463623, 0.13366699, 1.2041016, -0.5263672, 0.03552246, -1.4960938, 0.8989258, -2.0917969, 0.17199707, -0.09039307, 1.8115234, -2.1367188, -1.1875, 0.5576172, -0.9975586, -0.35009766, -0.03765869, -1.0751953, 4.390625, -0.038146973, 1.2714844, -0.9135742, 0.5673828, -0.34521484, -0.10180664, -0.5175781, 2.3632812, 1.328125, -2.1484375, -0.07348633, -2.3613281, -0.45825195, 0.9785156, 1.1582031, 0.019989014, 1.4619141, 1.8173828, 0.9589844, 0.6298828, -1.6972656, -1.2861328, -0.6333008, -0.88964844, -0.5283203, 1.9667969, -0.49243164, 1.5253906, -2.2890625, -1.1923828, 0.53027344, -0.25756836, -2.7734375, 0.6586914, 0.8652344, -0.002855301, -0.7089844, 1.3974609, -0.9560547, 0.82128906, -2.0175781, 1.7724609, 0.9814453, -0.7529297, -1.4423828, -1.7382812, -1.7138672, -3.53125, 1.1503906, -0.19348145, 1.6777344, -0.34326172, -0.95996094, 1.0849609, -0.16430664, 0.14709473, -1.5244141, -1.9472656, 0.32128906, -1.1601562, -1.9169922, 0.5673828, 1.0605469, -1.0400391, 0.8676758, 2.4140625, -1.8818359, -1.5673828, 0.17578125, -0.03933716, 0.6455078, -0.55322266, -1.2197266, 0.7519531, -1.5478516, 0.8129883, -2.3203125, -0.037078857, 0.9345703, 0.47436523, -1.0537109, 1.3945312, 0.7260742, -0.002122879, 1.2695312, 0.3635254, 2.2070312, -0.7324219, -1.0986328, 0.035095215, 1.5878906, 0.16003418, 0.24865723, 1.3769531, -1.6191406, -1.6875, -0.47045898, -2.2792969, -0.54003906, -1.2324219, 0.2578125, -1.4931641, 2.1914062, -0.66064453, 0.025863647, -1.6103516, -0.09075928, -1.6660156, 1.0068359, 1.2724609, -0.7705078, -1.0546875, -1.5332031, 1.578125, 1.3017578, 0.36547852, -2.8320312, -0.7480469, -3.3613281, 0.5673828, 1.1015625, 0.55566406, -0.29785156, -1.0009766, -1.8613281, 1.2978516, 7.6914062, 1.3691406, -1.2207031, 0.9716797, -3.7148438, 1.8759766, 1.3447266, -0.6459961, -1.2900391, 0.4140625, -0.7236328, 0.10772705, -1.2666016, 0.25634766, 0.2919922, -0.32202148, 0.112854004, -0.1373291, -2.0332031, -2.1074219, -0.828125, -0.61816406, 0.32666016, -1.0839844, -0.033813477, -1.2226562, -0.8823242, -2.3027344, 0.3798828, 0.7158203, 0.84472656, 0.1673584, -0.5751953, -0.53466797, -0.61279297, -1.5253906, 2.5, 0.55371094, -1.015625, 1.4375, -0.7841797, 2.3242188, -3.0390625, 3.1894531, 1.4365234, -0.16577148, -0.24621582, -3.375, -2.7089844, 2.4863281, -2.4980469, 0.3708496, 0.021469116, 4.3359375, 2.0078125, 0.52783203, 0.7944336, -0.08081055, -1.1552734, 1.0917969, 0.7675781, -0.5395508, 1.0410156, 0.07196045, -0.80371094, 0.52441406, -1.0859375, 0.37939453, 0.2614746, 0.0025539398, 1.6621094, 0.018341064, -0.13989258, 0.34375, 2.046875, -2.2070312, -1.8144531, 0.38427734, -1.4912109, 0.9238281, -0.06842041, 1.2558594, 1.7714844, -0.21240234, -2, 1.546875, -0.50341797, -0.082092285, 0.34277344, 2.0136719, -0.41455078, -0.46362305, 1.0136719, 0.5605469, 0.02848816, -1.2666016, 1.3320312, 0.45166016, 0.36450195, 0.031799316, 0.5957031, 0.10534668, -1.3701172, -1.0361328, -0.69873047, 1.7929688, 1.3798828, 0.51123047, 0.7055664, -0.67626953, 1.3388672, 2.7773438, -0.028167725, 0.039123535, 0.42358398, -2.2675781, 0.4897461, 0.6723633, -1.0361328, 0.8256836, 0.7060547, 1.2597656, -0.97558594, -0.2866211, 2.0683594, 0.1973877, 0.34814453, -1.4980469, 0.6669922, 2.9472656, -0.6699219, 0.8125, -1.3525391, -0.37939453, 0.8540039, -0.3581543, 0.5996094, -0.7294922, -2.2265625, 0.21887207, -2.3242188, 2.8730469, -0.27905273, -1.3652344, 0.67089844, 2.1035156, -0.4819336, -1.8085938, -0.22851562, -1.4882812, -0.78808594, -1.2792969, 0.12878418, -0.4260254, 0.37451172, -0.63964844, 0.9057617, 4.9726562, 3.1328125, 0.71972656, 0.6308594, 0.41625977, 0.3244629, -3.5761719, 1.3544922, 1.3652344, -1.1708984, -1.2197266, -0.95996094, -0.4116211, 0.3479004, 1.0878906, 0.42944336, -0.54345703, 2.2265625, 0.115600586, -1.2353516, 0.5908203, -1.5195312, 0.02218628, 0.61035156, -1.5429688, 1.8076172, -0.75878906, -2.5175781, 0.3942871, 0.61816406, 0.93652344, -0.3852539, 2.1074219, -0.1104126, -0.27661133, 0.3371582, -2.2890625, -0.23571777, 2.6289062, 0.05822754, 0.6489258, 2.5527344, -2.2675781, -1.2441406, 1.2802734, -1.5488281, -0.1538086, -0.2019043, -1.0537109, 2.2265625, 0.90283203, -1.9042969, 1.7294922, -0.05090332, -1.3789062, -0.56152344, -0.4543457, 0.7524414, 1.6757812, 1.2900391, 0.062683105, 0.5214844, 1.1474609, 0.8676758, -0.765625, -0.6699219, 0.13684082, 0.7089844, -0.53222656, 0.83251953, 0.091674805, 1.5634766, 0.5498047, -0.33569336, 0.42797852, -0.16064453, 1.9951172, -0.25, -1.0410156, -1.6914062, -1.3955078, 1.4736328, -0.7089844, -2.3183594, 0.46606445, 1.6982422, 0.17114258, 2.0078125, 2.8007812, 0.0309906, -0.7338867, 1.6962891, 0.32592773, 1.4628906, 1.828125, 1.7167969, 0.57910156, 0.2211914, 1.2011719, -0.54785156, -0.7114258, -2.0371094, -3.5390625, 0.048065186, -2.2753906, -0.7919922, -0.3647461, 0.7607422, 1.7207031, -1.7744141, -0.18017578, 1.0244141, -1.5322266, 0.31933594, -0.29003906, 0.61621094, 1.0322266, -1.2988281, 0.12768555, -1.4052734, -0.8510742, 3.2929688, 1.1044922, -3.5664062, -1.6240234, -0.5839844, 1.7646484, 1.9824219, 0.30737305, -2.8105469, -0.29052734, -1.859375, -2.0800781, 0.19787598, -3.5859375, 0.15600586, -0.6074219, -2.1289062, 1.2490234, 0.25, -0.5732422, -0.08581543, -0.3088379, -0.93652344, 1.2568359, 1.3583984, -0.6772461, 1.5146484, 1.0615234, 0.39038086, -1.1230469, 1.3330078, -3.9277344, 1.2978516, -0.2915039, 0.5366211, -0.13708496, -0.5517578, -1.5957031, 0.0579834, 0.12646484, -0.6821289, -2.6210938, 0.11590576, -1.9326172, -0.19873047, -1.6289062, -1.0800781, -2.3574219, 0.4399414, 0.58251953, 0.23852539, 0.9555664, 0.013969421, -2.0234375, 0.25830078, 1.125, 2.5898438, -0.56152344, 1.9882812, 0.23913574, 0.89501953, -1.5820312, -0.1697998, -0.2709961, 0.8095703, -1.4199219, 1.5517578, -0.3461914, -1.4003906, -0.21569824, 1.4423828, 0.8911133, -0.21362305, 3.4609375, 1.8417969, -2.1269531, -0.7504883, -0.82470703, -0.45874023, 2.4023438, -1.4755859, 0.3623047, 0.8378906, 2.2519531, 6.2460938, 0.39282227, -1.8613281, 1.0087891, 0.08996582, 1.6035156, -1.578125, -0.8901367, 2.6601562, 1.9580078, -0.7890625, -0.2286377, -2.0097656, -1.3271484, -2.6835938, -0.5102539, 2.0644531, 0.07531738, 2.0488281, 0.35839844, 1.6464844, 2.4121094, 0.44799805, 0.9213867, 0.4345703, -0.6826172, -1.4433594, -0.6269531, -2.1875, -0.92529297, -0.67285156, -1.59375, 4.8554688, -1.3769531, -2.7304688, 1.6933594, 1.6621094, 2.28125, -0.4465332, -0.4321289, -0.8911133, -1.390625, -1.2617188, 2.5957031, 0.38378906, 0.72558594, 1.2402344, -2.5644531, -2.015625, -0.46923828, -3.5136719, -1.2294922, -0.3852539, -0.1706543, -1.0048828, 1.6699219, -1.125, -1.8369141, -2.0371094, -0.27929688, 0.0013141632, -0.25219727, -0.30126953, 1.2255859, 1.3222656, 0.07537842, 0.82910156, 0.7973633, 0.36279297, -0.7114258, 0.72558594, 0.6430664, 0.19470215, -2.8515625, 2.0859375, -0.18884277, -0.056488037, 2.4785156, 0.48266602, 0.43237305, 1.8427734, 0.05267334, -2.2304688, -0.38305664, -1.4589844, -4.2734375, -2.1308594, 0.9921875, 1.0380859, 0.56591797, -1.6230469, -0.30126953, 0.023544312, -1.5019531, -0.59277344, 0.16577148, -1.7363281, 2.6601562, 2.7011719, -1.4335938, 1.8613281, 0.5229492, -0.101867676, -0.26123047, -0.2163086, 1.2255859, -0.4362793, 1.0410156, 1.8574219, -0.8925781, -0.17492676, -0.5463867, -0.5576172, -1.1855469, -1.515625, 1.1884766, 2.5839844, -0.25683594, -2.1445312, -0.38452148, 0.9345703, 1.5419922, 1.1044922, -0.22460938, -1.4082031, 1.7363281, 6.9570312, 1.8808594, -1.9853516, -2.9042969, 0.24243164, -0.453125, -0.18054199, 0.7792969, -1.9355469, 0.8276367, 0.2902832, 1.7802734, 0.6142578, 0.84375, 1.1240234, 1.7695312, 1.6044922, 2.6777344, 0.99560547, -1.0839844, 0.8833008, -1.5556641, -0.1854248, 1.1796875, -1.34375, -0.021743774, 0.055603027, 0.61035156, -0.7241211, 1.4511719, -1.5273438, -0.8198242, 0.3708496, 2.3632812, -1.0644531, 0.3935547, -1.1083984, 1.6513672, 0.028335571, 1.8115234, -0.1430664, -1.7988281, -1.5664062, -1.2724609, -0.30517578, 1.3925781, -1.9892578, 0.06976318, 1.53125, -1.0488281, 1.1865234, 0.8144531, 1.0888672, 4.484375, -0.92871094, 2.7949219, -0.70654297, -0.023925781, -0.20678711, -1.5683594, 0.08538818, 0.75097656, -1.0654297, 1.0712891, 0.97558594, 1.1484375, 0.29296875, 0.7290039, 1.9980469, 0.734375, -0.042755127, -0.8120117, -1.3583984, 0.9482422, -1.59375, 2.7304688, -2.4824219, -1.3740234, -0.42871094, -0.7167969, -0.76904297, -1.1748047, -0.5527344, 1.2695312, -1.0869141, -0.33642578, 0.06286621, 2.2636719, -0.24951172, -0.04800415, 0.4633789, 0.82470703, 0.3071289, -3.1972656, 0.27514648, 0.81152344, -0.36889648, 0.9824219, 2.6894531, -1.4736328, 0.48657227, -0.0619812, -0.8930664, -2.1425781, -2.6875, -1.2236328, 0.90722656, -0.7739258, -0.8173828, -0.16931152, 0.94970703, -1.28125, -0.47924805, 0.5004883, 0.05026245, -0.9682617, 1.4316406, -0.3076172, -0.0335083, -2.1777344, -0.9584961, -2.4667969, 1.0722656, 2.7070312, -0.8442383, 0.1973877, -2.1875, -1.9394531, 0.27490234, -0.35717773, -0.6611328, -0.0256958, 3.3847656, -0.17687988, -0.30444336, 0.8149414, 0.17663574, -1.7167969, 1.3447266, 0.2199707, -0.5800781, 0.8027344, 0.9370117, -0.5517578, -1.6386719, 1.5683594, 0.9916992, -0.44482422, -0.07086182, -2.2890625, 0.20922852, 0.56689453, 1.3271484, 0.22253418, -0.19555664, -0.17163086, 0.86279297, 0.7270508, -2.5351562, -0.5839844, 4.015625, 1.1269531, 1.25, -2.3515625, 2.1113281, -0.9013672, -1.0507812, 0.5205078, 0.3400879, 0.8203125, -0.16027832, -2.1640625, -0.5810547, 0.3544922, -1.6923828, 1.7490234, -1.6152344, -0.92089844, 2.5078125, -0.004207611, -1.9208984, -2.9238281, -1.6894531, -1.6894531, 1.6699219, 0.2709961, -0.90527344, 0.7050781, 0.6621094, -1.4755859, -2.3769531, 0.8911133, 1.0947266, 3.4882812, 0.24780273, 0.37353516, 0.41235352, -3.6171875, -1.7363281, 0.9511719, -0.014770508, 0.3972168, -1.5175781, -2.5820312, -0.58740234, -6.046875, -0.3269043, -0.4802246, 0.7915039, 1.0644531, 2.0957031, -0.10852051, -0.027450562, -0.34399414, 0.09069824, -2.8417969, 0.44628906, 0.74560547, 0.3474121, 0.23840332, 1.3007812, -1.2958984, 1.2744141, -1.8642578, -3.8730469, 0.30249023, -2.3789062, -2.1289062, 1.2871094, 0.5385742, 2.2285156, -0.24328613, 1.2167969, -0.6230469, 0.7158203, 0.7451172, 1.1914062, 1.6982422, -0.7709961, -0.3305664, -0.6669922, -0.34033203, -1.0556641, -0.9267578, 0.053375244, 0.0927124, -1.0634766, -2.4042969, -1.3027344, -1.2324219, 0.049957275, 3.0742188, -0.5136719, -0.14489746, -1.0664062, 0.010894775, -0.7416992, -0.32666016, -0.105041504, 2.7167969, -1.0644531, 1.2666016, -2.8242188, -1.6152344, -0.6113281, 0.59375, 1.4726562, 0.7714844, -1.7509766, -0.6333008, 0.041656494, 0.13903809, -2.4609375, 0.11480713, 3.2304688, -1.4980469, 0.5942383, 1.078125, -1.1738281, -0.91748047, -1.2041016, -2.9101562, 0.20251465, 0.1706543, 0.3544922, 0.43139648, 0.02456665, 0.021652222, -1.5576172, 1.2822266, 1.2548828, 1.1259766, -1.5166016, 0.5776367, -1.8994141, 0.37402344, 0.4182129, 1.7011719, 2.7890625, 1.3701172, 1.1943359, 2.1601562, 1.7636719, -2.7480469, -0.56689453, 0.3154297, -0.66308594, 0.65625, -1.1132812, -1.1513672, -2.2226562, 0.60058594, -0.78027344, 1.2675781, -1.5488281, -0.8623047, 0.15209961, 1.6152344, -4.078125, 0.859375, -0.54345703, -1.3222656, 2.7617188, 0.57470703, 0.5654297, -0.23352051, 1.5800781, -2.1367188, 1.1367188, -0.06793213, 0.45751953, -0.083618164, -2.1738281, -0.3803711, 0.61083984, -0.94433594, -0.12438965, 1.4072266, -3.0175781, 0.18103027, -0.5292969, 0.10437012, 0.5756836, 0.859375, -2.1054688, 1.0605469, -0.3618164, 0.6948242, -2.4082031, 1.1591797, 2.7285156, 1.4726562, 0.3400879, -0.07965088, 0.20324707, 0.4638672, 1.3798828, -0.5048828, 0.64501953, 0.6376953, -0.06317139, 2.9804688, -1.2792969, -1.3300781, -1.7763672, 0.9223633, 0.6850586, 0.5083008, -1.6523438, -0.9243164, 0.39794922, -1.3759766, -1.8027344, 1.03125, 1.3339844, 0.34472656, -2.4589844, -0.73339844, -1.2871094, -2.2773438, -0.7294922, 2.1757812, -1.5761719, -0.40576172, 1.2763672, -0.78466797, -1.9072266, -0.7949219, -1.4804688, 0.7441406, -1.1503906, 6.1328125, -0.25756836, -0.58935547, 1.2861328, 1.9853516, -2.3417969, -0.6269531, 1.0664062, -1.2792969, 1.2363281, -0.40454102, -3.0585938, -0.54003906, -1, -0.6616211, -1.3642578, 1.375, -1.4824219, -1.6728516, -0.07659912, -1.4648438, 1.8173828, -3.4785156, -1.7480469, -1.0410156, 0.45166016, -1.0761719, 0.63378906, 1.0224609, 2.0351562, 0.39941406, 1.2285156, -2.1542969, -0.99658203, -1.6054688, 0.8251953, 1.1035156, 1.703125, -0.15197754, -3.1074219, 0.09680176, -0.8847656, -0.5576172, 1.6474609, 2.90625, -0.40600586, 0.9921875, 0.25512695, 1.0664062, 1.8886719, 1.5605469, -0.3552246, -1.0869141, -0.9135742, 0.3395996, 1.8769531, 2.0507812, 0.40454102, -1.1738281, 1.6494141, 1.0810547, -2.171875, -0.4074707, -0.36987305, 0.7607422, 2.7675781, 0.57714844, 1.3798828, -0.02734375, -1.0087891, 2.0429688, 1.3740234, 0.9399414, -0.28759766, -0.72314453, 0.022521973, -2.109375, 1.078125, -5.3984375, 0.3708496, -0.29296875, -0.35205078, -1.4199219, 0.9423828, -0.4255371, -1.3017578, -0.111450195, 1.828125, -3.6230469, -1.7246094, -0.18774414, -1.3378906, -1.3496094, -0.7426758, 1.0175781, 1.0458984, -0.50878906, -1.3066406, -1.4335938, -1.5, 0.46484375, 0.80566406, 1.9951172, 1.1376953, -2.2050781, -2.1269531, -0.6254883, -0.21008301, -0.56689453, -2.2636719, -1.9169922, -0.7080078, -0.20874023, -0.103881836, -0.44189453, 0.7441406, 0.34204102, 0.7163086, -1.3964844, -0.22314453, 1.6396484, 1.2148438, -0.203125, -1.3066406, -0.7036133, 0.052886963, -0.5522461, 0.28076172, 0.30078125, -0.9008789, 0.6435547, 0.4777832, -0.6948242, 1.0957031, 0.16271973, -1.6787109, 1.3339844, 0.3334961, 1.3535156, 1.9052734, -0.7470703, -0.04006958, 2.7539062, -0.22509766, 0.07513428, -0.89501953, -1.3662109, -0.82128906, 0.94970703, -0.7524414, -0.4152832, -0.076293945, 0.9355469, -0.17944336, -0.61816406, -0.3552246, 0.021560669, 1.5732422, -0.9711914, 2.0996094, -1.3613281, -1.2285156, -0.26953125, -0.9404297, -0.9633789, -0.3540039, 1.6005859, 0.8129883, -0.30419922, 1.3398438, 1.3886719, -1.3613281, -0.73095703, -0.6196289, -0.54248047, -1.8535156, 2.7851562, -2.6660156, -0.5024414, 0.83496094, 2.3867188, -0.79785156, 1.9492188, 1.3837891, -0.10974121, 1.7412109, -0.9848633, 1.234375, 0.6484375, -0.23242188, -1.7910156, -3.3339844, -0.5239258, 0.4597168, -0.82470703, 0.4152832, -0.43066406, -0.55908203, -0.52685547, -1.5791016, 1.8496094, 1.7539062, 2.4550781, -0.7373047, 1.8115234, -3.1679688, -2.6425781, 0.27905273, -0.83496094, -0.7319336, -1.7138672, -0.7036133, 0.32470703, 0.30517578, -0.43896484, 0.7114258, 0.6923828, 3.2382812, -0.8959961, 1.5019531, -0.06781006, 1.5361328, 0.90966797, 0.8725586, -0.6894531, 1.1679688, 0.42041016, -0.45288086, 1.3193359, 1.4130859, -1.7021484, -0.6875, -0.9111328, -0.03955078, 0.71875, 2.6445312, -0.14916992, 0.38061523, 0.17333984, -1.1445312, 0.58447266, 1.3642578, -0.4975586, -0.5673828, 0.4584961, -1.0712891, -1.4638672, 0.27563477, 0.5878906, 0.24780273, 1.453125, 0.39941406, -1.8398438, 1.2509766, -1.8007812, 1.9580078, -0.4807129, 1.6728516, -1.0869141, 1.3115234, 0.18603516, 0.11010742, 0.8364258, 0.078430176, -0.044952393, -0.45092773, -1.3222656, 0.21813965, -0.9379883, 0.27124023, -2.1230469, 0.39331055, 0.42211914, 0.46972656, -1.1542969, 0.13745117, -1.8212891, -0.7651367, -1.7392578, 0.5546875, 0.61279297, 1.3183594, -0.9692383, -0.2109375, -1.5195312, -0.5161133, -0.3330078, 0.1895752, -0.8105469, -1.0273438, -2.4472656, 1.8330078, -0.7211914, -0.46435547, -0.5917969, -0.9243164, 0.17663574, -1.5507812, 1.3681641, -0.9189453, -2.3105469, 2.1230469, -1.1914062, 2.1074219, -0.38061523, -0.7602539, 1.6191406, -1.0869141, 0.87939453, -3.0039062, 2.6640625, -1.7089844, -0.69873047, 1.0341797, 0.47802734, -1.4570312, -0.36376953, -1.2382812, -0.44482422, -0.37353516, 0.4741211, -0.7729492, -1.0449219, -0.1928711, 1.3642578, 0.81152344, -0.17578125, 1.8662109, 1.0810547, 1.8955078, 1.3183594, -0.3708496, 0.9995117, 0.20837402, -0.38452148, -0.76904297, 1.1962891, -1.1884766, -0.88720703, -1.3603516, -0.6040039, 1.3085938, -0.5571289, -1.1992188, 1.5869141, -0.3725586, -2.0546875, 1.0878906, 0.4230957, 0.12054443, -0.1932373, -0.12414551, 0.69433594, 0.21740723, 1.1083984, -0.0949707, 2.2988281, -0.1796875, 0.23168945, 1.2597656, 1.0722656, 0.875, 0.5649414, -0.3400879, -1.1210938, -1.2832031, -0.050933838, -0.13647461, 1.1513672, 0.45336914, -1.1357422, -0.08111572, 0.7416992, -0.116760254, -2.6640625, -2.2421875, -1.4433594, 2.6152344, 0.9584961, -2.3007812, 2.5175781, -2.9140625, 0.7050781, 0.34887695, -0.0949707, 1.0683594, -0.46142578, -0.030456543, 0.50390625, 1.8710938, 3.6914062, -1.8369141, 1.4111328, -0.08343506, 0.9736328, -0.1026001, 1.1035156, -0.4296875, -0.6323242, 1.2832031, 0.10095215, 5.3085938, -0.11883545, 0.87158203, 1.2441406, -1.5722656, 0.49072266, -0.80126953, 0.038848877, 1.8447266, -0.21313477, -4.78125, 1.6982422, 0.7290039, 1.1601562, 0.46655273, 0.42944336, -1.0273438, 0.6669922, 1.9462891, 2.1542969, -2.7304688, -0.30493164, -0.8417969, 0.3791504, -2.8242188, -0.22802734, -1.0058594, -0.13476562, 1.8037109, 1.2900391, -2.3261719, -1.9228516, -1.3769531, -0.43798828, -0.0007138252, -0.3959961, 2.1699219, 0.50390625, 0.2590332, 1.9980469, -0.37329102, 1.3886719, 1.3300781, -0.5283203, -0.22839355, -0.19421387, -0.9116211, -0.5732422, -2.0664062, 0.77783203, -2.0136719, -0.053100586, -0.8066406, 1.0097656, 1.15625, 0.23510742, -0.24133301, -0.5830078, 0.59716797, -0.12841797, 2.7421875, 0.9057617, 0.8588867, 0.38061523, 2.3359375, -1.4052734, 2.0507812, -0.62402344, -0.2076416, 0.14196777, 1.9892578, 0.3972168, 2.5605469, -0.058807373, 1.6230469, 0.26391602, 0.3334961, -0.6689453, 0.47387695, 1.0742188, -1.9667969, 0.18334961, -0.31982422, -1.2949219, 1.1357422, 0.11328125, 2.1699219, -0.5996094, -0.47387695, -1.1972656, 0.8774414, -0.02947998, -1.3007812, -0.038391113, 0.28955078, 0.4423828, 2.1777344, -0.5019531, 0.8774414, 1.4414062, 0.5317383, -0.57128906, 0.86816406, -1.5175781, -0.20288086, 2.6152344, 1.2558594, 0.3947754, 0.3269043, -1.296875, -0.06390381, 0.27856445, -1.1259766, -1.3369141, 2.0957031, 0.1640625, 1.1748047, -0.22253418, 1.2333984, -2.7617188, 2.9140625, 0.4387207, -0.7397461, 1.7792969, -0.9248047, -1.7128906, -1.6679688, -0.20788574, -0.8588867, -0.29833984, -2.6386719, -0.23132324, -0.53271484, -0.6479492, -0.6010742, -1.0830078, 1.1777344, -1.2910156, -0.14135742, -1</t>
-  </si>
-  <si>
-    <t>[2.1582031, -0.0019397736, 1.1757812, -0.79785156, 1.4238281, -0.1026001, -0.0317688, -0.2442627, 0.98828125, 0.5263672, 0.50146484, 0.5258789, -0.029876709, -1.3789062, 2.1191406, -0.9033203, 0.0552063, -1.1494141, 0.11102295, -0.5966797, -0.030014038, -0.25634766, -0.27368164, -0.01335907, -1.2148438, -0.0044670105, 0.81152344, 0.045562744, 0.34375, 1.0898438, -0.8300781, 2.7246094, 1.2382812, 0.8666992, 2.5644531, -0.39208984, -1.8867188, 1.0888672, 3.2773438, 0.15075684, 2.2402344, -1.0292969, 1.7304688, 0.77246094, -0.8022461, 1.6455078, -0.45361328, -1.2070312, 0.105773926, -0.11053467, -2.7148438, 0.2376709, -2.7832031, 0.1303711, -0.79589844, -0.29418945, 2.0585938, 0.74121094, 0.29125977, 3.1582031, -2.34375, 1.1992188, 1.0869141, -1.6708984, 0.7817383, -0.28100586, -1.3017578, -0.73046875, -0.83154297, 1.7685547, 0.9692383, 0.05105591, -0.9404297, 2.0234375, 0.3112793, -2.078125, -0.11993408, 0.91748047, 0.80566406, -0.0758667, -0.8911133, -1.6259766, 0.3173828, -1.5322266, -0.18530273, -0.82128906, -1.5371094, -1.1269531, -0.040740967, 2.1777344, 1.2480469, -0.67871094, -2.6464844, -1.6337891, 0.023513794, 0.097351074, 1.2607422, -1.5644531, -0.99658203, 1.4238281, 0.2919922, 1.0292969, 0.2220459, 2.7539062, -0.10748291, 1.5771484, 1.5332031, -0.4013672, -1.0146484, 0.42456055, -1.2519531, 0.69628906, 0.9160156, 0.41503906, 2.7421875, 0.074157715, -0.6748047, -2.4140625, -0.58496094, -1.7333984, -0.14868164, -0.48999023, -0.46826172, 3.5625, 0.52978516, -3.0078125, 0.64697266, -1.6708984, 0.83691406, 1.9052734, 1.25, 0.34375, 0.23364258, 0.14318848, 2.5898438, 0.79296875, 0.3605957, -1.1552734, -0.19995117, -2.6210938, -1.2666016, -0.037750244, 0.8256836, 1.0019531, 2.1777344, 1.7568359, 1.1855469, -0.29296875, 0.0005426407, 0.034851074, -0.88427734, -0.95214844, 2.5957031, 0.78808594, -0.4284668, 1.5058594, -0.16552734, -0.57128906, 3.1484375, -0.42456055, -2.0546875, -1.0605469, -2.2851562, -0.64453125, -0.30419922, 2.1015625, 0.9160156, 1.8164062, 2.3144531, 0.8144531, -1.6367188, 0.90722656, -0.34814453, 0.5541992, 0.9584961, 0.80615234, 2.265625, -1.09375, 1.3867188, 0.9946289, -2.6777344, 0.6665039, 1.2119141, -0.9707031, 0.7709961, -0.07220459, -0.6616211, -1.0429688, 1.5175781, 0.23266602, 0.21923828, -0.6274414, -0.50097656, 0.89160156, 0.12646484, 1.1474609, -0.9091797, -0.3449707, 3.6640625, -1.7441406, -1.0449219, 0.7158203, 0.16723633, -0.020980835, 0.20605469, 3.6796875, -0.4404297, 0.9814453, -1.1142578, 0.5336914, 0.11138916, 0.4267578, -1.3789062, 0.13317871, -0.29077148, 0.09820557, 1.3730469, -1.0615234, -1.2207031, -0.092285156, -1.0693359, -0.79248047, 0.055664062, 2.0097656, -0.64160156, -1.2480469, -0.22790527, -0.53027344, -0.4597168, 1.1767578, 2.1328125, -0.63671875, -0.33154297, -0.8100586, 0.5493164, 2.4980469, 2.15625, 1.7226562, -2.2910156, 0.5629883, -0.4482422, -0.58984375, -0.8208008, 1.3505859, -0.66552734, 2.1582031, 0.5498047, 1.7753906, 3.1953125, 0.015411377, 1.2626953, -1.4833984, -0.9350586, 1.7724609, 0.062072754, 1.0302734, -2.8789062, -0.99072266, -0.5029297, -0.34375, 0.75927734, -0.8876953, -0.75878906, 0.6621094, 2.3398438, -1.1289062, 0.44726562, -0.47680664, -1.9355469, 1.2480469, 1.9111328, -1.4121094, -0.1381836, 0.5991211, 0.39624023, 0.48950195, 2.8417969, -0.0014467239, 0.103027344, 1.0419922, 0.5678711, -1.1757812, 0.29125977, -2.1835938, -0.32226562, -0.6591797, -0.109802246, -1.2353516, -0.29663086, -1.5, 1.2480469, -0.16967773, 3.2460938, -0.9873047, -0.07067871, -1.3662109, -0.41259766, -1.1982422, 0.69140625, 0.66064453, -1.8007812, 0.010185242, -3.7324219, -0.7480469, 0.31884766, 0.80371094, 0.96484375, 1.3544922, 1.2167969, -0.20422363, 0.6196289, -0.7446289, 0.72314453, -0.26171875, 1.3378906, -0.34643555, -2.1464844, -1.8164062, -0.53466797, -1.1542969, -1.7382812, -0.37280273, 1.2929688, 0.54296875, -0.082092285, 0.44726562, -0.8623047, 4.1484375, 3.3652344, 1.6025391, -0.14233398, -0.5175781, -3.3515625, -0.049194336, 1.0175781, 0.19458008, 0.20617676, 3.0273438, 0.46362305, -0.6191406, -0.18688965, 1.1826172, 0.24743652, 1.4082031, -1.3164062, 1.8203125, -2.9726562, -1.4453125, 0.70703125, -1.0664062, -1.2304688, -1.2353516, -0.23571777, 1.9931641, -1.8173828, -0.1237793, 0.28442383, 0.24475098, -1.5087891, 1.1210938, -0.6958008, -1.6523438, -2.078125, -0.80078125, 1.7490234, -1.0234375, -0.78564453, -2.0234375, 1.8662109, -2.1835938, 1.5634766, 0.5834961, 1.4208984, -0.99365234, -1.9619141, -1.4541016, -1.2988281, -0.16174316, 1.4697266, -0.8979492, 0.50683594, 0.35205078, -1.2441406, 0.070007324, -0.45410156, -0.81933594, 2.7382812, -0.22424316, -0.5522461, 2.9023438, 0.36889648, 0.17199707, -0.45458984, -0.2783203, 0.11407471, -0.12310791, -0.05795288, 5.8085938, -0.40600586, -0.8989258, 0.8383789, 0.061187744, -0.703125, 0.037475586, -0.4453125, -0.39648438, -0.099853516, 1.1132812, 0.36157227, -1.5234375, -0.6821289, 0.16174316, -0.24560547, -1.6503906, 0.20483398, -1.1894531, 0.6928711, 0.0046844482, 0.46289062, -2.0859375, 0.86328125, 1.0761719, 1.7626953, 1.2392578, 1.7519531, 1.5107422, -1.8837891, -0.15942383, -1.0898438, -0.79345703, -0.035308838, -0.14343262, -3.6035156, 1.2255859, -3.3886719, -2.3535156, 3.1582031, 0.050445557, -2.1035156, 2.609375, -0.45043945, 0.2980957, 0.16625977, -0.35986328, 0.1159668, 3.328125, -0.35961914, 0.69677734, -1.0820312, -0.0418396, -0.8378906, 1.2333984, 0.6894531, 1.6132812, -0.1385498, -3.1699219, 0.47070312, -1.7558594, -2.8769531, -2.3828125, 0.80322266, 1.2675781, 2.1972656, -0.38793945, -1.6142578, 0.07324219, 0.35888672, 0.75878906, -0.5917969, -0.087646484, 0.23413086, -0.23144531, -2.9101562, -0.18603516, -1.4453125, 0.63378906, 0.12866211, -1.6357422, 2.6738281, -0.9301758, 0.017654419, 2.1621094, 1.1806641, 2.5644531, -2.4765625, 0.18859863, -1.6044922, 0.6274414, 0.93359375, 0.5708008, -2.8359375, -1.5419922, 0.2244873, -0.7729492, -0.8613281, -0.1459961, 0.55126953, 1.4580078, 0.83251953, -0.101867676, -0.45654297, -0.80078125, -3.5761719, -0.024719238, 1.1591797, -4.0117188, -0.35766602, -0.7866211, -3.2246094, 1.84375, -1.7460938, 3.3847656, 1.6796875, -1.7392578, -2.2402344, 0.6152344, 2.3984375, -0.27978516, 0.76953125, -1.4199219, -1.1367188, -0.8251953, 0.1026001, 0.22827148, -1.0917969, 2.2753906, 0.5756836, 0.30126953, -0.7011719, -0.75097656, 3.9921875, 1.3388672, -1.1259766, 0.47631836, -0.2644043, 1.8164062, 1.2509766, -2.7226562, -0.36865234, 1.5019531, -0.056915283, 1.1992188, -0.90966797, -0.5019531, 0.29785156, 1.5175781, -1.6064453, 2.7207031, 0.35766602, 0.21484375, 0.45898438, 1.7490234, -0.16821289, -0.7006836, 0.95996094, 1.7314453, -0.31420898, 2.1289062, -0.28466797, -2.4628906, 1.4130859, -1.8378906, -0.91015625, -0.84814453, -0.23828125, 2.7011719, -1.4541016, 3.9980469, 0.93847656, -1.7324219, -3.5898438, -0.20837402, 0.8354492, -1.0507812, 4.7265625, -3.4472656, -0.43701172, 2.1289062, -0.6743164, -0.43603516, 2.03125, 0.8979492, 1.0732422, 2.6601562, 0.15539551, 0.2088623, 0.3786621, 0.19140625, 0.31811523, -1.9570312, -1.5332031, 0.06451416, -1.6230469, 2.1210938, -1.1269531, 0.97314453, 1.3017578, 1.1523438, 1.4287109, -0.72216797, -0.5371094, 0.42163086, -0.15710449, -1.0166016, 0.0074501038, 0.13134766, -1.4296875, 1.2138672, -1.0732422, -1.5146484, -0.8144531, 0.1340332, 2.0527344, -0.8276367, -0.36499023, 0.71777344, 0.6303711, -2.4140625, -0.5786133, -0.21118164, -0.85546875, -0.6303711, 0.1932373, -3.4277344, 0.34936523, 0.7841797, -2.5332031, 1.4228516, -0.24694824, 1.1679688, -0.32470703, -2.1367188, -3.0722656, -1.5566406, 1.5996094, 1.7226562, -2.3398438, -0.059906006, -0.5, -0.5551758, 1.0898438, 1.1347656, -0.1439209, -4.8554688, 1.7021484, -0.3630371, 0.03878784, 0.19970703, -0.16381836, -0.09454346, -0.13220215, 1.7490234, -1.8193359, 1.0224609, -0.10430908, 0.29907227, 0.87841797, 2.3964844, 0.8935547, 3.578125, 0.43139648, -0.3942871, -0.5048828, -2.2265625, -0.08514404, -1.8447266, -0.27563477, -1.5712891, -2.7480469, -2.0878906, 0.3017578, 2.5078125, -0.43896484, 1.9941406, -1.1992188, -0.6850586, 1.8691406, -1.5126953, 0.6743164, 0.71777344, 0.40771484, 0.9790039, 0.5024414, 2.9257812, -3.765625, 0.50927734, -1.6044922, -1.2138672, 1.3447266, 0.10168457, 1.9677734, -0.88183594, 1.6318359, 0.74658203, -0.6748047, 0.6582031, -2.3828125, 0.9746094, 0.046295166, -0.94677734, 2.4257812, 0.026947021, -1.0097656, -3.5546875, 0.47045898, 0.8383789, -0.8769531, -1.7861328, 0.32128906, 0.87060547, -1.2685547, 1.3798828, 1.9433594, 0.36743164, -2.0703125, -0.22399902, -0.47753906, -1.9824219, 0.10736084, -0.26757812, 2.6289062, -1.6865234, 1.8066406, -0.48754883, -0.50390625, 1.7314453, 1.9423828, 2.5019531, 2.0214844, -1.7578125, 0.045562744, 1.0556641, 1.7929688, 0.5493164, 1.7255859, 2.5253906, 0.53515625, 0.057037354, -2.6230469, 0.6274414, -0.2854004, 1.0166016, -0.11340332, -1.2119141, 0.19299316, 0.9873047, -0.30981445, -1.1494141, 2.8203125, 1.3876953, 1.5126953, 2.0722656, 0.97753906, 1.4501953, -2.7636719, 0.6743164, 0.50097656, 0.54003906, -0.32226562, -0.57421875, -0.20703125, -0.9404297, -0.78125, 1.1669922, 0.95654297, 0.94189453, 1.8046875, -0.94873047, -2.2226562, 0.5410156, -0.2368164, -2.2050781, -1.9951172, -0.24169922, -1.2773438, -0.5136719, 1.5869141, -0.73095703, -0.01789856, 2.6035156, 0.20471191, 1.2128906, -1.0673828, -0.0022602081, 0.9345703, 1.3710938, 1.0615234, -0.14709473, -1.4296875, -0.89501953, -1.0947266, -0.070129395, 0.8120117, -0.49731445, 2.2714844, -0.3059082, -0.2685547, -0.12768555, 0.6665039, 1.2314453, -0.8300781, 2.3515625, -0.62890625, -1.3417969, 2.6152344, 1.0068359, 0.16882324, -0.50390625, -0.08880615, -2.1914062, 0.64990234, 0.27563477, 0.4958496, 1.7490234, -1.4140625, -0.05404663, -0.6220703, -1.9306641, 3.7109375, -0.83447266, 0.41259766, -1.4931641, 0.9868164, -1.4873047, 0.9746094, 0.5444336, 0.52001953, 0.08148193, 0.3388672, 1.0107422, -0.51220703, -1.4296875, 1.0478516, 0.6567383, -0.13647461, -0.10546875, -1.6015625, 6.6796875, -0.64697266, 0.10205078, 3.9394531, -0.06616211, -1.2490234, -1.4736328, 0.72753906, -1.6757812, -0.35742188, -1.4384766, -0.08453369, -0.6948242, 0.067871094, -0.14282227, -0.15527344, -0.15856934, 0.5703125, 0.6279297, 1.0742188, -0.34228516, -3.7734375, -1.3037109, 2.296875, 1.4199219, 0.74560547, 2.8046875, 1.0927734, 0.040802002, -1.4003906, 0.121398926, -0.86816406, 0.048614502, 0.04333496, -0.5288086, 0.9472656, 1.0742188, -0.79345703, 0.34155273, 0.8652344, 1.2333984, -0.5727539, -1.0205078, -1.0371094, 0.37036133, -1.3085938, 0.640625, -2.0722656, 0.80859375, -0.3581543, 0.14990234, -0.46289062, 0.24841309, 0.37475586, 0.1586914, -0.15454102, 0.33007812, 2.0839844, 0.21069336, 2.0820312, -0.12585449, 1.4013672, -0.13757324, -0.77197266, 0.36523438, 2.7363281, 0.26782227, 0.036224365, -1.4101562, -1.5380859, 0.7602539, 2.5253906, 1.7207031, -0.21472168, 2.4042969, -0.40283203, 1.3505859, -1.3681641, -0.06188965, -0.9711914, 0.703125, 0.26464844, 0.43432617, -0.3557129, 0.072265625, -0.67626953, -1.9755859, 1.2490234, 1.1142578, 2.5371094, -0.78027344, -1.0537109, 0.91503906, 0.0619812, -1.5712891, -0.0758667, -1.6142578, -1.9130859, -3.2714844, 2.3789062, -0.13183594, 1.5634766, -1.5126953, 0.4736328, -1.0283203, 1.3681641, 0.29077148, 0.8144531, -0.36254883, 0.3173828, 0.19641113, -1.4306641, -1.6191406, -0.72314453, -0.041381836, -0.081970215, 0.4152832, -1.9560547, -0.50390625, -1.6572266, 2.4824219, -0.18115234, -0.31152344, 1.8183594, -0.5161133, 0.78515625, -0.32177734, -1.4833984, 0.26782227, -0.5996094, 0.042114258, -2.5488281, -0.6010742, -1.4121094, -1.8320312, -1.9296875, -0.9116211, -1.2578125, -0.17578125, 0.7084961, -0.40185547, -0.79589844, 2.8417969, -1.1865234, -1.4638672, -2.2226562, 1.6552734, 0.99072266, -0.8833008, 1.2080078, 1.8427734, -0.14257812, 1.2871094, 0.41723633, -2.6542969, 0.5415039, -1.4873047, -0.3942871, -0.2746582, -0.1661377, -0.7084961, -4.140625, 0.11450195, 2.0332031, -1.0332031, 1.4931641, 1.6376953, 1.3945312, -4.9648438, -1.2109375, -0.37524414, 0.6533203, -0.9189453, -0.5957031, 1.8037109, -1.9199219, 0.81591797, -2.0097656, -0.6230469, -0.11218262, -2.0273438, 0.28833008, 0.7128906, -0.90283203, -0.40673828, -0.16552734, -0.61035156, 1.1806641, -1.5205078, -0.068359375, 1.8369141, 2.7597656, 0.5786133, -2.265625, -0.7363281, 4.0585938, 0.03161621, 2.4101562, 2.1386719, 1.1240234, 0.1619873, 0.5761719, -1.4199219, -0.16381836, 0.65722656, -0.5673828, -4.0976562, 0.60058594, 1.3134766, 2.2773438, 1.8505859, 0.34472656, -1.0693359, 0.14904785, -0.671875, -0.6113281, 0.5859375, 0.10870361, -0.36035156, 0.30151367, 1.4765625, -1.0810547, 2.2460938, 1.5205078, -2.0234375, 0.049468994, -1.4482422, -3.5449219, -1.7412109, -0.8652344, -0.070739746, 1.7275391, -0.68066406, -0.18530273, 2.125, -0.7817383, -0.13220215, 0.5263672, 0.05831909, 1.1035156, 0.19628906, 0.66308594, 0.1307373, 1.71875, 1.8515625, 1.0302734, 0.1932373, 0.21789551, 0.67529297, -0.7783203, 0.42236328, -1.9580078, 0.6586914, 0.7783203, 0.5366211, -0.3474121, -0.60058594, 1.9833984, -1.0126953, 3.8007812, 1.2011719, -0.9584961, -1.8710938, -0.49853516, -0.080566406, 0.11431885, -2.0761719, -2.0820312, -1.3798828, 0.68310547, 0.44360352, -1.4199219, -0.5571289, 0.2668457, -0.38720703, 1.9150391, 1.4511719, 0.16699219, -0.13671875, -0.26293945, -0.09411621, 0.9790039, -0.8989258, 1.5234375, 1.96875, -0.43237305, -0.044189453, -2.1132812, -0.6699219, 1.0820312, 2.4453125, -0.42651367, -1.8818359, -1.15625, -0.5991211, -1.0537109, 0.6660156, 1.4511719, 1.9755859, 0.46679688, -2.6113281, -0.020935059, 2.4042969, 0.066101074, 1.5673828, -2.734375, 0.56591797, 1.2753906, 2.1894531, 0.4802246, -1.5800781, 0.8383789, -1.5791016, -0.79248047, -4.0976562, 0.55126953, 0.19970703, 0.1328125, -0.6074219, -0.88623047, 1.4580078, -1.7509766, 2.0488281, 0.6064453, -1.4794922, 1.6630859, 1.1650391, 1.3203125, -0.35180664, -0.06536865, -1.2255859, -4.8476562, 1.7041016, 1.9443359, -0.73828125, -1.0791016, -1.2080078, 0.60253906, 0.4296875, -0.3125, 1.2021484, 2.875, 0.32348633, 0.5102539, 1.2304688, -0.89746094, -0.022964478, 1.0927734, 2.4765625, -1.0693359, 0.29345703, -1.9570312, 0.55908203, 0.5175781, 1.3330078, 0.23779297, -0.020614624, -0.8208008, 0.5654297, 0.49438477, 0.32983398, 0.6274414, -0.097717285, -2.2226562, 0.10620117, 0.114746094, 0.0758667, 0.21899414, 2.0078125, -0.0869751, 2.2832031, 0.018356323, 1.0419922, -1.4882812, 0.5595703, 0.3737793, 1.1142578, 2.4980469, -0.12261963, -0.38061523, -1.5488281, 0.26757812, 0.71240234, -0.23803711, 0.7680664, -0.26171875, 2.7832031, 1.4912109, 1.5576172, -1.4775391, -0.28222656, -1.2548828, 0.79589844, -0.72216797, -2.9921875, 0.23461914, 1.2080078, -0.2298584, 1.5332031, -0.6538086, 0.75097656, -1.3554688, -1.7900391, -0.7553711, 0.32373047, 0.15966797, -0.8183594, -0.5629883, 1.6679688, 1.0917969, -0.26831055, 1.5302734, -0.6958008, -1.8710938, 2.3261719, 2.4863281, 1.1513672, 0.17041016, 3.4980469, 1.2773438, -0.31420898, 2.1015625, -0.17248535, -0.59277344, 1.7958984, -1.3759766, 2.2050781, -1.0361328, -0.8598633, -0.0385437, -4.0195312, -1.2929688, 0.40673828, -2.2167969, -0.08618164, -0.7602539, -1.3681641, 1.4013672, 1.8261719, -0.67578125, -1.5849609, -1.6787109, 2.015625, 0.5361328, 2.6621094, 0.017593384, -0.77246094, 0.16357422, -0.29101562, 0.98876953, -2.265625, 1.0585938, 0.88623047, -1.5673828, -1.6884766, 1.1025391, -1.3291016, -0.6699219, -1.4384766, -0.048614502, 0.62890625, -1.7324219, 2.0078125, -0.7426758, -0.18920898, 3.5800781, -0.30688477, 0.26831055, -0.75683594, 0.23852539, -2.9101562, 2.0917969, 0.16235352, -1.7685547, -0.6748047, -0.54541016, 0.26416016, -2.734375, 0.40942383, 1.4433594, 0.859375, -2.4296875, -2.7128906, 0.43920898, 2.0390625, 0.10675049, 1.8525391, 1.0878906, -0.22094727, -4.359375, -2.0761719, 2.4980469, -1.6835938, -2.0859375, 0.21533203, -2.5234375, 0.5, 1.2832031, -0.73876953, -0.2644043, -0.25878906, 0.34716797, -0.8491211, 5.1757812, 0.24401855, 0.52685547, -1.6572266, 0.34033203, 0.9970703, 0.31030273, -1.4082031, -1.1132812, -0.003435135, -0.1776123, -0.85302734, 0.890625, 1.8642578, -0.46875, 2.9746094, -1.9023438, 0.2915039, 2.15625, 0.671875, 0.24707031, -0.84277344, -1.7851562, 2.0527344, 6.7578125, -1.0087891, -0.04800415, 1.0341797, -0.39331055, -0.2364502, 0.48095703, 0.66748047, -1.2167969, 2.0644531, -2.9335938, 0.9160156, 0.17736816, -2.1425781, -0.03262329, -1.5185547, 0.35717773, -1.8818359, -1.2792969, -1.6015625, -0.6665039, -0.44799805, -1.0263672, 0.92626953, -0.83154297, -0.9086914, 0.5229492, -0.8754883, -0.99609375, 0.75097656, 1.0361328, 1.9960938, -0.18017578, 0.26416016, 1.6201172, 1.3212891, 0.62939453, -0.7553711, 0.43847656, 0.21960449, 0.78222656, -0.22058105, -1.5546875, 0.8334961, -1.1337891, 0.05859375, 2.4609375, -0.5698242, -1.0566406, 2.1796875, -1.1308594, 1.4101562, -0.9121094, 3.3007812, 1.75, 0.63964844, 0.20947266, 0.25878906, -0.37524414, 1.1513672, 1.0351562, -2.5097656, -1.2275391, 1.7041016, 0.81640625, 0.02949524, 0.028030396, -0.9692383, -0.17565918, -0.6894531, 1.2480469, -0.39208984, -0.16870117, -0.5107422, -1.3417969, 0.21435547, -0.9760742, 1.8203125, -0.9838867, 1.1386719, 2.8574219, 0.048583984, -0.5253906, -1.8496094, -2.5019531, -2.2109375, -0.118652344, -0.6928711, -1.0498047, 2.8007812, -0.40429688, 0.7104492, -1.2851562, 0.09362793, -2.4492188, 0.5332031, 1.5107422, 0.99121094, -0.28759766, -0.5551758, -0.49780273, 0.64453125, -1.2353516, -1.7871094, -0.17749023, -1.4267578, 3.0214844, -1.0166016, 0.78125, -2.015625, 0.5722656, 3.7011719, -0.13977051, -0.8652344, 2.1484375, -1.7822266, 0.2529297, -1.1445312, -1.5996094, 1.3642578, 1.4140625, 0.5878906, -0.89941406, -0.7988281, -0.11785889, 1.0410156, -2.7207031, 0.24743652, 1.0439453, 1.0224609, -0.12597656, -2.5292969, 0.9555664, -0.17687988, -0.97998047, -1.3496094, 2.4140625, -1.2275391, -0.12609863, -1.84375, -0.1895752, 0.27124023, 1.0117188, 0.17529297, -0.8051758, -1.7128906, -0.39575195, 0.23120117, 0.18859863, 0.87158203, -1.6503906, 0.47021484, -0.8457031, -0.63671875, 0.47436523, 2.4199219, 2.8496094, 0.15637207, 0.017471313, 0.35351562, -1.0332031, -2.5859375, -1.0488281, -3.2285156, 1.5253906, -0.14111328, -2.671875, -1.3574219, -0.5385742, -0.9238281, -0.72802734, -0.024383545, 1.8291016, 0.070129395, -0.2980957, -0.6401367, 1.0849609, 0.3010254, -1.2421875, 1.2294922, -1.5419922, -0.95947266, 0.18200684, -0.6308594, -0.105895996, -1.5585938, 1.4882812, -0.29492188, -1.3613281, -0.47045898, -1.9648438, -0.51171875, 0.031311035, -0.4880371, 2.3457031, 2.5273438, 0.37280273, -0.3996582, 2.6328125, -0.99658203, -0.52441406, 1.3212891, 0.82910156, 0.6323242, -1.1308594, -3.0703125, 0.085876465, 0.027954102, -2.2226562, 0.98095703, 0.5776367, -0.049926758, 1.7988281, -1.2011719, -0.25024414, 1.8828125, 1.0458984, -1.4863281, -0.11126709, 1.3613281, 1.7880859, -0.71972656, 0.76220703, 2.5410156, 3.046875, 0.96435547, 0.54345703, 0.625, 1.1767578, 0.049621582, -0.33569336, 0.0068359375, 2.0097656, 3.2910156, -0.91308594, -0.8105469, -0.68310547, -0.8725586, 0.9526367, -0.7060547, -0.043426514, 2.5625, -0.54248047, 0.3515625, 0.6069336, 4.1054688, -0.37280273, -1.4960938, 0.9033203, 0.42138672, -0.29541016, -0.8149414, -1.6308594, -0.3544922, -2.1933594, 1.9599609, 0.7026367, 0.044677734, -0.9379883, -2.3007812, -2.1640625, -4.0859375, 1.6962891, -0.13781738, 0.6582031, 1.7177734, -0.36743164, -2.328125, 1.015625, -1.4511719, -0.57910156, 0.18591309, 0.7651367, 2.4902344, 0.69628906, 0.29223633, -0.35473633, 0.9057617, 0.59765625, 0.48242188, -5.1914062, -0.20178223, 0.5004883, 1.9541016, 0.33251953, -0.052368164, 0.5913086, -2.2519531, 0.26733398, 0.14416504, 0.47509766, -1.3564453, 0.5551758, -0.82128906, 0.71533203, -0.63720703, 1.5253906, 0.19116211, 3.4335938, -1.6396484, 0.77197266, 0.7792969, 1.9267578, 0.25512695, 3.5800781, 2.75, 0.87109375, 2.1738281, 1.09375, -3.2890625, 1.7392578, -2.5585938, 1.0878906, 0.9243164, -0.63623047, -1.0205078, 0.54785156, -0.8725586, 1.4882812, -1.1396484, 1.1171875, -1.7236328, 1.2460938, -0.7011719, -1.8193359, 0.20776367, -1.3515625, -0.39160156, 0.043670654, 1.5927734, 0.57177734, 0.60009766, -0.8833008, -0.375, 2.9863281, -1.9023438, 2.1660156, 0.17114258, 0.10028076, -1.7773438, 0.70703125, -0.38427734, -0.9008789, -0.6430664, 1.3974609, 0.027694702, -1.2333984, 0.2849121, 2.4980469, 1.3417969, 0.5727539, 2.2734375, 2.7890625, 1.4189453, 1.5117188, -0.4909668, -0.42773438, 0.1459961, -1.4257812, 1.7685547, 0.11981201, -1.3076172, 2.0546875, -0.81689453, -0.42944336, -1.2705078, 1.2412109, -1.5136719, -0.5864258, -0.39208984, 1.1669922, 0.70947266, -0.007843018, -2.5703125, -1.1279297, -3.2714844, -1.2119141, 0.7988281, 0.5864258, 1.0976562, 2.7519531, 1.1923828, 2.8242188, 0.66552734, 1.3115234, 2.1582031, 0.092285156, -0.16259766, -0.86572266, 0.52783203, -3.2167969, -1.3886719, -1.5332031, -0.80322266, -0.32617188, 0.059539795, 0.034820557, -0.9926758, 0.6791992, 1.9765625, -2.7109375, -1.0615234, -1.9414062, -1.7480469, -0.9838867, -1.0996094, 0.16906738, 0.625, 0.040649414, 1.2353516, -0.96533203, -0.29785156, -2.4414062, -0.6713867, 2.2128906, 0.88427734, -0.25732422, 0.6035156, 1.0078125, -2.8203125, -2.9628906, 0.625, -0.73876953, -1.4443359, 0.09490967, 0.6567383, 0.97265625, -0.25512695, 0.53027344, 1.96875, 1.0761719, -1.7685547, 1.0683594, 0.032165527, -2.765625, -1.8837891, 1.5498047, -1.8945312, 0.6196289, 2.9921875, -0.20996094, -1.1621094, 0.97265625, -1.4765625, -1.2226562, -1.1992188, -0.57373047, -3.7265625, -2.2109375, 0.5800781, -0.7553711, -1.9941406, -0.27734375, 2.3300781, -0.9560547, -0.46899414, -2.2792969, 0.62158203, 0.4260254, 0.31689453, -1.9003906, -0.34399414, 2.4082031, 1.2197266, -0.7993164, 1.0839844, -0.64697266, 0.42651367, 1.0361328, -0.66308594, 1.2373047, -2.4257812, 0.38745117, -0.69189453, -1.2988281, -0.36523438, -2.0625, -0.7524414, -0.6567383, -1.4101562, -2.3496094, -1.4599609, 2.2402344, 1.0244141, 1.3886719, 1.9873047, 0.7729492, 0.9711914, 0.64941406, -0.07727051, -0.4729004, -0.69677734, 0.47387695, -0.66796875, -1.3173828, -0.62597656, -0.9975586, 0.25756836, 0.67529297, -0.94091797, 3.2246094, -0.7128906, -0.94970703, 0.13806152, 2.2734375, 1.0224609, 0.90234375, 0.02796936, 0.03390503, 0.25024414, -1.0234375, 1.2226562, 0.56884766, 1.4023438, -2.2441406, 0.30273438, 0.46704102, -0.42382812, 1.5693359, 1.2851562, 0.42700195, 0.0014648438, 0.4970703, 0.9394531, 0.02784729, 2.8144531, -0.12683105, 1.4082031, -0.546875, 0.47485352, -0.22766113, -2.3671875, -0.47021484, -0.34521484, -1.2695312, 0.14831543, 0.50146484, -1.1933594, 1.9121094, 1.0595703, -0.58984375, 3.9589844, -0.010360718, 0.87402344, 1.0478516, -0.2006836, 1.1455078, 0.8901367, -1.1884766, 1.7890625, -3.5507812, -0.05895996, -0.6645508, 0.42626953, 0.23278809, 1.1083984, 1.3183594, -0.47851562, 1.6611328, 1.4951172, -2.8242188, 1.8291016, -1.1591797, 1.1699219, -1.2070312, -0.8598633, 0.7270508, -2.4785156, 1.1923828, -0.43310547, -0.10235596, 0.63671875, 1.6552734, 0.47387695, -0.5649414, 4.140625, 0.3708496, -0.9584961, 0.27734375, 1.8115234, 0.71240234, -1.3876953, -0.6225586, 0.59033203, 0.8457031, 1.5205078, 4.28125, -1.7802734, 1.7539062, -0.8066406, -0.69628906, -1.4697266, -0.84716797, 0.8745117, 1.9072266, 0.06359863, -0.7001953, 0.6279297, 0.62158203, 2.1015625, 1.0585938, -1.2001953, 1.8037109, 0.76220703, 0.31079102, 1.8583984, -0.7089844, -0.29101562, 0.3894043, -0.12213135, 1.5986328, 0.93115234, -0.14770508, -0.29125977, -0.77246094, -1.5849609, 0.7680664, 0.80322266, -0.7636719, 0.15917969, -1.0839844, 0.89990234, -2.2539062, -1.5927734, 0.042022705, 2.9492188, 1.4814453, -1.4267578, 0.21813965, 1.6982422, 2.2890625, 0.4494629, 1.1220703, 2.8730469, 0.9033203, 0.5805664, 0.8852539, -2.4667969, -0.35913086, -0.049835205, 1.4238281, -0.06555176, -0.95751953, -0.12384033, -0.16662598, 2.4550781, -0.7729492, 3.7539062, 4.4179688, 1.0273438, 1.3242188, -0.03250122, 0.1829834, -1.6328125, -1.1777344, 0.99316406, 0.37353516, 1.1074219, -0.38745117, -0.19042969, -0.12524414, -2.1953125, 0.18896484, 3.3378906, -0.06451416, 1.1328125, -1.2939453, -1.6650391, -1.2177734, 0.0032234192, -1.0800781, -1.2099609, 0.44873047, 1.6796875, -1.6757812, -0.8720703, -0.8754883, -0.050201416, -1.8867188, 0.6689453, 0.69189453, 1.6640625, 1.6230469, -0.6533203, 1.2431641, -1.2851562, -0.17736816, -1.4707031, -0.23413086, 0.13330078, -1.1962891, -1.4609375, 0.28637695, -5.21875, 0.7241211, -0.7602539, 1.9296875, 1.4238281, -0.9033203, 0.7050781, -0.28051758, 1.6689453, 0.97558594, -4.015625, 0.4729004, -1.0400391, 0.96191406, 0.5097656, 1.2724609, 1.9443359, 0.52978516, -1.4619141, -1.5478516, -3.2910156, -0.6689453, -2.0644531, 1.8701172, -0.69384766, -0.47631836, -0.98046875, -1.2148438, -2.6386719, 0.9746094, 0.56933594, -1.4541016, 1.5888672, -0.8979492, -0.63671875, 1.65625, 0.53027344, -0.58496094, 0.60058594, -1.0117188, 0.609375, 0.21191406, 1.4853516, -1.4746094, 1.0009766, -0.35839844, 2.2324219, 0.076049805, 0.40722656, -0.4309082, -1.9208984, -0.5727539, 0.86621094, 0.37329102, 2.0175781, -1.4921875, -0.9975586, 1.9375, -0.21105957, 0.60009766, 0.43945312, -0.3449707, -1.4316406, -0.46850586, -1.3857422, 1.2792969, 1.0146484, -1.3574219, -1.6357422, 1.4960938, 0.06060791, 0.7939453, 1.4316406, 0.29589844, -0.28686523, 0.48583984, -1.3378906, 0.4831543, -0.49194336, -0.0059547424, 0.9301758, -2.1835938, -0.8725586, 0.89697266, -1.6689453, 1.7568359, -0.07562256, -0.60546875, 1.65625, -1.0712891, -1.2490234, -0.5834961, 2.0410156, 1.0869141, 1.6142578, 1.6728516, -0.1439209, 0.3400879, -2.0742188, -0.02130127, -1.5009766, 0.73779297, 0.59765625, -1.0673828, -0.8886719, -5.4335938, -2.3027344, 0.48095703, -0.084106445, -1.2275391, -0.6777344, 0.46655273, -0.4807129, -2.4414062, 1.1796875, -0.29077148, -0.9433594, 1.0703125, 2.1113281, -0.8666992, -0.13012695, 1.2792969, -1.1142578, 2.4980469, -1.1318359, -0.27416992, 1.078125, 0.45629883, 1.9248047, -0.71533203, -0.27026367, -0.92578125, 0.9980469, -2.5898438, 1.0966797, 0.023544312, -1.4355469, -0.38012695, -2.6796875, -1.3916016, -0.042907715, 0.34228516, 2.3085938, -0.39208984, -0.6352539, 2.2636719, 1.4042969, 0.91259766, 0.30786133, 1.0087891, 2.4238281, -0.6269531, 0.7373047, 1.0947266, 0.024871826, -0.037628174, 0.8208008, 1.9130859, 0.3857422, 0.22717285, 1.8837891, -0.018081665, 1.3164062, -1.5400391, -0.83691406, 0.018615723, -0.7441406, -0.5493164, -1.90625, 0.87841797, 0.61279297, -1.4257812, -2.6796875, -1.3867188, 0.30029297, 0.5410156, 3.375, -1.4609375, 2.9101562, 3.2050781, -0.7553711, -0.75390625, -0.38330078, -1.3085938, -1.6621094, 0.6894531, -0.13452148, -2.8867188, -1.3730469, 0.6176758, 1.1191406, 0.2775879, 0.8208008, -0.018722534, 0.40722656, 1.1464844, -1.2880859, -1.1132812, -2.4394531, -0.9316406, 2.2636719, -0.99365234, 1.2949219, -0.17492676, 1.5439453, -0.89453125, -0.07611084, -1.4765625, -2.9648438, -0.7949219, 1.1152344, 2.4511719, -3.5410156, 0.609375, 1.7919922, 0.47558594, -0.13293457, -0.8496094, -1.4833984, -0.016494751, -0.9716797, 0.107910156, 0.81933594, 2.7011719, 1.4892578, -1.7177734, -0.70654297, -2.2539062, -0.15930176, 2.15625, 0.09490967, -2.7597656, 0.02748108, -1.5849609, 0.1439209, -1.7861328, -0.97509766, -1.3330078, 0.2286377, 1.3173828, 0.9404297, 1.2138672, 1.3447266, 2.7285156, -2.0917969, -0.36157227, 0.4230957, -0.8378906, -2.2402344, 0.61328125, 0.48242188, -0.5488281, 0.4645996, 0.5576172, -1.1357422, 0.5932617, 0.6977539, 1.1523438, -0.46264648, 1.5371094, -0.85498047, -1.015625, -0.8432617, -0.36865234, -1.7304688, -1.4228516, -0.41674805, 0.5083008, -0.64160156, 0.9711914, 1.8759766, -1.7568359, 0.71191406, 1.2382812, -3.0859375, 0.21569824, 2.8300781, 3.2617188, -1.8642578, -3.1621094, -0.34277344, 1.2480469, 0.06439209, -1.7167969, -2.4765625, -1.7441406, 1.8271484, 0.38305664, -1.1162109, 0.9550781, -2.5957031, -0.6225586, -1.4355469, -1.2685547, 0.453125, -1.6484375, -2.8828125, -1.3476562, 1.1113281, -0.27001953, -0.6586914, -0.39794922, 0.67871094, 0.4248047, -4.078125, -0.48901367, -0.29125977, -0.38500977, -1.1845703, -1.8242188, -0.87597656, -0.99365234, 2.7773438, -1.2685547, -0.9589844, 0.6713867, -0.37060547, 0.7001953, -2.2832031, -0.010429382, 2.0722656, -0.58447266, 1.6582031, -0.24401855, 0.57714844, 0.9975586, 1.875, -0.5644531, 1.9355469, -1.0419922, 0.12805176, 0.3408203, -0.31396484, -0.62402344, 0.16271973, 0.93847656, -0.029037476, -1.2275391, 1.4052734, -0.70214844, -1.2392578, -2.0605469, -1.3359375, 1.2119141, -1.8632812, 2.7324219, -4.34375, -3.8710938, 1.3789062, -0.5854492, 0.46362305, -0.35009766, -0.9086914, 1.9511719, -0.11480713, -1.7988281, 1.4951172, -0.6147461, 1.3251953, 0.015411377, 1.3730469, -0.8876953, 1.7314453, -1.4501953, -1.1816406, -2.1054688, 1.5224609, -0.21923828, 0.7416992, 1.3115234, 0.15856934, 1.6914062, -0.021865845, -1.0498047, -0.44580078, -0.6821289, 0.09814453, -1.3818359, -1.4726562, 1.4882812, -0.66748047, 0.090148926, -0.09283447, -2.640625, -0.6323242, -1.0361328, 1.7353516, -2.0527344, 5.2148438, -0.4729004, 2.6367188, 2.3515625, -0.21984863, -0.5024414, 0.59765625, -0.02658081, -0.99072266, -0.31298828, -1.1328125, 0.91308594, 0.28857422, 0.19140625, -0.20422363, -0.7841797, 0.8808594, 2.4492188, -0.88964844, 0.8339844, -0.32250977, 1.4296875, -0.5649414, 1.3974609, 2.5097656, -0.61035156, 0.43701172, 0.09466553, 0.57177734, 0.21166992, 0.9116211, -0.40185547, -0.9560547, 0.90283203, -1.4306641, -0.3017578, 1.6669922, -1.3916016, 0.6069336, 1.6962891, 0.61572266, -1.0273438, -0.45410156, -0.56933594, -0.6352539, -2.7226562, -0.5961914, -2.5664062, -2.7871094, 0.3630371, -2.1289062, -0.39038086, 2.5527344, 2.1015625, -0.02708435, 0.8535156, 0.18200684, 1.6953125, -0.0074043274, -1.078125, 1.3623047, -0.5839844, 0.26416016, 0.1348877, -2.7226562, 0.5908203, -0.71240234, -1.9140625, -1.0244141, 3.1347656, 1.4824219, 0.42797852, -0.6743164, -0.7416992, -0.8725586, 1.4003906, 0.7558594, 0.79345703, -0.31762695, 1.2265625, -0.3203125, 0.3798828, -0.62939453, -0.6533203, -0.32202148, -1.2832031, -0.37719727, -1.28125, -1.1015625, 2.6503906, -0.085510254, -0.8613281, 1.1357422, -2.0410156, 1.3828125, -1.6699219, -1.1142578, 0.54003906, -1.0107422, 0.74560547, -2.4707031, -0.7939453, 0.18347168, 1.5039062, 1.7021484, -2.1171875, 0.08648682, -1.4150391, 1.2480469, -5.59375, 0.88671875, -1.140625, -1.8261719, -2.8535156, 0.99609375, -0.29638672, -0.33154297, 2.6035156, -2.2753906, -2.3417969, 0.45874023, 1.5019531, 0.3605957, 2.3085938, 0.57421875, -0.5175781, 2.4082031, -0.15710449, 2.0703125, -0.48608398, 1.0117188, -0.16699219, 1.4560547, -1.3876953, 0.39941406, -1.3164062, -3.5859375, -0.2446289, -1.0761719, 2.2597656, -0.8251953, 1.2929688, 1.0898438, -0.54785156, -1.7617188, 1.5585938, 3.4277344, -0.5708008, -1.0087891, 0.55859375, -1.5800781, -0.25952148, 2.890625, -0.55566406, -1.0732422, 0.7182617, 1.0761719, -1.9082031, 1.1337891, 1.0009766, 0.32250977, 1.6923828, 0.052856445, -1.5576172, -0.3486328, -0.88964844, -0.007534027, 1.0576172, 0.55029297, -0.11303711, -0.34375, -1.7099609, -3.8613281, -3.6914062, -0.7192383, 1.4824219, 1.0087891, -8.1328125, -0.19140625, -0.5234375, 0.090270996, -1.9257812, 2.0859375, 1.7148438, -3.7539062, 1.3925781, -1.2871094, 2.0917969, 1.3115234, -2.8164062, 0.265625, 0.9941406, 2.453125, -0.44360352, 0.27319336, -0.7788086, -0.8935547, -1.3798828, -0.37402344, 0.71533203, 0.07067871, 2.8496094, -1.046875, 0.0003979206, 0.025314331, 0.48266602, 0.56347656, -1.6435547, 0.7060547, -0.90234375, 0.3425293, 1.3798828, 0.1932373, 1.0605469, 1.1289062, 0.60498047, 0.65185547, 1.2675781, -0.64990234, 0.7504883, 2.2636719, -0.82470703, 1.3037109, -0.47314453, -1.6064453, 0.078430176, -1.9824219, 3.7832031, -1.0449219, -0.3701172, -1.4794922, -0.15881348, 1.6230469, -1.9853516, 1.1875, 2.1425781, 0.98828125, -1.2275391, 0.6269531, -0.34277344, 1.4833984, -1.4257812, 0.4765625, -2.7539062, 0.078063965, -0.070373535, 1.2294922, -2.1230469, 0.84472656, 0.76953125, 1.6386719, -1.9365234, 2.8515625, -0.3857422, -1.1826172, 2.5917969, 0.5209961, 0.6899414, 0.13647461, -2.2402344, -1.5019531, 0.6777344, -1.4638672, 1.4980469, -2.5117188, 2.3007812, -0.7480469, 0.13806152, 0.8540039, 0.58935547, 1.6953125, 1.0859375, 0.012390137, -0.49560547, -2.2675781, -1.7675781, -1.5292969, -0.64501953, 0.5126953, -1.5625, -0.2446289, -0.9760742, -0.9399414, -1.5478516, 0.6845703, 1.3798828, -0.9458008, -2.1738281, -1.6582031, -0.45776367, -0.3059082, -0.38916016, -0.4958496, 0.8564453, -0.27685547, -0.82177734, -0.18981934, 0.7270508, 0.016921997, 0.65625, -0.6948242, 1.6005859, -0.3371582, -0.48120117, 1.1894531, 0.033966064, -0.23364258, 1.3818359, 1.7333984, -0.6899414, 0.97802734, -1.8505859, -1.1982422, 0.7089844, 1.7353516, -1.4960938, 0.19433594, -2.9199219, -1.3789062, 0.4091797, -0.2902832, -0.14282227, -0.41381836, -2</t>
-  </si>
-  <si>
-    <t>[0.8222656, 0.54248047, 1.0732422, -2.2441406, -0.2783203, -0.62646484, -0.14465332, -0.047302246, 0.66845703, 0.5004883, -0.14672852, 1.59375, 0.36206055, 0.49731445, 1.1367188, 1.9179688, 0.85302734, -1.5146484, -0.22924805, 0.6328125, 0.04031372, -1.0498047, 0.85253906, 0.19104004, -1.4091797, 0.6118164, 0.33276367, -1.2851562, -0.21350098, 0.46826172, -0.57177734, 2.0800781, 0.7241211, 2.2226562, -0.49926758, -0.7314453, -2.5058594, 0.76660156, 4.0351562, -0.90478516, 2.9550781, 2.6660156, 0.36865234, 0.7939453, 1.1933594, 1.0351562, -0.43408203, -1.7792969, 0.9692383, 0.9379883, -0.9111328, 0.59033203, -1.0087891, -0.65722656, -2.2050781, 0.31225586, -1.0234375, 0.83496094, 0.9863281, 2.2753906, -0.5488281, 0.05911255, 1.3623047, -0.43188477, 1.6914062, -0.61621094, -1.3496094, -1.5869141, 0.5004883, 2.3945312, 1.8974609, 0.0914917, -1.5761719, 1.7304688, 1.21875, -0.98535156, -0.052215576, -0.31567383, 0.9658203, -0.5029297, -0.5942383, -0.97021484, 1.7441406, -1.0146484, 1.0332031, -1.0654297, -0.6977539, -0.4255371, -1.9345703, 1.7392578, 1.5166016, 0.87841797, -2.5078125, -1.7900391, -0.9067383, -0.5048828, -0.018112183, -0.6147461, -1.3486328, 1.0429688, 0.36816406, 1.7089844, -0.6020508, -0.31469727, -1.1513672, 1.2529297, 0.00484848, -0.5136719, 0.23376465, -1.1699219, -2.9902344, -1.2148438, 1.9375, -1.3632812, 3.3066406, 0.83935547, -0.19140625, -3.3671875, -0.34228516, -1.8730469, -0.9316406, -0.058166504, 0.46557617, 1.8369141, 0.14916992, -1.59375, -0.6640625, -0.9916992, 0.3166504, 0.9033203, 0.5126953, 1.6240234, 0.8491211, 0.6489258, 0.22180176, 2.3125, -0.10864258, 0.21838379, -1.5869141, -2.9980469, -0.072021484, -0.5727539, 1.1083984, 0.8745117, 0.72753906, 0.7949219, 1.5966797, 0.25610352, 0.03366089, -0.045562744, -1.9570312, -2.3339844, 1.2333984, 0.70410156, 1.1611328, 1.6621094, -0.17614746, -2.0878906, 0.095825195, -1.5361328, -3.0136719, -0.8364258, 0.0035476685, 0.8461914, -1.4580078, 1.2246094, -0.025146484, 0.018371582, 2.2675781, 0.97216797, -2.7714844, 0.7680664, -1.0742188, 0.9277344, 1.6855469, -0.023895264, -1.5664062, -0.30688477, 1.8242188, -0.01979065, 0.7636719, 1.0595703, 1.5458984, 0.25878906, 0.66308594, 1.5136719, -1.3125, 0.026367188, 0.8720703, 0.10021973, -0.67333984, -0.49291992, -0.63134766, 0.7788086, -0.7602539, 1.2939453, 0.49609375, 0.53466797, 2.7675781, -1.5214844, -1.9814453, -0.6816406, -0.08947754, 0.30981445, -0.45214844, 2.4003906, -2.0878906, -1.2021484, -1.5166016, 1.3935547, 1.3544922, -0.5541992, 0.4494629, 1.1757812, -0.31469727, -0.5986328, 1.4169922, -1.0537109, -0.028381348, -0.5605469, -0.7519531, 0.46240234, 2.6601562, -1.4541016, -0.5683594, -1.0283203, -2.625, -3.7207031, -2.2851562, 2.3066406, 1.9208984, 1.5361328, -1.6367188, 0.2680664, 0.40112305, -0.16333008, 0.13537598, 2.2578125, -1.7548828, 0.41357422, -0.15466309, 0.9897461, -0.88720703, 1.1289062, 0.96191406, 2.1660156, -0.3474121, 1.9072266, 4.5976562, 1.0595703, 4.9257812, 0.9736328, 0.59375, 0.7050781, 0.23022461, 1.4228516, -2.1796875, -0.8491211, 0.22033691, -2.375, 0.8330078, 1.7128906, -0.6347656, 0.3720703, 1.3466797, -0.5854492, 0.140625, 0.11364746, -0.6982422, 1.6240234, 1.8769531, 1.3017578, 0.22460938, 0.74902344, -0.13842773, -0.7636719, 1.0175781, -0.2915039, -0.2130127, 1.6083984, 0.51416016, -0.6621094, 2.5390625, 0.4338379, 0.40185547, -1.7216797, -0.45410156, 1.5517578, 0.5805664, -2.40625, 0.28125, 1.5664062, -0.41845703, -0.12902832, 0.7895508, -0.84814453, -0.3540039, -1.4208984, 1.0449219, -0.91308594, -2.1796875, 0.75634766, -1.5351562, -0.5810547, -0.7216797, 1.3085938, 1.2587891, -0.5185547, 1.953125, -0.37158203, 0.7495117, -0.9902344, 0.17651367, -0.69873047, 2.2167969, -0.3232422, -2.6523438, 1.5136719, -0.109802246, -2.9003906, -2.0039062, 0.64697266, 0.6201172, 1.6376953, 0.51416016, -1.5332031, -2.2792969, 7.1601562, 2.3945312, 0.42114258, 0.9628906, -0.6635742, -2.1503906, -0.014312744, -0.4560547, 1.9726562, -0.7685547, 4.6210938, 0.61572266, 1.7597656, -0.7578125, -0.6767578, -1.0898438, 0.047210693, -0.9926758, 1.9003906, -2.5546875, 1.0898438, 0.28955078, -1.0429688, -0.8730469, -1.2705078, 0.57714844, 1.7363281, -0.10266113, 0.1126709, 1.3496094, 1.4208984, -0.9682617, 0.63964844, -0.085510254, 0.061035156, -0.17419434, 0.09649658, -1.3408203, -1.2294922, 0.3125, 0.16467285, 1.5107422, -1.7607422, 0.6870117, 1.359375, 4.0585938, -1.6337891, -1.3876953, -0.6225586, 0.25634766, -1.0322266, 1.8476562, 0.4296875, -0.72753906, 0.80615234, -0.006099701, 0.26782227, -1.2832031, -0.46899414, 2.6171875, -0.38012695, -0.9301758, 2.4023438, 0.54052734, -1.0136719, -1.1123047, -2.4140625, -3.53125, 0.7446289, -0.68310547, 2.9003906, -1.4746094, -1.0126953, 1.4414062, 0.2680664, 0.4765625, -0.9941406, -0.8540039, 0.9711914, -2.3710938, 1.1259766, -0.034851074, 0.83154297, -1.8330078, 0.5488281, -1.3974609, -1.3007812, -1.0195312, -3.0136719, 2.0019531, 0.45922852, -0.19116211, -1.0927734, 2.8125, 2.0429688, -0.921875, 2.0605469, -0.85009766, 0.7050781, -1.4628906, 0.08166504, -2.0644531, -1.4404297, -1.0175781, -0.8544922, -1.5107422, 1.4511719, -1.7099609, -2.1054688, 2.15625, 0.47558594, -1.6210938, 1.4990234, -1.2382812, -0.33251953, -1.7460938, 0.4975586, -0.50146484, 1.1289062, -2.3105469, 1.0078125, -1.1083984, -0.5473633, 0.8925781, 1.3740234, -0.5229492, 0.8076172, -0.10723877, -1.7685547, -0.9472656, -2.3925781, -0.13891602, -0.97998047, 1.6083984, 2.0136719, 2.0507812, -1.1748047, -2.8320312, 0.19116211, 1.4814453, 3.5625, 0.16357422, -0.010696411, 2.4921875, -0.7763672, -3.03125, 1.4736328, -0.69677734, 1.5654297, -0.81933594, -1.9521484, 0.10772705, -1.5195312, 0.97021484, 1.7021484, 1.4111328, 0.359375, -0.9692383, -0.9892578, -1.5888672, -0.8310547, 0.4765625, -0.7114258, -1.6845703, -0.8540039, -0.45263672, -0.5776367, -0.6484375, 1.0117188, 0.42236328, 1.3310547, -0.55322266, -2.2089844, -1.9570312, -0.3251953, -2.4140625, -0.3630371, 0.8125, 1.8095703, 0.6479492, -2.2558594, -1.8242188, 3.6054688, 1.1142578, 4.0703125, 2.6289062, -1.8398438, 0.49121094, 0.099243164, 2.1074219, 0.091796875, 0.96777344, 0.9785156, -1.0166016, 1.21875, 0.92529297, -1.1894531, -0.17810059, 2.2558594, -0.5932617, 0.39624023, -0.24475098, 1.7900391, 0.9042969, -0.1149292, 1.0029297, 1.5771484, -0.6323242, 0.8027344, 0.9189453, -1.3222656, 0.3310547, 1.4726562, -1.9794922, -0.5019531, -0.5151367, -0.25024414, 0.1538086, 2.2734375, -0.5703125, 1.5244141, 1.3701172, -0.19787598, 0.89990234, 0.58691406, -0.78808594, 0.33911133, 1.6923828, 0.54052734, 0.88378906, 1.6728516, 0.052368164, -2.8925781, -0.0947876, -0.80908203, -1.3476562, -0.17651367, -0.28808594, 0.22619629, -1.6650391, 2.4550781, 2.0859375, -1.0214844, -3.8496094, -0.203125, 0.7368164, 1.1943359, 1.3320312, -1.7138672, -0.05709839, -0.037750244, 0.4404297, 1.0898438, 0.6713867, -0.077697754, 0.72558594, 2.3925781, 1.0996094, 2.9277344, 1.1044922, 0.56591797, 0.17163086, 1.1455078, -1.7460938, -1.1523438, -0.49365234, 2.8847656, -1.5019531, 1.2451172, -1.8837891, 0.6015625, 0.81884766, 0.44140625, 0.14685059, 1.1376953, -0.27124023, -2.8457031, 1.3134766, -0.048461914, 0.03604126, -0.83691406, -0.60009766, -0.7128906, 0.45581055, -0.4411621, 0.96435547, 1.2167969, 0.47387695, -1.0439453, -2.7285156, -1.8125, -0.94091797, -0.79248047, 0.64404297, -2.5703125, 0.10803223, -1.4775391, -0.6645508, 0.46801758, -3.8417969, -0.23010254, -1.8613281, 0.94677734, 0.87939453, -0.66748047, -1.1386719, -1.4833984, 1.0996094, 1.0185547, -0.7993164, 1.9082031, 0.6425781, 1.96875, 1.1708984, -0.28515625, -0.78027344, -5.3984375, 1.6240234, -1.1875, 0.024917603, 0.6816406, 1.7255859, 0.7602539, 1.5830078, -0.28149414, -0.9194336, 2.4726562, 2.3144531, -0.3347168, 0.8095703, 2.4648438, 0.9008789, 3.1230469, -0.34155273, 0.51464844, -0.63916016, -0.031188965, 0.0005698204, 0.5698242, -0.62060547, -2.7285156, -0.47314453, 0.5131836, -0.2770996, 2.6933594, 0.19641113, 2.7265625, -0.5522461, 0.5488281, 0.9116211, 0.3408203, 0.8300781, 0.08929443, 0.48461914, -0.6381836, 1.5439453, 3.3789062, -0.78759766, -0.67822266, -0.1262207, 0.24841309, 0.62841797, -1.9365234, 0.44995117, -0.8833008, -1.1494141, 1.1748047, -1.5097656, -0.39746094, -3.7285156, 0.64990234, 1.7910156, -1.1123047, 1.6757812, 0.2199707, -1.3417969, -1.8291016, -1.5263672, -1.0361328, -0.92285156, -0.5, -0.24084473, 1.1044922, -1.5712891, 1.1650391, 2.5078125, -1.2744141, -1.6230469, 0.83935547, -0.29736328, -3.4140625, 0.32763672, -0.30297852, 0.16564941, -0.6635742, 0.08099365, -0.17053223, 0.1373291, 0.99072266, 0.43139648, 0.9980469, 1.6728516, 0.122802734, -1.3457031, -0.39746094, 1.4648438, 0.39526367, 1.8115234, 1.1376953, -0.09863281, -1.1367188, -2.5898438, -0.26220703, -0.78125, 1.2216797, 0.30615234, -1.4072266, 1.7841797, 0.18371582, 0.32202148, -1.4375, 1.8388672, 0.69677734, 1.1494141, 2.6875, -0.109436035, 0.3154297, -3.3125, -0.054351807, -0.45458984, -2.0058594, -0.35205078, 0.6118164, 0.91552734, -0.3696289, -1.6132812, 0.7636719, -0.08856201, 0.68310547, -0.62597656, -3.1074219, -0.027542114, -0.9716797, 0.77978516, -0.89160156, -1.1503906, -0.103881836, 0.7548828, -2.1035156, -0.5410156, -0.9272461, -0.12426758, 1.5273438, -0.4934082, 1.0097656, -1.3476562, 0.57666016, 0.072509766, 0.060821533, 2.3066406, 0.5317383, 0.27612305, 0.34106445, -0.8769531, 0.17321777, 1.4316406, 0.20617676, 0.2553711, -0.0914917, -1.0947266, 0.9794922, 0.3190918, 2.0566406, -1.8730469, -0.63378906, 1.2060547, -0.5229492, 1.6503906, 0.59814453, -0.5288086, 0.4033203, -0.4675293, -0.765625, 0.64990234, 0.6894531, -2.2167969, 2.1933594, -1.7714844, -0.13879395, -0.040496826, -1.8271484, 2.7050781, -1.2373047, 0.9296875, -0.5078125, 0.86816406, -0.8071289, 0.67333984, -0.42919922, 1.6630859, -0.3395996, 0.22070312, -0.45263672, -2.2597656, 0.24768066, 0.4091797, 2.3886719, 1.6845703, -0.2722168, 0.50878906, 1.5537109, 1.5068359, -0.21508789, 1.7832031, 0.9848633, -0.068603516, -1.7304688, -0.8198242, -1.8496094, 0.47680664, -0.8051758, 0.21533203, 2.5996094, 1.0322266, 0.7158203, 0.23388672, -1.1308594, 1.6845703, 0.036071777, 0.17590332, 0.59277344, -2.1953125, -0.27368164, 1.6943359, 0.40356445, 0.95751953, 3.9335938, 0.13012695, 0.26513672, -2.3535156, -0.3100586, -2.0273438, 0.42456055, 1.4355469, -0.5410156, 0.8623047, 0.16723633, -2.4746094, 0.85839844, -0.47924805, 0.15551758, -0.115234375, 0.30517578, -0.5996094, 1.3544922, -0.82177734, 1.8066406, 0.62158203, 0.54541016, -1.7666016, 0.045562744, 0.012191772, 0.24291992, 3.375, -1.5185547, -0.22790527, 0.6040039, 0.5410156, 0.54541016, 0.18408203, 0.04525757, 0.054901123, 1.3320312, -0.2998047, -0.71435547, 3.7070312, -1.0820312, 0.7207031, -1.5, -0.89404297, -0.081604004, 1.1699219, 3.6914062, -0.31396484, -0.25024414, 0.002538681, 1.1083984, -0.70654297, -0.4333496, -1.3076172, -0.00039052963, -0.87841797, 1.0107422, -2.4433594, -0.21923828, 1.140625, -1.1875, 0.73291016, -0.07757568, 3.0351562, -1.2998047, 0.7475586, -0.030273438, -0.4609375, 0.23632812, 0.8027344, -1.7207031, -0.6933594, -1.0576172, -2.0976562, -0.97998047, -0.27197266, 0.7446289, 1.2949219, -0.8569336, 1.4951172, 0.15991211, 1.0917969, -1.0136719, 0.75878906, -1.1582031, 0.7949219, -2.1796875, -1.6191406, -0.10455322, -2.3828125, -1.3662109, -3.03125, -1.7363281, -0.61083984, 1.1728516, 1.5537109, -1.3212891, 1.5644531, -1.2939453, 0.50634766, -1.6806641, -1.6806641, -0.19665527, -2.0234375, -0.29223633, -3.4140625, -1.0566406, 0.3408203, 0.6826172, -1.5634766, 0.6035156, -2.4570312, -0.35058594, 0.4909668, -0.63378906, -0.4140625, 2.0253906, -0.7915039, -2.2558594, -1.7080078, -0.22058105, 1.3603516, 0.7475586, 1.4833984, 0.7133789, -2.2851562, -0.8383789, 2.4179688, -1.6269531, 0.88378906, -0.12890625, 0.57373047, 0.5673828, -0.28027344, -0.7260742, -2.7714844, 0.9741211, 2.5546875, -0.6455078, 0.5493164, 1.1845703, 0.6113281, -1.7373047, 0.43139648, 0.4987793, -0.40771484, 1.1699219, -0.3244629, 4.2070312, 1.5126953, -0.46557617, -1.8779297, -0.1694336, 0.69189453, -1.1416016, -0.09399414, -4.953125, -0.74121094, -1.8603516, 0.8535156, 1.7197266, 3.0253906, -0.7397461, -0.5439453, 1.6845703, 2.5859375, -0.07910156, -0.15490723, -0.2548828, 4.3007812, -0.27124023, 1.5605469, -0.68603516, -0.359375, -1.3027344, 0.023239136, -1.7470703, 1.3740234, -0.06964111, 0.4650879, -3.3964844, -0.9013672, 2.34375, 1.1962891, 1.1992188, -1.0634766, -1.2333984, 0.84521484, -1.8232422, 0.80615234, -1.4072266, -0.33569336, -1.3251953, -1.1894531, -0.44433594, -0.23474121, 2.9101562, 0.60302734, -2.1074219, 0.18041992, -1.625, -1.9580078, 0.15441895, -0.44213867, 0.95654297, 2.2929688, -0.6201172, -0.453125, 1.0498047, -0.30859375, -1.015625, 0.58740234, 1.3720703, 2.6113281, -0.52441406, -1.2080078, -2.2890625, 0.62060547, 0.5830078, 0.6894531, -2.0742188, -0.9086914, 0.85791016, 1.6210938, -2.0371094, -1.2851562, 0.31762695, -3.3691406, 3.1972656, -1.8408203, 0.6645508, 2.4863281, -1.8193359, 2, 0.9003906, -0.9423828, 0.7758789, 1.4101562, -1.6650391, 1.3027344, -1.4238281, 3.1660156, 0.47558594, 2.3789062, 1.2060547, -0.66308594, -0.6591797, -1.3740234, -0.84375, 1.6992188, 0.85595703, -0.79785156, -0.3515625, -0.009147644, -1.1396484, 1.7949219, -1.4257812, 1.65625, 0.58691406, 1.7861328, 0.24145508, -1.3271484, -3.6386719, 0.5029297, 2.6992188, -0.6191406, -0.31811523, 0.26416016, -1.5029297, 0.26098633, 0.17944336, -1.1982422, 0.11260986, 0.9838867, -1.6220703, 2.0917969, 1.6044922, 2.1132812, 1.1269531, -3.3378906, -0.28564453, -1.0419922, 1.2783203, -1.3144531, -0.16320801, 0.37817383, -1.515625, 0.6386719, -1.9208984, 0.07562256, 1.6123047, 1.0996094, 0.3557129, -1.5878906, 0.111328125, 1.0449219, 2.6660156, -0.046173096, -0.13085938, -0.48168945, -0.8618164, 1.0146484, 0.79589844, -1.0917969, -0.58496094, -4.3320312, 0.39746094, 1.7197266, -2.4082031, -1.9833984, 0.3022461, -0.7114258, 0.6352539, -3.4902344, 0.025863647, 3.8417969, -0.055725098, 0.30004883, 1.0683594, -0.4584961, -1.0625, 0.33740234, 1.5273438, -1.8544922, -0.96435547, 0.5332031, 1.0566406, -0.54052734, -0.36572266, -1.5566406, -0.5336914, 0.52246094, -0.9291992, 0.18884277, 1.8486328, -0.6738281, -0.4338379, -1.1894531, -0.17126465, 0.23852539, -0.44018555, 1.6181641, 1.2402344, -0.4638672, 2.1054688, 0.8535156, 0.09710693, -0.30541992, -1.1787109, -0.12548828, -0.89746094, 1.0732422, 0.03125, 1.9335938, -2.0683594, 2.6054688, 1.5644531, 0.7167969, -0.13256836, -2.4960938, 2.1191406, 2.2597656, -1.5742188, -1.4941406, -0.37036133, -0.7363281, -0.3305664, -3.2460938, -1.3994141, 2.6933594, 0.41186523, 0.35717773, -0.0009112358, -1.0351562, 1.1396484, -2.8027344, -0.11236572, -0.31176758, 1.3759766, 1.6982422, -1.0566406, -0.8808594, 2.109375, 0.86621094, -1.3476562, 1.7324219, -0.56103516, -0.10913086, 2.1933594, 2.3652344, -0.1484375, 0.7319336, 1.1767578, 0.9477539, -0.96533203, 0.7583008, 1.0273438, -2.0058594, 0.47216797, -1.3623047, 0.50927734, 0.7241211, 0.43115234, 0.56591797, -2.8027344, 0.36767578, -0.2788086, -0.22033691, -0.12347412, -1.7783203, 0.035339355, 0.83691406, 1.7626953, 1.8867188, -1.4511719, -1.0097656, 1.0683594, -0.43310547, 2.4785156, -0.6489258, -2.9492188, -3.2617188, 0.12878418, 0.6098633, -1.5830078, 0.48950195, 0.5522461, -3.21875, -0.546875, 0.3203125, -0.61279297, 1.2929688, -0.6767578, 0.5834961, -1.7021484, -1.1962891, 0.046813965, 0.7402344, -0.046875, 1.8173828, -0.23242188, 1.3115234, -0.9316406, 0.74365234, -0.6166992, 0.94970703, 0.8178711, 0.13476562, 0.07458496, -1.3056641, 0.8730469, -2.7851562, -1.9589844, -1.6513672, -0.015853882, -2.6777344, -2.6132812, 0.08782959, 0.7783203, -2.2597656, 3.3125, 1.2294922, -1.5166016, -1.3945312, -2.4824219, 0.7583008, 1.1191406, -2.2910156, -2.3417969, -1.8720703, 0.453125, 1.5097656, 2.1835938, 0.054534912, 1.46875, 1.2382812, 0.22131348, 2.7285156, -1.3115234, 1.3417969, -0.6308594, 1.7207031, 0.4033203, -0.21289062, -0.5595703, -0.49487305, -1.7353516, 1.1259766, 2.5429688, -0.5332031, 0.83154297, -0.23413086, 2.3613281, -1.4472656, 0.60009766, 0.4489746, 1.3271484, 1.5449219, -1.2089844, -0.44140625, 1.0878906, 3.5078125, -1.2412109, 1.1611328, -0.10443115, -1.7822266, 0.46069336, 0.4675293, 0.6381836, -1.9775391, 0.87060547, -5.1796875, 1.453125, -0.025650024, -1.0830078, -1.2626953, -1.8935547, 1.8583984, -0.3852539, 0.2619629, -1.7099609, 0.02015686, -1.4990234, 0.16210938, 0.29516602, 0.5390625, 0.6040039, -0.82958984, -2.7480469, -0.70947266, 1.3349609, -0.0011558533, 2.8574219, -1.3066406, 0.40844727, 0.47607422, -1.1240234, 0.73339844, -0.01763916, -1.4169922, 2.40625, 2.4785156, 0.6166992, -3.2636719, 1.7128906, -0.63427734, 1.4980469, 0.359375, -1.3935547, 0.060028076, 1.2519531, 0.22473145, -0.45141602, -1.5751953, 3.6445312, 1.9052734, -0.48486328, 2.6621094, 0.28515625, -0.9863281, 0.75683594, 1.3896484, -1.2080078, -1.8896484, 0.19604492, 1.8759766, 0.1772461, 1.0810547, 0.07006836, -0.43652344, -0.8569336, 0.70654297, 0.06628418, 0.58447266, -1.0722656, 0.47924805, -0.73339844, -2.0410156, -0.7753906, 1.1025391, 0.5053711, 0.98876953, 0.99121094, 1.03125, -1.8251953, -0.6411133, -1.4697266, -1.2080078, -1.5351562, -1.0400391, 2.7988281, -0.90527344, -0.18444824, -1.4580078, 0.92529297, -0.86816406, -0.11431885, 0.72558594, 1.7744141, -0.7836914, 1.1201172, 0.7871094, 0.10870361, -0.8486328, -0.2668457, -0.08081055, -0.68115234, 2.5585938, 0.3005371, 0.6152344, -0.4790039, 3.4160156, -0.41088867, 0.9243164, -0.16430664, -0.27978516, -2.7148438, -1.5146484, 0.96435547, -0.5986328, 0.7910156, 0.6044922, 2.2949219, -1.5537109, -1.5380859, 1.1630859, 1.6494141, -1.7148438, 1.7324219, -0.27197266, 2, 0.50341797, -1.4082031, 0.35009766, -1.9150391, 0.47607422, -0.38256836, -0.76123047, -1.9257812, -0.69970703, -1.0820312, 0.7763672, 1.8916016, 0.25512695, 1.9638672, -0.9995117, -0.5932617, 0.6875, -3.5742188, 0.5703125, -1.5742188, -3.4472656, 0.60009766, -4.8164062, 0.14074707, 0.29833984, 0.4038086, 4.1640625, 0.39282227, 2.9296875, -0.37646484, -1.0546875, -0.17138672, -2.2207031, -3.3613281, 2.1738281, -0.009811401, -5.5820312, -1.2060547, 0.5366211, -1.6162109, 0.14233398, -0.32983398, -0.3161621, 0.23352051, 0.5649414, -0.33862305, -2.9140625, -0.5004883, -0.5473633, 0.5966797, -0.19592285, -2.5039062, -1.3974609, -0.2043457, -1.1601562, -0.67041016, 3.3496094, -1.1298828, 0.008918762, -0.21020508, -1.6884766, -1.0058594, 0.87353516, -1.1748047, -2.0859375, 1.6259766, 2.5097656, 0.20141602, 2.1503906, -1.3085938, -0.33813477, 0.48120117, 0.5180664, 1.1865234, -2.2695312, -1.9326172, -2.1542969, -0.88134766, -1.03125, -0.09301758, -1.6894531, -0.87646484, 1.5498047, -0.8261719, 0.5673828, 1.5361328, 0.29541016, -2.6152344, 0.25219727, -0.38549805, 1.1855469, 0.8183594, 1.3017578, 1.2089844, 1.1523438, 0.91748047, 2.2246094, 2.4140625, 1.7822266, 0.34472656, -1.3564453, -0.34692383, 1.0517578, 0.27416992, 0.7236328, 0.61621094, -2.5273438, -1.5869141, 0.21948242, -1.0107422, -0.007583618, -1.3955078, -1.7197266, 0.51220703, 1.4238281, 4.3554688, -1.0048828, -0.6689453, 1.1386719, -1.2216797, -1.4003906, -0.28393555, 0.30200195, -1.1259766, -0.97802734, 1.7763672, -1.1777344, -1.7353516, -2.4726562, -2.0058594, -0.6020508, -4.3984375, 1.1650391, -1.4628906, 1.7363281, 2.0507812, 0.5810547, -3.5820312, 0.68115234, -2.2441406, -0.91748047, -1.4160156, 0.42651367, -0.8339844, -1.2763672, -0.40161133, 0.72216797, 1.4013672, -0.7114258, 0.8847656, -4.078125, -0.67529297, 1.6269531, 2.3691406, 1.9501953, 0.064331055, -2.0566406, -2.0605469, -0.9711914, -1.25, 0.5229492, -1.1728516, 0.20251465, -0.4140625, 0.63964844, 1.0390625, 2.6445312, 1.3720703, 1.1669922, -1.5087891, -0.9453125, 0.8540039, 1.5107422, 2.3925781, 0.9584961, 1.8076172, 0.48120117, 1.1005859, 0.82470703, -2.5703125, 1.4042969, -0.1932373, 1.5947266, 1.2705078, -1.6044922, -1.6181641, 0.5371094, -0.5053711, 1.0820312, -0.5371094, 1.9228516, 0.40795898, 0.6323242, 0.47607422, -1.0292969, -1.8623047, -1.5507812, -1.1689453, 1.4414062, 1.6132812, 0.80126953, 1.1757812, 0.45141602, 0.33911133, 3.5546875, -0.5600586, 2.7128906, 0.0309906, 1.4941406, -1.0166016, 0.85839844, -1.1621094, 1.1240234, -1.3271484, 0.9326172, 0.44091797, -1.1455078, 2.0097656, 0.6826172, 2.1347656, 0.4189453, 1.8457031, 2.1640625, 0.64746094, 0.4152832, -1.2041016, -1.7910156, -0.76904297, -1.7001953, 1.0078125, -0.53271484, 2.2265625, 2.0273438, -0.64697266, -2.3691406, -0.56884766, 0.63134766, 0.04525757, -2.1894531, -0.34204102, 3.1914062, 1.2675781, 0.39111328, -1.5019531, -1.6298828, -1.421875, -2.3671875, -0.23388672, 0.2536621, -1.2333984, 3.6035156, 0.5908203, 2.0097656, 1.0947266, -1.5351562, -0.19177246, -0.023712158, 3.0253906, 0.4729004, -1.3476562, -2.0390625, -0.03866577, -0.40063477, -1.5976562, 0.8618164, -1.5585938, -0.40649414, -0.39746094, 2.3828125, 2.0976562, -0.25952148, -0.47094727, -3.8417969, -0.019500732, -1.7050781, -2.3886719, 0.5996094, 1.2753906, 2.5039062, 1.34375, -0.39135742, 0.17626953, -2.7265625, -0.3022461, 0.39575195, -0.6225586, 0.51220703, 0.81347656, 0.81347656, -0.60839844, -2.7089844, -0.49902344, -1.4306641, -3.1816406, -0.36035156, -0.29345703, 0.93310547, 2.0703125, 0.13598633, -0.21313477, 0.041015625, -2.1738281, -0.13635254, 1.5322266, -1.9072266, -0.6928711, 2.6035156, -1.0380859, -1.5205078, 1.5048828, -0.7163086, 0.21069336, 0.9042969, -0.97802734, -0.80615234, -1.4101562, -0.53125, -1.8417969, -0.6381836, 0.15820312, -0.20703125, 0.040496826, -1.3105469, 0.30200195, -1.7509766, -1.9257812, -0.9057617, 1.5048828, -0.93603516, 1.8574219, -2.0332031, -0.26342773, 0.39990234, 2.9960938, -0.9916992, 2.0175781, 0.6875, 0.46411133, 1.5527344, -0.7260742, 0.9140625, -0.7475586, -0.9638672, -4.7109375, 0.76660156, -0.8413086, -0.8457031, -2.9707031, 0.8808594, -2.4238281, -1.1464844, 0.15905762, 1.8642578, 2.7402344, 2.4296875, 1.0644531, 0.5463867, 1.4980469, 4.2421875, 1.3994141, -0.19091797, -1.8789062, 0.6533203, -0.70654297, -1.0615234, 1.3886719, 0.4580078, 0.54052734, 3.6132812, -1.2060547, 2.4160156, 0.0027999878, 0.032409668, 0.78125, 1.140625, 0.7265625, -0.45996094, 0.31103516, -0.86279297, -0.6479492, -0.62597656, 3.2695312, 4.3476562, 2.7011719, -2.25, 1.1113281, 0.296875, -0.72314453, 2.0976562, -2.2167969, 0.8261719, 0.23254395, -0.4580078, -0.7290039, 0.42651367, 3.6523438, -0.4802246, -3.03125, -1.0039062, 0.18334961, -0.328125, -2.4296875, -1.4111328, -0.44140625, -1.8681641, 2.3125, 0.66064453, -0.49731445, 0.8461914, 2.9121094, -0.4675293, 4.625, 0.56396484, 1.2519531, -2.4648438, 0.9873047, -0.24145508, 0.19897461, -0.7895508, 0.828125, -2.8398438, -0.8305664, -0.15979004, 1.8837891, 0.59521484, -3.6757812, 0.3840332, -0.6386719, 0.23388672, 0.074279785, -1.9326172, 1.0683594, -0.55615234, 0.56103516, -1.5732422, -0.9458008, -2.1113281, -3.2890625, 3.1054688, -1.5810547, -0.9892578, -0.1541748, 1.890625, 1.0175781, 0.08203125, 2.8613281, 0.5126953, 0.022140503, 0.48706055, 1.5888672, -0.13635254, -0.5576172, -0.32202148, 1.3994141, 0.30004883, 1.6591797, 2.0410156, -1.5527344, 1.4990234, -1.8222656, -1.2041016, -0.83251953, -0.58935547, 0.45239258, 2.4824219, 0.88623047, -0.0020503998, -0.8017578, 0.5449219, -0.5102539, -0.4243164, 0.6401367, 0.20910645, -0.5107422, 1.8037109, -0.42822266, -2.0195312, -0.8300781, 2.3457031, -0.7817383, 0.2130127, -1.0898438, -0.86376953, -0.3413086, 0.20898438, -1.9775391, 1.96875, -0.4975586, -2.5566406, 0.28271484, -1.0068359, 0.86621094, -0.20397949, -0.21716309, -0.24975586, -0.19445801, 3.5820312, -1.4833984, -1.5117188, 0.3671875, 1.8330078, -0.86621094, 0.62597656, 3.2207031, 0.1763916, 0.12548828, -0.65722656, -1.0898438, 1.1035156, -0.3088379, 2.4023438, -0.8671875, -0.69091797, 0.8779297, 0.05505371, 3.0332031, -1.5976562, 3.4414062, 3.9863281, 0.8432617, 1.0371094, -1.390625, 0.5258789, -2.7167969, -2.0566406, 1.0878906, -0.3310547, 3.3769531, -1.3896484, 0.3828125, -1.4882812, -0.51464844, 0.54833984, 1.6386719, 0.042877197, 1.28125, 0.42871094, 0.02229309, -1.8496094, -1.5214844, -0.020309448, -0.57128906, -0.023483276, 0.4423828, -1.2744141, -0.31420898, -0.010643005, 0.7084961, -1.09375, 1.9482422, 1.7636719, 1.7646484, 0.051635742, 0.52490234, -0.061920166, -1.3330078, -1.2529297, -0.45092773, 1.8447266, 0.2619629, -2.7910156, -3.1035156, -1.375, 0.7270508, -0.85839844, -1.3125, 0.05807495, 3.4550781, 0.47705078, 0.265625, -0.12359619, 1.4941406, 2.1601562, -3.6308594, 2.1542969, -1.6230469, 0.9770508, 0.41845703, 0.8051758, 1.3632812, 0.43237305, -1.1630859, -2.6386719, -1.5976562, -0.43701172, -2.9414062, 1.21875, -0.1977539, -0.42944336, -0.16320801, 0.7915039, -1.0878906, -1.2304688, 1.0917969, 0.38183594, -0.11260986, -0.37402344, -0.07208252, -0.26342773, 1.1621094, 0.4404297, 0.91748047, -0.34814453, -0.25390625, 0.85058594, 1.1367188, -2.2695312, 1.0068359, 1.8056641, 1.5976562, -1.3769531, 2.2324219, -1.7451172, -1.3925781, -0.5991211, -0.48120117, 0.088012695, 0.5444336, -0.5410156, 1.953125, 0.37817383, 1.3369141, -0.81689453, 0.8198242, 0.46191406, -1.9326172, -1.6005859, -0.068359375, 0.4650879, -0.30493164, -1.9248047, -0.33203125, 4.9765625, 0.72216797, -0.7939453, 0.06384277, 0.7451172, -2.8183594, 1.5068359, -2.3261719, -0.15820312, 0.7006836, 0.96875, 0.14453125, -2.6757812, 1.1699219, 0.13537598, 0.3395996, 1.2519531, -0.1529541, -0.0927124, 0.7216797, -2.4316406, -0.26367188, -1.4931641, 0.49487305, 2.2441406, 1.0117188, 1.9794922, -0.48950195, 2.4941406, -1.5009766, 0.08868408, -0.043029785, -0.33544922, -0.81347656, 1.0048828, 0.81884766, -0.41918945, -2.1035156, -0.1965332, -1.3769531, -2.6425781, 0.7470703, -0.8105469, -1.5341797, -3.1757812, 1.4462891, -1.3007812, -0.40795898, 0.63378906, 0.9589844, -0.1673584, 0.98535156, 0.5800781, 0.9819336, -0.8027344, -0.36791992, -0.7739258, -0.43701172, 0.29125977, 1.2939453, 0.04336548, 2.4941406, -0.98535156, 0.5410156, -2.0019531, 1.0507812, -0.15600586, -1.5742188, -1.7978516, -1.7167969, -0.8310547, -0.6772461, -2.3945312, 2.1191406, 0.8833008, -0.3779297, 2.5566406, -0.41967773, -0.74121094, 1.0332031, 1.0068359, 2.4023438, -0.23181152, -0.62646484, -1.2021484, -0.9243164, -0.124694824, 2.9199219, -0.5888672, -0.4794922, 0.8251953, 3.96875, -0.9633789, 1.6738281, -0.5341797, -0.9628906, -0.9790039, -0.8769531, 0.55810547, -2.3515625, -1.2783203, 0.036590576, -1.2314453, -0.92333984, -2.2421875, -0.5253906, -1.3818359, 2.3710938, -0.0053482056, 4.7734375, 1.0058594, 0.08557129, -2.6113281, -0.37329102, 0.91308594, -0.34472656, 0.09197998, 2.6582031, -0.3557129, -0.5209961, -0.20751953, 0.6557617, -0.9394531, -0.78808594, -0.24243164, -0.9584961, -1.6572266, -0.57373047, -1.3916016, -2.3925781, 0.5473633, 3.9335938, -0.5854492, 1.0820312, -2.0722656, 1.3867188, -2.7519531, -2.15625, -0.48608398, -1.8798828, 1.0068359, -0.30249023, 0.94091797, -2.3027344, -1.7226562, 1.4492188, 1.8632812, -0.67871094, -0.94091797, -2.3164062, -0.0029621124, -2.5351562, 0.03778076, 0.99316406, 1.5058594, 0.87841797, -2.375, -0.04827881, -2.5234375, 0.8925781, 2.3476562, 0.8027344, -2.3554688, 0.6381836, -0.15942383, -1.0498047, 0.6171875, -0.53808594, 1.2207031, 1.5576172, 1.0634766, -1.7548828, -0.5185547, 0.42895508, 3.6015625, -0.45141602, 0.16064453, 0.7583008, 0.64208984, -2.2324219, -0.5683594, 1.0537109, 0.043823242, -0.024124146, -0.43798828, -1.0361328, -0.16516113, 2.3066406, 1.0361328, 2.5507812, -1.0771484, -1.2158203, -0.7451172, -0.48291016, -1.4082031, -0.7109375, -1.4052734, 1.2148438, -0.42089844, -1.2001953, 0.36572266, 0.3803711, 1.3310547, -1.1474609, 1.5244141, -1.3613281, -1.5175781, 2.0703125, 3.6835938, -0.91552734, -0.24243164, 0.93652344, 0.87353516, -0.7163086, -2.1328125, -2.2167969, -1.375, 0.5698242, 0.03237915, 0.8256836, 1.15625, -3.28125, -0.63183594, -1.3974609, -0.22680664, 0.15600586, -2.3359375, -3.5234375, 0.6513672, 0.074279785, 0.71972656, -1.0224609, -0.5541992, 0.3857422, -0.44384766, -2.9492188, 0.023956299, -0.6484375, -1.9833984, -1.8212891, -0.36157227, -3.3710938, -0.28759766, 1.5830078, 0.111450195, -1.3300781, 1.0048828, 1.1142578, 0.30517578, -1.4052734, -0.34106445, -0.13232422, 0.023162842, 2.5253906, -0.31762695, 1.1943359, 2.0117188, 0.7729492, 0.9511719, -0.04727173, -2.1816406, -0.24584961, 0.3864746, 1.3085938, -1.0615234, 0.02078247, 2.2148438, -0.7080078, -1.3974609, -0.99853516, -1.5683594, -1.5537109, 0.40063477, -2.4355469, 1.6113281, -1.2666016, 0.7919922, -1.2539062, -5.0898438, -0.19787598, -0.10412598, 0.7128906, -1.625, -2.4433594, 0.38378906, -1.8603516, 2.1464844, -0.7729492, -0.46948242, -1.4433594, -1.2509766, 1.0048828, -1.5527344, 0.5439453, -3.1953125, -2.0839844, -0.78466797, 0.6933594, 1.1591797, -0.34814453, 2.3828125, 0.984375, 0.7104492, -1.3388672, -1.0664062, -1.2587891, -0.97802734, -1.3408203, -0.41259766, -0.8261719, 0.12756348, -1.6533203, -1.2001953, 2.2597656, -3.4199219, -0.77490234, -1.6542969, 0.30639648, -2.1132812, 3.0195312, 0.06573486, 0.57958984, 2.1054688, -0.10803223, 0.117370605, 1.0800781, 0.1706543, -1.1933594, -1.5625, 0.56689453, 0.45043945, 0.40966797, 1.2802734, -2.2207031, 1.3916016, 0.7080078, 1.8037109, 0.2697754, 0.16845703, -1.8701172, -1.1347656, -2.4882812, 1.8037109, 2.6542969, -1.2636719, 1.46875, -0.46557617, -0.35717773, 1.4033203, 0.20874023, 0.4650879, -0.84814453, 1.3183594, -1.9736328, 2.0722656, 2.7714844, -3.0761719, 1.625, 0.6982422, -0.19604492, -0.61376953, -0.64941406, -0.49169922, -0.6015625, -2.3789062, 1.0664062, -0.97314453, -1.6767578, -0.37231445, -3.1914062, -0.68652344, -0.18200684, 1.3349609, 1.2519531, 0.37646484, 0.6669922, 3.1484375, 2.5742188, -0.08068848, 1.7675781, 0.62402344, 1.40625, -0.060272217, -2.6425781, -0.13269043, -0.5415039, -1.0361328, -1.0957031, 2.9179688, 1.8183594, 0.33544922, 1.0185547, -0.6796875, -1.7841797, 1.9697266, 0.2697754, -0.82470703, 0.31982422, 0.5722656, -0.75, -1.1855469, 1.5039062, 1.1621094, 0.7553711, 0.3552246, -0.34228516, -1.2402344, -1.7724609, 3.7265625, 0.76708984, -1.8056641, 0.57666016, 0.4099121, 2.0195312, -1.0712891, -1.1767578, -1.6210938, -2.9765625, 1.7988281, -1.9433594, -0.13903809, 0.070739746, -0.68066406, 1.5263672, 0.7963867, 0.63427734, -1.9472656, 1.1572266, -3.3652344, 0.37573242, -1.8457031, -0.54589844, -2.9746094, -2.2910156, 0.4711914, -0.18945312, 2.4824219, -0.90771484, -1.4960938, 2.0136719, 1.28125, 0.13256836, 2.4785156, 0.40844727, 0.3347168, 1.6845703, -0.49194336, 4.5429688, -1.1367188, 0.5751953, 1.8027344, 0.6953125, -1.375, 0.78271484, -2.3027344, -4.2695312, 1.2783203, -1.6894531, 0.5288086, -2.0214844, 1.1308594, 1.0175781, -1.46875, -2.9609375, 1.4199219, -0.265625, 2.3671875, -0.34277344, -0.75146484, -0.43115234, 0.57177734, 1.6523438, -0.78027344, -0.3010254, 0.82714844, 0.13244629, 0.15625, 0.3630371, -0.24291992, -1.9970703, -0.54345703, 0.9199219, -1.2333984, 0.57128906, -0.7758789, 0.56396484, -0.15563965, 1.7314453, 0.7363281, -1.3310547, 0.07537842, -1.5498047, -1.9169922, 0.38208008, 0.047790527, 0.38745117, -3.3808594, 1.3310547, -0.86621094, -0.6582031, 0.35595703, -0.16748047, 1.1435547, -1.8974609, 1.5664062, -0.5566406, 0.7988281, 1.9667969, -3.1152344, 0.07055664, 0.25097656, 1.9394531, 0.2529297, 1.0839844, 0.40307617, 0.95410156, 1.1142578, -1.4589844, 4.4765625, 2.1757812, 1.4902344, -1.1523438, 0.39624023, 0.66748047, 1.71875, -0.11053467, 0.5126953, -1.2919922, 0.3798828, -1.3867188, 1.9951172, 0.41381836, -1.5634766, 1.2949219, -0.46923828, 0.83251953, 1.5615234, -0.171875, 0.50390625, 1.7441406, -1.4785156, 1.6650391, -0.2902832, 0.20983887, 0.43847656, -1.6865234, 2.0429688, 0.82128906, -3.0117188, -1.1142578, 1.5410156, -0.68115234, -1.4042969, 0.85009766, 2.125, -1.2373047, -3.3261719, 0.80908203, 0.15307617, -0.038208008, -0.042419434, -0.46191406, -1.9335938, 0.35913086, -0.90283203, 1.1777344, -0.51123047, -0.9770508, 0.09375, 0.7529297, -1.4443359, 0.5263672, -1.6367188, 0.2602539, 0.90527344, 0.22851562, 0.5649414, -0.6870117, -0.5214844, -0.3605957, 0.06915283, 0.13110352, -1.1416016, -2.1367188, 2.2207031, -1.8476562, -2.1933594, 1.0595703, 2.1777344, 1.0019531, 0.640625, -0.6010742, -0.28735352, -0.41357422, 0.7675781, 0.7519531, -0.6323242, 0.2836914, -1.2919922, -0.6303711, -1.3378906, -0.92089844, -0.39819336, 1.0166016, 1.4384766, 0.23291016, -0.63134766, -1.3720703, -1.0166016, -0.27685547, 1.1298828, 1.6201172, 1.34375, 0.30615234, 1.8457031, -0.9550781, 1.7236328, 2.5742188, 0.10369873, -0.9194336, 1.3378906, -0.9321289, 0.6616211, 1.1132812, -0.49951172, 1.7646484, 1.7802734, 1.3876953, -2.21875, 0.3425293, -1.2695312, -0.46655273, 0.8417969, 2.59375, -0.060699463, -0.27856445, -1.0820312, -0.88916016, 3.0449219, 0.8720703, 0.082336426, -1.0175781, -1.9052734, 1.8964844, -1.3291016, 1.2363281, -1.0537109, 0.9951172, -1.6298828, -0.32910156, -0.7055664, 0.7529297, 1.8134766, -1.8603516, -1.4169922, 0.7373047, -0.58496094, -2.1992188, 0.064453125, -0.3837890</t>
-  </si>
-  <si>
-    <t>[3.2148438, -1.2353516, -0.22766113, -0.14160156, 0.025787354, 0.50878906, 0.70410156, 0.37426758, 0.8256836, 0.23742676, 1.4873047, 0.7392578, -0.8652344, -1.3710938, 1.8359375, -0.3251953, -0.73535156, -2.0019531, -0.7402344, 1.2138672, -0.20922852, -0.19238281, 0.32836914, -0.25952148, -1.1220703, 0.12634277, 0.66064453, 0.20800781, 2.2753906, -0.46777344, -0.55615234, 2.1484375, -0.4243164, 0.7319336, 1.6123047, -1.9619141, -1.9335938, 0.6743164, 4.921875, -1.4091797, 2.171875, 2.3769531, 2.7910156, 1.0712891, 0.80615234, 1.5283203, -0.22692871, -1.4511719, -0.8535156, -1.9248047, -0.7832031, 0.4663086, -3.6894531, 0.6777344, -0.85009766, -0.6953125, 3.9667969, 0.11071777, 0.6923828, 2.2382812, -0.5283203, -0.33203125, 0.10418701, -1.8300781, 0.8413086, -1.2666016, 1.1611328, 0.20166016, 1.4306641, 1.8535156, 1.0556641, -1.8154297, -1.8330078, 1.2890625, -0.71191406, -0.7753906, 0.3491211, -1.5957031, 0.09399414, 1.21875, 1.4921875, -1.0947266, 0.25610352, -0.60009766, 1.4921875, -0.90478516, -0.015106201, -1.7177734, -0.71484375, -0.4970703, 0.69628906, 0.48510742, -1.7011719, 0.08276367, -0.5161133, -1.5888672, -0.64208984, -0.8022461, -1.9052734, 0.43359375, 1.4082031, 0.93359375, -0.18591309, 2.1308594, -1.1630859, 0.7182617, 1.1503906, 0.5131836, 0.6411133, -1.3916016, -2.1582031, 0.2479248, -0.24743652, 0.18896484, 3.3007812, -0.4033203, -0.3100586, -1.5234375, 2.0820312, -1.8378906, 1.0927734, -0.29101562, -2.5136719, 2.1191406, 0.5546875, -2.8164062, -0.8100586, -2.6386719, -0.34887695, 0.86865234, -1.0185547, -0.17248535, 1.2773438, -0.28271484, 0.44921875, 2.9609375, 0.5234375, -0.31591797, -0.92089844, 0.21179199, 0.43115234, 2.65625, 0.38964844, 2.1503906, 2.1660156, 1.5166016, 1.0380859, 0.062561035, 0.5629883, -0.11645508, -0.9267578, -1.3154297, 1.8027344, 0.60546875, 1.8544922, 1.4082031, 2.1875, -1.7714844, 0.37280273, -1.4326172, -1.3984375, -0.049194336, -1.1240234, 1.0771484, -0.9042969, 1.1621094, -0.093444824, -1.5429688, 2.2050781, 0.3564453, -0.70410156, -0.31054688, -0.25097656, 0.3305664, 1.3681641, -0.43554688, -0.6582031, 0.3269043, 2.3730469, 0.109191895, -0.68408203, 0.3918457, 0.89746094, -1.2861328, 0.79589844, 1.2470703, -0.56884766, -2.2089844, 1.7753906, 0.2861328, -0.2956543, -0.19042969, -0.6044922, 1.1005859, 0.2467041, -1.2529297, 0.066711426, 1.9765625, 3.828125, -0.7001953, 0.04196167, -0.89746094, 0.9394531, 2.2226562, -1.1845703, 4.0703125, -0.5048828, -0.13916016, -1.2470703, -0.1965332, 1.5712891, -0.9638672, -0.22814941, 1.6259766, -2.0566406, 0.24133301, 0.082092285, -0.7495117, 0.99658203, -0.57177734, -1.7246094, 1.5537109, 1.2773438, -0.076660156, -0.4267578, -1.5791016, -0.8232422, -0.32226562, -0.66503906, 0.4909668, 1.6904297, -0.41845703, -1.0800781, 0.31176758, 2.1992188, -0.1451416, 0.43359375, 1.6123047, -1.7490234, 1.8583984, -0.5444336, 0.3461914, -0.52246094, -0.29492188, 0.23950195, 0.9423828, 0.07537842, 2.4101562, 3.3359375, 0.41210938, 1.2070312, -1.9042969, 1.4912109, 1.3632812, -1.3886719, 0.25219727, -3.2167969, -0.42163086, -0.0769043, -2.3339844, -0.85546875, 0.7182617, -0.5932617, 1.3222656, 1.2138672, 0.44604492, 0.4230957, 0.9692383, -2.3789062, 0.34472656, -0.23803711, -1.2548828, 2.6113281, 1.3652344, -0.34057617, 0.8847656, 1.9736328, 0.5839844, -1.3076172, 2.2753906, -0.039489746, -1.921875, 0.96533203, -1.5390625, -0.54589844, -1.359375, 0.2130127, -0.5341797, -1.5419922, -0.64404297, -0.7504883, 0.5673828, 1.4716797, -1.1992188, 0.101867676, 0.85839844, 0.7524414, -1.2324219, 0.04714966, -0.90966797, -2.5839844, 0.8149414, -0.64404297, 0.5395508, -1.6630859, -0.3737793, 0.7685547, 0.042877197, -0.11376953, -0.8354492, 0.31274414, -2.1855469, 0.32617188, 1.2451172, -0.50341797, -0.3930664, -0.99365234, 0.8027344, -1.9082031, -1.171875, -1.9609375, 0.12036133, 1.1503906, -0.11047363, -0.33862305, 0.042297363, -1.0449219, 5.9648438, 1.9589844, 1.25, 1.6542969, -0.39770508, -0.66308594, -0.1899414, 0.19433594, 2.3886719, -1.7666016, 4.4882812, -0.07562256, 1.0654297, -0.88720703, -0.10803223, -0.8852539, 0.1907959, 0.71240234, 2.3339844, -3.4414062, -0.6015625, 1.0498047, -2.9511719, -0.29248047, -0.6435547, -0.33789062, 1.5283203, -0.55078125, -0.23632812, 0.9892578, -0.070373535, -1.9238281, 0.65966797, -0.07421875, -0.061187744, -0.9941406, 0.80615234, 3.46875, -1.4453125, -1.078125, -0.53222656, 2.2636719, -0.99658203, -0.017990112, 0.5371094, 2.2441406, -0.058380127, -0.7475586, -0.22045898, 0.9458008, -0.24438477, -1.7236328, 0.8876953, 0.76220703, -0.14575195, -0.2010498, 0.1550293, -1.8359375, -0.2130127, 3.0976562, -0.453125, -0.1340332, 0.7285156, 0.92871094, -0.73339844, 0.32641602, -0.5800781, -2.3808594, 0.33422852, 0.7338867, 2.7558594, -1.7128906, -0.87890625, -0.06359863, -0.35351562, -1.2255859, 0.033081055, -0.63671875, 1.4121094, -0.8847656, 1.0166016, 0.1763916, 0.8911133, -1.3759766, 1.7919922, -2.1894531, -1.578125, -0.6347656, -1.7285156, 0.3864746, 0.5776367, -0.74658203, -1.5244141, 1.1220703, 2.5253906, 0.375, 1.2382812, 0.390625, -1.0195312, -2.0449219, -1.5009766, -0.44091797, -0.50341797, -0.07702637, -0.1739502, -2.5859375, 3.7246094, -2.484375, -0.06414795, 3.0253906, 1.2050781, -1.7597656, 1.0986328, 0.10467529, 0.03555298, -0.52685547, 0.31347656, 0.29101562, 2.2304688, -0.35864258, 1.7861328, -1.5, -1.1542969, 0.6542969, 0.52246094, 0.22363281, -0.40625, -0.030929565, -2.2304688, -0.79785156, -1.8925781, -1.2460938, -0.9707031, 1.9130859, 1.2246094, 2.9726562, -2.5195312, -1.7841797, 0.56347656, -0.36132812, 0.5917969, 0.7944336, -0.7661133, 0.48510742, -1.3515625, -2.6660156, 0.5571289, -0.10253906, 1.4443359, -1.1513672, -0.4543457, -0.9375, -1.4179688, 0.8540039, 1.3212891, -1.4277344, 0.7871094, -2.2421875, 1.0800781, -0.9995117, 0.88720703, -0.16259766, 0.53271484, -4.2890625, -0.81396484, -0.107788086, 0.5107422, 0.58447266, -1.9072266, 0.16674805, 2.1640625, 0.46069336, -1.3134766, -1.2529297, -0.28125, -3.0761719, -1.0927734, 0.03643799, -1.9277344, 0.17443848, -1.0839844, -1.8710938, 3.4179688, -1.5996094, 2.7695312, 1.2177734, -2.5332031, -0.63183594, -0.86328125, 2.5917969, -0.60253906, 1.234375, -0.03967285, -1.0966797, -1.0136719, 0.359375, 1.1923828, -1.1992188, 2.9648438, -1.1201172, 1.2070312, 0.030807495, 0.79541016, 0.3479004, 1.5390625, 0.74121094, 1.1787109, -0.28833008, 1.6513672, 0.9140625, -0.39672852, -0.28637695, 2.6054688, -1.1152344, 1.6181641, 0.99609375, -0.8354492, 1.0966797, -0.0024909973, -3.8105469, 1.7675781, -1.3964844, -0.47851562, -1.8496094, 1.1113281, 0.38549805, -1.4804688, 0.058044434, 0.6645508, 0.76464844, 1.3623047, -0.80859375, -1.7587891, 0.0009536743, -2.5820312, -2.0546875, -1.2490234, -0.55810547, 2.9140625, -1.75, 2.0566406, 0.8833008, -0.30444336, -2.5898438, -0.25024414, 1.2197266, 0.36791992, 3.4511719, -0.49780273, 0.0960083, -0.62060547, -1.7382812, 0.19055176, -1.1894531, 0.65771484, 0.6489258, -0.18920898, -0.87158203, 0.70166016, 0.5151367, -0.5888672, -0.4399414, -1.6201172, -1.3798828, -0.71484375, -0.75, 3.0175781, -1.8222656, -0.06304932, 0.07531738, -0.05029297, 1.28125, -1.6679688, 0.77246094, 1.2734375, -1.3056641, -1.9609375, -0.33984375, 1.2929688, 0.57470703, 0.14294434, -2.21875, -1.1523438, -0.28100586, 0.92333984, 0.54345703, 1.5888672, -1.3623047, -0.0970459, 0.9902344, -1.7089844, -0.1303711, -0.61816406, 1.3759766, -0.34814453, 1.8554688, -1.9091797, -1.1289062, -0.2602539, -5.1875, 0.5473633, -0.80859375, 0.5683594, -0.17248535, -1.7490234, -1.7421875, -4.0976562, 1.9453125, -0.9394531, 0.0032577515, 3.1582031, -0.4736328, -1.1201172, -0.06530762, -0.6035156, -0.37475586, -4.3125, -0.16210938, -0.72753906, -0.2849121, -0.22460938, 0.6694336, -0.8129883, -0.28710938, -0.62109375, -2.8691406, 1.1025391, 2.0097656, 0.48339844, 2.5097656, 3.5488281, 0.73046875, 3.6777344, -1.1386719, -0.6455078, -0.3022461, -0.71191406, 1.0683594, 1.015625, -0.23535156, -2.8222656, -0.37695312, -0.5048828, -0.7973633, 2.0019531, -1.0107422, 2.3144531, -1.2617188, 1.4462891, -0.9121094, 1.7568359, 2.8515625, 0.7631836, 1.0634766, 0.39086914, -1.7431641, 1.9335938, -1.1298828, -0.54003906, -1.0556641, -0.49682617, 0.55859375, -2.8847656, 0.7558594, -0.5283203, 0.12670898, -0.5683594, 0.12902832, -0.37597656, -3.7324219, -2.0449219, 1.1591797, -0.48120117, 0.3293457, 0.8027344, -1.9199219, -2.953125, -1.2910156, -0.7861328, 0.44335938, -1.6699219, 0.16113281, 1.3886719, -1.1962891, 0.34716797, 0.12109375, -1.2783203, -1.6035156, 1.0839844, -1.1699219, -1.4345703, -0.29760742, -1.2900391, 1.1982422, -1.5214844, -1.0742188, -0.9423828, -0.21508789, -1.2460938, 2.4394531, 1.0195312, 2.1972656, -1.2763672, -1.8652344, -1.2441406, -0.20483398, 0.72314453, 1.7822266, -0.38623047, 1.3037109, -0.9746094, -2.0273438, 0.04623413, 0.065979004, 1.2363281, -0.9609375, -1.6748047, -0.79541016, -0.90234375, 0.54785156, -0.6791992, 1.7841797, 1.7539062, 0.67871094, 1.8710938, -0.3737793, 0.30200195, -2.5585938, -0.9189453, 1.0654297, -0.3947754, -1.0927734, 0.30419922, 0.84521484, -0.5932617, 2.0019531, -0.3095703, 1.9160156, 0.041290283, -0.12902832, -0.95703125, 0.36743164, 0.17407227, -0.7788086, -1.3701172, 0.11804199, 0.40405273, -2.5917969, -1.4658203, 0.18164062, 0.84521484, -1.8457031, 2.2246094, -0.07080078, 0.53564453, -1.4462891, -0.4404297, -0.056396484, 1.1210938, 0.20141602, 1.2958984, -1.3867188, 0.32104492, -1.1630859, 1.3154297, 1.2998047, -0.2548828, 1.4580078, -1.7919922, 0.13256836, -0.7832031, -0.16137695, 1.0332031, 0.68066406, -1.2158203, 1.2148438, -2.21875, 2.7773438, 2.609375, 2.3300781, -0.21154785, -0.5566406, -2.2832031, 0.88964844, 0.25439453, -0.22363281, 0.7519531, -1.1972656, 0.28710938, -0.92089844, -0.25585938, 1.3925781, -1.1552734, 1.3925781, 0.10345459, 0.7998047, -1.015625, 1.1181641, -0.13317871, 0.66064453, 0.1940918, 1.8916016, -0.4086914, -1.0800781, -1.6425781, 0.45654297, -1.1826172, -0.9194336, 1.6699219, -0.7524414, 4.46875, 0.82958984, 0.36035156, 3.7148438, 0.3383789, -0.9921875, -1.1708984, 1.3828125, 1.2617188, 1.0126953, -0.45239258, 0.19787598, 0.8730469, 0.6870117, 2.1308594, -1.6298828, -0.9316406, 1.4550781, -0.031982422, 1.5722656, 1.0126953, -4.1132812, -1.3515625, 0.60009766, 1.3203125, 1.2539062, 0.67041016, 0.10235596, 0.19274902, -1.6845703, 0.54003906, -0.48657227, -1.7128906, 1.3671875, 1.0761719, 0.8833008, 0.41577148, -0.70654297, -0.21557617, -0.9194336, 0.2097168, -0.43237305, -0.78759766, 0.008842468, 0.8208008, -1.6035156, -0.71728516, -2.4238281, 0.98583984, -0.5629883, 1.5585938, -1.1162109, -1.4824219, 0.6298828, -0.41577148, 1.5703125, 2.5273438, 1.3515625, 0.69628906, 0.4399414, -0.2939453, -0.40942383, -2.3203125, -2.1796875, -0.13220215, 3.0644531, 0.34155273, -1.296875, -1.0615234, -0.31835938, -0.48779297, 2.1269531, 3.1914062, 0.18713379, 1.7382812, 0.89990234, 1.2275391, -1.671875, 0.12609863, -0.6254883, 1.2880859, -0.8183594, -1.4257812, -0.12164307, -2.890625, -1.9208984, -2.2285156, 0.3840332, -0.51171875, 1.1376953, -0.27172852, 0.26879883, -0.8745117, 0.94628906, -2.1171875, 0.75683594, -1.4384766, -1.5039062, 0.375, 1.1845703, -0.5102539, 1.2070312, 0.90283203, -0.31884766, -1.5068359, 0.28198242, -0.18908691, 1.8193359, -2.5820312, -0.13330078, -1.3369141, -0.36254883, -1.4785156, -0.72265625, 1.5859375, -0.5883789, -0.14953613, -1.6132812, -0.5078125, -1.8320312, 1.0195312, 0.13903809, -1.1298828, 0.21130371, -0.06689453, 0.066833496, -0.21887207, 1.1308594, 1.0917969, 0.7661133, -0.024230957, -2.1835938, -1.4863281, -1.2255859, -0.91845703, -2.7402344, -0.09484863, -1.4609375, 0.16064453, -1.7216797, -0.9707031, 0.8964844, 2.8339844, -0.9628906, -1.0273438, -1.984375, 1.8994141, 0.26367188, -0.19689941, 1.5126953, 0.7890625, -1.0449219, 0.7705078, 2.4765625, -1.0634766, -2.1523438, -0.90966797, 1.0097656, -1.5253906, 0.8129883, 0.35180664, -2.6230469, 0.72314453, 3.0195312, 0.99609375, 1.1201172, 0.015434265, 1.0283203, -2.7109375, -0.37695312, 0.061340332, -0.3330078, -0.7270508, 0.4267578, 1.2431641, 0.4729004, 1.3164062, -2.8574219, -0.3269043, -0.26464844, 0.02784729, -0.15917969, -0.78466797, -0.35205078, -1.3955078, 1.0693359, -0.5439453, 1.7382812, -0.55078125, -1.0693359, 1.1132812, 2.8007812, 0.2770996, -0.8222656, -1.5234375, 4.1835938, -0.79003906, 0.9121094, -1.1894531, -0.4326172, -2.4277344, -1.1181641, -2.3300781, 1.0419922, 1.6582031, -2.1015625, -3.2675781, -0.3544922, 1.9306641, 1.2138672, 1.8408203, -1.0498047, 0.72216797, -0.4375, -0.5830078, -0.066711426, -2.5234375, -1.1357422, -1.8613281, 0.07348633, 0.8378906, 0.3347168, 2.1386719, 1.9550781, -1.3847656, -2.171875, 0.97021484, -0.4777832, -0.08135986, 0.5732422, 0.10961914, 2.1289062, 0.21057129, 0.4909668, 0.5024414, 1.2001953, -0.035949707, 1.6835938, 1.4873047, 1.2763672, 2.21875, -0.3544922, -1.6240234, 2.0292969, 1.9404297, -0.67285156, -2.7070312, -0.9086914, 0.3371582, 1.0488281, -0.14001465, 0.24987793, 0.53564453, -2.2578125, 0.96484375, -2.390625, 1.4335938, 0.48608398, -0.40234375, 2.6972656, 0.58984375, -1.1640625, -1.078125, -0.50146484, 0.07873535, 1.0224609, -1.2587891, -0.025787354, 0.096069336, 2.3945312, 0.38085938, -2.1230469, -1.2304688, -2.5429688, -1.9794922, -0.84375, 0.4621582, -0.7285156, 0.1977539, -0.07470703, 0.9892578, 0.42211914, 0.39160156, 2.2929688, 1.9912109, 1.0136719, -0.51660156, -2.3398438, -1.4306641, -0.46972656, 2.3945312, -2.1914062, -0.6557617, 0.31079102, -1.1777344, -1.3964844, 0.95654297, 0.7998047, -0.3166504, 0.24938965, -0.25854492, -0.16418457, -0.06854248, 0.9975586, 3.7324219, -2.8671875, 0.7265625, 1.1542969, -0.44702148, 0.28222656, -1.0419922, 0.77490234, -1.625, 0.4855957, -1.8867188, -1.4091797, 2.4277344, -1.0214844, 0.6176758, -0.14160156, 0.2788086, -2.4003906, 1.7128906, -0.8144531, 1.5712891, -0.49780273, -0.7236328, 1.6542969, -0.94970703, -1.2363281, 0.25610352, -5.1054688, 1.2998047, -1.3681641, 0.027267456, -0.3762207, -1.4423828, -0.6538086, 2.9648438, -0.30541992, 0.010246277, 3.2480469, 1.0195312, 0.8378906, 0.4375, 0.7397461, -0.80615234, 0.9277344, 2.0683594, -1.8320312, -0.0758667, 0.25512695, 1.8046875, -0.6274414, 1.9130859, -1.1191406, 0.9707031, -1.5986328, 0.96240234, 1.9541016, -0.67285156, -0.31689453, -0.3876953, -0.57421875, 0.026947021, 0.9785156, -0.08905029, 0.99609375, 1.765625, -1.0595703, 1.7929688, -0.43139648, -0.24389648, -1.0820312, -0.67285156, -0.09613037, -0.07635498, 0.88671875, 0.4375, -0.4033203, -2.2851562, 1.4863281, -0.2680664, -0.6064453, -1.0107422, -0.5239258, 1.8652344, 0.3161621, 0.9975586, 0.54296875, 0.094055176, 1.2548828, 1.5380859, -1.6279297, -2.265625, 0.9682617, -0.49291992, -0.48608398, 1.140625, 0.4091797, 1.6445312, -1.1386719, 0.17810059, 0.1116333, 0.38012695, 1.2490234, -1.3554688, -0.8725586, 1.2421875, 1.6865234, -0.9326172, 1.0429688, -0.7734375, -1.5615234, 2.1015625, 0.011940002, 0.4399414, 0.8881836, 3.8222656, 0.18579102, -2.1992188, -0.27954102, -2.3261719, 0.00819397, 0.5683594, -1.0214844, 2.96875, -1.7167969, 0.4951172, -1.0263672, -4.3867188, -0.020431519, 0.2668457, -2.1933594, 0.7792969, -0.29077148, -0.50878906, -0.40527344, 1.0263672, -0.32739258, -0.28808594, -2.3398438, 2.1269531, 1.5742188, 6.5117188, -0.2668457, -0.039154053, -0.2788086, -1.7949219, 1.2070312, -2.2890625, 0.9169922, 0.9213867, -2.71875, 0.5078125, -1.3964844, -0.2397461, -0.45751953, 0.78125, 1.2207031, 0.6430664, -1.828125, 0.87646484, -0.9003906, -0.009155273, 2.2207031, -0.32788086, -1.0410156, -1.6796875, 0.45336914, 0.5366211, 1.9707031, 0.38256836, -0.6665039, -0.8149414, -0.59228516, 2.078125, -2.5898438, -0.26293945, 0.23657227, 0.9140625, 0.14331055, -1.0097656, -0.3190918, -0.22509766, 0.453125, 1.4091797, 0.53515625, -0.42358398, -1.1220703, -0.5, 1.8466797, -2.1445312, -0.85839844, -1.0136719, -2.1230469, -0.8833008, 1.6035156, 0.0132751465, 0.10986328, 0.122924805, -0.64208984, 0.23352051, 2.8847656, -0.6953125, 0.81933594, -1.7529297, 0.33325195, -0.6669922, -0.8564453, 0.58154297, -0.9975586, -1.6337891, 0.8330078, 1.0498047, 1.9296875, 0.79833984, -2.2070312, 0.8598633, -3.3808594, 0.11175537, -0.27319336, 1.3212891, 0.3413086, -2.0136719, -0.13928223, 2.6269531, 2.578125, -1.2011719, 1.5488281, -0.7680664, -1.21875, 0.56884766, -0.36694336, 1.2597656, -0.93359375, 1.4238281, -4.0390625, 1.6542969, -1.4042969, -0.9296875, -0.04675293, -1.6328125, 0.085876465, 0.28515625, -1.0537109, -2.9023438, -0.86621094, 0.64453125, 0.7451172, -1.2255859, -0.12231445, -1.2314453, -0.038513184, -0.4375, -0.9941406, 0.4111328, 0.089904785, 1.7412109, 0.72314453, -0.2541504, -0.59814453, 0.1895752, 1.2675781, 0.2553711, 0.17443848, 0.53271484, 1.2519531, 0.7416992, -2.5722656, 0.44677734, 0.11462402, -0.2524414, 0.5366211, -2.5761719, -1.0253906, 1.5136719, 0.84228516, -0.11102295, -1.3486328, 3.1171875, 1.2216797, -0.23181152, 2.3554688, -0.6621094, 0.36645508, 1.7890625, 1.4335938, -1.7890625, -2.2207031, 0.64746094, -0.4633789, -0.07409668, 1.1015625, -0.52783203, -0.9692383, 0.62109375, 0.45336914, 0.2619629, -0.9555664, -0.61816406, -1.3027344, -0.71484375, -0.5336914, 1.2158203, 0.9790039, 0.7753906, 1.6972656, 0.89208984, 1.6083984, -0.29516602, -1.5449219, 1.1289062, -1.3964844, -1.6074219, -1.8955078, 0.6772461, -0.28955078, 0.73828125, -0.94189453, -0.76464844, -0.85253906, -0.22973633, 1.8369141, 1.6611328, 1.3681641, -0.11816406, 0.015899658, 1.3466797, -0.6640625, -0.72314453, -0.7402344, 0.6665039, 2.7832031, 2.8417969, 0.22180176, -0.7480469, 1.2607422, 2.0742188, -0.5205078, 0.61083984, 0.5708008, -1.5966797, 0.19958496, 0.00010961294, -0.7763672, 1.5449219, -0.10266113, 1.8496094, -0.60302734, 0.50634766, -0.05596924, 1.4755859, -2.5507812, 1.1826172, 1.6943359, 2.078125, 1.5947266, 0.7788086, -0.5805664, -0.4482422, 0.4560547, 1.0703125, 0.67333984, -0.66015625, -0.8120117, -2.8984375, -1.6865234, 0.67871094, -1.3701172, 1.7714844, 0.14978027, -0.86083984, 0.69189453, -2.4960938, -0.2454834, -1.6953125, -1.7587891, 0.4350586, -3.0585938, 0.20788574, 0.10986328, 2.2636719, 4.984375, -1.0009766, 0.91308594, 0.24890137, -0.24938965, -0.08227539, -1.9443359, -0.93310547, 1.4912109, 0.84814453, -3.9746094, -2.2226562, -0.5097656, -0.6113281, 0.56640625, -0.5371094, -1.1474609, 0.81933594, 0.09106445, -0.5151367, -0.06738281, 0.77685547, -1.1201172, 1.3496094, 2.1367188, -1.3759766, -0.43676758, 0.18164062, -1.0644531, -0.4506836, 1.4384766, -2.125, 1.1015625, -0.27514648, -3.0507812, -2.1152344, 0.12322998, -1.4472656, 0.009056091, 3.15625, 2.0761719, 0.0869751, 1.4541016, -1.2675781, 0.14111328, 0.8520508, -0.23901367, 0.060333252, 0.20996094, -1.1279297, -0.4152832, 0.087768555, -1.4736328, 0.78515625, 0.6645508, -1.3076172, 1.578125, -0.17456055, 0.11999512, 2.3847656, -0.1739502, -0.72265625, 1.3388672, 1.5634766, 1.1875, 0.15783691, 1.0390625, 2.6191406, 1.3076172, 0.32373047, 3.7109375, 0.9848633, 1.3359375, 1.0214844, -0.4399414, 0.25439453, 2.046875, 1.5205078, 0.048919678, -0.88916016, -2.1933594, 0.25805664, -0.035491943, -0.3449707, 0.7524414, 2.6152344, -0.18579102, 1.4921875, 2.8515625, 3.5507812, 1.0595703, -1.0556641, 2.4121094, -0.5883789, 0.30151367, -0.36669922, -1.8222656, -1.4960938, -1.0761719, 2.3242188, 1.1416016, -0.7373047, -2.1386719, -4.2226562, -1.984375, -3.84375, 0.4897461, -1.5576172, 0.421875, 1.9462891, -0.9169922, -3.7402344, 1.7470703, -0.59472656, -0.23547363, -1.0283203, 0.34570312, -0.3178711, -1.5029297, 0.4892578, -2.8886719, 1.3466797, -0.5214844, 0.49780273, -4.2226562, -0.78466797, 0.4519043, 1.3505859, 0.40844727, -0.46875, -0.36450195, -0.028701782, -0.30810547, -0.45092773, 1.6845703, -2.1210938, -0.045196533, 0.20141602, -0.83496094, 0.82128906, 2.3769531, 0.069885254, 0.96435547, -1.5742188, -0.95214844, 0.5463867, 0.6064453, -1.3457031, 0.4519043, 1.6201172, 0.62646484, 1.5009766, 2.7734375, -3.5488281, 1.0751953, -1.4960938, 1.3085938, 0.32006836, -1.0517578, -2.4433594, 0.7001953, 0.94189453, 1.0439453, 1.4921875, 1.3261719, 0.37670898, -0.049987793, -1.5634766, 0.9951172, -1.1054688, -2.4101562, -0.4230957, -0.37304688, 1.1113281, 0.75878906, 0.72509766, -1.0078125, 0.6376953, 2.2441406, -0.82421875, 1.5205078, 1.0068359, 0.6826172, -1.6845703, 0.3527832, -0.17907715, 0.057250977, 0.1776123, 1.2128906, 0.30639648, -3.1679688, 0.4440918, 2.9824219, 1.5244141, 0.0390625, 1.5078125, 0.7910156, 0.41210938, 0.8017578, 0.049316406, -1.4111328, -1.8193359, 0.8354492, -1.1005859, 1.8417969, 0.33007812, 3.6992188, -1.8955078, -0.46972656, -0.4873047, 1.265625, -0.39697266, -1.1416016, -1.2216797, 2.5839844, 1.3515625, 0.8564453, -2.5195312, -0.8745117, -2.6191406, -1.09375, 0.66259766, 0.4482422, 0.55029297, 1.5244141, -0.4621582, 2.7734375, -0.7475586, -0.19384766, 1.5322266, 1.0507812, 2.7851562, -1.1933594, 0.3918457, -4.1875, -0.5527344, 0.7109375, -1.1738281, -0.3864746, -1.9423828, -2.2324219, -0.4794922, 2.1914062, 1.7753906, -0.7651367, -1.4082031, -1.7451172, -0.44580078, -1.2978516, 1.6533203, -0.13781738, 0.02331543, 1.8779297, -0.12237549, -1.6044922, -1.2802734, -1.9589844, 1.1474609, 2.4160156, -0.2331543, 0.05496216, -0.20043945, -0.111206055, -4.4140625, -1.9736328, -1.2216797, 0.061309814, -0.8588867, 1.6621094, 0.10107422, 0.3815918, -0.44726562, 1.078125, -0.92871094, 0.6171875, -3.7734375, -1.5654297, 0.16894531, -1.3925781, -1.3115234, 2.3359375, -1.4638672, 0.51220703, 2.5097656, -0.4038086, 0.8979492, 2.8320312, -0.014671326, -1.4111328, -0.59716797, -1.0654297, -3.5722656, -1.0175781, 1.4736328, -0.7524414, -0.31298828, -0.84521484, 0.4086914, 0.03643799, -2.3671875, -0.7763672, 1.4746094, -0.8730469, 1.5117188, -1.9638672, -0.9350586, -1.3173828, 1.5791016, -0.53808594, 0.8959961, 0.5175781, 0.2709961, 0.8828125, 0.17712402, 2.2109375, -2.6015625, 0.48779297, 0.1239624, 1.2578125, -0.037231445, -1.3652344, -1.1660156, -1.4765625, -2.8691406, -1.3632812, -0.86035156, 1.5429688, 2.1503906, 1.6640625, 0.9296875, -1.2841797, 0.2421875, 2.0722656, -0.6669922, -1.7011719, -0.32910156, 1.4970703, -0.92871094, -1.7548828, -0.93603516, -1.3847656, 0.7441406, -0.2010498, -0.07946777, 2.1855469, 1.5390625, 0.7519531, -0.7734375, 2.7597656, 2.5488281, 1.1113281, 1.0869141, 0.04309082, -1.1943359, -1.2666016, 1.0771484, -1.1005859, 0.3857422, -2.2109375, 0.41577148, -0.36035156, 0.6977539, 0.35546875, -4.671875, 0.3269043, 2.4570312, 0.75439453, 1.0576172, -0.83691406, 3.7519531, 0.7441406, 0.95703125, -0.1472168, 1.390625, -0.074157715, -1.9794922, -1.0449219, -1.2197266, -2.3261719, 0.6074219, 0.5288086, -0.91796875, 0.62158203, 2.5390625, -0.5913086, 5.1015625, 0.3137207, 2.1621094, 0.23547363, 0.7006836, -0.2076416, -0.84765625, -0.43969727, 3.3984375, -2.546875, -0.62060547, -0.6772461, 1.6503906, 1.6035156, 0.8378906, 2.8359375, -0.07989502, 0.007972717, 0.27148438, -1.8867188, 1.8779297, -1.6113281, 3.1171875, -2.1191406, -0.03829956, -0.36645508, -0.15026855, 1.8759766, -2.2949219, -0.6015625, 0.73535156, 1.6171875, -0.1940918, 2.3632812, 3.2402344, 0.6303711, -0.05218506, 0.9111328, 0.8334961, 0.35229492, -2.7558594, -1.2109375, 0.74365234, 0.38354492, 1.3955078, 1.8339844, -2.1328125, 2.3867188, -2.6328125, -1.1777344, -0.78808594, -2.0117188, -0.9848633, 1.3466797, 0.51123047, 1.3154297, -1.6533203, 0.6074219, -1.2119141, 0.5698242, 0.4020996, 1.671875, -0.32373047, 2.1582031, 2.4433594, 0.3388672, -1.1337891, 0.49145508, -0.7421875, 0.34155273, -0.084350586, -0.33544922, 0.27490234, -1.890625, -1.1357422, 1.6621094, 1.3886719, -1.8447266, -1.0361328, -0.9399414, -1.3007812, -0.61279297, -1.3632812, 0.5180664, 1.4121094, 3.1972656, -1.3300781, -1.1289062, 1.6542969, 2.4726562, -1, -1.0957031, 0.94433594, 0.3876953, -2.1445312, -0.10784912, -1.3818359, 1.4326172, -0.54541016, 1.9414062, 0.087768555, 0.4165039, -0.18225098, 0.64453125, 2.0019531, -1.9111328, 4.7460938, 4.3046875, 0.43115234, 1.3486328, -1.7001953, 0.10235596, -3.9921875, -1.5585938, 1.1103516, -0.30151367, 0.4013672, -1.6708984, -1.3359375, 0.049438477, -0.6567383, -1.4091797, 2.3398438, -0.97558594, 1.1806641, 0.37719727, -1.859375, 0.70996094, -1.7529297, -0.7753906, -0.4189453, 0.7480469, 0.36450195, -2.3476562, -0.9667969, -1.5380859, 0.31323242, -1.3037109, 1.5507812, 1.3095703, 1.4091797, -0.060546875, -2.3457031, -0.6542969, -2.2929688, -0.6035156, -0.23034668, -0.12792969, 0.1026001, -1.0322266, -0.93603516, 0.09979248, -3.1894531, 0.10882568, -1.8652344, 0.61279297, 0.4597168, 0.37841797, 0.3059082, 0.46118164, -0.36669922, 1.1855469, -6.7539062, -0.28515625, -0.97753906, -0.92578125, 2.0214844, 1.2158203, 0.037841797, 1.8291016, -0.26367188, -1.1464844, -2.7988281, -0.3486328, -2.546875, 1.9140625, 1.9472656, -0.72753906, 0.008522034, -1.8417969, -1.4375, -0.00970459, 0.17089844, 0.9189453, 0.8378906, 0.0013751984, 1.5136719, 0.94384766, 0.4074707, -0.52441406, -0.76660156, -0.81933594, -1.2792969, -0.74316406, -0.49047852, -0.76464844, 0.93359375, 1.515625, 3.6347656, -0.46362305, 0.41064453, -0.9042969, -1.8134766, -1.3847656, 1.4970703, -0.82421875, 1.4697266, 0.016220093, 1.5166016, 1.8457031, -0.6796875, -0.93310547, 0.2770996, -0.94433594, -2.8652344, -1.4589844, -1.0898438, 0.6464844, -0.98828125, -2.1425781, -1.5800781, 5.4453125, 0.6015625, 0.25976562, 0.83691406, -0.1920166, 0.3540039, -0.29858398, -1.4990234, -1.5722656, -0.2553711, 0.0104599, -0.20117188, -0.8754883, 0.9560547, 0.7451172, -0.6645508, 1.7617188, -1.3466797, 0.5761719, 1.5546875, -1.3330078, 0.546875, 0.4638672, -1.1669922, 2.4648438, 0.4165039, 1.9628906, 0.4309082, -0.32226562, -1.1513672, 1.0048828, -0.36035156, -0.04208374, -0.9316406, -1.3378906, 0.3876953, -1.8515625, -1.8193359, 0.2841797, 0.81103516, -1.5332031, 1.3984375, -1.1035156, 1.4746094, -3.1582031, 0.91503906, 0.43310547, -1.2089844, 3.9726562, 1.4921875, 0.58154297, -1.0742188, 0.13195801, -0.56152344, 1.3886719, 0.031463623, -0.9267578, 0.13867188, -0.84521484, 3.1425781, -0.0017938614, -0.14123535, -1.1240234, 0.012588501, -3.2265625, 1.4707031, -0.37304688, -0.9589844, -1.7841797, 0.6142578, -0.14489746, 0.5048828, -2.2402344, 3.7226562, 0.40283203, -1.0351562, 2.0683594, 0.5102539, -0.02885437, -1.1113281, 0.5419922, 1.2080078, 0.7080078, -1.3027344, -1.3945312, -0.58935547, -0.2133789, 2.8066406, 0.75683594, 1.5263672, 2.5292969, 1.0400391, -0.19885254, 1.4121094, -1.2705078, 0.2878418, -0.7832031, -1.5322266, -1.0195312, -0.5834961, -0.44482422, 1.4804688, -0.29541016, -1.5878906, -2.7695312, 1.5625, -0.70654297, 1.0195312, -0.47924805, 4.2539062, 1.8417969, -0.12164307, -2.3691406, -0.13269043, -0.2019043, 0.37670898, -0.1862793, 1.6669922, -1.984375, -1.0839844, 0.34448242, 1.1962891, -0.55126953, 0.7060547, 0.5859375, -0.45410156, -1.3261719, -0.6308594, -1.2001953, -0.7861328, 0.9140625, 2.5449219, -0.5961914, 1.3457031, -1.1152344, 1.0166016, -1.9677734, -3.5136719, -0.8276367, -3.4648438, 1.8583984, 0.9057617, 1.1064453, 0.44873047, 0.75878906, 1.1025391, 2.5898438, -0.1842041, 1.4082031, -3.3144531, 0.85058594, -1.8125, -0.0491333, 0.77246094, -0.47216797, 1.1660156, -2.8652344, -0.57958984, -1.2333984, 1.2158203, 2.328125, 2.515625, -1.1816406, 0.8144531, -1.7675781, 0.4658203, -0.86328125, -0.7392578, -1.1279297, 0.2319336, 0.8701172, -1.2666016, 1.0683594, 1.2392578, 2.3632812, -0.9194336, -0.001616478, 0.9819336, 0.21362305, -1.0556641, 0.55029297, 0.04788208, 2.2304688, 1.8964844, 0.13928223, -1.2001953, -0.99658203, 2.0976562, 0.98339844, 0.8457031, -0.0059928894, -3.9101562, -0.8847656, -1.9882812, 0.39086914, -2.3710938, -1.3828125, 0.07922363, 1.2910156, 0.7685547, 0.80859375, 1.0888672, -1.3798828, -1.0722656, 0.70214844, -1.6923828, 0.29663086, 0.9272461, 0.16784668, -3.2167969, -1.1064453, -0.41357422, -0.09814453, -1.0664062, -2.6347656, -2.0175781, 0.08532715, 1.4873047, 0.9892578, 0.2890625, 0.5083008, -2.7070312, -1.1259766, -0.085510254, -0.8208008, 2.203125, -1.0449219, -3.03125, 0.50683594, -0.29248047, -1.1337891, -0.06793213, 0.27172852, 0.47216797, -0.13806152, -3.5078125, 0.03527832, 0.06518555, 0.37475586, 0.009628296, -1.2548828, -2.0078125, 0.78808594, 1.1826172, -1.2314453, -0.10418701, -0.19628906, 1.4082031, 0.021224976, -2.8730469, -1.3261719, 1.0644531, -0.39379883, 1.6376953, -0.51416016, 0.43408203, 1.9677734, 2.2929688, -0.4909668, 1.390625, -0.74560547, -1.9658203, 0.4169922, 0.8330078, -0.06555176, 0.094177246, 2.125, 0.4020996, 1.140625, -0.42895508, -1.7548828, -0.48461914, 0.3803711, -1.2958984, 0.36376953, -1.3056641, 0.8203125, -4.546875, -2.5292969, -0.15148926, -1.6845703, -0.38720703, -0.6660156, -1.7236328, 1.8984375, -2.1191406, 1.4091797, 0.5522461, -0.89404297, 2.3359375, 0.40283203, -0.055908203, -0.9501953, 1.9072266, -1.6757812, -2.078125, 2.2910156, 1.1875, 1.3242188, 0.65478516, 1.9736328, 1.0048828, 1.0439453, -1.3720703, 0.61083984, -1.1630859, -1.9697266, -1.6162109, -0.9067383, -3.0644531, 0.9248047, -1.5712891, 0.5683594, 1.9550781, -1.8427734, -0.8725586, -1.6289062, 1.0126953, -0.4970703, 1.7578125, 0.8432617, 1.7324219, 0.70703125, -1.5195312, 0.12719727, -0.60546875, 0.109680176, -1.5302734, -0.5078125, -1.453125, 0.7807617, -1.2773438, 0.58691406, -0.16210938, 3.3886719, 0.47216797, 2.5136719, -0.50927734, -1.2412109, 1.0175781, 0.4477539, -1.546875, 0.99853516, 2.4375, -1.0224609, 0.46557617, 0.5048828, 0.14916992, 1.234375, -1.5869141, -0.77783203, 1.0146484, 0.12670898, -2.2207031, 1.9072266, 1.2714844, -3.0390625, -0.8833008, 0.8901367, 0.23913574, -0.97509766, -0.7919922, -1.0195312, 0.15075684, -1.9882812, 1.2363281, -0.9194336, -1.2773438, 0.4580078, -3.1835938, 0.2998047, 1.4804688, 1.1357422, -1.7626953, -0.22802734, -0.85058594, 1.8574219, -0.23132324, -0.1194458, 2.1445312, -1.3027344, 0.013801575, -0.024002075, -1.6464844, -0.01373291, -0.30810547, -0.67871094, -0.7734375, 1.984375, 1.0488281, 1.2636719, -1.8535156, -1.8115234, -0.63720703, -0.32421875, -1.2333984, -1.2167969, -0.265625, 1.3193359, -1.7431641, -0.41015625, -0.09173584, -0.39135742, 1.6171875, 0.53222656, -0.4440918, -1.1269531, -1.6611328, 3.1523438, 0.06958008, -2.0566406, -1.0175781, -0.3244629, 2.6855469, -1.171875, -0.2763672, 0.2800293, -1.8544922, 1.8632812, -3.3066406, -1.5214844, -1.3125, -1.0302734, 0.56396484, -0.6855469, 1.0654297, -2.1933594, 2, -3.8339844, -0.12976074, 0.06365967, -1.515625, -1.6337891, -0.36865234, -2.4082031, -0.33154297, 2.3320312, -0.9814453, -2.6757812, 0.9379883, 1.6884766, 1.1552734, 2.2128906, 1.359375, 1.0566406, 2.3613281, 0.34765625, 3.3652344, 0.36010742, 0.453125, 1.7529297, 0.17553711, -2.2285156, -0.4428711, -1.7041016, -1.9619141, 0.2788086, -0.046783447, -0.020828247, 0.59228516, 0.2758789, -0.17932129, -0.30908203, -1.3212891, 2.2851562, 0.9848633, 0.8652344, -0.18066406, 0.88378906, 0.28320312, 1.0712891, 0.93603516, -0.43017578, -1.2470703, 2.1386719, -0.46435547, -1.7792969, -0.15795898, -1.2265625, 0.7089844, 1.8515625, -1.3779297, -1.6113281, 0.85009766, -1.6533203, 0.51464844, -0.77783203, 1.8359375, 1.1748047, -0.093322754, -1.7070312, -1.5244141, -2.5839844, -0.26953125, -1.5859375, -0.77734375, -0.60253906, 0.9555664, 0.2915039, -0.07055664, -0.8022461, -0.49072266, 2.625, -1.6630859, 0.8354492, -0.5620117, 1.7304688, 0.47192383, -2.4179688, 1.1162109, -0.9770508, 2.046875, 0.12213135, 1.7138672, 0.50683594, -0.9848633, 0.57666016, -0.80029297, 0.101623535, -0.36889648, 3.6679688, -1.7451172, 0.89453125, 2.5097656, 0.7163086, 1.2470703, -0.011383057, -0.24572754, -1.0742188, 0.11175537, 2.4277344, 1.2402344, 0.15893555, 0.13134766, 0.7661133, 0.6118164, 1.1269531, -0.017120361, -0.9765625, 2.6835938, -0.38720703, 1.1650391, -1.0175781, -0.029251099, 0.83691406, -0.43579102, 2.9433594, -0.87353516, -1.8466797, -0.97265625, 1.1923828, 1.6611328, -0.10601807, 1.3466797, 1.8291016, 0.060546875, -1.3300781, 3.0195312, 0.06640625, 0.65966797, -0.2019043, 0.49267578, -2.7246094, 0.8105469, -1.0117188, 4.1328125, 0.98779297, -1.8876953, -1.2958984, 2.0371094, -0.42797852, 1.0927734, 0.4814453, -1.7753906, 1.0996094, 0.93066406, 0.6171875, 0.6201172, 1.0097656, 1.3486328, -0.9638672, -0.46289062, 0.6064453, -1.2060547, 2.8554688, 0.38354492, -0.49487305, 1.5966797, 1.4326172, 0.50390625, -0.7895508, 0.5371094, -1.2802734, -0.79541016, 0.11517334, -0.43945312, -0.15722656, 0.115600586, -2.890625, -0.6357422, -0.75341797, -0.7631836, 0.89941406, 0.39868164, 0.03225708, 0.8964844, -0.8208008, -2.1054688, 1.2480469, -1.1962891, -1.7539062, -1.015625, 1.5087891, 0.56884766, 2.140625, 0.17077637, 0.8413086, 0.94970703, 0.5078125, 0.57470703, 1.921875, -0.8725586, -0.09161377, 2.7597656, -0.7128906, -0.16442871, 0.8984375, 0.41674805, -0.3461914, 2.0078125, -1.0371094, -2.265625, 0.28320312, 2.2460938, 0.27929688, -0.7182617, -0.6269531, -0.2565918, 1.8710938, 0.89453125, -0.82714844, 0.9291992, -2.9003906, 0.8496094, -2.1503906, 0.96728516, -1.6201172, -0.3256836, -1.3359375, -1.3964844, 1.1923828, -0.74365234, -0.24157715, -0.196</t>
-  </si>
-  <si>
-    <t>[2.0664062, -1.5322266, 1.9941406, -0.42651367, 0.25024414, -1, -2.2148438, 0.38916016, 2, 2.2617188, 0.19213867, 0.20471191, -3.7753906, -1.0439453, -0.46435547, -1.7753906, 1.71875, 0.9453125, -0.5175781, 0.14257812, 1.2861328, 1.7529297, -2.2128906, 0.48876953, 0.7089844, -0.62939453, 1.5, 0.5805664, -1.265625, 0.35791016, 1.5009766, 4.1367188, 0.6352539, -1.9238281, -0.37109375, -2.8085938, -2.0058594, 1.7060547, 3.9628906, -1.9345703, 1.5449219, 0.13183594, -0.096069336, 0.33666992, 0.09069824, 0.25610352, 1.9511719, 0.7753906, 0.19848633, -1.5449219, -0.21166992, 1.5175781, -2.5625, 0.43603516, 0.8203125, 1.4404297, -2.4003906, -1.2080078, 1.0712891, 0.41723633, -3.0117188, 2.2011719, -0.13757324, -1.53125, 0.2631836, -0.48510742, -1.2285156, -1.0722656, 0.44091797, 0.10925293, 0.828125, 1.4003906, -0.91308594, 1.8964844, 0.118774414, 0.8696289, -0.6904297, -0.65234375, 1.3037109, -0.63134766, 0.7216797, -0.5097656, -1.9472656, -1.2080078, -2.4414062, 0.37890625, -0.76708984, -0.12634277, -0.1418457, 0.16369629, 0.48510742, 0.48876953, -0.26708984, 1.4375, -0.43554688, 0.50097656, -0.5834961, -1.5996094, -2.1796875, 0.042785645, -0.5185547, -0.03375244, 0.21557617, 1.2675781, 0.2836914, -2.1953125, 1.6513672, 0.31201172, -1.1806641, -2.3554688, -3.6210938, 0.10723877, -0.6826172, 1.9667969, 2.4785156, -0.22888184, 2.9414062, -2.1757812, -0.06732178, -0.46728516, -0.25268555, -0.61816406, -1.0761719, 1.5380859, -0.36865234, -0.024124146, -0.1730957, -1.3027344, 1.0927734, 0.6430664, 0.67871094, -1.0546875, 2.2089844, -2.2402344, 4.4492188, 1.3496094, 0.38134766, -0.76416016, 0.62939453, -2.2597656, -2.4140625, 2.6914062, 0.46875, 0.18615723, 1.859375, -1.0576172, 1.0175781, -0.3190918, 2.0117188, 0.75390625, 0.6147461, -0.80566406, -2.6132812, 1.1308594, -0.028121948, 1.7001953, -0.36132812, -3.171875, -0.92041016, -0.3996582, -0.6220703, -1.0146484, -1.921875, -0.67822266, 1.1904297, 0.98583984, 2.2675781, -2.171875, 1.5292969, -3.6757812, 1.6376953, -1.0917969, 0.92333984, 1.4589844, 0.6191406, -0.9428711, 2.1171875, -0.29833984, -0.024414062, -0.640625, -1.2988281, -1.1191406, 0.4741211, -0.31518555, -0.84521484, -1.0341797, 0.60839844, -1.4482422, 2.0585938, 1.7626953, 0.3881836, 0.4765625, -0.56884766, -0.8076172, -0.9326172, 0.6923828, -0.28198242, -0.9736328, 5.2695312, -1.2714844, 0.35205078, 0.16918945, -1.8466797, -1.7871094, -1.6826172, 3.4179688, -1.7421875, 0.65527344, -1.484375, -1.6855469, 0.55322266, -0.85302734, -0.40307617, 0.48046875, -0.5908203, 2.125, -0.32543945, -3.1640625, -0.44384766, 0.49853516, 0.5024414, 1.0537109, -2.2382812, 0.22631836, -0.5410156, -0.7524414, -2.5722656, -0.50341797, 0.5019531, 1.0712891, -0.2770996, -0.88134766, -0.6713867, -1.0585938, 0.36083984, -1.0341797, -0.11633301, 1.4013672, 0.6113281, 1.0253906, 0.70751953, -0.6484375, -0.5859375, 0.74365234, -0.43676758, 3.6308594, 1.921875, -0.51171875, 1.6503906, -2.1835938, 0.60302734, -1.1894531, -0.3774414, -2.6171875, 1.2001953, 0.22033691, 0.37573242, -1.0996094, -1.5615234, 1.3496094, -2.7207031, -2.3613281, -0.42919922, -1.4707031, 2.4648438, 0.46557617, -1.6503906, 0.93359375, -1.5126953, -1.7597656, 1.0839844, -1.2929688, 1.4707031, 1.0839844, -0.085754395, -1.0351562, 1.9296875, 1.1708984, -1.28125, 0.6435547, 1.8652344, -0.87597656, 0.21813965, -1.1845703, 0.25146484, -1.0146484, -1.7890625, -0.26831055, -0.6533203, -2.4414062, 0.77246094, -2.1054688, 0.41479492, -2.5410156, 1.7109375, -0.81396484, 1.5205078, -0.062683105, -1.4716797, -0.44458008, -0.39697266, 0.35913086, -2.5371094, -1.0029297, 0.20446777, 1.1396484, 1.7753906, -0.07373047, 0.5830078, -0.7583008, 0.46875, -0.55371094, 2.1855469, -0.27294922, -0.69433594, -0.7133789, -1.0898438, -3.0097656, -0.7236328, -1.4326172, -0.09509277, -2.1542969, 2.1953125, -0.27026367, -1.4462891, -1.3222656, 0.27294922, 1.8251953, 1.3945312, -0.15759277, 1.2763672, 1.7060547, -0.12805176, 2.0742188, 1.3574219, 0.59814453, 1.5078125, 3.46875, 0.37109375, 1.0351562, 0.77197266, 1.7080078, -1.125, 0.12011719, -0.50878906, -0.26245117, -1.6376953, -1.828125, 0.9194336, -1.2851562, -2.6914062, -1.7236328, 1.9638672, 2.4433594, -1.2675781, -0.19677734, -0.8071289, -3.0898438, -2.1953125, 1.6464844, 0.22717285, -0.07684326, -0.91796875, 0.10974121, -3.421875, -0.14086914, -0.59765625, -1.7519531, 1.1201172, -1.1015625, 1.2724609, 2.1074219, -0.36791992, -0.12384033, -0.81396484, 0.8486328, -2.671875, 0.20568848, 0.31445312, 0.022445679, -0.29174805, 0.4711914, -0.33642578, -1.6386719, -3.2460938, -0.7553711, 0.25195312, 0.17895508, -1.375, 1.03125, -0.453125, -1.0986328, 0.88671875, -2.1523438, -0.7890625, -0.43798828, 1.1875, 1.6308594, 2.1152344, -0.5419922, -1.3691406, 1.7480469, -1.984375, -1.1269531, 2.7050781, 0.99072266, 1.3623047, 1.3574219, 2.0351562, -0.82128906, 0.09094238, -0.81347656, 0.020019531, -1.5761719, -1.4726562, -3.2402344, 0.10839844, 1.0742188, 2.6933594, -1.0849609, 0.69628906, 3.1621094, -0.56933594, 1.2519531, 1.9013672, -0.5883789, -0.18774414, -3.5429688, 1.1074219, 0.16931152, -0.7084961, 0.37402344, -2.4160156, -0.7373047, -2.0429688, -1.0869141, -0.48901367, -1.3369141, -0.37329102, -0.8388672, 0.09954834, -0.91259766, -0.83740234, -1.3574219, 1.2539062, 1.9560547, 1.2587891, 1.5527344, -1.6748047, 1.25, 0.31518555, 0.002986908, 0.69384766, 0.51464844, -0.24353027, -3.4648438, -0.18652344, 0.18725586, -0.15209961, -0.5097656, 0.7998047, 1.1083984, 1.8652344, 0.08569336, -0.43164062, 1.1123047, 2.6367188, -1.5488281, -0.45751953, 0.55566406, 0.8125, 1.3339844, -0.11706543, 0.14013672, 0.67285156, 0.9765625, -1.1777344, -0.10583496, 1.6699219, -2.1464844, -0.6201172, 0.9345703, -0.91503906, 1.0263672, 1.5800781, 0.12866211, -1.5693359, 0.44018555, -0.4675293, 0.8076172, -1.9375, -1.2265625, -0.22106934, 0.34716797, -0.1875, -0.9404297, 1.34375, -0.1194458, 1.578125, -1.1855469, -0.13000488, -1.1044922, 1.0039062, 0.35668945, -1.453125, -1.2744141, 1.4560547, 0.9189453, -0.46240234, -1.0605469, -2.5273438, 0.53808594, 1.7373047, 1.1044922, -0.9248047, -0.109375, -1.2197266, -1.3330078, 1.0908203, -1.515625, -0.31591797, -1.4121094, -0.6035156, 0.19665527, 0.9819336, 2.3164062, -0.7192383, 0.35864258, -1.2949219, 0.26953125, 1.0703125, 0.16577148, -1.4082031, -2.5625, -1.0410156, 2.0214844, 2.4082031, 0.90771484, -1.1435547, 0.5180664, 0.15795898, 0.12609863, -1.3447266, -1.3154297, 1.3837891, 0.18493652, -0.98291016, 0.93896484, -1.3857422, -0.56347656, -1.4042969, 2.1113281, -1.4042969, 1.4824219, 0.51220703, 0.875, 0.0058670044, 0.24023438, -0.049468994, -1.4306641, -2.5742188, -3.03125, -0.28271484, 0.39038086, 0.52734375, 1.8359375, -2.65625, -0.009437561, 1.1171875, -1.9316406, -0.5366211, 0.86035156, 1.4394531, -0.83203125, 2.9101562, -2.4609375, 1.03125, 0.26049805, -0.7734375, 1.7421875, 1.1816406, 1.3925781, 1.2597656, -0.76708984, -1.1328125, -1.0341797, 0.7553711, -0.05819702, -2.2480469, -0.86328125, -3.0878906, 2.1289062, -1.0078125, 0.73046875, -0.19372559, 1.0917969, 1.0253906, -0.26367188, -1.1494141, -1.6982422, 0.28320312, -0.06945801, -1.6298828, -1.0126953, 0.52490234, 1.0107422, -1.4833984, 0.44067383, -1.5556641, -1.0917969, -1.7685547, -0.59716797, 2.765625, 0.90478516, -1.7236328, -0.14282227, 0.13635254, 0.50146484, 0.6982422, 2.8222656, -1.1513672, 1.5996094, 0.9897461, -1.0986328, 1.6201172, 1.5478516, -6.1132812, 1.9589844, 1.2402344, 0.7626953, -0.31982422, -0.52441406, 0.79003906, -3.3808594, 1.5605469, 3.53125, -0.8876953, 1.3378906, -1.8125, -1.5214844, 0.08630371, -0.95947266, 1.8095703, -3.0527344, 1.296875, 0.93896484, -1.1894531, 1.2841797, 0.37548828, -0.91503906, 0.5097656, 1.1884766, -1.9980469, 1.6933594, -0.59228516, -1.5605469, 2.8046875, -1.6455078, -2.6367188, 1.609375, -1.7441406, 0.10119629, 0.86083984, -0.91552734, 0.32226562, -0.8466797, -0.22583008, -1.5419922, 0.050231934, -0.6435547, -0.828125, 1.6328125, -1.53125, 0.45898438, 0.14257812, -0.52001953, 0.21069336, 1.0839844, 2.1621094, 1.1660156, 0.10449219, -1.7363281, 0.734375, 1.9873047, -4.4804688, -0.44335938, 0.6308594, -2.15625, -0.08026123, -0.5654297, 1.2324219, -1.9628906, 1.1347656, 1.9941406, -1.2050781, -0.29516602, 0.3149414, 1.0878906, 0.59375, -2.6152344, 2.4804688, 0.5732422, 0.20727539, -1.1923828, -0.68066406, -0.88671875, -1.2353516, -0.87890625, 2.515625, 0.11279297, 0.13891602, 1.5390625, -1.8125, 1.0244141, -4.5078125, 1.4667969, 2.3378906, -0.22692871, 1.1738281, -0.7109375, 2.3632812, -1.796875, 0.82958984, -2.1445312, -0.15600586, 1.9707031, 0.3647461, -1.1552734, -0.8798828, -1.1269531, -0.828125, -0.99609375, 0.15368652, -1.9433594, -0.14038086, 1.9707031, 1.3857422, -1.0214844, -1.2314453, 0.45361328, -2.7304688, -1.0410156, 2.3632812, -1.4316406, 0.40576172, 1.5595703, -2.4921875, -0.88916016, 0.45654297, -0.19152832, 0.40698242, -0.8466797, 0.07196045, -1.7158203, -3.9257812, -0.6040039, -0.66308594, -0.546875, -1.4130859, 0.2915039, -0.5917969, -1.6113281, 3.765625, 1.3808594, 0.31103516, -1.1064453, -0.15722656, -1.0126953, -1.0722656, 0.5107422, -0.69433594, -2.3417969, 0.6870117, 0.058685303, -2.1054688, 1.5673828, -0.3881836, 1.2382812, -0.62353516, 2.40625, 0.13952637, 1.0458984, 0.014259338, 0.45947266, 1.6982422, -0.6689453, -1.7939453, 1.7841797, -1.4785156, -0.17211914, 0.14758301, -0.53759766, 0.66308594, -1.7294922, 1.8125, 0.09509277, 2.7558594, 1.4111328, -1.4785156, -0.5439453, 1.6542969, 0.6064453, -2.7050781, -0.18444824, -0.5698242, 0.07562256, -2.6464844, 0.22399902, -0.1418457, -2.0664062, 2.4746094, -1.7705078, -1.2480469, 0.9560547, -1.2714844, 1.5761719, -0.51464844, 1.6621094, 0.5541992, -3.2597656, -0.093811035, 0.57714844, 0.40625, -0.21557617, 1.2558594, 0.043304443, -0.40551758, 1.1113281, 0.89941406, 0.07019043, -1.1855469, 3.1757812, -0.76220703, 1.4160156, 0.04849243, 1.1152344, -2.5664062, 1.2304688, 0.49291992, -0.92089844, 0.96484375, -1.6425781, -1.5546875, -1.6269531, -0.91259766, -4.390625, 1.34375, 1.0820312, 0.7324219, -0.9951172, 1.7402344, 0.875, 0.6455078, -0.11828613, 0.9663086, 0.5966797, 0.421875, -0.7270508, -0.27807617, 1.0058594, 5.53125, -0.06524658, 0.3605957, 2.2050781, 1.9658203, -0.49145508, -0.029449463, 1.1992188, 1.1386719, -0.09588623, 0.22912598, -0.72265625, 0.1418457, 1.7236328, -0.50683594, 1.9394531, 0.71240234, -1.25, -0.25585938, -1.4736328, -0.890625, 1.3300781, -1.625, -0.38085938, 1.8828125, 1.1621094, 0.45825195, 0.39013672, -0.71191406, -1.3574219, -0.83740234, -1.5644531, -1.5488281, 3.5429688, -2.359375, -0.059326172, 2.0332031, 1.0478516, 2.4882812, -0.55566406, -2.1914062, -0.7114258, -1.0576172, -0.69628906, -1.0292969, 0.2265625, -2.4609375, 1.2119141, 1.5214844, -0.7314453, -0.45166016, 0.48828125, -0.17504883, 0.92333984, -0.59228516, 0.28466797, -1.6621094, 0.3774414, 0.008934021, 0.50097656, 0.08477783, -0.7470703, -2.4335938, -2.7753906, -0.30639648, -0.09667969, 0.17272949, 1.6328125, 0.76464844, -2.0351562, -1.4042969, -0.859375, 2.8554688, -1.9746094, -3.0078125, -1.2529297, 3.1621094, 0.76660156, 1.0136719, 0.74121094, -1.1572266, 0.42578125, 0.22521973, 2.3320312, 0.52197266, 0.17358398, -1.40625, 1.5, -0.6010742, 0.05606079, -1.0976562, -0.15112305, 0.6796875, 0.14538574, -1.9511719, 1.6328125, 0.29736328, -0.20507812, 2.7597656, -1.359375, 0.8701172, -0.984375, 1.4414062, 0.8227539, -0.96875, 3.2773438, 0.71777344, -0.66503906, 0.63427734, 0.95703125, 2.9453125, -1.9091797, 0.9350586, 0.06347656, -0.48950195, 1.6064453, 0.8515625, -0.6977539, -0.93359375, 2.1054688, -0.13110352, -1.9589844, -0.8154297, -1.0722656, -0.96240234, -1.2285156, 1.8652344, 1.2919922, -0.70703125, 2.0976562, 1.2099609, -2.21875, 0.19787598, -1.2167969, -0.75439453, -3.328125, 1.0498047, -0.87646484, -2.5410156, -0.7861328, 1.9638672, 0.84765625, 0.40942383, 2.75, -0.86865234, -0.89208984, -1.3330078, 0.38085938, -0.29052734, -2.8789062, 0.88134766, 0.45776367, -0.32543945, 0.7338867, -2.5058594, -1.6347656, 0.3413086, 1.2138672, -0.1418457, -0.75878906, -0.19348145, -1.3007812, 0.43945312, -1.0751953, 1.0722656, 0.17797852, 0.14770508, 1.1142578, -0.2175293, 0.11340332, -0.484375, -0.8383789, 2.5390625, -0.31982422, 2.5664062, -0.5522461, -0.57958984, 1.0712891, -0.15454102, 0.8486328, -0.3803711, -2.0253906, 0.70996094, -2.0351562, 0.9736328, 1.4492188, 0.23608398, -2.6816406, 1.2265625, 0.9267578, -0.28051758, -0.19763184, 1.4003906, -0.7036133, 0.85058594, -0.68115234, 0.6088867, -0.064086914, -1.2128906, 1.2558594, 0.9165039, 0.31054688, -0.07067871, -2.6601562, -0.40625, -0.5371094, -1.0957031, -1.2675781, 1.984375, -0.36206055, 0.6591797, -0.10803223, 1.9980469, 2.0546875, 1.9160156, -0.55810547, 1.4042969, 0.30297852, -0.21313477, -0.85302734, 0.79296875, 0.051849365, 0.032043457, 0.33203125, 2.4980469, 1.0410156, -2.2363281, 1.8779297, 0.5444336, 1.6982422, 0.7294922, 0.27246094, -0.95410156, -1.7441406, -0.010154724, -0.44384766, 1.8125, -0.62402344, -1.6425781, -1.4980469, 0.2758789, 1.265625, 0.11114502, 0.4272461, 1.0097656, -1.0371094, -1.4824219, -2.3632812, -0.6669922, -0.15942383, 0.109191895, 0.6455078, 3.765625, 3.0585938, -0.75683594, 1.140625, 0.0011720657, -0.33520508, 1.8955078, -0.7939453, 1.2783203, 1.0371094, 1.7783203, -0.31640625, -1.6171875, 1.7324219, 0.7089844, -0.20837402, 0.38208008, -2.4335938, -0.99316406, 1.6220703, -0.44213867, 1.0449219, 1.78125, 1.2871094, -2.3359375, -0.9638672, -0.01953125, 1.3886719, 1.7763672, -0.21350098, -1.984375, -0.5449219, 2.7441406, -0.041015625, 0.44995117, 0.6430664, 0.5498047, -1.140625, -0.39916992, -1.2871094, -0.7324219, 1.9902344, -0.3774414, 1.5966797, -0.4975586, 0.32080078, -0.3852539, -2.40625, -0.40283203, -0.9296875, 3.2460938, -1.8232422, -0.8330078, -1.5947266, -3, 0.8334961, -3.5527344, 0.3959961, -1.7988281, -0.11193848, -1.0546875, 1.1220703, -1.6640625, 2.0742188, 1.0175781, 0.9501953, 0.97753906, 1.3828125, 1.1552734, 0.75878906, -0.6308594, 0.73535156, -1.0136719, 1.2080078, -0.117004395, 0.020904541, -0.83203125, -0.8828125, -1.8183594, -0.51660156, 0.31884766, 0.48364258, 0.83447266, 0.1418457, 2.2070312, -0.24291992, -0.30639648, 0.12756348, 0.17114258, 2.8027344, -0.67089844, 1.359375, 0.92333984, 1.8691406, -0.8857422, -0.03652954, 0.76660156, 1.7998047, -1.4033203, 0.056732178, 0.20678711, 0.9013672, -0.5913086, -0.16601562, 1.6513672, 0.8408203, 1.875, -0.47509766, -1.6152344, 1.6308594, 0.4663086, 0.63916016, -1.7734375, 0.40283203, 0.34814453, -0.4375, -1.0634766, 0.1616211, -2.8222656, 0.9638672, -1.0839844, -1.0019531, -1.703125, 0.43237305, -1.0332031, 1.4677734, -2.6640625, 0.21020508, 0.042663574, 0.35791016, 1.2099609, -0.96484375, -1.2451172, 0.75097656, 2.1835938, 0.9819336, 1.5507812, -0.2590332, -1.7783203, 2.2539062, -1.1113281, 0.42626953, -0.4086914, 0.17297363, 1.4082031, -1.1669922, 0.8359375, -0.077819824, -0.03451538, 0.61328125, -0.96240234, -0.2932129, -2.2304688, 0.41870117, 0.74902344, -1.0390625, -0.66308594, 0.46557617, -2.5820312, -1.3994141, 0.04071045, -0.8232422, 0.28149414, 1.3613281, -1.7480469, 0.72509766, -2.3964844, 0.6845703, -1.5380859, 4.3203125, -2.6132812, -1.0058594, -1.5136719, -1.0136719, 1.78125, -1.3613281, 0.92089844, -0.16564941, 2.1308594, -1.4707031, 0.81640625, -0.88134766, 1.1083984, -1.375, -0.10217285, 2.8203125, 1.7558594, 1.7626953, 0.5527344, -1.8310547, 1.2470703, 1.4033203, 0.037994385, 1.1533203, 0.07232666, -0.45117188, 1.5097656, -1.6855469, -2.4648438, 0.6669922, -1.25, 1.2265625, -1.0742188, -0.27197266, 0.9399414, -0.8359375, 1.1542969, -0.8359375, -0.80566406, -0.025115967, 1.6748047, 0.6323242, 0.5576172, 0.4296875, -3.0957031, -0.42822266, 1.6298828, -2.1835938, -0.47265625, 0.61621094, -1.2167969, -1.4130859, -0.8232422, -1.5078125, -1.8222656, 1.3193359, 2.1054688, 0.14196777, 4.984375, 1.4042969, 0.21606445, 0.2915039, 0.22631836, 0.12683105, 1.5273438, 0.22692871, -1.4873047, 0.7084961, 0.9326172, 1.1621094, -0.17211914, 0.5541992, -1.2802734, 0.35107422, 1.3183594, 1.9033203, 1.0546875, 2.1914062, 1.0458984, 0.6328125, -1.875, 1.1650391, 8.4375, 0.37695312, -0.99365234, 2.0507812, 1.9873047, -0.9560547, 2.4042969, -1.1660156, 1.6455078, 1.8261719, 0.5180664, 1.8105469, -0.35229492, -2.1035156, 1.234375, -2.8125, 0.25830078, -1.734375, -0.4819336, 1.3515625, -0.88671875, 0.5942383, 0.42504883, -0.07910156, -2.4960938, -0.67871094, 0.60839844, -0.40356445, 1.8154297, -0.25708008, 1.0673828, 1.5644531, -0.035461426, 0.18041992, -0.10821533, 0.20275879, 1.5761719, -0.76220703, -0.21264648, 1.9082031, -1.3808594, 1.5761719, -4.0820312, 1.1982422, 1.9951172, -0.37548828, 0.31103516, -0.68896484, -0.41845703, 2.6914062, -2.4257812, -0.6171875, 0.4243164, 3.09375, 0.7026367, 0.15209961, 1.1904297, -1.1181641, -0.22680664, -0.2388916, 0.15478516, -1.4130859, -1.1982422, 0.9711914, -2.1210938, -0.48486328, -1.7480469, 0.48046875, -0.015235901, 2.3457031, 1.2626953, 0.47265625, 1.1660156, -1.1894531, 0.5961914, 0.7392578, -0.037506104, 1.4873047, -1.8876953, 0.7944336, 1.1220703, -0.2076416, 0.100097656, -3.234375, -0.67578125, -0.13415527, 1.2773438, -0.79589844, -0.16552734, 1.3183594, 0.34033203, 0.015625, 0.08093262, 0.6303711, -1.5722656, -0.51464844, 1.2519531, 0.2746582, -0.3725586, -0.21057129, -0.47387695, -0.043518066, -2.0546875, -2.0683594, 1.0673828, -0.92822266, 2.0429688, 0.32373047, 2.1640625, 0.9423828, 1.8613281, 0.4975586, -1.7158203, -1.6328125, 2.7382812, -3.1914062, 0.7314453, -1.0917969, -2.0820312, -0.9975586, 2.3515625, 1.359375, 0.70996094, 1.7578125, -1.6152344, 1.8564453, -0.064086914, 0.7949219, 1.8486328, 0.85302734, 0.36328125, -0.7919922, -0.40478516, -1.1367188, -0.09259033, -1.0253906, 0.7138672, -0.32641602, 1.1308594, 0.27001953, -1.7001953, 1.2285156, -0.039367676, -0.83496094, -1.4326172, -1.3486328, 0.83691406, -0.8935547, -0.7158203, -1.3076172, -0.97265625, -0.16809082, 0.20996094, 1.3847656, 0.77783203, -1.6660156, 1.3535156, -1.0126953, 0.36206055, 1.4902344, -0.32666016, -0.1227417, 0.025878906, -1.2207031, 1.6220703, 1.1181641, 0.04940796, -0.2553711, -1.3417969, -0.3244629, 0.9189453, 0.52490234, -0.70214844, 1.8261719, -0.04711914, -0.96728516, 9.763241e-05, -0.9296875, -0.25561523, -0.06112671, 0.21057129, 0.95996094, 0.5751953, 0.3815918, -2.7617188, -0.63671875, 2.0625, 0.19921875, -0.56396484, 1.9628906, 1.2949219, 0.47583008, -0.15063477, -1.0439453, 1.2880859, 2.8339844, -0.48046875, -1.9375, 2.6640625, -1.0878906, -0.22973633, 0.111694336, 0.49926758, -0.04168701, -1.6376953, -1.3662109, 1.5263672, 0.8173828, -0.97753906, 0.6347656, -0.41210938, -0.21716309, 0.00034189224, -1.0742188, 1.0488281, 1.6152344, 0.85791016, -1.3017578, -0.5722656, 3.2089844, -1.4121094, -0.0146484375, 1.4042969, 3.1132812, 0.30615234, 1.03125, 1.0107422, -1.8066406, -0.5595703, -2.1210938, -0.091552734, 0.9736328, 2.9179688, -0.5830078, 0.97021484, -2.0429688, 1.1347656, -0.12731934, 0.98583984, -1.1523438, 0.75683594, 0.099121094, 2.3710938, -0.53271484, -0.22033691, 1.6503906, 0.6923828, -0.9194336, 0.21057129, 1.0195312, 0.5361328, 1.2929688, -1.1347656, -0.34814453, -1.9501953, 2.2988281, -1.0947266, -0.31591797, -3.0644531, -0.53027344, -0.004589081, -4.2070312, 1.0683594, -1.9111328, 1.5810547, -0.024124146, -1.8378906, -2.5820312, -0.84228516, -1.2470703, -0.10241699, -2.1875, -1.0888672, -0.21411133, 0.6933594, 2.1738281, 0.041412354, 1.1064453, 1.1875, 0.75927734, -4.0898438, -0.046722412, 0.7158203, 2.4082031, 1.3642578, -1.3408203, 0.9243164, -1.6796875, 0.23901367, -0.75146484, -0.48486328, -1.1542969, 0.48168945, -0.31762695, -0.4868164, 1.6376953, -0.19372559, 0.5991211, 0.8779297, 1.5449219, -1.1035156, -0.48779297, 0.83740234, -2.1054688, 0.71728516, 0.47607422, -0.19628906, -1.4238281, -2.9726562, -3.4316406, 0.20056152, -0.97802734, 0.67089844, -0.14233398, -0.41552734, 0.14208984, 0.34472656, -1.4121094, 2.1523438, -0.28466797, 2.4726562, -0.8334961, 1.4726562, 1.7548828, 1.6845703, 0.76708984, -1.0332031, -1.1728516, -0.19006348, 1.3691406, -2.5839844, -2.3476562, 0.34423828, 1.5341797, 1.1503906, -1.4775391, -1.0029297, -0.7651367, 0.5439453, 0.4140625, -1.4824219, 0.67626953, 0.34301758, -0.10192871, 1.4082031, 0.81152344, -0.12121582, -0.60498047, 1.5986328, 0.15100098, -0.097839355, 4.265625, 1.7001953, 2.4726562, -0.1965332, -1.3808594, 0.8046875, 0.13842773, -2.6269531, -0.27270508, -0.23950195, 0.16503906, 2.96875, -1.9667969, -2.1171875, -0.70654297, -0.103881836, -0.54003906, -2.0136719, 1.2949219, 1.7636719, 1.6816406, -0.578125, -0.5107422, -1.1298828, -1.6748047, -2.4238281, 0.14428711, 0.69091797, -3.1777344, 2.671875, 0.10949707, 3.2753906, 2.1289062, 1.1123047, 1.2636719, 0.43041992, 0.6196289, -0.9609375, 0.33911133, -2.46875, -1.1152344, -0.85546875, -1.25, -3.1328125, -2.1132812, -2.2617188, 0.103027344, 0.17541504, 1.9511719, 0.58691406, -1.0566406, -1.921875, -0.68359375, -0.4152832, -0.67089844, -0.67333984, 1.6044922, -0.28808594, -1.6064453, 0.96875, -0.67578125, -1.8857422, -0.34887695, -0.101257324, 1.0478516, -1.6171875, 0.47143555, 2.5605469, 0.22143555, -1.8183594, -0.18811035, -2.4589844, 1.6923828, 0.5493164, 3.09375, 0.2607422, -1.3642578, 3.4472656, -0.32861328, 0.35473633, 3.2226562, 0.19714355, 0.032958984, -0.7133789, -1.5361328, 0.82421875, -1.0097656, 0.703125, 0.26660156, -0.044281006, -1.703125, 0.054779053, 0.60791016, -0.49853516, 0.2388916, -2.609375, 0.74316406, -0.64160156, -0.99609375, -0.22692871, 0.33081055, -0.062683105, 0.73828125, -0.7973633, -0.5571289, -0.828125, 1.0625, -2.8007812, -0.2602539, 2.1074219, -1.3828125, 1.3261719, 1.1171875, -0.92822266, -0.5654297, 1.5078125, -1.8066406, -0.7890625, -0.7998047, -0.55566406, 3.3222656, -0.8203125, 0.33544922, -1.2753906, 0.6142578, -0.36279297, -2.6953125, 0.6665039, -3.4316406, -0.7319336, -0.4399414, 0.98339844, -0.31274414, 2.1386719, 1.0488281, 1.2011719, 2.7246094, 3.171875, 0.32958984, -1.8154297, -0.48950195, 1.2001953, -0.51953125, -1.1503906, 1.8330078, 0.6665039, 0.051361084, -1.2050781, 0.12286377, -0.56347656, 1.3886719, 2.4589844, -0.69140625, 2.1679688, 2.4785156, -0.07019043, 1.0175781, 2.2148438, -0.9169922, -0.5678711, 0.37451172, -0.30371094, -2.2929688, -1.78125, -0.68066406, -1.0791016, 2.5117188, 1.4902344, -2.8105469, 0.8310547, 0.4633789, 2.0273438, -0.46533203, -1.3095703, 0.95166016, 1.0712891, 1.2763672, 1.0527344, 0.67089844, 0.3984375, -3.2070312, 0.8540039, 0.9921875, -1.53125, 2.6152344, 0.019042969, -0.1842041, 0.20544434, 1.1455078, 0.1628418, 2.2929688, 2.234375, 0.4543457, -0.7026367, 1.4882812, -0.83447266, 1.0849609, -0.7553711, -2.4785156, -1.9160156, 0.13415527, 0.5498047, 1.5292969, 0.8701172, -2.0039062, 0.28320312, -2.4726562, 0.101867676, 0.25512695, -1.015625, -0.8388672, -0.6298828, 2.0058594, -1.6933594, 1.4296875, -1.1816406, -0.5209961, 0.5439453, 1.0615234, -1.2285156, 1.6035156, 0.2553711, 0.8544922, -2.8671875, 3.3378906, 0.7416992, -0.2878418, -0.06561279, 0.86572266, 1.0820312, -0.4711914, 0.29223633, 1.0097656, -0.3474121, -1.0361328, 2.0566406, -0.48095703, -0.08581543, -4.0625, -0.18933105, -0.8955078, -2.4160156, -2.390625, 1.6933594, -3.4628906, 0.10632324, 0.70410156, -1.6894531, 0.85009766, -0.23010254, -0.103515625, 1.8564453, -2.0390625, -0.4140625, -1.3183594, 1.6464844, -0.37939453, -1.8300781, -0.89208984, 2.2304688, 1.7167969, -0.95214844, -0.058776855, -0.6777344, -1.5654297, -0.34326172, 2.8769531, -0.41015625, -1.5419922, -0.32983398, -0.21704102, -1.7089844, -0.79248047, 1.71875, 0.29052734, 0.42333984, 0.20043945, 1.1357422, 1.734375, 3.90625, -1.1962891, 0.43164062, -0.09643555, -1.03125, -1.3583984, 0.42578125, -0.6616211, 1.0917969, -0.09942627, 2.4609375, 0.38671875, -1.0537109, 0.59521484, 0.30664062, -1.5488281, 0.08087158, 0.017608643, 4.46875, -1.2919922, -0.26000977, 0.06262207, -0.90234375, -1.4638672, -1.0566406, 1.9277344, 0.8984375, 0.90478516, 0.38232422, -1.3847656, 1.1640625, 1.0869141, 0.95996094, 1.8779297, -2.4472656, -0.033203125, 4.5039062, 0.8486328, -0.56347656, -2.125, -1.0625, -1.2802734, 0.25439453, 0.07647705, -0.08996582, -1.5458984, -0.06311035, 0.91015625, -0.45654297, -0.08337402, -1.6425781, 4.3007812, 0.61083984, 1.40625, -1.7714844, -2.0371094, -0.7290039, -2.1933594, -1.8720703, -0.17370605, -1.1494141, -1.8623047, -0.99072266, -3.8242188, -0.7871094, -0.5883789, 1.9423828, 0.5703125, 1.4013672, -0.46020508, -1.3925781, -0.3034668, 0.46679688, -3.890625, 1.6328125, 1.2929688, 0.08520508, -0.30566406, 1.7451172, -0.27416992, -0.34936523, 0.421875, -2.4355469, -2.7460938, -1.7441406, -0.5126953, 2.5019531, 1.8300781, 0.5629883, -0.42895508, -1.6425781, -1.8564453, -0.19165039, -0.6928711, 3.1835938, 1.8183594, 0.20666504, 0.80566406, 1.7910156, 0.17919922, 0.68066406, -0.7680664, -0.7392578, 0.52978516, -0.40429688, -0.79052734, -1.3339844, 1.1503906, -0.74902344, 4.3046875, -1.0458984, -1.8496094, 0.027633667, -0.75683594, 1.2480469, 1.3017578, 0.4086914, 1.7529297, -0.21289062, -0.07409668, 0.3737793, -1.7294922, 0.55859375, -0.21057129, -0.19689941, -0.46044922, 3.9414062, -2.7851562, 4.234375, -1.2666016, -3.6679688, -2.3945312, 0.2434082, -0.7729492, -1.2246094, 0.08496094, -0.68847656, -1.8125, -0.9658203, -3.0839844, 0.17834473, 0.23461914, -2.2070312, -0.18127441, 0.22241211, -0.69970703, 0.88916016, -0.5493164, 0.6074219, -1.0087891, -0.36621094, 1.9404297, 0.05429077, 0.4741211, -1.3632812, 2.2441406, 1.4404297, -2.4453125, 1.9658203, -0.85302734, -0.08831787, -2.0664062, -1.0654297, -0.92822266, 0.71972656, -0.8095703, 0.53271484, 0.19091797, -3.7539062, 0.26245117, 0.28027344, 1.9765625, 0.9736328, 0.7944336, 1.7001953, 0.6508789, -2.640625, 1.2529297, -0.67822266, -1.1503906, 0.24645996, 0.4777832, 1.6035156, 1.7246094, 1.1835938, -0.56103516, 1.4853516, -0.82421875, 0.45043945, 1.7910156, 0.1965332, -0.66845703, -3.0332031, -0.14709473, -1.8652344, 1.4628906, -2.9101562, 0.13842773, -0.015548706, -1.2861328, -0.24316406, -1.7558594, -0.88671875, 0.57470703, -1.2519531, 2.1113281, 1.1347656, 1.1308594, 1.9980469, 0.47998047, 1.5888672, 2.953125, 1.5800781, 3.0488281, 0.8227539, -1.5605469, -1.5068359, -0.703125, -0.3557129, -1.71875, -0.9658203, 0.84228516, -0.007423401, 3.1992188, 1.0722656, 0.98339844, -0.8173828, -0.6044922, 0.15405273, 0.5883789, -1.671875, 0.92041016, -1.0087891, 2.2988281, -3.2226562, -0.8618164, 0.89208984, 0.5751953, -2.1464844, 2.5078125, 0.62890625, 1.5361328, 2.421875, -2.5898438, 1.1005859, -1.1484375, -0.022872925, -1.8808594, 0.8173828, 2.7929688, 0.6645508, 0.24047852, 2.5449219, -0.30981445, 1.2011719, 1.5263672, 0.81347656, -0.7080078, 1.734375, -0.5341797, 2.7460938, -0.31396484, -0.8828125, -1.3798828, -1.7919922, 1.2373047, -2.3867188, -0.23803711, -1.5859375, 0.6660156, 0.42236328, -3.2402344, -2.0039062, -0.8022461, 1.1542969, -2.2851562, 1.5449219, -0.85302734, 0.5366211, 1.7216797, 0.19946289, -3.3222656, -1.1972656, 0.29760742, -0.46923828, -0.02583313, -1.4052734, 1.0517578, -1.8222656, -0.43017578, -2.4101562, 1.3330078, -1.1552734, 2.8925781, -0.6328125, -1.5, 0.34423828, 3.71875, 0.7373047, -2.1386719, 0.25610352, -0.27807617, 1.9345703, -1.3271484, -0.2565918, 0.59472656, 0.14001465, -1.2285156, 1.5517578, 1.3027344, -0.9921875, 0.45361328, -0.7734375, -0.7944336, 1.5908203, 2.7910156, 1.2949219, 1.2861328, -0.031051636, 0.15991211, -0.005958557, 0.48168945, 1.6328125, 1.2578125, 2.2089844, -0.64208984, -0.008834839, -2.8710938, 1.0664062, 1.84375, 0.1776123, -0.91552734, 0.20739746, -0.5834961, -1.7421875, 1.0742188, 1.53125, -0.8203125, -0.9658203, -0.6074219, 0.30444336, -1.5517578, -2.8554688, 0.1430664, -0.17834473, -2.3007812, 1.3730469, -0.7216797, -0.95947266, -0.35668945, 0.5078125, 0.6425781, 1.2158203, 0.91552734, -1.6875, -0.36083984, -1.2578125, 1.1074219, -2.0566406, -0.69921875, -0.16894531, 0.1595459, 0.33666992, -1.8876953, -0.32836914, 0.8076172, 2.3183594, -1.5029297, 0.6069336, 0.1373291, -0.08337402, -0.6171875, -1.6279297, -1.0107422, 0.39038086, 0.70410156, -0.49536133, 1.84375, -1.0634766, -0.49682617, 0.038269043, -0.5024414, -0.19458008, -1.2246094, -0.21520996, 3.2558594, -1.4394531, -1.2841797, 0.99853516, -1.9033203, 1.2402344, 2.3183594, 0.59472656, -0.13586426, -0.43603516, 1.6142578, 0.26660156, 0.043701172, 2.0566406, -1.8623047, -0.25927734, -0.20349121, 0.14416504, -0.9091797, -0.76708984, 0.2631836, 1.3203125, -0.044677734, 1.8535156, -0.45385742, -1.9589844, 1.0292969, 0.30908203, 1.4472656, -1.2617188, 1.3574219, 0.83740234, -0.6220703, -0.10900879, 0.09039307, -0.7084961, -0.5751953, -0.27368164, 0.57177734, -0.57910156, 0.85302734, -2.0039062, -0.37451172, 0.13024902, -0.40478516, 1.7246094, 0.61035156, -1.1826172, 1.390625, 3.3945312, -1.9921875, -1.4580078, -0.3918457, -3.1289062, -2.1269531, -2.7402344, -2.7109375, 2.1621094, -0.34936523, -1.2207031, -2.0214844, -1.78125, -0.40234375, -0.875, -0.33740234, 0.6855469, 1.9707031, 1.3779297, 0.80371094, 2.7050781, -2.1347656, 1.9814453, 2.1582031, 0.7270508, -0.5449219, 0.40893555, 0.7866211, 2.9042969, 0.077941895, 0.60253906, -0.67822266, 2.3554688, -0.5756836, -0.12817383, -0.43823242, -1.8876953, -0.74072266, 0.5097656, 0.25732422, -0.32202148, 0.47998047, -0.93652344, 0.47729492, 1.3105469, -0.086120605, 3.0371094, -0.3046875, -0.30078125, -0.5859375, 0.5908203, 1.296875, -2.6875, 0.7055664, -0.77197266, -1.3574219, -0.6328125, -0.8256836, -0.6191406, -0.51123047, -0.5385742, -0.93652344, -2.5117188, -1.0751953, -2.3613281, -0.64990234, 0.41479492, -3.359375, -2.1445312, 0.24780273, 1.5996094, -1.8984375, 1.0712891, -0.87646484, -1.8378906, 1.9423828, 1.7871094, -1.0683594, -0.578125, -1.1582031, -1.2363281, 0.3881836, 1.03125, -2.5585938, 0.19750977, 0.11621094, 0.6196289, 0.4387207, 0.25708008, -0.42041016, 0.24438477, -0.5205078, -0.61572266, 0.4868164, -0.25854492, 1.109375, 0.99853516, -0.42114258, -0.72265625, -0.7919922, -0.6357422, -0.23376465, -0.96972656, 1.4042969, -1.2480469, -0.95996094, 0.09320068, -0.9477539, 0.7314453, 0.2298584, 1.4042969, 1.4902344, -0.65234375, -1.90625, 0.52490234, -0.07800293, 0.5678711, -0.890625, 3.0117188, -0.73095703, -0.5185547, 0.5776367, 0.52246094, 0.07550049, -2.1523438, 0.68408203, -1.3681641, 1.0527344, 1.1074219, -2.4980469, -4.8359375, 2.0390625, -1.2851562, 1.1796875, 1.0419922, -0.60058594, -1.3789062, 0.9091797, 1.109375, 1.5517578, 1.9560547, 1.2373047, 0.29418945, -0.12731934, 1.5341797, -1.1542969, -0.7265625, 1.5253906, -0.039733887, 1.4804688, -1.1777344, 0.59033203, 1.7265625, -0.29858398, 0.29663086, -1.0195312, 0.5888672, -0.91259766, 1.1191406, 2.1074219, 0.1373291, -0.64453125, -2.1582031, 1.3242188, 0.56396484, -0.4165039, 1.6220703, -0.80371094, 1.6542969, -1.1308594, -0.96240234, 0.95458984, 0.4399414, 1.0859375, -0.17541504, -0.24938965, -0.31420898, 0.3347168, 1.1855469, -0.6435547, -1.5625, -1.0439453, -1.1669922, -0.8540039, 1.53125, 0.58496094, 1.859375, 0.12402344, -0.5, -1.90625, -2.109375, -1.1171875, -0.026947021, 0.26367188, -4.875, 1.4277344, -2.109375, 1.4160156, -0.5263672, -1.0791016, 1.0058594, 1.1035156, 0.8017578, -2.2851562, 0.46435547, 0.3774414, -2.171875, 3.1464844, 1.09375, 1.3330078, -1.3642578, -0.5175781, 1.3183594, 1.5185547, -3.0273438, -0.6796875, -1.2529297, -0.44482422, 3.3691406, -0.39697266, 0.23608398, -0.31225586, 1.0947266, -1.0107422, -0.5830078, 0.35302734, -2.7988281, -0.3774414, -0.71972656, 1.2431641, 3.0039062, 1.6386719, 1.3056641, 1.9628906, -0.5644531, 0.9091797, 0.50097656, 0.103149414, -0.05429077, 0.94921875, 0.96191406, -2.7695312, 0.28881836, 0.73339844, 1.9824219, 1.7792969, -0.8935547, 0.041015625, -0.023635864, 0.26416016, -1.2802734, 0.6669922, 0.8720703, 0.2421875, 1.7626953, 1.2167969, -2.2539062, -1.3574219, 2.1621094, -0.9375, -1.8300781, 1.28125, -0.90527344, 1.0615234, -3.2128906, -0.93652344, -0.96484375, 0.9345703, -2.96875, 2.3652344, -0.26953125, -1.7988281, 1.046875, -0.29833984, -0.022491455, -0.4584961, 0.17553711, -2.171875, -1.2626953, 2.5585938, 1.6464844, -1.0283203, 0.6791992, 0.85839844, -1.15625, -0.23571777, 0.6381836, 2.0351562, 2.4492188, -1.6777344, 0.48291016, 0.8701172, -0.9716797, -2.8164062, 2.1425781, 0.34057617, -1.3427734, 0.42114258, -0.38867188, -1.5957031, 1.25, 0.22363281, 3.3164062, -1.2929688, 0.13537598, 0.08282471, -1.2919922, -2.2304688, -0.58154297, -1.0332031, 0.3684082, 0.453125, 1.2236328, 0.9194336, 1.0439453, 0.56396484, 0.2199707, -0.89990234, 1.0888672, -0.18139648, 0.27392578, 1.1054688, 0.32958984, 2.9238281, 1.0732422, 1.4775391, -0.08984375, -1.6669922, -1.6035156, -0.9267578, 1.0224609, 0.7216797, 1.4580078, -1.4160156, -0.66796875, -3.1835938, -0.07458496, 0.4465332, -1.7519531, 0.8330078, -0.83203125, -3.1933594, -1.5419922, -0.3647461, -0.5083008, -0.107055664, -0.3737793, -2.2226562, -0.25170898, -1.0927734, 2.3242188, -2.0839844, 0.46728516, 2.3476562, -2.359375, -2.0351562, -2.2832031, -1.0195312, 0.4008789, 0.018066406, 0.35205078, 1.27</t>
-  </si>
-  <si>
-    <t>[-0.0597229, -0.71972656, 0.80810547, -0.49902344, -1.4541016, -0.61376953, 0.25878906, 0.47607422, 1.7871094, 0.53564453, 0.69091797, -0.44580078, -0.17004395, 1.0507812, -0.61035156, 0.80371094, 1.6640625, -1.3173828, 0.103271484, 0.6069336, -1.2753906, 0.7416992, 0.41625977, -1.2158203, -1.2246094, 1.8623047, 0.85546875, 0.62402344, 1.0634766, -2.0585938, 0.5385742, 2.3183594, -0.734375, 1.8339844, 1.5605469, 0.35009766, -0.7001953, -1.0654297, 2.4609375, -0.5595703, 1.7998047, 0.625, 1.3427734, 0.56689453, 1.1689453, 0.68408203, -1.78125, -0.43579102, 0.26660156, 1.1132812, 2.5585938, 0.9555664, -2.9472656, 1.3369141, -2.7128906, 0.58984375, -0.46313477, 0.18530273, 1.4472656, 0.30029297, 0.18969727, 2.7675781, 0.03543091, 0.3947754, 1.4091797, -0.36914062, -0.8222656, 0.68847656, 0.7114258, 1.8730469, 1.640625, 1.2138672, -1.8769531, 1.9492188, 2.8671875, -0.3095703, -1.1894531, -1.2695312, -1.4003906, -0.43286133, 0.3527832, 0.5961914, -1.7666016, 0.5019531, -1.1689453, -0.41577148, -1.8515625, -1.1386719, -2.1640625, -0.16711426, 2.7207031, 0.07965088, 0.27685547, -0.7294922, -0.081848145, -0.21435547, -0.019927979, -0.16027832, -1.6445312, 0.81396484, -0.8569336, 1.1738281, 0.34521484, 2.4648438, -0.75341797, 0.087524414, -1.1025391, -0.7241211, 0.40478516, -0.7705078, -1.9072266, -1.3916016, 2.9882812, 1.6845703, 3.8632812, 2.2285156, 1.1455078, -1.8173828, -0.6845703, -2.2871094, -0.5332031, 0.25073242, -1.2441406, 3.3535156, -0.5683594, -2.3105469, -1.3935547, -2.6542969, -0.18762207, 2.8183594, -1.3613281, 0.95214844, 1.3222656, -1.875, 4.3789062, 3.6582031, -0.5957031, -2.3144531, 1.4150391, -0.890625, -0.3071289, 0.35864258, 1.0625, 1.5107422, 1.6523438, -0.49316406, 0.68896484, 0.23120117, -0.97558594, -0.059906006, -0.25073242, -0.8276367, 0.99365234, 0.5864258, 0.50097656, 1.5732422, 1.359375, -2.6972656, -0.21911621, 0.5385742, -2.4335938, -0.93115234, -1.6455078, -2.0410156, 0.10290527, 0.74121094, 1.4951172, 1.4833984, -0.043182373, -1.5664062, 1.0996094, -1.1318359, -0.124572754, 0.64208984, 2.3339844, 0.96484375, 2.2304688, -0.42871094, 0.57470703, 0.28857422, 1.0263672, -0.36767578, 0.2644043, 0.22521973, -0.10064697, -0.2849121, -1.1123047, -2.0390625, -1.0400391, 0.52001953, 1.2080078, -2.7382812, -0.9213867, 0.62646484, -0.8027344, -0.0002670288, 1.2509766, 0.0031909943, 3.9375, -1.9238281, -0.64208984, -1.3203125, -1.0761719, 0.5, -0.7836914, 2.3671875, 0.5336914, -0.66259766, -1.6337891, -0.32421875, 0.43237305, -0.6328125, 0.72509766, 1.1875, -1.6376953, -0.5258789, 2.21875, -2.6054688, 0.6298828, -0.3527832, -0.7685547, 0.23669434, -0.41015625, 0.9711914, -2.5039062, -0.4104004, -0.58154297, -0.63964844, -1.1513672, -1.1044922, 0.9638672, -1.7636719, -0.6279297, 1.5527344, 2.0136719, -1.7705078, 1.1875, 0.50927734, -0.61376953, 0.64453125, 0.8066406, 1.1552734, -1.8154297, 1.1318359, -1.1210938, 1.0488281, 0.44091797, -0.51123047, 3.0527344, -0.06915283, 1.4208984, -1.1728516, 0.9501953, 1.5488281, -0.7260742, 0.57421875, -2.3515625, -0.33032227, -0.7055664, 1.7382812, -2.0273438, 0.17028809, -0.40551758, 0.013053894, 2.1503906, -0.043701172, -2.2851562, 0.9482422, -0.3815918, -0.26660156, 0.39916992, -0.8691406, 4.640625, 1.1064453, -0.19506836, 0.22888184, 3.2324219, 0.8676758, -1.5009766, 1.7871094, -0.92578125, -2.1796875, 1.7304688, -1.3417969, 0.5834961, 0.49902344, -1.9677734, -2.1035156, -0.74316406, -0.9819336, -1.875, -0.6098633, 0.37158203, -1.796875, 0.6748047, -1.7382812, -0.014434814, -2.1992188, 0.5839844, -1.6552734, -1.1074219, 0.06347656, -0.97802734, -1.4189453, -1.3710938, 1.0195312, 1.2861328, 0.58740234, 1.6484375, -1.1074219, -0.25634766, -2.078125, -0.33447266, 2.0644531, -0.64404297, 0.3083496, -1.3173828, -0.5883789, -0.10180664, -3.1660156, -0.6015625, -1.609375, 1.1025391, 1.09375, -1.1005859, -1.5771484, -0.8666992, 1.6767578, 1.7783203, 0.9765625, 0.83496094, 1.140625, -2.0117188, 0.328125, -0.45166016, 0.9038086, -0.51171875, 3.6738281, -0.83203125, 1.7333984, -0.05117798, 2.8203125, -2.1132812, 1.1962891, -1.3623047, -0.5439453, -1.6367188, -0.53808594, 1.34375, 0.4411621, -1.1054688, -0.91064453, 0.99658203, 1.8037109, 0.3815918, -0.5390625, 2.4785156, 2.6132812, -2.5175781, 0.2763672, 0.93652344, 2.0039062, -1.3378906, -0.15100098, 2.7304688, -0.16174316, -0.3737793, -3.4375, 1.4853516, -1.2685547, -0.4855957, 0.1850586, 2.09375, -1.484375, -0.49047852, 0.19042969, 1.0957031, 0.21044922, -0.9946289, -0.014320374, 1.734375, 0.5361328, -1.6708984, -0.6972656, -2.1367188, -0.77490234, -0.10845947, 0.7080078, 0.93310547, 0.12866211, 0.4140625, -1.2021484, -0.43286133, -1.5791016, -1.0097656, -0.9970703, 0.77001953, 2.5117188, -0.8769531, 0.37548828, -0.42456055, 0.61328125, 0.6591797, 0.15124512, -0.46264648, 1.8222656, -1.2392578, 0.22045898, -0.6972656, 1.4199219, -0.7973633, -0.77441406, -0.7739258, -0.6074219, 0.28271484, -0.086242676, -0.018692017, -0.8852539, -0.4597168, -1.2294922, 2.2070312, 1.90625, 0.6958008, 0.6738281, -0.29370117, -0.70458984, -2.59375, 0.9243164, -3.0019531, 1.2148438, -0.91015625, 1.7685547, -0.31396484, 2.7128906, -2.8867188, -1.8876953, 2.8476562, 1.6347656, 0.23461914, -0.02986145, 0.2705078, 1.4091797, 0.11328125, 0.5283203, 2.2519531, 3.8378906, 0.9926758, 1.453125, -1.8066406, 0.95996094, -0.87597656, -0.3232422, 0.94189453, 0.20629883, -0.059326172, -2.75, 0.5371094, -1.9746094, 1.2890625, -1.2236328, 1.4941406, 1.4794922, 0.66503906, -1.6660156, -0.39746094, 1.6181641, 3.0117188, 0.08227539, -0.004940033, -1.3017578, -0.86376953, 0.5986328, -1.3076172, 1.5058594, -1.203125, 0.7138672, -2.2871094, -0.78808594, 0.984375, 0.19641113, -1.0273438, 1.9492188, -0.4638672, 0.7651367, 1.21875, -0.9819336, -2.1367188, 0.21826172, -0.4038086, 0.101623535, -0.3955078, -0.14221191, 0.37573242, 0.1381836, 1.1455078, -0.9291992, 1.5888672, 0.7138672, 0.81152344, -0.012962341, -0.3425293, -1.6230469, -3.5859375, -0.18713379, 0.57958984, -3.1132812, -0.25585938, -2.7246094, -1.8066406, 2.3222656, -2.0039062, 3.5644531, 1.7207031, -0.12963867, -1.4101562, 1.6308594, 2.2460938, -0.7236328, 1.6464844, -1.3857422, 0.703125, -1.1035156, 1.4609375, -0.18200684, 0.66845703, 2.4824219, -1.7548828, 2.2578125, 0.11175537, 0.5083008, 0.7636719, 1.1992188, 0.32617188, -1.1210938, -1.3994141, 1.2451172, 1.5078125, -1.2548828, 1.0126953, -0.85498047, -0.62841797, 0.9511719, -1.1201172, 0.19470215, 0.34545898, 0.7426758, -0.8876953, 0.796875, -1.8164062, 0.084106445, -1.8066406, 0.16137695, 0.79052734, -0.85546875, 0.60498047, 0.85498047, 0.21496582, 0.35229492, 0.51953125, -3.0683594, -1.2685547, -1.1416016, -1.21875, 0.7446289, 0.11425781, 2.3125, 1.0029297, 1.6455078, 2.3085938, -1.0566406, -3.1308594, -1.2294922, 0.9121094, -0.31103516, 4.5, -0.85058594, 0.14294434, 0.7998047, -1.3017578, -0.15209961, 1.8134766, -0.26098633, 2.5234375, 0.9970703, -0.2578125, 0.004875183, -0.8330078, 0.49145508, -0.094055176, -0.4560547, -0.9902344, 1.3964844, -0.68847656, 3.5292969, -1.4355469, 1.9023438, -0.12225342, 0.7915039, 0.27563477, -1.0810547, 1.9560547, 1.5439453, -0.95751953, 0.08343506, 0.55859375, 0.4741211, -1.2529297, -0.10443115, -1.3720703, 0.01751709, -0.6586914, 0.053466797, 1.1689453, 1.0292969, -2.6621094, -0.36987305, 0.4963379, -0.32641602, -0.19372559, 0.5258789, -0.19067383, 1.2392578, -0.9428711, -1.6992188, -0.53466797, 0.7138672, -1.9892578, 0.16015625, -0.15722656, 0.1496582, 1.5166016, -0.9892578, 0.84765625, 0.05783081, 2.1660156, 3.84375, 0.41381836, 1.828125, -1.6904297, 0.7036133, -0.73583984, 0.36108398, -0.28588867, -1.546875, 1.9853516, -0.061920166, 1.3457031, -0.5751953, 1.7753906, -1.0966797, 0.11273193, 0.31469727, -0.7895508, 0.640625, -0.3857422, 1.4775391, 1.6289062, 0.74072266, -2.8457031, 1.7392578, -2.0527344, 1.1494141, 0.36206055, -2.0371094, 1.1982422, -0.50878906, 0.057617188, -2.3125, 0.18945312, 0.69140625, -1.4755859, 1.9550781, -2.1660156, 1.5957031, 0.056518555, -0.41870117, 0.72802734, 0.19555664, 1.40625, 1.8251953, 1.09375, -1.1435547, -0.7729492, 2.7285156, -1.5537109, -0.6958008, 0.2722168, -1.3056641, 0.3359375, -2.3867188, 0.9902344, -0.7163086, -0.10412598, 0.08880615, 0.7578125, 0.24279785, -3.0546875, -1.3564453, -0.070129395, -1.7001953, 2.3535156, 0.36743164, -0.29956055, -1.9560547, -0.2626953, -0.11273193, -0.1743164, -0.019012451, 1.0361328, 0.75927734, 0.69677734, -0.112854004, 1.2519531, 0.41088867, -0.38012695, -2.6894531, 1.6650391, -1.7412109, -0.4572754, -3.5214844, 1.6650391, -0.29296875, -2.3300781, -0.43359375, 0.59375, 1.2919922, 1.0263672, 1.8017578, 0.09802246, -1.1806641, -0.75390625, -0.8378906, 0.8466797, -1.2939453, 2.3378906, -3.3496094, 2.0039062, -0.082214355, -1.7763672, -0.16931152, 0.29638672, 2.7363281, -0.099609375, -1.7119141, 0.014251709, -0.16064453, -1.2998047, -0.8833008, 0.9199219, 0.18823242, -0.3305664, 1.8076172, -0.46923828, -0.37402344, -3.7421875, -1.3066406, -0.9272461, 1.9912109, -2.8164062, -1.1005859, -1.3886719, -2.8359375, 0.8354492, 0.5625, 1.4482422, 0.578125, -0.3359375, -2.1699219, -0.5449219, -1.3027344, -0.47924805, -3.6054688, 0.8588867, 1.6884766, -1.0683594, -0.21386719, -0.48461914, -0.046661377, -2.3828125, 3.7675781, -0.81152344, 1.5478516, -2.3496094, -0.84375, 0.22753906, -0.41748047, -0.21264648, 0.37695312, -2.7871094, -0.6513672, -0.9223633, -0.42871094, 1.09375, -0.19189453, 0.9711914, -0.7885742, -1.3164062, 2.4765625, -1.6767578, 1.8808594, 0.8413086, -1.7763672, 0.22912598, 0.18981934, 1.5185547, 1.1015625, 0.8144531, 1.1171875, -2.0859375, -1.4716797, 1.6611328, -0.6015625, 1.2304688, 0.25878906, -1.7314453, -0.66503906, 0.40429688, -0.37939453, 1.1660156, 0.6347656, 0.59472656, 0.56347656, -0.43579102, -0.97998047, -0.29223633, -1.8818359, 0.002313614, 0.80615234, 1.9453125, 0.1184082, -1.4033203, 0.8833008, 0.78759766, 0.36669922, 0.74365234, 0.765625, -0.43920898, 2.2167969, -0.97998047, 0.8510742, 0.019226074, -0.67041016, -0.2055664, 0.18835449, -0.29907227, -0.1887207, -0.004634857, -0.9711914, 2.5878906, 1.6064453, 0.32373047, 0.890625, 0.3203125, 0.13647461, 1.5341797, 0.71484375, -0.1998291, 0.5395508, 0.15820312, -0.004886627, 0.91845703, 1.0810547, 1.2265625, -1.0195312, 1.9257812, 0.67626953, -1.921875, 1.3525391, -1.2099609, 1.5263672, 2.3632812, -0.0027179718, 0.3112793, 1.2255859, -0.56884766, -0.49414062, 1.4228516, 0.82666016, -0.6088867, 1.3085938, -2.0371094, 1.3330078, 0.023452759, 0.7192383, -1.8681641, 1.3027344, -0.18896484, -0.29638672, 0.3630371, -1.2724609, 1.5644531, -2.7675781, -0.703125, 2.7265625, 1.2011719, -0.4921875, 0.6694336, -1.3300781, -1.3408203, 0.16149902, -0.28344727, -0.34521484, 2.3378906, 1.2636719, -0.52246094, -1.0058594, 0.55029297, -0.3696289, 2.7167969, 1.7939453, -1.9960938, 0.3461914, 1.4882812, 1.2021484, -2.9511719, -1.546875, -0.58496094, 1.2939453, 0.45654297, -0.35839844, 0.99560547, -0.42919922, -1.3134766, -0.18493652, -0.81396484, -0.4555664, 1.4267578, -0.5654297, 0.36132812, -0.5449219, 0.48583984, 0.54541016, 1.8662109, 0.1842041, -1.0087891, -1.1875, 0.014762878, 0.32202148, -0.26708984, 1.28125, 1.1064453, -2.4882812, 2.5253906, 1.8232422, 2.421875, -0.56152344, -0.47680664, 1.6396484, -0.10168457, -0.7895508, -1.4511719, 0.7001953, 0.48779297, -1.1630859, -2.0117188, -0.34814453, -1.7832031, 1.6699219, -0.5463867, -1.2490234, -0.6899414, 0.46972656, -1.8183594, -0.30493164, 0.6328125, 3.0292969, -0.39672852, 0.2758789, -1.9873047, 0.40966797, -2.7910156, -1.2197266, -0.4814453, -0.6357422, -1.3808594, -0.7011719, -1.0566406, 1.0908203, 1.1240234, 0.87353516, -0.9394531, -3.0351562, -2, 0.064208984, -0.68066406, -1.5810547, 2.3046875, 0.3942871, -2.2285156, 1.4619141, 1.2880859, -0.9536133, 0.7084961, -0.2163086, -0.15966797, -0.21484375, 0.9458008, -1.0039062, -3.2734375, -0.17626953, 1.8515625, -0.5864258, 0.4140625, 2.0039062, -0.9746094, -1.8134766, -1.4287109, 0.88916016, 0.99560547, -0.8222656, -0.44091797, 0.14099121, 0.0059394836, 0.31713867, -1.3515625, -1.1308594, -0.2388916, -1.2685547, -0.40185547, 1.6259766, -0.031082153, -1.2441406, -0.017074585, 0.016021729, 1.1396484, -0.41992188, -0.0001308918, 0.64697266, 1.9980469, 0.24914551, -1.7285156, 0.27246094, 4.2617188, -1.3642578, 2, -1.1367188, 1.2412109, 0.9819336, -0.3647461, -0.85009766, -0.47729492, -0.8305664, 0.43701172, -1.7363281, -0.74072266, 1.4853516, 0.265625, 0.47045898, -0.7993164, -0.9628906, -0.9301758, -0.06365967, 0.47827148, -1.0917969, 0.45751953, -2.4472656, -0.7602539, 2.703125, -2.2617188, 1.2470703, -0.5839844, -1.2529297, -0.1303711, -0.99072266, -1.1728516, -2.0390625, 0.62646484, -0.92041016, 1.8066406, 0.17578125, -0.25048828, -0.06781006, -0.45410156, 0.7680664, -0.21594238, 1.0664062, 1.1269531, 1.390625, -1.3515625, -2.1230469, 1.5693359, -0.9584961, 0.3564453, -0.026779175, 0.6582031, -0.23779297, -0.7392578, 0.17102051, -0.1508789, -1.2773438, -0.73779297, 0.71191406, -1.0195312, 0.39990234, 1.0009766, 0.91748047, 3.4570312, -0.41601562, -0.62597656, -1.2119141, 0.26904297, 0.33251953, 1.4384766, -0.36938477, 0.9716797, -0.79003906, 1.7783203, 0.7495117, -0.7392578, -0.05609131, -0.008895874, -0.7841797, 4.375, 0.18359375, -2.78125, -0.4194336, 0.2076416, -0.15881348, 0.19714355, 1.4169922, 1.6962891, 2.0273438, 1.4970703, -1.9404297, -1.1113281, -1.9384766, 0.4819336, 0.039245605, 0.7084961, 1.0644531, -0.4453125, -2.1328125, 0.3466797, -0.92089844, 0.85058594, 1.7060547, 1.9765625, -1.0263672, 0.0736084, 1.1455078, 1.9765625, 0.6010742, -1.5878906, 0.16027832, 0.09283447, 1.6757812, -0.88378906, -2.0097656, 0.46777344, 0.18981934, -0.41918945, -0.13830566, -1.6669922, 1.2207031, 1.5869141, -2.125, -1.0957031, 0.00920105, -1.4091797, 1.8710938, -0.24023438, 0.21643066, -0.039978027, -2.1132812, 0.67822266, 0.32861328, -2.6386719, 0.101623535, -2.3769531, 0.31713867, -1.1074219, -1.0498047, -1.8134766, -0.4494629, 1.40625, 3.8378906, -0.6064453, 0.055358887, 1.5830078, 1.2216797, 1.1728516, 0.7890625, 0.1463623, -0.49414062, -0.3269043, 1.9931641, -0.45874023, -1.5185547, -0.90478516, 0.24145508, 0.113464355, 0.3017578, -0.17236328, 0.75878906, -2.8476562, 0.23730469, 1.9619141, 0.21557617, 0.75927734, -1.0039062, -0.7636719, -1.03125, -0.9165039, 1.8857422, -0.6230469, 0.546875, -0.8125, 0.2697754, 1.1259766, -0.23071289, -0.3479004, 0.38916016, 0.44970703, -0.48364258, 0.62939453, 0.12182617, 2.3007812, -1.0410156, 0.34228516, 0.6875, 0.76220703, -0.8989258, -0.37597656, 1.3291016, -0.2705078, 0.7080078, -2.0253906, -0.69189453, -1.203125, 0.4020996, -1.1884766, -0.9277344, -0.9169922, 0.5810547, -0.4482422, 0.056610107, -0.859375, 0.12420654, -1.2441406, 1.6933594, -1.0585938, 0.5527344, 0.8095703, -0.46069336, -1.2539062, 0.89208984, 3.9023438, -0.20263672, -0.7314453, -1.3886719, -1.6728516, 2.8808594, 0.7475586, -1.5556641, 2.046875, 3.2558594, 0.14746094, -0.5698242, 0.34838867, -1.8027344, -0.32299805, 0.35961914, -1.1386719, -1.5478516, -1.3564453, 1.5390625, -1.2558594, -0.22998047, -0.5805664, -1.2226562, -2.46875, -0.2368164, -0.41796875, -0.9482422, 0.4152832, 0.39624023, -1.2236328, -0.18725586, -1.3017578, 1.1552734, 2.7363281, 2.4296875, -0.1003418, -1.0371094, -1.03125, 0.058380127, 1.6054688, -0.41088867, 0.87353516, -1.3066406, -2.2714844, 1.6855469, -0.18151855, -1.0048828, 2.1113281, -2.0996094, 0.28173828, 0.9765625, -1.5810547, -1.5566406, -1.1630859, -1.1904297, 1.3037109, -0.87402344, -1.3242188, -1.1347656, -0.8227539, 0.77441406, 1.7314453, -1.5185547, -1.7919922, 0.07354736, -0.7216797, 1.0722656, 0.6982422, -1.78125, 0.07531738, 1.3017578, 0.51660156, 0.7548828, -0.5131836, 0.074645996, 1.3564453, 0.011917114, 1.7490234, -2.5078125, -1.8544922, 0.95947266, 3.0058594, -1.4726562, -1.2275391, 1.8642578, -2.9648438, -0.59716797, 0.9345703, -2.4277344, -1.7548828, 1.5166016, -0.96484375, 0.2722168, 4.7851562, 0.72753906, 0.7524414, -2.7109375, 1.5566406, 1.5429688, -0.02909851, 0.3347168, -1.3847656, -1.2177734, -0.50390625, 3.1914062, 0.19421387, 0.671875, -2.6289062, -1.1357422, -1.6054688, 1.4140625, 0.76464844, 0.71191406, -0.48364258, -0.061431885, 0.40820312, 0.8076172, 1.8789062, 0.17492676, -0.9472656, -0.06286621, -1.8066406, -0.1418457, 0.11743164, -1.0214844, 0.2434082, 0.3088379, -2.8496094, -0.6323242, -0.18457031, -0.49145508, -0.7836914, -0.7915039, 1.3320312, 0.7114258, -2.0234375, -3.3632812, 1.5126953, -0.7963867, -0.20996094, 0.52734375, -0.7788086, -0.67333984, -2.5761719, -1.6962891, 0.025054932, -0.4248047, -1.2197266, 0.85302734, 0.5131836, -0.1105957, 1.0253906, 1.6757812, 2.4472656, -0.3815918, -1.1015625, -0.796875, 0.95751953, 1.5087891, -3.7792969, 1.9453125, 0.15136719, 0.47460938, 0.030944824, -1.2197266, -0.6533203, 2.5449219, -1.1425781, -0.11517334, -0.77197266, 3.3378906, 0.57666016, -0.41577148, 2.6601562, -0.44995117, -1.3261719, 0.7373047, 2.0332031, -1.1582031, 0.18322754, 0.35668945, -0.55371094, 0.7988281, -0.24438477, 0.34423828, 0.7529297, 0.88720703, 1.3740234, -0.84716797, -1.4375, -1.7304688, -1.6142578, -0.21044922, -0.9213867, 1.2382812, 2.8312206e-05, 1.3164062, 0.38623047, 3.40625, 1.4150391, -1.9072266, -1.3916016, -0.40820312, -1.8242188, -2.3378906, 0.44580078, 2.1015625, 0.3347168, -0.23352051, 0.48828125, -0.5546875, -0.45410156, -0.39697266, 0.66503906, 1.2109375, 2.140625, -2.3574219, 0.5839844, 1.3066406, -0.33251953, -1.4111328, -0.4189453, -0.13342285, 2.5136719, 1.0244141, 0.4260254, 1.3398438, 1.3857422, 2.4394531, -0.19262695, -0.12261963, 0.9375, -1.1708984, -1.5400391, 0.98535156, -0.3017578, 0.29223633, 1.5107422, 2.0214844, -1.4238281, -0.5288086, 1.03125, 1.2363281, -1.3886719, -0.6044922, 1.3691406, 1.84375, 0.9863281, 2, 0.64160156, -0.4831543, 1.2529297, 0.6459961, 0.2680664, -1.8310547, -1.6298828, -0.10675049, -0.10253906, 0.2084961, -0.9716797, -0.25219727, -0.08227539, -0.66259766, 0.59521484, -2.1835938, -0.34887695, -1.84375, -2.1621094, -1.6025391, -1.8154297, -0.33447266, 0.2746582, 1.2001953, 4.2851562, 1.3955078, 0.5830078, 0.49316406, -1.1777344, -0.2055664, -0.10913086, -2.7324219, 1.1113281, 2.0117188, -3.2226562, -0.50683594, -1.0517578, -1.8398438, -0.36621094, 2.4179688, -0.6586914, 2.6269531, 0.6977539, -0.59716797, -0.23620605, 1.5253906, -1.8623047, 1.53125, -0.7104492, -0.97558594, 1.3310547, -1.3330078, -0.7421875, -1.9404297, 1.6660156, 0.0262146, -0.2980957, -0.37280273, -1.3251953, -1.1337891, -0.609375, -0.39990234, 2.2949219, 2.3339844, 2.1367188, -0.5986328, 3.2617188, 0.04550171, 0.39038086, 0.056610107, 0.24291992, 0.009384155, -1.1269531, 0.6455078, 1.7519531, 0.21887207, -0.67822266, 0.4177246, -0.6928711, -1.3662109, 0.71240234, -1.0400391, 1.1318359, 1.2480469, -0.16906738, 0.15527344, 1.0527344, 0.8798828, 1.5263672, -0.60791016, 0.11151123, 1.9912109, 2.4238281, 1.7666016, 1.9726562, -1.15625, 2.1972656, 0.8017578, -2, -1.5830078, 1.2851562, 0.57666016, -0.17260742, -1.1035156, -0.48632812, -0.4645996, 0.5805664, -1.1132812, -0.6401367, -0.74902344, 1.6416016, 0.58154297, 0.6816406, 1.5380859, 1.5009766, 0.40844727, 1.1572266, 1.3818359, -0.49267578, -0.09454346, -1.0146484, -1.2792969, -0.7109375, 1.0810547, -0.62353516, 0.5854492, -2.2636719, -1.8916016, -1.8310547, -3.4707031, -0.2836914, -0.6591797, 0.66552734, 1.7314453, 0.22265625, -1.1269531, 0.3474121, 0.024139404, 0.3173828, 0.20275879, 0.6845703, 0.83984375, -0.1171875, -0.7451172, 1.0576172, 0.45092773, -0.58203125, 1.7314453, -7.2109375, -1.4365234, 1.5234375, 1.4775391, 0.875, 0.34936523, -1.9599609, -2.0605469, -0.23669434, 0.8803711, 1.78125, 0.02368164, -0.22692871, -0.058013916, -1.1533203, 1.0146484, 0.9189453, -0.83447266, 1.109375, -1.4755859, -1.6357422, 2.046875, 0.9609375, 0.9892578, 2.4628906, 2.3925781, -0.108947754, -0.4440918, 0.7001953, -4.7109375, 2.1464844, -0.00031852722, 0.31469727, -1.3789062, -1.75, -1.9296875, 0.6791992, -0.54833984, 0.2553711, -0.66503906, 0.8222656, 0.04257202, 0.061523438, -1.4814453, -1.0166016, -0.79052734, -1.1962891, -0.50927734, -0.1217041, 1.5214844, -0.8095703, 0.87109375, 0.9472656, 1.3681641, 0.55029297, -0.2154541, 2.1796875, -0.010009766, -0.13708496, 0.59521484, 0.23327637, -1.1269531, 1.7460938, -0.9091797, -1.0712891, -0.19873047, -4.1757812, 0.61865234, 2.6425781, 0.5180664, 0.2746582, 2.0410156, 0.38598633, -0.60009766, -0.56591797, -0.57177734, -0.06573486, 0.7631836, 0.31201172, 1.3496094, 1.1601562, -1.640625, 5.375, -0.107543945, -0.5942383, 0.29296875, -0.1940918, -0.40893555, -1.3203125, 0.54248047, 2.8378906, 2.1054688, -0.030548096, -2.9667969, -1.0009766, -0.97998047, -2.046875, -1.4472656, -0.09503174, -0.6220703, 2.9550781, 0.48242188, 1.2792969, 0.74072266, -0.38793945, -0.038391113, -1.2128906, 1.5214844, -2.7011719, -0.78564453, -2.1328125, -0.81591797, 0.62597656, -2.1464844, 1.5878906, -0.28027344, -0.2944336, 0.8676758, 2.7128906, 1.6347656, -1.0019531, -0.74853516, -1.1044922, -1.9873047, -1.1806641, -0.9892578, 1.3085938, 0.43725586, -0.3959961, -1.921875, 0.63720703, -1.8769531, -1.8427734, 0.50390625, 0.18139648, -0.22497559, 0.055877686, 0.5576172, 0.39160156, -3.5019531, -0.8041992, -0.30810547, 1.0146484, 0.1038208, -0.80566406, 0.57470703, 0.76171875, 0.4477539, 0.6147461, -1.3417969, 1.9296875, -0.36083984, -0.15466309, -0.48779297, -0.56396484, -1.6689453, 1.6904297, -0.36328125, -0.3762207, 0.78466797, -0.023406982, -0.062286377, 0.16870117, -0.12585449, -3.2578125, 1.171875, -0.4868164, -5.1484375, -2.9863281, -0.8154297, 0.39233398, 0.21875, -0.48413086, 1.4365234, -0.28320312, -2.6035156, 1.4072266, -1.3789062, -1.2167969, 2.2753906, 1.4736328, -0.47973633, 2.328125, 1.5869141, -0.35253906, 0.31640625, -1.0429688, 0.53808594, 0.3359375, 0.60839844, 0.48461914, 0.6933594, -1.2861328, -3.9023438, -1.2011719, 1.0234375, -1.6132812, -1.9550781, 2.0488281, -4.078125, -1.2148438, 0.9863281, 0.22546387, 1.0712891, 2.0976562, -0.070129395, -0.5410156, 1.1308594, 5.9921875, 2.3652344, -1.1435547, -2.2148438, 1.0576172, -0.69140625, 1.2119141, -0.48461914, -0.9536133, -0.7114258, 0.009803772, -0.24291992, 2.8535156, 0.4416504, -0.11126709, -0.30664062, 2.1269531, 2.5625, -0.6357422, 2.0175781, -0.36743164, 0.0052490234, -0.33911133, 0.43041992, -1.5488281, -0.7480469, -3.8144531, 0.107055664, -2.09375, 1.484375, 0.40478516, -2.5449219, 1.2539062, 0.72216797, -1.7880859, 0.45385742, -2.0117188, 0.051940918, 0.20288086, 1.7695312, 1.4199219, 0.20861816, 0.3010254, -1.2197266, -1.0566406, -0.082092285, -1.8076172, -0.10650635, 0.390625, 1.3623047, 0.72314453, 1.5166016, 0.3623047, 1.8935547, 1.2548828, 0.2644043, -1.8642578, 0.65771484, 0.17321777, 1.3808594, 0.32910156, 0.89746094, -1.3291016, 0.095581055, -1.0048828, 0.5966797, -0.68066406, 2.0117188, -0.13830566, -0.52685547, 1.5537109, 0.5053711, -2.5507812, 0.6459961, -0.74560547, 0.59277344, -3.4335938, -0.22888184, -0.12475586, 0.11279297, 1.6923828, -0.3671875, 1.5371094, 0.57714844, -0.87353516, 0.9116211, -0.8066406, 2.9121094, -1.5585938, 0.2548828, -0.5810547, 1.1533203, 0.37304688, -2.1269531, 0.95214844, 1.7314453, -0.29858398, 1.7128906, 2.7578125, -2.71875, 1.4121094, 0.89697266, -1.3808594, -1.9326172, -3.2089844, -1.5888672, 2.7988281, -0.32666016, -0.34057617, -1.8173828, -0.8666992, -1.1318359, -0.43286133, 0.16003418, 2.5878906, -0.33276367, 1.0224609, 1.8935547, 1.1708984, -0.83251953, 0.8515625, -1.5546875, 0.24951172, 1.7666016, -0.82421875, 1.0996094, -1.4052734, -1.7685547, 1.8515625, 4.3359375, -1.3691406, -0.61328125, 0.15600586, 0.2548828, -0.3605957, -2.3847656, 0.83935547, 0.6738281, 1.6542969, -2.0253906, -0.118896484, 1.6220703, 0.7080078, -0.52197266, -0.9970703, 1.6318359, -0.92333984, 0.12597656, -0.21325684, -0.66748047, 0.8881836, -0.12011719, 3.6230469, 0.4399414, -1.3037109, 0.27954102, 1.8291016, 1.7871094, -1.9873047, -0.3071289, 3.6328125, -0.56640625, 1.3691406, -0.21228027, -0.7416992, -1.0458984, -0.82177734, 1.5771484, 0.99902344, 1.5576172, -0.54003906, -1.5195312, -0.17028809, -2.0976562, 1.1494141, 2.5625, -0.7392578, 0.39013672, 1.8076172, -1.65625, 0.8183594, -1.9892578, -2.4375, -1.7070312, 0.94921875, 1.3193359, -1.8916016, -1.9960938, 0.15100098, -0.5341797, -2.1074219, 2.1972656, -0.32128906, 4.3554688, 1.3701172, 0.87646484, -1.6337891, -0.71728516, -0.5703125, -1.4775391, 0.030059814, 0.8955078, 0.17993164, -2.1367188, -1.4716797, -1.7333984, 0.05831909, 0.42089844, 1.0908203, 0.30078125, 1.5185547, 0.29541016, 0.31640625, 0.16027832, 1.7060547, -1.5849609, 0.11541748, 1.4375, 1.1425781, 0.5708008, 2.7421875, 0.6923828, 1.3496094, -1.3183594, -2.2226562, -1.4726562, 1.2734375, -1.4208984, 2.5898438, 1.5595703, -0.13476562, -0.3095703, -1.1279297, -0.28076172, -0.32250977, -0.7519531, -0.34277344, -0.39111328, -2.4863281, 1.4599609, 0.75439453, 0.4345703, 1.09375, -0.48999023, -1.1142578, -0.8964844, -1.1933594, -1.6035156, 1.3242188, 0.27563477, 1.5185547, 3.8125, -0.62841797, -0.9916992, -0.87109375, -0.37719727, -1.0322266, -1.4238281, 0.28125, 1.46875, 0.7836914, 1.1142578, -1.6816406, -2.5566406, -1.1962891, -0.33251953, -1.59375, -1.2890625, 1.4433594, 0.7314453, 0.8979492, 0.5942383, -1.6845703, -1.9091797, -0.80029297, 0.034179688, -0.5292969, 0.8129883, -0.4814453, -1.3310547, 0.984375, -2.1796875, 0.32910156, 1.1669922, -0.9213867, 1.0673828, -1.4980469, 0.20373535, -0.0036582947, -1.1044922, 0.7504883, 0.8051758, 1.3017578, 2.9746094, -0.91259766, 0.06982422, 0.95214844, 0.43481445, 2.8222656, 0.4375, 1.9423828, -0.81884766, 0.859375, -1.4492188, -0.28515625, 0.71777344, -0.40893555, -1.0205078, 0.29589844, -2.3847656, -1.4257812, -3.7109375, 1.0068359, 0.3725586, 1.6816406, -0.77685547, -1.4384766, -0.18164062, -4.2304688, 1.3515625, -1.5234375, 0.13891602, 3.4941406, 0.81689453, 0.83740234, 0.34057617, 0.042114258, 0.03866577, -0.47875977, 0.7207031, -0.34423828, 0.8725586, -0.10095215, 1.6767578, -0.5463867, 1.3691406, 0.12182617, 0.8041992, -2.6933594, 0.6230469, -0.68359375, 0.7138672, -0.5151367, 2.015625, -0.6220703, -0.081970215, -0.23962402, 1.1230469, 0.78222656, -0.6640625, 2.2363281, -0.14428711, 0.38452148, 0.0947876, -0.23095703, -0.33422852, 0.12225342, -0.42138672, 0.29541016, 0.5073242, 0.45581055, -1.0556641, -2.6757812, -0.037139893, -1.4707031, 3.5273438, -0.1083374, 1.9257812, -1.0878906, -0.8286133, -0.06274414, -1.7685547, -0.14282227, -1.0566406, 1.4355469, 0.6254883, 0.56396484, -2.7265625, -4.4492188, -0.23571777, -1.234375, 1.1464844, -1.2001953, 1.3164062, 0.7319336, -0.5517578, -2.4101562, -1.6513672, 0.796875, -1.0791016, 1.6943359, 0.2927246, 0.36767578, -2.2382812, 0.12658691, 1.5039062, 0.5673828, 2.1894531, 0.15490723, -1.9560547, -0.7314453, -0.043273926, -0.5966797, 0.64941406, -0.5498047, -0.20812988, -0.8720703, 2.1738281, -1.1005859, -0.14099121, -1.4570312, -2.9375, -0.2902832, -5.1679688, 1.1972656, 0.73876953, 0.4404297, -0.12890625, -0.62597656, 0.097717285, 1.1347656, 1.2666016, 0.38916016, -1.78125, -0.0010118484, -0.5810547, 0.19763184, 0.5932617, -1.4619141, -0.24572754, -3.2890625, 0.97998047, -3.3300781, -0.7421875, 2.1289062, 1.5615234, -1.4121094, 0.4921875, -0.5097656, -0.37060547, -0.3725586, -0.28027344, 1.3183594, 1.2402344, -0.6689453, 0.4440918, 2.03125, 2.9882812, 2.6171875, 2.1855469, 0.031677246, 2.9902344, 0.12878418, 0.3486328, -0.4501953, -0.1965332, 2.375, -0.27172852, 0.82128906, -0.3791504, -1.4746094, 2.5859375, 0.8930664, -0.25, -0.2939453, 1.6318359, 0.31811523, -1.4072266, 0.23828125, -4.2695312, -1.3964844, 0.47973633, 0.22924805, -1.6162109, -1.1982422, -2.1464844, -1.8320312, -0.55322266, 1.9326172, -2.1875, -1.9257812, 1.0244141, 1.2314453, 0.52734375, 1.1347656, -0.97802734, 0.57470703, -0.8256836, -0.48901367, -0.7114258, -1.3544922, -0.78271484, -0.7739258, 0.6298828, 1.1699219, -0.90527344, -2.4589844, -1.4238281, -1.2529297, 0.9267578, -1.4541016, -1.8144531, -0.23254395, -2.09375, 0.24597168, -1.9169922, 0.21813965, 0.23986816, -0.5546875, -3.0136719, -0.20141602, -0.0014438629, 0.9301758, -0.1854248, -1.6933594, 1.8662109, 2.1699219, 1.0888672, -0.4255371, 1.3808594, -0.03137207, 0.1262207, -0.55322266, -1.7285156, -0.34057617, -0.10858154, -2.2402344, 3.3535156, 0.6196289, -0.0046195984, 0.05532837, 0.71777344, 0.9121094, 3.2050781, -0.65185547, 0.22131348, -0.13513184, 0.29296875, -1.84375, 0.75390625, 3.5449219, 0.02357483, -1.1542969, 0.8027344, -0.1529541, -0.9091797, -0.20446777, -1.2773438, 1.1787109, -1.6542969, 1.4492188, -0.2956543, -1.8857422, 0.18591309, 0.54541016, -0.7988281, -0.22546387, -0.09307861, 2.109375, 0.91259766, -0.17785645, 1.0615234, -0.87353516, -1.6376953, -0.42407227, 0.54248047, -0.04940796, 2.2753906, -2.7539062, -1.4404297, -0.40722656, 1.7177734, 0.89697266, -0.52734375, 1.9677734, 0.5283203, 1.4121094, -1.0566406, 0.054595947, 1.0439453, -2.3359375, -1.3046875, -1.5908203, -2.9453125, 1.8896484, -1.8730469, -0.52197266, -0.16601562, -1.4492188, -1.0039062, -0.57714844, 1.296875, -0.67822266, 0.64404297, 0.21899414, 0.9638672, 1.4306641, 0.034362793, 1.6640625, 0.5385742, 0.88427734, -0.6020508, -0.9482422, 0.10583496, -0.32104492, -0.34765625, -0.047210693, -0.5410156, 3.7460938, 0.18334961, 1.7792969, 0.6308594, 1.1923828, 0.89453125, 1.2792969, -2.0722656, -0.91064453, 2.0039062, -0.88134766, 0.1307373, 0.8574219, 0.16381836, -0.3984375, 0.72802734, 0.7397461, 1.9941406, 1.7050781, -0.42333984, 0.26416016, 0.13366699, -3.0605469, 1.8183594, 0.3310547, 0.9121094, 0.031341553, -1.0166016, -0.5234375, -0.45410156, -2.9472656, -0.07122803, -1.3115234, -0.3215332, 0.057525635, -2.7539062, -2.3535156, 0.69873047, 0.63623047, -0.1986084, 1.4345703, -0.06097412, 1.0566406, 1.4394531, 0.74365234, 3.8046875, -1.2763672, -0.98291016, -0.56933594, -0.19885254, 0.77197266, -1.5322266, -0.56591797, -0.90478516, 1.9765625, 0.41723633, 0.2980957, -1.3837891, -0.7163086, -0.6328125, 0.42114258, 0.20239258, -0.25927734, -0.10913086, 1.5458984, -0.59765625, -1.3173828, -0.090148926, 2.0761719, 0.72021484, 1.2998047, 0.049591064, -1.4013672, -3.1621094, 0.75, -0.29907227, -0.59277344, -0.40161133, -0.80908203, 0.81396484, -1.2392578, -0.47827148, -0.36083984, 0.22851562, 1.4736328, -1.3574219, 2.0664062, -0.5732422, -1.3544922, 0.74365234, 0.99072266, 0.7109375, -1.8623047, 0.79785156, -2.1191406, 0.93310547, 0.14550781, -1.8095703, -3.0429688, -0.5654297, -2.2617188, -0.51123047, 1.2978516, -0.15881348, -1.8603516, 0.57470703, 1.6865234, -0.54589844, 1.9111328, 0.3076172, 0.6455078, 1.4033203, 0.7109375, 1.9345703, -0.80615234, -0.77197266, 0.09777832, 0.8676758, -2.5878906, -0.55566406, 0.24365234, -1.7509766, 0.14465332, -3.6035156, 1.2128906, -1.3115234, 1.0830078, 2.5566406, -0.828125, -1.4404297, 2.0703125, 0.8100586, -1.0087891, 0.32543945, 1.0683594, -1.1005859, 0.6904297, 0.4645996, -0.5908203, -0.5727539, 0.21911621, 1.0029297, -1.4160156, -1.4013672, -1.4189453, 1.0087891, -0.5605469, 0.38183594, -0.7158203, -1.1298828, -0.1505127, 0.5498047, 1.4091797, 0.20410156, 0.625, -1.2646484, -2.5117188, -2.4238281, -2.6816406, -0.3552246, -1.15625, -0.62939453, -4.8828125, 1.7734375, -1.9785156, 0.40551758, 0.046569824, 0.93115234, 1.9003906, -1.0185547, -0.21594238, 0.042114258, 1.3037109, 1.1953125, -1.28125, 0.30541992, 0.32128906, 0.38061523, -0.8486328, 1.7158203, -0.2602539, -0.8330078, -0.7763672, 0.5654297, 1.6933594, -0.43017578, 1.6191406, -0.57714844, -0.05203247, 0.028411865, -1.1669922, -1.0410156, 1.1191406, -0.11004639, -1.4697266, 0.6191406, 3.2636719, 0.44335938, 1.453125, 1.7734375, -1.328125, 1.6191406, 0.8491211, 0.15185547, -1.6855469, 0.33764648, -0.072143555, 1.2470703, -1.1796875, 0.1027832, 0.7495117, -2.1132812, 2.2929688, 1.2636719, -1.1933594, -1.8320312, 0.73095703, 0.9555664, 0.86621094, 2.9316406, 2.6074219, -1.0546875, -1.2802734, 2.265625, 0.8833008, 0.17614746, 0.33789062, 0.07513428, -1.3359375, 0.3503418, -0.2763672, 0.48779297, -2.6855469, -0.037872314, -2.4101562, 0.23730469, -1.6103516, 2.9140625, -0.28588867, -1.8896484, -0.14685059, 1.0263672, 0.6948242, -0.5834961, -0.30737305, 0.28051758, -0.96484375, -0.5136719, 0.69384766, -1.375, 2.5878906, 0.5805664, -1.1728516, 2.1738281, -0.45092773, 0.44750977, 2.0292969, -0.21044922, 1.5507812, 1.6992188, -1.2011719, -0.35131836, -1.8066406, 1.0283203, -0.42114258, -1.4619141, 0.9980469, -1.5585938, 1.2236328, -0.41235352, -0.16149902, -0.40185547, 0.03665161, -0.09857178, 1.8691406, -2.3359375, -0.66552734, -0.40234375, 2.1621094, 0.19458008, 2.3261719, -1.3798828, 1.6689453, 2.390625, -0.38452148, -1.7978516, 2.03125, -0.5058594, 0.43286133, 0.55078125, 0.984375, 0.73583984, 1.0566406, 1.2539062, -2.3222656, 0.21655273, 0.3154297, -0.3659668, 1.3232422, 1.0722656, 0.6953125, -1.1142578, -2.6660156, -1.28125, 2.6171875, 0.40698242, 1.9560547, 1.4492188, -1.8945312, -0.72265625, -0.40527344, 1.1835938, -1.4814453, -0.76416016, -2.0566406, 0.51953125, -0.76708984, 1.2099609, -0.42358398, 1.9980469, 0.70458984, 1.1738281, -0.</t>
-  </si>
-  <si>
-    <t>[-0.3630371, 0.49316406, 1.6005859, 0.39746094, -2.0898438, -0.86572266, -0.51708984, 1.28125, 1.2480469, -0.8979492, 1.3847656, 0.05697632, 1.5449219, 0.68115234, 0.16931152, 0.8828125, 0.63964844, -0.2565918, 0.37426758, 0.051483154, -0.3659668, 1.9150391, 1.4199219, -1.2763672, -1.6708984, 2.1582031, 0.6269531, -1.1953125, 1.6806641, -0.9916992, 1.8027344, -0.5180664, 0.61328125, 1.7333984, 0.11553955, -1.2128906, 0.25878906, 0.7421875, 2.5097656, -0.29345703, -0.53759766, 1.5908203, -0.0317688, 1.5771484, -1.2509766, -1.3017578, -0.6328125, -1.9501953, -1.6328125, -0.56933594, 2.0800781, 1.4716797, -0.86621094, 1.3730469, -0.74121094, -0.24768066, -0.41918945, -1.5371094, -0.04156494, -0.1673584, 0.3737793, -0.17944336, 0.47583008, 0.22949219, -0.90234375, 0.7734375, -1.2109375, 1.1748047, 0.06378174, 1.1855469, 0.6274414, 0.4399414, -0.59521484, -1.8544922, 1.578125, 0.67041016, 0.015045166, -0.61621094, 0.31958008, 2.1601562, -0.026794434, 0.66503906, -0.88427734, 0.44750977, -0.5419922, -0.70166016, -1.4794922, -0.86865234, 0.11999512, -0.6171875, 3.1855469, 0.38183594, 1.8183594, 0.057037354, -1.0058594, 1.7460938, 0.9863281, 0.85253906, -1.2275391, 1.4882812, 0.97753906, -0.84375, 2.4589844, 2.1171875, 0.3046875, 0.8100586, -4.3046875, -0.9536133, 0.013259888, 1.6621094, -0.5361328, -1.8525391, 2.0625, 0.99072266, 2.03125, 0.29833984, 1.4560547, -1.5029297, -0.50927734, -2.2519531, -1.4677734, -0.88134766, 1.1601562, 2.4375, -1.5683594, -1.5693359, -1.4794922, -1.9423828, -1.2802734, 2.1777344, -1.1962891, -0.3322754, 0.67529297, -1.6728516, 2.84375, 1.4375, -1.1669922, -2.2148438, 1.1542969, -3.2714844, 0.86328125, 0.64990234, 0.9897461, -1.5830078, -1.6904297, -1.8378906, 1.4492188, 0.6533203, -2.2207031, -0.33129883, 0.2939453, -1.9707031, -4.0429688, 1.8876953, -0.6333008, 1.1542969, -0.0791626, -1.3398438, -0.70214844, 0.5209961, 0.9160156, -0.38549805, 0.47387695, -0.60009766, 1.7304688, -1.0117188, 1.4423828, 1.8164062, 0.009132385, -0.6635742, -0.8833008, -1.1855469, 0.3071289, 0.56933594, 0.15527344, 1.2578125, 1.1650391, -1.5644531, 0.67285156, -2.2441406, -0.21557617, 0.23730469, 0.23327637, 1.3564453, -1.9960938, -1.9443359, -2.1875, -0.74316406, 0.78271484, 0.98535156, 1.6328125, -3.1523438, -0.8696289, 1.2148438, 0.9980469, 1.2548828, 0.3166504, 0.28710938, 4.4609375, -1.546875, -0.2705078, -0.62646484, -1.4121094, -0.56689453, 0.5258789, 2.1171875, 0.6928711, -0.98779297, -1.2792969, 0.5957031, -1.5742188, -0.5493164, -0.47924805, -0.23339844, -1.5771484, 0.14160156, 0.8466797, -0.1772461, 1.7470703, 0.22399902, -0.66064453, -2.7734375, -2.4433594, 1.0839844, -2.3710938, 0.7373047, -0.47314453, -0.25024414, 0.19482422, -1.7988281, 0.56884766, -1.7861328, -0.484375, 1.2392578, 2.1582031, -0.89453125, -1.0087891, 0.92041016, -0.9692383, 1.5166016, 1.7607422, 0.22009277, -0.9536133, 2.1445312, -1.1425781, 0.46704102, -1.5410156, -1.828125, 1.3671875, -0.28930664, 2.2363281, -0.51220703, -0.5517578, 1.0595703, 1.2871094, 0.61328125, -1.0078125, -1.0986328, -0.6196289, 0.45751953, -2.3300781, -0.6245117, 1.0166016, -0.29174805, 0.46411133, -1.0947266, -2.9902344, 0.46289062, 0.011657715, 1.3125, -2.2714844, -0.08605957, 5.2929688, 1.2460938, -3.1816406, -0.31225586, 1.8125, -0.92626953, -1.1162109, 1.3955078, -0.85595703, -1.5126953, -0.00843811, 1.1494141, 0.21240234, 0.7080078, -2.2421875, 0.15515137, -1.2900391, -0.3466797, -1.4199219, -1.2705078, -1.15625, -1.9667969, -1.6162109, -2.4257812, -1.6972656, -1.5644531, -0.34057617, -1.5126953, 0.35864258, -0.87597656, -1.5957031, 0.19006348, 0.2166748, 0.9116211, 1.0722656, 1.0263672, 0.9140625, 0.02381897, 0.25170898, 0.6015625, -0.9145508, 0.3857422, 0.6816406, -0.45751953, 0.17150879, 1.0390625, -2.34375, -2.9570312, -0.34643555, -2.5117188, -0.72802734, -0.4814453, -0.5126953, -1.2890625, -2.0996094, 0.8520508, 1.5527344, -0.03805542, 0.31518555, 0.15515137, -2.0722656, -0.122924805, -1.8554688, -1.2841797, -0.28198242, 1.0810547, 0.28149414, 1.5517578, 2.4355469, 0.5649414, -1.6445312, -0.89746094, -2.4375, -1.5556641, 0.69677734, 0.08935547, 1.0478516, 0.78222656, -0.49121094, -1.6416016, 4.234375, 1.0625, 2.1425781, 0.009025574, 2.3671875, -1.0966797, -1.71875, 1.0537109, 0.19714355, 1.3486328, -1.1279297, -0.4350586, 0.50683594, -0.08544922, 0.3798828, -1.1728516, 0.9970703, -3.1328125, 0.21594238, 1.109375, -0.33276367, 0.3540039, -0.23242188, -0.2019043, -1.0019531, 1.5195312, 1.1386719, -1.2148438, 1.1699219, 1.2294922, -1.2314453, -1.7626953, -1.4130859, 0.56152344, -0.50390625, 1.0263672, 0.26586914, 1.7197266, -0.27807617, -1.6943359, 0.91064453, 0.52001953, 3.0761719, -1.9775391, 0.69970703, 2.0957031, -1.7421875, -0.07080078, -0.2993164, 1.2392578, -1.0625, -0.97216797, -1.8896484, 2.5605469, -0.64404297, -0.84375, 0.74072266, 1.6757812, 1.4326172, -1.1630859, 1.0205078, -0.15429688, 1.6298828, -0.15600586, -0.26220703, -0.47998047, -1.8867188, 0.28881836, 1.4306641, -0.07928467, 0.94677734, 1.7519531, -0.640625, 0.7519531, -1.9960938, 1.9853516, -3.0859375, -0.56103516, -0.5371094, -0.38110352, 0.94433594, -0.7270508, -1.2597656, -0.9794922, 1.9150391, -1.1816406, 2.5566406, -0.4477539, -0.59814453, -0.5366211, 2.4453125, 1.2236328, 1.2167969, 3.3886719, 1.1533203, -0.38012695, -1.3808594, 0.81689453, -1.2275391, 0.58496094, -1.1962891, 0.4716797, -0.7138672, -0.034240723, 0.98876953, -1.3476562, 1.4882812, -2.2753906, -0.22314453, 3.0546875, 0.048309326, -1.3808594, 1.2910156, -0.6176758, 2.9667969, 1.0205078, -1.9541016, -0.14294434, -0.5263672, -0.05303955, -0.17468262, -0.020950317, -1.5996094, 0.67333984, -2.671875, -0.46850586, 0.5683594, -0.4580078, -1.2421875, -0.7050781, -1.2001953, 0.42358398, 2.1582031, -3.3398438, -1.1132812, 3.3964844, 0.6899414, 0.5654297, -0.7519531, 1.0595703, -0.9277344, 0.90234375, -0.7080078, -0.90185547, 0.5810547, 0.8964844, 1.0527344, 0.5019531, 2.7246094, 0.14208984, -2.7929688, 1.9980469, 1.2880859, 0.53125, -0.8671875, -0.86816406, -1.4648438, 1.4726562, -1.3867188, 0.7128906, 1.4873047, 0.70410156, -1.6923828, 0.5395508, -0.14660645, 0.13098145, 0.11065674, -1.6074219, 0.52246094, 0.72021484, 1.7109375, 0.20898438, -0.94433594, 2.3613281, -0.15588379, 1.7421875, 0.9638672, -0.019836426, 0.52197266, 0.21618652, -0.6435547, -2.7226562, -0.7832031, 1.4375, 1.5488281, -1.5048828, -0.16223145, -1.8300781, -1.2861328, -1.0810547, -2.2011719, -0.38378906, 0.8125, 1.3632812, 1.2890625, 2.4433594, -1.9707031, -0.8442383, -1.7587891, 0.17297363, 1.0185547, 0.19665527, 1.5175781, 0.6879883, -0.95751953, -0.8129883, 1.0839844, -0.6357422, 0.6303711, -0.9692383, -1.3378906, -0.3256836, -0.34155273, 1.9013672, 0.6328125, 1.8066406, -0.08691406, -1.1748047, -1.5537109, 0.93408203, 0.5732422, 1.0273438, 3.3398438, -0.3684082, 0.42919922, 0.9277344, -0.36938477, 0.67333984, 1.6298828, 0.3918457, 1.5166016, 0.5620117, -0.027252197, 0.484375, 0.71435547, -0.22607422, -0.17529297, -2.9003906, 0.1315918, 0.57714844, 0.39257812, 1.1699219, -0.22143555, -0.43017578, 2.703125, -0.80859375, 0.46020508, -1.7763672, 0.043029785, 0.8774414, -0.04711914, 1.4101562, -0.61865234, 1.3496094, -2.2324219, -1.3857422, 0.17443848, 1.8164062, 0.43286133, -1.5478516, -0.14697266, 0.92041016, -2.0625, -0.5644531, 0.5810547, 0.26245117, -1.1386719, 0.98535156, 0.22155762, 0.14501953, -3.015625, -0.34106445, 0.60839844, 1.3359375, 0.6953125, 1.7714844, 1.2412109, 0.59521484, 0.33398438, 1.7285156, -1.8320312, -0.7583008, 5.9023438, 3.4902344, -1.3408203, 1.7695312, -1.6054688, 0.55859375, -0.11895752, 0.86035156, 0.052337646, -0.7426758, 1.5800781, 0.91796875, 0.62939453, -0.34350586, 0.3491211, -0.067993164, -1.0273438, -0.6503906, 0.7290039, 1.8457031, -3.109375, -0.63671875, -0.90771484, 0.7104492, -0.2355957, 1.6425781, -1.1455078, 1.5058594, -3.4648438, -2.0253906, 1.8720703, -0.27929688, -1.7900391, 0.8496094, 0.35253906, -0.13513184, 0.68359375, 1.4140625, -0.9658203, -0.234375, 0.46191406, -0.7714844, 0.7055664, -1.9482422, 1.5458984, -0.3095703, 1.4375, 0.12841797, -0.6381836, 1.2578125, -0.8642578, -0.31713867, 0.20593262, -0.9692383, -0.33251953, 3.875, 2.0761719, -0.7963867, 0.60253906, -0.31835938, -0.25854492, -0.2529297, -1.5585938, -1.8652344, -0.73583984, -2.2929688, 2.0507812, 0.69189453, 0.4892578, -1.4355469, -0.51220703, -0.0569458, 0.26293945, 0.2479248, 3.7832031, 2.3847656, 1.5761719, 0.3203125, 2.3964844, -0.018722534, -0.29223633, -1.7841797, 2.0195312, 0.5131836, 0.21899414, -1.5927734, 0.6230469, -0.23669434, -0.61376953, -0.87060547, 2.0703125, 0.9145508, -1.5019531, 0.8666992, 1.5390625, -0.8798828, 1.1337891, 0.58154297, 1.1074219, -1.2978516, -0.06549072, -3.0234375, -0.14074707, -0.1907959, -4.7382812, -0.78222656, 2.9238281, 2.1875, 2.078125, -1.0058594, 2.3457031, -0.91015625, -2.0820312, -0.011039734, 1.0605469, -0.49023438, -1.3154297, 0.453125, 0.10253906, 0.9272461, -0.51953125, -2.1894531, 0.5336914, -1.9199219, -0.17553711, -0.76953125, -0.4921875, -1.6376953, 0.90234375, 1.9296875, 0.54785156, 0.23693848, 0.18518066, -1.3300781, -0.80126953, -0.06951904, -1.3525391, -4.9023438, -0.2479248, 0.036499023, -1.3427734, 0.77197266, -0.2902832, 1.4023438, -1.7363281, 2.2128906, -1.3623047, 0.1652832, 0.48608398, 1.0253906, 1.0341797, 0.37768555, -0.2734375, -1.3691406, -2.984375, 1.4082031, 0.03652954, -1.0234375, 0.37841797, 1.5214844, -1.0966797, 0.4243164, -0.70996094, 2.1679688, -0.7919922, 1.6455078, 0.36254883, -0.77685547, -0.047790527, -1.0126953, 0.31201172, 1.6455078, -3.0703125, 1.0341797, -0.20056152, -1.5595703, 0.11621094, -1.8789062, -0.039001465, 0.21374512, 1.2587891, -0.98339844, 1.1875, -1.7548828, -0.7753906, 0.96484375, 0.032073975, 1.0029297, 0.33081055, 0.51220703, -1.0019531, -1.5761719, 0.30639648, 1.3369141, -0.08325195, -0.3798828, -0.17614746, -0.5180664, 0.36938477, 0.47045898, -0.91503906, 0.2919922, -1.0146484, 0.023590088, -0.79248047, 1.8740234, 0.70947266, 1.1679688, -0.0309906, 1.1191406, -1.6787109, -2.2734375, -0.13342285, 0.6875, -0.4020996, -0.9785156, -0.31469727, 0.11175537, 0.81347656, -0.25585938, -0.38671875, -0.105773926, -1.390625, 0.23669434, -0.5288086, 0.11291504, 0.9013672, -0.23571777, 0.6845703, 0.09399414, -0.2915039, 0.20385742, -0.48291016, -1.0292969, 0.5439453, 0.31884766, 1.9033203, 0.39941406, 1.4375, 1.5253906, -0.79052734, -0.30615234, -0.14624023, 0.7050781, 0.4716797, 2.9589844, -1.2333984, -0.13366699, -0.23522949, 0.17944336, 1.0947266, 1.109375, 0.19177246, -1.0292969, 1.3242188, -0.3059082, -1.2587891, -1.9707031, 1.2304688, 1.4404297, -0.52783203, -0.3322754, 0.70996094, -0.77685547, 0.5996094, 0.17810059, -1.4824219, 2.4824219, 2.5058594, -1.1757812, -1.4648438, 0.28857422, 0.21252441, -0.1116333, 1.2705078, 0.95751953, 0.70214844, -0.5932617, -0.7001953, -1.0625, -1.2275391, -1.1337891, 0.70458984, 0.93066406, 0.33935547, -1.9912109, 1.875, -0.9453125, 0.28051758, -0.3630371, 1.2041016, -0.77441406, -1.0986328, 1.0634766, -0.48657227, 0.75097656, 1.0498047, 0.37280273, 1.6835938, 0.045715332, -1.6386719, -2.46875, -0.30493164, 0.42016602, -1.8837891, 0.048614502, -1.3613281, -1.5205078, 1.1650391, 1.2783203, -1.5966797, -0.3479004, 0.30004883, 0.77197266, -1.2119141, -0.25439453, 0.05090332, 0.09173584, -1.7890625, -2.1816406, -1.8681641, 0.02798462, -0.4326172, 2.4199219, 0.06982422, -0.5185547, -0.3857422, 0.6298828, -1.6884766, 1.1552734, 1.8017578, 2.1035156, 0.3425293, 1.0400391, -1.0205078, 1.2226562, -0.7817383, -0.52734375, 1.2773438, 0.87939453, -1.4335938, -0.2310791, 0.03567505, 1.6328125, 0.078308105, 1.3535156, -0.7480469, -1.7763672, -1.9980469, -0.796875, -0.55859375, -0.43798828, 1.1582031, 1.4394531, 1.3212891, 0.62353516, -0.04156494, -0.39892578, 1.2890625, -0.51953125, 0.6816406, 0.40161133, 1.0488281, -0.99609375, -1.4990234, -1.6005859, -0.78466797, -0.625, 1.0625, 1.203125, -1.84375, -4.4140625, -2.2089844, 1.1835938, 0.61083984, -0.47143555, -1.0166016, 1.8701172, -0.35620117, 0.2824707, -1.9169922, -1.4296875, -0.36767578, -1.1103516, -0.076660156, 1.5556641, -1.0810547, 0.5131836, 1.1533203, 0.20361328, 1.4638672, 0.61083984, -0.5131836, 0.87939453, 2.6035156, 0.625, -2.9921875, 0.07409668, 4.2851562, -1.2724609, 1.6054688, -1.2607422, 3.1113281, 0.9135742, -1.2324219, -1.1142578, -0.93603516, 0.57666016, -0.82470703, -0.42871094, 0.51171875, 0.90966797, -1.4492188, -0.99365234, 0.5605469, -0.50439453, 1.1162109, -1.0644531, 1.5751953, -1.3193359, -0.91503906, -1.2548828, -1.6337891, -1.1650391, -1.8847656, 0.33081055, -1.3359375, 0.8286133, 0.1694336, -2.9960938, -0.13024902, -1.046875, -0.28637695, -1.0087891, 0.71240234, -0.8564453, -1.0332031, 1.2470703, 1.0273438, 1.6162109, 1.5146484, 0.48046875, -0.60546875, 0.7753906, -0.99560547, -1.4179688, 1.1416016, -1.2255859, 0.9477539, 1.6728516, 3.6972656, -0.77685547, -0.9199219, -1.0029297, 1.3818359, -1.7490234, 2.9140625, 1.0058594, -0.7578125, -2.7832031, -0.7949219, 1.484375, 0.6582031, 0.41259766, -1.3759766, 0.32421875, -1.9316406, 0.73291016, 1.1621094, 1.4443359, 0.77441406, 0.15637207, 1.9648438, -1.3388672, 0.69921875, 0.84472656, -0.099243164, -2.8613281, 2.9589844, -0.40283203, 2.15625, -0.2064209, 1.8105469, -0.005809784, -0.093444824, 2.0039062, 0.83251953, 0.01171875, -0.5292969, -1.7744141, -2.5351562, -0.8979492, -0.7319336, 0.3996582, 0.7680664, -0.32080078, 0.08239746, -2.0742188, 0.67089844, -0.047332764, 0.11920166, 1.2646484, 0.98535156, -1.1660156, -1.1269531, 0.7084961, 0.48608398, 0.10772705, -0.30566406, -0.1706543, -0.29638672, 0.53564453, 1.9091797, -0.5415039, 1.7050781, 0.22473145, 0.58251953, -1.5410156, -0.47314453, 1.3222656, 1.5878906, -2.0195312, -1.2382812, -0.8461914, 0.037841797, 2.078125, 1.234375, -0.7402344, -0.20739746, -1.0205078, -0.6669922, -1.0058594, 0.66259766, 2.1914062, -1.5644531, 0.02734375, -2.359375, -0.7910156, -2.1386719, 0.5678711, -0.09954834, 1.9013672, 0.703125, -0.08691406, 0.9609375, -0.010139465, 0.9223633, 0.31445312, 0.7548828, -1.3642578, -0.35864258, 1.4941406, 0.67041016, -2.0742188, -1.1044922, -1.0625, -0.20947266, -0.37231445, -0.7939453, -1.6298828, -0.6713867, 1.2109375, 1.5283203, 0.25146484, 1.8691406, -0.93115234, -0.9916992, -1.9726562, -0.19238281, 3.65625, 1.1191406, -0.5493164, -1.7128906, 0.65722656, 1.171875, 0.1270752, -0.93359375, -0.17053223, 1.2558594, -1.5517578, 1.2402344, 0.5732422, 1.9833984, -0.22875977, -1.1953125, 1.5175781, 1.4951172, -0.47045898, 0.7260742, 0.23535156, -0.5917969, -1.9960938, -0.9526367, -0.21191406, -0.640625, 1.5908203, 1.7792969, 0.8432617, -1.1933594, 0.7836914, 0.20019531, 0.6879883, -0.15332031, -0.8779297, -0.07910156, 2.9570312, -1.6835938, -0.96191406, -0.41430664, -0.3737793, -0.53271484, -0.77001953, 2.8027344, 0.40820312, 0.49731445, 1.0263672, -1.0791016, 3.5566406, 0.7841797, -0.1394043, 0.2878418, 2.84375, -0.2076416, -1.4316406, 0.84716797, -1.1894531, 0.07086182, 0.5708008, 0.3244629, 0.9970703, -0.8300781, -1.1865234, -1.4941406, 0.7885742, -1.2548828, -0.5229492, 0.27783203, -0.7392578, -0.77441406, 0.96875, -0.30444336, 0.73046875, 1.0244141, 0.3203125, 0.25170898, 0.6166992, 1.7128906, 1.0253906, -0.38623047, -0.4404297, 0.44970703, 1.5429688, 1.9462891, 1.2919922, 0.38378906, -0.34594727, 0.068115234, 0.3881836, -2.640625, -1.2324219, 1.5263672, -2.7871094, -0.2709961, -0.8574219, -0.36669922, -0.9165039, -1.0224609, 0.27294922, 2.0195312, 0.67285156, -0.19824219, -0.8227539, -0.51220703, 0.1262207, 0.5493164, -0.7138672, -1.0302734, 0.32666016, 0.9399414, 2.4941406, 1.6181641, -1.5195312, -0.40649414, 1.0146484, -0.6933594, 1.6123047, -0.9213867, 1.9609375, -0.31567383, -0.006801605, -0.48754883, -1.7431641, -2.4902344, 1.0585938, 1.8779297, 0.40039062, 0.14575195, 0.5097656, -1.78125, -1.1230469, 0.35205078, -1.9150391, -1.9404297, -0.77978516, -0.109313965, -1.7119141, 5.3671875, 0.9814453, 1.8125, -2.1992188, -0.8623047, -0.058898926, 2.1855469, 1.4160156, -1.2041016, -1.2011719, 0.4086914, 0.5415039, -0.6069336, 1.8349609, -0.34594727, -2.6152344, 0.18701172, 0.043792725, -0.65283203, 0.9970703, -0.3088379, 0.9868164, -0.123046875, -2.0585938, 3.3183594, -0.32177734, 0.54003906, 1.0078125, 1.7910156, -1.9003906, -1.3505859, 0.37963867, 0.5488281, -1.2675781, -0.3552246, -1.6835938, -1.5888672, 1.0253906, -0.14465332, -0.4814453, 0.28344727, 0.69677734, -0.8701172, -1.7216797, 2.6894531, -1.6269531, -1.2148438, -3.1035156, -0.9667969, 0.76904297, -0.7050781, -0.35498047, -1.4619141, -2.71875, -0.9897461, -1.3837891, -0.9638672, -0.26757812, -1.4326172, 0.62353516, 1.7587891, -0.24072266, -0.2536621, -0.34887695, -0.7324219, 2.2890625, -1.3164062, 0.25683594, 0.29882812, -1.6464844, -0.6503906, 1.5800781, -1.8291016, 1.7460938, -1.8125, -2.0703125, -0.15344238, 1.1523438, 0.63134766, 1.2314453, -0.82958984, -1.8984375, -0.4741211, 1.0986328, 1.7490234, -0.21459961, 1.3447266, -0.77197266, 1.3007812, 1.0087891, -0.3876953, -0.8515625, -0.35302734, 0.06842041, 1.7490234, 0.24487305, -1.3417969, -1.9853516, -1.0351562, 0.38305664, 0.28759766, 0.12371826, -0.16455078, -0.7363281, 0.86621094, 1.7871094, 0.5444336, 0.33642578, -1.8085938, -0.6982422, -2.0039062, -0.8466797, -0.0496521, 1.4951172, 0.86376953, -1.2294922, 0.3869629, -0.47729492, -1.8056641, 0.3947754, 0.92822266, 0.5932617, 0.83496094, 1.5488281, 1.0976562, 0.9609375, -1.4892578, -0.9042969, -1.0478516, 0.27856445, 2.0175781, 0.32250977, -0.42919922, 0.7348633, 2.3183594, 1.3486328, 1.4375, -0.5551758, 0.001906395, 1.6289062, 0.9868164, 1.1777344, 0.3959961, -0.8618164, 0.9477539, 1.7724609, -1.6904297, 0.10021973, 0.17773438, 1.7021484, -2.9042969, 0.1328125, -0.55810547, 1.1523438, -0.12792969, -0.18408203, -0.44921875, -1.9941406, 0.07080078, 0.8823242, 0.4284668, -3.5644531, -0.72753906, 0.15368652, -1.0654297, 1.0195312, -1.0429688, -0.06347656, -0.81347656, 0.54052734, 0.19311523, -0.047210693, 1.0419922, -0.38378906, -2.0078125, -1.5078125, -2.5390625, -0.1640625, -0.5107422, 1.6728516, 1.5048828, 1.5263672, -1.5429688, -0.92285156, -1.2783203, -0.25878906, 2.6835938, 0.8276367, 0.1809082, 0.4375, -3.0039062, 0.8339844, -1.6875, 0.5708008, -0.19335938, 1.8232422, -0.38989258, 1.4033203, 1.9736328, -2.6757812, 0.47875977, 0.8432617, -0.19348145, -0.11584473, -1.3408203, -0.18774414, 1.0566406, 0.48291016, -1.6855469, 0.048614502, -0.5673828, 0.36987305, -2.2792969, -1.3994141, -0.82373047, 0.7729492, -1.1318359, -0.11621094, 2.6855469, -0.62402344, -1.8476562, -0.7973633, 2.078125, 0.57958984, 0.76953125, 0.019470215, 0.8798828, 0.43164062, 0.025497437, -1.0224609, 1.6943359, -1.7988281, -1.3740234, 0.64746094, 0.9116211, -2.5351562, 0.08508301, 0.40454102, -0.12408447, -0.4411621, 0.06689453, -0.34960938, 0.4326172, 0.91796875, 1.7236328, -0.3178711, -0.89746094, 1.8671875, 0.41748047, 1.0966797, -1.5234375, -1.5791016, 0.5991211, 1.9277344, 0.15722656, -1.7128906, 0.10632324, 0.45483398, 0.25170898, -0.12634277, -0.6777344, 0.7558594, 0.67333984, -1.6630859, -1.4248047, -0.40307617, 0.04345703, -1.9111328, 0.6923828, 2.15625, 0.84228516, -0.8911133, 0.35766602, -0.08880615, -1.2949219, 0.5283203, 0.8256836, 0.0062561035, -1.9814453, 0.46044922, 1.0087891, -0.2467041, -2.4765625, -2.9941406, -0.061065674, -2.3300781, -1.7587891, 0.26293945, 0.016113281, 1.0927734, -0.13415527, 2.1601562, 0.61865234, -0.6411133, -0.21557617, 0.7167969, 1.4931641, 2.1992188, 0.4423828, 1.2050781, 1.4433594, -0.37841797, 0.9394531, -0.70996094, -3.0234375, 1.1640625, -0.3623047, -2.0214844, -0.11621094, 0.7158203, 0.38867188, -0.7265625, 2.1445312, -0.7573242, 2.4882812, 0.8144531, -0.5708008, 0.2614746, -2.4941406, -0.72509766, 2.2441406, -2.5605469, -0.86621094, 0.13476562, -1.9443359, 1.2871094, 0.31469727, -2.0605469, 1.3886719, 1.0693359, -0.50634766, 0.93603516, -1.4257812, -4.109375, 1.3417969, 0.16247559, 0.58691406, -1.0087891, -0.4736328, -0.29882812, 1.1289062, -0.35961914, -0.62597656, -2.2558594, -0.34594727, 1.2861328, -0.28393555, -0.3166504, 1.1523438, -0.24743652, -0.77734375, 0.35351562, -1.2539062, 1.8037109, -3.3496094, -3.1152344, 0.031082153, 0.48461914, -0.37280273, -0.5102539, 0.73779297, -0.48242188, 0.31933594, -0.21704102, 0.97216797, 1.1474609, 0.4453125, -1.5175781, 0.44873047, 0.75634766, -1.4619141, 0.88623047, 1.0029297, -0.6230469, -0.12060547, 2.8203125, 0.9555664, 0.17590332, 0.89990234, 1.5820312, -1.2685547, 1.4101562, 0.17321777, 1.4912109, -0.2376709, 0.22351074, 1.5175781, -1.2773438, -0.051696777, -1.5185547, 0.23059082, 1.9873047, -0.9394531, 0.5366211, 0.71972656, -0.16516113, -0.9003906, -0.61083984, -0.68896484, 0.022445679, -1.7949219, -1.4052734, -1.2353516, 0.84765625, 1.3134766, 1.4677734, -0.7949219, -0.054718018, -0.66796875, 0.22387695, 0.032440186, 0.45776367, 0.17468262, 0.22729492, -2.1054688, -0.38500977, -1.0390625, -0.65283203, -0.55126953, 0.3173828, -0.7631836, 1.2207031, 1.2744141, 1.0019531, 0.2244873, 0.41015625, -1.3583984, -2.5175781, -1.0488281, -1.5488281, 1.7060547, 0.4663086, -0.88623047, -3.734375, -0.6308594, -1.2304688, 0.26293945, -0.28881836, -0.8925781, 0.27490234, 0.8125, 2.5078125, -0.10675049, -2.3320312, -0.7270508, -1.4130859, 1.9726562, 0.5024414, 0.99072266, -0.43139648, 0.15429688, 0.6591797, -1.65625, -0.20605469, 2.5449219, 4.0273438, 1.5400391, 1.0839844, -1.1269531, -1.9667969, 0.29736328, 0.71728516, 1.8945312, -0.6333008, -1.8007812, -0.4025879, -0.8544922, -0.8803711, -0.06976318, 1.9628906, -1.3408203, -4.140625, -2.9042969, -1.0927734, 0.87060547, 1.8808594, 0.6381836, 1.5634766, -0.7290039, -3.3183594, 0.20153809, 0.13024902, -0.38305664, -0.91503906, 0.24658203, 0.10272217, 2.3183594, 0.05328369, 0.04437256, -0.06903076, -0.4753418, 0.71972656, -1.1923828, 0.6303711, 0.58496094, -0.059906006, -0.6723633, -2.28125, -2.6308594, 0.010002136, -2.6328125, 0.5727539, 0.50683594, -2.3007812, -2.0273438, 1.3183594, -0.59814453, 1.1376953, -0.05722046, -0.47460938, -0.42651367, 0.4182129, 6.0546875, -1.2255859, -0.47998047, -0.61279297, 0.21252441, 0.21557617, 0.8120117, -0.11779785, -1.7294922, -1.5371094, 1.4052734, -1.0126953, -0.9350586, 1.5029297, 1.3671875, 0.68310547, 0.625, 1.7431641, -0.4621582, -0.97509766, 0.10626221, 1.7314453, 1.6523438, 1.5019531, -0.06341553, -0.76708984, -0.9008789, -0.75439453, -1.9238281, 1.7861328, -1.3291016, 0.043151855, -0.23303223, 0.79541016, -0.48754883, 1.5283203, -0.6699219, -0.70751953, 0.20690918, -2.7910156, 0.95751953, 0.5800781, 0.04763794, -1.0078125, -0.23388672, 0.31347656, -0.49267578, 1.1875, -0.0031833649, 0.48510742, -0.43969727, 1.5830078, 0.6894531, 0.78759766, 0.54003906, 1.4912109, -0.46020508, 1.3486328, 1.4199219, 1.8115234, -0.2319336, -0.05999756, -2.1621094, -1.4248047, -2.0195312, -1.1875, -1.5048828, 1.7841797, -1.6777344, -1.2089844, 1.0996094, -0.9526367, -1.0585938, 0.62109375, 0.6044922, 0.20056152, -1.8642578, 0.38989258, -0.38671875, 1.9521484, 0.3347168, -0.86865234, 0.6640625, 0.8701172, -0.35986328, -1.0107422, -3.9140625, 1.7480469, 0.66503906, -0.42626953, -1.3740234, 2.09375, -1.2617188, -1.5869141, 0.88623047, 0.69140625, -1.5244141, -0.3737793, 1.4746094, -2.5058594, -0.03414917, -1.9257812, 0.8222656, -1.2861328, -0.98339844, -2.2070312, 0.8769531, 0.15783691, -0.98779297, 0.4333496, 0.80810547, 0.29663086, -0.30615234, 0.328125, 1.1650391, -0.41796875, 0.9082031, 2.0039062, 4.203125, 0.70214844, -1.1757812, -1.2607422, -0.027526855, 0.97509766, -1.2236328, 0.46655273, -1.9960938, -0.73876953, 1.3466797, 1.6630859, 0.081970215, 0.296875, 0.28222656, 1.9355469, 1.15625, -1.2197266, 1.1767578, 1.296875, -1.2216797, -1.5615234, 0.41918945, 0.20922852, -0.72021484, 0.15576172, -0.38330078, -0.453125, -1.3916016, -1.6933594, -2.4121094, 0.96777344, 0.2130127, 0.5239258, 2.1640625, -0.06640625, 0.43017578, -0.48291016, -0.041015625, -0.47729492, -1.8769531, 2.3242188, 1.3417969, -0.2631836, 0.47973633, -0.85253906, 2.0761719, 0.54833984, -1.6904297, 0.48657227, 1.6425781, -1.8486328, -0.37573242, -1.3261719, -1.4375, -2.5390625, 0.19213867, 2.0839844, 0.30004883, -0.3461914, 1.484375, -1.7255859, -0.15710449, 0.7011719, -1.6474609, 0.5317383, -0.65478516, 0.5151367, 0.9013672, -1.4697266, 1.0400391, -2.5195312, -1.6943359, 0.3544922, -0.37939453, 2.2304688, 0.21777344, 0.5395508, -0.32788086, -1.1972656, -1.4228516, -0.75927734, 0.26464844, 0.9980469, 0.17736816, -2.5898438, -0.50439453, -7.1054688, -0.7739258, 0.39501953, 4.8046875, 0.05441284, 1.5996094, -1.0292969, 0.92822266, 1.2597656, 0.52490234, 0.22424316, -0.19689941, 1.1337891, 1.0576172, -1.0390625, 1.2011719, -1.3691406, 0.38842773, -2.4628906, -0.95458984, -0.58251953, 4.796875, -0.4177246, 1.3642578, -0.13439941, -1.2802734, 1.6621094, -1.5761719, 0.28344727, 0.39868164, 1.921875, -2.0058594, 1.4658203, -1.0507812, 0.71875, -0.0075950623, 0.030090332, 3.0878906, 1.5273438, -1.0791016, 0.25512695, -1.6328125, -2.4355469, 0.31274414, -0.61328125, 1.9404297, 1.1699219, 1.8144531, 0.16345215, -0.013298035, -0.5161133, -0.8310547, -0.7871094, 0.6870117, 0.55566406, 2.2148438, 1.0449219, 0.98779297, -0.7519531, 0.31298828, 0.4243164, -0.24658203, 0.3930664, 1.7978516, 0.7758789, 0.103149414, -0.7373047, -1.6386719, -1.8388672, -0.016525269, -0.5131836, -0.6542969, 1.7099609, -0.7260742, -0.6923828, -0.43896484, -0.86621094, 0.328125, 0.52001953, -0.6645508, 0.13208008, 0.7578125, 1.4501953, 1.1611328, -0.34423828, 0.6064453, 0.16772461, -0.69628906, 0.2644043, -0.10467529, 0.2109375, 1.6464844, 1.1484375, 1.9482422, 1.3447266, 0.69384766, -0.39379883, 0.71875, 1.1181641, -2.2792969, -0.2286377, -1.2255859, -0.78125, -0.23254395, -1.8710938, -3.671875, -1.8027344, 1.7421875, -0.3942871, 2.4492188, 1.4785156, -0.30786133, 0.55859375, -4.0195312, 0.033447266, -0.95996094, -0.6645508, 3.0683594, -2.2851562, 1.1787109, -0.3605957, 1.9833984, -0.7753906, 2.1757812, 0.66796875, -0.054382324, 0.99365234, 0.39379883, 1.0625, -1.7412109, -0.61279297, 2.1132812, -0.19091797, -1.9091797, 1.0195312, 0.5727539, 0.34155273, 1.7353516, 1.8496094, 0.28344727, 0.7558594, 0.4555664, -0.24194336, -0.33789062, 1.7167969, 1.1953125, 0.19921875, -1.2558594, 0.3010254, -0.34594727, -2.5117188, -0.35351562, 0.16723633, 1.0947266, 0.43530273, 0.8100586, -2.5488281, -2.1191406, -0.8535156, -3.6972656, 1.1376953, 0.17907715, 3.0488281, -0.09375, -0.043029785, 0.31347656, -2.1542969, 0.11218262, -0.037872314, -0.12573242, 0.28344727, -0.082214355, 0.7871094, -3.2597656, -0.87597656, 0.49169922, 0.9404297, -0.42285156, -0.04876709, 0.55126953, -1.2255859, -1.515625, -1.1210938, -0.55810547, -0.6586914, -1.0615234, -2.21875, 1.9609375, -1.2216797, 0.3371582, 0.8544922, -0.70996094, 0.4453125, 0.80615234, -0.95654297, -1.5771484, -0.4423828, -1.1035156, 0.7236328, -0.2626953, -0.74853516, -2.2402344, -0.15759277, -0.5859375, 0.7729492, -1.8291016, -1.0390625, -0.09790039, -0.5732422, -0.27246094, 0.0016145706, -0.13574219, 1.1083984, -0.1751709, -2.1601562, -0.90234375, -0.49902344, -0.16271973, -0.57958984, 0.5493164, 0.32543945, 0.55859375, 0.484375, -1.4023438, 1.3916016, -0.95166016, 0.025543213, 0.0069885254, -1.5673828, 2.3808594, 1.3525391, -0.8276367, 2.4960938, 0.5810547, 0.74658203, -0.22143555, 1.2714844, 1.1308594, -0.03543091, -0.73339844, 0.7963867, 2.9472656, 1.4130859, 1.0869141, 2.6972656, 0.036376953, 0.6875, 1.0039062, 1.3115234, 1.7236328, 1.4121094, 1.2978516, -0.9980469, 0.9086914, 1.2177734, -0.7167969, 0.82177734, 0.99609375, 0.0881958, -0.108947754, -2.2949219, 0.016342163, -0.1484375, -1.0039062, -2.4511719, -0.40405273, -0.107055664, -0.49072266, -2.0527344, -0.97021484, -3.2773438, 0.12756348, 0.6899414, 1.8759766, -4.4414062, -1.765625, 0.578125, 1.4667969, -0.08325195, -0.9658203, -1.7949219, 0.875, -2.1953125, 1.8574219, 1.7607422, -0.70214844, 0.15881348, -0.8901367, -0.25805664, -0.77197266, -0.28027344, -2.1972656, -0.03756714, -1.6337891, 1.2910156, 0.7446289, -3.8144531, -0.48706055, -1.5644531, -0.3071289, 0.46679688, -0.06591797, 1.0107422, -0.12683105, -1.5830078, -1.1552734, -1.1210938, 0.85791016, 0.28271484, -0.15673828, 3.7734375, 0.80029297, -0.60253906, -2.7421875, 1.265625, 0.46948242, -0.61376953, -0.37060547, 1.5839844, -0.34814453, 0.5654297, -1.84375, 0.98339844, -0.515625, -1.0791016, 0.3515625, -0.12011719, -0.7548828, 0.32202148, 0.15368652, 1.8447266, 0.16662598, -0.18945312, -0.33813477, 0.29589844, 1.5664062, -0.97314453, -2.4882812, 1.7402344, 0.31958008, -0.95947266, -1.1738281, -0.9428711, 0.18798828, -1.4990234, 2.8847656, 1.8896484, 0.35791016, 1.2441406, 1.5976562, 1.1816406, -0.3005371, 2.4023438, 0.8671875, 2.875, -1.4101562, 0.4736328, -1.0888672, -1.1699219, 0.6972656, 1.2158203, -0.40551758, 0.94140625, -1.0751953, -0.007873535, -1.640625, 1.4267578, 1.2480469, -1.2353516, -0.5341797, -0.35888672, 1.3691406, 1.359375, -0.19226074, -0.85498047, -0.6298828, -0.22106934, -2.8515625, -1.1972656, 3.0507812, -0.92626953, -2.2050781, -1.1611328, -1.0380859, -1.0810547, -2.125, 0.18237305, -0.2783203, 0.078125, -0.21618652, 2.4257812, 0.9584961, -0.7211914, 2.7539062, 1.7431641, -0.58447266, 0.066467285, -0.4716797, 0.8779297, -0.7685547, -0.12188721, -0.68896484, -0.6870117, -0.27075195, 0.5048828, 0.41333008, -0.2536621, 0.5732422, 0.55615234, 1.5507812, -0.18310547, -1.8710938, 1.0175781, 1.1494141, 0.70703125, 1.4716797, -0.11993408, 1.7167969, 1.140625, -1.1005859, -0.4645996, 0.30664062, 0.7807617, -1.1777344, -0.91552734, 0.19506836, -0.44433594, -0.026443481, 1.2158203, -0.33154297, 0.93115234, -0.95751953, -0.5239258, -2.4101562, -0.83496094, -2.3183594, 0.3474121, 0.15710449, 0.63427734, -1.5058594, 2.6875, 0.061401367, 0.7861328, 0.25927734, 0.35473633, -0.6333008, -0.3076172, 0.5126953, 0.48095703, -0.7753906, 0.09893799, -2.2089844, -0.31298828, -0.9316406, -1.2021484, -3.0527344, -0.39892578, 1.7763672, -1.25, 0.69091797, -1.1230469, 0.07849121, 0.15686035, -0.090026855, -1.0449219, -0.65722656, 0.3894043, 1.5644531, 1.1289062, -2.2578125, -1.0332031, 1.3027344, -2.2773438, 0.43823242, 0.8901367, -0.46362305, -0.9008789, -2.8144531, -0.56884766, 0.96777344, 0.67822266, -1.2197266, 1.1757812, 0.22058105, -2.7324219, 0.28466797, 1.2626953, 0.5395508, -0.006160736, 0.8701172, 1.4638672, -0.6191406, 0.64697266, -0.18859863, 2.234375, -0.76416016, 0.66259766, -3.5292969, -1.1777344, -0.103149414, -1.5966797, -3.2304688, -0.8828125, 1.0117188, 0.31323242, 1.8632812, -0.17651367, -0.7705078, 0.35986328, 1.2490234, -0.58496094, 1.4482422, 1.609375, 1.7392578, 0.23937988, 0.73876953, -2.7226562, 2.1835938, 0.01777649, -1.2734375, 0.16796875, -0.44018555, 0.45874023, 1.5566406, -2.7382812, -1.2900391, -0.95751953, -0.057525635, -2.1289062, 0.37646484, 4.2421875, -1.5136719, 0.7426758, 0.71875, 1.4785156, -3.6953125, 2.1933594, -1.3193359, -0.8286133, 1.5830078, 3.2050781, 0.058532715, -3.2851562, 0.010093689, 0.7597656, -1.7470703, -0.10974121, 0.64404297, 1.0410156, 1.8369141, 1.8603516, 0.15783691, -0.85058594, 0.47045898, 1.2929688, 1.34375, -1.2333984, -1.4521484, -0.64941406, 0.06707764, -0.8676758, -2.5117188, -1.046875, 1.234375, -0.6381836, -3.2597656, 0.7036133, -1.1630859, 0.025253296, 1.4882812, 1.0087891, 2.2050781, -1.3447266, 1.1269531, 1.0751953, 1.2724609, -0.7885742, 0.25024414, 0.36206055, 0.8208008, -2.1914062, -1.3496094, 1.1591797, -0.2680664, 0.44873047, 0.25219727, 0.5830078, 4.0195312, -1.8310547, -1.4121094, -1.3505859, -0.52197266, -0.7158203, -2.8105469, -0.7290039, 0.6743164, 0.99609375, -2.8476562, 0.1373291, 1.0732422, 1.0761719, 1.9091797, 1.1132812, -0.04272461, 2.3789062, -0.13708496, -0.44799805, -0.64941406, -0.6323242, 0.6953125, 0.10418701, -0.8486328, -0.87646484, 0.19104004, -2.8789062, 1.3652344, 1.2734375, -0.24865723, 0.12231445, -1.8408203, -0.6381836, 1.796875, 2.6660156, -0.41210938, 1.0390625, 2.9511719, 1.1875, 0.06451416, -1.5410156, -0.11071777, -0.8847656, -1.7363281, -0.7597656, 0.61328125, -0.28857422, -0.9555664, 1.4794922, -2.3125, -0.20324707, -0.80078125, 1.3466797, -1.8291016, -1.3222656, 0.5751953, 1.5380859, 0.72753906, -1.1806641, -0.9121094, 0.56640625, -0.3618164, -0.8330078, 0.39624023, -0.43041992, 0.69677734, 0.37963867, -1.265625, 2.3671875, -2.4160156, 0.48046875, 3.1621094, 0.33374023, -0.54833984, -0.8701172, -3.6210938, -1.8867188, -2.5019531, 0.33398438, -2.3046875, -1.8808594, 0.10656738, -0.50146484, 2.1484375, 0.37402344, 0.2084961, -1.9609375, -0.546875, 0.69873047, 0.44335938, -0.12878418, 1.0996094, -0.7988281, 0.99365234, -3.3964844, -0.62060547, -0.9326172, 2.1347656, 2.1699219, 0.79003906, -0.5395508, 1.7294922, -1.0458984, -0.4230957, 0.9003906, 1.2529297, -0.0715332, 0.88427734, -0.36279297, -0.6801758, 0.37280273, 1.0830078, 0.75634766, 0.7373047, -1.5048828, 1.4863281, -1.2705078, -1.515625, -1.4589844, -2.2617188, -0.6738281, 1.1933594, -0.6611328, -1.0732422, -2.6796875, -0.21435547, 0.9140625, 0.4272461, -1.1132812, -1.2568359, -0.10998535, -0.4594726</t>
-  </si>
-  <si>
-    <t>[0.49682617, -1.3349609, 0.44360352, -0.43798828, -1.8818359, -0.19018555, -0.9394531, 1.421875, 1.7285156, -0.5776367, 0.08618164, -0.13061523, 1.4414062, 0.117614746, -0.32055664, 0.91748047, 2.2363281, -0.86621094, 0.75146484, -0.8457031, -0.33520508, 2.9941406, 1.7675781, -1.2978516, 0.119140625, 1.0166016, 0.8076172, -2.0996094, 0.85595703, 0.12011719, 3.3027344, 1.2636719, 0.79541016, 0.7910156, 0.14160156, -0.36083984, 2.1035156, -0.089538574, 2.4746094, 0.16308594, 0.91503906, 1.2285156, -0.78808594, 0.91845703, -1.4404297, 0.44628906, -1.3525391, -1.9707031, -0.49682617, -0.3466797, 3.3339844, 0.8691406, -0.6777344, 2.3339844, -1.5742188, -1.0830078, 1.2021484, -0.4724121, 0.13061523, -1.0576172, -0.33544922, 1.1083984, -0.3059082, -0.9003906, -0.01550293, 0.23950195, -1.7587891, 1.6621094, 0.31445312, 0.29760742, 0.7265625, -0.92285156, -0.22216797, -0.70654297, 2.0898438, 0.5673828, -1.3886719, -1.5566406, -0.8754883, 0.40771484, -0.4543457, 1.2363281, -1.1142578, 1.9785156, 1.1689453, 0.55615234, -1.8740234, -1.0058594, -0.2902832, -1.6679688, 1.8876953, 0.8798828, 2.1347656, -0.14001465, -1.5371094, 1.2001953, 0.90722656, 0.101135254, -1.0556641, 2.4960938, -0.53515625, -0.42211914, 1.7753906, 1.7490234, 0.59765625, 0.8154297, -3.3300781, 0.25708008, -0.75097656, 0.8857422, -1.2988281, -0.96875, 1.7539062, -0.7373047, 0.59228516, 1.0878906, 0.5761719, -1.9765625, -0.8666992, -2.3242188, -1.9746094, -0.6586914, 0.9472656, 2.1191406, -1.2441406, -0.7368164, -1.1611328, -1.3515625, -0.97021484, 2.3417969, -0.48828125, 0.3486328, -0.14196777, -1.3701172, 3.5761719, 2.0820312, -1.4013672, -1.6367188, -0.7373047, -2.4257812, 0.9345703, 0.48632812, 1.5732422, -0.5239258, -1.2226562, -1.3789062, -0.057739258, 0.03274536, -0.78222656, -0.23535156, -0.11431885, -0.8339844, -4.546875, 0.6352539, -1.3828125, 1.5527344, 0.020980835, -1.4335938, -1.1630859, -0.5551758, 1.0214844, -0.8208008, 0.5136719, -0.6074219, 2.2363281, 0.1619873, 3.0976562, 2.1875, 0.21801758, -1.8671875, -0.0871582, -1.5732422, 1.9628906, 0.80078125, 0.19177246, 0.7836914, 1.4404297, -3.4199219, 1.0986328, -2.3730469, 0.8574219, -0.2849121, 0.81152344, 0.6616211, -1.2265625, -1.8271484, -1.0878906, -0.4975586, 0.5854492, 0.34545898, 1.5898438, -3.7578125, -1.7880859, 0.5761719, 0.88623047, 0.55078125, -0.12438965, -0.9819336, 5.6992188, -0.35620117, 0.032989502, -0.008163452, -0.51904297, -0.65478516, -0.029815674, 1.5478516, 0.3317871, -0.31591797, 0.12023926, -0.72802734, -0.3815918, -1.1328125, 0.06994629, 1.0410156, -1.0869141, 0.70166016, 2.0839844, -1.1240234, 1.4941406, 1.2568359, 0.28979492, -2.8574219, -1.5185547, 2.0058594, -2.7832031, 1.7597656, -2.0820312, -0.50097656, -0.14282227, -0.9243164, 1.5273438, -1.390625, -0.083984375, 1.4853516, 0.3125, -1.6103516, -2.2890625, 2.0039062, -1.1123047, 1.1630859, -0.18334961, -0.40576172, -2.0214844, 0.72509766, 0.12817383, -0.38012695, -0.6010742, -1.0478516, 1.9677734, -0.111450195, 1.7666016, -0.64990234, -1.4082031, -0.018417358, 1.1787109, 0.32348633, -0.64501953, -1.5546875, -0.44189453, 0.48413086, -1.3251953, -0.4880371, 1.1035156, -0.4038086, 0.6010742, -0.671875, -2.4960938, 1.2011719, -0.36669922, -0.17102051, -0.7973633, -0.43896484, 5.203125, 1.7275391, -3.0039062, -0.57373047, 1.3388672, -1.0595703, -1.2802734, 0.076660156, -2.0527344, -1.3369141, -0.23242188, 2.0722656, 0.047729492, -0.4765625, -1.3095703, -1.0244141, 0.37329102, 0.5107422, -1.5214844, -1.1318359, -0.64208984, -1.4111328, -0.12219238, -0.8730469, -2.203125, -1.4267578, 0.105895996, 0.17785645, -2.0644531, -1.2099609, -3.3203125, -0.546875, 1.3251953, 1.0791016, 1.640625, 1.578125, 1.5517578, -0.7324219, -0.00920105, -0.3251953, -0.7080078, -1.4013672, 0.8520508, -0.24926758, 0.8491211, 0.98291016, -0.36450195, -1.4453125, -1.4345703, -3.203125, 0.59277344, -0.35205078, -1.0634766, -1.7939453, -1.3154297, 2.5722656, 2.4179688, -0.13049316, 1.921875, 0.70214844, -1.4658203, -0.38671875, -0.60595703, -0.95166016, 0.13671875, 1.4150391, -0.42871094, 0.97265625, 0.77978516, 1.6259766, -0.14672852, -0.79296875, -2.0761719, -0.953125, 0.16564941, -0.050323486, 0.69384766, -0.003616333, -0.16894531, -1.21875, 2.1347656, 0.52197266, 1.1699219, 0.47314453, 3.2773438, -1.0546875, -0.6816406, 1.2597656, -0.089782715, 1.5712891, -0.9213867, -0.49609375, -0.5908203, 1.3574219, -0.29736328, -1.7558594, 0.08154297, -3.7421875, 1.0605469, 1.1025391, 0.7392578, 0.05505371, -0.07006836, -0.5395508, -1.1445312, 1.2675781, 1.4326172, -0.9243164, 2.4375, 1.0751953, -1.2177734, -0.95703125, -0.32177734, -0.10998535, -1.6992188, 0.6455078, -0.53759766, 0.59472656, 0.8378906, -1.2324219, -0.15527344, -1.7402344, 1.0380859, -1.2685547, 1.640625, 2.8496094, -1.7460938, -1.28125, -1.2373047, 0.4104004, -0.546875, -0.74853516, -0.7739258, 1.515625, -1.1552734, -0.33032227, 0.18200684, 0.5180664, 0.76953125, -1, 1.3984375, -0.515625, 1.9248047, -0.48364258, 0.33935547, -0.8847656, -0.65234375, 0.46728516, 0.52783203, 0.15539551, -0.55859375, 1.3808594, -1.2753906, -1.1220703, -1.5263672, 0.33251953, -2.5742188, 0.90283203, -0.79833984, 0.94921875, 0.6557617, -0.33813477, -0.97509766, -0.2388916, 1.4492188, -1.3369141, 2.2128906, -0.008888245, -1.5664062, -1.1582031, 1.0830078, 0.85302734, 1.4082031, 1.4638672, 0.8598633, -0.89404297, -2.3417969, 1.3496094, -0.7597656, 0.03503418, -0.30151367, -1.2919922, -0.37329102, -1.1367188, 0.39990234, -1.3818359, 1.4052734, -0.98535156, 0.31933594, 3.4863281, -0.07824707, -0.7495117, 0.4572754, 2.640625, 2.796875, 0.47070312, -1.2714844, 0.16357422, -0.92041016, 1.3896484, 0.2553711, 0.046051025, -0.99609375, 0.76464844, -3.3027344, -0.6875, 0.037017822, -1.5146484, -2.6816406, -0.23864746, -0.1694336, 0.35327148, 1.5019531, -3.0371094, -0.25097656, 1.2480469, -0.48486328, 1.1074219, 0.06500244, 1.1650391, 0.74121094, 1.2695312, -0.14331055, -2.5253906, 0.7602539, 1.328125, 0.14123535, -0.052825928, 0.46142578, 0.90185547, -3.6132812, 0.5307617, 1.3652344, -0.7026367, -1.1083984, -0.53222656, -1.984375, 1.0517578, -0.87597656, 1.0361328, 1.1328125, -0.74658203, -1.0107422, 0.69140625, 0.2524414, -0.25073242, 0.8886719, -1.6416016, -0.017105103, -0.8027344, 0.41748047, -0.025268555, 0.40063477, 5.2226562, 0.48486328, 2.2109375, 0.35888672, 1.2607422, 1.5322266, 0.021453857, 0.3557129, -0.8154297, -0.6660156, 1.0410156, 0.9873047, -0.4182129, -0.41674805, -1.7597656, 0.058654785, -2.0742188, -1.2373047, 0.32006836, 1.0361328, 0.7714844, 0.4946289, -0.3779297, -2.3554688, -0.48168945, -1.6708984, 0.14550781, 0.61279297, 0.8046875, 0.9921875, -0.08605957, -0.78515625, 0.47192383, 0.38256836, -0.4609375, -0.10681152, -1.0449219, -1.5175781, -0.36206055, -1.3525391, -0.40112305, 1.0693359, 1.3984375, 0.90283203, -1.4824219, -1.1132812, 0.71435547, 0.4633789, -0.9814453, 0.048065186, -1.5546875, 0.040008545, 1.8515625, -0.15527344, -0.1003418, 5.0703125, -1.2138672, 0.9760742, -0.92822266, 0.31982422, -0.093444824, -0.22705078, -0.11895752, 1.546875, -1.4511719, -0.98828125, 0.8925781, -0.32177734, 1.8535156, 0.3388672, -0.14489746, 0.2944336, -0.14123535, 0.13745117, -0.32592773, 1.7324219, 0.36694336, -0.16601562, 1.8007812, -0.5883789, 1.7792969, -2.3339844, -0.3466797, 0.93359375, 0.8491211, -0.58496094, -0.69433594, 0.49291992, 0.3034668, -2.53125, 0.083496094, -0.44970703, 0.31396484, -0.8466797, 1.3623047, 0.04751587, 0.40625, -3, 0.21533203, 0.6376953, 2.234375, -1.3535156, 0.94091797, 1.5722656, 0.8574219, 0.6743164, 1.3095703, -0.14453125, -0.66552734, 4.7929688, 3.9042969, 0.2199707, 1.9189453, -1.7753906, 0.67871094, -0.3166504, 0.7988281, 0.3581543, -0.88378906, 2.4101562, 0.1706543, 0.5239258, 0.24645996, 0.34204102, 0.06225586, -1.0146484, 0.31933594, 0.35229492, 2.3808594, -3.1425781, -0.5107422, -0.17211914, 0.8769531, -0.053771973, 0.5566406, -1.4853516, 1.0947266, -1.5253906, -2.1171875, 2.9804688, 0.29418945, -0.18725586, 0.23168945, 1.5878906, -0.23986816, -0.52978516, 0.1430664, -1.8457031, -0.7011719, 2.0039062, -1.6601562, 1.4414062, -0.96240234, 1.6074219, 1.640625, 1.1669922, -1.2753906, -0.85498047, 1.7851562, -1.5136719, 0.12438965, 0.43188477, -0.49414062, -0.9399414, 2.578125, 1.8017578, -0.10253906, 0.18225098, -0.28222656, -0.56591797, -0.76660156, -2.3652344, 0.13464355, -0.028427124, -1.3144531, 0.94140625, 1.2158203, -0.3659668, -1.078125, -1.1865234, -0.14660645, 0.3803711, -0.35839844, 2.6523438, 1.40625, 0.76464844, 0.20837402, 1.7929688, 0.73876953, 0.92529297, -1.1386719, 1.9453125, 0.7192383, 0.4975586, -2.25, 2.0957031, -1.2060547, -1.5683594, 0.06890869, 2.0585938, 2.2929688, -1.1230469, 0.3413086, -0.73046875, -0.94921875, 0.21826172, 0.14794922, 1.6513672, 0.32250977, 1.8945312, -1.5185547, -0.87939453, -1.5009766, -4.0664062, 0.21960449, 0.70458984, 0.81689453, 2.28125, -0.546875, 2.3398438, -0.9199219, 0.06762695, -0.61621094, 0.91845703, -1.0751953, 0.099243164, 0.18249512, 0.39453125, 0.8208008, -2.0878906, -1.7695312, 0.35717773, -0.52441406, 0.7319336, -1.2529297, -0.4477539, -2.4257812, 0.12963867, 1.6357422, 1.7099609, -0.024108887, 0.5317383, -1.1054688, -0.035736084, -0.50878906, -1.7675781, -2.8046875, 1.1015625, 1.5048828, -0.77197266, 0.61865234, 0.97802734, 2.0195312, -0.11407471, 3.6796875, -0.7998047, 0.19335938, 0.11352539, -0.054138184, -0.5131836, 0.34155273, -1.6542969, -0.6503906, -3.109375, 0.7373047, -0.22961426, -0.61816406, 0.8754883, 0.9423828, -0.16467285, -1.4052734, 0.8901367, 2.3242188, -0.7402344, 1.5605469, 1.0947266, 0.04559326, 0.2722168, -0.1661377, -1.9716797, 1.5732422, -0.1538086, 1.4150391, -0.5239258, -1.6513672, 0.26611328, -2.03125, -1.9980469, 0.53759766, -0.61083984, -1.4492188, 1.3974609, -0.97998047, -0.7006836, -0.066711426, 0.32080078, 2.1503906, -0.36791992, -0.17333984, -1.0224609, -1.9746094, 1.0351562, 2.1035156, -0.6333008, 0.6279297, 0.63964844, -1.3574219, -0.20910645, -0.6982422, -0.08795166, -1.1621094, -0.828125, 0.9267578, 0.4321289, 1.6621094, 2.2949219, 0.10205078, 0.4345703, 0.8911133, -0.88623047, -3.4570312, 1.5576172, 2.6894531, -0.11566162, -0.20153809, -0.26708984, 0.7080078, 2.296875, -0.44384766, -0.80908203, -2, -2.015625, 1.5615234, 2.2324219, 0.26586914, 2.53125, 0.7836914, 1.4785156, -1.4013672, 0.31811523, 0.31933594, -0.8232422, 0.48876953, -0.08294678, 1.3183594, 2.5292969, 0.45288086, 0.8310547, 0.38793945, -0.93310547, -0.22351074, 0.21008301, -0.45141602, -0.17260742, 1.921875, -1.9677734, 1.1484375, -1.8642578, -0.72998047, 0.8574219, 0.90478516, 1.1113281, 1.2109375, 0.07080078, -1.7119141, 1.2890625, -2.4003906, 0.95458984, 2.5234375, 0.11029053, 0.53515625, 0.9609375, -1.1728516, 1.1845703, -1.1386719, -1.2509766, 1.2802734, 0.4248047, -0.9042969, -1.3798828, -0.6269531, -0.80371094, 0.5332031, 3.1660156, 0.7792969, -0.31884766, -1.0986328, 0.3173828, 0.31420898, -1.0517578, -1.8056641, -0.19299316, 0.43188477, 0.76416016, -1.6933594, 1.0947266, 0.3232422, -0.20227051, 2.3730469, 0.46411133, -1.1289062, -1.9638672, 1.0683594, -0.21984863, -0.2746582, 1.0712891, 0.26245117, 2.7988281, 0.39819336, -1.6757812, -0.94921875, -0.7739258, 1.3398438, -1.1826172, 0.4272461, 0.66259766, -1.3193359, 0.92529297, 2.0820312, -0.5722656, 0.6147461, -0.11047363, -0.06036377, -0.8183594, -0.107666016, -0.8417969, 0.0552063, -0.625, -1.3486328, -2.3457031, 0.03881836, -0.30249023, 0.79345703, 1.3388672, -1.4355469, -0.117126465, -0.60253906, -1.4355469, 0.48950195, 0.42138672, 3.96875, -0.30395508, 0.32421875, -1.0078125, 0.9526367, -1.2832031, -0.5263672, 1.1279297, 0.32543945, -1.0058594, -0.19604492, 0.9375, 2.3339844, 0.23498535, 0.9609375, -0.13537598, -0.85839844, -2.2324219, -0.49267578, -1.6357422, -0.78222656, 2.4199219, 2.5585938, 0.15795898, 1.0019531, -0.08050537, 0.26489258, 0.5942383, 0.29663086, 0.25756836, 0.74365234, 0.44360352, -0.8720703, -1.7587891, -2.3359375, 0.6665039, 0.30322266, 2.796875, 0.11383057, -1.3408203, -2.0234375, -1.7880859, 1.3212891, -1.1025391, -1.4511719, -1.59375, 1.5361328, 0.41308594, -0.17028809, -1.9189453, -0.5307617, -0.8979492, -0.8588867, -0.27270508, 1.5517578, -1.2148438, 1.3457031, 1.3125, 0.08270264, 0.7416992, 1.3076172, -0.84033203, 1.3964844, 2.3847656, 0.04135132, -2.4355469, 0.29370117, 5.6367188, -2.5722656, 2.2910156, 0.52246094, 1.7412109, 1.9658203, -0.06402588, 0.12286377, -1.4550781, 0.85498047, -1.2568359, -1.3203125, 0.7158203, 1.0966797, -1.5058594, -1.0859375, 0.78808594, 0.0022621155, 0.2692871, 1.2333984, 1.4404297, -1.5927734, -0.5385742, -1.1777344, 0.05203247, -0.40844727, -0.8613281, -0.11419678, -1.5498047, 0.8413086, -0.122680664, -1.8408203, 0.9296875, -2.71875, -0.0340271, -1.0751953, -0.24475098, -0.29467773, 0.33691406, 1.0566406, -0.5024414, 1.6621094, 0.21398926, 0.012969971, -0.6376953, 0.5551758, -0.3244629, -2.4746094, 1.140625, -1.6484375, -0.36914062, 0.24377441, 3.96875, -1.7197266, -1.0273438, 0.108947754, 2.2734375, -1.3212891, 1.9814453, 0.48168945, -0.0023002625, -1.1289062, 0.6074219, 1.2207031, 0.71435547, -0.52783203, -1.2236328, -0.1439209, -0.94628906, 1.0458984, 0.8496094, 0.5205078, 1.8720703, -0.48901367, 2.359375, -0.8432617, 0.4489746, -0.1270752, 1.0605469, -2.3710938, 3.1699219, 0.61816406, 1.5048828, 0.12176514, 1.1660156, 0.5317383, 0.63916016, 1.9560547, 0.8857422, 1.0644531, 1.7382812, -0.58984375, -1.3603516, -1.3115234, 0.046051025, 0.22546387, 1.8193359, 0.072387695, 0.74902344, -0.79296875, 0.7138672, -1.1923828, 0.11254883, 1.40625, 0.8676758, -0.9838867, -0.7832031, 0.36206055, 0.5854492, 0.28295898, 0.4111328, -1.0693359, 0.016220093, 1.9023438, 0.57421875, -0.80078125, 1.4267578, -0.022781372, 1.0322266, -1.2080078, -1.2226562, 2.9570312, 1.8369141, -1.2138672, -0.04638672, 0.39770508, -0.42285156, 1.3466797, 0.7084961, -1.578125, 0.58447266, -2.3789062, -0.7524414, -1.7275391, 0.19921875, 0.9477539, -1.1132812, 1.3046875, -2.5722656, -0.35986328, -2.0703125, -0.73339844, -0.97021484, 2.9472656, -0.020309448, 0.9086914, 1.4746094, 0.5913086, 1.6337891, 0.3725586, 0.06298828, -1.953125, -0.82470703, 2.3339844, 0.41479492, -2.7792969, -0.66064453, -1.2792969, 0.35620117, -0.5239258, 0.19641113, -2.3632812, 0.44189453, 0.69677734, 1.6044922, 0.44555664, 1.9658203, -0.5546875, -0.29833984, -2.1054688, -1.3251953, 3.5449219, -1.4091797, -0.070373535, -0.1619873, -0.96484375, 0.71533203, -0.12866211, -0.9121094, 0.10601807, 0.14379883, -1.1484375, 1.0195312, -0.38305664, 1.7382812, 0.59521484, -0.5102539, 1.5966797, 1.5751953, -0.47070312, -0.5024414, 1.1103516, 0.17614746, -0.6538086, -0.9448242, 1.4326172, -1.3818359, 0.33520508, 1.0009766, 1.40625, -0.56103516, -0.6191406, -0.68115234, 0.8417969, -1.0576172, 1.0556641, -0.14233398, 1.3583984, 0.15979004, -0.70947266, 0.40234375, -0.83740234, -0.48632812, -0.9135742, 3.265625, 0.6176758, 0.34643555, 0.703125, -1.6386719, 2.3808594, 1.3603516, -0.87841797, 0.48217773, 1.9082031, -0.35229492, -0.39013672, -2.1152344, 0.3112793, -0.0118637085, 0.29077148, -0.13977051, -0.033447266, -1.0253906, -0.12988281, -1.0175781, 0.77685547, -1.3457031, -0.5205078, -0.3540039, -0.8613281, -0.12976074, 0.42016602, 0.37280273, 1.1708984, -0.1116333, -0.085632324, -1.0830078, 0.25585938, 2.2441406, -0.4272461, 1.3310547, -1.3378906, 0.22192383, 0.31835938, 1.5361328, 0.43920898, 1.390625, -0.49487305, -1.5175781, 0.036621094, -2.7011719, -1.0761719, 2.2109375, -2.5390625, 0.09667969, 0.57958984, -0.99121094, -0.69140625, 0.051849365, -0.4736328, 0.07537842, 0.8847656, 0.058563232, -0.68408203, -1.3330078, 0.87060547, 0.3491211, -1.2099609, -1.7851562, -0.80371094, -0.6616211, 2.3574219, 1.0537109, -1.3613281, 0.56103516, 1.2324219, -0.15698242, 2.6503906, -0.97265625, -0.30151367, -0.49853516, 0.06829834, 1.2050781, -1.8427734, -1.5292969, 0.7241211, 0.7109375, -0.35668945, 0.9057617, -1.0380859, -2.140625, -1.6357422, -0.9003906, -1.4707031, -1.2060547, -1.3691406, 0.8286133, -0.72216797, 4.9453125, 0.9111328, 1.2558594, -1.7119141, -0.0008716583, 0.8720703, 2.3574219, 1.0361328, -0.7626953, -0.035491943, -0.93359375, 1.4433594, 0.6489258, 0.81933594, -1.0712891, -2.9628906, -0.026657104, -0.45410156, 0.11193848, 1.6865234, -0.4350586, 0.3623047, 1.0488281, -0.4428711, 4.9765625, 1.1162109, 0.6088867, -0.52197266, 0.67089844, -1.4082031, 0.32470703, 0.2286377, 0.2286377, -1.1904297, 0.40307617, -0.13269043, -0.76904297, 1.2578125, -0.41503906, -1.5830078, 0.09082031, 0.46679688, -0.24414062, -2.1113281, 2.1914062, -1.15625, -1.265625, -1.2373047, -0.39746094, 1.109375, -1.3632812, -0.58203125, -1.1240234, -1.3583984, -0.14038086, 0.5024414, -0.2368164, -1.109375, 0.26586914, 1.8847656, 1.8134766, 0.84277344, 0.8310547, 0.23425293, -0.6948242, 3.0820312, -3.1875, 1.8193359, -0.05709839, -0.5336914, -0.80859375, 1.3427734, -1.2099609, 1.0605469, -2.4414062, -1.0732422, -0.3972168, 2.7578125, 0.19689941, 0.9892578, -0.40722656, -1.9404297, -1.0498047, 1.5097656, 1.5966797, -1.6787109, 1.6650391, -0.6298828, -0.65625, 1.6621094, -0.7973633, -1.0625, -0.025604248, 0.26220703, 2.2265625, -0.3022461, -1.5742188, -1.4716797, 0.16784668, 0.63378906, -0.5683594, 2.0429688, -0.4880371, -0.70751953, -0.6611328, 1.9951172, 0.2919922, -0.14611816, -1.8427734, -0.13354492, -2.1464844, -1.4794922, -0.25854492, 0.4831543, 1.5712891, -1.8505859, 0.19433594, -0.5341797, -1.4150391, -0.8833008, 1.7509766, 1.6572266, 0.7763672, 1.0644531, 0.54833984, -0.21691895, -1.3330078, -3.1894531, -0.43017578, 0.72314453, 2.6171875, -0.41430664, 0.7373047, 1.1210938, 1.2197266, 2.5585938, 1.1035156, -0.79003906, 1.0810547, 0.9199219, -1.5791016, 1.5214844, 0.4404297, 0.092163086, 0.91259766, 3.3046875, -0.7392578, -0.05947876, 0.46264648, 1.4980469, -3.2363281, 0.057281494, -0.24865723, 1.4521484, -0.45288086, -0.54833984, 0.10601807, -1.4365234, -0.21228027, 0.8466797, -0.07543945, -1.9951172, -0.56591797, 0.47460938, -1.3984375, 1.5576172, 0.3803711, 1.0732422, -0.5136719, 0.49194336, 0.48950195, -0.0064735413, 1.1669922, -1.7402344, -2.1484375, -2.2714844, -3.28125, -0.5830078, 0.59277344, 2.140625, 0.7182617, 1.2363281, -0.1105957, -0.3786621, 0.6298828, 0.097473145, 0.77490234, 0.35717773, 1.8974609, 1.5966797, -2.296875, 0.9951172, -1.9814453, -1.2626953, 0.6308594, 1.7119141, -0.65625, 0.32250977, 1.9746094, -1.0849609, 0.3100586, 0.8261719, 0.79345703, -0.15332031, -0.25634766, 0.20678711, 1.6992188, 0.13952637, -2.7089844, -0.12298584, 0.38012695, 0.48120117, -1.9169922, -0.27685547, -0.74902344, 0.73535156, -0.51464844, -0.7841797, -0.08306885, -0.088256836, -0.6430664, -0.1920166, 0.7441406, -0.5566406, 0.39501953, 1.0341797, 0.14611816, 0.17993164, 0.033966064, 0.80371094, 1.3867188, -0.9819336, 0.38598633, 0.3569336, 0.8955078, -1.1738281, -0.053741455, -0.025268555, -1.0791016, 1.2958984, -0.64208984, 1.1357422, -0.036346436, 1.2138672, 2.6875, 0.8286133, -0.49853516, 1.8369141, 1.2861328, 1.3320312, -0.7207031, -1.5634766, 1.109375, 1.6435547, 0.004333496, -0.6694336, -1.0712891, 0.4880371, 0.8378906, 0.09350586, -1.1289062, -0.0143585205, 1.2832031, -2.4726562, -2.2382812, 2.2226562, 1.7568359, -0.94873047, -0.38793945, 2.4882812, 0.40112305, 0.9165039, -0.6269531, 0.59277344, -0.7910156, 2.4179688, 1.2597656, 0.14978027, -1.2714844, 0.57958984, 0.15930176, 0.625, -1.7353516, -2.9082031, 0.14416504, -2.4023438, -0.33520508, 0.35620117, -0.34106445, 0.7739258, -1.1630859, -0.4543457, -0.35595703, 0.99853516, -0.6015625, 1.1787109, 1.5917969, 1.1513672, 0.7553711, 1.0136719, 0.13208008, -0.49414062, 1.3945312, -0.43603516, -3.9902344, 0.57958984, 0.2208252, -1.3369141, 0.8051758, 0.35620117, -2.0039062, 0.029296875, 1.2314453, 0.51464844, 1.4707031, 0.030563354, -0.8911133, 0.30615234, -2.3632812, 0.17492676, 2.2265625, -1.8818359, 0.38989258, 0.76171875, -1.4599609, 0.7871094, -0.020828247, -1.875, 2.2773438, 2.1582031, -1.0058594, 0.83251953, -1.6416016, -2.7832031, 0.39086914, -0.4477539, 1.1171875, -0.3383789, -0.4423828, -0.7421875, 0.8457031, -0.45947266, 0.078186035, -1.0009766, 0.89404297, 0.24902344, 0.3154297, 0.09326172, 1.6445312, -0.18444824, -1.2646484, -0.75390625, -1.3232422, 1.7753906, -1.9267578, -2.4082031, 0.00969696, 1.3662109, 0.1661377, -0.46875, 0.45410156, 0.28833008, 0.84716797, -0.15979004, -0.8442383, 0.52197266, 0.53271484, -0.65283203, 0.9189453, 0.6376953, -2.2949219, 0.42211914, 0.1706543, 0.99365234, -0.05041504, 4.828125, 1.1757812, -0.90966797, -0.19592285, 0.8129883, 0.20153809, 3.0429688, -1.4101562, 2.0097656, 0.008270264, 1.0996094, 4.4609375, -0.29516602, -1.2070312, 1.6054688, -0.21240234, 0.4333496, -1.0869141, 0.97509766, 0.91503906, 0.9814453, -0.7583008, -0.45874023, -1.0625, -0.55078125, -2.21875, -0.4260254, -0.8027344, 0.14367676, 3.3769531, 2.6953125, -0.96484375, -0.08911133, -0.28735352, 1.2929688, -0.0015125275, -0.86621094, 0.18054199, 0.4140625, -2.5742188, -0.6376953, -0.18041992, -1.4404297, -1.0380859, 0.006542206, -0.29370117, 1.6103516, 0.050048828, 1.1845703, -0.6035156, 0.5908203, -0.54345703, -2.5742188, 0.27001953, 0.27734375, 0.86376953, 0.9057617, -0.7084961, -3.3984375, -0.50927734, -1.5527344, -1.3701172, -0.6894531, -2.1113281, -0.28125, 0.48510742, 3.1386719, -0.2902832, -2.5957031, -1.15625, -1.0400391, 1.0654297, -0.33447266, 0.5263672, 0.33911133, -0.53125, -0.111450195, -1.3388672, -0.08465576, 1.8408203, 2.84375, 1.3789062, -0.107666016, -0.8857422, -2.1699219, 1.1503906, 0.28198242, 0.31762695, 0.8105469, -0.8588867, -0.75683594, 0.13635254, -2.9121094, -1.3095703, 1.8037109, -1.9873047, -6.3789062, -2.4160156, -1.2910156, 0.8510742, 1.7070312, -0.57421875, 2.6621094, -1.7460938, -3.3125, 1.0800781, 0.4284668, -1.4111328, 0.15026855, 0.87841797, 0.40454102, 1.3603516, -0.35229492, 0.3737793, -0.119140625, -0.4921875, 0.7109375, -0.50439453, 0.95410156, 0.62353516, 0.8979492, -0.87597656, -4.1757812, -2.4492188, -0.8520508, -1.9892578, 0.70996094, 1.3203125, -3.1816406, -0.9819336, 0.59277344, -0.31176758, 2.2617188, 0.54003906, 0.5991211, -0.96484375, 1.5175781, 5.7148438, 0.29858398, -0.21655273, -1.4228516, 0.20910645, -0.55615234, 1.3681641, -0.038391113, -1.5029297, -0.2685547, 1.8896484, -1.4248047, 1.1708984, 2.3808594, 0.74902344, 0.5571289, 0.7368164, 1.9248047, -0.09185791, -2.09375, 0.5444336, 1.5214844, 2.65625, 0.87939453, -1.4199219, -0.6015625, -1.1054688, -0.41015625, -1.4902344, 2.3730469, -1.5947266, -0.37182617, 0.43603516, 1.3984375, -1.1660156, 0.0056877136, -0.75683594, -0.15808105, 1.0273438, -2.8515625, 1.0986328, -0.68847656, 0.7807617, -3.078125, -0.94921875, 0.29174805, -0.6582031, 0.06311035, -0.6347656, 0.8178711, 1.4033203, 1.2597656, 0.5727539, 1.8632812, 0.49951172, 1.3574219, -1.5830078, 2.2480469, 1.2792969, 1.8896484, 0.34301758, 0.11431885, -1.6982422, -0.7163086, -1.4365234, 1.0253906, -0.50683594, 0.7739258, -1.5195312, -1.1015625, 2.0234375, -1.5419922, -1.6914062, 0.9008789, 1.3691406, -1.0751953, -2.8203125, 0.8466797, 0.17773438, 1.1171875, 1.1113281, 0.4777832, 1.0888672, 1.1816406, -1.6201172, -1.6679688, -3.90625, 1.2880859, 0.05307007, 1.3369141, -0.3762207, 0.87060547, -0.71728516, -2.9238281, 0.5317383, 0.0087509155, 0.32373047, -0.9199219, 2.1289062, -1.5458984, -0.04006958, -0.7246094, 0.8886719, -0.6298828, -1.0576172, -0.7817383, 0.19995117, -0.97021484, -0.66845703, -1.1503906, 0.8442383, 0.04800415, 0.21984863, 0.63720703, 1.2539062, -0.3791504, -0.8569336, 1.1630859, 2.7519531, -1.1494141, -0.10534668, -1.6308594, -0.1217041, 0.96728516, -0.98828125, 1.2089844, -2.2363281, -0.2388916, -0.18310547, 2.0351562, 0.78027344, 0.4777832, 1.1357422, 1.1308594, 0.6508789, -0.28808594, 1.2548828, 1.1367188, -1.4208984, -1.0205078, -0.37353516, 1.0595703, -0.5332031, -0.66503906, -1.1181641, 0.28710938, -2.640625, -0.55126953, -1.3710938, 1.4443359, -0.578125, 0.5004883, 2.9726562, -0.28637695, -0.06359863, -1.0097656, -1.1298828, -0.28393555, -2.7539062, -0.34692383, 1.8427734, -1.6171875, 0.75927734, -0.36328125, 0.23828125, 0.5756836, -2.3652344, -0.13354492, 1.6669922, -0.9213867, -0.029251099, -1.5517578, 1.2900391, -2.1816406, -0.34033203, 1.5068359, -0.23327637, 0.7011719, 1.5849609, -1.3574219, 0.5205078, -0.2199707, -1.7070312, -0.20983887, 0.16113281, 1.1953125, 0.16552734, -1.5791016, 0.8730469, -1.7666016, -2.0097656, 1.3291016, -0.5698242, 4.9960938, 0.3083496, 0.8745117, -2.0683594, -0.011146545, -1.6416016, 0.33496094, -0.9453125, 0.62060547, 0.55078125, -2.203125, -0.79345703, -4.6953125, -0.58154297, -0.010696411, 1.0068359, -0.72265625, 2.375, -0.83740234, 2.1875, -0.7939453, 1.2480469, -1.5800781, -0.6538086, 1.2402344, 2.1484375, 0.484375, 2.5957031, -0.73095703, 0.38476562, -3.5195312, -2.3691406, -2.6601562, 3.0175781, -0.8100586, 1.0771484, 1.9404297, 0.46264648, 1.5009766, -1.1962891, -0.41577148, 0.6245117, 2.203125, -1.3867188, 1.4492188, -0.9213867, -0.27661133, 0.26660156, -1.0400391, 1.6621094, 1.5800781, -1.4707031, 0.16015625, -1.0478516, -2.4648438, 0.43310547, -1.1474609, 2.0371094, 1.9599609, 0.83251953, -0.04852295, -1.5878906, -0.98583984, -1.0136719, -0.7602539, 0.2241211, 0.11981201, 2.2265625, 0.4543457, 0.31689453, -1.1289062, -0.41625977, 0.87939453, -0.016998291, 0.3466797, 2.0585938, 0.34960938, 0.40698242, 0.5673828, -0.42358398, -0.64501953, -0.19384766, -1.6855469, -1.1015625, 0.96435547, 0.88623047, -1.2666016, -0.96191406, -2.0429688, -0.15686035, 0.7548828, -0.32250977, 0.8676758, 0.2890625, 0.11456299, 0.26098633, -0.49414062, -0.08532715, 0.066589355, -1.7226562, 1.9296875, -0.15368652, 1.1015625, 2.4863281, 1.8457031, 2.1269531, -0.14099121, 0.39086914, 0.7885742, 0.6308594, -0.75683594, -1.9599609, 0.36206055, -1.3251953, -0.14990234, 0.122558594, -2.6289062, -2.7109375, -0.89160156, 1.9746094, 0.12780762, 2.3066406, 1.6103516, 0.6147461, 0.28833008, -3.4511719, -0.65283203, -1.0576172, -1.1425781, 2.2265625, -2.3203125, 0.18054199, -1.3632812, 3.3867188, -1.6152344, 3.9804688, -0.5986328, -0.28271484, -0.35620117, -0.30615234, 0.546875, -0.6928711, -1.4248047, 0.37695312, -0.07928467, -3.3242188, -0.19519043, -0.40527344, -0.8300781, 0.9291992, 0.3305664, -0.047424316, -1.2753906, 1.4072266, -0.6357422, 0.30444336, 1.5390625, 1.7177734, 0.47192383, -1.9560547, -0.39624023, 0.1027832, -1.1855469, -0.12597656, 0.60791016, 0.74121094, -0.77246094, -0.061706543, -2.1289062, -2.4238281, -0.63623047, -1.8037109, 0.51123047, 1.0830078, 1.5634766, -1.4316406, 0.0020866394, 0.10406494, -1.8632812, -0.5605469, 0.83740234, -0.30371094, 1.1943359, -1.2060547, 1.4355469, -1.7490234, -0.33691406, 0.5083008, 0.94921875, -1.7177734, -0.36010742, 0.19836426, -0.021850586, -1.1132812, -0.49926758, -0.04837036, -0.7084961, -0.91064453, -0.78027344, 2.9238281, -1.0810547, -0.39575195, 1.7988281, 0.19555664, 1.6542969, -0.86279297, -1.96875, -1.8134766, -2.0722656, -0.39868164, 0.17211914, 0.19970703, -1.4160156, -1.9189453, -0.92041016, -1.0322266, -0.07342529, -1.90625, -0.9838867, 0.2705078, -0.9526367, -1.1953125, -1.4199219, 0.17480469, 0.04058838, 0.5551758, -0.19262695, 0.10437012, -0.54296875, 1.0742188, -1.2460938, 0.94384766, 1.1083984, 0.7866211, 0.30908203, -1.1533203, 0.82177734, -2.0488281, 1.5117188, -0.47045898, -0.121276855, 1.1552734, 0.7758789, -0.7451172, 2.0527344, -0.13366699, 1.4619141, -0.25439453, 0.16052246, 2.0839844, -0.0015983582, -0.734375, 0.83496094, 2.0039062, 2.0234375, 1.1191406, 1.5390625, 0.921875, 0.97021484, 0.062561035, 1.1787109, 0.43847656, 0.9633789, 1.9443359, 0.6635742, 1.9404297, 0.047851562, -0.16003418, 1.9394531, 1.1777344, -0.5336914, -0.46069336, -0.75, 0.70410156, 0.99902344, -1.1162109, -3.6582031, 0.5917969, -0.3918457, 0.20056152, -0.56640625, -1.1982422, -3.0703125, -1.3691406, 1.0625, 1.5439453, -4.6054688, -2.28125, -0.2055664, 1.8222656, -0.49194336, -1.2705078, -0.5932617, -0.20507812, -2.2480469, -0.9433594, 0.4033203, -0.828125, 0.7182617, 0.39135742, -0.66552734, 0.6357422, -0.63183594, -2.9316406, 0.4025879, -2.265625, -0.036956787, -0.17236328, -2.9980469, -1.0019531, -2.2304688, -1.3681641, -0.13879395, -0.19165039, -0.5629883, -0.17004395, -1.7724609, -0.90185547, 1.0166016, -0.21264648, 0.23864746, -0.77197266, 2.4179688, 1.7255859, 0.28808594, -1.1611328, 0.74902344, 0.3918457, -0.45043945, -0.22253418, 0.5834961, 0.33740234, 0.98046875, -1.5292969, 2.578125, 0.06695557, -0.47192383, 0.31884766, 0.05618286, -0.4428711, 1.4199219, -1.1347656, 2.1308594, 0.20703125, -0.35717773, -0.22839355, 0.30029297, 0.9526367, -1.0214844, -2.3222656, 0.7714844, 0.8378906, -1.2285156, -1.4960938, -0.6401367, 1.4736328, -1.1630859, 4.7304688, 1.5332031, 2.7617188, 1.6308594, 2.640625, 1.4326172, -0.08703613, 1.4130859, 0.43603516, 2.0566406, -1.6962891, 0.5058594, -1.9316406, -0.12670898, -0.1640625, -0.5932617, -0.6640625, 1.1474609, -1.984375, -1.9003906, -1.0224609, 0.8232422, 1.3369141, -1.3808594, 0.057006836, -0.9633789, 1.6669922, 1.1386719, -0.04336548, 1.4267578, -1.1513672, -1.2636719, -3.6484375, -0.5722656, 1.4902344, -0.8691406, -1.4443359, 0.047851562, 0.0090789795, -0.8754883, -1.3105469, 0.29418945, -1.2753906, 1.0498047, -0.40185547, 0.6298828, -1.1875, -1.9287109, 2.3554688, 1.203125, 0.31445312, -0.18920898, -0.21508789, -0.3840332, -0.47631836, -0.21557617, -0.6069336, -1.2412109, 0.8510742, -0.7036133, 1.4707031, -0.06695557, 2.359375, 1.609375, 1.7568359, -1.1015625, -1.4003906, 0.53808594, 1.3515625, 1.0898438, 0.16369629, -0.33325195, 0.44506836, 0.796875, -0.71240234, -0.5292969, 1.890625, -0.5175781, -0.7866211, -0.93310547, 0.08135986, 0.3244629, -0.21130371, 1.0791016, -0.78564453, -0.78759766, -0.48608398, -0.7685547, -2.2402344, -0.80371094, -1.8583984, 1.4228516, -0.47827148, -0.6142578, -0.8491211, 0.06335449, -0.5263672, 0.27392578, 2.3886719, 0.71240234, -0.38989258, -0.24768066, 0.43310547, 0.16479492, 0.23205566, 0.31982422, -2.0742188, -0.10107422, 0.5683594, -1.5400391, -2.265625, -0.6142578, -0.8847656, -0.36035156, 1.3291016, -1.2441406, -0.43139648, 0.29858398, 0.8154297, -2.125, -0.56689453, 0.5834961, 2.1875, 1.4091797, -1.4619141, -0.8027344, 1.5292969, -2.8964844, -0.22937012, 0.65527344, -0.40698242, -1.6494141, -2.4726562, -0.42456055, 1.3457031, 0.51123047, -0.8417969, 0.51708984, 1.6728516, -0.38208008, 0.40112305, -0.85498047, 2.0410156, -0.7050781, -0.13684082, 0.086364746, -0.39990234, 2.1289062, -0.23986816, 0.06088257, -0.8510742, 0.7446289, -2.6230469, -1.1933594, 0.66845703, -0.28222656, -3.3085938, 0.13366699, 0.91748047, -0.58251953, 1.8193359, -0.19421387, -0.40039062, -0.7373047, 1.1484375, -1.7773438, 1.4580078, 1.2099609, 3.4414062, 0.60253906, 1.3876953, 0.50927734, 1.3017578, -0.58154297, -0.46264648, 1.0439453, -1.1953125, -0.29101562, 1.7636719, -2.5898438, -0.6298828, -1.8095703, 0.75683594, -2.296875, 0.4321289, 3.8847656, -1.3056641, -0.58154297, 1.5146484, 0.99853516, -1.3544922, 2.2109375, -1.1259766, -1.2880859, 1.5048828, 2.8007812, 0.3330078, -1.3867188, -1.9248047, 0.9711914, -0.35302734, 0.25634766, 0.43310547, -0.22351074, 0.5722656, 0.95410156, 0.56103516, -1.1220703, -1.1865234, -0.09051514, 2.1132812, -0.9892578, -1.3378906, -0.6567383, 0.4326172, -1.0029297, -2.4453125, -1.2373047, 0.99853516, 1.2832031, -4.3046875, 1.5058594, -0.7841797, 0.9663086, 1.0791016, 0.41870117, 2.4121094, -0.78564453, 1.1533203, 0.018356323, -0.39257812, 2.1054688, 0.6152344, 0.734375, 0.86816406, -1.7939453, -1.7441406, 0.8613281, -0.7680664, 0.33789062, 0.62353516, 1.5097656, 4.1328125, -0.68652344, -1.8037109, -0.9604492, -1.9443359, -1.8896484, -3.1660156, -0.640625, 0.6508789, -0.21704102, -5.3867188, 1.109375, 0.21459961, 1.0673828, 1.9238281, 1.1748047, -0.54345703, 1.8925781, 0.1171875, -0.04663086, -0.014228821, -1.9052734, 0.56933594, 0.59765625, -2.1191406, 0.31396484, -0.27783203, -1.8242188, 1.2158203, 1.9326172, -1.6679688, -0.9580078, -2.0625, -0.6010742, 1.9746094, 0.81689453, 1.2509766, 1.2490234, 1.6699219, 0.72265625, -0.014968872, -0.63964844, -0.64990234, 0.12573242, -1.8476562, -0.24963379, 0.8808594, -1.5390625, -1.40625, 1.4667969, -1.3671875, 0.7817383, -0.81640625, 2.2382812, -1.9111328, -0.076293945, 0.08288574, 0.8955078, 1.1757812, -1.90625, 0.53125, 0.8964844, -0.19665527, -1.4462891, 0.4699707, -0.76953125, 2.0117188, -0.4934082, -1.0253906, 0.80371094, -2.3125, -0.60839844, 1.8242188, -0.96484375, 0.78027344, -0.6098633, -2.8964844, -1.6513672, -1.9287109, 0.69677734, -1.0634766, -2.0742188, 0.65625, 0.35107422, 2.3242188, 1.6171875, 0.22094727, -1.7695312, 0.49365234, 0.22680664, 0.121398926, -0.6147461, 0.50439453, -1.8632812, 0.9238281, -1.4619141, -1.5478516, -1.1074219, 1.9716797, 1.5126953, 0.24084473, -1.2822266, -0.123168945, -1.15625, -0.060150146, 1.5917969, 0.28320312, 1.1201172, -0.13293457, 1.2617188, -1.5361328, -1.0302734, 0.91259766, 0.29370117, 1.5673828, -0.5756836, 2.078125, -1.6230469, -1.15625, -1.5820312, -0.95703125, -1.2529297, -0.7607422, -1.2861328, -0.85498047, -3.9648438,</t>
-  </si>
-  <si>
-    <t>[0.058898926, -0.5, -0.72753906, 0.59814453, -2.3789062, -1.4316406, -0.25097656, 1.1152344, 2.5449219, -0.16186523, 0.29858398, -0.515625, 1.3388672, -0.19445801, -0.56689453, 0.5307617, 1.4853516, -0.27001953, -0.119140625, -0.6225586, -0.9082031, 2.9609375, 1.8818359, -1.5458984, -0.8144531, 0.1361084, 0.46142578, -0.9951172, -0.7626953, -0.44360352, 1.75, 2.296875, -0.44970703, 0.12536621, 0.62597656, -1.2490234, 2.1308594, 0.25268555, 1.9492188, 0.28076172, 2.0820312, 1.7451172, -0.011123657, 0.6142578, -0.03805542, 0.28735352, 0.0904541, -0.9765625, -0.8286133, -0.6611328, 3.1679688, -0.4152832, -2.0917969, 2.3476562, -0.8330078, -0.69384766, 0.64697266, -2.1914062, -0.1463623, -0.67333984, 0.39624023, 1.5644531, -0.7631836, 0.040985107, -0.16320801, 0.67871094, -0.53027344, 1.9316406, 0.40820312, 0.48950195, 1.0488281, -0.2475586, -0.6699219, -0.8959961, 1.4580078, 0.92285156, -1.1503906, -1.0683594, -0.13903809, 0.6152344, 0.33251953, 0.84814453, -2.2949219, 2.1152344, 0.4116211, -0.060577393, -0.8496094, -1.5214844, 0.25683594, -0.06048584, 2.2753906, 0.42089844, 2.6621094, -0.4790039, -0.3623047, 0.56396484, 0.7915039, 0.35180664, -0.93408203, 2.4140625, -0.123291016, -0.4387207, 1.1542969, 2.2070312, 0.4104004, 0.2998047, -3.1035156, -0.9350586, 0.86865234, 0.7089844, -0.47729492, -1.2548828, -1.3144531, 1.8701172, 1.375, 0.5317383, 0.1730957, -1.3076172, -0.7319336, -2.0371094, -0.9658203, 0.18664551, 0.9868164, 2.0742188, -0.8823242, -0.9863281, -0.8515625, -1.8671875, -1.0751953, 1.5410156, -1.1416016, 0.28637695, 0.27026367, -1.0605469, 3.7304688, 1.1367188, -0.6479492, -0.79003906, 0.859375, -0.8491211, 0.30419922, 0.55322266, 1.0361328, -0.27026367, -1.7744141, -2.2460938, 1.4355469, -0.05065918, -1.6572266, -0.16320801, 0.24194336, -1.1455078, -4.8203125, 1.53125, 0.18469238, 1.34375, 0.0847168, -2.3378906, -0.5019531, 0.08721924, 0.78222656, 0.07122803, 1.2412109, -1.1152344, 1.7822266, 0.67089844, 1.2001953, 1.3466797, 0.14904785, -0.7104492, -0.11102295, -2.375, 1.578125, -0.09710693, -0.29248047, 0.04373169, 1.5908203, -2.4101562, 0.6425781, -1.8242188, -0.13476562, 0.28393555, 0.02848816, 0.82421875, -2.6054688, -1.3291016, -1.2119141, -1.0644531, 0.76660156, 0.953125, 1.1289062, -3.90625, -1.5976562, 0.6669922, -0.32763672, 0.6923828, 0.18408203, -0.38598633, 5.0898438, -1.2070312, -0.88623047, 0.24365234, -0.30078125, -1.1748047, 0.65625, 2.3125, 0.7128906, -0.5683594, -0.2199707, -0.6425781, -0.30908203, -1.9931641, -0.1315918, 1.2509766, -3.0683594, 0.4321289, 1.015625, -0.79589844, 1.3378906, -0.20397949, -0.3708496, -3.4160156, -2.4667969, 2.609375, -1.9462891, 1.2470703, -1.15625, -0.1517334, -0.4975586, -1.3759766, 1.1767578, -1.3730469, 0.78222656, 0.2746582, 0.57128906, -1.4443359, -2.1679688, 1.4667969, -0.7265625, 1.0849609, 1.7617188, -0.10614014, -1.671875, 1.0048828, 0.012489319, 0.09881592, -0.8203125, -1.2558594, 1.5556641, -0.37036133, 1.1318359, -0.97802734, -0.20703125, 0.28637695, 1.28125, -0.11798096, -0.4951172, -1.9882812, -0.42285156, 1.5078125, -1.9511719, 0.031066895, 1.1416016, -0.5371094, 1.4755859, -0.35351562, -2.0488281, 0.8774414, 0.84033203, -0.9067383, -1.7773438, 1.0644531, 2.2988281, 1.65625, -2.6796875, -0.14147949, 2.90625, 0.07946777, -1.9140625, 0.9975586, -1.2421875, -1.5058594, -0.08105469, 0.9326172, -0.113342285, -0.609375, -2.0175781, -0.79589844, -1.6074219, -0.6245117, -0.6333008, -0.7373047, -0.59716797, -1.6914062, -0.107543945, -2.9941406, -1.2998047, -1.296875, -0.37329102, -0.43139648, -1.9775391, -0.4260254, -2.5917969, -1.5859375, 0.23522949, 1.0341797, 1.2851562, 1.1787109, -0.10430908, -0.16149902, -0.1776123, 0.4736328, -1.2607422, -0.20056152, 0.92871094, -1.4521484, 0.9770508, 1.2353516, -0.45141602, -2.5761719, -0.68652344, -2.8183594, 0.17578125, 0.74560547, -0.83203125, -0.052246094, -1.3505859, 2.2480469, 2.4882812, -1.0654297, 2.0703125, 0.33129883, -1.8798828, -0.3803711, -0.95703125, -1.6816406, -0.41088867, 2.6933594, 0.22521973, 1.9267578, 0.7631836, 1.3603516, -1.1582031, -0.58984375, -2.1015625, -2.0058594, 1.0898438, -0.12487793, 0.4802246, 0.3984375, -0.8618164, -1.9589844, 2.4316406, 1.2890625, 1.0742188, -0.42822266, 2.5566406, -1.3037109, -1.3779297, 0.7167969, 0.12646484, 1.4619141, -0.7104492, 0.5058594, -0.8979492, 1.0966797, -0.26367188, -1.0263672, 0.6557617, -3.1699219, 0.10107422, 0.8256836, -0.63720703, -0.8208008, -0.44970703, -0.36401367, 0.011123657, 1.9169922, 0.8105469, -0.74853516, 1.7617188, 1.5458984, -1.0175781, -1.4511719, -0.7397461, -0.26611328, -1.3164062, 0.19567871, -0.7861328, 2.1953125, 0.47436523, -1.9511719, -0.36914062, -0.84472656, 0.59716797, -0.7319336, 1.6142578, 2.7460938, -0.9116211, -0.3095703, -0.44555664, 0.83691406, -1.1914062, -1.2441406, -1.4082031, 0.9238281, 0.07165527, -1.1396484, 0.15039062, -0.010932922, 0.014854431, -0.7319336, 1.2441406, -1.1279297, 0.41015625, -0.47485352, -1.8486328, -0.9399414, -0.31079102, 0.5161133, 1.7138672, 0.9692383, -0.48657227, 1.7578125, -0.21691895, -0.8203125, -1.0263672, 0.04638672, -2.6835938, 0.73828125, -0.640625, 1.2314453, 0.6303711, -1.0478516, 0.091674805, -1.1503906, 0.15551758, -1.3134766, 0.7832031, 0.53759766, -1.3408203, -1.4208984, 1.6035156, 1.0625, 1.3486328, 3.7949219, 0.72753906, -0.2631836, -3.1386719, 1.4101562, -1.1748047, -0.4597168, -0.71533203, -1.3916016, 0.63134766, -0.19702148, 1.0634766, -1.0019531, 0.79785156, -2.3125, -0.27270508, 2.6582031, -0.70166016, -0.70996094, 0.15991211, 0.44311523, 3.7070312, -0.5004883, -2.1328125, -1.28125, -1.5283203, 0.6923828, 0.8208008, 0.06744385, -3.1953125, 0.12573242, -1.8525391, 0.048461914, -0.14624023, -0.8017578, -2.5761719, 0.67626953, -1.0888672, -0.20361328, 1.4570312, -2.5625, -0.19030762, 2.0371094, 0.3503418, 0.64746094, -0.1439209, 0.79052734, 0.7734375, 1.3857422, 0.3894043, -1.7861328, 1.3408203, 0.5229492, 0.17175293, 0.09136963, 1.2958984, 1.9658203, -3.4082031, 1.4453125, 0.10229492, -1.5703125, -0.5629883, -0.9716797, -0.78222656, 0.8857422, -0.3190918, -0.03768921, 0.30566406, -0.15710449, -0.8857422, 1.4013672, -1.1748047, -0.015487671, 0.53466797, -1.4111328, 1.1113281, -0.55029297, 0.99658203, -0.5444336, 0.2578125, 3.5878906, 0.33789062, 2.4472656, 0.3359375, 0.6899414, 0.8359375, 0.82128906, 0.6538086, -1.3037109, -0.9892578, 1.2392578, 1.1464844, 0.048309326, -0.3232422, -1.4873047, 0.34716797, -1.1347656, -1.3388672, 0.3491211, 0.60498047, 0.5957031, -0.007949829, 1.5166016, -1.484375, -0.8256836, -1.6474609, 0.4284668, 0.92041016, 0.22827148, 1.3398438, -0.061340332, -0.85058594, 0.13806152, 0.9814453, -1.4863281, 0.42138672, -0.3869629, -0.8359375, 0.03527832, -2.0585938, -0.41967773, 0.07733154, 0.79248047, 0.8774414, -0.2854004, -1.796875, 1.1416016, 0.90527344, -1.3994141, 1.6376953, -0.5395508, 0.6972656, 0.7270508, -0.1739502, 0.042816162, 1.8212891, 0.71484375, 0.85302734, -1.0849609, 0.1998291, 0.15075684, 0.046813965, 0.33398438, 0.068115234, -1.8847656, -0.07147217, 0.50390625, 0.21655273, 1.453125, 0.3876953, -0.12164307, 0.12890625, -0.5917969, 1.1318359, -0.8100586, 2.7070312, 1.1513672, -0.59814453, 1.8779297, -1.1982422, 2.203125, -1.7382812, 0.55566406, -0.8676758, 0.9057617, -0.13134766, -1.0146484, 0.5996094, 0.5595703, -1.4296875, -0.15661621, 1.1416016, 0.58496094, -0.359375, 1.6298828, 1.1796875, 0.58496094, -2.6914062, -0.9301758, 0.7055664, 1.1845703, -1.7871094, 1.0917969, 1.1806641, 0.20581055, 0.031311035, 2.2441406, -2.2636719, -0.5288086, 4.2773438, 3.1171875, -1.2285156, 2.2714844, -1.5488281, 1.4863281, -0.050720215, -0.73779297, 0.22241211, -0.0803833, 2.4140625, 0.2064209, 1.3964844, -0.26611328, 0.1640625, -0.10845947, -0.8334961, 0.5214844, -0.25317383, 0.5541992, -2.8984375, -0.7114258, 0.17102051, 1.1953125, 0.27807617, 1.2890625, -1.6396484, 0.7216797, -1.1171875, -1.4072266, 2.7207031, 0.38623047, -0.6791992, 0.09777832, 0.23925781, 0.27905273, -0.21105957, 1.0664062, -1.296875, 0.05038452, 1, -1.3828125, 1.6025391, -1.1992188, 1.2314453, 1.7060547, 0.6323242, -0.53125, -0.67089844, 2.0136719, -2.5605469, -0.59814453, 0.7055664, -0.7597656, -0.7241211, 2.6367188, 2.0917969, -1.3154297, -0.27685547, 0.2998047, -0.30493164, -1.7109375, -1.0898438, 0.24108887, -0.85302734, -1.7275391, 0.71533203, 0.6435547, 0.88378906, 0.33251953, -1.3818359, 0.19848633, 0.8310547, 0.58984375, 1.2255859, 1.5507812, 0.21008301, 0.42773438, 1.4228516, 1.0185547, 0.12420654, -1.1328125, 1.421875, -0.25170898, 0.16540527, -2.171875, 2.1855469, -0.734375, -0.47485352, -0.1862793, 2.6660156, 0.9433594, -1.4003906, 1.2626953, 0.32861328, -0.33862305, -0.3540039, 0.3005371, 0.15039062, -0.765625, 0.6225586, -1.0166016, -0.40698242, -0.42236328, -3.8535156, 0.45092773, 1.5957031, 1.7285156, 2.3125, -0.4897461, 1.921875, -0.9482422, -0.1282959, -0.58691406, 0.83691406, -0.4152832, -0.25097656, -0.69677734, 0.6645508, 1.0263672, -0.9819336, -2.4746094, -0.55126953, -1.5498047, 0.5805664, -0.5444336, -0.3154297, -1.6523438, 0.51464844, 1.2773438, 1.0117188, 0.59716797, 0.8466797, -1.6132812, -0.22424316, -0.5883789, -1.2714844, -4.4609375, 0.62939453, 1.4833984, -1.3378906, 1.8115234, 0.081604004, 1.6083984, -0.43017578, 2.3085938, -1.1474609, 0.32495117, 0.58691406, -0.74365234, 0.38208008, 0.74365234, -1.6757812, -0.5600586, -3.0703125, 1.0878906, 0.64941406, -1.4980469, 0.34716797, 0.9458008, -1.3242188, -0.90722656, 1.9462891, 2.2539062, -1.3144531, 1.6367188, 0.4091797, -0.25024414, 0.95703125, -1.1582031, -1.625, 2.1386719, -1.1513672, 1.5341797, -0.65478516, -1.6611328, -0.36206055, -2.2480469, -1.2607422, 1.7333984, -0.06604004, -0.3864746, 1.2451172, -0.12036133, -0.1907959, 0.56591797, -0.044952393, 2.1757812, 0.11138916, 0.35473633, -0.7319336, -1.4140625, 0.7890625, 1.8261719, -0.2890625, -0.4411621, -0.11254883, -1.4472656, 0.3491211, -1.2207031, -0.10632324, -0.4099121, -1.5917969, 0.4428711, 0.28515625, 0.97216797, 0.99609375, 0.66064453, 0.5136719, 1.4433594, -1.4355469, -2.03125, 1.5458984, 1.8261719, -0.29711914, -0.3215332, -0.46264648, -0.2541504, 0.93896484, 0.8618164, -0.41918945, -0.859375, -1.1494141, 1.2929688, 0.65771484, -0.63134766, 1.5068359, 0.2619629, 1.2822266, -0.37939453, -0.028137207, 0.058685303, -1.6269531, 0.1307373, -0.101989746, 0.38061523, 2.3710938, 0.121520996, 1.3613281, 0.5986328, -1.1933594, 0.2644043, -0.56396484, 0.39160156, -1.0888672, 1.9609375, -0.75634766, 0.7416992, -0.27905273, -0.5576172, 1, 0.94140625, 0.63427734, 1.0791016, -0.5776367, -1.1308594, 1.8261719, -2.484375, 0.07476807, 1.2568359, 0.14404297, -0.10491943, 1.8525391, -0.39013672, 2.1796875, 0.2364502, -1.6582031, 1.6181641, 1.5742188, -0.48339844, -0.79296875, -1.5996094, 0.022079468, -0.23864746, -1.0146484, 0.68115234, -1.0449219, -0.5234375, -0.33007812, -0.16674805, -1.71875, -1.3730469, -0.45825195, -0.19433594, 0.6948242, -0.7763672, 1.0849609, -0.9863281, -0.13134766, 0.5419922, 0.8417969, -0.22705078, -0.88623047, 1.3867188, 0.16845703, 0.3544922, 0.6430664, 0.3544922, 1.1513672, 0.67285156, -1.7304688, -2.2265625, -1.4541016, 0.96777344, -1.4833984, 0.8833008, 0.45825195, -1.2988281, 0.96533203, 1.953125, -0.07293701, -0.20593262, -0.062927246, -0.7319336, -0.2541504, -0.86279297, -0.6538086, 0.03250122, -1.2128906, -1.8388672, -1.5517578, 0.42089844, -0.64404297, 1.2978516, 0.58740234, -1.1816406, 0.07043457, -0.041992188, -1.4257812, 1.0361328, 0.20837402, 3.3417969, -0.22766113, -0.2211914, -0.43017578, 0.63427734, 1.0498047, -0.18041992, 1.6425781, 0.23278809, -1.0019531, 0.0014152527, 0.79833984, 1.0234375, 0.77783203, 2.0761719, -0.2824707, -1.3955078, -1.9238281, -0.9042969, -0.18859863, -0.5527344, 1.4912109, 3.0585938, -0.2734375, 1.1962891, 0.8676758, 0.265625, 1.5966797, 0.4338379, 0.45263672, 0.31689453, 0.9238281, -1.7324219, -2.8398438, -1.1533203, -0.5800781, -0.52490234, 2.0917969, 0.009346008, -1.4599609, -2.5839844, -2.4980469, 0.9082031, 0.42089844, -1.15625, -0.8041992, 2.1308594, -0.41210938, 0.5283203, -1.8681641, -0.45092773, -1.1210938, -0.15844727, 0.10784912, 0.4777832, -1.1650391, 0.03668213, 0.4345703, 1.5400391, 1.4267578, 0.8183594, -1.3964844, 0.7944336, 3.15625, 0.1986084, -2.6445312, -0.55908203, 4.4414062, -1.5097656, 1.8056641, -2.1816406, 2.3398438, 1.3740234, -0.74072266, 0.29418945, -1.5361328, 0.7192383, -0.37475586, -0.58984375, 0.8515625, 0.29956055, 0.57958984, -1.1269531, 0.55908203, -0.7158203, 0.8359375, 1.3476562, 1.6230469, -1.7382812, -1.0048828, -0.6821289, -0.27270508, -1.8339844, -2.0527344, -0.80029297, -1.0175781, 1.0351562, -0.56591797, -1.3154297, 0.38208008, -1.8476562, -0.71875, -1.5917969, 1.6865234, 0.60498047, -0.08929443, 1.0039062, 0.8383789, 1.6787109, 0.7314453, -0.7006836, 0.0037822723, 0.57910156, -0.96777344, -1.6933594, 0.7416992, -0.9868164, -0.61621094, 0.43920898, 2.6171875, -1.6464844, -1.4355469, -0.6269531, 1.3330078, -2.4941406, 1.2597656, 0.45361328, -0.45947266, -1.7138672, -0.33740234, 1.1367188, -0.12145996, -0.5058594, -1.1513672, -0.57177734, -0.32592773, 1.3193359, 0.8330078, 1.1083984, 1.3652344, 0.061828613, 1.5732422, -0.7519531, 0.51708984, -0.08947754, 0.5390625, -2.5234375, 3.3925781, 0.4321289, 1.7714844, 0.8432617, 0.31689453, 0.31420898, 0.53564453, 2.0371094, 0.15539551, 0.1763916, 1.3671875, -0.76708984, -2.3984375, -1.078125, -0.06573486, 1.0292969, 1.4570312, -0.26416016, 0.78222656, -0.68652344, 1.0478516, -1.0800781, 0.6508789, 1.2578125, 1.6816406, -1.1269531, 0.1694336, 0.48339844, 0.3996582, 0.4489746, -0.26513672, -0.5878906, -0.38085938, 1.9775391, 0.94091797, -0.6166992, 1.3564453, -0.7314453, -0.005104065, -1.1806641, -1.4550781, 1.3632812, 0.93359375, -0.94091797, -0.8183594, 0.22729492, 1.0205078, 1.65625, 1.8505859, -1.2539062, 0.057434082, -0.82470703, -1.078125, -0.42822266, 0.6870117, 0.2668457, -2.1796875, 0.9560547, -1.8388672, -1.0507812, -2.140625, -0.8027344, -0.69140625, 2.6640625, -0.67529297, 1.0185547, 0.9003906, 0.26708984, 0.45410156, 0.12792969, 0.26049805, -1.6523438, -0.79541016, 2.140625, 0.9350586, -2.3613281, -0.5073242, -0.7080078, -0.026260376, -0.104003906, 0.7504883, -1.5859375, -0.13684082, 1.2832031, 0.9794922, 0.24475098, 1.4912109, -0.28686523, -1.2617188, -0.66308594, -0.49389648, 2.9824219, -0.87402344, 0.5439453, -0.45703125, -0.10736084, -0.53466797, 1.4189453, -1.5371094, -0.5996094, -0.17785645, -0.13989258, 1.1601562, 0.07208252, 2.7363281, 0.9790039, -0.96435547, 2.234375, 1.7519531, -1.3847656, -0.46801758, 1.1767578, 0.7416992, -1.6816406, -2.1835938, 1.0458984, -1.0644531, 1.1855469, 0.78808594, 1.4160156, -0.5854492, -0.3251953, -0.08843994, 0.8442383, -1.0957031, -0.31445312, -0.9267578, 1.2236328, -0.5722656, 0.079956055, 0.42333984, -1.0361328, 0.22668457, -0.3774414, 2.015625, 0.87890625, 1.5742188, 0.7006836, -0.9863281, 3.4316406, 0.37402344, -0.64453125, 1.5117188, 0.5449219, -0.28051758, -0.40185547, 0.16894531, 0.25219727, 0.07397461, 0.14624023, 0.29638672, 0.79296875, -1.9580078, -0.0077285767, -0.62109375, 0.71972656, -1.3496094, -0.75, 0.064697266, -1.5800781, 0.45336914, 1.390625, -0.8383789, 1.7138672, 1.9160156, 0.3388672, -0.38720703, 0.36376953, 2.0351562, 0.31298828, 0.08520508, -1.3974609, 0.39990234, 1.0273438, 0.25512695, 0.8383789, 1.3056641, -0.2836914, 0.032928467, 0.9746094, -2.3027344, -1.0908203, 2.2539062, -2.6679688, -0.8041992, 0.45947266, -0.65478516, -1.6757812, -0.57958984, -0.69384766, -0.10046387, 0.34716797, 0.33862305, -1.1015625, -0.9506836, 1.1601562, 1.1113281, -1.1806641, -1.359375, 0.12902832, 0.21899414, 2.2597656, 1.6914062, -2.2363281, -0.17370605, 0.43554688, 1.1132812, 1.6103516, -1.3408203, 0.6640625, -0.03390503, 0.4248047, 0.15258789, -1.6767578, -3.1835938, 0.97558594, 1.5605469, -0.34545898, -0.04650879, 0.2841797, -1.7207031, -0.734375, -0.44311523, -1.8847656, -0.70654297, -0.7402344, 1.3027344, -0.6533203, 4.5585938, 0.0713501, 0.4638672, -2.0039062, 0.19433594, 1.7988281, 1.6064453, 1.7773438, -0.7626953, -0.87597656, 0.1697998, 1.0009766, -0.4975586, 1.1894531, 0.11920166, -2.8203125, -0.1159668, 0.8666992, 0.19421387, 1.7910156, -0.057739258, 0.27001953, -0.6455078, -1.7519531, 3.9804688, 0.55810547, 0.3720703, 0.059509277, 2.3984375, -1.8574219, 0.61816406, 0.5058594, 0.31860352, -1.5947266, 0.77490234, -1.84375, -1.0322266, 1.2255859, -0.8183594, -1.046875, -0.21240234, 0.18933105, -0.9482422, -1.2636719, 2.1289062, -1.1806641, -0.828125, -1.1318359, 0.5004883, 2.578125, -1.5244141, -0.9633789, -0.9770508, -1.9589844, -0.76953125, -0.38500977, -0.07873535, -0.7919922, -0.019317627, 0.96972656, 2.2148438, 0.087402344, 0.4333496, -0.09118652, -0.5649414, 2.59375, -2.0253906, 0.47558594, 0.34814453, -0.85058594, -0.53222656, 1.3486328, -1.0712891, 0.68066406, -2.0117188, -0.7993164, -0.6430664, 2.8769531, 0.6098633, 0.7753906, -1.0830078, -1.9707031, -0.06188965, 0.8491211, 0.4260254, -2.2070312, 1.0117188, -1.21875, -0.7631836, 1.2236328, -1.6328125, -0.7241211, -0.02407837, -0.5605469, 1.8017578, -0.08728027, -0.36254883, -1.9677734, -0.12359619, 0.5834961, 0.18078613, 0.67041016, -0.5180664, -0.20166016, -0.032348633, 1.1044922, 1.0595703, -0.45043945, -1.1083984, 0.095581055, -1.4003906, -0.8588867, -0.33325195, 1.3408203, 1.6689453, -1.2285156, 0.24072266, -1.2402344, -0.6635742, -0.21569824, 1.0039062, 0.7265625, 0.98535156, 1.3945312, -0.031051636, -0.99365234, -1.1396484, -1.9677734, -0.890625, 1.8359375, 3.7636719, 0.6694336, 0.5649414, 0.9902344, 1.7353516, 1.2294922, 1.0722656, -0.14440918, 0.5361328, 1.3476562, -0.48486328, -0.3010254, -0.20227051, 0.41723633, 0.45776367, 2.5625, 0.103271484, -0.57421875, 0.68896484, 0.95947266, -2.0917969, 0.5419922, -0.953125, 0.97802734, -0.828125, -0.18835449, 0.34033203, -1.5498047, -0.50927734, 2.3339844, 0.18481445, -2.6835938, -0.9423828, 0.6591797, -0.70947266, 0.5341797, -1.1884766, 0.8808594, -0.4729004, -0.017471313, 0.99853516, -0.9169922, 0.9399414, -1.6767578, -2.46875, -1.4492188, -3.3613281, -0.7246094, -0.30126953, 2.7109375, 2.4003906, 1.34375, -0.8334961, 1.0166016, -1.4931641, 0.48168945, 0.11871338, 0.81152344, 1.9541016, 0.92529297, -1.6171875, 1.0888672, -1.1347656, -0.06585693, -0.8334961, 1.8603516, 0.8540039, 1.0507812, 1.1259766, -0.9560547, 0.1116333, 1.4316406, -0.28833008, -1.0195312, 0.5083008, -1.0605469, 0.09063721, 0.49389648, -2.53125, 1.4082031, -0.5107422, 0.3408203, -2.3105469, -1.4453125, -0.42138672, 0.91308594, -0.6254883, 0.033111572, 1.1513672, -1.2617188, -0.3310547, -0.75341797, 1.4335938, -0.74121094, 0.13659668, 0.765625, 0.9423828, 0.51171875, 0.6586914, -0.46313477, 1.015625, -0.859375, -0.7260742, -0.16906738, 0.8286133, -1.3095703, 0.04135132, 0.32128906, -0.6586914, 0.19372559, -0.5493164, 0.45092773, 0.4699707, 1.0839844, 1.2089844, -1.8378906, -0.3005371, 3.0761719, 0.8959961, 0.69384766, -0.33984375, -1.8681641, 0.6230469, 1.4072266, -0.4140625, -0.6479492, -1.7089844, -0.6352539, 1.7138672, 0.4309082, -0.43066406, 0.14086914, 1.3242188, -1.6835938, -2.2324219, 0.98535156, 0.56640625, -0.4645996, 0.15893555, 2.1503906, 1.2548828, -0.27148438, -1.3359375, -0.023086548, -0.2980957, 2.1660156, 0.18371582, -0.7451172, -1.046875, 0.71484375, -0.17236328, 0.66308594, -0.50341797, -2.6679688, -0.09710693, -2.2890625, -0.5366211, 0.3149414, -0.1907959, 2.1660156, -1.1367188, -0.01977539, -0.13146973, -0.33251953, -0.60546875, 0.8442383, 1.4345703, 0.18664551, 0.44604492, 0.23828125, 0.20056152, 0.19812012, 1.8720703, -0.62158203, -3.4375, 0.78125, -0.38720703, -1.2539062, 0.14770508, 0.4404297, -0.9584961, -0.20825195, 0.7290039, -0.28759766, 1.6181641, 0.6826172, -1.0878906, 0.26708984, -1.5517578, 0.27001953, 1.6074219, -1.1689453, 0.3017578, 1.2080078, -1.3525391, 1.0966797, 0.03668213, 0.03982544, 2.5585938, 1.1914062, -2.1445312, 0.18908691, -0.51464844, -3.3925781, 1.3007812, -0.3149414, 0.7529297, -0.7363281, 0.19909668, 0.32885742, 0.64453125, -0.3371582, -0.067871094, -2.046875, 0.81591797, 0.5986328, -0.0009274483, -1.2285156, 0.63720703, -0.3935547, -1.0175781, -0.21594238, -0.79785156, 1.4394531, -1.6542969, -2.4960938, -0.7578125, 1.0117188, 0.035003662, -0.5698242, 1.0507812, 0.2734375, -0.17822266, 0.35498047, -0.3383789, -0.10644531, 0.21875, -0.8378906, 0.69628906, 1.0029297, -1.9433594, 0.33569336, -1.0429688, -0.02571106, 0.6191406, 3.3964844, 0.6591797, -0.33764648, 0.85791016, 1.1894531, 0.27978516, 1.6513672, -0.48779297, 1.7451172, 0.15356445, 1.9951172, 3.3964844, -0.66259766, -1.3056641, -0.3347168, -0.65283203, 1.3125, -1.3261719, 0.38476562, 1.2470703, 0.8496094, -1.3818359, -0.3479004, -0.16870117, -1.1826172, -1.8330078, -2.5390625, -1.1552734, 0.5004883, 2.9863281, 2.3925781, -0.39013672, -0.032470703, 0.5878906, 0.10144043, -0.0038013458, -0.8066406, -0.06518555, 0.43676758, -2.1855469, -1.2412109, -0.99365234, -0.5004883, 0.11920166, 0.06298828, -1.3994141, 1.1816406, 0.5410156, 0.99609375, -0.22302246, 0.09411621, 0.24353027, -2.6132812, -0.37426758, -0.3815918, 0.8544922, -0.50341797, -0.7792969, -3.6328125, -0.34179688, -1.5107422, -0.7705078, -0.13061523, -2.6523438, -0.36254883, 1.4804688, 2.1289062, -0.296875, -2.0742188, -0.13208008, -0.39453125, 1.3867188, 0.21691895, 0.8984375, 2.1328125, -0.26342773, 0.9267578, -0.80371094, 0.5732422, 1.9628906, 3.4804688, 0.96533203, 1.8183594, -0.7138672, -1.1416016, 0.50097656, 0.7524414, 0.040405273, -0.2644043, -1.1416016, -1.0751953, -0.21936035, -2.7011719, -0.69091797, 0.9506836, -1.375, -4.5546875, -2.5117188, -1.171875, 0.24450684, 0.8857422, 0.072509766, 1.0869141, -0.8881836, -2.7832031, 0.49023438, -0.46191406, -1.1201172, 0.6933594, 1.1708984, 0.4765625, 2.0507812, 0.06958008, -0.58203125, -0.2286377, -0.57421875, 0.9609375, 0.12536621, 1.3261719, 0.024795532, 1.1318359, -0.5332031, -2.359375, -2.3339844, -0.5751953, -2.6445312, -0.2442627, -0.91796875, -1.59375, -2.0917969, 0.15539551, 0.17919922, 1.546875, 1.0800781, 0.5493164, -1.1152344, 2.8730469, 2.3085938, -0.7895508, -1.4277344, -1.7763672, 0.025390625, -1.1738281, -0.20239258, -0.74072266, -1.328125, -0.46069336, 1.9111328, -1.5371094, -1.3251953, 2.1464844, 0.8457031, -0.09082031, 0.8666992, 1.4404297, 0.31079102, -0.81933594, -0.039093018, 1.1455078, 2.4140625, 1.4296875, -1.5, -0.75683594, -0.5083008, 0.2998047, -1.3623047, 1.4785156, -1.1660156, -1.3964844, -0.15478516, 0.43310547, -1.6513672, -0.17993164, -1.8681641, -0.44921875, -0.088256836, -4.875, 0.03555298, 0.7133789, 0.5805664, -1.8720703, -1.4697266, -0.36450195, -0.55810547, 0.3852539, 0.67089844, 1.078125, -0.23718262, 1.7763672, 0.9003906, 1.3164062, 0.2697754, 0.79248047, -1.4375, 2.5703125, 1.0458984, 0.5878906, -0.14868164, -0.51416016, -1.1660156, -1.6962891, -0.22790527, -0.11254883, -0.088256836, 0.6152344, -0.671875, -1.1708984, 0.49804688, -1.3251953, -1.6152344, 0.62060547, 1.6191406, -0.59716797, -3.1386719, 1.9394531, 0.5546875, -0.46557617, 0.79248047, -0.50097656, 0.3317871, 0.94873047, -1.4267578, -2.1269531, -4.2265625, 1.7451172, 0.1348877, 1.2910156, -0.10986328, 0.89697266, 0.008163452, -2.8320312, 0.61083984, 0.26342773, -1.0146484, -0.8564453, 0.32080078, -1.3789062, 0.2866211, -2.2695312, 0.17041016, -1.2539062, -1.2148438, -1.9707031, 0.7729492, -0.5942383, 0.42016602, -0.7290039, 0.72021484, 0.94970703, -0.49829102, 0.8691406, 0.68359375, 0.2088623, -0.81152344, 1.0595703, 3.1074219, 0.22729492, -1.4072266, -1.7373047, -1.2373047, 1.0898438, -1.5488281, 1.2851562, -1.7792969, -0.5463867, 0.3203125, 1.953125, -0.13696289, 0.058746338, 0.7919922, 0.5966797, 0.78515625, -1.8505859, 0.55322266, 0.21179199, -0.78564453, -1.4716797, 0.85302734, 1.359375, 0.56640625, 0.9458008, -1.2363281, -0.47680664, -2.1660156, -1.5566406, -0.72998047, 0.890625, -0.4885254, 0.5732422, 2.2773438, -0.41601562, -0.3852539, -1.6318359, -1.1582031, 0.06976318, -1.796875, -0.9584961, 1.9609375, -0.12963867, 0.49804688, -0.3671875, 1.4492188, 0.35986328, -2.2050781, 0.24243164, 1.78125, -0.71972656, 0.3190918, -1.4921875, 0.4572754, -2.6035156, -0.13134766, 1.6621094, -1.0849609, 1.0888672, 0.61328125, -0.45263672, 0.10284424, -0.06842041, -0.78759766, 1.0058594, -0.8330078, 0.53466797, -1.0439453, -1.0742188, 0.8959961, -2.1132812, -0.6333008, 0.38354492, -1.7060547, 4.1953125, 0.7109375, 0.30273438, -0.7319336, -0.045715332, -0.82373047, 1.0068359, 0.46313477, 0.6459961, 0.118896484, -2.6992188, -0.6660156, -6.375, -1.0986328, 0.875, 2.53125, -0.20471191, 1.4902344, -1.4609375, 0.06793213, -0.6176758, 0.40600586, -2.8984375, 0.5053711, 2.5488281, 1.6503906, 0.3010254, 2.0078125, -0.038513184, 0.18237305, -2.1523438, -2.2734375, -2.0800781, 2.9394531, -1.9511719, 1.8476562, 0.24572754, 0.13208008, 1.5605469, -1.2382812, 0.15612793, 0.53027344, 2.2109375, -0.7451172, 2.5078125, -0.91796875, -0.080078125, -0.0473938, -0.22790527, 1.921875, 0.58154297, -1.1699219, -0.10620117, -1.1191406, -2.2792969, 0.009559631, -1.7236328, 2.4589844, 1.6464844, 1.9189453, -0.21936035, -1.4677734, -0.7573242, -0.59472656, 0.13793945, 0.62939453, 0.099365234, 1.8378906, 0.28588867, -0.07885742, -0.07885742, -0.06604004, 0.7421875, 0.2364502, -0.54785156, 1.7382812, 0.5786133, 1.0908203, -0.043518066, -0.07409668, -1.2304688, -1.0839844, -1.2753906, -0.24243164, 1.1044922, 0.2088623, -1.4306641, -0.42016602, -1.5332031, 0.11920166, 0.5595703, -0.15515137, 0.12451172, 0.21350098, -0.29418945, 1.7041016, -0.4716797, 0.23376465, 0.5395508, -0.3317871, 1.6367188, 1.0556641, 0.50390625, 0.9511719, 2.265625, 2.6738281, 0.8232422, 0.36791992, -0.67871094, 0.80371094, 0.94384766, -2.2832031, 0.7285156, -1.0595703, -0.9267578, 0.49926758, -3.0917969, -2.8359375, -0.1776123, 0.35546875, -0.0446167, 2.1679688, 0.9838867, -1.1230469, 0.71191406, -2.9257812, -1.0263672, -0.19750977, -0.42822266, 2.7773438, -2.1660156, 0.085876465, -1.1005859, 2.3886719, -1.2919922, 1.6015625, -0.71240234, -0.7910156, 0.05316162, 1.0068359, 1.6962891, -0.5151367, -1.6835938, 0.28076172, 0.3647461, -2.140625, 0.875, 0.39770508, 0.32592773, 0.7553711, -0.03475952, -0.57714844, -1.1210938, 0.90185547, 0.08062744, 0.29882812, 1.0693359, 1.9208984, -0.10461426, -1.2490234, -0.23706055, -0.23583984, -2.0195312, 0.0463562, 0.3449707, 1.3320312, 0.13208008, -0.4560547, -2.5078125, -2.9941406, -0.6958008, -2.9375, 0.095336914, 0.18981934, 1.828125, -0.8798828, 0.23474121, 1.4716797, -1.6855469, -0.6069336, 0.6870117, 0.22680664, 0.7470703, -0.8520508, 1.4189453, -1.7597656, -0.9814453, 1.3671875, 2.8613281, -1.0683594, -0.08929443, -0.41064453, -0.43017578, -1.3710938, -0.86376953, -0.2927246, -0.4663086, -2.1484375, -1.3105469, 2.703125, -1.7089844, 0.62402344, 1.4208984, -0.14038086, 1.1757812, -0.22680664, -0.48608398, -1.7333984, -0.8100586, -0.12207031, 1.8632812, -0.7011719, -1.1796875, -1.2519531, -0.5, -1.2617188, 1.0224609, -1.5556641, -0.5395508, 0.38427734, -2.4882812, -0.71972656, -0.37597656, 0.93115234, 0.58740234, 0.123291016, -1.1582031, -0.3359375, 0.203125, 0.28710938, -1.7353516, -0.20678711, 1.3701172, 0.2286377, -0.1385498, -0.36889648, 0.9794922, -1.4482422, 0.9667969, -0.4013672, -0.46435547, 1.5205078, 1.4443359, -0.15026855, 2.5917969, 1.6376953, 2.4667969, -0.24169922, -0.25170898, 2.7207031, 0.5649414, -0.012458801, 0.55615234, 2.1230469, 1.5458984, 1.4375, 2.0292969, 0.52246094, 1.2998047, 0.8305664, 1.1416016, 1.2041016, 0.92041016, 0.22766113, 1.0722656, 1.6552734, 0.13256836, -0.39404297, 1.0556641, 1.4697266, -0.7993164, 0.1550293, -1.3896484, 0.35791016, 0.3076172, -1.3476562, -2.40625, 0.29736328, -0.38598633, -0.16259766, -1.640625, -1.0361328, -2.640625, -1.7675781, 0.4309082, 1.2167969, -3.9609375, -1.0947266, 0.5205078, 1.3828125, -0.28564453, -1.7158203, -0.4404297, 0.45947266, -2.0234375, -0.7919922, 1.5527344, -0.18652344, -0.0680542, -0.82470703, -0.40771484, -1.671875, -0.1586914, -1.4960938, -0.2709961, -1.1513672, 0.7573242, -0.37451172, -1.2294922, -0.3557129, -2.1054688, -0.5317383, -0.29467773, -0.16784668, -0.5004883, 0.1517334, -1.6191406, 0.072265625, 0.28808594, 1.3652344, -0.86865234, -0.9819336, 2.0800781, 0.9746094, 0.020202637, -1.2392578, 0.8095703, -0.26879883, -0.34423828, -1.1318359, 0.86376953, -0.20837402, 0.44482422, -1.3476562, 2.2929688, -4.1007996e-05, -0.6557617, 0.6455078, -0.5917969, -0.5258789, 0.9243164, 0.625, 1.5146484, -0.17089844, -0.9091797, -0.6088867, 0.17053223, 1.703125, -1.7910156, -2.4023438, -0.099975586, 0.70996094, -0.76416016, -0.67089844, 0.42163086, 1.2568359, -1.1669922, 3.1972656, 1.7089844, 1.4794922, 1.2958984, 1.8134766, 0.5527344, -0.53466797, 1.8818359, 0.5751953, 1.2382812, -1.3623047, -0.028381348, -1.5166016, -0.9794922, 0.32983398, 0.2734375, 0.08459473, 0.44433594, -0.73876953, -1.0869141, -2.0625, 1.0898438, 0.1529541, -0.8232422, -1.1591797, -1.1181641, 1.7890625, 1.1572266, -0.32983398, -0.07745361, -0.05114746, -2.0214844, -1.9287109, 0.08666992, 1.8554688, -0.87890625, -1.9560547, -1.5664062, -0.17834473, -1.3554688, -1.6552734, 0.3684082, -0.3515625, 0.22851562, 0.38354492, 0.92041016, 0.113708496, -1.03125, 1.7451172, 1.1855469, -0.48339844, 0.25976562, -0.61621094, -0.072631836, -0.33666992, 0.5878906, -2.3476562, -0.47729492, 0.45654297, 0.44677734, 0.38793945, 0.15270996, 0.15222168, 0.4724121, 1.7958984, -0.19262695, -2.1210938, 0.8359375, 2.2792969, 0.22521973, 0.26831055, 0.4729004, 0.68408203, 0.4572754, -1.5957031, -0.4165039, 0.8383789, 0.06359863, -1.3046875, 0.1887207, -0.16113281, -0.08703613, 0.62158203, 0.89453125, -1.1552734, -0.2548828, -0.31860352, -0.49682617, -1.7109375, -0.2479248, -1.3378906, 0.0758667, -0.11932373, -1.0605469, -1.6689453, 0.98046875, -0.62060547, 0.7993164, 1.9111328, -0.11077881, -1.8144531, 0.027923584, 0.20922852, 0.32739258, -1.0097656, -1.1240234, -2.0253906, 0.68847656, 0.05291748, -0.88623047, -1.6601562, 0.2475586, 0.9267578, -0.5083008, -0.31201172, -0.8222656, -1.1904297, 0.7265625, -0.082458496, -2.5527344, -0.94873047, 0.75146484, 2.1113281, 2.1269531, -0.6791992, -1.4287109, 0.63964844, -1.8232422, 1.0751953, -0.28710938, -0.40576172, -1.4023438, -2.3515625, -0.3371582, 0.40673828, 0.074645996, -0.9277344, 0.9121094, 0.72021484, -0.7734375, -0.64208984, 0.49316406, 3.0664062, -0.81152344, 0.41601562, -0.6904297, -0.60058594, 1.7080078, -1.4501953, 0.85302734, -0.31933594, 0.3996582, -1.6132812, -1.8457031, -0.26879883, 0.26171875, -1.8525391, 0.31420898, 0.9350586, -0.5229492, 2.21875, -0.2368164, -0.48168945, 0.057281494, 1.1035156, -0.67529297, 1.1542969, 1.8359375, 2.8632812, -0.92285156, 1.2890625, -2.0800781, 0.6816406, -0.23010254, -0.71875, 0.5292969, -1.3408203, -0.45263672, 1.7910156, -2.375, -0.4091797, -1.6015625, 0.3815918, -1.7763672, 0.890625, 2.1386719, -1.9951172, 0.09185791, 1.0361328, 0.8618164, -2.2539062, 1.8017578, 0.26489258, -0.7836914, 1.703125, 2.2617188, 0.2368164, -2.5878906, -1.1035156, 2.2636719, -1.7353516, -0.35766602, -0.45947266, 0.74902344, 1.9785156,